--- a/0273NYP - New York Premier/Premier_Pricing_Model.xlsx
+++ b/0273NYP - New York Premier/Premier_Pricing_Model.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="0" windowWidth="13680" windowHeight="13890"/>
+    <workbookView xWindow="1395" yWindow="0" windowWidth="13680" windowHeight="13890" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="2" r:id="rId1"/>
@@ -237,9 +237,6 @@
     <t>Annual PMPM Add-on Data Fees (with implicit forces):</t>
   </si>
   <si>
-    <t>PRM Increase on PMPM Add-on fees:</t>
-  </si>
-  <si>
     <t>Annual PMPM Add-on Product Fees (Marginal over data fees)</t>
   </si>
   <si>
@@ -322,9 +319,6 @@
   </si>
   <si>
     <t>Existing Collaborative Discount</t>
-  </si>
-  <si>
-    <t>PMPM Add-Ons</t>
   </si>
   <si>
     <t>25k-50k</t>
@@ -457,6 +451,12 @@
   </si>
   <si>
     <t>Frequency Multiplier</t>
+  </si>
+  <si>
+    <t>PMPY Add-Ons</t>
+  </si>
+  <si>
+    <t>PRM Increase on PMPY Add-on fees:</t>
   </si>
 </sst>
 </file>
@@ -1192,7 +1192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -1211,7 +1211,7 @@
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B1" s="91" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C1" s="70">
         <v>43101</v>
@@ -1219,7 +1219,7 @@
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="67" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" s="71">
         <v>36</v>
@@ -1227,29 +1227,29 @@
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="67" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="68"/>
       <c r="C4" s="72"/>
       <c r="D4" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="G4" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="H4" s="14" t="s">
         <v>110</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1271,7 +1271,7 @@
     </row>
     <row r="6" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="69" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D6" s="55" t="s">
         <v>29</v>
@@ -1314,12 +1314,12 @@
       <c r="G8" s="55"/>
       <c r="H8" s="56"/>
       <c r="L8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="69" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D9" s="55">
         <v>1</v>
@@ -1331,12 +1331,12 @@
       <c r="G9" s="55"/>
       <c r="H9" s="56"/>
       <c r="L9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="69" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D10" s="55" t="s">
         <v>29</v>
@@ -1420,7 +1420,7 @@
     </row>
     <row r="16" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="69" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D16" s="55" t="s">
         <v>29</v>
@@ -1532,7 +1532,7 @@
     </row>
     <row r="24" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="69" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D24" s="55" t="s">
         <v>3</v>
@@ -1546,7 +1546,7 @@
     </row>
     <row r="25" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="92" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C25" s="93"/>
       <c r="D25" s="94" t="s">
@@ -1581,7 +1581,7 @@
   <dimension ref="B2:U45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="C42" sqref="C42"/>
@@ -1602,19 +1602,19 @@
   <sheetData>
     <row r="2" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" t="s">
         <v>108</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>109</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>110</v>
-      </c>
-      <c r="G2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.25">
@@ -1888,7 +1888,7 @@
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C13" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D13" s="18">
         <f>SUM(Calcs!D44, Calcs!D56)</f>
@@ -2173,7 +2173,7 @@
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D23" s="1">
         <f>SUM(Calcs!D66, Calcs!D75)</f>
@@ -2208,7 +2208,7 @@
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D24" s="1">
         <f>SUM(Calcs!D67, Calcs!D76)</f>
@@ -2243,7 +2243,7 @@
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D25" s="1">
         <f>SUM(Calcs!D68, Calcs!D77)</f>
@@ -2318,7 +2318,7 @@
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D29" s="1">
         <f>Calcs!D106</f>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D30" s="1">
         <f>Calcs!D108</f>
@@ -2430,7 +2430,7 @@
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
@@ -2456,7 +2456,7 @@
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D37" s="7">
         <f>(D32/12*Inputs!$C$2+D4)*$C$35</f>
@@ -2503,7 +2503,7 @@
     </row>
     <row r="40" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="2:21" x14ac:dyDescent="0.25">
@@ -2548,10 +2548,10 @@
   <dimension ref="B1:N70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D57" sqref="D57"/>
+      <selection pane="bottomRight" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2573,7 +2573,7 @@
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F1" s="50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G1" s="50"/>
       <c r="H1" s="50"/>
@@ -2590,10 +2590,10 @@
         <v>42</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J2" s="9"/>
       <c r="K2" s="9" t="s">
@@ -2603,10 +2603,10 @@
         <v>42</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
@@ -2616,7 +2616,7 @@
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D4" s="1">
         <f>SUMIF(Inputs!$D$5:$H$5, "Y", Outputs_External!D4:'Outputs_External'!H4)</f>
@@ -2655,7 +2655,7 @@
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D5" s="1">
         <f>SUMIF(Inputs!$D$5:$H$5, "N", Outputs_External!D4:'Outputs_External'!H4)</f>
@@ -2944,7 +2944,7 @@
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C14" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D14" s="18">
         <f>SUM(Calcs!D20:H20)</f>
@@ -3105,7 +3105,7 @@
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="G19" s="48" t="s">
-        <v>56</v>
+        <v>129</v>
       </c>
       <c r="H19" s="10">
         <v>0.1</v>
@@ -3387,7 +3387,7 @@
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C28" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D28" s="18">
         <f>SUM(Calcs!D32:H32)</f>
@@ -3724,7 +3724,7 @@
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C38" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D38" s="20">
         <f>SUM(Calcs!D84:H84)</f>
@@ -3762,7 +3762,7 @@
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C39" s="19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D39" s="20">
         <f>SUM(Calcs!D85:H85)</f>
@@ -3800,7 +3800,7 @@
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C40" s="81" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D40" s="84">
         <f>SUM(Calcs!D86:H86)</f>
@@ -3843,7 +3843,7 @@
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
@@ -4015,7 +4015,7 @@
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C47" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D47" s="20">
         <f>SUM(Calcs!D93:H93)</f>
@@ -4055,7 +4055,7 @@
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C48" s="19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D48" s="20">
         <f>SUM(Calcs!D94:H94)</f>
@@ -4095,7 +4095,7 @@
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C49" s="81" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D49" s="84">
         <f>SUM(Calcs!D95:H95)</f>
@@ -4189,7 +4189,7 @@
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D53" s="1">
         <f>SUM(Outputs_External!D29:'Outputs_External'!H29)</f>
@@ -4230,7 +4230,7 @@
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D54" s="1">
         <f>Outputs_External!D30</f>
@@ -4298,7 +4298,7 @@
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C57" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D57" s="23">
         <f>SUM(K56:N56)</f>
@@ -4315,7 +4315,7 @@
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D59" s="1">
         <f>SUM(Outputs_Timeline!S:S)</f>
@@ -4557,7 +4557,7 @@
     <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="27"/>
       <c r="C68" s="21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D68" s="23">
         <f>SUM(Calcs!D66:H66)+SUM(Calcs!D75:H75)</f>
@@ -4601,7 +4601,7 @@
     <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="27"/>
       <c r="C69" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D69" s="23">
         <f>SUM(Calcs!D67:H67)+SUM(Calcs!D76:H76)</f>
@@ -4645,7 +4645,7 @@
     <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="27"/>
       <c r="C70" s="21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D70" s="23">
         <f>SUM(Calcs!D68:H68)+SUM(Calcs!D77:H77)</f>
@@ -4728,20 +4728,20 @@
         <v>36</v>
       </c>
       <c r="H1" s="61" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I1" s="61"/>
       <c r="J1" s="61"/>
       <c r="K1" s="61"/>
       <c r="M1" s="61" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N1" s="61"/>
       <c r="O1" s="61"/>
       <c r="P1" s="61"/>
       <c r="Q1" s="61"/>
       <c r="S1" s="61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T1" s="61"/>
       <c r="U1" s="61"/>
@@ -4749,60 +4749,60 @@
     </row>
     <row r="2" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B2" s="59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" s="59"/>
       <c r="D2" s="59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E2" s="59" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F2" s="59" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G2" s="59"/>
       <c r="H2" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="62" t="s">
         <v>65</v>
-      </c>
-      <c r="I2" s="62" t="s">
-        <v>66</v>
       </c>
       <c r="J2" s="62" t="s">
         <v>42</v>
       </c>
       <c r="K2" s="62" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M2" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="N2" s="62" t="s">
         <v>65</v>
-      </c>
-      <c r="N2" s="62" t="s">
-        <v>66</v>
       </c>
       <c r="O2" s="62" t="s">
         <v>42</v>
       </c>
       <c r="P2" s="62" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q2" s="62" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S2" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="T2" s="62" t="s">
         <v>65</v>
-      </c>
-      <c r="T2" s="62" t="s">
-        <v>66</v>
       </c>
       <c r="U2" s="62" t="s">
         <v>42</v>
       </c>
       <c r="V2" s="62" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W2" s="62" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
@@ -11608,19 +11608,19 @@
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" t="s">
         <v>108</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>109</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>110</v>
-      </c>
-      <c r="G2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H2" t="s">
-        <v>112</v>
       </c>
       <c r="K2" s="21" t="s">
         <v>31</v>
@@ -11675,18 +11675,18 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="K5" s="22" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L5" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="M5" s="22" t="s">
         <v>94</v>
-      </c>
-      <c r="M5" s="22" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6" s="5">
         <f>IF(Inputs!D$5="N",MIN(MAX(Inputs!D$8-$K6,0),$L6-$K6),0)</f>
@@ -11720,7 +11720,7 @@
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D7" s="5">
         <f>IF(Inputs!D$5="N",MIN(MAX(Inputs!D$8-$K7,0),$L7-$K7),0)</f>
@@ -11755,7 +11755,7 @@
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D8" s="5">
         <f>IF(Inputs!D$5="N",MIN(MAX(Inputs!D$8-$K8,0),$L8-$K8),0)</f>
@@ -11790,7 +11790,7 @@
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D9" s="5">
         <f>IF(Inputs!D$5="N",MIN(MAX(Inputs!D$8-$K9,0),$L9-$K9),0)</f>
@@ -11825,7 +11825,7 @@
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C10" s="78" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D10" s="79">
         <f>IFERROR(SUMPRODUCT(D6:D9,$M$6:$M$9)/SUM(D6:D9),0)</f>
@@ -11850,7 +11850,7 @@
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C11" s="78" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D11" s="80">
         <f>SUM(D6:D9)</f>
@@ -12037,7 +12037,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C20" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D20" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!D16="Y",Inputs!D$21="Y"), Prices!$C15, 0)</f>
@@ -12292,7 +12292,7 @@
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C32" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D32" s="18">
         <f>IF(OR(Inputs!D$5="Y", D$11 = 0), 0, IF(OR(Inputs!D16="Y",Inputs!D$21="Y"),PRODUCT(D$11, Prices!$E15),0))*D$10</f>
@@ -12549,7 +12549,7 @@
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C44" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D44" s="18">
         <f>IF(AND(Inputs!D16="Y",Inputs!D$21="N"),Prices!$C15,0)</f>
@@ -12804,7 +12804,7 @@
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C56" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D56" s="18">
         <f>IF(OR(Inputs!D$5="Y", D$11 = 0), 0, IF(AND(Inputs!D16="Y",Inputs!D$21="N"),PRODUCT(D$11, Prices!$E15)*D$10,0))</f>
@@ -13004,7 +13004,7 @@
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C66" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D66" s="20">
         <f>IF(Inputs!D24="Y", Prices!$C24 * IF(Inputs!D23="Y",1-Prices!$L$20,1), 0)</f>
@@ -13029,7 +13029,7 @@
     </row>
     <row r="67" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C67" s="19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D67" s="20">
         <f>IF(Inputs!D25="Y", Prices!$C25, 0)</f>
@@ -13054,7 +13054,7 @@
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C68" s="81" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D68" s="84">
         <f>IF(Inputs!D10="Y", Prices!$C26, 0)</f>
@@ -13082,7 +13082,7 @@
         <v>46</v>
       </c>
       <c r="J70" s="89" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="71" spans="2:15" x14ac:dyDescent="0.25">
@@ -13277,7 +13277,7 @@
     </row>
     <row r="75" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C75" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D75" s="20">
         <f>IF(Inputs!D$5="Y", 0, IF(D$11 = "", 0, IF(Inputs!D24 = "Y", D$11*Prices!$E24 * IF(Inputs!D23="Y",1-Prices!$L$20,1), 0)))*D$10</f>
@@ -13326,7 +13326,7 @@
     </row>
     <row r="76" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C76" s="19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D76" s="20">
         <f>IF(Inputs!D$5="Y", 0, IF(D$11 = "", 0, IF(Inputs!D25 = "Y", D$11*Prices!$E25, 0)))*D$10</f>
@@ -13375,7 +13375,7 @@
     </row>
     <row r="77" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C77" s="81" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D77" s="84">
         <f>IF(Inputs!D$5="Y", 0, IF(D$11 = "", 0, IF(Inputs!D10 = "Y", D$11*Prices!$E26, 0)))*D$10</f>
@@ -13616,7 +13616,7 @@
     </row>
     <row r="84" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C84" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D84" s="20">
         <f t="shared" ref="D84:H84" si="15">D66</f>
@@ -13661,7 +13661,7 @@
     </row>
     <row r="85" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C85" s="19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D85" s="20">
         <f t="shared" ref="D85:H85" si="17">D67</f>
@@ -13706,7 +13706,7 @@
     </row>
     <row r="86" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C86" s="81" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D86" s="84">
         <f t="shared" ref="D86:H86" si="19">D68</f>
@@ -13851,7 +13851,7 @@
     </row>
     <row r="93" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C93" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D93" s="20">
         <f t="shared" ref="D93:H93" si="21">D75</f>
@@ -13876,7 +13876,7 @@
     </row>
     <row r="94" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C94" s="19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D94" s="20">
         <f t="shared" ref="D94:H94" si="22">D76</f>
@@ -13901,7 +13901,7 @@
     </row>
     <row r="95" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C95" s="81" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D95" s="84">
         <f t="shared" ref="D95:H95" si="23">D77</f>
@@ -13990,7 +13990,7 @@
         <v>4</v>
       </c>
       <c r="C100" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D100" s="1">
         <f>_xlfn.IFNA(SUM(INDEX(D$62:D$68, MATCH($A100, K$80:K$86, 0)), INDEX(D$71:D$77, MATCH($A100, K$80:K$86, 0)))*Prices!$L$6*-1, 0)</f>
@@ -14018,7 +14018,7 @@
         <v>5</v>
       </c>
       <c r="C101" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D101" s="1">
         <f>_xlfn.IFNA(SUM(INDEX(D$62:D$68, MATCH($A101, K$80:K$86, 0)), INDEX(D$71:D$77, MATCH($A101, K$80:K$86, 0)))*Prices!$L$6*-1, 0)</f>
@@ -14046,7 +14046,7 @@
         <v>6</v>
       </c>
       <c r="C102" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D102" s="1">
         <f>_xlfn.IFNA(SUM(INDEX(D$62:D$68, MATCH($A102, K$80:K$86, 0)), INDEX(D$71:D$77, MATCH($A102, K$80:K$86, 0)))*Prices!$L$6*-1, 0)</f>
@@ -14071,7 +14071,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B104" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D104" s="7">
         <f>SUM(D38:D47, D50:D59, D62:D68, D71:D77, D98:D102)</f>
@@ -14131,7 +14131,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B108" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D108" s="1">
         <f>IF(Inputs!$D$6 = "Y", Prices!$L$18, 0)*-1</f>
@@ -14152,7 +14152,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B110" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D110" s="7">
         <f>SUM(D104, D106)</f>
@@ -14178,7 +14178,7 @@
     <row r="113" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B113" s="27"/>
       <c r="C113" s="21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D113" s="21">
         <f>IFERROR(_xlfn.RANK.EQ(D104,$D$104:$H$104),5)</f>
@@ -14271,13 +14271,13 @@
     <row r="118" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B118" s="27"/>
       <c r="C118" s="21" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="119" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B119" s="27"/>
       <c r="D119" s="21" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E119" s="23">
         <f>INDEX($D$104:$H$104, 1, MATCH(2, $D$116:$H$116, 0))*Prices!$L$10*-1</f>
@@ -14287,7 +14287,7 @@
     <row r="120" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B120" s="27"/>
       <c r="D120" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E120" s="23">
         <f>INDEX($D$104:$H$104, 1, MATCH(3, $D$116:$H$116, 0))*Prices!$L$11*-1</f>
@@ -14297,7 +14297,7 @@
     <row r="121" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B121" s="27"/>
       <c r="D121" s="21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E121" s="23">
         <f>INDEX($D$104:$H$104, 1, MATCH(4, $D$116:$H$116, 0))*Prices!$L$11*-1</f>
@@ -14307,7 +14307,7 @@
     <row r="122" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B122" s="27"/>
       <c r="D122" s="21" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E122" s="23">
         <f>INDEX($D$104:$H$104, 1, MATCH(5, $D$116:$H$116, 0))*Prices!$L$11*-1</f>
@@ -14327,7 +14327,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14352,7 +14354,7 @@
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C3" s="1">
         <v>5000</v>
@@ -14379,7 +14381,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="F4" s="76">
         <v>0.6</v>
@@ -14399,16 +14401,16 @@
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E5" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="F5" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="G5" s="48" t="s">
-        <v>88</v>
-      </c>
       <c r="H5" s="48" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K5" t="s">
         <v>26</v>
@@ -14456,7 +14458,7 @@
       <c r="C8" s="43"/>
       <c r="D8" s="39"/>
       <c r="K8" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
@@ -14468,7 +14470,7 @@
       <c r="G9" s="47"/>
       <c r="H9" s="47"/>
       <c r="K9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
@@ -14499,7 +14501,7 @@
         <v>9.6000000000000009E-3</v>
       </c>
       <c r="K10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L10" s="3">
         <v>0.45</v>
@@ -14530,7 +14532,7 @@
         <v>1.4000000000000002E-2</v>
       </c>
       <c r="K11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L11" s="3">
         <v>0.5</v>
@@ -14612,7 +14614,7 @@
         <v>1.4000000000000002E-2</v>
       </c>
       <c r="K14" s="58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L14" s="57">
         <v>1.2500000000000001E-2</v>
@@ -14620,7 +14622,7 @@
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C15" s="44">
         <f>$L$25*4000</f>
@@ -14643,7 +14645,7 @@
         <v>1.4000000000000002E-2</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L15" s="54">
         <v>43466</v>
@@ -14726,7 +14728,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L18" s="1">
         <v>3525</v>
@@ -14764,7 +14766,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L20" s="3">
         <v>0.3</v>
@@ -14845,7 +14847,7 @@
         <v>0.05</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L23" s="96">
         <f>18000/15000</f>
@@ -14854,7 +14856,7 @@
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C24" s="45">
         <v>33600</v>
@@ -14877,7 +14879,7 @@
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C25" s="45">
         <f>$L$25*20000</f>
@@ -14900,7 +14902,7 @@
         <v>3.3600000000000005E-2</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L25" s="97">
         <f>IF(Inputs!$C$3="Monthly",Prices!$L$23,1)</f>
@@ -14909,7 +14911,7 @@
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="81" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C26" s="82">
         <f>$L$25*6750</f>

--- a/0273NYP - New York Premier/Premier_Pricing_Model.xlsx
+++ b/0273NYP - New York Premier/Premier_Pricing_Model.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason.Altieri\repos\client-and-project-documentation\0273NYP - New York Premier\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason.altieri\repos\client-and-project-documentation\0273NYP - New York Premier\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="0" windowWidth="13680" windowHeight="13890" activeTab="5"/>
+    <workbookView xWindow="1395" yWindow="0" windowWidth="13680" windowHeight="13890"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="ACOInsight1">Inputs!$D$20:$D$21</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Outputs_Internal!$B$1:$M$60</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Outputs_Internal!$B$1:$M$62</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="132">
   <si>
     <t>One-Time Fees:</t>
   </si>
@@ -458,6 +458,12 @@
   <si>
     <t>PRM Increase on PMPY Add-on fees:</t>
   </si>
+  <si>
+    <t>PRM Caregiver's Checklist</t>
+  </si>
+  <si>
+    <t>7th Most Expensive Product</t>
+  </si>
 </sst>
 </file>
 
@@ -729,7 +735,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -896,6 +902,7 @@
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1190,13 +1197,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L25"/>
+  <dimension ref="B1:L26"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1507,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="D22" s="55" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E22" s="55" t="s">
         <v>29</v>
@@ -1518,13 +1525,13 @@
     </row>
     <row r="23" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="69" t="s">
-        <v>17</v>
+        <v>130</v>
       </c>
       <c r="D23" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="55" t="s">
         <v>3</v>
-      </c>
-      <c r="E23" s="55" t="s">
-        <v>29</v>
       </c>
       <c r="F23" s="55"/>
       <c r="G23" s="55"/>
@@ -1532,10 +1539,10 @@
     </row>
     <row r="24" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="69" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="D24" s="55" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E24" s="55" t="s">
         <v>29</v>
@@ -1545,23 +1552,37 @@
       <c r="H24" s="56"/>
     </row>
     <row r="25" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="92" t="s">
+      <c r="B25" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="56"/>
+    </row>
+    <row r="26" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="92" t="s">
         <v>99</v>
       </c>
-      <c r="C25" s="93"/>
-      <c r="D25" s="94" t="s">
+      <c r="C26" s="93"/>
+      <c r="D26" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="94" t="s">
+      <c r="E26" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="F25" s="94"/>
-      <c r="G25" s="94"/>
-      <c r="H25" s="95"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="94"/>
+      <c r="H26" s="95"/>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:H23 D5:H7 D24:D25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:H24 D5:H7 D25:D26">
       <formula1>$L$5:$L$6</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:H9">
@@ -1578,13 +1599,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:U45"/>
+  <dimension ref="B2:U46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C42" sqref="C42"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2036,23 +2057,23 @@
         <v>14</v>
       </c>
       <c r="D19" s="1">
-        <f>SUM(Calcs!D62, Calcs!D71)</f>
+        <f>SUM(Calcs!D62, Calcs!D72)</f>
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <f>SUM(Calcs!E62, Calcs!E71)</f>
+        <f>SUM(Calcs!E62, Calcs!E72)</f>
         <v>0</v>
       </c>
       <c r="F19" s="1">
-        <f>SUM(Calcs!F62, Calcs!F71)</f>
+        <f>SUM(Calcs!F62, Calcs!F72)</f>
         <v>0</v>
       </c>
       <c r="G19" s="1">
-        <f>SUM(Calcs!G62, Calcs!G71)</f>
+        <f>SUM(Calcs!G62, Calcs!G72)</f>
         <v>0</v>
       </c>
       <c r="H19" s="1">
-        <f>SUM(Calcs!H62, Calcs!H71)</f>
+        <f>SUM(Calcs!H62, Calcs!H72)</f>
         <v>0</v>
       </c>
       <c r="I19" s="1"/>
@@ -2071,23 +2092,23 @@
         <v>15</v>
       </c>
       <c r="D20" s="1">
-        <f>SUM(Calcs!D63, Calcs!D72)</f>
+        <f>SUM(Calcs!D63, Calcs!D73)</f>
         <v>0</v>
       </c>
       <c r="E20" s="1">
-        <f>SUM(Calcs!E63, Calcs!E72)</f>
+        <f>SUM(Calcs!E63, Calcs!E73)</f>
         <v>0</v>
       </c>
       <c r="F20" s="1">
-        <f>SUM(Calcs!F63, Calcs!F72)</f>
+        <f>SUM(Calcs!F63, Calcs!F73)</f>
         <v>0</v>
       </c>
       <c r="G20" s="1">
-        <f>SUM(Calcs!G63, Calcs!G72)</f>
+        <f>SUM(Calcs!G63, Calcs!G73)</f>
         <v>0</v>
       </c>
       <c r="H20" s="1">
-        <f>SUM(Calcs!H63, Calcs!H72)</f>
+        <f>SUM(Calcs!H63, Calcs!H73)</f>
         <v>0</v>
       </c>
       <c r="I20" s="1"/>
@@ -2106,23 +2127,23 @@
         <v>16</v>
       </c>
       <c r="D21" s="1">
-        <f>SUM(Calcs!D64, Calcs!D73)</f>
-        <v>0</v>
+        <f>SUM(Calcs!D64, Calcs!D74)</f>
+        <v>42000</v>
       </c>
       <c r="E21" s="1">
-        <f>SUM(Calcs!E64, Calcs!E73)</f>
+        <f>SUM(Calcs!E64, Calcs!E74)</f>
         <v>0</v>
       </c>
       <c r="F21" s="1">
-        <f>SUM(Calcs!F64, Calcs!F73)</f>
+        <f>SUM(Calcs!F64, Calcs!F74)</f>
         <v>0</v>
       </c>
       <c r="G21" s="1">
-        <f>SUM(Calcs!G64, Calcs!G73)</f>
+        <f>SUM(Calcs!G64, Calcs!G74)</f>
         <v>0</v>
       </c>
       <c r="H21" s="1">
-        <f>SUM(Calcs!H64, Calcs!H73)</f>
+        <f>SUM(Calcs!H64, Calcs!H74)</f>
         <v>0</v>
       </c>
       <c r="I21" s="1"/>
@@ -2138,26 +2159,26 @@
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>17</v>
+        <v>130</v>
       </c>
       <c r="D22" s="1">
-        <f>SUM(Calcs!D65, Calcs!D74)</f>
-        <v>33600</v>
+        <f>SUM(Calcs!D65, Calcs!D75)</f>
+        <v>0</v>
       </c>
       <c r="E22" s="1">
-        <f>SUM(Calcs!E65, Calcs!E74)</f>
-        <v>0</v>
+        <f>SUM(Calcs!E65, Calcs!E75)</f>
+        <v>80220</v>
       </c>
       <c r="F22" s="1">
-        <f>SUM(Calcs!F65, Calcs!F74)</f>
+        <f>SUM(Calcs!F65, Calcs!F75)</f>
         <v>0</v>
       </c>
       <c r="G22" s="1">
-        <f>SUM(Calcs!G65, Calcs!G74)</f>
+        <f>SUM(Calcs!G65, Calcs!G75)</f>
         <v>0</v>
       </c>
       <c r="H22" s="1">
-        <f>SUM(Calcs!H65, Calcs!H74)</f>
+        <f>SUM(Calcs!H65, Calcs!H75)</f>
         <v>0</v>
       </c>
       <c r="I22" s="1"/>
@@ -2173,26 +2194,26 @@
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="D23" s="1">
-        <f>SUM(Calcs!D66, Calcs!D75)</f>
-        <v>23520</v>
+        <f>SUM(Calcs!D66, Calcs!D76)</f>
+        <v>0</v>
       </c>
       <c r="E23" s="1">
-        <f>SUM(Calcs!E66, Calcs!E75)</f>
+        <f>SUM(Calcs!E66, Calcs!E76)</f>
         <v>0</v>
       </c>
       <c r="F23" s="1">
-        <f>SUM(Calcs!F66, Calcs!F75)</f>
+        <f>SUM(Calcs!F66, Calcs!F76)</f>
         <v>0</v>
       </c>
       <c r="G23" s="1">
-        <f>SUM(Calcs!G66, Calcs!G75)</f>
+        <f>SUM(Calcs!G66, Calcs!G76)</f>
         <v>0</v>
       </c>
       <c r="H23" s="1">
-        <f>SUM(Calcs!H66, Calcs!H75)</f>
+        <f>SUM(Calcs!H66, Calcs!H76)</f>
         <v>0</v>
       </c>
       <c r="I23" s="1"/>
@@ -2208,26 +2229,26 @@
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D24" s="1">
-        <f>SUM(Calcs!D67, Calcs!D76)</f>
+        <f>SUM(Calcs!D67, Calcs!D77)</f>
         <v>0</v>
       </c>
       <c r="E24" s="1">
-        <f>SUM(Calcs!E67, Calcs!E76)</f>
+        <f>SUM(Calcs!E67, Calcs!E77)</f>
         <v>0</v>
       </c>
       <c r="F24" s="1">
-        <f>SUM(Calcs!F67, Calcs!F76)</f>
+        <f>SUM(Calcs!F67, Calcs!F77)</f>
         <v>0</v>
       </c>
       <c r="G24" s="1">
-        <f>SUM(Calcs!G67, Calcs!G76)</f>
+        <f>SUM(Calcs!G67, Calcs!G77)</f>
         <v>0</v>
       </c>
       <c r="H24" s="1">
-        <f>SUM(Calcs!H67, Calcs!H76)</f>
+        <f>SUM(Calcs!H67, Calcs!H77)</f>
         <v>0</v>
       </c>
       <c r="I24" s="1"/>
@@ -2243,26 +2264,26 @@
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D25" s="1">
-        <f>SUM(Calcs!D68, Calcs!D77)</f>
+        <f>SUM(Calcs!D68, Calcs!D78)</f>
         <v>0</v>
       </c>
       <c r="E25" s="1">
-        <f>SUM(Calcs!E68, Calcs!E77)</f>
+        <f>SUM(Calcs!E68, Calcs!E78)</f>
         <v>0</v>
       </c>
       <c r="F25" s="1">
-        <f>SUM(Calcs!F68, Calcs!F77)</f>
+        <f>SUM(Calcs!F68, Calcs!F78)</f>
         <v>0</v>
       </c>
       <c r="G25" s="1">
-        <f>SUM(Calcs!G68, Calcs!G77)</f>
+        <f>SUM(Calcs!G68, Calcs!G78)</f>
         <v>0</v>
       </c>
       <c r="H25" s="1">
-        <f>SUM(Calcs!H68, Calcs!H77)</f>
+        <f>SUM(Calcs!H68, Calcs!H78)</f>
         <v>0</v>
       </c>
       <c r="I25" s="1"/>
@@ -2276,75 +2297,75 @@
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B27" s="6" t="s">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="1">
+        <f>SUM(Calcs!D69, Calcs!D79)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <f>SUM(Calcs!E69, Calcs!E79)</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <f>SUM(Calcs!F69, Calcs!F79)</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <f>SUM(Calcs!G69, Calcs!G79)</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <f>SUM(Calcs!H69, Calcs!H79)</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B28" s="6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="1">
-        <f>SUM(Calcs!D98:D102)</f>
-        <v>-7056</v>
-      </c>
-      <c r="E28" s="1">
-        <f>SUM(Calcs!E98:E102)</f>
-        <v>0</v>
-      </c>
-      <c r="F28" s="1">
-        <f>SUM(Calcs!F98:F102)</f>
-        <v>0</v>
-      </c>
-      <c r="G28" s="1">
-        <f>SUM(Calcs!G98:G102)</f>
-        <v>0</v>
-      </c>
-      <c r="H28" s="1">
-        <f>SUM(Calcs!H98:H102)</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c r="D29" s="1">
-        <f>Calcs!D106</f>
-        <v>-30628.799999999999</v>
+        <f>SUM(Calcs!D102:D106)</f>
+        <v>0</v>
       </c>
       <c r="E29" s="1">
-        <f>Calcs!E106</f>
+        <f>SUM(Calcs!E102:E106)</f>
         <v>0</v>
       </c>
       <c r="F29" s="1">
-        <f>Calcs!F106</f>
+        <f>SUM(Calcs!F102:F106)</f>
         <v>0</v>
       </c>
       <c r="G29" s="1">
-        <f>Calcs!G106</f>
+        <f>SUM(Calcs!G102:G106)</f>
         <v>0</v>
       </c>
       <c r="H29" s="1">
-        <f>Calcs!H106</f>
+        <f>SUM(Calcs!H102:H106)</f>
         <v>0</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="M29" s="1"/>
-      <c r="O29" s="3"/>
+      <c r="O29" s="8"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
       <c r="S29" s="1"/>
@@ -2353,22 +2374,26 @@
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="D30" s="1">
-        <f>Calcs!D108</f>
-        <v>0</v>
+        <f>Calcs!D111</f>
+        <v>-27000</v>
       </c>
       <c r="E30" s="1">
+        <f>Calcs!E111</f>
         <v>0</v>
       </c>
       <c r="F30" s="1">
+        <f>Calcs!F111</f>
         <v>0</v>
       </c>
       <c r="G30" s="1">
+        <f>Calcs!G111</f>
         <v>0</v>
       </c>
       <c r="H30" s="1">
+        <f>Calcs!H111</f>
         <v>0</v>
       </c>
       <c r="I30" s="1"/>
@@ -2382,44 +2407,61 @@
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B32" s="6" t="s">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="1">
+        <f>Calcs!D113</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B33" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="7">
-        <f>SUM(D7:D16, D19:D25, D28:D30)</f>
-        <v>37435.199999999997</v>
-      </c>
-      <c r="E32" s="7">
-        <f>SUM(E7:E16, E19:E25, E28:E29)</f>
-        <v>69400</v>
-      </c>
-      <c r="F32" s="7">
-        <f>SUM(F7:F16, F19:F25, F28:F29)</f>
-        <v>0</v>
-      </c>
-      <c r="G32" s="7">
-        <f>SUM(G7:G16, G19:G25, G28:G29)</f>
-        <v>0</v>
-      </c>
-      <c r="H32" s="7">
-        <f>SUM(H7:H16, H19:H25, H28:H29)</f>
-        <v>0</v>
-      </c>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="M32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
+      <c r="D33" s="7">
+        <f>SUM(D7:D16, D19:D26, D29:D31)</f>
+        <v>33000</v>
+      </c>
+      <c r="E33" s="7">
+        <f>SUM(E7:E16, E19:E26, E29:E30)</f>
+        <v>149620</v>
+      </c>
+      <c r="F33" s="7">
+        <f>SUM(F7:F16, F19:F26, F29:F30)</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="7">
+        <f>SUM(G7:G16, G19:G26, G29:G30)</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="7">
+        <f>SUM(H7:H16, H19:H26, H29:H30)</f>
+        <v>0</v>
+      </c>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
@@ -2429,9 +2471,6 @@
       <c r="U33" s="1"/>
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B34" s="6" t="s">
-        <v>75</v>
-      </c>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
@@ -2441,99 +2480,116 @@
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
       <c r="M34" s="1"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="8"/>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C35" s="64">
+      <c r="B35" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="M35" s="1"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+    </row>
+    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C36" s="64">
         <f>INDEX(Outputs_Timeline!$D$3:$D$94,MATCH(Inputs!$C$1,Outputs_Timeline!$B$3:$B$94,0),1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B37" s="6" t="s">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B38" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D37" s="7">
-        <f>(D32/12*Inputs!$C$2+D4)*$C$35</f>
-        <v>122305.59999999999</v>
-      </c>
-      <c r="E37" s="7">
-        <f>(E32/12*Inputs!$C$2+E4)*$C$35</f>
-        <v>268200</v>
-      </c>
-      <c r="F37" s="7">
-        <f>(F32/12*Inputs!$C$2+F4)*$C$35</f>
-        <v>0</v>
-      </c>
-      <c r="G37" s="7">
-        <f>(G32/12*Inputs!$C$2+G4)*$C$35</f>
-        <v>0</v>
-      </c>
-      <c r="H37" s="7">
-        <f>(H32/12*Inputs!$C$2+H4)*$C$35</f>
-        <v>0</v>
-      </c>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="M37" s="1"/>
-      <c r="S37" s="1"/>
-      <c r="T37" s="1"/>
-      <c r="U37" s="1"/>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="1"/>
-      <c r="S39" s="8"/>
-      <c r="T39" s="8"/>
-      <c r="U39" s="8"/>
+      <c r="D38" s="7">
+        <f>(D33/12*Inputs!$C$2+D4)*$C$36</f>
+        <v>109000</v>
+      </c>
+      <c r="E38" s="7">
+        <f>(E33/12*Inputs!$C$2+E4)*$C$36</f>
+        <v>508860</v>
+      </c>
+      <c r="F38" s="7">
+        <f>(F33/12*Inputs!$C$2+F4)*$C$36</f>
+        <v>0</v>
+      </c>
+      <c r="G38" s="7">
+        <f>(G33/12*Inputs!$C$2+G4)*$C$36</f>
+        <v>0</v>
+      </c>
+      <c r="H38" s="7">
+        <f>(H33/12*Inputs!$C$2+H4)*$C$36</f>
+        <v>0</v>
+      </c>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="M38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
     </row>
     <row r="40" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B40" s="6" t="s">
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="1"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="8"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B41" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C41" s="7">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C42" s="7">
         <f>SUM(Outputs_Timeline!S:S)</f>
-        <v>390505.59999999992</v>
-      </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C42" s="52">
-        <f>SUM(D37:H37)</f>
-        <v>390505.6</v>
-      </c>
-      <c r="D42" s="1"/>
-      <c r="G42" s="1"/>
+        <v>617860</v>
+      </c>
     </row>
     <row r="43" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C43" s="52">
+        <f>SUM(D38:H38)</f>
+        <v>617860</v>
+      </c>
       <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
     </row>
     <row r="44" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="D44" s="2"/>
+      <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
     </row>
     <row r="45" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2545,13 +2601,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:N70"/>
+  <dimension ref="B1:N72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G20" sqref="G20"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2986,7 +3042,7 @@
       </c>
       <c r="D15" s="20">
         <f>SUM(Calcs!D21:H21)</f>
-        <v>0</v>
+        <v>24000</v>
       </c>
       <c r="F15" s="33">
         <v>0.1</v>
@@ -3003,11 +3059,11 @@
       </c>
       <c r="K15" s="20">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="L15" s="20">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>21600</v>
       </c>
       <c r="M15" s="20">
         <f t="shared" si="2"/>
@@ -3024,7 +3080,7 @@
       </c>
       <c r="D16" s="20">
         <f>SUM(Calcs!D22:H22)</f>
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="F16" s="33">
         <v>0.1</v>
@@ -3041,11 +3097,11 @@
       </c>
       <c r="K16" s="20">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="L16" s="20">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10800</v>
       </c>
       <c r="M16" s="20">
         <f t="shared" si="2"/>
@@ -3062,7 +3118,7 @@
       </c>
       <c r="D17" s="20">
         <f>SUM(Calcs!D23:H23)</f>
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="F17" s="33">
         <v>0.1</v>
@@ -3079,11 +3135,11 @@
       </c>
       <c r="K17" s="20">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="L17" s="20">
         <f>G17*$D17</f>
-        <v>0</v>
+        <v>10800</v>
       </c>
       <c r="M17" s="20">
         <f t="shared" si="2"/>
@@ -3575,7 +3631,7 @@
         <v>14</v>
       </c>
       <c r="D34" s="18">
-        <f>SUM(Calcs!D80:H80)</f>
+        <f>SUM(Calcs!D82:H82)</f>
         <v>0</v>
       </c>
       <c r="F34" s="32">
@@ -3592,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="K34" s="18">
-        <f t="shared" ref="K34:N40" si="12">F34*$D34</f>
+        <f t="shared" ref="K34:N41" si="12">F34*$D34</f>
         <v>0</v>
       </c>
       <c r="L34" s="18">
@@ -3613,7 +3669,7 @@
         <v>15</v>
       </c>
       <c r="D35" s="18">
-        <f>SUM(Calcs!D81:H81)</f>
+        <f>SUM(Calcs!D83:H83)</f>
         <v>0</v>
       </c>
       <c r="F35" s="32">
@@ -3651,8 +3707,8 @@
         <v>16</v>
       </c>
       <c r="D36" s="20">
-        <f>SUM(Calcs!D82:H82)</f>
-        <v>0</v>
+        <f>SUM(Calcs!D84:H84)</f>
+        <v>18000</v>
       </c>
       <c r="F36" s="33">
         <v>0.1</v>
@@ -3661,7 +3717,7 @@
         <v>0.9</v>
       </c>
       <c r="H36" s="37">
-        <f t="shared" ref="H36:H40" si="13">1-SUM(F36:G36)</f>
+        <f t="shared" ref="H36:H41" si="13">1-SUM(F36:G36)</f>
         <v>0</v>
       </c>
       <c r="I36" s="37">
@@ -3669,11 +3725,11 @@
       </c>
       <c r="K36" s="20">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="L36" s="20">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>16200</v>
       </c>
       <c r="M36" s="20">
         <f t="shared" si="12"/>
@@ -3686,11 +3742,11 @@
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C37" s="19" t="s">
-        <v>17</v>
+        <v>130</v>
       </c>
       <c r="D37" s="20">
-        <f>SUM(Calcs!D83:H83)</f>
-        <v>33600</v>
+        <f>SUM(Calcs!D85:H85)</f>
+        <v>18000</v>
       </c>
       <c r="F37" s="33">
         <v>0.1</v>
@@ -3699,36 +3755,35 @@
         <v>0.9</v>
       </c>
       <c r="H37" s="37">
-        <f t="shared" ref="H37" si="14">1-SUM(F37:G37)</f>
         <v>0</v>
       </c>
       <c r="I37" s="37">
         <v>0</v>
       </c>
       <c r="K37" s="20">
-        <f t="shared" ref="K37" si="15">F37*$D37</f>
-        <v>3360</v>
+        <f t="shared" ref="K37" si="14">F37*$D37</f>
+        <v>1800</v>
       </c>
       <c r="L37" s="20">
-        <f t="shared" ref="L37" si="16">G37*$D37</f>
-        <v>30240</v>
+        <f t="shared" ref="L37" si="15">G37*$D37</f>
+        <v>16200</v>
       </c>
       <c r="M37" s="20">
-        <f t="shared" ref="M37" si="17">H37*$D37</f>
+        <f t="shared" ref="M37" si="16">H37*$D37</f>
         <v>0</v>
       </c>
       <c r="N37" s="20">
-        <f t="shared" ref="N37" si="18">I37*$D37</f>
+        <f t="shared" ref="N37" si="17">I37*$D37</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C38" s="19" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="D38" s="20">
-        <f>SUM(Calcs!D84:H84)</f>
-        <v>23520</v>
+        <f>SUM(Calcs!D86:H86)</f>
+        <v>0</v>
       </c>
       <c r="F38" s="33">
         <v>0.1</v>
@@ -3737,35 +3792,35 @@
         <v>0.9</v>
       </c>
       <c r="H38" s="37">
-        <f t="shared" ref="H38:H39" si="19">1-SUM(F38:G38)</f>
+        <f t="shared" ref="H38" si="18">1-SUM(F38:G38)</f>
         <v>0</v>
       </c>
       <c r="I38" s="37">
         <v>0</v>
       </c>
       <c r="K38" s="20">
-        <f t="shared" ref="K38:K39" si="20">F38*$D38</f>
-        <v>2352</v>
+        <f t="shared" ref="K38" si="19">F38*$D38</f>
+        <v>0</v>
       </c>
       <c r="L38" s="20">
-        <f t="shared" ref="L38:L39" si="21">G38*$D38</f>
-        <v>21168</v>
+        <f t="shared" ref="L38" si="20">G38*$D38</f>
+        <v>0</v>
       </c>
       <c r="M38" s="20">
-        <f t="shared" ref="M38:M39" si="22">H38*$D38</f>
+        <f t="shared" ref="M38" si="21">H38*$D38</f>
         <v>0</v>
       </c>
       <c r="N38" s="20">
-        <f t="shared" ref="N38:N39" si="23">I38*$D38</f>
+        <f t="shared" ref="N38" si="22">I38*$D38</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C39" s="19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D39" s="20">
-        <f>SUM(Calcs!D85:H85)</f>
+        <f>SUM(Calcs!D87:H87)</f>
         <v>0</v>
       </c>
       <c r="F39" s="33">
@@ -3775,302 +3830,300 @@
         <v>0.9</v>
       </c>
       <c r="H39" s="37">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="H39:H40" si="23">1-SUM(F39:G39)</f>
         <v>0</v>
       </c>
       <c r="I39" s="37">
         <v>0</v>
       </c>
       <c r="K39" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="K39:K40" si="24">F39*$D39</f>
         <v>0</v>
       </c>
       <c r="L39" s="20">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="L39:L40" si="25">G39*$D39</f>
         <v>0</v>
       </c>
       <c r="M39" s="20">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="M39:M40" si="26">H39*$D39</f>
         <v>0</v>
       </c>
       <c r="N39" s="20">
+        <f t="shared" ref="N39:N40" si="27">I39*$D39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C40" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D40" s="20">
+        <f>SUM(Calcs!D88:H88)</f>
+        <v>0</v>
+      </c>
+      <c r="F40" s="33">
+        <v>0.1</v>
+      </c>
+      <c r="G40" s="33">
+        <v>0.9</v>
+      </c>
+      <c r="H40" s="37">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C40" s="81" t="s">
+      <c r="I40" s="37">
+        <v>0</v>
+      </c>
+      <c r="K40" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="M40" s="20">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="N40" s="20">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C41" s="81" t="s">
         <v>98</v>
       </c>
-      <c r="D40" s="84">
-        <f>SUM(Calcs!D86:H86)</f>
-        <v>0</v>
-      </c>
-      <c r="F40" s="85">
+      <c r="D41" s="84">
+        <f>SUM(Calcs!D89:H89)</f>
+        <v>0</v>
+      </c>
+      <c r="F41" s="85">
         <v>0.2</v>
       </c>
-      <c r="G40" s="85">
+      <c r="G41" s="85">
         <v>0.8</v>
       </c>
-      <c r="H40" s="86">
+      <c r="H41" s="86">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I40" s="86">
-        <v>0</v>
-      </c>
-      <c r="K40" s="84">
+      <c r="I41" s="86">
+        <v>0</v>
+      </c>
+      <c r="K41" s="84">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L40" s="84">
+      <c r="L41" s="84">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="M40" s="84">
+      <c r="M41" s="84">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N40" s="84">
+      <c r="N41" s="84">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
-    </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B42" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
       <c r="M42" s="9"/>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C43" s="28" t="s">
+      <c r="B43" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C44" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D43" s="29">
-        <f>SUM(Calcs!D89:H89)</f>
-        <v>0</v>
-      </c>
-      <c r="F43" s="49">
-        <f>IFERROR((1-G43)*F34/SUM(F34,H34),0)</f>
+      <c r="D44" s="29">
+        <f>SUM(Calcs!D92:H92)</f>
+        <v>0</v>
+      </c>
+      <c r="F44" s="49">
+        <f>IFERROR((1-G44)*F34/SUM(F34,H34),0)</f>
         <v>0.8</v>
       </c>
-      <c r="G43" s="49">
+      <c r="G44" s="49">
         <f>MIN(1,G34+$H$19)</f>
         <v>0.2</v>
       </c>
-      <c r="H43" s="49">
-        <f>IFERROR((1-G43)*H34/SUM(F34,H34),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I43" s="49">
-        <v>0</v>
-      </c>
-      <c r="K43" s="29">
-        <f>F43*$D43</f>
-        <v>0</v>
-      </c>
-      <c r="L43" s="29">
-        <f t="shared" ref="L43:L46" si="24">G43*$D43</f>
-        <v>0</v>
-      </c>
-      <c r="M43" s="29">
-        <f>H43*$D43</f>
-        <v>0</v>
-      </c>
-      <c r="N43" s="29">
-        <f>I43*$D43</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C44" s="17" t="s">
+      <c r="H44" s="49">
+        <f>IFERROR((1-G44)*H34/SUM(F34,H34),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I44" s="49">
+        <v>0</v>
+      </c>
+      <c r="K44" s="29">
+        <f>F44*$D44</f>
+        <v>0</v>
+      </c>
+      <c r="L44" s="29">
+        <f t="shared" ref="L44:L48" si="28">G44*$D44</f>
+        <v>0</v>
+      </c>
+      <c r="M44" s="29">
+        <f>H44*$D44</f>
+        <v>0</v>
+      </c>
+      <c r="N44" s="29">
+        <f>I44*$D44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C45" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D44" s="18">
-        <f>SUM(Calcs!D90:H90)</f>
-        <v>0</v>
-      </c>
-      <c r="F44" s="30">
-        <f>IFERROR((1-G44)*F35/SUM(F35,H35),0)</f>
+      <c r="D45" s="18">
+        <f>SUM(Calcs!D93:H93)</f>
+        <v>0</v>
+      </c>
+      <c r="F45" s="30">
+        <f>IFERROR((1-G45)*F35/SUM(F35,H35),0)</f>
         <v>0.8</v>
       </c>
-      <c r="G44" s="30">
+      <c r="G45" s="30">
         <f>MIN(1,G35+$H$19)</f>
         <v>0.2</v>
       </c>
-      <c r="H44" s="30">
-        <f>IFERROR((1-G44)*H35/SUM(F35,H35),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I44" s="30">
-        <v>0</v>
-      </c>
-      <c r="K44" s="18">
-        <f>F44*$D44</f>
-        <v>0</v>
-      </c>
-      <c r="L44" s="18">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="M44" s="18">
-        <f t="shared" ref="M44:N46" si="25">H44*$D44</f>
-        <v>0</v>
-      </c>
-      <c r="N44" s="18">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C45" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D45" s="20">
-        <f>SUM(Calcs!D91:H91)</f>
-        <v>0</v>
-      </c>
-      <c r="F45" s="31">
-        <f>IFERROR((1-G45)*F36/SUM(F36,H36),0)</f>
-        <v>0</v>
-      </c>
-      <c r="G45" s="31">
-        <f>MIN(1,G36+$H$19)</f>
-        <v>1</v>
-      </c>
-      <c r="H45" s="31">
-        <f>IFERROR((1-G45)*H36/SUM(F36,H36),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I45" s="31">
-        <v>0</v>
-      </c>
-      <c r="K45" s="20">
-        <f t="shared" ref="K45:K46" si="26">F45*$D45</f>
-        <v>0</v>
-      </c>
-      <c r="L45" s="20">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="M45" s="20">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="N45" s="20">
-        <f t="shared" si="25"/>
+      <c r="H45" s="30">
+        <f>IFERROR((1-G45)*H35/SUM(F35,H35),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I45" s="30">
+        <v>0</v>
+      </c>
+      <c r="K45" s="18">
+        <f>F45*$D45</f>
+        <v>0</v>
+      </c>
+      <c r="L45" s="18">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="M45" s="18">
+        <f t="shared" ref="M45:N48" si="29">H45*$D45</f>
+        <v>0</v>
+      </c>
+      <c r="N45" s="18">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C46" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D46" s="20">
-        <f>SUM(Calcs!D92:H92)</f>
+        <f>SUM(Calcs!D94:H94)</f>
         <v>0</v>
       </c>
       <c r="F46" s="31">
-        <f>IFERROR((1-G46)*F37/SUM(F37,H37),0)</f>
+        <f>IFERROR((1-G46)*F36/SUM(F36,H36),0)</f>
         <v>0</v>
       </c>
       <c r="G46" s="31">
-        <f>MIN(1,G37+$H$19)</f>
+        <f>MIN(1,G36+$H$19)</f>
         <v>1</v>
       </c>
       <c r="H46" s="31">
-        <f>IFERROR((1-G46)*H37/SUM(F37,H37),0)</f>
+        <f>IFERROR((1-G46)*H36/SUM(F36,H36),0)</f>
         <v>0</v>
       </c>
       <c r="I46" s="31">
         <v>0</v>
       </c>
       <c r="K46" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="K46:K48" si="30">F46*$D46</f>
         <v>0</v>
       </c>
       <c r="L46" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="M46" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N46" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C47" s="19" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="D47" s="20">
-        <f>SUM(Calcs!D93:H93)</f>
-        <v>0</v>
+        <f>SUM(Calcs!D95:H95)</f>
+        <v>38220</v>
       </c>
       <c r="F47" s="31">
-        <f t="shared" ref="F47:F48" si="27">IFERROR((1-G47)*F38/SUM(F38,H38),0)</f>
+        <f>IFERROR((1-G47)*F37/SUM(F37,H37),0)</f>
         <v>0</v>
       </c>
       <c r="G47" s="31">
-        <f t="shared" ref="G47:G48" si="28">MIN(1,G38+$H$19)</f>
+        <f>MIN(1,G37+$H$19)</f>
         <v>1</v>
       </c>
       <c r="H47" s="31">
-        <f t="shared" ref="H47:H48" si="29">IFERROR((1-G47)*H38/SUM(F38,H38),0)</f>
+        <f>IFERROR((1-G47)*H37/SUM(F37,H37),0)</f>
         <v>0</v>
       </c>
       <c r="I47" s="31">
         <v>0</v>
       </c>
       <c r="K47" s="20">
-        <f t="shared" ref="K47:K48" si="30">F47*$D47</f>
+        <f t="shared" ref="K47" si="31">F47*$D47</f>
         <v>0</v>
       </c>
       <c r="L47" s="20">
-        <f t="shared" ref="L47:L48" si="31">G47*$D47</f>
-        <v>0</v>
+        <f t="shared" ref="L47" si="32">G47*$D47</f>
+        <v>38220</v>
       </c>
       <c r="M47" s="20">
-        <f t="shared" ref="M47:M48" si="32">H47*$D47</f>
+        <f t="shared" ref="M47" si="33">H47*$D47</f>
         <v>0</v>
       </c>
       <c r="N47" s="20">
-        <f t="shared" ref="N47:N48" si="33">I47*$D47</f>
+        <f t="shared" ref="N47" si="34">I47*$D47</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C48" s="19" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="D48" s="20">
-        <f>SUM(Calcs!D94:H94)</f>
+        <f>SUM(Calcs!D96:H96)</f>
         <v>0</v>
       </c>
       <c r="F48" s="31">
-        <f t="shared" si="27"/>
+        <f>IFERROR((1-G48)*F38/SUM(F38,H38),0)</f>
         <v>0</v>
       </c>
       <c r="G48" s="31">
-        <f t="shared" si="28"/>
+        <f>MIN(1,G38+$H$19)</f>
         <v>1</v>
       </c>
       <c r="H48" s="31">
-        <f t="shared" si="29"/>
+        <f>IFERROR((1-G48)*H38/SUM(F38,H38),0)</f>
         <v>0</v>
       </c>
       <c r="I48" s="31">
@@ -4081,608 +4134,688 @@
         <v>0</v>
       </c>
       <c r="L48" s="20">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="M48" s="20">
-        <f t="shared" si="32"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N48" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C49" s="81" t="s">
+      <c r="C49" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D49" s="20">
+        <f>SUM(Calcs!D97:H97)</f>
+        <v>0</v>
+      </c>
+      <c r="F49" s="31">
+        <f>IFERROR((1-G49)*F39/SUM(F39,H39),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G49" s="31">
+        <f>MIN(1,G39+$H$19)</f>
+        <v>1</v>
+      </c>
+      <c r="H49" s="31">
+        <f>IFERROR((1-G49)*H39/SUM(F39,H39),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I49" s="31">
+        <v>0</v>
+      </c>
+      <c r="K49" s="20">
+        <f t="shared" ref="K49:K50" si="35">F49*$D49</f>
+        <v>0</v>
+      </c>
+      <c r="L49" s="20">
+        <f t="shared" ref="L49:L50" si="36">G49*$D49</f>
+        <v>0</v>
+      </c>
+      <c r="M49" s="20">
+        <f t="shared" ref="M49:M50" si="37">H49*$D49</f>
+        <v>0</v>
+      </c>
+      <c r="N49" s="20">
+        <f t="shared" ref="N49:N50" si="38">I49*$D49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C50" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D50" s="20">
+        <f>SUM(Calcs!D98:H98)</f>
+        <v>0</v>
+      </c>
+      <c r="F50" s="31">
+        <f>IFERROR((1-G50)*F40/SUM(F40,H40),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G50" s="31">
+        <f>MIN(1,G40+$H$19)</f>
+        <v>1</v>
+      </c>
+      <c r="H50" s="31">
+        <f>IFERROR((1-G50)*H40/SUM(F40,H40),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I50" s="31">
+        <v>0</v>
+      </c>
+      <c r="K50" s="20">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="L50" s="20">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="M50" s="20">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="N50" s="20">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C51" s="81" t="s">
         <v>98</v>
       </c>
-      <c r="D49" s="84">
-        <f>SUM(Calcs!D95:H95)</f>
-        <v>0</v>
-      </c>
-      <c r="F49" s="87">
-        <f t="shared" ref="F49" si="34">IFERROR((1-G49)*F40/SUM(F40,H40),0)</f>
+      <c r="D51" s="84">
+        <f>SUM(Calcs!D99:H99)</f>
+        <v>0</v>
+      </c>
+      <c r="F51" s="87">
+        <f t="shared" ref="F51" si="39">IFERROR((1-G51)*F41/SUM(F41,H41),0)</f>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="G49" s="87">
-        <f t="shared" ref="G49" si="35">MIN(1,G40+$H$19)</f>
+      <c r="G51" s="87">
+        <f t="shared" ref="G51" si="40">MIN(1,G41+$H$19)</f>
         <v>0.9</v>
       </c>
-      <c r="H49" s="87">
-        <f t="shared" ref="H49" si="36">IFERROR((1-G49)*H40/SUM(F40,H40),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I49" s="87">
-        <v>0</v>
-      </c>
-      <c r="K49" s="84">
-        <f t="shared" ref="K49" si="37">F49*$D49</f>
-        <v>0</v>
-      </c>
-      <c r="L49" s="84">
-        <f t="shared" ref="L49" si="38">G49*$D49</f>
-        <v>0</v>
-      </c>
-      <c r="M49" s="84">
-        <f t="shared" ref="M49" si="39">H49*$D49</f>
-        <v>0</v>
-      </c>
-      <c r="N49" s="84">
-        <f t="shared" ref="N49" si="40">I49*$D49</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
-      <c r="M50" s="9"/>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B51" s="6" t="s">
+      <c r="H51" s="87">
+        <f t="shared" ref="H51" si="41">IFERROR((1-G51)*H41/SUM(F41,H41),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I51" s="87">
+        <v>0</v>
+      </c>
+      <c r="K51" s="84">
+        <f t="shared" ref="K51" si="42">F51*$D51</f>
+        <v>0</v>
+      </c>
+      <c r="L51" s="84">
+        <f t="shared" ref="L51" si="43">G51*$D51</f>
+        <v>0</v>
+      </c>
+      <c r="M51" s="84">
+        <f t="shared" ref="M51" si="44">H51*$D51</f>
+        <v>0</v>
+      </c>
+      <c r="N51" s="84">
+        <f t="shared" ref="N51" si="45">I51*$D51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B53" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="9"/>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C52" t="s">
-        <v>39</v>
-      </c>
-      <c r="D52" s="1">
-        <f>SUM(Outputs_External!D28:'Outputs_External'!H28)</f>
-        <v>-7056</v>
-      </c>
-      <c r="F52" s="8">
-        <f>IFERROR(SUM(K64:K70)/SUM($K$64:$N$70), 0)</f>
-        <v>0.1</v>
-      </c>
-      <c r="G52" s="8">
-        <f t="shared" ref="G52:I52" si="41">IFERROR(SUM(L64:L70)/SUM($K$64:$N$70), 0)</f>
-        <v>0.9</v>
-      </c>
-      <c r="H52" s="8">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="I52" s="8">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="K52" s="12">
-        <f>F52*$D$52</f>
-        <v>-705.6</v>
-      </c>
-      <c r="L52" s="12">
-        <f>G52*$D$52</f>
-        <v>-6350.4000000000005</v>
-      </c>
-      <c r="M52" s="12">
-        <f>H52*$D$52</f>
-        <v>0</v>
-      </c>
-      <c r="N52" s="12">
-        <f>I52*$D$52</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C53" t="s">
-        <v>116</v>
-      </c>
-      <c r="D53" s="1">
-        <f>SUM(Outputs_External!D29:'Outputs_External'!H29)</f>
-        <v>-30628.799999999999</v>
-      </c>
-      <c r="F53" s="3">
-        <f>IFERROR(SUM(K8:K52)/SUM($K8:$N52), 0)</f>
-        <v>0.26426118838386781</v>
-      </c>
-      <c r="G53" s="3">
-        <f>IFERROR(SUM(L8:L52)/SUM($K8:$N52), 0)</f>
-        <v>0.7357388116161323</v>
-      </c>
-      <c r="H53" s="3">
-        <f>IFERROR(SUM(M8:M52)/SUM($K8:$N52), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="I53" s="3">
-        <f>1-F53-G53-H53</f>
-        <v>-1.1102230246251565E-16</v>
-      </c>
-      <c r="K53" s="12">
-        <f>F53*$D$53</f>
-        <v>-8094.0030867718096</v>
-      </c>
-      <c r="L53" s="12">
-        <f>G53*$D$53</f>
-        <v>-22534.796913228194</v>
-      </c>
-      <c r="M53" s="12">
-        <f>H53*$D$53</f>
-        <v>0</v>
-      </c>
-      <c r="N53" s="12">
-        <f>I53*$D$53</f>
-        <v>3.4004798976638994E-12</v>
-      </c>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
+        <v>39</v>
+      </c>
+      <c r="D54" s="1">
+        <f>SUM(Outputs_External!D29:'Outputs_External'!H29)</f>
+        <v>0</v>
+      </c>
+      <c r="F54" s="8">
+        <f>IFERROR(SUM(K66:K72)/SUM($K$66:$N$72), 0)</f>
+        <v>0.1</v>
+      </c>
+      <c r="G54" s="8">
+        <f t="shared" ref="G54:I54" si="46">IFERROR(SUM(L66:L72)/SUM($K$66:$N$72), 0)</f>
+        <v>0.9</v>
+      </c>
+      <c r="H54" s="8">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="I54" s="8">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="K54" s="12">
+        <f>F54*$D$54</f>
+        <v>0</v>
+      </c>
+      <c r="L54" s="12">
+        <f>G54*$D$54</f>
+        <v>0</v>
+      </c>
+      <c r="M54" s="12">
+        <f>H54*$D$54</f>
+        <v>0</v>
+      </c>
+      <c r="N54" s="12">
+        <f>I54*$D$54</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>116</v>
+      </c>
+      <c r="D55" s="1">
+        <f>SUM(Outputs_External!D30:'Outputs_External'!H30)</f>
+        <v>-27000</v>
+      </c>
+      <c r="F55" s="3">
+        <f>IFERROR(SUM(K8:K54)/SUM($K8:$N54), 0)</f>
+        <v>0.18948573609388417</v>
+      </c>
+      <c r="G55" s="3">
+        <f>IFERROR(SUM(L8:L54)/SUM($K8:$N54), 0)</f>
+        <v>0.81051426390611581</v>
+      </c>
+      <c r="H55" s="3">
+        <f>IFERROR(SUM(M8:M54)/SUM($K8:$N54), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I55" s="3">
+        <f>1-F55-G55-H55</f>
+        <v>0</v>
+      </c>
+      <c r="K55" s="12">
+        <f>F55*$D$55</f>
+        <v>-5116.1148745348728</v>
+      </c>
+      <c r="L55" s="12">
+        <f>G55*$D$55</f>
+        <v>-21883.885125465127</v>
+      </c>
+      <c r="M55" s="12">
+        <f>H55*$D$55</f>
+        <v>0</v>
+      </c>
+      <c r="N55" s="12">
+        <f>I55*$D$55</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
         <v>83</v>
       </c>
-      <c r="D54" s="1">
-        <f>Outputs_External!D30</f>
-        <v>0</v>
-      </c>
-      <c r="F54" s="3">
+      <c r="D56" s="1">
+        <f>Outputs_External!D31</f>
+        <v>0</v>
+      </c>
+      <c r="F56" s="3">
         <v>0.58085106382978724</v>
       </c>
-      <c r="G54" s="3">
-        <f>1-F54</f>
+      <c r="G56" s="3">
+        <f>1-F56</f>
         <v>0.41914893617021276</v>
       </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
-      <c r="K54" s="12">
-        <f>$D$54*F54</f>
-        <v>0</v>
-      </c>
-      <c r="L54" s="12">
-        <f t="shared" ref="L54:N54" si="42">$D$54*G54</f>
-        <v>0</v>
-      </c>
-      <c r="M54" s="12">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="N54" s="12">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="K55" s="9"/>
-      <c r="L55" s="9"/>
-      <c r="M55" s="9"/>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B56" s="6" t="s">
+      <c r="H56" s="3">
+        <v>0</v>
+      </c>
+      <c r="I56" s="3">
+        <v>0</v>
+      </c>
+      <c r="K56" s="12">
+        <f>$D$56*F56</f>
+        <v>0</v>
+      </c>
+      <c r="L56" s="12">
+        <f t="shared" ref="L56:N56" si="47">$D$56*G56</f>
+        <v>0</v>
+      </c>
+      <c r="M56" s="12">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="N56" s="12">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B58" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D56" s="1">
-        <f>SUM(Outputs_External!D32:'Outputs_External'!H32)</f>
-        <v>106835.2</v>
-      </c>
-      <c r="K56" s="12">
-        <f>SUM(K52:K54, K34:K40, K8:K17,K22:K31,K43:K49)</f>
-        <v>28232.396913228193</v>
-      </c>
-      <c r="L56" s="12">
-        <f t="shared" ref="L56:N56" si="43">SUM(L52:L54, L34:L40, L8:L17,L22:L31,L43:L49)</f>
-        <v>78602.803086771804</v>
-      </c>
-      <c r="M56" s="12">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="N56" s="12">
-        <f t="shared" si="43"/>
-        <v>3.4004798976638994E-12</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C57" s="21" t="s">
+      <c r="D58" s="1">
+        <f>SUM(Outputs_External!D33:'Outputs_External'!H33)</f>
+        <v>182620</v>
+      </c>
+      <c r="K58" s="12">
+        <f>SUM(K54:K56, K34:K41, K8:K17,K22:K31,K44:K51)</f>
+        <v>34603.885125465131</v>
+      </c>
+      <c r="L58" s="12">
+        <f>SUM(L54:L56, L34:L41, L8:L17,L22:L31,L44:L51)</f>
+        <v>148016.11487453489</v>
+      </c>
+      <c r="M58" s="12">
+        <f>SUM(M54:M56, M34:M41, M8:M17,M22:M31,M44:M51)</f>
+        <v>0</v>
+      </c>
+      <c r="N58" s="12">
+        <f>SUM(N54:N56, N34:N41, N8:N17,N22:N31,N44:N51)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C59" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D57" s="23">
-        <f>SUM(K56:N56)</f>
-        <v>106835.2</v>
-      </c>
-      <c r="K57" s="12"/>
-      <c r="L57" s="12"/>
-      <c r="M57" s="12"/>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="K58" s="9"/>
-      <c r="L58" s="9"/>
-      <c r="M58" s="9"/>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B59" s="6" t="s">
+      <c r="D59" s="23">
+        <f>SUM(K58:N58)</f>
+        <v>182620.00000000003</v>
+      </c>
+      <c r="K59" s="12"/>
+      <c r="L59" s="12"/>
+      <c r="M59" s="12"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B61" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D61" s="1">
         <f>SUM(Outputs_Timeline!S:S)</f>
-        <v>390505.59999999992</v>
-      </c>
-      <c r="K59" s="12">
+        <v>617860</v>
+      </c>
+      <c r="K61" s="12">
         <f>SUM(Outputs_Timeline!T:T)</f>
-        <v>95697.190739684607</v>
-      </c>
-      <c r="L59" s="12">
+        <v>114811.65537639537</v>
+      </c>
+      <c r="L61" s="12">
         <f>SUM(Outputs_Timeline!U:U)</f>
-        <v>294808.40926031553</v>
-      </c>
-      <c r="M59" s="12">
+        <v>503048.34462360456</v>
+      </c>
+      <c r="M61" s="12">
         <f>SUM(Outputs_Timeline!V:V)</f>
         <v>0</v>
       </c>
-      <c r="N59" s="12">
+      <c r="N61" s="12">
         <f>SUM(Outputs_Timeline!W:W)</f>
-        <v>1.0201439692991696E-11</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D60" s="1"/>
-      <c r="K60" s="53">
-        <f>IFERROR(K59/$D$59, 0)</f>
-        <v>0.24505971422608186</v>
-      </c>
-      <c r="L60" s="53">
-        <f>IFERROR(L59/$D$59, 0)</f>
-        <v>0.7549402857739187</v>
-      </c>
-      <c r="M60" s="53">
-        <f>IFERROR(M59/$D$59, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="N60" s="53">
-        <f>IFERROR(N59/$D$59, 0)</f>
-        <v>2.6123670679733399E-17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="K62" s="9"/>
-      <c r="L62" s="9"/>
-      <c r="M62" s="9"/>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B63" s="27" t="s">
+      <c r="D62" s="1"/>
+      <c r="K62" s="53">
+        <f>IFERROR(K61/$D$61, 0)</f>
+        <v>0.18582147311105326</v>
+      </c>
+      <c r="L62" s="53">
+        <f>IFERROR(L61/$D$61, 0)</f>
+        <v>0.81417852688894665</v>
+      </c>
+      <c r="M62" s="53">
+        <f>IFERROR(M61/$D$61, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N62" s="53">
+        <f>IFERROR(N61/$D$61, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B65" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C63" s="21"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="21"/>
-      <c r="H63" s="21"/>
-      <c r="I63" s="21"/>
-      <c r="J63" s="21"/>
-      <c r="K63" s="22"/>
-      <c r="L63" s="22"/>
-      <c r="M63" s="22"/>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B64" s="27"/>
-      <c r="C64" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D64" s="23">
-        <f>SUM(Calcs!D62:H62)+SUM(Calcs!D71:H71)</f>
-        <v>0</v>
-      </c>
-      <c r="E64" s="21"/>
-      <c r="F64" s="24">
-        <f>F34</f>
-        <v>0.9</v>
-      </c>
-      <c r="G64" s="24">
-        <f>G34</f>
-        <v>0.1</v>
-      </c>
-      <c r="H64" s="24">
-        <f>H34</f>
-        <v>0</v>
-      </c>
-      <c r="I64" s="24">
-        <f>I34</f>
-        <v>0</v>
-      </c>
-      <c r="J64" s="21"/>
-      <c r="K64" s="25">
-        <f t="shared" ref="K64:N66" si="44">F64*$D64</f>
-        <v>0</v>
-      </c>
-      <c r="L64" s="25">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="M64" s="25">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="N64" s="25">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B65" s="27"/>
-      <c r="C65" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D65" s="23">
-        <f>SUM(Calcs!D63:H63)+SUM(Calcs!D72:H72)</f>
-        <v>0</v>
-      </c>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
       <c r="E65" s="21"/>
-      <c r="F65" s="24">
-        <f>IFERROR(SUM(K$35,K$9:K$14,K$44,K$23:K$28)/SUM($K$35:$N$35,$K$9:$N$14,$K$44:$N$44,$K$23:$N$28),0)</f>
-        <v>0</v>
-      </c>
-      <c r="G65" s="24">
-        <f t="shared" ref="G65" si="45">IFERROR(SUM(L$35,L$9:L$14,L$44,L$23:L$28)/SUM($K$35:$N$35,$K$9:$N$14,$K$44:$N$44,$K$23:$N$28),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H65" s="24">
-        <f>IFERROR(SUM(M$35,M$9:M$14,M$44,M$23:M$28)/SUM($K$35:$N$35,$K$9:$N$14,$K$44:$N$44,$K$23:$N$28),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I65" s="24">
-        <f>IFERROR(SUM(N$35,N$9:N$14,N$44,N$23:N$28)/SUM($K$35:$N$35,$K$9:$N$14,$K$44:$N$44,$K$23:$N$28),0)</f>
-        <v>0</v>
-      </c>
+      <c r="F65" s="21"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="21"/>
       <c r="J65" s="21"/>
-      <c r="K65" s="25">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="L65" s="25">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="M65" s="25">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="N65" s="25">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
+      <c r="K65" s="22"/>
+      <c r="L65" s="22"/>
+      <c r="M65" s="22"/>
     </row>
     <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="27"/>
       <c r="C66" s="21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D66" s="23">
-        <f>SUM(Calcs!D64:H64)+SUM(Calcs!D73:H73)</f>
+        <f>SUM(Calcs!D62:H62)+SUM(Calcs!D72:H72)</f>
         <v>0</v>
       </c>
       <c r="E66" s="21"/>
       <c r="F66" s="24">
-        <f>IFERROR(SUM(K36,K15:K17,K45,K29:K31)/SUM($K$36:$N$36,$K$15:$M$17,$K$45:$N$45,$K$29:$N$31),0)</f>
-        <v>0</v>
+        <f>F34</f>
+        <v>0.9</v>
       </c>
       <c r="G66" s="24">
-        <f t="shared" ref="G66:I66" si="46">IFERROR(SUM(L36,L15:L17,L45,L29:L31)/SUM($K$36:$N$36,$K$15:$M$17,$K$45:$N$45,$K$29:$N$31),0)</f>
-        <v>0</v>
+        <f>G34</f>
+        <v>0.1</v>
       </c>
       <c r="H66" s="24">
-        <f t="shared" si="46"/>
+        <f>H34</f>
         <v>0</v>
       </c>
       <c r="I66" s="24">
-        <f t="shared" si="46"/>
+        <f>I34</f>
         <v>0</v>
       </c>
       <c r="J66" s="21"/>
       <c r="K66" s="25">
-        <f t="shared" si="44"/>
+        <f t="shared" ref="K66:N68" si="48">F66*$D66</f>
         <v>0</v>
       </c>
       <c r="L66" s="25">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="M66" s="25">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="N66" s="25">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="27"/>
       <c r="C67" s="21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D67" s="23">
-        <f>SUM(Calcs!D65:H65)+SUM(Calcs!D74:H74)</f>
-        <v>33600</v>
+        <f>SUM(Calcs!D63:H63)+SUM(Calcs!D73:H73)</f>
+        <v>0</v>
       </c>
       <c r="E67" s="21"/>
       <c r="F67" s="24">
-        <f>IFERROR(SUM(K37,K46)/SUM($K37:$N37,$K46:$N46),0)</f>
-        <v>0.1</v>
+        <f>IFERROR(SUM(K$35,K$9:K$14,K$45,K$23:K$28)/SUM($K$35:$N$35,$K$9:$N$14,$K$45:$N$45,$K$23:$N$28),0)</f>
+        <v>0</v>
       </c>
       <c r="G67" s="24">
-        <f t="shared" ref="G67:I67" si="47">IFERROR(SUM(L37,L46)/SUM($K37:$N37,$K46:$N46),0)</f>
-        <v>0.9</v>
+        <f>IFERROR(SUM(L$35,L$9:L$14,L$45,L$23:L$28)/SUM($K$35:$N$35,$K$9:$N$14,$K$45:$N$45,$K$23:$N$28),0)</f>
+        <v>0</v>
       </c>
       <c r="H67" s="24">
-        <f t="shared" si="47"/>
+        <f>IFERROR(SUM(M$35,M$9:M$14,M$45,M$23:M$28)/SUM($K$35:$N$35,$K$9:$N$14,$K$45:$N$45,$K$23:$N$28),0)</f>
         <v>0</v>
       </c>
       <c r="I67" s="24">
-        <f t="shared" si="47"/>
+        <f>IFERROR(SUM(N$35,N$9:N$14,N$45,N$23:N$28)/SUM($K$35:$N$35,$K$9:$N$14,$K$45:$N$45,$K$23:$N$28),0)</f>
         <v>0</v>
       </c>
       <c r="J67" s="21"/>
       <c r="K67" s="25">
-        <f t="shared" ref="K67:K70" si="48">F67*$D67</f>
-        <v>3360</v>
+        <f t="shared" si="48"/>
+        <v>0</v>
       </c>
       <c r="L67" s="25">
-        <f t="shared" ref="L67:L70" si="49">G67*$D67</f>
-        <v>30240</v>
+        <f t="shared" si="48"/>
+        <v>0</v>
       </c>
       <c r="M67" s="25">
-        <f t="shared" ref="M67:M70" si="50">H67*$D67</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="N67" s="25">
-        <f t="shared" ref="N67:N70" si="51">I67*$D67</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="27"/>
       <c r="C68" s="21" t="s">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="D68" s="23">
-        <f>SUM(Calcs!D66:H66)+SUM(Calcs!D75:H75)</f>
-        <v>23520</v>
+        <f>SUM(Calcs!D64:H64)+SUM(Calcs!D74:H74)</f>
+        <v>42000</v>
       </c>
       <c r="E68" s="21"/>
       <c r="F68" s="24">
-        <f t="shared" ref="F68:F69" si="52">IFERROR(SUM(K38,K47)/SUM($K38:$N38,$K47:$N47),0)</f>
+        <f>IFERROR(SUM(K36,K15:K17,K46,K29:K31)/SUM($K$36:$N$36,$K$15:$M$17,$K$46:$N$46,$K$29:$N$31),0)</f>
         <v>0.1</v>
       </c>
       <c r="G68" s="24">
-        <f t="shared" ref="G68:G69" si="53">IFERROR(SUM(L38,L47)/SUM($K38:$N38,$K47:$N47),0)</f>
+        <f>IFERROR(SUM(L36,L15:L17,L46,L29:L31)/SUM($K$36:$N$36,$K$15:$M$17,$K$46:$N$46,$K$29:$N$31),0)</f>
         <v>0.9</v>
       </c>
       <c r="H68" s="24">
-        <f t="shared" ref="H68:H69" si="54">IFERROR(SUM(M38,M47)/SUM($K38:$N38,$K47:$N47),0)</f>
+        <f>IFERROR(SUM(M36,M15:M17,M46,M29:M31)/SUM($K$36:$N$36,$K$15:$M$17,$K$46:$N$46,$K$29:$N$31),0)</f>
         <v>0</v>
       </c>
       <c r="I68" s="24">
-        <f t="shared" ref="I68:I69" si="55">IFERROR(SUM(N38,N47)/SUM($K38:$N38,$K47:$N47),0)</f>
+        <f>IFERROR(SUM(N36,N15:N17,N46,N29:N31)/SUM($K$36:$N$36,$K$15:$M$17,$K$46:$N$46,$K$29:$N$31),0)</f>
         <v>0</v>
       </c>
       <c r="J68" s="21"/>
       <c r="K68" s="25">
-        <f t="shared" ref="K68:K69" si="56">F68*$D68</f>
-        <v>2352</v>
+        <f t="shared" si="48"/>
+        <v>4200</v>
       </c>
       <c r="L68" s="25">
-        <f t="shared" ref="L68:L69" si="57">G68*$D68</f>
-        <v>21168</v>
+        <f t="shared" si="48"/>
+        <v>37800</v>
       </c>
       <c r="M68" s="25">
-        <f t="shared" ref="M68:M69" si="58">H68*$D68</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="N68" s="25">
-        <f t="shared" ref="N68:N69" si="59">I68*$D68</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="27"/>
       <c r="C69" s="21" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="D69" s="23">
-        <f>SUM(Calcs!D67:H67)+SUM(Calcs!D76:H76)</f>
+        <f>SUM(Calcs!D66:H66)+SUM(Calcs!D76:H76)</f>
         <v>0</v>
       </c>
       <c r="E69" s="21"/>
       <c r="F69" s="24">
-        <f t="shared" si="52"/>
+        <f>IFERROR(SUM(K38,K48)/SUM($K38:$N38,$K48:$N48),0)</f>
         <v>0</v>
       </c>
       <c r="G69" s="24">
-        <f t="shared" si="53"/>
+        <f>IFERROR(SUM(L38,L48)/SUM($K38:$N38,$K48:$N48),0)</f>
         <v>0</v>
       </c>
       <c r="H69" s="24">
-        <f t="shared" si="54"/>
+        <f>IFERROR(SUM(M38,M48)/SUM($K38:$N38,$K48:$N48),0)</f>
         <v>0</v>
       </c>
       <c r="I69" s="24">
-        <f t="shared" si="55"/>
+        <f>IFERROR(SUM(N38,N48)/SUM($K38:$N38,$K48:$N48),0)</f>
         <v>0</v>
       </c>
       <c r="J69" s="21"/>
       <c r="K69" s="25">
-        <f t="shared" si="56"/>
+        <f t="shared" ref="K69:K72" si="49">F69*$D69</f>
         <v>0</v>
       </c>
       <c r="L69" s="25">
-        <f t="shared" si="57"/>
+        <f t="shared" ref="L69:L72" si="50">G69*$D69</f>
         <v>0</v>
       </c>
       <c r="M69" s="25">
-        <f t="shared" si="58"/>
+        <f t="shared" ref="M69:M72" si="51">H69*$D69</f>
         <v>0</v>
       </c>
       <c r="N69" s="25">
-        <f t="shared" si="59"/>
+        <f t="shared" ref="N69:N72" si="52">I69*$D69</f>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="27"/>
       <c r="C70" s="21" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D70" s="23">
-        <f>SUM(Calcs!D68:H68)+SUM(Calcs!D77:H77)</f>
+        <f>SUM(Calcs!D67:H67)+SUM(Calcs!D77:H77)</f>
         <v>0</v>
       </c>
       <c r="E70" s="21"/>
       <c r="F70" s="24">
-        <f t="shared" ref="F70" si="60">IFERROR(SUM(K40,K49)/SUM($K40:$N40,$K49:$N49),0)</f>
+        <f>IFERROR(SUM(K39,K49)/SUM($K39:$N39,$K49:$N49),0)</f>
         <v>0</v>
       </c>
       <c r="G70" s="24">
-        <f t="shared" ref="G70" si="61">IFERROR(SUM(L40,L49)/SUM($K40:$N40,$K49:$N49),0)</f>
+        <f>IFERROR(SUM(L39,L49)/SUM($K39:$N39,$K49:$N49),0)</f>
         <v>0</v>
       </c>
       <c r="H70" s="24">
-        <f t="shared" ref="H70" si="62">IFERROR(SUM(M40,M49)/SUM($K40:$N40,$K49:$N49),0)</f>
+        <f>IFERROR(SUM(M39,M49)/SUM($K39:$N39,$K49:$N49),0)</f>
         <v>0</v>
       </c>
       <c r="I70" s="24">
-        <f t="shared" ref="I70" si="63">IFERROR(SUM(N40,N49)/SUM($K40:$N40,$K49:$N49),0)</f>
+        <f>IFERROR(SUM(N39,N49)/SUM($K39:$N39,$K49:$N49),0)</f>
         <v>0</v>
       </c>
       <c r="J70" s="21"/>
       <c r="K70" s="25">
-        <f t="shared" si="48"/>
+        <f t="shared" ref="K70:K71" si="53">F70*$D70</f>
         <v>0</v>
       </c>
       <c r="L70" s="25">
+        <f t="shared" ref="L70:L71" si="54">G70*$D70</f>
+        <v>0</v>
+      </c>
+      <c r="M70" s="25">
+        <f t="shared" ref="M70:M71" si="55">H70*$D70</f>
+        <v>0</v>
+      </c>
+      <c r="N70" s="25">
+        <f t="shared" ref="N70:N71" si="56">I70*$D70</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B71" s="27"/>
+      <c r="C71" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D71" s="23">
+        <f>SUM(Calcs!D68:H68)+SUM(Calcs!D78:H78)</f>
+        <v>0</v>
+      </c>
+      <c r="E71" s="21"/>
+      <c r="F71" s="24">
+        <f>IFERROR(SUM(K40,K50)/SUM($K40:$N40,$K50:$N50),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G71" s="24">
+        <f>IFERROR(SUM(L40,L50)/SUM($K40:$N40,$K50:$N50),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H71" s="24">
+        <f>IFERROR(SUM(M40,M50)/SUM($K40:$N40,$K50:$N50),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I71" s="24">
+        <f>IFERROR(SUM(N40,N50)/SUM($K40:$N40,$K50:$N50),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J71" s="21"/>
+      <c r="K71" s="25">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="L71" s="25">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="M71" s="25">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="N71" s="25">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B72" s="27"/>
+      <c r="C72" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D72" s="23">
+        <f>SUM(Calcs!D69:H69)+SUM(Calcs!D79:H79)</f>
+        <v>0</v>
+      </c>
+      <c r="E72" s="21"/>
+      <c r="F72" s="24">
+        <f t="shared" ref="F72" si="57">IFERROR(SUM(K41,K51)/SUM($K41:$N41,$K51:$N51),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G72" s="24">
+        <f t="shared" ref="G72" si="58">IFERROR(SUM(L41,L51)/SUM($K41:$N41,$K51:$N51),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H72" s="24">
+        <f t="shared" ref="H72" si="59">IFERROR(SUM(M41,M51)/SUM($K41:$N41,$K51:$N51),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I72" s="24">
+        <f t="shared" ref="I72" si="60">IFERROR(SUM(N41,N51)/SUM($K41:$N41,$K51:$N51),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J72" s="21"/>
+      <c r="K72" s="25">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="M70" s="25">
+      <c r="L72" s="25">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="N70" s="25">
+      <c r="M72" s="25">
         <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="N72" s="25">
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
     </row>
@@ -4697,10 +4830,10 @@
   <dimension ref="B1:W94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P15" sqref="P15"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4838,23 +4971,23 @@
         <v>0</v>
       </c>
       <c r="M3" s="63">
-        <f>$F3*Outputs_Internal!$D$56/12</f>
+        <f>$F3*Outputs_Internal!$D$58/12</f>
         <v>0</v>
       </c>
       <c r="N3" s="63">
-        <f>$F3*Outputs_Internal!K$56/12</f>
+        <f>$F3*Outputs_Internal!K$58/12</f>
         <v>0</v>
       </c>
       <c r="O3" s="63">
-        <f>$F3*Outputs_Internal!L$56/12</f>
+        <f>$F3*Outputs_Internal!L$58/12</f>
         <v>0</v>
       </c>
       <c r="P3" s="63">
-        <f>$F3*Outputs_Internal!M$56/12</f>
+        <f>$F3*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q3" s="63">
-        <f>$F3*Outputs_Internal!N$56/12</f>
+        <f>$F3*Outputs_Internal!N$58/12</f>
         <v>0</v>
       </c>
       <c r="S3" s="63"/>
@@ -4896,23 +5029,23 @@
         <v>0</v>
       </c>
       <c r="M4" s="63">
-        <f>$F4*Outputs_Internal!$D$56/12</f>
+        <f>$F4*Outputs_Internal!$D$58/12</f>
         <v>0</v>
       </c>
       <c r="N4" s="63">
-        <f>$F4*Outputs_Internal!K$56/12</f>
+        <f>$F4*Outputs_Internal!K$58/12</f>
         <v>0</v>
       </c>
       <c r="O4" s="63">
-        <f>$F4*Outputs_Internal!L$56/12</f>
+        <f>$F4*Outputs_Internal!L$58/12</f>
         <v>0</v>
       </c>
       <c r="P4" s="63">
-        <f>$F4*Outputs_Internal!M$56/12</f>
+        <f>$F4*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q4" s="63">
-        <f>$F4*Outputs_Internal!N$56/12</f>
+        <f>$F4*Outputs_Internal!N$58/12</f>
         <v>0</v>
       </c>
     </row>
@@ -4950,23 +5083,23 @@
         <v>0</v>
       </c>
       <c r="M5" s="63">
-        <f>$F5*Outputs_Internal!$D$56/12</f>
+        <f>$F5*Outputs_Internal!$D$58/12</f>
         <v>0</v>
       </c>
       <c r="N5" s="63">
-        <f>$F5*Outputs_Internal!K$56/12</f>
+        <f>$F5*Outputs_Internal!K$58/12</f>
         <v>0</v>
       </c>
       <c r="O5" s="63">
-        <f>$F5*Outputs_Internal!L$56/12</f>
+        <f>$F5*Outputs_Internal!L$58/12</f>
         <v>0</v>
       </c>
       <c r="P5" s="63">
-        <f>$F5*Outputs_Internal!M$56/12</f>
+        <f>$F5*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q5" s="63">
-        <f>$F5*Outputs_Internal!N$56/12</f>
+        <f>$F5*Outputs_Internal!N$58/12</f>
         <v>0</v>
       </c>
       <c r="S5" s="63">
@@ -5024,23 +5157,23 @@
         <v>0</v>
       </c>
       <c r="M6" s="63">
-        <f>$F6*Outputs_Internal!$D$56/12</f>
+        <f>$F6*Outputs_Internal!$D$58/12</f>
         <v>0</v>
       </c>
       <c r="N6" s="63">
-        <f>$F6*Outputs_Internal!K$56/12</f>
+        <f>$F6*Outputs_Internal!K$58/12</f>
         <v>0</v>
       </c>
       <c r="O6" s="63">
-        <f>$F6*Outputs_Internal!L$56/12</f>
+        <f>$F6*Outputs_Internal!L$58/12</f>
         <v>0</v>
       </c>
       <c r="P6" s="63">
-        <f>$F6*Outputs_Internal!M$56/12</f>
+        <f>$F6*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q6" s="63">
-        <f>$F6*Outputs_Internal!N$56/12</f>
+        <f>$F6*Outputs_Internal!N$58/12</f>
         <v>0</v>
       </c>
       <c r="S6" s="63">
@@ -5098,23 +5231,23 @@
         <v>0</v>
       </c>
       <c r="M7" s="63">
-        <f>$F7*Outputs_Internal!$D$56/12</f>
+        <f>$F7*Outputs_Internal!$D$58/12</f>
         <v>0</v>
       </c>
       <c r="N7" s="63">
-        <f>$F7*Outputs_Internal!K$56/12</f>
+        <f>$F7*Outputs_Internal!K$58/12</f>
         <v>0</v>
       </c>
       <c r="O7" s="63">
-        <f>$F7*Outputs_Internal!L$56/12</f>
+        <f>$F7*Outputs_Internal!L$58/12</f>
         <v>0</v>
       </c>
       <c r="P7" s="63">
-        <f>$F7*Outputs_Internal!M$56/12</f>
+        <f>$F7*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q7" s="63">
-        <f>$F7*Outputs_Internal!N$56/12</f>
+        <f>$F7*Outputs_Internal!N$58/12</f>
         <v>0</v>
       </c>
       <c r="S7" s="63">
@@ -5172,23 +5305,23 @@
         <v>0</v>
       </c>
       <c r="M8" s="63">
-        <f>$F8*Outputs_Internal!$D$56/12</f>
+        <f>$F8*Outputs_Internal!$D$58/12</f>
         <v>0</v>
       </c>
       <c r="N8" s="63">
-        <f>$F8*Outputs_Internal!K$56/12</f>
+        <f>$F8*Outputs_Internal!K$58/12</f>
         <v>0</v>
       </c>
       <c r="O8" s="63">
-        <f>$F8*Outputs_Internal!L$56/12</f>
+        <f>$F8*Outputs_Internal!L$58/12</f>
         <v>0</v>
       </c>
       <c r="P8" s="63">
-        <f>$F8*Outputs_Internal!M$56/12</f>
+        <f>$F8*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q8" s="63">
-        <f>$F8*Outputs_Internal!N$56/12</f>
+        <f>$F8*Outputs_Internal!N$58/12</f>
         <v>0</v>
       </c>
       <c r="S8" s="63">
@@ -5246,24 +5379,24 @@
         <v>0</v>
       </c>
       <c r="M9" s="63">
-        <f>$F9*Outputs_Internal!$D$56/12</f>
-        <v>8902.9333333333325</v>
+        <f>$F9*Outputs_Internal!$D$58/12</f>
+        <v>15218.333333333334</v>
       </c>
       <c r="N9" s="63">
-        <f>$F9*Outputs_Internal!K$56/12</f>
-        <v>2352.6997427690162</v>
+        <f>$F9*Outputs_Internal!K$58/12</f>
+        <v>2883.6570937887609</v>
       </c>
       <c r="O9" s="63">
-        <f>$F9*Outputs_Internal!L$56/12</f>
-        <v>6550.2335905643167</v>
+        <f>$F9*Outputs_Internal!L$58/12</f>
+        <v>12334.676239544575</v>
       </c>
       <c r="P9" s="63">
-        <f>$F9*Outputs_Internal!M$56/12</f>
+        <f>$F9*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q9" s="63">
-        <f>$F9*Outputs_Internal!N$56/12</f>
-        <v>2.8337332480532497E-13</v>
+        <f>$F9*Outputs_Internal!N$58/12</f>
+        <v>0</v>
       </c>
       <c r="S9" s="63">
         <f t="shared" si="1"/>
@@ -5320,24 +5453,24 @@
         <v>0</v>
       </c>
       <c r="M10" s="63">
-        <f>$F10*Outputs_Internal!$D$56/12</f>
-        <v>8902.9333333333325</v>
+        <f>$F10*Outputs_Internal!$D$58/12</f>
+        <v>15218.333333333334</v>
       </c>
       <c r="N10" s="63">
-        <f>$F10*Outputs_Internal!K$56/12</f>
-        <v>2352.6997427690162</v>
+        <f>$F10*Outputs_Internal!K$58/12</f>
+        <v>2883.6570937887609</v>
       </c>
       <c r="O10" s="63">
-        <f>$F10*Outputs_Internal!L$56/12</f>
-        <v>6550.2335905643167</v>
+        <f>$F10*Outputs_Internal!L$58/12</f>
+        <v>12334.676239544575</v>
       </c>
       <c r="P10" s="63">
-        <f>$F10*Outputs_Internal!M$56/12</f>
+        <f>$F10*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q10" s="63">
-        <f>$F10*Outputs_Internal!N$56/12</f>
-        <v>2.8337332480532497E-13</v>
+        <f>$F10*Outputs_Internal!N$58/12</f>
+        <v>0</v>
       </c>
       <c r="S10" s="63">
         <f t="shared" si="1"/>
@@ -5394,36 +5527,36 @@
         <v>0</v>
       </c>
       <c r="M11" s="63">
-        <f>$F11*Outputs_Internal!$D$56/12</f>
-        <v>8902.9333333333325</v>
+        <f>$F11*Outputs_Internal!$D$58/12</f>
+        <v>15218.333333333334</v>
       </c>
       <c r="N11" s="63">
-        <f>$F11*Outputs_Internal!K$56/12</f>
-        <v>2352.6997427690162</v>
+        <f>$F11*Outputs_Internal!K$58/12</f>
+        <v>2883.6570937887609</v>
       </c>
       <c r="O11" s="63">
-        <f>$F11*Outputs_Internal!L$56/12</f>
-        <v>6550.2335905643167</v>
+        <f>$F11*Outputs_Internal!L$58/12</f>
+        <v>12334.676239544575</v>
       </c>
       <c r="P11" s="63">
-        <f>$F11*Outputs_Internal!M$56/12</f>
+        <f>$F11*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q11" s="63">
-        <f>$F11*Outputs_Internal!N$56/12</f>
-        <v>2.8337332480532497E-13</v>
+        <f>$F11*Outputs_Internal!N$58/12</f>
+        <v>0</v>
       </c>
       <c r="S11" s="63">
         <f t="shared" si="1"/>
-        <v>96708.800000000003</v>
+        <v>115654.99999999999</v>
       </c>
       <c r="T11" s="63">
         <f t="shared" si="2"/>
-        <v>18058.099228307048</v>
+        <v>19650.971281366285</v>
       </c>
       <c r="U11" s="63">
         <f>IF(MOD(MONTH($B11),3)=0,SUM(J9:J11,O9:O11),0)</f>
-        <v>78650.700771692937</v>
+        <v>96004.028718633708</v>
       </c>
       <c r="V11" s="63">
         <f t="shared" si="4"/>
@@ -5431,7 +5564,7 @@
       </c>
       <c r="W11" s="63">
         <f t="shared" si="5"/>
-        <v>8.5011997441597495E-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
@@ -5468,24 +5601,24 @@
         <v>0</v>
       </c>
       <c r="M12" s="63">
-        <f>$F12*Outputs_Internal!$D$56/12</f>
-        <v>8902.9333333333325</v>
+        <f>$F12*Outputs_Internal!$D$58/12</f>
+        <v>15218.333333333334</v>
       </c>
       <c r="N12" s="63">
-        <f>$F12*Outputs_Internal!K$56/12</f>
-        <v>2352.6997427690162</v>
+        <f>$F12*Outputs_Internal!K$58/12</f>
+        <v>2883.6570937887609</v>
       </c>
       <c r="O12" s="63">
-        <f>$F12*Outputs_Internal!L$56/12</f>
-        <v>6550.2335905643167</v>
+        <f>$F12*Outputs_Internal!L$58/12</f>
+        <v>12334.676239544575</v>
       </c>
       <c r="P12" s="63">
-        <f>$F12*Outputs_Internal!M$56/12</f>
+        <f>$F12*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q12" s="63">
-        <f>$F12*Outputs_Internal!N$56/12</f>
-        <v>2.8337332480532497E-13</v>
+        <f>$F12*Outputs_Internal!N$58/12</f>
+        <v>0</v>
       </c>
       <c r="S12" s="63">
         <f t="shared" si="1"/>
@@ -5542,24 +5675,24 @@
         <v>0</v>
       </c>
       <c r="M13" s="63">
-        <f>$F13*Outputs_Internal!$D$56/12</f>
-        <v>8902.9333333333325</v>
+        <f>$F13*Outputs_Internal!$D$58/12</f>
+        <v>15218.333333333334</v>
       </c>
       <c r="N13" s="63">
-        <f>$F13*Outputs_Internal!K$56/12</f>
-        <v>2352.6997427690162</v>
+        <f>$F13*Outputs_Internal!K$58/12</f>
+        <v>2883.6570937887609</v>
       </c>
       <c r="O13" s="63">
-        <f>$F13*Outputs_Internal!L$56/12</f>
-        <v>6550.2335905643167</v>
+        <f>$F13*Outputs_Internal!L$58/12</f>
+        <v>12334.676239544575</v>
       </c>
       <c r="P13" s="63">
-        <f>$F13*Outputs_Internal!M$56/12</f>
+        <f>$F13*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q13" s="63">
-        <f>$F13*Outputs_Internal!N$56/12</f>
-        <v>2.8337332480532497E-13</v>
+        <f>$F13*Outputs_Internal!N$58/12</f>
+        <v>0</v>
       </c>
       <c r="S13" s="63">
         <f t="shared" si="1"/>
@@ -5616,36 +5749,36 @@
         <v>0</v>
       </c>
       <c r="M14" s="63">
-        <f>$F14*Outputs_Internal!$D$56/12</f>
-        <v>8902.9333333333325</v>
+        <f>$F14*Outputs_Internal!$D$58/12</f>
+        <v>15218.333333333334</v>
       </c>
       <c r="N14" s="63">
-        <f>$F14*Outputs_Internal!K$56/12</f>
-        <v>2352.6997427690162</v>
+        <f>$F14*Outputs_Internal!K$58/12</f>
+        <v>2883.6570937887609</v>
       </c>
       <c r="O14" s="63">
-        <f>$F14*Outputs_Internal!L$56/12</f>
-        <v>6550.2335905643167</v>
+        <f>$F14*Outputs_Internal!L$58/12</f>
+        <v>12334.676239544575</v>
       </c>
       <c r="P14" s="63">
-        <f>$F14*Outputs_Internal!M$56/12</f>
+        <f>$F14*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q14" s="63">
-        <f>$F14*Outputs_Internal!N$56/12</f>
-        <v>2.8337332480532497E-13</v>
+        <f>$F14*Outputs_Internal!N$58/12</f>
+        <v>0</v>
       </c>
       <c r="S14" s="63">
         <f t="shared" si="1"/>
-        <v>26708.799999999996</v>
+        <v>45655</v>
       </c>
       <c r="T14" s="63">
         <f t="shared" si="2"/>
-        <v>7058.0992283070482</v>
+        <v>8650.9712813662827</v>
       </c>
       <c r="U14" s="63">
         <f t="shared" si="3"/>
-        <v>19650.700771692951</v>
+        <v>37004.028718633723</v>
       </c>
       <c r="V14" s="63">
         <f t="shared" si="4"/>
@@ -5653,7 +5786,7 @@
       </c>
       <c r="W14" s="63">
         <f t="shared" si="5"/>
-        <v>8.5011997441597495E-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
@@ -5690,24 +5823,24 @@
         <v>0</v>
       </c>
       <c r="M15" s="63">
-        <f>$F15*Outputs_Internal!$D$56/12</f>
-        <v>8902.9333333333325</v>
+        <f>$F15*Outputs_Internal!$D$58/12</f>
+        <v>15218.333333333334</v>
       </c>
       <c r="N15" s="63">
-        <f>$F15*Outputs_Internal!K$56/12</f>
-        <v>2352.6997427690162</v>
+        <f>$F15*Outputs_Internal!K$58/12</f>
+        <v>2883.6570937887609</v>
       </c>
       <c r="O15" s="63">
-        <f>$F15*Outputs_Internal!L$56/12</f>
-        <v>6550.2335905643167</v>
+        <f>$F15*Outputs_Internal!L$58/12</f>
+        <v>12334.676239544575</v>
       </c>
       <c r="P15" s="63">
-        <f>$F15*Outputs_Internal!M$56/12</f>
+        <f>$F15*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q15" s="63">
-        <f>$F15*Outputs_Internal!N$56/12</f>
-        <v>2.8337332480532497E-13</v>
+        <f>$F15*Outputs_Internal!N$58/12</f>
+        <v>0</v>
       </c>
       <c r="S15" s="63">
         <f t="shared" si="1"/>
@@ -5764,24 +5897,24 @@
         <v>0</v>
       </c>
       <c r="M16" s="63">
-        <f>$F16*Outputs_Internal!$D$56/12</f>
-        <v>8902.9333333333325</v>
+        <f>$F16*Outputs_Internal!$D$58/12</f>
+        <v>15218.333333333334</v>
       </c>
       <c r="N16" s="63">
-        <f>$F16*Outputs_Internal!K$56/12</f>
-        <v>2352.6997427690162</v>
+        <f>$F16*Outputs_Internal!K$58/12</f>
+        <v>2883.6570937887609</v>
       </c>
       <c r="O16" s="63">
-        <f>$F16*Outputs_Internal!L$56/12</f>
-        <v>6550.2335905643167</v>
+        <f>$F16*Outputs_Internal!L$58/12</f>
+        <v>12334.676239544575</v>
       </c>
       <c r="P16" s="63">
-        <f>$F16*Outputs_Internal!M$56/12</f>
+        <f>$F16*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q16" s="63">
-        <f>$F16*Outputs_Internal!N$56/12</f>
-        <v>2.8337332480532497E-13</v>
+        <f>$F16*Outputs_Internal!N$58/12</f>
+        <v>0</v>
       </c>
       <c r="S16" s="63">
         <f t="shared" si="1"/>
@@ -5838,36 +5971,36 @@
         <v>0</v>
       </c>
       <c r="M17" s="63">
-        <f>$F17*Outputs_Internal!$D$56/12</f>
-        <v>8902.9333333333325</v>
+        <f>$F17*Outputs_Internal!$D$58/12</f>
+        <v>15218.333333333334</v>
       </c>
       <c r="N17" s="63">
-        <f>$F17*Outputs_Internal!K$56/12</f>
-        <v>2352.6997427690162</v>
+        <f>$F17*Outputs_Internal!K$58/12</f>
+        <v>2883.6570937887609</v>
       </c>
       <c r="O17" s="63">
-        <f>$F17*Outputs_Internal!L$56/12</f>
-        <v>6550.2335905643167</v>
+        <f>$F17*Outputs_Internal!L$58/12</f>
+        <v>12334.676239544575</v>
       </c>
       <c r="P17" s="63">
-        <f>$F17*Outputs_Internal!M$56/12</f>
+        <f>$F17*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q17" s="63">
-        <f>$F17*Outputs_Internal!N$56/12</f>
-        <v>2.8337332480532497E-13</v>
+        <f>$F17*Outputs_Internal!N$58/12</f>
+        <v>0</v>
       </c>
       <c r="S17" s="63">
         <f t="shared" si="1"/>
-        <v>26708.799999999996</v>
+        <v>45655</v>
       </c>
       <c r="T17" s="63">
         <f t="shared" si="2"/>
-        <v>7058.0992283070482</v>
+        <v>8650.9712813662827</v>
       </c>
       <c r="U17" s="63">
         <f t="shared" si="3"/>
-        <v>19650.700771692951</v>
+        <v>37004.028718633723</v>
       </c>
       <c r="V17" s="63">
         <f t="shared" si="4"/>
@@ -5875,7 +6008,7 @@
       </c>
       <c r="W17" s="63">
         <f t="shared" si="5"/>
-        <v>8.5011997441597495E-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.25">
@@ -5912,24 +6045,24 @@
         <v>0</v>
       </c>
       <c r="M18" s="63">
-        <f>$F18*Outputs_Internal!$D$56/12</f>
-        <v>8902.9333333333325</v>
+        <f>$F18*Outputs_Internal!$D$58/12</f>
+        <v>15218.333333333334</v>
       </c>
       <c r="N18" s="63">
-        <f>$F18*Outputs_Internal!K$56/12</f>
-        <v>2352.6997427690162</v>
+        <f>$F18*Outputs_Internal!K$58/12</f>
+        <v>2883.6570937887609</v>
       </c>
       <c r="O18" s="63">
-        <f>$F18*Outputs_Internal!L$56/12</f>
-        <v>6550.2335905643167</v>
+        <f>$F18*Outputs_Internal!L$58/12</f>
+        <v>12334.676239544575</v>
       </c>
       <c r="P18" s="63">
-        <f>$F18*Outputs_Internal!M$56/12</f>
+        <f>$F18*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q18" s="63">
-        <f>$F18*Outputs_Internal!N$56/12</f>
-        <v>2.8337332480532497E-13</v>
+        <f>$F18*Outputs_Internal!N$58/12</f>
+        <v>0</v>
       </c>
       <c r="S18" s="63">
         <f t="shared" si="1"/>
@@ -5986,24 +6119,24 @@
         <v>0</v>
       </c>
       <c r="M19" s="63">
-        <f>$F19*Outputs_Internal!$D$56/12</f>
-        <v>8902.9333333333325</v>
+        <f>$F19*Outputs_Internal!$D$58/12</f>
+        <v>15218.333333333334</v>
       </c>
       <c r="N19" s="63">
-        <f>$F19*Outputs_Internal!K$56/12</f>
-        <v>2352.6997427690162</v>
+        <f>$F19*Outputs_Internal!K$58/12</f>
+        <v>2883.6570937887609</v>
       </c>
       <c r="O19" s="63">
-        <f>$F19*Outputs_Internal!L$56/12</f>
-        <v>6550.2335905643167</v>
+        <f>$F19*Outputs_Internal!L$58/12</f>
+        <v>12334.676239544575</v>
       </c>
       <c r="P19" s="63">
-        <f>$F19*Outputs_Internal!M$56/12</f>
+        <f>$F19*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q19" s="63">
-        <f>$F19*Outputs_Internal!N$56/12</f>
-        <v>2.8337332480532497E-13</v>
+        <f>$F19*Outputs_Internal!N$58/12</f>
+        <v>0</v>
       </c>
       <c r="S19" s="63">
         <f t="shared" si="1"/>
@@ -6060,36 +6193,36 @@
         <v>0</v>
       </c>
       <c r="M20" s="63">
-        <f>$F20*Outputs_Internal!$D$56/12</f>
-        <v>8902.9333333333325</v>
+        <f>$F20*Outputs_Internal!$D$58/12</f>
+        <v>15218.333333333334</v>
       </c>
       <c r="N20" s="63">
-        <f>$F20*Outputs_Internal!K$56/12</f>
-        <v>2352.6997427690162</v>
+        <f>$F20*Outputs_Internal!K$58/12</f>
+        <v>2883.6570937887609</v>
       </c>
       <c r="O20" s="63">
-        <f>$F20*Outputs_Internal!L$56/12</f>
-        <v>6550.2335905643167</v>
+        <f>$F20*Outputs_Internal!L$58/12</f>
+        <v>12334.676239544575</v>
       </c>
       <c r="P20" s="63">
-        <f>$F20*Outputs_Internal!M$56/12</f>
+        <f>$F20*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q20" s="63">
-        <f>$F20*Outputs_Internal!N$56/12</f>
-        <v>2.8337332480532497E-13</v>
+        <f>$F20*Outputs_Internal!N$58/12</f>
+        <v>0</v>
       </c>
       <c r="S20" s="63">
         <f t="shared" si="1"/>
-        <v>26708.799999999996</v>
+        <v>45655</v>
       </c>
       <c r="T20" s="63">
         <f t="shared" si="2"/>
-        <v>7058.0992283070482</v>
+        <v>8650.9712813662827</v>
       </c>
       <c r="U20" s="63">
         <f t="shared" si="3"/>
-        <v>19650.700771692951</v>
+        <v>37004.028718633723</v>
       </c>
       <c r="V20" s="63">
         <f t="shared" si="4"/>
@@ -6097,7 +6230,7 @@
       </c>
       <c r="W20" s="63">
         <f t="shared" si="5"/>
-        <v>8.5011997441597495E-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.25">
@@ -6134,24 +6267,24 @@
         <v>0</v>
       </c>
       <c r="M21" s="63">
-        <f>$F21*Outputs_Internal!$D$56/12</f>
-        <v>8902.9333333333325</v>
+        <f>$F21*Outputs_Internal!$D$58/12</f>
+        <v>15218.333333333334</v>
       </c>
       <c r="N21" s="63">
-        <f>$F21*Outputs_Internal!K$56/12</f>
-        <v>2352.6997427690162</v>
+        <f>$F21*Outputs_Internal!K$58/12</f>
+        <v>2883.6570937887609</v>
       </c>
       <c r="O21" s="63">
-        <f>$F21*Outputs_Internal!L$56/12</f>
-        <v>6550.2335905643167</v>
+        <f>$F21*Outputs_Internal!L$58/12</f>
+        <v>12334.676239544575</v>
       </c>
       <c r="P21" s="63">
-        <f>$F21*Outputs_Internal!M$56/12</f>
+        <f>$F21*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q21" s="63">
-        <f>$F21*Outputs_Internal!N$56/12</f>
-        <v>2.8337332480532497E-13</v>
+        <f>$F21*Outputs_Internal!N$58/12</f>
+        <v>0</v>
       </c>
       <c r="S21" s="63">
         <f t="shared" si="1"/>
@@ -6208,24 +6341,24 @@
         <v>0</v>
       </c>
       <c r="M22" s="63">
-        <f>$F22*Outputs_Internal!$D$56/12</f>
-        <v>8902.9333333333325</v>
+        <f>$F22*Outputs_Internal!$D$58/12</f>
+        <v>15218.333333333334</v>
       </c>
       <c r="N22" s="63">
-        <f>$F22*Outputs_Internal!K$56/12</f>
-        <v>2352.6997427690162</v>
+        <f>$F22*Outputs_Internal!K$58/12</f>
+        <v>2883.6570937887609</v>
       </c>
       <c r="O22" s="63">
-        <f>$F22*Outputs_Internal!L$56/12</f>
-        <v>6550.2335905643167</v>
+        <f>$F22*Outputs_Internal!L$58/12</f>
+        <v>12334.676239544575</v>
       </c>
       <c r="P22" s="63">
-        <f>$F22*Outputs_Internal!M$56/12</f>
+        <f>$F22*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q22" s="63">
-        <f>$F22*Outputs_Internal!N$56/12</f>
-        <v>2.8337332480532497E-13</v>
+        <f>$F22*Outputs_Internal!N$58/12</f>
+        <v>0</v>
       </c>
       <c r="S22" s="63">
         <f t="shared" si="1"/>
@@ -6282,36 +6415,36 @@
         <v>0</v>
       </c>
       <c r="M23" s="63">
-        <f>$F23*Outputs_Internal!$D$56/12</f>
-        <v>8902.9333333333325</v>
+        <f>$F23*Outputs_Internal!$D$58/12</f>
+        <v>15218.333333333334</v>
       </c>
       <c r="N23" s="63">
-        <f>$F23*Outputs_Internal!K$56/12</f>
-        <v>2352.6997427690162</v>
+        <f>$F23*Outputs_Internal!K$58/12</f>
+        <v>2883.6570937887609</v>
       </c>
       <c r="O23" s="63">
-        <f>$F23*Outputs_Internal!L$56/12</f>
-        <v>6550.2335905643167</v>
+        <f>$F23*Outputs_Internal!L$58/12</f>
+        <v>12334.676239544575</v>
       </c>
       <c r="P23" s="63">
-        <f>$F23*Outputs_Internal!M$56/12</f>
+        <f>$F23*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q23" s="63">
-        <f>$F23*Outputs_Internal!N$56/12</f>
-        <v>2.8337332480532497E-13</v>
+        <f>$F23*Outputs_Internal!N$58/12</f>
+        <v>0</v>
       </c>
       <c r="S23" s="63">
         <f t="shared" si="1"/>
-        <v>26708.799999999996</v>
+        <v>45655</v>
       </c>
       <c r="T23" s="63">
         <f t="shared" si="2"/>
-        <v>7058.0992283070482</v>
+        <v>8650.9712813662827</v>
       </c>
       <c r="U23" s="63">
         <f t="shared" si="3"/>
-        <v>19650.700771692951</v>
+        <v>37004.028718633723</v>
       </c>
       <c r="V23" s="63">
         <f t="shared" si="4"/>
@@ -6319,7 +6452,7 @@
       </c>
       <c r="W23" s="63">
         <f t="shared" si="5"/>
-        <v>8.5011997441597495E-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.25">
@@ -6356,24 +6489,24 @@
         <v>0</v>
       </c>
       <c r="M24" s="63">
-        <f>$F24*Outputs_Internal!$D$56/12</f>
-        <v>8902.9333333333325</v>
+        <f>$F24*Outputs_Internal!$D$58/12</f>
+        <v>15218.333333333334</v>
       </c>
       <c r="N24" s="63">
-        <f>$F24*Outputs_Internal!K$56/12</f>
-        <v>2352.6997427690162</v>
+        <f>$F24*Outputs_Internal!K$58/12</f>
+        <v>2883.6570937887609</v>
       </c>
       <c r="O24" s="63">
-        <f>$F24*Outputs_Internal!L$56/12</f>
-        <v>6550.2335905643167</v>
+        <f>$F24*Outputs_Internal!L$58/12</f>
+        <v>12334.676239544575</v>
       </c>
       <c r="P24" s="63">
-        <f>$F24*Outputs_Internal!M$56/12</f>
+        <f>$F24*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q24" s="63">
-        <f>$F24*Outputs_Internal!N$56/12</f>
-        <v>2.8337332480532497E-13</v>
+        <f>$F24*Outputs_Internal!N$58/12</f>
+        <v>0</v>
       </c>
       <c r="S24" s="63">
         <f t="shared" si="1"/>
@@ -6430,24 +6563,24 @@
         <v>0</v>
       </c>
       <c r="M25" s="63">
-        <f>$F25*Outputs_Internal!$D$56/12</f>
-        <v>8902.9333333333325</v>
+        <f>$F25*Outputs_Internal!$D$58/12</f>
+        <v>15218.333333333334</v>
       </c>
       <c r="N25" s="63">
-        <f>$F25*Outputs_Internal!K$56/12</f>
-        <v>2352.6997427690162</v>
+        <f>$F25*Outputs_Internal!K$58/12</f>
+        <v>2883.6570937887609</v>
       </c>
       <c r="O25" s="63">
-        <f>$F25*Outputs_Internal!L$56/12</f>
-        <v>6550.2335905643167</v>
+        <f>$F25*Outputs_Internal!L$58/12</f>
+        <v>12334.676239544575</v>
       </c>
       <c r="P25" s="63">
-        <f>$F25*Outputs_Internal!M$56/12</f>
+        <f>$F25*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q25" s="63">
-        <f>$F25*Outputs_Internal!N$56/12</f>
-        <v>2.8337332480532497E-13</v>
+        <f>$F25*Outputs_Internal!N$58/12</f>
+        <v>0</v>
       </c>
       <c r="S25" s="63">
         <f t="shared" si="1"/>
@@ -6504,36 +6637,36 @@
         <v>0</v>
       </c>
       <c r="M26" s="63">
-        <f>$F26*Outputs_Internal!$D$56/12</f>
-        <v>8902.9333333333325</v>
+        <f>$F26*Outputs_Internal!$D$58/12</f>
+        <v>15218.333333333334</v>
       </c>
       <c r="N26" s="63">
-        <f>$F26*Outputs_Internal!K$56/12</f>
-        <v>2352.6997427690162</v>
+        <f>$F26*Outputs_Internal!K$58/12</f>
+        <v>2883.6570937887609</v>
       </c>
       <c r="O26" s="63">
-        <f>$F26*Outputs_Internal!L$56/12</f>
-        <v>6550.2335905643167</v>
+        <f>$F26*Outputs_Internal!L$58/12</f>
+        <v>12334.676239544575</v>
       </c>
       <c r="P26" s="63">
-        <f>$F26*Outputs_Internal!M$56/12</f>
+        <f>$F26*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q26" s="63">
-        <f>$F26*Outputs_Internal!N$56/12</f>
-        <v>2.8337332480532497E-13</v>
+        <f>$F26*Outputs_Internal!N$58/12</f>
+        <v>0</v>
       </c>
       <c r="S26" s="63">
         <f t="shared" si="1"/>
-        <v>26708.799999999996</v>
+        <v>45655</v>
       </c>
       <c r="T26" s="63">
         <f t="shared" si="2"/>
-        <v>7058.0992283070482</v>
+        <v>8650.9712813662827</v>
       </c>
       <c r="U26" s="63">
         <f t="shared" si="3"/>
-        <v>19650.700771692951</v>
+        <v>37004.028718633723</v>
       </c>
       <c r="V26" s="63">
         <f t="shared" si="4"/>
@@ -6541,7 +6674,7 @@
       </c>
       <c r="W26" s="63">
         <f t="shared" si="5"/>
-        <v>8.5011997441597495E-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.25">
@@ -6578,24 +6711,24 @@
         <v>0</v>
       </c>
       <c r="M27" s="63">
-        <f>$F27*Outputs_Internal!$D$56/12</f>
-        <v>8902.9333333333325</v>
+        <f>$F27*Outputs_Internal!$D$58/12</f>
+        <v>15218.333333333334</v>
       </c>
       <c r="N27" s="63">
-        <f>$F27*Outputs_Internal!K$56/12</f>
-        <v>2352.6997427690162</v>
+        <f>$F27*Outputs_Internal!K$58/12</f>
+        <v>2883.6570937887609</v>
       </c>
       <c r="O27" s="63">
-        <f>$F27*Outputs_Internal!L$56/12</f>
-        <v>6550.2335905643167</v>
+        <f>$F27*Outputs_Internal!L$58/12</f>
+        <v>12334.676239544575</v>
       </c>
       <c r="P27" s="63">
-        <f>$F27*Outputs_Internal!M$56/12</f>
+        <f>$F27*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q27" s="63">
-        <f>$F27*Outputs_Internal!N$56/12</f>
-        <v>2.8337332480532497E-13</v>
+        <f>$F27*Outputs_Internal!N$58/12</f>
+        <v>0</v>
       </c>
       <c r="S27" s="63">
         <f t="shared" si="1"/>
@@ -6652,24 +6785,24 @@
         <v>0</v>
       </c>
       <c r="M28" s="63">
-        <f>$F28*Outputs_Internal!$D$56/12</f>
-        <v>8902.9333333333325</v>
+        <f>$F28*Outputs_Internal!$D$58/12</f>
+        <v>15218.333333333334</v>
       </c>
       <c r="N28" s="63">
-        <f>$F28*Outputs_Internal!K$56/12</f>
-        <v>2352.6997427690162</v>
+        <f>$F28*Outputs_Internal!K$58/12</f>
+        <v>2883.6570937887609</v>
       </c>
       <c r="O28" s="63">
-        <f>$F28*Outputs_Internal!L$56/12</f>
-        <v>6550.2335905643167</v>
+        <f>$F28*Outputs_Internal!L$58/12</f>
+        <v>12334.676239544575</v>
       </c>
       <c r="P28" s="63">
-        <f>$F28*Outputs_Internal!M$56/12</f>
+        <f>$F28*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q28" s="63">
-        <f>$F28*Outputs_Internal!N$56/12</f>
-        <v>2.8337332480532497E-13</v>
+        <f>$F28*Outputs_Internal!N$58/12</f>
+        <v>0</v>
       </c>
       <c r="S28" s="63">
         <f t="shared" si="1"/>
@@ -6726,36 +6859,36 @@
         <v>0</v>
       </c>
       <c r="M29" s="63">
-        <f>$F29*Outputs_Internal!$D$56/12</f>
-        <v>8902.9333333333325</v>
+        <f>$F29*Outputs_Internal!$D$58/12</f>
+        <v>15218.333333333334</v>
       </c>
       <c r="N29" s="63">
-        <f>$F29*Outputs_Internal!K$56/12</f>
-        <v>2352.6997427690162</v>
+        <f>$F29*Outputs_Internal!K$58/12</f>
+        <v>2883.6570937887609</v>
       </c>
       <c r="O29" s="63">
-        <f>$F29*Outputs_Internal!L$56/12</f>
-        <v>6550.2335905643167</v>
+        <f>$F29*Outputs_Internal!L$58/12</f>
+        <v>12334.676239544575</v>
       </c>
       <c r="P29" s="63">
-        <f>$F29*Outputs_Internal!M$56/12</f>
+        <f>$F29*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q29" s="63">
-        <f>$F29*Outputs_Internal!N$56/12</f>
-        <v>2.8337332480532497E-13</v>
+        <f>$F29*Outputs_Internal!N$58/12</f>
+        <v>0</v>
       </c>
       <c r="S29" s="63">
         <f t="shared" si="1"/>
-        <v>26708.799999999996</v>
+        <v>45655</v>
       </c>
       <c r="T29" s="63">
         <f t="shared" si="2"/>
-        <v>7058.0992283070482</v>
+        <v>8650.9712813662827</v>
       </c>
       <c r="U29" s="63">
         <f t="shared" si="3"/>
-        <v>19650.700771692951</v>
+        <v>37004.028718633723</v>
       </c>
       <c r="V29" s="63">
         <f t="shared" si="4"/>
@@ -6763,7 +6896,7 @@
       </c>
       <c r="W29" s="63">
         <f t="shared" si="5"/>
-        <v>8.5011997441597495E-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.25">
@@ -6800,24 +6933,24 @@
         <v>0</v>
       </c>
       <c r="M30" s="63">
-        <f>$F30*Outputs_Internal!$D$56/12</f>
-        <v>8902.9333333333325</v>
+        <f>$F30*Outputs_Internal!$D$58/12</f>
+        <v>15218.333333333334</v>
       </c>
       <c r="N30" s="63">
-        <f>$F30*Outputs_Internal!K$56/12</f>
-        <v>2352.6997427690162</v>
+        <f>$F30*Outputs_Internal!K$58/12</f>
+        <v>2883.6570937887609</v>
       </c>
       <c r="O30" s="63">
-        <f>$F30*Outputs_Internal!L$56/12</f>
-        <v>6550.2335905643167</v>
+        <f>$F30*Outputs_Internal!L$58/12</f>
+        <v>12334.676239544575</v>
       </c>
       <c r="P30" s="63">
-        <f>$F30*Outputs_Internal!M$56/12</f>
+        <f>$F30*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q30" s="63">
-        <f>$F30*Outputs_Internal!N$56/12</f>
-        <v>2.8337332480532497E-13</v>
+        <f>$F30*Outputs_Internal!N$58/12</f>
+        <v>0</v>
       </c>
       <c r="S30" s="63">
         <f t="shared" si="1"/>
@@ -6874,24 +7007,24 @@
         <v>0</v>
       </c>
       <c r="M31" s="63">
-        <f>$F31*Outputs_Internal!$D$56/12</f>
-        <v>8902.9333333333325</v>
+        <f>$F31*Outputs_Internal!$D$58/12</f>
+        <v>15218.333333333334</v>
       </c>
       <c r="N31" s="63">
-        <f>$F31*Outputs_Internal!K$56/12</f>
-        <v>2352.6997427690162</v>
+        <f>$F31*Outputs_Internal!K$58/12</f>
+        <v>2883.6570937887609</v>
       </c>
       <c r="O31" s="63">
-        <f>$F31*Outputs_Internal!L$56/12</f>
-        <v>6550.2335905643167</v>
+        <f>$F31*Outputs_Internal!L$58/12</f>
+        <v>12334.676239544575</v>
       </c>
       <c r="P31" s="63">
-        <f>$F31*Outputs_Internal!M$56/12</f>
+        <f>$F31*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q31" s="63">
-        <f>$F31*Outputs_Internal!N$56/12</f>
-        <v>2.8337332480532497E-13</v>
+        <f>$F31*Outputs_Internal!N$58/12</f>
+        <v>0</v>
       </c>
       <c r="S31" s="63">
         <f t="shared" si="1"/>
@@ -6948,36 +7081,36 @@
         <v>0</v>
       </c>
       <c r="M32" s="63">
-        <f>$F32*Outputs_Internal!$D$56/12</f>
-        <v>8902.9333333333325</v>
+        <f>$F32*Outputs_Internal!$D$58/12</f>
+        <v>15218.333333333334</v>
       </c>
       <c r="N32" s="63">
-        <f>$F32*Outputs_Internal!K$56/12</f>
-        <v>2352.6997427690162</v>
+        <f>$F32*Outputs_Internal!K$58/12</f>
+        <v>2883.6570937887609</v>
       </c>
       <c r="O32" s="63">
-        <f>$F32*Outputs_Internal!L$56/12</f>
-        <v>6550.2335905643167</v>
+        <f>$F32*Outputs_Internal!L$58/12</f>
+        <v>12334.676239544575</v>
       </c>
       <c r="P32" s="63">
-        <f>$F32*Outputs_Internal!M$56/12</f>
+        <f>$F32*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q32" s="63">
-        <f>$F32*Outputs_Internal!N$56/12</f>
-        <v>2.8337332480532497E-13</v>
+        <f>$F32*Outputs_Internal!N$58/12</f>
+        <v>0</v>
       </c>
       <c r="S32" s="63">
         <f t="shared" si="1"/>
-        <v>26708.799999999996</v>
+        <v>45655</v>
       </c>
       <c r="T32" s="63">
         <f t="shared" si="2"/>
-        <v>7058.0992283070482</v>
+        <v>8650.9712813662827</v>
       </c>
       <c r="U32" s="63">
         <f t="shared" si="3"/>
-        <v>19650.700771692951</v>
+        <v>37004.028718633723</v>
       </c>
       <c r="V32" s="63">
         <f t="shared" si="4"/>
@@ -6985,7 +7118,7 @@
       </c>
       <c r="W32" s="63">
         <f t="shared" si="5"/>
-        <v>8.5011997441597495E-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.25">
@@ -7022,24 +7155,24 @@
         <v>0</v>
       </c>
       <c r="M33" s="63">
-        <f>$F33*Outputs_Internal!$D$56/12</f>
-        <v>8902.9333333333325</v>
+        <f>$F33*Outputs_Internal!$D$58/12</f>
+        <v>15218.333333333334</v>
       </c>
       <c r="N33" s="63">
-        <f>$F33*Outputs_Internal!K$56/12</f>
-        <v>2352.6997427690162</v>
+        <f>$F33*Outputs_Internal!K$58/12</f>
+        <v>2883.6570937887609</v>
       </c>
       <c r="O33" s="63">
-        <f>$F33*Outputs_Internal!L$56/12</f>
-        <v>6550.2335905643167</v>
+        <f>$F33*Outputs_Internal!L$58/12</f>
+        <v>12334.676239544575</v>
       </c>
       <c r="P33" s="63">
-        <f>$F33*Outputs_Internal!M$56/12</f>
+        <f>$F33*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q33" s="63">
-        <f>$F33*Outputs_Internal!N$56/12</f>
-        <v>2.8337332480532497E-13</v>
+        <f>$F33*Outputs_Internal!N$58/12</f>
+        <v>0</v>
       </c>
       <c r="S33" s="63">
         <f t="shared" si="1"/>
@@ -7096,24 +7229,24 @@
         <v>0</v>
       </c>
       <c r="M34" s="63">
-        <f>$F34*Outputs_Internal!$D$56/12</f>
-        <v>8902.9333333333325</v>
+        <f>$F34*Outputs_Internal!$D$58/12</f>
+        <v>15218.333333333334</v>
       </c>
       <c r="N34" s="63">
-        <f>$F34*Outputs_Internal!K$56/12</f>
-        <v>2352.6997427690162</v>
+        <f>$F34*Outputs_Internal!K$58/12</f>
+        <v>2883.6570937887609</v>
       </c>
       <c r="O34" s="63">
-        <f>$F34*Outputs_Internal!L$56/12</f>
-        <v>6550.2335905643167</v>
+        <f>$F34*Outputs_Internal!L$58/12</f>
+        <v>12334.676239544575</v>
       </c>
       <c r="P34" s="63">
-        <f>$F34*Outputs_Internal!M$56/12</f>
+        <f>$F34*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q34" s="63">
-        <f>$F34*Outputs_Internal!N$56/12</f>
-        <v>2.8337332480532497E-13</v>
+        <f>$F34*Outputs_Internal!N$58/12</f>
+        <v>0</v>
       </c>
       <c r="S34" s="63">
         <f t="shared" si="1"/>
@@ -7170,36 +7303,36 @@
         <v>0</v>
       </c>
       <c r="M35" s="63">
-        <f>$F35*Outputs_Internal!$D$56/12</f>
-        <v>8902.9333333333325</v>
+        <f>$F35*Outputs_Internal!$D$58/12</f>
+        <v>15218.333333333334</v>
       </c>
       <c r="N35" s="63">
-        <f>$F35*Outputs_Internal!K$56/12</f>
-        <v>2352.6997427690162</v>
+        <f>$F35*Outputs_Internal!K$58/12</f>
+        <v>2883.6570937887609</v>
       </c>
       <c r="O35" s="63">
-        <f>$F35*Outputs_Internal!L$56/12</f>
-        <v>6550.2335905643167</v>
+        <f>$F35*Outputs_Internal!L$58/12</f>
+        <v>12334.676239544575</v>
       </c>
       <c r="P35" s="63">
-        <f>$F35*Outputs_Internal!M$56/12</f>
+        <f>$F35*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q35" s="63">
-        <f>$F35*Outputs_Internal!N$56/12</f>
-        <v>2.8337332480532497E-13</v>
+        <f>$F35*Outputs_Internal!N$58/12</f>
+        <v>0</v>
       </c>
       <c r="S35" s="63">
         <f t="shared" si="1"/>
-        <v>26708.799999999996</v>
+        <v>45655</v>
       </c>
       <c r="T35" s="63">
         <f t="shared" si="2"/>
-        <v>7058.0992283070482</v>
+        <v>8650.9712813662827</v>
       </c>
       <c r="U35" s="63">
         <f t="shared" si="3"/>
-        <v>19650.700771692951</v>
+        <v>37004.028718633723</v>
       </c>
       <c r="V35" s="63">
         <f t="shared" si="4"/>
@@ -7207,7 +7340,7 @@
       </c>
       <c r="W35" s="63">
         <f t="shared" si="5"/>
-        <v>8.5011997441597495E-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.25">
@@ -7244,24 +7377,24 @@
         <v>0</v>
       </c>
       <c r="M36" s="63">
-        <f>$F36*Outputs_Internal!$D$56/12</f>
-        <v>8902.9333333333325</v>
+        <f>$F36*Outputs_Internal!$D$58/12</f>
+        <v>15218.333333333334</v>
       </c>
       <c r="N36" s="63">
-        <f>$F36*Outputs_Internal!K$56/12</f>
-        <v>2352.6997427690162</v>
+        <f>$F36*Outputs_Internal!K$58/12</f>
+        <v>2883.6570937887609</v>
       </c>
       <c r="O36" s="63">
-        <f>$F36*Outputs_Internal!L$56/12</f>
-        <v>6550.2335905643167</v>
+        <f>$F36*Outputs_Internal!L$58/12</f>
+        <v>12334.676239544575</v>
       </c>
       <c r="P36" s="63">
-        <f>$F36*Outputs_Internal!M$56/12</f>
+        <f>$F36*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q36" s="63">
-        <f>$F36*Outputs_Internal!N$56/12</f>
-        <v>2.8337332480532497E-13</v>
+        <f>$F36*Outputs_Internal!N$58/12</f>
+        <v>0</v>
       </c>
       <c r="S36" s="63">
         <f t="shared" si="1"/>
@@ -7318,24 +7451,24 @@
         <v>0</v>
       </c>
       <c r="M37" s="63">
-        <f>$F37*Outputs_Internal!$D$56/12</f>
-        <v>8902.9333333333325</v>
+        <f>$F37*Outputs_Internal!$D$58/12</f>
+        <v>15218.333333333334</v>
       </c>
       <c r="N37" s="63">
-        <f>$F37*Outputs_Internal!K$56/12</f>
-        <v>2352.6997427690162</v>
+        <f>$F37*Outputs_Internal!K$58/12</f>
+        <v>2883.6570937887609</v>
       </c>
       <c r="O37" s="63">
-        <f>$F37*Outputs_Internal!L$56/12</f>
-        <v>6550.2335905643167</v>
+        <f>$F37*Outputs_Internal!L$58/12</f>
+        <v>12334.676239544575</v>
       </c>
       <c r="P37" s="63">
-        <f>$F37*Outputs_Internal!M$56/12</f>
+        <f>$F37*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q37" s="63">
-        <f>$F37*Outputs_Internal!N$56/12</f>
-        <v>2.8337332480532497E-13</v>
+        <f>$F37*Outputs_Internal!N$58/12</f>
+        <v>0</v>
       </c>
       <c r="S37" s="63">
         <f t="shared" si="1"/>
@@ -7392,36 +7525,36 @@
         <v>0</v>
       </c>
       <c r="M38" s="63">
-        <f>$F38*Outputs_Internal!$D$56/12</f>
-        <v>8902.9333333333325</v>
+        <f>$F38*Outputs_Internal!$D$58/12</f>
+        <v>15218.333333333334</v>
       </c>
       <c r="N38" s="63">
-        <f>$F38*Outputs_Internal!K$56/12</f>
-        <v>2352.6997427690162</v>
+        <f>$F38*Outputs_Internal!K$58/12</f>
+        <v>2883.6570937887609</v>
       </c>
       <c r="O38" s="63">
-        <f>$F38*Outputs_Internal!L$56/12</f>
-        <v>6550.2335905643167</v>
+        <f>$F38*Outputs_Internal!L$58/12</f>
+        <v>12334.676239544575</v>
       </c>
       <c r="P38" s="63">
-        <f>$F38*Outputs_Internal!M$56/12</f>
+        <f>$F38*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q38" s="63">
-        <f>$F38*Outputs_Internal!N$56/12</f>
-        <v>2.8337332480532497E-13</v>
+        <f>$F38*Outputs_Internal!N$58/12</f>
+        <v>0</v>
       </c>
       <c r="S38" s="63">
         <f t="shared" si="1"/>
-        <v>26708.799999999996</v>
+        <v>45655</v>
       </c>
       <c r="T38" s="63">
         <f t="shared" si="2"/>
-        <v>7058.0992283070482</v>
+        <v>8650.9712813662827</v>
       </c>
       <c r="U38" s="63">
         <f t="shared" si="3"/>
-        <v>19650.700771692951</v>
+        <v>37004.028718633723</v>
       </c>
       <c r="V38" s="63">
         <f t="shared" si="4"/>
@@ -7429,7 +7562,7 @@
       </c>
       <c r="W38" s="63">
         <f t="shared" si="5"/>
-        <v>8.5011997441597495E-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.25">
@@ -7466,24 +7599,24 @@
         <v>0</v>
       </c>
       <c r="M39" s="63">
-        <f>$F39*Outputs_Internal!$D$56/12</f>
-        <v>8902.9333333333325</v>
+        <f>$F39*Outputs_Internal!$D$58/12</f>
+        <v>15218.333333333334</v>
       </c>
       <c r="N39" s="63">
-        <f>$F39*Outputs_Internal!K$56/12</f>
-        <v>2352.6997427690162</v>
+        <f>$F39*Outputs_Internal!K$58/12</f>
+        <v>2883.6570937887609</v>
       </c>
       <c r="O39" s="63">
-        <f>$F39*Outputs_Internal!L$56/12</f>
-        <v>6550.2335905643167</v>
+        <f>$F39*Outputs_Internal!L$58/12</f>
+        <v>12334.676239544575</v>
       </c>
       <c r="P39" s="63">
-        <f>$F39*Outputs_Internal!M$56/12</f>
+        <f>$F39*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q39" s="63">
-        <f>$F39*Outputs_Internal!N$56/12</f>
-        <v>2.8337332480532497E-13</v>
+        <f>$F39*Outputs_Internal!N$58/12</f>
+        <v>0</v>
       </c>
       <c r="S39" s="63">
         <f t="shared" si="1"/>
@@ -7540,24 +7673,24 @@
         <v>0</v>
       </c>
       <c r="M40" s="63">
-        <f>$F40*Outputs_Internal!$D$56/12</f>
-        <v>8902.9333333333325</v>
+        <f>$F40*Outputs_Internal!$D$58/12</f>
+        <v>15218.333333333334</v>
       </c>
       <c r="N40" s="63">
-        <f>$F40*Outputs_Internal!K$56/12</f>
-        <v>2352.6997427690162</v>
+        <f>$F40*Outputs_Internal!K$58/12</f>
+        <v>2883.6570937887609</v>
       </c>
       <c r="O40" s="63">
-        <f>$F40*Outputs_Internal!L$56/12</f>
-        <v>6550.2335905643167</v>
+        <f>$F40*Outputs_Internal!L$58/12</f>
+        <v>12334.676239544575</v>
       </c>
       <c r="P40" s="63">
-        <f>$F40*Outputs_Internal!M$56/12</f>
+        <f>$F40*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q40" s="63">
-        <f>$F40*Outputs_Internal!N$56/12</f>
-        <v>2.8337332480532497E-13</v>
+        <f>$F40*Outputs_Internal!N$58/12</f>
+        <v>0</v>
       </c>
       <c r="S40" s="63">
         <f t="shared" si="1"/>
@@ -7614,36 +7747,36 @@
         <v>0</v>
       </c>
       <c r="M41" s="63">
-        <f>$F41*Outputs_Internal!$D$56/12</f>
-        <v>8902.9333333333325</v>
+        <f>$F41*Outputs_Internal!$D$58/12</f>
+        <v>15218.333333333334</v>
       </c>
       <c r="N41" s="63">
-        <f>$F41*Outputs_Internal!K$56/12</f>
-        <v>2352.6997427690162</v>
+        <f>$F41*Outputs_Internal!K$58/12</f>
+        <v>2883.6570937887609</v>
       </c>
       <c r="O41" s="63">
-        <f>$F41*Outputs_Internal!L$56/12</f>
-        <v>6550.2335905643167</v>
+        <f>$F41*Outputs_Internal!L$58/12</f>
+        <v>12334.676239544575</v>
       </c>
       <c r="P41" s="63">
-        <f>$F41*Outputs_Internal!M$56/12</f>
+        <f>$F41*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q41" s="63">
-        <f>$F41*Outputs_Internal!N$56/12</f>
-        <v>2.8337332480532497E-13</v>
+        <f>$F41*Outputs_Internal!N$58/12</f>
+        <v>0</v>
       </c>
       <c r="S41" s="63">
         <f t="shared" si="1"/>
-        <v>26708.799999999996</v>
+        <v>45655</v>
       </c>
       <c r="T41" s="63">
         <f t="shared" si="2"/>
-        <v>7058.0992283070482</v>
+        <v>8650.9712813662827</v>
       </c>
       <c r="U41" s="63">
         <f t="shared" si="3"/>
-        <v>19650.700771692951</v>
+        <v>37004.028718633723</v>
       </c>
       <c r="V41" s="63">
         <f t="shared" si="4"/>
@@ -7651,7 +7784,7 @@
       </c>
       <c r="W41" s="63">
         <f t="shared" si="5"/>
-        <v>8.5011997441597495E-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.25">
@@ -7688,24 +7821,24 @@
         <v>0</v>
       </c>
       <c r="M42" s="63">
-        <f>$F42*Outputs_Internal!$D$56/12</f>
-        <v>8902.9333333333325</v>
+        <f>$F42*Outputs_Internal!$D$58/12</f>
+        <v>15218.333333333334</v>
       </c>
       <c r="N42" s="63">
-        <f>$F42*Outputs_Internal!K$56/12</f>
-        <v>2352.6997427690162</v>
+        <f>$F42*Outputs_Internal!K$58/12</f>
+        <v>2883.6570937887609</v>
       </c>
       <c r="O42" s="63">
-        <f>$F42*Outputs_Internal!L$56/12</f>
-        <v>6550.2335905643167</v>
+        <f>$F42*Outputs_Internal!L$58/12</f>
+        <v>12334.676239544575</v>
       </c>
       <c r="P42" s="63">
-        <f>$F42*Outputs_Internal!M$56/12</f>
+        <f>$F42*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q42" s="63">
-        <f>$F42*Outputs_Internal!N$56/12</f>
-        <v>2.8337332480532497E-13</v>
+        <f>$F42*Outputs_Internal!N$58/12</f>
+        <v>0</v>
       </c>
       <c r="S42" s="63">
         <f t="shared" si="1"/>
@@ -7762,24 +7895,24 @@
         <v>0</v>
       </c>
       <c r="M43" s="63">
-        <f>$F43*Outputs_Internal!$D$56/12</f>
-        <v>8902.9333333333325</v>
+        <f>$F43*Outputs_Internal!$D$58/12</f>
+        <v>15218.333333333334</v>
       </c>
       <c r="N43" s="63">
-        <f>$F43*Outputs_Internal!K$56/12</f>
-        <v>2352.6997427690162</v>
+        <f>$F43*Outputs_Internal!K$58/12</f>
+        <v>2883.6570937887609</v>
       </c>
       <c r="O43" s="63">
-        <f>$F43*Outputs_Internal!L$56/12</f>
-        <v>6550.2335905643167</v>
+        <f>$F43*Outputs_Internal!L$58/12</f>
+        <v>12334.676239544575</v>
       </c>
       <c r="P43" s="63">
-        <f>$F43*Outputs_Internal!M$56/12</f>
+        <f>$F43*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q43" s="63">
-        <f>$F43*Outputs_Internal!N$56/12</f>
-        <v>2.8337332480532497E-13</v>
+        <f>$F43*Outputs_Internal!N$58/12</f>
+        <v>0</v>
       </c>
       <c r="S43" s="63">
         <f t="shared" si="1"/>
@@ -7836,36 +7969,36 @@
         <v>0</v>
       </c>
       <c r="M44" s="63">
-        <f>$F44*Outputs_Internal!$D$56/12</f>
-        <v>8902.9333333333325</v>
+        <f>$F44*Outputs_Internal!$D$58/12</f>
+        <v>15218.333333333334</v>
       </c>
       <c r="N44" s="63">
-        <f>$F44*Outputs_Internal!K$56/12</f>
-        <v>2352.6997427690162</v>
+        <f>$F44*Outputs_Internal!K$58/12</f>
+        <v>2883.6570937887609</v>
       </c>
       <c r="O44" s="63">
-        <f>$F44*Outputs_Internal!L$56/12</f>
-        <v>6550.2335905643167</v>
+        <f>$F44*Outputs_Internal!L$58/12</f>
+        <v>12334.676239544575</v>
       </c>
       <c r="P44" s="63">
-        <f>$F44*Outputs_Internal!M$56/12</f>
+        <f>$F44*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q44" s="63">
-        <f>$F44*Outputs_Internal!N$56/12</f>
-        <v>2.8337332480532497E-13</v>
+        <f>$F44*Outputs_Internal!N$58/12</f>
+        <v>0</v>
       </c>
       <c r="S44" s="63">
         <f>IF(MOD(MONTH($B44),3)=0,SUM(H42:H44,M42:M44),0)</f>
-        <v>26708.799999999996</v>
+        <v>45655</v>
       </c>
       <c r="T44" s="63">
         <f t="shared" si="2"/>
-        <v>7058.0992283070482</v>
+        <v>8650.9712813662827</v>
       </c>
       <c r="U44" s="63">
         <f t="shared" si="3"/>
-        <v>19650.700771692951</v>
+        <v>37004.028718633723</v>
       </c>
       <c r="V44" s="63">
         <f t="shared" si="4"/>
@@ -7873,7 +8006,7 @@
       </c>
       <c r="W44" s="63">
         <f t="shared" si="5"/>
-        <v>8.5011997441597495E-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.25">
@@ -7910,23 +8043,23 @@
         <v>0</v>
       </c>
       <c r="M45" s="63">
-        <f>$F45*Outputs_Internal!$D$56/12</f>
+        <f>$F45*Outputs_Internal!$D$58/12</f>
         <v>0</v>
       </c>
       <c r="N45" s="63">
-        <f>$F45*Outputs_Internal!K$56/12</f>
+        <f>$F45*Outputs_Internal!K$58/12</f>
         <v>0</v>
       </c>
       <c r="O45" s="63">
-        <f>$F45*Outputs_Internal!L$56/12</f>
+        <f>$F45*Outputs_Internal!L$58/12</f>
         <v>0</v>
       </c>
       <c r="P45" s="63">
-        <f>$F45*Outputs_Internal!M$56/12</f>
+        <f>$F45*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q45" s="63">
-        <f>$F45*Outputs_Internal!N$56/12</f>
+        <f>$F45*Outputs_Internal!N$58/12</f>
         <v>0</v>
       </c>
       <c r="S45" s="63">
@@ -7984,23 +8117,23 @@
         <v>0</v>
       </c>
       <c r="M46" s="63">
-        <f>$F46*Outputs_Internal!$D$56/12</f>
+        <f>$F46*Outputs_Internal!$D$58/12</f>
         <v>0</v>
       </c>
       <c r="N46" s="63">
-        <f>$F46*Outputs_Internal!K$56/12</f>
+        <f>$F46*Outputs_Internal!K$58/12</f>
         <v>0</v>
       </c>
       <c r="O46" s="63">
-        <f>$F46*Outputs_Internal!L$56/12</f>
+        <f>$F46*Outputs_Internal!L$58/12</f>
         <v>0</v>
       </c>
       <c r="P46" s="63">
-        <f>$F46*Outputs_Internal!M$56/12</f>
+        <f>$F46*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q46" s="63">
-        <f>$F46*Outputs_Internal!N$56/12</f>
+        <f>$F46*Outputs_Internal!N$58/12</f>
         <v>0</v>
       </c>
       <c r="S46" s="63">
@@ -8058,23 +8191,23 @@
         <v>0</v>
       </c>
       <c r="M47" s="63">
-        <f>$F47*Outputs_Internal!$D$56/12</f>
+        <f>$F47*Outputs_Internal!$D$58/12</f>
         <v>0</v>
       </c>
       <c r="N47" s="63">
-        <f>$F47*Outputs_Internal!K$56/12</f>
+        <f>$F47*Outputs_Internal!K$58/12</f>
         <v>0</v>
       </c>
       <c r="O47" s="63">
-        <f>$F47*Outputs_Internal!L$56/12</f>
+        <f>$F47*Outputs_Internal!L$58/12</f>
         <v>0</v>
       </c>
       <c r="P47" s="63">
-        <f>$F47*Outputs_Internal!M$56/12</f>
+        <f>$F47*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q47" s="63">
-        <f>$F47*Outputs_Internal!N$56/12</f>
+        <f>$F47*Outputs_Internal!N$58/12</f>
         <v>0</v>
       </c>
       <c r="S47" s="63">
@@ -8132,23 +8265,23 @@
         <v>0</v>
       </c>
       <c r="M48" s="63">
-        <f>$F48*Outputs_Internal!$D$56/12</f>
+        <f>$F48*Outputs_Internal!$D$58/12</f>
         <v>0</v>
       </c>
       <c r="N48" s="63">
-        <f>$F48*Outputs_Internal!K$56/12</f>
+        <f>$F48*Outputs_Internal!K$58/12</f>
         <v>0</v>
       </c>
       <c r="O48" s="63">
-        <f>$F48*Outputs_Internal!L$56/12</f>
+        <f>$F48*Outputs_Internal!L$58/12</f>
         <v>0</v>
       </c>
       <c r="P48" s="63">
-        <f>$F48*Outputs_Internal!M$56/12</f>
+        <f>$F48*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q48" s="63">
-        <f>$F48*Outputs_Internal!N$56/12</f>
+        <f>$F48*Outputs_Internal!N$58/12</f>
         <v>0</v>
       </c>
       <c r="S48" s="63">
@@ -8206,23 +8339,23 @@
         <v>0</v>
       </c>
       <c r="M49" s="63">
-        <f>$F49*Outputs_Internal!$D$56/12</f>
+        <f>$F49*Outputs_Internal!$D$58/12</f>
         <v>0</v>
       </c>
       <c r="N49" s="63">
-        <f>$F49*Outputs_Internal!K$56/12</f>
+        <f>$F49*Outputs_Internal!K$58/12</f>
         <v>0</v>
       </c>
       <c r="O49" s="63">
-        <f>$F49*Outputs_Internal!L$56/12</f>
+        <f>$F49*Outputs_Internal!L$58/12</f>
         <v>0</v>
       </c>
       <c r="P49" s="63">
-        <f>$F49*Outputs_Internal!M$56/12</f>
+        <f>$F49*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q49" s="63">
-        <f>$F49*Outputs_Internal!N$56/12</f>
+        <f>$F49*Outputs_Internal!N$58/12</f>
         <v>0</v>
       </c>
       <c r="S49" s="63">
@@ -8280,23 +8413,23 @@
         <v>0</v>
       </c>
       <c r="M50" s="63">
-        <f>$F50*Outputs_Internal!$D$56/12</f>
+        <f>$F50*Outputs_Internal!$D$58/12</f>
         <v>0</v>
       </c>
       <c r="N50" s="63">
-        <f>$F50*Outputs_Internal!K$56/12</f>
+        <f>$F50*Outputs_Internal!K$58/12</f>
         <v>0</v>
       </c>
       <c r="O50" s="63">
-        <f>$F50*Outputs_Internal!L$56/12</f>
+        <f>$F50*Outputs_Internal!L$58/12</f>
         <v>0</v>
       </c>
       <c r="P50" s="63">
-        <f>$F50*Outputs_Internal!M$56/12</f>
+        <f>$F50*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q50" s="63">
-        <f>$F50*Outputs_Internal!N$56/12</f>
+        <f>$F50*Outputs_Internal!N$58/12</f>
         <v>0</v>
       </c>
       <c r="S50" s="63">
@@ -8354,23 +8487,23 @@
         <v>0</v>
       </c>
       <c r="M51" s="63">
-        <f>$F51*Outputs_Internal!$D$56/12</f>
+        <f>$F51*Outputs_Internal!$D$58/12</f>
         <v>0</v>
       </c>
       <c r="N51" s="63">
-        <f>$F51*Outputs_Internal!K$56/12</f>
+        <f>$F51*Outputs_Internal!K$58/12</f>
         <v>0</v>
       </c>
       <c r="O51" s="63">
-        <f>$F51*Outputs_Internal!L$56/12</f>
+        <f>$F51*Outputs_Internal!L$58/12</f>
         <v>0</v>
       </c>
       <c r="P51" s="63">
-        <f>$F51*Outputs_Internal!M$56/12</f>
+        <f>$F51*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q51" s="63">
-        <f>$F51*Outputs_Internal!N$56/12</f>
+        <f>$F51*Outputs_Internal!N$58/12</f>
         <v>0</v>
       </c>
       <c r="S51" s="63">
@@ -8428,23 +8561,23 @@
         <v>0</v>
       </c>
       <c r="M52" s="63">
-        <f>$F52*Outputs_Internal!$D$56/12</f>
+        <f>$F52*Outputs_Internal!$D$58/12</f>
         <v>0</v>
       </c>
       <c r="N52" s="63">
-        <f>$F52*Outputs_Internal!K$56/12</f>
+        <f>$F52*Outputs_Internal!K$58/12</f>
         <v>0</v>
       </c>
       <c r="O52" s="63">
-        <f>$F52*Outputs_Internal!L$56/12</f>
+        <f>$F52*Outputs_Internal!L$58/12</f>
         <v>0</v>
       </c>
       <c r="P52" s="63">
-        <f>$F52*Outputs_Internal!M$56/12</f>
+        <f>$F52*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q52" s="63">
-        <f>$F52*Outputs_Internal!N$56/12</f>
+        <f>$F52*Outputs_Internal!N$58/12</f>
         <v>0</v>
       </c>
       <c r="S52" s="63">
@@ -8502,23 +8635,23 @@
         <v>0</v>
       </c>
       <c r="M53" s="63">
-        <f>$F53*Outputs_Internal!$D$56/12</f>
+        <f>$F53*Outputs_Internal!$D$58/12</f>
         <v>0</v>
       </c>
       <c r="N53" s="63">
-        <f>$F53*Outputs_Internal!K$56/12</f>
+        <f>$F53*Outputs_Internal!K$58/12</f>
         <v>0</v>
       </c>
       <c r="O53" s="63">
-        <f>$F53*Outputs_Internal!L$56/12</f>
+        <f>$F53*Outputs_Internal!L$58/12</f>
         <v>0</v>
       </c>
       <c r="P53" s="63">
-        <f>$F53*Outputs_Internal!M$56/12</f>
+        <f>$F53*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q53" s="63">
-        <f>$F53*Outputs_Internal!N$56/12</f>
+        <f>$F53*Outputs_Internal!N$58/12</f>
         <v>0</v>
       </c>
       <c r="S53" s="63">
@@ -8576,23 +8709,23 @@
         <v>0</v>
       </c>
       <c r="M54" s="63">
-        <f>$F54*Outputs_Internal!$D$56/12</f>
+        <f>$F54*Outputs_Internal!$D$58/12</f>
         <v>0</v>
       </c>
       <c r="N54" s="63">
-        <f>$F54*Outputs_Internal!K$56/12</f>
+        <f>$F54*Outputs_Internal!K$58/12</f>
         <v>0</v>
       </c>
       <c r="O54" s="63">
-        <f>$F54*Outputs_Internal!L$56/12</f>
+        <f>$F54*Outputs_Internal!L$58/12</f>
         <v>0</v>
       </c>
       <c r="P54" s="63">
-        <f>$F54*Outputs_Internal!M$56/12</f>
+        <f>$F54*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q54" s="63">
-        <f>$F54*Outputs_Internal!N$56/12</f>
+        <f>$F54*Outputs_Internal!N$58/12</f>
         <v>0</v>
       </c>
       <c r="S54" s="63">
@@ -8650,23 +8783,23 @@
         <v>0</v>
       </c>
       <c r="M55" s="63">
-        <f>$F55*Outputs_Internal!$D$56/12</f>
+        <f>$F55*Outputs_Internal!$D$58/12</f>
         <v>0</v>
       </c>
       <c r="N55" s="63">
-        <f>$F55*Outputs_Internal!K$56/12</f>
+        <f>$F55*Outputs_Internal!K$58/12</f>
         <v>0</v>
       </c>
       <c r="O55" s="63">
-        <f>$F55*Outputs_Internal!L$56/12</f>
+        <f>$F55*Outputs_Internal!L$58/12</f>
         <v>0</v>
       </c>
       <c r="P55" s="63">
-        <f>$F55*Outputs_Internal!M$56/12</f>
+        <f>$F55*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q55" s="63">
-        <f>$F55*Outputs_Internal!N$56/12</f>
+        <f>$F55*Outputs_Internal!N$58/12</f>
         <v>0</v>
       </c>
       <c r="S55" s="63">
@@ -8724,23 +8857,23 @@
         <v>0</v>
       </c>
       <c r="M56" s="63">
-        <f>$F56*Outputs_Internal!$D$56/12</f>
+        <f>$F56*Outputs_Internal!$D$58/12</f>
         <v>0</v>
       </c>
       <c r="N56" s="63">
-        <f>$F56*Outputs_Internal!K$56/12</f>
+        <f>$F56*Outputs_Internal!K$58/12</f>
         <v>0</v>
       </c>
       <c r="O56" s="63">
-        <f>$F56*Outputs_Internal!L$56/12</f>
+        <f>$F56*Outputs_Internal!L$58/12</f>
         <v>0</v>
       </c>
       <c r="P56" s="63">
-        <f>$F56*Outputs_Internal!M$56/12</f>
+        <f>$F56*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q56" s="63">
-        <f>$F56*Outputs_Internal!N$56/12</f>
+        <f>$F56*Outputs_Internal!N$58/12</f>
         <v>0</v>
       </c>
       <c r="S56" s="63">
@@ -8798,23 +8931,23 @@
         <v>0</v>
       </c>
       <c r="M57" s="63">
-        <f>$F57*Outputs_Internal!$D$56/12</f>
+        <f>$F57*Outputs_Internal!$D$58/12</f>
         <v>0</v>
       </c>
       <c r="N57" s="63">
-        <f>$F57*Outputs_Internal!K$56/12</f>
+        <f>$F57*Outputs_Internal!K$58/12</f>
         <v>0</v>
       </c>
       <c r="O57" s="63">
-        <f>$F57*Outputs_Internal!L$56/12</f>
+        <f>$F57*Outputs_Internal!L$58/12</f>
         <v>0</v>
       </c>
       <c r="P57" s="63">
-        <f>$F57*Outputs_Internal!M$56/12</f>
+        <f>$F57*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q57" s="63">
-        <f>$F57*Outputs_Internal!N$56/12</f>
+        <f>$F57*Outputs_Internal!N$58/12</f>
         <v>0</v>
       </c>
       <c r="S57" s="63">
@@ -8872,23 +9005,23 @@
         <v>0</v>
       </c>
       <c r="M58" s="63">
-        <f>$F58*Outputs_Internal!$D$56/12</f>
+        <f>$F58*Outputs_Internal!$D$58/12</f>
         <v>0</v>
       </c>
       <c r="N58" s="63">
-        <f>$F58*Outputs_Internal!K$56/12</f>
+        <f>$F58*Outputs_Internal!K$58/12</f>
         <v>0</v>
       </c>
       <c r="O58" s="63">
-        <f>$F58*Outputs_Internal!L$56/12</f>
+        <f>$F58*Outputs_Internal!L$58/12</f>
         <v>0</v>
       </c>
       <c r="P58" s="63">
-        <f>$F58*Outputs_Internal!M$56/12</f>
+        <f>$F58*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q58" s="63">
-        <f>$F58*Outputs_Internal!N$56/12</f>
+        <f>$F58*Outputs_Internal!N$58/12</f>
         <v>0</v>
       </c>
       <c r="S58" s="63">
@@ -8946,23 +9079,23 @@
         <v>0</v>
       </c>
       <c r="M59" s="63">
-        <f>$F59*Outputs_Internal!$D$56/12</f>
+        <f>$F59*Outputs_Internal!$D$58/12</f>
         <v>0</v>
       </c>
       <c r="N59" s="63">
-        <f>$F59*Outputs_Internal!K$56/12</f>
+        <f>$F59*Outputs_Internal!K$58/12</f>
         <v>0</v>
       </c>
       <c r="O59" s="63">
-        <f>$F59*Outputs_Internal!L$56/12</f>
+        <f>$F59*Outputs_Internal!L$58/12</f>
         <v>0</v>
       </c>
       <c r="P59" s="63">
-        <f>$F59*Outputs_Internal!M$56/12</f>
+        <f>$F59*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q59" s="63">
-        <f>$F59*Outputs_Internal!N$56/12</f>
+        <f>$F59*Outputs_Internal!N$58/12</f>
         <v>0</v>
       </c>
       <c r="S59" s="63">
@@ -9020,23 +9153,23 @@
         <v>0</v>
       </c>
       <c r="M60" s="63">
-        <f>$F60*Outputs_Internal!$D$56/12</f>
+        <f>$F60*Outputs_Internal!$D$58/12</f>
         <v>0</v>
       </c>
       <c r="N60" s="63">
-        <f>$F60*Outputs_Internal!K$56/12</f>
+        <f>$F60*Outputs_Internal!K$58/12</f>
         <v>0</v>
       </c>
       <c r="O60" s="63">
-        <f>$F60*Outputs_Internal!L$56/12</f>
+        <f>$F60*Outputs_Internal!L$58/12</f>
         <v>0</v>
       </c>
       <c r="P60" s="63">
-        <f>$F60*Outputs_Internal!M$56/12</f>
+        <f>$F60*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q60" s="63">
-        <f>$F60*Outputs_Internal!N$56/12</f>
+        <f>$F60*Outputs_Internal!N$58/12</f>
         <v>0</v>
       </c>
       <c r="S60" s="63">
@@ -9094,23 +9227,23 @@
         <v>0</v>
       </c>
       <c r="M61" s="63">
-        <f>$F61*Outputs_Internal!$D$56/12</f>
+        <f>$F61*Outputs_Internal!$D$58/12</f>
         <v>0</v>
       </c>
       <c r="N61" s="63">
-        <f>$F61*Outputs_Internal!K$56/12</f>
+        <f>$F61*Outputs_Internal!K$58/12</f>
         <v>0</v>
       </c>
       <c r="O61" s="63">
-        <f>$F61*Outputs_Internal!L$56/12</f>
+        <f>$F61*Outputs_Internal!L$58/12</f>
         <v>0</v>
       </c>
       <c r="P61" s="63">
-        <f>$F61*Outputs_Internal!M$56/12</f>
+        <f>$F61*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q61" s="63">
-        <f>$F61*Outputs_Internal!N$56/12</f>
+        <f>$F61*Outputs_Internal!N$58/12</f>
         <v>0</v>
       </c>
       <c r="S61" s="63">
@@ -9168,23 +9301,23 @@
         <v>0</v>
       </c>
       <c r="M62" s="63">
-        <f>$F62*Outputs_Internal!$D$56/12</f>
+        <f>$F62*Outputs_Internal!$D$58/12</f>
         <v>0</v>
       </c>
       <c r="N62" s="63">
-        <f>$F62*Outputs_Internal!K$56/12</f>
+        <f>$F62*Outputs_Internal!K$58/12</f>
         <v>0</v>
       </c>
       <c r="O62" s="63">
-        <f>$F62*Outputs_Internal!L$56/12</f>
+        <f>$F62*Outputs_Internal!L$58/12</f>
         <v>0</v>
       </c>
       <c r="P62" s="63">
-        <f>$F62*Outputs_Internal!M$56/12</f>
+        <f>$F62*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q62" s="63">
-        <f>$F62*Outputs_Internal!N$56/12</f>
+        <f>$F62*Outputs_Internal!N$58/12</f>
         <v>0</v>
       </c>
       <c r="S62" s="63">
@@ -9242,23 +9375,23 @@
         <v>0</v>
       </c>
       <c r="M63" s="63">
-        <f>$F63*Outputs_Internal!$D$56/12</f>
+        <f>$F63*Outputs_Internal!$D$58/12</f>
         <v>0</v>
       </c>
       <c r="N63" s="63">
-        <f>$F63*Outputs_Internal!K$56/12</f>
+        <f>$F63*Outputs_Internal!K$58/12</f>
         <v>0</v>
       </c>
       <c r="O63" s="63">
-        <f>$F63*Outputs_Internal!L$56/12</f>
+        <f>$F63*Outputs_Internal!L$58/12</f>
         <v>0</v>
       </c>
       <c r="P63" s="63">
-        <f>$F63*Outputs_Internal!M$56/12</f>
+        <f>$F63*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q63" s="63">
-        <f>$F63*Outputs_Internal!N$56/12</f>
+        <f>$F63*Outputs_Internal!N$58/12</f>
         <v>0</v>
       </c>
       <c r="S63" s="63">
@@ -9316,23 +9449,23 @@
         <v>0</v>
       </c>
       <c r="M64" s="63">
-        <f>$F64*Outputs_Internal!$D$56/12</f>
+        <f>$F64*Outputs_Internal!$D$58/12</f>
         <v>0</v>
       </c>
       <c r="N64" s="63">
-        <f>$F64*Outputs_Internal!K$56/12</f>
+        <f>$F64*Outputs_Internal!K$58/12</f>
         <v>0</v>
       </c>
       <c r="O64" s="63">
-        <f>$F64*Outputs_Internal!L$56/12</f>
+        <f>$F64*Outputs_Internal!L$58/12</f>
         <v>0</v>
       </c>
       <c r="P64" s="63">
-        <f>$F64*Outputs_Internal!M$56/12</f>
+        <f>$F64*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q64" s="63">
-        <f>$F64*Outputs_Internal!N$56/12</f>
+        <f>$F64*Outputs_Internal!N$58/12</f>
         <v>0</v>
       </c>
       <c r="S64" s="63">
@@ -9390,23 +9523,23 @@
         <v>0</v>
       </c>
       <c r="M65" s="63">
-        <f>$F65*Outputs_Internal!$D$56/12</f>
+        <f>$F65*Outputs_Internal!$D$58/12</f>
         <v>0</v>
       </c>
       <c r="N65" s="63">
-        <f>$F65*Outputs_Internal!K$56/12</f>
+        <f>$F65*Outputs_Internal!K$58/12</f>
         <v>0</v>
       </c>
       <c r="O65" s="63">
-        <f>$F65*Outputs_Internal!L$56/12</f>
+        <f>$F65*Outputs_Internal!L$58/12</f>
         <v>0</v>
       </c>
       <c r="P65" s="63">
-        <f>$F65*Outputs_Internal!M$56/12</f>
+        <f>$F65*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q65" s="63">
-        <f>$F65*Outputs_Internal!N$56/12</f>
+        <f>$F65*Outputs_Internal!N$58/12</f>
         <v>0</v>
       </c>
       <c r="S65" s="63">
@@ -9464,23 +9597,23 @@
         <v>0</v>
       </c>
       <c r="M66" s="63">
-        <f>$F66*Outputs_Internal!$D$56/12</f>
+        <f>$F66*Outputs_Internal!$D$58/12</f>
         <v>0</v>
       </c>
       <c r="N66" s="63">
-        <f>$F66*Outputs_Internal!K$56/12</f>
+        <f>$F66*Outputs_Internal!K$58/12</f>
         <v>0</v>
       </c>
       <c r="O66" s="63">
-        <f>$F66*Outputs_Internal!L$56/12</f>
+        <f>$F66*Outputs_Internal!L$58/12</f>
         <v>0</v>
       </c>
       <c r="P66" s="63">
-        <f>$F66*Outputs_Internal!M$56/12</f>
+        <f>$F66*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q66" s="63">
-        <f>$F66*Outputs_Internal!N$56/12</f>
+        <f>$F66*Outputs_Internal!N$58/12</f>
         <v>0</v>
       </c>
       <c r="S66" s="63">
@@ -9538,23 +9671,23 @@
         <v>0</v>
       </c>
       <c r="M67" s="63">
-        <f>$F67*Outputs_Internal!$D$56/12</f>
+        <f>$F67*Outputs_Internal!$D$58/12</f>
         <v>0</v>
       </c>
       <c r="N67" s="63">
-        <f>$F67*Outputs_Internal!K$56/12</f>
+        <f>$F67*Outputs_Internal!K$58/12</f>
         <v>0</v>
       </c>
       <c r="O67" s="63">
-        <f>$F67*Outputs_Internal!L$56/12</f>
+        <f>$F67*Outputs_Internal!L$58/12</f>
         <v>0</v>
       </c>
       <c r="P67" s="63">
-        <f>$F67*Outputs_Internal!M$56/12</f>
+        <f>$F67*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q67" s="63">
-        <f>$F67*Outputs_Internal!N$56/12</f>
+        <f>$F67*Outputs_Internal!N$58/12</f>
         <v>0</v>
       </c>
       <c r="S67" s="63">
@@ -9612,23 +9745,23 @@
         <v>0</v>
       </c>
       <c r="M68" s="63">
-        <f>$F68*Outputs_Internal!$D$56/12</f>
+        <f>$F68*Outputs_Internal!$D$58/12</f>
         <v>0</v>
       </c>
       <c r="N68" s="63">
-        <f>$F68*Outputs_Internal!K$56/12</f>
+        <f>$F68*Outputs_Internal!K$58/12</f>
         <v>0</v>
       </c>
       <c r="O68" s="63">
-        <f>$F68*Outputs_Internal!L$56/12</f>
+        <f>$F68*Outputs_Internal!L$58/12</f>
         <v>0</v>
       </c>
       <c r="P68" s="63">
-        <f>$F68*Outputs_Internal!M$56/12</f>
+        <f>$F68*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q68" s="63">
-        <f>$F68*Outputs_Internal!N$56/12</f>
+        <f>$F68*Outputs_Internal!N$58/12</f>
         <v>0</v>
       </c>
       <c r="S68" s="63">
@@ -9686,23 +9819,23 @@
         <v>0</v>
       </c>
       <c r="M69" s="63">
-        <f>$F69*Outputs_Internal!$D$56/12</f>
+        <f>$F69*Outputs_Internal!$D$58/12</f>
         <v>0</v>
       </c>
       <c r="N69" s="63">
-        <f>$F69*Outputs_Internal!K$56/12</f>
+        <f>$F69*Outputs_Internal!K$58/12</f>
         <v>0</v>
       </c>
       <c r="O69" s="63">
-        <f>$F69*Outputs_Internal!L$56/12</f>
+        <f>$F69*Outputs_Internal!L$58/12</f>
         <v>0</v>
       </c>
       <c r="P69" s="63">
-        <f>$F69*Outputs_Internal!M$56/12</f>
+        <f>$F69*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q69" s="63">
-        <f>$F69*Outputs_Internal!N$56/12</f>
+        <f>$F69*Outputs_Internal!N$58/12</f>
         <v>0</v>
       </c>
       <c r="S69" s="63">
@@ -9760,23 +9893,23 @@
         <v>0</v>
       </c>
       <c r="M70" s="63">
-        <f>$F70*Outputs_Internal!$D$56/12</f>
+        <f>$F70*Outputs_Internal!$D$58/12</f>
         <v>0</v>
       </c>
       <c r="N70" s="63">
-        <f>$F70*Outputs_Internal!K$56/12</f>
+        <f>$F70*Outputs_Internal!K$58/12</f>
         <v>0</v>
       </c>
       <c r="O70" s="63">
-        <f>$F70*Outputs_Internal!L$56/12</f>
+        <f>$F70*Outputs_Internal!L$58/12</f>
         <v>0</v>
       </c>
       <c r="P70" s="63">
-        <f>$F70*Outputs_Internal!M$56/12</f>
+        <f>$F70*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q70" s="63">
-        <f>$F70*Outputs_Internal!N$56/12</f>
+        <f>$F70*Outputs_Internal!N$58/12</f>
         <v>0</v>
       </c>
       <c r="S70" s="63">
@@ -9834,23 +9967,23 @@
         <v>0</v>
       </c>
       <c r="M71" s="63">
-        <f>$F71*Outputs_Internal!$D$56/12</f>
+        <f>$F71*Outputs_Internal!$D$58/12</f>
         <v>0</v>
       </c>
       <c r="N71" s="63">
-        <f>$F71*Outputs_Internal!K$56/12</f>
+        <f>$F71*Outputs_Internal!K$58/12</f>
         <v>0</v>
       </c>
       <c r="O71" s="63">
-        <f>$F71*Outputs_Internal!L$56/12</f>
+        <f>$F71*Outputs_Internal!L$58/12</f>
         <v>0</v>
       </c>
       <c r="P71" s="63">
-        <f>$F71*Outputs_Internal!M$56/12</f>
+        <f>$F71*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q71" s="63">
-        <f>$F71*Outputs_Internal!N$56/12</f>
+        <f>$F71*Outputs_Internal!N$58/12</f>
         <v>0</v>
       </c>
       <c r="S71" s="63">
@@ -9908,23 +10041,23 @@
         <v>0</v>
       </c>
       <c r="M72" s="63">
-        <f>$F72*Outputs_Internal!$D$56/12</f>
+        <f>$F72*Outputs_Internal!$D$58/12</f>
         <v>0</v>
       </c>
       <c r="N72" s="63">
-        <f>$F72*Outputs_Internal!K$56/12</f>
+        <f>$F72*Outputs_Internal!K$58/12</f>
         <v>0</v>
       </c>
       <c r="O72" s="63">
-        <f>$F72*Outputs_Internal!L$56/12</f>
+        <f>$F72*Outputs_Internal!L$58/12</f>
         <v>0</v>
       </c>
       <c r="P72" s="63">
-        <f>$F72*Outputs_Internal!M$56/12</f>
+        <f>$F72*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q72" s="63">
-        <f>$F72*Outputs_Internal!N$56/12</f>
+        <f>$F72*Outputs_Internal!N$58/12</f>
         <v>0</v>
       </c>
       <c r="S72" s="63">
@@ -9982,23 +10115,23 @@
         <v>0</v>
       </c>
       <c r="M73" s="63">
-        <f>$F73*Outputs_Internal!$D$56/12</f>
+        <f>$F73*Outputs_Internal!$D$58/12</f>
         <v>0</v>
       </c>
       <c r="N73" s="63">
-        <f>$F73*Outputs_Internal!K$56/12</f>
+        <f>$F73*Outputs_Internal!K$58/12</f>
         <v>0</v>
       </c>
       <c r="O73" s="63">
-        <f>$F73*Outputs_Internal!L$56/12</f>
+        <f>$F73*Outputs_Internal!L$58/12</f>
         <v>0</v>
       </c>
       <c r="P73" s="63">
-        <f>$F73*Outputs_Internal!M$56/12</f>
+        <f>$F73*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q73" s="63">
-        <f>$F73*Outputs_Internal!N$56/12</f>
+        <f>$F73*Outputs_Internal!N$58/12</f>
         <v>0</v>
       </c>
       <c r="S73" s="63">
@@ -10056,23 +10189,23 @@
         <v>0</v>
       </c>
       <c r="M74" s="63">
-        <f>$F74*Outputs_Internal!$D$56/12</f>
+        <f>$F74*Outputs_Internal!$D$58/12</f>
         <v>0</v>
       </c>
       <c r="N74" s="63">
-        <f>$F74*Outputs_Internal!K$56/12</f>
+        <f>$F74*Outputs_Internal!K$58/12</f>
         <v>0</v>
       </c>
       <c r="O74" s="63">
-        <f>$F74*Outputs_Internal!L$56/12</f>
+        <f>$F74*Outputs_Internal!L$58/12</f>
         <v>0</v>
       </c>
       <c r="P74" s="63">
-        <f>$F74*Outputs_Internal!M$56/12</f>
+        <f>$F74*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q74" s="63">
-        <f>$F74*Outputs_Internal!N$56/12</f>
+        <f>$F74*Outputs_Internal!N$58/12</f>
         <v>0</v>
       </c>
       <c r="S74" s="63">
@@ -10130,23 +10263,23 @@
         <v>0</v>
       </c>
       <c r="M75" s="63">
-        <f>$F75*Outputs_Internal!$D$56/12</f>
+        <f>$F75*Outputs_Internal!$D$58/12</f>
         <v>0</v>
       </c>
       <c r="N75" s="63">
-        <f>$F75*Outputs_Internal!K$56/12</f>
+        <f>$F75*Outputs_Internal!K$58/12</f>
         <v>0</v>
       </c>
       <c r="O75" s="63">
-        <f>$F75*Outputs_Internal!L$56/12</f>
+        <f>$F75*Outputs_Internal!L$58/12</f>
         <v>0</v>
       </c>
       <c r="P75" s="63">
-        <f>$F75*Outputs_Internal!M$56/12</f>
+        <f>$F75*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q75" s="63">
-        <f>$F75*Outputs_Internal!N$56/12</f>
+        <f>$F75*Outputs_Internal!N$58/12</f>
         <v>0</v>
       </c>
       <c r="S75" s="63">
@@ -10204,23 +10337,23 @@
         <v>0</v>
       </c>
       <c r="M76" s="63">
-        <f>$F76*Outputs_Internal!$D$56/12</f>
+        <f>$F76*Outputs_Internal!$D$58/12</f>
         <v>0</v>
       </c>
       <c r="N76" s="63">
-        <f>$F76*Outputs_Internal!K$56/12</f>
+        <f>$F76*Outputs_Internal!K$58/12</f>
         <v>0</v>
       </c>
       <c r="O76" s="63">
-        <f>$F76*Outputs_Internal!L$56/12</f>
+        <f>$F76*Outputs_Internal!L$58/12</f>
         <v>0</v>
       </c>
       <c r="P76" s="63">
-        <f>$F76*Outputs_Internal!M$56/12</f>
+        <f>$F76*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q76" s="63">
-        <f>$F76*Outputs_Internal!N$56/12</f>
+        <f>$F76*Outputs_Internal!N$58/12</f>
         <v>0</v>
       </c>
       <c r="S76" s="63">
@@ -10278,23 +10411,23 @@
         <v>0</v>
       </c>
       <c r="M77" s="63">
-        <f>$F77*Outputs_Internal!$D$56/12</f>
+        <f>$F77*Outputs_Internal!$D$58/12</f>
         <v>0</v>
       </c>
       <c r="N77" s="63">
-        <f>$F77*Outputs_Internal!K$56/12</f>
+        <f>$F77*Outputs_Internal!K$58/12</f>
         <v>0</v>
       </c>
       <c r="O77" s="63">
-        <f>$F77*Outputs_Internal!L$56/12</f>
+        <f>$F77*Outputs_Internal!L$58/12</f>
         <v>0</v>
       </c>
       <c r="P77" s="63">
-        <f>$F77*Outputs_Internal!M$56/12</f>
+        <f>$F77*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q77" s="63">
-        <f>$F77*Outputs_Internal!N$56/12</f>
+        <f>$F77*Outputs_Internal!N$58/12</f>
         <v>0</v>
       </c>
       <c r="S77" s="63">
@@ -10352,23 +10485,23 @@
         <v>0</v>
       </c>
       <c r="M78" s="63">
-        <f>$F78*Outputs_Internal!$D$56/12</f>
+        <f>$F78*Outputs_Internal!$D$58/12</f>
         <v>0</v>
       </c>
       <c r="N78" s="63">
-        <f>$F78*Outputs_Internal!K$56/12</f>
+        <f>$F78*Outputs_Internal!K$58/12</f>
         <v>0</v>
       </c>
       <c r="O78" s="63">
-        <f>$F78*Outputs_Internal!L$56/12</f>
+        <f>$F78*Outputs_Internal!L$58/12</f>
         <v>0</v>
       </c>
       <c r="P78" s="63">
-        <f>$F78*Outputs_Internal!M$56/12</f>
+        <f>$F78*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q78" s="63">
-        <f>$F78*Outputs_Internal!N$56/12</f>
+        <f>$F78*Outputs_Internal!N$58/12</f>
         <v>0</v>
       </c>
       <c r="S78" s="63">
@@ -10426,23 +10559,23 @@
         <v>0</v>
       </c>
       <c r="M79" s="63">
-        <f>$F79*Outputs_Internal!$D$56/12</f>
+        <f>$F79*Outputs_Internal!$D$58/12</f>
         <v>0</v>
       </c>
       <c r="N79" s="63">
-        <f>$F79*Outputs_Internal!K$56/12</f>
+        <f>$F79*Outputs_Internal!K$58/12</f>
         <v>0</v>
       </c>
       <c r="O79" s="63">
-        <f>$F79*Outputs_Internal!L$56/12</f>
+        <f>$F79*Outputs_Internal!L$58/12</f>
         <v>0</v>
       </c>
       <c r="P79" s="63">
-        <f>$F79*Outputs_Internal!M$56/12</f>
+        <f>$F79*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q79" s="63">
-        <f>$F79*Outputs_Internal!N$56/12</f>
+        <f>$F79*Outputs_Internal!N$58/12</f>
         <v>0</v>
       </c>
       <c r="S79" s="63">
@@ -10500,23 +10633,23 @@
         <v>0</v>
       </c>
       <c r="M80" s="63">
-        <f>$F80*Outputs_Internal!$D$56/12</f>
+        <f>$F80*Outputs_Internal!$D$58/12</f>
         <v>0</v>
       </c>
       <c r="N80" s="63">
-        <f>$F80*Outputs_Internal!K$56/12</f>
+        <f>$F80*Outputs_Internal!K$58/12</f>
         <v>0</v>
       </c>
       <c r="O80" s="63">
-        <f>$F80*Outputs_Internal!L$56/12</f>
+        <f>$F80*Outputs_Internal!L$58/12</f>
         <v>0</v>
       </c>
       <c r="P80" s="63">
-        <f>$F80*Outputs_Internal!M$56/12</f>
+        <f>$F80*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q80" s="63">
-        <f>$F80*Outputs_Internal!N$56/12</f>
+        <f>$F80*Outputs_Internal!N$58/12</f>
         <v>0</v>
       </c>
       <c r="S80" s="63">
@@ -10574,23 +10707,23 @@
         <v>0</v>
       </c>
       <c r="M81" s="63">
-        <f>$F81*Outputs_Internal!$D$56/12</f>
+        <f>$F81*Outputs_Internal!$D$58/12</f>
         <v>0</v>
       </c>
       <c r="N81" s="63">
-        <f>$F81*Outputs_Internal!K$56/12</f>
+        <f>$F81*Outputs_Internal!K$58/12</f>
         <v>0</v>
       </c>
       <c r="O81" s="63">
-        <f>$F81*Outputs_Internal!L$56/12</f>
+        <f>$F81*Outputs_Internal!L$58/12</f>
         <v>0</v>
       </c>
       <c r="P81" s="63">
-        <f>$F81*Outputs_Internal!M$56/12</f>
+        <f>$F81*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q81" s="63">
-        <f>$F81*Outputs_Internal!N$56/12</f>
+        <f>$F81*Outputs_Internal!N$58/12</f>
         <v>0</v>
       </c>
       <c r="S81" s="63">
@@ -10648,23 +10781,23 @@
         <v>0</v>
       </c>
       <c r="M82" s="63">
-        <f>$F82*Outputs_Internal!$D$56/12</f>
+        <f>$F82*Outputs_Internal!$D$58/12</f>
         <v>0</v>
       </c>
       <c r="N82" s="63">
-        <f>$F82*Outputs_Internal!K$56/12</f>
+        <f>$F82*Outputs_Internal!K$58/12</f>
         <v>0</v>
       </c>
       <c r="O82" s="63">
-        <f>$F82*Outputs_Internal!L$56/12</f>
+        <f>$F82*Outputs_Internal!L$58/12</f>
         <v>0</v>
       </c>
       <c r="P82" s="63">
-        <f>$F82*Outputs_Internal!M$56/12</f>
+        <f>$F82*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q82" s="63">
-        <f>$F82*Outputs_Internal!N$56/12</f>
+        <f>$F82*Outputs_Internal!N$58/12</f>
         <v>0</v>
       </c>
       <c r="S82" s="63">
@@ -10722,23 +10855,23 @@
         <v>0</v>
       </c>
       <c r="M83" s="63">
-        <f>$F83*Outputs_Internal!$D$56/12</f>
+        <f>$F83*Outputs_Internal!$D$58/12</f>
         <v>0</v>
       </c>
       <c r="N83" s="63">
-        <f>$F83*Outputs_Internal!K$56/12</f>
+        <f>$F83*Outputs_Internal!K$58/12</f>
         <v>0</v>
       </c>
       <c r="O83" s="63">
-        <f>$F83*Outputs_Internal!L$56/12</f>
+        <f>$F83*Outputs_Internal!L$58/12</f>
         <v>0</v>
       </c>
       <c r="P83" s="63">
-        <f>$F83*Outputs_Internal!M$56/12</f>
+        <f>$F83*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q83" s="63">
-        <f>$F83*Outputs_Internal!N$56/12</f>
+        <f>$F83*Outputs_Internal!N$58/12</f>
         <v>0</v>
       </c>
       <c r="S83" s="63">
@@ -10796,23 +10929,23 @@
         <v>0</v>
       </c>
       <c r="M84" s="63">
-        <f>$F84*Outputs_Internal!$D$56/12</f>
+        <f>$F84*Outputs_Internal!$D$58/12</f>
         <v>0</v>
       </c>
       <c r="N84" s="63">
-        <f>$F84*Outputs_Internal!K$56/12</f>
+        <f>$F84*Outputs_Internal!K$58/12</f>
         <v>0</v>
       </c>
       <c r="O84" s="63">
-        <f>$F84*Outputs_Internal!L$56/12</f>
+        <f>$F84*Outputs_Internal!L$58/12</f>
         <v>0</v>
       </c>
       <c r="P84" s="63">
-        <f>$F84*Outputs_Internal!M$56/12</f>
+        <f>$F84*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q84" s="63">
-        <f>$F84*Outputs_Internal!N$56/12</f>
+        <f>$F84*Outputs_Internal!N$58/12</f>
         <v>0</v>
       </c>
       <c r="S84" s="63">
@@ -10870,23 +11003,23 @@
         <v>0</v>
       </c>
       <c r="M85" s="63">
-        <f>$F85*Outputs_Internal!$D$56/12</f>
+        <f>$F85*Outputs_Internal!$D$58/12</f>
         <v>0</v>
       </c>
       <c r="N85" s="63">
-        <f>$F85*Outputs_Internal!K$56/12</f>
+        <f>$F85*Outputs_Internal!K$58/12</f>
         <v>0</v>
       </c>
       <c r="O85" s="63">
-        <f>$F85*Outputs_Internal!L$56/12</f>
+        <f>$F85*Outputs_Internal!L$58/12</f>
         <v>0</v>
       </c>
       <c r="P85" s="63">
-        <f>$F85*Outputs_Internal!M$56/12</f>
+        <f>$F85*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q85" s="63">
-        <f>$F85*Outputs_Internal!N$56/12</f>
+        <f>$F85*Outputs_Internal!N$58/12</f>
         <v>0</v>
       </c>
       <c r="S85" s="63">
@@ -10944,23 +11077,23 @@
         <v>0</v>
       </c>
       <c r="M86" s="63">
-        <f>$F86*Outputs_Internal!$D$56/12</f>
+        <f>$F86*Outputs_Internal!$D$58/12</f>
         <v>0</v>
       </c>
       <c r="N86" s="63">
-        <f>$F86*Outputs_Internal!K$56/12</f>
+        <f>$F86*Outputs_Internal!K$58/12</f>
         <v>0</v>
       </c>
       <c r="O86" s="63">
-        <f>$F86*Outputs_Internal!L$56/12</f>
+        <f>$F86*Outputs_Internal!L$58/12</f>
         <v>0</v>
       </c>
       <c r="P86" s="63">
-        <f>$F86*Outputs_Internal!M$56/12</f>
+        <f>$F86*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q86" s="63">
-        <f>$F86*Outputs_Internal!N$56/12</f>
+        <f>$F86*Outputs_Internal!N$58/12</f>
         <v>0</v>
       </c>
       <c r="S86" s="63">
@@ -11018,23 +11151,23 @@
         <v>0</v>
       </c>
       <c r="M87" s="63">
-        <f>$F87*Outputs_Internal!$D$56/12</f>
+        <f>$F87*Outputs_Internal!$D$58/12</f>
         <v>0</v>
       </c>
       <c r="N87" s="63">
-        <f>$F87*Outputs_Internal!K$56/12</f>
+        <f>$F87*Outputs_Internal!K$58/12</f>
         <v>0</v>
       </c>
       <c r="O87" s="63">
-        <f>$F87*Outputs_Internal!L$56/12</f>
+        <f>$F87*Outputs_Internal!L$58/12</f>
         <v>0</v>
       </c>
       <c r="P87" s="63">
-        <f>$F87*Outputs_Internal!M$56/12</f>
+        <f>$F87*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q87" s="63">
-        <f>$F87*Outputs_Internal!N$56/12</f>
+        <f>$F87*Outputs_Internal!N$58/12</f>
         <v>0</v>
       </c>
       <c r="S87" s="63">
@@ -11092,23 +11225,23 @@
         <v>0</v>
       </c>
       <c r="M88" s="63">
-        <f>$F88*Outputs_Internal!$D$56/12</f>
+        <f>$F88*Outputs_Internal!$D$58/12</f>
         <v>0</v>
       </c>
       <c r="N88" s="63">
-        <f>$F88*Outputs_Internal!K$56/12</f>
+        <f>$F88*Outputs_Internal!K$58/12</f>
         <v>0</v>
       </c>
       <c r="O88" s="63">
-        <f>$F88*Outputs_Internal!L$56/12</f>
+        <f>$F88*Outputs_Internal!L$58/12</f>
         <v>0</v>
       </c>
       <c r="P88" s="63">
-        <f>$F88*Outputs_Internal!M$56/12</f>
+        <f>$F88*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q88" s="63">
-        <f>$F88*Outputs_Internal!N$56/12</f>
+        <f>$F88*Outputs_Internal!N$58/12</f>
         <v>0</v>
       </c>
       <c r="S88" s="63">
@@ -11166,23 +11299,23 @@
         <v>0</v>
       </c>
       <c r="M89" s="63">
-        <f>$F89*Outputs_Internal!$D$56/12</f>
+        <f>$F89*Outputs_Internal!$D$58/12</f>
         <v>0</v>
       </c>
       <c r="N89" s="63">
-        <f>$F89*Outputs_Internal!K$56/12</f>
+        <f>$F89*Outputs_Internal!K$58/12</f>
         <v>0</v>
       </c>
       <c r="O89" s="63">
-        <f>$F89*Outputs_Internal!L$56/12</f>
+        <f>$F89*Outputs_Internal!L$58/12</f>
         <v>0</v>
       </c>
       <c r="P89" s="63">
-        <f>$F89*Outputs_Internal!M$56/12</f>
+        <f>$F89*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q89" s="63">
-        <f>$F89*Outputs_Internal!N$56/12</f>
+        <f>$F89*Outputs_Internal!N$58/12</f>
         <v>0</v>
       </c>
       <c r="S89" s="63">
@@ -11240,23 +11373,23 @@
         <v>0</v>
       </c>
       <c r="M90" s="63">
-        <f>$F90*Outputs_Internal!$D$56/12</f>
+        <f>$F90*Outputs_Internal!$D$58/12</f>
         <v>0</v>
       </c>
       <c r="N90" s="63">
-        <f>$F90*Outputs_Internal!K$56/12</f>
+        <f>$F90*Outputs_Internal!K$58/12</f>
         <v>0</v>
       </c>
       <c r="O90" s="63">
-        <f>$F90*Outputs_Internal!L$56/12</f>
+        <f>$F90*Outputs_Internal!L$58/12</f>
         <v>0</v>
       </c>
       <c r="P90" s="63">
-        <f>$F90*Outputs_Internal!M$56/12</f>
+        <f>$F90*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q90" s="63">
-        <f>$F90*Outputs_Internal!N$56/12</f>
+        <f>$F90*Outputs_Internal!N$58/12</f>
         <v>0</v>
       </c>
       <c r="S90" s="63">
@@ -11314,23 +11447,23 @@
         <v>0</v>
       </c>
       <c r="M91" s="63">
-        <f>$F91*Outputs_Internal!$D$56/12</f>
+        <f>$F91*Outputs_Internal!$D$58/12</f>
         <v>0</v>
       </c>
       <c r="N91" s="63">
-        <f>$F91*Outputs_Internal!K$56/12</f>
+        <f>$F91*Outputs_Internal!K$58/12</f>
         <v>0</v>
       </c>
       <c r="O91" s="63">
-        <f>$F91*Outputs_Internal!L$56/12</f>
+        <f>$F91*Outputs_Internal!L$58/12</f>
         <v>0</v>
       </c>
       <c r="P91" s="63">
-        <f>$F91*Outputs_Internal!M$56/12</f>
+        <f>$F91*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q91" s="63">
-        <f>$F91*Outputs_Internal!N$56/12</f>
+        <f>$F91*Outputs_Internal!N$58/12</f>
         <v>0</v>
       </c>
       <c r="S91" s="63">
@@ -11388,23 +11521,23 @@
         <v>0</v>
       </c>
       <c r="M92" s="63">
-        <f>$F92*Outputs_Internal!$D$56/12</f>
+        <f>$F92*Outputs_Internal!$D$58/12</f>
         <v>0</v>
       </c>
       <c r="N92" s="63">
-        <f>$F92*Outputs_Internal!K$56/12</f>
+        <f>$F92*Outputs_Internal!K$58/12</f>
         <v>0</v>
       </c>
       <c r="O92" s="63">
-        <f>$F92*Outputs_Internal!L$56/12</f>
+        <f>$F92*Outputs_Internal!L$58/12</f>
         <v>0</v>
       </c>
       <c r="P92" s="63">
-        <f>$F92*Outputs_Internal!M$56/12</f>
+        <f>$F92*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q92" s="63">
-        <f>$F92*Outputs_Internal!N$56/12</f>
+        <f>$F92*Outputs_Internal!N$58/12</f>
         <v>0</v>
       </c>
       <c r="S92" s="63">
@@ -11462,23 +11595,23 @@
         <v>0</v>
       </c>
       <c r="M93" s="63">
-        <f>$F93*Outputs_Internal!$D$56/12</f>
+        <f>$F93*Outputs_Internal!$D$58/12</f>
         <v>0</v>
       </c>
       <c r="N93" s="63">
-        <f>$F93*Outputs_Internal!K$56/12</f>
+        <f>$F93*Outputs_Internal!K$58/12</f>
         <v>0</v>
       </c>
       <c r="O93" s="63">
-        <f>$F93*Outputs_Internal!L$56/12</f>
+        <f>$F93*Outputs_Internal!L$58/12</f>
         <v>0</v>
       </c>
       <c r="P93" s="63">
-        <f>$F93*Outputs_Internal!M$56/12</f>
+        <f>$F93*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q93" s="63">
-        <f>$F93*Outputs_Internal!N$56/12</f>
+        <f>$F93*Outputs_Internal!N$58/12</f>
         <v>0</v>
       </c>
       <c r="S93" s="63">
@@ -11536,23 +11669,23 @@
         <v>0</v>
       </c>
       <c r="M94" s="63">
-        <f>$F94*Outputs_Internal!$D$56/12</f>
+        <f>$F94*Outputs_Internal!$D$58/12</f>
         <v>0</v>
       </c>
       <c r="N94" s="63">
-        <f>$F94*Outputs_Internal!K$56/12</f>
+        <f>$F94*Outputs_Internal!K$58/12</f>
         <v>0</v>
       </c>
       <c r="O94" s="63">
-        <f>$F94*Outputs_Internal!L$56/12</f>
+        <f>$F94*Outputs_Internal!L$58/12</f>
         <v>0</v>
       </c>
       <c r="P94" s="63">
-        <f>$F94*Outputs_Internal!M$56/12</f>
+        <f>$F94*Outputs_Internal!M$58/12</f>
         <v>0</v>
       </c>
       <c r="Q94" s="63">
-        <f>$F94*Outputs_Internal!N$56/12</f>
+        <f>$F94*Outputs_Internal!N$58/12</f>
         <v>0</v>
       </c>
       <c r="S94" s="63">
@@ -11588,13 +11721,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O126"/>
+  <dimension ref="A2:O131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D105" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D118" sqref="D118"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12066,11 +12199,11 @@
       </c>
       <c r="D21" s="20">
         <f xml:space="preserve"> IF(OR(Inputs!D17="Y",Inputs!D$22="Y"), Prices!$C16, 0)</f>
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="E21" s="20">
-        <f xml:space="preserve"> IF(OR(Inputs!E17="Y",Inputs!E$22="Y"), Prices!$C16, 0)</f>
-        <v>0</v>
+        <f xml:space="preserve"> IF(OR(Inputs!E17="Y",Inputs!E$22="Y",Inputs!E$23="Y"), Prices!$C16, 0)</f>
+        <v>12000</v>
       </c>
       <c r="F21" s="20">
         <f xml:space="preserve"> IF(OR(Inputs!F17="Y",Inputs!F$22="Y"), Prices!$C16, 0)</f>
@@ -12091,11 +12224,11 @@
       </c>
       <c r="D22" s="20">
         <f xml:space="preserve"> IF(OR(Inputs!D18="Y",Inputs!D$22="Y"), Prices!$C17, 0)</f>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="E22" s="20">
-        <f xml:space="preserve"> IF(OR(Inputs!E18="Y",Inputs!E$22="Y"), Prices!$C17, 0)</f>
-        <v>0</v>
+        <f xml:space="preserve"> IF(OR(Inputs!E18="Y",Inputs!E$22="Y",Inputs!$E23="Y"), Prices!$C17, 0)</f>
+        <v>6000</v>
       </c>
       <c r="F22" s="20">
         <f xml:space="preserve"> IF(OR(Inputs!F18="Y",Inputs!F$22="Y"), Prices!$C17, 0)</f>
@@ -12116,11 +12249,11 @@
       </c>
       <c r="D23" s="20">
         <f xml:space="preserve"> IF(OR(Inputs!D19="Y",Inputs!D$22="Y"), Prices!$C18, 0)</f>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="E23" s="20">
-        <f xml:space="preserve"> IF(OR(Inputs!E19="Y",Inputs!E$22="Y"), Prices!$C18, 0)</f>
-        <v>0</v>
+        <f xml:space="preserve"> IF(OR(Inputs!E19="Y",Inputs!E$22="Y",Inputs!E23="Y"), Prices!$C18, 0)</f>
+        <v>6000</v>
       </c>
       <c r="F23" s="20">
         <f xml:space="preserve"> IF(OR(Inputs!F19="Y",Inputs!F$22="Y"), Prices!$C18, 0)</f>
@@ -12958,7 +13091,7 @@
       </c>
       <c r="D64" s="20">
         <f>IF(Inputs!D22="Y", Prices!$C22, 0)</f>
-        <v>0</v>
+        <v>42000</v>
       </c>
       <c r="E64" s="20">
         <f>IF(Inputs!E22="Y", Prices!$C22, 0)</f>
@@ -12979,15 +13112,15 @@
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C65" s="19" t="s">
-        <v>17</v>
+        <v>130</v>
       </c>
       <c r="D65" s="20">
         <f>IF(Inputs!D23="Y", Prices!$C23, 0)</f>
-        <v>33600</v>
+        <v>0</v>
       </c>
       <c r="E65" s="20">
         <f>IF(Inputs!E23="Y", Prices!$C23, 0)</f>
-        <v>0</v>
+        <v>42000</v>
       </c>
       <c r="F65" s="20">
         <f>IF(Inputs!F23="Y", Prices!$C23, 0)</f>
@@ -13004,1318 +13137,1490 @@
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C66" s="19" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="D66" s="20">
-        <f>IF(Inputs!D24="Y", Prices!$C24 * IF(Inputs!D23="Y",1-Prices!$L$20,1), 0)</f>
-        <v>23520</v>
+        <f>IF(Inputs!D24="Y", Prices!$C24, 0)</f>
+        <v>0</v>
       </c>
       <c r="E66" s="20">
-        <f>IF(Inputs!E24="Y", Prices!$C24 * IF(Inputs!E23="Y",1-Prices!$L$20,1), 0)</f>
+        <f>IF(Inputs!E24="Y", Prices!$C24, 0)</f>
         <v>0</v>
       </c>
       <c r="F66" s="20">
-        <f>IF(Inputs!F24="Y", Prices!$C24 * IF(Inputs!F23="Y",1-Prices!$L$20,1), 0)</f>
+        <f>IF(Inputs!F24="Y", Prices!$C24, 0)</f>
         <v>0</v>
       </c>
       <c r="G66" s="20">
-        <f>IF(Inputs!G24="Y", Prices!$C24 * IF(Inputs!G23="Y",1-Prices!$L$20,1), 0)</f>
+        <f>IF(Inputs!G24="Y", Prices!$C24, 0)</f>
         <v>0</v>
       </c>
       <c r="H66" s="20">
-        <f>IF(Inputs!H24="Y", Prices!$C24 * IF(Inputs!H23="Y",1-Prices!$L$20,1), 0)</f>
+        <f>IF(Inputs!H24="Y", Prices!$C24, 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C67" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D67" s="20">
+        <f>IF(Inputs!D25="Y", Prices!$C25 * IF(Inputs!D24="Y",1-Prices!$L$20,1), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E67" s="20">
+        <f>IF(Inputs!E25="Y", Prices!$C25 * IF(Inputs!E24="Y",1-Prices!$L$20,1), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F67" s="20">
+        <f>IF(Inputs!F25="Y", Prices!$C25 * IF(Inputs!F24="Y",1-Prices!$L$20,1), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G67" s="20">
+        <f>IF(Inputs!G25="Y", Prices!$C25 * IF(Inputs!G24="Y",1-Prices!$L$20,1), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H67" s="20">
+        <f>IF(Inputs!H25="Y", Prices!$C25 * IF(Inputs!H24="Y",1-Prices!$L$20,1), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C68" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="D67" s="20">
-        <f>IF(Inputs!D25="Y", Prices!$C25, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E67" s="20">
-        <f>IF(Inputs!E25="Y", Prices!$C25, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F67" s="20">
-        <f>IF(Inputs!F25="Y", Prices!$C25, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="G67" s="20">
-        <f>IF(Inputs!G25="Y", Prices!$C25, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H67" s="20">
-        <f>IF(Inputs!H25="Y", Prices!$C25, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C68" s="81" t="s">
+      <c r="D68" s="20">
+        <f>IF(Inputs!D26="Y", Prices!$C26, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E68" s="20">
+        <f>IF(Inputs!E26="Y", Prices!$C26, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F68" s="20">
+        <f>IF(Inputs!F26="Y", Prices!$C26, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G68" s="20">
+        <f>IF(Inputs!G26="Y", Prices!$C26, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H68" s="20">
+        <f>IF(Inputs!H26="Y", Prices!$C26, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C69" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="D68" s="84">
-        <f>IF(Inputs!D10="Y", Prices!$C26, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E68" s="84">
-        <f>IF(Inputs!E10="Y", Prices!$C26, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F68" s="84">
-        <f>IF(Inputs!F10="Y", Prices!$C26, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="G68" s="84">
-        <f>IF(Inputs!G10="Y", Prices!$C26, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H68" s="84">
-        <f>IF(Inputs!H10="Y", Prices!$C26, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B70" s="6" t="s">
+      <c r="D69" s="84">
+        <f>IF(Inputs!D10="Y", Prices!$C27, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E69" s="84">
+        <f>IF(Inputs!E10="Y", Prices!$C27, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F69" s="84">
+        <f>IF(Inputs!F10="Y", Prices!$C27, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G69" s="84">
+        <f>IF(Inputs!G10="Y", Prices!$C27, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H69" s="84">
+        <f>IF(Inputs!H10="Y", Prices!$C27, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B71" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="J70" s="89" t="s">
+      <c r="J71" s="89" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C71" s="28" t="s">
+    <row r="72" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C72" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D71" s="29">
-        <v>0</v>
-      </c>
-      <c r="E71" s="29">
-        <v>0</v>
-      </c>
-      <c r="F71" s="29">
-        <v>0</v>
-      </c>
-      <c r="G71" s="29">
-        <v>0</v>
-      </c>
-      <c r="H71" s="29">
-        <v>0</v>
-      </c>
-      <c r="J71" s="90">
+      <c r="D72" s="29">
+        <v>0</v>
+      </c>
+      <c r="E72" s="29">
+        <v>0</v>
+      </c>
+      <c r="F72" s="29">
+        <v>0</v>
+      </c>
+      <c r="G72" s="29">
+        <v>0</v>
+      </c>
+      <c r="H72" s="29">
+        <v>0</v>
+      </c>
+      <c r="J72" s="90">
         <v>1E-3</v>
       </c>
-      <c r="K71" s="23">
-        <f>D62+D71+$J71</f>
+      <c r="K72" s="23">
+        <f>D62+D72+$J72</f>
         <v>1E-3</v>
       </c>
-      <c r="L71" s="23">
-        <f t="shared" ref="L71:O71" si="2">E62+E71+$J71</f>
+      <c r="L72" s="23">
+        <f t="shared" ref="L72:O72" si="2">E62+E72+$J72</f>
         <v>1E-3</v>
       </c>
-      <c r="M71" s="23">
+      <c r="M72" s="23">
         <f t="shared" si="2"/>
         <v>1E-3</v>
       </c>
-      <c r="N71" s="23">
+      <c r="N72" s="23">
         <f t="shared" si="2"/>
         <v>1E-3</v>
       </c>
-      <c r="O71" s="23">
+      <c r="O72" s="23">
         <f t="shared" si="2"/>
         <v>1E-3</v>
       </c>
     </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C72" s="17" t="s">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C73" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D72" s="18">
+      <c r="D73" s="18">
         <f>IF(Inputs!D$5="Y", 0, IF(D$11 = "", 0, IF(Inputs!D21 = "Y", D$11*Prices!$E21, 0)))*D$10</f>
         <v>0</v>
       </c>
-      <c r="E72" s="18">
+      <c r="E73" s="18">
         <f>IF(Inputs!E$5="Y", 0, IF(E$11 = "", 0, IF(Inputs!E21 = "Y", E$11*Prices!$E21, 0)))*E$10</f>
         <v>0</v>
       </c>
-      <c r="F72" s="18">
+      <c r="F73" s="18">
         <f>IF(Inputs!F$5="Y", 0, IF(F$11 = "", 0, IF(Inputs!F21 = "Y", F$11*Prices!$E21, 0)))*F$10</f>
         <v>0</v>
       </c>
-      <c r="G72" s="18">
+      <c r="G73" s="18">
         <f>IF(Inputs!G$5="Y", 0, IF(G$11 = "", 0, IF(Inputs!G21 = "Y", G$11*Prices!$E21, 0)))*G$10</f>
         <v>0</v>
       </c>
-      <c r="H72" s="18">
+      <c r="H73" s="18">
         <f>IF(Inputs!H$5="Y", 0, IF(H$11 = "", 0, IF(Inputs!H21 = "Y", H$11*Prices!$E21, 0)))*H$10</f>
         <v>0</v>
       </c>
-      <c r="J72" s="90">
-        <f>J71+0.0001</f>
+      <c r="J73" s="90">
+        <f>J72+0.0001</f>
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="K72" s="23">
-        <f t="shared" ref="K72:O72" si="3">D63+D72+$J72</f>
+      <c r="K73" s="23">
+        <f t="shared" ref="K73:O73" si="3">D63+D73+$J73</f>
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="L72" s="23">
+      <c r="L73" s="23">
         <f t="shared" si="3"/>
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="M72" s="23">
+      <c r="M73" s="23">
         <f t="shared" si="3"/>
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="N72" s="23">
+      <c r="N73" s="23">
         <f t="shared" si="3"/>
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="O72" s="23">
+      <c r="O73" s="23">
         <f t="shared" si="3"/>
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C73" s="19" t="s">
+    <row r="74" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C74" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D73" s="20">
+      <c r="D74" s="20">
         <f>IF(Inputs!D$5="Y", 0, IF(D$11 = "", 0, IF(Inputs!D22 = "Y", D$11*Prices!$E22, 0)))*D$10</f>
         <v>0</v>
       </c>
-      <c r="E73" s="20">
+      <c r="E74" s="20">
         <f>IF(Inputs!E$5="Y", 0, IF(E$11 = "", 0, IF(Inputs!E22 = "Y", E$11*Prices!$E22, 0)))*E$10</f>
         <v>0</v>
       </c>
-      <c r="F73" s="20">
+      <c r="F74" s="20">
         <f>IF(Inputs!F$5="Y", 0, IF(F$11 = "", 0, IF(Inputs!F22 = "Y", F$11*Prices!$E22, 0)))*F$10</f>
         <v>0</v>
       </c>
-      <c r="G73" s="20">
+      <c r="G74" s="20">
         <f>IF(Inputs!G$5="Y", 0, IF(G$11 = "", 0, IF(Inputs!G22 = "Y", G$11*Prices!$E22, 0)))*G$10</f>
         <v>0</v>
       </c>
-      <c r="H73" s="20">
+      <c r="H74" s="20">
         <f>IF(Inputs!H$5="Y", 0, IF(H$11 = "", 0, IF(Inputs!H22 = "Y", H$11*Prices!$E22, 0)))*H$10</f>
         <v>0</v>
       </c>
-      <c r="J73" s="90">
-        <f t="shared" ref="J73:J77" si="4">J72+0.0001</f>
+      <c r="J74" s="90">
+        <f t="shared" ref="J74:J79" si="4">J73+0.0001</f>
         <v>1.2000000000000001E-3</v>
       </c>
-      <c r="K73" s="23">
-        <f t="shared" ref="K73:O73" si="5">D64+D73+$J73</f>
-        <v>1.2000000000000001E-3</v>
-      </c>
-      <c r="L73" s="23">
+      <c r="K74" s="23">
+        <f t="shared" ref="K74:O74" si="5">D64+D74+$J74</f>
+        <v>42000.001199999999</v>
+      </c>
+      <c r="L74" s="23">
         <f t="shared" si="5"/>
         <v>1.2000000000000001E-3</v>
       </c>
-      <c r="M73" s="23">
+      <c r="M74" s="23">
         <f t="shared" si="5"/>
         <v>1.2000000000000001E-3</v>
       </c>
-      <c r="N73" s="23">
+      <c r="N74" s="23">
         <f t="shared" si="5"/>
         <v>1.2000000000000001E-3</v>
       </c>
-      <c r="O73" s="23">
+      <c r="O74" s="23">
         <f t="shared" si="5"/>
         <v>1.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C74" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D74" s="20">
+    <row r="75" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C75" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D75" s="20">
         <f>IF(Inputs!D$5="Y", 0, IF(D$11 = "", 0, IF(Inputs!D23 = "Y", D$11*Prices!$E23, 0)))*D$10</f>
         <v>0</v>
       </c>
-      <c r="E74" s="20">
+      <c r="E75" s="20">
         <f>IF(Inputs!E$5="Y", 0, IF(E$11 = "", 0, IF(Inputs!E23 = "Y", E$11*Prices!$E23, 0)))*E$10</f>
-        <v>0</v>
-      </c>
-      <c r="F74" s="20">
+        <v>38220</v>
+      </c>
+      <c r="F75" s="20">
         <f>IF(Inputs!F$5="Y", 0, IF(F$11 = "", 0, IF(Inputs!F23 = "Y", F$11*Prices!$E23, 0)))*F$10</f>
         <v>0</v>
       </c>
-      <c r="G74" s="20">
+      <c r="G75" s="20">
         <f>IF(Inputs!G$5="Y", 0, IF(G$11 = "", 0, IF(Inputs!G23 = "Y", G$11*Prices!$E23, 0)))*G$10</f>
         <v>0</v>
       </c>
-      <c r="H74" s="20">
+      <c r="H75" s="20">
         <f>IF(Inputs!H$5="Y", 0, IF(H$11 = "", 0, IF(Inputs!H23 = "Y", H$11*Prices!$E23, 0)))*H$10</f>
         <v>0</v>
       </c>
-      <c r="J74" s="90">
+      <c r="J75" s="90">
         <f t="shared" si="4"/>
         <v>1.3000000000000002E-3</v>
       </c>
-      <c r="K74" s="23">
-        <f t="shared" ref="K74:O74" si="6">D65+D74+$J74</f>
-        <v>33600.001300000004</v>
-      </c>
-      <c r="L74" s="23">
-        <f t="shared" si="6"/>
+      <c r="K75" s="23">
+        <f t="shared" ref="K75:K79" si="6">D65+D75+$J75</f>
         <v>1.3000000000000002E-3</v>
       </c>
-      <c r="M74" s="23">
-        <f t="shared" si="6"/>
+      <c r="L75" s="23">
+        <f t="shared" ref="L75:L79" si="7">E65+E75+$J75</f>
+        <v>80220.001300000004</v>
+      </c>
+      <c r="M75" s="23">
+        <f t="shared" ref="M75:M79" si="8">F65+F75+$J75</f>
         <v>1.3000000000000002E-3</v>
       </c>
-      <c r="N74" s="23">
-        <f t="shared" si="6"/>
+      <c r="N75" s="23">
+        <f t="shared" ref="N75:N79" si="9">G65+G75+$J75</f>
         <v>1.3000000000000002E-3</v>
       </c>
-      <c r="O74" s="23">
-        <f t="shared" si="6"/>
+      <c r="O75" s="23">
+        <f t="shared" ref="O75:O79" si="10">H65+H75+$J75</f>
         <v>1.3000000000000002E-3</v>
       </c>
     </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C75" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="D75" s="20">
-        <f>IF(Inputs!D$5="Y", 0, IF(D$11 = "", 0, IF(Inputs!D24 = "Y", D$11*Prices!$E24 * IF(Inputs!D23="Y",1-Prices!$L$20,1), 0)))*D$10</f>
-        <v>0</v>
-      </c>
-      <c r="E75" s="20">
-        <f>IF(Inputs!E$5="Y", 0, IF(E$11 = "", 0, IF(Inputs!E24 = "Y", E$11*Prices!$E24 * IF(Inputs!E23="Y",1-Prices!$L$20,1), 0)))*E$10</f>
-        <v>0</v>
-      </c>
-      <c r="F75" s="20">
-        <f>IF(Inputs!F$5="Y", 0, IF(F$11 = "", 0, IF(Inputs!F24 = "Y", F$11*Prices!$E24 * IF(Inputs!F23="Y",1-Prices!$L$20,1), 0)))*F$10</f>
-        <v>0</v>
-      </c>
-      <c r="G75" s="20">
-        <f>IF(Inputs!G$5="Y", 0, IF(G$11 = "", 0, IF(Inputs!G24 = "Y", G$11*Prices!$E24 * IF(Inputs!G23="Y",1-Prices!$L$20,1), 0)))*G$10</f>
-        <v>0</v>
-      </c>
-      <c r="H75" s="20">
-        <f>IF(Inputs!H$5="Y", 0, IF(H$11 = "", 0, IF(Inputs!H24 = "Y", H$11*Prices!$E24 * IF(Inputs!H23="Y",1-Prices!$L$20,1), 0)))*H$10</f>
-        <v>0</v>
-      </c>
-      <c r="J75" s="90">
+    <row r="76" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C76" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D76" s="20">
+        <f>IF(Inputs!D$5="Y", 0, IF(D$11 = "", 0, IF(Inputs!D24 = "Y", D$11*Prices!$E24, 0)))*D$10</f>
+        <v>0</v>
+      </c>
+      <c r="E76" s="20">
+        <f>IF(Inputs!E$5="Y", 0, IF(E$11 = "", 0, IF(Inputs!E24 = "Y", E$11*Prices!$E24, 0)))*E$10</f>
+        <v>0</v>
+      </c>
+      <c r="F76" s="20">
+        <f>IF(Inputs!F$5="Y", 0, IF(F$11 = "", 0, IF(Inputs!F24 = "Y", F$11*Prices!$E24, 0)))*F$10</f>
+        <v>0</v>
+      </c>
+      <c r="G76" s="20">
+        <f>IF(Inputs!G$5="Y", 0, IF(G$11 = "", 0, IF(Inputs!G24 = "Y", G$11*Prices!$E24, 0)))*G$10</f>
+        <v>0</v>
+      </c>
+      <c r="H76" s="20">
+        <f>IF(Inputs!H$5="Y", 0, IF(H$11 = "", 0, IF(Inputs!H24 = "Y", H$11*Prices!$E24, 0)))*H$10</f>
+        <v>0</v>
+      </c>
+      <c r="J76" s="90">
         <f t="shared" si="4"/>
         <v>1.4000000000000002E-3</v>
       </c>
-      <c r="K75" s="23">
-        <f t="shared" ref="K75:O75" si="7">D66+D75+$J75</f>
-        <v>23520.001400000001</v>
-      </c>
-      <c r="L75" s="23">
+      <c r="K76" s="23">
+        <f t="shared" si="6"/>
+        <v>1.4000000000000002E-3</v>
+      </c>
+      <c r="L76" s="23">
         <f t="shared" si="7"/>
         <v>1.4000000000000002E-3</v>
       </c>
-      <c r="M75" s="23">
-        <f t="shared" si="7"/>
+      <c r="M76" s="23">
+        <f t="shared" si="8"/>
         <v>1.4000000000000002E-3</v>
       </c>
-      <c r="N75" s="23">
-        <f t="shared" si="7"/>
+      <c r="N76" s="23">
+        <f t="shared" si="9"/>
         <v>1.4000000000000002E-3</v>
       </c>
-      <c r="O75" s="23">
-        <f t="shared" si="7"/>
+      <c r="O76" s="23">
+        <f t="shared" si="10"/>
         <v>1.4000000000000002E-3</v>
       </c>
     </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C76" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="D76" s="20">
-        <f>IF(Inputs!D$5="Y", 0, IF(D$11 = "", 0, IF(Inputs!D25 = "Y", D$11*Prices!$E25, 0)))*D$10</f>
-        <v>0</v>
-      </c>
-      <c r="E76" s="20">
-        <f>IF(Inputs!E$5="Y", 0, IF(E$11 = "", 0, IF(Inputs!E25 = "Y", E$11*Prices!$E25, 0)))*E$10</f>
-        <v>0</v>
-      </c>
-      <c r="F76" s="20">
-        <f>IF(Inputs!F$5="Y", 0, IF(F$11 = "", 0, IF(Inputs!F25 = "Y", F$11*Prices!$E25, 0)))*F$10</f>
-        <v>0</v>
-      </c>
-      <c r="G76" s="20">
-        <f>IF(Inputs!G$5="Y", 0, IF(G$11 = "", 0, IF(Inputs!G25 = "Y", G$11*Prices!$E25, 0)))*G$10</f>
-        <v>0</v>
-      </c>
-      <c r="H76" s="20">
-        <f>IF(Inputs!H$5="Y", 0, IF(H$11 = "", 0, IF(Inputs!H25 = "Y", H$11*Prices!$E25, 0)))*H$10</f>
-        <v>0</v>
-      </c>
-      <c r="J76" s="90">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C77" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D77" s="20">
+        <f>IF(Inputs!D$5="Y", 0, IF(D$11 = "", 0, IF(Inputs!D25 = "Y", D$11*Prices!$E25 * IF(Inputs!D24="Y",1-Prices!$L$20,1), 0)))*D$10</f>
+        <v>0</v>
+      </c>
+      <c r="E77" s="20">
+        <f>IF(Inputs!E$5="Y", 0, IF(E$11 = "", 0, IF(Inputs!E25 = "Y", E$11*Prices!$E25 * IF(Inputs!E24="Y",1-Prices!$L$20,1), 0)))*E$10</f>
+        <v>0</v>
+      </c>
+      <c r="F77" s="20">
+        <f>IF(Inputs!F$5="Y", 0, IF(F$11 = "", 0, IF(Inputs!F25 = "Y", F$11*Prices!$E25 * IF(Inputs!F24="Y",1-Prices!$L$20,1), 0)))*F$10</f>
+        <v>0</v>
+      </c>
+      <c r="G77" s="20">
+        <f>IF(Inputs!G$5="Y", 0, IF(G$11 = "", 0, IF(Inputs!G25 = "Y", G$11*Prices!$E25 * IF(Inputs!G24="Y",1-Prices!$L$20,1), 0)))*G$10</f>
+        <v>0</v>
+      </c>
+      <c r="H77" s="20">
+        <f>IF(Inputs!H$5="Y", 0, IF(H$11 = "", 0, IF(Inputs!H25 = "Y", H$11*Prices!$E25 * IF(Inputs!H24="Y",1-Prices!$L$20,1), 0)))*H$10</f>
+        <v>0</v>
+      </c>
+      <c r="J77" s="90">
         <f t="shared" si="4"/>
         <v>1.5000000000000002E-3</v>
       </c>
-      <c r="K76" s="23">
-        <f t="shared" ref="K76:O76" si="8">D67+D76+$J76</f>
+      <c r="K77" s="23">
+        <f t="shared" si="6"/>
         <v>1.5000000000000002E-3</v>
       </c>
-      <c r="L76" s="23">
+      <c r="L77" s="23">
+        <f t="shared" si="7"/>
+        <v>1.5000000000000002E-3</v>
+      </c>
+      <c r="M77" s="23">
         <f t="shared" si="8"/>
         <v>1.5000000000000002E-3</v>
       </c>
-      <c r="M76" s="23">
-        <f t="shared" si="8"/>
+      <c r="N77" s="23">
+        <f t="shared" si="9"/>
         <v>1.5000000000000002E-3</v>
       </c>
-      <c r="N76" s="23">
-        <f t="shared" si="8"/>
+      <c r="O77" s="23">
+        <f t="shared" si="10"/>
         <v>1.5000000000000002E-3</v>
       </c>
-      <c r="O76" s="23">
-        <f t="shared" si="8"/>
-        <v>1.5000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C77" s="81" t="s">
-        <v>97</v>
-      </c>
-      <c r="D77" s="84">
-        <f>IF(Inputs!D$5="Y", 0, IF(D$11 = "", 0, IF(Inputs!D10 = "Y", D$11*Prices!$E26, 0)))*D$10</f>
-        <v>0</v>
-      </c>
-      <c r="E77" s="84">
-        <f>IF(Inputs!E$5="Y", 0, IF(E$11 = "", 0, IF(Inputs!E10 = "Y", E$11*Prices!$E26, 0)))*E$10</f>
-        <v>0</v>
-      </c>
-      <c r="F77" s="84">
-        <f>IF(Inputs!F$5="Y", 0, IF(F$11 = "", 0, IF(Inputs!F10 = "Y", F$11*Prices!$E26, 0)))*F$10</f>
-        <v>0</v>
-      </c>
-      <c r="G77" s="84">
-        <f>IF(Inputs!G$5="Y", 0, IF(G$11 = "", 0, IF(Inputs!G10 = "Y", G$11*Prices!$E26, 0)))*G$10</f>
-        <v>0</v>
-      </c>
-      <c r="H77" s="84">
-        <f>IF(Inputs!H$5="Y", 0, IF(H$11 = "", 0, IF(Inputs!H10 = "Y", H$11*Prices!$E26, 0)))*H$10</f>
-        <v>0</v>
-      </c>
-      <c r="J77" s="90">
+    </row>
+    <row r="78" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C78" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D78" s="20">
+        <f>IF(Inputs!D$5="Y", 0, IF(D$11 = "", 0, IF(Inputs!D26 = "Y", D$11*Prices!$E26, 0)))*D$10</f>
+        <v>0</v>
+      </c>
+      <c r="E78" s="20">
+        <f>IF(Inputs!E$5="Y", 0, IF(E$11 = "", 0, IF(Inputs!E26 = "Y", E$11*Prices!$E26, 0)))*E$10</f>
+        <v>0</v>
+      </c>
+      <c r="F78" s="20">
+        <f>IF(Inputs!F$5="Y", 0, IF(F$11 = "", 0, IF(Inputs!F26 = "Y", F$11*Prices!$E26, 0)))*F$10</f>
+        <v>0</v>
+      </c>
+      <c r="G78" s="20">
+        <f>IF(Inputs!G$5="Y", 0, IF(G$11 = "", 0, IF(Inputs!G26 = "Y", G$11*Prices!$E26, 0)))*G$10</f>
+        <v>0</v>
+      </c>
+      <c r="H78" s="20">
+        <f>IF(Inputs!H$5="Y", 0, IF(H$11 = "", 0, IF(Inputs!H26 = "Y", H$11*Prices!$E26, 0)))*H$10</f>
+        <v>0</v>
+      </c>
+      <c r="J78" s="90">
         <f t="shared" si="4"/>
         <v>1.6000000000000003E-3</v>
       </c>
-      <c r="K77" s="23">
-        <f t="shared" ref="K77:O77" si="9">D68+D77+$J77</f>
+      <c r="K78" s="23">
+        <f t="shared" si="6"/>
         <v>1.6000000000000003E-3</v>
       </c>
-      <c r="L77" s="23">
+      <c r="L78" s="23">
+        <f t="shared" si="7"/>
+        <v>1.6000000000000003E-3</v>
+      </c>
+      <c r="M78" s="23">
+        <f t="shared" si="8"/>
+        <v>1.6000000000000003E-3</v>
+      </c>
+      <c r="N78" s="23">
         <f t="shared" si="9"/>
         <v>1.6000000000000003E-3</v>
       </c>
-      <c r="M77" s="23">
+      <c r="O78" s="23">
+        <f t="shared" si="10"/>
+        <v>1.6000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C79" s="81" t="s">
+        <v>97</v>
+      </c>
+      <c r="D79" s="84">
+        <f>IF(Inputs!D$5="Y", 0, IF(D$11 = "", 0, IF(Inputs!D10 = "Y", D$11*Prices!$E27, 0)))*D$10</f>
+        <v>0</v>
+      </c>
+      <c r="E79" s="84">
+        <f>IF(Inputs!E$5="Y", 0, IF(E$11 = "", 0, IF(Inputs!E10 = "Y", E$11*Prices!$E27, 0)))*E$10</f>
+        <v>0</v>
+      </c>
+      <c r="F79" s="84">
+        <f>IF(Inputs!F$5="Y", 0, IF(F$11 = "", 0, IF(Inputs!F10 = "Y", F$11*Prices!$E27, 0)))*F$10</f>
+        <v>0</v>
+      </c>
+      <c r="G79" s="84">
+        <f>IF(Inputs!G$5="Y", 0, IF(G$11 = "", 0, IF(Inputs!G10 = "Y", G$11*Prices!$E27, 0)))*G$10</f>
+        <v>0</v>
+      </c>
+      <c r="H79" s="84">
+        <f>IF(Inputs!H$5="Y", 0, IF(H$11 = "", 0, IF(Inputs!H10 = "Y", H$11*Prices!$E27, 0)))*H$10</f>
+        <v>0</v>
+      </c>
+      <c r="J79" s="90">
+        <f t="shared" si="4"/>
+        <v>1.7000000000000003E-3</v>
+      </c>
+      <c r="K79" s="23">
+        <f t="shared" si="6"/>
+        <v>1.7000000000000003E-3</v>
+      </c>
+      <c r="L79" s="23">
+        <f t="shared" si="7"/>
+        <v>1.7000000000000003E-3</v>
+      </c>
+      <c r="M79" s="23">
+        <f t="shared" si="8"/>
+        <v>1.7000000000000003E-3</v>
+      </c>
+      <c r="N79" s="23">
         <f t="shared" si="9"/>
-        <v>1.6000000000000003E-3</v>
-      </c>
-      <c r="N77" s="23">
-        <f t="shared" si="9"/>
-        <v>1.6000000000000003E-3</v>
-      </c>
-      <c r="O77" s="23">
-        <f t="shared" si="9"/>
-        <v>1.6000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B79" s="6" t="s">
+        <v>1.7000000000000003E-3</v>
+      </c>
+      <c r="O79" s="23">
+        <f t="shared" si="10"/>
+        <v>1.7000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+    </row>
+    <row r="81" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B81" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C80" s="17" t="s">
+    <row r="82" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C82" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D80" s="18">
+      <c r="D82" s="18">
         <f>D62</f>
         <v>0</v>
       </c>
-      <c r="E80" s="18">
-        <f t="shared" ref="E80:H80" si="10">E62</f>
-        <v>0</v>
-      </c>
-      <c r="F80" s="18">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G80" s="18">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H80" s="18">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K80" s="21">
-        <f>IF(COUNTIF(K$71:K$77,"")&gt;2,"",IFERROR(RANK(K71,K$71:K$77),5))</f>
+      <c r="E82" s="18">
+        <f t="shared" ref="E82:H82" si="11">E62</f>
+        <v>0</v>
+      </c>
+      <c r="F82" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G82" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H82" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K82" s="21">
+        <f>IF(COUNTIF(K$72:K$79,"")&gt;2,"",IFERROR(RANK(K72,K$72:K$79),8))</f>
+        <v>8</v>
+      </c>
+      <c r="L82" s="21">
+        <f t="shared" ref="L82:O82" si="12">IF(COUNTIF(L$72:L$79,"")&gt;2,"",IFERROR(RANK(L72,L$72:L$79),8))</f>
+        <v>8</v>
+      </c>
+      <c r="M82" s="21">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="N82" s="21">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="O82" s="21">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C83" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83" s="18">
+        <f>IF(D63=0,0,D63-SUM(D15:D20))</f>
+        <v>0</v>
+      </c>
+      <c r="E83" s="18">
+        <f>IF(E63=0,0,E63-SUM(E15:E20))</f>
+        <v>0</v>
+      </c>
+      <c r="F83" s="18">
+        <f>IF(F63=0,0,F63-SUM(F15:F20))</f>
+        <v>0</v>
+      </c>
+      <c r="G83" s="18">
+        <f>IF(G63=0,0,G63-SUM(G15:G20))</f>
+        <v>0</v>
+      </c>
+      <c r="H83" s="18">
+        <f>IF(H63=0,0,H63-SUM(H15:H20))</f>
+        <v>0</v>
+      </c>
+      <c r="K83" s="21">
+        <f t="shared" ref="K83:O83" si="13">IF(COUNTIF(K$72:K$79,"")&gt;2,"",IFERROR(RANK(K73,K$72:K$79),8))</f>
         <v>7</v>
       </c>
-      <c r="L80" s="21">
-        <f t="shared" ref="L80:O80" si="11">IF(COUNTIF(L$71:L$77,"")&gt;2,"",IFERROR(RANK(L71,L$71:L$77),5))</f>
+      <c r="L83" s="21">
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
-      <c r="M80" s="21">
-        <f t="shared" si="11"/>
+      <c r="M83" s="21">
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
-      <c r="N80" s="21">
-        <f t="shared" si="11"/>
+      <c r="N83" s="21">
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
-      <c r="O80" s="21">
-        <f t="shared" si="11"/>
+      <c r="O83" s="21">
+        <f t="shared" si="13"/>
         <v>7</v>
-      </c>
-    </row>
-    <row r="81" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C81" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D81" s="18">
-        <f>IF(D63=0,0,D63-SUM(D15:D20))</f>
-        <v>0</v>
-      </c>
-      <c r="E81" s="18">
-        <f>IF(E63=0,0,E63-SUM(E15:E20))</f>
-        <v>0</v>
-      </c>
-      <c r="F81" s="18">
-        <f>IF(F63=0,0,F63-SUM(F15:F20))</f>
-        <v>0</v>
-      </c>
-      <c r="G81" s="18">
-        <f>IF(G63=0,0,G63-SUM(G15:G20))</f>
-        <v>0</v>
-      </c>
-      <c r="H81" s="18">
-        <f>IF(H63=0,0,H63-SUM(H15:H20))</f>
-        <v>0</v>
-      </c>
-      <c r="K81" s="21">
-        <f t="shared" ref="K81:O81" si="12">IF(COUNTIF(K$71:K$77,"")&gt;2,"",IFERROR(RANK(K72,K$71:K$77),5))</f>
-        <v>6</v>
-      </c>
-      <c r="L81" s="21">
-        <f t="shared" si="12"/>
-        <v>6</v>
-      </c>
-      <c r="M81" s="21">
-        <f t="shared" si="12"/>
-        <v>6</v>
-      </c>
-      <c r="N81" s="21">
-        <f t="shared" si="12"/>
-        <v>6</v>
-      </c>
-      <c r="O81" s="21">
-        <f t="shared" si="12"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="82" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C82" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D82" s="20">
-        <f>IF(D64=0,0,D64-SUM(D21:D23))</f>
-        <v>0</v>
-      </c>
-      <c r="E82" s="20">
-        <f>IF(E64=0,0,E64-SUM(E21:E23))</f>
-        <v>0</v>
-      </c>
-      <c r="F82" s="20">
-        <f>IF(F64=0,0,F64-SUM(F21:F23))</f>
-        <v>0</v>
-      </c>
-      <c r="G82" s="20">
-        <f>IF(G64=0,0,G64-SUM(G21:G23))</f>
-        <v>0</v>
-      </c>
-      <c r="H82" s="20">
-        <f>IF(H64=0,0,H64-SUM(H21:H23))</f>
-        <v>0</v>
-      </c>
-      <c r="K82" s="21">
-        <f t="shared" ref="K82:O82" si="13">IF(COUNTIF(K$71:K$77,"")&gt;2,"",IFERROR(RANK(K73,K$71:K$77),5))</f>
-        <v>5</v>
-      </c>
-      <c r="L82" s="21">
-        <f t="shared" si="13"/>
-        <v>5</v>
-      </c>
-      <c r="M82" s="21">
-        <f t="shared" si="13"/>
-        <v>5</v>
-      </c>
-      <c r="N82" s="21">
-        <f t="shared" si="13"/>
-        <v>5</v>
-      </c>
-      <c r="O82" s="21">
-        <f t="shared" si="13"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C83" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D83" s="20">
-        <f>D65</f>
-        <v>33600</v>
-      </c>
-      <c r="E83" s="20">
-        <f>E65</f>
-        <v>0</v>
-      </c>
-      <c r="F83" s="20">
-        <f>F65</f>
-        <v>0</v>
-      </c>
-      <c r="G83" s="20">
-        <f>G65</f>
-        <v>0</v>
-      </c>
-      <c r="H83" s="20">
-        <f>H65</f>
-        <v>0</v>
-      </c>
-      <c r="K83" s="21">
-        <f t="shared" ref="K83:O83" si="14">IF(COUNTIF(K$71:K$77,"")&gt;2,"",IFERROR(RANK(K74,K$71:K$77),5))</f>
-        <v>1</v>
-      </c>
-      <c r="L83" s="21">
-        <f t="shared" si="14"/>
-        <v>4</v>
-      </c>
-      <c r="M83" s="21">
-        <f t="shared" si="14"/>
-        <v>4</v>
-      </c>
-      <c r="N83" s="21">
-        <f t="shared" si="14"/>
-        <v>4</v>
-      </c>
-      <c r="O83" s="21">
-        <f t="shared" si="14"/>
-        <v>4</v>
       </c>
     </row>
     <row r="84" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C84" s="19" t="s">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="D84" s="20">
-        <f t="shared" ref="D84:H84" si="15">D66</f>
-        <v>23520</v>
+        <f>IF(D64=0,0,D64-SUM(D21:D23))</f>
+        <v>18000</v>
       </c>
       <c r="E84" s="20">
-        <f t="shared" si="15"/>
+        <f>IF(E64=0,0,E64-SUM(E21:E23))</f>
         <v>0</v>
       </c>
       <c r="F84" s="20">
-        <f t="shared" si="15"/>
+        <f>IF(F64=0,0,F64-SUM(F21:F23))</f>
         <v>0</v>
       </c>
       <c r="G84" s="20">
-        <f t="shared" si="15"/>
+        <f>IF(G64=0,0,G64-SUM(G21:G23))</f>
         <v>0</v>
       </c>
       <c r="H84" s="20">
-        <f t="shared" si="15"/>
+        <f>IF(H64=0,0,H64-SUM(H21:H23))</f>
         <v>0</v>
       </c>
       <c r="K84" s="21">
-        <f t="shared" ref="K84:O84" si="16">IF(COUNTIF(K$71:K$77,"")&gt;2,"",IFERROR(RANK(K75,K$71:K$77),5))</f>
-        <v>2</v>
+        <f t="shared" ref="K84:O84" si="14">IF(COUNTIF(K$72:K$79,"")&gt;2,"",IFERROR(RANK(K74,K$72:K$79),8))</f>
+        <v>1</v>
       </c>
       <c r="L84" s="21">
-        <f t="shared" si="16"/>
-        <v>3</v>
+        <f t="shared" si="14"/>
+        <v>6</v>
       </c>
       <c r="M84" s="21">
-        <f t="shared" si="16"/>
-        <v>3</v>
+        <f t="shared" si="14"/>
+        <v>6</v>
       </c>
       <c r="N84" s="21">
-        <f t="shared" si="16"/>
-        <v>3</v>
+        <f t="shared" si="14"/>
+        <v>6</v>
       </c>
       <c r="O84" s="21">
-        <f t="shared" si="16"/>
-        <v>3</v>
+        <f t="shared" si="14"/>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C85" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D85" s="20">
+        <f>IF(D65=0,0,D65-IF(Inputs!E22="Y", 0,SUM(D21:D23)))</f>
+        <v>0</v>
+      </c>
+      <c r="E85" s="20">
+        <f>IF(E65=0,0,E65-IF(Inputs!E22="Y", 0, SUM(E21:E23)))</f>
+        <v>18000</v>
+      </c>
+      <c r="F85" s="20">
+        <f>IF(F65=0,0,F65-IF(Inputs!E22="Y", 0,SUM(F21:F23)))</f>
+        <v>0</v>
+      </c>
+      <c r="G85" s="20">
+        <f>IF(G65=0,0,G65-IF(Inputs!E22="Y", 0,SUM(G21:G23)))</f>
+        <v>0</v>
+      </c>
+      <c r="H85" s="20">
+        <f>IF(H65=0,0,H65-IF(Inputs!E22="Y", 0,SUM(H21:H23)))</f>
+        <v>0</v>
+      </c>
+      <c r="K85" s="21">
+        <f t="shared" ref="K85:O85" si="15">IF(COUNTIF(K$72:K$79,"")&gt;2,"",IFERROR(RANK(K75,K$72:K$79),8))</f>
+        <v>6</v>
+      </c>
+      <c r="L85" s="21">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="M85" s="21">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="N85" s="21">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="O85" s="21">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C86" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D86" s="20">
+        <f>D66</f>
+        <v>0</v>
+      </c>
+      <c r="E86" s="20">
+        <f>E66</f>
+        <v>0</v>
+      </c>
+      <c r="F86" s="20">
+        <f>F66</f>
+        <v>0</v>
+      </c>
+      <c r="G86" s="20">
+        <f>G66</f>
+        <v>0</v>
+      </c>
+      <c r="H86" s="20">
+        <f>H66</f>
+        <v>0</v>
+      </c>
+      <c r="K86" s="21">
+        <f t="shared" ref="K86:O86" si="16">IF(COUNTIF(K$72:K$79,"")&gt;2,"",IFERROR(RANK(K76,K$72:K$79),8))</f>
+        <v>5</v>
+      </c>
+      <c r="L86" s="21">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="M86" s="21">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="N86" s="21">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="O86" s="21">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C87" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D87" s="20">
+        <f t="shared" ref="D87:H87" si="17">D67</f>
+        <v>0</v>
+      </c>
+      <c r="E87" s="20">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="F87" s="20">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G87" s="20">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H87" s="20">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K87" s="21">
+        <f t="shared" ref="K87:O87" si="18">IF(COUNTIF(K$72:K$79,"")&gt;2,"",IFERROR(RANK(K77,K$72:K$79),8))</f>
+        <v>4</v>
+      </c>
+      <c r="L87" s="21">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="M87" s="21">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="N87" s="21">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="O87" s="21">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C88" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="D85" s="20">
-        <f t="shared" ref="D85:H85" si="17">D67</f>
-        <v>0</v>
-      </c>
-      <c r="E85" s="20">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="F85" s="20">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="G85" s="20">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="H85" s="20">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="K85" s="21">
-        <f t="shared" ref="K85:O85" si="18">IF(COUNTIF(K$71:K$77,"")&gt;2,"",IFERROR(RANK(K76,K$71:K$77),5))</f>
-        <v>4</v>
-      </c>
-      <c r="L85" s="21">
-        <f t="shared" si="18"/>
+      <c r="D88" s="20">
+        <f t="shared" ref="D88:H88" si="19">D68</f>
+        <v>0</v>
+      </c>
+      <c r="E88" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="F88" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="G88" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H88" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="K88" s="21">
+        <f t="shared" ref="K88:O88" si="20">IF(COUNTIF(K$72:K$79,"")&gt;2,"",IFERROR(RANK(K78,K$72:K$79),8))</f>
+        <v>3</v>
+      </c>
+      <c r="L88" s="21">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="M88" s="21">
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
-      <c r="M85" s="21">
-        <f t="shared" si="18"/>
+      <c r="N88" s="21">
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
-      <c r="N85" s="21">
-        <f t="shared" si="18"/>
+      <c r="O88" s="21">
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
-      <c r="O85" s="21">
-        <f t="shared" si="18"/>
+    </row>
+    <row r="89" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C89" s="81" t="s">
+        <v>97</v>
+      </c>
+      <c r="D89" s="84">
+        <f t="shared" ref="D89:H89" si="21">D69</f>
+        <v>0</v>
+      </c>
+      <c r="E89" s="84">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="F89" s="84">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="G89" s="84">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="H89" s="84">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="K89" s="21">
+        <f t="shared" ref="K89:O89" si="22">IF(COUNTIF(K$72:K$79,"")&gt;2,"",IFERROR(RANK(K79,K$72:K$79),8))</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C86" s="81" t="s">
-        <v>97</v>
-      </c>
-      <c r="D86" s="84">
-        <f t="shared" ref="D86:H86" si="19">D68</f>
-        <v>0</v>
-      </c>
-      <c r="E86" s="84">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="F86" s="84">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="G86" s="84">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="H86" s="84">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="K86" s="21">
-        <f t="shared" ref="K86:O86" si="20">IF(COUNTIF(K$71:K$77,"")&gt;2,"",IFERROR(RANK(K77,K$71:K$77),5))</f>
-        <v>3</v>
-      </c>
-      <c r="L86" s="21">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="M86" s="21">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="N86" s="21">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="O86" s="21">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B88" s="6" t="s">
+      <c r="L89" s="21">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="M89" s="21">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="N89" s="21">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="O89" s="21">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B91" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C89" s="28" t="s">
+    <row r="92" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C92" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D89" s="29">
-        <v>0</v>
-      </c>
-      <c r="E89" s="29">
-        <v>0</v>
-      </c>
-      <c r="F89" s="29">
-        <v>0</v>
-      </c>
-      <c r="G89" s="29">
-        <v>0</v>
-      </c>
-      <c r="H89" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C90" s="17" t="s">
+      <c r="D92" s="29">
+        <v>0</v>
+      </c>
+      <c r="E92" s="29">
+        <v>0</v>
+      </c>
+      <c r="F92" s="29">
+        <v>0</v>
+      </c>
+      <c r="G92" s="29">
+        <v>0</v>
+      </c>
+      <c r="H92" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C93" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D90" s="18">
-        <f>IF(D72=0,0,D72-SUM(D27:D32))</f>
-        <v>0</v>
-      </c>
-      <c r="E90" s="18">
-        <f>IF(E72=0,0,E72-SUM(E27:E32))</f>
-        <v>0</v>
-      </c>
-      <c r="F90" s="18">
-        <f>IF(F72=0,0,F72-SUM(F27:F32))</f>
-        <v>0</v>
-      </c>
-      <c r="G90" s="18">
-        <f>IF(G72=0,0,G72-SUM(G27:G32))</f>
-        <v>0</v>
-      </c>
-      <c r="H90" s="18">
-        <f>IF(H72=0,0,H72-SUM(H27:H32))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C91" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D91" s="20">
-        <f>IF(D73=0,0,D73-SUM(D33:D34))</f>
-        <v>0</v>
-      </c>
-      <c r="E91" s="20">
-        <f>IF(E73=0,0,E73-SUM(E33:E34))</f>
-        <v>0</v>
-      </c>
-      <c r="F91" s="20">
-        <f>IF(F73=0,0,F73-SUM(F33:F34))</f>
-        <v>0</v>
-      </c>
-      <c r="G91" s="20">
-        <f>IF(G73=0,0,G73-SUM(G33:G34))</f>
-        <v>0</v>
-      </c>
-      <c r="H91" s="20">
-        <f>IF(H73=0,0,H73-SUM(H33:H34))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C92" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D92" s="20">
-        <f>D74</f>
-        <v>0</v>
-      </c>
-      <c r="E92" s="20">
-        <f>E74</f>
-        <v>0</v>
-      </c>
-      <c r="F92" s="20">
-        <f>F74</f>
-        <v>0</v>
-      </c>
-      <c r="G92" s="20">
-        <f>G74</f>
-        <v>0</v>
-      </c>
-      <c r="H92" s="20">
-        <f>H74</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C93" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="D93" s="20">
-        <f t="shared" ref="D93:H93" si="21">D75</f>
-        <v>0</v>
-      </c>
-      <c r="E93" s="20">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="F93" s="20">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="G93" s="20">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="H93" s="20">
-        <f t="shared" si="21"/>
+      <c r="D93" s="18">
+        <f>IF(D73=0,0,D73-SUM(D27:D32))</f>
+        <v>0</v>
+      </c>
+      <c r="E93" s="18">
+        <f>IF(E73=0,0,E73-SUM(E27:E32))</f>
+        <v>0</v>
+      </c>
+      <c r="F93" s="18">
+        <f>IF(F73=0,0,F73-SUM(F27:F32))</f>
+        <v>0</v>
+      </c>
+      <c r="G93" s="18">
+        <f>IF(G73=0,0,G73-SUM(G27:G32))</f>
+        <v>0</v>
+      </c>
+      <c r="H93" s="18">
+        <f>IF(H73=0,0,H73-SUM(H27:H32))</f>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C94" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D94" s="20">
+        <f>IF(D74=0,0,D74-SUM(D33:D34))</f>
+        <v>0</v>
+      </c>
+      <c r="E94" s="20">
+        <f>IF(E74=0,0,E74-SUM(E33:E34))</f>
+        <v>0</v>
+      </c>
+      <c r="F94" s="20">
+        <f>IF(F74=0,0,F74-SUM(F33:F34))</f>
+        <v>0</v>
+      </c>
+      <c r="G94" s="20">
+        <f>IF(G74=0,0,G74-SUM(G33:G34))</f>
+        <v>0</v>
+      </c>
+      <c r="H94" s="20">
+        <f>IF(H74=0,0,H74-SUM(H33:H34))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C95" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D95" s="20">
+        <f>IF(D75=0,0,D75-IF(Inputs!E22="Y", 0,SUM(D33:D34)))</f>
+        <v>0</v>
+      </c>
+      <c r="E95" s="20">
+        <f>IF(E75=0,0,E75-IF(Inputs!E22="Y", 0,SUM(E33:E34)))</f>
+        <v>38220</v>
+      </c>
+      <c r="F95" s="20">
+        <f>IF(F75=0,0,F75-IF(Inputs!E22="Y", 0,SUM(F33:F34)))</f>
+        <v>0</v>
+      </c>
+      <c r="G95" s="20">
+        <f>IF(G75=0,0,G75-IF(Inputs!E22="Y", 0,SUM(G33:G34)))</f>
+        <v>0</v>
+      </c>
+      <c r="H95" s="20">
+        <f>IF(H75=0,0,H75-IF(Inputs!E22="Y", 0,SUM(H33:H34)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C96" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D96" s="20">
+        <f>D76</f>
+        <v>0</v>
+      </c>
+      <c r="E96" s="20">
+        <f>E76</f>
+        <v>0</v>
+      </c>
+      <c r="F96" s="20">
+        <f>F76</f>
+        <v>0</v>
+      </c>
+      <c r="G96" s="20">
+        <f>G76</f>
+        <v>0</v>
+      </c>
+      <c r="H96" s="20">
+        <f>H76</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C97" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D97" s="20">
+        <f t="shared" ref="D97:H97" si="23">D77</f>
+        <v>0</v>
+      </c>
+      <c r="E97" s="20">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="F97" s="20">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G97" s="20">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="H97" s="20">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C98" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="D94" s="20">
-        <f t="shared" ref="D94:H94" si="22">D76</f>
-        <v>0</v>
-      </c>
-      <c r="E94" s="20">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="F94" s="20">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G94" s="20">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H94" s="20">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C95" s="81" t="s">
+      <c r="D98" s="20">
+        <f t="shared" ref="D98:H98" si="24">D78</f>
+        <v>0</v>
+      </c>
+      <c r="E98" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="F98" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="G98" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="H98" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C99" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="D95" s="84">
-        <f t="shared" ref="D95:H95" si="23">D77</f>
-        <v>0</v>
-      </c>
-      <c r="E95" s="84">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="F95" s="84">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="G95" s="84">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="H95" s="84">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B97" s="6" t="s">
+      <c r="D99" s="84">
+        <f t="shared" ref="D99:H99" si="25">D79</f>
+        <v>0</v>
+      </c>
+      <c r="E99" s="84">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="F99" s="84">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="G99" s="84">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="H99" s="84">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B101" s="6" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="88">
-        <v>2</v>
-      </c>
-      <c r="C98" t="s">
-        <v>26</v>
-      </c>
-      <c r="D98" s="1">
-        <f>_xlfn.IFNA(SUM(INDEX(D$62:D$68, MATCH($A98, K$80:K$86, 0)), INDEX(D$71:D$77, MATCH($A98, K$80:K$86, 0)))*Prices!$L$5*-1, 0)</f>
-        <v>-7056</v>
-      </c>
-      <c r="E98" s="1">
-        <f>_xlfn.IFNA(SUM(INDEX(E$62:E$68, MATCH($A98, L$80:L$86, 0)), INDEX(E$71:E$77, MATCH($A98, L$80:L$86, 0)))*Prices!$L$5*-1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F98" s="1">
-        <f>_xlfn.IFNA(SUM(INDEX(F$62:F$68, MATCH($A98, M$80:M$86, 0)), INDEX(F$71:F$77, MATCH($A98, M$80:M$86, 0)))*Prices!$L$5*-1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="G98" s="1">
-        <f>_xlfn.IFNA(SUM(INDEX(G$62:G$68, MATCH($A98, N$80:N$86, 0)), INDEX(G$71:G$77, MATCH($A98, N$80:N$86, 0)))*Prices!$L$5*-1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H98" s="1">
-        <f>_xlfn.IFNA(SUM(INDEX(H$62:H$68, MATCH($A98, O$80:O$86, 0)), INDEX(H$71:H$77, MATCH($A98, O$80:O$86, 0)))*Prices!$L$5*-1, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="88">
-        <v>3</v>
-      </c>
-      <c r="C99" t="s">
-        <v>27</v>
-      </c>
-      <c r="D99" s="1">
-        <f>_xlfn.IFNA(SUM(INDEX(D$62:D$68, MATCH($A99, K$80:K$86, 0)), INDEX(D$71:D$77, MATCH($A99, K$80:K$86, 0)))*Prices!$L$6*-1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E99" s="1">
-        <f>_xlfn.IFNA(SUM(INDEX(E$62:E$68, MATCH($A99, L$80:L$86, 0)), INDEX(E$71:E$77, MATCH($A99, L$80:L$86, 0)))*Prices!$L$6*-1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F99" s="1">
-        <f>_xlfn.IFNA(SUM(INDEX(F$62:F$68, MATCH($A99, M$80:M$86, 0)), INDEX(F$71:F$77, MATCH($A99, M$80:M$86, 0)))*Prices!$L$6*-1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="G99" s="1">
-        <f>_xlfn.IFNA(SUM(INDEX(G$62:G$68, MATCH($A99, N$80:N$86, 0)), INDEX(G$71:G$77, MATCH($A99, N$80:N$86, 0)))*Prices!$L$6*-1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H99" s="1">
-        <f>_xlfn.IFNA(SUM(INDEX(H$62:H$68, MATCH($A99, O$80:O$86, 0)), INDEX(H$71:H$77, MATCH($A99, O$80:O$86, 0)))*Prices!$L$6*-1, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="88">
-        <v>4</v>
-      </c>
-      <c r="C100" t="s">
-        <v>101</v>
-      </c>
-      <c r="D100" s="1">
-        <f>_xlfn.IFNA(SUM(INDEX(D$62:D$68, MATCH($A100, K$80:K$86, 0)), INDEX(D$71:D$77, MATCH($A100, K$80:K$86, 0)))*Prices!$L$6*-1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E100" s="1">
-        <f>_xlfn.IFNA(SUM(INDEX(E$62:E$68, MATCH($A100, L$80:L$86, 0)), INDEX(E$71:E$77, MATCH($A100, L$80:L$86, 0)))*Prices!$L$6*-1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F100" s="1">
-        <f>_xlfn.IFNA(SUM(INDEX(F$62:F$68, MATCH($A100, M$80:M$86, 0)), INDEX(F$71:F$77, MATCH($A100, M$80:M$86, 0)))*Prices!$L$6*-1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="G100" s="1">
-        <f>_xlfn.IFNA(SUM(INDEX(G$62:G$68, MATCH($A100, N$80:N$86, 0)), INDEX(G$71:G$77, MATCH($A100, N$80:N$86, 0)))*Prices!$L$6*-1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H100" s="1">
-        <f>_xlfn.IFNA(SUM(INDEX(H$62:H$68, MATCH($A100, O$80:O$86, 0)), INDEX(H$71:H$77, MATCH($A100, O$80:O$86, 0)))*Prices!$L$6*-1, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="88">
-        <v>5</v>
-      </c>
-      <c r="C101" t="s">
-        <v>102</v>
-      </c>
-      <c r="D101" s="1">
-        <f>_xlfn.IFNA(SUM(INDEX(D$62:D$68, MATCH($A101, K$80:K$86, 0)), INDEX(D$71:D$77, MATCH($A101, K$80:K$86, 0)))*Prices!$L$6*-1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E101" s="1">
-        <f>_xlfn.IFNA(SUM(INDEX(E$62:E$68, MATCH($A101, L$80:L$86, 0)), INDEX(E$71:E$77, MATCH($A101, L$80:L$86, 0)))*Prices!$L$6*-1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F101" s="1">
-        <f>_xlfn.IFNA(SUM(INDEX(F$62:F$68, MATCH($A101, M$80:M$86, 0)), INDEX(F$71:F$77, MATCH($A101, M$80:M$86, 0)))*Prices!$L$6*-1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="G101" s="1">
-        <f>_xlfn.IFNA(SUM(INDEX(G$62:G$68, MATCH($A101, N$80:N$86, 0)), INDEX(G$71:G$77, MATCH($A101, N$80:N$86, 0)))*Prices!$L$6*-1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H101" s="1">
-        <f>_xlfn.IFNA(SUM(INDEX(H$62:H$68, MATCH($A101, O$80:O$86, 0)), INDEX(H$71:H$77, MATCH($A101, O$80:O$86, 0)))*Prices!$L$6*-1, 0)</f>
-        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="88">
+        <v>2</v>
+      </c>
+      <c r="C102" t="s">
+        <v>26</v>
+      </c>
+      <c r="D102" s="1">
+        <f>_xlfn.IFNA(SUM(INDEX(D$62:D$69, MATCH($A102, K$82:K$89, 0)), INDEX(D$72:D$79, MATCH($A102, K$82:K$89, 0)))*Prices!$L$5*-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E102" s="1">
+        <f>_xlfn.IFNA(SUM(INDEX(E$62:E$69, MATCH($A102, L$82:L$89, 0)), INDEX(E$72:E$79, MATCH($A102, L$82:L$89, 0)))*Prices!$L$5*-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F102" s="1">
+        <f>_xlfn.IFNA(SUM(INDEX(F$62:F$69, MATCH($A102, M$82:M$89, 0)), INDEX(F$72:F$79, MATCH($A102, M$82:M$89, 0)))*Prices!$L$5*-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G102" s="1">
+        <f>_xlfn.IFNA(SUM(INDEX(G$62:G$69, MATCH($A102, N$82:N$89, 0)), INDEX(G$72:G$79, MATCH($A102, N$82:N$89, 0)))*Prices!$L$5*-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H102" s="1">
+        <f>_xlfn.IFNA(SUM(INDEX(H$62:H$69, MATCH($A102, O$82:O$89, 0)), INDEX(H$72:H$79, MATCH($A102, O$82:O$89, 0)))*Prices!$L$5*-1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="88">
+        <v>3</v>
+      </c>
+      <c r="C103" t="s">
+        <v>27</v>
+      </c>
+      <c r="D103" s="1">
+        <f>_xlfn.IFNA(SUM(INDEX(D$62:D$69, MATCH($A103, K$82:K$89, 0)), INDEX(D$72:D$79, MATCH($A103, K$82:K$89, 0)))*Prices!$L$6*-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E103" s="1">
+        <f>_xlfn.IFNA(SUM(INDEX(E$62:E$69, MATCH($A103, L$82:L$89, 0)), INDEX(E$72:E$79, MATCH($A103, L$82:L$89, 0)))*Prices!$L$6*-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F103" s="1">
+        <f>_xlfn.IFNA(SUM(INDEX(F$62:F$69, MATCH($A103, M$82:M$89, 0)), INDEX(F$72:F$79, MATCH($A103, M$82:M$89, 0)))*Prices!$L$6*-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G103" s="1">
+        <f>_xlfn.IFNA(SUM(INDEX(G$62:G$69, MATCH($A103, N$82:N$89, 0)), INDEX(G$72:G$79, MATCH($A103, N$82:N$89, 0)))*Prices!$L$6*-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H103" s="1">
+        <f>_xlfn.IFNA(SUM(INDEX(H$62:H$69, MATCH($A103, O$82:O$89, 0)), INDEX(H$72:H$79, MATCH($A103, O$82:O$89, 0)))*Prices!$L$6*-1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="88">
+        <v>4</v>
+      </c>
+      <c r="C104" t="s">
+        <v>101</v>
+      </c>
+      <c r="D104" s="1">
+        <f>_xlfn.IFNA(SUM(INDEX(D$62:D$69, MATCH($A104, K$82:K$89, 0)), INDEX(D$72:D$79, MATCH($A104, K$82:K$89, 0)))*Prices!$L$6*-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E104" s="1">
+        <f>_xlfn.IFNA(SUM(INDEX(E$62:E$69, MATCH($A104, L$82:L$89, 0)), INDEX(E$72:E$79, MATCH($A104, L$82:L$89, 0)))*Prices!$L$6*-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F104" s="1">
+        <f>_xlfn.IFNA(SUM(INDEX(F$62:F$69, MATCH($A104, M$82:M$89, 0)), INDEX(F$72:F$79, MATCH($A104, M$82:M$89, 0)))*Prices!$L$6*-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G104" s="1">
+        <f>_xlfn.IFNA(SUM(INDEX(G$62:G$69, MATCH($A104, N$82:N$89, 0)), INDEX(G$72:G$79, MATCH($A104, N$82:N$89, 0)))*Prices!$L$6*-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H104" s="1">
+        <f>_xlfn.IFNA(SUM(INDEX(H$62:H$69, MATCH($A104, O$82:O$89, 0)), INDEX(H$72:H$79, MATCH($A104, O$82:O$89, 0)))*Prices!$L$6*-1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="88">
+        <v>5</v>
+      </c>
+      <c r="C105" t="s">
+        <v>102</v>
+      </c>
+      <c r="D105" s="1">
+        <f>_xlfn.IFNA(SUM(INDEX(D$62:D$69, MATCH($A105, K$82:K$89, 0)), INDEX(D$72:D$79, MATCH($A105, K$82:K$89, 0)))*Prices!$L$6*-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E105" s="1">
+        <f>_xlfn.IFNA(SUM(INDEX(E$62:E$69, MATCH($A105, L$82:L$89, 0)), INDEX(E$72:E$79, MATCH($A105, L$82:L$89, 0)))*Prices!$L$6*-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F105" s="1">
+        <f>_xlfn.IFNA(SUM(INDEX(F$62:F$69, MATCH($A105, M$82:M$89, 0)), INDEX(F$72:F$79, MATCH($A105, M$82:M$89, 0)))*Prices!$L$6*-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G105" s="1">
+        <f>_xlfn.IFNA(SUM(INDEX(G$62:G$69, MATCH($A105, N$82:N$89, 0)), INDEX(G$72:G$79, MATCH($A105, N$82:N$89, 0)))*Prices!$L$6*-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H105" s="1">
+        <f>_xlfn.IFNA(SUM(INDEX(H$62:H$69, MATCH($A105, O$82:O$89, 0)), INDEX(H$72:H$79, MATCH($A105, O$82:O$89, 0)))*Prices!$L$6*-1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="88">
         <v>6</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C106" t="s">
         <v>103</v>
       </c>
-      <c r="D102" s="1">
-        <f>_xlfn.IFNA(SUM(INDEX(D$62:D$68, MATCH($A102, K$80:K$86, 0)), INDEX(D$71:D$77, MATCH($A102, K$80:K$86, 0)))*Prices!$L$6*-1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E102" s="1">
-        <f>_xlfn.IFNA(SUM(INDEX(E$62:E$68, MATCH($A102, L$80:L$86, 0)), INDEX(E$71:E$77, MATCH($A102, L$80:L$86, 0)))*Prices!$L$6*-1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F102" s="1">
-        <f>_xlfn.IFNA(SUM(INDEX(F$62:F$68, MATCH($A102, M$80:M$86, 0)), INDEX(F$71:F$77, MATCH($A102, M$80:M$86, 0)))*Prices!$L$6*-1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="G102" s="1">
-        <f>_xlfn.IFNA(SUM(INDEX(G$62:G$68, MATCH($A102, N$80:N$86, 0)), INDEX(G$71:G$77, MATCH($A102, N$80:N$86, 0)))*Prices!$L$6*-1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H102" s="1">
-        <f>_xlfn.IFNA(SUM(INDEX(H$62:H$68, MATCH($A102, O$80:O$86, 0)), INDEX(H$71:H$77, MATCH($A102, O$80:O$86, 0)))*Prices!$L$6*-1, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B104" s="6" t="s">
+      <c r="D106" s="1">
+        <f>_xlfn.IFNA(SUM(INDEX(D$62:D$69, MATCH($A106, K$82:K$89, 0)), INDEX(D$72:D$79, MATCH($A106, K$82:K$89, 0)))*Prices!$L$6*-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E106" s="1">
+        <f>_xlfn.IFNA(SUM(INDEX(E$62:E$69, MATCH($A106, L$82:L$89, 0)), INDEX(E$72:E$79, MATCH($A106, L$82:L$89, 0)))*Prices!$L$6*-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F106" s="1">
+        <f>_xlfn.IFNA(SUM(INDEX(F$62:F$69, MATCH($A106, M$82:M$89, 0)), INDEX(F$72:F$79, MATCH($A106, M$82:M$89, 0)))*Prices!$L$6*-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G106" s="1">
+        <f>_xlfn.IFNA(SUM(INDEX(G$62:G$69, MATCH($A106, N$82:N$89, 0)), INDEX(G$72:G$79, MATCH($A106, N$82:N$89, 0)))*Prices!$L$6*-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H106" s="1">
+        <f>_xlfn.IFNA(SUM(INDEX(H$62:H$69, MATCH($A106, O$82:O$89, 0)), INDEX(H$72:H$79, MATCH($A106, O$82:O$89, 0)))*Prices!$L$6*-1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="88">
+        <v>7</v>
+      </c>
+      <c r="C107" t="s">
+        <v>131</v>
+      </c>
+      <c r="D107" s="1">
+        <f>_xlfn.IFNA(SUM(INDEX(D$62:D$69, MATCH($A107, K$82:K$89, 0)), INDEX(D$72:D$79, MATCH($A107, K$82:K$89, 0)))*Prices!$L$6*-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E107" s="1">
+        <f>_xlfn.IFNA(SUM(INDEX(E$62:E$69, MATCH($A107, L$82:L$89, 0)), INDEX(E$72:E$79, MATCH($A107, L$82:L$89, 0)))*Prices!$L$6*-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F107" s="1">
+        <f>_xlfn.IFNA(SUM(INDEX(F$62:F$69, MATCH($A107, M$82:M$89, 0)), INDEX(F$72:F$79, MATCH($A107, M$82:M$89, 0)))*Prices!$L$6*-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G107" s="1">
+        <f>_xlfn.IFNA(SUM(INDEX(G$62:G$69, MATCH($A107, N$82:N$89, 0)), INDEX(G$72:G$79, MATCH($A107, N$82:N$89, 0)))*Prices!$L$6*-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H107" s="1">
+        <f>_xlfn.IFNA(SUM(INDEX(H$62:H$69, MATCH($A107, O$82:O$89, 0)), INDEX(H$72:H$79, MATCH($A107, O$82:O$89, 0)))*Prices!$L$6*-1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B109" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D104" s="7">
-        <f>SUM(D38:D47, D50:D59, D62:D68, D71:D77, D98:D102)</f>
-        <v>68064</v>
-      </c>
-      <c r="E104" s="7">
-        <f t="shared" ref="E104:H104" si="24">SUM(E38:E47, E50:E59, E62:E68, E71:E77, E98:E102)</f>
-        <v>69400</v>
-      </c>
-      <c r="F104" s="7">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="G104" s="7">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="H104" s="7">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D105" s="1"/>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B106" s="6" t="s">
+      <c r="D109" s="7">
+        <f>SUM(D38:D47, D50:D59, D62:D69, D72:D79, D102:D106)</f>
+        <v>60000</v>
+      </c>
+      <c r="E109" s="7">
+        <f t="shared" ref="E109:H109" si="26">SUM(E38:E47, E50:E59, E62:E69, E72:E79, E102:E106)</f>
+        <v>149620</v>
+      </c>
+      <c r="F109" s="7">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G109" s="7">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="H109" s="7">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D110" s="1"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B111" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D106" s="1">
-        <f>IF(D116=1, 0, IF(D116=2, $E$119, IF(D116=3, $E$120, IF(D116=4, $E$121, IF(D116=5, $E$122, "")))))</f>
-        <v>-30628.799999999999</v>
-      </c>
-      <c r="E106" s="1">
-        <f t="shared" ref="E106:H106" si="25">IF(E116=1, 0, IF(E116=2, $E$119, IF(E116=3, $E$120, IF(E116=4, $E$121, IF(E116=5, $E$122, "")))))</f>
-        <v>0</v>
-      </c>
-      <c r="F106" s="1">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="G106" s="1">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="H106" s="1">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
-      <c r="H107" s="1"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B108" s="6" t="s">
+      <c r="D111" s="1">
+        <f>IF(D121=1, 0, IF(D121=2, $E$124, IF(D121=3, $E$125, IF(D121=4, $E$126, IF(D121=5, $E$127, "")))))</f>
+        <v>-27000</v>
+      </c>
+      <c r="E111" s="1">
+        <f t="shared" ref="E111:H111" si="27">IF(E121=1, 0, IF(E121=2, $E$124, IF(E121=3, $E$125, IF(E121=4, $E$126, IF(E121=5, $E$127, "")))))</f>
+        <v>0</v>
+      </c>
+      <c r="F111" s="1">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="G111" s="1">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="H111" s="1">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B113" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D108" s="1">
+      <c r="D113" s="1">
         <f>IF(Inputs!$D$6 = "Y", Prices!$L$18, 0)*-1</f>
         <v>0</v>
       </c>
-      <c r="E108" s="1">
-        <v>0</v>
-      </c>
-      <c r="F108" s="1">
-        <v>0</v>
-      </c>
-      <c r="G108" s="1">
-        <v>0</v>
-      </c>
-      <c r="H108" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B110" s="6" t="s">
+      <c r="E113" s="1">
+        <v>0</v>
+      </c>
+      <c r="F113" s="1">
+        <v>0</v>
+      </c>
+      <c r="G113" s="1">
+        <v>0</v>
+      </c>
+      <c r="H113" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B115" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D110" s="7">
-        <f>SUM(D104, D106)</f>
-        <v>37435.199999999997</v>
-      </c>
-      <c r="E110" s="7">
-        <f>SUM(E104, E106)</f>
-        <v>69400</v>
-      </c>
-      <c r="F110" s="7">
-        <f>SUM(F104, F106)</f>
-        <v>0</v>
-      </c>
-      <c r="G110" s="7">
-        <f>SUM(G104, G106)</f>
-        <v>0</v>
-      </c>
-      <c r="H110" s="7">
-        <f>SUM(H104, H106)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="27"/>
-      <c r="C113" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="D113" s="21">
-        <f>IFERROR(_xlfn.RANK.EQ(D104,$D$104:$H$104),5)</f>
-        <v>2</v>
-      </c>
-      <c r="E113" s="21">
-        <f t="shared" ref="E113:H113" si="26">IFERROR(_xlfn.RANK.EQ(E104,$D$104:$H$104),5)</f>
-        <v>1</v>
-      </c>
-      <c r="F113" s="21">
-        <f t="shared" si="26"/>
-        <v>3</v>
-      </c>
-      <c r="G113" s="21">
-        <f t="shared" si="26"/>
-        <v>3</v>
-      </c>
-      <c r="H113" s="21">
-        <f t="shared" si="26"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="114" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="27"/>
-      <c r="D114" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E114" s="21">
-        <v>0.2</v>
-      </c>
-      <c r="F114" s="21">
-        <v>0.3</v>
-      </c>
-      <c r="G114" s="21">
-        <v>0.4</v>
-      </c>
-      <c r="H114" s="21">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="115" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="27"/>
-      <c r="D115" s="21">
-        <f>SUM(D113:D114)</f>
-        <v>2.1</v>
-      </c>
-      <c r="E115" s="21">
-        <f t="shared" ref="E115:H115" si="27">SUM(E113:E114)</f>
-        <v>1.2</v>
-      </c>
-      <c r="F115" s="21">
-        <f t="shared" si="27"/>
-        <v>3.3</v>
-      </c>
-      <c r="G115" s="21">
-        <f t="shared" si="27"/>
-        <v>3.4</v>
-      </c>
-      <c r="H115" s="21">
-        <f t="shared" si="27"/>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="116" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="27"/>
-      <c r="D116" s="21">
-        <f>_xlfn.RANK.EQ(D115, $D$115:$H$115, 5)</f>
-        <v>2</v>
-      </c>
-      <c r="E116" s="21">
-        <f t="shared" ref="E116:H116" si="28">_xlfn.RANK.EQ(E115, $D$115:$H$115, 5)</f>
-        <v>1</v>
-      </c>
-      <c r="F116" s="21">
-        <f t="shared" si="28"/>
-        <v>3</v>
-      </c>
-      <c r="G116" s="21">
-        <f t="shared" si="28"/>
-        <v>4</v>
-      </c>
-      <c r="H116" s="21">
-        <f t="shared" si="28"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="117" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="27"/>
+      <c r="D115" s="7">
+        <f>SUM(D109, D111)</f>
+        <v>33000</v>
+      </c>
+      <c r="E115" s="7">
+        <f>SUM(E109, E111)</f>
+        <v>149620</v>
+      </c>
+      <c r="F115" s="7">
+        <f>SUM(F109, F111)</f>
+        <v>0</v>
+      </c>
+      <c r="G115" s="7">
+        <f>SUM(G109, G111)</f>
+        <v>0</v>
+      </c>
+      <c r="H115" s="7">
+        <f>SUM(H109, H111)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="118" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B118" s="27"/>
       <c r="C118" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
+      </c>
+      <c r="D118" s="21">
+        <f>IFERROR(_xlfn.RANK.EQ(D109,$D$109:$H$109),5)</f>
+        <v>2</v>
+      </c>
+      <c r="E118" s="21">
+        <f t="shared" ref="E118:H118" si="28">IFERROR(_xlfn.RANK.EQ(E109,$D$109:$H$109),5)</f>
+        <v>1</v>
+      </c>
+      <c r="F118" s="21">
+        <f t="shared" si="28"/>
+        <v>3</v>
+      </c>
+      <c r="G118" s="21">
+        <f t="shared" si="28"/>
+        <v>3</v>
+      </c>
+      <c r="H118" s="21">
+        <f t="shared" si="28"/>
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B119" s="27"/>
-      <c r="D119" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="E119" s="23">
-        <f>INDEX($D$104:$H$104, 1, MATCH(2, $D$116:$H$116, 0))*Prices!$L$10*-1</f>
-        <v>-30628.799999999999</v>
+      <c r="D119" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E119" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="F119" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="G119" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="H119" s="21">
+        <v>0.5</v>
       </c>
     </row>
     <row r="120" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B120" s="27"/>
-      <c r="D120" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="E120" s="23">
-        <f>INDEX($D$104:$H$104, 1, MATCH(3, $D$116:$H$116, 0))*Prices!$L$11*-1</f>
-        <v>0</v>
+      <c r="D120" s="21">
+        <f>SUM(D118:D119)</f>
+        <v>2.1</v>
+      </c>
+      <c r="E120" s="21">
+        <f t="shared" ref="E120:H120" si="29">SUM(E118:E119)</f>
+        <v>1.2</v>
+      </c>
+      <c r="F120" s="21">
+        <f t="shared" si="29"/>
+        <v>3.3</v>
+      </c>
+      <c r="G120" s="21">
+        <f t="shared" si="29"/>
+        <v>3.4</v>
+      </c>
+      <c r="H120" s="21">
+        <f t="shared" si="29"/>
+        <v>3.5</v>
       </c>
     </row>
     <row r="121" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B121" s="27"/>
-      <c r="D121" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="E121" s="23">
-        <f>INDEX($D$104:$H$104, 1, MATCH(4, $D$116:$H$116, 0))*Prices!$L$11*-1</f>
-        <v>0</v>
+      <c r="D121" s="21">
+        <f>_xlfn.RANK.EQ(D120, $D$120:$H$120, 5)</f>
+        <v>2</v>
+      </c>
+      <c r="E121" s="21">
+        <f t="shared" ref="E121:H121" si="30">_xlfn.RANK.EQ(E120, $D$120:$H$120, 5)</f>
+        <v>1</v>
+      </c>
+      <c r="F121" s="21">
+        <f t="shared" si="30"/>
+        <v>3</v>
+      </c>
+      <c r="G121" s="21">
+        <f t="shared" si="30"/>
+        <v>4</v>
+      </c>
+      <c r="H121" s="21">
+        <f t="shared" si="30"/>
+        <v>5</v>
       </c>
     </row>
     <row r="122" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B122" s="27"/>
-      <c r="D122" s="21" t="s">
+    </row>
+    <row r="123" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B123" s="27"/>
+      <c r="C123" s="21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B124" s="27"/>
+      <c r="D124" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="E124" s="98">
+        <f>INDEX($D$109:$H$109, 1, MATCH(2, $D$121:$H$121, 0))*Prices!$L$10*-1</f>
+        <v>-27000</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B125" s="27"/>
+      <c r="D125" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="E125" s="23">
+        <f>INDEX($D$109:$H$109, 1, MATCH(3, $D$121:$H$121, 0))*Prices!$L$11*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B126" s="27"/>
+      <c r="D126" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="E126" s="23">
+        <f>INDEX($D$109:$H$109, 1, MATCH(4, $D$121:$H$121, 0))*Prices!$L$11*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B127" s="27"/>
+      <c r="D127" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="E122" s="23">
-        <f>INDEX($D$104:$H$104, 1, MATCH(5, $D$116:$H$116, 0))*Prices!$L$11*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F126" s="2"/>
+      <c r="E127" s="23">
+        <f>INDEX($D$109:$H$109, 1, MATCH(5, $D$121:$H$121, 0))*Prices!$L$11*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F131" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14325,11 +14630,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L26"/>
+  <dimension ref="B2:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14424,7 +14727,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="42">
-        <f>$L$25*15000</f>
+        <f>$L$26*15000</f>
         <v>18000</v>
       </c>
       <c r="D6" s="42">
@@ -14481,11 +14784,11 @@
         <v>21</v>
       </c>
       <c r="C10" s="44">
-        <f>$L$25*1000</f>
+        <f>$L$26*1000</f>
         <v>1200</v>
       </c>
       <c r="E10" s="40">
-        <f>$L$25*0.04</f>
+        <f>$L$26*0.04</f>
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="F10" s="40">
@@ -14512,7 +14815,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="44">
-        <f>$L$25*4000</f>
+        <f>$L$26*4000</f>
         <v>4800</v>
       </c>
       <c r="E11" s="40">
@@ -14543,11 +14846,11 @@
         <v>22</v>
       </c>
       <c r="C12" s="44">
-        <f>$L$25*2000</f>
+        <f>$L$26*2000</f>
         <v>2400</v>
       </c>
       <c r="E12" s="40">
-        <f>$L$25*0.04</f>
+        <f>$L$26*0.04</f>
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="F12" s="40">
@@ -14568,11 +14871,11 @@
         <v>9</v>
       </c>
       <c r="C13" s="44">
-        <f>$L$25*2000</f>
+        <f>$L$26*2000</f>
         <v>2400</v>
       </c>
       <c r="E13" s="40">
-        <f>$L$25*0.04</f>
+        <f>$L$26*0.04</f>
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="F13" s="40">
@@ -14594,7 +14897,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="44">
-        <f>$L$25*6000</f>
+        <f>$L$26*6000</f>
         <v>7200</v>
       </c>
       <c r="E14" s="40">
@@ -14625,7 +14928,7 @@
         <v>78</v>
       </c>
       <c r="C15" s="44">
-        <f>$L$25*4000</f>
+        <f>$L$26*4000</f>
         <v>4800</v>
       </c>
       <c r="E15" s="40">
@@ -14656,7 +14959,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="45">
-        <f>$L$25*10000</f>
+        <f>$L$26*10000</f>
         <v>12000</v>
       </c>
       <c r="E16" s="41">
@@ -14683,7 +14986,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="45">
-        <f>$L$25*5000</f>
+        <f>$L$26*5000</f>
         <v>6000</v>
       </c>
       <c r="E17" s="41">
@@ -14708,11 +15011,11 @@
         <v>23</v>
       </c>
       <c r="C18" s="45">
-        <f>$L$25*5000</f>
+        <f>$L$26*5000</f>
         <v>6000</v>
       </c>
       <c r="E18" s="41">
-        <f>$L$25*0</f>
+        <f>$L$26*0</f>
         <v>0</v>
       </c>
       <c r="F18" s="41">
@@ -14746,15 +15049,15 @@
         <v>14</v>
       </c>
       <c r="C20" s="44">
-        <f>$L$25*8500</f>
+        <f>$L$26*8500</f>
         <v>10200</v>
       </c>
       <c r="E20" s="40">
-        <f>$L$25*0</f>
+        <f>$L$26*0</f>
         <v>0</v>
       </c>
       <c r="F20" s="40">
-        <f t="shared" ref="F20:H23" si="2">$E20*F$4</f>
+        <f t="shared" ref="F20:H24" si="2">$E20*F$4</f>
         <v>0</v>
       </c>
       <c r="G20" s="40">
@@ -14777,7 +15080,7 @@
         <v>15</v>
       </c>
       <c r="C21" s="44">
-        <f>$L$25*33000</f>
+        <f>$L$26*33000</f>
         <v>39600</v>
       </c>
       <c r="E21" s="40">
@@ -14802,7 +15105,7 @@
         <v>16</v>
       </c>
       <c r="C22" s="45">
-        <f>$L$25*35000</f>
+        <f>$L$26*35000</f>
         <v>42000</v>
       </c>
       <c r="E22" s="41">
@@ -14824,112 +15127,137 @@
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="45">
+        <f>$L$26*35000</f>
+        <v>42000</v>
+      </c>
+      <c r="E23" s="41">
+        <f>IF(Inputs!$C$3="Monthly",0.42,0.29)</f>
+        <v>0.42</v>
+      </c>
+      <c r="F23" s="41">
+        <f t="shared" si="2"/>
+        <v>0.252</v>
+      </c>
+      <c r="G23" s="41">
+        <f t="shared" si="2"/>
+        <v>0.10079999999999999</v>
+      </c>
+      <c r="H23" s="41">
+        <f t="shared" si="2"/>
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="45">
-        <f>$L$25*28000</f>
+      <c r="C24" s="45">
+        <f>$L$26*28000</f>
         <v>33600</v>
       </c>
-      <c r="E23" s="41">
+      <c r="E24" s="41">
         <f>IF(Inputs!$C$3="Monthly",0.25,0.18)</f>
         <v>0.25</v>
       </c>
-      <c r="F23" s="41">
+      <c r="F24" s="41">
         <f t="shared" si="2"/>
         <v>0.15</v>
       </c>
-      <c r="G23" s="41">
+      <c r="G24" s="41">
         <f t="shared" si="2"/>
         <v>0.06</v>
       </c>
-      <c r="H23" s="41">
+      <c r="H24" s="41">
         <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
-      <c r="K23" s="6" t="s">
+      <c r="K24" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="L23" s="96">
+      <c r="L24" s="96">
         <f>18000/15000</f>
         <v>1.2</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="19" t="s">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="45">
+      <c r="C25" s="45">
         <v>33600</v>
       </c>
-      <c r="E24" s="41">
+      <c r="E25" s="41">
         <v>0.25</v>
       </c>
-      <c r="F24" s="41">
-        <f t="shared" ref="F24:H26" si="3">$E24*F$4</f>
+      <c r="F25" s="41">
+        <f t="shared" ref="F25:H27" si="3">$E25*F$4</f>
         <v>0.15</v>
       </c>
-      <c r="G24" s="41">
+      <c r="G25" s="41">
         <f t="shared" si="3"/>
         <v>0.06</v>
       </c>
-      <c r="H24" s="41">
+      <c r="H25" s="41">
         <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="19" t="s">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="C25" s="45">
-        <f>$L$25*20000</f>
+      <c r="C26" s="45">
+        <f>$L$26*20000</f>
         <v>24000</v>
       </c>
-      <c r="E25" s="41">
-        <f>$L$25*0.14</f>
+      <c r="E26" s="41">
+        <f>$L$26*0.14</f>
         <v>0.16800000000000001</v>
       </c>
-      <c r="F25" s="41">
+      <c r="F26" s="41">
         <f t="shared" si="3"/>
         <v>0.1008</v>
       </c>
-      <c r="G25" s="41">
+      <c r="G26" s="41">
         <f t="shared" si="3"/>
         <v>4.0320000000000002E-2</v>
       </c>
-      <c r="H25" s="41">
+      <c r="H26" s="41">
         <f t="shared" si="3"/>
         <v>3.3600000000000005E-2</v>
       </c>
-      <c r="K25" s="6" t="s">
+      <c r="K26" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="L25" s="97">
-        <f>IF(Inputs!$C$3="Monthly",Prices!$L$23,1)</f>
+      <c r="L26" s="97">
+        <f>IF(Inputs!$C$3="Monthly",Prices!$L$24,1)</f>
         <v>1.2</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="81" t="s">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="C26" s="82">
-        <f>$L$25*6750</f>
+      <c r="C27" s="82">
+        <f>$L$26*6750</f>
         <v>8100</v>
       </c>
-      <c r="E26" s="83">
+      <c r="E27" s="83">
         <f>IF(Inputs!$C$3="Monthly",0.6,0.42)</f>
         <v>0.6</v>
       </c>
-      <c r="F26" s="83">
+      <c r="F27" s="83">
         <f t="shared" si="3"/>
         <v>0.36</v>
       </c>
-      <c r="G26" s="83">
+      <c r="G27" s="83">
         <f t="shared" si="3"/>
         <v>0.14399999999999999</v>
       </c>
-      <c r="H26" s="83">
+      <c r="H27" s="83">
         <f t="shared" si="3"/>
         <v>0.12</v>
       </c>

--- a/0273NYP - New York Premier/Premier_Pricing_Model.xlsx
+++ b/0273NYP - New York Premier/Premier_Pricing_Model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason.altieri\repos\client-and-project-documentation\0273NYP - New York Premier\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shea.parkes\repos\client-and-project-documentation\0273NYP - New York Premier\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1203,7 +1203,7 @@
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1447,7 +1447,7 @@
         <v>29</v>
       </c>
       <c r="E17" s="55" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="F17" s="55"/>
       <c r="G17" s="55"/>
@@ -1517,7 +1517,7 @@
         <v>3</v>
       </c>
       <c r="E22" s="55" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="F22" s="55"/>
       <c r="G22" s="55"/>
@@ -1605,7 +1605,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2132,7 +2132,7 @@
       </c>
       <c r="E21" s="1">
         <f>SUM(Calcs!E64, Calcs!E74)</f>
-        <v>0</v>
+        <v>80220</v>
       </c>
       <c r="F21" s="1">
         <f>SUM(Calcs!F64, Calcs!F74)</f>
@@ -2347,7 +2347,7 @@
       </c>
       <c r="E29" s="1">
         <f>SUM(Calcs!E102:E106)</f>
-        <v>0</v>
+        <v>-24066</v>
       </c>
       <c r="F29" s="1">
         <f>SUM(Calcs!F102:F106)</f>
@@ -2448,7 +2448,7 @@
       </c>
       <c r="E33" s="7">
         <f>SUM(E7:E16, E19:E26, E29:E30)</f>
-        <v>149620</v>
+        <v>205774</v>
       </c>
       <c r="F33" s="7">
         <f>SUM(F7:F16, F19:F26, F29:F30)</f>
@@ -2520,7 +2520,7 @@
       </c>
       <c r="E38" s="7">
         <f>(E33/12*Inputs!$C$2+E4)*$C$36</f>
-        <v>508860</v>
+        <v>677322</v>
       </c>
       <c r="F38" s="7">
         <f>(F33/12*Inputs!$C$2+F4)*$C$36</f>
@@ -2565,13 +2565,13 @@
     <row r="42" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C42" s="7">
         <f>SUM(Outputs_Timeline!S:S)</f>
-        <v>617860</v>
+        <v>786322</v>
       </c>
     </row>
     <row r="43" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C43" s="52">
         <f>SUM(D38:H38)</f>
-        <v>617860</v>
+        <v>786322</v>
       </c>
       <c r="D43" s="1"/>
       <c r="G43" s="1"/>
@@ -2607,7 +2607,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3118,7 +3118,7 @@
       </c>
       <c r="D17" s="20">
         <f>SUM(Calcs!D23:H23)</f>
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="F17" s="33">
         <v>0.1</v>
@@ -3135,11 +3135,11 @@
       </c>
       <c r="K17" s="20">
         <f t="shared" si="3"/>
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="L17" s="20">
         <f>G17*$D17</f>
-        <v>10800</v>
+        <v>5400</v>
       </c>
       <c r="M17" s="20">
         <f t="shared" si="2"/>
@@ -3488,7 +3488,7 @@
       </c>
       <c r="D29" s="20">
         <f>SUM(Calcs!D33:H33)</f>
-        <v>0</v>
+        <v>22750</v>
       </c>
       <c r="F29" s="37">
         <f t="shared" si="11"/>
@@ -3512,7 +3512,7 @@
       </c>
       <c r="L29" s="20">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>22750</v>
       </c>
       <c r="M29" s="20">
         <f t="shared" si="10"/>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="D30" s="20">
         <f>SUM(Calcs!D34:H34)</f>
-        <v>0</v>
+        <v>9100</v>
       </c>
       <c r="F30" s="37">
         <f t="shared" si="11"/>
@@ -3553,7 +3553,7 @@
       </c>
       <c r="L30" s="20">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>9100</v>
       </c>
       <c r="M30" s="20">
         <f t="shared" si="10"/>
@@ -3708,7 +3708,7 @@
       </c>
       <c r="D36" s="20">
         <f>SUM(Calcs!D84:H84)</f>
-        <v>18000</v>
+        <v>42000</v>
       </c>
       <c r="F36" s="33">
         <v>0.1</v>
@@ -3725,11 +3725,11 @@
       </c>
       <c r="K36" s="20">
         <f t="shared" si="12"/>
-        <v>1800</v>
+        <v>4200</v>
       </c>
       <c r="L36" s="20">
         <f t="shared" si="12"/>
-        <v>16200</v>
+        <v>37800</v>
       </c>
       <c r="M36" s="20">
         <f t="shared" si="12"/>
@@ -3746,7 +3746,7 @@
       </c>
       <c r="D37" s="20">
         <f>SUM(Calcs!D85:H85)</f>
-        <v>18000</v>
+        <v>42000</v>
       </c>
       <c r="F37" s="33">
         <v>0.1</v>
@@ -3762,11 +3762,11 @@
       </c>
       <c r="K37" s="20">
         <f t="shared" ref="K37" si="14">F37*$D37</f>
-        <v>1800</v>
+        <v>4200</v>
       </c>
       <c r="L37" s="20">
         <f t="shared" ref="L37" si="15">G37*$D37</f>
-        <v>16200</v>
+        <v>37800</v>
       </c>
       <c r="M37" s="20">
         <f t="shared" ref="M37" si="16">H37*$D37</f>
@@ -3955,15 +3955,15 @@
         <v>0</v>
       </c>
       <c r="F44" s="49">
-        <f>IFERROR((1-G44)*F34/SUM(F34,H34),0)</f>
+        <f t="shared" ref="F44:F50" si="28">IFERROR((1-G44)*F34/SUM(F34,H34),0)</f>
         <v>0.8</v>
       </c>
       <c r="G44" s="49">
-        <f>MIN(1,G34+$H$19)</f>
+        <f t="shared" ref="G44:G50" si="29">MIN(1,G34+$H$19)</f>
         <v>0.2</v>
       </c>
       <c r="H44" s="49">
-        <f>IFERROR((1-G44)*H34/SUM(F34,H34),0)</f>
+        <f t="shared" ref="H44:H50" si="30">IFERROR((1-G44)*H34/SUM(F34,H34),0)</f>
         <v>0</v>
       </c>
       <c r="I44" s="49">
@@ -3974,7 +3974,7 @@
         <v>0</v>
       </c>
       <c r="L44" s="29">
-        <f t="shared" ref="L44:L48" si="28">G44*$D44</f>
+        <f t="shared" ref="L44:L48" si="31">G44*$D44</f>
         <v>0</v>
       </c>
       <c r="M44" s="29">
@@ -3995,15 +3995,15 @@
         <v>0</v>
       </c>
       <c r="F45" s="30">
-        <f>IFERROR((1-G45)*F35/SUM(F35,H35),0)</f>
+        <f t="shared" si="28"/>
         <v>0.8</v>
       </c>
       <c r="G45" s="30">
-        <f>MIN(1,G35+$H$19)</f>
+        <f t="shared" si="29"/>
         <v>0.2</v>
       </c>
       <c r="H45" s="30">
-        <f>IFERROR((1-G45)*H35/SUM(F35,H35),0)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="I45" s="30">
@@ -4014,15 +4014,15 @@
         <v>0</v>
       </c>
       <c r="L45" s="18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="M45" s="18">
-        <f t="shared" ref="M45:N48" si="29">H45*$D45</f>
+        <f t="shared" ref="M45:N48" si="32">H45*$D45</f>
         <v>0</v>
       </c>
       <c r="N45" s="18">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
@@ -4032,37 +4032,37 @@
       </c>
       <c r="D46" s="20">
         <f>SUM(Calcs!D94:H94)</f>
-        <v>0</v>
+        <v>6370</v>
       </c>
       <c r="F46" s="31">
-        <f>IFERROR((1-G46)*F36/SUM(F36,H36),0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="G46" s="31">
-        <f>MIN(1,G36+$H$19)</f>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="H46" s="31">
-        <f>IFERROR((1-G46)*H36/SUM(F36,H36),0)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="I46" s="31">
         <v>0</v>
       </c>
       <c r="K46" s="20">
-        <f t="shared" ref="K46:K48" si="30">F46*$D46</f>
+        <f t="shared" ref="K46:K48" si="33">F46*$D46</f>
         <v>0</v>
       </c>
       <c r="L46" s="20">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f t="shared" si="31"/>
+        <v>6370</v>
       </c>
       <c r="M46" s="20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N46" s="20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
@@ -4075,34 +4075,34 @@
         <v>38220</v>
       </c>
       <c r="F47" s="31">
-        <f>IFERROR((1-G47)*F37/SUM(F37,H37),0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="G47" s="31">
-        <f>MIN(1,G37+$H$19)</f>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="H47" s="31">
-        <f>IFERROR((1-G47)*H37/SUM(F37,H37),0)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="I47" s="31">
         <v>0</v>
       </c>
       <c r="K47" s="20">
-        <f t="shared" ref="K47" si="31">F47*$D47</f>
+        <f t="shared" ref="K47" si="34">F47*$D47</f>
         <v>0</v>
       </c>
       <c r="L47" s="20">
-        <f t="shared" ref="L47" si="32">G47*$D47</f>
+        <f t="shared" ref="L47" si="35">G47*$D47</f>
         <v>38220</v>
       </c>
       <c r="M47" s="20">
-        <f t="shared" ref="M47" si="33">H47*$D47</f>
+        <f t="shared" ref="M47" si="36">H47*$D47</f>
         <v>0</v>
       </c>
       <c r="N47" s="20">
-        <f t="shared" ref="N47" si="34">I47*$D47</f>
+        <f t="shared" ref="N47" si="37">I47*$D47</f>
         <v>0</v>
       </c>
     </row>
@@ -4115,34 +4115,34 @@
         <v>0</v>
       </c>
       <c r="F48" s="31">
-        <f>IFERROR((1-G48)*F38/SUM(F38,H38),0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="G48" s="31">
-        <f>MIN(1,G38+$H$19)</f>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="H48" s="31">
-        <f>IFERROR((1-G48)*H38/SUM(F38,H38),0)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="I48" s="31">
         <v>0</v>
       </c>
       <c r="K48" s="20">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="L48" s="20">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="M48" s="20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N48" s="20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
@@ -4155,34 +4155,34 @@
         <v>0</v>
       </c>
       <c r="F49" s="31">
-        <f>IFERROR((1-G49)*F39/SUM(F39,H39),0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="G49" s="31">
-        <f>MIN(1,G39+$H$19)</f>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="H49" s="31">
-        <f>IFERROR((1-G49)*H39/SUM(F39,H39),0)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="I49" s="31">
         <v>0</v>
       </c>
       <c r="K49" s="20">
-        <f t="shared" ref="K49:K50" si="35">F49*$D49</f>
+        <f t="shared" ref="K49:K50" si="38">F49*$D49</f>
         <v>0</v>
       </c>
       <c r="L49" s="20">
-        <f t="shared" ref="L49:L50" si="36">G49*$D49</f>
+        <f t="shared" ref="L49:L50" si="39">G49*$D49</f>
         <v>0</v>
       </c>
       <c r="M49" s="20">
-        <f t="shared" ref="M49:M50" si="37">H49*$D49</f>
+        <f t="shared" ref="M49:M50" si="40">H49*$D49</f>
         <v>0</v>
       </c>
       <c r="N49" s="20">
-        <f t="shared" ref="N49:N50" si="38">I49*$D49</f>
+        <f t="shared" ref="N49:N50" si="41">I49*$D49</f>
         <v>0</v>
       </c>
     </row>
@@ -4195,34 +4195,34 @@
         <v>0</v>
       </c>
       <c r="F50" s="31">
-        <f>IFERROR((1-G50)*F40/SUM(F40,H40),0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="G50" s="31">
-        <f>MIN(1,G40+$H$19)</f>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="H50" s="31">
-        <f>IFERROR((1-G50)*H40/SUM(F40,H40),0)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="I50" s="31">
         <v>0</v>
       </c>
       <c r="K50" s="20">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="L50" s="20">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="M50" s="20">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="N50" s="20">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -4235,34 +4235,34 @@
         <v>0</v>
       </c>
       <c r="F51" s="87">
-        <f t="shared" ref="F51" si="39">IFERROR((1-G51)*F41/SUM(F41,H41),0)</f>
+        <f t="shared" ref="F51" si="42">IFERROR((1-G51)*F41/SUM(F41,H41),0)</f>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="G51" s="87">
-        <f t="shared" ref="G51" si="40">MIN(1,G41+$H$19)</f>
+        <f t="shared" ref="G51" si="43">MIN(1,G41+$H$19)</f>
         <v>0.9</v>
       </c>
       <c r="H51" s="87">
-        <f t="shared" ref="H51" si="41">IFERROR((1-G51)*H41/SUM(F41,H41),0)</f>
+        <f t="shared" ref="H51" si="44">IFERROR((1-G51)*H41/SUM(F41,H41),0)</f>
         <v>0</v>
       </c>
       <c r="I51" s="87">
         <v>0</v>
       </c>
       <c r="K51" s="84">
-        <f t="shared" ref="K51" si="42">F51*$D51</f>
+        <f t="shared" ref="K51" si="45">F51*$D51</f>
         <v>0</v>
       </c>
       <c r="L51" s="84">
-        <f t="shared" ref="L51" si="43">G51*$D51</f>
+        <f t="shared" ref="L51" si="46">G51*$D51</f>
         <v>0</v>
       </c>
       <c r="M51" s="84">
-        <f t="shared" ref="M51" si="44">H51*$D51</f>
+        <f t="shared" ref="M51" si="47">H51*$D51</f>
         <v>0</v>
       </c>
       <c r="N51" s="84">
-        <f t="shared" ref="N51" si="45">I51*$D51</f>
+        <f t="shared" ref="N51" si="48">I51*$D51</f>
         <v>0</v>
       </c>
     </row>
@@ -4285,31 +4285,31 @@
       </c>
       <c r="D54" s="1">
         <f>SUM(Outputs_External!D29:'Outputs_External'!H29)</f>
-        <v>0</v>
+        <v>-24066</v>
       </c>
       <c r="F54" s="8">
         <f>IFERROR(SUM(K66:K72)/SUM($K$66:$N$72), 0)</f>
-        <v>0.1</v>
+        <v>6.8728522336769765E-2</v>
       </c>
       <c r="G54" s="8">
-        <f t="shared" ref="G54:I54" si="46">IFERROR(SUM(L66:L72)/SUM($K$66:$N$72), 0)</f>
-        <v>0.9</v>
+        <f t="shared" ref="G54:I54" si="49">IFERROR(SUM(L66:L72)/SUM($K$66:$N$72), 0)</f>
+        <v>0.93127147766323026</v>
       </c>
       <c r="H54" s="8">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="I54" s="8">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="K54" s="12">
         <f>F54*$D$54</f>
-        <v>0</v>
+        <v>-1654.0206185567013</v>
       </c>
       <c r="L54" s="12">
         <f>G54*$D$54</f>
-        <v>0</v>
+        <v>-22411.9793814433</v>
       </c>
       <c r="M54" s="12">
         <f>H54*$D$54</f>
@@ -4330,11 +4330,11 @@
       </c>
       <c r="F55" s="3">
         <f>IFERROR(SUM(K8:K54)/SUM($K8:$N54), 0)</f>
-        <v>0.18948573609388417</v>
+        <v>0.15902977485172853</v>
       </c>
       <c r="G55" s="3">
         <f>IFERROR(SUM(L8:L54)/SUM($K8:$N54), 0)</f>
-        <v>0.81051426390611581</v>
+        <v>0.84097022514827147</v>
       </c>
       <c r="H55" s="3">
         <f>IFERROR(SUM(M8:M54)/SUM($K8:$N54), 0)</f>
@@ -4346,11 +4346,11 @@
       </c>
       <c r="K55" s="12">
         <f>F55*$D$55</f>
-        <v>-5116.1148745348728</v>
+        <v>-4293.8039209966701</v>
       </c>
       <c r="L55" s="12">
         <f>G55*$D$55</f>
-        <v>-21883.885125465127</v>
+        <v>-22706.19607900333</v>
       </c>
       <c r="M55" s="12">
         <f>H55*$D$55</f>
@@ -4387,15 +4387,15 @@
         <v>0</v>
       </c>
       <c r="L56" s="12">
-        <f t="shared" ref="L56:N56" si="47">$D$56*G56</f>
+        <f t="shared" ref="L56:N56" si="50">$D$56*G56</f>
         <v>0</v>
       </c>
       <c r="M56" s="12">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="N56" s="12">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
     </row>
@@ -4410,15 +4410,15 @@
       </c>
       <c r="D58" s="1">
         <f>SUM(Outputs_External!D33:'Outputs_External'!H33)</f>
-        <v>182620</v>
+        <v>238774</v>
       </c>
       <c r="K58" s="12">
         <f>SUM(K54:K56, K34:K41, K8:K17,K22:K31,K44:K51)</f>
-        <v>34603.885125465131</v>
+        <v>37972.175460446633</v>
       </c>
       <c r="L58" s="12">
         <f>SUM(L54:L56, L34:L41, L8:L17,L22:L31,L44:L51)</f>
-        <v>148016.11487453489</v>
+        <v>200801.82453955337</v>
       </c>
       <c r="M58" s="12">
         <f>SUM(M54:M56, M34:M41, M8:M17,M22:M31,M44:M51)</f>
@@ -4435,7 +4435,7 @@
       </c>
       <c r="D59" s="23">
         <f>SUM(K58:N58)</f>
-        <v>182620.00000000003</v>
+        <v>238774</v>
       </c>
       <c r="K59" s="12"/>
       <c r="L59" s="12"/>
@@ -4452,15 +4452,15 @@
       </c>
       <c r="D61" s="1">
         <f>SUM(Outputs_Timeline!S:S)</f>
-        <v>617860</v>
+        <v>786322</v>
       </c>
       <c r="K61" s="12">
         <f>SUM(Outputs_Timeline!T:T)</f>
-        <v>114811.65537639537</v>
+        <v>124916.52638133988</v>
       </c>
       <c r="L61" s="12">
         <f>SUM(Outputs_Timeline!U:U)</f>
-        <v>503048.34462360456</v>
+        <v>661405.47361866012</v>
       </c>
       <c r="M61" s="12">
         <f>SUM(Outputs_Timeline!V:V)</f>
@@ -4475,11 +4475,11 @@
       <c r="D62" s="1"/>
       <c r="K62" s="53">
         <f>IFERROR(K61/$D$61, 0)</f>
-        <v>0.18582147311105326</v>
+        <v>0.1588617975604649</v>
       </c>
       <c r="L62" s="53">
         <f>IFERROR(L61/$D$61, 0)</f>
-        <v>0.81417852688894665</v>
+        <v>0.84113820243953508</v>
       </c>
       <c r="M62" s="53">
         <f>IFERROR(M61/$D$61, 0)</f>
@@ -4539,19 +4539,19 @@
       </c>
       <c r="J66" s="21"/>
       <c r="K66" s="25">
-        <f t="shared" ref="K66:N68" si="48">F66*$D66</f>
+        <f t="shared" ref="K66:N68" si="51">F66*$D66</f>
         <v>0</v>
       </c>
       <c r="L66" s="25">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="M66" s="25">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="N66" s="25">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
     </row>
@@ -4583,19 +4583,19 @@
       </c>
       <c r="J67" s="21"/>
       <c r="K67" s="25">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="L67" s="25">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="M67" s="25">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="N67" s="25">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
     </row>
@@ -4606,16 +4606,16 @@
       </c>
       <c r="D68" s="23">
         <f>SUM(Calcs!D64:H64)+SUM(Calcs!D74:H74)</f>
-        <v>42000</v>
+        <v>122220</v>
       </c>
       <c r="E68" s="21"/>
       <c r="F68" s="24">
         <f>IFERROR(SUM(K36,K15:K17,K46,K29:K31)/SUM($K$36:$N$36,$K$15:$M$17,$K$46:$N$46,$K$29:$N$31),0)</f>
-        <v>0.1</v>
+        <v>6.8728522336769765E-2</v>
       </c>
       <c r="G68" s="24">
         <f>IFERROR(SUM(L36,L15:L17,L46,L29:L31)/SUM($K$36:$N$36,$K$15:$M$17,$K$46:$N$46,$K$29:$N$31),0)</f>
-        <v>0.9</v>
+        <v>0.93127147766323026</v>
       </c>
       <c r="H68" s="24">
         <f>IFERROR(SUM(M36,M15:M17,M46,M29:M31)/SUM($K$36:$N$36,$K$15:$M$17,$K$46:$N$46,$K$29:$N$31),0)</f>
@@ -4627,19 +4627,19 @@
       </c>
       <c r="J68" s="21"/>
       <c r="K68" s="25">
-        <f t="shared" si="48"/>
-        <v>4200</v>
+        <f t="shared" si="51"/>
+        <v>8400</v>
       </c>
       <c r="L68" s="25">
-        <f t="shared" si="48"/>
-        <v>37800</v>
+        <f t="shared" si="51"/>
+        <v>113820</v>
       </c>
       <c r="M68" s="25">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="N68" s="25">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
     </row>
@@ -4654,36 +4654,36 @@
       </c>
       <c r="E69" s="21"/>
       <c r="F69" s="24">
-        <f>IFERROR(SUM(K38,K48)/SUM($K38:$N38,$K48:$N48),0)</f>
+        <f t="shared" ref="F69:I71" si="52">IFERROR(SUM(K38,K48)/SUM($K38:$N38,$K48:$N48),0)</f>
         <v>0</v>
       </c>
       <c r="G69" s="24">
-        <f>IFERROR(SUM(L38,L48)/SUM($K38:$N38,$K48:$N48),0)</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="H69" s="24">
-        <f>IFERROR(SUM(M38,M48)/SUM($K38:$N38,$K48:$N48),0)</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I69" s="24">
-        <f>IFERROR(SUM(N38,N48)/SUM($K38:$N38,$K48:$N48),0)</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="J69" s="21"/>
       <c r="K69" s="25">
-        <f t="shared" ref="K69:K72" si="49">F69*$D69</f>
+        <f t="shared" ref="K69:K72" si="53">F69*$D69</f>
         <v>0</v>
       </c>
       <c r="L69" s="25">
-        <f t="shared" ref="L69:L72" si="50">G69*$D69</f>
+        <f t="shared" ref="L69:L72" si="54">G69*$D69</f>
         <v>0</v>
       </c>
       <c r="M69" s="25">
-        <f t="shared" ref="M69:M72" si="51">H69*$D69</f>
+        <f t="shared" ref="M69:M72" si="55">H69*$D69</f>
         <v>0</v>
       </c>
       <c r="N69" s="25">
-        <f t="shared" ref="N69:N72" si="52">I69*$D69</f>
+        <f t="shared" ref="N69:N72" si="56">I69*$D69</f>
         <v>0</v>
       </c>
     </row>
@@ -4698,36 +4698,36 @@
       </c>
       <c r="E70" s="21"/>
       <c r="F70" s="24">
-        <f>IFERROR(SUM(K39,K49)/SUM($K39:$N39,$K49:$N49),0)</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="G70" s="24">
-        <f>IFERROR(SUM(L39,L49)/SUM($K39:$N39,$K49:$N49),0)</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="H70" s="24">
-        <f>IFERROR(SUM(M39,M49)/SUM($K39:$N39,$K49:$N49),0)</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I70" s="24">
-        <f>IFERROR(SUM(N39,N49)/SUM($K39:$N39,$K49:$N49),0)</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="J70" s="21"/>
       <c r="K70" s="25">
-        <f t="shared" ref="K70:K71" si="53">F70*$D70</f>
+        <f t="shared" ref="K70:K71" si="57">F70*$D70</f>
         <v>0</v>
       </c>
       <c r="L70" s="25">
-        <f t="shared" ref="L70:L71" si="54">G70*$D70</f>
+        <f t="shared" ref="L70:L71" si="58">G70*$D70</f>
         <v>0</v>
       </c>
       <c r="M70" s="25">
-        <f t="shared" ref="M70:M71" si="55">H70*$D70</f>
+        <f t="shared" ref="M70:M71" si="59">H70*$D70</f>
         <v>0</v>
       </c>
       <c r="N70" s="25">
-        <f t="shared" ref="N70:N71" si="56">I70*$D70</f>
+        <f t="shared" ref="N70:N71" si="60">I70*$D70</f>
         <v>0</v>
       </c>
     </row>
@@ -4742,36 +4742,36 @@
       </c>
       <c r="E71" s="21"/>
       <c r="F71" s="24">
-        <f>IFERROR(SUM(K40,K50)/SUM($K40:$N40,$K50:$N50),0)</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="G71" s="24">
-        <f>IFERROR(SUM(L40,L50)/SUM($K40:$N40,$K50:$N50),0)</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="H71" s="24">
-        <f>IFERROR(SUM(M40,M50)/SUM($K40:$N40,$K50:$N50),0)</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I71" s="24">
-        <f>IFERROR(SUM(N40,N50)/SUM($K40:$N40,$K50:$N50),0)</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="J71" s="21"/>
       <c r="K71" s="25">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="L71" s="25">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="M71" s="25">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="N71" s="25">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
     </row>
@@ -4786,36 +4786,36 @@
       </c>
       <c r="E72" s="21"/>
       <c r="F72" s="24">
-        <f t="shared" ref="F72" si="57">IFERROR(SUM(K41,K51)/SUM($K41:$N41,$K51:$N51),0)</f>
+        <f t="shared" ref="F72" si="61">IFERROR(SUM(K41,K51)/SUM($K41:$N41,$K51:$N51),0)</f>
         <v>0</v>
       </c>
       <c r="G72" s="24">
-        <f t="shared" ref="G72" si="58">IFERROR(SUM(L41,L51)/SUM($K41:$N41,$K51:$N51),0)</f>
+        <f t="shared" ref="G72" si="62">IFERROR(SUM(L41,L51)/SUM($K41:$N41,$K51:$N51),0)</f>
         <v>0</v>
       </c>
       <c r="H72" s="24">
-        <f t="shared" ref="H72" si="59">IFERROR(SUM(M41,M51)/SUM($K41:$N41,$K51:$N51),0)</f>
+        <f t="shared" ref="H72" si="63">IFERROR(SUM(M41,M51)/SUM($K41:$N41,$K51:$N51),0)</f>
         <v>0</v>
       </c>
       <c r="I72" s="24">
-        <f t="shared" ref="I72" si="60">IFERROR(SUM(N41,N51)/SUM($K41:$N41,$K51:$N51),0)</f>
+        <f t="shared" ref="I72" si="64">IFERROR(SUM(N41,N51)/SUM($K41:$N41,$K51:$N51),0)</f>
         <v>0</v>
       </c>
       <c r="J72" s="21"/>
       <c r="K72" s="25">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="L72" s="25">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="M72" s="25">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="N72" s="25">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
     </row>
@@ -4833,7 +4833,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5380,15 +5380,15 @@
       </c>
       <c r="M9" s="63">
         <f>$F9*Outputs_Internal!$D$58/12</f>
-        <v>15218.333333333334</v>
+        <v>19897.833333333332</v>
       </c>
       <c r="N9" s="63">
         <f>$F9*Outputs_Internal!K$58/12</f>
-        <v>2883.6570937887609</v>
+        <v>3164.3479550372194</v>
       </c>
       <c r="O9" s="63">
         <f>$F9*Outputs_Internal!L$58/12</f>
-        <v>12334.676239544575</v>
+        <v>16733.485378296115</v>
       </c>
       <c r="P9" s="63">
         <f>$F9*Outputs_Internal!M$58/12</f>
@@ -5454,15 +5454,15 @@
       </c>
       <c r="M10" s="63">
         <f>$F10*Outputs_Internal!$D$58/12</f>
-        <v>15218.333333333334</v>
+        <v>19897.833333333332</v>
       </c>
       <c r="N10" s="63">
         <f>$F10*Outputs_Internal!K$58/12</f>
-        <v>2883.6570937887609</v>
+        <v>3164.3479550372194</v>
       </c>
       <c r="O10" s="63">
         <f>$F10*Outputs_Internal!L$58/12</f>
-        <v>12334.676239544575</v>
+        <v>16733.485378296115</v>
       </c>
       <c r="P10" s="63">
         <f>$F10*Outputs_Internal!M$58/12</f>
@@ -5528,15 +5528,15 @@
       </c>
       <c r="M11" s="63">
         <f>$F11*Outputs_Internal!$D$58/12</f>
-        <v>15218.333333333334</v>
+        <v>19897.833333333332</v>
       </c>
       <c r="N11" s="63">
         <f>$F11*Outputs_Internal!K$58/12</f>
-        <v>2883.6570937887609</v>
+        <v>3164.3479550372194</v>
       </c>
       <c r="O11" s="63">
         <f>$F11*Outputs_Internal!L$58/12</f>
-        <v>12334.676239544575</v>
+        <v>16733.485378296115</v>
       </c>
       <c r="P11" s="63">
         <f>$F11*Outputs_Internal!M$58/12</f>
@@ -5548,15 +5548,15 @@
       </c>
       <c r="S11" s="63">
         <f t="shared" si="1"/>
-        <v>115654.99999999999</v>
+        <v>129693.49999999999</v>
       </c>
       <c r="T11" s="63">
         <f t="shared" si="2"/>
-        <v>19650.971281366285</v>
+        <v>20493.043865111656</v>
       </c>
       <c r="U11" s="63">
         <f>IF(MOD(MONTH($B11),3)=0,SUM(J9:J11,O9:O11),0)</f>
-        <v>96004.028718633708</v>
+        <v>109200.45613488834</v>
       </c>
       <c r="V11" s="63">
         <f t="shared" si="4"/>
@@ -5602,15 +5602,15 @@
       </c>
       <c r="M12" s="63">
         <f>$F12*Outputs_Internal!$D$58/12</f>
-        <v>15218.333333333334</v>
+        <v>19897.833333333332</v>
       </c>
       <c r="N12" s="63">
         <f>$F12*Outputs_Internal!K$58/12</f>
-        <v>2883.6570937887609</v>
+        <v>3164.3479550372194</v>
       </c>
       <c r="O12" s="63">
         <f>$F12*Outputs_Internal!L$58/12</f>
-        <v>12334.676239544575</v>
+        <v>16733.485378296115</v>
       </c>
       <c r="P12" s="63">
         <f>$F12*Outputs_Internal!M$58/12</f>
@@ -5676,15 +5676,15 @@
       </c>
       <c r="M13" s="63">
         <f>$F13*Outputs_Internal!$D$58/12</f>
-        <v>15218.333333333334</v>
+        <v>19897.833333333332</v>
       </c>
       <c r="N13" s="63">
         <f>$F13*Outputs_Internal!K$58/12</f>
-        <v>2883.6570937887609</v>
+        <v>3164.3479550372194</v>
       </c>
       <c r="O13" s="63">
         <f>$F13*Outputs_Internal!L$58/12</f>
-        <v>12334.676239544575</v>
+        <v>16733.485378296115</v>
       </c>
       <c r="P13" s="63">
         <f>$F13*Outputs_Internal!M$58/12</f>
@@ -5750,15 +5750,15 @@
       </c>
       <c r="M14" s="63">
         <f>$F14*Outputs_Internal!$D$58/12</f>
-        <v>15218.333333333334</v>
+        <v>19897.833333333332</v>
       </c>
       <c r="N14" s="63">
         <f>$F14*Outputs_Internal!K$58/12</f>
-        <v>2883.6570937887609</v>
+        <v>3164.3479550372194</v>
       </c>
       <c r="O14" s="63">
         <f>$F14*Outputs_Internal!L$58/12</f>
-        <v>12334.676239544575</v>
+        <v>16733.485378296115</v>
       </c>
       <c r="P14" s="63">
         <f>$F14*Outputs_Internal!M$58/12</f>
@@ -5770,15 +5770,15 @@
       </c>
       <c r="S14" s="63">
         <f t="shared" si="1"/>
-        <v>45655</v>
+        <v>59693.5</v>
       </c>
       <c r="T14" s="63">
         <f t="shared" si="2"/>
-        <v>8650.9712813662827</v>
+        <v>9493.0438651116583</v>
       </c>
       <c r="U14" s="63">
         <f t="shared" si="3"/>
-        <v>37004.028718633723</v>
+        <v>50200.456134888344</v>
       </c>
       <c r="V14" s="63">
         <f t="shared" si="4"/>
@@ -5824,15 +5824,15 @@
       </c>
       <c r="M15" s="63">
         <f>$F15*Outputs_Internal!$D$58/12</f>
-        <v>15218.333333333334</v>
+        <v>19897.833333333332</v>
       </c>
       <c r="N15" s="63">
         <f>$F15*Outputs_Internal!K$58/12</f>
-        <v>2883.6570937887609</v>
+        <v>3164.3479550372194</v>
       </c>
       <c r="O15" s="63">
         <f>$F15*Outputs_Internal!L$58/12</f>
-        <v>12334.676239544575</v>
+        <v>16733.485378296115</v>
       </c>
       <c r="P15" s="63">
         <f>$F15*Outputs_Internal!M$58/12</f>
@@ -5898,15 +5898,15 @@
       </c>
       <c r="M16" s="63">
         <f>$F16*Outputs_Internal!$D$58/12</f>
-        <v>15218.333333333334</v>
+        <v>19897.833333333332</v>
       </c>
       <c r="N16" s="63">
         <f>$F16*Outputs_Internal!K$58/12</f>
-        <v>2883.6570937887609</v>
+        <v>3164.3479550372194</v>
       </c>
       <c r="O16" s="63">
         <f>$F16*Outputs_Internal!L$58/12</f>
-        <v>12334.676239544575</v>
+        <v>16733.485378296115</v>
       </c>
       <c r="P16" s="63">
         <f>$F16*Outputs_Internal!M$58/12</f>
@@ -5972,15 +5972,15 @@
       </c>
       <c r="M17" s="63">
         <f>$F17*Outputs_Internal!$D$58/12</f>
-        <v>15218.333333333334</v>
+        <v>19897.833333333332</v>
       </c>
       <c r="N17" s="63">
         <f>$F17*Outputs_Internal!K$58/12</f>
-        <v>2883.6570937887609</v>
+        <v>3164.3479550372194</v>
       </c>
       <c r="O17" s="63">
         <f>$F17*Outputs_Internal!L$58/12</f>
-        <v>12334.676239544575</v>
+        <v>16733.485378296115</v>
       </c>
       <c r="P17" s="63">
         <f>$F17*Outputs_Internal!M$58/12</f>
@@ -5992,15 +5992,15 @@
       </c>
       <c r="S17" s="63">
         <f t="shared" si="1"/>
-        <v>45655</v>
+        <v>59693.5</v>
       </c>
       <c r="T17" s="63">
         <f t="shared" si="2"/>
-        <v>8650.9712813662827</v>
+        <v>9493.0438651116583</v>
       </c>
       <c r="U17" s="63">
         <f t="shared" si="3"/>
-        <v>37004.028718633723</v>
+        <v>50200.456134888344</v>
       </c>
       <c r="V17" s="63">
         <f t="shared" si="4"/>
@@ -6046,15 +6046,15 @@
       </c>
       <c r="M18" s="63">
         <f>$F18*Outputs_Internal!$D$58/12</f>
-        <v>15218.333333333334</v>
+        <v>19897.833333333332</v>
       </c>
       <c r="N18" s="63">
         <f>$F18*Outputs_Internal!K$58/12</f>
-        <v>2883.6570937887609</v>
+        <v>3164.3479550372194</v>
       </c>
       <c r="O18" s="63">
         <f>$F18*Outputs_Internal!L$58/12</f>
-        <v>12334.676239544575</v>
+        <v>16733.485378296115</v>
       </c>
       <c r="P18" s="63">
         <f>$F18*Outputs_Internal!M$58/12</f>
@@ -6120,15 +6120,15 @@
       </c>
       <c r="M19" s="63">
         <f>$F19*Outputs_Internal!$D$58/12</f>
-        <v>15218.333333333334</v>
+        <v>19897.833333333332</v>
       </c>
       <c r="N19" s="63">
         <f>$F19*Outputs_Internal!K$58/12</f>
-        <v>2883.6570937887609</v>
+        <v>3164.3479550372194</v>
       </c>
       <c r="O19" s="63">
         <f>$F19*Outputs_Internal!L$58/12</f>
-        <v>12334.676239544575</v>
+        <v>16733.485378296115</v>
       </c>
       <c r="P19" s="63">
         <f>$F19*Outputs_Internal!M$58/12</f>
@@ -6194,15 +6194,15 @@
       </c>
       <c r="M20" s="63">
         <f>$F20*Outputs_Internal!$D$58/12</f>
-        <v>15218.333333333334</v>
+        <v>19897.833333333332</v>
       </c>
       <c r="N20" s="63">
         <f>$F20*Outputs_Internal!K$58/12</f>
-        <v>2883.6570937887609</v>
+        <v>3164.3479550372194</v>
       </c>
       <c r="O20" s="63">
         <f>$F20*Outputs_Internal!L$58/12</f>
-        <v>12334.676239544575</v>
+        <v>16733.485378296115</v>
       </c>
       <c r="P20" s="63">
         <f>$F20*Outputs_Internal!M$58/12</f>
@@ -6214,15 +6214,15 @@
       </c>
       <c r="S20" s="63">
         <f t="shared" si="1"/>
-        <v>45655</v>
+        <v>59693.5</v>
       </c>
       <c r="T20" s="63">
         <f t="shared" si="2"/>
-        <v>8650.9712813662827</v>
+        <v>9493.0438651116583</v>
       </c>
       <c r="U20" s="63">
         <f t="shared" si="3"/>
-        <v>37004.028718633723</v>
+        <v>50200.456134888344</v>
       </c>
       <c r="V20" s="63">
         <f t="shared" si="4"/>
@@ -6268,15 +6268,15 @@
       </c>
       <c r="M21" s="63">
         <f>$F21*Outputs_Internal!$D$58/12</f>
-        <v>15218.333333333334</v>
+        <v>19897.833333333332</v>
       </c>
       <c r="N21" s="63">
         <f>$F21*Outputs_Internal!K$58/12</f>
-        <v>2883.6570937887609</v>
+        <v>3164.3479550372194</v>
       </c>
       <c r="O21" s="63">
         <f>$F21*Outputs_Internal!L$58/12</f>
-        <v>12334.676239544575</v>
+        <v>16733.485378296115</v>
       </c>
       <c r="P21" s="63">
         <f>$F21*Outputs_Internal!M$58/12</f>
@@ -6342,15 +6342,15 @@
       </c>
       <c r="M22" s="63">
         <f>$F22*Outputs_Internal!$D$58/12</f>
-        <v>15218.333333333334</v>
+        <v>19897.833333333332</v>
       </c>
       <c r="N22" s="63">
         <f>$F22*Outputs_Internal!K$58/12</f>
-        <v>2883.6570937887609</v>
+        <v>3164.3479550372194</v>
       </c>
       <c r="O22" s="63">
         <f>$F22*Outputs_Internal!L$58/12</f>
-        <v>12334.676239544575</v>
+        <v>16733.485378296115</v>
       </c>
       <c r="P22" s="63">
         <f>$F22*Outputs_Internal!M$58/12</f>
@@ -6416,15 +6416,15 @@
       </c>
       <c r="M23" s="63">
         <f>$F23*Outputs_Internal!$D$58/12</f>
-        <v>15218.333333333334</v>
+        <v>19897.833333333332</v>
       </c>
       <c r="N23" s="63">
         <f>$F23*Outputs_Internal!K$58/12</f>
-        <v>2883.6570937887609</v>
+        <v>3164.3479550372194</v>
       </c>
       <c r="O23" s="63">
         <f>$F23*Outputs_Internal!L$58/12</f>
-        <v>12334.676239544575</v>
+        <v>16733.485378296115</v>
       </c>
       <c r="P23" s="63">
         <f>$F23*Outputs_Internal!M$58/12</f>
@@ -6436,15 +6436,15 @@
       </c>
       <c r="S23" s="63">
         <f t="shared" si="1"/>
-        <v>45655</v>
+        <v>59693.5</v>
       </c>
       <c r="T23" s="63">
         <f t="shared" si="2"/>
-        <v>8650.9712813662827</v>
+        <v>9493.0438651116583</v>
       </c>
       <c r="U23" s="63">
         <f t="shared" si="3"/>
-        <v>37004.028718633723</v>
+        <v>50200.456134888344</v>
       </c>
       <c r="V23" s="63">
         <f t="shared" si="4"/>
@@ -6490,15 +6490,15 @@
       </c>
       <c r="M24" s="63">
         <f>$F24*Outputs_Internal!$D$58/12</f>
-        <v>15218.333333333334</v>
+        <v>19897.833333333332</v>
       </c>
       <c r="N24" s="63">
         <f>$F24*Outputs_Internal!K$58/12</f>
-        <v>2883.6570937887609</v>
+        <v>3164.3479550372194</v>
       </c>
       <c r="O24" s="63">
         <f>$F24*Outputs_Internal!L$58/12</f>
-        <v>12334.676239544575</v>
+        <v>16733.485378296115</v>
       </c>
       <c r="P24" s="63">
         <f>$F24*Outputs_Internal!M$58/12</f>
@@ -6564,15 +6564,15 @@
       </c>
       <c r="M25" s="63">
         <f>$F25*Outputs_Internal!$D$58/12</f>
-        <v>15218.333333333334</v>
+        <v>19897.833333333332</v>
       </c>
       <c r="N25" s="63">
         <f>$F25*Outputs_Internal!K$58/12</f>
-        <v>2883.6570937887609</v>
+        <v>3164.3479550372194</v>
       </c>
       <c r="O25" s="63">
         <f>$F25*Outputs_Internal!L$58/12</f>
-        <v>12334.676239544575</v>
+        <v>16733.485378296115</v>
       </c>
       <c r="P25" s="63">
         <f>$F25*Outputs_Internal!M$58/12</f>
@@ -6638,15 +6638,15 @@
       </c>
       <c r="M26" s="63">
         <f>$F26*Outputs_Internal!$D$58/12</f>
-        <v>15218.333333333334</v>
+        <v>19897.833333333332</v>
       </c>
       <c r="N26" s="63">
         <f>$F26*Outputs_Internal!K$58/12</f>
-        <v>2883.6570937887609</v>
+        <v>3164.3479550372194</v>
       </c>
       <c r="O26" s="63">
         <f>$F26*Outputs_Internal!L$58/12</f>
-        <v>12334.676239544575</v>
+        <v>16733.485378296115</v>
       </c>
       <c r="P26" s="63">
         <f>$F26*Outputs_Internal!M$58/12</f>
@@ -6658,15 +6658,15 @@
       </c>
       <c r="S26" s="63">
         <f t="shared" si="1"/>
-        <v>45655</v>
+        <v>59693.5</v>
       </c>
       <c r="T26" s="63">
         <f t="shared" si="2"/>
-        <v>8650.9712813662827</v>
+        <v>9493.0438651116583</v>
       </c>
       <c r="U26" s="63">
         <f t="shared" si="3"/>
-        <v>37004.028718633723</v>
+        <v>50200.456134888344</v>
       </c>
       <c r="V26" s="63">
         <f t="shared" si="4"/>
@@ -6712,15 +6712,15 @@
       </c>
       <c r="M27" s="63">
         <f>$F27*Outputs_Internal!$D$58/12</f>
-        <v>15218.333333333334</v>
+        <v>19897.833333333332</v>
       </c>
       <c r="N27" s="63">
         <f>$F27*Outputs_Internal!K$58/12</f>
-        <v>2883.6570937887609</v>
+        <v>3164.3479550372194</v>
       </c>
       <c r="O27" s="63">
         <f>$F27*Outputs_Internal!L$58/12</f>
-        <v>12334.676239544575</v>
+        <v>16733.485378296115</v>
       </c>
       <c r="P27" s="63">
         <f>$F27*Outputs_Internal!M$58/12</f>
@@ -6786,15 +6786,15 @@
       </c>
       <c r="M28" s="63">
         <f>$F28*Outputs_Internal!$D$58/12</f>
-        <v>15218.333333333334</v>
+        <v>19897.833333333332</v>
       </c>
       <c r="N28" s="63">
         <f>$F28*Outputs_Internal!K$58/12</f>
-        <v>2883.6570937887609</v>
+        <v>3164.3479550372194</v>
       </c>
       <c r="O28" s="63">
         <f>$F28*Outputs_Internal!L$58/12</f>
-        <v>12334.676239544575</v>
+        <v>16733.485378296115</v>
       </c>
       <c r="P28" s="63">
         <f>$F28*Outputs_Internal!M$58/12</f>
@@ -6860,15 +6860,15 @@
       </c>
       <c r="M29" s="63">
         <f>$F29*Outputs_Internal!$D$58/12</f>
-        <v>15218.333333333334</v>
+        <v>19897.833333333332</v>
       </c>
       <c r="N29" s="63">
         <f>$F29*Outputs_Internal!K$58/12</f>
-        <v>2883.6570937887609</v>
+        <v>3164.3479550372194</v>
       </c>
       <c r="O29" s="63">
         <f>$F29*Outputs_Internal!L$58/12</f>
-        <v>12334.676239544575</v>
+        <v>16733.485378296115</v>
       </c>
       <c r="P29" s="63">
         <f>$F29*Outputs_Internal!M$58/12</f>
@@ -6880,15 +6880,15 @@
       </c>
       <c r="S29" s="63">
         <f t="shared" si="1"/>
-        <v>45655</v>
+        <v>59693.5</v>
       </c>
       <c r="T29" s="63">
         <f t="shared" si="2"/>
-        <v>8650.9712813662827</v>
+        <v>9493.0438651116583</v>
       </c>
       <c r="U29" s="63">
         <f t="shared" si="3"/>
-        <v>37004.028718633723</v>
+        <v>50200.456134888344</v>
       </c>
       <c r="V29" s="63">
         <f t="shared" si="4"/>
@@ -6934,15 +6934,15 @@
       </c>
       <c r="M30" s="63">
         <f>$F30*Outputs_Internal!$D$58/12</f>
-        <v>15218.333333333334</v>
+        <v>19897.833333333332</v>
       </c>
       <c r="N30" s="63">
         <f>$F30*Outputs_Internal!K$58/12</f>
-        <v>2883.6570937887609</v>
+        <v>3164.3479550372194</v>
       </c>
       <c r="O30" s="63">
         <f>$F30*Outputs_Internal!L$58/12</f>
-        <v>12334.676239544575</v>
+        <v>16733.485378296115</v>
       </c>
       <c r="P30" s="63">
         <f>$F30*Outputs_Internal!M$58/12</f>
@@ -7008,15 +7008,15 @@
       </c>
       <c r="M31" s="63">
         <f>$F31*Outputs_Internal!$D$58/12</f>
-        <v>15218.333333333334</v>
+        <v>19897.833333333332</v>
       </c>
       <c r="N31" s="63">
         <f>$F31*Outputs_Internal!K$58/12</f>
-        <v>2883.6570937887609</v>
+        <v>3164.3479550372194</v>
       </c>
       <c r="O31" s="63">
         <f>$F31*Outputs_Internal!L$58/12</f>
-        <v>12334.676239544575</v>
+        <v>16733.485378296115</v>
       </c>
       <c r="P31" s="63">
         <f>$F31*Outputs_Internal!M$58/12</f>
@@ -7082,15 +7082,15 @@
       </c>
       <c r="M32" s="63">
         <f>$F32*Outputs_Internal!$D$58/12</f>
-        <v>15218.333333333334</v>
+        <v>19897.833333333332</v>
       </c>
       <c r="N32" s="63">
         <f>$F32*Outputs_Internal!K$58/12</f>
-        <v>2883.6570937887609</v>
+        <v>3164.3479550372194</v>
       </c>
       <c r="O32" s="63">
         <f>$F32*Outputs_Internal!L$58/12</f>
-        <v>12334.676239544575</v>
+        <v>16733.485378296115</v>
       </c>
       <c r="P32" s="63">
         <f>$F32*Outputs_Internal!M$58/12</f>
@@ -7102,15 +7102,15 @@
       </c>
       <c r="S32" s="63">
         <f t="shared" si="1"/>
-        <v>45655</v>
+        <v>59693.5</v>
       </c>
       <c r="T32" s="63">
         <f t="shared" si="2"/>
-        <v>8650.9712813662827</v>
+        <v>9493.0438651116583</v>
       </c>
       <c r="U32" s="63">
         <f t="shared" si="3"/>
-        <v>37004.028718633723</v>
+        <v>50200.456134888344</v>
       </c>
       <c r="V32" s="63">
         <f t="shared" si="4"/>
@@ -7156,15 +7156,15 @@
       </c>
       <c r="M33" s="63">
         <f>$F33*Outputs_Internal!$D$58/12</f>
-        <v>15218.333333333334</v>
+        <v>19897.833333333332</v>
       </c>
       <c r="N33" s="63">
         <f>$F33*Outputs_Internal!K$58/12</f>
-        <v>2883.6570937887609</v>
+        <v>3164.3479550372194</v>
       </c>
       <c r="O33" s="63">
         <f>$F33*Outputs_Internal!L$58/12</f>
-        <v>12334.676239544575</v>
+        <v>16733.485378296115</v>
       </c>
       <c r="P33" s="63">
         <f>$F33*Outputs_Internal!M$58/12</f>
@@ -7230,15 +7230,15 @@
       </c>
       <c r="M34" s="63">
         <f>$F34*Outputs_Internal!$D$58/12</f>
-        <v>15218.333333333334</v>
+        <v>19897.833333333332</v>
       </c>
       <c r="N34" s="63">
         <f>$F34*Outputs_Internal!K$58/12</f>
-        <v>2883.6570937887609</v>
+        <v>3164.3479550372194</v>
       </c>
       <c r="O34" s="63">
         <f>$F34*Outputs_Internal!L$58/12</f>
-        <v>12334.676239544575</v>
+        <v>16733.485378296115</v>
       </c>
       <c r="P34" s="63">
         <f>$F34*Outputs_Internal!M$58/12</f>
@@ -7304,15 +7304,15 @@
       </c>
       <c r="M35" s="63">
         <f>$F35*Outputs_Internal!$D$58/12</f>
-        <v>15218.333333333334</v>
+        <v>19897.833333333332</v>
       </c>
       <c r="N35" s="63">
         <f>$F35*Outputs_Internal!K$58/12</f>
-        <v>2883.6570937887609</v>
+        <v>3164.3479550372194</v>
       </c>
       <c r="O35" s="63">
         <f>$F35*Outputs_Internal!L$58/12</f>
-        <v>12334.676239544575</v>
+        <v>16733.485378296115</v>
       </c>
       <c r="P35" s="63">
         <f>$F35*Outputs_Internal!M$58/12</f>
@@ -7324,15 +7324,15 @@
       </c>
       <c r="S35" s="63">
         <f t="shared" si="1"/>
-        <v>45655</v>
+        <v>59693.5</v>
       </c>
       <c r="T35" s="63">
         <f t="shared" si="2"/>
-        <v>8650.9712813662827</v>
+        <v>9493.0438651116583</v>
       </c>
       <c r="U35" s="63">
         <f t="shared" si="3"/>
-        <v>37004.028718633723</v>
+        <v>50200.456134888344</v>
       </c>
       <c r="V35" s="63">
         <f t="shared" si="4"/>
@@ -7378,15 +7378,15 @@
       </c>
       <c r="M36" s="63">
         <f>$F36*Outputs_Internal!$D$58/12</f>
-        <v>15218.333333333334</v>
+        <v>19897.833333333332</v>
       </c>
       <c r="N36" s="63">
         <f>$F36*Outputs_Internal!K$58/12</f>
-        <v>2883.6570937887609</v>
+        <v>3164.3479550372194</v>
       </c>
       <c r="O36" s="63">
         <f>$F36*Outputs_Internal!L$58/12</f>
-        <v>12334.676239544575</v>
+        <v>16733.485378296115</v>
       </c>
       <c r="P36" s="63">
         <f>$F36*Outputs_Internal!M$58/12</f>
@@ -7452,15 +7452,15 @@
       </c>
       <c r="M37" s="63">
         <f>$F37*Outputs_Internal!$D$58/12</f>
-        <v>15218.333333333334</v>
+        <v>19897.833333333332</v>
       </c>
       <c r="N37" s="63">
         <f>$F37*Outputs_Internal!K$58/12</f>
-        <v>2883.6570937887609</v>
+        <v>3164.3479550372194</v>
       </c>
       <c r="O37" s="63">
         <f>$F37*Outputs_Internal!L$58/12</f>
-        <v>12334.676239544575</v>
+        <v>16733.485378296115</v>
       </c>
       <c r="P37" s="63">
         <f>$F37*Outputs_Internal!M$58/12</f>
@@ -7526,15 +7526,15 @@
       </c>
       <c r="M38" s="63">
         <f>$F38*Outputs_Internal!$D$58/12</f>
-        <v>15218.333333333334</v>
+        <v>19897.833333333332</v>
       </c>
       <c r="N38" s="63">
         <f>$F38*Outputs_Internal!K$58/12</f>
-        <v>2883.6570937887609</v>
+        <v>3164.3479550372194</v>
       </c>
       <c r="O38" s="63">
         <f>$F38*Outputs_Internal!L$58/12</f>
-        <v>12334.676239544575</v>
+        <v>16733.485378296115</v>
       </c>
       <c r="P38" s="63">
         <f>$F38*Outputs_Internal!M$58/12</f>
@@ -7546,15 +7546,15 @@
       </c>
       <c r="S38" s="63">
         <f t="shared" si="1"/>
-        <v>45655</v>
+        <v>59693.5</v>
       </c>
       <c r="T38" s="63">
         <f t="shared" si="2"/>
-        <v>8650.9712813662827</v>
+        <v>9493.0438651116583</v>
       </c>
       <c r="U38" s="63">
         <f t="shared" si="3"/>
-        <v>37004.028718633723</v>
+        <v>50200.456134888344</v>
       </c>
       <c r="V38" s="63">
         <f t="shared" si="4"/>
@@ -7600,15 +7600,15 @@
       </c>
       <c r="M39" s="63">
         <f>$F39*Outputs_Internal!$D$58/12</f>
-        <v>15218.333333333334</v>
+        <v>19897.833333333332</v>
       </c>
       <c r="N39" s="63">
         <f>$F39*Outputs_Internal!K$58/12</f>
-        <v>2883.6570937887609</v>
+        <v>3164.3479550372194</v>
       </c>
       <c r="O39" s="63">
         <f>$F39*Outputs_Internal!L$58/12</f>
-        <v>12334.676239544575</v>
+        <v>16733.485378296115</v>
       </c>
       <c r="P39" s="63">
         <f>$F39*Outputs_Internal!M$58/12</f>
@@ -7674,15 +7674,15 @@
       </c>
       <c r="M40" s="63">
         <f>$F40*Outputs_Internal!$D$58/12</f>
-        <v>15218.333333333334</v>
+        <v>19897.833333333332</v>
       </c>
       <c r="N40" s="63">
         <f>$F40*Outputs_Internal!K$58/12</f>
-        <v>2883.6570937887609</v>
+        <v>3164.3479550372194</v>
       </c>
       <c r="O40" s="63">
         <f>$F40*Outputs_Internal!L$58/12</f>
-        <v>12334.676239544575</v>
+        <v>16733.485378296115</v>
       </c>
       <c r="P40" s="63">
         <f>$F40*Outputs_Internal!M$58/12</f>
@@ -7748,15 +7748,15 @@
       </c>
       <c r="M41" s="63">
         <f>$F41*Outputs_Internal!$D$58/12</f>
-        <v>15218.333333333334</v>
+        <v>19897.833333333332</v>
       </c>
       <c r="N41" s="63">
         <f>$F41*Outputs_Internal!K$58/12</f>
-        <v>2883.6570937887609</v>
+        <v>3164.3479550372194</v>
       </c>
       <c r="O41" s="63">
         <f>$F41*Outputs_Internal!L$58/12</f>
-        <v>12334.676239544575</v>
+        <v>16733.485378296115</v>
       </c>
       <c r="P41" s="63">
         <f>$F41*Outputs_Internal!M$58/12</f>
@@ -7768,15 +7768,15 @@
       </c>
       <c r="S41" s="63">
         <f t="shared" si="1"/>
-        <v>45655</v>
+        <v>59693.5</v>
       </c>
       <c r="T41" s="63">
         <f t="shared" si="2"/>
-        <v>8650.9712813662827</v>
+        <v>9493.0438651116583</v>
       </c>
       <c r="U41" s="63">
         <f t="shared" si="3"/>
-        <v>37004.028718633723</v>
+        <v>50200.456134888344</v>
       </c>
       <c r="V41" s="63">
         <f t="shared" si="4"/>
@@ -7822,15 +7822,15 @@
       </c>
       <c r="M42" s="63">
         <f>$F42*Outputs_Internal!$D$58/12</f>
-        <v>15218.333333333334</v>
+        <v>19897.833333333332</v>
       </c>
       <c r="N42" s="63">
         <f>$F42*Outputs_Internal!K$58/12</f>
-        <v>2883.6570937887609</v>
+        <v>3164.3479550372194</v>
       </c>
       <c r="O42" s="63">
         <f>$F42*Outputs_Internal!L$58/12</f>
-        <v>12334.676239544575</v>
+        <v>16733.485378296115</v>
       </c>
       <c r="P42" s="63">
         <f>$F42*Outputs_Internal!M$58/12</f>
@@ -7896,15 +7896,15 @@
       </c>
       <c r="M43" s="63">
         <f>$F43*Outputs_Internal!$D$58/12</f>
-        <v>15218.333333333334</v>
+        <v>19897.833333333332</v>
       </c>
       <c r="N43" s="63">
         <f>$F43*Outputs_Internal!K$58/12</f>
-        <v>2883.6570937887609</v>
+        <v>3164.3479550372194</v>
       </c>
       <c r="O43" s="63">
         <f>$F43*Outputs_Internal!L$58/12</f>
-        <v>12334.676239544575</v>
+        <v>16733.485378296115</v>
       </c>
       <c r="P43" s="63">
         <f>$F43*Outputs_Internal!M$58/12</f>
@@ -7970,15 +7970,15 @@
       </c>
       <c r="M44" s="63">
         <f>$F44*Outputs_Internal!$D$58/12</f>
-        <v>15218.333333333334</v>
+        <v>19897.833333333332</v>
       </c>
       <c r="N44" s="63">
         <f>$F44*Outputs_Internal!K$58/12</f>
-        <v>2883.6570937887609</v>
+        <v>3164.3479550372194</v>
       </c>
       <c r="O44" s="63">
         <f>$F44*Outputs_Internal!L$58/12</f>
-        <v>12334.676239544575</v>
+        <v>16733.485378296115</v>
       </c>
       <c r="P44" s="63">
         <f>$F44*Outputs_Internal!M$58/12</f>
@@ -7990,15 +7990,15 @@
       </c>
       <c r="S44" s="63">
         <f>IF(MOD(MONTH($B44),3)=0,SUM(H42:H44,M42:M44),0)</f>
-        <v>45655</v>
+        <v>59693.5</v>
       </c>
       <c r="T44" s="63">
         <f t="shared" si="2"/>
-        <v>8650.9712813662827</v>
+        <v>9493.0438651116583</v>
       </c>
       <c r="U44" s="63">
         <f t="shared" si="3"/>
-        <v>37004.028718633723</v>
+        <v>50200.456134888344</v>
       </c>
       <c r="V44" s="63">
         <f t="shared" si="4"/>
@@ -11727,7 +11727,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12198,7 +12198,7 @@
         <v>11</v>
       </c>
       <c r="D21" s="20">
-        <f xml:space="preserve"> IF(OR(Inputs!D17="Y",Inputs!D$22="Y"), Prices!$C16, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!D17="Y",Inputs!D$22="Y",Inputs!D$23="Y"), Prices!$C16, 0)</f>
         <v>12000</v>
       </c>
       <c r="E21" s="20">
@@ -12206,15 +12206,15 @@
         <v>12000</v>
       </c>
       <c r="F21" s="20">
-        <f xml:space="preserve"> IF(OR(Inputs!F17="Y",Inputs!F$22="Y"), Prices!$C16, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!F17="Y",Inputs!F$22="Y",Inputs!F$23="Y"), Prices!$C16, 0)</f>
         <v>0</v>
       </c>
       <c r="G21" s="20">
-        <f xml:space="preserve"> IF(OR(Inputs!G17="Y",Inputs!G$22="Y"), Prices!$C16, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!G17="Y",Inputs!G$22="Y",Inputs!G$23="Y"), Prices!$C16, 0)</f>
         <v>0</v>
       </c>
       <c r="H21" s="20">
-        <f xml:space="preserve"> IF(OR(Inputs!H17="Y",Inputs!H$22="Y"), Prices!$C16, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!H17="Y",Inputs!H$22="Y",Inputs!H$23="Y"), Prices!$C16, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -12223,23 +12223,23 @@
         <v>12</v>
       </c>
       <c r="D22" s="20">
-        <f xml:space="preserve"> IF(OR(Inputs!D18="Y",Inputs!D$22="Y"), Prices!$C17, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!D18="Y",Inputs!D$22="Y",Inputs!D$23="Y"), Prices!$C17, 0)</f>
         <v>6000</v>
       </c>
       <c r="E22" s="20">
-        <f xml:space="preserve"> IF(OR(Inputs!E18="Y",Inputs!E$22="Y",Inputs!$E23="Y"), Prices!$C17, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!E18="Y",Inputs!E$22="Y",Inputs!E$23="Y"), Prices!$C17, 0)</f>
         <v>6000</v>
       </c>
       <c r="F22" s="20">
-        <f xml:space="preserve"> IF(OR(Inputs!F18="Y",Inputs!F$22="Y"), Prices!$C17, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!F18="Y",Inputs!F$22="Y",Inputs!F$23="Y"), Prices!$C17, 0)</f>
         <v>0</v>
       </c>
       <c r="G22" s="20">
-        <f xml:space="preserve"> IF(OR(Inputs!G18="Y",Inputs!G$22="Y"), Prices!$C17, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!G18="Y",Inputs!G$22="Y",Inputs!G$23="Y"), Prices!$C17, 0)</f>
         <v>0</v>
       </c>
       <c r="H22" s="20">
-        <f xml:space="preserve"> IF(OR(Inputs!H18="Y",Inputs!H$22="Y"), Prices!$C17, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!H18="Y",Inputs!H$22="Y",Inputs!H$23="Y"), Prices!$C17, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -12248,23 +12248,23 @@
         <v>23</v>
       </c>
       <c r="D23" s="20">
-        <f xml:space="preserve"> IF(OR(Inputs!D19="Y",Inputs!D$22="Y"), Prices!$C18, 0)</f>
+        <f>IF(Inputs!D$5="N",0, IF(OR(Inputs!D19="Y",Inputs!D$22="Y",Inputs!D$23="Y"), Prices!$C18, 0))</f>
         <v>6000</v>
       </c>
       <c r="E23" s="20">
-        <f xml:space="preserve"> IF(OR(Inputs!E19="Y",Inputs!E$22="Y",Inputs!E23="Y"), Prices!$C18, 0)</f>
-        <v>6000</v>
+        <f>IF(Inputs!E$5="N",0, IF(OR(Inputs!E19="Y",Inputs!E$22="Y",Inputs!E$23="Y"), Prices!$C18, 0))</f>
+        <v>0</v>
       </c>
       <c r="F23" s="20">
-        <f xml:space="preserve"> IF(OR(Inputs!F19="Y",Inputs!F$22="Y"), Prices!$C18, 0)</f>
+        <f>IF(Inputs!F$5="N",0, IF(OR(Inputs!F19="Y",Inputs!F$22="Y",Inputs!F$23="Y"), Prices!$C18, 0))</f>
         <v>0</v>
       </c>
       <c r="G23" s="20">
-        <f xml:space="preserve"> IF(OR(Inputs!G19="Y",Inputs!G$22="Y"), Prices!$C18, 0)</f>
+        <f>IF(Inputs!G$5="N",0, IF(OR(Inputs!G19="Y",Inputs!G$22="Y",Inputs!G$23="Y"), Prices!$C18, 0))</f>
         <v>0</v>
       </c>
       <c r="H23" s="20">
-        <f xml:space="preserve"> IF(OR(Inputs!H19="Y",Inputs!H$22="Y"), Prices!$C18, 0)</f>
+        <f>IF(Inputs!H$5="N",0, IF(OR(Inputs!H19="Y",Inputs!H$22="Y",Inputs!H$23="Y"), Prices!$C18, 0))</f>
         <v>0</v>
       </c>
     </row>
@@ -12453,23 +12453,23 @@
         <v>11</v>
       </c>
       <c r="D33" s="20">
-        <f>IF(OR(Inputs!D$5="Y", D$11 = 0), 0, IF(OR(Inputs!D17="Y",Inputs!D$22="Y"),PRODUCT(D$11, Prices!$E16),0))*D$10</f>
+        <f>IF(OR(Inputs!D$5="Y", D$11 = 0), 0, IF(OR(Inputs!D17="Y",Inputs!D$22="Y",Inputs!D$23="Y"),PRODUCT(D$11, Prices!$E16),0))*D$10</f>
         <v>0</v>
       </c>
       <c r="E33" s="20">
-        <f>IF(OR(Inputs!E$5="Y", E$11 = 0), 0, IF(OR(Inputs!E17="Y",Inputs!E$22="Y"),PRODUCT(E$11, Prices!$E16),0))*E$10</f>
-        <v>0</v>
+        <f>IF(OR(Inputs!E$5="Y", E$11 = 0), 0, IF(OR(Inputs!E17="Y",Inputs!E$22="Y",Inputs!E$23="Y"),PRODUCT(E$11, Prices!$E16),0))*E$10</f>
+        <v>22750</v>
       </c>
       <c r="F33" s="20">
-        <f>IF(OR(Inputs!F$5="Y", F$11 = 0), 0, IF(OR(Inputs!F17="Y",Inputs!F$22="Y"),PRODUCT(F$11, Prices!$E16),0))*F$10</f>
+        <f>IF(OR(Inputs!F$5="Y", F$11 = 0), 0, IF(OR(Inputs!F17="Y",Inputs!F$22="Y",Inputs!F$23="Y"),PRODUCT(F$11, Prices!$E16),0))*F$10</f>
         <v>0</v>
       </c>
       <c r="G33" s="20">
-        <f>IF(OR(Inputs!G$5="Y", G$11 = 0), 0, IF(OR(Inputs!G17="Y",Inputs!G$22="Y"),PRODUCT(G$11, Prices!$E16),0))*G$10</f>
+        <f>IF(OR(Inputs!G$5="Y", G$11 = 0), 0, IF(OR(Inputs!G17="Y",Inputs!G$22="Y",Inputs!G$23="Y"),PRODUCT(G$11, Prices!$E16),0))*G$10</f>
         <v>0</v>
       </c>
       <c r="H33" s="20">
-        <f>IF(OR(Inputs!H$5="Y", H$11 = 0), 0, IF(OR(Inputs!H17="Y",Inputs!H$22="Y"),PRODUCT(H$11, Prices!$E16),0))*H$10</f>
+        <f>IF(OR(Inputs!H$5="Y", H$11 = 0), 0, IF(OR(Inputs!H17="Y",Inputs!H$22="Y",Inputs!H$23="Y"),PRODUCT(H$11, Prices!$E16),0))*H$10</f>
         <v>0</v>
       </c>
     </row>
@@ -12478,23 +12478,23 @@
         <v>12</v>
       </c>
       <c r="D34" s="20">
-        <f>IF(OR(Inputs!D$5="Y", D$11 = 0), 0, IF(OR(Inputs!D18="Y",Inputs!D$22="Y"),PRODUCT(D$11, Prices!$E17),0))*D$10</f>
+        <f>IF(OR(Inputs!D$5="Y", D$11 = 0), 0, IF(OR(Inputs!D18="Y",Inputs!D$22="Y",Inputs!D$23="Y"),PRODUCT(D$11, Prices!$E17),0))*D$10</f>
         <v>0</v>
       </c>
       <c r="E34" s="20">
-        <f>IF(OR(Inputs!E$5="Y", E$11 = 0), 0, IF(OR(Inputs!E18="Y",Inputs!E$22="Y"),PRODUCT(E$11, Prices!$E17),0))*E$10</f>
-        <v>0</v>
+        <f>IF(OR(Inputs!E$5="Y", E$11 = 0), 0, IF(OR(Inputs!E18="Y",Inputs!E$22="Y",Inputs!E$23="Y"),PRODUCT(E$11, Prices!$E17),0))*E$10</f>
+        <v>9100</v>
       </c>
       <c r="F34" s="20">
-        <f>IF(OR(Inputs!F$5="Y", F$11 = 0), 0, IF(OR(Inputs!F18="Y",Inputs!F$22="Y"),PRODUCT(F$11, Prices!$E17),0))*F$10</f>
+        <f>IF(OR(Inputs!F$5="Y", F$11 = 0), 0, IF(OR(Inputs!F18="Y",Inputs!F$22="Y",Inputs!F$23="Y"),PRODUCT(F$11, Prices!$E17),0))*F$10</f>
         <v>0</v>
       </c>
       <c r="G34" s="20">
-        <f>IF(OR(Inputs!G$5="Y", G$11 = 0), 0, IF(OR(Inputs!G18="Y",Inputs!G$22="Y"),PRODUCT(G$11, Prices!$E17),0))*G$10</f>
+        <f>IF(OR(Inputs!G$5="Y", G$11 = 0), 0, IF(OR(Inputs!G18="Y",Inputs!G$22="Y",Inputs!G$23="Y"),PRODUCT(G$11, Prices!$E17),0))*G$10</f>
         <v>0</v>
       </c>
       <c r="H34" s="20">
-        <f>IF(OR(Inputs!H$5="Y", H$11 = 0), 0, IF(OR(Inputs!H18="Y",Inputs!H$22="Y"),PRODUCT(H$11, Prices!$E17),0))*H$10</f>
+        <f>IF(OR(Inputs!H$5="Y", H$11 = 0), 0, IF(OR(Inputs!H18="Y",Inputs!H$22="Y",Inputs!H$23="Y"),PRODUCT(H$11, Prices!$E17),0))*H$10</f>
         <v>0</v>
       </c>
     </row>
@@ -12710,23 +12710,23 @@
         <v>11</v>
       </c>
       <c r="D45" s="20">
-        <f>IF(AND(Inputs!D17="Y",Inputs!D$22="N"),Prices!$C16,0)</f>
+        <f>IF(AND(Inputs!D17="Y",Inputs!D$22="N",Inputs!D$23="N"),Prices!$C16,0)</f>
         <v>0</v>
       </c>
       <c r="E45" s="20">
-        <f>IF(AND(Inputs!E17="Y",Inputs!E$22="N"),Prices!$C16,0)</f>
+        <f>IF(AND(Inputs!E17="Y",Inputs!E$22="N",Inputs!E$23="N"),Prices!$C16,0)</f>
         <v>0</v>
       </c>
       <c r="F45" s="20">
-        <f>IF(AND(Inputs!F17="Y",Inputs!F$22="N"),Prices!$C16,0)</f>
+        <f>IF(AND(Inputs!F17="Y",Inputs!F$22="N",Inputs!F$23="N"),Prices!$C16,0)</f>
         <v>0</v>
       </c>
       <c r="G45" s="20">
-        <f>IF(AND(Inputs!G17="Y",Inputs!G$22="N"),Prices!$C16,0)</f>
+        <f>IF(AND(Inputs!G17="Y",Inputs!G$22="N",Inputs!G$23="N"),Prices!$C16,0)</f>
         <v>0</v>
       </c>
       <c r="H45" s="20">
-        <f>IF(AND(Inputs!H17="Y",Inputs!H$22="N"),Prices!$C16,0)</f>
+        <f>IF(AND(Inputs!H17="Y",Inputs!H$22="N",Inputs!H$23="N"),Prices!$C16,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -12735,23 +12735,23 @@
         <v>12</v>
       </c>
       <c r="D46" s="20">
-        <f>IF(AND(Inputs!D18="Y",Inputs!D$22="N"),Prices!$C17,0)</f>
+        <f>IF(AND(Inputs!D18="Y",Inputs!D$22="N",Inputs!D$23="N"),Prices!$C17,0)</f>
         <v>0</v>
       </c>
       <c r="E46" s="20">
-        <f>IF(AND(Inputs!E18="Y",Inputs!E$22="N"),Prices!$C17,0)</f>
+        <f>IF(AND(Inputs!E18="Y",Inputs!E$22="N",Inputs!E$23="N"),Prices!$C17,0)</f>
         <v>0</v>
       </c>
       <c r="F46" s="20">
-        <f>IF(AND(Inputs!F18="Y",Inputs!F$22="N"),Prices!$C17,0)</f>
+        <f>IF(AND(Inputs!F18="Y",Inputs!F$22="N",Inputs!F$23="N"),Prices!$C17,0)</f>
         <v>0</v>
       </c>
       <c r="G46" s="20">
-        <f>IF(AND(Inputs!G18="Y",Inputs!G$22="N"),Prices!$C17,0)</f>
+        <f>IF(AND(Inputs!G18="Y",Inputs!G$22="N",Inputs!G$23="N"),Prices!$C17,0)</f>
         <v>0</v>
       </c>
       <c r="H46" s="20">
-        <f>IF(AND(Inputs!H18="Y",Inputs!H$22="N"),Prices!$C17,0)</f>
+        <f>IF(AND(Inputs!H18="Y",Inputs!H$22="N",Inputs!H$23="N"),Prices!$C17,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -12760,23 +12760,23 @@
         <v>23</v>
       </c>
       <c r="D47" s="20">
-        <f>IF(AND(Inputs!D19="Y",Inputs!D$22="N"),Prices!$C18,0)</f>
+        <f>IF(Inputs!D$5="N",0,IF(AND(Inputs!D19="Y",Inputs!D$22="N",Inputs!D$23="N"),Prices!$C18,0))</f>
         <v>0</v>
       </c>
       <c r="E47" s="20">
-        <f>IF(AND(Inputs!E19="Y",Inputs!E$22="N"),Prices!$C18,0)</f>
+        <f>IF(Inputs!E$5="N",0,IF(AND(Inputs!E19="Y",Inputs!E$22="N",Inputs!E$23="N"),Prices!$C18,0))</f>
         <v>0</v>
       </c>
       <c r="F47" s="20">
-        <f>IF(AND(Inputs!F19="Y",Inputs!F$22="N"),Prices!$C18,0)</f>
+        <f>IF(Inputs!F$5="N",0,IF(AND(Inputs!F19="Y",Inputs!F$22="N",Inputs!F$23="N"),Prices!$C18,0))</f>
         <v>0</v>
       </c>
       <c r="G47" s="20">
-        <f>IF(AND(Inputs!G19="Y",Inputs!G$22="N"),Prices!$C18,0)</f>
+        <f>IF(Inputs!G$5="N",0,IF(AND(Inputs!G19="Y",Inputs!G$22="N",Inputs!G$23="N"),Prices!$C18,0))</f>
         <v>0</v>
       </c>
       <c r="H47" s="20">
-        <f>IF(AND(Inputs!H19="Y",Inputs!H$22="N"),Prices!$C18,0)</f>
+        <f>IF(Inputs!H$5="N",0,IF(AND(Inputs!H19="Y",Inputs!H$22="N",Inputs!H$23="N"),Prices!$C18,0))</f>
         <v>0</v>
       </c>
     </row>
@@ -12965,23 +12965,23 @@
         <v>11</v>
       </c>
       <c r="D57" s="20">
-        <f>IF(OR(Inputs!D$5="Y", D$11 = 0), 0, IF(AND(Inputs!D17="Y",Inputs!D$22="N"),PRODUCT(D$11, Prices!$E16)*D$10,0))</f>
+        <f>IF(OR(Inputs!D$5="Y", D$11 = 0), 0, IF(AND(Inputs!D17="Y",Inputs!D$22="N",Inputs!D$23="N"),PRODUCT(D$11, Prices!$E16)*D$10,0))</f>
         <v>0</v>
       </c>
       <c r="E57" s="20">
-        <f>IF(OR(Inputs!E$5="Y", E$11 = 0), 0, IF(AND(Inputs!E17="Y",Inputs!E$22="N"),PRODUCT(E$11, Prices!$E16)*E$10,0))</f>
+        <f>IF(OR(Inputs!E$5="Y", E$11 = 0), 0, IF(AND(Inputs!E17="Y",Inputs!E$22="N",Inputs!E$23="N"),PRODUCT(E$11, Prices!$E16)*E$10,0))</f>
         <v>0</v>
       </c>
       <c r="F57" s="20">
-        <f>IF(OR(Inputs!F$5="Y", F$11 = 0), 0, IF(AND(Inputs!F17="Y",Inputs!F$22="N"),PRODUCT(F$11, Prices!$E16)*F$10,0))</f>
+        <f>IF(OR(Inputs!F$5="Y", F$11 = 0), 0, IF(AND(Inputs!F17="Y",Inputs!F$22="N",Inputs!F$23="N"),PRODUCT(F$11, Prices!$E16)*F$10,0))</f>
         <v>0</v>
       </c>
       <c r="G57" s="20">
-        <f>IF(OR(Inputs!G$5="Y", G$11 = 0), 0, IF(AND(Inputs!G17="Y",Inputs!G$22="N"),PRODUCT(G$11, Prices!$E16)*G$10,0))</f>
+        <f>IF(OR(Inputs!G$5="Y", G$11 = 0), 0, IF(AND(Inputs!G17="Y",Inputs!G$22="N",Inputs!G$23="N"),PRODUCT(G$11, Prices!$E16)*G$10,0))</f>
         <v>0</v>
       </c>
       <c r="H57" s="20">
-        <f>IF(OR(Inputs!H$5="Y", H$11 = 0), 0, IF(AND(Inputs!H17="Y",Inputs!H$22="N"),PRODUCT(H$11, Prices!$E16)*H$10,0))</f>
+        <f>IF(OR(Inputs!H$5="Y", H$11 = 0), 0, IF(AND(Inputs!H17="Y",Inputs!H$22="N",Inputs!H$23="N"),PRODUCT(H$11, Prices!$E16)*H$10,0))</f>
         <v>0</v>
       </c>
     </row>
@@ -12990,23 +12990,23 @@
         <v>12</v>
       </c>
       <c r="D58" s="20">
-        <f>IF(OR(Inputs!D$5="Y", D$11 = 0), 0, IF(AND(Inputs!D18="Y",Inputs!D$22="N"),PRODUCT(D$11, Prices!$E17)*D$10,0))</f>
+        <f>IF(OR(Inputs!D$5="Y", D$11 = 0), 0, IF(AND(Inputs!D18="Y",Inputs!D$22="N",Inputs!D$23="N"),PRODUCT(D$11, Prices!$E17)*D$10,0))</f>
         <v>0</v>
       </c>
       <c r="E58" s="20">
-        <f>IF(OR(Inputs!E$5="Y", E$11 = 0), 0, IF(AND(Inputs!E18="Y",Inputs!E$22="N"),PRODUCT(E$11, Prices!$E17)*E$10,0))</f>
+        <f>IF(OR(Inputs!E$5="Y", E$11 = 0), 0, IF(AND(Inputs!E18="Y",Inputs!E$22="N",Inputs!E$23="N"),PRODUCT(E$11, Prices!$E17)*E$10,0))</f>
         <v>0</v>
       </c>
       <c r="F58" s="20">
-        <f>IF(OR(Inputs!F$5="Y", F$11 = 0), 0, IF(AND(Inputs!F18="Y",Inputs!F$22="N"),PRODUCT(F$11, Prices!$E17)*F$10,0))</f>
+        <f>IF(OR(Inputs!F$5="Y", F$11 = 0), 0, IF(AND(Inputs!F18="Y",Inputs!F$22="N",Inputs!F$23="N"),PRODUCT(F$11, Prices!$E17)*F$10,0))</f>
         <v>0</v>
       </c>
       <c r="G58" s="20">
-        <f>IF(OR(Inputs!G$5="Y", G$11 = 0), 0, IF(AND(Inputs!G18="Y",Inputs!G$22="N"),PRODUCT(G$11, Prices!$E17)*G$10,0))</f>
+        <f>IF(OR(Inputs!G$5="Y", G$11 = 0), 0, IF(AND(Inputs!G18="Y",Inputs!G$22="N",Inputs!G$23="N"),PRODUCT(G$11, Prices!$E17)*G$10,0))</f>
         <v>0</v>
       </c>
       <c r="H58" s="20">
-        <f>IF(OR(Inputs!H$5="Y", H$11 = 0), 0, IF(AND(Inputs!H18="Y",Inputs!H$22="N"),PRODUCT(H$11, Prices!$E17)*H$10,0))</f>
+        <f>IF(OR(Inputs!H$5="Y", H$11 = 0), 0, IF(AND(Inputs!H18="Y",Inputs!H$22="N",Inputs!H$23="N"),PRODUCT(H$11, Prices!$E17)*H$10,0))</f>
         <v>0</v>
       </c>
     </row>
@@ -13095,7 +13095,7 @@
       </c>
       <c r="E64" s="20">
         <f>IF(Inputs!E22="Y", Prices!$C22, 0)</f>
-        <v>0</v>
+        <v>42000</v>
       </c>
       <c r="F64" s="20">
         <f>IF(Inputs!F22="Y", Prices!$C22, 0)</f>
@@ -13345,7 +13345,7 @@
       </c>
       <c r="E74" s="20">
         <f>IF(Inputs!E$5="Y", 0, IF(E$11 = "", 0, IF(Inputs!E22 = "Y", E$11*Prices!$E22, 0)))*E$10</f>
-        <v>0</v>
+        <v>38220</v>
       </c>
       <c r="F74" s="20">
         <f>IF(Inputs!F$5="Y", 0, IF(F$11 = "", 0, IF(Inputs!F22 = "Y", F$11*Prices!$E22, 0)))*F$10</f>
@@ -13369,7 +13369,7 @@
       </c>
       <c r="L74" s="23">
         <f t="shared" si="5"/>
-        <v>1.2000000000000001E-3</v>
+        <v>80220.001199999999</v>
       </c>
       <c r="M74" s="23">
         <f t="shared" si="5"/>
@@ -13741,7 +13741,7 @@
       </c>
       <c r="E84" s="20">
         <f>IF(E64=0,0,E64-SUM(E21:E23))</f>
-        <v>0</v>
+        <v>24000</v>
       </c>
       <c r="F84" s="20">
         <f>IF(F64=0,0,F64-SUM(F21:F23))</f>
@@ -13761,7 +13761,7 @@
       </c>
       <c r="L84" s="21">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M84" s="21">
         <f t="shared" si="14"/>
@@ -13781,23 +13781,23 @@
         <v>130</v>
       </c>
       <c r="D85" s="20">
-        <f>IF(D65=0,0,D65-IF(Inputs!E22="Y", 0,SUM(D21:D23)))</f>
+        <f>IF(D65=0,0,D65-IF(Inputs!D22="Y", 0, SUM(D21:D23)))</f>
         <v>0</v>
       </c>
       <c r="E85" s="20">
         <f>IF(E65=0,0,E65-IF(Inputs!E22="Y", 0, SUM(E21:E23)))</f>
-        <v>18000</v>
+        <v>42000</v>
       </c>
       <c r="F85" s="20">
-        <f>IF(F65=0,0,F65-IF(Inputs!E22="Y", 0,SUM(F21:F23)))</f>
+        <f>IF(F65=0,0,F65-IF(Inputs!F22="Y", 0, SUM(F21:F23)))</f>
         <v>0</v>
       </c>
       <c r="G85" s="20">
-        <f>IF(G65=0,0,G65-IF(Inputs!E22="Y", 0,SUM(G21:G23)))</f>
+        <f>IF(G65=0,0,G65-IF(Inputs!G22="Y", 0, SUM(G21:G23)))</f>
         <v>0</v>
       </c>
       <c r="H85" s="20">
-        <f>IF(H65=0,0,H65-IF(Inputs!E22="Y", 0,SUM(H21:H23)))</f>
+        <f>IF(H65=0,0,H65-IF(Inputs!H22="Y", 0, SUM(H21:H23)))</f>
         <v>0</v>
       </c>
       <c r="K85" s="21">
@@ -13851,7 +13851,7 @@
       </c>
       <c r="L86" s="21">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M86" s="21">
         <f t="shared" si="16"/>
@@ -13896,7 +13896,7 @@
       </c>
       <c r="L87" s="21">
         <f t="shared" si="18"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M87" s="21">
         <f t="shared" si="18"/>
@@ -13941,7 +13941,7 @@
       </c>
       <c r="L88" s="21">
         <f t="shared" si="20"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M88" s="21">
         <f t="shared" si="20"/>
@@ -13986,7 +13986,7 @@
       </c>
       <c r="L89" s="21">
         <f t="shared" si="22"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M89" s="21">
         <f t="shared" si="22"/>
@@ -14061,7 +14061,7 @@
       </c>
       <c r="E94" s="20">
         <f>IF(E74=0,0,E74-SUM(E33:E34))</f>
-        <v>0</v>
+        <v>6370</v>
       </c>
       <c r="F94" s="20">
         <f>IF(F74=0,0,F74-SUM(F33:F34))</f>
@@ -14081,7 +14081,7 @@
         <v>130</v>
       </c>
       <c r="D95" s="20">
-        <f>IF(D75=0,0,D75-IF(Inputs!E22="Y", 0,SUM(D33:D34)))</f>
+        <f>IF(D75=0,0,D75-IF(Inputs!D22="Y", 0,SUM(D33:D34)))</f>
         <v>0</v>
       </c>
       <c r="E95" s="20">
@@ -14089,15 +14089,15 @@
         <v>38220</v>
       </c>
       <c r="F95" s="20">
-        <f>IF(F75=0,0,F75-IF(Inputs!E22="Y", 0,SUM(F33:F34)))</f>
+        <f>IF(F75=0,0,F75-IF(Inputs!F22="Y", 0,SUM(F33:F34)))</f>
         <v>0</v>
       </c>
       <c r="G95" s="20">
-        <f>IF(G75=0,0,G75-IF(Inputs!E22="Y", 0,SUM(G33:G34)))</f>
+        <f>IF(G75=0,0,G75-IF(Inputs!G22="Y", 0,SUM(G33:G34)))</f>
         <v>0</v>
       </c>
       <c r="H95" s="20">
-        <f>IF(H75=0,0,H75-IF(Inputs!E22="Y", 0,SUM(H33:H34)))</f>
+        <f>IF(H75=0,0,H75-IF(Inputs!H22="Y", 0,SUM(H33:H34)))</f>
         <v>0</v>
       </c>
     </row>
@@ -14219,7 +14219,7 @@
       </c>
       <c r="E102" s="1">
         <f>_xlfn.IFNA(SUM(INDEX(E$62:E$69, MATCH($A102, L$82:L$89, 0)), INDEX(E$72:E$79, MATCH($A102, L$82:L$89, 0)))*Prices!$L$5*-1, 0)</f>
-        <v>0</v>
+        <v>-24066</v>
       </c>
       <c r="F102" s="1">
         <f>_xlfn.IFNA(SUM(INDEX(F$62:F$69, MATCH($A102, M$82:M$89, 0)), INDEX(F$72:F$79, MATCH($A102, M$82:M$89, 0)))*Prices!$L$5*-1, 0)</f>
@@ -14384,7 +14384,7 @@
       </c>
       <c r="E109" s="7">
         <f t="shared" ref="E109:H109" si="26">SUM(E38:E47, E50:E59, E62:E69, E72:E79, E102:E106)</f>
-        <v>149620</v>
+        <v>205774</v>
       </c>
       <c r="F109" s="7">
         <f t="shared" si="26"/>
@@ -14465,7 +14465,7 @@
       </c>
       <c r="E115" s="7">
         <f>SUM(E109, E111)</f>
-        <v>149620</v>
+        <v>205774</v>
       </c>
       <c r="F115" s="7">
         <f>SUM(F109, F111)</f>

--- a/0273NYP - New York Premier/Premier_Pricing_Model.xlsx
+++ b/0273NYP - New York Premier/Premier_Pricing_Model.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shea.parkes\repos\client-and-project-documentation\0273NYP - New York Premier\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason.altieri\repos\client-and-project-documentation\0273NYP - New York Premier\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="0" windowWidth="13680" windowHeight="13890"/>
+    <workbookView xWindow="1395" yWindow="0" windowWidth="13680" windowHeight="13890" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="2" r:id="rId1"/>
@@ -1199,7 +1199,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -14632,7 +14632,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15242,8 +15244,8 @@
         <v>97</v>
       </c>
       <c r="C27" s="82">
-        <f>$L$26*6750</f>
-        <v>8100</v>
+        <f>$L$26*9600</f>
+        <v>11520</v>
       </c>
       <c r="E27" s="83">
         <f>IF(Inputs!$C$3="Monthly",0.6,0.42)</f>

--- a/0273NYP - New York Premier/Premier_Pricing_Model.xlsx
+++ b/0273NYP - New York Premier/Premier_Pricing_Model.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason.altieri\repos\client-and-project-documentation\0273NYP - New York Premier\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shea.parkes\repos\client-and-project-documentation\0273NYP - New York Premier\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="0" windowWidth="13680" windowHeight="13890" activeTab="5"/>
+    <workbookView xWindow="1395" yWindow="0" windowWidth="13680" windowHeight="13890"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="2" r:id="rId1"/>
@@ -1199,7 +1199,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L26"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -14460,23 +14460,23 @@
         <v>114</v>
       </c>
       <c r="D115" s="7">
-        <f>SUM(D109, D111)</f>
+        <f>SUM(D109, D111,D113)</f>
         <v>33000</v>
       </c>
       <c r="E115" s="7">
-        <f>SUM(E109, E111)</f>
+        <f t="shared" ref="E115:H115" si="28">SUM(E109, E111,E113)</f>
         <v>205774</v>
       </c>
       <c r="F115" s="7">
-        <f>SUM(F109, F111)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="G115" s="7">
-        <f>SUM(G109, G111)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H115" s="7">
-        <f>SUM(H109, H111)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
@@ -14490,19 +14490,19 @@
         <v>2</v>
       </c>
       <c r="E118" s="21">
-        <f t="shared" ref="E118:H118" si="28">IFERROR(_xlfn.RANK.EQ(E109,$D$109:$H$109),5)</f>
+        <f t="shared" ref="E118:H118" si="29">IFERROR(_xlfn.RANK.EQ(E109,$D$109:$H$109),5)</f>
         <v>1</v>
       </c>
       <c r="F118" s="21">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="G118" s="21">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="H118" s="21">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
     </row>
@@ -14531,19 +14531,19 @@
         <v>2.1</v>
       </c>
       <c r="E120" s="21">
-        <f t="shared" ref="E120:H120" si="29">SUM(E118:E119)</f>
+        <f t="shared" ref="E120:H120" si="30">SUM(E118:E119)</f>
         <v>1.2</v>
       </c>
       <c r="F120" s="21">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>3.3</v>
       </c>
       <c r="G120" s="21">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>3.4</v>
       </c>
       <c r="H120" s="21">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>3.5</v>
       </c>
     </row>
@@ -14554,19 +14554,19 @@
         <v>2</v>
       </c>
       <c r="E121" s="21">
-        <f t="shared" ref="E121:H121" si="30">_xlfn.RANK.EQ(E120, $D$120:$H$120, 5)</f>
+        <f t="shared" ref="E121:H121" si="31">_xlfn.RANK.EQ(E120, $D$120:$H$120, 5)</f>
         <v>1</v>
       </c>
       <c r="F121" s="21">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="G121" s="21">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>4</v>
       </c>
       <c r="H121" s="21">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>5</v>
       </c>
     </row>
@@ -14632,9 +14632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/0273NYP - New York Premier/Premier_Pricing_Model.xlsx
+++ b/0273NYP - New York Premier/Premier_Pricing_Model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shea.parkes\repos\client-and-project-documentation\0273NYP - New York Premier\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason.altieri\repos\client-and-project-documentation\0273NYP - New York Premier\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,8 +20,8 @@
     <sheet name="Prices" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="ACOInsight1">Inputs!$D$20:$D$21</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Outputs_Internal!$B$1:$M$62</definedName>
+    <definedName name="ACOInsight1">Inputs!$D$21:$D$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Outputs_Internal!$B$1:$M$64</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="134">
   <si>
     <t>One-Time Fees:</t>
   </si>
@@ -464,12 +464,18 @@
   <si>
     <t>7th Most Expensive Product</t>
   </si>
+  <si>
+    <t>Lead Office</t>
+  </si>
+  <si>
+    <t>Base processing fee shift:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="10">
+  <numFmts count="12">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -480,6 +486,8 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="169" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="172" formatCode="&quot;$&quot;#,##0.000_);[Red]\(&quot;$&quot;#,##0.000\)"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -735,7 +743,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -903,6 +911,9 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1197,19 +1208,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L26"/>
+  <dimension ref="B1:L27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
     <col min="3" max="3" width="18" style="66" customWidth="1"/>
     <col min="4" max="8" width="18.7109375" customWidth="1"/>
     <col min="11" max="11" width="9.140625" customWidth="1"/>
@@ -1237,51 +1248,42 @@
         <v>123</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="68"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="13" t="s">
+      <c r="B4" s="67" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="68"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E5" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F5" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G5" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H5" s="14" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="56"/>
-      <c r="L5" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="69" t="s">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E6" s="55" t="s">
         <v>29</v>
@@ -1290,15 +1292,15 @@
       <c r="G6" s="55"/>
       <c r="H6" s="56"/>
       <c r="L6" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="69" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="D7" s="55" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E7" s="55" t="s">
         <v>29</v>
@@ -1306,58 +1308,61 @@
       <c r="F7" s="55"/>
       <c r="G7" s="55"/>
       <c r="H7" s="56"/>
+      <c r="L7" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="8" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="69" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="55">
-        <v>250000</v>
-      </c>
-      <c r="E8" s="55">
-        <v>250000</v>
+        <v>6</v>
+      </c>
+      <c r="D8" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="55" t="s">
+        <v>29</v>
       </c>
       <c r="F8" s="55"/>
       <c r="G8" s="55"/>
       <c r="H8" s="56"/>
-      <c r="L8" t="s">
-        <v>124</v>
-      </c>
     </row>
     <row r="9" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="69" t="s">
-        <v>111</v>
+        <v>4</v>
       </c>
       <c r="D9" s="55">
-        <v>1</v>
+        <v>250000</v>
       </c>
       <c r="E9" s="55">
-        <v>3</v>
+        <v>250000</v>
       </c>
       <c r="F9" s="55"/>
       <c r="G9" s="55"/>
       <c r="H9" s="56"/>
       <c r="L9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="69" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="55" t="s">
-        <v>29</v>
+        <v>111</v>
+      </c>
+      <c r="D10" s="55">
+        <v>1</v>
+      </c>
+      <c r="E10" s="55">
+        <v>3</v>
       </c>
       <c r="F10" s="55"/>
       <c r="G10" s="55"/>
       <c r="H10" s="56"/>
+      <c r="L10" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="11" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="69" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
       <c r="D11" s="55" t="s">
         <v>29</v>
@@ -1371,7 +1376,7 @@
     </row>
     <row r="12" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="69" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" s="55" t="s">
         <v>29</v>
@@ -1382,10 +1387,13 @@
       <c r="F12" s="55"/>
       <c r="G12" s="55"/>
       <c r="H12" s="56"/>
+      <c r="L12" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="13" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="69" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D13" s="55" t="s">
         <v>29</v>
@@ -1396,10 +1404,13 @@
       <c r="F13" s="55"/>
       <c r="G13" s="55"/>
       <c r="H13" s="56"/>
+      <c r="L13" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="14" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="69" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D14" s="55" t="s">
         <v>29</v>
@@ -1413,7 +1424,7 @@
     </row>
     <row r="15" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="69" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" s="55" t="s">
         <v>29</v>
@@ -1424,10 +1435,13 @@
       <c r="F15" s="55"/>
       <c r="G15" s="55"/>
       <c r="H15" s="56"/>
+      <c r="L15" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="69" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="D16" s="55" t="s">
         <v>29</v>
@@ -1438,38 +1452,44 @@
       <c r="F16" s="55"/>
       <c r="G16" s="55"/>
       <c r="H16" s="56"/>
-    </row>
-    <row r="17" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="69" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="D17" s="55" t="s">
         <v>29</v>
       </c>
       <c r="E17" s="55" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="F17" s="55"/>
       <c r="G17" s="55"/>
       <c r="H17" s="56"/>
-    </row>
-    <row r="18" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D18" s="55" t="s">
         <v>29</v>
       </c>
       <c r="E18" s="55" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="F18" s="55"/>
       <c r="G18" s="55"/>
       <c r="H18" s="56"/>
     </row>
-    <row r="19" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D19" s="55" t="s">
         <v>29</v>
@@ -1481,9 +1501,9 @@
       <c r="G19" s="55"/>
       <c r="H19" s="56"/>
     </row>
-    <row r="20" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="69" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20" s="55" t="s">
         <v>29</v>
@@ -1495,9 +1515,9 @@
       <c r="G20" s="55"/>
       <c r="H20" s="56"/>
     </row>
-    <row r="21" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D21" s="55" t="s">
         <v>29</v>
@@ -1509,26 +1529,26 @@
       <c r="G21" s="55"/>
       <c r="H21" s="56"/>
     </row>
-    <row r="22" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="69" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D22" s="55" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E22" s="55" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="F22" s="55"/>
       <c r="G22" s="55"/>
       <c r="H22" s="56"/>
     </row>
-    <row r="23" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="69" t="s">
-        <v>130</v>
+        <v>16</v>
       </c>
       <c r="D23" s="55" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E23" s="55" t="s">
         <v>3</v>
@@ -1537,23 +1557,23 @@
       <c r="G23" s="55"/>
       <c r="H23" s="56"/>
     </row>
-    <row r="24" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="69" t="s">
-        <v>17</v>
+        <v>130</v>
       </c>
       <c r="D24" s="55" t="s">
         <v>29</v>
       </c>
       <c r="E24" s="55" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="F24" s="55"/>
       <c r="G24" s="55"/>
       <c r="H24" s="56"/>
     </row>
-    <row r="25" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="69" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="D25" s="55" t="s">
         <v>29</v>
@@ -1565,31 +1585,51 @@
       <c r="G25" s="55"/>
       <c r="H25" s="56"/>
     </row>
-    <row r="26" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="92" t="s">
+    <row r="26" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="56"/>
+    </row>
+    <row r="27" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="92" t="s">
         <v>99</v>
       </c>
-      <c r="C26" s="93"/>
-      <c r="D26" s="94" t="s">
+      <c r="C27" s="93"/>
+      <c r="D27" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="94" t="s">
+      <c r="E27" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="94"/>
-      <c r="G26" s="94"/>
-      <c r="H26" s="95"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="94"/>
+      <c r="H27" s="95"/>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:H24 D5:H7 D25:D26">
-      <formula1>$L$5:$L$6</formula1>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12:H25 D6:H8 D27">
+      <formula1>$L$6:$L$7</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:H9">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:H10">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
-      <formula1>$L$8:$L$9</formula1>
+      <formula1>$L$9:$L$10</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4">
+      <formula1>$L$12:$L$13</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:H11 D26:H26">
+      <formula1>$L$15:$L$17</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1700,11 +1740,11 @@
       </c>
       <c r="D7" s="16">
         <f>SUM(Calcs!D38, Calcs!D50)</f>
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="E7" s="16">
         <f>SUM(Calcs!E38, Calcs!E50)</f>
-        <v>69400</v>
+        <v>54570</v>
       </c>
       <c r="F7" s="16">
         <f>SUM(Calcs!F38, Calcs!F50)</f>
@@ -2128,11 +2168,11 @@
       </c>
       <c r="D21" s="1">
         <f>SUM(Calcs!D64, Calcs!D74)</f>
-        <v>42000</v>
+        <v>35000</v>
       </c>
       <c r="E21" s="1">
         <f>SUM(Calcs!E64, Calcs!E74)</f>
-        <v>80220</v>
+        <v>61390</v>
       </c>
       <c r="F21" s="1">
         <f>SUM(Calcs!F64, Calcs!F74)</f>
@@ -2167,7 +2207,7 @@
       </c>
       <c r="E22" s="1">
         <f>SUM(Calcs!E65, Calcs!E75)</f>
-        <v>80220</v>
+        <v>61390</v>
       </c>
       <c r="F22" s="1">
         <f>SUM(Calcs!F65, Calcs!F75)</f>
@@ -2347,7 +2387,7 @@
       </c>
       <c r="E29" s="1">
         <f>SUM(Calcs!E102:E106)</f>
-        <v>-24066</v>
+        <v>-18417</v>
       </c>
       <c r="F29" s="1">
         <f>SUM(Calcs!F102:F106)</f>
@@ -2378,7 +2418,7 @@
       </c>
       <c r="D30" s="1">
         <f>Calcs!D111</f>
-        <v>-27000</v>
+        <v>-22500</v>
       </c>
       <c r="E30" s="1">
         <f>Calcs!E111</f>
@@ -2444,11 +2484,11 @@
       </c>
       <c r="D33" s="7">
         <f>SUM(D7:D16, D19:D26, D29:D31)</f>
-        <v>33000</v>
+        <v>27500</v>
       </c>
       <c r="E33" s="7">
         <f>SUM(E7:E16, E19:E26, E29:E30)</f>
-        <v>205774</v>
+        <v>158933</v>
       </c>
       <c r="F33" s="7">
         <f>SUM(F7:F16, F19:F26, F29:F30)</f>
@@ -2516,11 +2556,11 @@
       </c>
       <c r="D38" s="7">
         <f>(D33/12*Inputs!$C$2+D4)*$C$36</f>
-        <v>109000</v>
+        <v>92500</v>
       </c>
       <c r="E38" s="7">
         <f>(E33/12*Inputs!$C$2+E4)*$C$36</f>
-        <v>677322</v>
+        <v>536799</v>
       </c>
       <c r="F38" s="7">
         <f>(F33/12*Inputs!$C$2+F4)*$C$36</f>
@@ -2565,13 +2605,13 @@
     <row r="42" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C42" s="7">
         <f>SUM(Outputs_Timeline!S:S)</f>
-        <v>786322</v>
+        <v>629299</v>
       </c>
     </row>
     <row r="43" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C43" s="52">
         <f>SUM(D38:H38)</f>
-        <v>786322</v>
+        <v>629299</v>
       </c>
       <c r="D43" s="1"/>
       <c r="G43" s="1"/>
@@ -2601,13 +2641,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:N72"/>
+  <dimension ref="B1:Q74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2622,12 +2662,13 @@
     <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="3.85546875" customWidth="1"/>
     <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
     <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
       <c r="F1" s="50" t="s">
         <v>58</v>
       </c>
@@ -2635,7 +2676,7 @@
       <c r="H1" s="50"/>
       <c r="I1" s="50"/>
     </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D2" s="9" t="s">
         <v>44</v>
       </c>
@@ -2665,17 +2706,17 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>76</v>
       </c>
       <c r="D4" s="1">
-        <f>SUMIF(Inputs!$D$5:$H$5, "Y", Outputs_External!D4:'Outputs_External'!H4)</f>
+        <f>SUMIF(Inputs!$D$6:$H$6, "Y", Outputs_External!D4:'Outputs_External'!H4)</f>
         <v>10000</v>
       </c>
       <c r="E4" s="3"/>
@@ -2709,12 +2750,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>77</v>
       </c>
       <c r="D5" s="1">
-        <f>SUMIF(Inputs!$D$5:$H$5, "N", Outputs_External!D4:'Outputs_External'!H4)</f>
+        <f>SUMIF(Inputs!$D$6:$H$6, "N", Outputs_External!D4:'Outputs_External'!H4)</f>
         <v>60000</v>
       </c>
       <c r="E5" s="3"/>
@@ -2748,156 +2789,110 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D6" s="1"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D7" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="99">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="I7" s="51"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C8" s="15" t="s">
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C10" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D10" s="16">
         <f>SUM(Calcs!D14:H14)</f>
-        <v>51000</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="75">
+        <v>45000</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="75">
         <v>0.4</v>
       </c>
-      <c r="G8" s="75">
+      <c r="G10" s="75">
         <v>0.6</v>
       </c>
-      <c r="H8" s="34">
-        <f t="shared" ref="H8:H17" si="1">1-SUM(F8:G8)</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="34">
-        <v>0</v>
-      </c>
-      <c r="K8" s="16">
-        <f>F8*$D8</f>
-        <v>20400</v>
-      </c>
-      <c r="L8" s="16">
-        <f>G8*$D8</f>
-        <v>30600</v>
-      </c>
-      <c r="M8" s="16">
-        <f t="shared" ref="M8:N17" si="2">H8*$D8</f>
-        <v>0</v>
-      </c>
-      <c r="N8" s="16">
-        <f>I8*$D8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C9" s="17" t="s">
+      <c r="H10" s="34">
+        <f t="shared" ref="H10:H19" si="1">1-SUM(F10:G10)</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="34">
+        <v>0</v>
+      </c>
+      <c r="K10" s="16">
+        <f>(IF(Inputs!C4="New York",$H$7,-$H$7)+F10)*$D10</f>
+        <v>21375</v>
+      </c>
+      <c r="L10" s="100">
+        <f>(IF(Inputs!C4="New York",-$H$7,$H$7)+G10)*D10</f>
+        <v>23625</v>
+      </c>
+      <c r="M10" s="16">
+        <f t="shared" ref="M10:N19" si="2">H10*$D10</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="16">
+        <f>I10*$D10</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="101"/>
+      <c r="Q10" s="101"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C11" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D11" s="18">
         <f>SUM(Calcs!D15:H15)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="32">
+      <c r="E11" s="3"/>
+      <c r="F11" s="32">
         <v>0.1</v>
       </c>
-      <c r="G9" s="32">
+      <c r="G11" s="32">
         <v>0.9</v>
-      </c>
-      <c r="H9" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="36">
-        <v>0</v>
-      </c>
-      <c r="K9" s="18">
-        <f t="shared" ref="K9:K17" si="3">F9*$D9</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="18">
-        <f t="shared" ref="L9:L16" si="4">G9*$D9</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N9" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C10" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="18">
-        <f>SUM(Calcs!D16:H16)</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="74">
-        <v>0.45</v>
-      </c>
-      <c r="G10" s="74">
-        <v>0.45</v>
-      </c>
-      <c r="H10" s="36">
-        <v>0</v>
-      </c>
-      <c r="I10" s="36">
-        <v>0.1</v>
-      </c>
-      <c r="K10" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N10" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C11" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="18">
-        <f>SUM(Calcs!D17:H17)</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="32">
-        <v>0.9</v>
-      </c>
-      <c r="G11" s="32">
-        <v>0.1</v>
       </c>
       <c r="H11" s="36">
         <f t="shared" si="1"/>
@@ -2907,11 +2902,11 @@
         <v>0</v>
       </c>
       <c r="K11" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="K11:K19" si="3">F11*$D11</f>
         <v>0</v>
       </c>
       <c r="L11" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="L11:L18" si="4">G11*$D11</f>
         <v>0</v>
       </c>
       <c r="M11" s="18">
@@ -2923,26 +2918,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C12" s="17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" s="18">
-        <f>SUM(Calcs!D18:H18)</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="32">
+        <f>SUM(Calcs!D16:H16)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="74">
+        <v>0.45</v>
+      </c>
+      <c r="G12" s="74">
+        <v>0.45</v>
+      </c>
+      <c r="H12" s="36">
+        <v>0</v>
+      </c>
+      <c r="I12" s="36">
         <v>0.1</v>
-      </c>
-      <c r="G12" s="32">
-        <v>0.9</v>
-      </c>
-      <c r="H12" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="36">
-        <v>0</v>
       </c>
       <c r="K12" s="18">
         <f t="shared" si="3"/>
@@ -2961,22 +2956,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C13" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D13" s="18">
-        <f>SUM(Calcs!D19:H19)</f>
+        <f>SUM(Calcs!D17:H17)</f>
         <v>0</v>
       </c>
       <c r="F13" s="32">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="G13" s="32">
         <v>0.1</v>
       </c>
       <c r="H13" s="36">
-        <v>0.8</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="I13" s="36">
         <v>0</v>
@@ -2994,23 +2990,23 @@
         <v>0</v>
       </c>
       <c r="N13" s="18">
-        <f>I13*$D13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C14" s="17" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="D14" s="18">
-        <f>SUM(Calcs!D20:H20)</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="74">
-        <v>0.6</v>
-      </c>
-      <c r="G14" s="74">
-        <v>0.4</v>
+        <f>SUM(Calcs!D18:H18)</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="32">
+        <v>0.65</v>
+      </c>
+      <c r="G14" s="32">
+        <v>0.35</v>
       </c>
       <c r="H14" s="36">
         <f t="shared" si="1"/>
@@ -3036,89 +3032,88 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C15" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="20">
-        <f>SUM(Calcs!D21:H21)</f>
-        <v>24000</v>
-      </c>
-      <c r="F15" s="33">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C15" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="18">
+        <f>SUM(Calcs!D19:H19)</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="32">
         <v>0.1</v>
       </c>
-      <c r="G15" s="33">
+      <c r="G15" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="H15" s="36">
+        <v>0.8</v>
+      </c>
+      <c r="I15" s="36">
+        <v>0</v>
+      </c>
+      <c r="K15" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="18">
+        <f>I15*$D15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C16" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="18">
+        <f>SUM(Calcs!D20:H20)</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="74">
         <v>0.9</v>
       </c>
-      <c r="H15" s="37">
+      <c r="G16" s="74">
+        <v>0.1</v>
+      </c>
+      <c r="H16" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I15" s="37">
-        <v>0</v>
-      </c>
-      <c r="K15" s="20">
+      <c r="I16" s="36">
+        <v>0</v>
+      </c>
+      <c r="K16" s="18">
         <f t="shared" si="3"/>
-        <v>2400</v>
-      </c>
-      <c r="L15" s="20">
+        <v>0</v>
+      </c>
+      <c r="L16" s="18">
         <f t="shared" si="4"/>
-        <v>21600</v>
-      </c>
-      <c r="M15" s="20">
+        <v>0</v>
+      </c>
+      <c r="M16" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N15" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C16" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="20">
-        <f>SUM(Calcs!D22:H22)</f>
-        <v>12000</v>
-      </c>
-      <c r="F16" s="33">
-        <v>0.1</v>
-      </c>
-      <c r="G16" s="33">
-        <v>0.9</v>
-      </c>
-      <c r="H16" s="37">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="37">
-        <v>0</v>
-      </c>
-      <c r="K16" s="20">
-        <f t="shared" si="3"/>
-        <v>1200</v>
-      </c>
-      <c r="L16" s="20">
-        <f t="shared" si="4"/>
-        <v>10800</v>
-      </c>
-      <c r="M16" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N16" s="20">
+      <c r="N16" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C17" s="19" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D17" s="20">
-        <f>SUM(Calcs!D23:H23)</f>
-        <v>6000</v>
+        <f>SUM(Calcs!D21:H21)</f>
+        <v>20000</v>
       </c>
       <c r="F17" s="33">
         <v>0.1</v>
@@ -3135,11 +3130,11 @@
       </c>
       <c r="K17" s="20">
         <f t="shared" si="3"/>
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="L17" s="20">
-        <f>G17*$D17</f>
-        <v>5400</v>
+        <f t="shared" si="4"/>
+        <v>18000</v>
       </c>
       <c r="M17" s="20">
         <f t="shared" si="2"/>
@@ -3151,25 +3146,80 @@
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
+      <c r="C18" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="20">
+        <f>SUM(Calcs!D22:H22)</f>
+        <v>10000</v>
+      </c>
+      <c r="F18" s="33">
+        <v>0.1</v>
+      </c>
+      <c r="G18" s="33">
+        <v>0.9</v>
+      </c>
+      <c r="H18" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="37">
+        <v>0</v>
+      </c>
+      <c r="K18" s="20">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="L18" s="20">
+        <f t="shared" si="4"/>
+        <v>9000</v>
+      </c>
+      <c r="M18" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="G19" s="48" t="s">
-        <v>129</v>
-      </c>
-      <c r="H19" s="10">
+      <c r="C19" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="20">
+        <f>SUM(Calcs!D23:H23)</f>
+        <v>5000</v>
+      </c>
+      <c r="F19" s="33">
         <v>0.1</v>
       </c>
-      <c r="I19" s="10"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
+      <c r="G19" s="33">
+        <v>0.9</v>
+      </c>
+      <c r="H19" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="37">
+        <v>0</v>
+      </c>
+      <c r="K19" s="20">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="L19" s="20">
+        <f>G19*$D19</f>
+        <v>4500</v>
+      </c>
+      <c r="M19" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F20" s="11"/>
@@ -3181,158 +3231,96 @@
       <c r="M20" s="9"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
+      <c r="G21" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="H21" s="99">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="I21" s="10"/>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C22" s="15" t="s">
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C24" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D24" s="16">
         <f>SUM(Calcs!D26:H26)</f>
-        <v>36400</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="34">
-        <f>(1-G22)*F8/SUM(F8,H8)</f>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="G22" s="34">
-        <f t="shared" ref="G22:G31" si="5">MIN(1,G8+$H$19)</f>
-        <v>0.7</v>
-      </c>
-      <c r="H22" s="34">
-        <f t="shared" ref="H22:H31" si="6">IF(H8=0, 0,(1-G22)*H8/SUM(F8,H8))</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="34">
-        <f t="shared" ref="I22:I31" si="7">IF(I8=0, 0,(1-G22)*I8/SUM(F8,I8))</f>
-        <v>0</v>
-      </c>
-      <c r="K22" s="16">
-        <f>F22*$D22</f>
-        <v>10920.000000000002</v>
-      </c>
-      <c r="L22" s="16">
-        <f t="shared" ref="L22:L31" si="8">G22*$D22</f>
-        <v>25480</v>
-      </c>
-      <c r="M22" s="16">
-        <f>H22*$D22</f>
-        <v>0</v>
-      </c>
-      <c r="N22" s="16">
-        <f>I22*$D22</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C23" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="18">
-        <f>SUM(Calcs!D27:H27)</f>
-        <v>0</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="36">
-        <f>(1-G23)*F9/SUM(F9,H9)</f>
-        <v>0</v>
-      </c>
-      <c r="G23" s="36">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="H23" s="36">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="36">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="18">
-        <f t="shared" ref="K23:K31" si="9">F23*$D23</f>
-        <v>0</v>
-      </c>
-      <c r="L23" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M23" s="18">
-        <f t="shared" ref="M23:N31" si="10">H23*$D23</f>
-        <v>0</v>
-      </c>
-      <c r="N23" s="18">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C24" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="18">
-        <f>SUM(Calcs!D28:H28)</f>
-        <v>0</v>
+        <v>24570.000000000004</v>
       </c>
       <c r="E24" s="3"/>
-      <c r="F24" s="36">
-        <f>(1-G24)*F10/SUM(F10,H10, I10)</f>
-        <v>0.36818181818181811</v>
-      </c>
-      <c r="G24" s="36">
-        <f t="shared" si="5"/>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="H24" s="36">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="36">
-        <f t="shared" si="7"/>
-        <v>8.1818181818181804E-2</v>
-      </c>
-      <c r="K24" s="18">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L24" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M24" s="18">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N24" s="18">
-        <f t="shared" si="10"/>
+      <c r="F24" s="34">
+        <f>(1-G24)*F10/SUM(F10,H10)</f>
+        <v>0.32500000000000007</v>
+      </c>
+      <c r="G24" s="34">
+        <f t="shared" ref="G24:G33" si="5">MIN(1,G10+$H$21)</f>
+        <v>0.67499999999999993</v>
+      </c>
+      <c r="H24" s="34">
+        <f t="shared" ref="H24:H33" si="6">IF(H10=0, 0,(1-G24)*H10/SUM(F10,H10))</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="34">
+        <f t="shared" ref="I24:I33" si="7">IF(I10=0, 0,(1-G24)*I10/SUM(F10,I10))</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="16">
+        <f>(IF(Inputs!C4="New York",$H$7,-$H$7)+F24)*$D24</f>
+        <v>9828.0000000000036</v>
+      </c>
+      <c r="L24" s="16">
+        <f>(IF(Inputs!C4="New York",-$H$7,$H$7)+G24)*$D24</f>
+        <v>14742.000000000002</v>
+      </c>
+      <c r="M24" s="16">
+        <f>H24*$D24</f>
+        <v>0</v>
+      </c>
+      <c r="N24" s="16">
+        <f>I24*$D24</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C25" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D25" s="18">
-        <f>SUM(Calcs!D29:H29)</f>
-        <v>0</v>
-      </c>
+        <f>SUM(Calcs!D27:H27)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="3"/>
       <c r="F25" s="36">
-        <f t="shared" ref="F25:F31" si="11">(1-G25)*F11/SUM(F11,H11)</f>
-        <v>0.8</v>
+        <f>(1-G25)*F11/SUM(F11,H11)</f>
+        <v>2.5000000000000022E-2</v>
       </c>
       <c r="G25" s="36">
         <f t="shared" si="5"/>
-        <v>0.2</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="H25" s="36">
         <f t="shared" si="6"/>
@@ -3343,15 +3331,15 @@
         <v>0</v>
       </c>
       <c r="K25" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="K25:K33" si="8">F25*$D25</f>
         <v>0</v>
       </c>
       <c r="L25" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="L24:L33" si="9">G25*$D25</f>
         <v>0</v>
       </c>
       <c r="M25" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="M25:N33" si="10">H25*$D25</f>
         <v>0</v>
       </c>
       <c r="N25" s="18">
@@ -3361,19 +3349,20 @@
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C26" s="17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D26" s="18">
-        <f>SUM(Calcs!D30:H30)</f>
-        <v>0</v>
-      </c>
+        <f>SUM(Calcs!D28:H28)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="3"/>
       <c r="F26" s="36">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f>(1-G26)*F12/SUM(F12,H12, I12)</f>
+        <v>0.38863636363636361</v>
       </c>
       <c r="G26" s="36">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="H26" s="36">
         <f t="shared" si="6"/>
@@ -3381,14 +3370,14 @@
       </c>
       <c r="I26" s="36">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>8.6363636363636351E-2</v>
       </c>
       <c r="K26" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="18">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="18">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M26" s="18">
@@ -3402,34 +3391,34 @@
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C27" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D27" s="18">
-        <f>SUM(Calcs!D31:H31)</f>
+        <f>SUM(Calcs!D29:H29)</f>
         <v>0</v>
       </c>
       <c r="F27" s="36">
-        <f t="shared" si="11"/>
-        <v>8.8888888888888906E-2</v>
+        <f t="shared" ref="F27:F33" si="11">(1-G27)*F13/SUM(F13,H13)</f>
+        <v>0.82499999999999996</v>
       </c>
       <c r="G27" s="36">
         <f t="shared" si="5"/>
-        <v>0.2</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="H27" s="36">
         <f t="shared" si="6"/>
-        <v>0.71111111111111125</v>
+        <v>0</v>
       </c>
       <c r="I27" s="36">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K27" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="18">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L27" s="18">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M27" s="18">
@@ -3443,19 +3432,19 @@
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C28" s="17" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="D28" s="18">
-        <f>SUM(Calcs!D32:H32)</f>
+        <f>SUM(Calcs!D30:H30)</f>
         <v>0</v>
       </c>
       <c r="F28" s="36">
         <f t="shared" si="11"/>
-        <v>0.5</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="G28" s="36">
         <f t="shared" si="5"/>
-        <v>0.5</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="H28" s="36">
         <f t="shared" si="6"/>
@@ -3466,11 +3455,11 @@
         <v>0</v>
       </c>
       <c r="K28" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="18">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L28" s="18">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M28" s="18">
@@ -3483,307 +3472,314 @@
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="18">
+        <f>SUM(Calcs!D31:H31)</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="36">
+        <f t="shared" si="11"/>
+        <v>9.1666666666666674E-2</v>
+      </c>
+      <c r="G29" s="36">
+        <f t="shared" si="5"/>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="H29" s="36">
+        <f t="shared" si="6"/>
+        <v>0.73333333333333339</v>
+      </c>
+      <c r="I29" s="36">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N29" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C30" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="18">
+        <f>SUM(Calcs!D32:H32)</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="36">
+        <f t="shared" si="11"/>
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="G30" s="36">
+        <f t="shared" si="5"/>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="H30" s="36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="36">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C31" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="20">
+      <c r="D31" s="20">
         <f>SUM(Calcs!D33:H33)</f>
-        <v>22750</v>
-      </c>
-      <c r="F29" s="37">
+        <v>16380</v>
+      </c>
+      <c r="F31" s="37">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="37">
+        <v>2.5000000000000022E-2</v>
+      </c>
+      <c r="G31" s="37">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="H29" s="37">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="H31" s="37">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I29" s="37">
+      <c r="I31" s="37">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K29" s="20">
+      <c r="K31" s="20">
+        <f t="shared" si="8"/>
+        <v>409.50000000000034</v>
+      </c>
+      <c r="L31" s="20">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L29" s="20">
+        <v>15970.5</v>
+      </c>
+      <c r="M31" s="20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C32" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="20">
+        <f>SUM(Calcs!D34:H34)</f>
+        <v>6370.0000000000009</v>
+      </c>
+      <c r="F32" s="37">
+        <f t="shared" si="11"/>
+        <v>2.5000000000000022E-2</v>
+      </c>
+      <c r="G32" s="37">
+        <f t="shared" si="5"/>
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="H32" s="37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="37">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="20">
         <f t="shared" si="8"/>
-        <v>22750</v>
-      </c>
-      <c r="M29" s="20">
+        <v>159.25000000000017</v>
+      </c>
+      <c r="L32" s="20">
+        <f t="shared" si="9"/>
+        <v>6210.7500000000009</v>
+      </c>
+      <c r="M32" s="20">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N29" s="20">
+      <c r="N32" s="20">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C30" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="20">
-        <f>SUM(Calcs!D34:H34)</f>
-        <v>9100</v>
-      </c>
-      <c r="F30" s="37">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C33" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="29">
+        <f>SUM(Calcs!D35:H35)</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="35">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="37">
+        <v>2.5000000000000022E-2</v>
+      </c>
+      <c r="G33" s="35">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="H30" s="37">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="H33" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I30" s="37">
+      <c r="I33" s="35">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K30" s="20">
+      <c r="K33" s="29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="29">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L30" s="20">
-        <f t="shared" si="8"/>
-        <v>9100</v>
-      </c>
-      <c r="M30" s="20">
+      <c r="M33" s="29">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N30" s="20">
+      <c r="N33" s="29">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C31" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" s="29">
-        <f>SUM(Calcs!D35:H35)</f>
-        <v>0</v>
-      </c>
-      <c r="F31" s="35">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="35">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="H31" s="35">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="35">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="29">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L31" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M31" s="29">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N31" s="29">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="6" t="s">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C34" s="17" t="s">
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C36" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="18">
+      <c r="D36" s="18">
         <f>SUM(Calcs!D82:H82)</f>
         <v>0</v>
       </c>
-      <c r="F34" s="32">
+      <c r="F36" s="32">
         <v>0.9</v>
       </c>
-      <c r="G34" s="32">
+      <c r="G36" s="32">
         <v>0.1</v>
       </c>
-      <c r="H34" s="36">
-        <f>1-SUM(F34:G34)</f>
-        <v>0</v>
-      </c>
-      <c r="I34" s="36">
-        <v>0</v>
-      </c>
-      <c r="K34" s="18">
-        <f t="shared" ref="K34:N41" si="12">F34*$D34</f>
-        <v>0</v>
-      </c>
-      <c r="L34" s="18">
+      <c r="H36" s="36">
+        <f>1-SUM(F36:G36)</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="36">
+        <v>0</v>
+      </c>
+      <c r="K36" s="18">
+        <f t="shared" ref="K36:N43" si="12">F36*$D36</f>
+        <v>0</v>
+      </c>
+      <c r="L36" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="M34" s="18">
+      <c r="M36" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N34" s="18">
+      <c r="N36" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C35" s="17" t="s">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C37" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D35" s="18">
+      <c r="D37" s="18">
         <f>SUM(Calcs!D83:H83)</f>
         <v>0</v>
       </c>
-      <c r="F35" s="32">
+      <c r="F37" s="32">
         <v>0.9</v>
       </c>
-      <c r="G35" s="32">
+      <c r="G37" s="32">
         <v>0.1</v>
       </c>
-      <c r="H35" s="36">
-        <f>1-SUM(F35:G35)</f>
-        <v>0</v>
-      </c>
-      <c r="I35" s="36">
-        <v>0</v>
-      </c>
-      <c r="K35" s="18">
+      <c r="H37" s="36">
+        <f>1-SUM(F37:G37)</f>
+        <v>0</v>
+      </c>
+      <c r="I37" s="36">
+        <v>0</v>
+      </c>
+      <c r="K37" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L35" s="18">
+      <c r="L37" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="M35" s="18">
+      <c r="M37" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N35" s="18">
+      <c r="N37" s="18">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C36" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" s="20">
-        <f>SUM(Calcs!D84:H84)</f>
-        <v>42000</v>
-      </c>
-      <c r="F36" s="33">
-        <v>0.1</v>
-      </c>
-      <c r="G36" s="33">
-        <v>0.9</v>
-      </c>
-      <c r="H36" s="37">
-        <f t="shared" ref="H36:H41" si="13">1-SUM(F36:G36)</f>
-        <v>0</v>
-      </c>
-      <c r="I36" s="37">
-        <v>0</v>
-      </c>
-      <c r="K36" s="20">
-        <f t="shared" si="12"/>
-        <v>4200</v>
-      </c>
-      <c r="L36" s="20">
-        <f t="shared" si="12"/>
-        <v>37800</v>
-      </c>
-      <c r="M36" s="20">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N36" s="20">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C37" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="D37" s="20">
-        <f>SUM(Calcs!D85:H85)</f>
-        <v>42000</v>
-      </c>
-      <c r="F37" s="33">
-        <v>0.1</v>
-      </c>
-      <c r="G37" s="33">
-        <v>0.9</v>
-      </c>
-      <c r="H37" s="37">
-        <v>0</v>
-      </c>
-      <c r="I37" s="37">
-        <v>0</v>
-      </c>
-      <c r="K37" s="20">
-        <f t="shared" ref="K37" si="14">F37*$D37</f>
-        <v>4200</v>
-      </c>
-      <c r="L37" s="20">
-        <f t="shared" ref="L37" si="15">G37*$D37</f>
-        <v>37800</v>
-      </c>
-      <c r="M37" s="20">
-        <f t="shared" ref="M37" si="16">H37*$D37</f>
-        <v>0</v>
-      </c>
-      <c r="N37" s="20">
-        <f t="shared" ref="N37" si="17">I37*$D37</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C38" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D38" s="20">
-        <f>SUM(Calcs!D86:H86)</f>
-        <v>0</v>
+        <f>SUM(Calcs!D84:H84)</f>
+        <v>35000</v>
       </c>
       <c r="F38" s="33">
         <v>0.1</v>
@@ -3792,36 +3788,36 @@
         <v>0.9</v>
       </c>
       <c r="H38" s="37">
-        <f t="shared" ref="H38" si="18">1-SUM(F38:G38)</f>
+        <f t="shared" ref="H38:H43" si="13">1-SUM(F38:G38)</f>
         <v>0</v>
       </c>
       <c r="I38" s="37">
         <v>0</v>
       </c>
       <c r="K38" s="20">
-        <f t="shared" ref="K38" si="19">F38*$D38</f>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>3500</v>
       </c>
       <c r="L38" s="20">
-        <f t="shared" ref="L38" si="20">G38*$D38</f>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>31500</v>
       </c>
       <c r="M38" s="20">
-        <f t="shared" ref="M38" si="21">H38*$D38</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N38" s="20">
-        <f t="shared" ref="N38" si="22">I38*$D38</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C39" s="19" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="D39" s="20">
-        <f>SUM(Calcs!D87:H87)</f>
-        <v>0</v>
+        <f>SUM(Calcs!D85:H85)</f>
+        <v>35000</v>
       </c>
       <c r="F39" s="33">
         <v>0.1</v>
@@ -3830,35 +3826,34 @@
         <v>0.9</v>
       </c>
       <c r="H39" s="37">
-        <f t="shared" ref="H39:H40" si="23">1-SUM(F39:G39)</f>
         <v>0</v>
       </c>
       <c r="I39" s="37">
         <v>0</v>
       </c>
       <c r="K39" s="20">
-        <f t="shared" ref="K39:K40" si="24">F39*$D39</f>
-        <v>0</v>
+        <f t="shared" ref="K39" si="14">F39*$D39</f>
+        <v>3500</v>
       </c>
       <c r="L39" s="20">
-        <f t="shared" ref="L39:L40" si="25">G39*$D39</f>
-        <v>0</v>
+        <f t="shared" ref="L39" si="15">G39*$D39</f>
+        <v>31500</v>
       </c>
       <c r="M39" s="20">
-        <f t="shared" ref="M39:M40" si="26">H39*$D39</f>
+        <f t="shared" ref="M39" si="16">H39*$D39</f>
         <v>0</v>
       </c>
       <c r="N39" s="20">
-        <f t="shared" ref="N39:N40" si="27">I39*$D39</f>
+        <f t="shared" ref="N39" si="17">I39*$D39</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C40" s="19" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="D40" s="20">
-        <f>SUM(Calcs!D88:H88)</f>
+        <f>SUM(Calcs!D86:H86)</f>
         <v>0</v>
       </c>
       <c r="F40" s="33">
@@ -3868,259 +3863,255 @@
         <v>0.9</v>
       </c>
       <c r="H40" s="37">
+        <f t="shared" ref="H40" si="18">1-SUM(F40:G40)</f>
+        <v>0</v>
+      </c>
+      <c r="I40" s="37">
+        <v>0</v>
+      </c>
+      <c r="K40" s="20">
+        <f t="shared" ref="K40" si="19">F40*$D40</f>
+        <v>0</v>
+      </c>
+      <c r="L40" s="20">
+        <f t="shared" ref="L40" si="20">G40*$D40</f>
+        <v>0</v>
+      </c>
+      <c r="M40" s="20">
+        <f t="shared" ref="M40" si="21">H40*$D40</f>
+        <v>0</v>
+      </c>
+      <c r="N40" s="20">
+        <f t="shared" ref="N40" si="22">I40*$D40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C41" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D41" s="20">
+        <f>SUM(Calcs!D87:H87)</f>
+        <v>0</v>
+      </c>
+      <c r="F41" s="33">
+        <v>0.1</v>
+      </c>
+      <c r="G41" s="33">
+        <v>0.9</v>
+      </c>
+      <c r="H41" s="37">
+        <f t="shared" ref="H41:H42" si="23">1-SUM(F41:G41)</f>
+        <v>0</v>
+      </c>
+      <c r="I41" s="37">
+        <v>0</v>
+      </c>
+      <c r="K41" s="20">
+        <f t="shared" ref="K41:K42" si="24">F41*$D41</f>
+        <v>0</v>
+      </c>
+      <c r="L41" s="20">
+        <f t="shared" ref="L41:L42" si="25">G41*$D41</f>
+        <v>0</v>
+      </c>
+      <c r="M41" s="20">
+        <f t="shared" ref="M41:M42" si="26">H41*$D41</f>
+        <v>0</v>
+      </c>
+      <c r="N41" s="20">
+        <f t="shared" ref="N41:N42" si="27">I41*$D41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C42" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D42" s="20">
+        <f>SUM(Calcs!D88:H88)</f>
+        <v>0</v>
+      </c>
+      <c r="F42" s="33">
+        <v>0.1</v>
+      </c>
+      <c r="G42" s="33">
+        <v>0.9</v>
+      </c>
+      <c r="H42" s="37">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="I40" s="37">
-        <v>0</v>
-      </c>
-      <c r="K40" s="20">
+      <c r="I42" s="37">
+        <v>0</v>
+      </c>
+      <c r="K42" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="L40" s="20">
+      <c r="L42" s="20">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="M40" s="20">
+      <c r="M42" s="20">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="N40" s="20">
+      <c r="N42" s="20">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C41" s="81" t="s">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C43" s="81" t="s">
         <v>98</v>
       </c>
-      <c r="D41" s="84">
+      <c r="D43" s="84">
         <f>SUM(Calcs!D89:H89)</f>
         <v>0</v>
       </c>
-      <c r="F41" s="85">
-        <v>0.2</v>
-      </c>
-      <c r="G41" s="85">
-        <v>0.8</v>
-      </c>
-      <c r="H41" s="86">
+      <c r="F43" s="85">
+        <v>0.1</v>
+      </c>
+      <c r="G43" s="85">
+        <v>0.9</v>
+      </c>
+      <c r="H43" s="86">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I41" s="86">
-        <v>0</v>
-      </c>
-      <c r="K41" s="84">
+      <c r="I43" s="86">
+        <v>0</v>
+      </c>
+      <c r="K43" s="84">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L41" s="84">
+      <c r="L43" s="84">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="M41" s="84">
+      <c r="M43" s="84">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N41" s="84">
+      <c r="N43" s="84">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="9"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B43" s="6" t="s">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B45" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C44" s="28" t="s">
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C46" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D44" s="29">
+      <c r="D46" s="29">
         <f>SUM(Calcs!D92:H92)</f>
         <v>0</v>
       </c>
-      <c r="F44" s="49">
-        <f t="shared" ref="F44:F50" si="28">IFERROR((1-G44)*F34/SUM(F34,H34),0)</f>
-        <v>0.8</v>
-      </c>
-      <c r="G44" s="49">
-        <f t="shared" ref="G44:G50" si="29">MIN(1,G34+$H$19)</f>
-        <v>0.2</v>
-      </c>
-      <c r="H44" s="49">
-        <f t="shared" ref="H44:H50" si="30">IFERROR((1-G44)*H34/SUM(F34,H34),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I44" s="49">
-        <v>0</v>
-      </c>
-      <c r="K44" s="29">
-        <f>F44*$D44</f>
-        <v>0</v>
-      </c>
-      <c r="L44" s="29">
-        <f t="shared" ref="L44:L48" si="31">G44*$D44</f>
-        <v>0</v>
-      </c>
-      <c r="M44" s="29">
-        <f>H44*$D44</f>
-        <v>0</v>
-      </c>
-      <c r="N44" s="29">
-        <f>I44*$D44</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C45" s="17" t="s">
+      <c r="F46" s="49">
+        <f t="shared" ref="F46:F52" si="28">IFERROR((1-G46)*F36/SUM(F36,H36),0)</f>
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="G46" s="49">
+        <f t="shared" ref="G46:G52" si="29">MIN(1,G36+$H$21)</f>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="H46" s="49">
+        <f t="shared" ref="H46:H52" si="30">IFERROR((1-G46)*H36/SUM(F36,H36),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I46" s="49">
+        <v>0</v>
+      </c>
+      <c r="K46" s="29">
+        <f>F46*$D46</f>
+        <v>0</v>
+      </c>
+      <c r="L46" s="29">
+        <f t="shared" ref="L46:L50" si="31">G46*$D46</f>
+        <v>0</v>
+      </c>
+      <c r="M46" s="29">
+        <f>H46*$D46</f>
+        <v>0</v>
+      </c>
+      <c r="N46" s="29">
+        <f>I46*$D46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C47" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D45" s="18">
+      <c r="D47" s="18">
         <f>SUM(Calcs!D93:H93)</f>
         <v>0</v>
       </c>
-      <c r="F45" s="30">
+      <c r="F47" s="30">
         <f t="shared" si="28"/>
-        <v>0.8</v>
-      </c>
-      <c r="G45" s="30">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="G47" s="30">
         <f t="shared" si="29"/>
-        <v>0.2</v>
-      </c>
-      <c r="H45" s="30">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="H47" s="30">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="I45" s="30">
-        <v>0</v>
-      </c>
-      <c r="K45" s="18">
-        <f>F45*$D45</f>
-        <v>0</v>
-      </c>
-      <c r="L45" s="18">
+      <c r="I47" s="30">
+        <v>0</v>
+      </c>
+      <c r="K47" s="18">
+        <f>F47*$D47</f>
+        <v>0</v>
+      </c>
+      <c r="L47" s="18">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="M45" s="18">
-        <f t="shared" ref="M45:N48" si="32">H45*$D45</f>
-        <v>0</v>
-      </c>
-      <c r="N45" s="18">
+      <c r="M47" s="18">
+        <f t="shared" ref="M47:N50" si="32">H47*$D47</f>
+        <v>0</v>
+      </c>
+      <c r="N47" s="18">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C46" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D46" s="20">
-        <f>SUM(Calcs!D94:H94)</f>
-        <v>6370</v>
-      </c>
-      <c r="F46" s="31">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="G46" s="31">
-        <f t="shared" si="29"/>
-        <v>1</v>
-      </c>
-      <c r="H46" s="31">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="I46" s="31">
-        <v>0</v>
-      </c>
-      <c r="K46" s="20">
-        <f t="shared" ref="K46:K48" si="33">F46*$D46</f>
-        <v>0</v>
-      </c>
-      <c r="L46" s="20">
-        <f t="shared" si="31"/>
-        <v>6370</v>
-      </c>
-      <c r="M46" s="20">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="N46" s="20">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C47" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="D47" s="20">
-        <f>SUM(Calcs!D95:H95)</f>
-        <v>38220</v>
-      </c>
-      <c r="F47" s="31">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="G47" s="31">
-        <f t="shared" si="29"/>
-        <v>1</v>
-      </c>
-      <c r="H47" s="31">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="I47" s="31">
-        <v>0</v>
-      </c>
-      <c r="K47" s="20">
-        <f t="shared" ref="K47" si="34">F47*$D47</f>
-        <v>0</v>
-      </c>
-      <c r="L47" s="20">
-        <f t="shared" ref="L47" si="35">G47*$D47</f>
-        <v>38220</v>
-      </c>
-      <c r="M47" s="20">
-        <f t="shared" ref="M47" si="36">H47*$D47</f>
-        <v>0</v>
-      </c>
-      <c r="N47" s="20">
-        <f t="shared" ref="N47" si="37">I47*$D47</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C48" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D48" s="20">
-        <f>SUM(Calcs!D96:H96)</f>
-        <v>0</v>
+        <f>SUM(Calcs!D94:H94)</f>
+        <v>3639.9999999999964</v>
       </c>
       <c r="F48" s="31">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>2.5000000000000022E-2</v>
       </c>
       <c r="G48" s="31">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="H48" s="31">
         <f t="shared" si="30"/>
@@ -4130,12 +4121,12 @@
         <v>0</v>
       </c>
       <c r="K48" s="20">
-        <f t="shared" si="33"/>
-        <v>0</v>
+        <f t="shared" ref="K48:K50" si="33">F48*$D48</f>
+        <v>90.999999999999986</v>
       </c>
       <c r="L48" s="20">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>3548.9999999999964</v>
       </c>
       <c r="M48" s="20">
         <f t="shared" si="32"/>
@@ -4148,19 +4139,19 @@
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C49" s="19" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="D49" s="20">
-        <f>SUM(Calcs!D97:H97)</f>
-        <v>0</v>
+        <f>SUM(Calcs!D95:H95)</f>
+        <v>26389.999999999996</v>
       </c>
       <c r="F49" s="31">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>2.5000000000000022E-2</v>
       </c>
       <c r="G49" s="31">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="H49" s="31">
         <f t="shared" si="30"/>
@@ -4170,37 +4161,37 @@
         <v>0</v>
       </c>
       <c r="K49" s="20">
-        <f t="shared" ref="K49:K50" si="38">F49*$D49</f>
-        <v>0</v>
+        <f t="shared" ref="K49" si="34">F49*$D49</f>
+        <v>659.75000000000045</v>
       </c>
       <c r="L49" s="20">
-        <f t="shared" ref="L49:L50" si="39">G49*$D49</f>
-        <v>0</v>
+        <f t="shared" ref="L49" si="35">G49*$D49</f>
+        <v>25730.249999999996</v>
       </c>
       <c r="M49" s="20">
-        <f t="shared" ref="M49:M50" si="40">H49*$D49</f>
+        <f t="shared" ref="M49" si="36">H49*$D49</f>
         <v>0</v>
       </c>
       <c r="N49" s="20">
-        <f t="shared" ref="N49:N50" si="41">I49*$D49</f>
+        <f t="shared" ref="N49" si="37">I49*$D49</f>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C50" s="19" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="D50" s="20">
-        <f>SUM(Calcs!D98:H98)</f>
+        <f>SUM(Calcs!D96:H96)</f>
         <v>0</v>
       </c>
       <c r="F50" s="31">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>2.5000000000000022E-2</v>
       </c>
       <c r="G50" s="31">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="H50" s="31">
         <f t="shared" si="30"/>
@@ -4210,429 +4201,421 @@
         <v>0</v>
       </c>
       <c r="K50" s="20">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="L50" s="20">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="M50" s="20">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="N50" s="20">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C51" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D51" s="20">
+        <f>SUM(Calcs!D97:H97)</f>
+        <v>0</v>
+      </c>
+      <c r="F51" s="31">
+        <f t="shared" si="28"/>
+        <v>2.5000000000000022E-2</v>
+      </c>
+      <c r="G51" s="31">
+        <f t="shared" si="29"/>
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="H51" s="31">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="I51" s="31">
+        <v>0</v>
+      </c>
+      <c r="K51" s="20">
+        <f t="shared" ref="K51:K52" si="38">F51*$D51</f>
+        <v>0</v>
+      </c>
+      <c r="L51" s="20">
+        <f t="shared" ref="L51:L52" si="39">G51*$D51</f>
+        <v>0</v>
+      </c>
+      <c r="M51" s="20">
+        <f t="shared" ref="M51:M52" si="40">H51*$D51</f>
+        <v>0</v>
+      </c>
+      <c r="N51" s="20">
+        <f t="shared" ref="N51:N52" si="41">I51*$D51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C52" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D52" s="20">
+        <f>SUM(Calcs!D98:H98)</f>
+        <v>0</v>
+      </c>
+      <c r="F52" s="31">
+        <f t="shared" si="28"/>
+        <v>2.5000000000000022E-2</v>
+      </c>
+      <c r="G52" s="31">
+        <f t="shared" si="29"/>
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="H52" s="31">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="I52" s="31">
+        <v>0</v>
+      </c>
+      <c r="K52" s="20">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="L50" s="20">
+      <c r="L52" s="20">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="M50" s="20">
+      <c r="M52" s="20">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="N50" s="20">
+      <c r="N52" s="20">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C51" s="81" t="s">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C53" s="81" t="s">
         <v>98</v>
       </c>
-      <c r="D51" s="84">
+      <c r="D53" s="84">
         <f>SUM(Calcs!D99:H99)</f>
         <v>0</v>
       </c>
-      <c r="F51" s="87">
-        <f t="shared" ref="F51" si="42">IFERROR((1-G51)*F41/SUM(F41,H41),0)</f>
-        <v>9.9999999999999978E-2</v>
-      </c>
-      <c r="G51" s="87">
-        <f t="shared" ref="G51" si="43">MIN(1,G41+$H$19)</f>
-        <v>0.9</v>
-      </c>
-      <c r="H51" s="87">
-        <f t="shared" ref="H51" si="44">IFERROR((1-G51)*H41/SUM(F41,H41),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I51" s="87">
-        <v>0</v>
-      </c>
-      <c r="K51" s="84">
-        <f t="shared" ref="K51" si="45">F51*$D51</f>
-        <v>0</v>
-      </c>
-      <c r="L51" s="84">
-        <f t="shared" ref="L51" si="46">G51*$D51</f>
-        <v>0</v>
-      </c>
-      <c r="M51" s="84">
-        <f t="shared" ref="M51" si="47">H51*$D51</f>
-        <v>0</v>
-      </c>
-      <c r="N51" s="84">
-        <f t="shared" ref="N51" si="48">I51*$D51</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="K52" s="9"/>
-      <c r="L52" s="9"/>
-      <c r="M52" s="9"/>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B53" s="6" t="s">
+      <c r="F53" s="87">
+        <f t="shared" ref="F53" si="42">IFERROR((1-G53)*F43/SUM(F43,H43),0)</f>
+        <v>2.5000000000000022E-2</v>
+      </c>
+      <c r="G53" s="87">
+        <f t="shared" ref="G53" si="43">MIN(1,G43+$H$21)</f>
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="H53" s="87">
+        <f t="shared" ref="H53" si="44">IFERROR((1-G53)*H43/SUM(F43,H43),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I53" s="87">
+        <v>0</v>
+      </c>
+      <c r="K53" s="84">
+        <f t="shared" ref="K53" si="45">F53*$D53</f>
+        <v>0</v>
+      </c>
+      <c r="L53" s="84">
+        <f t="shared" ref="L53" si="46">G53*$D53</f>
+        <v>0</v>
+      </c>
+      <c r="M53" s="84">
+        <f t="shared" ref="M53" si="47">H53*$D53</f>
+        <v>0</v>
+      </c>
+      <c r="N53" s="84">
+        <f t="shared" ref="N53" si="48">I53*$D53</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B55" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K53" s="9"/>
-      <c r="L53" s="9"/>
-      <c r="M53" s="9"/>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C54" t="s">
-        <v>39</v>
-      </c>
-      <c r="D54" s="1">
-        <f>SUM(Outputs_External!D29:'Outputs_External'!H29)</f>
-        <v>-24066</v>
-      </c>
-      <c r="F54" s="8">
-        <f>IFERROR(SUM(K66:K72)/SUM($K$66:$N$72), 0)</f>
-        <v>6.8728522336769765E-2</v>
-      </c>
-      <c r="G54" s="8">
-        <f t="shared" ref="G54:I54" si="49">IFERROR(SUM(L66:L72)/SUM($K$66:$N$72), 0)</f>
-        <v>0.93127147766323026</v>
-      </c>
-      <c r="H54" s="8">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="I54" s="8">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="K54" s="12">
-        <f>F54*$D$54</f>
-        <v>-1654.0206185567013</v>
-      </c>
-      <c r="L54" s="12">
-        <f>G54*$D$54</f>
-        <v>-22411.9793814433</v>
-      </c>
-      <c r="M54" s="12">
-        <f>H54*$D$54</f>
-        <v>0</v>
-      </c>
-      <c r="N54" s="12">
-        <f>I54*$D$54</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C55" t="s">
-        <v>116</v>
-      </c>
-      <c r="D55" s="1">
-        <f>SUM(Outputs_External!D30:'Outputs_External'!H30)</f>
-        <v>-27000</v>
-      </c>
-      <c r="F55" s="3">
-        <f>IFERROR(SUM(K8:K54)/SUM($K8:$N54), 0)</f>
-        <v>0.15902977485172853</v>
-      </c>
-      <c r="G55" s="3">
-        <f>IFERROR(SUM(L8:L54)/SUM($K8:$N54), 0)</f>
-        <v>0.84097022514827147</v>
-      </c>
-      <c r="H55" s="3">
-        <f>IFERROR(SUM(M8:M54)/SUM($K8:$N54), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="I55" s="3">
-        <f>1-F55-G55-H55</f>
-        <v>0</v>
-      </c>
-      <c r="K55" s="12">
-        <f>F55*$D$55</f>
-        <v>-4293.8039209966701</v>
-      </c>
-      <c r="L55" s="12">
-        <f>G55*$D$55</f>
-        <v>-22706.19607900333</v>
-      </c>
-      <c r="M55" s="12">
-        <f>H55*$D$55</f>
-        <v>0</v>
-      </c>
-      <c r="N55" s="12">
-        <f>I55*$D$55</f>
-        <v>0</v>
-      </c>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
+        <v>39</v>
+      </c>
+      <c r="D56" s="1">
+        <f>SUM(Outputs_External!D29:'Outputs_External'!H29)</f>
+        <v>-18417</v>
+      </c>
+      <c r="F56" s="8">
+        <f>IFERROR(SUM(K68:K74)/SUM($K$68:$N$74), 0)</f>
+        <v>7.9466230936819177E-2</v>
+      </c>
+      <c r="G56" s="8">
+        <f t="shared" ref="G56:I56" si="49">IFERROR(SUM(L68:L74)/SUM($K$68:$N$74), 0)</f>
+        <v>0.92053376906318085</v>
+      </c>
+      <c r="H56" s="8">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="8">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="K56" s="12">
+        <f>F56*$D$56</f>
+        <v>-1463.5295751633987</v>
+      </c>
+      <c r="L56" s="12">
+        <f>G56*$D$56</f>
+        <v>-16953.470424836603</v>
+      </c>
+      <c r="M56" s="12">
+        <f>H56*$D$56</f>
+        <v>0</v>
+      </c>
+      <c r="N56" s="12">
+        <f>I56*$D$56</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>116</v>
+      </c>
+      <c r="D57" s="1">
+        <f>SUM(Outputs_External!D30:'Outputs_External'!H30)</f>
+        <v>-22500</v>
+      </c>
+      <c r="F57" s="3">
+        <f>IFERROR(SUM(K10:K56)/SUM($K10:$N56), 0)</f>
+        <v>0.19891051401567297</v>
+      </c>
+      <c r="G57" s="3">
+        <f>IFERROR(SUM(L10:L56)/SUM($K10:$N56), 0)</f>
+        <v>0.80108948598432694</v>
+      </c>
+      <c r="H57" s="3">
+        <f>IFERROR(SUM(M10:M56)/SUM($K10:$N56), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
+        <f>1-F57-G57-H57</f>
+        <v>1.1102230246251565E-16</v>
+      </c>
+      <c r="K57" s="12">
+        <f>F57*$D$57</f>
+        <v>-4475.4865653526422</v>
+      </c>
+      <c r="L57" s="12">
+        <f>G57*$D$57</f>
+        <v>-18024.513434647357</v>
+      </c>
+      <c r="M57" s="12">
+        <f>H57*$D$57</f>
+        <v>0</v>
+      </c>
+      <c r="N57" s="12">
+        <f>I57*$D$57</f>
+        <v>-2.4980018054066022E-12</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
         <v>83</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D58" s="1">
         <f>Outputs_External!D31</f>
         <v>0</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F58" s="3">
         <v>0.58085106382978724</v>
       </c>
-      <c r="G56" s="3">
-        <f>1-F56</f>
+      <c r="G58" s="3">
+        <f>1-F58</f>
         <v>0.41914893617021276</v>
       </c>
-      <c r="H56" s="3">
-        <v>0</v>
-      </c>
-      <c r="I56" s="3">
-        <v>0</v>
-      </c>
-      <c r="K56" s="12">
-        <f>$D$56*F56</f>
-        <v>0</v>
-      </c>
-      <c r="L56" s="12">
-        <f t="shared" ref="L56:N56" si="50">$D$56*G56</f>
-        <v>0</v>
-      </c>
-      <c r="M56" s="12">
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="12">
+        <f>$D$58*F58</f>
+        <v>0</v>
+      </c>
+      <c r="L58" s="12">
+        <f t="shared" ref="L58:N58" si="50">$D$58*G58</f>
+        <v>0</v>
+      </c>
+      <c r="M58" s="12">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="N56" s="12">
+      <c r="N58" s="12">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="K57" s="9"/>
-      <c r="L57" s="9"/>
-      <c r="M57" s="9"/>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B58" s="6" t="s">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B60" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D60" s="1">
         <f>SUM(Outputs_External!D33:'Outputs_External'!H33)</f>
-        <v>238774</v>
-      </c>
-      <c r="K58" s="12">
-        <f>SUM(K54:K56, K34:K41, K8:K17,K22:K31,K44:K51)</f>
-        <v>37972.175460446633</v>
-      </c>
-      <c r="L58" s="12">
-        <f>SUM(L54:L56, L34:L41, L8:L17,L22:L31,L44:L51)</f>
-        <v>200801.82453955337</v>
-      </c>
-      <c r="M58" s="12">
-        <f>SUM(M54:M56, M34:M41, M8:M17,M22:M31,M44:M51)</f>
-        <v>0</v>
-      </c>
-      <c r="N58" s="12">
-        <f>SUM(N54:N56, N34:N41, N8:N17,N22:N31,N44:N51)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C59" s="21" t="s">
+        <v>186433</v>
+      </c>
+      <c r="K60" s="12">
+        <f>SUM(K56:K58, K36:K43, K10:K19,K24:K33,K46:K53)</f>
+        <v>37083.483859483968</v>
+      </c>
+      <c r="L60" s="12">
+        <f>SUM(L56:L58, L36:L43, L10:L19,L24:L33,L46:L53)</f>
+        <v>149349.51614051603</v>
+      </c>
+      <c r="M60" s="12">
+        <f>SUM(M56:M58, M36:M43, M10:M19,M24:M33,M46:M53)</f>
+        <v>0</v>
+      </c>
+      <c r="N60" s="12">
+        <f>SUM(N56:N58, N36:N43, N10:N19,N24:N33,N46:N53)</f>
+        <v>-2.4980018054066022E-12</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C61" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D59" s="23">
-        <f>SUM(K58:N58)</f>
-        <v>238774</v>
-      </c>
-      <c r="K59" s="12"/>
-      <c r="L59" s="12"/>
-      <c r="M59" s="12"/>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="K60" s="9"/>
-      <c r="L60" s="9"/>
-      <c r="M60" s="9"/>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B61" s="6" t="s">
+      <c r="D61" s="23">
+        <f>SUM(K60:N60)</f>
+        <v>186433</v>
+      </c>
+      <c r="K61" s="12"/>
+      <c r="L61" s="12"/>
+      <c r="M61" s="12"/>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B63" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D63" s="1">
         <f>SUM(Outputs_Timeline!S:S)</f>
-        <v>786322</v>
-      </c>
-      <c r="K61" s="12">
+        <v>629299</v>
+      </c>
+      <c r="K63" s="12">
         <f>SUM(Outputs_Timeline!T:T)</f>
-        <v>124916.52638133988</v>
-      </c>
-      <c r="L61" s="12">
+        <v>122250.4515784519</v>
+      </c>
+      <c r="L63" s="12">
         <f>SUM(Outputs_Timeline!U:U)</f>
-        <v>661405.47361866012</v>
-      </c>
-      <c r="M61" s="12">
+        <v>507048.54842154798</v>
+      </c>
+      <c r="M63" s="12">
         <f>SUM(Outputs_Timeline!V:V)</f>
         <v>0</v>
       </c>
-      <c r="N61" s="12">
+      <c r="N63" s="12">
         <f>SUM(Outputs_Timeline!W:W)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D62" s="1"/>
-      <c r="K62" s="53">
-        <f>IFERROR(K61/$D$61, 0)</f>
-        <v>0.1588617975604649</v>
-      </c>
-      <c r="L62" s="53">
-        <f>IFERROR(L61/$D$61, 0)</f>
-        <v>0.84113820243953508</v>
-      </c>
-      <c r="M62" s="53">
-        <f>IFERROR(M61/$D$61, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="N62" s="53">
-        <f>IFERROR(N61/$D$61, 0)</f>
-        <v>0</v>
+        <v>-7.4940054162198066E-12</v>
       </c>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="K64" s="9"/>
-      <c r="L64" s="9"/>
-      <c r="M64" s="9"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B65" s="27" t="s">
+      <c r="D64" s="1"/>
+      <c r="K64" s="53">
+        <f>IFERROR(K63/$D$63, 0)</f>
+        <v>0.1942644936325211</v>
+      </c>
+      <c r="L64" s="53">
+        <f>IFERROR(L63/$D$63, 0)</f>
+        <v>0.8057355063674787</v>
+      </c>
+      <c r="M64" s="53">
+        <f>IFERROR(M63/$D$63, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N64" s="53">
+        <f>IFERROR(N63/$D$63, 0)</f>
+        <v>-1.1908497258409446E-17</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B67" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C65" s="21"/>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="21"/>
-      <c r="H65" s="21"/>
-      <c r="I65" s="21"/>
-      <c r="J65" s="21"/>
-      <c r="K65" s="22"/>
-      <c r="L65" s="22"/>
-      <c r="M65" s="22"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B66" s="27"/>
-      <c r="C66" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D66" s="23">
-        <f>SUM(Calcs!D62:H62)+SUM(Calcs!D72:H72)</f>
-        <v>0</v>
-      </c>
-      <c r="E66" s="21"/>
-      <c r="F66" s="24">
-        <f>F34</f>
-        <v>0.9</v>
-      </c>
-      <c r="G66" s="24">
-        <f>G34</f>
-        <v>0.1</v>
-      </c>
-      <c r="H66" s="24">
-        <f>H34</f>
-        <v>0</v>
-      </c>
-      <c r="I66" s="24">
-        <f>I34</f>
-        <v>0</v>
-      </c>
-      <c r="J66" s="21"/>
-      <c r="K66" s="25">
-        <f t="shared" ref="K66:N68" si="51">F66*$D66</f>
-        <v>0</v>
-      </c>
-      <c r="L66" s="25">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="M66" s="25">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="N66" s="25">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B67" s="27"/>
-      <c r="C67" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D67" s="23">
-        <f>SUM(Calcs!D63:H63)+SUM(Calcs!D73:H73)</f>
-        <v>0</v>
-      </c>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
       <c r="E67" s="21"/>
-      <c r="F67" s="24">
-        <f>IFERROR(SUM(K$35,K$9:K$14,K$45,K$23:K$28)/SUM($K$35:$N$35,$K$9:$N$14,$K$45:$N$45,$K$23:$N$28),0)</f>
-        <v>0</v>
-      </c>
-      <c r="G67" s="24">
-        <f>IFERROR(SUM(L$35,L$9:L$14,L$45,L$23:L$28)/SUM($K$35:$N$35,$K$9:$N$14,$K$45:$N$45,$K$23:$N$28),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H67" s="24">
-        <f>IFERROR(SUM(M$35,M$9:M$14,M$45,M$23:M$28)/SUM($K$35:$N$35,$K$9:$N$14,$K$45:$N$45,$K$23:$N$28),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I67" s="24">
-        <f>IFERROR(SUM(N$35,N$9:N$14,N$45,N$23:N$28)/SUM($K$35:$N$35,$K$9:$N$14,$K$45:$N$45,$K$23:$N$28),0)</f>
-        <v>0</v>
-      </c>
+      <c r="F67" s="21"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="21"/>
       <c r="J67" s="21"/>
-      <c r="K67" s="25">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="L67" s="25">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="M67" s="25">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="N67" s="25">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
+      <c r="K67" s="22"/>
+      <c r="L67" s="22"/>
+      <c r="M67" s="22"/>
     </row>
     <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="27"/>
       <c r="C68" s="21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D68" s="23">
-        <f>SUM(Calcs!D64:H64)+SUM(Calcs!D74:H74)</f>
-        <v>122220</v>
+        <f>SUM(Calcs!D62:H62)+SUM(Calcs!D72:H72)</f>
+        <v>0</v>
       </c>
       <c r="E68" s="21"/>
       <c r="F68" s="24">
-        <f>IFERROR(SUM(K36,K15:K17,K46,K29:K31)/SUM($K$36:$N$36,$K$15:$M$17,$K$46:$N$46,$K$29:$N$31),0)</f>
-        <v>6.8728522336769765E-2</v>
+        <f>F36</f>
+        <v>0.9</v>
       </c>
       <c r="G68" s="24">
-        <f>IFERROR(SUM(L36,L15:L17,L46,L29:L31)/SUM($K$36:$N$36,$K$15:$M$17,$K$46:$N$46,$K$29:$N$31),0)</f>
-        <v>0.93127147766323026</v>
+        <f>G36</f>
+        <v>0.1</v>
       </c>
       <c r="H68" s="24">
-        <f>IFERROR(SUM(M36,M15:M17,M46,M29:M31)/SUM($K$36:$N$36,$K$15:$M$17,$K$46:$N$46,$K$29:$N$31),0)</f>
+        <f>H36</f>
         <v>0</v>
       </c>
       <c r="I68" s="24">
-        <f>IFERROR(SUM(N36,N15:N17,N46,N29:N31)/SUM($K$36:$N$36,$K$15:$M$17,$K$46:$N$46,$K$29:$N$31),0)</f>
+        <f>I36</f>
         <v>0</v>
       </c>
       <c r="J68" s="21"/>
       <c r="K68" s="25">
-        <f t="shared" si="51"/>
-        <v>8400</v>
+        <f t="shared" ref="K68:N70" si="51">F68*$D68</f>
+        <v>0</v>
       </c>
       <c r="L68" s="25">
         <f t="shared" si="51"/>
-        <v>113820</v>
+        <v>0</v>
       </c>
       <c r="M68" s="25">
         <f t="shared" si="51"/>
@@ -4646,103 +4629,103 @@
     <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="27"/>
       <c r="C69" s="21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D69" s="23">
-        <f>SUM(Calcs!D66:H66)+SUM(Calcs!D76:H76)</f>
+        <f>SUM(Calcs!D63:H63)+SUM(Calcs!D73:H73)</f>
         <v>0</v>
       </c>
       <c r="E69" s="21"/>
       <c r="F69" s="24">
-        <f t="shared" ref="F69:I71" si="52">IFERROR(SUM(K38,K48)/SUM($K38:$N38,$K48:$N48),0)</f>
+        <f>IFERROR(SUM(K$37,K$11:K$16,K$47,K$25:K$30)/SUM($K$37:$N$37,$K$11:$N$16,$K$47:$N$47,$K$25:$N$30),0)</f>
         <v>0</v>
       </c>
       <c r="G69" s="24">
-        <f t="shared" si="52"/>
+        <f>IFERROR(SUM(L$37,L$11:L$16,L$47,L$25:L$30)/SUM($K$37:$N$37,$K$11:$N$16,$K$47:$N$47,$K$25:$N$30),0)</f>
         <v>0</v>
       </c>
       <c r="H69" s="24">
-        <f t="shared" si="52"/>
+        <f>IFERROR(SUM(M$37,M$11:M$16,M$47,M$25:M$30)/SUM($K$37:$N$37,$K$11:$N$16,$K$47:$N$47,$K$25:$N$30),0)</f>
         <v>0</v>
       </c>
       <c r="I69" s="24">
-        <f t="shared" si="52"/>
+        <f>IFERROR(SUM(N$37,N$11:N$16,N$47,N$25:N$30)/SUM($K$37:$N$37,$K$11:$N$16,$K$47:$N$47,$K$25:$N$30),0)</f>
         <v>0</v>
       </c>
       <c r="J69" s="21"/>
       <c r="K69" s="25">
-        <f t="shared" ref="K69:K72" si="53">F69*$D69</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="L69" s="25">
-        <f t="shared" ref="L69:L72" si="54">G69*$D69</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="M69" s="25">
-        <f t="shared" ref="M69:M72" si="55">H69*$D69</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="N69" s="25">
-        <f t="shared" ref="N69:N72" si="56">I69*$D69</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="27"/>
       <c r="C70" s="21" t="s">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="D70" s="23">
-        <f>SUM(Calcs!D67:H67)+SUM(Calcs!D77:H77)</f>
-        <v>0</v>
+        <f>SUM(Calcs!D64:H64)+SUM(Calcs!D74:H74)</f>
+        <v>96390</v>
       </c>
       <c r="E70" s="21"/>
       <c r="F70" s="24">
-        <f t="shared" si="52"/>
-        <v>0</v>
+        <f>IFERROR(SUM(K38,K17:K19,K48,K31:K33)/SUM($K$38:$N$38,$K$17:$M$19,$K$48:$N$48,$K$31:$N$33),0)</f>
+        <v>7.9466230936819177E-2</v>
       </c>
       <c r="G70" s="24">
-        <f t="shared" si="52"/>
-        <v>0</v>
+        <f>IFERROR(SUM(L38,L17:L19,L48,L31:L33)/SUM($K$38:$N$38,$K$17:$M$19,$K$48:$N$48,$K$31:$N$33),0)</f>
+        <v>0.92053376906318085</v>
       </c>
       <c r="H70" s="24">
-        <f t="shared" si="52"/>
+        <f>IFERROR(SUM(M38,M17:M19,M48,M31:M33)/SUM($K$38:$N$38,$K$17:$M$19,$K$48:$N$48,$K$31:$N$33),0)</f>
         <v>0</v>
       </c>
       <c r="I70" s="24">
-        <f t="shared" si="52"/>
+        <f>IFERROR(SUM(N38,N17:N19,N48,N31:N33)/SUM($K$38:$N$38,$K$17:$M$19,$K$48:$N$48,$K$31:$N$33),0)</f>
         <v>0</v>
       </c>
       <c r="J70" s="21"/>
       <c r="K70" s="25">
-        <f t="shared" ref="K70:K71" si="57">F70*$D70</f>
-        <v>0</v>
+        <f t="shared" si="51"/>
+        <v>7659.75</v>
       </c>
       <c r="L70" s="25">
-        <f t="shared" ref="L70:L71" si="58">G70*$D70</f>
-        <v>0</v>
+        <f t="shared" si="51"/>
+        <v>88730.25</v>
       </c>
       <c r="M70" s="25">
-        <f t="shared" ref="M70:M71" si="59">H70*$D70</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="N70" s="25">
-        <f t="shared" ref="N70:N71" si="60">I70*$D70</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="27"/>
       <c r="C71" s="21" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="D71" s="23">
-        <f>SUM(Calcs!D68:H68)+SUM(Calcs!D78:H78)</f>
+        <f>SUM(Calcs!D66:H66)+SUM(Calcs!D76:H76)</f>
         <v>0</v>
       </c>
       <c r="E71" s="21"/>
       <c r="F71" s="24">
-        <f t="shared" si="52"/>
+        <f t="shared" ref="F71:I73" si="52">IFERROR(SUM(K40,K50)/SUM($K40:$N40,$K50:$N50),0)</f>
         <v>0</v>
       </c>
       <c r="G71" s="24">
@@ -4759,62 +4742,150 @@
       </c>
       <c r="J71" s="21"/>
       <c r="K71" s="25">
-        <f t="shared" si="57"/>
+        <f t="shared" ref="K71:K74" si="53">F71*$D71</f>
         <v>0</v>
       </c>
       <c r="L71" s="25">
-        <f t="shared" si="58"/>
+        <f t="shared" ref="L71:L74" si="54">G71*$D71</f>
         <v>0</v>
       </c>
       <c r="M71" s="25">
-        <f t="shared" si="59"/>
+        <f t="shared" ref="M71:M74" si="55">H71*$D71</f>
         <v>0</v>
       </c>
       <c r="N71" s="25">
-        <f t="shared" si="60"/>
+        <f t="shared" ref="N71:N74" si="56">I71*$D71</f>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="27"/>
       <c r="C72" s="21" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D72" s="23">
-        <f>SUM(Calcs!D69:H69)+SUM(Calcs!D79:H79)</f>
+        <f>SUM(Calcs!D67:H67)+SUM(Calcs!D77:H77)</f>
         <v>0</v>
       </c>
       <c r="E72" s="21"/>
       <c r="F72" s="24">
-        <f t="shared" ref="F72" si="61">IFERROR(SUM(K41,K51)/SUM($K41:$N41,$K51:$N51),0)</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="G72" s="24">
-        <f t="shared" ref="G72" si="62">IFERROR(SUM(L41,L51)/SUM($K41:$N41,$K51:$N51),0)</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="H72" s="24">
-        <f t="shared" ref="H72" si="63">IFERROR(SUM(M41,M51)/SUM($K41:$N41,$K51:$N51),0)</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I72" s="24">
-        <f t="shared" ref="I72" si="64">IFERROR(SUM(N41,N51)/SUM($K41:$N41,$K51:$N51),0)</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="J72" s="21"/>
       <c r="K72" s="25">
+        <f t="shared" ref="K72:K73" si="57">F72*$D72</f>
+        <v>0</v>
+      </c>
+      <c r="L72" s="25">
+        <f t="shared" ref="L72:L73" si="58">G72*$D72</f>
+        <v>0</v>
+      </c>
+      <c r="M72" s="25">
+        <f t="shared" ref="M72:M73" si="59">H72*$D72</f>
+        <v>0</v>
+      </c>
+      <c r="N72" s="25">
+        <f t="shared" ref="N72:N73" si="60">I72*$D72</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B73" s="27"/>
+      <c r="C73" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D73" s="23">
+        <f>SUM(Calcs!D68:H68)+SUM(Calcs!D78:H78)</f>
+        <v>0</v>
+      </c>
+      <c r="E73" s="21"/>
+      <c r="F73" s="24">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="G73" s="24">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="H73" s="24">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="I73" s="24">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="J73" s="21"/>
+      <c r="K73" s="25">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="L73" s="25">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="M73" s="25">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="N73" s="25">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B74" s="27"/>
+      <c r="C74" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D74" s="23">
+        <f>SUM(Calcs!D69:H69)+SUM(Calcs!D79:H79)</f>
+        <v>0</v>
+      </c>
+      <c r="E74" s="21"/>
+      <c r="F74" s="24">
+        <f t="shared" ref="F74" si="61">IFERROR(SUM(K43,K53)/SUM($K43:$N43,$K53:$N53),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G74" s="24">
+        <f t="shared" ref="G74" si="62">IFERROR(SUM(L43,L53)/SUM($K43:$N43,$K53:$N53),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H74" s="24">
+        <f t="shared" ref="H74" si="63">IFERROR(SUM(M43,M53)/SUM($K43:$N43,$K53:$N53),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I74" s="24">
+        <f t="shared" ref="I74" si="64">IFERROR(SUM(N43,N53)/SUM($K43:$N43,$K53:$N53),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J74" s="21"/>
+      <c r="K74" s="25">
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
-      <c r="L72" s="25">
+      <c r="L74" s="25">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="M72" s="25">
+      <c r="M74" s="25">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="N72" s="25">
+      <c r="N74" s="25">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
@@ -4971,23 +5042,23 @@
         <v>0</v>
       </c>
       <c r="M3" s="63">
-        <f>$F3*Outputs_Internal!$D$58/12</f>
+        <f>$F3*Outputs_Internal!$D$60/12</f>
         <v>0</v>
       </c>
       <c r="N3" s="63">
-        <f>$F3*Outputs_Internal!K$58/12</f>
+        <f>$F3*Outputs_Internal!K$60/12</f>
         <v>0</v>
       </c>
       <c r="O3" s="63">
-        <f>$F3*Outputs_Internal!L$58/12</f>
+        <f>$F3*Outputs_Internal!L$60/12</f>
         <v>0</v>
       </c>
       <c r="P3" s="63">
-        <f>$F3*Outputs_Internal!M$58/12</f>
+        <f>$F3*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q3" s="63">
-        <f>$F3*Outputs_Internal!N$58/12</f>
+        <f>$F3*Outputs_Internal!N$60/12</f>
         <v>0</v>
       </c>
       <c r="S3" s="63"/>
@@ -5029,23 +5100,23 @@
         <v>0</v>
       </c>
       <c r="M4" s="63">
-        <f>$F4*Outputs_Internal!$D$58/12</f>
+        <f>$F4*Outputs_Internal!$D$60/12</f>
         <v>0</v>
       </c>
       <c r="N4" s="63">
-        <f>$F4*Outputs_Internal!K$58/12</f>
+        <f>$F4*Outputs_Internal!K$60/12</f>
         <v>0</v>
       </c>
       <c r="O4" s="63">
-        <f>$F4*Outputs_Internal!L$58/12</f>
+        <f>$F4*Outputs_Internal!L$60/12</f>
         <v>0</v>
       </c>
       <c r="P4" s="63">
-        <f>$F4*Outputs_Internal!M$58/12</f>
+        <f>$F4*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q4" s="63">
-        <f>$F4*Outputs_Internal!N$58/12</f>
+        <f>$F4*Outputs_Internal!N$60/12</f>
         <v>0</v>
       </c>
     </row>
@@ -5083,23 +5154,23 @@
         <v>0</v>
       </c>
       <c r="M5" s="63">
-        <f>$F5*Outputs_Internal!$D$58/12</f>
+        <f>$F5*Outputs_Internal!$D$60/12</f>
         <v>0</v>
       </c>
       <c r="N5" s="63">
-        <f>$F5*Outputs_Internal!K$58/12</f>
+        <f>$F5*Outputs_Internal!K$60/12</f>
         <v>0</v>
       </c>
       <c r="O5" s="63">
-        <f>$F5*Outputs_Internal!L$58/12</f>
+        <f>$F5*Outputs_Internal!L$60/12</f>
         <v>0</v>
       </c>
       <c r="P5" s="63">
-        <f>$F5*Outputs_Internal!M$58/12</f>
+        <f>$F5*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q5" s="63">
-        <f>$F5*Outputs_Internal!N$58/12</f>
+        <f>$F5*Outputs_Internal!N$60/12</f>
         <v>0</v>
       </c>
       <c r="S5" s="63">
@@ -5157,23 +5228,23 @@
         <v>0</v>
       </c>
       <c r="M6" s="63">
-        <f>$F6*Outputs_Internal!$D$58/12</f>
+        <f>$F6*Outputs_Internal!$D$60/12</f>
         <v>0</v>
       </c>
       <c r="N6" s="63">
-        <f>$F6*Outputs_Internal!K$58/12</f>
+        <f>$F6*Outputs_Internal!K$60/12</f>
         <v>0</v>
       </c>
       <c r="O6" s="63">
-        <f>$F6*Outputs_Internal!L$58/12</f>
+        <f>$F6*Outputs_Internal!L$60/12</f>
         <v>0</v>
       </c>
       <c r="P6" s="63">
-        <f>$F6*Outputs_Internal!M$58/12</f>
+        <f>$F6*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q6" s="63">
-        <f>$F6*Outputs_Internal!N$58/12</f>
+        <f>$F6*Outputs_Internal!N$60/12</f>
         <v>0</v>
       </c>
       <c r="S6" s="63">
@@ -5231,23 +5302,23 @@
         <v>0</v>
       </c>
       <c r="M7" s="63">
-        <f>$F7*Outputs_Internal!$D$58/12</f>
+        <f>$F7*Outputs_Internal!$D$60/12</f>
         <v>0</v>
       </c>
       <c r="N7" s="63">
-        <f>$F7*Outputs_Internal!K$58/12</f>
+        <f>$F7*Outputs_Internal!K$60/12</f>
         <v>0</v>
       </c>
       <c r="O7" s="63">
-        <f>$F7*Outputs_Internal!L$58/12</f>
+        <f>$F7*Outputs_Internal!L$60/12</f>
         <v>0</v>
       </c>
       <c r="P7" s="63">
-        <f>$F7*Outputs_Internal!M$58/12</f>
+        <f>$F7*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q7" s="63">
-        <f>$F7*Outputs_Internal!N$58/12</f>
+        <f>$F7*Outputs_Internal!N$60/12</f>
         <v>0</v>
       </c>
       <c r="S7" s="63">
@@ -5305,23 +5376,23 @@
         <v>0</v>
       </c>
       <c r="M8" s="63">
-        <f>$F8*Outputs_Internal!$D$58/12</f>
+        <f>$F8*Outputs_Internal!$D$60/12</f>
         <v>0</v>
       </c>
       <c r="N8" s="63">
-        <f>$F8*Outputs_Internal!K$58/12</f>
+        <f>$F8*Outputs_Internal!K$60/12</f>
         <v>0</v>
       </c>
       <c r="O8" s="63">
-        <f>$F8*Outputs_Internal!L$58/12</f>
+        <f>$F8*Outputs_Internal!L$60/12</f>
         <v>0</v>
       </c>
       <c r="P8" s="63">
-        <f>$F8*Outputs_Internal!M$58/12</f>
+        <f>$F8*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q8" s="63">
-        <f>$F8*Outputs_Internal!N$58/12</f>
+        <f>$F8*Outputs_Internal!N$60/12</f>
         <v>0</v>
       </c>
       <c r="S8" s="63">
@@ -5379,24 +5450,24 @@
         <v>0</v>
       </c>
       <c r="M9" s="63">
-        <f>$F9*Outputs_Internal!$D$58/12</f>
-        <v>19897.833333333332</v>
+        <f>$F9*Outputs_Internal!$D$60/12</f>
+        <v>15536.083333333334</v>
       </c>
       <c r="N9" s="63">
-        <f>$F9*Outputs_Internal!K$58/12</f>
-        <v>3164.3479550372194</v>
+        <f>$F9*Outputs_Internal!K$60/12</f>
+        <v>3090.2903216236641</v>
       </c>
       <c r="O9" s="63">
-        <f>$F9*Outputs_Internal!L$58/12</f>
-        <v>16733.485378296115</v>
+        <f>$F9*Outputs_Internal!L$60/12</f>
+        <v>12445.793011709669</v>
       </c>
       <c r="P9" s="63">
-        <f>$F9*Outputs_Internal!M$58/12</f>
+        <f>$F9*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q9" s="63">
-        <f>$F9*Outputs_Internal!N$58/12</f>
-        <v>0</v>
+        <f>$F9*Outputs_Internal!N$60/12</f>
+        <v>-2.0816681711721685E-13</v>
       </c>
       <c r="S9" s="63">
         <f t="shared" si="1"/>
@@ -5453,24 +5524,24 @@
         <v>0</v>
       </c>
       <c r="M10" s="63">
-        <f>$F10*Outputs_Internal!$D$58/12</f>
-        <v>19897.833333333332</v>
+        <f>$F10*Outputs_Internal!$D$60/12</f>
+        <v>15536.083333333334</v>
       </c>
       <c r="N10" s="63">
-        <f>$F10*Outputs_Internal!K$58/12</f>
-        <v>3164.3479550372194</v>
+        <f>$F10*Outputs_Internal!K$60/12</f>
+        <v>3090.2903216236641</v>
       </c>
       <c r="O10" s="63">
-        <f>$F10*Outputs_Internal!L$58/12</f>
-        <v>16733.485378296115</v>
+        <f>$F10*Outputs_Internal!L$60/12</f>
+        <v>12445.793011709669</v>
       </c>
       <c r="P10" s="63">
-        <f>$F10*Outputs_Internal!M$58/12</f>
+        <f>$F10*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q10" s="63">
-        <f>$F10*Outputs_Internal!N$58/12</f>
-        <v>0</v>
+        <f>$F10*Outputs_Internal!N$60/12</f>
+        <v>-2.0816681711721685E-13</v>
       </c>
       <c r="S10" s="63">
         <f t="shared" si="1"/>
@@ -5527,36 +5598,36 @@
         <v>0</v>
       </c>
       <c r="M11" s="63">
-        <f>$F11*Outputs_Internal!$D$58/12</f>
-        <v>19897.833333333332</v>
+        <f>$F11*Outputs_Internal!$D$60/12</f>
+        <v>15536.083333333334</v>
       </c>
       <c r="N11" s="63">
-        <f>$F11*Outputs_Internal!K$58/12</f>
-        <v>3164.3479550372194</v>
+        <f>$F11*Outputs_Internal!K$60/12</f>
+        <v>3090.2903216236641</v>
       </c>
       <c r="O11" s="63">
-        <f>$F11*Outputs_Internal!L$58/12</f>
-        <v>16733.485378296115</v>
+        <f>$F11*Outputs_Internal!L$60/12</f>
+        <v>12445.793011709669</v>
       </c>
       <c r="P11" s="63">
-        <f>$F11*Outputs_Internal!M$58/12</f>
+        <f>$F11*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q11" s="63">
-        <f>$F11*Outputs_Internal!N$58/12</f>
-        <v>0</v>
+        <f>$F11*Outputs_Internal!N$60/12</f>
+        <v>-2.0816681711721685E-13</v>
       </c>
       <c r="S11" s="63">
         <f t="shared" si="1"/>
-        <v>129693.49999999999</v>
+        <v>116608.24999999999</v>
       </c>
       <c r="T11" s="63">
         <f t="shared" si="2"/>
-        <v>20493.043865111656</v>
+        <v>20270.870964870992</v>
       </c>
       <c r="U11" s="63">
         <f>IF(MOD(MONTH($B11),3)=0,SUM(J9:J11,O9:O11),0)</f>
-        <v>109200.45613488834</v>
+        <v>96337.379035129008</v>
       </c>
       <c r="V11" s="63">
         <f t="shared" si="4"/>
@@ -5564,7 +5635,7 @@
       </c>
       <c r="W11" s="63">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-6.2450045135165055E-13</v>
       </c>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
@@ -5601,24 +5672,24 @@
         <v>0</v>
       </c>
       <c r="M12" s="63">
-        <f>$F12*Outputs_Internal!$D$58/12</f>
-        <v>19897.833333333332</v>
+        <f>$F12*Outputs_Internal!$D$60/12</f>
+        <v>15536.083333333334</v>
       </c>
       <c r="N12" s="63">
-        <f>$F12*Outputs_Internal!K$58/12</f>
-        <v>3164.3479550372194</v>
+        <f>$F12*Outputs_Internal!K$60/12</f>
+        <v>3090.2903216236641</v>
       </c>
       <c r="O12" s="63">
-        <f>$F12*Outputs_Internal!L$58/12</f>
-        <v>16733.485378296115</v>
+        <f>$F12*Outputs_Internal!L$60/12</f>
+        <v>12445.793011709669</v>
       </c>
       <c r="P12" s="63">
-        <f>$F12*Outputs_Internal!M$58/12</f>
+        <f>$F12*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q12" s="63">
-        <f>$F12*Outputs_Internal!N$58/12</f>
-        <v>0</v>
+        <f>$F12*Outputs_Internal!N$60/12</f>
+        <v>-2.0816681711721685E-13</v>
       </c>
       <c r="S12" s="63">
         <f t="shared" si="1"/>
@@ -5675,24 +5746,24 @@
         <v>0</v>
       </c>
       <c r="M13" s="63">
-        <f>$F13*Outputs_Internal!$D$58/12</f>
-        <v>19897.833333333332</v>
+        <f>$F13*Outputs_Internal!$D$60/12</f>
+        <v>15536.083333333334</v>
       </c>
       <c r="N13" s="63">
-        <f>$F13*Outputs_Internal!K$58/12</f>
-        <v>3164.3479550372194</v>
+        <f>$F13*Outputs_Internal!K$60/12</f>
+        <v>3090.2903216236641</v>
       </c>
       <c r="O13" s="63">
-        <f>$F13*Outputs_Internal!L$58/12</f>
-        <v>16733.485378296115</v>
+        <f>$F13*Outputs_Internal!L$60/12</f>
+        <v>12445.793011709669</v>
       </c>
       <c r="P13" s="63">
-        <f>$F13*Outputs_Internal!M$58/12</f>
+        <f>$F13*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q13" s="63">
-        <f>$F13*Outputs_Internal!N$58/12</f>
-        <v>0</v>
+        <f>$F13*Outputs_Internal!N$60/12</f>
+        <v>-2.0816681711721685E-13</v>
       </c>
       <c r="S13" s="63">
         <f t="shared" si="1"/>
@@ -5749,36 +5820,36 @@
         <v>0</v>
       </c>
       <c r="M14" s="63">
-        <f>$F14*Outputs_Internal!$D$58/12</f>
-        <v>19897.833333333332</v>
+        <f>$F14*Outputs_Internal!$D$60/12</f>
+        <v>15536.083333333334</v>
       </c>
       <c r="N14" s="63">
-        <f>$F14*Outputs_Internal!K$58/12</f>
-        <v>3164.3479550372194</v>
+        <f>$F14*Outputs_Internal!K$60/12</f>
+        <v>3090.2903216236641</v>
       </c>
       <c r="O14" s="63">
-        <f>$F14*Outputs_Internal!L$58/12</f>
-        <v>16733.485378296115</v>
+        <f>$F14*Outputs_Internal!L$60/12</f>
+        <v>12445.793011709669</v>
       </c>
       <c r="P14" s="63">
-        <f>$F14*Outputs_Internal!M$58/12</f>
+        <f>$F14*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q14" s="63">
-        <f>$F14*Outputs_Internal!N$58/12</f>
-        <v>0</v>
+        <f>$F14*Outputs_Internal!N$60/12</f>
+        <v>-2.0816681711721685E-13</v>
       </c>
       <c r="S14" s="63">
         <f t="shared" si="1"/>
-        <v>59693.5</v>
+        <v>46608.25</v>
       </c>
       <c r="T14" s="63">
         <f t="shared" si="2"/>
-        <v>9493.0438651116583</v>
+        <v>9270.8709648709919</v>
       </c>
       <c r="U14" s="63">
         <f t="shared" si="3"/>
-        <v>50200.456134888344</v>
+        <v>37337.379035129008</v>
       </c>
       <c r="V14" s="63">
         <f t="shared" si="4"/>
@@ -5786,7 +5857,7 @@
       </c>
       <c r="W14" s="63">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-6.2450045135165055E-13</v>
       </c>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
@@ -5823,24 +5894,24 @@
         <v>0</v>
       </c>
       <c r="M15" s="63">
-        <f>$F15*Outputs_Internal!$D$58/12</f>
-        <v>19897.833333333332</v>
+        <f>$F15*Outputs_Internal!$D$60/12</f>
+        <v>15536.083333333334</v>
       </c>
       <c r="N15" s="63">
-        <f>$F15*Outputs_Internal!K$58/12</f>
-        <v>3164.3479550372194</v>
+        <f>$F15*Outputs_Internal!K$60/12</f>
+        <v>3090.2903216236641</v>
       </c>
       <c r="O15" s="63">
-        <f>$F15*Outputs_Internal!L$58/12</f>
-        <v>16733.485378296115</v>
+        <f>$F15*Outputs_Internal!L$60/12</f>
+        <v>12445.793011709669</v>
       </c>
       <c r="P15" s="63">
-        <f>$F15*Outputs_Internal!M$58/12</f>
+        <f>$F15*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q15" s="63">
-        <f>$F15*Outputs_Internal!N$58/12</f>
-        <v>0</v>
+        <f>$F15*Outputs_Internal!N$60/12</f>
+        <v>-2.0816681711721685E-13</v>
       </c>
       <c r="S15" s="63">
         <f t="shared" si="1"/>
@@ -5897,24 +5968,24 @@
         <v>0</v>
       </c>
       <c r="M16" s="63">
-        <f>$F16*Outputs_Internal!$D$58/12</f>
-        <v>19897.833333333332</v>
+        <f>$F16*Outputs_Internal!$D$60/12</f>
+        <v>15536.083333333334</v>
       </c>
       <c r="N16" s="63">
-        <f>$F16*Outputs_Internal!K$58/12</f>
-        <v>3164.3479550372194</v>
+        <f>$F16*Outputs_Internal!K$60/12</f>
+        <v>3090.2903216236641</v>
       </c>
       <c r="O16" s="63">
-        <f>$F16*Outputs_Internal!L$58/12</f>
-        <v>16733.485378296115</v>
+        <f>$F16*Outputs_Internal!L$60/12</f>
+        <v>12445.793011709669</v>
       </c>
       <c r="P16" s="63">
-        <f>$F16*Outputs_Internal!M$58/12</f>
+        <f>$F16*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q16" s="63">
-        <f>$F16*Outputs_Internal!N$58/12</f>
-        <v>0</v>
+        <f>$F16*Outputs_Internal!N$60/12</f>
+        <v>-2.0816681711721685E-13</v>
       </c>
       <c r="S16" s="63">
         <f t="shared" si="1"/>
@@ -5971,36 +6042,36 @@
         <v>0</v>
       </c>
       <c r="M17" s="63">
-        <f>$F17*Outputs_Internal!$D$58/12</f>
-        <v>19897.833333333332</v>
+        <f>$F17*Outputs_Internal!$D$60/12</f>
+        <v>15536.083333333334</v>
       </c>
       <c r="N17" s="63">
-        <f>$F17*Outputs_Internal!K$58/12</f>
-        <v>3164.3479550372194</v>
+        <f>$F17*Outputs_Internal!K$60/12</f>
+        <v>3090.2903216236641</v>
       </c>
       <c r="O17" s="63">
-        <f>$F17*Outputs_Internal!L$58/12</f>
-        <v>16733.485378296115</v>
+        <f>$F17*Outputs_Internal!L$60/12</f>
+        <v>12445.793011709669</v>
       </c>
       <c r="P17" s="63">
-        <f>$F17*Outputs_Internal!M$58/12</f>
+        <f>$F17*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q17" s="63">
-        <f>$F17*Outputs_Internal!N$58/12</f>
-        <v>0</v>
+        <f>$F17*Outputs_Internal!N$60/12</f>
+        <v>-2.0816681711721685E-13</v>
       </c>
       <c r="S17" s="63">
         <f t="shared" si="1"/>
-        <v>59693.5</v>
+        <v>46608.25</v>
       </c>
       <c r="T17" s="63">
         <f t="shared" si="2"/>
-        <v>9493.0438651116583</v>
+        <v>9270.8709648709919</v>
       </c>
       <c r="U17" s="63">
         <f t="shared" si="3"/>
-        <v>50200.456134888344</v>
+        <v>37337.379035129008</v>
       </c>
       <c r="V17" s="63">
         <f t="shared" si="4"/>
@@ -6008,7 +6079,7 @@
       </c>
       <c r="W17" s="63">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-6.2450045135165055E-13</v>
       </c>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.25">
@@ -6045,24 +6116,24 @@
         <v>0</v>
       </c>
       <c r="M18" s="63">
-        <f>$F18*Outputs_Internal!$D$58/12</f>
-        <v>19897.833333333332</v>
+        <f>$F18*Outputs_Internal!$D$60/12</f>
+        <v>15536.083333333334</v>
       </c>
       <c r="N18" s="63">
-        <f>$F18*Outputs_Internal!K$58/12</f>
-        <v>3164.3479550372194</v>
+        <f>$F18*Outputs_Internal!K$60/12</f>
+        <v>3090.2903216236641</v>
       </c>
       <c r="O18" s="63">
-        <f>$F18*Outputs_Internal!L$58/12</f>
-        <v>16733.485378296115</v>
+        <f>$F18*Outputs_Internal!L$60/12</f>
+        <v>12445.793011709669</v>
       </c>
       <c r="P18" s="63">
-        <f>$F18*Outputs_Internal!M$58/12</f>
+        <f>$F18*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q18" s="63">
-        <f>$F18*Outputs_Internal!N$58/12</f>
-        <v>0</v>
+        <f>$F18*Outputs_Internal!N$60/12</f>
+        <v>-2.0816681711721685E-13</v>
       </c>
       <c r="S18" s="63">
         <f t="shared" si="1"/>
@@ -6119,24 +6190,24 @@
         <v>0</v>
       </c>
       <c r="M19" s="63">
-        <f>$F19*Outputs_Internal!$D$58/12</f>
-        <v>19897.833333333332</v>
+        <f>$F19*Outputs_Internal!$D$60/12</f>
+        <v>15536.083333333334</v>
       </c>
       <c r="N19" s="63">
-        <f>$F19*Outputs_Internal!K$58/12</f>
-        <v>3164.3479550372194</v>
+        <f>$F19*Outputs_Internal!K$60/12</f>
+        <v>3090.2903216236641</v>
       </c>
       <c r="O19" s="63">
-        <f>$F19*Outputs_Internal!L$58/12</f>
-        <v>16733.485378296115</v>
+        <f>$F19*Outputs_Internal!L$60/12</f>
+        <v>12445.793011709669</v>
       </c>
       <c r="P19" s="63">
-        <f>$F19*Outputs_Internal!M$58/12</f>
+        <f>$F19*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q19" s="63">
-        <f>$F19*Outputs_Internal!N$58/12</f>
-        <v>0</v>
+        <f>$F19*Outputs_Internal!N$60/12</f>
+        <v>-2.0816681711721685E-13</v>
       </c>
       <c r="S19" s="63">
         <f t="shared" si="1"/>
@@ -6193,36 +6264,36 @@
         <v>0</v>
       </c>
       <c r="M20" s="63">
-        <f>$F20*Outputs_Internal!$D$58/12</f>
-        <v>19897.833333333332</v>
+        <f>$F20*Outputs_Internal!$D$60/12</f>
+        <v>15536.083333333334</v>
       </c>
       <c r="N20" s="63">
-        <f>$F20*Outputs_Internal!K$58/12</f>
-        <v>3164.3479550372194</v>
+        <f>$F20*Outputs_Internal!K$60/12</f>
+        <v>3090.2903216236641</v>
       </c>
       <c r="O20" s="63">
-        <f>$F20*Outputs_Internal!L$58/12</f>
-        <v>16733.485378296115</v>
+        <f>$F20*Outputs_Internal!L$60/12</f>
+        <v>12445.793011709669</v>
       </c>
       <c r="P20" s="63">
-        <f>$F20*Outputs_Internal!M$58/12</f>
+        <f>$F20*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q20" s="63">
-        <f>$F20*Outputs_Internal!N$58/12</f>
-        <v>0</v>
+        <f>$F20*Outputs_Internal!N$60/12</f>
+        <v>-2.0816681711721685E-13</v>
       </c>
       <c r="S20" s="63">
         <f t="shared" si="1"/>
-        <v>59693.5</v>
+        <v>46608.25</v>
       </c>
       <c r="T20" s="63">
         <f t="shared" si="2"/>
-        <v>9493.0438651116583</v>
+        <v>9270.8709648709919</v>
       </c>
       <c r="U20" s="63">
         <f t="shared" si="3"/>
-        <v>50200.456134888344</v>
+        <v>37337.379035129008</v>
       </c>
       <c r="V20" s="63">
         <f t="shared" si="4"/>
@@ -6230,7 +6301,7 @@
       </c>
       <c r="W20" s="63">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-6.2450045135165055E-13</v>
       </c>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.25">
@@ -6267,24 +6338,24 @@
         <v>0</v>
       </c>
       <c r="M21" s="63">
-        <f>$F21*Outputs_Internal!$D$58/12</f>
-        <v>19897.833333333332</v>
+        <f>$F21*Outputs_Internal!$D$60/12</f>
+        <v>15536.083333333334</v>
       </c>
       <c r="N21" s="63">
-        <f>$F21*Outputs_Internal!K$58/12</f>
-        <v>3164.3479550372194</v>
+        <f>$F21*Outputs_Internal!K$60/12</f>
+        <v>3090.2903216236641</v>
       </c>
       <c r="O21" s="63">
-        <f>$F21*Outputs_Internal!L$58/12</f>
-        <v>16733.485378296115</v>
+        <f>$F21*Outputs_Internal!L$60/12</f>
+        <v>12445.793011709669</v>
       </c>
       <c r="P21" s="63">
-        <f>$F21*Outputs_Internal!M$58/12</f>
+        <f>$F21*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q21" s="63">
-        <f>$F21*Outputs_Internal!N$58/12</f>
-        <v>0</v>
+        <f>$F21*Outputs_Internal!N$60/12</f>
+        <v>-2.0816681711721685E-13</v>
       </c>
       <c r="S21" s="63">
         <f t="shared" si="1"/>
@@ -6341,24 +6412,24 @@
         <v>0</v>
       </c>
       <c r="M22" s="63">
-        <f>$F22*Outputs_Internal!$D$58/12</f>
-        <v>19897.833333333332</v>
+        <f>$F22*Outputs_Internal!$D$60/12</f>
+        <v>15536.083333333334</v>
       </c>
       <c r="N22" s="63">
-        <f>$F22*Outputs_Internal!K$58/12</f>
-        <v>3164.3479550372194</v>
+        <f>$F22*Outputs_Internal!K$60/12</f>
+        <v>3090.2903216236641</v>
       </c>
       <c r="O22" s="63">
-        <f>$F22*Outputs_Internal!L$58/12</f>
-        <v>16733.485378296115</v>
+        <f>$F22*Outputs_Internal!L$60/12</f>
+        <v>12445.793011709669</v>
       </c>
       <c r="P22" s="63">
-        <f>$F22*Outputs_Internal!M$58/12</f>
+        <f>$F22*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q22" s="63">
-        <f>$F22*Outputs_Internal!N$58/12</f>
-        <v>0</v>
+        <f>$F22*Outputs_Internal!N$60/12</f>
+        <v>-2.0816681711721685E-13</v>
       </c>
       <c r="S22" s="63">
         <f t="shared" si="1"/>
@@ -6415,36 +6486,36 @@
         <v>0</v>
       </c>
       <c r="M23" s="63">
-        <f>$F23*Outputs_Internal!$D$58/12</f>
-        <v>19897.833333333332</v>
+        <f>$F23*Outputs_Internal!$D$60/12</f>
+        <v>15536.083333333334</v>
       </c>
       <c r="N23" s="63">
-        <f>$F23*Outputs_Internal!K$58/12</f>
-        <v>3164.3479550372194</v>
+        <f>$F23*Outputs_Internal!K$60/12</f>
+        <v>3090.2903216236641</v>
       </c>
       <c r="O23" s="63">
-        <f>$F23*Outputs_Internal!L$58/12</f>
-        <v>16733.485378296115</v>
+        <f>$F23*Outputs_Internal!L$60/12</f>
+        <v>12445.793011709669</v>
       </c>
       <c r="P23" s="63">
-        <f>$F23*Outputs_Internal!M$58/12</f>
+        <f>$F23*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q23" s="63">
-        <f>$F23*Outputs_Internal!N$58/12</f>
-        <v>0</v>
+        <f>$F23*Outputs_Internal!N$60/12</f>
+        <v>-2.0816681711721685E-13</v>
       </c>
       <c r="S23" s="63">
         <f t="shared" si="1"/>
-        <v>59693.5</v>
+        <v>46608.25</v>
       </c>
       <c r="T23" s="63">
         <f t="shared" si="2"/>
-        <v>9493.0438651116583</v>
+        <v>9270.8709648709919</v>
       </c>
       <c r="U23" s="63">
         <f t="shared" si="3"/>
-        <v>50200.456134888344</v>
+        <v>37337.379035129008</v>
       </c>
       <c r="V23" s="63">
         <f t="shared" si="4"/>
@@ -6452,7 +6523,7 @@
       </c>
       <c r="W23" s="63">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-6.2450045135165055E-13</v>
       </c>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.25">
@@ -6489,24 +6560,24 @@
         <v>0</v>
       </c>
       <c r="M24" s="63">
-        <f>$F24*Outputs_Internal!$D$58/12</f>
-        <v>19897.833333333332</v>
+        <f>$F24*Outputs_Internal!$D$60/12</f>
+        <v>15536.083333333334</v>
       </c>
       <c r="N24" s="63">
-        <f>$F24*Outputs_Internal!K$58/12</f>
-        <v>3164.3479550372194</v>
+        <f>$F24*Outputs_Internal!K$60/12</f>
+        <v>3090.2903216236641</v>
       </c>
       <c r="O24" s="63">
-        <f>$F24*Outputs_Internal!L$58/12</f>
-        <v>16733.485378296115</v>
+        <f>$F24*Outputs_Internal!L$60/12</f>
+        <v>12445.793011709669</v>
       </c>
       <c r="P24" s="63">
-        <f>$F24*Outputs_Internal!M$58/12</f>
+        <f>$F24*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q24" s="63">
-        <f>$F24*Outputs_Internal!N$58/12</f>
-        <v>0</v>
+        <f>$F24*Outputs_Internal!N$60/12</f>
+        <v>-2.0816681711721685E-13</v>
       </c>
       <c r="S24" s="63">
         <f t="shared" si="1"/>
@@ -6563,24 +6634,24 @@
         <v>0</v>
       </c>
       <c r="M25" s="63">
-        <f>$F25*Outputs_Internal!$D$58/12</f>
-        <v>19897.833333333332</v>
+        <f>$F25*Outputs_Internal!$D$60/12</f>
+        <v>15536.083333333334</v>
       </c>
       <c r="N25" s="63">
-        <f>$F25*Outputs_Internal!K$58/12</f>
-        <v>3164.3479550372194</v>
+        <f>$F25*Outputs_Internal!K$60/12</f>
+        <v>3090.2903216236641</v>
       </c>
       <c r="O25" s="63">
-        <f>$F25*Outputs_Internal!L$58/12</f>
-        <v>16733.485378296115</v>
+        <f>$F25*Outputs_Internal!L$60/12</f>
+        <v>12445.793011709669</v>
       </c>
       <c r="P25" s="63">
-        <f>$F25*Outputs_Internal!M$58/12</f>
+        <f>$F25*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q25" s="63">
-        <f>$F25*Outputs_Internal!N$58/12</f>
-        <v>0</v>
+        <f>$F25*Outputs_Internal!N$60/12</f>
+        <v>-2.0816681711721685E-13</v>
       </c>
       <c r="S25" s="63">
         <f t="shared" si="1"/>
@@ -6637,36 +6708,36 @@
         <v>0</v>
       </c>
       <c r="M26" s="63">
-        <f>$F26*Outputs_Internal!$D$58/12</f>
-        <v>19897.833333333332</v>
+        <f>$F26*Outputs_Internal!$D$60/12</f>
+        <v>15536.083333333334</v>
       </c>
       <c r="N26" s="63">
-        <f>$F26*Outputs_Internal!K$58/12</f>
-        <v>3164.3479550372194</v>
+        <f>$F26*Outputs_Internal!K$60/12</f>
+        <v>3090.2903216236641</v>
       </c>
       <c r="O26" s="63">
-        <f>$F26*Outputs_Internal!L$58/12</f>
-        <v>16733.485378296115</v>
+        <f>$F26*Outputs_Internal!L$60/12</f>
+        <v>12445.793011709669</v>
       </c>
       <c r="P26" s="63">
-        <f>$F26*Outputs_Internal!M$58/12</f>
+        <f>$F26*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q26" s="63">
-        <f>$F26*Outputs_Internal!N$58/12</f>
-        <v>0</v>
+        <f>$F26*Outputs_Internal!N$60/12</f>
+        <v>-2.0816681711721685E-13</v>
       </c>
       <c r="S26" s="63">
         <f t="shared" si="1"/>
-        <v>59693.5</v>
+        <v>46608.25</v>
       </c>
       <c r="T26" s="63">
         <f t="shared" si="2"/>
-        <v>9493.0438651116583</v>
+        <v>9270.8709648709919</v>
       </c>
       <c r="U26" s="63">
         <f t="shared" si="3"/>
-        <v>50200.456134888344</v>
+        <v>37337.379035129008</v>
       </c>
       <c r="V26" s="63">
         <f t="shared" si="4"/>
@@ -6674,7 +6745,7 @@
       </c>
       <c r="W26" s="63">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-6.2450045135165055E-13</v>
       </c>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.25">
@@ -6711,24 +6782,24 @@
         <v>0</v>
       </c>
       <c r="M27" s="63">
-        <f>$F27*Outputs_Internal!$D$58/12</f>
-        <v>19897.833333333332</v>
+        <f>$F27*Outputs_Internal!$D$60/12</f>
+        <v>15536.083333333334</v>
       </c>
       <c r="N27" s="63">
-        <f>$F27*Outputs_Internal!K$58/12</f>
-        <v>3164.3479550372194</v>
+        <f>$F27*Outputs_Internal!K$60/12</f>
+        <v>3090.2903216236641</v>
       </c>
       <c r="O27" s="63">
-        <f>$F27*Outputs_Internal!L$58/12</f>
-        <v>16733.485378296115</v>
+        <f>$F27*Outputs_Internal!L$60/12</f>
+        <v>12445.793011709669</v>
       </c>
       <c r="P27" s="63">
-        <f>$F27*Outputs_Internal!M$58/12</f>
+        <f>$F27*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q27" s="63">
-        <f>$F27*Outputs_Internal!N$58/12</f>
-        <v>0</v>
+        <f>$F27*Outputs_Internal!N$60/12</f>
+        <v>-2.0816681711721685E-13</v>
       </c>
       <c r="S27" s="63">
         <f t="shared" si="1"/>
@@ -6785,24 +6856,24 @@
         <v>0</v>
       </c>
       <c r="M28" s="63">
-        <f>$F28*Outputs_Internal!$D$58/12</f>
-        <v>19897.833333333332</v>
+        <f>$F28*Outputs_Internal!$D$60/12</f>
+        <v>15536.083333333334</v>
       </c>
       <c r="N28" s="63">
-        <f>$F28*Outputs_Internal!K$58/12</f>
-        <v>3164.3479550372194</v>
+        <f>$F28*Outputs_Internal!K$60/12</f>
+        <v>3090.2903216236641</v>
       </c>
       <c r="O28" s="63">
-        <f>$F28*Outputs_Internal!L$58/12</f>
-        <v>16733.485378296115</v>
+        <f>$F28*Outputs_Internal!L$60/12</f>
+        <v>12445.793011709669</v>
       </c>
       <c r="P28" s="63">
-        <f>$F28*Outputs_Internal!M$58/12</f>
+        <f>$F28*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q28" s="63">
-        <f>$F28*Outputs_Internal!N$58/12</f>
-        <v>0</v>
+        <f>$F28*Outputs_Internal!N$60/12</f>
+        <v>-2.0816681711721685E-13</v>
       </c>
       <c r="S28" s="63">
         <f t="shared" si="1"/>
@@ -6859,36 +6930,36 @@
         <v>0</v>
       </c>
       <c r="M29" s="63">
-        <f>$F29*Outputs_Internal!$D$58/12</f>
-        <v>19897.833333333332</v>
+        <f>$F29*Outputs_Internal!$D$60/12</f>
+        <v>15536.083333333334</v>
       </c>
       <c r="N29" s="63">
-        <f>$F29*Outputs_Internal!K$58/12</f>
-        <v>3164.3479550372194</v>
+        <f>$F29*Outputs_Internal!K$60/12</f>
+        <v>3090.2903216236641</v>
       </c>
       <c r="O29" s="63">
-        <f>$F29*Outputs_Internal!L$58/12</f>
-        <v>16733.485378296115</v>
+        <f>$F29*Outputs_Internal!L$60/12</f>
+        <v>12445.793011709669</v>
       </c>
       <c r="P29" s="63">
-        <f>$F29*Outputs_Internal!M$58/12</f>
+        <f>$F29*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q29" s="63">
-        <f>$F29*Outputs_Internal!N$58/12</f>
-        <v>0</v>
+        <f>$F29*Outputs_Internal!N$60/12</f>
+        <v>-2.0816681711721685E-13</v>
       </c>
       <c r="S29" s="63">
         <f t="shared" si="1"/>
-        <v>59693.5</v>
+        <v>46608.25</v>
       </c>
       <c r="T29" s="63">
         <f t="shared" si="2"/>
-        <v>9493.0438651116583</v>
+        <v>9270.8709648709919</v>
       </c>
       <c r="U29" s="63">
         <f t="shared" si="3"/>
-        <v>50200.456134888344</v>
+        <v>37337.379035129008</v>
       </c>
       <c r="V29" s="63">
         <f t="shared" si="4"/>
@@ -6896,7 +6967,7 @@
       </c>
       <c r="W29" s="63">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-6.2450045135165055E-13</v>
       </c>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.25">
@@ -6933,24 +7004,24 @@
         <v>0</v>
       </c>
       <c r="M30" s="63">
-        <f>$F30*Outputs_Internal!$D$58/12</f>
-        <v>19897.833333333332</v>
+        <f>$F30*Outputs_Internal!$D$60/12</f>
+        <v>15536.083333333334</v>
       </c>
       <c r="N30" s="63">
-        <f>$F30*Outputs_Internal!K$58/12</f>
-        <v>3164.3479550372194</v>
+        <f>$F30*Outputs_Internal!K$60/12</f>
+        <v>3090.2903216236641</v>
       </c>
       <c r="O30" s="63">
-        <f>$F30*Outputs_Internal!L$58/12</f>
-        <v>16733.485378296115</v>
+        <f>$F30*Outputs_Internal!L$60/12</f>
+        <v>12445.793011709669</v>
       </c>
       <c r="P30" s="63">
-        <f>$F30*Outputs_Internal!M$58/12</f>
+        <f>$F30*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q30" s="63">
-        <f>$F30*Outputs_Internal!N$58/12</f>
-        <v>0</v>
+        <f>$F30*Outputs_Internal!N$60/12</f>
+        <v>-2.0816681711721685E-13</v>
       </c>
       <c r="S30" s="63">
         <f t="shared" si="1"/>
@@ -7007,24 +7078,24 @@
         <v>0</v>
       </c>
       <c r="M31" s="63">
-        <f>$F31*Outputs_Internal!$D$58/12</f>
-        <v>19897.833333333332</v>
+        <f>$F31*Outputs_Internal!$D$60/12</f>
+        <v>15536.083333333334</v>
       </c>
       <c r="N31" s="63">
-        <f>$F31*Outputs_Internal!K$58/12</f>
-        <v>3164.3479550372194</v>
+        <f>$F31*Outputs_Internal!K$60/12</f>
+        <v>3090.2903216236641</v>
       </c>
       <c r="O31" s="63">
-        <f>$F31*Outputs_Internal!L$58/12</f>
-        <v>16733.485378296115</v>
+        <f>$F31*Outputs_Internal!L$60/12</f>
+        <v>12445.793011709669</v>
       </c>
       <c r="P31" s="63">
-        <f>$F31*Outputs_Internal!M$58/12</f>
+        <f>$F31*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q31" s="63">
-        <f>$F31*Outputs_Internal!N$58/12</f>
-        <v>0</v>
+        <f>$F31*Outputs_Internal!N$60/12</f>
+        <v>-2.0816681711721685E-13</v>
       </c>
       <c r="S31" s="63">
         <f t="shared" si="1"/>
@@ -7081,36 +7152,36 @@
         <v>0</v>
       </c>
       <c r="M32" s="63">
-        <f>$F32*Outputs_Internal!$D$58/12</f>
-        <v>19897.833333333332</v>
+        <f>$F32*Outputs_Internal!$D$60/12</f>
+        <v>15536.083333333334</v>
       </c>
       <c r="N32" s="63">
-        <f>$F32*Outputs_Internal!K$58/12</f>
-        <v>3164.3479550372194</v>
+        <f>$F32*Outputs_Internal!K$60/12</f>
+        <v>3090.2903216236641</v>
       </c>
       <c r="O32" s="63">
-        <f>$F32*Outputs_Internal!L$58/12</f>
-        <v>16733.485378296115</v>
+        <f>$F32*Outputs_Internal!L$60/12</f>
+        <v>12445.793011709669</v>
       </c>
       <c r="P32" s="63">
-        <f>$F32*Outputs_Internal!M$58/12</f>
+        <f>$F32*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q32" s="63">
-        <f>$F32*Outputs_Internal!N$58/12</f>
-        <v>0</v>
+        <f>$F32*Outputs_Internal!N$60/12</f>
+        <v>-2.0816681711721685E-13</v>
       </c>
       <c r="S32" s="63">
         <f t="shared" si="1"/>
-        <v>59693.5</v>
+        <v>46608.25</v>
       </c>
       <c r="T32" s="63">
         <f t="shared" si="2"/>
-        <v>9493.0438651116583</v>
+        <v>9270.8709648709919</v>
       </c>
       <c r="U32" s="63">
         <f t="shared" si="3"/>
-        <v>50200.456134888344</v>
+        <v>37337.379035129008</v>
       </c>
       <c r="V32" s="63">
         <f t="shared" si="4"/>
@@ -7118,7 +7189,7 @@
       </c>
       <c r="W32" s="63">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-6.2450045135165055E-13</v>
       </c>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.25">
@@ -7155,24 +7226,24 @@
         <v>0</v>
       </c>
       <c r="M33" s="63">
-        <f>$F33*Outputs_Internal!$D$58/12</f>
-        <v>19897.833333333332</v>
+        <f>$F33*Outputs_Internal!$D$60/12</f>
+        <v>15536.083333333334</v>
       </c>
       <c r="N33" s="63">
-        <f>$F33*Outputs_Internal!K$58/12</f>
-        <v>3164.3479550372194</v>
+        <f>$F33*Outputs_Internal!K$60/12</f>
+        <v>3090.2903216236641</v>
       </c>
       <c r="O33" s="63">
-        <f>$F33*Outputs_Internal!L$58/12</f>
-        <v>16733.485378296115</v>
+        <f>$F33*Outputs_Internal!L$60/12</f>
+        <v>12445.793011709669</v>
       </c>
       <c r="P33" s="63">
-        <f>$F33*Outputs_Internal!M$58/12</f>
+        <f>$F33*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q33" s="63">
-        <f>$F33*Outputs_Internal!N$58/12</f>
-        <v>0</v>
+        <f>$F33*Outputs_Internal!N$60/12</f>
+        <v>-2.0816681711721685E-13</v>
       </c>
       <c r="S33" s="63">
         <f t="shared" si="1"/>
@@ -7229,24 +7300,24 @@
         <v>0</v>
       </c>
       <c r="M34" s="63">
-        <f>$F34*Outputs_Internal!$D$58/12</f>
-        <v>19897.833333333332</v>
+        <f>$F34*Outputs_Internal!$D$60/12</f>
+        <v>15536.083333333334</v>
       </c>
       <c r="N34" s="63">
-        <f>$F34*Outputs_Internal!K$58/12</f>
-        <v>3164.3479550372194</v>
+        <f>$F34*Outputs_Internal!K$60/12</f>
+        <v>3090.2903216236641</v>
       </c>
       <c r="O34" s="63">
-        <f>$F34*Outputs_Internal!L$58/12</f>
-        <v>16733.485378296115</v>
+        <f>$F34*Outputs_Internal!L$60/12</f>
+        <v>12445.793011709669</v>
       </c>
       <c r="P34" s="63">
-        <f>$F34*Outputs_Internal!M$58/12</f>
+        <f>$F34*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q34" s="63">
-        <f>$F34*Outputs_Internal!N$58/12</f>
-        <v>0</v>
+        <f>$F34*Outputs_Internal!N$60/12</f>
+        <v>-2.0816681711721685E-13</v>
       </c>
       <c r="S34" s="63">
         <f t="shared" si="1"/>
@@ -7303,36 +7374,36 @@
         <v>0</v>
       </c>
       <c r="M35" s="63">
-        <f>$F35*Outputs_Internal!$D$58/12</f>
-        <v>19897.833333333332</v>
+        <f>$F35*Outputs_Internal!$D$60/12</f>
+        <v>15536.083333333334</v>
       </c>
       <c r="N35" s="63">
-        <f>$F35*Outputs_Internal!K$58/12</f>
-        <v>3164.3479550372194</v>
+        <f>$F35*Outputs_Internal!K$60/12</f>
+        <v>3090.2903216236641</v>
       </c>
       <c r="O35" s="63">
-        <f>$F35*Outputs_Internal!L$58/12</f>
-        <v>16733.485378296115</v>
+        <f>$F35*Outputs_Internal!L$60/12</f>
+        <v>12445.793011709669</v>
       </c>
       <c r="P35" s="63">
-        <f>$F35*Outputs_Internal!M$58/12</f>
+        <f>$F35*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q35" s="63">
-        <f>$F35*Outputs_Internal!N$58/12</f>
-        <v>0</v>
+        <f>$F35*Outputs_Internal!N$60/12</f>
+        <v>-2.0816681711721685E-13</v>
       </c>
       <c r="S35" s="63">
         <f t="shared" si="1"/>
-        <v>59693.5</v>
+        <v>46608.25</v>
       </c>
       <c r="T35" s="63">
         <f t="shared" si="2"/>
-        <v>9493.0438651116583</v>
+        <v>9270.8709648709919</v>
       </c>
       <c r="U35" s="63">
         <f t="shared" si="3"/>
-        <v>50200.456134888344</v>
+        <v>37337.379035129008</v>
       </c>
       <c r="V35" s="63">
         <f t="shared" si="4"/>
@@ -7340,7 +7411,7 @@
       </c>
       <c r="W35" s="63">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-6.2450045135165055E-13</v>
       </c>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.25">
@@ -7377,24 +7448,24 @@
         <v>0</v>
       </c>
       <c r="M36" s="63">
-        <f>$F36*Outputs_Internal!$D$58/12</f>
-        <v>19897.833333333332</v>
+        <f>$F36*Outputs_Internal!$D$60/12</f>
+        <v>15536.083333333334</v>
       </c>
       <c r="N36" s="63">
-        <f>$F36*Outputs_Internal!K$58/12</f>
-        <v>3164.3479550372194</v>
+        <f>$F36*Outputs_Internal!K$60/12</f>
+        <v>3090.2903216236641</v>
       </c>
       <c r="O36" s="63">
-        <f>$F36*Outputs_Internal!L$58/12</f>
-        <v>16733.485378296115</v>
+        <f>$F36*Outputs_Internal!L$60/12</f>
+        <v>12445.793011709669</v>
       </c>
       <c r="P36" s="63">
-        <f>$F36*Outputs_Internal!M$58/12</f>
+        <f>$F36*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q36" s="63">
-        <f>$F36*Outputs_Internal!N$58/12</f>
-        <v>0</v>
+        <f>$F36*Outputs_Internal!N$60/12</f>
+        <v>-2.0816681711721685E-13</v>
       </c>
       <c r="S36" s="63">
         <f t="shared" si="1"/>
@@ -7451,24 +7522,24 @@
         <v>0</v>
       </c>
       <c r="M37" s="63">
-        <f>$F37*Outputs_Internal!$D$58/12</f>
-        <v>19897.833333333332</v>
+        <f>$F37*Outputs_Internal!$D$60/12</f>
+        <v>15536.083333333334</v>
       </c>
       <c r="N37" s="63">
-        <f>$F37*Outputs_Internal!K$58/12</f>
-        <v>3164.3479550372194</v>
+        <f>$F37*Outputs_Internal!K$60/12</f>
+        <v>3090.2903216236641</v>
       </c>
       <c r="O37" s="63">
-        <f>$F37*Outputs_Internal!L$58/12</f>
-        <v>16733.485378296115</v>
+        <f>$F37*Outputs_Internal!L$60/12</f>
+        <v>12445.793011709669</v>
       </c>
       <c r="P37" s="63">
-        <f>$F37*Outputs_Internal!M$58/12</f>
+        <f>$F37*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q37" s="63">
-        <f>$F37*Outputs_Internal!N$58/12</f>
-        <v>0</v>
+        <f>$F37*Outputs_Internal!N$60/12</f>
+        <v>-2.0816681711721685E-13</v>
       </c>
       <c r="S37" s="63">
         <f t="shared" si="1"/>
@@ -7525,36 +7596,36 @@
         <v>0</v>
       </c>
       <c r="M38" s="63">
-        <f>$F38*Outputs_Internal!$D$58/12</f>
-        <v>19897.833333333332</v>
+        <f>$F38*Outputs_Internal!$D$60/12</f>
+        <v>15536.083333333334</v>
       </c>
       <c r="N38" s="63">
-        <f>$F38*Outputs_Internal!K$58/12</f>
-        <v>3164.3479550372194</v>
+        <f>$F38*Outputs_Internal!K$60/12</f>
+        <v>3090.2903216236641</v>
       </c>
       <c r="O38" s="63">
-        <f>$F38*Outputs_Internal!L$58/12</f>
-        <v>16733.485378296115</v>
+        <f>$F38*Outputs_Internal!L$60/12</f>
+        <v>12445.793011709669</v>
       </c>
       <c r="P38" s="63">
-        <f>$F38*Outputs_Internal!M$58/12</f>
+        <f>$F38*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q38" s="63">
-        <f>$F38*Outputs_Internal!N$58/12</f>
-        <v>0</v>
+        <f>$F38*Outputs_Internal!N$60/12</f>
+        <v>-2.0816681711721685E-13</v>
       </c>
       <c r="S38" s="63">
         <f t="shared" si="1"/>
-        <v>59693.5</v>
+        <v>46608.25</v>
       </c>
       <c r="T38" s="63">
         <f t="shared" si="2"/>
-        <v>9493.0438651116583</v>
+        <v>9270.8709648709919</v>
       </c>
       <c r="U38" s="63">
         <f t="shared" si="3"/>
-        <v>50200.456134888344</v>
+        <v>37337.379035129008</v>
       </c>
       <c r="V38" s="63">
         <f t="shared" si="4"/>
@@ -7562,7 +7633,7 @@
       </c>
       <c r="W38" s="63">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-6.2450045135165055E-13</v>
       </c>
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.25">
@@ -7599,24 +7670,24 @@
         <v>0</v>
       </c>
       <c r="M39" s="63">
-        <f>$F39*Outputs_Internal!$D$58/12</f>
-        <v>19897.833333333332</v>
+        <f>$F39*Outputs_Internal!$D$60/12</f>
+        <v>15536.083333333334</v>
       </c>
       <c r="N39" s="63">
-        <f>$F39*Outputs_Internal!K$58/12</f>
-        <v>3164.3479550372194</v>
+        <f>$F39*Outputs_Internal!K$60/12</f>
+        <v>3090.2903216236641</v>
       </c>
       <c r="O39" s="63">
-        <f>$F39*Outputs_Internal!L$58/12</f>
-        <v>16733.485378296115</v>
+        <f>$F39*Outputs_Internal!L$60/12</f>
+        <v>12445.793011709669</v>
       </c>
       <c r="P39" s="63">
-        <f>$F39*Outputs_Internal!M$58/12</f>
+        <f>$F39*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q39" s="63">
-        <f>$F39*Outputs_Internal!N$58/12</f>
-        <v>0</v>
+        <f>$F39*Outputs_Internal!N$60/12</f>
+        <v>-2.0816681711721685E-13</v>
       </c>
       <c r="S39" s="63">
         <f t="shared" si="1"/>
@@ -7673,24 +7744,24 @@
         <v>0</v>
       </c>
       <c r="M40" s="63">
-        <f>$F40*Outputs_Internal!$D$58/12</f>
-        <v>19897.833333333332</v>
+        <f>$F40*Outputs_Internal!$D$60/12</f>
+        <v>15536.083333333334</v>
       </c>
       <c r="N40" s="63">
-        <f>$F40*Outputs_Internal!K$58/12</f>
-        <v>3164.3479550372194</v>
+        <f>$F40*Outputs_Internal!K$60/12</f>
+        <v>3090.2903216236641</v>
       </c>
       <c r="O40" s="63">
-        <f>$F40*Outputs_Internal!L$58/12</f>
-        <v>16733.485378296115</v>
+        <f>$F40*Outputs_Internal!L$60/12</f>
+        <v>12445.793011709669</v>
       </c>
       <c r="P40" s="63">
-        <f>$F40*Outputs_Internal!M$58/12</f>
+        <f>$F40*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q40" s="63">
-        <f>$F40*Outputs_Internal!N$58/12</f>
-        <v>0</v>
+        <f>$F40*Outputs_Internal!N$60/12</f>
+        <v>-2.0816681711721685E-13</v>
       </c>
       <c r="S40" s="63">
         <f t="shared" si="1"/>
@@ -7747,36 +7818,36 @@
         <v>0</v>
       </c>
       <c r="M41" s="63">
-        <f>$F41*Outputs_Internal!$D$58/12</f>
-        <v>19897.833333333332</v>
+        <f>$F41*Outputs_Internal!$D$60/12</f>
+        <v>15536.083333333334</v>
       </c>
       <c r="N41" s="63">
-        <f>$F41*Outputs_Internal!K$58/12</f>
-        <v>3164.3479550372194</v>
+        <f>$F41*Outputs_Internal!K$60/12</f>
+        <v>3090.2903216236641</v>
       </c>
       <c r="O41" s="63">
-        <f>$F41*Outputs_Internal!L$58/12</f>
-        <v>16733.485378296115</v>
+        <f>$F41*Outputs_Internal!L$60/12</f>
+        <v>12445.793011709669</v>
       </c>
       <c r="P41" s="63">
-        <f>$F41*Outputs_Internal!M$58/12</f>
+        <f>$F41*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q41" s="63">
-        <f>$F41*Outputs_Internal!N$58/12</f>
-        <v>0</v>
+        <f>$F41*Outputs_Internal!N$60/12</f>
+        <v>-2.0816681711721685E-13</v>
       </c>
       <c r="S41" s="63">
         <f t="shared" si="1"/>
-        <v>59693.5</v>
+        <v>46608.25</v>
       </c>
       <c r="T41" s="63">
         <f t="shared" si="2"/>
-        <v>9493.0438651116583</v>
+        <v>9270.8709648709919</v>
       </c>
       <c r="U41" s="63">
         <f t="shared" si="3"/>
-        <v>50200.456134888344</v>
+        <v>37337.379035129008</v>
       </c>
       <c r="V41" s="63">
         <f t="shared" si="4"/>
@@ -7784,7 +7855,7 @@
       </c>
       <c r="W41" s="63">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-6.2450045135165055E-13</v>
       </c>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.25">
@@ -7821,24 +7892,24 @@
         <v>0</v>
       </c>
       <c r="M42" s="63">
-        <f>$F42*Outputs_Internal!$D$58/12</f>
-        <v>19897.833333333332</v>
+        <f>$F42*Outputs_Internal!$D$60/12</f>
+        <v>15536.083333333334</v>
       </c>
       <c r="N42" s="63">
-        <f>$F42*Outputs_Internal!K$58/12</f>
-        <v>3164.3479550372194</v>
+        <f>$F42*Outputs_Internal!K$60/12</f>
+        <v>3090.2903216236641</v>
       </c>
       <c r="O42" s="63">
-        <f>$F42*Outputs_Internal!L$58/12</f>
-        <v>16733.485378296115</v>
+        <f>$F42*Outputs_Internal!L$60/12</f>
+        <v>12445.793011709669</v>
       </c>
       <c r="P42" s="63">
-        <f>$F42*Outputs_Internal!M$58/12</f>
+        <f>$F42*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q42" s="63">
-        <f>$F42*Outputs_Internal!N$58/12</f>
-        <v>0</v>
+        <f>$F42*Outputs_Internal!N$60/12</f>
+        <v>-2.0816681711721685E-13</v>
       </c>
       <c r="S42" s="63">
         <f t="shared" si="1"/>
@@ -7895,24 +7966,24 @@
         <v>0</v>
       </c>
       <c r="M43" s="63">
-        <f>$F43*Outputs_Internal!$D$58/12</f>
-        <v>19897.833333333332</v>
+        <f>$F43*Outputs_Internal!$D$60/12</f>
+        <v>15536.083333333334</v>
       </c>
       <c r="N43" s="63">
-        <f>$F43*Outputs_Internal!K$58/12</f>
-        <v>3164.3479550372194</v>
+        <f>$F43*Outputs_Internal!K$60/12</f>
+        <v>3090.2903216236641</v>
       </c>
       <c r="O43" s="63">
-        <f>$F43*Outputs_Internal!L$58/12</f>
-        <v>16733.485378296115</v>
+        <f>$F43*Outputs_Internal!L$60/12</f>
+        <v>12445.793011709669</v>
       </c>
       <c r="P43" s="63">
-        <f>$F43*Outputs_Internal!M$58/12</f>
+        <f>$F43*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q43" s="63">
-        <f>$F43*Outputs_Internal!N$58/12</f>
-        <v>0</v>
+        <f>$F43*Outputs_Internal!N$60/12</f>
+        <v>-2.0816681711721685E-13</v>
       </c>
       <c r="S43" s="63">
         <f t="shared" si="1"/>
@@ -7969,36 +8040,36 @@
         <v>0</v>
       </c>
       <c r="M44" s="63">
-        <f>$F44*Outputs_Internal!$D$58/12</f>
-        <v>19897.833333333332</v>
+        <f>$F44*Outputs_Internal!$D$60/12</f>
+        <v>15536.083333333334</v>
       </c>
       <c r="N44" s="63">
-        <f>$F44*Outputs_Internal!K$58/12</f>
-        <v>3164.3479550372194</v>
+        <f>$F44*Outputs_Internal!K$60/12</f>
+        <v>3090.2903216236641</v>
       </c>
       <c r="O44" s="63">
-        <f>$F44*Outputs_Internal!L$58/12</f>
-        <v>16733.485378296115</v>
+        <f>$F44*Outputs_Internal!L$60/12</f>
+        <v>12445.793011709669</v>
       </c>
       <c r="P44" s="63">
-        <f>$F44*Outputs_Internal!M$58/12</f>
+        <f>$F44*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q44" s="63">
-        <f>$F44*Outputs_Internal!N$58/12</f>
-        <v>0</v>
+        <f>$F44*Outputs_Internal!N$60/12</f>
+        <v>-2.0816681711721685E-13</v>
       </c>
       <c r="S44" s="63">
         <f>IF(MOD(MONTH($B44),3)=0,SUM(H42:H44,M42:M44),0)</f>
-        <v>59693.5</v>
+        <v>46608.25</v>
       </c>
       <c r="T44" s="63">
         <f t="shared" si="2"/>
-        <v>9493.0438651116583</v>
+        <v>9270.8709648709919</v>
       </c>
       <c r="U44" s="63">
         <f t="shared" si="3"/>
-        <v>50200.456134888344</v>
+        <v>37337.379035129008</v>
       </c>
       <c r="V44" s="63">
         <f t="shared" si="4"/>
@@ -8006,7 +8077,7 @@
       </c>
       <c r="W44" s="63">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-6.2450045135165055E-13</v>
       </c>
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.25">
@@ -8043,23 +8114,23 @@
         <v>0</v>
       </c>
       <c r="M45" s="63">
-        <f>$F45*Outputs_Internal!$D$58/12</f>
+        <f>$F45*Outputs_Internal!$D$60/12</f>
         <v>0</v>
       </c>
       <c r="N45" s="63">
-        <f>$F45*Outputs_Internal!K$58/12</f>
+        <f>$F45*Outputs_Internal!K$60/12</f>
         <v>0</v>
       </c>
       <c r="O45" s="63">
-        <f>$F45*Outputs_Internal!L$58/12</f>
+        <f>$F45*Outputs_Internal!L$60/12</f>
         <v>0</v>
       </c>
       <c r="P45" s="63">
-        <f>$F45*Outputs_Internal!M$58/12</f>
+        <f>$F45*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q45" s="63">
-        <f>$F45*Outputs_Internal!N$58/12</f>
+        <f>$F45*Outputs_Internal!N$60/12</f>
         <v>0</v>
       </c>
       <c r="S45" s="63">
@@ -8117,23 +8188,23 @@
         <v>0</v>
       </c>
       <c r="M46" s="63">
-        <f>$F46*Outputs_Internal!$D$58/12</f>
+        <f>$F46*Outputs_Internal!$D$60/12</f>
         <v>0</v>
       </c>
       <c r="N46" s="63">
-        <f>$F46*Outputs_Internal!K$58/12</f>
+        <f>$F46*Outputs_Internal!K$60/12</f>
         <v>0</v>
       </c>
       <c r="O46" s="63">
-        <f>$F46*Outputs_Internal!L$58/12</f>
+        <f>$F46*Outputs_Internal!L$60/12</f>
         <v>0</v>
       </c>
       <c r="P46" s="63">
-        <f>$F46*Outputs_Internal!M$58/12</f>
+        <f>$F46*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q46" s="63">
-        <f>$F46*Outputs_Internal!N$58/12</f>
+        <f>$F46*Outputs_Internal!N$60/12</f>
         <v>0</v>
       </c>
       <c r="S46" s="63">
@@ -8191,23 +8262,23 @@
         <v>0</v>
       </c>
       <c r="M47" s="63">
-        <f>$F47*Outputs_Internal!$D$58/12</f>
+        <f>$F47*Outputs_Internal!$D$60/12</f>
         <v>0</v>
       </c>
       <c r="N47" s="63">
-        <f>$F47*Outputs_Internal!K$58/12</f>
+        <f>$F47*Outputs_Internal!K$60/12</f>
         <v>0</v>
       </c>
       <c r="O47" s="63">
-        <f>$F47*Outputs_Internal!L$58/12</f>
+        <f>$F47*Outputs_Internal!L$60/12</f>
         <v>0</v>
       </c>
       <c r="P47" s="63">
-        <f>$F47*Outputs_Internal!M$58/12</f>
+        <f>$F47*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q47" s="63">
-        <f>$F47*Outputs_Internal!N$58/12</f>
+        <f>$F47*Outputs_Internal!N$60/12</f>
         <v>0</v>
       </c>
       <c r="S47" s="63">
@@ -8265,23 +8336,23 @@
         <v>0</v>
       </c>
       <c r="M48" s="63">
-        <f>$F48*Outputs_Internal!$D$58/12</f>
+        <f>$F48*Outputs_Internal!$D$60/12</f>
         <v>0</v>
       </c>
       <c r="N48" s="63">
-        <f>$F48*Outputs_Internal!K$58/12</f>
+        <f>$F48*Outputs_Internal!K$60/12</f>
         <v>0</v>
       </c>
       <c r="O48" s="63">
-        <f>$F48*Outputs_Internal!L$58/12</f>
+        <f>$F48*Outputs_Internal!L$60/12</f>
         <v>0</v>
       </c>
       <c r="P48" s="63">
-        <f>$F48*Outputs_Internal!M$58/12</f>
+        <f>$F48*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q48" s="63">
-        <f>$F48*Outputs_Internal!N$58/12</f>
+        <f>$F48*Outputs_Internal!N$60/12</f>
         <v>0</v>
       </c>
       <c r="S48" s="63">
@@ -8339,23 +8410,23 @@
         <v>0</v>
       </c>
       <c r="M49" s="63">
-        <f>$F49*Outputs_Internal!$D$58/12</f>
+        <f>$F49*Outputs_Internal!$D$60/12</f>
         <v>0</v>
       </c>
       <c r="N49" s="63">
-        <f>$F49*Outputs_Internal!K$58/12</f>
+        <f>$F49*Outputs_Internal!K$60/12</f>
         <v>0</v>
       </c>
       <c r="O49" s="63">
-        <f>$F49*Outputs_Internal!L$58/12</f>
+        <f>$F49*Outputs_Internal!L$60/12</f>
         <v>0</v>
       </c>
       <c r="P49" s="63">
-        <f>$F49*Outputs_Internal!M$58/12</f>
+        <f>$F49*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q49" s="63">
-        <f>$F49*Outputs_Internal!N$58/12</f>
+        <f>$F49*Outputs_Internal!N$60/12</f>
         <v>0</v>
       </c>
       <c r="S49" s="63">
@@ -8413,23 +8484,23 @@
         <v>0</v>
       </c>
       <c r="M50" s="63">
-        <f>$F50*Outputs_Internal!$D$58/12</f>
+        <f>$F50*Outputs_Internal!$D$60/12</f>
         <v>0</v>
       </c>
       <c r="N50" s="63">
-        <f>$F50*Outputs_Internal!K$58/12</f>
+        <f>$F50*Outputs_Internal!K$60/12</f>
         <v>0</v>
       </c>
       <c r="O50" s="63">
-        <f>$F50*Outputs_Internal!L$58/12</f>
+        <f>$F50*Outputs_Internal!L$60/12</f>
         <v>0</v>
       </c>
       <c r="P50" s="63">
-        <f>$F50*Outputs_Internal!M$58/12</f>
+        <f>$F50*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q50" s="63">
-        <f>$F50*Outputs_Internal!N$58/12</f>
+        <f>$F50*Outputs_Internal!N$60/12</f>
         <v>0</v>
       </c>
       <c r="S50" s="63">
@@ -8487,23 +8558,23 @@
         <v>0</v>
       </c>
       <c r="M51" s="63">
-        <f>$F51*Outputs_Internal!$D$58/12</f>
+        <f>$F51*Outputs_Internal!$D$60/12</f>
         <v>0</v>
       </c>
       <c r="N51" s="63">
-        <f>$F51*Outputs_Internal!K$58/12</f>
+        <f>$F51*Outputs_Internal!K$60/12</f>
         <v>0</v>
       </c>
       <c r="O51" s="63">
-        <f>$F51*Outputs_Internal!L$58/12</f>
+        <f>$F51*Outputs_Internal!L$60/12</f>
         <v>0</v>
       </c>
       <c r="P51" s="63">
-        <f>$F51*Outputs_Internal!M$58/12</f>
+        <f>$F51*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q51" s="63">
-        <f>$F51*Outputs_Internal!N$58/12</f>
+        <f>$F51*Outputs_Internal!N$60/12</f>
         <v>0</v>
       </c>
       <c r="S51" s="63">
@@ -8561,23 +8632,23 @@
         <v>0</v>
       </c>
       <c r="M52" s="63">
-        <f>$F52*Outputs_Internal!$D$58/12</f>
+        <f>$F52*Outputs_Internal!$D$60/12</f>
         <v>0</v>
       </c>
       <c r="N52" s="63">
-        <f>$F52*Outputs_Internal!K$58/12</f>
+        <f>$F52*Outputs_Internal!K$60/12</f>
         <v>0</v>
       </c>
       <c r="O52" s="63">
-        <f>$F52*Outputs_Internal!L$58/12</f>
+        <f>$F52*Outputs_Internal!L$60/12</f>
         <v>0</v>
       </c>
       <c r="P52" s="63">
-        <f>$F52*Outputs_Internal!M$58/12</f>
+        <f>$F52*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q52" s="63">
-        <f>$F52*Outputs_Internal!N$58/12</f>
+        <f>$F52*Outputs_Internal!N$60/12</f>
         <v>0</v>
       </c>
       <c r="S52" s="63">
@@ -8635,23 +8706,23 @@
         <v>0</v>
       </c>
       <c r="M53" s="63">
-        <f>$F53*Outputs_Internal!$D$58/12</f>
+        <f>$F53*Outputs_Internal!$D$60/12</f>
         <v>0</v>
       </c>
       <c r="N53" s="63">
-        <f>$F53*Outputs_Internal!K$58/12</f>
+        <f>$F53*Outputs_Internal!K$60/12</f>
         <v>0</v>
       </c>
       <c r="O53" s="63">
-        <f>$F53*Outputs_Internal!L$58/12</f>
+        <f>$F53*Outputs_Internal!L$60/12</f>
         <v>0</v>
       </c>
       <c r="P53" s="63">
-        <f>$F53*Outputs_Internal!M$58/12</f>
+        <f>$F53*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q53" s="63">
-        <f>$F53*Outputs_Internal!N$58/12</f>
+        <f>$F53*Outputs_Internal!N$60/12</f>
         <v>0</v>
       </c>
       <c r="S53" s="63">
@@ -8709,23 +8780,23 @@
         <v>0</v>
       </c>
       <c r="M54" s="63">
-        <f>$F54*Outputs_Internal!$D$58/12</f>
+        <f>$F54*Outputs_Internal!$D$60/12</f>
         <v>0</v>
       </c>
       <c r="N54" s="63">
-        <f>$F54*Outputs_Internal!K$58/12</f>
+        <f>$F54*Outputs_Internal!K$60/12</f>
         <v>0</v>
       </c>
       <c r="O54" s="63">
-        <f>$F54*Outputs_Internal!L$58/12</f>
+        <f>$F54*Outputs_Internal!L$60/12</f>
         <v>0</v>
       </c>
       <c r="P54" s="63">
-        <f>$F54*Outputs_Internal!M$58/12</f>
+        <f>$F54*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q54" s="63">
-        <f>$F54*Outputs_Internal!N$58/12</f>
+        <f>$F54*Outputs_Internal!N$60/12</f>
         <v>0</v>
       </c>
       <c r="S54" s="63">
@@ -8783,23 +8854,23 @@
         <v>0</v>
       </c>
       <c r="M55" s="63">
-        <f>$F55*Outputs_Internal!$D$58/12</f>
+        <f>$F55*Outputs_Internal!$D$60/12</f>
         <v>0</v>
       </c>
       <c r="N55" s="63">
-        <f>$F55*Outputs_Internal!K$58/12</f>
+        <f>$F55*Outputs_Internal!K$60/12</f>
         <v>0</v>
       </c>
       <c r="O55" s="63">
-        <f>$F55*Outputs_Internal!L$58/12</f>
+        <f>$F55*Outputs_Internal!L$60/12</f>
         <v>0</v>
       </c>
       <c r="P55" s="63">
-        <f>$F55*Outputs_Internal!M$58/12</f>
+        <f>$F55*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q55" s="63">
-        <f>$F55*Outputs_Internal!N$58/12</f>
+        <f>$F55*Outputs_Internal!N$60/12</f>
         <v>0</v>
       </c>
       <c r="S55" s="63">
@@ -8857,23 +8928,23 @@
         <v>0</v>
       </c>
       <c r="M56" s="63">
-        <f>$F56*Outputs_Internal!$D$58/12</f>
+        <f>$F56*Outputs_Internal!$D$60/12</f>
         <v>0</v>
       </c>
       <c r="N56" s="63">
-        <f>$F56*Outputs_Internal!K$58/12</f>
+        <f>$F56*Outputs_Internal!K$60/12</f>
         <v>0</v>
       </c>
       <c r="O56" s="63">
-        <f>$F56*Outputs_Internal!L$58/12</f>
+        <f>$F56*Outputs_Internal!L$60/12</f>
         <v>0</v>
       </c>
       <c r="P56" s="63">
-        <f>$F56*Outputs_Internal!M$58/12</f>
+        <f>$F56*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q56" s="63">
-        <f>$F56*Outputs_Internal!N$58/12</f>
+        <f>$F56*Outputs_Internal!N$60/12</f>
         <v>0</v>
       </c>
       <c r="S56" s="63">
@@ -8931,23 +9002,23 @@
         <v>0</v>
       </c>
       <c r="M57" s="63">
-        <f>$F57*Outputs_Internal!$D$58/12</f>
+        <f>$F57*Outputs_Internal!$D$60/12</f>
         <v>0</v>
       </c>
       <c r="N57" s="63">
-        <f>$F57*Outputs_Internal!K$58/12</f>
+        <f>$F57*Outputs_Internal!K$60/12</f>
         <v>0</v>
       </c>
       <c r="O57" s="63">
-        <f>$F57*Outputs_Internal!L$58/12</f>
+        <f>$F57*Outputs_Internal!L$60/12</f>
         <v>0</v>
       </c>
       <c r="P57" s="63">
-        <f>$F57*Outputs_Internal!M$58/12</f>
+        <f>$F57*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q57" s="63">
-        <f>$F57*Outputs_Internal!N$58/12</f>
+        <f>$F57*Outputs_Internal!N$60/12</f>
         <v>0</v>
       </c>
       <c r="S57" s="63">
@@ -9005,23 +9076,23 @@
         <v>0</v>
       </c>
       <c r="M58" s="63">
-        <f>$F58*Outputs_Internal!$D$58/12</f>
+        <f>$F58*Outputs_Internal!$D$60/12</f>
         <v>0</v>
       </c>
       <c r="N58" s="63">
-        <f>$F58*Outputs_Internal!K$58/12</f>
+        <f>$F58*Outputs_Internal!K$60/12</f>
         <v>0</v>
       </c>
       <c r="O58" s="63">
-        <f>$F58*Outputs_Internal!L$58/12</f>
+        <f>$F58*Outputs_Internal!L$60/12</f>
         <v>0</v>
       </c>
       <c r="P58" s="63">
-        <f>$F58*Outputs_Internal!M$58/12</f>
+        <f>$F58*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q58" s="63">
-        <f>$F58*Outputs_Internal!N$58/12</f>
+        <f>$F58*Outputs_Internal!N$60/12</f>
         <v>0</v>
       </c>
       <c r="S58" s="63">
@@ -9079,23 +9150,23 @@
         <v>0</v>
       </c>
       <c r="M59" s="63">
-        <f>$F59*Outputs_Internal!$D$58/12</f>
+        <f>$F59*Outputs_Internal!$D$60/12</f>
         <v>0</v>
       </c>
       <c r="N59" s="63">
-        <f>$F59*Outputs_Internal!K$58/12</f>
+        <f>$F59*Outputs_Internal!K$60/12</f>
         <v>0</v>
       </c>
       <c r="O59" s="63">
-        <f>$F59*Outputs_Internal!L$58/12</f>
+        <f>$F59*Outputs_Internal!L$60/12</f>
         <v>0</v>
       </c>
       <c r="P59" s="63">
-        <f>$F59*Outputs_Internal!M$58/12</f>
+        <f>$F59*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q59" s="63">
-        <f>$F59*Outputs_Internal!N$58/12</f>
+        <f>$F59*Outputs_Internal!N$60/12</f>
         <v>0</v>
       </c>
       <c r="S59" s="63">
@@ -9153,23 +9224,23 @@
         <v>0</v>
       </c>
       <c r="M60" s="63">
-        <f>$F60*Outputs_Internal!$D$58/12</f>
+        <f>$F60*Outputs_Internal!$D$60/12</f>
         <v>0</v>
       </c>
       <c r="N60" s="63">
-        <f>$F60*Outputs_Internal!K$58/12</f>
+        <f>$F60*Outputs_Internal!K$60/12</f>
         <v>0</v>
       </c>
       <c r="O60" s="63">
-        <f>$F60*Outputs_Internal!L$58/12</f>
+        <f>$F60*Outputs_Internal!L$60/12</f>
         <v>0</v>
       </c>
       <c r="P60" s="63">
-        <f>$F60*Outputs_Internal!M$58/12</f>
+        <f>$F60*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q60" s="63">
-        <f>$F60*Outputs_Internal!N$58/12</f>
+        <f>$F60*Outputs_Internal!N$60/12</f>
         <v>0</v>
       </c>
       <c r="S60" s="63">
@@ -9227,23 +9298,23 @@
         <v>0</v>
       </c>
       <c r="M61" s="63">
-        <f>$F61*Outputs_Internal!$D$58/12</f>
+        <f>$F61*Outputs_Internal!$D$60/12</f>
         <v>0</v>
       </c>
       <c r="N61" s="63">
-        <f>$F61*Outputs_Internal!K$58/12</f>
+        <f>$F61*Outputs_Internal!K$60/12</f>
         <v>0</v>
       </c>
       <c r="O61" s="63">
-        <f>$F61*Outputs_Internal!L$58/12</f>
+        <f>$F61*Outputs_Internal!L$60/12</f>
         <v>0</v>
       </c>
       <c r="P61" s="63">
-        <f>$F61*Outputs_Internal!M$58/12</f>
+        <f>$F61*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q61" s="63">
-        <f>$F61*Outputs_Internal!N$58/12</f>
+        <f>$F61*Outputs_Internal!N$60/12</f>
         <v>0</v>
       </c>
       <c r="S61" s="63">
@@ -9301,23 +9372,23 @@
         <v>0</v>
       </c>
       <c r="M62" s="63">
-        <f>$F62*Outputs_Internal!$D$58/12</f>
+        <f>$F62*Outputs_Internal!$D$60/12</f>
         <v>0</v>
       </c>
       <c r="N62" s="63">
-        <f>$F62*Outputs_Internal!K$58/12</f>
+        <f>$F62*Outputs_Internal!K$60/12</f>
         <v>0</v>
       </c>
       <c r="O62" s="63">
-        <f>$F62*Outputs_Internal!L$58/12</f>
+        <f>$F62*Outputs_Internal!L$60/12</f>
         <v>0</v>
       </c>
       <c r="P62" s="63">
-        <f>$F62*Outputs_Internal!M$58/12</f>
+        <f>$F62*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q62" s="63">
-        <f>$F62*Outputs_Internal!N$58/12</f>
+        <f>$F62*Outputs_Internal!N$60/12</f>
         <v>0</v>
       </c>
       <c r="S62" s="63">
@@ -9375,23 +9446,23 @@
         <v>0</v>
       </c>
       <c r="M63" s="63">
-        <f>$F63*Outputs_Internal!$D$58/12</f>
+        <f>$F63*Outputs_Internal!$D$60/12</f>
         <v>0</v>
       </c>
       <c r="N63" s="63">
-        <f>$F63*Outputs_Internal!K$58/12</f>
+        <f>$F63*Outputs_Internal!K$60/12</f>
         <v>0</v>
       </c>
       <c r="O63" s="63">
-        <f>$F63*Outputs_Internal!L$58/12</f>
+        <f>$F63*Outputs_Internal!L$60/12</f>
         <v>0</v>
       </c>
       <c r="P63" s="63">
-        <f>$F63*Outputs_Internal!M$58/12</f>
+        <f>$F63*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q63" s="63">
-        <f>$F63*Outputs_Internal!N$58/12</f>
+        <f>$F63*Outputs_Internal!N$60/12</f>
         <v>0</v>
       </c>
       <c r="S63" s="63">
@@ -9449,23 +9520,23 @@
         <v>0</v>
       </c>
       <c r="M64" s="63">
-        <f>$F64*Outputs_Internal!$D$58/12</f>
+        <f>$F64*Outputs_Internal!$D$60/12</f>
         <v>0</v>
       </c>
       <c r="N64" s="63">
-        <f>$F64*Outputs_Internal!K$58/12</f>
+        <f>$F64*Outputs_Internal!K$60/12</f>
         <v>0</v>
       </c>
       <c r="O64" s="63">
-        <f>$F64*Outputs_Internal!L$58/12</f>
+        <f>$F64*Outputs_Internal!L$60/12</f>
         <v>0</v>
       </c>
       <c r="P64" s="63">
-        <f>$F64*Outputs_Internal!M$58/12</f>
+        <f>$F64*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q64" s="63">
-        <f>$F64*Outputs_Internal!N$58/12</f>
+        <f>$F64*Outputs_Internal!N$60/12</f>
         <v>0</v>
       </c>
       <c r="S64" s="63">
@@ -9523,23 +9594,23 @@
         <v>0</v>
       </c>
       <c r="M65" s="63">
-        <f>$F65*Outputs_Internal!$D$58/12</f>
+        <f>$F65*Outputs_Internal!$D$60/12</f>
         <v>0</v>
       </c>
       <c r="N65" s="63">
-        <f>$F65*Outputs_Internal!K$58/12</f>
+        <f>$F65*Outputs_Internal!K$60/12</f>
         <v>0</v>
       </c>
       <c r="O65" s="63">
-        <f>$F65*Outputs_Internal!L$58/12</f>
+        <f>$F65*Outputs_Internal!L$60/12</f>
         <v>0</v>
       </c>
       <c r="P65" s="63">
-        <f>$F65*Outputs_Internal!M$58/12</f>
+        <f>$F65*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q65" s="63">
-        <f>$F65*Outputs_Internal!N$58/12</f>
+        <f>$F65*Outputs_Internal!N$60/12</f>
         <v>0</v>
       </c>
       <c r="S65" s="63">
@@ -9597,23 +9668,23 @@
         <v>0</v>
       </c>
       <c r="M66" s="63">
-        <f>$F66*Outputs_Internal!$D$58/12</f>
+        <f>$F66*Outputs_Internal!$D$60/12</f>
         <v>0</v>
       </c>
       <c r="N66" s="63">
-        <f>$F66*Outputs_Internal!K$58/12</f>
+        <f>$F66*Outputs_Internal!K$60/12</f>
         <v>0</v>
       </c>
       <c r="O66" s="63">
-        <f>$F66*Outputs_Internal!L$58/12</f>
+        <f>$F66*Outputs_Internal!L$60/12</f>
         <v>0</v>
       </c>
       <c r="P66" s="63">
-        <f>$F66*Outputs_Internal!M$58/12</f>
+        <f>$F66*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q66" s="63">
-        <f>$F66*Outputs_Internal!N$58/12</f>
+        <f>$F66*Outputs_Internal!N$60/12</f>
         <v>0</v>
       </c>
       <c r="S66" s="63">
@@ -9671,23 +9742,23 @@
         <v>0</v>
       </c>
       <c r="M67" s="63">
-        <f>$F67*Outputs_Internal!$D$58/12</f>
+        <f>$F67*Outputs_Internal!$D$60/12</f>
         <v>0</v>
       </c>
       <c r="N67" s="63">
-        <f>$F67*Outputs_Internal!K$58/12</f>
+        <f>$F67*Outputs_Internal!K$60/12</f>
         <v>0</v>
       </c>
       <c r="O67" s="63">
-        <f>$F67*Outputs_Internal!L$58/12</f>
+        <f>$F67*Outputs_Internal!L$60/12</f>
         <v>0</v>
       </c>
       <c r="P67" s="63">
-        <f>$F67*Outputs_Internal!M$58/12</f>
+        <f>$F67*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q67" s="63">
-        <f>$F67*Outputs_Internal!N$58/12</f>
+        <f>$F67*Outputs_Internal!N$60/12</f>
         <v>0</v>
       </c>
       <c r="S67" s="63">
@@ -9745,23 +9816,23 @@
         <v>0</v>
       </c>
       <c r="M68" s="63">
-        <f>$F68*Outputs_Internal!$D$58/12</f>
+        <f>$F68*Outputs_Internal!$D$60/12</f>
         <v>0</v>
       </c>
       <c r="N68" s="63">
-        <f>$F68*Outputs_Internal!K$58/12</f>
+        <f>$F68*Outputs_Internal!K$60/12</f>
         <v>0</v>
       </c>
       <c r="O68" s="63">
-        <f>$F68*Outputs_Internal!L$58/12</f>
+        <f>$F68*Outputs_Internal!L$60/12</f>
         <v>0</v>
       </c>
       <c r="P68" s="63">
-        <f>$F68*Outputs_Internal!M$58/12</f>
+        <f>$F68*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q68" s="63">
-        <f>$F68*Outputs_Internal!N$58/12</f>
+        <f>$F68*Outputs_Internal!N$60/12</f>
         <v>0</v>
       </c>
       <c r="S68" s="63">
@@ -9819,23 +9890,23 @@
         <v>0</v>
       </c>
       <c r="M69" s="63">
-        <f>$F69*Outputs_Internal!$D$58/12</f>
+        <f>$F69*Outputs_Internal!$D$60/12</f>
         <v>0</v>
       </c>
       <c r="N69" s="63">
-        <f>$F69*Outputs_Internal!K$58/12</f>
+        <f>$F69*Outputs_Internal!K$60/12</f>
         <v>0</v>
       </c>
       <c r="O69" s="63">
-        <f>$F69*Outputs_Internal!L$58/12</f>
+        <f>$F69*Outputs_Internal!L$60/12</f>
         <v>0</v>
       </c>
       <c r="P69" s="63">
-        <f>$F69*Outputs_Internal!M$58/12</f>
+        <f>$F69*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q69" s="63">
-        <f>$F69*Outputs_Internal!N$58/12</f>
+        <f>$F69*Outputs_Internal!N$60/12</f>
         <v>0</v>
       </c>
       <c r="S69" s="63">
@@ -9893,23 +9964,23 @@
         <v>0</v>
       </c>
       <c r="M70" s="63">
-        <f>$F70*Outputs_Internal!$D$58/12</f>
+        <f>$F70*Outputs_Internal!$D$60/12</f>
         <v>0</v>
       </c>
       <c r="N70" s="63">
-        <f>$F70*Outputs_Internal!K$58/12</f>
+        <f>$F70*Outputs_Internal!K$60/12</f>
         <v>0</v>
       </c>
       <c r="O70" s="63">
-        <f>$F70*Outputs_Internal!L$58/12</f>
+        <f>$F70*Outputs_Internal!L$60/12</f>
         <v>0</v>
       </c>
       <c r="P70" s="63">
-        <f>$F70*Outputs_Internal!M$58/12</f>
+        <f>$F70*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q70" s="63">
-        <f>$F70*Outputs_Internal!N$58/12</f>
+        <f>$F70*Outputs_Internal!N$60/12</f>
         <v>0</v>
       </c>
       <c r="S70" s="63">
@@ -9967,23 +10038,23 @@
         <v>0</v>
       </c>
       <c r="M71" s="63">
-        <f>$F71*Outputs_Internal!$D$58/12</f>
+        <f>$F71*Outputs_Internal!$D$60/12</f>
         <v>0</v>
       </c>
       <c r="N71" s="63">
-        <f>$F71*Outputs_Internal!K$58/12</f>
+        <f>$F71*Outputs_Internal!K$60/12</f>
         <v>0</v>
       </c>
       <c r="O71" s="63">
-        <f>$F71*Outputs_Internal!L$58/12</f>
+        <f>$F71*Outputs_Internal!L$60/12</f>
         <v>0</v>
       </c>
       <c r="P71" s="63">
-        <f>$F71*Outputs_Internal!M$58/12</f>
+        <f>$F71*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q71" s="63">
-        <f>$F71*Outputs_Internal!N$58/12</f>
+        <f>$F71*Outputs_Internal!N$60/12</f>
         <v>0</v>
       </c>
       <c r="S71" s="63">
@@ -10041,23 +10112,23 @@
         <v>0</v>
       </c>
       <c r="M72" s="63">
-        <f>$F72*Outputs_Internal!$D$58/12</f>
+        <f>$F72*Outputs_Internal!$D$60/12</f>
         <v>0</v>
       </c>
       <c r="N72" s="63">
-        <f>$F72*Outputs_Internal!K$58/12</f>
+        <f>$F72*Outputs_Internal!K$60/12</f>
         <v>0</v>
       </c>
       <c r="O72" s="63">
-        <f>$F72*Outputs_Internal!L$58/12</f>
+        <f>$F72*Outputs_Internal!L$60/12</f>
         <v>0</v>
       </c>
       <c r="P72" s="63">
-        <f>$F72*Outputs_Internal!M$58/12</f>
+        <f>$F72*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q72" s="63">
-        <f>$F72*Outputs_Internal!N$58/12</f>
+        <f>$F72*Outputs_Internal!N$60/12</f>
         <v>0</v>
       </c>
       <c r="S72" s="63">
@@ -10115,23 +10186,23 @@
         <v>0</v>
       </c>
       <c r="M73" s="63">
-        <f>$F73*Outputs_Internal!$D$58/12</f>
+        <f>$F73*Outputs_Internal!$D$60/12</f>
         <v>0</v>
       </c>
       <c r="N73" s="63">
-        <f>$F73*Outputs_Internal!K$58/12</f>
+        <f>$F73*Outputs_Internal!K$60/12</f>
         <v>0</v>
       </c>
       <c r="O73" s="63">
-        <f>$F73*Outputs_Internal!L$58/12</f>
+        <f>$F73*Outputs_Internal!L$60/12</f>
         <v>0</v>
       </c>
       <c r="P73" s="63">
-        <f>$F73*Outputs_Internal!M$58/12</f>
+        <f>$F73*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q73" s="63">
-        <f>$F73*Outputs_Internal!N$58/12</f>
+        <f>$F73*Outputs_Internal!N$60/12</f>
         <v>0</v>
       </c>
       <c r="S73" s="63">
@@ -10189,23 +10260,23 @@
         <v>0</v>
       </c>
       <c r="M74" s="63">
-        <f>$F74*Outputs_Internal!$D$58/12</f>
+        <f>$F74*Outputs_Internal!$D$60/12</f>
         <v>0</v>
       </c>
       <c r="N74" s="63">
-        <f>$F74*Outputs_Internal!K$58/12</f>
+        <f>$F74*Outputs_Internal!K$60/12</f>
         <v>0</v>
       </c>
       <c r="O74" s="63">
-        <f>$F74*Outputs_Internal!L$58/12</f>
+        <f>$F74*Outputs_Internal!L$60/12</f>
         <v>0</v>
       </c>
       <c r="P74" s="63">
-        <f>$F74*Outputs_Internal!M$58/12</f>
+        <f>$F74*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q74" s="63">
-        <f>$F74*Outputs_Internal!N$58/12</f>
+        <f>$F74*Outputs_Internal!N$60/12</f>
         <v>0</v>
       </c>
       <c r="S74" s="63">
@@ -10263,23 +10334,23 @@
         <v>0</v>
       </c>
       <c r="M75" s="63">
-        <f>$F75*Outputs_Internal!$D$58/12</f>
+        <f>$F75*Outputs_Internal!$D$60/12</f>
         <v>0</v>
       </c>
       <c r="N75" s="63">
-        <f>$F75*Outputs_Internal!K$58/12</f>
+        <f>$F75*Outputs_Internal!K$60/12</f>
         <v>0</v>
       </c>
       <c r="O75" s="63">
-        <f>$F75*Outputs_Internal!L$58/12</f>
+        <f>$F75*Outputs_Internal!L$60/12</f>
         <v>0</v>
       </c>
       <c r="P75" s="63">
-        <f>$F75*Outputs_Internal!M$58/12</f>
+        <f>$F75*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q75" s="63">
-        <f>$F75*Outputs_Internal!N$58/12</f>
+        <f>$F75*Outputs_Internal!N$60/12</f>
         <v>0</v>
       </c>
       <c r="S75" s="63">
@@ -10337,23 +10408,23 @@
         <v>0</v>
       </c>
       <c r="M76" s="63">
-        <f>$F76*Outputs_Internal!$D$58/12</f>
+        <f>$F76*Outputs_Internal!$D$60/12</f>
         <v>0</v>
       </c>
       <c r="N76" s="63">
-        <f>$F76*Outputs_Internal!K$58/12</f>
+        <f>$F76*Outputs_Internal!K$60/12</f>
         <v>0</v>
       </c>
       <c r="O76" s="63">
-        <f>$F76*Outputs_Internal!L$58/12</f>
+        <f>$F76*Outputs_Internal!L$60/12</f>
         <v>0</v>
       </c>
       <c r="P76" s="63">
-        <f>$F76*Outputs_Internal!M$58/12</f>
+        <f>$F76*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q76" s="63">
-        <f>$F76*Outputs_Internal!N$58/12</f>
+        <f>$F76*Outputs_Internal!N$60/12</f>
         <v>0</v>
       </c>
       <c r="S76" s="63">
@@ -10411,23 +10482,23 @@
         <v>0</v>
       </c>
       <c r="M77" s="63">
-        <f>$F77*Outputs_Internal!$D$58/12</f>
+        <f>$F77*Outputs_Internal!$D$60/12</f>
         <v>0</v>
       </c>
       <c r="N77" s="63">
-        <f>$F77*Outputs_Internal!K$58/12</f>
+        <f>$F77*Outputs_Internal!K$60/12</f>
         <v>0</v>
       </c>
       <c r="O77" s="63">
-        <f>$F77*Outputs_Internal!L$58/12</f>
+        <f>$F77*Outputs_Internal!L$60/12</f>
         <v>0</v>
       </c>
       <c r="P77" s="63">
-        <f>$F77*Outputs_Internal!M$58/12</f>
+        <f>$F77*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q77" s="63">
-        <f>$F77*Outputs_Internal!N$58/12</f>
+        <f>$F77*Outputs_Internal!N$60/12</f>
         <v>0</v>
       </c>
       <c r="S77" s="63">
@@ -10485,23 +10556,23 @@
         <v>0</v>
       </c>
       <c r="M78" s="63">
-        <f>$F78*Outputs_Internal!$D$58/12</f>
+        <f>$F78*Outputs_Internal!$D$60/12</f>
         <v>0</v>
       </c>
       <c r="N78" s="63">
-        <f>$F78*Outputs_Internal!K$58/12</f>
+        <f>$F78*Outputs_Internal!K$60/12</f>
         <v>0</v>
       </c>
       <c r="O78" s="63">
-        <f>$F78*Outputs_Internal!L$58/12</f>
+        <f>$F78*Outputs_Internal!L$60/12</f>
         <v>0</v>
       </c>
       <c r="P78" s="63">
-        <f>$F78*Outputs_Internal!M$58/12</f>
+        <f>$F78*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q78" s="63">
-        <f>$F78*Outputs_Internal!N$58/12</f>
+        <f>$F78*Outputs_Internal!N$60/12</f>
         <v>0</v>
       </c>
       <c r="S78" s="63">
@@ -10559,23 +10630,23 @@
         <v>0</v>
       </c>
       <c r="M79" s="63">
-        <f>$F79*Outputs_Internal!$D$58/12</f>
+        <f>$F79*Outputs_Internal!$D$60/12</f>
         <v>0</v>
       </c>
       <c r="N79" s="63">
-        <f>$F79*Outputs_Internal!K$58/12</f>
+        <f>$F79*Outputs_Internal!K$60/12</f>
         <v>0</v>
       </c>
       <c r="O79" s="63">
-        <f>$F79*Outputs_Internal!L$58/12</f>
+        <f>$F79*Outputs_Internal!L$60/12</f>
         <v>0</v>
       </c>
       <c r="P79" s="63">
-        <f>$F79*Outputs_Internal!M$58/12</f>
+        <f>$F79*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q79" s="63">
-        <f>$F79*Outputs_Internal!N$58/12</f>
+        <f>$F79*Outputs_Internal!N$60/12</f>
         <v>0</v>
       </c>
       <c r="S79" s="63">
@@ -10633,23 +10704,23 @@
         <v>0</v>
       </c>
       <c r="M80" s="63">
-        <f>$F80*Outputs_Internal!$D$58/12</f>
+        <f>$F80*Outputs_Internal!$D$60/12</f>
         <v>0</v>
       </c>
       <c r="N80" s="63">
-        <f>$F80*Outputs_Internal!K$58/12</f>
+        <f>$F80*Outputs_Internal!K$60/12</f>
         <v>0</v>
       </c>
       <c r="O80" s="63">
-        <f>$F80*Outputs_Internal!L$58/12</f>
+        <f>$F80*Outputs_Internal!L$60/12</f>
         <v>0</v>
       </c>
       <c r="P80" s="63">
-        <f>$F80*Outputs_Internal!M$58/12</f>
+        <f>$F80*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q80" s="63">
-        <f>$F80*Outputs_Internal!N$58/12</f>
+        <f>$F80*Outputs_Internal!N$60/12</f>
         <v>0</v>
       </c>
       <c r="S80" s="63">
@@ -10707,23 +10778,23 @@
         <v>0</v>
       </c>
       <c r="M81" s="63">
-        <f>$F81*Outputs_Internal!$D$58/12</f>
+        <f>$F81*Outputs_Internal!$D$60/12</f>
         <v>0</v>
       </c>
       <c r="N81" s="63">
-        <f>$F81*Outputs_Internal!K$58/12</f>
+        <f>$F81*Outputs_Internal!K$60/12</f>
         <v>0</v>
       </c>
       <c r="O81" s="63">
-        <f>$F81*Outputs_Internal!L$58/12</f>
+        <f>$F81*Outputs_Internal!L$60/12</f>
         <v>0</v>
       </c>
       <c r="P81" s="63">
-        <f>$F81*Outputs_Internal!M$58/12</f>
+        <f>$F81*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q81" s="63">
-        <f>$F81*Outputs_Internal!N$58/12</f>
+        <f>$F81*Outputs_Internal!N$60/12</f>
         <v>0</v>
       </c>
       <c r="S81" s="63">
@@ -10781,23 +10852,23 @@
         <v>0</v>
       </c>
       <c r="M82" s="63">
-        <f>$F82*Outputs_Internal!$D$58/12</f>
+        <f>$F82*Outputs_Internal!$D$60/12</f>
         <v>0</v>
       </c>
       <c r="N82" s="63">
-        <f>$F82*Outputs_Internal!K$58/12</f>
+        <f>$F82*Outputs_Internal!K$60/12</f>
         <v>0</v>
       </c>
       <c r="O82" s="63">
-        <f>$F82*Outputs_Internal!L$58/12</f>
+        <f>$F82*Outputs_Internal!L$60/12</f>
         <v>0</v>
       </c>
       <c r="P82" s="63">
-        <f>$F82*Outputs_Internal!M$58/12</f>
+        <f>$F82*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q82" s="63">
-        <f>$F82*Outputs_Internal!N$58/12</f>
+        <f>$F82*Outputs_Internal!N$60/12</f>
         <v>0</v>
       </c>
       <c r="S82" s="63">
@@ -10855,23 +10926,23 @@
         <v>0</v>
       </c>
       <c r="M83" s="63">
-        <f>$F83*Outputs_Internal!$D$58/12</f>
+        <f>$F83*Outputs_Internal!$D$60/12</f>
         <v>0</v>
       </c>
       <c r="N83" s="63">
-        <f>$F83*Outputs_Internal!K$58/12</f>
+        <f>$F83*Outputs_Internal!K$60/12</f>
         <v>0</v>
       </c>
       <c r="O83" s="63">
-        <f>$F83*Outputs_Internal!L$58/12</f>
+        <f>$F83*Outputs_Internal!L$60/12</f>
         <v>0</v>
       </c>
       <c r="P83" s="63">
-        <f>$F83*Outputs_Internal!M$58/12</f>
+        <f>$F83*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q83" s="63">
-        <f>$F83*Outputs_Internal!N$58/12</f>
+        <f>$F83*Outputs_Internal!N$60/12</f>
         <v>0</v>
       </c>
       <c r="S83" s="63">
@@ -10929,23 +11000,23 @@
         <v>0</v>
       </c>
       <c r="M84" s="63">
-        <f>$F84*Outputs_Internal!$D$58/12</f>
+        <f>$F84*Outputs_Internal!$D$60/12</f>
         <v>0</v>
       </c>
       <c r="N84" s="63">
-        <f>$F84*Outputs_Internal!K$58/12</f>
+        <f>$F84*Outputs_Internal!K$60/12</f>
         <v>0</v>
       </c>
       <c r="O84" s="63">
-        <f>$F84*Outputs_Internal!L$58/12</f>
+        <f>$F84*Outputs_Internal!L$60/12</f>
         <v>0</v>
       </c>
       <c r="P84" s="63">
-        <f>$F84*Outputs_Internal!M$58/12</f>
+        <f>$F84*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q84" s="63">
-        <f>$F84*Outputs_Internal!N$58/12</f>
+        <f>$F84*Outputs_Internal!N$60/12</f>
         <v>0</v>
       </c>
       <c r="S84" s="63">
@@ -11003,23 +11074,23 @@
         <v>0</v>
       </c>
       <c r="M85" s="63">
-        <f>$F85*Outputs_Internal!$D$58/12</f>
+        <f>$F85*Outputs_Internal!$D$60/12</f>
         <v>0</v>
       </c>
       <c r="N85" s="63">
-        <f>$F85*Outputs_Internal!K$58/12</f>
+        <f>$F85*Outputs_Internal!K$60/12</f>
         <v>0</v>
       </c>
       <c r="O85" s="63">
-        <f>$F85*Outputs_Internal!L$58/12</f>
+        <f>$F85*Outputs_Internal!L$60/12</f>
         <v>0</v>
       </c>
       <c r="P85" s="63">
-        <f>$F85*Outputs_Internal!M$58/12</f>
+        <f>$F85*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q85" s="63">
-        <f>$F85*Outputs_Internal!N$58/12</f>
+        <f>$F85*Outputs_Internal!N$60/12</f>
         <v>0</v>
       </c>
       <c r="S85" s="63">
@@ -11077,23 +11148,23 @@
         <v>0</v>
       </c>
       <c r="M86" s="63">
-        <f>$F86*Outputs_Internal!$D$58/12</f>
+        <f>$F86*Outputs_Internal!$D$60/12</f>
         <v>0</v>
       </c>
       <c r="N86" s="63">
-        <f>$F86*Outputs_Internal!K$58/12</f>
+        <f>$F86*Outputs_Internal!K$60/12</f>
         <v>0</v>
       </c>
       <c r="O86" s="63">
-        <f>$F86*Outputs_Internal!L$58/12</f>
+        <f>$F86*Outputs_Internal!L$60/12</f>
         <v>0</v>
       </c>
       <c r="P86" s="63">
-        <f>$F86*Outputs_Internal!M$58/12</f>
+        <f>$F86*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q86" s="63">
-        <f>$F86*Outputs_Internal!N$58/12</f>
+        <f>$F86*Outputs_Internal!N$60/12</f>
         <v>0</v>
       </c>
       <c r="S86" s="63">
@@ -11151,23 +11222,23 @@
         <v>0</v>
       </c>
       <c r="M87" s="63">
-        <f>$F87*Outputs_Internal!$D$58/12</f>
+        <f>$F87*Outputs_Internal!$D$60/12</f>
         <v>0</v>
       </c>
       <c r="N87" s="63">
-        <f>$F87*Outputs_Internal!K$58/12</f>
+        <f>$F87*Outputs_Internal!K$60/12</f>
         <v>0</v>
       </c>
       <c r="O87" s="63">
-        <f>$F87*Outputs_Internal!L$58/12</f>
+        <f>$F87*Outputs_Internal!L$60/12</f>
         <v>0</v>
       </c>
       <c r="P87" s="63">
-        <f>$F87*Outputs_Internal!M$58/12</f>
+        <f>$F87*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q87" s="63">
-        <f>$F87*Outputs_Internal!N$58/12</f>
+        <f>$F87*Outputs_Internal!N$60/12</f>
         <v>0</v>
       </c>
       <c r="S87" s="63">
@@ -11225,23 +11296,23 @@
         <v>0</v>
       </c>
       <c r="M88" s="63">
-        <f>$F88*Outputs_Internal!$D$58/12</f>
+        <f>$F88*Outputs_Internal!$D$60/12</f>
         <v>0</v>
       </c>
       <c r="N88" s="63">
-        <f>$F88*Outputs_Internal!K$58/12</f>
+        <f>$F88*Outputs_Internal!K$60/12</f>
         <v>0</v>
       </c>
       <c r="O88" s="63">
-        <f>$F88*Outputs_Internal!L$58/12</f>
+        <f>$F88*Outputs_Internal!L$60/12</f>
         <v>0</v>
       </c>
       <c r="P88" s="63">
-        <f>$F88*Outputs_Internal!M$58/12</f>
+        <f>$F88*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q88" s="63">
-        <f>$F88*Outputs_Internal!N$58/12</f>
+        <f>$F88*Outputs_Internal!N$60/12</f>
         <v>0</v>
       </c>
       <c r="S88" s="63">
@@ -11299,23 +11370,23 @@
         <v>0</v>
       </c>
       <c r="M89" s="63">
-        <f>$F89*Outputs_Internal!$D$58/12</f>
+        <f>$F89*Outputs_Internal!$D$60/12</f>
         <v>0</v>
       </c>
       <c r="N89" s="63">
-        <f>$F89*Outputs_Internal!K$58/12</f>
+        <f>$F89*Outputs_Internal!K$60/12</f>
         <v>0</v>
       </c>
       <c r="O89" s="63">
-        <f>$F89*Outputs_Internal!L$58/12</f>
+        <f>$F89*Outputs_Internal!L$60/12</f>
         <v>0</v>
       </c>
       <c r="P89" s="63">
-        <f>$F89*Outputs_Internal!M$58/12</f>
+        <f>$F89*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q89" s="63">
-        <f>$F89*Outputs_Internal!N$58/12</f>
+        <f>$F89*Outputs_Internal!N$60/12</f>
         <v>0</v>
       </c>
       <c r="S89" s="63">
@@ -11373,23 +11444,23 @@
         <v>0</v>
       </c>
       <c r="M90" s="63">
-        <f>$F90*Outputs_Internal!$D$58/12</f>
+        <f>$F90*Outputs_Internal!$D$60/12</f>
         <v>0</v>
       </c>
       <c r="N90" s="63">
-        <f>$F90*Outputs_Internal!K$58/12</f>
+        <f>$F90*Outputs_Internal!K$60/12</f>
         <v>0</v>
       </c>
       <c r="O90" s="63">
-        <f>$F90*Outputs_Internal!L$58/12</f>
+        <f>$F90*Outputs_Internal!L$60/12</f>
         <v>0</v>
       </c>
       <c r="P90" s="63">
-        <f>$F90*Outputs_Internal!M$58/12</f>
+        <f>$F90*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q90" s="63">
-        <f>$F90*Outputs_Internal!N$58/12</f>
+        <f>$F90*Outputs_Internal!N$60/12</f>
         <v>0</v>
       </c>
       <c r="S90" s="63">
@@ -11447,23 +11518,23 @@
         <v>0</v>
       </c>
       <c r="M91" s="63">
-        <f>$F91*Outputs_Internal!$D$58/12</f>
+        <f>$F91*Outputs_Internal!$D$60/12</f>
         <v>0</v>
       </c>
       <c r="N91" s="63">
-        <f>$F91*Outputs_Internal!K$58/12</f>
+        <f>$F91*Outputs_Internal!K$60/12</f>
         <v>0</v>
       </c>
       <c r="O91" s="63">
-        <f>$F91*Outputs_Internal!L$58/12</f>
+        <f>$F91*Outputs_Internal!L$60/12</f>
         <v>0</v>
       </c>
       <c r="P91" s="63">
-        <f>$F91*Outputs_Internal!M$58/12</f>
+        <f>$F91*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q91" s="63">
-        <f>$F91*Outputs_Internal!N$58/12</f>
+        <f>$F91*Outputs_Internal!N$60/12</f>
         <v>0</v>
       </c>
       <c r="S91" s="63">
@@ -11521,23 +11592,23 @@
         <v>0</v>
       </c>
       <c r="M92" s="63">
-        <f>$F92*Outputs_Internal!$D$58/12</f>
+        <f>$F92*Outputs_Internal!$D$60/12</f>
         <v>0</v>
       </c>
       <c r="N92" s="63">
-        <f>$F92*Outputs_Internal!K$58/12</f>
+        <f>$F92*Outputs_Internal!K$60/12</f>
         <v>0</v>
       </c>
       <c r="O92" s="63">
-        <f>$F92*Outputs_Internal!L$58/12</f>
+        <f>$F92*Outputs_Internal!L$60/12</f>
         <v>0</v>
       </c>
       <c r="P92" s="63">
-        <f>$F92*Outputs_Internal!M$58/12</f>
+        <f>$F92*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q92" s="63">
-        <f>$F92*Outputs_Internal!N$58/12</f>
+        <f>$F92*Outputs_Internal!N$60/12</f>
         <v>0</v>
       </c>
       <c r="S92" s="63">
@@ -11595,23 +11666,23 @@
         <v>0</v>
       </c>
       <c r="M93" s="63">
-        <f>$F93*Outputs_Internal!$D$58/12</f>
+        <f>$F93*Outputs_Internal!$D$60/12</f>
         <v>0</v>
       </c>
       <c r="N93" s="63">
-        <f>$F93*Outputs_Internal!K$58/12</f>
+        <f>$F93*Outputs_Internal!K$60/12</f>
         <v>0</v>
       </c>
       <c r="O93" s="63">
-        <f>$F93*Outputs_Internal!L$58/12</f>
+        <f>$F93*Outputs_Internal!L$60/12</f>
         <v>0</v>
       </c>
       <c r="P93" s="63">
-        <f>$F93*Outputs_Internal!M$58/12</f>
+        <f>$F93*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q93" s="63">
-        <f>$F93*Outputs_Internal!N$58/12</f>
+        <f>$F93*Outputs_Internal!N$60/12</f>
         <v>0</v>
       </c>
       <c r="S93" s="63">
@@ -11669,23 +11740,23 @@
         <v>0</v>
       </c>
       <c r="M94" s="63">
-        <f>$F94*Outputs_Internal!$D$58/12</f>
+        <f>$F94*Outputs_Internal!$D$60/12</f>
         <v>0</v>
       </c>
       <c r="N94" s="63">
-        <f>$F94*Outputs_Internal!K$58/12</f>
+        <f>$F94*Outputs_Internal!K$60/12</f>
         <v>0</v>
       </c>
       <c r="O94" s="63">
-        <f>$F94*Outputs_Internal!L$58/12</f>
+        <f>$F94*Outputs_Internal!L$60/12</f>
         <v>0</v>
       </c>
       <c r="P94" s="63">
-        <f>$F94*Outputs_Internal!M$58/12</f>
+        <f>$F94*Outputs_Internal!M$60/12</f>
         <v>0</v>
       </c>
       <c r="Q94" s="63">
-        <f>$F94*Outputs_Internal!N$58/12</f>
+        <f>$F94*Outputs_Internal!N$60/12</f>
         <v>0</v>
       </c>
       <c r="S94" s="63">
@@ -11727,7 +11798,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="J68" sqref="J68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11781,23 +11852,23 @@
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <f>IF(AND(Inputs!D6="Y",Inputs!D5="Y"), 0, IF(Inputs!D5="Y", SUM(Prices!$C$3, IF(Inputs!D$7 ="Y", Prices!$C$4, 0)), IF(Inputs!D5="N", Prices!$D$3, 0)))*Inputs!D9</f>
+        <f>IF(AND(Inputs!D7="Y",Inputs!D6="Y"), 0, IF(Inputs!D6="Y", SUM(Prices!$C$3, IF(Inputs!D$8 ="Y", Prices!$C$4, 0)), IF(Inputs!D6="N", Prices!$D$3, 0)))*Inputs!D10</f>
         <v>10000</v>
       </c>
       <c r="E4" s="1">
-        <f>IF(AND(Inputs!E6="Y",Inputs!E5="Y"), 0, IF(Inputs!E5="Y", SUM(Prices!$C$3, IF(Inputs!E$7 ="Y", Prices!$C$4, 0)), IF(Inputs!E5="N", Prices!$D$3, 0)))*Inputs!E9</f>
+        <f>IF(AND(Inputs!E7="Y",Inputs!E6="Y"), 0, IF(Inputs!E6="Y", SUM(Prices!$C$3, IF(Inputs!E$8 ="Y", Prices!$C$4, 0)), IF(Inputs!E6="N", Prices!$D$3, 0)))*Inputs!E10</f>
         <v>60000</v>
       </c>
       <c r="F4" s="1">
-        <f>IF(AND(Inputs!F6="Y",Inputs!F5="Y"), 0, IF(Inputs!F5="Y", SUM(Prices!$C$3, IF(Inputs!F$7 ="Y", Prices!$C$4, 0)), IF(Inputs!F5="N", Prices!$D$3, 0)))*Inputs!F9</f>
+        <f>IF(AND(Inputs!F7="Y",Inputs!F6="Y"), 0, IF(Inputs!F6="Y", SUM(Prices!$C$3, IF(Inputs!F$8 ="Y", Prices!$C$4, 0)), IF(Inputs!F6="N", Prices!$D$3, 0)))*Inputs!F10</f>
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <f>IF(AND(Inputs!G6="Y",Inputs!G5="Y"), 0, IF(Inputs!G5="Y", SUM(Prices!$C$3, IF(Inputs!G$7 ="Y", Prices!$C$4, 0)), IF(Inputs!G5="N", Prices!$D$3, 0)))*Inputs!G9</f>
+        <f>IF(AND(Inputs!G7="Y",Inputs!G6="Y"), 0, IF(Inputs!G6="Y", SUM(Prices!$C$3, IF(Inputs!G$8 ="Y", Prices!$C$4, 0)), IF(Inputs!G6="N", Prices!$D$3, 0)))*Inputs!G10</f>
         <v>0</v>
       </c>
       <c r="H4" s="1">
-        <f>IF(AND(Inputs!H6="Y",Inputs!H5="Y"), 0, IF(Inputs!H5="Y", SUM(Prices!$C$3, IF(Inputs!H$7 ="Y", Prices!$C$4, 0)), IF(Inputs!H5="N", Prices!$D$3, 0)))*Inputs!H9</f>
+        <f>IF(AND(Inputs!H7="Y",Inputs!H6="Y"), 0, IF(Inputs!H6="Y", SUM(Prices!$C$3, IF(Inputs!H$8 ="Y", Prices!$C$4, 0)), IF(Inputs!H6="N", Prices!$D$3, 0)))*Inputs!H10</f>
         <v>0</v>
       </c>
     </row>
@@ -11822,23 +11893,23 @@
         <v>87</v>
       </c>
       <c r="D6" s="5">
-        <f>IF(Inputs!D$5="N",MIN(MAX(Inputs!D$8-$K6,0),$L6-$K6),0)</f>
+        <f>IF(Inputs!D$6="N",MIN(MAX(Inputs!D$9-$K6,0),$L6-$K6),0)</f>
         <v>0</v>
       </c>
       <c r="E6" s="5">
-        <f>IF(Inputs!E$5="N",MIN(MAX(Inputs!E$8-$K6,0),$L6-$K6),0)</f>
+        <f>IF(Inputs!E$6="N",MIN(MAX(Inputs!E$9-$K6,0),$L6-$K6),0)</f>
         <v>25000</v>
       </c>
       <c r="F6" s="5">
-        <f>IF(Inputs!F$5="N",MIN(MAX(Inputs!F$8-$K6,0),$L6-$K6),0)</f>
+        <f>IF(Inputs!F$6="N",MIN(MAX(Inputs!F$9-$K6,0),$L6-$K6),0)</f>
         <v>0</v>
       </c>
       <c r="G6" s="5">
-        <f>IF(Inputs!G$5="N",MIN(MAX(Inputs!G$8-$K6,0),$L6-$K6),0)</f>
+        <f>IF(Inputs!G$6="N",MIN(MAX(Inputs!G$9-$K6,0),$L6-$K6),0)</f>
         <v>0</v>
       </c>
       <c r="H6" s="5">
-        <f>IF(Inputs!H$5="N",MIN(MAX(Inputs!H$8-$K6,0),$L6-$K6),0)</f>
+        <f>IF(Inputs!H$6="N",MIN(MAX(Inputs!H$9-$K6,0),$L6-$K6),0)</f>
         <v>0</v>
       </c>
       <c r="K6" s="65">
@@ -11856,23 +11927,23 @@
         <v>88</v>
       </c>
       <c r="D7" s="5">
-        <f>IF(Inputs!D$5="N",MIN(MAX(Inputs!D$8-$K7,0),$L7-$K7),0)</f>
+        <f>IF(Inputs!D$6="N",MIN(MAX(Inputs!D$9-$K7,0),$L7-$K7),0)</f>
         <v>0</v>
       </c>
       <c r="E7" s="5">
-        <f>IF(Inputs!E$5="N",MIN(MAX(Inputs!E$8-$K7,0),$L7-$K7),0)</f>
+        <f>IF(Inputs!E$6="N",MIN(MAX(Inputs!E$9-$K7,0),$L7-$K7),0)</f>
         <v>50000</v>
       </c>
       <c r="F7" s="5">
-        <f>IF(Inputs!F$5="N",MIN(MAX(Inputs!F$8-$K7,0),$L7-$K7),0)</f>
+        <f>IF(Inputs!F$6="N",MIN(MAX(Inputs!F$9-$K7,0),$L7-$K7),0)</f>
         <v>0</v>
       </c>
       <c r="G7" s="5">
-        <f>IF(Inputs!G$5="N",MIN(MAX(Inputs!G$8-$K7,0),$L7-$K7),0)</f>
+        <f>IF(Inputs!G$6="N",MIN(MAX(Inputs!G$9-$K7,0),$L7-$K7),0)</f>
         <v>0</v>
       </c>
       <c r="H7" s="5">
-        <f>IF(Inputs!H$5="N",MIN(MAX(Inputs!H$8-$K7,0),$L7-$K7),0)</f>
+        <f>IF(Inputs!H$6="N",MIN(MAX(Inputs!H$9-$K7,0),$L7-$K7),0)</f>
         <v>0</v>
       </c>
       <c r="K7" s="65">
@@ -11891,23 +11962,23 @@
         <v>89</v>
       </c>
       <c r="D8" s="5">
-        <f>IF(Inputs!D$5="N",MIN(MAX(Inputs!D$8-$K8,0),$L8-$K8),0)</f>
+        <f>IF(Inputs!D$6="N",MIN(MAX(Inputs!D$9-$K8,0),$L8-$K8),0)</f>
         <v>0</v>
       </c>
       <c r="E8" s="5">
-        <f>IF(Inputs!E$5="N",MIN(MAX(Inputs!E$8-$K8,0),$L8-$K8),0)</f>
+        <f>IF(Inputs!E$6="N",MIN(MAX(Inputs!E$9-$K8,0),$L8-$K8),0)</f>
         <v>150000</v>
       </c>
       <c r="F8" s="5">
-        <f>IF(Inputs!F$5="N",MIN(MAX(Inputs!F$8-$K8,0),$L8-$K8),0)</f>
+        <f>IF(Inputs!F$6="N",MIN(MAX(Inputs!F$9-$K8,0),$L8-$K8),0)</f>
         <v>0</v>
       </c>
       <c r="G8" s="5">
-        <f>IF(Inputs!G$5="N",MIN(MAX(Inputs!G$8-$K8,0),$L8-$K8),0)</f>
+        <f>IF(Inputs!G$6="N",MIN(MAX(Inputs!G$9-$K8,0),$L8-$K8),0)</f>
         <v>0</v>
       </c>
       <c r="H8" s="5">
-        <f>IF(Inputs!H$5="N",MIN(MAX(Inputs!H$8-$K8,0),$L8-$K8),0)</f>
+        <f>IF(Inputs!H$6="N",MIN(MAX(Inputs!H$9-$K8,0),$L8-$K8),0)</f>
         <v>0</v>
       </c>
       <c r="K8" s="65">
@@ -11926,23 +11997,23 @@
         <v>91</v>
       </c>
       <c r="D9" s="5">
-        <f>IF(Inputs!D$5="N",MIN(MAX(Inputs!D$8-$K9,0),$L9-$K9),0)</f>
+        <f>IF(Inputs!D$6="N",MIN(MAX(Inputs!D$9-$K9,0),$L9-$K9),0)</f>
         <v>0</v>
       </c>
       <c r="E9" s="5">
-        <f>IF(Inputs!E$5="N",MIN(MAX(Inputs!E$8-$K9,0),$L9-$K9),0)</f>
+        <f>IF(Inputs!E$6="N",MIN(MAX(Inputs!E$9-$K9,0),$L9-$K9),0)</f>
         <v>0</v>
       </c>
       <c r="F9" s="5">
-        <f>IF(Inputs!F$5="N",MIN(MAX(Inputs!F$8-$K9,0),$L9-$K9),0)</f>
+        <f>IF(Inputs!F$6="N",MIN(MAX(Inputs!F$9-$K9,0),$L9-$K9),0)</f>
         <v>0</v>
       </c>
       <c r="G9" s="5">
-        <f>IF(Inputs!G$5="N",MIN(MAX(Inputs!G$8-$K9,0),$L9-$K9),0)</f>
+        <f>IF(Inputs!G$6="N",MIN(MAX(Inputs!G$9-$K9,0),$L9-$K9),0)</f>
         <v>0</v>
       </c>
       <c r="H9" s="5">
-        <f>IF(Inputs!H$5="N",MIN(MAX(Inputs!H$8-$K9,0),$L9-$K9),0)</f>
+        <f>IF(Inputs!H$6="N",MIN(MAX(Inputs!H$9-$K9,0),$L9-$K9),0)</f>
         <v>0</v>
       </c>
       <c r="K9" s="65">
@@ -11965,11 +12036,11 @@
         <v>0</v>
       </c>
       <c r="E10" s="79">
-        <f t="shared" ref="E10:H10" si="0">IFERROR(SUMPRODUCT(E6:E9,$M$6:$M$9)/SUM(E6:E9),0)</f>
+        <f>IFERROR(SUMPRODUCT(E6:E9,$M$6:$M$9)/SUM(E6:E9),0)</f>
         <v>0.40444444444444444</v>
       </c>
       <c r="F10" s="79">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E10:H10" si="0">IFERROR(SUMPRODUCT(F6:F9,$M$6:$M$9)/SUM(F6:F9),0)</f>
         <v>0</v>
       </c>
       <c r="G10" s="79">
@@ -12023,23 +12094,23 @@
         <v>2</v>
       </c>
       <c r="D14" s="16">
-        <f>IF(Inputs!D5="Y", Prices!$C$6, IF(Inputs!D5="N", Prices!$D$6, 0))</f>
-        <v>18000</v>
+        <f>IF(Inputs!D6="Y", Prices!$C$6, IF(Inputs!D6="N", Prices!$D$6, 0))</f>
+        <v>15000</v>
       </c>
       <c r="E14" s="16">
-        <f>IF(Inputs!E5="Y", Prices!$C$6, IF(Inputs!E5="N", Prices!$D$6, 0))</f>
-        <v>33000</v>
+        <f>IF(Inputs!E6="Y", Prices!$C$6, IF(Inputs!E6="N", Prices!$D$6, 0))</f>
+        <v>30000</v>
       </c>
       <c r="F14" s="16">
-        <f>IF(Inputs!F5="Y", Prices!$C$6, IF(Inputs!F5="N", Prices!$D$6, 0))</f>
+        <f>IF(Inputs!F6="Y", Prices!$C$6, IF(Inputs!F6="N", Prices!$D$6, 0))</f>
         <v>0</v>
       </c>
       <c r="G14" s="16">
-        <f>IF(Inputs!G5="Y", Prices!$C$6, IF(Inputs!G5="N", Prices!$D$6, 0))</f>
+        <f>IF(Inputs!G6="Y", Prices!$C$6, IF(Inputs!G6="N", Prices!$D$6, 0))</f>
         <v>0</v>
       </c>
       <c r="H14" s="16">
-        <f>IF(Inputs!H5="Y", Prices!$C$6, IF(Inputs!H5="N", Prices!$D$6, 0))</f>
+        <f>IF(Inputs!H6="Y", Prices!$C$6, IF(Inputs!H6="N", Prices!$D$6, 0))</f>
         <v>0</v>
       </c>
     </row>
@@ -12048,23 +12119,23 @@
         <v>21</v>
       </c>
       <c r="D15" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!D11="Y",Inputs!D$21="Y"), Prices!$C10, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!D12="Y",Inputs!D$22="Y"), Prices!$C10, 0)</f>
         <v>0</v>
       </c>
       <c r="E15" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!E11="Y",Inputs!E$21="Y"), Prices!$C10, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!E12="Y",Inputs!E$22="Y"), Prices!$C10, 0)</f>
         <v>0</v>
       </c>
       <c r="F15" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!F11="Y",Inputs!F$21="Y"), Prices!$C10, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!F12="Y",Inputs!F$22="Y"), Prices!$C10, 0)</f>
         <v>0</v>
       </c>
       <c r="G15" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!G11="Y",Inputs!G$21="Y"), Prices!$C10, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!G12="Y",Inputs!G$22="Y"), Prices!$C10, 0)</f>
         <v>0</v>
       </c>
       <c r="H15" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!H11="Y",Inputs!H$21="Y"), Prices!$C10, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!H12="Y",Inputs!H$22="Y"), Prices!$C10, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -12073,23 +12144,23 @@
         <v>8</v>
       </c>
       <c r="D16" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!D12="Y",Inputs!D$21="Y"), Prices!$C11, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!D13="Y",Inputs!D$22="Y"), Prices!$C11, 0)</f>
         <v>0</v>
       </c>
       <c r="E16" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!E12="Y",Inputs!E$21="Y"), Prices!$C11, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!E13="Y",Inputs!E$22="Y"), Prices!$C11, 0)</f>
         <v>0</v>
       </c>
       <c r="F16" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!F12="Y",Inputs!F$21="Y"), Prices!$C11, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!F13="Y",Inputs!F$22="Y"), Prices!$C11, 0)</f>
         <v>0</v>
       </c>
       <c r="G16" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!G12="Y",Inputs!G$21="Y"), Prices!$C11, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!G13="Y",Inputs!G$22="Y"), Prices!$C11, 0)</f>
         <v>0</v>
       </c>
       <c r="H16" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!H12="Y",Inputs!H$21="Y"), Prices!$C11, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!H13="Y",Inputs!H$22="Y"), Prices!$C11, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -12098,23 +12169,23 @@
         <v>22</v>
       </c>
       <c r="D17" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!D13="Y",Inputs!D$21="Y"), Prices!$C12, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!D14="Y",Inputs!D$22="Y"), Prices!$C12, 0)</f>
         <v>0</v>
       </c>
       <c r="E17" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!E13="Y",Inputs!E$21="Y"), Prices!$C12, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!E14="Y",Inputs!E$22="Y"), Prices!$C12, 0)</f>
         <v>0</v>
       </c>
       <c r="F17" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!F13="Y",Inputs!F$21="Y"), Prices!$C12, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!F14="Y",Inputs!F$22="Y"), Prices!$C12, 0)</f>
         <v>0</v>
       </c>
       <c r="G17" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!G13="Y",Inputs!G$21="Y"), Prices!$C12, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!G14="Y",Inputs!G$22="Y"), Prices!$C12, 0)</f>
         <v>0</v>
       </c>
       <c r="H17" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!H13="Y",Inputs!H$21="Y"), Prices!$C12, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!H14="Y",Inputs!H$22="Y"), Prices!$C12, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -12123,23 +12194,23 @@
         <v>9</v>
       </c>
       <c r="D18" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!D14="Y",Inputs!D$21="Y"), Prices!$C13, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!D15="Y",Inputs!D$22="Y"), Prices!$C13, 0)</f>
         <v>0</v>
       </c>
       <c r="E18" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!E14="Y",Inputs!E$21="Y"), Prices!$C13, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!E15="Y",Inputs!E$22="Y"), Prices!$C13, 0)</f>
         <v>0</v>
       </c>
       <c r="F18" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!F14="Y",Inputs!F$21="Y"), Prices!$C13, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!F15="Y",Inputs!F$22="Y"), Prices!$C13, 0)</f>
         <v>0</v>
       </c>
       <c r="G18" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!G14="Y",Inputs!G$21="Y"), Prices!$C13, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!G15="Y",Inputs!G$22="Y"), Prices!$C13, 0)</f>
         <v>0</v>
       </c>
       <c r="H18" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!H14="Y",Inputs!H$21="Y"), Prices!$C13, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!H15="Y",Inputs!H$22="Y"), Prices!$C13, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -12148,23 +12219,23 @@
         <v>10</v>
       </c>
       <c r="D19" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!D15="Y",Inputs!D$21="Y"), Prices!$C14, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!D16="Y",Inputs!D$22="Y"), Prices!$C14, 0)</f>
         <v>0</v>
       </c>
       <c r="E19" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!E15="Y",Inputs!E$21="Y"), Prices!$C14, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!E16="Y",Inputs!E$22="Y"), Prices!$C14, 0)</f>
         <v>0</v>
       </c>
       <c r="F19" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!F15="Y",Inputs!F$21="Y"), Prices!$C14, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!F16="Y",Inputs!F$22="Y"), Prices!$C14, 0)</f>
         <v>0</v>
       </c>
       <c r="G19" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!G15="Y",Inputs!G$21="Y"), Prices!$C14, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!G16="Y",Inputs!G$22="Y"), Prices!$C14, 0)</f>
         <v>0</v>
       </c>
       <c r="H19" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!H15="Y",Inputs!H$21="Y"), Prices!$C14, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!H16="Y",Inputs!H$22="Y"), Prices!$C14, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -12173,23 +12244,23 @@
         <v>78</v>
       </c>
       <c r="D20" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!D16="Y",Inputs!D$21="Y"), Prices!$C15, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!D17="Y",Inputs!D$22="Y"), Prices!$C15, 0)</f>
         <v>0</v>
       </c>
       <c r="E20" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!E16="Y",Inputs!E$21="Y"), Prices!$C15, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!E17="Y",Inputs!E$22="Y"), Prices!$C15, 0)</f>
         <v>0</v>
       </c>
       <c r="F20" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!F16="Y",Inputs!F$21="Y"), Prices!$C15, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!F17="Y",Inputs!F$22="Y"), Prices!$C15, 0)</f>
         <v>0</v>
       </c>
       <c r="G20" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!G16="Y",Inputs!G$21="Y"), Prices!$C15, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!G17="Y",Inputs!G$22="Y"), Prices!$C15, 0)</f>
         <v>0</v>
       </c>
       <c r="H20" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!H16="Y",Inputs!H$21="Y"), Prices!$C15, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!H17="Y",Inputs!H$22="Y"), Prices!$C15, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -12198,23 +12269,23 @@
         <v>11</v>
       </c>
       <c r="D21" s="20">
-        <f xml:space="preserve"> IF(OR(Inputs!D17="Y",Inputs!D$22="Y",Inputs!D$23="Y"), Prices!$C16, 0)</f>
-        <v>12000</v>
+        <f xml:space="preserve"> IF(OR(Inputs!D18="Y",Inputs!D$23="Y",Inputs!D$24="Y"), Prices!$C16, 0)</f>
+        <v>10000</v>
       </c>
       <c r="E21" s="20">
-        <f xml:space="preserve"> IF(OR(Inputs!E17="Y",Inputs!E$22="Y",Inputs!E$23="Y"), Prices!$C16, 0)</f>
-        <v>12000</v>
+        <f xml:space="preserve"> IF(OR(Inputs!E18="Y",Inputs!E$23="Y",Inputs!E$24="Y"), Prices!$C16, 0)</f>
+        <v>10000</v>
       </c>
       <c r="F21" s="20">
-        <f xml:space="preserve"> IF(OR(Inputs!F17="Y",Inputs!F$22="Y",Inputs!F$23="Y"), Prices!$C16, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!F18="Y",Inputs!F$23="Y",Inputs!F$24="Y"), Prices!$C16, 0)</f>
         <v>0</v>
       </c>
       <c r="G21" s="20">
-        <f xml:space="preserve"> IF(OR(Inputs!G17="Y",Inputs!G$22="Y",Inputs!G$23="Y"), Prices!$C16, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!G18="Y",Inputs!G$23="Y",Inputs!G$24="Y"), Prices!$C16, 0)</f>
         <v>0</v>
       </c>
       <c r="H21" s="20">
-        <f xml:space="preserve"> IF(OR(Inputs!H17="Y",Inputs!H$22="Y",Inputs!H$23="Y"), Prices!$C16, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!H18="Y",Inputs!H$23="Y",Inputs!H$24="Y"), Prices!$C16, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -12223,23 +12294,23 @@
         <v>12</v>
       </c>
       <c r="D22" s="20">
-        <f xml:space="preserve"> IF(OR(Inputs!D18="Y",Inputs!D$22="Y",Inputs!D$23="Y"), Prices!$C17, 0)</f>
-        <v>6000</v>
+        <f xml:space="preserve"> IF(OR(Inputs!D19="Y",Inputs!D$23="Y",Inputs!D$24="Y"), Prices!$C17, 0)</f>
+        <v>5000</v>
       </c>
       <c r="E22" s="20">
-        <f xml:space="preserve"> IF(OR(Inputs!E18="Y",Inputs!E$22="Y",Inputs!E$23="Y"), Prices!$C17, 0)</f>
-        <v>6000</v>
+        <f xml:space="preserve"> IF(OR(Inputs!E19="Y",Inputs!E$23="Y",Inputs!E$24="Y"), Prices!$C17, 0)</f>
+        <v>5000</v>
       </c>
       <c r="F22" s="20">
-        <f xml:space="preserve"> IF(OR(Inputs!F18="Y",Inputs!F$22="Y",Inputs!F$23="Y"), Prices!$C17, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!F19="Y",Inputs!F$23="Y",Inputs!F$24="Y"), Prices!$C17, 0)</f>
         <v>0</v>
       </c>
       <c r="G22" s="20">
-        <f xml:space="preserve"> IF(OR(Inputs!G18="Y",Inputs!G$22="Y",Inputs!G$23="Y"), Prices!$C17, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!G19="Y",Inputs!G$23="Y",Inputs!G$24="Y"), Prices!$C17, 0)</f>
         <v>0</v>
       </c>
       <c r="H22" s="20">
-        <f xml:space="preserve"> IF(OR(Inputs!H18="Y",Inputs!H$22="Y",Inputs!H$23="Y"), Prices!$C17, 0)</f>
+        <f xml:space="preserve"> IF(OR(Inputs!H19="Y",Inputs!H$23="Y",Inputs!H$24="Y"), Prices!$C17, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -12248,23 +12319,23 @@
         <v>23</v>
       </c>
       <c r="D23" s="20">
-        <f>IF(Inputs!D$5="N",0, IF(OR(Inputs!D19="Y",Inputs!D$22="Y",Inputs!D$23="Y"), Prices!$C18, 0))</f>
-        <v>6000</v>
+        <f>IF(Inputs!D$6="N",0, IF(OR(Inputs!D20="Y",Inputs!D$23="Y",Inputs!D$24="Y"), Prices!$C18, 0))</f>
+        <v>5000</v>
       </c>
       <c r="E23" s="20">
-        <f>IF(Inputs!E$5="N",0, IF(OR(Inputs!E19="Y",Inputs!E$22="Y",Inputs!E$23="Y"), Prices!$C18, 0))</f>
+        <f>IF(Inputs!E$6="N",0, IF(OR(Inputs!E20="Y",Inputs!E$23="Y",Inputs!E$24="Y"), Prices!$C18, 0))</f>
         <v>0</v>
       </c>
       <c r="F23" s="20">
-        <f>IF(Inputs!F$5="N",0, IF(OR(Inputs!F19="Y",Inputs!F$22="Y",Inputs!F$23="Y"), Prices!$C18, 0))</f>
+        <f>IF(Inputs!F$6="N",0, IF(OR(Inputs!F20="Y",Inputs!F$23="Y",Inputs!F$24="Y"), Prices!$C18, 0))</f>
         <v>0</v>
       </c>
       <c r="G23" s="20">
-        <f>IF(Inputs!G$5="N",0, IF(OR(Inputs!G19="Y",Inputs!G$22="Y",Inputs!G$23="Y"), Prices!$C18, 0))</f>
+        <f>IF(Inputs!G$6="N",0, IF(OR(Inputs!G20="Y",Inputs!G$23="Y",Inputs!G$24="Y"), Prices!$C18, 0))</f>
         <v>0</v>
       </c>
       <c r="H23" s="20">
-        <f>IF(Inputs!H$5="N",0, IF(OR(Inputs!H19="Y",Inputs!H$22="Y",Inputs!H$23="Y"), Prices!$C18, 0))</f>
+        <f>IF(Inputs!H$6="N",0, IF(OR(Inputs!H20="Y",Inputs!H$23="Y",Inputs!H$24="Y"), Prices!$C18, 0))</f>
         <v>0</v>
       </c>
     </row>
@@ -12278,23 +12349,23 @@
         <v>2</v>
       </c>
       <c r="D26" s="16">
-        <f>IF(Inputs!D$5="Y", 0, IF(D$11 = "", "", PRODUCT(D$11, Prices!$E$6)))*D$10</f>
+        <f>IF(Inputs!D$6="Y", 0, IF(D$11 = "", "", PRODUCT(D$11, Prices!$E$6)))*D$10</f>
         <v>0</v>
       </c>
       <c r="E26" s="16">
-        <f>IF(Inputs!E$5="Y", 0, IF(E$11 = "", "", PRODUCT(E$11, Prices!$E$6)))*E$10</f>
-        <v>36400</v>
+        <f>IF(Inputs!E$6="Y", 0, IF(E$11 = "", "", PRODUCT(E$11, Prices!$E$6)))*E$10</f>
+        <v>24570.000000000004</v>
       </c>
       <c r="F26" s="16">
-        <f>IF(Inputs!F$5="Y", 0, IF(F$11 = "", "", PRODUCT(F$11, Prices!$E$6)))*F$10</f>
+        <f>IF(Inputs!F$6="Y", 0, IF(F$11 = "", "", PRODUCT(F$11, Prices!$E$6)))*F$10</f>
         <v>0</v>
       </c>
       <c r="G26" s="16">
-        <f>IF(Inputs!G$5="Y", 0, IF(G$11 = "", "", PRODUCT(G$11, Prices!$E$6)))*G$10</f>
+        <f>IF(Inputs!G$6="Y", 0, IF(G$11 = "", "", PRODUCT(G$11, Prices!$E$6)))*G$10</f>
         <v>0</v>
       </c>
       <c r="H26" s="16">
-        <f>IF(Inputs!H$5="Y", 0, IF(H$11 = "", "", PRODUCT(H$11, Prices!$E$6)))*H$10</f>
+        <f>IF(Inputs!H$6="Y", 0, IF(H$11 = "", "", PRODUCT(H$11, Prices!$E$6)))*H$10</f>
         <v>0</v>
       </c>
     </row>
@@ -12303,23 +12374,23 @@
         <v>21</v>
       </c>
       <c r="D27" s="18">
-        <f>IF(OR(Inputs!D$5="Y", D$11 = 0), 0, IF(OR(Inputs!D11="Y",Inputs!D$21="Y"),PRODUCT(D$11, Prices!$E10),0))*D$10</f>
+        <f>IF(OR(Inputs!D$6="Y", D$11 = 0), 0, IF(OR(Inputs!D12="Y",Inputs!D$22="Y"),PRODUCT(D$11, Prices!$E10),0))*D$10</f>
         <v>0</v>
       </c>
       <c r="E27" s="18">
-        <f>IF(OR(Inputs!E$5="Y", E$11 = 0), 0, IF(OR(Inputs!E11="Y",Inputs!E$21="Y"),PRODUCT(E$11, Prices!$E10),0))*E$10</f>
+        <f>IF(OR(Inputs!E$6="Y", E$11 = 0), 0, IF(OR(Inputs!E12="Y",Inputs!E$22="Y"),PRODUCT(E$11, Prices!$E10),0))*E$10</f>
         <v>0</v>
       </c>
       <c r="F27" s="18">
-        <f>IF(OR(Inputs!F$5="Y", F$11 = 0), 0, IF(OR(Inputs!F11="Y",Inputs!F$21="Y"),PRODUCT(F$11, Prices!$E10),0))*F$10</f>
+        <f>IF(OR(Inputs!F$6="Y", F$11 = 0), 0, IF(OR(Inputs!F12="Y",Inputs!F$22="Y"),PRODUCT(F$11, Prices!$E10),0))*F$10</f>
         <v>0</v>
       </c>
       <c r="G27" s="18">
-        <f>IF(OR(Inputs!G$5="Y", G$11 = 0), 0, IF(OR(Inputs!G11="Y",Inputs!G$21="Y"),PRODUCT(G$11, Prices!$E10),0))*G$10</f>
+        <f>IF(OR(Inputs!G$6="Y", G$11 = 0), 0, IF(OR(Inputs!G12="Y",Inputs!G$22="Y"),PRODUCT(G$11, Prices!$E10),0))*G$10</f>
         <v>0</v>
       </c>
       <c r="H27" s="18">
-        <f>IF(OR(Inputs!H$5="Y", H$11 = 0), 0, IF(OR(Inputs!H11="Y",Inputs!H$21="Y"),PRODUCT(H$11, Prices!$E10),0))*H$10</f>
+        <f>IF(OR(Inputs!H$6="Y", H$11 = 0), 0, IF(OR(Inputs!H12="Y",Inputs!H$22="Y"),PRODUCT(H$11, Prices!$E10),0))*H$10</f>
         <v>0</v>
       </c>
     </row>
@@ -12328,23 +12399,23 @@
         <v>8</v>
       </c>
       <c r="D28" s="18">
-        <f>IF(OR(Inputs!D$5="Y", D$11 = 0), 0, IF(OR(Inputs!D12="Y",Inputs!D$21="Y"),PRODUCT(D$11, Prices!$E11),0))*D$10</f>
+        <f>IF(OR(Inputs!D$6="Y", D$11 = 0), 0, IF(OR(Inputs!D13="Y",Inputs!D$22="Y"),PRODUCT(D$11, Prices!$E11),0))*D$10</f>
         <v>0</v>
       </c>
       <c r="E28" s="18">
-        <f>IF(OR(Inputs!E$5="Y", E$11 = 0), 0, IF(OR(Inputs!E12="Y",Inputs!E$21="Y"),PRODUCT(E$11, Prices!$E11),0))*E$10</f>
+        <f>IF(OR(Inputs!E$6="Y", E$11 = 0), 0, IF(OR(Inputs!E13="Y",Inputs!E$22="Y"),PRODUCT(E$11, Prices!$E11),0))*E$10</f>
         <v>0</v>
       </c>
       <c r="F28" s="18">
-        <f>IF(OR(Inputs!F$5="Y", F$11 = 0), 0, IF(OR(Inputs!F12="Y",Inputs!F$21="Y"),PRODUCT(F$11, Prices!$E11),0))*F$10</f>
+        <f>IF(OR(Inputs!F$6="Y", F$11 = 0), 0, IF(OR(Inputs!F13="Y",Inputs!F$22="Y"),PRODUCT(F$11, Prices!$E11),0))*F$10</f>
         <v>0</v>
       </c>
       <c r="G28" s="18">
-        <f>IF(OR(Inputs!G$5="Y", G$11 = 0), 0, IF(OR(Inputs!G12="Y",Inputs!G$21="Y"),PRODUCT(G$11, Prices!$E11),0))*G$10</f>
+        <f>IF(OR(Inputs!G$6="Y", G$11 = 0), 0, IF(OR(Inputs!G13="Y",Inputs!G$22="Y"),PRODUCT(G$11, Prices!$E11),0))*G$10</f>
         <v>0</v>
       </c>
       <c r="H28" s="18">
-        <f>IF(OR(Inputs!H$5="Y", H$11 = 0), 0, IF(OR(Inputs!H12="Y",Inputs!H$21="Y"),PRODUCT(H$11, Prices!$E11),0))*H$10</f>
+        <f>IF(OR(Inputs!H$6="Y", H$11 = 0), 0, IF(OR(Inputs!H13="Y",Inputs!H$22="Y"),PRODUCT(H$11, Prices!$E11),0))*H$10</f>
         <v>0</v>
       </c>
     </row>
@@ -12353,23 +12424,23 @@
         <v>22</v>
       </c>
       <c r="D29" s="18">
-        <f>IF(OR(Inputs!D$5="Y", D$11 = 0), 0, IF(OR(Inputs!D13="Y",Inputs!D$21="Y"),PRODUCT(D$11, Prices!$E12),0))*D$10</f>
+        <f>IF(OR(Inputs!D$6="Y", D$11 = 0), 0, IF(OR(Inputs!D14="Y",Inputs!D$22="Y"),PRODUCT(D$11, Prices!$E12),0))*D$10</f>
         <v>0</v>
       </c>
       <c r="E29" s="18">
-        <f>IF(OR(Inputs!E$5="Y", E$11 = 0), 0, IF(OR(Inputs!E13="Y",Inputs!E$21="Y"),PRODUCT(E$11, Prices!$E12),0))*E$10</f>
+        <f>IF(OR(Inputs!E$6="Y", E$11 = 0), 0, IF(OR(Inputs!E14="Y",Inputs!E$22="Y"),PRODUCT(E$11, Prices!$E12),0))*E$10</f>
         <v>0</v>
       </c>
       <c r="F29" s="18">
-        <f>IF(OR(Inputs!F$5="Y", F$11 = 0), 0, IF(OR(Inputs!F13="Y",Inputs!F$21="Y"),PRODUCT(F$11, Prices!$E12),0))*F$10</f>
+        <f>IF(OR(Inputs!F$6="Y", F$11 = 0), 0, IF(OR(Inputs!F14="Y",Inputs!F$22="Y"),PRODUCT(F$11, Prices!$E12),0))*F$10</f>
         <v>0</v>
       </c>
       <c r="G29" s="18">
-        <f>IF(OR(Inputs!G$5="Y", G$11 = 0), 0, IF(OR(Inputs!G13="Y",Inputs!G$21="Y"),PRODUCT(G$11, Prices!$E12),0))*G$10</f>
+        <f>IF(OR(Inputs!G$6="Y", G$11 = 0), 0, IF(OR(Inputs!G14="Y",Inputs!G$22="Y"),PRODUCT(G$11, Prices!$E12),0))*G$10</f>
         <v>0</v>
       </c>
       <c r="H29" s="18">
-        <f>IF(OR(Inputs!H$5="Y", H$11 = 0), 0, IF(OR(Inputs!H13="Y",Inputs!H$21="Y"),PRODUCT(H$11, Prices!$E12),0))*H$10</f>
+        <f>IF(OR(Inputs!H$6="Y", H$11 = 0), 0, IF(OR(Inputs!H14="Y",Inputs!H$22="Y"),PRODUCT(H$11, Prices!$E12),0))*H$10</f>
         <v>0</v>
       </c>
     </row>
@@ -12378,23 +12449,23 @@
         <v>9</v>
       </c>
       <c r="D30" s="18">
-        <f>IF(OR(Inputs!D$5="Y", D$11 = 0), 0, IF(OR(Inputs!D14="Y",Inputs!D$21="Y"),PRODUCT(D$11, Prices!$E13),0))*D$10</f>
+        <f>IF(OR(Inputs!D$6="Y", D$11 = 0), 0, IF(OR(Inputs!D15="Y",Inputs!D$22="Y"),PRODUCT(D$11, Prices!$E13),0))*D$10</f>
         <v>0</v>
       </c>
       <c r="E30" s="18">
-        <f>IF(OR(Inputs!E$5="Y", E$11 = 0), 0, IF(OR(Inputs!E14="Y",Inputs!E$21="Y"),PRODUCT(E$11, Prices!$E13),0))*E$10</f>
+        <f>IF(OR(Inputs!E$6="Y", E$11 = 0), 0, IF(OR(Inputs!E15="Y",Inputs!E$22="Y"),PRODUCT(E$11, Prices!$E13),0))*E$10</f>
         <v>0</v>
       </c>
       <c r="F30" s="18">
-        <f>IF(OR(Inputs!F$5="Y", F$11 = 0), 0, IF(OR(Inputs!F14="Y",Inputs!F$21="Y"),PRODUCT(F$11, Prices!$E13),0))*F$10</f>
+        <f>IF(OR(Inputs!F$6="Y", F$11 = 0), 0, IF(OR(Inputs!F15="Y",Inputs!F$22="Y"),PRODUCT(F$11, Prices!$E13),0))*F$10</f>
         <v>0</v>
       </c>
       <c r="G30" s="18">
-        <f>IF(OR(Inputs!G$5="Y", G$11 = 0), 0, IF(OR(Inputs!G14="Y",Inputs!G$21="Y"),PRODUCT(G$11, Prices!$E13),0))*G$10</f>
+        <f>IF(OR(Inputs!G$6="Y", G$11 = 0), 0, IF(OR(Inputs!G15="Y",Inputs!G$22="Y"),PRODUCT(G$11, Prices!$E13),0))*G$10</f>
         <v>0</v>
       </c>
       <c r="H30" s="18">
-        <f>IF(OR(Inputs!H$5="Y", H$11 = 0), 0, IF(OR(Inputs!H14="Y",Inputs!H$21="Y"),PRODUCT(H$11, Prices!$E13),0))*H$10</f>
+        <f>IF(OR(Inputs!H$6="Y", H$11 = 0), 0, IF(OR(Inputs!H15="Y",Inputs!H$22="Y"),PRODUCT(H$11, Prices!$E13),0))*H$10</f>
         <v>0</v>
       </c>
     </row>
@@ -12403,23 +12474,23 @@
         <v>10</v>
       </c>
       <c r="D31" s="18">
-        <f>IF(OR(Inputs!D$5="Y", D$11 = 0), 0, IF(OR(Inputs!D15="Y",Inputs!D$21="Y"),PRODUCT(D$11, Prices!$E14),0))*D$10</f>
+        <f>IF(OR(Inputs!D$6="Y", D$11 = 0), 0, IF(OR(Inputs!D16="Y",Inputs!D$22="Y"),PRODUCT(D$11, Prices!$E14),0))*D$10</f>
         <v>0</v>
       </c>
       <c r="E31" s="18">
-        <f>IF(OR(Inputs!E$5="Y", E$11 = 0), 0, IF(OR(Inputs!E15="Y",Inputs!E$21="Y"),PRODUCT(E$11, Prices!$E14),0))*E$10</f>
+        <f>IF(OR(Inputs!E$6="Y", E$11 = 0), 0, IF(OR(Inputs!E16="Y",Inputs!E$22="Y"),PRODUCT(E$11, Prices!$E14),0))*E$10</f>
         <v>0</v>
       </c>
       <c r="F31" s="18">
-        <f>IF(OR(Inputs!F$5="Y", F$11 = 0), 0, IF(OR(Inputs!F15="Y",Inputs!F$21="Y"),PRODUCT(F$11, Prices!$E14),0))*F$10</f>
+        <f>IF(OR(Inputs!F$6="Y", F$11 = 0), 0, IF(OR(Inputs!F16="Y",Inputs!F$22="Y"),PRODUCT(F$11, Prices!$E14),0))*F$10</f>
         <v>0</v>
       </c>
       <c r="G31" s="18">
-        <f>IF(OR(Inputs!G$5="Y", G$11 = 0), 0, IF(OR(Inputs!G15="Y",Inputs!G$21="Y"),PRODUCT(G$11, Prices!$E14),0))*G$10</f>
+        <f>IF(OR(Inputs!G$6="Y", G$11 = 0), 0, IF(OR(Inputs!G16="Y",Inputs!G$22="Y"),PRODUCT(G$11, Prices!$E14),0))*G$10</f>
         <v>0</v>
       </c>
       <c r="H31" s="18">
-        <f>IF(OR(Inputs!H$5="Y", H$11 = 0), 0, IF(OR(Inputs!H15="Y",Inputs!H$21="Y"),PRODUCT(H$11, Prices!$E14),0))*H$10</f>
+        <f>IF(OR(Inputs!H$6="Y", H$11 = 0), 0, IF(OR(Inputs!H16="Y",Inputs!H$22="Y"),PRODUCT(H$11, Prices!$E14),0))*H$10</f>
         <v>0</v>
       </c>
     </row>
@@ -12428,23 +12499,23 @@
         <v>78</v>
       </c>
       <c r="D32" s="18">
-        <f>IF(OR(Inputs!D$5="Y", D$11 = 0), 0, IF(OR(Inputs!D16="Y",Inputs!D$21="Y"),PRODUCT(D$11, Prices!$E15),0))*D$10</f>
+        <f>IF(OR(Inputs!D$6="Y", D$11 = 0), 0, IF(OR(Inputs!D17="Y",Inputs!D$22="Y"),PRODUCT(D$11, Prices!$E15),0))*D$10</f>
         <v>0</v>
       </c>
       <c r="E32" s="18">
-        <f>IF(OR(Inputs!E$5="Y", E$11 = 0), 0, IF(OR(Inputs!E16="Y",Inputs!E$21="Y"),PRODUCT(E$11, Prices!$E15),0))*E$10</f>
+        <f>IF(OR(Inputs!E$6="Y", E$11 = 0), 0, IF(OR(Inputs!E17="Y",Inputs!E$22="Y"),PRODUCT(E$11, Prices!$E15),0))*E$10</f>
         <v>0</v>
       </c>
       <c r="F32" s="18">
-        <f>IF(OR(Inputs!F$5="Y", F$11 = 0), 0, IF(OR(Inputs!F16="Y",Inputs!F$21="Y"),PRODUCT(F$11, Prices!$E15),0))*F$10</f>
+        <f>IF(OR(Inputs!F$6="Y", F$11 = 0), 0, IF(OR(Inputs!F17="Y",Inputs!F$22="Y"),PRODUCT(F$11, Prices!$E15),0))*F$10</f>
         <v>0</v>
       </c>
       <c r="G32" s="18">
-        <f>IF(OR(Inputs!G$5="Y", G$11 = 0), 0, IF(OR(Inputs!G16="Y",Inputs!G$21="Y"),PRODUCT(G$11, Prices!$E15),0))*G$10</f>
+        <f>IF(OR(Inputs!G$6="Y", G$11 = 0), 0, IF(OR(Inputs!G17="Y",Inputs!G$22="Y"),PRODUCT(G$11, Prices!$E15),0))*G$10</f>
         <v>0</v>
       </c>
       <c r="H32" s="18">
-        <f>IF(OR(Inputs!H$5="Y", H$11 = 0), 0, IF(OR(Inputs!H16="Y",Inputs!H$21="Y"),PRODUCT(H$11, Prices!$E15),0))*H$10</f>
+        <f>IF(OR(Inputs!H$6="Y", H$11 = 0), 0, IF(OR(Inputs!H17="Y",Inputs!H$22="Y"),PRODUCT(H$11, Prices!$E15),0))*H$10</f>
         <v>0</v>
       </c>
     </row>
@@ -12453,23 +12524,23 @@
         <v>11</v>
       </c>
       <c r="D33" s="20">
-        <f>IF(OR(Inputs!D$5="Y", D$11 = 0), 0, IF(OR(Inputs!D17="Y",Inputs!D$22="Y",Inputs!D$23="Y"),PRODUCT(D$11, Prices!$E16),0))*D$10</f>
+        <f>IF(OR(Inputs!D$6="Y", D$11 = 0), 0, IF(OR(Inputs!D18="Y",Inputs!D$23="Y",Inputs!D$24="Y"),PRODUCT(D$11, Prices!$E16),0))*D$10</f>
         <v>0</v>
       </c>
       <c r="E33" s="20">
-        <f>IF(OR(Inputs!E$5="Y", E$11 = 0), 0, IF(OR(Inputs!E17="Y",Inputs!E$22="Y",Inputs!E$23="Y"),PRODUCT(E$11, Prices!$E16),0))*E$10</f>
-        <v>22750</v>
+        <f>IF(OR(Inputs!E$6="Y", E$11 = 0), 0, IF(OR(Inputs!E18="Y",Inputs!E$23="Y",Inputs!E$24="Y"),PRODUCT(E$11, Prices!$E16),0))*E$10</f>
+        <v>16380</v>
       </c>
       <c r="F33" s="20">
-        <f>IF(OR(Inputs!F$5="Y", F$11 = 0), 0, IF(OR(Inputs!F17="Y",Inputs!F$22="Y",Inputs!F$23="Y"),PRODUCT(F$11, Prices!$E16),0))*F$10</f>
+        <f>IF(OR(Inputs!F$6="Y", F$11 = 0), 0, IF(OR(Inputs!F18="Y",Inputs!F$23="Y",Inputs!F$24="Y"),PRODUCT(F$11, Prices!$E16),0))*F$10</f>
         <v>0</v>
       </c>
       <c r="G33" s="20">
-        <f>IF(OR(Inputs!G$5="Y", G$11 = 0), 0, IF(OR(Inputs!G17="Y",Inputs!G$22="Y",Inputs!G$23="Y"),PRODUCT(G$11, Prices!$E16),0))*G$10</f>
+        <f>IF(OR(Inputs!G$6="Y", G$11 = 0), 0, IF(OR(Inputs!G18="Y",Inputs!G$23="Y",Inputs!G$24="Y"),PRODUCT(G$11, Prices!$E16),0))*G$10</f>
         <v>0</v>
       </c>
       <c r="H33" s="20">
-        <f>IF(OR(Inputs!H$5="Y", H$11 = 0), 0, IF(OR(Inputs!H17="Y",Inputs!H$22="Y",Inputs!H$23="Y"),PRODUCT(H$11, Prices!$E16),0))*H$10</f>
+        <f>IF(OR(Inputs!H$6="Y", H$11 = 0), 0, IF(OR(Inputs!H18="Y",Inputs!H$23="Y",Inputs!H$24="Y"),PRODUCT(H$11, Prices!$E16),0))*H$10</f>
         <v>0</v>
       </c>
     </row>
@@ -12478,23 +12549,23 @@
         <v>12</v>
       </c>
       <c r="D34" s="20">
-        <f>IF(OR(Inputs!D$5="Y", D$11 = 0), 0, IF(OR(Inputs!D18="Y",Inputs!D$22="Y",Inputs!D$23="Y"),PRODUCT(D$11, Prices!$E17),0))*D$10</f>
+        <f>IF(OR(Inputs!D$6="Y", D$11 = 0), 0, IF(OR(Inputs!D19="Y",Inputs!D$23="Y",Inputs!D$24="Y"),PRODUCT(D$11, Prices!$E17),0))*D$10</f>
         <v>0</v>
       </c>
       <c r="E34" s="20">
-        <f>IF(OR(Inputs!E$5="Y", E$11 = 0), 0, IF(OR(Inputs!E18="Y",Inputs!E$22="Y",Inputs!E$23="Y"),PRODUCT(E$11, Prices!$E17),0))*E$10</f>
-        <v>9100</v>
+        <f>IF(OR(Inputs!E$6="Y", E$11 = 0), 0, IF(OR(Inputs!E19="Y",Inputs!E$23="Y",Inputs!E$24="Y"),PRODUCT(E$11, Prices!$E17),0))*E$10</f>
+        <v>6370.0000000000009</v>
       </c>
       <c r="F34" s="20">
-        <f>IF(OR(Inputs!F$5="Y", F$11 = 0), 0, IF(OR(Inputs!F18="Y",Inputs!F$22="Y",Inputs!F$23="Y"),PRODUCT(F$11, Prices!$E17),0))*F$10</f>
+        <f>IF(OR(Inputs!F$6="Y", F$11 = 0), 0, IF(OR(Inputs!F19="Y",Inputs!F$23="Y",Inputs!F$24="Y"),PRODUCT(F$11, Prices!$E17),0))*F$10</f>
         <v>0</v>
       </c>
       <c r="G34" s="20">
-        <f>IF(OR(Inputs!G$5="Y", G$11 = 0), 0, IF(OR(Inputs!G18="Y",Inputs!G$22="Y",Inputs!G$23="Y"),PRODUCT(G$11, Prices!$E17),0))*G$10</f>
+        <f>IF(OR(Inputs!G$6="Y", G$11 = 0), 0, IF(OR(Inputs!G19="Y",Inputs!G$23="Y",Inputs!G$24="Y"),PRODUCT(G$11, Prices!$E17),0))*G$10</f>
         <v>0</v>
       </c>
       <c r="H34" s="20">
-        <f>IF(OR(Inputs!H$5="Y", H$11 = 0), 0, IF(OR(Inputs!H18="Y",Inputs!H$22="Y",Inputs!H$23="Y"),PRODUCT(H$11, Prices!$E17),0))*H$10</f>
+        <f>IF(OR(Inputs!H$6="Y", H$11 = 0), 0, IF(OR(Inputs!H19="Y",Inputs!H$23="Y",Inputs!H$24="Y"),PRODUCT(H$11, Prices!$E17),0))*H$10</f>
         <v>0</v>
       </c>
     </row>
@@ -12535,23 +12606,23 @@
         <v>2</v>
       </c>
       <c r="D38" s="16">
-        <f>IF(Inputs!D5="Y", Prices!$C$6, IF(Inputs!D5="N", Prices!$D$6, 0))</f>
-        <v>18000</v>
+        <f>IF(Inputs!D6="Y", Prices!$C$6, IF(Inputs!D6="N", Prices!$D$6, 0))</f>
+        <v>15000</v>
       </c>
       <c r="E38" s="16">
-        <f>IF(Inputs!E5="Y", Prices!$C$6, IF(Inputs!E5="N", Prices!$D$6, 0))</f>
-        <v>33000</v>
+        <f>IF(Inputs!E6="Y", Prices!$C$6, IF(Inputs!E6="N", Prices!$D$6, 0))</f>
+        <v>30000</v>
       </c>
       <c r="F38" s="16">
-        <f>IF(Inputs!F5="Y", Prices!$C$6, IF(Inputs!F5="N", Prices!$D$6, 0))</f>
+        <f>IF(Inputs!F6="Y", Prices!$C$6, IF(Inputs!F6="N", Prices!$D$6, 0))</f>
         <v>0</v>
       </c>
       <c r="G38" s="16">
-        <f>IF(Inputs!G5="Y", Prices!$C$6, IF(Inputs!G5="N", Prices!$D$6, 0))</f>
+        <f>IF(Inputs!G6="Y", Prices!$C$6, IF(Inputs!G6="N", Prices!$D$6, 0))</f>
         <v>0</v>
       </c>
       <c r="H38" s="16">
-        <f>IF(Inputs!H5="Y", Prices!$C$6, IF(Inputs!H5="N", Prices!$D$6, 0))</f>
+        <f>IF(Inputs!H6="Y", Prices!$C$6, IF(Inputs!H6="N", Prices!$D$6, 0))</f>
         <v>0</v>
       </c>
     </row>
@@ -12560,23 +12631,23 @@
         <v>21</v>
       </c>
       <c r="D39" s="18">
-        <f>IF(AND(Inputs!D11="Y",Inputs!D$21="N"),Prices!$C10,0)</f>
+        <f>IF(AND(Inputs!D12="Y",Inputs!D$22="N"),Prices!$C10,0)</f>
         <v>0</v>
       </c>
       <c r="E39" s="18">
-        <f>IF(AND(Inputs!E11="Y",Inputs!E$21="N"),Prices!$C10,0)</f>
+        <f>IF(AND(Inputs!E12="Y",Inputs!E$22="N"),Prices!$C10,0)</f>
         <v>0</v>
       </c>
       <c r="F39" s="18">
-        <f>IF(AND(Inputs!F11="Y",Inputs!F$21="N"),Prices!$C10,0)</f>
+        <f>IF(AND(Inputs!F12="Y",Inputs!F$22="N"),Prices!$C10,0)</f>
         <v>0</v>
       </c>
       <c r="G39" s="18">
-        <f>IF(AND(Inputs!G11="Y",Inputs!G$21="N"),Prices!$C10,0)</f>
+        <f>IF(AND(Inputs!G12="Y",Inputs!G$22="N"),Prices!$C10,0)</f>
         <v>0</v>
       </c>
       <c r="H39" s="18">
-        <f>IF(AND(Inputs!H11="Y",Inputs!H$21="N"),Prices!$C10,0)</f>
+        <f>IF(AND(Inputs!H12="Y",Inputs!H$22="N"),Prices!$C10,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -12585,23 +12656,23 @@
         <v>8</v>
       </c>
       <c r="D40" s="18">
-        <f>IF(AND(Inputs!D12="Y",Inputs!D$21="N"),Prices!$C11,0)</f>
+        <f>IF(AND(Inputs!D13="Y",Inputs!D$22="N"),Prices!$C11,0)</f>
         <v>0</v>
       </c>
       <c r="E40" s="18">
-        <f>IF(AND(Inputs!E12="Y",Inputs!E$21="N"),Prices!$C11,0)</f>
+        <f>IF(AND(Inputs!E13="Y",Inputs!E$22="N"),Prices!$C11,0)</f>
         <v>0</v>
       </c>
       <c r="F40" s="18">
-        <f>IF(AND(Inputs!F12="Y",Inputs!F$21="N"),Prices!$C11,0)</f>
+        <f>IF(AND(Inputs!F13="Y",Inputs!F$22="N"),Prices!$C11,0)</f>
         <v>0</v>
       </c>
       <c r="G40" s="18">
-        <f>IF(AND(Inputs!G12="Y",Inputs!G$21="N"),Prices!$C11,0)</f>
+        <f>IF(AND(Inputs!G13="Y",Inputs!G$22="N"),Prices!$C11,0)</f>
         <v>0</v>
       </c>
       <c r="H40" s="18">
-        <f>IF(AND(Inputs!H12="Y",Inputs!H$21="N"),Prices!$C11,0)</f>
+        <f>IF(AND(Inputs!H13="Y",Inputs!H$22="N"),Prices!$C11,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -12610,23 +12681,23 @@
         <v>22</v>
       </c>
       <c r="D41" s="18">
-        <f>IF(AND(Inputs!D13="Y",Inputs!D$21="N"),Prices!$C12,0)</f>
+        <f>IF(AND(Inputs!D14="Y",Inputs!D$22="N"),Prices!$C12,0)</f>
         <v>0</v>
       </c>
       <c r="E41" s="18">
-        <f>IF(AND(Inputs!E13="Y",Inputs!E$21="N"),Prices!$C12,0)</f>
+        <f>IF(AND(Inputs!E14="Y",Inputs!E$22="N"),Prices!$C12,0)</f>
         <v>0</v>
       </c>
       <c r="F41" s="18">
-        <f>IF(AND(Inputs!F13="Y",Inputs!F$21="N"),Prices!$C12,0)</f>
+        <f>IF(AND(Inputs!F14="Y",Inputs!F$22="N"),Prices!$C12,0)</f>
         <v>0</v>
       </c>
       <c r="G41" s="18">
-        <f>IF(AND(Inputs!G13="Y",Inputs!G$21="N"),Prices!$C12,0)</f>
+        <f>IF(AND(Inputs!G14="Y",Inputs!G$22="N"),Prices!$C12,0)</f>
         <v>0</v>
       </c>
       <c r="H41" s="18">
-        <f>IF(AND(Inputs!H13="Y",Inputs!H$21="N"),Prices!$C12,0)</f>
+        <f>IF(AND(Inputs!H14="Y",Inputs!H$22="N"),Prices!$C12,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -12635,23 +12706,23 @@
         <v>9</v>
       </c>
       <c r="D42" s="18">
-        <f>IF(AND(Inputs!D14="Y",Inputs!D$21="N"),Prices!$C13,0)</f>
+        <f>IF(AND(Inputs!D15="Y",Inputs!D$22="N"),Prices!$C13,0)</f>
         <v>0</v>
       </c>
       <c r="E42" s="18">
-        <f>IF(AND(Inputs!E14="Y",Inputs!E$21="N"),Prices!$C13,0)</f>
+        <f>IF(AND(Inputs!E15="Y",Inputs!E$22="N"),Prices!$C13,0)</f>
         <v>0</v>
       </c>
       <c r="F42" s="18">
-        <f>IF(AND(Inputs!F14="Y",Inputs!F$21="N"),Prices!$C13,0)</f>
+        <f>IF(AND(Inputs!F15="Y",Inputs!F$22="N"),Prices!$C13,0)</f>
         <v>0</v>
       </c>
       <c r="G42" s="18">
-        <f>IF(AND(Inputs!G14="Y",Inputs!G$21="N"),Prices!$C13,0)</f>
+        <f>IF(AND(Inputs!G15="Y",Inputs!G$22="N"),Prices!$C13,0)</f>
         <v>0</v>
       </c>
       <c r="H42" s="18">
-        <f>IF(AND(Inputs!H14="Y",Inputs!H$21="N"),Prices!$C13,0)</f>
+        <f>IF(AND(Inputs!H15="Y",Inputs!H$22="N"),Prices!$C13,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -12660,23 +12731,23 @@
         <v>10</v>
       </c>
       <c r="D43" s="18">
-        <f>IF(AND(Inputs!D15="Y",Inputs!D$21="N"),Prices!$C14,0)</f>
+        <f>IF(AND(Inputs!D16="Y",Inputs!D$22="N"),Prices!$C14,0)</f>
         <v>0</v>
       </c>
       <c r="E43" s="18">
-        <f>IF(AND(Inputs!E15="Y",Inputs!E$21="N"),Prices!$C14,0)</f>
+        <f>IF(AND(Inputs!E16="Y",Inputs!E$22="N"),Prices!$C14,0)</f>
         <v>0</v>
       </c>
       <c r="F43" s="18">
-        <f>IF(AND(Inputs!F15="Y",Inputs!F$21="N"),Prices!$C14,0)</f>
+        <f>IF(AND(Inputs!F16="Y",Inputs!F$22="N"),Prices!$C14,0)</f>
         <v>0</v>
       </c>
       <c r="G43" s="18">
-        <f>IF(AND(Inputs!G15="Y",Inputs!G$21="N"),Prices!$C14,0)</f>
+        <f>IF(AND(Inputs!G16="Y",Inputs!G$22="N"),Prices!$C14,0)</f>
         <v>0</v>
       </c>
       <c r="H43" s="18">
-        <f>IF(AND(Inputs!H15="Y",Inputs!H$21="N"),Prices!$C14,0)</f>
+        <f>IF(AND(Inputs!H16="Y",Inputs!H$22="N"),Prices!$C14,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -12685,23 +12756,23 @@
         <v>78</v>
       </c>
       <c r="D44" s="18">
-        <f>IF(AND(Inputs!D16="Y",Inputs!D$21="N"),Prices!$C15,0)</f>
+        <f>IF(AND(Inputs!D17="Y",Inputs!D$22="N"),Prices!$C15,0)</f>
         <v>0</v>
       </c>
       <c r="E44" s="18">
-        <f>IF(AND(Inputs!E16="Y",Inputs!E$21="N"),Prices!$C15,0)</f>
+        <f>IF(AND(Inputs!E17="Y",Inputs!E$22="N"),Prices!$C15,0)</f>
         <v>0</v>
       </c>
       <c r="F44" s="18">
-        <f>IF(AND(Inputs!F16="Y",Inputs!F$21="N"),Prices!$C15,0)</f>
+        <f>IF(AND(Inputs!F17="Y",Inputs!F$22="N"),Prices!$C15,0)</f>
         <v>0</v>
       </c>
       <c r="G44" s="18">
-        <f>IF(AND(Inputs!G16="Y",Inputs!G$21="N"),Prices!$C15,0)</f>
+        <f>IF(AND(Inputs!G17="Y",Inputs!G$22="N"),Prices!$C15,0)</f>
         <v>0</v>
       </c>
       <c r="H44" s="18">
-        <f>IF(AND(Inputs!H16="Y",Inputs!H$21="N"),Prices!$C15,0)</f>
+        <f>IF(AND(Inputs!H17="Y",Inputs!H$22="N"),Prices!$C15,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -12710,23 +12781,23 @@
         <v>11</v>
       </c>
       <c r="D45" s="20">
-        <f>IF(AND(Inputs!D17="Y",Inputs!D$22="N",Inputs!D$23="N"),Prices!$C16,0)</f>
+        <f>IF(AND(Inputs!D18="Y",Inputs!D$23="N",Inputs!D$24="N"),Prices!$C16,0)</f>
         <v>0</v>
       </c>
       <c r="E45" s="20">
-        <f>IF(AND(Inputs!E17="Y",Inputs!E$22="N",Inputs!E$23="N"),Prices!$C16,0)</f>
+        <f>IF(AND(Inputs!E18="Y",Inputs!E$23="N",Inputs!E$24="N"),Prices!$C16,0)</f>
         <v>0</v>
       </c>
       <c r="F45" s="20">
-        <f>IF(AND(Inputs!F17="Y",Inputs!F$22="N",Inputs!F$23="N"),Prices!$C16,0)</f>
+        <f>IF(AND(Inputs!F18="Y",Inputs!F$23="N",Inputs!F$24="N"),Prices!$C16,0)</f>
         <v>0</v>
       </c>
       <c r="G45" s="20">
-        <f>IF(AND(Inputs!G17="Y",Inputs!G$22="N",Inputs!G$23="N"),Prices!$C16,0)</f>
+        <f>IF(AND(Inputs!G18="Y",Inputs!G$23="N",Inputs!G$24="N"),Prices!$C16,0)</f>
         <v>0</v>
       </c>
       <c r="H45" s="20">
-        <f>IF(AND(Inputs!H17="Y",Inputs!H$22="N",Inputs!H$23="N"),Prices!$C16,0)</f>
+        <f>IF(AND(Inputs!H18="Y",Inputs!H$23="N",Inputs!H$24="N"),Prices!$C16,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -12735,23 +12806,23 @@
         <v>12</v>
       </c>
       <c r="D46" s="20">
-        <f>IF(AND(Inputs!D18="Y",Inputs!D$22="N",Inputs!D$23="N"),Prices!$C17,0)</f>
+        <f>IF(AND(Inputs!D19="Y",Inputs!D$23="N",Inputs!D$24="N"),Prices!$C17,0)</f>
         <v>0</v>
       </c>
       <c r="E46" s="20">
-        <f>IF(AND(Inputs!E18="Y",Inputs!E$22="N",Inputs!E$23="N"),Prices!$C17,0)</f>
+        <f>IF(AND(Inputs!E19="Y",Inputs!E$23="N",Inputs!E$24="N"),Prices!$C17,0)</f>
         <v>0</v>
       </c>
       <c r="F46" s="20">
-        <f>IF(AND(Inputs!F18="Y",Inputs!F$22="N",Inputs!F$23="N"),Prices!$C17,0)</f>
+        <f>IF(AND(Inputs!F19="Y",Inputs!F$23="N",Inputs!F$24="N"),Prices!$C17,0)</f>
         <v>0</v>
       </c>
       <c r="G46" s="20">
-        <f>IF(AND(Inputs!G18="Y",Inputs!G$22="N",Inputs!G$23="N"),Prices!$C17,0)</f>
+        <f>IF(AND(Inputs!G19="Y",Inputs!G$23="N",Inputs!G$24="N"),Prices!$C17,0)</f>
         <v>0</v>
       </c>
       <c r="H46" s="20">
-        <f>IF(AND(Inputs!H18="Y",Inputs!H$22="N",Inputs!H$23="N"),Prices!$C17,0)</f>
+        <f>IF(AND(Inputs!H19="Y",Inputs!H$23="N",Inputs!H$24="N"),Prices!$C17,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -12760,23 +12831,23 @@
         <v>23</v>
       </c>
       <c r="D47" s="20">
-        <f>IF(Inputs!D$5="N",0,IF(AND(Inputs!D19="Y",Inputs!D$22="N",Inputs!D$23="N"),Prices!$C18,0))</f>
+        <f>IF(Inputs!D$6="N",0,IF(AND(Inputs!D20="Y",Inputs!D$23="N",Inputs!D$24="N"),Prices!$C18,0))</f>
         <v>0</v>
       </c>
       <c r="E47" s="20">
-        <f>IF(Inputs!E$5="N",0,IF(AND(Inputs!E19="Y",Inputs!E$22="N",Inputs!E$23="N"),Prices!$C18,0))</f>
+        <f>IF(Inputs!E$6="N",0,IF(AND(Inputs!E20="Y",Inputs!E$23="N",Inputs!E$24="N"),Prices!$C18,0))</f>
         <v>0</v>
       </c>
       <c r="F47" s="20">
-        <f>IF(Inputs!F$5="N",0,IF(AND(Inputs!F19="Y",Inputs!F$22="N",Inputs!F$23="N"),Prices!$C18,0))</f>
+        <f>IF(Inputs!F$6="N",0,IF(AND(Inputs!F20="Y",Inputs!F$23="N",Inputs!F$24="N"),Prices!$C18,0))</f>
         <v>0</v>
       </c>
       <c r="G47" s="20">
-        <f>IF(Inputs!G$5="N",0,IF(AND(Inputs!G19="Y",Inputs!G$22="N",Inputs!G$23="N"),Prices!$C18,0))</f>
+        <f>IF(Inputs!G$6="N",0,IF(AND(Inputs!G20="Y",Inputs!G$23="N",Inputs!G$24="N"),Prices!$C18,0))</f>
         <v>0</v>
       </c>
       <c r="H47" s="20">
-        <f>IF(Inputs!H$5="N",0,IF(AND(Inputs!H19="Y",Inputs!H$22="N",Inputs!H$23="N"),Prices!$C18,0))</f>
+        <f>IF(Inputs!H$6="N",0,IF(AND(Inputs!H20="Y",Inputs!H$23="N",Inputs!H$24="N"),Prices!$C18,0))</f>
         <v>0</v>
       </c>
     </row>
@@ -12790,23 +12861,23 @@
         <v>2</v>
       </c>
       <c r="D50" s="16">
-        <f>IF(Inputs!D$5="Y", 0, IF(D$11 = "", "", PRODUCT(D$11, Prices!$E$6)*D$10))</f>
+        <f>IF(Inputs!D$6="Y", 0, IF(D$11 = "", "", PRODUCT(D$11, Prices!$E$6)*D$10))</f>
         <v>0</v>
       </c>
       <c r="E50" s="16">
-        <f>IF(Inputs!E$5="Y", 0, IF(E$11 = "", "", PRODUCT(E$11, Prices!$E$6)*E$10))</f>
-        <v>36400</v>
+        <f>IF(Inputs!E$6="Y", 0, IF(E$11 = "", "", PRODUCT(E$11, Prices!$E$6)*E$10))</f>
+        <v>24570.000000000004</v>
       </c>
       <c r="F50" s="16">
-        <f>IF(Inputs!F$5="Y", 0, IF(F$11 = "", "", PRODUCT(F$11, Prices!$E$6)*F$10))</f>
+        <f>IF(Inputs!F$6="Y", 0, IF(F$11 = "", "", PRODUCT(F$11, Prices!$E$6)*F$10))</f>
         <v>0</v>
       </c>
       <c r="G50" s="16">
-        <f>IF(Inputs!G$5="Y", 0, IF(G$11 = "", "", PRODUCT(G$11, Prices!$E$6)*G$10))</f>
+        <f>IF(Inputs!G$6="Y", 0, IF(G$11 = "", "", PRODUCT(G$11, Prices!$E$6)*G$10))</f>
         <v>0</v>
       </c>
       <c r="H50" s="16">
-        <f>IF(Inputs!H$5="Y", 0, IF(H$11 = "", "", PRODUCT(H$11, Prices!$E$6)*H$10))</f>
+        <f>IF(Inputs!H$6="Y", 0, IF(H$11 = "", "", PRODUCT(H$11, Prices!$E$6)*H$10))</f>
         <v>0</v>
       </c>
     </row>
@@ -12815,23 +12886,23 @@
         <v>21</v>
       </c>
       <c r="D51" s="18">
-        <f>IF(OR(Inputs!D$5="Y", D$11 = 0), 0, IF(AND(Inputs!D11="Y",Inputs!D$21="N"),PRODUCT(D$11, Prices!$E10)*D$10,0))</f>
+        <f>IF(OR(Inputs!D$6="Y", D$11 = 0), 0, IF(AND(Inputs!D12="Y",Inputs!D$22="N"),PRODUCT(D$11, Prices!$E10)*D$10,0))</f>
         <v>0</v>
       </c>
       <c r="E51" s="18">
-        <f>IF(OR(Inputs!E$5="Y", E$11 = 0), 0, IF(AND(Inputs!E11="Y",Inputs!E$21="N"),PRODUCT(E$11, Prices!$E10)*E$10,0))</f>
+        <f>IF(OR(Inputs!E$6="Y", E$11 = 0), 0, IF(AND(Inputs!E12="Y",Inputs!E$22="N"),PRODUCT(E$11, Prices!$E10)*E$10,0))</f>
         <v>0</v>
       </c>
       <c r="F51" s="18">
-        <f>IF(OR(Inputs!F$5="Y", F$11 = 0), 0, IF(AND(Inputs!F11="Y",Inputs!F$21="N"),PRODUCT(F$11, Prices!$E10)*F$10,0))</f>
+        <f>IF(OR(Inputs!F$6="Y", F$11 = 0), 0, IF(AND(Inputs!F12="Y",Inputs!F$22="N"),PRODUCT(F$11, Prices!$E10)*F$10,0))</f>
         <v>0</v>
       </c>
       <c r="G51" s="18">
-        <f>IF(OR(Inputs!G$5="Y", G$11 = 0), 0, IF(AND(Inputs!G11="Y",Inputs!G$21="N"),PRODUCT(G$11, Prices!$E10)*G$10,0))</f>
+        <f>IF(OR(Inputs!G$6="Y", G$11 = 0), 0, IF(AND(Inputs!G12="Y",Inputs!G$22="N"),PRODUCT(G$11, Prices!$E10)*G$10,0))</f>
         <v>0</v>
       </c>
       <c r="H51" s="18">
-        <f>IF(OR(Inputs!H$5="Y", H$11 = 0), 0, IF(AND(Inputs!H11="Y",Inputs!H$21="N"),PRODUCT(H$11, Prices!$E10)*H$10,0))</f>
+        <f>IF(OR(Inputs!H$6="Y", H$11 = 0), 0, IF(AND(Inputs!H12="Y",Inputs!H$22="N"),PRODUCT(H$11, Prices!$E10)*H$10,0))</f>
         <v>0</v>
       </c>
     </row>
@@ -12840,23 +12911,23 @@
         <v>8</v>
       </c>
       <c r="D52" s="18">
-        <f>IF(OR(Inputs!D$5="Y", D$11 = 0), 0, IF(AND(Inputs!D12="Y",Inputs!D$21="N"),PRODUCT(D$11, Prices!$E11)*D$10,0))</f>
+        <f>IF(OR(Inputs!D$6="Y", D$11 = 0), 0, IF(AND(Inputs!D13="Y",Inputs!D$22="N"),PRODUCT(D$11, Prices!$E11)*D$10,0))</f>
         <v>0</v>
       </c>
       <c r="E52" s="18">
-        <f>IF(OR(Inputs!E$5="Y", E$11 = 0), 0, IF(AND(Inputs!E12="Y",Inputs!E$21="N"),PRODUCT(E$11, Prices!$E11)*E$10,0))</f>
+        <f>IF(OR(Inputs!E$6="Y", E$11 = 0), 0, IF(AND(Inputs!E13="Y",Inputs!E$22="N"),PRODUCT(E$11, Prices!$E11)*E$10,0))</f>
         <v>0</v>
       </c>
       <c r="F52" s="18">
-        <f>IF(OR(Inputs!F$5="Y", F$11 = 0), 0, IF(AND(Inputs!F12="Y",Inputs!F$21="N"),PRODUCT(F$11, Prices!$E11)*F$10,0))</f>
+        <f>IF(OR(Inputs!F$6="Y", F$11 = 0), 0, IF(AND(Inputs!F13="Y",Inputs!F$22="N"),PRODUCT(F$11, Prices!$E11)*F$10,0))</f>
         <v>0</v>
       </c>
       <c r="G52" s="18">
-        <f>IF(OR(Inputs!G$5="Y", G$11 = 0), 0, IF(AND(Inputs!G12="Y",Inputs!G$21="N"),PRODUCT(G$11, Prices!$E11)*G$10,0))</f>
+        <f>IF(OR(Inputs!G$6="Y", G$11 = 0), 0, IF(AND(Inputs!G13="Y",Inputs!G$22="N"),PRODUCT(G$11, Prices!$E11)*G$10,0))</f>
         <v>0</v>
       </c>
       <c r="H52" s="18">
-        <f>IF(OR(Inputs!H$5="Y", H$11 = 0), 0, IF(AND(Inputs!H12="Y",Inputs!H$21="N"),PRODUCT(H$11, Prices!$E11)*H$10,0))</f>
+        <f>IF(OR(Inputs!H$6="Y", H$11 = 0), 0, IF(AND(Inputs!H13="Y",Inputs!H$22="N"),PRODUCT(H$11, Prices!$E11)*H$10,0))</f>
         <v>0</v>
       </c>
     </row>
@@ -12865,23 +12936,23 @@
         <v>22</v>
       </c>
       <c r="D53" s="18">
-        <f>IF(OR(Inputs!D$5="Y", D$11 = 0), 0, IF(AND(Inputs!D13="Y",Inputs!D$21="N"),PRODUCT(D$11, Prices!$E12)*D$10,0))</f>
+        <f>IF(OR(Inputs!D$6="Y", D$11 = 0), 0, IF(AND(Inputs!D14="Y",Inputs!D$22="N"),PRODUCT(D$11, Prices!$E12)*D$10,0))</f>
         <v>0</v>
       </c>
       <c r="E53" s="18">
-        <f>IF(OR(Inputs!E$5="Y", E$11 = 0), 0, IF(AND(Inputs!E13="Y",Inputs!E$21="N"),PRODUCT(E$11, Prices!$E12)*E$10,0))</f>
+        <f>IF(OR(Inputs!E$6="Y", E$11 = 0), 0, IF(AND(Inputs!E14="Y",Inputs!E$22="N"),PRODUCT(E$11, Prices!$E12)*E$10,0))</f>
         <v>0</v>
       </c>
       <c r="F53" s="18">
-        <f>IF(OR(Inputs!F$5="Y", F$11 = 0), 0, IF(AND(Inputs!F13="Y",Inputs!F$21="N"),PRODUCT(F$11, Prices!$E12)*F$10,0))</f>
+        <f>IF(OR(Inputs!F$6="Y", F$11 = 0), 0, IF(AND(Inputs!F14="Y",Inputs!F$22="N"),PRODUCT(F$11, Prices!$E12)*F$10,0))</f>
         <v>0</v>
       </c>
       <c r="G53" s="18">
-        <f>IF(OR(Inputs!G$5="Y", G$11 = 0), 0, IF(AND(Inputs!G13="Y",Inputs!G$21="N"),PRODUCT(G$11, Prices!$E12)*G$10,0))</f>
+        <f>IF(OR(Inputs!G$6="Y", G$11 = 0), 0, IF(AND(Inputs!G14="Y",Inputs!G$22="N"),PRODUCT(G$11, Prices!$E12)*G$10,0))</f>
         <v>0</v>
       </c>
       <c r="H53" s="18">
-        <f>IF(OR(Inputs!H$5="Y", H$11 = 0), 0, IF(AND(Inputs!H13="Y",Inputs!H$21="N"),PRODUCT(H$11, Prices!$E12)*H$10,0))</f>
+        <f>IF(OR(Inputs!H$6="Y", H$11 = 0), 0, IF(AND(Inputs!H14="Y",Inputs!H$22="N"),PRODUCT(H$11, Prices!$E12)*H$10,0))</f>
         <v>0</v>
       </c>
     </row>
@@ -12890,23 +12961,23 @@
         <v>9</v>
       </c>
       <c r="D54" s="18">
-        <f>IF(OR(Inputs!D$5="Y", D$11 = 0), 0, IF(AND(Inputs!D14="Y",Inputs!D$21="N"),PRODUCT(D$11, Prices!$E13)*D$10,0))</f>
+        <f>IF(OR(Inputs!D$6="Y", D$11 = 0), 0, IF(AND(Inputs!D15="Y",Inputs!D$22="N"),PRODUCT(D$11, Prices!$E13)*D$10,0))</f>
         <v>0</v>
       </c>
       <c r="E54" s="18">
-        <f>IF(OR(Inputs!E$5="Y", E$11 = 0), 0, IF(AND(Inputs!E14="Y",Inputs!E$21="N"),PRODUCT(E$11, Prices!$E13)*E$10,0))</f>
+        <f>IF(OR(Inputs!E$6="Y", E$11 = 0), 0, IF(AND(Inputs!E15="Y",Inputs!E$22="N"),PRODUCT(E$11, Prices!$E13)*E$10,0))</f>
         <v>0</v>
       </c>
       <c r="F54" s="18">
-        <f>IF(OR(Inputs!F$5="Y", F$11 = 0), 0, IF(AND(Inputs!F14="Y",Inputs!F$21="N"),PRODUCT(F$11, Prices!$E13)*F$10,0))</f>
+        <f>IF(OR(Inputs!F$6="Y", F$11 = 0), 0, IF(AND(Inputs!F15="Y",Inputs!F$22="N"),PRODUCT(F$11, Prices!$E13)*F$10,0))</f>
         <v>0</v>
       </c>
       <c r="G54" s="18">
-        <f>IF(OR(Inputs!G$5="Y", G$11 = 0), 0, IF(AND(Inputs!G14="Y",Inputs!G$21="N"),PRODUCT(G$11, Prices!$E13)*G$10,0))</f>
+        <f>IF(OR(Inputs!G$6="Y", G$11 = 0), 0, IF(AND(Inputs!G15="Y",Inputs!G$22="N"),PRODUCT(G$11, Prices!$E13)*G$10,0))</f>
         <v>0</v>
       </c>
       <c r="H54" s="18">
-        <f>IF(OR(Inputs!H$5="Y", H$11 = 0), 0, IF(AND(Inputs!H14="Y",Inputs!H$21="N"),PRODUCT(H$11, Prices!$E13)*H$10,0))</f>
+        <f>IF(OR(Inputs!H$6="Y", H$11 = 0), 0, IF(AND(Inputs!H15="Y",Inputs!H$22="N"),PRODUCT(H$11, Prices!$E13)*H$10,0))</f>
         <v>0</v>
       </c>
     </row>
@@ -12915,23 +12986,23 @@
         <v>10</v>
       </c>
       <c r="D55" s="18">
-        <f>IF(OR(Inputs!D$5="Y", D$11 = 0), 0, IF(AND(Inputs!D15="Y",Inputs!D$21="N"),PRODUCT(D$11, Prices!$E14)*D$10,0))</f>
+        <f>IF(OR(Inputs!D$6="Y", D$11 = 0), 0, IF(AND(Inputs!D16="Y",Inputs!D$22="N"),PRODUCT(D$11, Prices!$E14)*D$10,0))</f>
         <v>0</v>
       </c>
       <c r="E55" s="18">
-        <f>IF(OR(Inputs!E$5="Y", E$11 = 0), 0, IF(AND(Inputs!E15="Y",Inputs!E$21="N"),PRODUCT(E$11, Prices!$E14)*E$10,0))</f>
+        <f>IF(OR(Inputs!E$6="Y", E$11 = 0), 0, IF(AND(Inputs!E16="Y",Inputs!E$22="N"),PRODUCT(E$11, Prices!$E14)*E$10,0))</f>
         <v>0</v>
       </c>
       <c r="F55" s="18">
-        <f>IF(OR(Inputs!F$5="Y", F$11 = 0), 0, IF(AND(Inputs!F15="Y",Inputs!F$21="N"),PRODUCT(F$11, Prices!$E14)*F$10,0))</f>
+        <f>IF(OR(Inputs!F$6="Y", F$11 = 0), 0, IF(AND(Inputs!F16="Y",Inputs!F$22="N"),PRODUCT(F$11, Prices!$E14)*F$10,0))</f>
         <v>0</v>
       </c>
       <c r="G55" s="18">
-        <f>IF(OR(Inputs!G$5="Y", G$11 = 0), 0, IF(AND(Inputs!G15="Y",Inputs!G$21="N"),PRODUCT(G$11, Prices!$E14)*G$10,0))</f>
+        <f>IF(OR(Inputs!G$6="Y", G$11 = 0), 0, IF(AND(Inputs!G16="Y",Inputs!G$22="N"),PRODUCT(G$11, Prices!$E14)*G$10,0))</f>
         <v>0</v>
       </c>
       <c r="H55" s="18">
-        <f>IF(OR(Inputs!H$5="Y", H$11 = 0), 0, IF(AND(Inputs!H15="Y",Inputs!H$21="N"),PRODUCT(H$11, Prices!$E14)*H$10,0))</f>
+        <f>IF(OR(Inputs!H$6="Y", H$11 = 0), 0, IF(AND(Inputs!H16="Y",Inputs!H$22="N"),PRODUCT(H$11, Prices!$E14)*H$10,0))</f>
         <v>0</v>
       </c>
     </row>
@@ -12940,23 +13011,23 @@
         <v>78</v>
       </c>
       <c r="D56" s="18">
-        <f>IF(OR(Inputs!D$5="Y", D$11 = 0), 0, IF(AND(Inputs!D16="Y",Inputs!D$21="N"),PRODUCT(D$11, Prices!$E15)*D$10,0))</f>
+        <f>IF(OR(Inputs!D$6="Y", D$11 = 0), 0, IF(AND(Inputs!D17="Y",Inputs!D$22="N"),PRODUCT(D$11, Prices!$E15)*D$10,0))</f>
         <v>0</v>
       </c>
       <c r="E56" s="18">
-        <f>IF(OR(Inputs!E$5="Y", E$11 = 0), 0, IF(AND(Inputs!E16="Y",Inputs!E$21="N"),PRODUCT(E$11, Prices!$E15)*E$10,0))</f>
+        <f>IF(OR(Inputs!E$6="Y", E$11 = 0), 0, IF(AND(Inputs!E17="Y",Inputs!E$22="N"),PRODUCT(E$11, Prices!$E15)*E$10,0))</f>
         <v>0</v>
       </c>
       <c r="F56" s="18">
-        <f>IF(OR(Inputs!F$5="Y", F$11 = 0), 0, IF(AND(Inputs!F16="Y",Inputs!F$21="N"),PRODUCT(F$11, Prices!$E15)*F$10,0))</f>
+        <f>IF(OR(Inputs!F$6="Y", F$11 = 0), 0, IF(AND(Inputs!F17="Y",Inputs!F$22="N"),PRODUCT(F$11, Prices!$E15)*F$10,0))</f>
         <v>0</v>
       </c>
       <c r="G56" s="18">
-        <f>IF(OR(Inputs!G$5="Y", G$11 = 0), 0, IF(AND(Inputs!G16="Y",Inputs!G$21="N"),PRODUCT(G$11, Prices!$E15)*G$10,0))</f>
+        <f>IF(OR(Inputs!G$6="Y", G$11 = 0), 0, IF(AND(Inputs!G17="Y",Inputs!G$22="N"),PRODUCT(G$11, Prices!$E15)*G$10,0))</f>
         <v>0</v>
       </c>
       <c r="H56" s="18">
-        <f>IF(OR(Inputs!H$5="Y", H$11 = 0), 0, IF(AND(Inputs!H16="Y",Inputs!H$21="N"),PRODUCT(H$11, Prices!$E15)*H$10,0))</f>
+        <f>IF(OR(Inputs!H$6="Y", H$11 = 0), 0, IF(AND(Inputs!H17="Y",Inputs!H$22="N"),PRODUCT(H$11, Prices!$E15)*H$10,0))</f>
         <v>0</v>
       </c>
     </row>
@@ -12965,23 +13036,23 @@
         <v>11</v>
       </c>
       <c r="D57" s="20">
-        <f>IF(OR(Inputs!D$5="Y", D$11 = 0), 0, IF(AND(Inputs!D17="Y",Inputs!D$22="N",Inputs!D$23="N"),PRODUCT(D$11, Prices!$E16)*D$10,0))</f>
+        <f>IF(OR(Inputs!D$6="Y", D$11 = 0), 0, IF(AND(Inputs!D18="Y",Inputs!D$23="N",Inputs!D$24="N"),PRODUCT(D$11, Prices!$E16)*D$10,0))</f>
         <v>0</v>
       </c>
       <c r="E57" s="20">
-        <f>IF(OR(Inputs!E$5="Y", E$11 = 0), 0, IF(AND(Inputs!E17="Y",Inputs!E$22="N",Inputs!E$23="N"),PRODUCT(E$11, Prices!$E16)*E$10,0))</f>
+        <f>IF(OR(Inputs!E$6="Y", E$11 = 0), 0, IF(AND(Inputs!E18="Y",Inputs!E$23="N",Inputs!E$24="N"),PRODUCT(E$11, Prices!$E16)*E$10,0))</f>
         <v>0</v>
       </c>
       <c r="F57" s="20">
-        <f>IF(OR(Inputs!F$5="Y", F$11 = 0), 0, IF(AND(Inputs!F17="Y",Inputs!F$22="N",Inputs!F$23="N"),PRODUCT(F$11, Prices!$E16)*F$10,0))</f>
+        <f>IF(OR(Inputs!F$6="Y", F$11 = 0), 0, IF(AND(Inputs!F18="Y",Inputs!F$23="N",Inputs!F$24="N"),PRODUCT(F$11, Prices!$E16)*F$10,0))</f>
         <v>0</v>
       </c>
       <c r="G57" s="20">
-        <f>IF(OR(Inputs!G$5="Y", G$11 = 0), 0, IF(AND(Inputs!G17="Y",Inputs!G$22="N",Inputs!G$23="N"),PRODUCT(G$11, Prices!$E16)*G$10,0))</f>
+        <f>IF(OR(Inputs!G$6="Y", G$11 = 0), 0, IF(AND(Inputs!G18="Y",Inputs!G$23="N",Inputs!G$24="N"),PRODUCT(G$11, Prices!$E16)*G$10,0))</f>
         <v>0</v>
       </c>
       <c r="H57" s="20">
-        <f>IF(OR(Inputs!H$5="Y", H$11 = 0), 0, IF(AND(Inputs!H17="Y",Inputs!H$22="N",Inputs!H$23="N"),PRODUCT(H$11, Prices!$E16)*H$10,0))</f>
+        <f>IF(OR(Inputs!H$6="Y", H$11 = 0), 0, IF(AND(Inputs!H18="Y",Inputs!H$23="N",Inputs!H$24="N"),PRODUCT(H$11, Prices!$E16)*H$10,0))</f>
         <v>0</v>
       </c>
     </row>
@@ -12990,23 +13061,23 @@
         <v>12</v>
       </c>
       <c r="D58" s="20">
-        <f>IF(OR(Inputs!D$5="Y", D$11 = 0), 0, IF(AND(Inputs!D18="Y",Inputs!D$22="N",Inputs!D$23="N"),PRODUCT(D$11, Prices!$E17)*D$10,0))</f>
+        <f>IF(OR(Inputs!D$6="Y", D$11 = 0), 0, IF(AND(Inputs!D19="Y",Inputs!D$23="N",Inputs!D$24="N"),PRODUCT(D$11, Prices!$E17)*D$10,0))</f>
         <v>0</v>
       </c>
       <c r="E58" s="20">
-        <f>IF(OR(Inputs!E$5="Y", E$11 = 0), 0, IF(AND(Inputs!E18="Y",Inputs!E$22="N",Inputs!E$23="N"),PRODUCT(E$11, Prices!$E17)*E$10,0))</f>
+        <f>IF(OR(Inputs!E$6="Y", E$11 = 0), 0, IF(AND(Inputs!E19="Y",Inputs!E$23="N",Inputs!E$24="N"),PRODUCT(E$11, Prices!$E17)*E$10,0))</f>
         <v>0</v>
       </c>
       <c r="F58" s="20">
-        <f>IF(OR(Inputs!F$5="Y", F$11 = 0), 0, IF(AND(Inputs!F18="Y",Inputs!F$22="N",Inputs!F$23="N"),PRODUCT(F$11, Prices!$E17)*F$10,0))</f>
+        <f>IF(OR(Inputs!F$6="Y", F$11 = 0), 0, IF(AND(Inputs!F19="Y",Inputs!F$23="N",Inputs!F$24="N"),PRODUCT(F$11, Prices!$E17)*F$10,0))</f>
         <v>0</v>
       </c>
       <c r="G58" s="20">
-        <f>IF(OR(Inputs!G$5="Y", G$11 = 0), 0, IF(AND(Inputs!G18="Y",Inputs!G$22="N",Inputs!G$23="N"),PRODUCT(G$11, Prices!$E17)*G$10,0))</f>
+        <f>IF(OR(Inputs!G$6="Y", G$11 = 0), 0, IF(AND(Inputs!G19="Y",Inputs!G$23="N",Inputs!G$24="N"),PRODUCT(G$11, Prices!$E17)*G$10,0))</f>
         <v>0</v>
       </c>
       <c r="H58" s="20">
-        <f>IF(OR(Inputs!H$5="Y", H$11 = 0), 0, IF(AND(Inputs!H18="Y",Inputs!H$22="N",Inputs!H$23="N"),PRODUCT(H$11, Prices!$E17)*H$10,0))</f>
+        <f>IF(OR(Inputs!H$6="Y", H$11 = 0), 0, IF(AND(Inputs!H19="Y",Inputs!H$23="N",Inputs!H$24="N"),PRODUCT(H$11, Prices!$E17)*H$10,0))</f>
         <v>0</v>
       </c>
     </row>
@@ -13040,23 +13111,23 @@
         <v>14</v>
       </c>
       <c r="D62" s="18">
-        <f>IF(Inputs!D$21 = "Y", 0, IF(Inputs!D20="Y", Prices!$C20, 0))</f>
+        <f>IF(Inputs!D$22 = "Y", 0, IF(Inputs!D21="Y", Prices!$C20, 0))</f>
         <v>0</v>
       </c>
       <c r="E62" s="18">
-        <f>IF(Inputs!E$21 = "Y", 0, IF(Inputs!E20="Y", Prices!$C20, 0))</f>
+        <f>IF(Inputs!E$22 = "Y", 0, IF(Inputs!E21="Y", Prices!$C20, 0))</f>
         <v>0</v>
       </c>
       <c r="F62" s="18">
-        <f>IF(Inputs!F$21 = "Y", 0, IF(Inputs!F20="Y", Prices!$C20, 0))</f>
+        <f>IF(Inputs!F$22 = "Y", 0, IF(Inputs!F21="Y", Prices!$C20, 0))</f>
         <v>0</v>
       </c>
       <c r="G62" s="18">
-        <f>IF(Inputs!G$21 = "Y", 0, IF(Inputs!G20="Y", Prices!$C20, 0))</f>
+        <f>IF(Inputs!G$22 = "Y", 0, IF(Inputs!G21="Y", Prices!$C20, 0))</f>
         <v>0</v>
       </c>
       <c r="H62" s="18">
-        <f>IF(Inputs!H$21 = "Y", 0, IF(Inputs!H20="Y", Prices!$C20, 0))</f>
+        <f>IF(Inputs!H$22 = "Y", 0, IF(Inputs!H21="Y", Prices!$C20, 0))</f>
         <v>0</v>
       </c>
     </row>
@@ -13065,23 +13136,23 @@
         <v>15</v>
       </c>
       <c r="D63" s="18">
-        <f>IF(Inputs!D21="Y", Prices!$C21, 0)</f>
+        <f>IF(Inputs!D22="Y", Prices!$C21, 0)</f>
         <v>0</v>
       </c>
       <c r="E63" s="18">
-        <f>IF(Inputs!E21="Y", Prices!$C21, 0)</f>
+        <f>IF(Inputs!E22="Y", Prices!$C21, 0)</f>
         <v>0</v>
       </c>
       <c r="F63" s="18">
-        <f>IF(Inputs!F21="Y", Prices!$C21, 0)</f>
+        <f>IF(Inputs!F22="Y", Prices!$C21, 0)</f>
         <v>0</v>
       </c>
       <c r="G63" s="18">
-        <f>IF(Inputs!G21="Y", Prices!$C21, 0)</f>
+        <f>IF(Inputs!G22="Y", Prices!$C21, 0)</f>
         <v>0</v>
       </c>
       <c r="H63" s="18">
-        <f>IF(Inputs!H21="Y", Prices!$C21, 0)</f>
+        <f>IF(Inputs!H22="Y", Prices!$C21, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -13090,23 +13161,23 @@
         <v>16</v>
       </c>
       <c r="D64" s="20">
-        <f>IF(Inputs!D22="Y", Prices!$C22, 0)</f>
-        <v>42000</v>
+        <f>IF(Inputs!D23="Y", Prices!$C22, 0)</f>
+        <v>35000</v>
       </c>
       <c r="E64" s="20">
-        <f>IF(Inputs!E22="Y", Prices!$C22, 0)</f>
-        <v>42000</v>
+        <f>IF(Inputs!E23="Y", Prices!$C22, 0)</f>
+        <v>35000</v>
       </c>
       <c r="F64" s="20">
-        <f>IF(Inputs!F22="Y", Prices!$C22, 0)</f>
+        <f>IF(Inputs!F23="Y", Prices!$C22, 0)</f>
         <v>0</v>
       </c>
       <c r="G64" s="20">
-        <f>IF(Inputs!G22="Y", Prices!$C22, 0)</f>
+        <f>IF(Inputs!G23="Y", Prices!$C22, 0)</f>
         <v>0</v>
       </c>
       <c r="H64" s="20">
-        <f>IF(Inputs!H22="Y", Prices!$C22, 0)</f>
+        <f>IF(Inputs!H23="Y", Prices!$C22, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -13115,23 +13186,23 @@
         <v>130</v>
       </c>
       <c r="D65" s="20">
-        <f>IF(Inputs!D23="Y", Prices!$C23, 0)</f>
+        <f>IF(Inputs!D24="Y", Prices!$C23, 0)</f>
         <v>0</v>
       </c>
       <c r="E65" s="20">
-        <f>IF(Inputs!E23="Y", Prices!$C23, 0)</f>
-        <v>42000</v>
+        <f>IF(Inputs!E24="Y", Prices!$C23, 0)</f>
+        <v>35000</v>
       </c>
       <c r="F65" s="20">
-        <f>IF(Inputs!F23="Y", Prices!$C23, 0)</f>
+        <f>IF(Inputs!F24="Y", Prices!$C23, 0)</f>
         <v>0</v>
       </c>
       <c r="G65" s="20">
-        <f>IF(Inputs!G23="Y", Prices!$C23, 0)</f>
+        <f>IF(Inputs!G24="Y", Prices!$C23, 0)</f>
         <v>0</v>
       </c>
       <c r="H65" s="20">
-        <f>IF(Inputs!H23="Y", Prices!$C23, 0)</f>
+        <f>IF(Inputs!H24="Y", Prices!$C23, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -13140,23 +13211,23 @@
         <v>17</v>
       </c>
       <c r="D66" s="20">
-        <f>IF(Inputs!D24="Y", Prices!$C24, 0)</f>
+        <f>IF(Inputs!D25="Y", Prices!$C24, 0)</f>
         <v>0</v>
       </c>
       <c r="E66" s="20">
-        <f>IF(Inputs!E24="Y", Prices!$C24, 0)</f>
+        <f>IF(Inputs!E25="Y", Prices!$C24, 0)</f>
         <v>0</v>
       </c>
       <c r="F66" s="20">
-        <f>IF(Inputs!F24="Y", Prices!$C24, 0)</f>
+        <f>IF(Inputs!F25="Y", Prices!$C24, 0)</f>
         <v>0</v>
       </c>
       <c r="G66" s="20">
-        <f>IF(Inputs!G24="Y", Prices!$C24, 0)</f>
+        <f>IF(Inputs!G25="Y", Prices!$C24, 0)</f>
         <v>0</v>
       </c>
       <c r="H66" s="20">
-        <f>IF(Inputs!H24="Y", Prices!$C24, 0)</f>
+        <f>IF(Inputs!H25="Y", Prices!$C24, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -13165,23 +13236,23 @@
         <v>100</v>
       </c>
       <c r="D67" s="20">
-        <f>IF(Inputs!D25="Y", Prices!$C25 * IF(Inputs!D24="Y",1-Prices!$L$20,1), 0)</f>
+        <f>IF(Inputs!D26="Y", Prices!$C25 * IF(Inputs!D25="Y",1-Prices!$L$20,1), IF(Inputs!D26="Monthly", Prices!$C25 * Prices!$L$24 * IF(Inputs!D25="Y",1-Prices!$L$20,1), 0))</f>
         <v>0</v>
       </c>
       <c r="E67" s="20">
-        <f>IF(Inputs!E25="Y", Prices!$C25 * IF(Inputs!E24="Y",1-Prices!$L$20,1), 0)</f>
+        <f>IF(Inputs!E26="Y", Prices!$C25 * IF(Inputs!E25="Y",1-Prices!$L$20,1), IF(Inputs!E26="Monthly", Prices!$C25 * Prices!$L$24 * IF(Inputs!E25="Y",1-Prices!$L$20,1), 0))</f>
         <v>0</v>
       </c>
       <c r="F67" s="20">
-        <f>IF(Inputs!F25="Y", Prices!$C25 * IF(Inputs!F24="Y",1-Prices!$L$20,1), 0)</f>
+        <f>IF(Inputs!F26="Y", Prices!$C25 * IF(Inputs!F25="Y",1-Prices!$L$20,1), IF(Inputs!F26="Monthly", Prices!$C25 * Prices!$L$24 * IF(Inputs!F25="Y",1-Prices!$L$20,1), 0))</f>
         <v>0</v>
       </c>
       <c r="G67" s="20">
-        <f>IF(Inputs!G25="Y", Prices!$C25 * IF(Inputs!G24="Y",1-Prices!$L$20,1), 0)</f>
+        <f>IF(Inputs!G26="Y", Prices!$C25 * IF(Inputs!G25="Y",1-Prices!$L$20,1), IF(Inputs!G26="Monthly", Prices!$C25 * Prices!$L$24 * IF(Inputs!G25="Y",1-Prices!$L$20,1), 0))</f>
         <v>0</v>
       </c>
       <c r="H67" s="20">
-        <f>IF(Inputs!H25="Y", Prices!$C25 * IF(Inputs!H24="Y",1-Prices!$L$20,1), 0)</f>
+        <f>IF(Inputs!H26="Y", Prices!$C25 * IF(Inputs!H25="Y",1-Prices!$L$20,1), IF(Inputs!H26="Monthly", Prices!$C25 * Prices!$L$24 * IF(Inputs!H25="Y",1-Prices!$L$20,1), 0))</f>
         <v>0</v>
       </c>
     </row>
@@ -13190,23 +13261,23 @@
         <v>99</v>
       </c>
       <c r="D68" s="20">
-        <f>IF(Inputs!D26="Y", Prices!$C26, 0)</f>
+        <f>IF(Inputs!D27="Y", Prices!$C26, 0)</f>
         <v>0</v>
       </c>
       <c r="E68" s="20">
-        <f>IF(Inputs!E26="Y", Prices!$C26, 0)</f>
+        <f>IF(Inputs!E27="Y", Prices!$C26, 0)</f>
         <v>0</v>
       </c>
       <c r="F68" s="20">
-        <f>IF(Inputs!F26="Y", Prices!$C26, 0)</f>
+        <f>IF(Inputs!F27="Y", Prices!$C26, 0)</f>
         <v>0</v>
       </c>
       <c r="G68" s="20">
-        <f>IF(Inputs!G26="Y", Prices!$C26, 0)</f>
+        <f>IF(Inputs!G27="Y", Prices!$C26, 0)</f>
         <v>0</v>
       </c>
       <c r="H68" s="20">
-        <f>IF(Inputs!H26="Y", Prices!$C26, 0)</f>
+        <f>IF(Inputs!H27="Y", Prices!$C26, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -13215,23 +13286,23 @@
         <v>97</v>
       </c>
       <c r="D69" s="84">
-        <f>IF(Inputs!D10="Y", Prices!$C27, 0)</f>
+        <f>IF(Inputs!D11="Y", Prices!$C27, IF(Inputs!D11="Monthly", Prices!C27 * Prices!$L$24, 0))</f>
         <v>0</v>
       </c>
       <c r="E69" s="84">
-        <f>IF(Inputs!E10="Y", Prices!$C27, 0)</f>
+        <f>IF(Inputs!E11="Y", Prices!$C27, IF(Inputs!E11="Monthly", Prices!D27 * Prices!$L$24, 0))</f>
         <v>0</v>
       </c>
       <c r="F69" s="84">
-        <f>IF(Inputs!F10="Y", Prices!$C27, 0)</f>
+        <f>IF(Inputs!F11="Y", Prices!$C27, IF(Inputs!F11="Monthly", Prices!E27 * Prices!$L$24, 0))</f>
         <v>0</v>
       </c>
       <c r="G69" s="84">
-        <f>IF(Inputs!G10="Y", Prices!$C27, 0)</f>
+        <f>IF(Inputs!G11="Y", Prices!$C27, IF(Inputs!G11="Monthly", Prices!F27 * Prices!$L$24, 0))</f>
         <v>0</v>
       </c>
       <c r="H69" s="84">
-        <f>IF(Inputs!H10="Y", Prices!$C27, 0)</f>
+        <f>IF(Inputs!H11="Y", Prices!$C27, IF(Inputs!H11="Monthly", Prices!G27 * Prices!$L$24, 0))</f>
         <v>0</v>
       </c>
     </row>
@@ -13291,23 +13362,23 @@
         <v>15</v>
       </c>
       <c r="D73" s="18">
-        <f>IF(Inputs!D$5="Y", 0, IF(D$11 = "", 0, IF(Inputs!D21 = "Y", D$11*Prices!$E21, 0)))*D$10</f>
+        <f>IF(Inputs!D$6="Y", 0, IF(D$11 = "", 0, IF(Inputs!D22 = "Y", D$11*Prices!$E21, 0)))*D$10</f>
         <v>0</v>
       </c>
       <c r="E73" s="18">
-        <f>IF(Inputs!E$5="Y", 0, IF(E$11 = "", 0, IF(Inputs!E21 = "Y", E$11*Prices!$E21, 0)))*E$10</f>
+        <f>IF(Inputs!E$6="Y", 0, IF(E$11 = "", 0, IF(Inputs!E22 = "Y", E$11*Prices!$E21, 0)))*E$10</f>
         <v>0</v>
       </c>
       <c r="F73" s="18">
-        <f>IF(Inputs!F$5="Y", 0, IF(F$11 = "", 0, IF(Inputs!F21 = "Y", F$11*Prices!$E21, 0)))*F$10</f>
+        <f>IF(Inputs!F$6="Y", 0, IF(F$11 = "", 0, IF(Inputs!F22 = "Y", F$11*Prices!$E21, 0)))*F$10</f>
         <v>0</v>
       </c>
       <c r="G73" s="18">
-        <f>IF(Inputs!G$5="Y", 0, IF(G$11 = "", 0, IF(Inputs!G21 = "Y", G$11*Prices!$E21, 0)))*G$10</f>
+        <f>IF(Inputs!G$6="Y", 0, IF(G$11 = "", 0, IF(Inputs!G22 = "Y", G$11*Prices!$E21, 0)))*G$10</f>
         <v>0</v>
       </c>
       <c r="H73" s="18">
-        <f>IF(Inputs!H$5="Y", 0, IF(H$11 = "", 0, IF(Inputs!H21 = "Y", H$11*Prices!$E21, 0)))*H$10</f>
+        <f>IF(Inputs!H$6="Y", 0, IF(H$11 = "", 0, IF(Inputs!H22 = "Y", H$11*Prices!$E21, 0)))*H$10</f>
         <v>0</v>
       </c>
       <c r="J73" s="90">
@@ -13340,23 +13411,23 @@
         <v>16</v>
       </c>
       <c r="D74" s="20">
-        <f>IF(Inputs!D$5="Y", 0, IF(D$11 = "", 0, IF(Inputs!D22 = "Y", D$11*Prices!$E22, 0)))*D$10</f>
+        <f>IF(Inputs!D$6="Y", 0, IF(D$11 = "", 0, IF(Inputs!D23 = "Y", D$11*Prices!$E22, 0)))*D$10</f>
         <v>0</v>
       </c>
       <c r="E74" s="20">
-        <f>IF(Inputs!E$5="Y", 0, IF(E$11 = "", 0, IF(Inputs!E22 = "Y", E$11*Prices!$E22, 0)))*E$10</f>
-        <v>38220</v>
+        <f>IF(Inputs!E$6="Y", 0, IF(E$11 = "", 0, IF(Inputs!E23 = "Y", E$11*Prices!$E22, 0)))*E$10</f>
+        <v>26389.999999999996</v>
       </c>
       <c r="F74" s="20">
-        <f>IF(Inputs!F$5="Y", 0, IF(F$11 = "", 0, IF(Inputs!F22 = "Y", F$11*Prices!$E22, 0)))*F$10</f>
+        <f>IF(Inputs!F$6="Y", 0, IF(F$11 = "", 0, IF(Inputs!F23 = "Y", F$11*Prices!$E22, 0)))*F$10</f>
         <v>0</v>
       </c>
       <c r="G74" s="20">
-        <f>IF(Inputs!G$5="Y", 0, IF(G$11 = "", 0, IF(Inputs!G22 = "Y", G$11*Prices!$E22, 0)))*G$10</f>
+        <f>IF(Inputs!G$6="Y", 0, IF(G$11 = "", 0, IF(Inputs!G23 = "Y", G$11*Prices!$E22, 0)))*G$10</f>
         <v>0</v>
       </c>
       <c r="H74" s="20">
-        <f>IF(Inputs!H$5="Y", 0, IF(H$11 = "", 0, IF(Inputs!H22 = "Y", H$11*Prices!$E22, 0)))*H$10</f>
+        <f>IF(Inputs!H$6="Y", 0, IF(H$11 = "", 0, IF(Inputs!H23 = "Y", H$11*Prices!$E22, 0)))*H$10</f>
         <v>0</v>
       </c>
       <c r="J74" s="90">
@@ -13365,11 +13436,11 @@
       </c>
       <c r="K74" s="23">
         <f t="shared" ref="K74:O74" si="5">D64+D74+$J74</f>
-        <v>42000.001199999999</v>
+        <v>35000.001199999999</v>
       </c>
       <c r="L74" s="23">
         <f t="shared" si="5"/>
-        <v>80220.001199999999</v>
+        <v>61390.001199999999</v>
       </c>
       <c r="M74" s="23">
         <f t="shared" si="5"/>
@@ -13389,23 +13460,23 @@
         <v>130</v>
       </c>
       <c r="D75" s="20">
-        <f>IF(Inputs!D$5="Y", 0, IF(D$11 = "", 0, IF(Inputs!D23 = "Y", D$11*Prices!$E23, 0)))*D$10</f>
+        <f>IF(Inputs!D$6="Y", 0, IF(D$11 = "", 0, IF(Inputs!D24 = "Y", D$11*Prices!$E23, 0)))*D$10</f>
         <v>0</v>
       </c>
       <c r="E75" s="20">
-        <f>IF(Inputs!E$5="Y", 0, IF(E$11 = "", 0, IF(Inputs!E23 = "Y", E$11*Prices!$E23, 0)))*E$10</f>
-        <v>38220</v>
+        <f>IF(Inputs!E$6="Y", 0, IF(E$11 = "", 0, IF(Inputs!E24 = "Y", E$11*Prices!$E23, 0)))*E$10</f>
+        <v>26389.999999999996</v>
       </c>
       <c r="F75" s="20">
-        <f>IF(Inputs!F$5="Y", 0, IF(F$11 = "", 0, IF(Inputs!F23 = "Y", F$11*Prices!$E23, 0)))*F$10</f>
+        <f>IF(Inputs!F$6="Y", 0, IF(F$11 = "", 0, IF(Inputs!F24 = "Y", F$11*Prices!$E23, 0)))*F$10</f>
         <v>0</v>
       </c>
       <c r="G75" s="20">
-        <f>IF(Inputs!G$5="Y", 0, IF(G$11 = "", 0, IF(Inputs!G23 = "Y", G$11*Prices!$E23, 0)))*G$10</f>
+        <f>IF(Inputs!G$6="Y", 0, IF(G$11 = "", 0, IF(Inputs!G24 = "Y", G$11*Prices!$E23, 0)))*G$10</f>
         <v>0</v>
       </c>
       <c r="H75" s="20">
-        <f>IF(Inputs!H$5="Y", 0, IF(H$11 = "", 0, IF(Inputs!H23 = "Y", H$11*Prices!$E23, 0)))*H$10</f>
+        <f>IF(Inputs!H$6="Y", 0, IF(H$11 = "", 0, IF(Inputs!H24 = "Y", H$11*Prices!$E23, 0)))*H$10</f>
         <v>0</v>
       </c>
       <c r="J75" s="90">
@@ -13418,7 +13489,7 @@
       </c>
       <c r="L75" s="23">
         <f t="shared" ref="L75:L79" si="7">E65+E75+$J75</f>
-        <v>80220.001300000004</v>
+        <v>61390.001300000004</v>
       </c>
       <c r="M75" s="23">
         <f t="shared" ref="M75:M79" si="8">F65+F75+$J75</f>
@@ -13438,23 +13509,23 @@
         <v>17</v>
       </c>
       <c r="D76" s="20">
-        <f>IF(Inputs!D$5="Y", 0, IF(D$11 = "", 0, IF(Inputs!D24 = "Y", D$11*Prices!$E24, 0)))*D$10</f>
+        <f>IF(Inputs!D$6="Y", 0, IF(D$11 = "", 0, IF(Inputs!D25 = "Y", D$11*Prices!$E24, 0)))*D$10</f>
         <v>0</v>
       </c>
       <c r="E76" s="20">
-        <f>IF(Inputs!E$5="Y", 0, IF(E$11 = "", 0, IF(Inputs!E24 = "Y", E$11*Prices!$E24, 0)))*E$10</f>
+        <f>IF(Inputs!E$6="Y", 0, IF(E$11 = "", 0, IF(Inputs!E25 = "Y", E$11*Prices!$E24, 0)))*E$10</f>
         <v>0</v>
       </c>
       <c r="F76" s="20">
-        <f>IF(Inputs!F$5="Y", 0, IF(F$11 = "", 0, IF(Inputs!F24 = "Y", F$11*Prices!$E24, 0)))*F$10</f>
+        <f>IF(Inputs!F$6="Y", 0, IF(F$11 = "", 0, IF(Inputs!F25 = "Y", F$11*Prices!$E24, 0)))*F$10</f>
         <v>0</v>
       </c>
       <c r="G76" s="20">
-        <f>IF(Inputs!G$5="Y", 0, IF(G$11 = "", 0, IF(Inputs!G24 = "Y", G$11*Prices!$E24, 0)))*G$10</f>
+        <f>IF(Inputs!G$6="Y", 0, IF(G$11 = "", 0, IF(Inputs!G25 = "Y", G$11*Prices!$E24, 0)))*G$10</f>
         <v>0</v>
       </c>
       <c r="H76" s="20">
-        <f>IF(Inputs!H$5="Y", 0, IF(H$11 = "", 0, IF(Inputs!H24 = "Y", H$11*Prices!$E24, 0)))*H$10</f>
+        <f>IF(Inputs!H$6="Y", 0, IF(H$11 = "", 0, IF(Inputs!H25 = "Y", H$11*Prices!$E24, 0)))*H$10</f>
         <v>0</v>
       </c>
       <c r="J76" s="90">
@@ -13487,23 +13558,23 @@
         <v>100</v>
       </c>
       <c r="D77" s="20">
-        <f>IF(Inputs!D$5="Y", 0, IF(D$11 = "", 0, IF(Inputs!D25 = "Y", D$11*Prices!$E25 * IF(Inputs!D24="Y",1-Prices!$L$20,1), 0)))*D$10</f>
+        <f>IF(Inputs!D$6="Y", 0, IF(D$11 = "", 0, IF(Inputs!D26 = "Y", D$11*Prices!$E25 * IF(Inputs!D25="Y",1-Prices!$L$20,1),IF(Inputs!D26="Monthly", D$11*Prices!$E25 * Prices!$L$24 * IF(Inputs!D25="Y",1-Prices!$L$20,1), 0))))*D$10</f>
         <v>0</v>
       </c>
       <c r="E77" s="20">
-        <f>IF(Inputs!E$5="Y", 0, IF(E$11 = "", 0, IF(Inputs!E25 = "Y", E$11*Prices!$E25 * IF(Inputs!E24="Y",1-Prices!$L$20,1), 0)))*E$10</f>
+        <f>IF(Inputs!E$6="Y", 0, IF(E$11 = "", 0, IF(Inputs!E26 = "Y", E$11*Prices!$E25 * IF(Inputs!E25="Y",1-Prices!$L$20,1),IF(Inputs!E26="Monthly", E$11*Prices!$E25 * Prices!$L$24 * IF(Inputs!E25="Y",1-Prices!$L$20,1), 0))))*E$10</f>
         <v>0</v>
       </c>
       <c r="F77" s="20">
-        <f>IF(Inputs!F$5="Y", 0, IF(F$11 = "", 0, IF(Inputs!F25 = "Y", F$11*Prices!$E25 * IF(Inputs!F24="Y",1-Prices!$L$20,1), 0)))*F$10</f>
+        <f>IF(Inputs!F$6="Y", 0, IF(F$11 = "", 0, IF(Inputs!F26 = "Y", F$11*Prices!$E25 * IF(Inputs!F25="Y",1-Prices!$L$20,1),IF(Inputs!F26="Monthly", F$11*Prices!$E25 * Prices!$L$24 * IF(Inputs!F25="Y",1-Prices!$L$20,1), 0))))*F$10</f>
         <v>0</v>
       </c>
       <c r="G77" s="20">
-        <f>IF(Inputs!G$5="Y", 0, IF(G$11 = "", 0, IF(Inputs!G25 = "Y", G$11*Prices!$E25 * IF(Inputs!G24="Y",1-Prices!$L$20,1), 0)))*G$10</f>
+        <f>IF(Inputs!G$6="Y", 0, IF(G$11 = "", 0, IF(Inputs!G26 = "Y", G$11*Prices!$E25 * IF(Inputs!G25="Y",1-Prices!$L$20,1),IF(Inputs!G26="Monthly", G$11*Prices!$E25 * Prices!$L$24 * IF(Inputs!G25="Y",1-Prices!$L$20,1), 0))))*G$10</f>
         <v>0</v>
       </c>
       <c r="H77" s="20">
-        <f>IF(Inputs!H$5="Y", 0, IF(H$11 = "", 0, IF(Inputs!H25 = "Y", H$11*Prices!$E25 * IF(Inputs!H24="Y",1-Prices!$L$20,1), 0)))*H$10</f>
+        <f>IF(Inputs!H$6="Y", 0, IF(H$11 = "", 0, IF(Inputs!H26 = "Y", H$11*Prices!$E25 * IF(Inputs!H25="Y",1-Prices!$L$20,1),IF(Inputs!H26="Monthly", H$11*Prices!$E25 * Prices!$L$24 * IF(Inputs!H25="Y",1-Prices!$L$20,1), 0))))*H$10</f>
         <v>0</v>
       </c>
       <c r="J77" s="90">
@@ -13536,23 +13607,23 @@
         <v>99</v>
       </c>
       <c r="D78" s="20">
-        <f>IF(Inputs!D$5="Y", 0, IF(D$11 = "", 0, IF(Inputs!D26 = "Y", D$11*Prices!$E26, 0)))*D$10</f>
+        <f>IF(Inputs!D$6="Y", 0, IF(D$11 = "", 0, IF(Inputs!D27 = "Y", D$11*Prices!$E26, 0)))*D$10</f>
         <v>0</v>
       </c>
       <c r="E78" s="20">
-        <f>IF(Inputs!E$5="Y", 0, IF(E$11 = "", 0, IF(Inputs!E26 = "Y", E$11*Prices!$E26, 0)))*E$10</f>
+        <f>IF(Inputs!E$6="Y", 0, IF(E$11 = "", 0, IF(Inputs!E27 = "Y", E$11*Prices!$E26, 0)))*E$10</f>
         <v>0</v>
       </c>
       <c r="F78" s="20">
-        <f>IF(Inputs!F$5="Y", 0, IF(F$11 = "", 0, IF(Inputs!F26 = "Y", F$11*Prices!$E26, 0)))*F$10</f>
+        <f>IF(Inputs!F$6="Y", 0, IF(F$11 = "", 0, IF(Inputs!F27 = "Y", F$11*Prices!$E26, 0)))*F$10</f>
         <v>0</v>
       </c>
       <c r="G78" s="20">
-        <f>IF(Inputs!G$5="Y", 0, IF(G$11 = "", 0, IF(Inputs!G26 = "Y", G$11*Prices!$E26, 0)))*G$10</f>
+        <f>IF(Inputs!G$6="Y", 0, IF(G$11 = "", 0, IF(Inputs!G27 = "Y", G$11*Prices!$E26, 0)))*G$10</f>
         <v>0</v>
       </c>
       <c r="H78" s="20">
-        <f>IF(Inputs!H$5="Y", 0, IF(H$11 = "", 0, IF(Inputs!H26 = "Y", H$11*Prices!$E26, 0)))*H$10</f>
+        <f>IF(Inputs!H$6="Y", 0, IF(H$11 = "", 0, IF(Inputs!H27 = "Y", H$11*Prices!$E26, 0)))*H$10</f>
         <v>0</v>
       </c>
       <c r="J78" s="90">
@@ -13585,23 +13656,23 @@
         <v>97</v>
       </c>
       <c r="D79" s="84">
-        <f>IF(Inputs!D$5="Y", 0, IF(D$11 = "", 0, IF(Inputs!D10 = "Y", D$11*Prices!$E27, 0)))*D$10</f>
+        <f>IF(Inputs!D$6="Y", 0, IF(D$11 = "", 0, IF(Inputs!D11 = "Y", D$11*Prices!$E27, IF(Inputs!D11="Monthly", D$11*Prices!$E27*Prices!$L$24,0))))*D$10</f>
         <v>0</v>
       </c>
       <c r="E79" s="84">
-        <f>IF(Inputs!E$5="Y", 0, IF(E$11 = "", 0, IF(Inputs!E10 = "Y", E$11*Prices!$E27, 0)))*E$10</f>
+        <f>IF(Inputs!E$6="Y", 0, IF(E$11 = "", 0, IF(Inputs!E11 = "Y", E$11*Prices!$E27, IF(Inputs!E11="Monthly", E$11*Prices!$E27*Prices!$L$24,0))))*E$10</f>
         <v>0</v>
       </c>
       <c r="F79" s="84">
-        <f>IF(Inputs!F$5="Y", 0, IF(F$11 = "", 0, IF(Inputs!F10 = "Y", F$11*Prices!$E27, 0)))*F$10</f>
+        <f>IF(Inputs!F$6="Y", 0, IF(F$11 = "", 0, IF(Inputs!F11 = "Y", F$11*Prices!$E27, IF(Inputs!F11="Monthly", F$11*Prices!$E27*Prices!$L$24,0))))*F$10</f>
         <v>0</v>
       </c>
       <c r="G79" s="84">
-        <f>IF(Inputs!G$5="Y", 0, IF(G$11 = "", 0, IF(Inputs!G10 = "Y", G$11*Prices!$E27, 0)))*G$10</f>
+        <f>IF(Inputs!G$6="Y", 0, IF(G$11 = "", 0, IF(Inputs!G11 = "Y", G$11*Prices!$E27, IF(Inputs!G11="Monthly", G$11*Prices!$E27*Prices!$L$24,0))))*G$10</f>
         <v>0</v>
       </c>
       <c r="H79" s="84">
-        <f>IF(Inputs!H$5="Y", 0, IF(H$11 = "", 0, IF(Inputs!H10 = "Y", H$11*Prices!$E27, 0)))*H$10</f>
+        <f>IF(Inputs!H$6="Y", 0, IF(H$11 = "", 0, IF(Inputs!H11 = "Y", H$11*Prices!$E27, IF(Inputs!H11="Monthly", H$11*Prices!$E27*Prices!$L$24,0))))*H$10</f>
         <v>0</v>
       </c>
       <c r="J79" s="90">
@@ -13737,11 +13808,11 @@
       </c>
       <c r="D84" s="20">
         <f>IF(D64=0,0,D64-SUM(D21:D23))</f>
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="E84" s="20">
         <f>IF(E64=0,0,E64-SUM(E21:E23))</f>
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="F84" s="20">
         <f>IF(F64=0,0,F64-SUM(F21:F23))</f>
@@ -13781,23 +13852,23 @@
         <v>130</v>
       </c>
       <c r="D85" s="20">
-        <f>IF(D65=0,0,D65-IF(Inputs!D22="Y", 0, SUM(D21:D23)))</f>
+        <f>IF(D65=0,0,D65-IF(Inputs!D23="Y", 0, SUM(D21:D23)))</f>
         <v>0</v>
       </c>
       <c r="E85" s="20">
-        <f>IF(E65=0,0,E65-IF(Inputs!E22="Y", 0, SUM(E21:E23)))</f>
-        <v>42000</v>
+        <f>IF(E65=0,0,E65-IF(Inputs!E23="Y", 0, SUM(E21:E23)))</f>
+        <v>35000</v>
       </c>
       <c r="F85" s="20">
-        <f>IF(F65=0,0,F65-IF(Inputs!F22="Y", 0, SUM(F21:F23)))</f>
+        <f>IF(F65=0,0,F65-IF(Inputs!F23="Y", 0, SUM(F21:F23)))</f>
         <v>0</v>
       </c>
       <c r="G85" s="20">
-        <f>IF(G65=0,0,G65-IF(Inputs!G22="Y", 0, SUM(G21:G23)))</f>
+        <f>IF(G65=0,0,G65-IF(Inputs!G23="Y", 0, SUM(G21:G23)))</f>
         <v>0</v>
       </c>
       <c r="H85" s="20">
-        <f>IF(H65=0,0,H65-IF(Inputs!H22="Y", 0, SUM(H21:H23)))</f>
+        <f>IF(H65=0,0,H65-IF(Inputs!H23="Y", 0, SUM(H21:H23)))</f>
         <v>0</v>
       </c>
       <c r="K85" s="21">
@@ -13871,11 +13942,11 @@
         <v>100</v>
       </c>
       <c r="D87" s="20">
-        <f t="shared" ref="D87:H87" si="17">D67</f>
+        <f>D67</f>
         <v>0</v>
       </c>
       <c r="E87" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="D87:H87" si="17">E67</f>
         <v>0</v>
       </c>
       <c r="F87" s="20">
@@ -14061,7 +14132,7 @@
       </c>
       <c r="E94" s="20">
         <f>IF(E74=0,0,E74-SUM(E33:E34))</f>
-        <v>6370</v>
+        <v>3639.9999999999964</v>
       </c>
       <c r="F94" s="20">
         <f>IF(F74=0,0,F74-SUM(F33:F34))</f>
@@ -14081,23 +14152,23 @@
         <v>130</v>
       </c>
       <c r="D95" s="20">
-        <f>IF(D75=0,0,D75-IF(Inputs!D22="Y", 0,SUM(D33:D34)))</f>
+        <f>IF(D75=0,0,D75-IF(Inputs!D23="Y", 0,SUM(D33:D34)))</f>
         <v>0</v>
       </c>
       <c r="E95" s="20">
-        <f>IF(E75=0,0,E75-IF(Inputs!E22="Y", 0,SUM(E33:E34)))</f>
-        <v>38220</v>
+        <f>IF(E75=0,0,E75-IF(Inputs!E23="Y", 0,SUM(E33:E34)))</f>
+        <v>26389.999999999996</v>
       </c>
       <c r="F95" s="20">
-        <f>IF(F75=0,0,F75-IF(Inputs!F22="Y", 0,SUM(F33:F34)))</f>
+        <f>IF(F75=0,0,F75-IF(Inputs!F23="Y", 0,SUM(F33:F34)))</f>
         <v>0</v>
       </c>
       <c r="G95" s="20">
-        <f>IF(G75=0,0,G75-IF(Inputs!G22="Y", 0,SUM(G33:G34)))</f>
+        <f>IF(G75=0,0,G75-IF(Inputs!G23="Y", 0,SUM(G33:G34)))</f>
         <v>0</v>
       </c>
       <c r="H95" s="20">
-        <f>IF(H75=0,0,H75-IF(Inputs!H22="Y", 0,SUM(H33:H34)))</f>
+        <f>IF(H75=0,0,H75-IF(Inputs!H23="Y", 0,SUM(H33:H34)))</f>
         <v>0</v>
       </c>
     </row>
@@ -14219,7 +14290,7 @@
       </c>
       <c r="E102" s="1">
         <f>_xlfn.IFNA(SUM(INDEX(E$62:E$69, MATCH($A102, L$82:L$89, 0)), INDEX(E$72:E$79, MATCH($A102, L$82:L$89, 0)))*Prices!$L$5*-1, 0)</f>
-        <v>-24066</v>
+        <v>-18417</v>
       </c>
       <c r="F102" s="1">
         <f>_xlfn.IFNA(SUM(INDEX(F$62:F$69, MATCH($A102, M$82:M$89, 0)), INDEX(F$72:F$79, MATCH($A102, M$82:M$89, 0)))*Prices!$L$5*-1, 0)</f>
@@ -14380,11 +14451,11 @@
       </c>
       <c r="D109" s="7">
         <f>SUM(D38:D47, D50:D59, D62:D69, D72:D79, D102:D106)</f>
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="E109" s="7">
         <f t="shared" ref="E109:H109" si="26">SUM(E38:E47, E50:E59, E62:E69, E72:E79, E102:E106)</f>
-        <v>205774</v>
+        <v>158933</v>
       </c>
       <c r="F109" s="7">
         <f t="shared" si="26"/>
@@ -14408,7 +14479,7 @@
       </c>
       <c r="D111" s="1">
         <f>IF(D121=1, 0, IF(D121=2, $E$124, IF(D121=3, $E$125, IF(D121=4, $E$126, IF(D121=5, $E$127, "")))))</f>
-        <v>-27000</v>
+        <v>-22500</v>
       </c>
       <c r="E111" s="1">
         <f t="shared" ref="E111:H111" si="27">IF(E121=1, 0, IF(E121=2, $E$124, IF(E121=3, $E$125, IF(E121=4, $E$126, IF(E121=5, $E$127, "")))))</f>
@@ -14439,7 +14510,7 @@
         <v>83</v>
       </c>
       <c r="D113" s="1">
-        <f>IF(Inputs!$D$6 = "Y", Prices!$L$18, 0)*-1</f>
+        <f>IF(Inputs!$D$7 = "Y", Prices!$L$18, 0)*-1</f>
         <v>0</v>
       </c>
       <c r="E113" s="1">
@@ -14461,11 +14532,11 @@
       </c>
       <c r="D115" s="7">
         <f>SUM(D109, D111,D113)</f>
-        <v>33000</v>
+        <v>27500</v>
       </c>
       <c r="E115" s="7">
         <f t="shared" ref="E115:H115" si="28">SUM(E109, E111,E113)</f>
-        <v>205774</v>
+        <v>158933</v>
       </c>
       <c r="F115" s="7">
         <f t="shared" si="28"/>
@@ -14586,7 +14657,7 @@
       </c>
       <c r="E124" s="98">
         <f>INDEX($D$109:$H$109, 1, MATCH(2, $D$121:$H$121, 0))*Prices!$L$10*-1</f>
-        <v>-27000</v>
+        <v>-22500</v>
       </c>
     </row>
     <row r="125" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -14632,7 +14703,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14728,27 +14801,27 @@
       </c>
       <c r="C6" s="42">
         <f>$L$26*15000</f>
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="D6" s="42">
         <f>IF(Inputs!$C$3="Monthly",33000,30000)</f>
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="E6" s="38">
         <f>IF(Inputs!$C$3="Monthly",0.4,0.27)</f>
-        <v>0.4</v>
+        <v>0.27</v>
       </c>
       <c r="F6" s="38">
         <f>$E6*F$4</f>
-        <v>0.24</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="G6" s="38">
         <f t="shared" ref="G6:H6" si="0">$E6*G$4</f>
-        <v>9.6000000000000002E-2</v>
+        <v>6.4799999999999996E-2</v>
       </c>
       <c r="H6" s="38">
         <f t="shared" si="0"/>
-        <v>8.0000000000000016E-2</v>
+        <v>5.4000000000000006E-2</v>
       </c>
       <c r="K6" t="s">
         <v>27</v>
@@ -14785,23 +14858,23 @@
       </c>
       <c r="C10" s="44">
         <f>$L$26*1000</f>
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="E10" s="40">
         <f>$L$26*0.04</f>
-        <v>4.8000000000000001E-2</v>
+        <v>0.04</v>
       </c>
       <c r="F10" s="40">
         <f t="shared" ref="F10:H18" si="1">$E10*F$4</f>
-        <v>2.8799999999999999E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="G10" s="40">
         <f t="shared" si="1"/>
-        <v>1.1519999999999999E-2</v>
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="H10" s="40">
         <f t="shared" si="1"/>
-        <v>9.6000000000000009E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="K10" t="s">
         <v>117</v>
@@ -14816,23 +14889,23 @@
       </c>
       <c r="C11" s="44">
         <f>$L$26*4000</f>
-        <v>4800</v>
+        <v>4000</v>
       </c>
       <c r="E11" s="40">
         <f>IF(Inputs!$C$3="Monthly",0.07,0.05)</f>
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F11" s="40">
         <f t="shared" si="1"/>
-        <v>4.2000000000000003E-2</v>
+        <v>0.03</v>
       </c>
       <c r="G11" s="40">
         <f t="shared" si="1"/>
-        <v>1.6800000000000002E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H11" s="40">
         <f t="shared" si="1"/>
-        <v>1.4000000000000002E-2</v>
+        <v>1.0000000000000002E-2</v>
       </c>
       <c r="K11" t="s">
         <v>118</v>
@@ -14847,23 +14920,23 @@
       </c>
       <c r="C12" s="44">
         <f>$L$26*2000</f>
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="E12" s="40">
         <f>$L$26*0.04</f>
-        <v>4.8000000000000001E-2</v>
+        <v>0.04</v>
       </c>
       <c r="F12" s="40">
         <f t="shared" si="1"/>
-        <v>2.8799999999999999E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="G12" s="40">
         <f t="shared" si="1"/>
-        <v>1.1519999999999999E-2</v>
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="H12" s="40">
         <f t="shared" si="1"/>
-        <v>9.6000000000000009E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
@@ -14872,23 +14945,23 @@
       </c>
       <c r="C13" s="44">
         <f>$L$26*2000</f>
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="E13" s="40">
         <f>$L$26*0.04</f>
-        <v>4.8000000000000001E-2</v>
+        <v>0.04</v>
       </c>
       <c r="F13" s="40">
         <f t="shared" si="1"/>
-        <v>2.8799999999999999E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="G13" s="40">
         <f t="shared" si="1"/>
-        <v>1.1519999999999999E-2</v>
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="H13" s="40">
         <f t="shared" si="1"/>
-        <v>9.6000000000000009E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="K13" s="4"/>
     </row>
@@ -14898,23 +14971,23 @@
       </c>
       <c r="C14" s="44">
         <f>$L$26*6000</f>
-        <v>7200</v>
+        <v>6000</v>
       </c>
       <c r="E14" s="40">
         <f>IF(Inputs!$C$3="Monthly",0.07,0.05)</f>
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F14" s="40">
         <f t="shared" si="1"/>
-        <v>4.2000000000000003E-2</v>
+        <v>0.03</v>
       </c>
       <c r="G14" s="40">
         <f t="shared" si="1"/>
-        <v>1.6800000000000002E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H14" s="40">
         <f t="shared" si="1"/>
-        <v>1.4000000000000002E-2</v>
+        <v>1.0000000000000002E-2</v>
       </c>
       <c r="K14" s="58" t="s">
         <v>60</v>
@@ -14929,23 +15002,23 @@
       </c>
       <c r="C15" s="44">
         <f>$L$26*4000</f>
-        <v>4800</v>
+        <v>4000</v>
       </c>
       <c r="E15" s="40">
         <f>IF(Inputs!$C$3="Monthly",0.07,0.05)</f>
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F15" s="40">
         <f t="shared" si="1"/>
-        <v>4.2000000000000003E-2</v>
+        <v>0.03</v>
       </c>
       <c r="G15" s="40">
         <f t="shared" si="1"/>
-        <v>1.6800000000000002E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H15" s="40">
         <f t="shared" si="1"/>
-        <v>1.4000000000000002E-2</v>
+        <v>1.0000000000000002E-2</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>61</v>
@@ -14960,23 +15033,23 @@
       </c>
       <c r="C16" s="45">
         <f>$L$26*10000</f>
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="E16" s="41">
         <f>IF(Inputs!$C$3="Monthly",0.25,0.18)</f>
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="F16" s="41">
         <f t="shared" si="1"/>
-        <v>0.15</v>
+        <v>0.108</v>
       </c>
       <c r="G16" s="41">
         <f t="shared" si="1"/>
-        <v>0.06</v>
+        <v>4.3199999999999995E-2</v>
       </c>
       <c r="H16" s="41">
         <f t="shared" si="1"/>
-        <v>0.05</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="3"/>
@@ -14987,23 +15060,23 @@
       </c>
       <c r="C17" s="45">
         <f>$L$26*5000</f>
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="E17" s="41">
         <f>IF(Inputs!$C$3="Monthly",0.1,0.07)</f>
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F17" s="41">
         <f t="shared" si="1"/>
-        <v>0.06</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="G17" s="41">
         <f t="shared" si="1"/>
-        <v>2.4E-2</v>
+        <v>1.6800000000000002E-2</v>
       </c>
       <c r="H17" s="41">
         <f t="shared" si="1"/>
-        <v>2.0000000000000004E-2</v>
+        <v>1.4000000000000002E-2</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
@@ -15012,7 +15085,7 @@
       </c>
       <c r="C18" s="45">
         <f>$L$26*5000</f>
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="E18" s="41">
         <f>$L$26*0</f>
@@ -15050,7 +15123,7 @@
       </c>
       <c r="C20" s="44">
         <f>$L$26*8500</f>
-        <v>10200</v>
+        <v>8500</v>
       </c>
       <c r="E20" s="40">
         <f>$L$26*0</f>
@@ -15081,23 +15154,23 @@
       </c>
       <c r="C21" s="44">
         <f>$L$26*33000</f>
-        <v>39600</v>
+        <v>33000</v>
       </c>
       <c r="E21" s="40">
         <f>IF(Inputs!$C$3="Monthly",0.4,0.28)</f>
-        <v>0.4</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F21" s="40">
         <f t="shared" si="2"/>
-        <v>0.24</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="G21" s="40">
         <f t="shared" si="2"/>
-        <v>9.6000000000000002E-2</v>
+        <v>6.720000000000001E-2</v>
       </c>
       <c r="H21" s="40">
         <f t="shared" si="2"/>
-        <v>8.0000000000000016E-2</v>
+        <v>5.6000000000000008E-2</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
@@ -15106,23 +15179,23 @@
       </c>
       <c r="C22" s="45">
         <f>$L$26*35000</f>
-        <v>42000</v>
+        <v>35000</v>
       </c>
       <c r="E22" s="41">
         <f>IF(Inputs!$C$3="Monthly",0.42,0.29)</f>
-        <v>0.42</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="F22" s="41">
         <f t="shared" si="2"/>
-        <v>0.252</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="G22" s="41">
         <f t="shared" si="2"/>
-        <v>0.10079999999999999</v>
+        <v>6.9599999999999995E-2</v>
       </c>
       <c r="H22" s="41">
         <f t="shared" si="2"/>
-        <v>8.4000000000000005E-2</v>
+        <v>5.7999999999999996E-2</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
@@ -15131,23 +15204,23 @@
       </c>
       <c r="C23" s="45">
         <f>$L$26*35000</f>
-        <v>42000</v>
+        <v>35000</v>
       </c>
       <c r="E23" s="41">
         <f>IF(Inputs!$C$3="Monthly",0.42,0.29)</f>
-        <v>0.42</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="F23" s="41">
         <f t="shared" si="2"/>
-        <v>0.252</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="G23" s="41">
         <f t="shared" si="2"/>
-        <v>0.10079999999999999</v>
+        <v>6.9599999999999995E-2</v>
       </c>
       <c r="H23" s="41">
         <f t="shared" si="2"/>
-        <v>8.4000000000000005E-2</v>
+        <v>5.7999999999999996E-2</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
@@ -15156,23 +15229,23 @@
       </c>
       <c r="C24" s="45">
         <f>$L$26*28000</f>
-        <v>33600</v>
+        <v>28000</v>
       </c>
       <c r="E24" s="41">
         <f>IF(Inputs!$C$3="Monthly",0.25,0.18)</f>
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="F24" s="41">
         <f t="shared" si="2"/>
-        <v>0.15</v>
+        <v>0.108</v>
       </c>
       <c r="G24" s="41">
         <f t="shared" si="2"/>
-        <v>0.06</v>
+        <v>4.3199999999999995E-2</v>
       </c>
       <c r="H24" s="41">
         <f t="shared" si="2"/>
-        <v>0.05</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="K24" s="6" t="s">
         <v>126</v>
@@ -15211,30 +15284,30 @@
       </c>
       <c r="C26" s="45">
         <f>$L$26*20000</f>
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="E26" s="41">
         <f>$L$26*0.14</f>
-        <v>0.16800000000000001</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F26" s="41">
         <f t="shared" si="3"/>
-        <v>0.1008</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="G26" s="41">
         <f t="shared" si="3"/>
-        <v>4.0320000000000002E-2</v>
+        <v>3.3600000000000005E-2</v>
       </c>
       <c r="H26" s="41">
         <f t="shared" si="3"/>
-        <v>3.3600000000000005E-2</v>
+        <v>2.8000000000000004E-2</v>
       </c>
       <c r="K26" s="6" t="s">
         <v>127</v>
       </c>
       <c r="L26" s="97">
         <f>IF(Inputs!$C$3="Monthly",Prices!$L$24,1)</f>
-        <v>1.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
@@ -15243,23 +15316,23 @@
       </c>
       <c r="C27" s="82">
         <f>$L$26*9600</f>
-        <v>11520</v>
+        <v>9600</v>
       </c>
       <c r="E27" s="83">
         <f>IF(Inputs!$C$3="Monthly",0.6,0.42)</f>
-        <v>0.6</v>
+        <v>0.42</v>
       </c>
       <c r="F27" s="83">
         <f t="shared" si="3"/>
-        <v>0.36</v>
+        <v>0.252</v>
       </c>
       <c r="G27" s="83">
         <f t="shared" si="3"/>
-        <v>0.14399999999999999</v>
+        <v>0.10079999999999999</v>
       </c>
       <c r="H27" s="83">
         <f t="shared" si="3"/>
-        <v>0.12</v>
+        <v>8.4000000000000005E-2</v>
       </c>
     </row>
   </sheetData>

--- a/0273NYP - New York Premier/Premier_Pricing_Model.xlsx
+++ b/0273NYP - New York Premier/Premier_Pricing_Model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason.altieri\repos\client-and-project-documentation\0273NYP - New York Premier\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shea.parkes\repos\client-and-project-documentation\0273NYP - New York Premier\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="135">
   <si>
     <t>One-Time Fees:</t>
   </si>
@@ -470,6 +470,9 @@
   <si>
     <t>Base processing fee shift:</t>
   </si>
+  <si>
+    <t>Monthly Override Multiplier</t>
+  </si>
 </sst>
 </file>
 
@@ -486,8 +489,8 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="169" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="172" formatCode="&quot;$&quot;#,##0.000_);[Red]\(&quot;$&quot;#,##0.000\)"/>
+    <numFmt numFmtId="170" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="&quot;$&quot;#,##0.000_);[Red]\(&quot;$&quot;#,##0.000\)"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -743,7 +746,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -912,8 +915,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1214,7 +1218,7 @@
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2647,7 +2651,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P17" sqref="P17"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3335,7 +3339,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="18">
-        <f t="shared" ref="L24:L33" si="9">G25*$D25</f>
+        <f t="shared" ref="L25:L33" si="9">G25*$D25</f>
         <v>0</v>
       </c>
       <c r="M25" s="18">
@@ -4901,7 +4905,7 @@
   <dimension ref="B1:W94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
@@ -11795,10 +11799,10 @@
   <dimension ref="A2:O131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J68" sqref="J68"/>
+      <selection pane="bottomRight" activeCell="D79" sqref="D79:H79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12040,7 +12044,7 @@
         <v>0.40444444444444444</v>
       </c>
       <c r="F10" s="79">
-        <f t="shared" ref="E10:H10" si="0">IFERROR(SUMPRODUCT(F6:F9,$M$6:$M$9)/SUM(F6:F9),0)</f>
+        <f t="shared" ref="F10:H10" si="0">IFERROR(SUMPRODUCT(F6:F9,$M$6:$M$9)/SUM(F6:F9),0)</f>
         <v>0</v>
       </c>
       <c r="G10" s="79">
@@ -13236,23 +13240,23 @@
         <v>100</v>
       </c>
       <c r="D67" s="20">
-        <f>IF(Inputs!D26="Y", Prices!$C25 * IF(Inputs!D25="Y",1-Prices!$L$20,1), IF(Inputs!D26="Monthly", Prices!$C25 * Prices!$L$24 * IF(Inputs!D25="Y",1-Prices!$L$20,1), 0))</f>
+        <f>IF(Inputs!D26="Y", Prices!$C25 * IF(Inputs!D25="Y",1-Prices!$L$20,1), IF(Inputs!D26="Monthly", Prices!$C25 * Prices!$L$28 * IF(Inputs!D25="Y",1-Prices!$L$20,1), 0))</f>
         <v>0</v>
       </c>
       <c r="E67" s="20">
-        <f>IF(Inputs!E26="Y", Prices!$C25 * IF(Inputs!E25="Y",1-Prices!$L$20,1), IF(Inputs!E26="Monthly", Prices!$C25 * Prices!$L$24 * IF(Inputs!E25="Y",1-Prices!$L$20,1), 0))</f>
+        <f>IF(Inputs!E26="Y", Prices!$C25 * IF(Inputs!E25="Y",1-Prices!$L$20,1), IF(Inputs!E26="Monthly", Prices!$C25 * Prices!$L$28 * IF(Inputs!E25="Y",1-Prices!$L$20,1), 0))</f>
         <v>0</v>
       </c>
       <c r="F67" s="20">
-        <f>IF(Inputs!F26="Y", Prices!$C25 * IF(Inputs!F25="Y",1-Prices!$L$20,1), IF(Inputs!F26="Monthly", Prices!$C25 * Prices!$L$24 * IF(Inputs!F25="Y",1-Prices!$L$20,1), 0))</f>
+        <f>IF(Inputs!F26="Y", Prices!$C25 * IF(Inputs!F25="Y",1-Prices!$L$20,1), IF(Inputs!F26="Monthly", Prices!$C25 * Prices!$L$28 * IF(Inputs!F25="Y",1-Prices!$L$20,1), 0))</f>
         <v>0</v>
       </c>
       <c r="G67" s="20">
-        <f>IF(Inputs!G26="Y", Prices!$C25 * IF(Inputs!G25="Y",1-Prices!$L$20,1), IF(Inputs!G26="Monthly", Prices!$C25 * Prices!$L$24 * IF(Inputs!G25="Y",1-Prices!$L$20,1), 0))</f>
+        <f>IF(Inputs!G26="Y", Prices!$C25 * IF(Inputs!G25="Y",1-Prices!$L$20,1), IF(Inputs!G26="Monthly", Prices!$C25 * Prices!$L$28 * IF(Inputs!G25="Y",1-Prices!$L$20,1), 0))</f>
         <v>0</v>
       </c>
       <c r="H67" s="20">
-        <f>IF(Inputs!H26="Y", Prices!$C25 * IF(Inputs!H25="Y",1-Prices!$L$20,1), IF(Inputs!H26="Monthly", Prices!$C25 * Prices!$L$24 * IF(Inputs!H25="Y",1-Prices!$L$20,1), 0))</f>
+        <f>IF(Inputs!H26="Y", Prices!$C25 * IF(Inputs!H25="Y",1-Prices!$L$20,1), IF(Inputs!H26="Monthly", Prices!$C25 * Prices!$L$28 * IF(Inputs!H25="Y",1-Prices!$L$20,1), 0))</f>
         <v>0</v>
       </c>
     </row>
@@ -13286,23 +13290,23 @@
         <v>97</v>
       </c>
       <c r="D69" s="84">
-        <f>IF(Inputs!D11="Y", Prices!$C27, IF(Inputs!D11="Monthly", Prices!C27 * Prices!$L$24, 0))</f>
+        <f>IF(Inputs!D11="Y", Prices!$C27, IF(Inputs!D11="Monthly", Prices!C27 * Prices!$L$28, 0))</f>
         <v>0</v>
       </c>
       <c r="E69" s="84">
-        <f>IF(Inputs!E11="Y", Prices!$C27, IF(Inputs!E11="Monthly", Prices!D27 * Prices!$L$24, 0))</f>
+        <f>IF(Inputs!E11="Y", Prices!$C27, IF(Inputs!E11="Monthly", Prices!D27 * Prices!$L$28, 0))</f>
         <v>0</v>
       </c>
       <c r="F69" s="84">
-        <f>IF(Inputs!F11="Y", Prices!$C27, IF(Inputs!F11="Monthly", Prices!E27 * Prices!$L$24, 0))</f>
+        <f>IF(Inputs!F11="Y", Prices!$C27, IF(Inputs!F11="Monthly", Prices!E27 * Prices!$L$28, 0))</f>
         <v>0</v>
       </c>
       <c r="G69" s="84">
-        <f>IF(Inputs!G11="Y", Prices!$C27, IF(Inputs!G11="Monthly", Prices!F27 * Prices!$L$24, 0))</f>
+        <f>IF(Inputs!G11="Y", Prices!$C27, IF(Inputs!G11="Monthly", Prices!F27 * Prices!$L$28, 0))</f>
         <v>0</v>
       </c>
       <c r="H69" s="84">
-        <f>IF(Inputs!H11="Y", Prices!$C27, IF(Inputs!H11="Monthly", Prices!G27 * Prices!$L$24, 0))</f>
+        <f>IF(Inputs!H11="Y", Prices!$C27, IF(Inputs!H11="Monthly", Prices!G27 * Prices!$L$28, 0))</f>
         <v>0</v>
       </c>
     </row>
@@ -13558,23 +13562,23 @@
         <v>100</v>
       </c>
       <c r="D77" s="20">
-        <f>IF(Inputs!D$6="Y", 0, IF(D$11 = "", 0, IF(Inputs!D26 = "Y", D$11*Prices!$E25 * IF(Inputs!D25="Y",1-Prices!$L$20,1),IF(Inputs!D26="Monthly", D$11*Prices!$E25 * Prices!$L$24 * IF(Inputs!D25="Y",1-Prices!$L$20,1), 0))))*D$10</f>
+        <f>IF(Inputs!D$6="Y", 0, IF(D$11 = "", 0, IF(Inputs!D26 = "Y", D$11*Prices!$E25 * IF(Inputs!D25="Y",1-Prices!$L$20,1),IF(Inputs!D26="Monthly", D$11*Prices!$E25 * Prices!$L$28 * IF(Inputs!D25="Y",1-Prices!$L$20,1), 0))))*D$10</f>
         <v>0</v>
       </c>
       <c r="E77" s="20">
-        <f>IF(Inputs!E$6="Y", 0, IF(E$11 = "", 0, IF(Inputs!E26 = "Y", E$11*Prices!$E25 * IF(Inputs!E25="Y",1-Prices!$L$20,1),IF(Inputs!E26="Monthly", E$11*Prices!$E25 * Prices!$L$24 * IF(Inputs!E25="Y",1-Prices!$L$20,1), 0))))*E$10</f>
+        <f>IF(Inputs!E$6="Y", 0, IF(E$11 = "", 0, IF(Inputs!E26 = "Y", E$11*Prices!$E25 * IF(Inputs!E25="Y",1-Prices!$L$20,1),IF(Inputs!E26="Monthly", E$11*Prices!$E25 * Prices!$L$28 * IF(Inputs!E25="Y",1-Prices!$L$20,1), 0))))*E$10</f>
         <v>0</v>
       </c>
       <c r="F77" s="20">
-        <f>IF(Inputs!F$6="Y", 0, IF(F$11 = "", 0, IF(Inputs!F26 = "Y", F$11*Prices!$E25 * IF(Inputs!F25="Y",1-Prices!$L$20,1),IF(Inputs!F26="Monthly", F$11*Prices!$E25 * Prices!$L$24 * IF(Inputs!F25="Y",1-Prices!$L$20,1), 0))))*F$10</f>
+        <f>IF(Inputs!F$6="Y", 0, IF(F$11 = "", 0, IF(Inputs!F26 = "Y", F$11*Prices!$E25 * IF(Inputs!F25="Y",1-Prices!$L$20,1),IF(Inputs!F26="Monthly", F$11*Prices!$E25 * Prices!$L$28 * IF(Inputs!F25="Y",1-Prices!$L$20,1), 0))))*F$10</f>
         <v>0</v>
       </c>
       <c r="G77" s="20">
-        <f>IF(Inputs!G$6="Y", 0, IF(G$11 = "", 0, IF(Inputs!G26 = "Y", G$11*Prices!$E25 * IF(Inputs!G25="Y",1-Prices!$L$20,1),IF(Inputs!G26="Monthly", G$11*Prices!$E25 * Prices!$L$24 * IF(Inputs!G25="Y",1-Prices!$L$20,1), 0))))*G$10</f>
+        <f>IF(Inputs!G$6="Y", 0, IF(G$11 = "", 0, IF(Inputs!G26 = "Y", G$11*Prices!$E25 * IF(Inputs!G25="Y",1-Prices!$L$20,1),IF(Inputs!G26="Monthly", G$11*Prices!$E25 * Prices!$L$28 * IF(Inputs!G25="Y",1-Prices!$L$20,1), 0))))*G$10</f>
         <v>0</v>
       </c>
       <c r="H77" s="20">
-        <f>IF(Inputs!H$6="Y", 0, IF(H$11 = "", 0, IF(Inputs!H26 = "Y", H$11*Prices!$E25 * IF(Inputs!H25="Y",1-Prices!$L$20,1),IF(Inputs!H26="Monthly", H$11*Prices!$E25 * Prices!$L$24 * IF(Inputs!H25="Y",1-Prices!$L$20,1), 0))))*H$10</f>
+        <f>IF(Inputs!H$6="Y", 0, IF(H$11 = "", 0, IF(Inputs!H26 = "Y", H$11*Prices!$E25 * IF(Inputs!H25="Y",1-Prices!$L$20,1),IF(Inputs!H26="Monthly", H$11*Prices!$E25 * Prices!$L$28 * IF(Inputs!H25="Y",1-Prices!$L$20,1), 0))))*H$10</f>
         <v>0</v>
       </c>
       <c r="J77" s="90">
@@ -13656,23 +13660,23 @@
         <v>97</v>
       </c>
       <c r="D79" s="84">
-        <f>IF(Inputs!D$6="Y", 0, IF(D$11 = "", 0, IF(Inputs!D11 = "Y", D$11*Prices!$E27, IF(Inputs!D11="Monthly", D$11*Prices!$E27*Prices!$L$24,0))))*D$10</f>
+        <f>IF(Inputs!D$6="Y", 0, IF(D$11 = "", 0, IF(Inputs!D11 = "Y", D$11*Prices!$E27, IF(Inputs!D11="Monthly", D$11*Prices!$E27*Prices!$L$28,0))))*D$10</f>
         <v>0</v>
       </c>
       <c r="E79" s="84">
-        <f>IF(Inputs!E$6="Y", 0, IF(E$11 = "", 0, IF(Inputs!E11 = "Y", E$11*Prices!$E27, IF(Inputs!E11="Monthly", E$11*Prices!$E27*Prices!$L$24,0))))*E$10</f>
+        <f>IF(Inputs!E$6="Y", 0, IF(E$11 = "", 0, IF(Inputs!E11 = "Y", E$11*Prices!$E27, IF(Inputs!E11="Monthly", E$11*Prices!$E27*Prices!$L$28,0))))*E$10</f>
         <v>0</v>
       </c>
       <c r="F79" s="84">
-        <f>IF(Inputs!F$6="Y", 0, IF(F$11 = "", 0, IF(Inputs!F11 = "Y", F$11*Prices!$E27, IF(Inputs!F11="Monthly", F$11*Prices!$E27*Prices!$L$24,0))))*F$10</f>
+        <f>IF(Inputs!F$6="Y", 0, IF(F$11 = "", 0, IF(Inputs!F11 = "Y", F$11*Prices!$E27, IF(Inputs!F11="Monthly", F$11*Prices!$E27*Prices!$L$28,0))))*F$10</f>
         <v>0</v>
       </c>
       <c r="G79" s="84">
-        <f>IF(Inputs!G$6="Y", 0, IF(G$11 = "", 0, IF(Inputs!G11 = "Y", G$11*Prices!$E27, IF(Inputs!G11="Monthly", G$11*Prices!$E27*Prices!$L$24,0))))*G$10</f>
+        <f>IF(Inputs!G$6="Y", 0, IF(G$11 = "", 0, IF(Inputs!G11 = "Y", G$11*Prices!$E27, IF(Inputs!G11="Monthly", G$11*Prices!$E27*Prices!$L$28,0))))*G$10</f>
         <v>0</v>
       </c>
       <c r="H79" s="84">
-        <f>IF(Inputs!H$6="Y", 0, IF(H$11 = "", 0, IF(Inputs!H11 = "Y", H$11*Prices!$E27, IF(Inputs!H11="Monthly", H$11*Prices!$E27*Prices!$L$24,0))))*H$10</f>
+        <f>IF(Inputs!H$6="Y", 0, IF(H$11 = "", 0, IF(Inputs!H11 = "Y", H$11*Prices!$E27, IF(Inputs!H11="Monthly", H$11*Prices!$E27*Prices!$L$28,0))))*H$10</f>
         <v>0</v>
       </c>
       <c r="J79" s="90">
@@ -13946,7 +13950,7 @@
         <v>0</v>
       </c>
       <c r="E87" s="20">
-        <f t="shared" ref="D87:H87" si="17">E67</f>
+        <f t="shared" ref="E87:H87" si="17">E67</f>
         <v>0</v>
       </c>
       <c r="F87" s="20">
@@ -14701,11 +14705,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L27"/>
+  <dimension ref="B2:L28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15335,6 +15337,15 @@
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K28" t="s">
+        <v>134</v>
+      </c>
+      <c r="L28" s="102">
+        <f>IF(Inputs!$C$3="Quarterly",$L$24,1)</f>
+        <v>1.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/0273NYP - New York Premier/Premier_Pricing_Model.xlsx
+++ b/0273NYP - New York Premier/Premier_Pricing_Model.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shea.parkes\repos\client-and-project-documentation\0273NYP - New York Premier\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason.altieri\repos\client-and-project-documentation\0273NYP - New York Premier\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="0" windowWidth="13680" windowHeight="13890"/>
+    <workbookView xWindow="1400" yWindow="0" windowWidth="13680" windowHeight="13890" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Outputs_Timeline" sheetId="8" r:id="rId4"/>
     <sheet name="Calcs" sheetId="1" r:id="rId5"/>
     <sheet name="Prices" sheetId="3" r:id="rId6"/>
+    <sheet name="MARA Prices" sheetId="9" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="ACOInsight1">Inputs!$D$21:$D$22</definedName>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="140">
   <si>
     <t>One-Time Fees:</t>
   </si>
@@ -473,12 +474,27 @@
   <si>
     <t>Monthly Override Multiplier</t>
   </si>
+  <si>
+    <t>Lower Bound</t>
+  </si>
+  <si>
+    <t>Upper Bound</t>
+  </si>
+  <si>
+    <t>PMPY</t>
+  </si>
+  <si>
+    <t>First Increase</t>
+  </si>
+  <si>
+    <t>Our Pricing</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="12">
+  <numFmts count="13">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -491,6 +507,7 @@
     <numFmt numFmtId="169" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="170" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="171" formatCode="&quot;$&quot;#,##0.000_);[Red]\(&quot;$&quot;#,##0.000\)"/>
+    <numFmt numFmtId="173" formatCode="&quot;$&quot;#,##0.00000_);[Red]\(&quot;$&quot;#,##0.00000\)"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -746,7 +763,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -918,6 +935,7 @@
     <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1214,24 +1232,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" customWidth="1"/>
+    <col min="2" max="2" width="24.26953125" customWidth="1"/>
     <col min="3" max="3" width="18" style="66" customWidth="1"/>
-    <col min="4" max="8" width="18.7109375" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="4" max="8" width="18.7265625" customWidth="1"/>
+    <col min="11" max="11" width="9.1796875" customWidth="1"/>
+    <col min="12" max="12" width="9.1796875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B1" s="91" t="s">
         <v>59</v>
       </c>
@@ -1239,7 +1257,7 @@
         <v>43101</v>
       </c>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B2" s="67" t="s">
         <v>73</v>
       </c>
@@ -1247,7 +1265,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B3" s="67" t="s">
         <v>123</v>
       </c>
@@ -1255,7 +1273,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B4" s="67" t="s">
         <v>132</v>
       </c>
@@ -1263,7 +1281,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B5" s="68"/>
       <c r="C5" s="72"/>
       <c r="D5" s="13" t="s">
@@ -1282,7 +1300,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="69" t="s">
         <v>5</v>
       </c>
@@ -1299,7 +1317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="69" t="s">
         <v>81</v>
       </c>
@@ -1316,7 +1334,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="69" t="s">
         <v>6</v>
       </c>
@@ -1330,7 +1348,7 @@
       <c r="G8" s="55"/>
       <c r="H8" s="56"/>
     </row>
-    <row r="9" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="69" t="s">
         <v>4</v>
       </c>
@@ -1347,7 +1365,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="69" t="s">
         <v>111</v>
       </c>
@@ -1364,7 +1382,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="69" t="s">
         <v>98</v>
       </c>
@@ -1378,7 +1396,7 @@
       <c r="G11" s="55"/>
       <c r="H11" s="56"/>
     </row>
-    <row r="12" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="69" t="s">
         <v>7</v>
       </c>
@@ -1395,7 +1413,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="69" t="s">
         <v>8</v>
       </c>
@@ -1412,7 +1430,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="69" t="s">
         <v>22</v>
       </c>
@@ -1426,7 +1444,7 @@
       <c r="G14" s="55"/>
       <c r="H14" s="56"/>
     </row>
-    <row r="15" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="69" t="s">
         <v>9</v>
       </c>
@@ -1443,7 +1461,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="69" t="s">
         <v>10</v>
       </c>
@@ -1460,7 +1478,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="69" t="s">
         <v>78</v>
       </c>
@@ -1477,7 +1495,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="69" t="s">
         <v>11</v>
       </c>
@@ -1491,7 +1509,7 @@
       <c r="G18" s="55"/>
       <c r="H18" s="56"/>
     </row>
-    <row r="19" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="69" t="s">
         <v>12</v>
       </c>
@@ -1505,7 +1523,7 @@
       <c r="G19" s="55"/>
       <c r="H19" s="56"/>
     </row>
-    <row r="20" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="69" t="s">
         <v>13</v>
       </c>
@@ -1519,7 +1537,7 @@
       <c r="G20" s="55"/>
       <c r="H20" s="56"/>
     </row>
-    <row r="21" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="69" t="s">
         <v>14</v>
       </c>
@@ -1533,7 +1551,7 @@
       <c r="G21" s="55"/>
       <c r="H21" s="56"/>
     </row>
-    <row r="22" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="69" t="s">
         <v>15</v>
       </c>
@@ -1547,7 +1565,7 @@
       <c r="G22" s="55"/>
       <c r="H22" s="56"/>
     </row>
-    <row r="23" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="69" t="s">
         <v>16</v>
       </c>
@@ -1561,7 +1579,7 @@
       <c r="G23" s="55"/>
       <c r="H23" s="56"/>
     </row>
-    <row r="24" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="69" t="s">
         <v>130</v>
       </c>
@@ -1575,7 +1593,7 @@
       <c r="G24" s="55"/>
       <c r="H24" s="56"/>
     </row>
-    <row r="25" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="69" t="s">
         <v>17</v>
       </c>
@@ -1589,7 +1607,7 @@
       <c r="G25" s="55"/>
       <c r="H25" s="56"/>
     </row>
-    <row r="26" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="69" t="s">
         <v>100</v>
       </c>
@@ -1603,7 +1621,7 @@
       <c r="G26" s="55"/>
       <c r="H26" s="56"/>
     </row>
-    <row r="27" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="92" t="s">
         <v>99</v>
       </c>
@@ -1652,20 +1670,20 @@
       <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="47.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="12.28515625" customWidth="1"/>
-    <col min="15" max="15" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.81640625" customWidth="1"/>
+    <col min="2" max="2" width="5.81640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="47.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="12.26953125" customWidth="1"/>
+    <col min="15" max="15" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.35">
       <c r="D2" t="s">
         <v>106</v>
       </c>
@@ -1682,12 +1700,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>1</v>
       </c>
@@ -1723,7 +1741,7 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.35">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1733,12 +1751,12 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B6" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C7" s="15" t="s">
         <v>2</v>
       </c>
@@ -1774,7 +1792,7 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C8" s="17" t="s">
         <v>21</v>
       </c>
@@ -1810,7 +1828,7 @@
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C9" s="17" t="s">
         <v>8</v>
       </c>
@@ -1846,7 +1864,7 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C10" s="17" t="s">
         <v>22</v>
       </c>
@@ -1881,7 +1899,7 @@
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C11" s="17" t="s">
         <v>9</v>
       </c>
@@ -1916,7 +1934,7 @@
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C12" s="17" t="s">
         <v>10</v>
       </c>
@@ -1951,7 +1969,7 @@
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C13" s="17" t="s">
         <v>78</v>
       </c>
@@ -1986,7 +2004,7 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C14" s="19" t="s">
         <v>11</v>
       </c>
@@ -2021,7 +2039,7 @@
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C15" s="19" t="s">
         <v>12</v>
       </c>
@@ -2056,7 +2074,7 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C16" s="19" t="s">
         <v>23</v>
       </c>
@@ -2091,12 +2109,12 @@
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B18" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C19" t="s">
         <v>14</v>
       </c>
@@ -2131,7 +2149,7 @@
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C20" t="s">
         <v>15</v>
       </c>
@@ -2166,7 +2184,7 @@
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C21" t="s">
         <v>16</v>
       </c>
@@ -2201,7 +2219,7 @@
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C22" t="s">
         <v>130</v>
       </c>
@@ -2236,7 +2254,7 @@
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C23" t="s">
         <v>17</v>
       </c>
@@ -2271,7 +2289,7 @@
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C24" t="s">
         <v>100</v>
       </c>
@@ -2306,7 +2324,7 @@
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C25" t="s">
         <v>99</v>
       </c>
@@ -2341,7 +2359,7 @@
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C26" t="s">
         <v>98</v>
       </c>
@@ -2376,12 +2394,12 @@
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B28" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C29" t="s">
         <v>39</v>
       </c>
@@ -2416,7 +2434,7 @@
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C30" t="s">
         <v>116</v>
       </c>
@@ -2451,7 +2469,7 @@
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C31" t="s">
         <v>83</v>
       </c>
@@ -2482,7 +2500,7 @@
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B33" s="6" t="s">
         <v>40</v>
       </c>
@@ -2514,7 +2532,7 @@
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.35">
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
@@ -2528,7 +2546,7 @@
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
     </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B35" s="6" t="s">
         <v>75</v>
       </c>
@@ -2548,13 +2566,13 @@
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
     </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C36" s="64">
         <f>INDEX(Outputs_Timeline!$D$3:$D$94,MATCH(Inputs!$C$1,Outputs_Timeline!$B$3:$B$94,0),1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B38" s="6" t="s">
         <v>74</v>
       </c>
@@ -2586,7 +2604,7 @@
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
     </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:21" x14ac:dyDescent="0.35">
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
@@ -2601,18 +2619,18 @@
       <c r="T40" s="8"/>
       <c r="U40" s="8"/>
     </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B41" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C42" s="7">
         <f>SUM(Outputs_Timeline!S:S)</f>
         <v>629299</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C43" s="52">
         <f>SUM(D38:H38)</f>
         <v>629299</v>
@@ -2620,17 +2638,17 @@
       <c r="D43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.35">
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.35">
       <c r="D45" s="2"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.35">
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -2654,25 +2672,25 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="48.42578125" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.85546875" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.26953125" customWidth="1"/>
+    <col min="2" max="2" width="6.26953125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="48.453125" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.26953125" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.81640625" customWidth="1"/>
+    <col min="11" max="11" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.26953125" customWidth="1"/>
+    <col min="13" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.35">
       <c r="F1" s="50" t="s">
         <v>58</v>
       </c>
@@ -2680,7 +2698,7 @@
       <c r="H1" s="50"/>
       <c r="I1" s="50"/>
     </row>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.35">
       <c r="D2" s="9" t="s">
         <v>44</v>
       </c>
@@ -2710,12 +2728,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>76</v>
       </c>
@@ -2754,7 +2772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
         <v>77</v>
       </c>
@@ -2793,7 +2811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.35">
       <c r="D6" s="1"/>
       <c r="E6" s="3"/>
       <c r="F6" s="10"/>
@@ -2805,7 +2823,7 @@
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.35">
       <c r="D7" s="7" t="s">
         <v>133</v>
       </c>
@@ -2821,7 +2839,7 @@
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.35">
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="26"/>
@@ -2830,7 +2848,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
         <v>54</v>
       </c>
@@ -2842,7 +2860,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C10" s="15" t="s">
         <v>2</v>
       </c>
@@ -2883,7 +2901,7 @@
       <c r="P10" s="101"/>
       <c r="Q10" s="101"/>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C11" s="17" t="s">
         <v>21</v>
       </c>
@@ -2922,7 +2940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C12" s="17" t="s">
         <v>8</v>
       </c>
@@ -2960,7 +2978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C13" s="17" t="s">
         <v>22</v>
       </c>
@@ -2998,7 +3016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C14" s="17" t="s">
         <v>9</v>
       </c>
@@ -3036,7 +3054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C15" s="17" t="s">
         <v>10</v>
       </c>
@@ -3073,7 +3091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C16" s="17" t="s">
         <v>78</v>
       </c>
@@ -3111,7 +3129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C17" s="19" t="s">
         <v>11</v>
       </c>
@@ -3149,7 +3167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C18" s="19" t="s">
         <v>12</v>
       </c>
@@ -3187,7 +3205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C19" s="19" t="s">
         <v>23</v>
       </c>
@@ -3225,7 +3243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
@@ -3234,7 +3252,7 @@
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
       <c r="G21" s="48" t="s">
         <v>129</v>
       </c>
@@ -3246,7 +3264,7 @@
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
@@ -3255,7 +3273,7 @@
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B23" s="6" t="s">
         <v>55</v>
       </c>
@@ -3267,7 +3285,7 @@
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C24" s="15" t="s">
         <v>2</v>
       </c>
@@ -3309,7 +3327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C25" s="17" t="s">
         <v>21</v>
       </c>
@@ -3351,7 +3369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C26" s="17" t="s">
         <v>8</v>
       </c>
@@ -3393,7 +3411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C27" s="17" t="s">
         <v>22</v>
       </c>
@@ -3434,7 +3452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C28" s="17" t="s">
         <v>9</v>
       </c>
@@ -3475,7 +3493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C29" s="17" t="s">
         <v>10</v>
       </c>
@@ -3516,7 +3534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C30" s="17" t="s">
         <v>78</v>
       </c>
@@ -3557,7 +3575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C31" s="19" t="s">
         <v>11</v>
       </c>
@@ -3598,7 +3616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C32" s="19" t="s">
         <v>12</v>
       </c>
@@ -3639,7 +3657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C33" s="28" t="s">
         <v>23</v>
       </c>
@@ -3680,7 +3698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.35">
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
@@ -3689,7 +3707,7 @@
       <c r="L34" s="9"/>
       <c r="M34" s="9"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B35" s="6" t="s">
         <v>47</v>
       </c>
@@ -3701,7 +3719,7 @@
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C36" s="17" t="s">
         <v>14</v>
       </c>
@@ -3739,7 +3757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C37" s="17" t="s">
         <v>15</v>
       </c>
@@ -3777,7 +3795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C38" s="19" t="s">
         <v>16</v>
       </c>
@@ -3815,7 +3833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C39" s="19" t="s">
         <v>130</v>
       </c>
@@ -3852,7 +3870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C40" s="19" t="s">
         <v>17</v>
       </c>
@@ -3890,7 +3908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C41" s="19" t="s">
         <v>100</v>
       </c>
@@ -3928,7 +3946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C42" s="19" t="s">
         <v>99</v>
       </c>
@@ -3966,7 +3984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C43" s="81" t="s">
         <v>98</v>
       </c>
@@ -4004,12 +4022,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.35">
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
       <c r="M44" s="9"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B45" s="6" t="s">
         <v>56</v>
       </c>
@@ -4021,7 +4039,7 @@
       <c r="L45" s="9"/>
       <c r="M45" s="9"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C46" s="28" t="s">
         <v>14</v>
       </c>
@@ -4061,7 +4079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C47" s="17" t="s">
         <v>15</v>
       </c>
@@ -4101,7 +4119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C48" s="19" t="s">
         <v>16</v>
       </c>
@@ -4141,7 +4159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C49" s="19" t="s">
         <v>130</v>
       </c>
@@ -4181,7 +4199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C50" s="19" t="s">
         <v>17</v>
       </c>
@@ -4221,7 +4239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C51" s="19" t="s">
         <v>100</v>
       </c>
@@ -4261,7 +4279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C52" s="19" t="s">
         <v>99</v>
       </c>
@@ -4301,7 +4319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C53" s="81" t="s">
         <v>98</v>
       </c>
@@ -4341,12 +4359,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.35">
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
       <c r="M54" s="9"/>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B55" s="6" t="s">
         <v>38</v>
       </c>
@@ -4354,7 +4372,7 @@
       <c r="L55" s="9"/>
       <c r="M55" s="9"/>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C56" t="s">
         <v>39</v>
       </c>
@@ -4395,7 +4413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C57" t="s">
         <v>116</v>
       </c>
@@ -4436,7 +4454,7 @@
         <v>-2.4980018054066022E-12</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C58" t="s">
         <v>83</v>
       </c>
@@ -4474,12 +4492,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.35">
       <c r="K59" s="9"/>
       <c r="L59" s="9"/>
       <c r="M59" s="9"/>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B60" s="6" t="s">
         <v>40</v>
       </c>
@@ -4504,7 +4522,7 @@
         <v>-2.4980018054066022E-12</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C61" s="21" t="s">
         <v>57</v>
       </c>
@@ -4516,12 +4534,12 @@
       <c r="L61" s="12"/>
       <c r="M61" s="12"/>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.35">
       <c r="K62" s="9"/>
       <c r="L62" s="9"/>
       <c r="M62" s="9"/>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B63" s="6" t="s">
         <v>71</v>
       </c>
@@ -4546,7 +4564,7 @@
         <v>-7.4940054162198066E-12</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.35">
       <c r="D64" s="1"/>
       <c r="K64" s="53">
         <f>IFERROR(K63/$D$63, 0)</f>
@@ -4565,12 +4583,12 @@
         <v>-1.1908497258409446E-17</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.35">
       <c r="K66" s="9"/>
       <c r="L66" s="9"/>
       <c r="M66" s="9"/>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B67" s="27" t="s">
         <v>53</v>
       </c>
@@ -4586,7 +4604,7 @@
       <c r="L67" s="22"/>
       <c r="M67" s="22"/>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B68" s="27"/>
       <c r="C68" s="21" t="s">
         <v>14</v>
@@ -4630,7 +4648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B69" s="27"/>
       <c r="C69" s="21" t="s">
         <v>15</v>
@@ -4674,7 +4692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B70" s="27"/>
       <c r="C70" s="21" t="s">
         <v>16</v>
@@ -4718,7 +4736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B71" s="27"/>
       <c r="C71" s="21" t="s">
         <v>17</v>
@@ -4762,7 +4780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B72" s="27"/>
       <c r="C72" s="21" t="s">
         <v>100</v>
@@ -4806,7 +4824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B73" s="27"/>
       <c r="C73" s="21" t="s">
         <v>99</v>
@@ -4850,7 +4868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B74" s="27"/>
       <c r="C74" s="21" t="s">
         <v>98</v>
@@ -4911,26 +4929,26 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="60" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.42578125" style="60" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="60" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="60" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="60" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.5703125" style="60" customWidth="1"/>
-    <col min="8" max="11" width="8.7109375" style="63"/>
-    <col min="12" max="12" width="5.42578125" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" style="63" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="8.7109375" style="63"/>
-    <col min="16" max="16" width="11.85546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.5703125" customWidth="1"/>
-    <col min="22" max="23" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.54296875" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" style="60" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.453125" style="60" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" style="60" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="60" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" style="60" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.54296875" style="60" customWidth="1"/>
+    <col min="8" max="11" width="8.7265625" style="63"/>
+    <col min="12" max="12" width="5.453125" customWidth="1"/>
+    <col min="13" max="13" width="10.453125" style="63" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="8.7265625" style="63"/>
+    <col min="16" max="16" width="11.81640625" style="63" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.81640625" style="63" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.54296875" customWidth="1"/>
+    <col min="22" max="23" width="14.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.35">
       <c r="F1" s="65">
         <f>COUNTIF(F3:F94,"&gt;0")</f>
         <v>36</v>
@@ -4955,7 +4973,7 @@
       <c r="U1" s="61"/>
       <c r="V1" s="61"/>
     </row>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B2" s="59" t="s">
         <v>62</v>
       </c>
@@ -5013,7 +5031,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B3" s="60">
         <v>42917</v>
       </c>
@@ -5070,7 +5088,7 @@
       <c r="U3" s="63"/>
       <c r="V3" s="63"/>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B4" s="60">
         <f>EDATE(B3,1)</f>
         <v>42948</v>
@@ -5124,7 +5142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B5" s="60">
         <f t="shared" ref="B5:B68" si="0">EDATE(B4,1)</f>
         <v>42979</v>
@@ -5198,7 +5216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B6" s="60">
         <f t="shared" si="0"/>
         <v>43009</v>
@@ -5272,7 +5290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B7" s="60">
         <f t="shared" si="0"/>
         <v>43040</v>
@@ -5346,7 +5364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B8" s="60">
         <f t="shared" si="0"/>
         <v>43070</v>
@@ -5420,7 +5438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B9" s="60">
         <f t="shared" si="0"/>
         <v>43101</v>
@@ -5494,7 +5512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B10" s="60">
         <f t="shared" si="0"/>
         <v>43132</v>
@@ -5568,7 +5586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B11" s="60">
         <f t="shared" si="0"/>
         <v>43160</v>
@@ -5642,7 +5660,7 @@
         <v>-6.2450045135165055E-13</v>
       </c>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B12" s="60">
         <f t="shared" si="0"/>
         <v>43191</v>
@@ -5716,7 +5734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B13" s="60">
         <f t="shared" si="0"/>
         <v>43221</v>
@@ -5790,7 +5808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B14" s="60">
         <f t="shared" si="0"/>
         <v>43252</v>
@@ -5864,7 +5882,7 @@
         <v>-6.2450045135165055E-13</v>
       </c>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B15" s="60">
         <f t="shared" si="0"/>
         <v>43282</v>
@@ -5938,7 +5956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B16" s="60">
         <f t="shared" si="0"/>
         <v>43313</v>
@@ -6012,7 +6030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B17" s="60">
         <f t="shared" si="0"/>
         <v>43344</v>
@@ -6086,7 +6104,7 @@
         <v>-6.2450045135165055E-13</v>
       </c>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B18" s="60">
         <f t="shared" si="0"/>
         <v>43374</v>
@@ -6160,7 +6178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B19" s="60">
         <f t="shared" si="0"/>
         <v>43405</v>
@@ -6234,7 +6252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B20" s="60">
         <f t="shared" si="0"/>
         <v>43435</v>
@@ -6308,7 +6326,7 @@
         <v>-6.2450045135165055E-13</v>
       </c>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B21" s="60">
         <f t="shared" si="0"/>
         <v>43466</v>
@@ -6382,7 +6400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B22" s="60">
         <f t="shared" si="0"/>
         <v>43497</v>
@@ -6456,7 +6474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B23" s="60">
         <f t="shared" si="0"/>
         <v>43525</v>
@@ -6530,7 +6548,7 @@
         <v>-6.2450045135165055E-13</v>
       </c>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B24" s="60">
         <f t="shared" si="0"/>
         <v>43556</v>
@@ -6604,7 +6622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B25" s="60">
         <f t="shared" si="0"/>
         <v>43586</v>
@@ -6678,7 +6696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B26" s="60">
         <f t="shared" si="0"/>
         <v>43617</v>
@@ -6752,7 +6770,7 @@
         <v>-6.2450045135165055E-13</v>
       </c>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B27" s="60">
         <f t="shared" si="0"/>
         <v>43647</v>
@@ -6826,7 +6844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B28" s="60">
         <f t="shared" si="0"/>
         <v>43678</v>
@@ -6900,7 +6918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B29" s="60">
         <f t="shared" si="0"/>
         <v>43709</v>
@@ -6974,7 +6992,7 @@
         <v>-6.2450045135165055E-13</v>
       </c>
     </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B30" s="60">
         <f t="shared" si="0"/>
         <v>43739</v>
@@ -7048,7 +7066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B31" s="60">
         <f t="shared" si="0"/>
         <v>43770</v>
@@ -7122,7 +7140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B32" s="60">
         <f t="shared" si="0"/>
         <v>43800</v>
@@ -7196,7 +7214,7 @@
         <v>-6.2450045135165055E-13</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B33" s="60">
         <f t="shared" si="0"/>
         <v>43831</v>
@@ -7270,7 +7288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B34" s="60">
         <f t="shared" si="0"/>
         <v>43862</v>
@@ -7344,7 +7362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B35" s="60">
         <f t="shared" si="0"/>
         <v>43891</v>
@@ -7418,7 +7436,7 @@
         <v>-6.2450045135165055E-13</v>
       </c>
     </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B36" s="60">
         <f t="shared" si="0"/>
         <v>43922</v>
@@ -7492,7 +7510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B37" s="60">
         <f t="shared" si="0"/>
         <v>43952</v>
@@ -7566,7 +7584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B38" s="60">
         <f t="shared" si="0"/>
         <v>43983</v>
@@ -7640,7 +7658,7 @@
         <v>-6.2450045135165055E-13</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B39" s="60">
         <f t="shared" si="0"/>
         <v>44013</v>
@@ -7714,7 +7732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B40" s="60">
         <f t="shared" si="0"/>
         <v>44044</v>
@@ -7788,7 +7806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B41" s="60">
         <f t="shared" si="0"/>
         <v>44075</v>
@@ -7862,7 +7880,7 @@
         <v>-6.2450045135165055E-13</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B42" s="60">
         <f t="shared" si="0"/>
         <v>44105</v>
@@ -7936,7 +7954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B43" s="60">
         <f t="shared" si="0"/>
         <v>44136</v>
@@ -8010,7 +8028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B44" s="60">
         <f t="shared" si="0"/>
         <v>44166</v>
@@ -8084,7 +8102,7 @@
         <v>-6.2450045135165055E-13</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B45" s="60">
         <f t="shared" si="0"/>
         <v>44197</v>
@@ -8158,7 +8176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B46" s="60">
         <f t="shared" si="0"/>
         <v>44228</v>
@@ -8232,7 +8250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B47" s="60">
         <f t="shared" si="0"/>
         <v>44256</v>
@@ -8306,7 +8324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B48" s="60">
         <f t="shared" si="0"/>
         <v>44287</v>
@@ -8380,7 +8398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B49" s="60">
         <f t="shared" si="0"/>
         <v>44317</v>
@@ -8454,7 +8472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B50" s="60">
         <f t="shared" si="0"/>
         <v>44348</v>
@@ -8528,7 +8546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B51" s="60">
         <f t="shared" si="0"/>
         <v>44378</v>
@@ -8602,7 +8620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B52" s="60">
         <f t="shared" si="0"/>
         <v>44409</v>
@@ -8676,7 +8694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B53" s="60">
         <f t="shared" si="0"/>
         <v>44440</v>
@@ -8750,7 +8768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B54" s="60">
         <f t="shared" si="0"/>
         <v>44470</v>
@@ -8824,7 +8842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B55" s="60">
         <f t="shared" si="0"/>
         <v>44501</v>
@@ -8898,7 +8916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B56" s="60">
         <f t="shared" si="0"/>
         <v>44531</v>
@@ -8972,7 +8990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B57" s="60">
         <f t="shared" si="0"/>
         <v>44562</v>
@@ -9046,7 +9064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B58" s="60">
         <f t="shared" si="0"/>
         <v>44593</v>
@@ -9120,7 +9138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B59" s="60">
         <f t="shared" si="0"/>
         <v>44621</v>
@@ -9194,7 +9212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B60" s="60">
         <f t="shared" si="0"/>
         <v>44652</v>
@@ -9268,7 +9286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B61" s="60">
         <f t="shared" si="0"/>
         <v>44682</v>
@@ -9342,7 +9360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B62" s="60">
         <f t="shared" si="0"/>
         <v>44713</v>
@@ -9416,7 +9434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B63" s="60">
         <f t="shared" si="0"/>
         <v>44743</v>
@@ -9490,7 +9508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B64" s="60">
         <f t="shared" si="0"/>
         <v>44774</v>
@@ -9564,7 +9582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B65" s="60">
         <f t="shared" si="0"/>
         <v>44805</v>
@@ -9638,7 +9656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B66" s="60">
         <f t="shared" si="0"/>
         <v>44835</v>
@@ -9712,7 +9730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B67" s="60">
         <f t="shared" si="0"/>
         <v>44866</v>
@@ -9786,7 +9804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B68" s="60">
         <f t="shared" si="0"/>
         <v>44896</v>
@@ -9860,7 +9878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B69" s="60">
         <f t="shared" ref="B69:B94" si="6">EDATE(B68,1)</f>
         <v>44927</v>
@@ -9934,7 +9952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B70" s="60">
         <f t="shared" si="6"/>
         <v>44958</v>
@@ -10008,7 +10026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B71" s="60">
         <f t="shared" si="6"/>
         <v>44986</v>
@@ -10082,7 +10100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B72" s="60">
         <f t="shared" si="6"/>
         <v>45017</v>
@@ -10156,7 +10174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B73" s="60">
         <f t="shared" si="6"/>
         <v>45047</v>
@@ -10230,7 +10248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B74" s="60">
         <f t="shared" si="6"/>
         <v>45078</v>
@@ -10304,7 +10322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B75" s="60">
         <f t="shared" si="6"/>
         <v>45108</v>
@@ -10378,7 +10396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B76" s="60">
         <f t="shared" si="6"/>
         <v>45139</v>
@@ -10452,7 +10470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B77" s="60">
         <f t="shared" si="6"/>
         <v>45170</v>
@@ -10526,7 +10544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B78" s="60">
         <f t="shared" si="6"/>
         <v>45200</v>
@@ -10600,7 +10618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B79" s="60">
         <f t="shared" si="6"/>
         <v>45231</v>
@@ -10674,7 +10692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B80" s="60">
         <f t="shared" si="6"/>
         <v>45261</v>
@@ -10748,7 +10766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B81" s="60">
         <f t="shared" si="6"/>
         <v>45292</v>
@@ -10822,7 +10840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B82" s="60">
         <f t="shared" si="6"/>
         <v>45323</v>
@@ -10896,7 +10914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B83" s="60">
         <f t="shared" si="6"/>
         <v>45352</v>
@@ -10970,7 +10988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B84" s="60">
         <f t="shared" si="6"/>
         <v>45383</v>
@@ -11044,7 +11062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B85" s="60">
         <f t="shared" si="6"/>
         <v>45413</v>
@@ -11118,7 +11136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B86" s="60">
         <f t="shared" si="6"/>
         <v>45444</v>
@@ -11192,7 +11210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B87" s="60">
         <f t="shared" si="6"/>
         <v>45474</v>
@@ -11266,7 +11284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B88" s="60">
         <f t="shared" si="6"/>
         <v>45505</v>
@@ -11340,7 +11358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B89" s="60">
         <f t="shared" si="6"/>
         <v>45536</v>
@@ -11414,7 +11432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B90" s="60">
         <f t="shared" si="6"/>
         <v>45566</v>
@@ -11488,7 +11506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B91" s="60">
         <f t="shared" si="6"/>
         <v>45597</v>
@@ -11562,7 +11580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B92" s="60">
         <f t="shared" si="6"/>
         <v>45627</v>
@@ -11636,7 +11654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B93" s="60">
         <f t="shared" si="6"/>
         <v>45658</v>
@@ -11710,7 +11728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B94" s="60">
         <f t="shared" si="6"/>
         <v>45689</v>
@@ -11805,16 +11823,16 @@
       <selection pane="bottomRight" activeCell="D79" sqref="D79:H79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" customWidth="1"/>
-    <col min="4" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.81640625" customWidth="1"/>
+    <col min="2" max="2" width="5.81640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="46.81640625" customWidth="1"/>
+    <col min="4" max="8" width="12.26953125" bestFit="1" customWidth="1"/>
     <col min="11" max="15" width="18" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.35">
       <c r="D2" t="s">
         <v>106</v>
       </c>
@@ -11846,12 +11864,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>1</v>
       </c>
@@ -11876,7 +11894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -11892,7 +11910,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B6" s="6" t="s">
         <v>87</v>
       </c>
@@ -11926,7 +11944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
         <v>88</v>
       </c>
@@ -11961,7 +11979,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
         <v>89</v>
       </c>
@@ -11996,7 +12014,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
         <v>91</v>
       </c>
@@ -12031,7 +12049,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C10" s="78" t="s">
         <v>95</v>
       </c>
@@ -12056,7 +12074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C11" s="78" t="s">
         <v>96</v>
       </c>
@@ -12081,19 +12099,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B13" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C14" s="15" t="s">
         <v>2</v>
       </c>
@@ -12118,7 +12136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C15" s="17" t="s">
         <v>21</v>
       </c>
@@ -12143,7 +12161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C16" s="17" t="s">
         <v>8</v>
       </c>
@@ -12168,7 +12186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C17" s="17" t="s">
         <v>22</v>
       </c>
@@ -12193,7 +12211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C18" s="17" t="s">
         <v>9</v>
       </c>
@@ -12218,7 +12236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C19" s="17" t="s">
         <v>10</v>
       </c>
@@ -12243,7 +12261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C20" s="17" t="s">
         <v>78</v>
       </c>
@@ -12268,7 +12286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C21" s="19" t="s">
         <v>11</v>
       </c>
@@ -12293,7 +12311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C22" s="19" t="s">
         <v>12</v>
       </c>
@@ -12318,7 +12336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C23" s="19" t="s">
         <v>23</v>
       </c>
@@ -12343,12 +12361,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B25" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C26" s="15" t="s">
         <v>2</v>
       </c>
@@ -12373,7 +12391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C27" s="17" t="s">
         <v>21</v>
       </c>
@@ -12398,7 +12416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C28" s="17" t="s">
         <v>8</v>
       </c>
@@ -12423,7 +12441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C29" s="17" t="s">
         <v>22</v>
       </c>
@@ -12448,7 +12466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C30" s="17" t="s">
         <v>9</v>
       </c>
@@ -12473,7 +12491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C31" s="17" t="s">
         <v>10</v>
       </c>
@@ -12498,7 +12516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C32" s="17" t="s">
         <v>78</v>
       </c>
@@ -12523,7 +12541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C33" s="19" t="s">
         <v>11</v>
       </c>
@@ -12548,7 +12566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C34" s="19" t="s">
         <v>12</v>
       </c>
@@ -12573,7 +12591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C35" s="28" t="s">
         <v>23</v>
       </c>
@@ -12593,19 +12611,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B37" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C38" s="15" t="s">
         <v>2</v>
       </c>
@@ -12630,7 +12648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C39" s="17" t="s">
         <v>21</v>
       </c>
@@ -12655,7 +12673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C40" s="17" t="s">
         <v>8</v>
       </c>
@@ -12680,7 +12698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C41" s="17" t="s">
         <v>22</v>
       </c>
@@ -12705,7 +12723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C42" s="17" t="s">
         <v>9</v>
       </c>
@@ -12730,7 +12748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C43" s="17" t="s">
         <v>10</v>
       </c>
@@ -12755,7 +12773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C44" s="17" t="s">
         <v>78</v>
       </c>
@@ -12780,7 +12798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C45" s="19" t="s">
         <v>11</v>
       </c>
@@ -12805,7 +12823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C46" s="19" t="s">
         <v>12</v>
       </c>
@@ -12830,7 +12848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C47" s="19" t="s">
         <v>23</v>
       </c>
@@ -12855,12 +12873,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B49" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C50" s="15" t="s">
         <v>2</v>
       </c>
@@ -12885,7 +12903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C51" s="17" t="s">
         <v>21</v>
       </c>
@@ -12910,7 +12928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C52" s="17" t="s">
         <v>8</v>
       </c>
@@ -12935,7 +12953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C53" s="17" t="s">
         <v>22</v>
       </c>
@@ -12960,7 +12978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C54" s="17" t="s">
         <v>9</v>
       </c>
@@ -12985,7 +13003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C55" s="17" t="s">
         <v>10</v>
       </c>
@@ -13010,7 +13028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C56" s="17" t="s">
         <v>78</v>
       </c>
@@ -13035,7 +13053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C57" s="19" t="s">
         <v>11</v>
       </c>
@@ -13060,7 +13078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C58" s="19" t="s">
         <v>12</v>
       </c>
@@ -13085,7 +13103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C59" s="28" t="s">
         <v>23</v>
       </c>
@@ -13105,12 +13123,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B61" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C62" s="17" t="s">
         <v>14</v>
       </c>
@@ -13135,7 +13153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C63" s="17" t="s">
         <v>15</v>
       </c>
@@ -13160,7 +13178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C64" s="19" t="s">
         <v>16</v>
       </c>
@@ -13185,7 +13203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C65" s="19" t="s">
         <v>130</v>
       </c>
@@ -13210,7 +13228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C66" s="19" t="s">
         <v>17</v>
       </c>
@@ -13235,7 +13253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C67" s="19" t="s">
         <v>100</v>
       </c>
@@ -13260,7 +13278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C68" s="19" t="s">
         <v>99</v>
       </c>
@@ -13285,7 +13303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C69" s="81" t="s">
         <v>97</v>
       </c>
@@ -13310,7 +13328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B71" s="6" t="s">
         <v>46</v>
       </c>
@@ -13318,7 +13336,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C72" s="28" t="s">
         <v>14</v>
       </c>
@@ -13361,7 +13379,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C73" s="17" t="s">
         <v>15</v>
       </c>
@@ -13410,7 +13428,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C74" s="19" t="s">
         <v>16</v>
       </c>
@@ -13459,7 +13477,7 @@
         <v>1.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C75" s="19" t="s">
         <v>130</v>
       </c>
@@ -13508,7 +13526,7 @@
         <v>1.3000000000000002E-3</v>
       </c>
     </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C76" s="19" t="s">
         <v>17</v>
       </c>
@@ -13557,7 +13575,7 @@
         <v>1.4000000000000002E-3</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C77" s="19" t="s">
         <v>100</v>
       </c>
@@ -13606,7 +13624,7 @@
         <v>1.5000000000000002E-3</v>
       </c>
     </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C78" s="19" t="s">
         <v>99</v>
       </c>
@@ -13655,7 +13673,7 @@
         <v>1.6000000000000003E-3</v>
       </c>
     </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C79" s="81" t="s">
         <v>97</v>
       </c>
@@ -13704,19 +13722,19 @@
         <v>1.7000000000000003E-3</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.35">
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
     </row>
-    <row r="81" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B81" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="82" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C82" s="17" t="s">
         <v>14</v>
       </c>
@@ -13761,7 +13779,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C83" s="17" t="s">
         <v>15</v>
       </c>
@@ -13806,7 +13824,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C84" s="19" t="s">
         <v>16</v>
       </c>
@@ -13851,7 +13869,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C85" s="19" t="s">
         <v>130</v>
       </c>
@@ -13896,7 +13914,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C86" s="19" t="s">
         <v>17</v>
       </c>
@@ -13941,7 +13959,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C87" s="19" t="s">
         <v>100</v>
       </c>
@@ -13986,7 +14004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C88" s="19" t="s">
         <v>99</v>
       </c>
@@ -14031,7 +14049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C89" s="81" t="s">
         <v>97</v>
       </c>
@@ -14076,12 +14094,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B91" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C92" s="28" t="s">
         <v>14</v>
       </c>
@@ -14101,7 +14119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C93" s="17" t="s">
         <v>15</v>
       </c>
@@ -14126,7 +14144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C94" s="19" t="s">
         <v>16</v>
       </c>
@@ -14151,7 +14169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C95" s="19" t="s">
         <v>130</v>
       </c>
@@ -14176,7 +14194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C96" s="19" t="s">
         <v>17</v>
       </c>
@@ -14201,7 +14219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C97" s="19" t="s">
         <v>100</v>
       </c>
@@ -14226,7 +14244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C98" s="19" t="s">
         <v>99</v>
       </c>
@@ -14251,7 +14269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C99" s="81" t="s">
         <v>97</v>
       </c>
@@ -14276,12 +14294,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B101" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" s="88">
         <v>2</v>
       </c>
@@ -14309,7 +14327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" s="88">
         <v>3</v>
       </c>
@@ -14337,7 +14355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" s="88">
         <v>4</v>
       </c>
@@ -14365,7 +14383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" s="88">
         <v>5</v>
       </c>
@@ -14393,7 +14411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" s="88">
         <v>6</v>
       </c>
@@ -14421,7 +14439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" s="88">
         <v>7</v>
       </c>
@@ -14449,7 +14467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B109" s="6" t="s">
         <v>113</v>
       </c>
@@ -14474,10 +14492,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B111" s="6" t="s">
         <v>43</v>
       </c>
@@ -14502,14 +14520,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B113" s="6" t="s">
         <v>83</v>
       </c>
@@ -14530,7 +14548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B115" s="6" t="s">
         <v>114</v>
       </c>
@@ -14555,7 +14573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B118" s="27"/>
       <c r="C118" s="21" t="s">
         <v>115</v>
@@ -14581,7 +14599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B119" s="27"/>
       <c r="D119" s="21">
         <v>0.1</v>
@@ -14599,7 +14617,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="120" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B120" s="27"/>
       <c r="D120" s="21">
         <f>SUM(D118:D119)</f>
@@ -14622,7 +14640,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="121" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B121" s="27"/>
       <c r="D121" s="21">
         <f>_xlfn.RANK.EQ(D120, $D$120:$H$120, 5)</f>
@@ -14645,16 +14663,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B122" s="27"/>
     </row>
-    <row r="123" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B123" s="27"/>
       <c r="C123" s="21" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="124" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B124" s="27"/>
       <c r="D124" s="21" t="s">
         <v>117</v>
@@ -14664,7 +14682,7 @@
         <v>-22500</v>
       </c>
     </row>
-    <row r="125" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B125" s="27"/>
       <c r="D125" s="21" t="s">
         <v>118</v>
@@ -14674,7 +14692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B126" s="27"/>
       <c r="D126" s="21" t="s">
         <v>119</v>
@@ -14684,7 +14702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B127" s="27"/>
       <c r="D127" s="21" t="s">
         <v>120</v>
@@ -14694,7 +14712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F131" s="2"/>
     </row>
   </sheetData>
@@ -14707,22 +14725,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" customWidth="1"/>
-    <col min="2" max="2" width="47.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.54296875" customWidth="1"/>
+    <col min="2" max="2" width="47.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="13.42578125" customWidth="1"/>
-    <col min="9" max="10" width="4.140625" customWidth="1"/>
-    <col min="11" max="11" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" customWidth="1"/>
+    <col min="6" max="8" width="13.453125" customWidth="1"/>
+    <col min="9" max="10" width="4.1796875" customWidth="1"/>
+    <col min="11" max="11" width="38.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C2" s="48" t="s">
         <v>5</v>
       </c>
@@ -14730,7 +14750,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>112</v>
       </c>
@@ -14748,7 +14768,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>19</v>
       </c>
@@ -14777,7 +14797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
       <c r="E5" s="48" t="s">
         <v>84</v>
       </c>
@@ -14797,7 +14817,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B6" s="15" t="s">
         <v>20</v>
       </c>
@@ -14832,14 +14852,14 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C8" s="43"/>
       <c r="D8" s="39"/>
       <c r="K8" s="6" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C9" s="46" t="s">
         <v>28</v>
       </c>
@@ -14854,7 +14874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B10" s="17" t="s">
         <v>21</v>
       </c>
@@ -14885,7 +14905,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B11" s="17" t="s">
         <v>8</v>
       </c>
@@ -14916,7 +14936,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B12" s="17" t="s">
         <v>22</v>
       </c>
@@ -14941,7 +14961,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B13" s="17" t="s">
         <v>9</v>
       </c>
@@ -14967,7 +14987,7 @@
       </c>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B14" s="17" t="s">
         <v>10</v>
       </c>
@@ -14998,7 +15018,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B15" s="17" t="s">
         <v>78</v>
       </c>
@@ -15029,7 +15049,7 @@
         <v>43466</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B16" s="19" t="s">
         <v>11</v>
       </c>
@@ -15056,7 +15076,7 @@
       <c r="K16" s="4"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B17" s="19" t="s">
         <v>12</v>
       </c>
@@ -15081,7 +15101,7 @@
         <v>1.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B18" s="19" t="s">
         <v>23</v>
       </c>
@@ -15112,14 +15132,14 @@
         <v>3525</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C19" s="43"/>
       <c r="E19" s="39"/>
       <c r="F19" s="39"/>
       <c r="G19" s="39"/>
       <c r="H19" s="39"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B20" s="17" t="s">
         <v>14</v>
       </c>
@@ -15150,7 +15170,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B21" s="17" t="s">
         <v>15</v>
       </c>
@@ -15175,7 +15195,7 @@
         <v>5.6000000000000008E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B22" s="19" t="s">
         <v>16</v>
       </c>
@@ -15200,7 +15220,7 @@
         <v>5.7999999999999996E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B23" s="19" t="s">
         <v>130</v>
       </c>
@@ -15225,7 +15245,7 @@
         <v>5.7999999999999996E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B24" s="19" t="s">
         <v>17</v>
       </c>
@@ -15257,7 +15277,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B25" s="19" t="s">
         <v>100</v>
       </c>
@@ -15280,7 +15300,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B26" s="19" t="s">
         <v>99</v>
       </c>
@@ -15312,7 +15332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B27" s="81" t="s">
         <v>97</v>
       </c>
@@ -15337,7 +15357,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
       <c r="K28" t="s">
         <v>134</v>
       </c>
@@ -15351,4 +15371,249 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>49999</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2" s="54">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>50000</v>
+      </c>
+      <c r="B3">
+        <v>99999</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>100000</v>
+      </c>
+      <c r="B4">
+        <v>299999</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>300000</v>
+      </c>
+      <c r="B5">
+        <v>499999</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>500000</v>
+      </c>
+      <c r="B6">
+        <v>999999</v>
+      </c>
+      <c r="C6" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>1000000</v>
+      </c>
+      <c r="B7">
+        <v>1999999</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>2000000</v>
+      </c>
+      <c r="B8">
+        <v>5000000</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D14">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C15">
+        <v>0.17</v>
+      </c>
+      <c r="D15">
+        <f>C15*$D$14</f>
+        <v>0.20400000000000001</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F15" s="103">
+        <f>E15-D15</f>
+        <v>-4.0000000000000036E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C16">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ref="D16:D22" si="0">C16*$D$14</f>
+        <v>0.17519999999999999</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="F16" s="103">
+        <f t="shared" ref="F16:F21" si="1">E16-D16</f>
+        <v>-5.1999999999999824E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C17">
+        <v>0.122</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0.1464</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F17" s="103">
+        <f t="shared" si="1"/>
+        <v>-6.399999999999989E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C18">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0.1164</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="F18" s="103">
+        <f t="shared" si="1"/>
+        <v>-6.4000000000000029E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C19">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>7.3200000000000001E-2</v>
+      </c>
+      <c r="E19" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F19" s="103">
+        <f t="shared" si="1"/>
+        <v>-3.1999999999999945E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C20">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>5.8799999999999998E-2</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="F20" s="103">
+        <f t="shared" si="1"/>
+        <v>1.1999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C21">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>4.3199999999999995E-2</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="F21" s="103">
+        <f t="shared" si="1"/>
+        <v>-3.1999999999999945E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/0273NYP - New York Premier/Premier_Pricing_Model.xlsx
+++ b/0273NYP - New York Premier/Premier_Pricing_Model.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="140">
   <si>
     <t>One-Time Fees:</t>
   </si>
@@ -507,7 +507,7 @@
     <numFmt numFmtId="169" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="170" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="171" formatCode="&quot;$&quot;#,##0.000_);[Red]\(&quot;$&quot;#,##0.000\)"/>
-    <numFmt numFmtId="173" formatCode="&quot;$&quot;#,##0.00000_);[Red]\(&quot;$&quot;#,##0.00000\)"/>
+    <numFmt numFmtId="172" formatCode="&quot;$&quot;#,##0.00000_);[Red]\(&quot;$&quot;#,##0.00000\)"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -935,7 +935,7 @@
     <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1236,7 +1236,7 @@
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F36" sqref="F36"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1353,7 +1353,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="55">
-        <v>250000</v>
+        <v>273000</v>
       </c>
       <c r="E9" s="55">
         <v>250000</v>
@@ -15375,10 +15375,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15388,9 +15388,10 @@
     <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.26953125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="12.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>135</v>
       </c>
@@ -15406,8 +15407,23 @@
       <c r="F1" s="3">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -15423,8 +15439,28 @@
       <c r="F2" s="54">
         <v>43831</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H2">
+        <f>IF(Inputs!D$9 &gt; $B2, $A3-$A2, MAX(0, Inputs!D$9-$A2))</f>
+        <v>50000</v>
+      </c>
+      <c r="I2">
+        <f>IF(Inputs!E$9 &gt; $B2, $A3-$A2, MAX(0, Inputs!E$9-$A2))</f>
+        <v>50000</v>
+      </c>
+      <c r="J2">
+        <f>IF(Inputs!F$9 &gt; $B2, $A3-$A2, MAX(0, Inputs!F$9-$A2))</f>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f>IF(Inputs!G$9 &gt; $B2, $A3-$A2, MAX(0, Inputs!G$9-$A2))</f>
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f>IF(Inputs!H$9 &gt; $B2, $A3-$A2, MAX(0, Inputs!H$9-$A2))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>50000</v>
       </c>
@@ -15434,8 +15470,28 @@
       <c r="C3" s="2">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H3">
+        <f>IF(Inputs!D$9 &gt; $B3, $A4-$A3, MAX(0, Inputs!D$9-$A3))</f>
+        <v>50000</v>
+      </c>
+      <c r="I3">
+        <f>IF(Inputs!E$9 &gt; $B3, $A4-$A3, MAX(0, Inputs!E$9-$A3))</f>
+        <v>50000</v>
+      </c>
+      <c r="J3">
+        <f>IF(Inputs!F$9 &gt; $B3, $A4-$A3, MAX(0, Inputs!F$9-$A3))</f>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f>IF(Inputs!G$9 &gt; $B3, $A4-$A3, MAX(0, Inputs!G$9-$A3))</f>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f>IF(Inputs!H$9 &gt; $B3, $A4-$A3, MAX(0, Inputs!H$9-$A3))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>100000</v>
       </c>
@@ -15445,8 +15501,28 @@
       <c r="C4" s="2">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H4">
+        <f>IF(Inputs!D$9 &gt; $B4, $A5-$A4, MAX(0, Inputs!D$9-$A4))</f>
+        <v>173000</v>
+      </c>
+      <c r="I4">
+        <f>IF(Inputs!E$9 &gt; $B4, $A5-$A4, MAX(0, Inputs!E$9-$A4))</f>
+        <v>150000</v>
+      </c>
+      <c r="J4">
+        <f>IF(Inputs!F$9 &gt; $B4, $A5-$A4, MAX(0, Inputs!F$9-$A4))</f>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f>IF(Inputs!G$9 &gt; $B4, $A5-$A4, MAX(0, Inputs!G$9-$A4))</f>
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f>IF(Inputs!H$9 &gt; $B4, $A5-$A4, MAX(0, Inputs!H$9-$A4))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>300000</v>
       </c>
@@ -15456,8 +15532,28 @@
       <c r="C5" s="2">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H5">
+        <f>IF(Inputs!D$9 &gt; $B5, $A6-$A5, MAX(0, Inputs!D$9-$A5))</f>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f>IF(Inputs!E$9 &gt; $B5, $A6-$A5, MAX(0, Inputs!E$9-$A5))</f>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f>IF(Inputs!F$9 &gt; $B5, $A6-$A5, MAX(0, Inputs!F$9-$A5))</f>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f>IF(Inputs!G$9 &gt; $B5, $A6-$A5, MAX(0, Inputs!G$9-$A5))</f>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f>IF(Inputs!H$9 &gt; $B5, $A6-$A5, MAX(0, Inputs!H$9-$A5))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>500000</v>
       </c>
@@ -15467,8 +15563,28 @@
       <c r="C6" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H6">
+        <f>IF(Inputs!D$9 &gt; $B6, $A7-$A6, MAX(0, Inputs!D$9-$A6))</f>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f>IF(Inputs!E$9 &gt; $B6, $A7-$A6, MAX(0, Inputs!E$9-$A6))</f>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f>IF(Inputs!F$9 &gt; $B6, $A7-$A6, MAX(0, Inputs!F$9-$A6))</f>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f>IF(Inputs!G$9 &gt; $B6, $A7-$A6, MAX(0, Inputs!G$9-$A6))</f>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f>IF(Inputs!H$9 &gt; $B6, $A7-$A6, MAX(0, Inputs!H$9-$A6))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1000000</v>
       </c>
@@ -15478,8 +15594,28 @@
       <c r="C7" s="2">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H7">
+        <f>IF(Inputs!D$9 &gt; $B7, $A8-$A7, MAX(0, Inputs!D$9-$A7))</f>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f>IF(Inputs!E$9 &gt; $B7, $A8-$A7, MAX(0, Inputs!E$9-$A7))</f>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f>IF(Inputs!F$9 &gt; $B7, $A8-$A7, MAX(0, Inputs!F$9-$A7))</f>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f>IF(Inputs!G$9 &gt; $B7, $A8-$A7, MAX(0, Inputs!G$9-$A7))</f>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f>IF(Inputs!H$9 &gt; $B7, $A8-$A7, MAX(0, Inputs!H$9-$A7))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2000000</v>
       </c>
@@ -15489,18 +15625,38 @@
       <c r="C8" s="2">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H8">
+        <f>IF(Inputs!D$9 &gt; $B8, $A9-$A8, MAX(0, Inputs!D$9-$A8))</f>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f>IF(Inputs!E$9 &gt; $B8, $A9-$A8, MAX(0, Inputs!E$9-$A8))</f>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f>IF(Inputs!F$9 &gt; $B8, $A9-$A8, MAX(0, Inputs!F$9-$A8))</f>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f>IF(Inputs!G$9 &gt; $B8, $A9-$A8, MAX(0, Inputs!G$9-$A8))</f>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f>IF(Inputs!H$9 &gt; $B8, $A9-$A8, MAX(0, Inputs!H$9-$A8))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D14">
         <v>1.2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C15">
         <v>0.17</v>
       </c>
@@ -15516,12 +15672,12 @@
         <v>-4.0000000000000036E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C16">
         <v>0.14599999999999999</v>
       </c>
       <c r="D16">
-        <f t="shared" ref="D16:D22" si="0">C16*$D$14</f>
+        <f t="shared" ref="D16:D21" si="0">C16*$D$14</f>
         <v>0.17519999999999999</v>
       </c>
       <c r="E16" s="2">

--- a/0273NYP - New York Premier/Premier_Pricing_Model.xlsx
+++ b/0273NYP - New York Premier/Premier_Pricing_Model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason.altieri\repos\client-and-project-documentation\0273NYP - New York Premier\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shea.parkes\repos\client-and-project-documentation\0273NYP - New York Premier\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="150">
   <si>
     <t>One-Time Fees:</t>
   </si>
@@ -515,6 +515,9 @@
   </si>
   <si>
     <t>MARA (Contract Total)</t>
+  </si>
+  <si>
+    <t>MARA Pricing</t>
   </si>
 </sst>
 </file>
@@ -963,11 +966,13 @@
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -976,7 +981,17 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="0" tint="-0.24994659260841701"/>
@@ -1269,7 +1284,7 @@
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1287,7 +1302,7 @@
         <v>59</v>
       </c>
       <c r="C1" s="70">
-        <v>43101</v>
+        <v>43647</v>
       </c>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.35">
@@ -1403,7 +1418,7 @@
         <v>50000</v>
       </c>
       <c r="E10" s="55">
-        <v>50000</v>
+        <v>250000</v>
       </c>
       <c r="F10" s="55"/>
       <c r="G10" s="55"/>
@@ -1714,7 +1729,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L32" sqref="L32"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1813,7 +1828,7 @@
       </c>
       <c r="E7" s="16">
         <f>SUM(Calcs!E38, Calcs!E50)</f>
-        <v>36750</v>
+        <v>54570</v>
       </c>
       <c r="F7" s="16">
         <f>SUM(Calcs!F38, Calcs!F50)</f>
@@ -2241,7 +2256,7 @@
       </c>
       <c r="E21" s="1">
         <f>SUM(Calcs!E64, Calcs!E74)</f>
-        <v>42250</v>
+        <v>61390</v>
       </c>
       <c r="F21" s="1">
         <f>SUM(Calcs!F64, Calcs!F74)</f>
@@ -2276,7 +2291,7 @@
       </c>
       <c r="E22" s="1">
         <f>SUM(Calcs!E65, Calcs!E75)</f>
-        <v>42250</v>
+        <v>61390</v>
       </c>
       <c r="F22" s="1">
         <f>SUM(Calcs!F65, Calcs!F75)</f>
@@ -2456,7 +2471,7 @@
       </c>
       <c r="E29" s="1">
         <f>SUM(Calcs!E102:E106)</f>
-        <v>-12675</v>
+        <v>-18417</v>
       </c>
       <c r="F29" s="1">
         <f>SUM(Calcs!F102:F106)</f>
@@ -2557,7 +2572,7 @@
       </c>
       <c r="E33" s="7">
         <f>SUM(E7:E16, E19:E26, E29:E30)</f>
-        <v>108575</v>
+        <v>158933</v>
       </c>
       <c r="F33" s="7">
         <f>SUM(F7:F16, F19:F26, F29:F30)</f>
@@ -2616,7 +2631,7 @@
     <row r="36" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C36" s="64">
         <f>INDEX(Outputs_Timeline!$D$3:$D$94,MATCH(Inputs!$C$1,Outputs_Timeline!$B$3:$B$94,0),1)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.35">
@@ -2627,7 +2642,7 @@
         <v>146</v>
       </c>
       <c r="C38" s="64"/>
-      <c r="D38" s="106"/>
+      <c r="D38" s="104"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
@@ -2637,23 +2652,23 @@
       <c r="C39" s="64" t="s">
         <v>144</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="1">
         <f>IF(Inputs!D$6 = "N", SUMIF(Outputs_Timeline!$B$3:$B$204,"&lt;" &amp; EDATE(Inputs!$C$1,12), Outputs_Timeline!AD$3:AD$204), 0)</f>
         <v>0</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="1">
         <f>IF(Inputs!E$6 = "N", SUMIF(Outputs_Timeline!$B$3:$B$204,"&lt;" &amp; EDATE(Inputs!$C$1,12), Outputs_Timeline!AE$3:AE$204), 0)</f>
-        <v>10000</v>
-      </c>
-      <c r="F39" s="7">
+        <v>40487.5</v>
+      </c>
+      <c r="F39" s="1">
         <f>IF(Inputs!F$6 = "N", SUMIF(Outputs_Timeline!$B$3:$B$204,"&lt;" &amp; EDATE(Inputs!$C$1,12), Outputs_Timeline!AF$3:AF$204), 0)</f>
         <v>0</v>
       </c>
-      <c r="G39" s="7">
+      <c r="G39" s="1">
         <f>IF(Inputs!G$6 = "N", SUMIF(Outputs_Timeline!$B$3:$B$204,"&lt;" &amp; EDATE(Inputs!$C$1,12), Outputs_Timeline!AG$3:AG$204), 0)</f>
         <v>0</v>
       </c>
-      <c r="H39" s="7">
+      <c r="H39" s="1">
         <f>IF(Inputs!H$6 = "N", SUMIF(Outputs_Timeline!$B$3:$B$204,"&lt;" &amp; EDATE(Inputs!$C$1,12), Outputs_Timeline!AH$3:AH$204), 0)</f>
         <v>0</v>
       </c>
@@ -2662,23 +2677,23 @@
       <c r="C40" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40" s="1">
         <f>IF(Inputs!D$6 = "N", SUM(Outputs_Timeline!AD$3:AD$204), 0)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="1">
         <f>IF(Inputs!E$6 = "N", SUM(Outputs_Timeline!AE$3:AE$204), 0)</f>
-        <v>30500</v>
-      </c>
-      <c r="F40" s="7">
+        <v>127636.84375</v>
+      </c>
+      <c r="F40" s="1">
         <f>IF(Inputs!F$6 = "N", SUM(Outputs_Timeline!AF$3:AF$204), 0)</f>
         <v>0</v>
       </c>
-      <c r="G40" s="7">
+      <c r="G40" s="1">
         <f>IF(Inputs!G$6 = "N", SUM(Outputs_Timeline!AG$3:AG$204), 0)</f>
         <v>0</v>
       </c>
-      <c r="H40" s="7">
+      <c r="H40" s="1">
         <f>IF(Inputs!H$6 = "N", SUM(Outputs_Timeline!AH$3:AH$204), 0)</f>
         <v>0</v>
       </c>
@@ -2689,11 +2704,11 @@
       </c>
       <c r="D42" s="7">
         <f>(D33/12*Inputs!$C$2+D4)*$C$36+D40</f>
-        <v>92500</v>
+        <v>93656.25</v>
       </c>
       <c r="E42" s="7">
         <f>(E33/12*Inputs!$C$2+E4)*$C$36+E40</f>
-        <v>416225</v>
+        <v>671145.83124999993</v>
       </c>
       <c r="F42" s="7">
         <f>(F33/12*Inputs!$C$2+F4)*$C$36+F40</f>
@@ -2737,13 +2752,13 @@
     <row r="46" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C46" s="7">
         <f>SUM(Outputs_Timeline!W:W)</f>
-        <v>508725</v>
+        <v>764802.08125000016</v>
       </c>
     </row>
     <row r="47" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C47" s="52">
         <f>SUM(D42:H42)</f>
-        <v>508725</v>
+        <v>764802.08124999993</v>
       </c>
       <c r="D47" s="1"/>
       <c r="G47" s="1"/>
@@ -2776,10 +2791,10 @@
   <dimension ref="B1:Q76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P58" sqref="P58"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3401,7 +3416,7 @@
       </c>
       <c r="D24" s="16">
         <f>SUM(Calcs!D26:H26)</f>
-        <v>6750</v>
+        <v>24570.000000000004</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="34">
@@ -3422,11 +3437,11 @@
       </c>
       <c r="K24" s="16">
         <f>(IF(Inputs!C4="New York",$H$7,-$H$7)+F24)*$D24</f>
-        <v>2700.0000000000005</v>
+        <v>9828.0000000000036</v>
       </c>
       <c r="L24" s="16">
         <f>(IF(Inputs!C4="New York",-$H$7,$H$7)+G24)*$D24</f>
-        <v>4050</v>
+        <v>14742.000000000002</v>
       </c>
       <c r="M24" s="16">
         <f>H24*$D24</f>
@@ -3691,7 +3706,7 @@
       </c>
       <c r="D31" s="20">
         <f>SUM(Calcs!D33:H33)</f>
-        <v>4500</v>
+        <v>16380</v>
       </c>
       <c r="F31" s="37">
         <f t="shared" si="11"/>
@@ -3711,11 +3726,11 @@
       </c>
       <c r="K31" s="20">
         <f t="shared" si="8"/>
-        <v>112.5000000000001</v>
+        <v>409.50000000000034</v>
       </c>
       <c r="L31" s="20">
         <f t="shared" si="9"/>
-        <v>4387.5</v>
+        <v>15970.5</v>
       </c>
       <c r="M31" s="20">
         <f t="shared" si="10"/>
@@ -3732,7 +3747,7 @@
       </c>
       <c r="D32" s="20">
         <f>SUM(Calcs!D34:H34)</f>
-        <v>1750.0000000000002</v>
+        <v>6370.0000000000009</v>
       </c>
       <c r="F32" s="37">
         <f t="shared" si="11"/>
@@ -3752,11 +3767,11 @@
       </c>
       <c r="K32" s="20">
         <f t="shared" si="8"/>
-        <v>43.750000000000043</v>
+        <v>159.25000000000017</v>
       </c>
       <c r="L32" s="20">
         <f t="shared" si="9"/>
-        <v>1706.2500000000002</v>
+        <v>6210.7500000000009</v>
       </c>
       <c r="M32" s="20">
         <f t="shared" si="10"/>
@@ -4235,7 +4250,7 @@
       </c>
       <c r="D48" s="20">
         <f>SUM(Calcs!D94:H94)</f>
-        <v>999.99999999999909</v>
+        <v>3639.9999999999964</v>
       </c>
       <c r="F48" s="31">
         <f t="shared" si="28"/>
@@ -4254,11 +4269,11 @@
       </c>
       <c r="K48" s="20">
         <f t="shared" ref="K48:K50" si="33">F48*$D48</f>
-        <v>25</v>
+        <v>90.999999999999986</v>
       </c>
       <c r="L48" s="20">
         <f t="shared" si="31"/>
-        <v>974.99999999999909</v>
+        <v>3548.9999999999964</v>
       </c>
       <c r="M48" s="20">
         <f t="shared" si="32"/>
@@ -4275,7 +4290,7 @@
       </c>
       <c r="D49" s="20">
         <f>SUM(Calcs!D95:H95)</f>
-        <v>7249.9999999999991</v>
+        <v>26389.999999999996</v>
       </c>
       <c r="F49" s="31">
         <f t="shared" si="28"/>
@@ -4294,11 +4309,11 @@
       </c>
       <c r="K49" s="20">
         <f t="shared" ref="K49" si="34">F49*$D49</f>
-        <v>181.25000000000014</v>
+        <v>659.75000000000045</v>
       </c>
       <c r="L49" s="20">
         <f t="shared" ref="L49" si="35">G49*$D49</f>
-        <v>7068.7499999999991</v>
+        <v>25730.249999999996</v>
       </c>
       <c r="M49" s="20">
         <f t="shared" ref="M49" si="36">H49*$D49</f>
@@ -4488,15 +4503,15 @@
       </c>
       <c r="D56" s="1">
         <f>SUM(Outputs_External!D29:'Outputs_External'!H29)</f>
-        <v>-12675</v>
+        <v>-18417</v>
       </c>
       <c r="F56" s="8">
         <f>IFERROR(SUM(K70:K76)/SUM($K$70:$N$76), 0)</f>
-        <v>9.2961165048543695E-2</v>
+        <v>7.9466230936819177E-2</v>
       </c>
       <c r="G56" s="8">
         <f t="shared" ref="G56:I56" si="49">IFERROR(SUM(L70:L76)/SUM($K$70:$N$76), 0)</f>
-        <v>0.90703883495145632</v>
+        <v>0.92053376906318085</v>
       </c>
       <c r="H56" s="8">
         <f t="shared" si="49"/>
@@ -4508,11 +4523,11 @@
       </c>
       <c r="K56" s="12">
         <f>F56*$D$56</f>
-        <v>-1178.2827669902913</v>
+        <v>-1463.5295751633987</v>
       </c>
       <c r="L56" s="12">
         <f>G56*$D$56</f>
-        <v>-11496.717233009709</v>
+        <v>-16953.470424836603</v>
       </c>
       <c r="M56" s="12">
         <f>H56*$D$56</f>
@@ -4533,11 +4548,11 @@
       </c>
       <c r="F57" s="3">
         <f>IFERROR(SUM(K10:K56)/SUM($K10:$N56), 0)</f>
-        <v>0.21289116968632957</v>
+        <v>0.19891051401567297</v>
       </c>
       <c r="G57" s="3">
         <f>IFERROR(SUM(L10:L56)/SUM($K10:$N56), 0)</f>
-        <v>0.7871088303136704</v>
+        <v>0.80108948598432694</v>
       </c>
       <c r="H57" s="3">
         <f>IFERROR(SUM(M10:M56)/SUM($K10:$N56), 0)</f>
@@ -4545,15 +4560,15 @@
       </c>
       <c r="I57" s="3">
         <f>1-F57-G57-H57</f>
-        <v>0</v>
+        <v>1.1102230246251565E-16</v>
       </c>
       <c r="K57" s="12">
         <f>F57*$D$57</f>
-        <v>-4790.0513179424152</v>
+        <v>-4475.4865653526422</v>
       </c>
       <c r="L57" s="12">
         <f>G57*$D$57</f>
-        <v>-17709.948682057584</v>
+        <v>-18024.513434647357</v>
       </c>
       <c r="M57" s="12">
         <f>H57*$D$57</f>
@@ -4561,7 +4576,7 @@
       </c>
       <c r="N57" s="12">
         <f>I57*$D$57</f>
-        <v>0</v>
+        <v>-2.4980018054066022E-12</v>
       </c>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.35">
@@ -4613,15 +4628,15 @@
       </c>
       <c r="D60" s="1">
         <f>SUM(Outputs_External!D33:'Outputs_External'!H33)</f>
-        <v>136075</v>
+        <v>186433</v>
       </c>
       <c r="K60" s="12">
         <f>SUM(K56:K58, K36:K43, K10:K19,K24:K33,K46:K53)</f>
-        <v>28969.165915067293</v>
+        <v>37083.483859483968</v>
       </c>
       <c r="L60" s="12">
         <f>SUM(L56:L58, L36:L43, L10:L19,L24:L33,L46:L53)</f>
-        <v>107105.83408493271</v>
+        <v>149349.51614051603</v>
       </c>
       <c r="M60" s="12">
         <f>SUM(M56:M58, M36:M43, M10:M19,M24:M33,M46:M53)</f>
@@ -4629,7 +4644,7 @@
       </c>
       <c r="N60" s="12">
         <f>SUM(N56:N58, N36:N43, N10:N19,N24:N33,N46:N53)</f>
-        <v>0</v>
+        <v>-2.4980018054066022E-12</v>
       </c>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.35">
@@ -4638,7 +4653,7 @@
       </c>
       <c r="D61" s="23">
         <f>SUM(K60:N60)</f>
-        <v>136075</v>
+        <v>186433</v>
       </c>
       <c r="K61" s="12"/>
       <c r="L61" s="12"/>
@@ -4656,29 +4671,32 @@
         <v>148</v>
       </c>
       <c r="C63" s="21"/>
-      <c r="D63" s="23">
-        <f>SUM(Outputs_Timeline!N3:N204)</f>
-        <v>30500</v>
+      <c r="D63" s="1">
+        <f>SUM(Outputs_Timeline!N:N)</f>
+        <v>127636.84375</v>
       </c>
       <c r="F63" s="3">
+        <f>'MARA Prices'!$F$5</f>
         <v>0.1</v>
       </c>
       <c r="G63" s="3">
+        <f>'MARA Prices'!$F$6</f>
         <v>0.1</v>
       </c>
       <c r="H63" s="3">
         <v>0</v>
       </c>
       <c r="I63" s="3">
+        <f>'MARA Prices'!$F$4</f>
         <v>0.8</v>
       </c>
       <c r="K63" s="12">
         <f>$D$63*F63</f>
-        <v>3050</v>
+        <v>12763.684375000001</v>
       </c>
       <c r="L63" s="12">
         <f>$D$63*G63</f>
-        <v>3050</v>
+        <v>12763.684375000001</v>
       </c>
       <c r="M63" s="12">
         <f>$D$63*H63</f>
@@ -4686,7 +4704,7 @@
       </c>
       <c r="N63" s="12">
         <f>$D$63*I63</f>
-        <v>24400</v>
+        <v>102109.47500000001</v>
       </c>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.35">
@@ -4698,17 +4716,17 @@
       <c r="B65" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D65" s="7">
         <f>SUM(Outputs_Timeline!W:W)</f>
-        <v>508725</v>
+        <v>764802.08125000016</v>
       </c>
       <c r="K65" s="12">
         <f>SUM(Outputs_Timeline!X:X)</f>
-        <v>100957.49774520191</v>
+        <v>136542.26659818253</v>
       </c>
       <c r="L65" s="12">
         <f>SUM(Outputs_Timeline!Y:Y)</f>
-        <v>383367.50225479814</v>
+        <v>526150.33965181734</v>
       </c>
       <c r="M65" s="12">
         <f>SUM(Outputs_Timeline!Z:Z)</f>
@@ -4716,18 +4734,18 @@
       </c>
       <c r="N65" s="12">
         <f>SUM(Outputs_Timeline!AA:AA)</f>
-        <v>24400.000000000004</v>
+        <v>102109.47500000001</v>
       </c>
     </row>
     <row r="66" spans="2:14" x14ac:dyDescent="0.35">
       <c r="D66" s="1"/>
       <c r="K66" s="53">
         <f>IFERROR(K65/$D$65, 0)</f>
-        <v>0.19845200795164758</v>
+        <v>0.17853281253499792</v>
       </c>
       <c r="L66" s="53">
         <f>IFERROR(L65/$D$65, 0)</f>
-        <v>0.75358494718128288</v>
+        <v>0.6879562079536603</v>
       </c>
       <c r="M66" s="53">
         <f>IFERROR(M65/$D$65, 0)</f>
@@ -4735,7 +4753,7 @@
       </c>
       <c r="N66" s="53">
         <f>IFERROR(N65/$D$65, 0)</f>
-        <v>4.7963044867069642E-2</v>
+        <v>0.13351097951134136</v>
       </c>
     </row>
     <row r="68" spans="2:14" x14ac:dyDescent="0.35">
@@ -4854,16 +4872,16 @@
       </c>
       <c r="D72" s="23">
         <f>SUM(Calcs!D64:H64)+SUM(Calcs!D74:H74)</f>
-        <v>77250</v>
+        <v>96390</v>
       </c>
       <c r="E72" s="21"/>
       <c r="F72" s="24">
         <f>IFERROR(SUM(K38,K17:K19,K48,K31:K33)/SUM($K$38:$N$38,$K$17:$M$19,$K$48:$N$48,$K$31:$N$33),0)</f>
-        <v>9.2961165048543695E-2</v>
+        <v>7.9466230936819177E-2</v>
       </c>
       <c r="G72" s="24">
         <f>IFERROR(SUM(L38,L17:L19,L48,L31:L33)/SUM($K$38:$N$38,$K$17:$M$19,$K$48:$N$48,$K$31:$N$33),0)</f>
-        <v>0.90703883495145632</v>
+        <v>0.92053376906318085</v>
       </c>
       <c r="H72" s="24">
         <f>IFERROR(SUM(M38,M17:M19,M48,M31:M33)/SUM($K$38:$N$38,$K$17:$M$19,$K$48:$N$48,$K$31:$N$33),0)</f>
@@ -4876,11 +4894,11 @@
       <c r="J72" s="21"/>
       <c r="K72" s="25">
         <f t="shared" si="51"/>
-        <v>7181.2500000000009</v>
+        <v>7659.75</v>
       </c>
       <c r="L72" s="25">
         <f t="shared" si="51"/>
-        <v>70068.75</v>
+        <v>88730.25</v>
       </c>
       <c r="M72" s="25">
         <f t="shared" si="51"/>
@@ -5078,10 +5096,10 @@
   <dimension ref="B1:AH94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5135,6 +5153,13 @@
       <c r="X1" s="61"/>
       <c r="Y1" s="61"/>
       <c r="Z1" s="61"/>
+      <c r="AD1" s="61" t="s">
+        <v>149</v>
+      </c>
+      <c r="AE1" s="61"/>
+      <c r="AF1" s="107"/>
+      <c r="AG1" s="107"/>
+      <c r="AH1" s="107"/>
     </row>
     <row r="2" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B2" s="59" t="s">
@@ -5167,7 +5192,7 @@
         <v>66</v>
       </c>
       <c r="M2" s="62"/>
-      <c r="N2" s="107" t="s">
+      <c r="N2" s="105" t="s">
         <v>147</v>
       </c>
       <c r="P2" s="62" t="s">
@@ -5287,23 +5312,23 @@
       <c r="X3" s="63"/>
       <c r="Y3" s="63"/>
       <c r="Z3" s="63"/>
-      <c r="AD3" s="105">
+      <c r="AD3" s="63">
         <f>'MARA Prices'!H$21*$G3</f>
         <v>0</v>
       </c>
-      <c r="AE3" s="105">
+      <c r="AE3" s="63">
         <f>'MARA Prices'!I$21*$G3</f>
         <v>0</v>
       </c>
-      <c r="AF3" s="105">
+      <c r="AF3" s="63">
         <f>'MARA Prices'!J$21*$G3</f>
         <v>0</v>
       </c>
-      <c r="AG3" s="105">
+      <c r="AG3" s="63">
         <f>'MARA Prices'!K$21*$G3</f>
         <v>0</v>
       </c>
-      <c r="AH3" s="105">
+      <c r="AH3" s="63">
         <f>'MARA Prices'!L$21*$G3</f>
         <v>0</v>
       </c>
@@ -5373,23 +5398,23 @@
         <f>$F4*Outputs_Internal!N$60/12</f>
         <v>0</v>
       </c>
-      <c r="AD4" s="105">
+      <c r="AD4" s="63">
         <f>'MARA Prices'!H$21*$G4</f>
         <v>0</v>
       </c>
-      <c r="AE4" s="105">
+      <c r="AE4" s="63">
         <f>'MARA Prices'!I$21*$G4</f>
         <v>0</v>
       </c>
-      <c r="AF4" s="105">
+      <c r="AF4" s="63">
         <f>'MARA Prices'!J$21*$G4</f>
         <v>0</v>
       </c>
-      <c r="AG4" s="105">
+      <c r="AG4" s="63">
         <f>'MARA Prices'!K$21*$G4</f>
         <v>0</v>
       </c>
-      <c r="AH4" s="105">
+      <c r="AH4" s="63">
         <f>'MARA Prices'!L$21*$G4</f>
         <v>0</v>
       </c>
@@ -5472,30 +5497,30 @@
         <v>0</v>
       </c>
       <c r="Z5" s="63">
-        <f t="shared" ref="Z5:Z36" si="5">IF(MOD(MONTH($B5),3)=0,SUM(L3:L5,T3:T5),0)</f>
+        <f>IF(MOD(MONTH($B5),3)=0,SUM(L3:L5,T3:T5),0)</f>
         <v>0</v>
       </c>
       <c r="AA5" s="63">
         <f>IF(MOD(MONTH($B5),3)=0,SUM(U3:U5,S3:S5),0)</f>
         <v>0</v>
       </c>
-      <c r="AD5" s="105">
+      <c r="AD5" s="63">
         <f>'MARA Prices'!H$21*$G5</f>
         <v>0</v>
       </c>
-      <c r="AE5" s="105">
+      <c r="AE5" s="63">
         <f>'MARA Prices'!I$21*$G5</f>
         <v>0</v>
       </c>
-      <c r="AF5" s="105">
+      <c r="AF5" s="63">
         <f>'MARA Prices'!J$21*$G5</f>
         <v>0</v>
       </c>
-      <c r="AG5" s="105">
+      <c r="AG5" s="63">
         <f>'MARA Prices'!K$21*$G5</f>
         <v>0</v>
       </c>
-      <c r="AH5" s="105">
+      <c r="AH5" s="63">
         <f>'MARA Prices'!L$21*$G5</f>
         <v>0</v>
       </c>
@@ -5578,30 +5603,30 @@
         <v>0</v>
       </c>
       <c r="Z6" s="63">
-        <f t="shared" si="5"/>
+        <f>IF(MOD(MONTH($B6),3)=0,SUM(L4:L6,T4:T6),0)</f>
         <v>0</v>
       </c>
       <c r="AA6" s="63">
-        <f t="shared" ref="AA6:AA69" si="6">IF(MOD(MONTH($B6),3)=0,SUM(U4:U6,S4:S6),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AD6" s="105">
+        <f>IF(MOD(MONTH($B6),3)=0,SUM(U4:U6,S4:S6),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD6" s="63">
         <f>'MARA Prices'!H$21*$G6</f>
         <v>0</v>
       </c>
-      <c r="AE6" s="105">
+      <c r="AE6" s="63">
         <f>'MARA Prices'!I$21*$G6</f>
         <v>0</v>
       </c>
-      <c r="AF6" s="105">
+      <c r="AF6" s="63">
         <f>'MARA Prices'!J$21*$G6</f>
         <v>0</v>
       </c>
-      <c r="AG6" s="105">
+      <c r="AG6" s="63">
         <f>'MARA Prices'!K$21*$G6</f>
         <v>0</v>
       </c>
-      <c r="AH6" s="105">
+      <c r="AH6" s="63">
         <f>'MARA Prices'!L$21*$G6</f>
         <v>0</v>
       </c>
@@ -5684,30 +5709,30 @@
         <v>0</v>
       </c>
       <c r="Z7" s="63">
-        <f t="shared" si="5"/>
+        <f>IF(MOD(MONTH($B7),3)=0,SUM(L5:L7,T5:T7),0)</f>
         <v>0</v>
       </c>
       <c r="AA7" s="63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD7" s="105">
+        <f>IF(MOD(MONTH($B7),3)=0,SUM(U5:U7,S5:S7),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD7" s="63">
         <f>'MARA Prices'!H$21*$G7</f>
         <v>0</v>
       </c>
-      <c r="AE7" s="105">
+      <c r="AE7" s="63">
         <f>'MARA Prices'!I$21*$G7</f>
         <v>0</v>
       </c>
-      <c r="AF7" s="105">
+      <c r="AF7" s="63">
         <f>'MARA Prices'!J$21*$G7</f>
         <v>0</v>
       </c>
-      <c r="AG7" s="105">
+      <c r="AG7" s="63">
         <f>'MARA Prices'!K$21*$G7</f>
         <v>0</v>
       </c>
-      <c r="AH7" s="105">
+      <c r="AH7" s="63">
         <f>'MARA Prices'!L$21*$G7</f>
         <v>0</v>
       </c>
@@ -5790,30 +5815,30 @@
         <v>0</v>
       </c>
       <c r="Z8" s="63">
-        <f t="shared" si="5"/>
+        <f>IF(MOD(MONTH($B8),3)=0,SUM(L6:L8,T6:T8),0)</f>
         <v>0</v>
       </c>
       <c r="AA8" s="63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD8" s="105">
+        <f>IF(MOD(MONTH($B8),3)=0,SUM(U6:U8,S6:S8),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD8" s="63">
         <f>'MARA Prices'!H$21*$G8</f>
         <v>0</v>
       </c>
-      <c r="AE8" s="105">
+      <c r="AE8" s="63">
         <f>'MARA Prices'!I$21*$G8</f>
         <v>0</v>
       </c>
-      <c r="AF8" s="105">
+      <c r="AF8" s="63">
         <f>'MARA Prices'!J$21*$G8</f>
         <v>0</v>
       </c>
-      <c r="AG8" s="105">
+      <c r="AG8" s="63">
         <f>'MARA Prices'!K$21*$G8</f>
         <v>0</v>
       </c>
-      <c r="AH8" s="105">
+      <c r="AH8" s="63">
         <f>'MARA Prices'!L$21*$G8</f>
         <v>0</v>
       </c>
@@ -5833,23 +5858,23 @@
       </c>
       <c r="F9" s="64">
         <f>IF(AND(B9&gt;=Inputs!$C$1,B9&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E9,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="64">
         <f>IF(AND(B9&gt;=Inputs!$C$1,B9&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B9,"Y")+1, 0),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="63">
         <f>IF($B9=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D9</f>
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="63">
         <f>IF($B9=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D9</f>
-        <v>11000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="63">
         <f>IF($B9=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D9</f>
-        <v>59000</v>
+        <v>0</v>
       </c>
       <c r="L9" s="63">
         <f>IF($B9=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D9</f>
@@ -5857,23 +5882,23 @@
       </c>
       <c r="N9" s="63">
         <f t="shared" si="0"/>
-        <v>833.33333333333337</v>
+        <v>0</v>
       </c>
       <c r="P9" s="63">
         <f>$F9*Outputs_Internal!$D$60/12+N9</f>
-        <v>12172.916666666668</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="63">
         <f>$F9*Outputs_Internal!K$60/12+N9*'MARA Prices'!$F$5</f>
-        <v>2497.4304929222744</v>
+        <v>0</v>
       </c>
       <c r="R9" s="63">
         <f>$F9*Outputs_Internal!L$60/12+N9*'MARA Prices'!$F$6</f>
-        <v>9008.8195070777256</v>
+        <v>0</v>
       </c>
       <c r="S9" s="63">
         <f>N9*'MARA Prices'!$F$4</f>
-        <v>666.66666666666674</v>
+        <v>0</v>
       </c>
       <c r="T9" s="63">
         <f>$F9*Outputs_Internal!M$60/12</f>
@@ -5896,30 +5921,30 @@
         <v>0</v>
       </c>
       <c r="Z9" s="63">
-        <f t="shared" si="5"/>
+        <f>IF(MOD(MONTH($B9),3)=0,SUM(L7:L9,T7:T9),0)</f>
         <v>0</v>
       </c>
       <c r="AA9" s="63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD9" s="105">
+        <f>IF(MOD(MONTH($B9),3)=0,SUM(U7:U9,S7:S9),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="63">
         <f>'MARA Prices'!H$21*$G9</f>
         <v>0</v>
       </c>
-      <c r="AE9" s="105">
+      <c r="AE9" s="63">
         <f>'MARA Prices'!I$21*$G9</f>
-        <v>833.33333333333337</v>
-      </c>
-      <c r="AF9" s="105">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="63">
         <f>'MARA Prices'!J$21*$G9</f>
         <v>0</v>
       </c>
-      <c r="AG9" s="105">
+      <c r="AG9" s="63">
         <f>'MARA Prices'!K$21*$G9</f>
         <v>0</v>
       </c>
-      <c r="AH9" s="105">
+      <c r="AH9" s="63">
         <f>'MARA Prices'!L$21*$G9</f>
         <v>0</v>
       </c>
@@ -5939,11 +5964,11 @@
       </c>
       <c r="F10" s="64">
         <f>IF(AND(B10&gt;=Inputs!$C$1,B10&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E10,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="64">
         <f>IF(AND(B10&gt;=Inputs!$C$1,B10&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B10,"Y")+1, 0),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="63">
         <f>IF($B10=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D10</f>
@@ -5963,23 +5988,23 @@
       </c>
       <c r="N10" s="63">
         <f t="shared" si="0"/>
-        <v>833.33333333333337</v>
+        <v>0</v>
       </c>
       <c r="P10" s="63">
         <f>$F10*Outputs_Internal!$D$60/12+N10</f>
-        <v>12172.916666666668</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="63">
         <f>$F10*Outputs_Internal!K$60/12+N10*'MARA Prices'!$F$5</f>
-        <v>2497.4304929222744</v>
+        <v>0</v>
       </c>
       <c r="R10" s="63">
         <f>$F10*Outputs_Internal!L$60/12+N10*'MARA Prices'!$F$6</f>
-        <v>9008.8195070777256</v>
+        <v>0</v>
       </c>
       <c r="S10" s="63">
         <f>N10*'MARA Prices'!$F$4</f>
-        <v>666.66666666666674</v>
+        <v>0</v>
       </c>
       <c r="T10" s="63">
         <f>$F10*Outputs_Internal!M$60/12</f>
@@ -6002,30 +6027,30 @@
         <v>0</v>
       </c>
       <c r="Z10" s="63">
-        <f t="shared" si="5"/>
+        <f>IF(MOD(MONTH($B10),3)=0,SUM(L8:L10,T8:T10),0)</f>
         <v>0</v>
       </c>
       <c r="AA10" s="63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD10" s="105">
+        <f>IF(MOD(MONTH($B10),3)=0,SUM(U8:U10,S8:S10),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD10" s="63">
         <f>'MARA Prices'!H$21*$G10</f>
         <v>0</v>
       </c>
-      <c r="AE10" s="105">
+      <c r="AE10" s="63">
         <f>'MARA Prices'!I$21*$G10</f>
-        <v>833.33333333333337</v>
-      </c>
-      <c r="AF10" s="105">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="63">
         <f>'MARA Prices'!J$21*$G10</f>
         <v>0</v>
       </c>
-      <c r="AG10" s="105">
+      <c r="AG10" s="63">
         <f>'MARA Prices'!K$21*$G10</f>
         <v>0</v>
       </c>
-      <c r="AH10" s="105">
+      <c r="AH10" s="63">
         <f>'MARA Prices'!L$21*$G10</f>
         <v>0</v>
       </c>
@@ -6045,11 +6070,11 @@
       </c>
       <c r="F11" s="64">
         <f>IF(AND(B11&gt;=Inputs!$C$1,B11&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E11,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="64">
         <f>IF(AND(B11&gt;=Inputs!$C$1,B11&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B11,"Y")+1, 0),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="63">
         <f>IF($B11=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D11</f>
@@ -6069,23 +6094,23 @@
       </c>
       <c r="N11" s="63">
         <f t="shared" si="0"/>
-        <v>833.33333333333337</v>
+        <v>0</v>
       </c>
       <c r="P11" s="63">
         <f>$F11*Outputs_Internal!$D$60/12+N11</f>
-        <v>12172.916666666668</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="63">
         <f>$F11*Outputs_Internal!K$60/12+N11*'MARA Prices'!$F$5</f>
-        <v>2497.4304929222744</v>
+        <v>0</v>
       </c>
       <c r="R11" s="63">
         <f>$F11*Outputs_Internal!L$60/12+N11*'MARA Prices'!$F$6</f>
-        <v>9008.8195070777256</v>
+        <v>0</v>
       </c>
       <c r="S11" s="63">
         <f>N11*'MARA Prices'!$F$4</f>
-        <v>666.66666666666674</v>
+        <v>0</v>
       </c>
       <c r="T11" s="63">
         <f>$F11*Outputs_Internal!M$60/12</f>
@@ -6097,41 +6122,41 @@
       </c>
       <c r="W11" s="63">
         <f t="shared" si="2"/>
-        <v>106518.75000000001</v>
+        <v>0</v>
       </c>
       <c r="X11" s="63">
         <f t="shared" si="3"/>
-        <v>18492.291478766823</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="63">
         <f t="shared" si="4"/>
-        <v>86026.458521233188</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="63">
-        <f t="shared" si="5"/>
+        <f>IF(MOD(MONTH($B11),3)=0,SUM(L9:L11,T9:T11),0)</f>
         <v>0</v>
       </c>
       <c r="AA11" s="63">
-        <f t="shared" si="6"/>
-        <v>2000.0000000000002</v>
-      </c>
-      <c r="AD11" s="105">
+        <f>IF(MOD(MONTH($B11),3)=0,SUM(U9:U11,S9:S11),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD11" s="63">
         <f>'MARA Prices'!H$21*$G11</f>
         <v>0</v>
       </c>
-      <c r="AE11" s="105">
+      <c r="AE11" s="63">
         <f>'MARA Prices'!I$21*$G11</f>
-        <v>833.33333333333337</v>
-      </c>
-      <c r="AF11" s="105">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="63">
         <f>'MARA Prices'!J$21*$G11</f>
         <v>0</v>
       </c>
-      <c r="AG11" s="105">
+      <c r="AG11" s="63">
         <f>'MARA Prices'!K$21*$G11</f>
         <v>0</v>
       </c>
-      <c r="AH11" s="105">
+      <c r="AH11" s="63">
         <f>'MARA Prices'!L$21*$G11</f>
         <v>0</v>
       </c>
@@ -6151,11 +6176,11 @@
       </c>
       <c r="F12" s="64">
         <f>IF(AND(B12&gt;=Inputs!$C$1,B12&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E12,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="64">
         <f>IF(AND(B12&gt;=Inputs!$C$1,B12&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B12,"Y")+1, 0),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="63">
         <f>IF($B12=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D12</f>
@@ -6175,23 +6200,23 @@
       </c>
       <c r="N12" s="63">
         <f t="shared" si="0"/>
-        <v>833.33333333333337</v>
+        <v>0</v>
       </c>
       <c r="P12" s="63">
         <f>$F12*Outputs_Internal!$D$60/12+N12</f>
-        <v>12172.916666666668</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="63">
         <f>$F12*Outputs_Internal!K$60/12+N12*'MARA Prices'!$F$5</f>
-        <v>2497.4304929222744</v>
+        <v>0</v>
       </c>
       <c r="R12" s="63">
         <f>$F12*Outputs_Internal!L$60/12+N12*'MARA Prices'!$F$6</f>
-        <v>9008.8195070777256</v>
+        <v>0</v>
       </c>
       <c r="S12" s="63">
         <f>N12*'MARA Prices'!$F$4</f>
-        <v>666.66666666666674</v>
+        <v>0</v>
       </c>
       <c r="T12" s="63">
         <f>$F12*Outputs_Internal!M$60/12</f>
@@ -6214,30 +6239,30 @@
         <v>0</v>
       </c>
       <c r="Z12" s="63">
-        <f t="shared" si="5"/>
+        <f>IF(MOD(MONTH($B12),3)=0,SUM(L10:L12,T10:T12),0)</f>
         <v>0</v>
       </c>
       <c r="AA12" s="63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD12" s="105">
+        <f>IF(MOD(MONTH($B12),3)=0,SUM(U10:U12,S10:S12),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD12" s="63">
         <f>'MARA Prices'!H$21*$G12</f>
         <v>0</v>
       </c>
-      <c r="AE12" s="105">
+      <c r="AE12" s="63">
         <f>'MARA Prices'!I$21*$G12</f>
-        <v>833.33333333333337</v>
-      </c>
-      <c r="AF12" s="105">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="63">
         <f>'MARA Prices'!J$21*$G12</f>
         <v>0</v>
       </c>
-      <c r="AG12" s="105">
+      <c r="AG12" s="63">
         <f>'MARA Prices'!K$21*$G12</f>
         <v>0</v>
       </c>
-      <c r="AH12" s="105">
+      <c r="AH12" s="63">
         <f>'MARA Prices'!L$21*$G12</f>
         <v>0</v>
       </c>
@@ -6257,11 +6282,11 @@
       </c>
       <c r="F13" s="64">
         <f>IF(AND(B13&gt;=Inputs!$C$1,B13&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E13,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="64">
         <f>IF(AND(B13&gt;=Inputs!$C$1,B13&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B13,"Y")+1, 0),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="63">
         <f>IF($B13=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D13</f>
@@ -6281,23 +6306,23 @@
       </c>
       <c r="N13" s="63">
         <f t="shared" si="0"/>
-        <v>833.33333333333337</v>
+        <v>0</v>
       </c>
       <c r="P13" s="63">
         <f>$F13*Outputs_Internal!$D$60/12+N13</f>
-        <v>12172.916666666668</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="63">
         <f>$F13*Outputs_Internal!K$60/12+N13*'MARA Prices'!$F$5</f>
-        <v>2497.4304929222744</v>
+        <v>0</v>
       </c>
       <c r="R13" s="63">
         <f>$F13*Outputs_Internal!L$60/12+N13*'MARA Prices'!$F$6</f>
-        <v>9008.8195070777256</v>
+        <v>0</v>
       </c>
       <c r="S13" s="63">
         <f>N13*'MARA Prices'!$F$4</f>
-        <v>666.66666666666674</v>
+        <v>0</v>
       </c>
       <c r="T13" s="63">
         <f>$F13*Outputs_Internal!M$60/12</f>
@@ -6320,30 +6345,30 @@
         <v>0</v>
       </c>
       <c r="Z13" s="63">
-        <f t="shared" si="5"/>
+        <f>IF(MOD(MONTH($B13),3)=0,SUM(L11:L13,T11:T13),0)</f>
         <v>0</v>
       </c>
       <c r="AA13" s="63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD13" s="105">
+        <f>IF(MOD(MONTH($B13),3)=0,SUM(U11:U13,S11:S13),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD13" s="63">
         <f>'MARA Prices'!H$21*$G13</f>
         <v>0</v>
       </c>
-      <c r="AE13" s="105">
+      <c r="AE13" s="63">
         <f>'MARA Prices'!I$21*$G13</f>
-        <v>833.33333333333337</v>
-      </c>
-      <c r="AF13" s="105">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="63">
         <f>'MARA Prices'!J$21*$G13</f>
         <v>0</v>
       </c>
-      <c r="AG13" s="105">
+      <c r="AG13" s="63">
         <f>'MARA Prices'!K$21*$G13</f>
         <v>0</v>
       </c>
-      <c r="AH13" s="105">
+      <c r="AH13" s="63">
         <f>'MARA Prices'!L$21*$G13</f>
         <v>0</v>
       </c>
@@ -6363,11 +6388,11 @@
       </c>
       <c r="F14" s="64">
         <f>IF(AND(B14&gt;=Inputs!$C$1,B14&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E14,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="64">
         <f>IF(AND(B14&gt;=Inputs!$C$1,B14&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B14,"Y")+1, 0),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="63">
         <f>IF($B14=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D14</f>
@@ -6387,23 +6412,23 @@
       </c>
       <c r="N14" s="63">
         <f t="shared" si="0"/>
-        <v>833.33333333333337</v>
+        <v>0</v>
       </c>
       <c r="P14" s="63">
         <f>$F14*Outputs_Internal!$D$60/12+N14</f>
-        <v>12172.916666666668</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="63">
         <f>$F14*Outputs_Internal!K$60/12+N14*'MARA Prices'!$F$5</f>
-        <v>2497.4304929222744</v>
+        <v>0</v>
       </c>
       <c r="R14" s="63">
         <f>$F14*Outputs_Internal!L$60/12+N14*'MARA Prices'!$F$6</f>
-        <v>9008.8195070777256</v>
+        <v>0</v>
       </c>
       <c r="S14" s="63">
         <f>N14*'MARA Prices'!$F$4</f>
-        <v>666.66666666666674</v>
+        <v>0</v>
       </c>
       <c r="T14" s="63">
         <f>$F14*Outputs_Internal!M$60/12</f>
@@ -6415,41 +6440,41 @@
       </c>
       <c r="W14" s="63">
         <f t="shared" si="2"/>
-        <v>36518.75</v>
+        <v>0</v>
       </c>
       <c r="X14" s="63">
         <f t="shared" si="3"/>
-        <v>7492.2914787668233</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="63">
         <f t="shared" si="4"/>
-        <v>27026.458521233177</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="63">
-        <f t="shared" si="5"/>
+        <f>IF(MOD(MONTH($B14),3)=0,SUM(L12:L14,T12:T14),0)</f>
         <v>0</v>
       </c>
       <c r="AA14" s="63">
-        <f t="shared" si="6"/>
-        <v>2000.0000000000002</v>
-      </c>
-      <c r="AD14" s="105">
+        <f>IF(MOD(MONTH($B14),3)=0,SUM(U12:U14,S12:S14),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD14" s="63">
         <f>'MARA Prices'!H$21*$G14</f>
         <v>0</v>
       </c>
-      <c r="AE14" s="105">
+      <c r="AE14" s="63">
         <f>'MARA Prices'!I$21*$G14</f>
-        <v>833.33333333333337</v>
-      </c>
-      <c r="AF14" s="105">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="63">
         <f>'MARA Prices'!J$21*$G14</f>
         <v>0</v>
       </c>
-      <c r="AG14" s="105">
+      <c r="AG14" s="63">
         <f>'MARA Prices'!K$21*$G14</f>
         <v>0</v>
       </c>
-      <c r="AH14" s="105">
+      <c r="AH14" s="63">
         <f>'MARA Prices'!L$21*$G14</f>
         <v>0</v>
       </c>
@@ -6469,11 +6494,11 @@
       </c>
       <c r="F15" s="64">
         <f>IF(AND(B15&gt;=Inputs!$C$1,B15&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E15,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="64">
         <f>IF(AND(B15&gt;=Inputs!$C$1,B15&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B15,"Y")+1, 0),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="63">
         <f>IF($B15=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D15</f>
@@ -6493,23 +6518,23 @@
       </c>
       <c r="N15" s="63">
         <f t="shared" si="0"/>
-        <v>833.33333333333337</v>
+        <v>0</v>
       </c>
       <c r="P15" s="63">
         <f>$F15*Outputs_Internal!$D$60/12+N15</f>
-        <v>12172.916666666668</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="63">
         <f>$F15*Outputs_Internal!K$60/12+N15*'MARA Prices'!$F$5</f>
-        <v>2497.4304929222744</v>
+        <v>0</v>
       </c>
       <c r="R15" s="63">
         <f>$F15*Outputs_Internal!L$60/12+N15*'MARA Prices'!$F$6</f>
-        <v>9008.8195070777256</v>
+        <v>0</v>
       </c>
       <c r="S15" s="63">
         <f>N15*'MARA Prices'!$F$4</f>
-        <v>666.66666666666674</v>
+        <v>0</v>
       </c>
       <c r="T15" s="63">
         <f>$F15*Outputs_Internal!M$60/12</f>
@@ -6532,30 +6557,30 @@
         <v>0</v>
       </c>
       <c r="Z15" s="63">
-        <f t="shared" si="5"/>
+        <f>IF(MOD(MONTH($B15),3)=0,SUM(L13:L15,T13:T15),0)</f>
         <v>0</v>
       </c>
       <c r="AA15" s="63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD15" s="105">
+        <f>IF(MOD(MONTH($B15),3)=0,SUM(U13:U15,S13:S15),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="63">
         <f>'MARA Prices'!H$21*$G15</f>
         <v>0</v>
       </c>
-      <c r="AE15" s="105">
+      <c r="AE15" s="63">
         <f>'MARA Prices'!I$21*$G15</f>
-        <v>833.33333333333337</v>
-      </c>
-      <c r="AF15" s="105">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="63">
         <f>'MARA Prices'!J$21*$G15</f>
         <v>0</v>
       </c>
-      <c r="AG15" s="105">
+      <c r="AG15" s="63">
         <f>'MARA Prices'!K$21*$G15</f>
         <v>0</v>
       </c>
-      <c r="AH15" s="105">
+      <c r="AH15" s="63">
         <f>'MARA Prices'!L$21*$G15</f>
         <v>0</v>
       </c>
@@ -6575,11 +6600,11 @@
       </c>
       <c r="F16" s="64">
         <f>IF(AND(B16&gt;=Inputs!$C$1,B16&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E16,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="64">
         <f>IF(AND(B16&gt;=Inputs!$C$1,B16&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B16,"Y")+1, 0),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="63">
         <f>IF($B16=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D16</f>
@@ -6599,23 +6624,23 @@
       </c>
       <c r="N16" s="63">
         <f t="shared" si="0"/>
-        <v>833.33333333333337</v>
+        <v>0</v>
       </c>
       <c r="P16" s="63">
         <f>$F16*Outputs_Internal!$D$60/12+N16</f>
-        <v>12172.916666666668</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="63">
         <f>$F16*Outputs_Internal!K$60/12+N16*'MARA Prices'!$F$5</f>
-        <v>2497.4304929222744</v>
+        <v>0</v>
       </c>
       <c r="R16" s="63">
         <f>$F16*Outputs_Internal!L$60/12+N16*'MARA Prices'!$F$6</f>
-        <v>9008.8195070777256</v>
+        <v>0</v>
       </c>
       <c r="S16" s="63">
         <f>N16*'MARA Prices'!$F$4</f>
-        <v>666.66666666666674</v>
+        <v>0</v>
       </c>
       <c r="T16" s="63">
         <f>$F16*Outputs_Internal!M$60/12</f>
@@ -6638,30 +6663,30 @@
         <v>0</v>
       </c>
       <c r="Z16" s="63">
-        <f t="shared" si="5"/>
+        <f>IF(MOD(MONTH($B16),3)=0,SUM(L14:L16,T14:T16),0)</f>
         <v>0</v>
       </c>
       <c r="AA16" s="63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD16" s="105">
+        <f>IF(MOD(MONTH($B16),3)=0,SUM(U14:U16,S14:S16),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD16" s="63">
         <f>'MARA Prices'!H$21*$G16</f>
         <v>0</v>
       </c>
-      <c r="AE16" s="105">
+      <c r="AE16" s="63">
         <f>'MARA Prices'!I$21*$G16</f>
-        <v>833.33333333333337</v>
-      </c>
-      <c r="AF16" s="105">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="63">
         <f>'MARA Prices'!J$21*$G16</f>
         <v>0</v>
       </c>
-      <c r="AG16" s="105">
+      <c r="AG16" s="63">
         <f>'MARA Prices'!K$21*$G16</f>
         <v>0</v>
       </c>
-      <c r="AH16" s="105">
+      <c r="AH16" s="63">
         <f>'MARA Prices'!L$21*$G16</f>
         <v>0</v>
       </c>
@@ -6681,11 +6706,11 @@
       </c>
       <c r="F17" s="64">
         <f>IF(AND(B17&gt;=Inputs!$C$1,B17&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E17,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" s="64">
         <f>IF(AND(B17&gt;=Inputs!$C$1,B17&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B17,"Y")+1, 0),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="63">
         <f>IF($B17=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D17</f>
@@ -6705,23 +6730,23 @@
       </c>
       <c r="N17" s="63">
         <f t="shared" si="0"/>
-        <v>833.33333333333337</v>
+        <v>0</v>
       </c>
       <c r="P17" s="63">
         <f>$F17*Outputs_Internal!$D$60/12+N17</f>
-        <v>12172.916666666668</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="63">
         <f>$F17*Outputs_Internal!K$60/12+N17*'MARA Prices'!$F$5</f>
-        <v>2497.4304929222744</v>
+        <v>0</v>
       </c>
       <c r="R17" s="63">
         <f>$F17*Outputs_Internal!L$60/12+N17*'MARA Prices'!$F$6</f>
-        <v>9008.8195070777256</v>
+        <v>0</v>
       </c>
       <c r="S17" s="63">
         <f>N17*'MARA Prices'!$F$4</f>
-        <v>666.66666666666674</v>
+        <v>0</v>
       </c>
       <c r="T17" s="63">
         <f>$F17*Outputs_Internal!M$60/12</f>
@@ -6733,41 +6758,41 @@
       </c>
       <c r="W17" s="63">
         <f t="shared" si="2"/>
-        <v>36518.75</v>
+        <v>0</v>
       </c>
       <c r="X17" s="63">
         <f t="shared" si="3"/>
-        <v>7492.2914787668233</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="63">
         <f t="shared" si="4"/>
-        <v>27026.458521233177</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="63">
-        <f t="shared" si="5"/>
+        <f>IF(MOD(MONTH($B17),3)=0,SUM(L15:L17,T15:T17),0)</f>
         <v>0</v>
       </c>
       <c r="AA17" s="63">
-        <f t="shared" si="6"/>
-        <v>2000.0000000000002</v>
-      </c>
-      <c r="AD17" s="105">
+        <f>IF(MOD(MONTH($B17),3)=0,SUM(U15:U17,S15:S17),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD17" s="63">
         <f>'MARA Prices'!H$21*$G17</f>
         <v>0</v>
       </c>
-      <c r="AE17" s="105">
+      <c r="AE17" s="63">
         <f>'MARA Prices'!I$21*$G17</f>
-        <v>833.33333333333337</v>
-      </c>
-      <c r="AF17" s="105">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="63">
         <f>'MARA Prices'!J$21*$G17</f>
         <v>0</v>
       </c>
-      <c r="AG17" s="105">
+      <c r="AG17" s="63">
         <f>'MARA Prices'!K$21*$G17</f>
         <v>0</v>
       </c>
-      <c r="AH17" s="105">
+      <c r="AH17" s="63">
         <f>'MARA Prices'!L$21*$G17</f>
         <v>0</v>
       </c>
@@ -6787,11 +6812,11 @@
       </c>
       <c r="F18" s="64">
         <f>IF(AND(B18&gt;=Inputs!$C$1,B18&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E18,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" s="64">
         <f>IF(AND(B18&gt;=Inputs!$C$1,B18&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B18,"Y")+1, 0),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" s="63">
         <f>IF($B18=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D18</f>
@@ -6811,23 +6836,23 @@
       </c>
       <c r="N18" s="63">
         <f t="shared" si="0"/>
-        <v>833.33333333333337</v>
+        <v>0</v>
       </c>
       <c r="P18" s="63">
         <f>$F18*Outputs_Internal!$D$60/12+N18</f>
-        <v>12172.916666666668</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="63">
         <f>$F18*Outputs_Internal!K$60/12+N18*'MARA Prices'!$F$5</f>
-        <v>2497.4304929222744</v>
+        <v>0</v>
       </c>
       <c r="R18" s="63">
         <f>$F18*Outputs_Internal!L$60/12+N18*'MARA Prices'!$F$6</f>
-        <v>9008.8195070777256</v>
+        <v>0</v>
       </c>
       <c r="S18" s="63">
         <f>N18*'MARA Prices'!$F$4</f>
-        <v>666.66666666666674</v>
+        <v>0</v>
       </c>
       <c r="T18" s="63">
         <f>$F18*Outputs_Internal!M$60/12</f>
@@ -6850,30 +6875,30 @@
         <v>0</v>
       </c>
       <c r="Z18" s="63">
-        <f t="shared" si="5"/>
+        <f>IF(MOD(MONTH($B18),3)=0,SUM(L16:L18,T16:T18),0)</f>
         <v>0</v>
       </c>
       <c r="AA18" s="63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD18" s="105">
+        <f>IF(MOD(MONTH($B18),3)=0,SUM(U16:U18,S16:S18),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD18" s="63">
         <f>'MARA Prices'!H$21*$G18</f>
         <v>0</v>
       </c>
-      <c r="AE18" s="105">
+      <c r="AE18" s="63">
         <f>'MARA Prices'!I$21*$G18</f>
-        <v>833.33333333333337</v>
-      </c>
-      <c r="AF18" s="105">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="63">
         <f>'MARA Prices'!J$21*$G18</f>
         <v>0</v>
       </c>
-      <c r="AG18" s="105">
+      <c r="AG18" s="63">
         <f>'MARA Prices'!K$21*$G18</f>
         <v>0</v>
       </c>
-      <c r="AH18" s="105">
+      <c r="AH18" s="63">
         <f>'MARA Prices'!L$21*$G18</f>
         <v>0</v>
       </c>
@@ -6893,11 +6918,11 @@
       </c>
       <c r="F19" s="64">
         <f>IF(AND(B19&gt;=Inputs!$C$1,B19&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E19,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" s="64">
         <f>IF(AND(B19&gt;=Inputs!$C$1,B19&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B19,"Y")+1, 0),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" s="63">
         <f>IF($B19=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D19</f>
@@ -6917,23 +6942,23 @@
       </c>
       <c r="N19" s="63">
         <f t="shared" si="0"/>
-        <v>833.33333333333337</v>
+        <v>0</v>
       </c>
       <c r="P19" s="63">
         <f>$F19*Outputs_Internal!$D$60/12+N19</f>
-        <v>12172.916666666668</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="63">
         <f>$F19*Outputs_Internal!K$60/12+N19*'MARA Prices'!$F$5</f>
-        <v>2497.4304929222744</v>
+        <v>0</v>
       </c>
       <c r="R19" s="63">
         <f>$F19*Outputs_Internal!L$60/12+N19*'MARA Prices'!$F$6</f>
-        <v>9008.8195070777256</v>
+        <v>0</v>
       </c>
       <c r="S19" s="63">
         <f>N19*'MARA Prices'!$F$4</f>
-        <v>666.66666666666674</v>
+        <v>0</v>
       </c>
       <c r="T19" s="63">
         <f>$F19*Outputs_Internal!M$60/12</f>
@@ -6956,30 +6981,30 @@
         <v>0</v>
       </c>
       <c r="Z19" s="63">
-        <f t="shared" si="5"/>
+        <f>IF(MOD(MONTH($B19),3)=0,SUM(L17:L19,T17:T19),0)</f>
         <v>0</v>
       </c>
       <c r="AA19" s="63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD19" s="105">
+        <f>IF(MOD(MONTH($B19),3)=0,SUM(U17:U19,S17:S19),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD19" s="63">
         <f>'MARA Prices'!H$21*$G19</f>
         <v>0</v>
       </c>
-      <c r="AE19" s="105">
+      <c r="AE19" s="63">
         <f>'MARA Prices'!I$21*$G19</f>
-        <v>833.33333333333337</v>
-      </c>
-      <c r="AF19" s="105">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="63">
         <f>'MARA Prices'!J$21*$G19</f>
         <v>0</v>
       </c>
-      <c r="AG19" s="105">
+      <c r="AG19" s="63">
         <f>'MARA Prices'!K$21*$G19</f>
         <v>0</v>
       </c>
-      <c r="AH19" s="105">
+      <c r="AH19" s="63">
         <f>'MARA Prices'!L$21*$G19</f>
         <v>0</v>
       </c>
@@ -6999,11 +7024,11 @@
       </c>
       <c r="F20" s="64">
         <f>IF(AND(B20&gt;=Inputs!$C$1,B20&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E20,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" s="64">
         <f>IF(AND(B20&gt;=Inputs!$C$1,B20&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B20,"Y")+1, 0),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="63">
         <f>IF($B20=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D20</f>
@@ -7023,23 +7048,23 @@
       </c>
       <c r="N20" s="63">
         <f t="shared" si="0"/>
-        <v>833.33333333333337</v>
+        <v>0</v>
       </c>
       <c r="P20" s="63">
         <f>$F20*Outputs_Internal!$D$60/12+N20</f>
-        <v>12172.916666666668</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="63">
         <f>$F20*Outputs_Internal!K$60/12+N20*'MARA Prices'!$F$5</f>
-        <v>2497.4304929222744</v>
+        <v>0</v>
       </c>
       <c r="R20" s="63">
         <f>$F20*Outputs_Internal!L$60/12+N20*'MARA Prices'!$F$6</f>
-        <v>9008.8195070777256</v>
+        <v>0</v>
       </c>
       <c r="S20" s="63">
         <f>N20*'MARA Prices'!$F$4</f>
-        <v>666.66666666666674</v>
+        <v>0</v>
       </c>
       <c r="T20" s="63">
         <f>$F20*Outputs_Internal!M$60/12</f>
@@ -7051,41 +7076,41 @@
       </c>
       <c r="W20" s="63">
         <f t="shared" si="2"/>
-        <v>36518.75</v>
+        <v>0</v>
       </c>
       <c r="X20" s="63">
         <f t="shared" si="3"/>
-        <v>7492.2914787668233</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="63">
         <f t="shared" si="4"/>
-        <v>27026.458521233177</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="63">
-        <f t="shared" si="5"/>
+        <f>IF(MOD(MONTH($B20),3)=0,SUM(L18:L20,T18:T20),0)</f>
         <v>0</v>
       </c>
       <c r="AA20" s="63">
-        <f t="shared" si="6"/>
-        <v>2000.0000000000002</v>
-      </c>
-      <c r="AD20" s="105">
+        <f>IF(MOD(MONTH($B20),3)=0,SUM(U18:U20,S18:S20),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD20" s="63">
         <f>'MARA Prices'!H$21*$G20</f>
         <v>0</v>
       </c>
-      <c r="AE20" s="105">
+      <c r="AE20" s="63">
         <f>'MARA Prices'!I$21*$G20</f>
-        <v>833.33333333333337</v>
-      </c>
-      <c r="AF20" s="105">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="63">
         <f>'MARA Prices'!J$21*$G20</f>
         <v>0</v>
       </c>
-      <c r="AG20" s="105">
+      <c r="AG20" s="63">
         <f>'MARA Prices'!K$21*$G20</f>
         <v>0</v>
       </c>
-      <c r="AH20" s="105">
+      <c r="AH20" s="63">
         <f>'MARA Prices'!L$21*$G20</f>
         <v>0</v>
       </c>
@@ -7105,11 +7130,11 @@
       </c>
       <c r="F21" s="64">
         <f>IF(AND(B21&gt;=Inputs!$C$1,B21&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E21,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" s="64">
         <f>IF(AND(B21&gt;=Inputs!$C$1,B21&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B21,"Y")+1, 0),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" s="63">
         <f>IF($B21=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D21</f>
@@ -7129,23 +7154,23 @@
       </c>
       <c r="N21" s="63">
         <f t="shared" si="0"/>
-        <v>833.33333333333337</v>
+        <v>0</v>
       </c>
       <c r="P21" s="63">
         <f>$F21*Outputs_Internal!$D$60/12+N21</f>
-        <v>12172.916666666668</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="63">
         <f>$F21*Outputs_Internal!K$60/12+N21*'MARA Prices'!$F$5</f>
-        <v>2497.4304929222744</v>
+        <v>0</v>
       </c>
       <c r="R21" s="63">
         <f>$F21*Outputs_Internal!L$60/12+N21*'MARA Prices'!$F$6</f>
-        <v>9008.8195070777256</v>
+        <v>0</v>
       </c>
       <c r="S21" s="63">
         <f>N21*'MARA Prices'!$F$4</f>
-        <v>666.66666666666674</v>
+        <v>0</v>
       </c>
       <c r="T21" s="63">
         <f>$F21*Outputs_Internal!M$60/12</f>
@@ -7168,30 +7193,30 @@
         <v>0</v>
       </c>
       <c r="Z21" s="63">
-        <f t="shared" si="5"/>
+        <f>IF(MOD(MONTH($B21),3)=0,SUM(L19:L21,T19:T21),0)</f>
         <v>0</v>
       </c>
       <c r="AA21" s="63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD21" s="105">
+        <f>IF(MOD(MONTH($B21),3)=0,SUM(U19:U21,S19:S21),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD21" s="63">
         <f>'MARA Prices'!H$21*$G21</f>
         <v>0</v>
       </c>
-      <c r="AE21" s="105">
+      <c r="AE21" s="63">
         <f>'MARA Prices'!I$21*$G21</f>
-        <v>833.33333333333337</v>
-      </c>
-      <c r="AF21" s="105">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="63">
         <f>'MARA Prices'!J$21*$G21</f>
         <v>0</v>
       </c>
-      <c r="AG21" s="105">
+      <c r="AG21" s="63">
         <f>'MARA Prices'!K$21*$G21</f>
         <v>0</v>
       </c>
-      <c r="AH21" s="105">
+      <c r="AH21" s="63">
         <f>'MARA Prices'!L$21*$G21</f>
         <v>0</v>
       </c>
@@ -7211,11 +7236,11 @@
       </c>
       <c r="F22" s="64">
         <f>IF(AND(B22&gt;=Inputs!$C$1,B22&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E22,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" s="64">
         <f>IF(AND(B22&gt;=Inputs!$C$1,B22&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B22,"Y")+1, 0),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" s="63">
         <f>IF($B22=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D22</f>
@@ -7235,23 +7260,23 @@
       </c>
       <c r="N22" s="63">
         <f t="shared" si="0"/>
-        <v>833.33333333333337</v>
+        <v>0</v>
       </c>
       <c r="P22" s="63">
         <f>$F22*Outputs_Internal!$D$60/12+N22</f>
-        <v>12172.916666666668</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="63">
         <f>$F22*Outputs_Internal!K$60/12+N22*'MARA Prices'!$F$5</f>
-        <v>2497.4304929222744</v>
+        <v>0</v>
       </c>
       <c r="R22" s="63">
         <f>$F22*Outputs_Internal!L$60/12+N22*'MARA Prices'!$F$6</f>
-        <v>9008.8195070777256</v>
+        <v>0</v>
       </c>
       <c r="S22" s="63">
         <f>N22*'MARA Prices'!$F$4</f>
-        <v>666.66666666666674</v>
+        <v>0</v>
       </c>
       <c r="T22" s="63">
         <f>$F22*Outputs_Internal!M$60/12</f>
@@ -7274,30 +7299,30 @@
         <v>0</v>
       </c>
       <c r="Z22" s="63">
-        <f t="shared" si="5"/>
+        <f>IF(MOD(MONTH($B22),3)=0,SUM(L20:L22,T20:T22),0)</f>
         <v>0</v>
       </c>
       <c r="AA22" s="63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD22" s="105">
+        <f>IF(MOD(MONTH($B22),3)=0,SUM(U20:U22,S20:S22),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD22" s="63">
         <f>'MARA Prices'!H$21*$G22</f>
         <v>0</v>
       </c>
-      <c r="AE22" s="105">
+      <c r="AE22" s="63">
         <f>'MARA Prices'!I$21*$G22</f>
-        <v>833.33333333333337</v>
-      </c>
-      <c r="AF22" s="105">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="63">
         <f>'MARA Prices'!J$21*$G22</f>
         <v>0</v>
       </c>
-      <c r="AG22" s="105">
+      <c r="AG22" s="63">
         <f>'MARA Prices'!K$21*$G22</f>
         <v>0</v>
       </c>
-      <c r="AH22" s="105">
+      <c r="AH22" s="63">
         <f>'MARA Prices'!L$21*$G22</f>
         <v>0</v>
       </c>
@@ -7317,11 +7342,11 @@
       </c>
       <c r="F23" s="64">
         <f>IF(AND(B23&gt;=Inputs!$C$1,B23&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E23,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" s="64">
         <f>IF(AND(B23&gt;=Inputs!$C$1,B23&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B23,"Y")+1, 0),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" s="63">
         <f>IF($B23=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D23</f>
@@ -7341,23 +7366,23 @@
       </c>
       <c r="N23" s="63">
         <f t="shared" si="0"/>
-        <v>833.33333333333337</v>
+        <v>0</v>
       </c>
       <c r="P23" s="63">
         <f>$F23*Outputs_Internal!$D$60/12+N23</f>
-        <v>12172.916666666668</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="63">
         <f>$F23*Outputs_Internal!K$60/12+N23*'MARA Prices'!$F$5</f>
-        <v>2497.4304929222744</v>
+        <v>0</v>
       </c>
       <c r="R23" s="63">
         <f>$F23*Outputs_Internal!L$60/12+N23*'MARA Prices'!$F$6</f>
-        <v>9008.8195070777256</v>
+        <v>0</v>
       </c>
       <c r="S23" s="63">
         <f>N23*'MARA Prices'!$F$4</f>
-        <v>666.66666666666674</v>
+        <v>0</v>
       </c>
       <c r="T23" s="63">
         <f>$F23*Outputs_Internal!M$60/12</f>
@@ -7369,41 +7394,41 @@
       </c>
       <c r="W23" s="63">
         <f t="shared" si="2"/>
-        <v>36518.75</v>
+        <v>0</v>
       </c>
       <c r="X23" s="63">
         <f t="shared" si="3"/>
-        <v>7492.2914787668233</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="63">
         <f t="shared" si="4"/>
-        <v>27026.458521233177</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="63">
-        <f t="shared" si="5"/>
+        <f>IF(MOD(MONTH($B23),3)=0,SUM(L21:L23,T21:T23),0)</f>
         <v>0</v>
       </c>
       <c r="AA23" s="63">
-        <f t="shared" si="6"/>
-        <v>2000.0000000000002</v>
-      </c>
-      <c r="AD23" s="105">
+        <f>IF(MOD(MONTH($B23),3)=0,SUM(U21:U23,S21:S23),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD23" s="63">
         <f>'MARA Prices'!H$21*$G23</f>
         <v>0</v>
       </c>
-      <c r="AE23" s="105">
+      <c r="AE23" s="63">
         <f>'MARA Prices'!I$21*$G23</f>
-        <v>833.33333333333337</v>
-      </c>
-      <c r="AF23" s="105">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="63">
         <f>'MARA Prices'!J$21*$G23</f>
         <v>0</v>
       </c>
-      <c r="AG23" s="105">
+      <c r="AG23" s="63">
         <f>'MARA Prices'!K$21*$G23</f>
         <v>0</v>
       </c>
-      <c r="AH23" s="105">
+      <c r="AH23" s="63">
         <f>'MARA Prices'!L$21*$G23</f>
         <v>0</v>
       </c>
@@ -7423,11 +7448,11 @@
       </c>
       <c r="F24" s="64">
         <f>IF(AND(B24&gt;=Inputs!$C$1,B24&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E24,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" s="64">
         <f>IF(AND(B24&gt;=Inputs!$C$1,B24&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B24,"Y")+1, 0),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" s="63">
         <f>IF($B24=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D24</f>
@@ -7447,23 +7472,23 @@
       </c>
       <c r="N24" s="63">
         <f t="shared" si="0"/>
-        <v>833.33333333333337</v>
+        <v>0</v>
       </c>
       <c r="P24" s="63">
         <f>$F24*Outputs_Internal!$D$60/12+N24</f>
-        <v>12172.916666666668</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="63">
         <f>$F24*Outputs_Internal!K$60/12+N24*'MARA Prices'!$F$5</f>
-        <v>2497.4304929222744</v>
+        <v>0</v>
       </c>
       <c r="R24" s="63">
         <f>$F24*Outputs_Internal!L$60/12+N24*'MARA Prices'!$F$6</f>
-        <v>9008.8195070777256</v>
+        <v>0</v>
       </c>
       <c r="S24" s="63">
         <f>N24*'MARA Prices'!$F$4</f>
-        <v>666.66666666666674</v>
+        <v>0</v>
       </c>
       <c r="T24" s="63">
         <f>$F24*Outputs_Internal!M$60/12</f>
@@ -7486,30 +7511,30 @@
         <v>0</v>
       </c>
       <c r="Z24" s="63">
-        <f t="shared" si="5"/>
+        <f>IF(MOD(MONTH($B24),3)=0,SUM(L22:L24,T22:T24),0)</f>
         <v>0</v>
       </c>
       <c r="AA24" s="63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD24" s="105">
+        <f>IF(MOD(MONTH($B24),3)=0,SUM(U22:U24,S22:S24),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD24" s="63">
         <f>'MARA Prices'!H$21*$G24</f>
         <v>0</v>
       </c>
-      <c r="AE24" s="105">
+      <c r="AE24" s="63">
         <f>'MARA Prices'!I$21*$G24</f>
-        <v>833.33333333333337</v>
-      </c>
-      <c r="AF24" s="105">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="63">
         <f>'MARA Prices'!J$21*$G24</f>
         <v>0</v>
       </c>
-      <c r="AG24" s="105">
+      <c r="AG24" s="63">
         <f>'MARA Prices'!K$21*$G24</f>
         <v>0</v>
       </c>
-      <c r="AH24" s="105">
+      <c r="AH24" s="63">
         <f>'MARA Prices'!L$21*$G24</f>
         <v>0</v>
       </c>
@@ -7529,11 +7554,11 @@
       </c>
       <c r="F25" s="64">
         <f>IF(AND(B25&gt;=Inputs!$C$1,B25&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E25,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" s="64">
         <f>IF(AND(B25&gt;=Inputs!$C$1,B25&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B25,"Y")+1, 0),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" s="63">
         <f>IF($B25=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D25</f>
@@ -7553,23 +7578,23 @@
       </c>
       <c r="N25" s="63">
         <f t="shared" si="0"/>
-        <v>833.33333333333337</v>
+        <v>0</v>
       </c>
       <c r="P25" s="63">
         <f>$F25*Outputs_Internal!$D$60/12+N25</f>
-        <v>12172.916666666668</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="63">
         <f>$F25*Outputs_Internal!K$60/12+N25*'MARA Prices'!$F$5</f>
-        <v>2497.4304929222744</v>
+        <v>0</v>
       </c>
       <c r="R25" s="63">
         <f>$F25*Outputs_Internal!L$60/12+N25*'MARA Prices'!$F$6</f>
-        <v>9008.8195070777256</v>
+        <v>0</v>
       </c>
       <c r="S25" s="63">
         <f>N25*'MARA Prices'!$F$4</f>
-        <v>666.66666666666674</v>
+        <v>0</v>
       </c>
       <c r="T25" s="63">
         <f>$F25*Outputs_Internal!M$60/12</f>
@@ -7592,30 +7617,30 @@
         <v>0</v>
       </c>
       <c r="Z25" s="63">
-        <f t="shared" si="5"/>
+        <f>IF(MOD(MONTH($B25),3)=0,SUM(L23:L25,T23:T25),0)</f>
         <v>0</v>
       </c>
       <c r="AA25" s="63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD25" s="105">
+        <f>IF(MOD(MONTH($B25),3)=0,SUM(U23:U25,S23:S25),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD25" s="63">
         <f>'MARA Prices'!H$21*$G25</f>
         <v>0</v>
       </c>
-      <c r="AE25" s="105">
+      <c r="AE25" s="63">
         <f>'MARA Prices'!I$21*$G25</f>
-        <v>833.33333333333337</v>
-      </c>
-      <c r="AF25" s="105">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="63">
         <f>'MARA Prices'!J$21*$G25</f>
         <v>0</v>
       </c>
-      <c r="AG25" s="105">
+      <c r="AG25" s="63">
         <f>'MARA Prices'!K$21*$G25</f>
         <v>0</v>
       </c>
-      <c r="AH25" s="105">
+      <c r="AH25" s="63">
         <f>'MARA Prices'!L$21*$G25</f>
         <v>0</v>
       </c>
@@ -7635,11 +7660,11 @@
       </c>
       <c r="F26" s="64">
         <f>IF(AND(B26&gt;=Inputs!$C$1,B26&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E26,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" s="64">
         <f>IF(AND(B26&gt;=Inputs!$C$1,B26&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B26,"Y")+1, 0),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" s="63">
         <f>IF($B26=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D26</f>
@@ -7659,23 +7684,23 @@
       </c>
       <c r="N26" s="63">
         <f t="shared" si="0"/>
-        <v>833.33333333333337</v>
+        <v>0</v>
       </c>
       <c r="P26" s="63">
         <f>$F26*Outputs_Internal!$D$60/12+N26</f>
-        <v>12172.916666666668</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="63">
         <f>$F26*Outputs_Internal!K$60/12+N26*'MARA Prices'!$F$5</f>
-        <v>2497.4304929222744</v>
+        <v>0</v>
       </c>
       <c r="R26" s="63">
         <f>$F26*Outputs_Internal!L$60/12+N26*'MARA Prices'!$F$6</f>
-        <v>9008.8195070777256</v>
+        <v>0</v>
       </c>
       <c r="S26" s="63">
         <f>N26*'MARA Prices'!$F$4</f>
-        <v>666.66666666666674</v>
+        <v>0</v>
       </c>
       <c r="T26" s="63">
         <f>$F26*Outputs_Internal!M$60/12</f>
@@ -7687,41 +7712,41 @@
       </c>
       <c r="W26" s="63">
         <f t="shared" si="2"/>
-        <v>36518.75</v>
+        <v>0</v>
       </c>
       <c r="X26" s="63">
         <f t="shared" si="3"/>
-        <v>7492.2914787668233</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="63">
         <f t="shared" si="4"/>
-        <v>27026.458521233177</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="63">
-        <f t="shared" si="5"/>
+        <f>IF(MOD(MONTH($B26),3)=0,SUM(L24:L26,T24:T26),0)</f>
         <v>0</v>
       </c>
       <c r="AA26" s="63">
-        <f t="shared" si="6"/>
-        <v>2000.0000000000002</v>
-      </c>
-      <c r="AD26" s="105">
+        <f>IF(MOD(MONTH($B26),3)=0,SUM(U24:U26,S24:S26),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD26" s="63">
         <f>'MARA Prices'!H$21*$G26</f>
         <v>0</v>
       </c>
-      <c r="AE26" s="105">
+      <c r="AE26" s="63">
         <f>'MARA Prices'!I$21*$G26</f>
-        <v>833.33333333333337</v>
-      </c>
-      <c r="AF26" s="105">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="63">
         <f>'MARA Prices'!J$21*$G26</f>
         <v>0</v>
       </c>
-      <c r="AG26" s="105">
+      <c r="AG26" s="63">
         <f>'MARA Prices'!K$21*$G26</f>
         <v>0</v>
       </c>
-      <c r="AH26" s="105">
+      <c r="AH26" s="63">
         <f>'MARA Prices'!L$21*$G26</f>
         <v>0</v>
       </c>
@@ -7737,11 +7762,11 @@
       </c>
       <c r="E27" s="64">
         <f>IF(B27=Inputs!$C$1,D27,E26)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F27" s="64">
         <f>IF(AND(B27&gt;=Inputs!$C$1,B27&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E27,0)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="G27" s="64">
         <f>IF(AND(B27&gt;=Inputs!$C$1,B27&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B27,"Y")+1, 0),0)</f>
@@ -7749,15 +7774,15 @@
       </c>
       <c r="I27" s="63">
         <f>IF($B27=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D27</f>
-        <v>0</v>
+        <v>70875</v>
       </c>
       <c r="J27" s="63">
         <f>IF($B27=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D27</f>
-        <v>0</v>
+        <v>11137.5</v>
       </c>
       <c r="K27" s="63">
         <f>IF($B27=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D27</f>
-        <v>0</v>
+        <v>59737.5</v>
       </c>
       <c r="L27" s="63">
         <f>IF($B27=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D27</f>
@@ -7765,23 +7790,23 @@
       </c>
       <c r="N27" s="63">
         <f t="shared" si="0"/>
-        <v>833.33333333333337</v>
+        <v>3291.6666666666665</v>
       </c>
       <c r="P27" s="63">
         <f>$F27*Outputs_Internal!$D$60/12+N27</f>
-        <v>12172.916666666668</v>
+        <v>19021.951041666667</v>
       </c>
       <c r="Q27" s="63">
         <f>$F27*Outputs_Internal!K$60/12+N27*'MARA Prices'!$F$5</f>
-        <v>2497.4304929222744</v>
+        <v>3458.0856173106263</v>
       </c>
       <c r="R27" s="63">
         <f>$F27*Outputs_Internal!L$60/12+N27*'MARA Prices'!$F$6</f>
-        <v>9008.8195070777256</v>
+        <v>12930.532091022706</v>
       </c>
       <c r="S27" s="63">
         <f>N27*'MARA Prices'!$F$4</f>
-        <v>666.66666666666674</v>
+        <v>2633.3333333333335</v>
       </c>
       <c r="T27" s="63">
         <f>$F27*Outputs_Internal!M$60/12</f>
@@ -7789,7 +7814,7 @@
       </c>
       <c r="U27" s="63">
         <f>$F27*Outputs_Internal!N$60/12</f>
-        <v>0</v>
+        <v>-2.1076890233118206E-13</v>
       </c>
       <c r="W27" s="63">
         <f t="shared" si="2"/>
@@ -7804,30 +7829,30 @@
         <v>0</v>
       </c>
       <c r="Z27" s="63">
-        <f t="shared" si="5"/>
+        <f>IF(MOD(MONTH($B27),3)=0,SUM(L25:L27,T25:T27),0)</f>
         <v>0</v>
       </c>
       <c r="AA27" s="63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD27" s="105">
+        <f>IF(MOD(MONTH($B27),3)=0,SUM(U25:U27,S25:S27),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD27" s="63">
         <f>'MARA Prices'!H$21*$G27</f>
         <v>0</v>
       </c>
-      <c r="AE27" s="105">
+      <c r="AE27" s="63">
         <f>'MARA Prices'!I$21*$G27</f>
-        <v>833.33333333333337</v>
-      </c>
-      <c r="AF27" s="105">
+        <v>3291.6666666666665</v>
+      </c>
+      <c r="AF27" s="63">
         <f>'MARA Prices'!J$21*$G27</f>
         <v>0</v>
       </c>
-      <c r="AG27" s="105">
+      <c r="AG27" s="63">
         <f>'MARA Prices'!K$21*$G27</f>
         <v>0</v>
       </c>
-      <c r="AH27" s="105">
+      <c r="AH27" s="63">
         <f>'MARA Prices'!L$21*$G27</f>
         <v>0</v>
       </c>
@@ -7843,11 +7868,11 @@
       </c>
       <c r="E28" s="64">
         <f>IF(B28=Inputs!$C$1,D28,E27)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F28" s="64">
         <f>IF(AND(B28&gt;=Inputs!$C$1,B28&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E28,0)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="G28" s="64">
         <f>IF(AND(B28&gt;=Inputs!$C$1,B28&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B28,"Y")+1, 0),0)</f>
@@ -7871,23 +7896,23 @@
       </c>
       <c r="N28" s="63">
         <f t="shared" si="0"/>
-        <v>833.33333333333337</v>
+        <v>3291.6666666666665</v>
       </c>
       <c r="P28" s="63">
         <f>$F28*Outputs_Internal!$D$60/12+N28</f>
-        <v>12172.916666666668</v>
+        <v>19021.951041666667</v>
       </c>
       <c r="Q28" s="63">
         <f>$F28*Outputs_Internal!K$60/12+N28*'MARA Prices'!$F$5</f>
-        <v>2497.4304929222744</v>
+        <v>3458.0856173106263</v>
       </c>
       <c r="R28" s="63">
         <f>$F28*Outputs_Internal!L$60/12+N28*'MARA Prices'!$F$6</f>
-        <v>9008.8195070777256</v>
+        <v>12930.532091022706</v>
       </c>
       <c r="S28" s="63">
         <f>N28*'MARA Prices'!$F$4</f>
-        <v>666.66666666666674</v>
+        <v>2633.3333333333335</v>
       </c>
       <c r="T28" s="63">
         <f>$F28*Outputs_Internal!M$60/12</f>
@@ -7895,7 +7920,7 @@
       </c>
       <c r="U28" s="63">
         <f>$F28*Outputs_Internal!N$60/12</f>
-        <v>0</v>
+        <v>-2.1076890233118206E-13</v>
       </c>
       <c r="W28" s="63">
         <f t="shared" si="2"/>
@@ -7910,30 +7935,30 @@
         <v>0</v>
       </c>
       <c r="Z28" s="63">
-        <f t="shared" si="5"/>
+        <f>IF(MOD(MONTH($B28),3)=0,SUM(L26:L28,T26:T28),0)</f>
         <v>0</v>
       </c>
       <c r="AA28" s="63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD28" s="105">
+        <f>IF(MOD(MONTH($B28),3)=0,SUM(U26:U28,S26:S28),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD28" s="63">
         <f>'MARA Prices'!H$21*$G28</f>
         <v>0</v>
       </c>
-      <c r="AE28" s="105">
+      <c r="AE28" s="63">
         <f>'MARA Prices'!I$21*$G28</f>
-        <v>833.33333333333337</v>
-      </c>
-      <c r="AF28" s="105">
+        <v>3291.6666666666665</v>
+      </c>
+      <c r="AF28" s="63">
         <f>'MARA Prices'!J$21*$G28</f>
         <v>0</v>
       </c>
-      <c r="AG28" s="105">
+      <c r="AG28" s="63">
         <f>'MARA Prices'!K$21*$G28</f>
         <v>0</v>
       </c>
-      <c r="AH28" s="105">
+      <c r="AH28" s="63">
         <f>'MARA Prices'!L$21*$G28</f>
         <v>0</v>
       </c>
@@ -7949,11 +7974,11 @@
       </c>
       <c r="E29" s="64">
         <f>IF(B29=Inputs!$C$1,D29,E28)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F29" s="64">
         <f>IF(AND(B29&gt;=Inputs!$C$1,B29&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E29,0)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="G29" s="64">
         <f>IF(AND(B29&gt;=Inputs!$C$1,B29&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B29,"Y")+1, 0),0)</f>
@@ -7977,23 +8002,23 @@
       </c>
       <c r="N29" s="63">
         <f t="shared" si="0"/>
-        <v>833.33333333333337</v>
+        <v>3291.6666666666665</v>
       </c>
       <c r="P29" s="63">
         <f>$F29*Outputs_Internal!$D$60/12+N29</f>
-        <v>12172.916666666668</v>
+        <v>19021.951041666667</v>
       </c>
       <c r="Q29" s="63">
         <f>$F29*Outputs_Internal!K$60/12+N29*'MARA Prices'!$F$5</f>
-        <v>2497.4304929222744</v>
+        <v>3458.0856173106263</v>
       </c>
       <c r="R29" s="63">
         <f>$F29*Outputs_Internal!L$60/12+N29*'MARA Prices'!$F$6</f>
-        <v>9008.8195070777256</v>
+        <v>12930.532091022706</v>
       </c>
       <c r="S29" s="63">
         <f>N29*'MARA Prices'!$F$4</f>
-        <v>666.66666666666674</v>
+        <v>2633.3333333333335</v>
       </c>
       <c r="T29" s="63">
         <f>$F29*Outputs_Internal!M$60/12</f>
@@ -8001,45 +8026,45 @@
       </c>
       <c r="U29" s="63">
         <f>$F29*Outputs_Internal!N$60/12</f>
-        <v>0</v>
+        <v>-2.1076890233118206E-13</v>
       </c>
       <c r="W29" s="63">
         <f t="shared" si="2"/>
-        <v>36518.75</v>
+        <v>127940.85312500002</v>
       </c>
       <c r="X29" s="63">
         <f t="shared" si="3"/>
-        <v>7492.2914787668233</v>
+        <v>21511.756851931877</v>
       </c>
       <c r="Y29" s="63">
         <f t="shared" si="4"/>
-        <v>27026.458521233177</v>
+        <v>98529.096273068106</v>
       </c>
       <c r="Z29" s="63">
-        <f t="shared" si="5"/>
+        <f>IF(MOD(MONTH($B29),3)=0,SUM(L27:L29,T27:T29),0)</f>
         <v>0</v>
       </c>
       <c r="AA29" s="63">
-        <f t="shared" si="6"/>
-        <v>2000.0000000000002</v>
-      </c>
-      <c r="AD29" s="105">
+        <f>IF(MOD(MONTH($B29),3)=0,SUM(U27:U29,S27:S29),0)</f>
+        <v>7900</v>
+      </c>
+      <c r="AD29" s="63">
         <f>'MARA Prices'!H$21*$G29</f>
         <v>0</v>
       </c>
-      <c r="AE29" s="105">
+      <c r="AE29" s="63">
         <f>'MARA Prices'!I$21*$G29</f>
-        <v>833.33333333333337</v>
-      </c>
-      <c r="AF29" s="105">
+        <v>3291.6666666666665</v>
+      </c>
+      <c r="AF29" s="63">
         <f>'MARA Prices'!J$21*$G29</f>
         <v>0</v>
       </c>
-      <c r="AG29" s="105">
+      <c r="AG29" s="63">
         <f>'MARA Prices'!K$21*$G29</f>
         <v>0</v>
       </c>
-      <c r="AH29" s="105">
+      <c r="AH29" s="63">
         <f>'MARA Prices'!L$21*$G29</f>
         <v>0</v>
       </c>
@@ -8055,11 +8080,11 @@
       </c>
       <c r="E30" s="64">
         <f>IF(B30=Inputs!$C$1,D30,E29)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F30" s="64">
         <f>IF(AND(B30&gt;=Inputs!$C$1,B30&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E30,0)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="G30" s="64">
         <f>IF(AND(B30&gt;=Inputs!$C$1,B30&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B30,"Y")+1, 0),0)</f>
@@ -8083,23 +8108,23 @@
       </c>
       <c r="N30" s="63">
         <f t="shared" si="0"/>
-        <v>833.33333333333337</v>
+        <v>3291.6666666666665</v>
       </c>
       <c r="P30" s="63">
         <f>$F30*Outputs_Internal!$D$60/12+N30</f>
-        <v>12172.916666666668</v>
+        <v>19021.951041666667</v>
       </c>
       <c r="Q30" s="63">
         <f>$F30*Outputs_Internal!K$60/12+N30*'MARA Prices'!$F$5</f>
-        <v>2497.4304929222744</v>
+        <v>3458.0856173106263</v>
       </c>
       <c r="R30" s="63">
         <f>$F30*Outputs_Internal!L$60/12+N30*'MARA Prices'!$F$6</f>
-        <v>9008.8195070777256</v>
+        <v>12930.532091022706</v>
       </c>
       <c r="S30" s="63">
         <f>N30*'MARA Prices'!$F$4</f>
-        <v>666.66666666666674</v>
+        <v>2633.3333333333335</v>
       </c>
       <c r="T30" s="63">
         <f>$F30*Outputs_Internal!M$60/12</f>
@@ -8107,7 +8132,7 @@
       </c>
       <c r="U30" s="63">
         <f>$F30*Outputs_Internal!N$60/12</f>
-        <v>0</v>
+        <v>-2.1076890233118206E-13</v>
       </c>
       <c r="W30" s="63">
         <f t="shared" si="2"/>
@@ -8122,30 +8147,30 @@
         <v>0</v>
       </c>
       <c r="Z30" s="63">
-        <f t="shared" si="5"/>
+        <f>IF(MOD(MONTH($B30),3)=0,SUM(L28:L30,T28:T30),0)</f>
         <v>0</v>
       </c>
       <c r="AA30" s="63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD30" s="105">
+        <f>IF(MOD(MONTH($B30),3)=0,SUM(U28:U30,S28:S30),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD30" s="63">
         <f>'MARA Prices'!H$21*$G30</f>
         <v>0</v>
       </c>
-      <c r="AE30" s="105">
+      <c r="AE30" s="63">
         <f>'MARA Prices'!I$21*$G30</f>
-        <v>833.33333333333337</v>
-      </c>
-      <c r="AF30" s="105">
+        <v>3291.6666666666665</v>
+      </c>
+      <c r="AF30" s="63">
         <f>'MARA Prices'!J$21*$G30</f>
         <v>0</v>
       </c>
-      <c r="AG30" s="105">
+      <c r="AG30" s="63">
         <f>'MARA Prices'!K$21*$G30</f>
         <v>0</v>
       </c>
-      <c r="AH30" s="105">
+      <c r="AH30" s="63">
         <f>'MARA Prices'!L$21*$G30</f>
         <v>0</v>
       </c>
@@ -8161,11 +8186,11 @@
       </c>
       <c r="E31" s="64">
         <f>IF(B31=Inputs!$C$1,D31,E30)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F31" s="64">
         <f>IF(AND(B31&gt;=Inputs!$C$1,B31&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E31,0)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="G31" s="64">
         <f>IF(AND(B31&gt;=Inputs!$C$1,B31&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B31,"Y")+1, 0),0)</f>
@@ -8189,23 +8214,23 @@
       </c>
       <c r="N31" s="63">
         <f t="shared" si="0"/>
-        <v>833.33333333333337</v>
+        <v>3291.6666666666665</v>
       </c>
       <c r="P31" s="63">
         <f>$F31*Outputs_Internal!$D$60/12+N31</f>
-        <v>12172.916666666668</v>
+        <v>19021.951041666667</v>
       </c>
       <c r="Q31" s="63">
         <f>$F31*Outputs_Internal!K$60/12+N31*'MARA Prices'!$F$5</f>
-        <v>2497.4304929222744</v>
+        <v>3458.0856173106263</v>
       </c>
       <c r="R31" s="63">
         <f>$F31*Outputs_Internal!L$60/12+N31*'MARA Prices'!$F$6</f>
-        <v>9008.8195070777256</v>
+        <v>12930.532091022706</v>
       </c>
       <c r="S31" s="63">
         <f>N31*'MARA Prices'!$F$4</f>
-        <v>666.66666666666674</v>
+        <v>2633.3333333333335</v>
       </c>
       <c r="T31" s="63">
         <f>$F31*Outputs_Internal!M$60/12</f>
@@ -8213,7 +8238,7 @@
       </c>
       <c r="U31" s="63">
         <f>$F31*Outputs_Internal!N$60/12</f>
-        <v>0</v>
+        <v>-2.1076890233118206E-13</v>
       </c>
       <c r="W31" s="63">
         <f t="shared" si="2"/>
@@ -8228,30 +8253,30 @@
         <v>0</v>
       </c>
       <c r="Z31" s="63">
-        <f t="shared" si="5"/>
+        <f>IF(MOD(MONTH($B31),3)=0,SUM(L29:L31,T29:T31),0)</f>
         <v>0</v>
       </c>
       <c r="AA31" s="63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD31" s="105">
+        <f>IF(MOD(MONTH($B31),3)=0,SUM(U29:U31,S29:S31),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD31" s="63">
         <f>'MARA Prices'!H$21*$G31</f>
         <v>0</v>
       </c>
-      <c r="AE31" s="105">
+      <c r="AE31" s="63">
         <f>'MARA Prices'!I$21*$G31</f>
-        <v>833.33333333333337</v>
-      </c>
-      <c r="AF31" s="105">
+        <v>3291.6666666666665</v>
+      </c>
+      <c r="AF31" s="63">
         <f>'MARA Prices'!J$21*$G31</f>
         <v>0</v>
       </c>
-      <c r="AG31" s="105">
+      <c r="AG31" s="63">
         <f>'MARA Prices'!K$21*$G31</f>
         <v>0</v>
       </c>
-      <c r="AH31" s="105">
+      <c r="AH31" s="63">
         <f>'MARA Prices'!L$21*$G31</f>
         <v>0</v>
       </c>
@@ -8267,11 +8292,11 @@
       </c>
       <c r="E32" s="64">
         <f>IF(B32=Inputs!$C$1,D32,E31)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F32" s="64">
         <f>IF(AND(B32&gt;=Inputs!$C$1,B32&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E32,0)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="G32" s="64">
         <f>IF(AND(B32&gt;=Inputs!$C$1,B32&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B32,"Y")+1, 0),0)</f>
@@ -8295,23 +8320,23 @@
       </c>
       <c r="N32" s="63">
         <f t="shared" si="0"/>
-        <v>833.33333333333337</v>
+        <v>3291.6666666666665</v>
       </c>
       <c r="P32" s="63">
         <f>$F32*Outputs_Internal!$D$60/12+N32</f>
-        <v>12172.916666666668</v>
+        <v>19021.951041666667</v>
       </c>
       <c r="Q32" s="63">
         <f>$F32*Outputs_Internal!K$60/12+N32*'MARA Prices'!$F$5</f>
-        <v>2497.4304929222744</v>
+        <v>3458.0856173106263</v>
       </c>
       <c r="R32" s="63">
         <f>$F32*Outputs_Internal!L$60/12+N32*'MARA Prices'!$F$6</f>
-        <v>9008.8195070777256</v>
+        <v>12930.532091022706</v>
       </c>
       <c r="S32" s="63">
         <f>N32*'MARA Prices'!$F$4</f>
-        <v>666.66666666666674</v>
+        <v>2633.3333333333335</v>
       </c>
       <c r="T32" s="63">
         <f>$F32*Outputs_Internal!M$60/12</f>
@@ -8319,45 +8344,45 @@
       </c>
       <c r="U32" s="63">
         <f>$F32*Outputs_Internal!N$60/12</f>
-        <v>0</v>
+        <v>-2.1076890233118206E-13</v>
       </c>
       <c r="W32" s="63">
         <f t="shared" si="2"/>
-        <v>36518.75</v>
+        <v>57065.853125000001</v>
       </c>
       <c r="X32" s="63">
         <f t="shared" si="3"/>
-        <v>7492.2914787668233</v>
+        <v>10374.256851931879</v>
       </c>
       <c r="Y32" s="63">
         <f t="shared" si="4"/>
-        <v>27026.458521233177</v>
+        <v>38791.59627306812</v>
       </c>
       <c r="Z32" s="63">
-        <f t="shared" si="5"/>
+        <f>IF(MOD(MONTH($B32),3)=0,SUM(L30:L32,T30:T32),0)</f>
         <v>0</v>
       </c>
       <c r="AA32" s="63">
-        <f t="shared" si="6"/>
-        <v>2000.0000000000002</v>
-      </c>
-      <c r="AD32" s="105">
+        <f>IF(MOD(MONTH($B32),3)=0,SUM(U30:U32,S30:S32),0)</f>
+        <v>7900</v>
+      </c>
+      <c r="AD32" s="63">
         <f>'MARA Prices'!H$21*$G32</f>
         <v>0</v>
       </c>
-      <c r="AE32" s="105">
+      <c r="AE32" s="63">
         <f>'MARA Prices'!I$21*$G32</f>
-        <v>833.33333333333337</v>
-      </c>
-      <c r="AF32" s="105">
+        <v>3291.6666666666665</v>
+      </c>
+      <c r="AF32" s="63">
         <f>'MARA Prices'!J$21*$G32</f>
         <v>0</v>
       </c>
-      <c r="AG32" s="105">
+      <c r="AG32" s="63">
         <f>'MARA Prices'!K$21*$G32</f>
         <v>0</v>
       </c>
-      <c r="AH32" s="105">
+      <c r="AH32" s="63">
         <f>'MARA Prices'!L$21*$G32</f>
         <v>0</v>
       </c>
@@ -8373,11 +8398,11 @@
       </c>
       <c r="E33" s="64">
         <f>IF(B33=Inputs!$C$1,D33,E32)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F33" s="64">
         <f>IF(AND(B33&gt;=Inputs!$C$1,B33&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E33,0)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="G33" s="64">
         <f>IF(AND(B33&gt;=Inputs!$C$1,B33&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B33,"Y")+1, 0),0)</f>
@@ -8401,23 +8426,23 @@
       </c>
       <c r="N33" s="63">
         <f t="shared" si="0"/>
-        <v>875.00000000000011</v>
+        <v>3456.25</v>
       </c>
       <c r="P33" s="63">
         <f>$F33*Outputs_Internal!$D$60/12+N33</f>
-        <v>12214.583333333334</v>
+        <v>19186.534375000003</v>
       </c>
       <c r="Q33" s="63">
         <f>$F33*Outputs_Internal!K$60/12+N33*'MARA Prices'!$F$5</f>
-        <v>2501.5971595889409</v>
+        <v>3474.5439506439598</v>
       </c>
       <c r="R33" s="63">
         <f>$F33*Outputs_Internal!L$60/12+N33*'MARA Prices'!$F$6</f>
-        <v>9012.9861737443916</v>
+        <v>12946.99042435604</v>
       </c>
       <c r="S33" s="63">
         <f>N33*'MARA Prices'!$F$4</f>
-        <v>700.00000000000011</v>
+        <v>2765</v>
       </c>
       <c r="T33" s="63">
         <f>$F33*Outputs_Internal!M$60/12</f>
@@ -8425,7 +8450,7 @@
       </c>
       <c r="U33" s="63">
         <f>$F33*Outputs_Internal!N$60/12</f>
-        <v>0</v>
+        <v>-2.1076890233118206E-13</v>
       </c>
       <c r="W33" s="63">
         <f t="shared" si="2"/>
@@ -8440,30 +8465,30 @@
         <v>0</v>
       </c>
       <c r="Z33" s="63">
-        <f t="shared" si="5"/>
+        <f>IF(MOD(MONTH($B33),3)=0,SUM(L31:L33,T31:T33),0)</f>
         <v>0</v>
       </c>
       <c r="AA33" s="63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD33" s="105">
+        <f>IF(MOD(MONTH($B33),3)=0,SUM(U31:U33,S31:S33),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD33" s="63">
         <f>'MARA Prices'!H$21*$G33</f>
         <v>0</v>
       </c>
-      <c r="AE33" s="105">
+      <c r="AE33" s="63">
         <f>'MARA Prices'!I$21*$G33</f>
-        <v>875.00000000000011</v>
-      </c>
-      <c r="AF33" s="105">
+        <v>3456.25</v>
+      </c>
+      <c r="AF33" s="63">
         <f>'MARA Prices'!J$21*$G33</f>
         <v>0</v>
       </c>
-      <c r="AG33" s="105">
+      <c r="AG33" s="63">
         <f>'MARA Prices'!K$21*$G33</f>
         <v>0</v>
       </c>
-      <c r="AH33" s="105">
+      <c r="AH33" s="63">
         <f>'MARA Prices'!L$21*$G33</f>
         <v>0</v>
       </c>
@@ -8479,11 +8504,11 @@
       </c>
       <c r="E34" s="64">
         <f>IF(B34=Inputs!$C$1,D34,E33)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F34" s="64">
         <f>IF(AND(B34&gt;=Inputs!$C$1,B34&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E34,0)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="G34" s="64">
         <f>IF(AND(B34&gt;=Inputs!$C$1,B34&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B34,"Y")+1, 0),0)</f>
@@ -8507,23 +8532,23 @@
       </c>
       <c r="N34" s="63">
         <f t="shared" si="0"/>
-        <v>875.00000000000011</v>
+        <v>3456.25</v>
       </c>
       <c r="P34" s="63">
         <f>$F34*Outputs_Internal!$D$60/12+N34</f>
-        <v>12214.583333333334</v>
+        <v>19186.534375000003</v>
       </c>
       <c r="Q34" s="63">
         <f>$F34*Outputs_Internal!K$60/12+N34*'MARA Prices'!$F$5</f>
-        <v>2501.5971595889409</v>
+        <v>3474.5439506439598</v>
       </c>
       <c r="R34" s="63">
         <f>$F34*Outputs_Internal!L$60/12+N34*'MARA Prices'!$F$6</f>
-        <v>9012.9861737443916</v>
+        <v>12946.99042435604</v>
       </c>
       <c r="S34" s="63">
         <f>N34*'MARA Prices'!$F$4</f>
-        <v>700.00000000000011</v>
+        <v>2765</v>
       </c>
       <c r="T34" s="63">
         <f>$F34*Outputs_Internal!M$60/12</f>
@@ -8531,7 +8556,7 @@
       </c>
       <c r="U34" s="63">
         <f>$F34*Outputs_Internal!N$60/12</f>
-        <v>0</v>
+        <v>-2.1076890233118206E-13</v>
       </c>
       <c r="W34" s="63">
         <f t="shared" si="2"/>
@@ -8546,30 +8571,30 @@
         <v>0</v>
       </c>
       <c r="Z34" s="63">
-        <f t="shared" si="5"/>
+        <f>IF(MOD(MONTH($B34),3)=0,SUM(L32:L34,T32:T34),0)</f>
         <v>0</v>
       </c>
       <c r="AA34" s="63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD34" s="105">
+        <f>IF(MOD(MONTH($B34),3)=0,SUM(U32:U34,S32:S34),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD34" s="63">
         <f>'MARA Prices'!H$21*$G34</f>
         <v>0</v>
       </c>
-      <c r="AE34" s="105">
+      <c r="AE34" s="63">
         <f>'MARA Prices'!I$21*$G34</f>
-        <v>875.00000000000011</v>
-      </c>
-      <c r="AF34" s="105">
+        <v>3456.25</v>
+      </c>
+      <c r="AF34" s="63">
         <f>'MARA Prices'!J$21*$G34</f>
         <v>0</v>
       </c>
-      <c r="AG34" s="105">
+      <c r="AG34" s="63">
         <f>'MARA Prices'!K$21*$G34</f>
         <v>0</v>
       </c>
-      <c r="AH34" s="105">
+      <c r="AH34" s="63">
         <f>'MARA Prices'!L$21*$G34</f>
         <v>0</v>
       </c>
@@ -8585,11 +8610,11 @@
       </c>
       <c r="E35" s="64">
         <f>IF(B35=Inputs!$C$1,D35,E34)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F35" s="64">
         <f>IF(AND(B35&gt;=Inputs!$C$1,B35&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E35,0)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="G35" s="64">
         <f>IF(AND(B35&gt;=Inputs!$C$1,B35&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B35,"Y")+1, 0),0)</f>
@@ -8613,23 +8638,23 @@
       </c>
       <c r="N35" s="63">
         <f t="shared" si="0"/>
-        <v>875.00000000000011</v>
+        <v>3456.25</v>
       </c>
       <c r="P35" s="63">
         <f>$F35*Outputs_Internal!$D$60/12+N35</f>
-        <v>12214.583333333334</v>
+        <v>19186.534375000003</v>
       </c>
       <c r="Q35" s="63">
         <f>$F35*Outputs_Internal!K$60/12+N35*'MARA Prices'!$F$5</f>
-        <v>2501.5971595889409</v>
+        <v>3474.5439506439598</v>
       </c>
       <c r="R35" s="63">
         <f>$F35*Outputs_Internal!L$60/12+N35*'MARA Prices'!$F$6</f>
-        <v>9012.9861737443916</v>
+        <v>12946.99042435604</v>
       </c>
       <c r="S35" s="63">
         <f>N35*'MARA Prices'!$F$4</f>
-        <v>700.00000000000011</v>
+        <v>2765</v>
       </c>
       <c r="T35" s="63">
         <f>$F35*Outputs_Internal!M$60/12</f>
@@ -8637,45 +8662,45 @@
       </c>
       <c r="U35" s="63">
         <f>$F35*Outputs_Internal!N$60/12</f>
-        <v>0</v>
+        <v>-2.1076890233118206E-13</v>
       </c>
       <c r="W35" s="63">
         <f t="shared" si="2"/>
-        <v>36643.75</v>
+        <v>57559.603125000009</v>
       </c>
       <c r="X35" s="63">
         <f t="shared" si="3"/>
-        <v>7504.7914787668233</v>
+        <v>10423.631851931879</v>
       </c>
       <c r="Y35" s="63">
         <f t="shared" si="4"/>
-        <v>27038.958521233173</v>
+        <v>38840.97127306812</v>
       </c>
       <c r="Z35" s="63">
-        <f t="shared" si="5"/>
+        <f>IF(MOD(MONTH($B35),3)=0,SUM(L33:L35,T33:T35),0)</f>
         <v>0</v>
       </c>
       <c r="AA35" s="63">
-        <f t="shared" si="6"/>
-        <v>2100.0000000000005</v>
-      </c>
-      <c r="AD35" s="105">
+        <f>IF(MOD(MONTH($B35),3)=0,SUM(U33:U35,S33:S35),0)</f>
+        <v>8295</v>
+      </c>
+      <c r="AD35" s="63">
         <f>'MARA Prices'!H$21*$G35</f>
         <v>0</v>
       </c>
-      <c r="AE35" s="105">
+      <c r="AE35" s="63">
         <f>'MARA Prices'!I$21*$G35</f>
-        <v>875.00000000000011</v>
-      </c>
-      <c r="AF35" s="105">
+        <v>3456.25</v>
+      </c>
+      <c r="AF35" s="63">
         <f>'MARA Prices'!J$21*$G35</f>
         <v>0</v>
       </c>
-      <c r="AG35" s="105">
+      <c r="AG35" s="63">
         <f>'MARA Prices'!K$21*$G35</f>
         <v>0</v>
       </c>
-      <c r="AH35" s="105">
+      <c r="AH35" s="63">
         <f>'MARA Prices'!L$21*$G35</f>
         <v>0</v>
       </c>
@@ -8691,11 +8716,11 @@
       </c>
       <c r="E36" s="64">
         <f>IF(B36=Inputs!$C$1,D36,E35)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F36" s="64">
         <f>IF(AND(B36&gt;=Inputs!$C$1,B36&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E36,0)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="G36" s="64">
         <f>IF(AND(B36&gt;=Inputs!$C$1,B36&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B36,"Y")+1, 0),0)</f>
@@ -8719,23 +8744,23 @@
       </c>
       <c r="N36" s="63">
         <f t="shared" si="0"/>
-        <v>875.00000000000011</v>
+        <v>3456.25</v>
       </c>
       <c r="P36" s="63">
         <f>$F36*Outputs_Internal!$D$60/12+N36</f>
-        <v>12214.583333333334</v>
+        <v>19186.534375000003</v>
       </c>
       <c r="Q36" s="63">
         <f>$F36*Outputs_Internal!K$60/12+N36*'MARA Prices'!$F$5</f>
-        <v>2501.5971595889409</v>
+        <v>3474.5439506439598</v>
       </c>
       <c r="R36" s="63">
         <f>$F36*Outputs_Internal!L$60/12+N36*'MARA Prices'!$F$6</f>
-        <v>9012.9861737443916</v>
+        <v>12946.99042435604</v>
       </c>
       <c r="S36" s="63">
         <f>N36*'MARA Prices'!$F$4</f>
-        <v>700.00000000000011</v>
+        <v>2765</v>
       </c>
       <c r="T36" s="63">
         <f>$F36*Outputs_Internal!M$60/12</f>
@@ -8743,7 +8768,7 @@
       </c>
       <c r="U36" s="63">
         <f>$F36*Outputs_Internal!N$60/12</f>
-        <v>0</v>
+        <v>-2.1076890233118206E-13</v>
       </c>
       <c r="W36" s="63">
         <f t="shared" si="2"/>
@@ -8758,30 +8783,30 @@
         <v>0</v>
       </c>
       <c r="Z36" s="63">
-        <f t="shared" si="5"/>
+        <f>IF(MOD(MONTH($B36),3)=0,SUM(L34:L36,T34:T36),0)</f>
         <v>0</v>
       </c>
       <c r="AA36" s="63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD36" s="105">
+        <f>IF(MOD(MONTH($B36),3)=0,SUM(U34:U36,S34:S36),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD36" s="63">
         <f>'MARA Prices'!H$21*$G36</f>
         <v>0</v>
       </c>
-      <c r="AE36" s="105">
+      <c r="AE36" s="63">
         <f>'MARA Prices'!I$21*$G36</f>
-        <v>875.00000000000011</v>
-      </c>
-      <c r="AF36" s="105">
+        <v>3456.25</v>
+      </c>
+      <c r="AF36" s="63">
         <f>'MARA Prices'!J$21*$G36</f>
         <v>0</v>
       </c>
-      <c r="AG36" s="105">
+      <c r="AG36" s="63">
         <f>'MARA Prices'!K$21*$G36</f>
         <v>0</v>
       </c>
-      <c r="AH36" s="105">
+      <c r="AH36" s="63">
         <f>'MARA Prices'!L$21*$G36</f>
         <v>0</v>
       </c>
@@ -8797,11 +8822,11 @@
       </c>
       <c r="E37" s="64">
         <f>IF(B37=Inputs!$C$1,D37,E36)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F37" s="64">
         <f>IF(AND(B37&gt;=Inputs!$C$1,B37&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E37,0)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="G37" s="64">
         <f>IF(AND(B37&gt;=Inputs!$C$1,B37&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B37,"Y")+1, 0),0)</f>
@@ -8825,23 +8850,23 @@
       </c>
       <c r="N37" s="63">
         <f t="shared" si="0"/>
-        <v>875.00000000000011</v>
+        <v>3456.25</v>
       </c>
       <c r="P37" s="63">
         <f>$F37*Outputs_Internal!$D$60/12+N37</f>
-        <v>12214.583333333334</v>
+        <v>19186.534375000003</v>
       </c>
       <c r="Q37" s="63">
         <f>$F37*Outputs_Internal!K$60/12+N37*'MARA Prices'!$F$5</f>
-        <v>2501.5971595889409</v>
+        <v>3474.5439506439598</v>
       </c>
       <c r="R37" s="63">
         <f>$F37*Outputs_Internal!L$60/12+N37*'MARA Prices'!$F$6</f>
-        <v>9012.9861737443916</v>
+        <v>12946.99042435604</v>
       </c>
       <c r="S37" s="63">
         <f>N37*'MARA Prices'!$F$4</f>
-        <v>700.00000000000011</v>
+        <v>2765</v>
       </c>
       <c r="T37" s="63">
         <f>$F37*Outputs_Internal!M$60/12</f>
@@ -8849,45 +8874,45 @@
       </c>
       <c r="U37" s="63">
         <f>$F37*Outputs_Internal!N$60/12</f>
-        <v>0</v>
+        <v>-2.1076890233118206E-13</v>
       </c>
       <c r="W37" s="63">
-        <f t="shared" ref="W37:W68" si="7">IF(MOD(MONTH($B37),3)=0,SUM(I35:I37,P35:P37),0)</f>
+        <f t="shared" ref="W37:W68" si="5">IF(MOD(MONTH($B37),3)=0,SUM(I35:I37,P35:P37),0)</f>
         <v>0</v>
       </c>
       <c r="X37" s="63">
-        <f t="shared" ref="X37:X68" si="8">IF(MOD(MONTH($B37),3)=0,SUM(J35:J37,Q35:Q37),0)</f>
+        <f t="shared" ref="X37:X68" si="6">IF(MOD(MONTH($B37),3)=0,SUM(J35:J37,Q35:Q37),0)</f>
         <v>0</v>
       </c>
       <c r="Y37" s="63">
-        <f t="shared" ref="Y37:Y68" si="9">IF(MOD(MONTH($B37),3)=0,SUM(K35:K37,R35:R37),0)</f>
+        <f t="shared" ref="Y37:Y68" si="7">IF(MOD(MONTH($B37),3)=0,SUM(K35:K37,R35:R37),0)</f>
         <v>0</v>
       </c>
       <c r="Z37" s="63">
-        <f t="shared" ref="Z37:Z68" si="10">IF(MOD(MONTH($B37),3)=0,SUM(L35:L37,T35:T37),0)</f>
+        <f>IF(MOD(MONTH($B37),3)=0,SUM(L35:L37,T35:T37),0)</f>
         <v>0</v>
       </c>
       <c r="AA37" s="63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD37" s="105">
+        <f>IF(MOD(MONTH($B37),3)=0,SUM(U35:U37,S35:S37),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD37" s="63">
         <f>'MARA Prices'!H$21*$G37</f>
         <v>0</v>
       </c>
-      <c r="AE37" s="105">
+      <c r="AE37" s="63">
         <f>'MARA Prices'!I$21*$G37</f>
-        <v>875.00000000000011</v>
-      </c>
-      <c r="AF37" s="105">
+        <v>3456.25</v>
+      </c>
+      <c r="AF37" s="63">
         <f>'MARA Prices'!J$21*$G37</f>
         <v>0</v>
       </c>
-      <c r="AG37" s="105">
+      <c r="AG37" s="63">
         <f>'MARA Prices'!K$21*$G37</f>
         <v>0</v>
       </c>
-      <c r="AH37" s="105">
+      <c r="AH37" s="63">
         <f>'MARA Prices'!L$21*$G37</f>
         <v>0</v>
       </c>
@@ -8903,11 +8928,11 @@
       </c>
       <c r="E38" s="64">
         <f>IF(B38=Inputs!$C$1,D38,E37)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F38" s="64">
         <f>IF(AND(B38&gt;=Inputs!$C$1,B38&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E38,0)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="G38" s="64">
         <f>IF(AND(B38&gt;=Inputs!$C$1,B38&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B38,"Y")+1, 0),0)</f>
@@ -8931,23 +8956,23 @@
       </c>
       <c r="N38" s="63">
         <f t="shared" si="0"/>
-        <v>875.00000000000011</v>
+        <v>3456.25</v>
       </c>
       <c r="P38" s="63">
         <f>$F38*Outputs_Internal!$D$60/12+N38</f>
-        <v>12214.583333333334</v>
+        <v>19186.534375000003</v>
       </c>
       <c r="Q38" s="63">
         <f>$F38*Outputs_Internal!K$60/12+N38*'MARA Prices'!$F$5</f>
-        <v>2501.5971595889409</v>
+        <v>3474.5439506439598</v>
       </c>
       <c r="R38" s="63">
         <f>$F38*Outputs_Internal!L$60/12+N38*'MARA Prices'!$F$6</f>
-        <v>9012.9861737443916</v>
+        <v>12946.99042435604</v>
       </c>
       <c r="S38" s="63">
         <f>N38*'MARA Prices'!$F$4</f>
-        <v>700.00000000000011</v>
+        <v>2765</v>
       </c>
       <c r="T38" s="63">
         <f>$F38*Outputs_Internal!M$60/12</f>
@@ -8955,45 +8980,45 @@
       </c>
       <c r="U38" s="63">
         <f>$F38*Outputs_Internal!N$60/12</f>
-        <v>0</v>
+        <v>-2.1076890233118206E-13</v>
       </c>
       <c r="W38" s="63">
+        <f t="shared" si="5"/>
+        <v>57559.603125000009</v>
+      </c>
+      <c r="X38" s="63">
+        <f t="shared" si="6"/>
+        <v>10423.631851931879</v>
+      </c>
+      <c r="Y38" s="63">
         <f t="shared" si="7"/>
-        <v>36643.75</v>
-      </c>
-      <c r="X38" s="63">
-        <f t="shared" si="8"/>
-        <v>7504.7914787668233</v>
-      </c>
-      <c r="Y38" s="63">
-        <f t="shared" si="9"/>
-        <v>27038.958521233173</v>
+        <v>38840.97127306812</v>
       </c>
       <c r="Z38" s="63">
-        <f t="shared" si="10"/>
+        <f>IF(MOD(MONTH($B38),3)=0,SUM(L36:L38,T36:T38),0)</f>
         <v>0</v>
       </c>
       <c r="AA38" s="63">
-        <f t="shared" si="6"/>
-        <v>2100.0000000000005</v>
-      </c>
-      <c r="AD38" s="105">
+        <f>IF(MOD(MONTH($B38),3)=0,SUM(U36:U38,S36:S38),0)</f>
+        <v>8295</v>
+      </c>
+      <c r="AD38" s="63">
         <f>'MARA Prices'!H$21*$G38</f>
         <v>0</v>
       </c>
-      <c r="AE38" s="105">
+      <c r="AE38" s="63">
         <f>'MARA Prices'!I$21*$G38</f>
-        <v>875.00000000000011</v>
-      </c>
-      <c r="AF38" s="105">
+        <v>3456.25</v>
+      </c>
+      <c r="AF38" s="63">
         <f>'MARA Prices'!J$21*$G38</f>
         <v>0</v>
       </c>
-      <c r="AG38" s="105">
+      <c r="AG38" s="63">
         <f>'MARA Prices'!K$21*$G38</f>
         <v>0</v>
       </c>
-      <c r="AH38" s="105">
+      <c r="AH38" s="63">
         <f>'MARA Prices'!L$21*$G38</f>
         <v>0</v>
       </c>
@@ -9009,11 +9034,11 @@
       </c>
       <c r="E39" s="64">
         <f>IF(B39=Inputs!$C$1,D39,E38)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F39" s="64">
         <f>IF(AND(B39&gt;=Inputs!$C$1,B39&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E39,0)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="G39" s="64">
         <f>IF(AND(B39&gt;=Inputs!$C$1,B39&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B39,"Y")+1, 0),0)</f>
@@ -9037,23 +9062,23 @@
       </c>
       <c r="N39" s="63">
         <f t="shared" si="0"/>
-        <v>875.00000000000011</v>
+        <v>3456.25</v>
       </c>
       <c r="P39" s="63">
         <f>$F39*Outputs_Internal!$D$60/12+N39</f>
-        <v>12214.583333333334</v>
+        <v>19186.534375000003</v>
       </c>
       <c r="Q39" s="63">
         <f>$F39*Outputs_Internal!K$60/12+N39*'MARA Prices'!$F$5</f>
-        <v>2501.5971595889409</v>
+        <v>3474.5439506439598</v>
       </c>
       <c r="R39" s="63">
         <f>$F39*Outputs_Internal!L$60/12+N39*'MARA Prices'!$F$6</f>
-        <v>9012.9861737443916</v>
+        <v>12946.99042435604</v>
       </c>
       <c r="S39" s="63">
         <f>N39*'MARA Prices'!$F$4</f>
-        <v>700.00000000000011</v>
+        <v>2765</v>
       </c>
       <c r="T39" s="63">
         <f>$F39*Outputs_Internal!M$60/12</f>
@@ -9061,45 +9086,45 @@
       </c>
       <c r="U39" s="63">
         <f>$F39*Outputs_Internal!N$60/12</f>
-        <v>0</v>
+        <v>-2.1076890233118206E-13</v>
       </c>
       <c r="W39" s="63">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X39" s="63">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y39" s="63">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="X39" s="63">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y39" s="63">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="Z39" s="63">
-        <f t="shared" si="10"/>
+        <f>IF(MOD(MONTH($B39),3)=0,SUM(L37:L39,T37:T39),0)</f>
         <v>0</v>
       </c>
       <c r="AA39" s="63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD39" s="105">
+        <f>IF(MOD(MONTH($B39),3)=0,SUM(U37:U39,S37:S39),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD39" s="63">
         <f>'MARA Prices'!H$21*$G39</f>
         <v>0</v>
       </c>
-      <c r="AE39" s="105">
+      <c r="AE39" s="63">
         <f>'MARA Prices'!I$21*$G39</f>
-        <v>875.00000000000011</v>
-      </c>
-      <c r="AF39" s="105">
+        <v>3456.25</v>
+      </c>
+      <c r="AF39" s="63">
         <f>'MARA Prices'!J$21*$G39</f>
         <v>0</v>
       </c>
-      <c r="AG39" s="105">
+      <c r="AG39" s="63">
         <f>'MARA Prices'!K$21*$G39</f>
         <v>0</v>
       </c>
-      <c r="AH39" s="105">
+      <c r="AH39" s="63">
         <f>'MARA Prices'!L$21*$G39</f>
         <v>0</v>
       </c>
@@ -9115,11 +9140,11 @@
       </c>
       <c r="E40" s="64">
         <f>IF(B40=Inputs!$C$1,D40,E39)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F40" s="64">
         <f>IF(AND(B40&gt;=Inputs!$C$1,B40&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E40,0)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="G40" s="64">
         <f>IF(AND(B40&gt;=Inputs!$C$1,B40&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B40,"Y")+1, 0),0)</f>
@@ -9143,23 +9168,23 @@
       </c>
       <c r="N40" s="63">
         <f t="shared" si="0"/>
-        <v>875.00000000000011</v>
+        <v>3456.25</v>
       </c>
       <c r="P40" s="63">
         <f>$F40*Outputs_Internal!$D$60/12+N40</f>
-        <v>12214.583333333334</v>
+        <v>19186.534375000003</v>
       </c>
       <c r="Q40" s="63">
         <f>$F40*Outputs_Internal!K$60/12+N40*'MARA Prices'!$F$5</f>
-        <v>2501.5971595889409</v>
+        <v>3474.5439506439598</v>
       </c>
       <c r="R40" s="63">
         <f>$F40*Outputs_Internal!L$60/12+N40*'MARA Prices'!$F$6</f>
-        <v>9012.9861737443916</v>
+        <v>12946.99042435604</v>
       </c>
       <c r="S40" s="63">
         <f>N40*'MARA Prices'!$F$4</f>
-        <v>700.00000000000011</v>
+        <v>2765</v>
       </c>
       <c r="T40" s="63">
         <f>$F40*Outputs_Internal!M$60/12</f>
@@ -9167,45 +9192,45 @@
       </c>
       <c r="U40" s="63">
         <f>$F40*Outputs_Internal!N$60/12</f>
-        <v>0</v>
+        <v>-2.1076890233118206E-13</v>
       </c>
       <c r="W40" s="63">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X40" s="63">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y40" s="63">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="X40" s="63">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y40" s="63">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="Z40" s="63">
-        <f t="shared" si="10"/>
+        <f>IF(MOD(MONTH($B40),3)=0,SUM(L38:L40,T38:T40),0)</f>
         <v>0</v>
       </c>
       <c r="AA40" s="63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD40" s="105">
+        <f>IF(MOD(MONTH($B40),3)=0,SUM(U38:U40,S38:S40),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD40" s="63">
         <f>'MARA Prices'!H$21*$G40</f>
         <v>0</v>
       </c>
-      <c r="AE40" s="105">
+      <c r="AE40" s="63">
         <f>'MARA Prices'!I$21*$G40</f>
-        <v>875.00000000000011</v>
-      </c>
-      <c r="AF40" s="105">
+        <v>3456.25</v>
+      </c>
+      <c r="AF40" s="63">
         <f>'MARA Prices'!J$21*$G40</f>
         <v>0</v>
       </c>
-      <c r="AG40" s="105">
+      <c r="AG40" s="63">
         <f>'MARA Prices'!K$21*$G40</f>
         <v>0</v>
       </c>
-      <c r="AH40" s="105">
+      <c r="AH40" s="63">
         <f>'MARA Prices'!L$21*$G40</f>
         <v>0</v>
       </c>
@@ -9221,11 +9246,11 @@
       </c>
       <c r="E41" s="64">
         <f>IF(B41=Inputs!$C$1,D41,E40)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F41" s="64">
         <f>IF(AND(B41&gt;=Inputs!$C$1,B41&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E41,0)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="G41" s="64">
         <f>IF(AND(B41&gt;=Inputs!$C$1,B41&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B41,"Y")+1, 0),0)</f>
@@ -9249,23 +9274,23 @@
       </c>
       <c r="N41" s="63">
         <f t="shared" si="0"/>
-        <v>875.00000000000011</v>
+        <v>3456.25</v>
       </c>
       <c r="P41" s="63">
         <f>$F41*Outputs_Internal!$D$60/12+N41</f>
-        <v>12214.583333333334</v>
+        <v>19186.534375000003</v>
       </c>
       <c r="Q41" s="63">
         <f>$F41*Outputs_Internal!K$60/12+N41*'MARA Prices'!$F$5</f>
-        <v>2501.5971595889409</v>
+        <v>3474.5439506439598</v>
       </c>
       <c r="R41" s="63">
         <f>$F41*Outputs_Internal!L$60/12+N41*'MARA Prices'!$F$6</f>
-        <v>9012.9861737443916</v>
+        <v>12946.99042435604</v>
       </c>
       <c r="S41" s="63">
         <f>N41*'MARA Prices'!$F$4</f>
-        <v>700.00000000000011</v>
+        <v>2765</v>
       </c>
       <c r="T41" s="63">
         <f>$F41*Outputs_Internal!M$60/12</f>
@@ -9273,45 +9298,45 @@
       </c>
       <c r="U41" s="63">
         <f>$F41*Outputs_Internal!N$60/12</f>
-        <v>0</v>
+        <v>-2.1076890233118206E-13</v>
       </c>
       <c r="W41" s="63">
+        <f t="shared" si="5"/>
+        <v>57559.603125000009</v>
+      </c>
+      <c r="X41" s="63">
+        <f t="shared" si="6"/>
+        <v>10423.631851931879</v>
+      </c>
+      <c r="Y41" s="63">
         <f t="shared" si="7"/>
-        <v>36643.75</v>
-      </c>
-      <c r="X41" s="63">
-        <f t="shared" si="8"/>
-        <v>7504.7914787668233</v>
-      </c>
-      <c r="Y41" s="63">
-        <f t="shared" si="9"/>
-        <v>27038.958521233173</v>
+        <v>38840.97127306812</v>
       </c>
       <c r="Z41" s="63">
-        <f t="shared" si="10"/>
+        <f>IF(MOD(MONTH($B41),3)=0,SUM(L39:L41,T39:T41),0)</f>
         <v>0</v>
       </c>
       <c r="AA41" s="63">
-        <f t="shared" si="6"/>
-        <v>2100.0000000000005</v>
-      </c>
-      <c r="AD41" s="105">
+        <f>IF(MOD(MONTH($B41),3)=0,SUM(U39:U41,S39:S41),0)</f>
+        <v>8295</v>
+      </c>
+      <c r="AD41" s="63">
         <f>'MARA Prices'!H$21*$G41</f>
         <v>0</v>
       </c>
-      <c r="AE41" s="105">
+      <c r="AE41" s="63">
         <f>'MARA Prices'!I$21*$G41</f>
-        <v>875.00000000000011</v>
-      </c>
-      <c r="AF41" s="105">
+        <v>3456.25</v>
+      </c>
+      <c r="AF41" s="63">
         <f>'MARA Prices'!J$21*$G41</f>
         <v>0</v>
       </c>
-      <c r="AG41" s="105">
+      <c r="AG41" s="63">
         <f>'MARA Prices'!K$21*$G41</f>
         <v>0</v>
       </c>
-      <c r="AH41" s="105">
+      <c r="AH41" s="63">
         <f>'MARA Prices'!L$21*$G41</f>
         <v>0</v>
       </c>
@@ -9327,11 +9352,11 @@
       </c>
       <c r="E42" s="64">
         <f>IF(B42=Inputs!$C$1,D42,E41)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F42" s="64">
         <f>IF(AND(B42&gt;=Inputs!$C$1,B42&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E42,0)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="G42" s="64">
         <f>IF(AND(B42&gt;=Inputs!$C$1,B42&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B42,"Y")+1, 0),0)</f>
@@ -9355,23 +9380,23 @@
       </c>
       <c r="N42" s="63">
         <f t="shared" si="0"/>
-        <v>875.00000000000011</v>
+        <v>3456.25</v>
       </c>
       <c r="P42" s="63">
         <f>$F42*Outputs_Internal!$D$60/12+N42</f>
-        <v>12214.583333333334</v>
+        <v>19186.534375000003</v>
       </c>
       <c r="Q42" s="63">
         <f>$F42*Outputs_Internal!K$60/12+N42*'MARA Prices'!$F$5</f>
-        <v>2501.5971595889409</v>
+        <v>3474.5439506439598</v>
       </c>
       <c r="R42" s="63">
         <f>$F42*Outputs_Internal!L$60/12+N42*'MARA Prices'!$F$6</f>
-        <v>9012.9861737443916</v>
+        <v>12946.99042435604</v>
       </c>
       <c r="S42" s="63">
         <f>N42*'MARA Prices'!$F$4</f>
-        <v>700.00000000000011</v>
+        <v>2765</v>
       </c>
       <c r="T42" s="63">
         <f>$F42*Outputs_Internal!M$60/12</f>
@@ -9379,45 +9404,45 @@
       </c>
       <c r="U42" s="63">
         <f>$F42*Outputs_Internal!N$60/12</f>
-        <v>0</v>
+        <v>-2.1076890233118206E-13</v>
       </c>
       <c r="W42" s="63">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X42" s="63">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y42" s="63">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="X42" s="63">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y42" s="63">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="Z42" s="63">
-        <f t="shared" si="10"/>
+        <f>IF(MOD(MONTH($B42),3)=0,SUM(L40:L42,T40:T42),0)</f>
         <v>0</v>
       </c>
       <c r="AA42" s="63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD42" s="105">
+        <f>IF(MOD(MONTH($B42),3)=0,SUM(U40:U42,S40:S42),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD42" s="63">
         <f>'MARA Prices'!H$21*$G42</f>
         <v>0</v>
       </c>
-      <c r="AE42" s="105">
+      <c r="AE42" s="63">
         <f>'MARA Prices'!I$21*$G42</f>
-        <v>875.00000000000011</v>
-      </c>
-      <c r="AF42" s="105">
+        <v>3456.25</v>
+      </c>
+      <c r="AF42" s="63">
         <f>'MARA Prices'!J$21*$G42</f>
         <v>0</v>
       </c>
-      <c r="AG42" s="105">
+      <c r="AG42" s="63">
         <f>'MARA Prices'!K$21*$G42</f>
         <v>0</v>
       </c>
-      <c r="AH42" s="105">
+      <c r="AH42" s="63">
         <f>'MARA Prices'!L$21*$G42</f>
         <v>0</v>
       </c>
@@ -9433,11 +9458,11 @@
       </c>
       <c r="E43" s="64">
         <f>IF(B43=Inputs!$C$1,D43,E42)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F43" s="64">
         <f>IF(AND(B43&gt;=Inputs!$C$1,B43&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E43,0)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="G43" s="64">
         <f>IF(AND(B43&gt;=Inputs!$C$1,B43&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B43,"Y")+1, 0),0)</f>
@@ -9461,23 +9486,23 @@
       </c>
       <c r="N43" s="63">
         <f t="shared" si="0"/>
-        <v>875.00000000000011</v>
+        <v>3456.25</v>
       </c>
       <c r="P43" s="63">
         <f>$F43*Outputs_Internal!$D$60/12+N43</f>
-        <v>12214.583333333334</v>
+        <v>19186.534375000003</v>
       </c>
       <c r="Q43" s="63">
         <f>$F43*Outputs_Internal!K$60/12+N43*'MARA Prices'!$F$5</f>
-        <v>2501.5971595889409</v>
+        <v>3474.5439506439598</v>
       </c>
       <c r="R43" s="63">
         <f>$F43*Outputs_Internal!L$60/12+N43*'MARA Prices'!$F$6</f>
-        <v>9012.9861737443916</v>
+        <v>12946.99042435604</v>
       </c>
       <c r="S43" s="63">
         <f>N43*'MARA Prices'!$F$4</f>
-        <v>700.00000000000011</v>
+        <v>2765</v>
       </c>
       <c r="T43" s="63">
         <f>$F43*Outputs_Internal!M$60/12</f>
@@ -9485,45 +9510,45 @@
       </c>
       <c r="U43" s="63">
         <f>$F43*Outputs_Internal!N$60/12</f>
-        <v>0</v>
+        <v>-2.1076890233118206E-13</v>
       </c>
       <c r="W43" s="63">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X43" s="63">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y43" s="63">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="X43" s="63">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y43" s="63">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="Z43" s="63">
-        <f t="shared" si="10"/>
+        <f>IF(MOD(MONTH($B43),3)=0,SUM(L41:L43,T41:T43),0)</f>
         <v>0</v>
       </c>
       <c r="AA43" s="63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD43" s="105">
+        <f>IF(MOD(MONTH($B43),3)=0,SUM(U41:U43,S41:S43),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD43" s="63">
         <f>'MARA Prices'!H$21*$G43</f>
         <v>0</v>
       </c>
-      <c r="AE43" s="105">
+      <c r="AE43" s="63">
         <f>'MARA Prices'!I$21*$G43</f>
-        <v>875.00000000000011</v>
-      </c>
-      <c r="AF43" s="105">
+        <v>3456.25</v>
+      </c>
+      <c r="AF43" s="63">
         <f>'MARA Prices'!J$21*$G43</f>
         <v>0</v>
       </c>
-      <c r="AG43" s="105">
+      <c r="AG43" s="63">
         <f>'MARA Prices'!K$21*$G43</f>
         <v>0</v>
       </c>
-      <c r="AH43" s="105">
+      <c r="AH43" s="63">
         <f>'MARA Prices'!L$21*$G43</f>
         <v>0</v>
       </c>
@@ -9539,11 +9564,11 @@
       </c>
       <c r="E44" s="64">
         <f>IF(B44=Inputs!$C$1,D44,E43)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F44" s="64">
         <f>IF(AND(B44&gt;=Inputs!$C$1,B44&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E44,0)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="G44" s="64">
         <f>IF(AND(B44&gt;=Inputs!$C$1,B44&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B44,"Y")+1, 0),0)</f>
@@ -9567,23 +9592,23 @@
       </c>
       <c r="N44" s="63">
         <f t="shared" si="0"/>
-        <v>875.00000000000011</v>
+        <v>3456.25</v>
       </c>
       <c r="P44" s="63">
         <f>$F44*Outputs_Internal!$D$60/12+N44</f>
-        <v>12214.583333333334</v>
+        <v>19186.534375000003</v>
       </c>
       <c r="Q44" s="63">
         <f>$F44*Outputs_Internal!K$60/12+N44*'MARA Prices'!$F$5</f>
-        <v>2501.5971595889409</v>
+        <v>3474.5439506439598</v>
       </c>
       <c r="R44" s="63">
         <f>$F44*Outputs_Internal!L$60/12+N44*'MARA Prices'!$F$6</f>
-        <v>9012.9861737443916</v>
+        <v>12946.99042435604</v>
       </c>
       <c r="S44" s="63">
         <f>N44*'MARA Prices'!$F$4</f>
-        <v>700.00000000000011</v>
+        <v>2765</v>
       </c>
       <c r="T44" s="63">
         <f>$F44*Outputs_Internal!M$60/12</f>
@@ -9591,45 +9616,45 @@
       </c>
       <c r="U44" s="63">
         <f>$F44*Outputs_Internal!N$60/12</f>
-        <v>0</v>
+        <v>-2.1076890233118206E-13</v>
       </c>
       <c r="W44" s="63">
+        <f t="shared" si="5"/>
+        <v>57559.603125000009</v>
+      </c>
+      <c r="X44" s="63">
+        <f t="shared" si="6"/>
+        <v>10423.631851931879</v>
+      </c>
+      <c r="Y44" s="63">
         <f t="shared" si="7"/>
-        <v>36643.75</v>
-      </c>
-      <c r="X44" s="63">
-        <f t="shared" si="8"/>
-        <v>7504.7914787668233</v>
-      </c>
-      <c r="Y44" s="63">
-        <f t="shared" si="9"/>
-        <v>27038.958521233173</v>
+        <v>38840.97127306812</v>
       </c>
       <c r="Z44" s="63">
-        <f t="shared" si="10"/>
+        <f>IF(MOD(MONTH($B44),3)=0,SUM(L42:L44,T42:T44),0)</f>
         <v>0</v>
       </c>
       <c r="AA44" s="63">
-        <f t="shared" si="6"/>
-        <v>2100.0000000000005</v>
-      </c>
-      <c r="AD44" s="105">
+        <f>IF(MOD(MONTH($B44),3)=0,SUM(U42:U44,S42:S44),0)</f>
+        <v>8295</v>
+      </c>
+      <c r="AD44" s="63">
         <f>'MARA Prices'!H$21*$G44</f>
         <v>0</v>
       </c>
-      <c r="AE44" s="105">
+      <c r="AE44" s="63">
         <f>'MARA Prices'!I$21*$G44</f>
-        <v>875.00000000000011</v>
-      </c>
-      <c r="AF44" s="105">
+        <v>3456.25</v>
+      </c>
+      <c r="AF44" s="63">
         <f>'MARA Prices'!J$21*$G44</f>
         <v>0</v>
       </c>
-      <c r="AG44" s="105">
+      <c r="AG44" s="63">
         <f>'MARA Prices'!K$21*$G44</f>
         <v>0</v>
       </c>
-      <c r="AH44" s="105">
+      <c r="AH44" s="63">
         <f>'MARA Prices'!L$21*$G44</f>
         <v>0</v>
       </c>
@@ -9645,15 +9670,15 @@
       </c>
       <c r="E45" s="64">
         <f>IF(B45=Inputs!$C$1,D45,E44)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F45" s="64">
         <f>IF(AND(B45&gt;=Inputs!$C$1,B45&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E45,0)</f>
-        <v>0</v>
+        <v>1.0125</v>
       </c>
       <c r="G45" s="64">
         <f>IF(AND(B45&gt;=Inputs!$C$1,B45&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B45,"Y")+1, 0),0)</f>
-        <v>0</v>
+        <v>1.1025</v>
       </c>
       <c r="I45" s="63">
         <f>IF($B45=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D45</f>
@@ -9673,23 +9698,23 @@
       </c>
       <c r="N45" s="63">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3629.0625</v>
       </c>
       <c r="P45" s="63">
         <f>$F45*Outputs_Internal!$D$60/12+N45</f>
-        <v>0</v>
+        <v>19359.346875000003</v>
       </c>
       <c r="Q45" s="63">
         <f>$F45*Outputs_Internal!K$60/12+N45*'MARA Prices'!$F$5</f>
-        <v>0</v>
+        <v>3491.8252006439598</v>
       </c>
       <c r="R45" s="63">
         <f>$F45*Outputs_Internal!L$60/12+N45*'MARA Prices'!$F$6</f>
-        <v>0</v>
+        <v>12964.27167435604</v>
       </c>
       <c r="S45" s="63">
         <f>N45*'MARA Prices'!$F$4</f>
-        <v>0</v>
+        <v>2903.25</v>
       </c>
       <c r="T45" s="63">
         <f>$F45*Outputs_Internal!M$60/12</f>
@@ -9697,45 +9722,45 @@
       </c>
       <c r="U45" s="63">
         <f>$F45*Outputs_Internal!N$60/12</f>
-        <v>0</v>
+        <v>-2.1076890233118206E-13</v>
       </c>
       <c r="W45" s="63">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X45" s="63">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y45" s="63">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="X45" s="63">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y45" s="63">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="Z45" s="63">
-        <f t="shared" si="10"/>
+        <f>IF(MOD(MONTH($B45),3)=0,SUM(L43:L45,T43:T45),0)</f>
         <v>0</v>
       </c>
       <c r="AA45" s="63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD45" s="105">
+        <f>IF(MOD(MONTH($B45),3)=0,SUM(U43:U45,S43:S45),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD45" s="63">
         <f>'MARA Prices'!H$21*$G45</f>
         <v>0</v>
       </c>
-      <c r="AE45" s="105">
+      <c r="AE45" s="63">
         <f>'MARA Prices'!I$21*$G45</f>
-        <v>0</v>
-      </c>
-      <c r="AF45" s="105">
+        <v>3629.0625</v>
+      </c>
+      <c r="AF45" s="63">
         <f>'MARA Prices'!J$21*$G45</f>
         <v>0</v>
       </c>
-      <c r="AG45" s="105">
+      <c r="AG45" s="63">
         <f>'MARA Prices'!K$21*$G45</f>
         <v>0</v>
       </c>
-      <c r="AH45" s="105">
+      <c r="AH45" s="63">
         <f>'MARA Prices'!L$21*$G45</f>
         <v>0</v>
       </c>
@@ -9751,15 +9776,15 @@
       </c>
       <c r="E46" s="64">
         <f>IF(B46=Inputs!$C$1,D46,E45)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F46" s="64">
         <f>IF(AND(B46&gt;=Inputs!$C$1,B46&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E46,0)</f>
-        <v>0</v>
+        <v>1.0125</v>
       </c>
       <c r="G46" s="64">
         <f>IF(AND(B46&gt;=Inputs!$C$1,B46&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B46,"Y")+1, 0),0)</f>
-        <v>0</v>
+        <v>1.1025</v>
       </c>
       <c r="I46" s="63">
         <f>IF($B46=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D46</f>
@@ -9779,23 +9804,23 @@
       </c>
       <c r="N46" s="63">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3629.0625</v>
       </c>
       <c r="P46" s="63">
         <f>$F46*Outputs_Internal!$D$60/12+N46</f>
-        <v>0</v>
+        <v>19359.346875000003</v>
       </c>
       <c r="Q46" s="63">
         <f>$F46*Outputs_Internal!K$60/12+N46*'MARA Prices'!$F$5</f>
-        <v>0</v>
+        <v>3491.8252006439598</v>
       </c>
       <c r="R46" s="63">
         <f>$F46*Outputs_Internal!L$60/12+N46*'MARA Prices'!$F$6</f>
-        <v>0</v>
+        <v>12964.27167435604</v>
       </c>
       <c r="S46" s="63">
         <f>N46*'MARA Prices'!$F$4</f>
-        <v>0</v>
+        <v>2903.25</v>
       </c>
       <c r="T46" s="63">
         <f>$F46*Outputs_Internal!M$60/12</f>
@@ -9803,45 +9828,45 @@
       </c>
       <c r="U46" s="63">
         <f>$F46*Outputs_Internal!N$60/12</f>
-        <v>0</v>
+        <v>-2.1076890233118206E-13</v>
       </c>
       <c r="W46" s="63">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X46" s="63">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y46" s="63">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="X46" s="63">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y46" s="63">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="Z46" s="63">
-        <f t="shared" si="10"/>
+        <f>IF(MOD(MONTH($B46),3)=0,SUM(L44:L46,T44:T46),0)</f>
         <v>0</v>
       </c>
       <c r="AA46" s="63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD46" s="105">
+        <f>IF(MOD(MONTH($B46),3)=0,SUM(U44:U46,S44:S46),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD46" s="63">
         <f>'MARA Prices'!H$21*$G46</f>
         <v>0</v>
       </c>
-      <c r="AE46" s="105">
+      <c r="AE46" s="63">
         <f>'MARA Prices'!I$21*$G46</f>
-        <v>0</v>
-      </c>
-      <c r="AF46" s="105">
+        <v>3629.0625</v>
+      </c>
+      <c r="AF46" s="63">
         <f>'MARA Prices'!J$21*$G46</f>
         <v>0</v>
       </c>
-      <c r="AG46" s="105">
+      <c r="AG46" s="63">
         <f>'MARA Prices'!K$21*$G46</f>
         <v>0</v>
       </c>
-      <c r="AH46" s="105">
+      <c r="AH46" s="63">
         <f>'MARA Prices'!L$21*$G46</f>
         <v>0</v>
       </c>
@@ -9857,15 +9882,15 @@
       </c>
       <c r="E47" s="64">
         <f>IF(B47=Inputs!$C$1,D47,E46)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F47" s="64">
         <f>IF(AND(B47&gt;=Inputs!$C$1,B47&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E47,0)</f>
-        <v>0</v>
+        <v>1.0125</v>
       </c>
       <c r="G47" s="64">
         <f>IF(AND(B47&gt;=Inputs!$C$1,B47&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B47,"Y")+1, 0),0)</f>
-        <v>0</v>
+        <v>1.1025</v>
       </c>
       <c r="I47" s="63">
         <f>IF($B47=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D47</f>
@@ -9885,23 +9910,23 @@
       </c>
       <c r="N47" s="63">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3629.0625</v>
       </c>
       <c r="P47" s="63">
         <f>$F47*Outputs_Internal!$D$60/12+N47</f>
-        <v>0</v>
+        <v>19359.346875000003</v>
       </c>
       <c r="Q47" s="63">
         <f>$F47*Outputs_Internal!K$60/12+N47*'MARA Prices'!$F$5</f>
-        <v>0</v>
+        <v>3491.8252006439598</v>
       </c>
       <c r="R47" s="63">
         <f>$F47*Outputs_Internal!L$60/12+N47*'MARA Prices'!$F$6</f>
-        <v>0</v>
+        <v>12964.27167435604</v>
       </c>
       <c r="S47" s="63">
         <f>N47*'MARA Prices'!$F$4</f>
-        <v>0</v>
+        <v>2903.25</v>
       </c>
       <c r="T47" s="63">
         <f>$F47*Outputs_Internal!M$60/12</f>
@@ -9909,45 +9934,45 @@
       </c>
       <c r="U47" s="63">
         <f>$F47*Outputs_Internal!N$60/12</f>
-        <v>0</v>
+        <v>-2.1076890233118206E-13</v>
       </c>
       <c r="W47" s="63">
+        <f t="shared" si="5"/>
+        <v>58078.040625000009</v>
+      </c>
+      <c r="X47" s="63">
+        <f t="shared" si="6"/>
+        <v>10475.475601931879</v>
+      </c>
+      <c r="Y47" s="63">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X47" s="63">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y47" s="63">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>38892.81502306812</v>
       </c>
       <c r="Z47" s="63">
-        <f t="shared" si="10"/>
+        <f>IF(MOD(MONTH($B47),3)=0,SUM(L45:L47,T45:T47),0)</f>
         <v>0</v>
       </c>
       <c r="AA47" s="63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD47" s="105">
+        <f>IF(MOD(MONTH($B47),3)=0,SUM(U45:U47,S45:S47),0)</f>
+        <v>8709.75</v>
+      </c>
+      <c r="AD47" s="63">
         <f>'MARA Prices'!H$21*$G47</f>
         <v>0</v>
       </c>
-      <c r="AE47" s="105">
+      <c r="AE47" s="63">
         <f>'MARA Prices'!I$21*$G47</f>
-        <v>0</v>
-      </c>
-      <c r="AF47" s="105">
+        <v>3629.0625</v>
+      </c>
+      <c r="AF47" s="63">
         <f>'MARA Prices'!J$21*$G47</f>
         <v>0</v>
       </c>
-      <c r="AG47" s="105">
+      <c r="AG47" s="63">
         <f>'MARA Prices'!K$21*$G47</f>
         <v>0</v>
       </c>
-      <c r="AH47" s="105">
+      <c r="AH47" s="63">
         <f>'MARA Prices'!L$21*$G47</f>
         <v>0</v>
       </c>
@@ -9963,15 +9988,15 @@
       </c>
       <c r="E48" s="64">
         <f>IF(B48=Inputs!$C$1,D48,E47)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F48" s="64">
         <f>IF(AND(B48&gt;=Inputs!$C$1,B48&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E48,0)</f>
-        <v>0</v>
+        <v>1.0125</v>
       </c>
       <c r="G48" s="64">
         <f>IF(AND(B48&gt;=Inputs!$C$1,B48&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B48,"Y")+1, 0),0)</f>
-        <v>0</v>
+        <v>1.1025</v>
       </c>
       <c r="I48" s="63">
         <f>IF($B48=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D48</f>
@@ -9991,23 +10016,23 @@
       </c>
       <c r="N48" s="63">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3629.0625</v>
       </c>
       <c r="P48" s="63">
         <f>$F48*Outputs_Internal!$D$60/12+N48</f>
-        <v>0</v>
+        <v>19359.346875000003</v>
       </c>
       <c r="Q48" s="63">
         <f>$F48*Outputs_Internal!K$60/12+N48*'MARA Prices'!$F$5</f>
-        <v>0</v>
+        <v>3491.8252006439598</v>
       </c>
       <c r="R48" s="63">
         <f>$F48*Outputs_Internal!L$60/12+N48*'MARA Prices'!$F$6</f>
-        <v>0</v>
+        <v>12964.27167435604</v>
       </c>
       <c r="S48" s="63">
         <f>N48*'MARA Prices'!$F$4</f>
-        <v>0</v>
+        <v>2903.25</v>
       </c>
       <c r="T48" s="63">
         <f>$F48*Outputs_Internal!M$60/12</f>
@@ -10015,45 +10040,45 @@
       </c>
       <c r="U48" s="63">
         <f>$F48*Outputs_Internal!N$60/12</f>
-        <v>0</v>
+        <v>-2.1076890233118206E-13</v>
       </c>
       <c r="W48" s="63">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X48" s="63">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y48" s="63">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="X48" s="63">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y48" s="63">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="Z48" s="63">
-        <f t="shared" si="10"/>
+        <f>IF(MOD(MONTH($B48),3)=0,SUM(L46:L48,T46:T48),0)</f>
         <v>0</v>
       </c>
       <c r="AA48" s="63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD48" s="105">
+        <f>IF(MOD(MONTH($B48),3)=0,SUM(U46:U48,S46:S48),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD48" s="63">
         <f>'MARA Prices'!H$21*$G48</f>
         <v>0</v>
       </c>
-      <c r="AE48" s="105">
+      <c r="AE48" s="63">
         <f>'MARA Prices'!I$21*$G48</f>
-        <v>0</v>
-      </c>
-      <c r="AF48" s="105">
+        <v>3629.0625</v>
+      </c>
+      <c r="AF48" s="63">
         <f>'MARA Prices'!J$21*$G48</f>
         <v>0</v>
       </c>
-      <c r="AG48" s="105">
+      <c r="AG48" s="63">
         <f>'MARA Prices'!K$21*$G48</f>
         <v>0</v>
       </c>
-      <c r="AH48" s="105">
+      <c r="AH48" s="63">
         <f>'MARA Prices'!L$21*$G48</f>
         <v>0</v>
       </c>
@@ -10069,15 +10094,15 @@
       </c>
       <c r="E49" s="64">
         <f>IF(B49=Inputs!$C$1,D49,E48)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F49" s="64">
         <f>IF(AND(B49&gt;=Inputs!$C$1,B49&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E49,0)</f>
-        <v>0</v>
+        <v>1.0125</v>
       </c>
       <c r="G49" s="64">
         <f>IF(AND(B49&gt;=Inputs!$C$1,B49&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B49,"Y")+1, 0),0)</f>
-        <v>0</v>
+        <v>1.1025</v>
       </c>
       <c r="I49" s="63">
         <f>IF($B49=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D49</f>
@@ -10097,23 +10122,23 @@
       </c>
       <c r="N49" s="63">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3629.0625</v>
       </c>
       <c r="P49" s="63">
         <f>$F49*Outputs_Internal!$D$60/12+N49</f>
-        <v>0</v>
+        <v>19359.346875000003</v>
       </c>
       <c r="Q49" s="63">
         <f>$F49*Outputs_Internal!K$60/12+N49*'MARA Prices'!$F$5</f>
-        <v>0</v>
+        <v>3491.8252006439598</v>
       </c>
       <c r="R49" s="63">
         <f>$F49*Outputs_Internal!L$60/12+N49*'MARA Prices'!$F$6</f>
-        <v>0</v>
+        <v>12964.27167435604</v>
       </c>
       <c r="S49" s="63">
         <f>N49*'MARA Prices'!$F$4</f>
-        <v>0</v>
+        <v>2903.25</v>
       </c>
       <c r="T49" s="63">
         <f>$F49*Outputs_Internal!M$60/12</f>
@@ -10121,45 +10146,45 @@
       </c>
       <c r="U49" s="63">
         <f>$F49*Outputs_Internal!N$60/12</f>
-        <v>0</v>
+        <v>-2.1076890233118206E-13</v>
       </c>
       <c r="W49" s="63">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X49" s="63">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y49" s="63">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="X49" s="63">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y49" s="63">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="Z49" s="63">
-        <f t="shared" si="10"/>
+        <f>IF(MOD(MONTH($B49),3)=0,SUM(L47:L49,T47:T49),0)</f>
         <v>0</v>
       </c>
       <c r="AA49" s="63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD49" s="105">
+        <f>IF(MOD(MONTH($B49),3)=0,SUM(U47:U49,S47:S49),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD49" s="63">
         <f>'MARA Prices'!H$21*$G49</f>
         <v>0</v>
       </c>
-      <c r="AE49" s="105">
+      <c r="AE49" s="63">
         <f>'MARA Prices'!I$21*$G49</f>
-        <v>0</v>
-      </c>
-      <c r="AF49" s="105">
+        <v>3629.0625</v>
+      </c>
+      <c r="AF49" s="63">
         <f>'MARA Prices'!J$21*$G49</f>
         <v>0</v>
       </c>
-      <c r="AG49" s="105">
+      <c r="AG49" s="63">
         <f>'MARA Prices'!K$21*$G49</f>
         <v>0</v>
       </c>
-      <c r="AH49" s="105">
+      <c r="AH49" s="63">
         <f>'MARA Prices'!L$21*$G49</f>
         <v>0</v>
       </c>
@@ -10175,15 +10200,15 @@
       </c>
       <c r="E50" s="64">
         <f>IF(B50=Inputs!$C$1,D50,E49)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F50" s="64">
         <f>IF(AND(B50&gt;=Inputs!$C$1,B50&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E50,0)</f>
-        <v>0</v>
+        <v>1.0125</v>
       </c>
       <c r="G50" s="64">
         <f>IF(AND(B50&gt;=Inputs!$C$1,B50&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B50,"Y")+1, 0),0)</f>
-        <v>0</v>
+        <v>1.1025</v>
       </c>
       <c r="I50" s="63">
         <f>IF($B50=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D50</f>
@@ -10203,23 +10228,23 @@
       </c>
       <c r="N50" s="63">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3629.0625</v>
       </c>
       <c r="P50" s="63">
         <f>$F50*Outputs_Internal!$D$60/12+N50</f>
-        <v>0</v>
+        <v>19359.346875000003</v>
       </c>
       <c r="Q50" s="63">
         <f>$F50*Outputs_Internal!K$60/12+N50*'MARA Prices'!$F$5</f>
-        <v>0</v>
+        <v>3491.8252006439598</v>
       </c>
       <c r="R50" s="63">
         <f>$F50*Outputs_Internal!L$60/12+N50*'MARA Prices'!$F$6</f>
-        <v>0</v>
+        <v>12964.27167435604</v>
       </c>
       <c r="S50" s="63">
         <f>N50*'MARA Prices'!$F$4</f>
-        <v>0</v>
+        <v>2903.25</v>
       </c>
       <c r="T50" s="63">
         <f>$F50*Outputs_Internal!M$60/12</f>
@@ -10227,45 +10252,45 @@
       </c>
       <c r="U50" s="63">
         <f>$F50*Outputs_Internal!N$60/12</f>
-        <v>0</v>
+        <v>-2.1076890233118206E-13</v>
       </c>
       <c r="W50" s="63">
+        <f t="shared" si="5"/>
+        <v>58078.040625000009</v>
+      </c>
+      <c r="X50" s="63">
+        <f t="shared" si="6"/>
+        <v>10475.475601931879</v>
+      </c>
+      <c r="Y50" s="63">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X50" s="63">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y50" s="63">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>38892.81502306812</v>
       </c>
       <c r="Z50" s="63">
-        <f t="shared" si="10"/>
+        <f>IF(MOD(MONTH($B50),3)=0,SUM(L48:L50,T48:T50),0)</f>
         <v>0</v>
       </c>
       <c r="AA50" s="63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD50" s="105">
+        <f>IF(MOD(MONTH($B50),3)=0,SUM(U48:U50,S48:S50),0)</f>
+        <v>8709.75</v>
+      </c>
+      <c r="AD50" s="63">
         <f>'MARA Prices'!H$21*$G50</f>
         <v>0</v>
       </c>
-      <c r="AE50" s="105">
+      <c r="AE50" s="63">
         <f>'MARA Prices'!I$21*$G50</f>
-        <v>0</v>
-      </c>
-      <c r="AF50" s="105">
+        <v>3629.0625</v>
+      </c>
+      <c r="AF50" s="63">
         <f>'MARA Prices'!J$21*$G50</f>
         <v>0</v>
       </c>
-      <c r="AG50" s="105">
+      <c r="AG50" s="63">
         <f>'MARA Prices'!K$21*$G50</f>
         <v>0</v>
       </c>
-      <c r="AH50" s="105">
+      <c r="AH50" s="63">
         <f>'MARA Prices'!L$21*$G50</f>
         <v>0</v>
       </c>
@@ -10281,15 +10306,15 @@
       </c>
       <c r="E51" s="64">
         <f>IF(B51=Inputs!$C$1,D51,E50)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F51" s="64">
         <f>IF(AND(B51&gt;=Inputs!$C$1,B51&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E51,0)</f>
-        <v>0</v>
+        <v>1.0125</v>
       </c>
       <c r="G51" s="64">
         <f>IF(AND(B51&gt;=Inputs!$C$1,B51&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B51,"Y")+1, 0),0)</f>
-        <v>0</v>
+        <v>1.1025</v>
       </c>
       <c r="I51" s="63">
         <f>IF($B51=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D51</f>
@@ -10309,23 +10334,23 @@
       </c>
       <c r="N51" s="63">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3629.0625</v>
       </c>
       <c r="P51" s="63">
         <f>$F51*Outputs_Internal!$D$60/12+N51</f>
-        <v>0</v>
+        <v>19359.346875000003</v>
       </c>
       <c r="Q51" s="63">
         <f>$F51*Outputs_Internal!K$60/12+N51*'MARA Prices'!$F$5</f>
-        <v>0</v>
+        <v>3491.8252006439598</v>
       </c>
       <c r="R51" s="63">
         <f>$F51*Outputs_Internal!L$60/12+N51*'MARA Prices'!$F$6</f>
-        <v>0</v>
+        <v>12964.27167435604</v>
       </c>
       <c r="S51" s="63">
         <f>N51*'MARA Prices'!$F$4</f>
-        <v>0</v>
+        <v>2903.25</v>
       </c>
       <c r="T51" s="63">
         <f>$F51*Outputs_Internal!M$60/12</f>
@@ -10333,45 +10358,45 @@
       </c>
       <c r="U51" s="63">
         <f>$F51*Outputs_Internal!N$60/12</f>
-        <v>0</v>
+        <v>-2.1076890233118206E-13</v>
       </c>
       <c r="W51" s="63">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X51" s="63">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y51" s="63">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="X51" s="63">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y51" s="63">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="Z51" s="63">
-        <f t="shared" si="10"/>
+        <f>IF(MOD(MONTH($B51),3)=0,SUM(L49:L51,T49:T51),0)</f>
         <v>0</v>
       </c>
       <c r="AA51" s="63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD51" s="105">
+        <f>IF(MOD(MONTH($B51),3)=0,SUM(U49:U51,S49:S51),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD51" s="63">
         <f>'MARA Prices'!H$21*$G51</f>
         <v>0</v>
       </c>
-      <c r="AE51" s="105">
+      <c r="AE51" s="63">
         <f>'MARA Prices'!I$21*$G51</f>
-        <v>0</v>
-      </c>
-      <c r="AF51" s="105">
+        <v>3629.0625</v>
+      </c>
+      <c r="AF51" s="63">
         <f>'MARA Prices'!J$21*$G51</f>
         <v>0</v>
       </c>
-      <c r="AG51" s="105">
+      <c r="AG51" s="63">
         <f>'MARA Prices'!K$21*$G51</f>
         <v>0</v>
       </c>
-      <c r="AH51" s="105">
+      <c r="AH51" s="63">
         <f>'MARA Prices'!L$21*$G51</f>
         <v>0</v>
       </c>
@@ -10387,15 +10412,15 @@
       </c>
       <c r="E52" s="64">
         <f>IF(B52=Inputs!$C$1,D52,E51)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F52" s="64">
         <f>IF(AND(B52&gt;=Inputs!$C$1,B52&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E52,0)</f>
-        <v>0</v>
+        <v>1.0125</v>
       </c>
       <c r="G52" s="64">
         <f>IF(AND(B52&gt;=Inputs!$C$1,B52&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B52,"Y")+1, 0),0)</f>
-        <v>0</v>
+        <v>1.1025</v>
       </c>
       <c r="I52" s="63">
         <f>IF($B52=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D52</f>
@@ -10415,23 +10440,23 @@
       </c>
       <c r="N52" s="63">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3629.0625</v>
       </c>
       <c r="P52" s="63">
         <f>$F52*Outputs_Internal!$D$60/12+N52</f>
-        <v>0</v>
+        <v>19359.346875000003</v>
       </c>
       <c r="Q52" s="63">
         <f>$F52*Outputs_Internal!K$60/12+N52*'MARA Prices'!$F$5</f>
-        <v>0</v>
+        <v>3491.8252006439598</v>
       </c>
       <c r="R52" s="63">
         <f>$F52*Outputs_Internal!L$60/12+N52*'MARA Prices'!$F$6</f>
-        <v>0</v>
+        <v>12964.27167435604</v>
       </c>
       <c r="S52" s="63">
         <f>N52*'MARA Prices'!$F$4</f>
-        <v>0</v>
+        <v>2903.25</v>
       </c>
       <c r="T52" s="63">
         <f>$F52*Outputs_Internal!M$60/12</f>
@@ -10439,45 +10464,45 @@
       </c>
       <c r="U52" s="63">
         <f>$F52*Outputs_Internal!N$60/12</f>
-        <v>0</v>
+        <v>-2.1076890233118206E-13</v>
       </c>
       <c r="W52" s="63">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X52" s="63">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y52" s="63">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="X52" s="63">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y52" s="63">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="Z52" s="63">
-        <f t="shared" si="10"/>
+        <f>IF(MOD(MONTH($B52),3)=0,SUM(L50:L52,T50:T52),0)</f>
         <v>0</v>
       </c>
       <c r="AA52" s="63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD52" s="105">
+        <f>IF(MOD(MONTH($B52),3)=0,SUM(U50:U52,S50:S52),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD52" s="63">
         <f>'MARA Prices'!H$21*$G52</f>
         <v>0</v>
       </c>
-      <c r="AE52" s="105">
+      <c r="AE52" s="63">
         <f>'MARA Prices'!I$21*$G52</f>
-        <v>0</v>
-      </c>
-      <c r="AF52" s="105">
+        <v>3629.0625</v>
+      </c>
+      <c r="AF52" s="63">
         <f>'MARA Prices'!J$21*$G52</f>
         <v>0</v>
       </c>
-      <c r="AG52" s="105">
+      <c r="AG52" s="63">
         <f>'MARA Prices'!K$21*$G52</f>
         <v>0</v>
       </c>
-      <c r="AH52" s="105">
+      <c r="AH52" s="63">
         <f>'MARA Prices'!L$21*$G52</f>
         <v>0</v>
       </c>
@@ -10493,15 +10518,15 @@
       </c>
       <c r="E53" s="64">
         <f>IF(B53=Inputs!$C$1,D53,E52)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F53" s="64">
         <f>IF(AND(B53&gt;=Inputs!$C$1,B53&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E53,0)</f>
-        <v>0</v>
+        <v>1.0125</v>
       </c>
       <c r="G53" s="64">
         <f>IF(AND(B53&gt;=Inputs!$C$1,B53&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B53,"Y")+1, 0),0)</f>
-        <v>0</v>
+        <v>1.1025</v>
       </c>
       <c r="I53" s="63">
         <f>IF($B53=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D53</f>
@@ -10521,23 +10546,23 @@
       </c>
       <c r="N53" s="63">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3629.0625</v>
       </c>
       <c r="P53" s="63">
         <f>$F53*Outputs_Internal!$D$60/12+N53</f>
-        <v>0</v>
+        <v>19359.346875000003</v>
       </c>
       <c r="Q53" s="63">
         <f>$F53*Outputs_Internal!K$60/12+N53*'MARA Prices'!$F$5</f>
-        <v>0</v>
+        <v>3491.8252006439598</v>
       </c>
       <c r="R53" s="63">
         <f>$F53*Outputs_Internal!L$60/12+N53*'MARA Prices'!$F$6</f>
-        <v>0</v>
+        <v>12964.27167435604</v>
       </c>
       <c r="S53" s="63">
         <f>N53*'MARA Prices'!$F$4</f>
-        <v>0</v>
+        <v>2903.25</v>
       </c>
       <c r="T53" s="63">
         <f>$F53*Outputs_Internal!M$60/12</f>
@@ -10545,45 +10570,45 @@
       </c>
       <c r="U53" s="63">
         <f>$F53*Outputs_Internal!N$60/12</f>
-        <v>0</v>
+        <v>-2.1076890233118206E-13</v>
       </c>
       <c r="W53" s="63">
+        <f t="shared" si="5"/>
+        <v>58078.040625000009</v>
+      </c>
+      <c r="X53" s="63">
+        <f t="shared" si="6"/>
+        <v>10475.475601931879</v>
+      </c>
+      <c r="Y53" s="63">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X53" s="63">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y53" s="63">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>38892.81502306812</v>
       </c>
       <c r="Z53" s="63">
-        <f t="shared" si="10"/>
+        <f>IF(MOD(MONTH($B53),3)=0,SUM(L51:L53,T51:T53),0)</f>
         <v>0</v>
       </c>
       <c r="AA53" s="63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD53" s="105">
+        <f>IF(MOD(MONTH($B53),3)=0,SUM(U51:U53,S51:S53),0)</f>
+        <v>8709.75</v>
+      </c>
+      <c r="AD53" s="63">
         <f>'MARA Prices'!H$21*$G53</f>
         <v>0</v>
       </c>
-      <c r="AE53" s="105">
+      <c r="AE53" s="63">
         <f>'MARA Prices'!I$21*$G53</f>
-        <v>0</v>
-      </c>
-      <c r="AF53" s="105">
+        <v>3629.0625</v>
+      </c>
+      <c r="AF53" s="63">
         <f>'MARA Prices'!J$21*$G53</f>
         <v>0</v>
       </c>
-      <c r="AG53" s="105">
+      <c r="AG53" s="63">
         <f>'MARA Prices'!K$21*$G53</f>
         <v>0</v>
       </c>
-      <c r="AH53" s="105">
+      <c r="AH53" s="63">
         <f>'MARA Prices'!L$21*$G53</f>
         <v>0</v>
       </c>
@@ -10599,15 +10624,15 @@
       </c>
       <c r="E54" s="64">
         <f>IF(B54=Inputs!$C$1,D54,E53)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F54" s="64">
         <f>IF(AND(B54&gt;=Inputs!$C$1,B54&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E54,0)</f>
-        <v>0</v>
+        <v>1.0125</v>
       </c>
       <c r="G54" s="64">
         <f>IF(AND(B54&gt;=Inputs!$C$1,B54&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B54,"Y")+1, 0),0)</f>
-        <v>0</v>
+        <v>1.1025</v>
       </c>
       <c r="I54" s="63">
         <f>IF($B54=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D54</f>
@@ -10627,23 +10652,23 @@
       </c>
       <c r="N54" s="63">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3629.0625</v>
       </c>
       <c r="P54" s="63">
         <f>$F54*Outputs_Internal!$D$60/12+N54</f>
-        <v>0</v>
+        <v>19359.346875000003</v>
       </c>
       <c r="Q54" s="63">
         <f>$F54*Outputs_Internal!K$60/12+N54*'MARA Prices'!$F$5</f>
-        <v>0</v>
+        <v>3491.8252006439598</v>
       </c>
       <c r="R54" s="63">
         <f>$F54*Outputs_Internal!L$60/12+N54*'MARA Prices'!$F$6</f>
-        <v>0</v>
+        <v>12964.27167435604</v>
       </c>
       <c r="S54" s="63">
         <f>N54*'MARA Prices'!$F$4</f>
-        <v>0</v>
+        <v>2903.25</v>
       </c>
       <c r="T54" s="63">
         <f>$F54*Outputs_Internal!M$60/12</f>
@@ -10651,45 +10676,45 @@
       </c>
       <c r="U54" s="63">
         <f>$F54*Outputs_Internal!N$60/12</f>
-        <v>0</v>
+        <v>-2.1076890233118206E-13</v>
       </c>
       <c r="W54" s="63">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X54" s="63">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y54" s="63">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="X54" s="63">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y54" s="63">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="Z54" s="63">
-        <f t="shared" si="10"/>
+        <f>IF(MOD(MONTH($B54),3)=0,SUM(L52:L54,T52:T54),0)</f>
         <v>0</v>
       </c>
       <c r="AA54" s="63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD54" s="105">
+        <f>IF(MOD(MONTH($B54),3)=0,SUM(U52:U54,S52:S54),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD54" s="63">
         <f>'MARA Prices'!H$21*$G54</f>
         <v>0</v>
       </c>
-      <c r="AE54" s="105">
+      <c r="AE54" s="63">
         <f>'MARA Prices'!I$21*$G54</f>
-        <v>0</v>
-      </c>
-      <c r="AF54" s="105">
+        <v>3629.0625</v>
+      </c>
+      <c r="AF54" s="63">
         <f>'MARA Prices'!J$21*$G54</f>
         <v>0</v>
       </c>
-      <c r="AG54" s="105">
+      <c r="AG54" s="63">
         <f>'MARA Prices'!K$21*$G54</f>
         <v>0</v>
       </c>
-      <c r="AH54" s="105">
+      <c r="AH54" s="63">
         <f>'MARA Prices'!L$21*$G54</f>
         <v>0</v>
       </c>
@@ -10705,15 +10730,15 @@
       </c>
       <c r="E55" s="64">
         <f>IF(B55=Inputs!$C$1,D55,E54)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F55" s="64">
         <f>IF(AND(B55&gt;=Inputs!$C$1,B55&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E55,0)</f>
-        <v>0</v>
+        <v>1.0125</v>
       </c>
       <c r="G55" s="64">
         <f>IF(AND(B55&gt;=Inputs!$C$1,B55&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B55,"Y")+1, 0),0)</f>
-        <v>0</v>
+        <v>1.1025</v>
       </c>
       <c r="I55" s="63">
         <f>IF($B55=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D55</f>
@@ -10733,23 +10758,23 @@
       </c>
       <c r="N55" s="63">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3629.0625</v>
       </c>
       <c r="P55" s="63">
         <f>$F55*Outputs_Internal!$D$60/12+N55</f>
-        <v>0</v>
+        <v>19359.346875000003</v>
       </c>
       <c r="Q55" s="63">
         <f>$F55*Outputs_Internal!K$60/12+N55*'MARA Prices'!$F$5</f>
-        <v>0</v>
+        <v>3491.8252006439598</v>
       </c>
       <c r="R55" s="63">
         <f>$F55*Outputs_Internal!L$60/12+N55*'MARA Prices'!$F$6</f>
-        <v>0</v>
+        <v>12964.27167435604</v>
       </c>
       <c r="S55" s="63">
         <f>N55*'MARA Prices'!$F$4</f>
-        <v>0</v>
+        <v>2903.25</v>
       </c>
       <c r="T55" s="63">
         <f>$F55*Outputs_Internal!M$60/12</f>
@@ -10757,45 +10782,45 @@
       </c>
       <c r="U55" s="63">
         <f>$F55*Outputs_Internal!N$60/12</f>
-        <v>0</v>
+        <v>-2.1076890233118206E-13</v>
       </c>
       <c r="W55" s="63">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X55" s="63">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y55" s="63">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="X55" s="63">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y55" s="63">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="Z55" s="63">
-        <f t="shared" si="10"/>
+        <f>IF(MOD(MONTH($B55),3)=0,SUM(L53:L55,T53:T55),0)</f>
         <v>0</v>
       </c>
       <c r="AA55" s="63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD55" s="105">
+        <f>IF(MOD(MONTH($B55),3)=0,SUM(U53:U55,S53:S55),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD55" s="63">
         <f>'MARA Prices'!H$21*$G55</f>
         <v>0</v>
       </c>
-      <c r="AE55" s="105">
+      <c r="AE55" s="63">
         <f>'MARA Prices'!I$21*$G55</f>
-        <v>0</v>
-      </c>
-      <c r="AF55" s="105">
+        <v>3629.0625</v>
+      </c>
+      <c r="AF55" s="63">
         <f>'MARA Prices'!J$21*$G55</f>
         <v>0</v>
       </c>
-      <c r="AG55" s="105">
+      <c r="AG55" s="63">
         <f>'MARA Prices'!K$21*$G55</f>
         <v>0</v>
       </c>
-      <c r="AH55" s="105">
+      <c r="AH55" s="63">
         <f>'MARA Prices'!L$21*$G55</f>
         <v>0</v>
       </c>
@@ -10811,15 +10836,15 @@
       </c>
       <c r="E56" s="64">
         <f>IF(B56=Inputs!$C$1,D56,E55)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F56" s="64">
         <f>IF(AND(B56&gt;=Inputs!$C$1,B56&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E56,0)</f>
-        <v>0</v>
+        <v>1.0125</v>
       </c>
       <c r="G56" s="64">
         <f>IF(AND(B56&gt;=Inputs!$C$1,B56&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B56,"Y")+1, 0),0)</f>
-        <v>0</v>
+        <v>1.1025</v>
       </c>
       <c r="I56" s="63">
         <f>IF($B56=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D56</f>
@@ -10839,23 +10864,23 @@
       </c>
       <c r="N56" s="63">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3629.0625</v>
       </c>
       <c r="P56" s="63">
         <f>$F56*Outputs_Internal!$D$60/12+N56</f>
-        <v>0</v>
+        <v>19359.346875000003</v>
       </c>
       <c r="Q56" s="63">
         <f>$F56*Outputs_Internal!K$60/12+N56*'MARA Prices'!$F$5</f>
-        <v>0</v>
+        <v>3491.8252006439598</v>
       </c>
       <c r="R56" s="63">
         <f>$F56*Outputs_Internal!L$60/12+N56*'MARA Prices'!$F$6</f>
-        <v>0</v>
+        <v>12964.27167435604</v>
       </c>
       <c r="S56" s="63">
         <f>N56*'MARA Prices'!$F$4</f>
-        <v>0</v>
+        <v>2903.25</v>
       </c>
       <c r="T56" s="63">
         <f>$F56*Outputs_Internal!M$60/12</f>
@@ -10863,45 +10888,45 @@
       </c>
       <c r="U56" s="63">
         <f>$F56*Outputs_Internal!N$60/12</f>
-        <v>0</v>
+        <v>-2.1076890233118206E-13</v>
       </c>
       <c r="W56" s="63">
+        <f t="shared" si="5"/>
+        <v>58078.040625000009</v>
+      </c>
+      <c r="X56" s="63">
+        <f t="shared" si="6"/>
+        <v>10475.475601931879</v>
+      </c>
+      <c r="Y56" s="63">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X56" s="63">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y56" s="63">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>38892.81502306812</v>
       </c>
       <c r="Z56" s="63">
-        <f t="shared" si="10"/>
+        <f>IF(MOD(MONTH($B56),3)=0,SUM(L54:L56,T54:T56),0)</f>
         <v>0</v>
       </c>
       <c r="AA56" s="63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD56" s="105">
+        <f>IF(MOD(MONTH($B56),3)=0,SUM(U54:U56,S54:S56),0)</f>
+        <v>8709.75</v>
+      </c>
+      <c r="AD56" s="63">
         <f>'MARA Prices'!H$21*$G56</f>
         <v>0</v>
       </c>
-      <c r="AE56" s="105">
+      <c r="AE56" s="63">
         <f>'MARA Prices'!I$21*$G56</f>
-        <v>0</v>
-      </c>
-      <c r="AF56" s="105">
+        <v>3629.0625</v>
+      </c>
+      <c r="AF56" s="63">
         <f>'MARA Prices'!J$21*$G56</f>
         <v>0</v>
       </c>
-      <c r="AG56" s="105">
+      <c r="AG56" s="63">
         <f>'MARA Prices'!K$21*$G56</f>
         <v>0</v>
       </c>
-      <c r="AH56" s="105">
+      <c r="AH56" s="63">
         <f>'MARA Prices'!L$21*$G56</f>
         <v>0</v>
       </c>
@@ -10917,15 +10942,15 @@
       </c>
       <c r="E57" s="64">
         <f>IF(B57=Inputs!$C$1,D57,E56)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F57" s="64">
         <f>IF(AND(B57&gt;=Inputs!$C$1,B57&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E57,0)</f>
-        <v>0</v>
+        <v>1.0125</v>
       </c>
       <c r="G57" s="64">
         <f>IF(AND(B57&gt;=Inputs!$C$1,B57&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B57,"Y")+1, 0),0)</f>
-        <v>0</v>
+        <v>1.1576250000000001</v>
       </c>
       <c r="I57" s="63">
         <f>IF($B57=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D57</f>
@@ -10945,23 +10970,23 @@
       </c>
       <c r="N57" s="63">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3810.5156250000005</v>
       </c>
       <c r="P57" s="63">
         <f>$F57*Outputs_Internal!$D$60/12+N57</f>
-        <v>0</v>
+        <v>19540.800000000003</v>
       </c>
       <c r="Q57" s="63">
         <f>$F57*Outputs_Internal!K$60/12+N57*'MARA Prices'!$F$5</f>
-        <v>0</v>
+        <v>3509.9705131439596</v>
       </c>
       <c r="R57" s="63">
         <f>$F57*Outputs_Internal!L$60/12+N57*'MARA Prices'!$F$6</f>
-        <v>0</v>
+        <v>12982.41698685604</v>
       </c>
       <c r="S57" s="63">
         <f>N57*'MARA Prices'!$F$4</f>
-        <v>0</v>
+        <v>3048.4125000000004</v>
       </c>
       <c r="T57" s="63">
         <f>$F57*Outputs_Internal!M$60/12</f>
@@ -10969,45 +10994,45 @@
       </c>
       <c r="U57" s="63">
         <f>$F57*Outputs_Internal!N$60/12</f>
-        <v>0</v>
+        <v>-2.1076890233118206E-13</v>
       </c>
       <c r="W57" s="63">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X57" s="63">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y57" s="63">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="X57" s="63">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y57" s="63">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="Z57" s="63">
-        <f t="shared" si="10"/>
+        <f>IF(MOD(MONTH($B57),3)=0,SUM(L55:L57,T55:T57),0)</f>
         <v>0</v>
       </c>
       <c r="AA57" s="63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD57" s="105">
+        <f>IF(MOD(MONTH($B57),3)=0,SUM(U55:U57,S55:S57),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD57" s="63">
         <f>'MARA Prices'!H$21*$G57</f>
         <v>0</v>
       </c>
-      <c r="AE57" s="105">
+      <c r="AE57" s="63">
         <f>'MARA Prices'!I$21*$G57</f>
-        <v>0</v>
-      </c>
-      <c r="AF57" s="105">
+        <v>3810.5156250000005</v>
+      </c>
+      <c r="AF57" s="63">
         <f>'MARA Prices'!J$21*$G57</f>
         <v>0</v>
       </c>
-      <c r="AG57" s="105">
+      <c r="AG57" s="63">
         <f>'MARA Prices'!K$21*$G57</f>
         <v>0</v>
       </c>
-      <c r="AH57" s="105">
+      <c r="AH57" s="63">
         <f>'MARA Prices'!L$21*$G57</f>
         <v>0</v>
       </c>
@@ -11023,15 +11048,15 @@
       </c>
       <c r="E58" s="64">
         <f>IF(B58=Inputs!$C$1,D58,E57)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F58" s="64">
         <f>IF(AND(B58&gt;=Inputs!$C$1,B58&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E58,0)</f>
-        <v>0</v>
+        <v>1.0125</v>
       </c>
       <c r="G58" s="64">
         <f>IF(AND(B58&gt;=Inputs!$C$1,B58&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B58,"Y")+1, 0),0)</f>
-        <v>0</v>
+        <v>1.1576250000000001</v>
       </c>
       <c r="I58" s="63">
         <f>IF($B58=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D58</f>
@@ -11051,23 +11076,23 @@
       </c>
       <c r="N58" s="63">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3810.5156250000005</v>
       </c>
       <c r="P58" s="63">
         <f>$F58*Outputs_Internal!$D$60/12+N58</f>
-        <v>0</v>
+        <v>19540.800000000003</v>
       </c>
       <c r="Q58" s="63">
         <f>$F58*Outputs_Internal!K$60/12+N58*'MARA Prices'!$F$5</f>
-        <v>0</v>
+        <v>3509.9705131439596</v>
       </c>
       <c r="R58" s="63">
         <f>$F58*Outputs_Internal!L$60/12+N58*'MARA Prices'!$F$6</f>
-        <v>0</v>
+        <v>12982.41698685604</v>
       </c>
       <c r="S58" s="63">
         <f>N58*'MARA Prices'!$F$4</f>
-        <v>0</v>
+        <v>3048.4125000000004</v>
       </c>
       <c r="T58" s="63">
         <f>$F58*Outputs_Internal!M$60/12</f>
@@ -11075,45 +11100,45 @@
       </c>
       <c r="U58" s="63">
         <f>$F58*Outputs_Internal!N$60/12</f>
-        <v>0</v>
+        <v>-2.1076890233118206E-13</v>
       </c>
       <c r="W58" s="63">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X58" s="63">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y58" s="63">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="X58" s="63">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y58" s="63">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="Z58" s="63">
-        <f t="shared" si="10"/>
+        <f>IF(MOD(MONTH($B58),3)=0,SUM(L56:L58,T56:T58),0)</f>
         <v>0</v>
       </c>
       <c r="AA58" s="63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD58" s="105">
+        <f>IF(MOD(MONTH($B58),3)=0,SUM(U56:U58,S56:S58),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD58" s="63">
         <f>'MARA Prices'!H$21*$G58</f>
         <v>0</v>
       </c>
-      <c r="AE58" s="105">
+      <c r="AE58" s="63">
         <f>'MARA Prices'!I$21*$G58</f>
-        <v>0</v>
-      </c>
-      <c r="AF58" s="105">
+        <v>3810.5156250000005</v>
+      </c>
+      <c r="AF58" s="63">
         <f>'MARA Prices'!J$21*$G58</f>
         <v>0</v>
       </c>
-      <c r="AG58" s="105">
+      <c r="AG58" s="63">
         <f>'MARA Prices'!K$21*$G58</f>
         <v>0</v>
       </c>
-      <c r="AH58" s="105">
+      <c r="AH58" s="63">
         <f>'MARA Prices'!L$21*$G58</f>
         <v>0</v>
       </c>
@@ -11129,15 +11154,15 @@
       </c>
       <c r="E59" s="64">
         <f>IF(B59=Inputs!$C$1,D59,E58)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F59" s="64">
         <f>IF(AND(B59&gt;=Inputs!$C$1,B59&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E59,0)</f>
-        <v>0</v>
+        <v>1.0125</v>
       </c>
       <c r="G59" s="64">
         <f>IF(AND(B59&gt;=Inputs!$C$1,B59&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B59,"Y")+1, 0),0)</f>
-        <v>0</v>
+        <v>1.1576250000000001</v>
       </c>
       <c r="I59" s="63">
         <f>IF($B59=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D59</f>
@@ -11157,23 +11182,23 @@
       </c>
       <c r="N59" s="63">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3810.5156250000005</v>
       </c>
       <c r="P59" s="63">
         <f>$F59*Outputs_Internal!$D$60/12+N59</f>
-        <v>0</v>
+        <v>19540.800000000003</v>
       </c>
       <c r="Q59" s="63">
         <f>$F59*Outputs_Internal!K$60/12+N59*'MARA Prices'!$F$5</f>
-        <v>0</v>
+        <v>3509.9705131439596</v>
       </c>
       <c r="R59" s="63">
         <f>$F59*Outputs_Internal!L$60/12+N59*'MARA Prices'!$F$6</f>
-        <v>0</v>
+        <v>12982.41698685604</v>
       </c>
       <c r="S59" s="63">
         <f>N59*'MARA Prices'!$F$4</f>
-        <v>0</v>
+        <v>3048.4125000000004</v>
       </c>
       <c r="T59" s="63">
         <f>$F59*Outputs_Internal!M$60/12</f>
@@ -11181,45 +11206,45 @@
       </c>
       <c r="U59" s="63">
         <f>$F59*Outputs_Internal!N$60/12</f>
-        <v>0</v>
+        <v>-2.1076890233118206E-13</v>
       </c>
       <c r="W59" s="63">
+        <f t="shared" si="5"/>
+        <v>58622.400000000009</v>
+      </c>
+      <c r="X59" s="63">
+        <f t="shared" si="6"/>
+        <v>10529.91153943188</v>
+      </c>
+      <c r="Y59" s="63">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X59" s="63">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y59" s="63">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>38947.250960568119</v>
       </c>
       <c r="Z59" s="63">
-        <f t="shared" si="10"/>
+        <f>IF(MOD(MONTH($B59),3)=0,SUM(L57:L59,T57:T59),0)</f>
         <v>0</v>
       </c>
       <c r="AA59" s="63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD59" s="105">
+        <f>IF(MOD(MONTH($B59),3)=0,SUM(U57:U59,S57:S59),0)</f>
+        <v>9145.2375000000011</v>
+      </c>
+      <c r="AD59" s="63">
         <f>'MARA Prices'!H$21*$G59</f>
         <v>0</v>
       </c>
-      <c r="AE59" s="105">
+      <c r="AE59" s="63">
         <f>'MARA Prices'!I$21*$G59</f>
-        <v>0</v>
-      </c>
-      <c r="AF59" s="105">
+        <v>3810.5156250000005</v>
+      </c>
+      <c r="AF59" s="63">
         <f>'MARA Prices'!J$21*$G59</f>
         <v>0</v>
       </c>
-      <c r="AG59" s="105">
+      <c r="AG59" s="63">
         <f>'MARA Prices'!K$21*$G59</f>
         <v>0</v>
       </c>
-      <c r="AH59" s="105">
+      <c r="AH59" s="63">
         <f>'MARA Prices'!L$21*$G59</f>
         <v>0</v>
       </c>
@@ -11235,15 +11260,15 @@
       </c>
       <c r="E60" s="64">
         <f>IF(B60=Inputs!$C$1,D60,E59)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F60" s="64">
         <f>IF(AND(B60&gt;=Inputs!$C$1,B60&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E60,0)</f>
-        <v>0</v>
+        <v>1.0125</v>
       </c>
       <c r="G60" s="64">
         <f>IF(AND(B60&gt;=Inputs!$C$1,B60&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B60,"Y")+1, 0),0)</f>
-        <v>0</v>
+        <v>1.1576250000000001</v>
       </c>
       <c r="I60" s="63">
         <f>IF($B60=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D60</f>
@@ -11263,23 +11288,23 @@
       </c>
       <c r="N60" s="63">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3810.5156250000005</v>
       </c>
       <c r="P60" s="63">
         <f>$F60*Outputs_Internal!$D$60/12+N60</f>
-        <v>0</v>
+        <v>19540.800000000003</v>
       </c>
       <c r="Q60" s="63">
         <f>$F60*Outputs_Internal!K$60/12+N60*'MARA Prices'!$F$5</f>
-        <v>0</v>
+        <v>3509.9705131439596</v>
       </c>
       <c r="R60" s="63">
         <f>$F60*Outputs_Internal!L$60/12+N60*'MARA Prices'!$F$6</f>
-        <v>0</v>
+        <v>12982.41698685604</v>
       </c>
       <c r="S60" s="63">
         <f>N60*'MARA Prices'!$F$4</f>
-        <v>0</v>
+        <v>3048.4125000000004</v>
       </c>
       <c r="T60" s="63">
         <f>$F60*Outputs_Internal!M$60/12</f>
@@ -11287,45 +11312,45 @@
       </c>
       <c r="U60" s="63">
         <f>$F60*Outputs_Internal!N$60/12</f>
-        <v>0</v>
+        <v>-2.1076890233118206E-13</v>
       </c>
       <c r="W60" s="63">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X60" s="63">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y60" s="63">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="X60" s="63">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y60" s="63">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="Z60" s="63">
-        <f t="shared" si="10"/>
+        <f>IF(MOD(MONTH($B60),3)=0,SUM(L58:L60,T58:T60),0)</f>
         <v>0</v>
       </c>
       <c r="AA60" s="63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD60" s="105">
+        <f>IF(MOD(MONTH($B60),3)=0,SUM(U58:U60,S58:S60),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD60" s="63">
         <f>'MARA Prices'!H$21*$G60</f>
         <v>0</v>
       </c>
-      <c r="AE60" s="105">
+      <c r="AE60" s="63">
         <f>'MARA Prices'!I$21*$G60</f>
-        <v>0</v>
-      </c>
-      <c r="AF60" s="105">
+        <v>3810.5156250000005</v>
+      </c>
+      <c r="AF60" s="63">
         <f>'MARA Prices'!J$21*$G60</f>
         <v>0</v>
       </c>
-      <c r="AG60" s="105">
+      <c r="AG60" s="63">
         <f>'MARA Prices'!K$21*$G60</f>
         <v>0</v>
       </c>
-      <c r="AH60" s="105">
+      <c r="AH60" s="63">
         <f>'MARA Prices'!L$21*$G60</f>
         <v>0</v>
       </c>
@@ -11341,15 +11366,15 @@
       </c>
       <c r="E61" s="64">
         <f>IF(B61=Inputs!$C$1,D61,E60)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F61" s="64">
         <f>IF(AND(B61&gt;=Inputs!$C$1,B61&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E61,0)</f>
-        <v>0</v>
+        <v>1.0125</v>
       </c>
       <c r="G61" s="64">
         <f>IF(AND(B61&gt;=Inputs!$C$1,B61&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B61,"Y")+1, 0),0)</f>
-        <v>0</v>
+        <v>1.1576250000000001</v>
       </c>
       <c r="I61" s="63">
         <f>IF($B61=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D61</f>
@@ -11369,23 +11394,23 @@
       </c>
       <c r="N61" s="63">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3810.5156250000005</v>
       </c>
       <c r="P61" s="63">
         <f>$F61*Outputs_Internal!$D$60/12+N61</f>
-        <v>0</v>
+        <v>19540.800000000003</v>
       </c>
       <c r="Q61" s="63">
         <f>$F61*Outputs_Internal!K$60/12+N61*'MARA Prices'!$F$5</f>
-        <v>0</v>
+        <v>3509.9705131439596</v>
       </c>
       <c r="R61" s="63">
         <f>$F61*Outputs_Internal!L$60/12+N61*'MARA Prices'!$F$6</f>
-        <v>0</v>
+        <v>12982.41698685604</v>
       </c>
       <c r="S61" s="63">
         <f>N61*'MARA Prices'!$F$4</f>
-        <v>0</v>
+        <v>3048.4125000000004</v>
       </c>
       <c r="T61" s="63">
         <f>$F61*Outputs_Internal!M$60/12</f>
@@ -11393,45 +11418,45 @@
       </c>
       <c r="U61" s="63">
         <f>$F61*Outputs_Internal!N$60/12</f>
-        <v>0</v>
+        <v>-2.1076890233118206E-13</v>
       </c>
       <c r="W61" s="63">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X61" s="63">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y61" s="63">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="X61" s="63">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y61" s="63">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="Z61" s="63">
-        <f t="shared" si="10"/>
+        <f>IF(MOD(MONTH($B61),3)=0,SUM(L59:L61,T59:T61),0)</f>
         <v>0</v>
       </c>
       <c r="AA61" s="63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD61" s="105">
+        <f>IF(MOD(MONTH($B61),3)=0,SUM(U59:U61,S59:S61),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD61" s="63">
         <f>'MARA Prices'!H$21*$G61</f>
         <v>0</v>
       </c>
-      <c r="AE61" s="105">
+      <c r="AE61" s="63">
         <f>'MARA Prices'!I$21*$G61</f>
-        <v>0</v>
-      </c>
-      <c r="AF61" s="105">
+        <v>3810.5156250000005</v>
+      </c>
+      <c r="AF61" s="63">
         <f>'MARA Prices'!J$21*$G61</f>
         <v>0</v>
       </c>
-      <c r="AG61" s="105">
+      <c r="AG61" s="63">
         <f>'MARA Prices'!K$21*$G61</f>
         <v>0</v>
       </c>
-      <c r="AH61" s="105">
+      <c r="AH61" s="63">
         <f>'MARA Prices'!L$21*$G61</f>
         <v>0</v>
       </c>
@@ -11447,15 +11472,15 @@
       </c>
       <c r="E62" s="64">
         <f>IF(B62=Inputs!$C$1,D62,E61)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F62" s="64">
         <f>IF(AND(B62&gt;=Inputs!$C$1,B62&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E62,0)</f>
-        <v>0</v>
+        <v>1.0125</v>
       </c>
       <c r="G62" s="64">
         <f>IF(AND(B62&gt;=Inputs!$C$1,B62&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B62,"Y")+1, 0),0)</f>
-        <v>0</v>
+        <v>1.1576250000000001</v>
       </c>
       <c r="I62" s="63">
         <f>IF($B62=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D62</f>
@@ -11475,23 +11500,23 @@
       </c>
       <c r="N62" s="63">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3810.5156250000005</v>
       </c>
       <c r="P62" s="63">
         <f>$F62*Outputs_Internal!$D$60/12+N62</f>
-        <v>0</v>
+        <v>19540.800000000003</v>
       </c>
       <c r="Q62" s="63">
         <f>$F62*Outputs_Internal!K$60/12+N62*'MARA Prices'!$F$5</f>
-        <v>0</v>
+        <v>3509.9705131439596</v>
       </c>
       <c r="R62" s="63">
         <f>$F62*Outputs_Internal!L$60/12+N62*'MARA Prices'!$F$6</f>
-        <v>0</v>
+        <v>12982.41698685604</v>
       </c>
       <c r="S62" s="63">
         <f>N62*'MARA Prices'!$F$4</f>
-        <v>0</v>
+        <v>3048.4125000000004</v>
       </c>
       <c r="T62" s="63">
         <f>$F62*Outputs_Internal!M$60/12</f>
@@ -11499,45 +11524,45 @@
       </c>
       <c r="U62" s="63">
         <f>$F62*Outputs_Internal!N$60/12</f>
-        <v>0</v>
+        <v>-2.1076890233118206E-13</v>
       </c>
       <c r="W62" s="63">
+        <f t="shared" si="5"/>
+        <v>58622.400000000009</v>
+      </c>
+      <c r="X62" s="63">
+        <f t="shared" si="6"/>
+        <v>10529.91153943188</v>
+      </c>
+      <c r="Y62" s="63">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X62" s="63">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y62" s="63">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>38947.250960568119</v>
       </c>
       <c r="Z62" s="63">
-        <f t="shared" si="10"/>
+        <f>IF(MOD(MONTH($B62),3)=0,SUM(L60:L62,T60:T62),0)</f>
         <v>0</v>
       </c>
       <c r="AA62" s="63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD62" s="105">
+        <f>IF(MOD(MONTH($B62),3)=0,SUM(U60:U62,S60:S62),0)</f>
+        <v>9145.2375000000011</v>
+      </c>
+      <c r="AD62" s="63">
         <f>'MARA Prices'!H$21*$G62</f>
         <v>0</v>
       </c>
-      <c r="AE62" s="105">
+      <c r="AE62" s="63">
         <f>'MARA Prices'!I$21*$G62</f>
-        <v>0</v>
-      </c>
-      <c r="AF62" s="105">
+        <v>3810.5156250000005</v>
+      </c>
+      <c r="AF62" s="63">
         <f>'MARA Prices'!J$21*$G62</f>
         <v>0</v>
       </c>
-      <c r="AG62" s="105">
+      <c r="AG62" s="63">
         <f>'MARA Prices'!K$21*$G62</f>
         <v>0</v>
       </c>
-      <c r="AH62" s="105">
+      <c r="AH62" s="63">
         <f>'MARA Prices'!L$21*$G62</f>
         <v>0</v>
       </c>
@@ -11553,7 +11578,7 @@
       </c>
       <c r="E63" s="64">
         <f>IF(B63=Inputs!$C$1,D63,E62)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F63" s="64">
         <f>IF(AND(B63&gt;=Inputs!$C$1,B63&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E63,0)</f>
@@ -11608,42 +11633,42 @@
         <v>0</v>
       </c>
       <c r="W63" s="63">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X63" s="63">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y63" s="63">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="X63" s="63">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y63" s="63">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="Z63" s="63">
-        <f t="shared" si="10"/>
+        <f>IF(MOD(MONTH($B63),3)=0,SUM(L61:L63,T61:T63),0)</f>
         <v>0</v>
       </c>
       <c r="AA63" s="63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD63" s="105">
+        <f>IF(MOD(MONTH($B63),3)=0,SUM(U61:U63,S61:S63),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD63" s="63">
         <f>'MARA Prices'!H$21*$G63</f>
         <v>0</v>
       </c>
-      <c r="AE63" s="105">
+      <c r="AE63" s="63">
         <f>'MARA Prices'!I$21*$G63</f>
         <v>0</v>
       </c>
-      <c r="AF63" s="105">
+      <c r="AF63" s="63">
         <f>'MARA Prices'!J$21*$G63</f>
         <v>0</v>
       </c>
-      <c r="AG63" s="105">
+      <c r="AG63" s="63">
         <f>'MARA Prices'!K$21*$G63</f>
         <v>0</v>
       </c>
-      <c r="AH63" s="105">
+      <c r="AH63" s="63">
         <f>'MARA Prices'!L$21*$G63</f>
         <v>0</v>
       </c>
@@ -11659,7 +11684,7 @@
       </c>
       <c r="E64" s="64">
         <f>IF(B64=Inputs!$C$1,D64,E63)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F64" s="64">
         <f>IF(AND(B64&gt;=Inputs!$C$1,B64&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E64,0)</f>
@@ -11714,42 +11739,42 @@
         <v>0</v>
       </c>
       <c r="W64" s="63">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X64" s="63">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y64" s="63">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="X64" s="63">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y64" s="63">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="Z64" s="63">
-        <f t="shared" si="10"/>
+        <f>IF(MOD(MONTH($B64),3)=0,SUM(L62:L64,T62:T64),0)</f>
         <v>0</v>
       </c>
       <c r="AA64" s="63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD64" s="105">
+        <f>IF(MOD(MONTH($B64),3)=0,SUM(U62:U64,S62:S64),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD64" s="63">
         <f>'MARA Prices'!H$21*$G64</f>
         <v>0</v>
       </c>
-      <c r="AE64" s="105">
+      <c r="AE64" s="63">
         <f>'MARA Prices'!I$21*$G64</f>
         <v>0</v>
       </c>
-      <c r="AF64" s="105">
+      <c r="AF64" s="63">
         <f>'MARA Prices'!J$21*$G64</f>
         <v>0</v>
       </c>
-      <c r="AG64" s="105">
+      <c r="AG64" s="63">
         <f>'MARA Prices'!K$21*$G64</f>
         <v>0</v>
       </c>
-      <c r="AH64" s="105">
+      <c r="AH64" s="63">
         <f>'MARA Prices'!L$21*$G64</f>
         <v>0</v>
       </c>
@@ -11765,7 +11790,7 @@
       </c>
       <c r="E65" s="64">
         <f>IF(B65=Inputs!$C$1,D65,E64)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F65" s="64">
         <f>IF(AND(B65&gt;=Inputs!$C$1,B65&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E65,0)</f>
@@ -11820,42 +11845,42 @@
         <v>0</v>
       </c>
       <c r="W65" s="63">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X65" s="63">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y65" s="63">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="X65" s="63">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y65" s="63">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="Z65" s="63">
-        <f t="shared" si="10"/>
+        <f>IF(MOD(MONTH($B65),3)=0,SUM(L63:L65,T63:T65),0)</f>
         <v>0</v>
       </c>
       <c r="AA65" s="63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD65" s="105">
+        <f>IF(MOD(MONTH($B65),3)=0,SUM(U63:U65,S63:S65),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD65" s="63">
         <f>'MARA Prices'!H$21*$G65</f>
         <v>0</v>
       </c>
-      <c r="AE65" s="105">
+      <c r="AE65" s="63">
         <f>'MARA Prices'!I$21*$G65</f>
         <v>0</v>
       </c>
-      <c r="AF65" s="105">
+      <c r="AF65" s="63">
         <f>'MARA Prices'!J$21*$G65</f>
         <v>0</v>
       </c>
-      <c r="AG65" s="105">
+      <c r="AG65" s="63">
         <f>'MARA Prices'!K$21*$G65</f>
         <v>0</v>
       </c>
-      <c r="AH65" s="105">
+      <c r="AH65" s="63">
         <f>'MARA Prices'!L$21*$G65</f>
         <v>0</v>
       </c>
@@ -11871,7 +11896,7 @@
       </c>
       <c r="E66" s="64">
         <f>IF(B66=Inputs!$C$1,D66,E65)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F66" s="64">
         <f>IF(AND(B66&gt;=Inputs!$C$1,B66&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E66,0)</f>
@@ -11926,42 +11951,42 @@
         <v>0</v>
       </c>
       <c r="W66" s="63">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X66" s="63">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y66" s="63">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="X66" s="63">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y66" s="63">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="Z66" s="63">
-        <f t="shared" si="10"/>
+        <f>IF(MOD(MONTH($B66),3)=0,SUM(L64:L66,T64:T66),0)</f>
         <v>0</v>
       </c>
       <c r="AA66" s="63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD66" s="105">
+        <f>IF(MOD(MONTH($B66),3)=0,SUM(U64:U66,S64:S66),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD66" s="63">
         <f>'MARA Prices'!H$21*$G66</f>
         <v>0</v>
       </c>
-      <c r="AE66" s="105">
+      <c r="AE66" s="63">
         <f>'MARA Prices'!I$21*$G66</f>
         <v>0</v>
       </c>
-      <c r="AF66" s="105">
+      <c r="AF66" s="63">
         <f>'MARA Prices'!J$21*$G66</f>
         <v>0</v>
       </c>
-      <c r="AG66" s="105">
+      <c r="AG66" s="63">
         <f>'MARA Prices'!K$21*$G66</f>
         <v>0</v>
       </c>
-      <c r="AH66" s="105">
+      <c r="AH66" s="63">
         <f>'MARA Prices'!L$21*$G66</f>
         <v>0</v>
       </c>
@@ -11977,7 +12002,7 @@
       </c>
       <c r="E67" s="64">
         <f>IF(B67=Inputs!$C$1,D67,E66)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F67" s="64">
         <f>IF(AND(B67&gt;=Inputs!$C$1,B67&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E67,0)</f>
@@ -12032,42 +12057,42 @@
         <v>0</v>
       </c>
       <c r="W67" s="63">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X67" s="63">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y67" s="63">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="X67" s="63">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y67" s="63">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="Z67" s="63">
-        <f t="shared" si="10"/>
+        <f>IF(MOD(MONTH($B67),3)=0,SUM(L65:L67,T65:T67),0)</f>
         <v>0</v>
       </c>
       <c r="AA67" s="63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD67" s="105">
+        <f>IF(MOD(MONTH($B67),3)=0,SUM(U65:U67,S65:S67),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD67" s="63">
         <f>'MARA Prices'!H$21*$G67</f>
         <v>0</v>
       </c>
-      <c r="AE67" s="105">
+      <c r="AE67" s="63">
         <f>'MARA Prices'!I$21*$G67</f>
         <v>0</v>
       </c>
-      <c r="AF67" s="105">
+      <c r="AF67" s="63">
         <f>'MARA Prices'!J$21*$G67</f>
         <v>0</v>
       </c>
-      <c r="AG67" s="105">
+      <c r="AG67" s="63">
         <f>'MARA Prices'!K$21*$G67</f>
         <v>0</v>
       </c>
-      <c r="AH67" s="105">
+      <c r="AH67" s="63">
         <f>'MARA Prices'!L$21*$G67</f>
         <v>0</v>
       </c>
@@ -12083,7 +12108,7 @@
       </c>
       <c r="E68" s="64">
         <f>IF(B68=Inputs!$C$1,D68,E67)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F68" s="64">
         <f>IF(AND(B68&gt;=Inputs!$C$1,B68&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E68,0)</f>
@@ -12110,7 +12135,7 @@
         <v>0</v>
       </c>
       <c r="N68" s="63">
-        <f t="shared" ref="N68:N94" si="11">SUM(AD68:AH68)</f>
+        <f t="shared" ref="N68:N94" si="8">SUM(AD68:AH68)</f>
         <v>0</v>
       </c>
       <c r="P68" s="63">
@@ -12138,49 +12163,49 @@
         <v>0</v>
       </c>
       <c r="W68" s="63">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X68" s="63">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y68" s="63">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="X68" s="63">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y68" s="63">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="Z68" s="63">
-        <f t="shared" si="10"/>
+        <f>IF(MOD(MONTH($B68),3)=0,SUM(L66:L68,T66:T68),0)</f>
         <v>0</v>
       </c>
       <c r="AA68" s="63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD68" s="105">
+        <f>IF(MOD(MONTH($B68),3)=0,SUM(U66:U68,S66:S68),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD68" s="63">
         <f>'MARA Prices'!H$21*$G68</f>
         <v>0</v>
       </c>
-      <c r="AE68" s="105">
+      <c r="AE68" s="63">
         <f>'MARA Prices'!I$21*$G68</f>
         <v>0</v>
       </c>
-      <c r="AF68" s="105">
+      <c r="AF68" s="63">
         <f>'MARA Prices'!J$21*$G68</f>
         <v>0</v>
       </c>
-      <c r="AG68" s="105">
+      <c r="AG68" s="63">
         <f>'MARA Prices'!K$21*$G68</f>
         <v>0</v>
       </c>
-      <c r="AH68" s="105">
+      <c r="AH68" s="63">
         <f>'MARA Prices'!L$21*$G68</f>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B69" s="60">
-        <f t="shared" ref="B69:B94" si="12">EDATE(B68,1)</f>
+        <f t="shared" ref="B69:B94" si="9">EDATE(B68,1)</f>
         <v>44927</v>
       </c>
       <c r="D69" s="64">
@@ -12189,7 +12214,7 @@
       </c>
       <c r="E69" s="64">
         <f>IF(B69=Inputs!$C$1,D69,E68)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F69" s="64">
         <f>IF(AND(B69&gt;=Inputs!$C$1,B69&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E69,0)</f>
@@ -12216,7 +12241,7 @@
         <v>0</v>
       </c>
       <c r="N69" s="63">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P69" s="63">
@@ -12244,49 +12269,49 @@
         <v>0</v>
       </c>
       <c r="W69" s="63">
-        <f t="shared" ref="W69:W100" si="13">IF(MOD(MONTH($B69),3)=0,SUM(I67:I69,P67:P69),0)</f>
+        <f t="shared" ref="W69:W94" si="10">IF(MOD(MONTH($B69),3)=0,SUM(I67:I69,P67:P69),0)</f>
         <v>0</v>
       </c>
       <c r="X69" s="63">
-        <f t="shared" ref="X69:X100" si="14">IF(MOD(MONTH($B69),3)=0,SUM(J67:J69,Q67:Q69),0)</f>
+        <f t="shared" ref="X69:X94" si="11">IF(MOD(MONTH($B69),3)=0,SUM(J67:J69,Q67:Q69),0)</f>
         <v>0</v>
       </c>
       <c r="Y69" s="63">
-        <f t="shared" ref="Y69:Y100" si="15">IF(MOD(MONTH($B69),3)=0,SUM(K67:K69,R67:R69),0)</f>
+        <f t="shared" ref="Y69:Y94" si="12">IF(MOD(MONTH($B69),3)=0,SUM(K67:K69,R67:R69),0)</f>
         <v>0</v>
       </c>
       <c r="Z69" s="63">
-        <f t="shared" ref="Z69:Z100" si="16">IF(MOD(MONTH($B69),3)=0,SUM(L67:L69,T67:T69),0)</f>
+        <f t="shared" ref="Z69:Z94" si="13">IF(MOD(MONTH($B69),3)=0,SUM(L67:L69,T67:T69),0)</f>
         <v>0</v>
       </c>
       <c r="AA69" s="63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD69" s="105">
+        <f>IF(MOD(MONTH($B69),3)=0,SUM(U67:U69,S67:S69),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD69" s="63">
         <f>'MARA Prices'!H$21*$G69</f>
         <v>0</v>
       </c>
-      <c r="AE69" s="105">
+      <c r="AE69" s="63">
         <f>'MARA Prices'!I$21*$G69</f>
         <v>0</v>
       </c>
-      <c r="AF69" s="105">
+      <c r="AF69" s="63">
         <f>'MARA Prices'!J$21*$G69</f>
         <v>0</v>
       </c>
-      <c r="AG69" s="105">
+      <c r="AG69" s="63">
         <f>'MARA Prices'!K$21*$G69</f>
         <v>0</v>
       </c>
-      <c r="AH69" s="105">
+      <c r="AH69" s="63">
         <f>'MARA Prices'!L$21*$G69</f>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B70" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>44958</v>
       </c>
       <c r="D70" s="64">
@@ -12295,7 +12320,7 @@
       </c>
       <c r="E70" s="64">
         <f>IF(B70=Inputs!$C$1,D70,E69)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F70" s="64">
         <f>IF(AND(B70&gt;=Inputs!$C$1,B70&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E70,0)</f>
@@ -12322,7 +12347,7 @@
         <v>0</v>
       </c>
       <c r="N70" s="63">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P70" s="63">
@@ -12350,49 +12375,49 @@
         <v>0</v>
       </c>
       <c r="W70" s="63">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X70" s="63">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y70" s="63">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z70" s="63">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X70" s="63">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Y70" s="63">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Z70" s="63">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
       <c r="AA70" s="63">
-        <f t="shared" ref="AA70:AA94" si="17">IF(MOD(MONTH($B70),3)=0,SUM(U68:U70,S68:S70),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AD70" s="105">
+        <f t="shared" ref="AA70:AA94" si="14">IF(MOD(MONTH($B70),3)=0,SUM(U68:U70,S68:S70),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD70" s="63">
         <f>'MARA Prices'!H$21*$G70</f>
         <v>0</v>
       </c>
-      <c r="AE70" s="105">
+      <c r="AE70" s="63">
         <f>'MARA Prices'!I$21*$G70</f>
         <v>0</v>
       </c>
-      <c r="AF70" s="105">
+      <c r="AF70" s="63">
         <f>'MARA Prices'!J$21*$G70</f>
         <v>0</v>
       </c>
-      <c r="AG70" s="105">
+      <c r="AG70" s="63">
         <f>'MARA Prices'!K$21*$G70</f>
         <v>0</v>
       </c>
-      <c r="AH70" s="105">
+      <c r="AH70" s="63">
         <f>'MARA Prices'!L$21*$G70</f>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B71" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>44986</v>
       </c>
       <c r="D71" s="64">
@@ -12401,7 +12426,7 @@
       </c>
       <c r="E71" s="64">
         <f>IF(B71=Inputs!$C$1,D71,E70)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F71" s="64">
         <f>IF(AND(B71&gt;=Inputs!$C$1,B71&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E71,0)</f>
@@ -12428,7 +12453,7 @@
         <v>0</v>
       </c>
       <c r="N71" s="63">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P71" s="63">
@@ -12456,49 +12481,49 @@
         <v>0</v>
       </c>
       <c r="W71" s="63">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X71" s="63">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y71" s="63">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z71" s="63">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X71" s="63">
+      <c r="AA71" s="63">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Y71" s="63">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Z71" s="63">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AA71" s="63">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AD71" s="105">
+      <c r="AD71" s="63">
         <f>'MARA Prices'!H$21*$G71</f>
         <v>0</v>
       </c>
-      <c r="AE71" s="105">
+      <c r="AE71" s="63">
         <f>'MARA Prices'!I$21*$G71</f>
         <v>0</v>
       </c>
-      <c r="AF71" s="105">
+      <c r="AF71" s="63">
         <f>'MARA Prices'!J$21*$G71</f>
         <v>0</v>
       </c>
-      <c r="AG71" s="105">
+      <c r="AG71" s="63">
         <f>'MARA Prices'!K$21*$G71</f>
         <v>0</v>
       </c>
-      <c r="AH71" s="105">
+      <c r="AH71" s="63">
         <f>'MARA Prices'!L$21*$G71</f>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B72" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>45017</v>
       </c>
       <c r="D72" s="64">
@@ -12507,7 +12532,7 @@
       </c>
       <c r="E72" s="64">
         <f>IF(B72=Inputs!$C$1,D72,E71)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F72" s="64">
         <f>IF(AND(B72&gt;=Inputs!$C$1,B72&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E72,0)</f>
@@ -12534,7 +12559,7 @@
         <v>0</v>
       </c>
       <c r="N72" s="63">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P72" s="63">
@@ -12562,49 +12587,49 @@
         <v>0</v>
       </c>
       <c r="W72" s="63">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X72" s="63">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y72" s="63">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z72" s="63">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X72" s="63">
+      <c r="AA72" s="63">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Y72" s="63">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Z72" s="63">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AA72" s="63">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AD72" s="105">
+      <c r="AD72" s="63">
         <f>'MARA Prices'!H$21*$G72</f>
         <v>0</v>
       </c>
-      <c r="AE72" s="105">
+      <c r="AE72" s="63">
         <f>'MARA Prices'!I$21*$G72</f>
         <v>0</v>
       </c>
-      <c r="AF72" s="105">
+      <c r="AF72" s="63">
         <f>'MARA Prices'!J$21*$G72</f>
         <v>0</v>
       </c>
-      <c r="AG72" s="105">
+      <c r="AG72" s="63">
         <f>'MARA Prices'!K$21*$G72</f>
         <v>0</v>
       </c>
-      <c r="AH72" s="105">
+      <c r="AH72" s="63">
         <f>'MARA Prices'!L$21*$G72</f>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B73" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>45047</v>
       </c>
       <c r="D73" s="64">
@@ -12613,7 +12638,7 @@
       </c>
       <c r="E73" s="64">
         <f>IF(B73=Inputs!$C$1,D73,E72)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F73" s="64">
         <f>IF(AND(B73&gt;=Inputs!$C$1,B73&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E73,0)</f>
@@ -12640,7 +12665,7 @@
         <v>0</v>
       </c>
       <c r="N73" s="63">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P73" s="63">
@@ -12668,49 +12693,49 @@
         <v>0</v>
       </c>
       <c r="W73" s="63">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X73" s="63">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y73" s="63">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z73" s="63">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X73" s="63">
+      <c r="AA73" s="63">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Y73" s="63">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Z73" s="63">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AA73" s="63">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AD73" s="105">
+      <c r="AD73" s="63">
         <f>'MARA Prices'!H$21*$G73</f>
         <v>0</v>
       </c>
-      <c r="AE73" s="105">
+      <c r="AE73" s="63">
         <f>'MARA Prices'!I$21*$G73</f>
         <v>0</v>
       </c>
-      <c r="AF73" s="105">
+      <c r="AF73" s="63">
         <f>'MARA Prices'!J$21*$G73</f>
         <v>0</v>
       </c>
-      <c r="AG73" s="105">
+      <c r="AG73" s="63">
         <f>'MARA Prices'!K$21*$G73</f>
         <v>0</v>
       </c>
-      <c r="AH73" s="105">
+      <c r="AH73" s="63">
         <f>'MARA Prices'!L$21*$G73</f>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B74" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>45078</v>
       </c>
       <c r="D74" s="64">
@@ -12719,7 +12744,7 @@
       </c>
       <c r="E74" s="64">
         <f>IF(B74=Inputs!$C$1,D74,E73)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F74" s="64">
         <f>IF(AND(B74&gt;=Inputs!$C$1,B74&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E74,0)</f>
@@ -12746,7 +12771,7 @@
         <v>0</v>
       </c>
       <c r="N74" s="63">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P74" s="63">
@@ -12774,49 +12799,49 @@
         <v>0</v>
       </c>
       <c r="W74" s="63">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X74" s="63">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y74" s="63">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z74" s="63">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X74" s="63">
+      <c r="AA74" s="63">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Y74" s="63">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Z74" s="63">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AA74" s="63">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AD74" s="105">
+      <c r="AD74" s="63">
         <f>'MARA Prices'!H$21*$G74</f>
         <v>0</v>
       </c>
-      <c r="AE74" s="105">
+      <c r="AE74" s="63">
         <f>'MARA Prices'!I$21*$G74</f>
         <v>0</v>
       </c>
-      <c r="AF74" s="105">
+      <c r="AF74" s="63">
         <f>'MARA Prices'!J$21*$G74</f>
         <v>0</v>
       </c>
-      <c r="AG74" s="105">
+      <c r="AG74" s="63">
         <f>'MARA Prices'!K$21*$G74</f>
         <v>0</v>
       </c>
-      <c r="AH74" s="105">
+      <c r="AH74" s="63">
         <f>'MARA Prices'!L$21*$G74</f>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B75" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>45108</v>
       </c>
       <c r="D75" s="64">
@@ -12825,7 +12850,7 @@
       </c>
       <c r="E75" s="64">
         <f>IF(B75=Inputs!$C$1,D75,E74)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F75" s="64">
         <f>IF(AND(B75&gt;=Inputs!$C$1,B75&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E75,0)</f>
@@ -12852,7 +12877,7 @@
         <v>0</v>
       </c>
       <c r="N75" s="63">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P75" s="63">
@@ -12880,49 +12905,49 @@
         <v>0</v>
       </c>
       <c r="W75" s="63">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X75" s="63">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y75" s="63">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z75" s="63">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X75" s="63">
+      <c r="AA75" s="63">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Y75" s="63">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Z75" s="63">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AA75" s="63">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AD75" s="105">
+      <c r="AD75" s="63">
         <f>'MARA Prices'!H$21*$G75</f>
         <v>0</v>
       </c>
-      <c r="AE75" s="105">
+      <c r="AE75" s="63">
         <f>'MARA Prices'!I$21*$G75</f>
         <v>0</v>
       </c>
-      <c r="AF75" s="105">
+      <c r="AF75" s="63">
         <f>'MARA Prices'!J$21*$G75</f>
         <v>0</v>
       </c>
-      <c r="AG75" s="105">
+      <c r="AG75" s="63">
         <f>'MARA Prices'!K$21*$G75</f>
         <v>0</v>
       </c>
-      <c r="AH75" s="105">
+      <c r="AH75" s="63">
         <f>'MARA Prices'!L$21*$G75</f>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B76" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>45139</v>
       </c>
       <c r="D76" s="64">
@@ -12931,7 +12956,7 @@
       </c>
       <c r="E76" s="64">
         <f>IF(B76=Inputs!$C$1,D76,E75)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F76" s="64">
         <f>IF(AND(B76&gt;=Inputs!$C$1,B76&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E76,0)</f>
@@ -12958,7 +12983,7 @@
         <v>0</v>
       </c>
       <c r="N76" s="63">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P76" s="63">
@@ -12986,49 +13011,49 @@
         <v>0</v>
       </c>
       <c r="W76" s="63">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X76" s="63">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y76" s="63">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z76" s="63">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X76" s="63">
+      <c r="AA76" s="63">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Y76" s="63">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Z76" s="63">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AA76" s="63">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AD76" s="105">
+      <c r="AD76" s="63">
         <f>'MARA Prices'!H$21*$G76</f>
         <v>0</v>
       </c>
-      <c r="AE76" s="105">
+      <c r="AE76" s="63">
         <f>'MARA Prices'!I$21*$G76</f>
         <v>0</v>
       </c>
-      <c r="AF76" s="105">
+      <c r="AF76" s="63">
         <f>'MARA Prices'!J$21*$G76</f>
         <v>0</v>
       </c>
-      <c r="AG76" s="105">
+      <c r="AG76" s="63">
         <f>'MARA Prices'!K$21*$G76</f>
         <v>0</v>
       </c>
-      <c r="AH76" s="105">
+      <c r="AH76" s="63">
         <f>'MARA Prices'!L$21*$G76</f>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B77" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>45170</v>
       </c>
       <c r="D77" s="64">
@@ -13037,7 +13062,7 @@
       </c>
       <c r="E77" s="64">
         <f>IF(B77=Inputs!$C$1,D77,E76)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F77" s="64">
         <f>IF(AND(B77&gt;=Inputs!$C$1,B77&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E77,0)</f>
@@ -13064,7 +13089,7 @@
         <v>0</v>
       </c>
       <c r="N77" s="63">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P77" s="63">
@@ -13092,49 +13117,49 @@
         <v>0</v>
       </c>
       <c r="W77" s="63">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X77" s="63">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y77" s="63">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z77" s="63">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X77" s="63">
+      <c r="AA77" s="63">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Y77" s="63">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Z77" s="63">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AA77" s="63">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AD77" s="105">
+      <c r="AD77" s="63">
         <f>'MARA Prices'!H$21*$G77</f>
         <v>0</v>
       </c>
-      <c r="AE77" s="105">
+      <c r="AE77" s="63">
         <f>'MARA Prices'!I$21*$G77</f>
         <v>0</v>
       </c>
-      <c r="AF77" s="105">
+      <c r="AF77" s="63">
         <f>'MARA Prices'!J$21*$G77</f>
         <v>0</v>
       </c>
-      <c r="AG77" s="105">
+      <c r="AG77" s="63">
         <f>'MARA Prices'!K$21*$G77</f>
         <v>0</v>
       </c>
-      <c r="AH77" s="105">
+      <c r="AH77" s="63">
         <f>'MARA Prices'!L$21*$G77</f>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B78" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>45200</v>
       </c>
       <c r="D78" s="64">
@@ -13143,7 +13168,7 @@
       </c>
       <c r="E78" s="64">
         <f>IF(B78=Inputs!$C$1,D78,E77)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F78" s="64">
         <f>IF(AND(B78&gt;=Inputs!$C$1,B78&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E78,0)</f>
@@ -13170,7 +13195,7 @@
         <v>0</v>
       </c>
       <c r="N78" s="63">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P78" s="63">
@@ -13198,49 +13223,49 @@
         <v>0</v>
       </c>
       <c r="W78" s="63">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X78" s="63">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y78" s="63">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z78" s="63">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X78" s="63">
+      <c r="AA78" s="63">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Y78" s="63">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Z78" s="63">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AA78" s="63">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AD78" s="105">
+      <c r="AD78" s="63">
         <f>'MARA Prices'!H$21*$G78</f>
         <v>0</v>
       </c>
-      <c r="AE78" s="105">
+      <c r="AE78" s="63">
         <f>'MARA Prices'!I$21*$G78</f>
         <v>0</v>
       </c>
-      <c r="AF78" s="105">
+      <c r="AF78" s="63">
         <f>'MARA Prices'!J$21*$G78</f>
         <v>0</v>
       </c>
-      <c r="AG78" s="105">
+      <c r="AG78" s="63">
         <f>'MARA Prices'!K$21*$G78</f>
         <v>0</v>
       </c>
-      <c r="AH78" s="105">
+      <c r="AH78" s="63">
         <f>'MARA Prices'!L$21*$G78</f>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B79" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>45231</v>
       </c>
       <c r="D79" s="64">
@@ -13249,7 +13274,7 @@
       </c>
       <c r="E79" s="64">
         <f>IF(B79=Inputs!$C$1,D79,E78)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F79" s="64">
         <f>IF(AND(B79&gt;=Inputs!$C$1,B79&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E79,0)</f>
@@ -13276,7 +13301,7 @@
         <v>0</v>
       </c>
       <c r="N79" s="63">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P79" s="63">
@@ -13304,49 +13329,49 @@
         <v>0</v>
       </c>
       <c r="W79" s="63">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X79" s="63">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y79" s="63">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z79" s="63">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X79" s="63">
+      <c r="AA79" s="63">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Y79" s="63">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Z79" s="63">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AA79" s="63">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AD79" s="105">
+      <c r="AD79" s="63">
         <f>'MARA Prices'!H$21*$G79</f>
         <v>0</v>
       </c>
-      <c r="AE79" s="105">
+      <c r="AE79" s="63">
         <f>'MARA Prices'!I$21*$G79</f>
         <v>0</v>
       </c>
-      <c r="AF79" s="105">
+      <c r="AF79" s="63">
         <f>'MARA Prices'!J$21*$G79</f>
         <v>0</v>
       </c>
-      <c r="AG79" s="105">
+      <c r="AG79" s="63">
         <f>'MARA Prices'!K$21*$G79</f>
         <v>0</v>
       </c>
-      <c r="AH79" s="105">
+      <c r="AH79" s="63">
         <f>'MARA Prices'!L$21*$G79</f>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B80" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>45261</v>
       </c>
       <c r="D80" s="64">
@@ -13355,7 +13380,7 @@
       </c>
       <c r="E80" s="64">
         <f>IF(B80=Inputs!$C$1,D80,E79)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F80" s="64">
         <f>IF(AND(B80&gt;=Inputs!$C$1,B80&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E80,0)</f>
@@ -13382,7 +13407,7 @@
         <v>0</v>
       </c>
       <c r="N80" s="63">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P80" s="63">
@@ -13410,49 +13435,49 @@
         <v>0</v>
       </c>
       <c r="W80" s="63">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X80" s="63">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y80" s="63">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z80" s="63">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X80" s="63">
+      <c r="AA80" s="63">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Y80" s="63">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Z80" s="63">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AA80" s="63">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AD80" s="105">
+      <c r="AD80" s="63">
         <f>'MARA Prices'!H$21*$G80</f>
         <v>0</v>
       </c>
-      <c r="AE80" s="105">
+      <c r="AE80" s="63">
         <f>'MARA Prices'!I$21*$G80</f>
         <v>0</v>
       </c>
-      <c r="AF80" s="105">
+      <c r="AF80" s="63">
         <f>'MARA Prices'!J$21*$G80</f>
         <v>0</v>
       </c>
-      <c r="AG80" s="105">
+      <c r="AG80" s="63">
         <f>'MARA Prices'!K$21*$G80</f>
         <v>0</v>
       </c>
-      <c r="AH80" s="105">
+      <c r="AH80" s="63">
         <f>'MARA Prices'!L$21*$G80</f>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B81" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>45292</v>
       </c>
       <c r="D81" s="64">
@@ -13461,7 +13486,7 @@
       </c>
       <c r="E81" s="64">
         <f>IF(B81=Inputs!$C$1,D81,E80)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F81" s="64">
         <f>IF(AND(B81&gt;=Inputs!$C$1,B81&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E81,0)</f>
@@ -13488,7 +13513,7 @@
         <v>0</v>
       </c>
       <c r="N81" s="63">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P81" s="63">
@@ -13516,49 +13541,49 @@
         <v>0</v>
       </c>
       <c r="W81" s="63">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X81" s="63">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y81" s="63">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z81" s="63">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X81" s="63">
+      <c r="AA81" s="63">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Y81" s="63">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Z81" s="63">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AA81" s="63">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AD81" s="105">
+      <c r="AD81" s="63">
         <f>'MARA Prices'!H$21*$G81</f>
         <v>0</v>
       </c>
-      <c r="AE81" s="105">
+      <c r="AE81" s="63">
         <f>'MARA Prices'!I$21*$G81</f>
         <v>0</v>
       </c>
-      <c r="AF81" s="105">
+      <c r="AF81" s="63">
         <f>'MARA Prices'!J$21*$G81</f>
         <v>0</v>
       </c>
-      <c r="AG81" s="105">
+      <c r="AG81" s="63">
         <f>'MARA Prices'!K$21*$G81</f>
         <v>0</v>
       </c>
-      <c r="AH81" s="105">
+      <c r="AH81" s="63">
         <f>'MARA Prices'!L$21*$G81</f>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B82" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>45323</v>
       </c>
       <c r="D82" s="64">
@@ -13567,7 +13592,7 @@
       </c>
       <c r="E82" s="64">
         <f>IF(B82=Inputs!$C$1,D82,E81)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F82" s="64">
         <f>IF(AND(B82&gt;=Inputs!$C$1,B82&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E82,0)</f>
@@ -13594,7 +13619,7 @@
         <v>0</v>
       </c>
       <c r="N82" s="63">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P82" s="63">
@@ -13622,49 +13647,49 @@
         <v>0</v>
       </c>
       <c r="W82" s="63">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X82" s="63">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y82" s="63">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z82" s="63">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X82" s="63">
+      <c r="AA82" s="63">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Y82" s="63">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Z82" s="63">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AA82" s="63">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AD82" s="105">
+      <c r="AD82" s="63">
         <f>'MARA Prices'!H$21*$G82</f>
         <v>0</v>
       </c>
-      <c r="AE82" s="105">
+      <c r="AE82" s="63">
         <f>'MARA Prices'!I$21*$G82</f>
         <v>0</v>
       </c>
-      <c r="AF82" s="105">
+      <c r="AF82" s="63">
         <f>'MARA Prices'!J$21*$G82</f>
         <v>0</v>
       </c>
-      <c r="AG82" s="105">
+      <c r="AG82" s="63">
         <f>'MARA Prices'!K$21*$G82</f>
         <v>0</v>
       </c>
-      <c r="AH82" s="105">
+      <c r="AH82" s="63">
         <f>'MARA Prices'!L$21*$G82</f>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B83" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>45352</v>
       </c>
       <c r="D83" s="64">
@@ -13673,7 +13698,7 @@
       </c>
       <c r="E83" s="64">
         <f>IF(B83=Inputs!$C$1,D83,E82)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F83" s="64">
         <f>IF(AND(B83&gt;=Inputs!$C$1,B83&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E83,0)</f>
@@ -13700,7 +13725,7 @@
         <v>0</v>
       </c>
       <c r="N83" s="63">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P83" s="63">
@@ -13728,49 +13753,49 @@
         <v>0</v>
       </c>
       <c r="W83" s="63">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X83" s="63">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y83" s="63">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z83" s="63">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X83" s="63">
+      <c r="AA83" s="63">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Y83" s="63">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Z83" s="63">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AA83" s="63">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AD83" s="105">
+      <c r="AD83" s="63">
         <f>'MARA Prices'!H$21*$G83</f>
         <v>0</v>
       </c>
-      <c r="AE83" s="105">
+      <c r="AE83" s="63">
         <f>'MARA Prices'!I$21*$G83</f>
         <v>0</v>
       </c>
-      <c r="AF83" s="105">
+      <c r="AF83" s="63">
         <f>'MARA Prices'!J$21*$G83</f>
         <v>0</v>
       </c>
-      <c r="AG83" s="105">
+      <c r="AG83" s="63">
         <f>'MARA Prices'!K$21*$G83</f>
         <v>0</v>
       </c>
-      <c r="AH83" s="105">
+      <c r="AH83" s="63">
         <f>'MARA Prices'!L$21*$G83</f>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B84" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>45383</v>
       </c>
       <c r="D84" s="64">
@@ -13779,7 +13804,7 @@
       </c>
       <c r="E84" s="64">
         <f>IF(B84=Inputs!$C$1,D84,E83)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F84" s="64">
         <f>IF(AND(B84&gt;=Inputs!$C$1,B84&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E84,0)</f>
@@ -13806,7 +13831,7 @@
         <v>0</v>
       </c>
       <c r="N84" s="63">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P84" s="63">
@@ -13834,49 +13859,49 @@
         <v>0</v>
       </c>
       <c r="W84" s="63">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X84" s="63">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y84" s="63">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z84" s="63">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X84" s="63">
+      <c r="AA84" s="63">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Y84" s="63">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Z84" s="63">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AA84" s="63">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AD84" s="105">
+      <c r="AD84" s="63">
         <f>'MARA Prices'!H$21*$G84</f>
         <v>0</v>
       </c>
-      <c r="AE84" s="105">
+      <c r="AE84" s="63">
         <f>'MARA Prices'!I$21*$G84</f>
         <v>0</v>
       </c>
-      <c r="AF84" s="105">
+      <c r="AF84" s="63">
         <f>'MARA Prices'!J$21*$G84</f>
         <v>0</v>
       </c>
-      <c r="AG84" s="105">
+      <c r="AG84" s="63">
         <f>'MARA Prices'!K$21*$G84</f>
         <v>0</v>
       </c>
-      <c r="AH84" s="105">
+      <c r="AH84" s="63">
         <f>'MARA Prices'!L$21*$G84</f>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B85" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>45413</v>
       </c>
       <c r="D85" s="64">
@@ -13885,7 +13910,7 @@
       </c>
       <c r="E85" s="64">
         <f>IF(B85=Inputs!$C$1,D85,E84)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F85" s="64">
         <f>IF(AND(B85&gt;=Inputs!$C$1,B85&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E85,0)</f>
@@ -13912,7 +13937,7 @@
         <v>0</v>
       </c>
       <c r="N85" s="63">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P85" s="63">
@@ -13940,49 +13965,49 @@
         <v>0</v>
       </c>
       <c r="W85" s="63">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X85" s="63">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y85" s="63">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z85" s="63">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X85" s="63">
+      <c r="AA85" s="63">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Y85" s="63">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Z85" s="63">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AA85" s="63">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AD85" s="105">
+      <c r="AD85" s="63">
         <f>'MARA Prices'!H$21*$G85</f>
         <v>0</v>
       </c>
-      <c r="AE85" s="105">
+      <c r="AE85" s="63">
         <f>'MARA Prices'!I$21*$G85</f>
         <v>0</v>
       </c>
-      <c r="AF85" s="105">
+      <c r="AF85" s="63">
         <f>'MARA Prices'!J$21*$G85</f>
         <v>0</v>
       </c>
-      <c r="AG85" s="105">
+      <c r="AG85" s="63">
         <f>'MARA Prices'!K$21*$G85</f>
         <v>0</v>
       </c>
-      <c r="AH85" s="105">
+      <c r="AH85" s="63">
         <f>'MARA Prices'!L$21*$G85</f>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B86" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>45444</v>
       </c>
       <c r="D86" s="64">
@@ -13991,7 +14016,7 @@
       </c>
       <c r="E86" s="64">
         <f>IF(B86=Inputs!$C$1,D86,E85)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F86" s="64">
         <f>IF(AND(B86&gt;=Inputs!$C$1,B86&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E86,0)</f>
@@ -14018,7 +14043,7 @@
         <v>0</v>
       </c>
       <c r="N86" s="63">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P86" s="63">
@@ -14046,49 +14071,49 @@
         <v>0</v>
       </c>
       <c r="W86" s="63">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X86" s="63">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y86" s="63">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z86" s="63">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X86" s="63">
+      <c r="AA86" s="63">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Y86" s="63">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Z86" s="63">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AA86" s="63">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AD86" s="105">
+      <c r="AD86" s="63">
         <f>'MARA Prices'!H$21*$G86</f>
         <v>0</v>
       </c>
-      <c r="AE86" s="105">
+      <c r="AE86" s="63">
         <f>'MARA Prices'!I$21*$G86</f>
         <v>0</v>
       </c>
-      <c r="AF86" s="105">
+      <c r="AF86" s="63">
         <f>'MARA Prices'!J$21*$G86</f>
         <v>0</v>
       </c>
-      <c r="AG86" s="105">
+      <c r="AG86" s="63">
         <f>'MARA Prices'!K$21*$G86</f>
         <v>0</v>
       </c>
-      <c r="AH86" s="105">
+      <c r="AH86" s="63">
         <f>'MARA Prices'!L$21*$G86</f>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B87" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>45474</v>
       </c>
       <c r="D87" s="64">
@@ -14097,7 +14122,7 @@
       </c>
       <c r="E87" s="64">
         <f>IF(B87=Inputs!$C$1,D87,E86)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F87" s="64">
         <f>IF(AND(B87&gt;=Inputs!$C$1,B87&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E87,0)</f>
@@ -14124,7 +14149,7 @@
         <v>0</v>
       </c>
       <c r="N87" s="63">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P87" s="63">
@@ -14152,49 +14177,49 @@
         <v>0</v>
       </c>
       <c r="W87" s="63">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X87" s="63">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y87" s="63">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z87" s="63">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X87" s="63">
+      <c r="AA87" s="63">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Y87" s="63">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Z87" s="63">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AA87" s="63">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AD87" s="105">
+      <c r="AD87" s="63">
         <f>'MARA Prices'!H$21*$G87</f>
         <v>0</v>
       </c>
-      <c r="AE87" s="105">
+      <c r="AE87" s="63">
         <f>'MARA Prices'!I$21*$G87</f>
         <v>0</v>
       </c>
-      <c r="AF87" s="105">
+      <c r="AF87" s="63">
         <f>'MARA Prices'!J$21*$G87</f>
         <v>0</v>
       </c>
-      <c r="AG87" s="105">
+      <c r="AG87" s="63">
         <f>'MARA Prices'!K$21*$G87</f>
         <v>0</v>
       </c>
-      <c r="AH87" s="105">
+      <c r="AH87" s="63">
         <f>'MARA Prices'!L$21*$G87</f>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B88" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>45505</v>
       </c>
       <c r="D88" s="64">
@@ -14203,7 +14228,7 @@
       </c>
       <c r="E88" s="64">
         <f>IF(B88=Inputs!$C$1,D88,E87)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F88" s="64">
         <f>IF(AND(B88&gt;=Inputs!$C$1,B88&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E88,0)</f>
@@ -14230,7 +14255,7 @@
         <v>0</v>
       </c>
       <c r="N88" s="63">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P88" s="63">
@@ -14258,49 +14283,49 @@
         <v>0</v>
       </c>
       <c r="W88" s="63">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X88" s="63">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y88" s="63">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z88" s="63">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X88" s="63">
+      <c r="AA88" s="63">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Y88" s="63">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Z88" s="63">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AA88" s="63">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AD88" s="105">
+      <c r="AD88" s="63">
         <f>'MARA Prices'!H$21*$G88</f>
         <v>0</v>
       </c>
-      <c r="AE88" s="105">
+      <c r="AE88" s="63">
         <f>'MARA Prices'!I$21*$G88</f>
         <v>0</v>
       </c>
-      <c r="AF88" s="105">
+      <c r="AF88" s="63">
         <f>'MARA Prices'!J$21*$G88</f>
         <v>0</v>
       </c>
-      <c r="AG88" s="105">
+      <c r="AG88" s="63">
         <f>'MARA Prices'!K$21*$G88</f>
         <v>0</v>
       </c>
-      <c r="AH88" s="105">
+      <c r="AH88" s="63">
         <f>'MARA Prices'!L$21*$G88</f>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B89" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>45536</v>
       </c>
       <c r="D89" s="64">
@@ -14309,7 +14334,7 @@
       </c>
       <c r="E89" s="64">
         <f>IF(B89=Inputs!$C$1,D89,E88)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F89" s="64">
         <f>IF(AND(B89&gt;=Inputs!$C$1,B89&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E89,0)</f>
@@ -14336,7 +14361,7 @@
         <v>0</v>
       </c>
       <c r="N89" s="63">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P89" s="63">
@@ -14364,49 +14389,49 @@
         <v>0</v>
       </c>
       <c r="W89" s="63">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X89" s="63">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y89" s="63">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z89" s="63">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X89" s="63">
+      <c r="AA89" s="63">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Y89" s="63">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Z89" s="63">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AA89" s="63">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AD89" s="105">
+      <c r="AD89" s="63">
         <f>'MARA Prices'!H$21*$G89</f>
         <v>0</v>
       </c>
-      <c r="AE89" s="105">
+      <c r="AE89" s="63">
         <f>'MARA Prices'!I$21*$G89</f>
         <v>0</v>
       </c>
-      <c r="AF89" s="105">
+      <c r="AF89" s="63">
         <f>'MARA Prices'!J$21*$G89</f>
         <v>0</v>
       </c>
-      <c r="AG89" s="105">
+      <c r="AG89" s="63">
         <f>'MARA Prices'!K$21*$G89</f>
         <v>0</v>
       </c>
-      <c r="AH89" s="105">
+      <c r="AH89" s="63">
         <f>'MARA Prices'!L$21*$G89</f>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B90" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>45566</v>
       </c>
       <c r="D90" s="64">
@@ -14415,7 +14440,7 @@
       </c>
       <c r="E90" s="64">
         <f>IF(B90=Inputs!$C$1,D90,E89)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F90" s="64">
         <f>IF(AND(B90&gt;=Inputs!$C$1,B90&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E90,0)</f>
@@ -14442,7 +14467,7 @@
         <v>0</v>
       </c>
       <c r="N90" s="63">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P90" s="63">
@@ -14470,49 +14495,49 @@
         <v>0</v>
       </c>
       <c r="W90" s="63">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X90" s="63">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y90" s="63">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z90" s="63">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X90" s="63">
+      <c r="AA90" s="63">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Y90" s="63">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Z90" s="63">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AA90" s="63">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AD90" s="105">
+      <c r="AD90" s="63">
         <f>'MARA Prices'!H$21*$G90</f>
         <v>0</v>
       </c>
-      <c r="AE90" s="105">
+      <c r="AE90" s="63">
         <f>'MARA Prices'!I$21*$G90</f>
         <v>0</v>
       </c>
-      <c r="AF90" s="105">
+      <c r="AF90" s="63">
         <f>'MARA Prices'!J$21*$G90</f>
         <v>0</v>
       </c>
-      <c r="AG90" s="105">
+      <c r="AG90" s="63">
         <f>'MARA Prices'!K$21*$G90</f>
         <v>0</v>
       </c>
-      <c r="AH90" s="105">
+      <c r="AH90" s="63">
         <f>'MARA Prices'!L$21*$G90</f>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B91" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>45597</v>
       </c>
       <c r="D91" s="64">
@@ -14521,7 +14546,7 @@
       </c>
       <c r="E91" s="64">
         <f>IF(B91=Inputs!$C$1,D91,E90)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F91" s="64">
         <f>IF(AND(B91&gt;=Inputs!$C$1,B91&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E91,0)</f>
@@ -14548,7 +14573,7 @@
         <v>0</v>
       </c>
       <c r="N91" s="63">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P91" s="63">
@@ -14576,49 +14601,49 @@
         <v>0</v>
       </c>
       <c r="W91" s="63">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X91" s="63">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y91" s="63">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z91" s="63">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X91" s="63">
+      <c r="AA91" s="63">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Y91" s="63">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Z91" s="63">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AA91" s="63">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AD91" s="105">
+      <c r="AD91" s="63">
         <f>'MARA Prices'!H$21*$G91</f>
         <v>0</v>
       </c>
-      <c r="AE91" s="105">
+      <c r="AE91" s="63">
         <f>'MARA Prices'!I$21*$G91</f>
         <v>0</v>
       </c>
-      <c r="AF91" s="105">
+      <c r="AF91" s="63">
         <f>'MARA Prices'!J$21*$G91</f>
         <v>0</v>
       </c>
-      <c r="AG91" s="105">
+      <c r="AG91" s="63">
         <f>'MARA Prices'!K$21*$G91</f>
         <v>0</v>
       </c>
-      <c r="AH91" s="105">
+      <c r="AH91" s="63">
         <f>'MARA Prices'!L$21*$G91</f>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B92" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>45627</v>
       </c>
       <c r="D92" s="64">
@@ -14627,7 +14652,7 @@
       </c>
       <c r="E92" s="64">
         <f>IF(B92=Inputs!$C$1,D92,E91)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F92" s="64">
         <f>IF(AND(B92&gt;=Inputs!$C$1,B92&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E92,0)</f>
@@ -14654,7 +14679,7 @@
         <v>0</v>
       </c>
       <c r="N92" s="63">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P92" s="63">
@@ -14682,49 +14707,49 @@
         <v>0</v>
       </c>
       <c r="W92" s="63">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X92" s="63">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y92" s="63">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z92" s="63">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X92" s="63">
+      <c r="AA92" s="63">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Y92" s="63">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Z92" s="63">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AA92" s="63">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AD92" s="105">
+      <c r="AD92" s="63">
         <f>'MARA Prices'!H$21*$G92</f>
         <v>0</v>
       </c>
-      <c r="AE92" s="105">
+      <c r="AE92" s="63">
         <f>'MARA Prices'!I$21*$G92</f>
         <v>0</v>
       </c>
-      <c r="AF92" s="105">
+      <c r="AF92" s="63">
         <f>'MARA Prices'!J$21*$G92</f>
         <v>0</v>
       </c>
-      <c r="AG92" s="105">
+      <c r="AG92" s="63">
         <f>'MARA Prices'!K$21*$G92</f>
         <v>0</v>
       </c>
-      <c r="AH92" s="105">
+      <c r="AH92" s="63">
         <f>'MARA Prices'!L$21*$G92</f>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B93" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>45658</v>
       </c>
       <c r="D93" s="64">
@@ -14733,7 +14758,7 @@
       </c>
       <c r="E93" s="64">
         <f>IF(B93=Inputs!$C$1,D93,E92)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F93" s="64">
         <f>IF(AND(B93&gt;=Inputs!$C$1,B93&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E93,0)</f>
@@ -14760,7 +14785,7 @@
         <v>0</v>
       </c>
       <c r="N93" s="63">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P93" s="63">
@@ -14788,49 +14813,49 @@
         <v>0</v>
       </c>
       <c r="W93" s="63">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X93" s="63">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y93" s="63">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z93" s="63">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X93" s="63">
+      <c r="AA93" s="63">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Y93" s="63">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Z93" s="63">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AA93" s="63">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AD93" s="105">
+      <c r="AD93" s="63">
         <f>'MARA Prices'!H$21*$G93</f>
         <v>0</v>
       </c>
-      <c r="AE93" s="105">
+      <c r="AE93" s="63">
         <f>'MARA Prices'!I$21*$G93</f>
         <v>0</v>
       </c>
-      <c r="AF93" s="105">
+      <c r="AF93" s="63">
         <f>'MARA Prices'!J$21*$G93</f>
         <v>0</v>
       </c>
-      <c r="AG93" s="105">
+      <c r="AG93" s="63">
         <f>'MARA Prices'!K$21*$G93</f>
         <v>0</v>
       </c>
-      <c r="AH93" s="105">
+      <c r="AH93" s="63">
         <f>'MARA Prices'!L$21*$G93</f>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B94" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>45689</v>
       </c>
       <c r="D94" s="64">
@@ -14839,7 +14864,7 @@
       </c>
       <c r="E94" s="64">
         <f>IF(B94=Inputs!$C$1,D94,E93)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F94" s="64">
         <f>IF(AND(B94&gt;=Inputs!$C$1,B94&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E94,0)</f>
@@ -14866,7 +14891,7 @@
         <v>0</v>
       </c>
       <c r="N94" s="63">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P94" s="63">
@@ -14894,53 +14919,64 @@
         <v>0</v>
       </c>
       <c r="W94" s="63">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X94" s="63">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y94" s="63">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z94" s="63">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X94" s="63">
+      <c r="AA94" s="63">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Y94" s="63">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Z94" s="63">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AA94" s="63">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AD94" s="105">
+      <c r="AD94" s="63">
         <f>'MARA Prices'!H$21*$G94</f>
         <v>0</v>
       </c>
-      <c r="AE94" s="105">
+      <c r="AE94" s="63">
         <f>'MARA Prices'!I$21*$G94</f>
         <v>0</v>
       </c>
-      <c r="AF94" s="105">
+      <c r="AF94" s="63">
         <f>'MARA Prices'!J$21*$G94</f>
         <v>0</v>
       </c>
-      <c r="AG94" s="105">
+      <c r="AG94" s="63">
         <f>'MARA Prices'!K$21*$G94</f>
         <v>0</v>
       </c>
-      <c r="AH94" s="105">
+      <c r="AH94" s="63">
         <f>'MARA Prices'!L$21*$G94</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="AA2 AD2:AH2 D1:Z1048576 AA5:AA94">
+  <conditionalFormatting sqref="AA2 AD2:AH2 AA5:AA94 D1:Z1048576">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD1:AE1">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD3:AH94">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14949,10 +14985,10 @@
   <dimension ref="A2:O131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D79" sqref="D79:H79"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15086,7 +15122,7 @@
       </c>
       <c r="E7" s="5">
         <f>IF(Inputs!E$6="N",MIN(MAX(Inputs!E$10-$K7,0),$L7-$K7),0)</f>
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="F7" s="5">
         <f>IF(Inputs!F$6="N",MIN(MAX(Inputs!F$10-$K7,0),$L7-$K7),0)</f>
@@ -15121,7 +15157,7 @@
       </c>
       <c r="E8" s="5">
         <f>IF(Inputs!E$6="N",MIN(MAX(Inputs!E$10-$K8,0),$L8-$K8),0)</f>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="F8" s="5">
         <f>IF(Inputs!F$6="N",MIN(MAX(Inputs!F$10-$K8,0),$L8-$K8),0)</f>
@@ -15191,7 +15227,7 @@
       </c>
       <c r="E10" s="79">
         <f>IFERROR(SUMPRODUCT(E6:E9,$M$6:$M$9)/SUM(E6:E9),0)</f>
-        <v>1</v>
+        <v>0.40444444444444444</v>
       </c>
       <c r="F10" s="79">
         <f t="shared" ref="F10:H10" si="0">IFERROR(SUMPRODUCT(F6:F9,$M$6:$M$9)/SUM(F6:F9),0)</f>
@@ -15216,7 +15252,7 @@
       </c>
       <c r="E11" s="80">
         <f t="shared" ref="E11:H11" si="1">SUM(E6:E9)</f>
-        <v>25000</v>
+        <v>225000</v>
       </c>
       <c r="F11" s="80">
         <f t="shared" si="1"/>
@@ -15508,7 +15544,7 @@
       </c>
       <c r="E26" s="16">
         <f>IF(Inputs!E$6="Y", 0, IF(E$11 = "", "", PRODUCT(E$11, Prices!$E$6)))*E$10</f>
-        <v>6750</v>
+        <v>24570.000000000004</v>
       </c>
       <c r="F26" s="16">
         <f>IF(Inputs!F$6="Y", 0, IF(F$11 = "", "", PRODUCT(F$11, Prices!$E$6)))*F$10</f>
@@ -15683,7 +15719,7 @@
       </c>
       <c r="E33" s="20">
         <f>IF(OR(Inputs!E$6="Y", E$11 = 0), 0, IF(OR(Inputs!E19="Y",Inputs!E$24="Y",Inputs!E$25="Y"),PRODUCT(E$11, Prices!$E16),0))*E$10</f>
-        <v>4500</v>
+        <v>16380</v>
       </c>
       <c r="F33" s="20">
         <f>IF(OR(Inputs!F$6="Y", F$11 = 0), 0, IF(OR(Inputs!F19="Y",Inputs!F$24="Y",Inputs!F$25="Y"),PRODUCT(F$11, Prices!$E16),0))*F$10</f>
@@ -15708,7 +15744,7 @@
       </c>
       <c r="E34" s="20">
         <f>IF(OR(Inputs!E$6="Y", E$11 = 0), 0, IF(OR(Inputs!E20="Y",Inputs!E$24="Y",Inputs!E$25="Y"),PRODUCT(E$11, Prices!$E17),0))*E$10</f>
-        <v>1750.0000000000002</v>
+        <v>6370.0000000000009</v>
       </c>
       <c r="F34" s="20">
         <f>IF(OR(Inputs!F$6="Y", F$11 = 0), 0, IF(OR(Inputs!F20="Y",Inputs!F$24="Y",Inputs!F$25="Y"),PRODUCT(F$11, Prices!$E17),0))*F$10</f>
@@ -16020,7 +16056,7 @@
       </c>
       <c r="E50" s="16">
         <f>IF(Inputs!E$6="Y", 0, IF(E$11 = "", "", PRODUCT(E$11, Prices!$E$6)*E$10))</f>
-        <v>6750</v>
+        <v>24570.000000000004</v>
       </c>
       <c r="F50" s="16">
         <f>IF(Inputs!F$6="Y", 0, IF(F$11 = "", "", PRODUCT(F$11, Prices!$E$6)*F$10))</f>
@@ -16570,7 +16606,7 @@
       </c>
       <c r="E74" s="20">
         <f>IF(Inputs!E$6="Y", 0, IF(E$11 = "", 0, IF(Inputs!E24 = "Y", E$11*Prices!$E22, 0)))*E$10</f>
-        <v>7249.9999999999991</v>
+        <v>26389.999999999996</v>
       </c>
       <c r="F74" s="20">
         <f>IF(Inputs!F$6="Y", 0, IF(F$11 = "", 0, IF(Inputs!F24 = "Y", F$11*Prices!$E22, 0)))*F$10</f>
@@ -16594,7 +16630,7 @@
       </c>
       <c r="L74" s="23">
         <f t="shared" si="5"/>
-        <v>42250.001199999999</v>
+        <v>61390.001199999999</v>
       </c>
       <c r="M74" s="23">
         <f t="shared" si="5"/>
@@ -16619,7 +16655,7 @@
       </c>
       <c r="E75" s="20">
         <f>IF(Inputs!E$6="Y", 0, IF(E$11 = "", 0, IF(Inputs!E25 = "Y", E$11*Prices!$E23, 0)))*E$10</f>
-        <v>7249.9999999999991</v>
+        <v>26389.999999999996</v>
       </c>
       <c r="F75" s="20">
         <f>IF(Inputs!F$6="Y", 0, IF(F$11 = "", 0, IF(Inputs!F25 = "Y", F$11*Prices!$E23, 0)))*F$10</f>
@@ -16643,7 +16679,7 @@
       </c>
       <c r="L75" s="23">
         <f t="shared" ref="L75:L79" si="7">E65+E75+$J75</f>
-        <v>42250.001300000004</v>
+        <v>61390.001300000004</v>
       </c>
       <c r="M75" s="23">
         <f t="shared" ref="M75:M79" si="8">F65+F75+$J75</f>
@@ -17286,7 +17322,7 @@
       </c>
       <c r="E94" s="20">
         <f>IF(E74=0,0,E74-SUM(E33:E34))</f>
-        <v>999.99999999999909</v>
+        <v>3639.9999999999964</v>
       </c>
       <c r="F94" s="20">
         <f>IF(F74=0,0,F74-SUM(F33:F34))</f>
@@ -17311,7 +17347,7 @@
       </c>
       <c r="E95" s="20">
         <f>IF(E75=0,0,E75-IF(Inputs!E24="Y", 0,SUM(E33:E34)))</f>
-        <v>7249.9999999999991</v>
+        <v>26389.999999999996</v>
       </c>
       <c r="F95" s="20">
         <f>IF(F75=0,0,F75-IF(Inputs!F24="Y", 0,SUM(F33:F34)))</f>
@@ -17444,7 +17480,7 @@
       </c>
       <c r="E102" s="1">
         <f>_xlfn.IFNA(SUM(INDEX(E$62:E$69, MATCH($A102, L$82:L$89, 0)), INDEX(E$72:E$79, MATCH($A102, L$82:L$89, 0)))*Prices!$L$5*-1, 0)</f>
-        <v>-12675</v>
+        <v>-18417</v>
       </c>
       <c r="F102" s="1">
         <f>_xlfn.IFNA(SUM(INDEX(F$62:F$69, MATCH($A102, M$82:M$89, 0)), INDEX(F$72:F$79, MATCH($A102, M$82:M$89, 0)))*Prices!$L$5*-1, 0)</f>
@@ -17609,7 +17645,7 @@
       </c>
       <c r="E109" s="7">
         <f t="shared" ref="E109:H109" si="26">SUM(E38:E47, E50:E59, E62:E69, E72:E79, E102:E106)</f>
-        <v>108575</v>
+        <v>158933</v>
       </c>
       <c r="F109" s="7">
         <f t="shared" si="26"/>
@@ -17690,7 +17726,7 @@
       </c>
       <c r="E115" s="7">
         <f t="shared" ref="E115:H115" si="28">SUM(E109, E111,E113)</f>
-        <v>108575</v>
+        <v>158933</v>
       </c>
       <c r="F115" s="7">
         <f t="shared" si="28"/>
@@ -17857,9 +17893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -18509,14 +18543,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="12.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.26953125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.6328125" bestFit="1" customWidth="1"/>
@@ -18556,10 +18587,10 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="5">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5">
         <v>49999</v>
       </c>
       <c r="C2" s="2">
@@ -18571,63 +18602,63 @@
       <c r="F2" s="54">
         <v>43831</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="5">
         <f>IF(Inputs!D$10 &gt; $B2, $A3-$A2, MAX(0, Inputs!D$10-$A2))</f>
         <v>50000</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="5">
         <f>IF(Inputs!E$10 &gt; $B2, $A3-$A2, MAX(0, Inputs!E$10-$A2))</f>
         <v>50000</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="5">
         <f>IF(Inputs!F$10 &gt; $B2, $A3-$A2, MAX(0, Inputs!F$10-$A2))</f>
         <v>0</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="5">
         <f>IF(Inputs!G$10 &gt; $B2, $A3-$A2, MAX(0, Inputs!G$10-$A2))</f>
         <v>0</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="5">
         <f>IF(Inputs!H$10 &gt; $B2, $A3-$A2, MAX(0, Inputs!H$10-$A2))</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A3">
+      <c r="A3" s="5">
         <v>50000</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="5">
         <v>99999</v>
       </c>
       <c r="C3" s="2">
         <v>0.17</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="5">
         <f>IF(Inputs!D$10 &gt; $B3, $A4-$A3, MAX(0, Inputs!D$10-$A3))</f>
         <v>0</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="5">
         <f>IF(Inputs!E$10 &gt; $B3, $A4-$A3, MAX(0, Inputs!E$10-$A3))</f>
-        <v>0</v>
-      </c>
-      <c r="J3">
+        <v>50000</v>
+      </c>
+      <c r="J3" s="5">
         <f>IF(Inputs!F$10 &gt; $B3, $A4-$A3, MAX(0, Inputs!F$10-$A3))</f>
         <v>0</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="5">
         <f>IF(Inputs!G$10 &gt; $B3, $A4-$A3, MAX(0, Inputs!G$10-$A3))</f>
         <v>0</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="5">
         <f>IF(Inputs!H$10 &gt; $B3, $A4-$A3, MAX(0, Inputs!H$10-$A3))</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A4">
+      <c r="A4" s="5">
         <v>100000</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="5">
         <v>299999</v>
       </c>
       <c r="C4" s="2">
@@ -18639,32 +18670,32 @@
       <c r="F4" s="3">
         <v>0.8</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="5">
         <f>IF(Inputs!D$10 &gt; $B4, $A5-$A4, MAX(0, Inputs!D$10-$A4))</f>
         <v>0</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="5">
         <f>IF(Inputs!E$10 &gt; $B4, $A5-$A4, MAX(0, Inputs!E$10-$A4))</f>
-        <v>0</v>
-      </c>
-      <c r="J4">
+        <v>150000</v>
+      </c>
+      <c r="J4" s="5">
         <f>IF(Inputs!F$10 &gt; $B4, $A5-$A4, MAX(0, Inputs!F$10-$A4))</f>
         <v>0</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="5">
         <f>IF(Inputs!G$10 &gt; $B4, $A5-$A4, MAX(0, Inputs!G$10-$A4))</f>
         <v>0</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="5">
         <f>IF(Inputs!H$10 &gt; $B4, $A5-$A4, MAX(0, Inputs!H$10-$A4))</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5">
+      <c r="A5" s="5">
         <v>300000</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="5">
         <v>499999</v>
       </c>
       <c r="C5" s="2">
@@ -18676,32 +18707,32 @@
       <c r="F5" s="3">
         <v>0.1</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="5">
         <f>IF(Inputs!D$10 &gt; $B5, $A6-$A5, MAX(0, Inputs!D$10-$A5))</f>
         <v>0</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="5">
         <f>IF(Inputs!E$10 &gt; $B5, $A6-$A5, MAX(0, Inputs!E$10-$A5))</f>
         <v>0</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="5">
         <f>IF(Inputs!F$10 &gt; $B5, $A6-$A5, MAX(0, Inputs!F$10-$A5))</f>
         <v>0</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="5">
         <f>IF(Inputs!G$10 &gt; $B5, $A6-$A5, MAX(0, Inputs!G$10-$A5))</f>
         <v>0</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="5">
         <f>IF(Inputs!H$10 &gt; $B5, $A6-$A5, MAX(0, Inputs!H$10-$A5))</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6">
+      <c r="A6" s="5">
         <v>500000</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="5">
         <v>999999</v>
       </c>
       <c r="C6" s="2">
@@ -18713,129 +18744,129 @@
       <c r="F6" s="3">
         <v>0.1</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="5">
         <f>IF(Inputs!D$10 &gt; $B6, $A7-$A6, MAX(0, Inputs!D$10-$A6))</f>
         <v>0</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="5">
         <f>IF(Inputs!E$10 &gt; $B6, $A7-$A6, MAX(0, Inputs!E$10-$A6))</f>
         <v>0</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="5">
         <f>IF(Inputs!F$10 &gt; $B6, $A7-$A6, MAX(0, Inputs!F$10-$A6))</f>
         <v>0</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="5">
         <f>IF(Inputs!G$10 &gt; $B6, $A7-$A6, MAX(0, Inputs!G$10-$A6))</f>
         <v>0</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="5">
         <f>IF(Inputs!H$10 &gt; $B6, $A7-$A6, MAX(0, Inputs!H$10-$A6))</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7">
+      <c r="A7" s="5">
         <v>1000000</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="5">
         <v>1999999</v>
       </c>
       <c r="C7" s="2">
         <v>0.06</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="5">
         <f>IF(Inputs!D$10 &gt; $B7, $A8-$A7, MAX(0, Inputs!D$10-$A7))</f>
         <v>0</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="5">
         <f>IF(Inputs!E$10 &gt; $B7, $A8-$A7, MAX(0, Inputs!E$10-$A7))</f>
         <v>0</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="5">
         <f>IF(Inputs!F$10 &gt; $B7, $A8-$A7, MAX(0, Inputs!F$10-$A7))</f>
         <v>0</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="5">
         <f>IF(Inputs!G$10 &gt; $B7, $A8-$A7, MAX(0, Inputs!G$10-$A7))</f>
         <v>0</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="5">
         <f>IF(Inputs!H$10 &gt; $B7, $A8-$A7, MAX(0, Inputs!H$10-$A7))</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8">
+      <c r="A8" s="5">
         <v>2000000</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="5">
         <v>5000000</v>
       </c>
       <c r="C8" s="2">
         <v>0.04</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="5">
         <f>IF(Inputs!D$10 &gt; $B8, $A9-$A8, MAX(0, Inputs!D$10-$A8))</f>
         <v>0</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="5">
         <f>IF(Inputs!E$10 &gt; $B8, $A9-$A8, MAX(0, Inputs!E$10-$A8))</f>
         <v>0</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="5">
         <f>IF(Inputs!F$10 &gt; $B8, $A9-$A8, MAX(0, Inputs!F$10-$A8))</f>
         <v>0</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="5">
         <f>IF(Inputs!G$10 &gt; $B8, $A9-$A8, MAX(0, Inputs!G$10-$A8))</f>
         <v>0</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="5">
         <f>IF(Inputs!H$10 &gt; $B8, $A9-$A8, MAX(0, Inputs!H$10-$A8))</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="H10" s="2">
+      <c r="H10" s="106">
         <f t="shared" ref="H10:H16" si="0">H2*$C2</f>
         <v>10000</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="106">
         <f t="shared" ref="I10:L10" si="1">I2*$C2</f>
         <v>10000</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="106">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="106">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="106">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="H11" s="2">
+      <c r="H11" s="106">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="106">
         <f t="shared" ref="I11:L11" si="2">I3*$C3</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="2">
+        <v>8500</v>
+      </c>
+      <c r="J11" s="106">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="106">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="106">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -18846,67 +18877,67 @@
       <c r="R11" s="2"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="H12" s="2">
+      <c r="H12" s="106">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="106">
         <f t="shared" ref="I12:L12" si="3">I4*$C4</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="2">
+        <v>21000.000000000004</v>
+      </c>
+      <c r="J12" s="106">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="106">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="106">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="H13" s="2">
+      <c r="H13" s="106">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="106">
         <f t="shared" ref="I13:L13" si="4">I5*$C5</f>
         <v>0</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="106">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="106">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="106">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="H14" s="2">
+      <c r="H14" s="106">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="106">
         <f t="shared" ref="I14:L14" si="5">I6*$C6</f>
         <v>0</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="106">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="106">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="106">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -18914,23 +18945,23 @@
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="E15" s="2"/>
       <c r="F15" s="103"/>
-      <c r="H15" s="2">
+      <c r="H15" s="106">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="106">
         <f t="shared" ref="I15:L15" si="6">I7*$C7</f>
         <v>0</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="106">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="106">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15" s="106">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -18938,23 +18969,23 @@
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="E16" s="2"/>
       <c r="F16" s="103"/>
-      <c r="H16" s="2">
+      <c r="H16" s="106">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="106">
         <f t="shared" ref="I16:L16" si="7">I8*$C8</f>
         <v>0</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="106">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="106">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L16" s="106">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -18992,24 +19023,24 @@
       <c r="G20" t="s">
         <v>64</v>
       </c>
-      <c r="H20" s="104">
-        <f>IF(Inputs!D$9 = "Y", SUM('MARA Prices'!H10:H16), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="104">
-        <f>IF(Inputs!E$9 = "Y", SUM('MARA Prices'!I10:I16), 0)</f>
-        <v>10000</v>
-      </c>
-      <c r="J20" s="104">
-        <f>IF(Inputs!F$9 = "Y", SUM('MARA Prices'!J10:J16), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="104">
-        <f>IF(Inputs!G$9 = "Y", SUM('MARA Prices'!K10:K16), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="L20" s="104">
-        <f>IF(Inputs!H$9 = "Y", SUM('MARA Prices'!L10:L16), 0)</f>
+      <c r="H20" s="106">
+        <f>IF(Inputs!D$9 = "Y", SUM(H10:H16), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="106">
+        <f>IF(Inputs!E$9 = "Y", SUM(I10:I16), 0)</f>
+        <v>39500</v>
+      </c>
+      <c r="J20" s="106">
+        <f>IF(Inputs!F$9 = "Y", SUM(J10:J16), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="106">
+        <f>IF(Inputs!G$9 = "Y", SUM(K10:K16), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="106">
+        <f>IF(Inputs!H$9 = "Y", SUM(L10:L16), 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -19019,23 +19050,23 @@
       <c r="G21" t="s">
         <v>124</v>
       </c>
-      <c r="H21" s="105">
+      <c r="H21" s="106">
         <f>H20/12</f>
         <v>0</v>
       </c>
-      <c r="I21" s="105">
+      <c r="I21" s="106">
         <f>I20/12</f>
-        <v>833.33333333333337</v>
-      </c>
-      <c r="J21" s="105">
+        <v>3291.6666666666665</v>
+      </c>
+      <c r="J21" s="106">
         <f>J20/12</f>
         <v>0</v>
       </c>
-      <c r="K21" s="105">
+      <c r="K21" s="106">
         <f>K20/12</f>
         <v>0</v>
       </c>
-      <c r="L21" s="105">
+      <c r="L21" s="106">
         <f>L20/12</f>
         <v>0</v>
       </c>

--- a/0273NYP - New York Premier/Premier_Pricing_Model.xlsx
+++ b/0273NYP - New York Premier/Premier_Pricing_Model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shea.parkes\repos\client-and-project-documentation\0273NYP - New York Premier\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason.altieri\repos\client-and-project-documentation\0273NYP - New York Premier\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1293,7 +1293,7 @@
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1419,7 +1419,7 @@
         <v>28</v>
       </c>
       <c r="E9" s="55" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="F9" s="55" t="s">
         <v>3</v>
@@ -1797,10 +1797,10 @@
   <dimension ref="B2:U51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2759,23 +2759,23 @@
         <v>143</v>
       </c>
       <c r="D40" s="1">
-        <f>IF(Inputs!D$6 = "N", SUMIF(Outputs_Timeline!$B$3:$B$204,"&lt;" &amp; EDATE(Inputs!$C$1,12), Outputs_Timeline!AD$3:AD$204), 0)</f>
+        <f>IF(Inputs!D$9 = "Y", SUMIF(Outputs_Timeline!$B$3:$B$204,"&lt;" &amp; EDATE(Inputs!$C$1,12), Outputs_Timeline!AD$3:AD$204), 0)</f>
         <v>0</v>
       </c>
       <c r="E40" s="1">
-        <f>IF(Inputs!E$6 = "N", SUMIF(Outputs_Timeline!$B$3:$B$204,"&lt;" &amp; EDATE(Inputs!$C$1,12), Outputs_Timeline!AE$3:AE$204), 0)</f>
-        <v>0</v>
+        <f>IF(Inputs!E$9 = "Y", SUMIF(Outputs_Timeline!$B$3:$B$204,"&lt;" &amp; EDATE(Inputs!$C$1,12), Outputs_Timeline!AE$3:AE$204), 0)</f>
+        <v>10250</v>
       </c>
       <c r="F40" s="1">
-        <f>IF(Inputs!F$6 = "N", SUMIF(Outputs_Timeline!$B$3:$B$204,"&lt;" &amp; EDATE(Inputs!$C$1,12), Outputs_Timeline!AF$3:AF$204), 0)</f>
+        <f>IF(Inputs!F$9 = "Y", SUMIF(Outputs_Timeline!$B$3:$B$204,"&lt;" &amp; EDATE(Inputs!$C$1,12), Outputs_Timeline!AF$3:AF$204), 0)</f>
         <v>40487.5</v>
       </c>
       <c r="G40" s="1">
-        <f>IF(Inputs!G$6 = "N", SUMIF(Outputs_Timeline!$B$3:$B$204,"&lt;" &amp; EDATE(Inputs!$C$1,12), Outputs_Timeline!AG$3:AG$204), 0)</f>
+        <f>IF(Inputs!G$9 = "Y", SUMIF(Outputs_Timeline!$B$3:$B$204,"&lt;" &amp; EDATE(Inputs!$C$1,12), Outputs_Timeline!AG$3:AG$204), 0)</f>
         <v>0</v>
       </c>
       <c r="H40" s="1">
-        <f>IF(Inputs!H$6 = "N", SUMIF(Outputs_Timeline!$B$3:$B$204,"&lt;" &amp; EDATE(Inputs!$C$1,12), Outputs_Timeline!AH$3:AH$204), 0)</f>
+        <f>IF(Inputs!H$9 = "Y", SUMIF(Outputs_Timeline!$B$3:$B$204,"&lt;" &amp; EDATE(Inputs!$C$1,12), Outputs_Timeline!AH$3:AH$204), 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2784,23 +2784,23 @@
         <v>144</v>
       </c>
       <c r="D41" s="1">
-        <f>IF(Inputs!D$6 = "N", SUM(Outputs_Timeline!AD$3:AD$204), 0)</f>
+        <f>IF(Inputs!D$9 = "Y", SUM(Outputs_Timeline!AD$3:AD$204), 0)</f>
         <v>0</v>
       </c>
       <c r="E41" s="1">
-        <f>IF(Inputs!E$6 = "N", SUM(Outputs_Timeline!AE$3:AE$204), 0)</f>
-        <v>0</v>
+        <f>IF(Inputs!E$9 = "Y", SUM(Outputs_Timeline!AE$3:AE$204), 0)</f>
+        <v>32313.125</v>
       </c>
       <c r="F41" s="1">
-        <f>IF(Inputs!F$6 = "N", SUM(Outputs_Timeline!AF$3:AF$204), 0)</f>
+        <f>IF(Inputs!F$9 = "Y", SUM(Outputs_Timeline!AF$3:AF$204), 0)</f>
         <v>127636.84375</v>
       </c>
       <c r="G41" s="1">
-        <f>IF(Inputs!G$6 = "N", SUM(Outputs_Timeline!AG$3:AG$204), 0)</f>
+        <f>IF(Inputs!G$9 = "Y", SUM(Outputs_Timeline!AG$3:AG$204), 0)</f>
         <v>0</v>
       </c>
       <c r="H41" s="1">
-        <f>IF(Inputs!H$6 = "N", SUM(Outputs_Timeline!AH$3:AH$204), 0)</f>
+        <f>IF(Inputs!H$9 = "Y", SUM(Outputs_Timeline!AH$3:AH$204), 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2814,7 +2814,7 @@
       </c>
       <c r="E43" s="7">
         <f>(E34/12*Inputs!$C$2+E4)*$C$37+E41</f>
-        <v>155251.6875</v>
+        <v>187564.8125</v>
       </c>
       <c r="F43" s="7">
         <f>(F34/12*Inputs!$C$2+F4)*$C$37+F41</f>
@@ -2858,13 +2858,13 @@
     <row r="47" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C47" s="7">
         <f>SUM(Outputs_Timeline!W:W)</f>
-        <v>847330.95625000016</v>
+        <v>879644.08125000016</v>
       </c>
     </row>
     <row r="48" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C48" s="52">
         <f>SUM(D43:H43)</f>
-        <v>847330.95624999993</v>
+        <v>879644.08124999993</v>
       </c>
       <c r="D48" s="1"/>
       <c r="G48" s="1"/>
@@ -2900,7 +2900,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4317,15 +4317,15 @@
         <v>0</v>
       </c>
       <c r="F47" s="49">
-        <f>IFERROR((1-G47)*F36/SUM(F36,H36),0)</f>
+        <f t="shared" ref="F47:F53" si="33">IFERROR((1-G47)*F36/SUM(F36,H36),0)</f>
         <v>0.82499999999999996</v>
       </c>
       <c r="G47" s="49">
-        <f>MIN(1,G36+$H$21)</f>
+        <f t="shared" ref="G47:G53" si="34">MIN(1,G36+$H$21)</f>
         <v>0.17499999999999999</v>
       </c>
       <c r="H47" s="49">
-        <f>IFERROR((1-G47)*H36/SUM(F36,H36),0)</f>
+        <f t="shared" ref="H47:H53" si="35">IFERROR((1-G47)*H36/SUM(F36,H36),0)</f>
         <v>0</v>
       </c>
       <c r="I47" s="49">
@@ -4336,7 +4336,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="29">
-        <f t="shared" ref="L47:L51" si="33">G47*$D47</f>
+        <f t="shared" ref="L47:L51" si="36">G47*$D47</f>
         <v>0</v>
       </c>
       <c r="M47" s="29">
@@ -4357,15 +4357,15 @@
         <v>910.00000000000364</v>
       </c>
       <c r="F48" s="30">
-        <f>IFERROR((1-G48)*F37/SUM(F37,H37),0)</f>
+        <f t="shared" si="33"/>
         <v>0.82499999999999996</v>
       </c>
       <c r="G48" s="30">
-        <f>MIN(1,G37+$H$21)</f>
+        <f t="shared" si="34"/>
         <v>0.17499999999999999</v>
       </c>
       <c r="H48" s="30">
-        <f>IFERROR((1-G48)*H37/SUM(F37,H37),0)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="I48" s="30">
@@ -4376,15 +4376,15 @@
         <v>750.75000000000296</v>
       </c>
       <c r="L48" s="18">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>159.25000000000063</v>
       </c>
       <c r="M48" s="18">
-        <f t="shared" ref="M48:N51" si="34">H48*$D48</f>
+        <f t="shared" ref="M48:N51" si="37">H48*$D48</f>
         <v>0</v>
       </c>
       <c r="N48" s="18">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
     </row>
@@ -4397,34 +4397,34 @@
         <v>0</v>
       </c>
       <c r="F49" s="31">
-        <f>IFERROR((1-G49)*F38/SUM(F38,H38),0)</f>
+        <f t="shared" si="33"/>
         <v>2.5000000000000022E-2</v>
       </c>
       <c r="G49" s="31">
-        <f>MIN(1,G38+$H$21)</f>
+        <f t="shared" si="34"/>
         <v>0.97499999999999998</v>
       </c>
       <c r="H49" s="31">
-        <f>IFERROR((1-G49)*H38/SUM(F38,H38),0)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="I49" s="31">
         <v>0</v>
       </c>
       <c r="K49" s="20">
-        <f t="shared" ref="K49:K51" si="35">F49*$D49</f>
+        <f t="shared" ref="K49:K51" si="38">F49*$D49</f>
         <v>0</v>
       </c>
       <c r="L49" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="M49" s="20">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N49" s="20">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
     </row>
@@ -4437,34 +4437,34 @@
         <v>0</v>
       </c>
       <c r="F50" s="31">
-        <f>IFERROR((1-G50)*F39/SUM(F39,H39),0)</f>
+        <f t="shared" si="33"/>
         <v>2.5000000000000022E-2</v>
       </c>
       <c r="G50" s="31">
-        <f>MIN(1,G39+$H$21)</f>
+        <f t="shared" si="34"/>
         <v>0.97499999999999998</v>
       </c>
       <c r="H50" s="31">
-        <f>IFERROR((1-G50)*H39/SUM(F39,H39),0)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="I50" s="31">
         <v>0</v>
       </c>
       <c r="K50" s="20">
-        <f t="shared" ref="K50" si="36">F50*$D50</f>
+        <f t="shared" ref="K50" si="39">F50*$D50</f>
         <v>0</v>
       </c>
       <c r="L50" s="20">
-        <f t="shared" ref="L50" si="37">G50*$D50</f>
+        <f t="shared" ref="L50" si="40">G50*$D50</f>
         <v>0</v>
       </c>
       <c r="M50" s="20">
-        <f t="shared" ref="M50" si="38">H50*$D50</f>
+        <f t="shared" ref="M50" si="41">H50*$D50</f>
         <v>0</v>
       </c>
       <c r="N50" s="20">
-        <f t="shared" ref="N50" si="39">I50*$D50</f>
+        <f t="shared" ref="N50" si="42">I50*$D50</f>
         <v>0</v>
       </c>
     </row>
@@ -4477,34 +4477,34 @@
         <v>0</v>
       </c>
       <c r="F51" s="31">
-        <f>IFERROR((1-G51)*F40/SUM(F40,H40),0)</f>
+        <f t="shared" si="33"/>
         <v>2.5000000000000022E-2</v>
       </c>
       <c r="G51" s="31">
-        <f>MIN(1,G40+$H$21)</f>
+        <f t="shared" si="34"/>
         <v>0.97499999999999998</v>
       </c>
       <c r="H51" s="31">
-        <f>IFERROR((1-G51)*H40/SUM(F40,H40),0)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="I51" s="31">
         <v>0</v>
       </c>
       <c r="K51" s="20">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="L51" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="M51" s="20">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N51" s="20">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
     </row>
@@ -4517,34 +4517,34 @@
         <v>0</v>
       </c>
       <c r="F52" s="31">
-        <f>IFERROR((1-G52)*F41/SUM(F41,H41),0)</f>
+        <f t="shared" si="33"/>
         <v>2.5000000000000022E-2</v>
       </c>
       <c r="G52" s="31">
-        <f>MIN(1,G41+$H$21)</f>
+        <f t="shared" si="34"/>
         <v>0.97499999999999998</v>
       </c>
       <c r="H52" s="31">
-        <f>IFERROR((1-G52)*H41/SUM(F41,H41),0)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="I52" s="31">
         <v>0</v>
       </c>
       <c r="K52" s="20">
-        <f t="shared" ref="K52:K54" si="40">F52*$D52</f>
+        <f t="shared" ref="K52:K54" si="43">F52*$D52</f>
         <v>0</v>
       </c>
       <c r="L52" s="20">
-        <f t="shared" ref="L52:L54" si="41">G52*$D52</f>
+        <f t="shared" ref="L52:L54" si="44">G52*$D52</f>
         <v>0</v>
       </c>
       <c r="M52" s="20">
-        <f t="shared" ref="M52:M54" si="42">H52*$D52</f>
+        <f t="shared" ref="M52:M54" si="45">H52*$D52</f>
         <v>0</v>
       </c>
       <c r="N52" s="20">
-        <f t="shared" ref="N52:N54" si="43">I52*$D52</f>
+        <f t="shared" ref="N52:N54" si="46">I52*$D52</f>
         <v>0</v>
       </c>
     </row>
@@ -4557,34 +4557,34 @@
         <v>10010</v>
       </c>
       <c r="F53" s="31">
-        <f>IFERROR((1-G53)*F42/SUM(F42,H42),0)</f>
+        <f t="shared" si="33"/>
         <v>2.5000000000000022E-2</v>
       </c>
       <c r="G53" s="31">
-        <f>MIN(1,G42+$H$21)</f>
+        <f t="shared" si="34"/>
         <v>0.97499999999999998</v>
       </c>
       <c r="H53" s="31">
-        <f>IFERROR((1-G53)*H42/SUM(F42,H42),0)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="I53" s="31">
         <v>0</v>
       </c>
       <c r="K53" s="20">
-        <f t="shared" ref="K53" si="44">F53*$D53</f>
+        <f t="shared" ref="K53" si="47">F53*$D53</f>
         <v>250.25000000000023</v>
       </c>
       <c r="L53" s="20">
-        <f t="shared" ref="L53" si="45">G53*$D53</f>
+        <f t="shared" ref="L53" si="48">G53*$D53</f>
         <v>9759.75</v>
       </c>
       <c r="M53" s="20">
-        <f t="shared" ref="M53" si="46">H53*$D53</f>
+        <f t="shared" ref="M53" si="49">H53*$D53</f>
         <v>0</v>
       </c>
       <c r="N53" s="20">
-        <f t="shared" ref="N53" si="47">I53*$D53</f>
+        <f t="shared" ref="N53" si="50">I53*$D53</f>
         <v>0</v>
       </c>
     </row>
@@ -4597,34 +4597,34 @@
         <v>0</v>
       </c>
       <c r="F54" s="31">
-        <f t="shared" ref="F54" si="48">IFERROR((1-G54)*F43/SUM(F43,H43),0)</f>
+        <f t="shared" ref="F54" si="51">IFERROR((1-G54)*F43/SUM(F43,H43),0)</f>
         <v>2.5000000000000022E-2</v>
       </c>
       <c r="G54" s="31">
-        <f t="shared" ref="G54" si="49">MIN(1,G43+$H$21)</f>
+        <f t="shared" ref="G54" si="52">MIN(1,G43+$H$21)</f>
         <v>0.97499999999999998</v>
       </c>
       <c r="H54" s="31">
-        <f t="shared" ref="H54" si="50">IFERROR((1-G54)*H43/SUM(F43,H43),0)</f>
+        <f t="shared" ref="H54" si="53">IFERROR((1-G54)*H43/SUM(F43,H43),0)</f>
         <v>0</v>
       </c>
       <c r="I54" s="31">
         <v>0</v>
       </c>
       <c r="K54" s="20">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="L54" s="20">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="M54" s="20">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="N54" s="20">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
@@ -4637,34 +4637,34 @@
         <v>38220</v>
       </c>
       <c r="F55" s="87">
-        <f t="shared" ref="F55" si="51">IFERROR((1-G55)*F44/SUM(F44,H44),0)</f>
+        <f t="shared" ref="F55" si="54">IFERROR((1-G55)*F44/SUM(F44,H44),0)</f>
         <v>2.5000000000000022E-2</v>
       </c>
       <c r="G55" s="87">
-        <f t="shared" ref="G55" si="52">MIN(1,G44+$H$21)</f>
+        <f t="shared" ref="G55" si="55">MIN(1,G44+$H$21)</f>
         <v>0.97499999999999998</v>
       </c>
       <c r="H55" s="87">
-        <f t="shared" ref="H55" si="53">IFERROR((1-G55)*H44/SUM(F44,H44),0)</f>
+        <f t="shared" ref="H55" si="56">IFERROR((1-G55)*H44/SUM(F44,H44),0)</f>
         <v>0</v>
       </c>
       <c r="I55" s="87">
         <v>0</v>
       </c>
       <c r="K55" s="84">
-        <f t="shared" ref="K55" si="54">F55*$D55</f>
+        <f t="shared" ref="K55" si="57">F55*$D55</f>
         <v>955.5000000000008</v>
       </c>
       <c r="L55" s="84">
-        <f t="shared" ref="L55" si="55">G55*$D55</f>
+        <f t="shared" ref="L55" si="58">G55*$D55</f>
         <v>37264.5</v>
       </c>
       <c r="M55" s="84">
-        <f t="shared" ref="M55" si="56">H55*$D55</f>
+        <f t="shared" ref="M55" si="59">H55*$D55</f>
         <v>0</v>
       </c>
       <c r="N55" s="84">
-        <f t="shared" ref="N55" si="57">I55*$D55</f>
+        <f t="shared" ref="N55" si="60">I55*$D55</f>
         <v>0</v>
       </c>
     </row>
@@ -4694,15 +4694,15 @@
         <v>0.21665259726816324</v>
       </c>
       <c r="G58" s="8">
-        <f t="shared" ref="G58:I58" si="58">IFERROR(SUM(L72:L80)/SUM($K$72:$N$80), 0)</f>
+        <f t="shared" ref="G58:I58" si="61">IFERROR(SUM(L72:L80)/SUM($K$72:$N$80), 0)</f>
         <v>0.74862611331539208</v>
       </c>
       <c r="H58" s="8">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>3.1638022655986732E-2</v>
       </c>
       <c r="I58" s="8">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>3.0832667604578324E-3</v>
       </c>
       <c r="K58" s="12">
@@ -4789,15 +4789,15 @@
         <v>-2047.5</v>
       </c>
       <c r="L60" s="12">
-        <f t="shared" ref="L60:N60" si="59">$D$60*G60</f>
+        <f t="shared" ref="L60:N60" si="62">$D$60*G60</f>
         <v>-1477.5</v>
       </c>
       <c r="M60" s="12">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="N60" s="12">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
     </row>
@@ -4857,7 +4857,7 @@
       <c r="C65" s="21"/>
       <c r="D65" s="1">
         <f>SUM(Outputs_Timeline!N:N)</f>
-        <v>127636.84375</v>
+        <v>159949.96875</v>
       </c>
       <c r="F65" s="3">
         <f>'MARA Prices'!$F$5</f>
@@ -4876,11 +4876,11 @@
       </c>
       <c r="K65" s="12">
         <f>$D$65*F65</f>
-        <v>12763.684375000001</v>
+        <v>15994.996875000001</v>
       </c>
       <c r="L65" s="12">
         <f>$D$65*G65</f>
-        <v>12763.684375000001</v>
+        <v>15994.996875000001</v>
       </c>
       <c r="M65" s="12">
         <f>$D$65*H65</f>
@@ -4888,7 +4888,7 @@
       </c>
       <c r="N65" s="12">
         <f>$D$65*I65</f>
-        <v>102109.47500000001</v>
+        <v>127959.97500000001</v>
       </c>
     </row>
     <row r="66" spans="2:14" x14ac:dyDescent="0.35">
@@ -4902,15 +4902,15 @@
       </c>
       <c r="D67" s="7">
         <f>SUM(Outputs_Timeline!W:W)</f>
-        <v>847330.95625000016</v>
+        <v>879644.08125000016</v>
       </c>
       <c r="K67" s="12">
         <f>SUM(Outputs_Timeline!X:X)</f>
-        <v>214792.20975865333</v>
+        <v>218023.52225865333</v>
       </c>
       <c r="L67" s="12">
         <f>SUM(Outputs_Timeline!Y:Y)</f>
-        <v>513229.31116157072</v>
+        <v>516460.62366157077</v>
       </c>
       <c r="M67" s="12">
         <f>SUM(Outputs_Timeline!Z:Z)</f>
@@ -4918,26 +4918,26 @@
       </c>
       <c r="N67" s="12">
         <f>SUM(Outputs_Timeline!AA:AA)</f>
-        <v>103636.83953217298</v>
+        <v>129487.33953217296</v>
       </c>
     </row>
     <row r="68" spans="2:14" x14ac:dyDescent="0.35">
       <c r="D68" s="1"/>
       <c r="K68" s="53">
         <f>IFERROR(K67/$D$67, 0)</f>
-        <v>0.25349269748062897</v>
+        <v>0.24785424799179628</v>
       </c>
       <c r="L68" s="53">
         <f>IFERROR(L67/$D$67, 0)</f>
-        <v>0.60570112230166806</v>
+        <v>0.58712453669632492</v>
       </c>
       <c r="M68" s="53">
         <f>IFERROR(M67/$D$67, 0)</f>
-        <v>1.8496427732281377E-2</v>
+        <v>1.7816974082667369E-2</v>
       </c>
       <c r="N68" s="53">
         <f>IFERROR(N67/$D$67, 0)</f>
-        <v>0.12230975248542143</v>
+        <v>0.1472042412292113</v>
       </c>
     </row>
     <row r="70" spans="2:14" x14ac:dyDescent="0.35">
@@ -4989,19 +4989,19 @@
       </c>
       <c r="J72" s="21"/>
       <c r="K72" s="25">
-        <f t="shared" ref="K72:N74" si="60">F72*$D72</f>
+        <f t="shared" ref="K72:N74" si="63">F72*$D72</f>
         <v>7650</v>
       </c>
       <c r="L72" s="25">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>850</v>
       </c>
       <c r="M72" s="25">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="N72" s="25">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
     </row>
@@ -5033,19 +5033,19 @@
       </c>
       <c r="J73" s="21"/>
       <c r="K73" s="25">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>33676.878787878792</v>
       </c>
       <c r="L73" s="25">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>15873.5</v>
       </c>
       <c r="M73" s="25">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>8136.6666666666679</v>
       </c>
       <c r="N73" s="25">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>792.95454545454538</v>
       </c>
     </row>
@@ -5077,19 +5077,19 @@
       </c>
       <c r="J74" s="21"/>
       <c r="K74" s="25">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>3139.3950830278195</v>
       </c>
       <c r="L74" s="25">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>31860.604916972181</v>
       </c>
       <c r="M74" s="25">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="N74" s="25">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
     </row>
@@ -5108,32 +5108,32 @@
         <v>9.2801717643513637E-2</v>
       </c>
       <c r="G75" s="24">
-        <f t="shared" ref="G75:I75" si="61">IFERROR(SUM(L39,L17:L19,L50,L31:L33)/SUM($K$39:$N$39,$K$17:$M$19,$K$50:$N$50,$K$31:$N$33),0)</f>
+        <f t="shared" ref="G75:I75" si="64">IFERROR(SUM(L39,L17:L19,L50,L31:L33)/SUM($K$39:$N$39,$K$17:$M$19,$K$50:$N$50,$K$31:$N$33),0)</f>
         <v>0.90719828235648636</v>
       </c>
       <c r="H75" s="24">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="I75" s="24">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="J75" s="21"/>
       <c r="K75" s="25">
-        <f t="shared" ref="K75" si="62">F75*$D75</f>
+        <f t="shared" ref="K75" si="65">F75*$D75</f>
         <v>3248.0601175229772</v>
       </c>
       <c r="L75" s="25">
-        <f t="shared" ref="L75" si="63">G75*$D75</f>
+        <f t="shared" ref="L75" si="66">G75*$D75</f>
         <v>31751.939882477021</v>
       </c>
       <c r="M75" s="25">
-        <f t="shared" ref="M75" si="64">H75*$D75</f>
+        <f t="shared" ref="M75" si="67">H75*$D75</f>
         <v>0</v>
       </c>
       <c r="N75" s="25">
-        <f t="shared" ref="N75" si="65">I75*$D75</f>
+        <f t="shared" ref="N75" si="68">I75*$D75</f>
         <v>0</v>
       </c>
     </row>
@@ -5148,36 +5148,36 @@
       </c>
       <c r="E76" s="21"/>
       <c r="F76" s="24">
-        <f>IFERROR(SUM(K40,K51)/SUM($K40:$N40,$K51:$N51),0)</f>
+        <f t="shared" ref="F76:I77" si="69">IFERROR(SUM(K40,K51)/SUM($K40:$N40,$K51:$N51),0)</f>
         <v>0</v>
       </c>
       <c r="G76" s="24">
-        <f>IFERROR(SUM(L40,L51)/SUM($K40:$N40,$K51:$N51),0)</f>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="H76" s="24">
-        <f>IFERROR(SUM(M40,M51)/SUM($K40:$N40,$K51:$N51),0)</f>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="I76" s="24">
-        <f>IFERROR(SUM(N40,N51)/SUM($K40:$N40,$K51:$N51),0)</f>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="J76" s="21"/>
       <c r="K76" s="25">
-        <f t="shared" ref="K76:K80" si="66">F76*$D76</f>
+        <f t="shared" ref="K76:K80" si="70">F76*$D76</f>
         <v>0</v>
       </c>
       <c r="L76" s="25">
-        <f t="shared" ref="L76:L80" si="67">G76*$D76</f>
+        <f t="shared" ref="L76:L80" si="71">G76*$D76</f>
         <v>0</v>
       </c>
       <c r="M76" s="25">
-        <f t="shared" ref="M76:M80" si="68">H76*$D76</f>
+        <f t="shared" ref="M76:M80" si="72">H76*$D76</f>
         <v>0</v>
       </c>
       <c r="N76" s="25">
-        <f t="shared" ref="N76:N80" si="69">I76*$D76</f>
+        <f t="shared" ref="N76:N80" si="73">I76*$D76</f>
         <v>0</v>
       </c>
     </row>
@@ -5192,36 +5192,36 @@
       </c>
       <c r="E77" s="21"/>
       <c r="F77" s="24">
-        <f>IFERROR(SUM(K41,K52)/SUM($K41:$N41,$K52:$N52),0)</f>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="G77" s="24">
-        <f>IFERROR(SUM(L41,L52)/SUM($K41:$N41,$K52:$N52),0)</f>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="H77" s="24">
-        <f>IFERROR(SUM(M41,M52)/SUM($K41:$N41,$K52:$N52),0)</f>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="I77" s="24">
-        <f>IFERROR(SUM(N41,N52)/SUM($K41:$N41,$K52:$N52),0)</f>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="J77" s="21"/>
       <c r="K77" s="25">
-        <f t="shared" ref="K77:K79" si="70">F77*$D77</f>
+        <f t="shared" ref="K77:K79" si="74">F77*$D77</f>
         <v>0</v>
       </c>
       <c r="L77" s="25">
-        <f t="shared" ref="L77:L79" si="71">G77*$D77</f>
+        <f t="shared" ref="L77:L79" si="75">G77*$D77</f>
         <v>0</v>
       </c>
       <c r="M77" s="25">
-        <f t="shared" ref="M77:M79" si="72">H77*$D77</f>
+        <f t="shared" ref="M77:M79" si="76">H77*$D77</f>
         <v>0</v>
       </c>
       <c r="N77" s="25">
-        <f t="shared" ref="N77:N79" si="73">I77*$D77</f>
+        <f t="shared" ref="N77:N79" si="77">I77*$D77</f>
         <v>0</v>
       </c>
     </row>
@@ -5240,32 +5240,32 @@
         <v>8.4123804600672009E-2</v>
       </c>
       <c r="G78" s="24">
-        <f t="shared" ref="G78:I78" si="74">IFERROR(SUM(L42,L18,L53,L32)/SUM($K$42:$N$42,$K$18:$M$18,$K$53:$N$53,$K$32:$N$32),0)</f>
+        <f t="shared" ref="G78:I78" si="78">IFERROR(SUM(L42,L18,L53,L32)/SUM($K$42:$N$42,$K$18:$M$18,$K$53:$N$53,$K$32:$N$32),0)</f>
         <v>0.91587619539932796</v>
       </c>
       <c r="H78" s="24">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="I78" s="24">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="J78" s="21"/>
       <c r="K78" s="25">
-        <f t="shared" ref="K78" si="75">F78*$D78</f>
+        <f t="shared" ref="K78" si="79">F78*$D78</f>
         <v>6088.8809769966401</v>
       </c>
       <c r="L78" s="25">
-        <f t="shared" ref="L78" si="76">G78*$D78</f>
+        <f t="shared" ref="L78" si="80">G78*$D78</f>
         <v>66291.119023003354</v>
       </c>
       <c r="M78" s="25">
-        <f t="shared" ref="M78" si="77">H78*$D78</f>
+        <f t="shared" ref="M78" si="81">H78*$D78</f>
         <v>0</v>
       </c>
       <c r="N78" s="25">
-        <f t="shared" ref="N78" si="78">I78*$D78</f>
+        <f t="shared" ref="N78" si="82">I78*$D78</f>
         <v>0</v>
       </c>
     </row>
@@ -5280,36 +5280,36 @@
       </c>
       <c r="E79" s="21"/>
       <c r="F79" s="24">
-        <f t="shared" ref="F79:I79" si="79">IFERROR(SUM(K43,K54)/SUM($K43:$N43,$K54:$N54),0)</f>
+        <f t="shared" ref="F79:I79" si="83">IFERROR(SUM(K43,K54)/SUM($K43:$N43,$K54:$N54),0)</f>
         <v>0</v>
       </c>
       <c r="G79" s="24">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="H79" s="24">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="I79" s="24">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="J79" s="21"/>
       <c r="K79" s="25">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="L79" s="25">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="M79" s="25">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="N79" s="25">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
     </row>
@@ -5324,36 +5324,36 @@
       </c>
       <c r="E80" s="21"/>
       <c r="F80" s="24">
-        <f t="shared" ref="F80" si="80">IFERROR(SUM(K44,K55)/SUM($K44:$N44,$K55:$N55),0)</f>
+        <f t="shared" ref="F80" si="84">IFERROR(SUM(K44,K55)/SUM($K44:$N44,$K55:$N55),0)</f>
         <v>4.0056461731493118E-2</v>
       </c>
       <c r="G80" s="24">
-        <f t="shared" ref="G80" si="81">IFERROR(SUM(L44,L55)/SUM($K44:$N44,$K55:$N55),0)</f>
+        <f t="shared" ref="G80" si="85">IFERROR(SUM(L44,L55)/SUM($K44:$N44,$K55:$N55),0)</f>
         <v>0.95994353826850687</v>
       </c>
       <c r="H80" s="24">
-        <f t="shared" ref="H80" si="82">IFERROR(SUM(M44,M55)/SUM($K44:$N44,$K55:$N55),0)</f>
+        <f t="shared" ref="H80" si="86">IFERROR(SUM(M44,M55)/SUM($K44:$N44,$K55:$N55),0)</f>
         <v>0</v>
       </c>
       <c r="I80" s="24">
-        <f t="shared" ref="I80" si="83">IFERROR(SUM(N44,N55)/SUM($K44:$N44,$K55:$N55),0)</f>
+        <f t="shared" ref="I80" si="87">IFERROR(SUM(N44,N55)/SUM($K44:$N44,$K55:$N55),0)</f>
         <v>0</v>
       </c>
       <c r="J80" s="21"/>
       <c r="K80" s="25">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>1915.5000000000009</v>
       </c>
       <c r="L80" s="25">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>45904.5</v>
       </c>
       <c r="M80" s="25">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="N80" s="25">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
     </row>
@@ -8062,23 +8062,23 @@
       </c>
       <c r="N27" s="63">
         <f t="shared" si="0"/>
-        <v>3291.6666666666665</v>
+        <v>4125</v>
       </c>
       <c r="P27" s="63">
         <f>$F27*Outputs_Internal!$D$62/12+N27</f>
-        <v>22580.044791666667</v>
+        <v>23413.378124999999</v>
       </c>
       <c r="Q27" s="63">
         <f>$F27*Outputs_Internal!K$62/12+N27*'MARA Prices'!$F$5</f>
-        <v>5814.5076495459252</v>
+        <v>5897.8409828792583</v>
       </c>
       <c r="R27" s="63">
         <f>$F27*Outputs_Internal!L$62/12+N27*'MARA Prices'!$F$6</f>
-        <v>13654.4271329603</v>
+        <v>13737.760466293634</v>
       </c>
       <c r="S27" s="63">
         <f>N27*'MARA Prices'!$F$4</f>
-        <v>2633.3333333333335</v>
+        <v>3300</v>
       </c>
       <c r="T27" s="63">
         <f>$F27*Outputs_Internal!M$62/12</f>
@@ -8114,7 +8114,7 @@
       </c>
       <c r="AE27" s="63">
         <f>'MARA Prices'!I$21*$G27</f>
-        <v>0</v>
+        <v>833.33333333333337</v>
       </c>
       <c r="AF27" s="63">
         <f>'MARA Prices'!J$21*$G27</f>
@@ -8168,23 +8168,23 @@
       </c>
       <c r="N28" s="63">
         <f t="shared" si="0"/>
-        <v>3291.6666666666665</v>
+        <v>4125</v>
       </c>
       <c r="P28" s="63">
         <f>$F28*Outputs_Internal!$D$62/12+N28</f>
-        <v>22580.044791666667</v>
+        <v>23413.378124999999</v>
       </c>
       <c r="Q28" s="63">
         <f>$F28*Outputs_Internal!K$62/12+N28*'MARA Prices'!$F$5</f>
-        <v>5814.5076495459252</v>
+        <v>5897.8409828792583</v>
       </c>
       <c r="R28" s="63">
         <f>$F28*Outputs_Internal!L$62/12+N28*'MARA Prices'!$F$6</f>
-        <v>13654.4271329603</v>
+        <v>13737.760466293634</v>
       </c>
       <c r="S28" s="63">
         <f>N28*'MARA Prices'!$F$4</f>
-        <v>2633.3333333333335</v>
+        <v>3300</v>
       </c>
       <c r="T28" s="63">
         <f>$F28*Outputs_Internal!M$62/12</f>
@@ -8220,7 +8220,7 @@
       </c>
       <c r="AE28" s="63">
         <f>'MARA Prices'!I$21*$G28</f>
-        <v>0</v>
+        <v>833.33333333333337</v>
       </c>
       <c r="AF28" s="63">
         <f>'MARA Prices'!J$21*$G28</f>
@@ -8274,23 +8274,23 @@
       </c>
       <c r="N29" s="63">
         <f t="shared" si="0"/>
-        <v>3291.6666666666665</v>
+        <v>4125</v>
       </c>
       <c r="P29" s="63">
         <f>$F29*Outputs_Internal!$D$62/12+N29</f>
-        <v>22580.044791666667</v>
+        <v>23413.378124999999</v>
       </c>
       <c r="Q29" s="63">
         <f>$F29*Outputs_Internal!K$62/12+N29*'MARA Prices'!$F$5</f>
-        <v>5814.5076495459252</v>
+        <v>5897.8409828792583</v>
       </c>
       <c r="R29" s="63">
         <f>$F29*Outputs_Internal!L$62/12+N29*'MARA Prices'!$F$6</f>
-        <v>13654.4271329603</v>
+        <v>13737.760466293634</v>
       </c>
       <c r="S29" s="63">
         <f>N29*'MARA Prices'!$F$4</f>
-        <v>2633.3333333333335</v>
+        <v>3300</v>
       </c>
       <c r="T29" s="63">
         <f>$F29*Outputs_Internal!M$62/12</f>
@@ -8302,15 +8302,15 @@
       </c>
       <c r="W29" s="63">
         <f t="shared" si="2"/>
-        <v>93052.634374999994</v>
+        <v>95552.634375000009</v>
       </c>
       <c r="X29" s="63">
         <f t="shared" si="3"/>
-        <v>21999.772948637776</v>
+        <v>22249.772948637772</v>
       </c>
       <c r="Y29" s="63">
         <f t="shared" si="4"/>
-        <v>61719.531398880899</v>
+        <v>61969.531398880907</v>
       </c>
       <c r="Z29" s="63">
         <f t="shared" si="5"/>
@@ -8318,7 +8318,7 @@
       </c>
       <c r="AA29" s="63">
         <f t="shared" si="6"/>
-        <v>8027.2803776810833</v>
+        <v>10027.280377681082</v>
       </c>
       <c r="AD29" s="63">
         <f>'MARA Prices'!H$21*$G29</f>
@@ -8326,7 +8326,7 @@
       </c>
       <c r="AE29" s="63">
         <f>'MARA Prices'!I$21*$G29</f>
-        <v>0</v>
+        <v>833.33333333333337</v>
       </c>
       <c r="AF29" s="63">
         <f>'MARA Prices'!J$21*$G29</f>
@@ -8380,23 +8380,23 @@
       </c>
       <c r="N30" s="63">
         <f t="shared" si="0"/>
-        <v>3291.6666666666665</v>
+        <v>4125</v>
       </c>
       <c r="P30" s="63">
         <f>$F30*Outputs_Internal!$D$62/12+N30</f>
-        <v>22580.044791666667</v>
+        <v>23413.378124999999</v>
       </c>
       <c r="Q30" s="63">
         <f>$F30*Outputs_Internal!K$62/12+N30*'MARA Prices'!$F$5</f>
-        <v>5814.5076495459252</v>
+        <v>5897.8409828792583</v>
       </c>
       <c r="R30" s="63">
         <f>$F30*Outputs_Internal!L$62/12+N30*'MARA Prices'!$F$6</f>
-        <v>13654.4271329603</v>
+        <v>13737.760466293634</v>
       </c>
       <c r="S30" s="63">
         <f>N30*'MARA Prices'!$F$4</f>
-        <v>2633.3333333333335</v>
+        <v>3300</v>
       </c>
       <c r="T30" s="63">
         <f>$F30*Outputs_Internal!M$62/12</f>
@@ -8432,7 +8432,7 @@
       </c>
       <c r="AE30" s="63">
         <f>'MARA Prices'!I$21*$G30</f>
-        <v>0</v>
+        <v>833.33333333333337</v>
       </c>
       <c r="AF30" s="63">
         <f>'MARA Prices'!J$21*$G30</f>
@@ -8486,23 +8486,23 @@
       </c>
       <c r="N31" s="63">
         <f t="shared" si="0"/>
-        <v>3291.6666666666665</v>
+        <v>4125</v>
       </c>
       <c r="P31" s="63">
         <f>$F31*Outputs_Internal!$D$62/12+N31</f>
-        <v>22580.044791666667</v>
+        <v>23413.378124999999</v>
       </c>
       <c r="Q31" s="63">
         <f>$F31*Outputs_Internal!K$62/12+N31*'MARA Prices'!$F$5</f>
-        <v>5814.5076495459252</v>
+        <v>5897.8409828792583</v>
       </c>
       <c r="R31" s="63">
         <f>$F31*Outputs_Internal!L$62/12+N31*'MARA Prices'!$F$6</f>
-        <v>13654.4271329603</v>
+        <v>13737.760466293634</v>
       </c>
       <c r="S31" s="63">
         <f>N31*'MARA Prices'!$F$4</f>
-        <v>2633.3333333333335</v>
+        <v>3300</v>
       </c>
       <c r="T31" s="63">
         <f>$F31*Outputs_Internal!M$62/12</f>
@@ -8538,7 +8538,7 @@
       </c>
       <c r="AE31" s="63">
         <f>'MARA Prices'!I$21*$G31</f>
-        <v>0</v>
+        <v>833.33333333333337</v>
       </c>
       <c r="AF31" s="63">
         <f>'MARA Prices'!J$21*$G31</f>
@@ -8592,23 +8592,23 @@
       </c>
       <c r="N32" s="63">
         <f t="shared" si="0"/>
-        <v>3291.6666666666665</v>
+        <v>4125</v>
       </c>
       <c r="P32" s="63">
         <f>$F32*Outputs_Internal!$D$62/12+N32</f>
-        <v>22580.044791666667</v>
+        <v>23413.378124999999</v>
       </c>
       <c r="Q32" s="63">
         <f>$F32*Outputs_Internal!K$62/12+N32*'MARA Prices'!$F$5</f>
-        <v>5814.5076495459252</v>
+        <v>5897.8409828792583</v>
       </c>
       <c r="R32" s="63">
         <f>$F32*Outputs_Internal!L$62/12+N32*'MARA Prices'!$F$6</f>
-        <v>13654.4271329603</v>
+        <v>13737.760466293634</v>
       </c>
       <c r="S32" s="63">
         <f>N32*'MARA Prices'!$F$4</f>
-        <v>2633.3333333333335</v>
+        <v>3300</v>
       </c>
       <c r="T32" s="63">
         <f>$F32*Outputs_Internal!M$62/12</f>
@@ -8620,15 +8620,15 @@
       </c>
       <c r="W32" s="63">
         <f t="shared" si="2"/>
-        <v>67740.134374999994</v>
+        <v>70240.134374999994</v>
       </c>
       <c r="X32" s="63">
         <f t="shared" si="3"/>
-        <v>17443.522948637776</v>
+        <v>17693.522948637776</v>
       </c>
       <c r="Y32" s="63">
         <f t="shared" si="4"/>
-        <v>40963.281398880899</v>
+        <v>41213.281398880899</v>
       </c>
       <c r="Z32" s="63">
         <f t="shared" si="5"/>
@@ -8636,7 +8636,7 @@
       </c>
       <c r="AA32" s="63">
         <f t="shared" si="6"/>
-        <v>8027.2803776810833</v>
+        <v>10027.280377681082</v>
       </c>
       <c r="AD32" s="63">
         <f>'MARA Prices'!H$21*$G32</f>
@@ -8644,7 +8644,7 @@
       </c>
       <c r="AE32" s="63">
         <f>'MARA Prices'!I$21*$G32</f>
-        <v>0</v>
+        <v>833.33333333333337</v>
       </c>
       <c r="AF32" s="63">
         <f>'MARA Prices'!J$21*$G32</f>
@@ -8698,23 +8698,23 @@
       </c>
       <c r="N33" s="63">
         <f t="shared" si="0"/>
-        <v>3456.25</v>
+        <v>4331.25</v>
       </c>
       <c r="P33" s="63">
         <f>$F33*Outputs_Internal!$D$62/12+N33</f>
-        <v>22744.628124999999</v>
+        <v>23619.628124999999</v>
       </c>
       <c r="Q33" s="63">
         <f>$F33*Outputs_Internal!K$62/12+N33*'MARA Prices'!$F$5</f>
-        <v>5830.9659828792583</v>
+        <v>5918.4659828792583</v>
       </c>
       <c r="R33" s="63">
         <f>$F33*Outputs_Internal!L$62/12+N33*'MARA Prices'!$F$6</f>
-        <v>13670.885466293634</v>
+        <v>13758.385466293634</v>
       </c>
       <c r="S33" s="63">
         <f>N33*'MARA Prices'!$F$4</f>
-        <v>2765</v>
+        <v>3465</v>
       </c>
       <c r="T33" s="63">
         <f>$F33*Outputs_Internal!M$62/12</f>
@@ -8750,7 +8750,7 @@
       </c>
       <c r="AE33" s="63">
         <f>'MARA Prices'!I$21*$G33</f>
-        <v>0</v>
+        <v>875.00000000000011</v>
       </c>
       <c r="AF33" s="63">
         <f>'MARA Prices'!J$21*$G33</f>
@@ -8804,23 +8804,23 @@
       </c>
       <c r="N34" s="63">
         <f t="shared" si="0"/>
-        <v>3456.25</v>
+        <v>4331.25</v>
       </c>
       <c r="P34" s="63">
         <f>$F34*Outputs_Internal!$D$62/12+N34</f>
-        <v>22744.628124999999</v>
+        <v>23619.628124999999</v>
       </c>
       <c r="Q34" s="63">
         <f>$F34*Outputs_Internal!K$62/12+N34*'MARA Prices'!$F$5</f>
-        <v>5830.9659828792583</v>
+        <v>5918.4659828792583</v>
       </c>
       <c r="R34" s="63">
         <f>$F34*Outputs_Internal!L$62/12+N34*'MARA Prices'!$F$6</f>
-        <v>13670.885466293634</v>
+        <v>13758.385466293634</v>
       </c>
       <c r="S34" s="63">
         <f>N34*'MARA Prices'!$F$4</f>
-        <v>2765</v>
+        <v>3465</v>
       </c>
       <c r="T34" s="63">
         <f>$F34*Outputs_Internal!M$62/12</f>
@@ -8856,7 +8856,7 @@
       </c>
       <c r="AE34" s="63">
         <f>'MARA Prices'!I$21*$G34</f>
-        <v>0</v>
+        <v>875.00000000000011</v>
       </c>
       <c r="AF34" s="63">
         <f>'MARA Prices'!J$21*$G34</f>
@@ -8910,23 +8910,23 @@
       </c>
       <c r="N35" s="63">
         <f t="shared" si="0"/>
-        <v>3456.25</v>
+        <v>4331.25</v>
       </c>
       <c r="P35" s="63">
         <f>$F35*Outputs_Internal!$D$62/12+N35</f>
-        <v>22744.628124999999</v>
+        <v>23619.628124999999</v>
       </c>
       <c r="Q35" s="63">
         <f>$F35*Outputs_Internal!K$62/12+N35*'MARA Prices'!$F$5</f>
-        <v>5830.9659828792583</v>
+        <v>5918.4659828792583</v>
       </c>
       <c r="R35" s="63">
         <f>$F35*Outputs_Internal!L$62/12+N35*'MARA Prices'!$F$6</f>
-        <v>13670.885466293634</v>
+        <v>13758.385466293634</v>
       </c>
       <c r="S35" s="63">
         <f>N35*'MARA Prices'!$F$4</f>
-        <v>2765</v>
+        <v>3465</v>
       </c>
       <c r="T35" s="63">
         <f>$F35*Outputs_Internal!M$62/12</f>
@@ -8938,15 +8938,15 @@
       </c>
       <c r="W35" s="63">
         <f t="shared" si="2"/>
-        <v>68233.884374999994</v>
+        <v>70858.884374999994</v>
       </c>
       <c r="X35" s="63">
         <f t="shared" si="3"/>
-        <v>17492.897948637776</v>
+        <v>17755.397948637776</v>
       </c>
       <c r="Y35" s="63">
         <f t="shared" si="4"/>
-        <v>41012.656398880899</v>
+        <v>41275.156398880899</v>
       </c>
       <c r="Z35" s="63">
         <f t="shared" si="5"/>
@@ -8954,7 +8954,7 @@
       </c>
       <c r="AA35" s="63">
         <f t="shared" si="6"/>
-        <v>8422.2803776810815</v>
+        <v>10522.280377681082</v>
       </c>
       <c r="AD35" s="63">
         <f>'MARA Prices'!H$21*$G35</f>
@@ -8962,7 +8962,7 @@
       </c>
       <c r="AE35" s="63">
         <f>'MARA Prices'!I$21*$G35</f>
-        <v>0</v>
+        <v>875.00000000000011</v>
       </c>
       <c r="AF35" s="63">
         <f>'MARA Prices'!J$21*$G35</f>
@@ -9016,23 +9016,23 @@
       </c>
       <c r="N36" s="63">
         <f t="shared" si="0"/>
-        <v>3456.25</v>
+        <v>4331.25</v>
       </c>
       <c r="P36" s="63">
         <f>$F36*Outputs_Internal!$D$62/12+N36</f>
-        <v>22744.628124999999</v>
+        <v>23619.628124999999</v>
       </c>
       <c r="Q36" s="63">
         <f>$F36*Outputs_Internal!K$62/12+N36*'MARA Prices'!$F$5</f>
-        <v>5830.9659828792583</v>
+        <v>5918.4659828792583</v>
       </c>
       <c r="R36" s="63">
         <f>$F36*Outputs_Internal!L$62/12+N36*'MARA Prices'!$F$6</f>
-        <v>13670.885466293634</v>
+        <v>13758.385466293634</v>
       </c>
       <c r="S36" s="63">
         <f>N36*'MARA Prices'!$F$4</f>
-        <v>2765</v>
+        <v>3465</v>
       </c>
       <c r="T36" s="63">
         <f>$F36*Outputs_Internal!M$62/12</f>
@@ -9068,7 +9068,7 @@
       </c>
       <c r="AE36" s="63">
         <f>'MARA Prices'!I$21*$G36</f>
-        <v>0</v>
+        <v>875.00000000000011</v>
       </c>
       <c r="AF36" s="63">
         <f>'MARA Prices'!J$21*$G36</f>
@@ -9122,23 +9122,23 @@
       </c>
       <c r="N37" s="63">
         <f t="shared" si="0"/>
-        <v>3456.25</v>
+        <v>4331.25</v>
       </c>
       <c r="P37" s="63">
         <f>$F37*Outputs_Internal!$D$62/12+N37</f>
-        <v>22744.628124999999</v>
+        <v>23619.628124999999</v>
       </c>
       <c r="Q37" s="63">
         <f>$F37*Outputs_Internal!K$62/12+N37*'MARA Prices'!$F$5</f>
-        <v>5830.9659828792583</v>
+        <v>5918.4659828792583</v>
       </c>
       <c r="R37" s="63">
         <f>$F37*Outputs_Internal!L$62/12+N37*'MARA Prices'!$F$6</f>
-        <v>13670.885466293634</v>
+        <v>13758.385466293634</v>
       </c>
       <c r="S37" s="63">
         <f>N37*'MARA Prices'!$F$4</f>
-        <v>2765</v>
+        <v>3465</v>
       </c>
       <c r="T37" s="63">
         <f>$F37*Outputs_Internal!M$62/12</f>
@@ -9174,7 +9174,7 @@
       </c>
       <c r="AE37" s="63">
         <f>'MARA Prices'!I$21*$G37</f>
-        <v>0</v>
+        <v>875.00000000000011</v>
       </c>
       <c r="AF37" s="63">
         <f>'MARA Prices'!J$21*$G37</f>
@@ -9228,23 +9228,23 @@
       </c>
       <c r="N38" s="63">
         <f t="shared" si="0"/>
-        <v>3456.25</v>
+        <v>4331.25</v>
       </c>
       <c r="P38" s="63">
         <f>$F38*Outputs_Internal!$D$62/12+N38</f>
-        <v>22744.628124999999</v>
+        <v>23619.628124999999</v>
       </c>
       <c r="Q38" s="63">
         <f>$F38*Outputs_Internal!K$62/12+N38*'MARA Prices'!$F$5</f>
-        <v>5830.9659828792583</v>
+        <v>5918.4659828792583</v>
       </c>
       <c r="R38" s="63">
         <f>$F38*Outputs_Internal!L$62/12+N38*'MARA Prices'!$F$6</f>
-        <v>13670.885466293634</v>
+        <v>13758.385466293634</v>
       </c>
       <c r="S38" s="63">
         <f>N38*'MARA Prices'!$F$4</f>
-        <v>2765</v>
+        <v>3465</v>
       </c>
       <c r="T38" s="63">
         <f>$F38*Outputs_Internal!M$62/12</f>
@@ -9256,15 +9256,15 @@
       </c>
       <c r="W38" s="63">
         <f t="shared" si="7"/>
-        <v>68233.884374999994</v>
+        <v>70858.884374999994</v>
       </c>
       <c r="X38" s="63">
         <f t="shared" si="8"/>
-        <v>17492.897948637776</v>
+        <v>17755.397948637776</v>
       </c>
       <c r="Y38" s="63">
         <f t="shared" si="9"/>
-        <v>41012.656398880899</v>
+        <v>41275.156398880899</v>
       </c>
       <c r="Z38" s="63">
         <f t="shared" si="10"/>
@@ -9272,7 +9272,7 @@
       </c>
       <c r="AA38" s="63">
         <f t="shared" si="11"/>
-        <v>8422.2803776810815</v>
+        <v>10522.280377681082</v>
       </c>
       <c r="AD38" s="63">
         <f>'MARA Prices'!H$21*$G38</f>
@@ -9280,7 +9280,7 @@
       </c>
       <c r="AE38" s="63">
         <f>'MARA Prices'!I$21*$G38</f>
-        <v>0</v>
+        <v>875.00000000000011</v>
       </c>
       <c r="AF38" s="63">
         <f>'MARA Prices'!J$21*$G38</f>
@@ -9334,23 +9334,23 @@
       </c>
       <c r="N39" s="63">
         <f t="shared" si="0"/>
-        <v>3456.25</v>
+        <v>4331.25</v>
       </c>
       <c r="P39" s="63">
         <f>$F39*Outputs_Internal!$D$62/12+N39</f>
-        <v>22744.628124999999</v>
+        <v>23619.628124999999</v>
       </c>
       <c r="Q39" s="63">
         <f>$F39*Outputs_Internal!K$62/12+N39*'MARA Prices'!$F$5</f>
-        <v>5830.9659828792583</v>
+        <v>5918.4659828792583</v>
       </c>
       <c r="R39" s="63">
         <f>$F39*Outputs_Internal!L$62/12+N39*'MARA Prices'!$F$6</f>
-        <v>13670.885466293634</v>
+        <v>13758.385466293634</v>
       </c>
       <c r="S39" s="63">
         <f>N39*'MARA Prices'!$F$4</f>
-        <v>2765</v>
+        <v>3465</v>
       </c>
       <c r="T39" s="63">
         <f>$F39*Outputs_Internal!M$62/12</f>
@@ -9386,7 +9386,7 @@
       </c>
       <c r="AE39" s="63">
         <f>'MARA Prices'!I$21*$G39</f>
-        <v>0</v>
+        <v>875.00000000000011</v>
       </c>
       <c r="AF39" s="63">
         <f>'MARA Prices'!J$21*$G39</f>
@@ -9440,23 +9440,23 @@
       </c>
       <c r="N40" s="63">
         <f t="shared" si="0"/>
-        <v>3456.25</v>
+        <v>4331.25</v>
       </c>
       <c r="P40" s="63">
         <f>$F40*Outputs_Internal!$D$62/12+N40</f>
-        <v>22744.628124999999</v>
+        <v>23619.628124999999</v>
       </c>
       <c r="Q40" s="63">
         <f>$F40*Outputs_Internal!K$62/12+N40*'MARA Prices'!$F$5</f>
-        <v>5830.9659828792583</v>
+        <v>5918.4659828792583</v>
       </c>
       <c r="R40" s="63">
         <f>$F40*Outputs_Internal!L$62/12+N40*'MARA Prices'!$F$6</f>
-        <v>13670.885466293634</v>
+        <v>13758.385466293634</v>
       </c>
       <c r="S40" s="63">
         <f>N40*'MARA Prices'!$F$4</f>
-        <v>2765</v>
+        <v>3465</v>
       </c>
       <c r="T40" s="63">
         <f>$F40*Outputs_Internal!M$62/12</f>
@@ -9492,7 +9492,7 @@
       </c>
       <c r="AE40" s="63">
         <f>'MARA Prices'!I$21*$G40</f>
-        <v>0</v>
+        <v>875.00000000000011</v>
       </c>
       <c r="AF40" s="63">
         <f>'MARA Prices'!J$21*$G40</f>
@@ -9546,23 +9546,23 @@
       </c>
       <c r="N41" s="63">
         <f t="shared" si="0"/>
-        <v>3456.25</v>
+        <v>4331.25</v>
       </c>
       <c r="P41" s="63">
         <f>$F41*Outputs_Internal!$D$62/12+N41</f>
-        <v>22744.628124999999</v>
+        <v>23619.628124999999</v>
       </c>
       <c r="Q41" s="63">
         <f>$F41*Outputs_Internal!K$62/12+N41*'MARA Prices'!$F$5</f>
-        <v>5830.9659828792583</v>
+        <v>5918.4659828792583</v>
       </c>
       <c r="R41" s="63">
         <f>$F41*Outputs_Internal!L$62/12+N41*'MARA Prices'!$F$6</f>
-        <v>13670.885466293634</v>
+        <v>13758.385466293634</v>
       </c>
       <c r="S41" s="63">
         <f>N41*'MARA Prices'!$F$4</f>
-        <v>2765</v>
+        <v>3465</v>
       </c>
       <c r="T41" s="63">
         <f>$F41*Outputs_Internal!M$62/12</f>
@@ -9574,15 +9574,15 @@
       </c>
       <c r="W41" s="63">
         <f t="shared" si="7"/>
-        <v>68233.884374999994</v>
+        <v>70858.884374999994</v>
       </c>
       <c r="X41" s="63">
         <f t="shared" si="8"/>
-        <v>17492.897948637776</v>
+        <v>17755.397948637776</v>
       </c>
       <c r="Y41" s="63">
         <f t="shared" si="9"/>
-        <v>41012.656398880899</v>
+        <v>41275.156398880899</v>
       </c>
       <c r="Z41" s="63">
         <f t="shared" si="10"/>
@@ -9590,7 +9590,7 @@
       </c>
       <c r="AA41" s="63">
         <f t="shared" si="11"/>
-        <v>8422.2803776810815</v>
+        <v>10522.280377681082</v>
       </c>
       <c r="AD41" s="63">
         <f>'MARA Prices'!H$21*$G41</f>
@@ -9598,7 +9598,7 @@
       </c>
       <c r="AE41" s="63">
         <f>'MARA Prices'!I$21*$G41</f>
-        <v>0</v>
+        <v>875.00000000000011</v>
       </c>
       <c r="AF41" s="63">
         <f>'MARA Prices'!J$21*$G41</f>
@@ -9652,23 +9652,23 @@
       </c>
       <c r="N42" s="63">
         <f t="shared" si="0"/>
-        <v>3456.25</v>
+        <v>4331.25</v>
       </c>
       <c r="P42" s="63">
         <f>$F42*Outputs_Internal!$D$62/12+N42</f>
-        <v>22744.628124999999</v>
+        <v>23619.628124999999</v>
       </c>
       <c r="Q42" s="63">
         <f>$F42*Outputs_Internal!K$62/12+N42*'MARA Prices'!$F$5</f>
-        <v>5830.9659828792583</v>
+        <v>5918.4659828792583</v>
       </c>
       <c r="R42" s="63">
         <f>$F42*Outputs_Internal!L$62/12+N42*'MARA Prices'!$F$6</f>
-        <v>13670.885466293634</v>
+        <v>13758.385466293634</v>
       </c>
       <c r="S42" s="63">
         <f>N42*'MARA Prices'!$F$4</f>
-        <v>2765</v>
+        <v>3465</v>
       </c>
       <c r="T42" s="63">
         <f>$F42*Outputs_Internal!M$62/12</f>
@@ -9704,7 +9704,7 @@
       </c>
       <c r="AE42" s="63">
         <f>'MARA Prices'!I$21*$G42</f>
-        <v>0</v>
+        <v>875.00000000000011</v>
       </c>
       <c r="AF42" s="63">
         <f>'MARA Prices'!J$21*$G42</f>
@@ -9758,23 +9758,23 @@
       </c>
       <c r="N43" s="63">
         <f t="shared" si="0"/>
-        <v>3456.25</v>
+        <v>4331.25</v>
       </c>
       <c r="P43" s="63">
         <f>$F43*Outputs_Internal!$D$62/12+N43</f>
-        <v>22744.628124999999</v>
+        <v>23619.628124999999</v>
       </c>
       <c r="Q43" s="63">
         <f>$F43*Outputs_Internal!K$62/12+N43*'MARA Prices'!$F$5</f>
-        <v>5830.9659828792583</v>
+        <v>5918.4659828792583</v>
       </c>
       <c r="R43" s="63">
         <f>$F43*Outputs_Internal!L$62/12+N43*'MARA Prices'!$F$6</f>
-        <v>13670.885466293634</v>
+        <v>13758.385466293634</v>
       </c>
       <c r="S43" s="63">
         <f>N43*'MARA Prices'!$F$4</f>
-        <v>2765</v>
+        <v>3465</v>
       </c>
       <c r="T43" s="63">
         <f>$F43*Outputs_Internal!M$62/12</f>
@@ -9810,7 +9810,7 @@
       </c>
       <c r="AE43" s="63">
         <f>'MARA Prices'!I$21*$G43</f>
-        <v>0</v>
+        <v>875.00000000000011</v>
       </c>
       <c r="AF43" s="63">
         <f>'MARA Prices'!J$21*$G43</f>
@@ -9864,23 +9864,23 @@
       </c>
       <c r="N44" s="63">
         <f t="shared" si="0"/>
-        <v>3456.25</v>
+        <v>4331.25</v>
       </c>
       <c r="P44" s="63">
         <f>$F44*Outputs_Internal!$D$62/12+N44</f>
-        <v>22744.628124999999</v>
+        <v>23619.628124999999</v>
       </c>
       <c r="Q44" s="63">
         <f>$F44*Outputs_Internal!K$62/12+N44*'MARA Prices'!$F$5</f>
-        <v>5830.9659828792583</v>
+        <v>5918.4659828792583</v>
       </c>
       <c r="R44" s="63">
         <f>$F44*Outputs_Internal!L$62/12+N44*'MARA Prices'!$F$6</f>
-        <v>13670.885466293634</v>
+        <v>13758.385466293634</v>
       </c>
       <c r="S44" s="63">
         <f>N44*'MARA Prices'!$F$4</f>
-        <v>2765</v>
+        <v>3465</v>
       </c>
       <c r="T44" s="63">
         <f>$F44*Outputs_Internal!M$62/12</f>
@@ -9892,15 +9892,15 @@
       </c>
       <c r="W44" s="63">
         <f t="shared" si="7"/>
-        <v>68233.884374999994</v>
+        <v>70858.884374999994</v>
       </c>
       <c r="X44" s="63">
         <f t="shared" si="8"/>
-        <v>17492.897948637776</v>
+        <v>17755.397948637776</v>
       </c>
       <c r="Y44" s="63">
         <f t="shared" si="9"/>
-        <v>41012.656398880899</v>
+        <v>41275.156398880899</v>
       </c>
       <c r="Z44" s="63">
         <f t="shared" si="10"/>
@@ -9908,7 +9908,7 @@
       </c>
       <c r="AA44" s="63">
         <f t="shared" si="11"/>
-        <v>8422.2803776810815</v>
+        <v>10522.280377681082</v>
       </c>
       <c r="AD44" s="63">
         <f>'MARA Prices'!H$21*$G44</f>
@@ -9916,7 +9916,7 @@
       </c>
       <c r="AE44" s="63">
         <f>'MARA Prices'!I$21*$G44</f>
-        <v>0</v>
+        <v>875.00000000000011</v>
       </c>
       <c r="AF44" s="63">
         <f>'MARA Prices'!J$21*$G44</f>
@@ -9970,23 +9970,23 @@
       </c>
       <c r="N45" s="63">
         <f t="shared" si="0"/>
-        <v>3629.0625</v>
+        <v>4547.8125</v>
       </c>
       <c r="P45" s="63">
         <f>$F45*Outputs_Internal!$D$62/12+N45</f>
-        <v>22917.440624999999</v>
+        <v>23836.190624999999</v>
       </c>
       <c r="Q45" s="63">
         <f>$F45*Outputs_Internal!K$62/12+N45*'MARA Prices'!$F$5</f>
-        <v>5848.2472328792583</v>
+        <v>5940.1222328792583</v>
       </c>
       <c r="R45" s="63">
         <f>$F45*Outputs_Internal!L$62/12+N45*'MARA Prices'!$F$6</f>
-        <v>13688.166716293634</v>
+        <v>13780.041716293634</v>
       </c>
       <c r="S45" s="63">
         <f>N45*'MARA Prices'!$F$4</f>
-        <v>2903.25</v>
+        <v>3638.25</v>
       </c>
       <c r="T45" s="63">
         <f>$F45*Outputs_Internal!M$62/12</f>
@@ -10022,7 +10022,7 @@
       </c>
       <c r="AE45" s="63">
         <f>'MARA Prices'!I$21*$G45</f>
-        <v>0</v>
+        <v>918.75000000000011</v>
       </c>
       <c r="AF45" s="63">
         <f>'MARA Prices'!J$21*$G45</f>
@@ -10076,23 +10076,23 @@
       </c>
       <c r="N46" s="63">
         <f t="shared" si="0"/>
-        <v>3629.0625</v>
+        <v>4547.8125</v>
       </c>
       <c r="P46" s="63">
         <f>$F46*Outputs_Internal!$D$62/12+N46</f>
-        <v>22917.440624999999</v>
+        <v>23836.190624999999</v>
       </c>
       <c r="Q46" s="63">
         <f>$F46*Outputs_Internal!K$62/12+N46*'MARA Prices'!$F$5</f>
-        <v>5848.2472328792583</v>
+        <v>5940.1222328792583</v>
       </c>
       <c r="R46" s="63">
         <f>$F46*Outputs_Internal!L$62/12+N46*'MARA Prices'!$F$6</f>
-        <v>13688.166716293634</v>
+        <v>13780.041716293634</v>
       </c>
       <c r="S46" s="63">
         <f>N46*'MARA Prices'!$F$4</f>
-        <v>2903.25</v>
+        <v>3638.25</v>
       </c>
       <c r="T46" s="63">
         <f>$F46*Outputs_Internal!M$62/12</f>
@@ -10128,7 +10128,7 @@
       </c>
       <c r="AE46" s="63">
         <f>'MARA Prices'!I$21*$G46</f>
-        <v>0</v>
+        <v>918.75000000000011</v>
       </c>
       <c r="AF46" s="63">
         <f>'MARA Prices'!J$21*$G46</f>
@@ -10182,23 +10182,23 @@
       </c>
       <c r="N47" s="63">
         <f t="shared" si="0"/>
-        <v>3629.0625</v>
+        <v>4547.8125</v>
       </c>
       <c r="P47" s="63">
         <f>$F47*Outputs_Internal!$D$62/12+N47</f>
-        <v>22917.440624999999</v>
+        <v>23836.190624999999</v>
       </c>
       <c r="Q47" s="63">
         <f>$F47*Outputs_Internal!K$62/12+N47*'MARA Prices'!$F$5</f>
-        <v>5848.2472328792583</v>
+        <v>5940.1222328792583</v>
       </c>
       <c r="R47" s="63">
         <f>$F47*Outputs_Internal!L$62/12+N47*'MARA Prices'!$F$6</f>
-        <v>13688.166716293634</v>
+        <v>13780.041716293634</v>
       </c>
       <c r="S47" s="63">
         <f>N47*'MARA Prices'!$F$4</f>
-        <v>2903.25</v>
+        <v>3638.25</v>
       </c>
       <c r="T47" s="63">
         <f>$F47*Outputs_Internal!M$62/12</f>
@@ -10210,15 +10210,15 @@
       </c>
       <c r="W47" s="63">
         <f t="shared" si="7"/>
-        <v>68752.321874999994</v>
+        <v>71508.571874999994</v>
       </c>
       <c r="X47" s="63">
         <f t="shared" si="8"/>
-        <v>17544.741698637776</v>
+        <v>17820.366698637776</v>
       </c>
       <c r="Y47" s="63">
         <f t="shared" si="9"/>
-        <v>41064.500148880899</v>
+        <v>41340.125148880899</v>
       </c>
       <c r="Z47" s="63">
         <f t="shared" si="10"/>
@@ -10226,7 +10226,7 @@
       </c>
       <c r="AA47" s="63">
         <f t="shared" si="11"/>
-        <v>8837.0303776810815</v>
+        <v>11042.030377681082</v>
       </c>
       <c r="AD47" s="63">
         <f>'MARA Prices'!H$21*$G47</f>
@@ -10234,7 +10234,7 @@
       </c>
       <c r="AE47" s="63">
         <f>'MARA Prices'!I$21*$G47</f>
-        <v>0</v>
+        <v>918.75000000000011</v>
       </c>
       <c r="AF47" s="63">
         <f>'MARA Prices'!J$21*$G47</f>
@@ -10288,23 +10288,23 @@
       </c>
       <c r="N48" s="63">
         <f t="shared" si="0"/>
-        <v>3629.0625</v>
+        <v>4547.8125</v>
       </c>
       <c r="P48" s="63">
         <f>$F48*Outputs_Internal!$D$62/12+N48</f>
-        <v>22917.440624999999</v>
+        <v>23836.190624999999</v>
       </c>
       <c r="Q48" s="63">
         <f>$F48*Outputs_Internal!K$62/12+N48*'MARA Prices'!$F$5</f>
-        <v>5848.2472328792583</v>
+        <v>5940.1222328792583</v>
       </c>
       <c r="R48" s="63">
         <f>$F48*Outputs_Internal!L$62/12+N48*'MARA Prices'!$F$6</f>
-        <v>13688.166716293634</v>
+        <v>13780.041716293634</v>
       </c>
       <c r="S48" s="63">
         <f>N48*'MARA Prices'!$F$4</f>
-        <v>2903.25</v>
+        <v>3638.25</v>
       </c>
       <c r="T48" s="63">
         <f>$F48*Outputs_Internal!M$62/12</f>
@@ -10340,7 +10340,7 @@
       </c>
       <c r="AE48" s="63">
         <f>'MARA Prices'!I$21*$G48</f>
-        <v>0</v>
+        <v>918.75000000000011</v>
       </c>
       <c r="AF48" s="63">
         <f>'MARA Prices'!J$21*$G48</f>
@@ -10394,23 +10394,23 @@
       </c>
       <c r="N49" s="63">
         <f t="shared" si="0"/>
-        <v>3629.0625</v>
+        <v>4547.8125</v>
       </c>
       <c r="P49" s="63">
         <f>$F49*Outputs_Internal!$D$62/12+N49</f>
-        <v>22917.440624999999</v>
+        <v>23836.190624999999</v>
       </c>
       <c r="Q49" s="63">
         <f>$F49*Outputs_Internal!K$62/12+N49*'MARA Prices'!$F$5</f>
-        <v>5848.2472328792583</v>
+        <v>5940.1222328792583</v>
       </c>
       <c r="R49" s="63">
         <f>$F49*Outputs_Internal!L$62/12+N49*'MARA Prices'!$F$6</f>
-        <v>13688.166716293634</v>
+        <v>13780.041716293634</v>
       </c>
       <c r="S49" s="63">
         <f>N49*'MARA Prices'!$F$4</f>
-        <v>2903.25</v>
+        <v>3638.25</v>
       </c>
       <c r="T49" s="63">
         <f>$F49*Outputs_Internal!M$62/12</f>
@@ -10446,7 +10446,7 @@
       </c>
       <c r="AE49" s="63">
         <f>'MARA Prices'!I$21*$G49</f>
-        <v>0</v>
+        <v>918.75000000000011</v>
       </c>
       <c r="AF49" s="63">
         <f>'MARA Prices'!J$21*$G49</f>
@@ -10500,23 +10500,23 @@
       </c>
       <c r="N50" s="63">
         <f t="shared" si="0"/>
-        <v>3629.0625</v>
+        <v>4547.8125</v>
       </c>
       <c r="P50" s="63">
         <f>$F50*Outputs_Internal!$D$62/12+N50</f>
-        <v>22917.440624999999</v>
+        <v>23836.190624999999</v>
       </c>
       <c r="Q50" s="63">
         <f>$F50*Outputs_Internal!K$62/12+N50*'MARA Prices'!$F$5</f>
-        <v>5848.2472328792583</v>
+        <v>5940.1222328792583</v>
       </c>
       <c r="R50" s="63">
         <f>$F50*Outputs_Internal!L$62/12+N50*'MARA Prices'!$F$6</f>
-        <v>13688.166716293634</v>
+        <v>13780.041716293634</v>
       </c>
       <c r="S50" s="63">
         <f>N50*'MARA Prices'!$F$4</f>
-        <v>2903.25</v>
+        <v>3638.25</v>
       </c>
       <c r="T50" s="63">
         <f>$F50*Outputs_Internal!M$62/12</f>
@@ -10528,15 +10528,15 @@
       </c>
       <c r="W50" s="63">
         <f t="shared" si="7"/>
-        <v>68752.321874999994</v>
+        <v>71508.571874999994</v>
       </c>
       <c r="X50" s="63">
         <f t="shared" si="8"/>
-        <v>17544.741698637776</v>
+        <v>17820.366698637776</v>
       </c>
       <c r="Y50" s="63">
         <f t="shared" si="9"/>
-        <v>41064.500148880899</v>
+        <v>41340.125148880899</v>
       </c>
       <c r="Z50" s="63">
         <f t="shared" si="10"/>
@@ -10544,7 +10544,7 @@
       </c>
       <c r="AA50" s="63">
         <f t="shared" si="11"/>
-        <v>8837.0303776810815</v>
+        <v>11042.030377681082</v>
       </c>
       <c r="AD50" s="63">
         <f>'MARA Prices'!H$21*$G50</f>
@@ -10552,7 +10552,7 @@
       </c>
       <c r="AE50" s="63">
         <f>'MARA Prices'!I$21*$G50</f>
-        <v>0</v>
+        <v>918.75000000000011</v>
       </c>
       <c r="AF50" s="63">
         <f>'MARA Prices'!J$21*$G50</f>
@@ -10606,23 +10606,23 @@
       </c>
       <c r="N51" s="63">
         <f t="shared" si="0"/>
-        <v>3629.0625</v>
+        <v>4547.8125</v>
       </c>
       <c r="P51" s="63">
         <f>$F51*Outputs_Internal!$D$62/12+N51</f>
-        <v>22917.440624999999</v>
+        <v>23836.190624999999</v>
       </c>
       <c r="Q51" s="63">
         <f>$F51*Outputs_Internal!K$62/12+N51*'MARA Prices'!$F$5</f>
-        <v>5848.2472328792583</v>
+        <v>5940.1222328792583</v>
       </c>
       <c r="R51" s="63">
         <f>$F51*Outputs_Internal!L$62/12+N51*'MARA Prices'!$F$6</f>
-        <v>13688.166716293634</v>
+        <v>13780.041716293634</v>
       </c>
       <c r="S51" s="63">
         <f>N51*'MARA Prices'!$F$4</f>
-        <v>2903.25</v>
+        <v>3638.25</v>
       </c>
       <c r="T51" s="63">
         <f>$F51*Outputs_Internal!M$62/12</f>
@@ -10658,7 +10658,7 @@
       </c>
       <c r="AE51" s="63">
         <f>'MARA Prices'!I$21*$G51</f>
-        <v>0</v>
+        <v>918.75000000000011</v>
       </c>
       <c r="AF51" s="63">
         <f>'MARA Prices'!J$21*$G51</f>
@@ -10712,23 +10712,23 @@
       </c>
       <c r="N52" s="63">
         <f t="shared" si="0"/>
-        <v>3629.0625</v>
+        <v>4547.8125</v>
       </c>
       <c r="P52" s="63">
         <f>$F52*Outputs_Internal!$D$62/12+N52</f>
-        <v>22917.440624999999</v>
+        <v>23836.190624999999</v>
       </c>
       <c r="Q52" s="63">
         <f>$F52*Outputs_Internal!K$62/12+N52*'MARA Prices'!$F$5</f>
-        <v>5848.2472328792583</v>
+        <v>5940.1222328792583</v>
       </c>
       <c r="R52" s="63">
         <f>$F52*Outputs_Internal!L$62/12+N52*'MARA Prices'!$F$6</f>
-        <v>13688.166716293634</v>
+        <v>13780.041716293634</v>
       </c>
       <c r="S52" s="63">
         <f>N52*'MARA Prices'!$F$4</f>
-        <v>2903.25</v>
+        <v>3638.25</v>
       </c>
       <c r="T52" s="63">
         <f>$F52*Outputs_Internal!M$62/12</f>
@@ -10764,7 +10764,7 @@
       </c>
       <c r="AE52" s="63">
         <f>'MARA Prices'!I$21*$G52</f>
-        <v>0</v>
+        <v>918.75000000000011</v>
       </c>
       <c r="AF52" s="63">
         <f>'MARA Prices'!J$21*$G52</f>
@@ -10818,23 +10818,23 @@
       </c>
       <c r="N53" s="63">
         <f t="shared" si="0"/>
-        <v>3629.0625</v>
+        <v>4547.8125</v>
       </c>
       <c r="P53" s="63">
         <f>$F53*Outputs_Internal!$D$62/12+N53</f>
-        <v>22917.440624999999</v>
+        <v>23836.190624999999</v>
       </c>
       <c r="Q53" s="63">
         <f>$F53*Outputs_Internal!K$62/12+N53*'MARA Prices'!$F$5</f>
-        <v>5848.2472328792583</v>
+        <v>5940.1222328792583</v>
       </c>
       <c r="R53" s="63">
         <f>$F53*Outputs_Internal!L$62/12+N53*'MARA Prices'!$F$6</f>
-        <v>13688.166716293634</v>
+        <v>13780.041716293634</v>
       </c>
       <c r="S53" s="63">
         <f>N53*'MARA Prices'!$F$4</f>
-        <v>2903.25</v>
+        <v>3638.25</v>
       </c>
       <c r="T53" s="63">
         <f>$F53*Outputs_Internal!M$62/12</f>
@@ -10846,15 +10846,15 @@
       </c>
       <c r="W53" s="63">
         <f t="shared" si="7"/>
-        <v>68752.321874999994</v>
+        <v>71508.571874999994</v>
       </c>
       <c r="X53" s="63">
         <f t="shared" si="8"/>
-        <v>17544.741698637776</v>
+        <v>17820.366698637776</v>
       </c>
       <c r="Y53" s="63">
         <f t="shared" si="9"/>
-        <v>41064.500148880899</v>
+        <v>41340.125148880899</v>
       </c>
       <c r="Z53" s="63">
         <f t="shared" si="10"/>
@@ -10862,7 +10862,7 @@
       </c>
       <c r="AA53" s="63">
         <f t="shared" si="11"/>
-        <v>8837.0303776810815</v>
+        <v>11042.030377681082</v>
       </c>
       <c r="AD53" s="63">
         <f>'MARA Prices'!H$21*$G53</f>
@@ -10870,7 +10870,7 @@
       </c>
       <c r="AE53" s="63">
         <f>'MARA Prices'!I$21*$G53</f>
-        <v>0</v>
+        <v>918.75000000000011</v>
       </c>
       <c r="AF53" s="63">
         <f>'MARA Prices'!J$21*$G53</f>
@@ -10924,23 +10924,23 @@
       </c>
       <c r="N54" s="63">
         <f t="shared" si="0"/>
-        <v>3629.0625</v>
+        <v>4547.8125</v>
       </c>
       <c r="P54" s="63">
         <f>$F54*Outputs_Internal!$D$62/12+N54</f>
-        <v>22917.440624999999</v>
+        <v>23836.190624999999</v>
       </c>
       <c r="Q54" s="63">
         <f>$F54*Outputs_Internal!K$62/12+N54*'MARA Prices'!$F$5</f>
-        <v>5848.2472328792583</v>
+        <v>5940.1222328792583</v>
       </c>
       <c r="R54" s="63">
         <f>$F54*Outputs_Internal!L$62/12+N54*'MARA Prices'!$F$6</f>
-        <v>13688.166716293634</v>
+        <v>13780.041716293634</v>
       </c>
       <c r="S54" s="63">
         <f>N54*'MARA Prices'!$F$4</f>
-        <v>2903.25</v>
+        <v>3638.25</v>
       </c>
       <c r="T54" s="63">
         <f>$F54*Outputs_Internal!M$62/12</f>
@@ -10976,7 +10976,7 @@
       </c>
       <c r="AE54" s="63">
         <f>'MARA Prices'!I$21*$G54</f>
-        <v>0</v>
+        <v>918.75000000000011</v>
       </c>
       <c r="AF54" s="63">
         <f>'MARA Prices'!J$21*$G54</f>
@@ -11030,23 +11030,23 @@
       </c>
       <c r="N55" s="63">
         <f t="shared" si="0"/>
-        <v>3629.0625</v>
+        <v>4547.8125</v>
       </c>
       <c r="P55" s="63">
         <f>$F55*Outputs_Internal!$D$62/12+N55</f>
-        <v>22917.440624999999</v>
+        <v>23836.190624999999</v>
       </c>
       <c r="Q55" s="63">
         <f>$F55*Outputs_Internal!K$62/12+N55*'MARA Prices'!$F$5</f>
-        <v>5848.2472328792583</v>
+        <v>5940.1222328792583</v>
       </c>
       <c r="R55" s="63">
         <f>$F55*Outputs_Internal!L$62/12+N55*'MARA Prices'!$F$6</f>
-        <v>13688.166716293634</v>
+        <v>13780.041716293634</v>
       </c>
       <c r="S55" s="63">
         <f>N55*'MARA Prices'!$F$4</f>
-        <v>2903.25</v>
+        <v>3638.25</v>
       </c>
       <c r="T55" s="63">
         <f>$F55*Outputs_Internal!M$62/12</f>
@@ -11082,7 +11082,7 @@
       </c>
       <c r="AE55" s="63">
         <f>'MARA Prices'!I$21*$G55</f>
-        <v>0</v>
+        <v>918.75000000000011</v>
       </c>
       <c r="AF55" s="63">
         <f>'MARA Prices'!J$21*$G55</f>
@@ -11136,23 +11136,23 @@
       </c>
       <c r="N56" s="63">
         <f t="shared" si="0"/>
-        <v>3629.0625</v>
+        <v>4547.8125</v>
       </c>
       <c r="P56" s="63">
         <f>$F56*Outputs_Internal!$D$62/12+N56</f>
-        <v>22917.440624999999</v>
+        <v>23836.190624999999</v>
       </c>
       <c r="Q56" s="63">
         <f>$F56*Outputs_Internal!K$62/12+N56*'MARA Prices'!$F$5</f>
-        <v>5848.2472328792583</v>
+        <v>5940.1222328792583</v>
       </c>
       <c r="R56" s="63">
         <f>$F56*Outputs_Internal!L$62/12+N56*'MARA Prices'!$F$6</f>
-        <v>13688.166716293634</v>
+        <v>13780.041716293634</v>
       </c>
       <c r="S56" s="63">
         <f>N56*'MARA Prices'!$F$4</f>
-        <v>2903.25</v>
+        <v>3638.25</v>
       </c>
       <c r="T56" s="63">
         <f>$F56*Outputs_Internal!M$62/12</f>
@@ -11164,15 +11164,15 @@
       </c>
       <c r="W56" s="63">
         <f t="shared" si="7"/>
-        <v>68752.321874999994</v>
+        <v>71508.571874999994</v>
       </c>
       <c r="X56" s="63">
         <f t="shared" si="8"/>
-        <v>17544.741698637776</v>
+        <v>17820.366698637776</v>
       </c>
       <c r="Y56" s="63">
         <f t="shared" si="9"/>
-        <v>41064.500148880899</v>
+        <v>41340.125148880899</v>
       </c>
       <c r="Z56" s="63">
         <f t="shared" si="10"/>
@@ -11180,7 +11180,7 @@
       </c>
       <c r="AA56" s="63">
         <f t="shared" si="11"/>
-        <v>8837.0303776810815</v>
+        <v>11042.030377681082</v>
       </c>
       <c r="AD56" s="63">
         <f>'MARA Prices'!H$21*$G56</f>
@@ -11188,7 +11188,7 @@
       </c>
       <c r="AE56" s="63">
         <f>'MARA Prices'!I$21*$G56</f>
-        <v>0</v>
+        <v>918.75000000000011</v>
       </c>
       <c r="AF56" s="63">
         <f>'MARA Prices'!J$21*$G56</f>
@@ -11242,23 +11242,23 @@
       </c>
       <c r="N57" s="63">
         <f t="shared" si="0"/>
-        <v>3810.5156250000005</v>
+        <v>4775.2031250000009</v>
       </c>
       <c r="P57" s="63">
         <f>$F57*Outputs_Internal!$D$62/12+N57</f>
-        <v>23098.893749999999</v>
+        <v>24063.581249999999</v>
       </c>
       <c r="Q57" s="63">
         <f>$F57*Outputs_Internal!K$62/12+N57*'MARA Prices'!$F$5</f>
-        <v>5866.3925453792581</v>
+        <v>5962.8612953792581</v>
       </c>
       <c r="R57" s="63">
         <f>$F57*Outputs_Internal!L$62/12+N57*'MARA Prices'!$F$6</f>
-        <v>13706.312028793634</v>
+        <v>13802.780778793634</v>
       </c>
       <c r="S57" s="63">
         <f>N57*'MARA Prices'!$F$4</f>
-        <v>3048.4125000000004</v>
+        <v>3820.1625000000008</v>
       </c>
       <c r="T57" s="63">
         <f>$F57*Outputs_Internal!M$62/12</f>
@@ -11294,7 +11294,7 @@
       </c>
       <c r="AE57" s="63">
         <f>'MARA Prices'!I$21*$G57</f>
-        <v>0</v>
+        <v>964.68750000000011</v>
       </c>
       <c r="AF57" s="63">
         <f>'MARA Prices'!J$21*$G57</f>
@@ -11348,23 +11348,23 @@
       </c>
       <c r="N58" s="63">
         <f t="shared" si="0"/>
-        <v>3810.5156250000005</v>
+        <v>4775.2031250000009</v>
       </c>
       <c r="P58" s="63">
         <f>$F58*Outputs_Internal!$D$62/12+N58</f>
-        <v>23098.893749999999</v>
+        <v>24063.581249999999</v>
       </c>
       <c r="Q58" s="63">
         <f>$F58*Outputs_Internal!K$62/12+N58*'MARA Prices'!$F$5</f>
-        <v>5866.3925453792581</v>
+        <v>5962.8612953792581</v>
       </c>
       <c r="R58" s="63">
         <f>$F58*Outputs_Internal!L$62/12+N58*'MARA Prices'!$F$6</f>
-        <v>13706.312028793634</v>
+        <v>13802.780778793634</v>
       </c>
       <c r="S58" s="63">
         <f>N58*'MARA Prices'!$F$4</f>
-        <v>3048.4125000000004</v>
+        <v>3820.1625000000008</v>
       </c>
       <c r="T58" s="63">
         <f>$F58*Outputs_Internal!M$62/12</f>
@@ -11400,7 +11400,7 @@
       </c>
       <c r="AE58" s="63">
         <f>'MARA Prices'!I$21*$G58</f>
-        <v>0</v>
+        <v>964.68750000000011</v>
       </c>
       <c r="AF58" s="63">
         <f>'MARA Prices'!J$21*$G58</f>
@@ -11454,23 +11454,23 @@
       </c>
       <c r="N59" s="63">
         <f t="shared" si="0"/>
-        <v>3810.5156250000005</v>
+        <v>4775.2031250000009</v>
       </c>
       <c r="P59" s="63">
         <f>$F59*Outputs_Internal!$D$62/12+N59</f>
-        <v>23098.893749999999</v>
+        <v>24063.581249999999</v>
       </c>
       <c r="Q59" s="63">
         <f>$F59*Outputs_Internal!K$62/12+N59*'MARA Prices'!$F$5</f>
-        <v>5866.3925453792581</v>
+        <v>5962.8612953792581</v>
       </c>
       <c r="R59" s="63">
         <f>$F59*Outputs_Internal!L$62/12+N59*'MARA Prices'!$F$6</f>
-        <v>13706.312028793634</v>
+        <v>13802.780778793634</v>
       </c>
       <c r="S59" s="63">
         <f>N59*'MARA Prices'!$F$4</f>
-        <v>3048.4125000000004</v>
+        <v>3820.1625000000008</v>
       </c>
       <c r="T59" s="63">
         <f>$F59*Outputs_Internal!M$62/12</f>
@@ -11482,15 +11482,15 @@
       </c>
       <c r="W59" s="63">
         <f t="shared" si="7"/>
-        <v>69296.681249999994</v>
+        <v>72190.743749999994</v>
       </c>
       <c r="X59" s="63">
         <f t="shared" si="8"/>
-        <v>17599.177636137774</v>
+        <v>17888.583886137774</v>
       </c>
       <c r="Y59" s="63">
         <f t="shared" si="9"/>
-        <v>41118.936086380905</v>
+        <v>41408.342336380905</v>
       </c>
       <c r="Z59" s="63">
         <f t="shared" si="10"/>
@@ -11498,7 +11498,7 @@
       </c>
       <c r="AA59" s="63">
         <f t="shared" si="11"/>
-        <v>9272.5178776810826</v>
+        <v>11587.767877681084</v>
       </c>
       <c r="AD59" s="63">
         <f>'MARA Prices'!H$21*$G59</f>
@@ -11506,7 +11506,7 @@
       </c>
       <c r="AE59" s="63">
         <f>'MARA Prices'!I$21*$G59</f>
-        <v>0</v>
+        <v>964.68750000000011</v>
       </c>
       <c r="AF59" s="63">
         <f>'MARA Prices'!J$21*$G59</f>
@@ -11560,23 +11560,23 @@
       </c>
       <c r="N60" s="63">
         <f t="shared" si="0"/>
-        <v>3810.5156250000005</v>
+        <v>4775.2031250000009</v>
       </c>
       <c r="P60" s="63">
         <f>$F60*Outputs_Internal!$D$62/12+N60</f>
-        <v>23098.893749999999</v>
+        <v>24063.581249999999</v>
       </c>
       <c r="Q60" s="63">
         <f>$F60*Outputs_Internal!K$62/12+N60*'MARA Prices'!$F$5</f>
-        <v>5866.3925453792581</v>
+        <v>5962.8612953792581</v>
       </c>
       <c r="R60" s="63">
         <f>$F60*Outputs_Internal!L$62/12+N60*'MARA Prices'!$F$6</f>
-        <v>13706.312028793634</v>
+        <v>13802.780778793634</v>
       </c>
       <c r="S60" s="63">
         <f>N60*'MARA Prices'!$F$4</f>
-        <v>3048.4125000000004</v>
+        <v>3820.1625000000008</v>
       </c>
       <c r="T60" s="63">
         <f>$F60*Outputs_Internal!M$62/12</f>
@@ -11612,7 +11612,7 @@
       </c>
       <c r="AE60" s="63">
         <f>'MARA Prices'!I$21*$G60</f>
-        <v>0</v>
+        <v>964.68750000000011</v>
       </c>
       <c r="AF60" s="63">
         <f>'MARA Prices'!J$21*$G60</f>
@@ -11666,23 +11666,23 @@
       </c>
       <c r="N61" s="63">
         <f t="shared" si="0"/>
-        <v>3810.5156250000005</v>
+        <v>4775.2031250000009</v>
       </c>
       <c r="P61" s="63">
         <f>$F61*Outputs_Internal!$D$62/12+N61</f>
-        <v>23098.893749999999</v>
+        <v>24063.581249999999</v>
       </c>
       <c r="Q61" s="63">
         <f>$F61*Outputs_Internal!K$62/12+N61*'MARA Prices'!$F$5</f>
-        <v>5866.3925453792581</v>
+        <v>5962.8612953792581</v>
       </c>
       <c r="R61" s="63">
         <f>$F61*Outputs_Internal!L$62/12+N61*'MARA Prices'!$F$6</f>
-        <v>13706.312028793634</v>
+        <v>13802.780778793634</v>
       </c>
       <c r="S61" s="63">
         <f>N61*'MARA Prices'!$F$4</f>
-        <v>3048.4125000000004</v>
+        <v>3820.1625000000008</v>
       </c>
       <c r="T61" s="63">
         <f>$F61*Outputs_Internal!M$62/12</f>
@@ -11718,7 +11718,7 @@
       </c>
       <c r="AE61" s="63">
         <f>'MARA Prices'!I$21*$G61</f>
-        <v>0</v>
+        <v>964.68750000000011</v>
       </c>
       <c r="AF61" s="63">
         <f>'MARA Prices'!J$21*$G61</f>
@@ -11772,23 +11772,23 @@
       </c>
       <c r="N62" s="63">
         <f t="shared" si="0"/>
-        <v>3810.5156250000005</v>
+        <v>4775.2031250000009</v>
       </c>
       <c r="P62" s="63">
         <f>$F62*Outputs_Internal!$D$62/12+N62</f>
-        <v>23098.893749999999</v>
+        <v>24063.581249999999</v>
       </c>
       <c r="Q62" s="63">
         <f>$F62*Outputs_Internal!K$62/12+N62*'MARA Prices'!$F$5</f>
-        <v>5866.3925453792581</v>
+        <v>5962.8612953792581</v>
       </c>
       <c r="R62" s="63">
         <f>$F62*Outputs_Internal!L$62/12+N62*'MARA Prices'!$F$6</f>
-        <v>13706.312028793634</v>
+        <v>13802.780778793634</v>
       </c>
       <c r="S62" s="63">
         <f>N62*'MARA Prices'!$F$4</f>
-        <v>3048.4125000000004</v>
+        <v>3820.1625000000008</v>
       </c>
       <c r="T62" s="63">
         <f>$F62*Outputs_Internal!M$62/12</f>
@@ -11800,15 +11800,15 @@
       </c>
       <c r="W62" s="63">
         <f t="shared" si="7"/>
-        <v>69296.681249999994</v>
+        <v>72190.743749999994</v>
       </c>
       <c r="X62" s="63">
         <f t="shared" si="8"/>
-        <v>17599.177636137774</v>
+        <v>17888.583886137774</v>
       </c>
       <c r="Y62" s="63">
         <f t="shared" si="9"/>
-        <v>41118.936086380905</v>
+        <v>41408.342336380905</v>
       </c>
       <c r="Z62" s="63">
         <f t="shared" si="10"/>
@@ -11816,7 +11816,7 @@
       </c>
       <c r="AA62" s="63">
         <f t="shared" si="11"/>
-        <v>9272.5178776810826</v>
+        <v>11587.767877681084</v>
       </c>
       <c r="AD62" s="63">
         <f>'MARA Prices'!H$21*$G62</f>
@@ -11824,7 +11824,7 @@
       </c>
       <c r="AE62" s="63">
         <f>'MARA Prices'!I$21*$G62</f>
-        <v>0</v>
+        <v>964.68750000000011</v>
       </c>
       <c r="AF62" s="63">
         <f>'MARA Prices'!J$21*$G62</f>
@@ -12557,7 +12557,7 @@
         <v>0</v>
       </c>
       <c r="AA69" s="63">
-        <f t="shared" ref="AA69:AA100" si="18">IF(MOD(MONTH($B69),3)=0,SUM(U67:U69,S67:S69),0)</f>
+        <f t="shared" ref="AA69" si="18">IF(MOD(MONTH($B69),3)=0,SUM(U67:U69,S67:S69),0)</f>
         <v>0</v>
       </c>
       <c r="AD69" s="63">
@@ -16971,23 +16971,23 @@
         <v>1.3000000000000002E-3</v>
       </c>
       <c r="K76" s="23">
-        <f>D65+D76+$J76</f>
+        <f t="shared" ref="K76:O81" si="6">D65+D76+$J76</f>
         <v>1.3000000000000002E-3</v>
       </c>
       <c r="L76" s="23">
-        <f>E65+E76+$J76</f>
+        <f t="shared" si="6"/>
         <v>35000.001300000004</v>
       </c>
       <c r="M76" s="23">
-        <f>F65+F76+$J76</f>
+        <f t="shared" si="6"/>
         <v>1.3000000000000002E-3</v>
       </c>
       <c r="N76" s="23">
-        <f>G65+G76+$J76</f>
+        <f t="shared" si="6"/>
         <v>1.3000000000000002E-3</v>
       </c>
       <c r="O76" s="23">
-        <f>H65+H76+$J76</f>
+        <f t="shared" si="6"/>
         <v>1.3000000000000002E-3</v>
       </c>
     </row>
@@ -17020,23 +17020,23 @@
         <v>1.4000000000000002E-3</v>
       </c>
       <c r="K77" s="23">
-        <f>D66+D77+$J77</f>
+        <f t="shared" si="6"/>
         <v>1.4000000000000002E-3</v>
       </c>
       <c r="L77" s="23">
-        <f>E66+E77+$J77</f>
+        <f t="shared" si="6"/>
         <v>1.4000000000000002E-3</v>
       </c>
       <c r="M77" s="23">
-        <f>F66+F77+$J77</f>
+        <f t="shared" si="6"/>
         <v>1.4000000000000002E-3</v>
       </c>
       <c r="N77" s="23">
-        <f>G66+G77+$J77</f>
+        <f t="shared" si="6"/>
         <v>1.4000000000000002E-3</v>
       </c>
       <c r="O77" s="23">
-        <f>H66+H77+$J77</f>
+        <f t="shared" si="6"/>
         <v>1.4000000000000002E-3</v>
       </c>
     </row>
@@ -17069,23 +17069,23 @@
         <v>1.5000000000000002E-3</v>
       </c>
       <c r="K78" s="23">
-        <f>D67+D78+$J78</f>
+        <f t="shared" si="6"/>
         <v>1.5000000000000002E-3</v>
       </c>
       <c r="L78" s="23">
-        <f>E67+E78+$J78</f>
+        <f t="shared" si="6"/>
         <v>1.5000000000000002E-3</v>
       </c>
       <c r="M78" s="23">
-        <f>F67+F78+$J78</f>
+        <f t="shared" si="6"/>
         <v>1.5000000000000002E-3</v>
       </c>
       <c r="N78" s="23">
-        <f>G67+G78+$J78</f>
+        <f t="shared" si="6"/>
         <v>1.5000000000000002E-3</v>
       </c>
       <c r="O78" s="23">
-        <f>H67+H78+$J78</f>
+        <f t="shared" si="6"/>
         <v>1.5000000000000002E-3</v>
       </c>
     </row>
@@ -17118,23 +17118,23 @@
         <v>1.6000000000000003E-3</v>
       </c>
       <c r="K79" s="23">
-        <f>D68+D79+$J79</f>
+        <f t="shared" si="6"/>
         <v>1.6000000000000003E-3</v>
       </c>
       <c r="L79" s="23">
-        <f>E68+E79+$J79</f>
+        <f t="shared" si="6"/>
         <v>28000.0016</v>
       </c>
       <c r="M79" s="23">
-        <f>F68+F79+$J79</f>
+        <f t="shared" si="6"/>
         <v>44380.001600000003</v>
       </c>
       <c r="N79" s="23">
-        <f>G68+G79+$J79</f>
+        <f t="shared" si="6"/>
         <v>1.6000000000000003E-3</v>
       </c>
       <c r="O79" s="23">
-        <f>H68+H79+$J79</f>
+        <f t="shared" si="6"/>
         <v>1.6000000000000003E-3</v>
       </c>
     </row>
@@ -17167,23 +17167,23 @@
         <v>1.7000000000000003E-3</v>
       </c>
       <c r="K80" s="23">
-        <f>D69+D80+$J80</f>
+        <f t="shared" si="6"/>
         <v>1.7000000000000003E-3</v>
       </c>
       <c r="L80" s="23">
-        <f>E69+E80+$J80</f>
+        <f t="shared" si="6"/>
         <v>1.7000000000000003E-3</v>
       </c>
       <c r="M80" s="23">
-        <f>F69+F80+$J80</f>
+        <f t="shared" si="6"/>
         <v>1.7000000000000003E-3</v>
       </c>
       <c r="N80" s="23">
-        <f>G69+G80+$J80</f>
+        <f t="shared" si="6"/>
         <v>1.7000000000000003E-3</v>
       </c>
       <c r="O80" s="23">
-        <f>H69+H80+$J80</f>
+        <f t="shared" si="6"/>
         <v>1.7000000000000003E-3</v>
       </c>
     </row>
@@ -17216,23 +17216,23 @@
         <v>1.8000000000000004E-3</v>
       </c>
       <c r="K81" s="23">
-        <f>D70+D81+$J81</f>
+        <f t="shared" si="6"/>
         <v>1.8000000000000004E-3</v>
       </c>
       <c r="L81" s="23">
-        <f>E70+E81+$J81</f>
+        <f t="shared" si="6"/>
         <v>1.8000000000000004E-3</v>
       </c>
       <c r="M81" s="23">
-        <f>F70+F81+$J81</f>
+        <f t="shared" si="6"/>
         <v>47820.001799999998</v>
       </c>
       <c r="N81" s="23">
-        <f>G70+G81+$J81</f>
+        <f t="shared" si="6"/>
         <v>1.8000000000000004E-3</v>
       </c>
       <c r="O81" s="23">
-        <f>H70+H81+$J81</f>
+        <f t="shared" si="6"/>
         <v>1.8000000000000004E-3</v>
       </c>
     </row>
@@ -17257,19 +17257,19 @@
         <v>8500</v>
       </c>
       <c r="E84" s="18">
-        <f t="shared" ref="E84:H84" si="6">E62</f>
+        <f t="shared" ref="E84:H84" si="7">E62</f>
         <v>0</v>
       </c>
       <c r="F84" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G84" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H84" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K84" s="21">
@@ -17277,19 +17277,19 @@
         <v>1</v>
       </c>
       <c r="L84" s="21">
-        <f t="shared" ref="L84:O84" si="7">IF(COUNTIF(L$73:L$81,"")&gt;2,"",IFERROR(RANK(L73,L$73:L$81),8))</f>
+        <f t="shared" ref="L84:O84" si="8">IF(COUNTIF(L$73:L$81,"")&gt;2,"",IFERROR(RANK(L73,L$73:L$81),8))</f>
         <v>9</v>
       </c>
       <c r="M84" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="N84" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="O84" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
     </row>
@@ -17318,23 +17318,23 @@
         <v>0</v>
       </c>
       <c r="K85" s="21">
-        <f t="shared" ref="K85:O85" si="8">IF(COUNTIF(K$73:K$81,"")&gt;2,"",IFERROR(RANK(K74,K$73:K$81),8))</f>
+        <f t="shared" ref="K85:O85" si="9">IF(COUNTIF(K$73:K$81,"")&gt;2,"",IFERROR(RANK(K74,K$73:K$81),8))</f>
         <v>9</v>
       </c>
       <c r="L85" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="M85" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="N85" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="O85" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
     </row>
@@ -17363,23 +17363,23 @@
         <v>0</v>
       </c>
       <c r="K86" s="21">
-        <f t="shared" ref="K86:O86" si="9">IF(COUNTIF(K$73:K$81,"")&gt;2,"",IFERROR(RANK(K75,K$73:K$81),8))</f>
+        <f t="shared" ref="K86:O86" si="10">IF(COUNTIF(K$73:K$81,"")&gt;2,"",IFERROR(RANK(K75,K$73:K$81),8))</f>
         <v>8</v>
       </c>
       <c r="L86" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="M86" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="N86" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="O86" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
     </row>
@@ -17408,23 +17408,23 @@
         <v>0</v>
       </c>
       <c r="K87" s="21">
-        <f t="shared" ref="K87:O87" si="10">IF(COUNTIF(K$73:K$81,"")&gt;2,"",IFERROR(RANK(K76,K$73:K$81),8))</f>
+        <f t="shared" ref="K87:O87" si="11">IF(COUNTIF(K$73:K$81,"")&gt;2,"",IFERROR(RANK(K76,K$73:K$81),8))</f>
         <v>7</v>
       </c>
       <c r="L87" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="M87" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="N87" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="O87" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
     </row>
@@ -17453,23 +17453,23 @@
         <v>0</v>
       </c>
       <c r="K88" s="21">
-        <f t="shared" ref="K88:O88" si="11">IF(COUNTIF(K$73:K$81,"")&gt;2,"",IFERROR(RANK(K77,K$73:K$81),8))</f>
+        <f t="shared" ref="K88:O88" si="12">IF(COUNTIF(K$73:K$81,"")&gt;2,"",IFERROR(RANK(K77,K$73:K$81),8))</f>
         <v>6</v>
       </c>
       <c r="L88" s="21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="M88" s="21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="N88" s="21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="O88" s="21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
     </row>
@@ -17482,39 +17482,39 @@
         <v>0</v>
       </c>
       <c r="E89" s="20">
-        <f t="shared" ref="E89:H89" si="12">E67</f>
+        <f t="shared" ref="E89:H89" si="13">E67</f>
         <v>0</v>
       </c>
       <c r="F89" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G89" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H89" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K89" s="21">
-        <f t="shared" ref="K89:O89" si="13">IF(COUNTIF(K$73:K$81,"")&gt;2,"",IFERROR(RANK(K78,K$73:K$81),8))</f>
+        <f t="shared" ref="K89:O89" si="14">IF(COUNTIF(K$73:K$81,"")&gt;2,"",IFERROR(RANK(K78,K$73:K$81),8))</f>
         <v>5</v>
       </c>
       <c r="L89" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="M89" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="N89" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="O89" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
     </row>
@@ -17543,23 +17543,23 @@
         <v>0</v>
       </c>
       <c r="K90" s="21">
-        <f t="shared" ref="K90:O90" si="14">IF(COUNTIF(K$73:K$81,"")&gt;2,"",IFERROR(RANK(K79,K$73:K$81),8))</f>
+        <f t="shared" ref="K90:O90" si="15">IF(COUNTIF(K$73:K$81,"")&gt;2,"",IFERROR(RANK(K79,K$73:K$81),8))</f>
         <v>4</v>
       </c>
       <c r="L90" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="M90" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="N90" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="O90" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
     </row>
@@ -17568,43 +17568,43 @@
         <v>98</v>
       </c>
       <c r="D91" s="20">
-        <f t="shared" ref="D91:H91" si="15">D69</f>
+        <f t="shared" ref="D91:H91" si="16">D69</f>
         <v>0</v>
       </c>
       <c r="E91" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F91" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G91" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H91" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K91" s="21">
-        <f t="shared" ref="K91:O91" si="16">IF(COUNTIF(K$73:K$81,"")&gt;2,"",IFERROR(RANK(K80,K$73:K$81),8))</f>
+        <f t="shared" ref="K91:O91" si="17">IF(COUNTIF(K$73:K$81,"")&gt;2,"",IFERROR(RANK(K80,K$73:K$81),8))</f>
         <v>3</v>
       </c>
       <c r="L91" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="M91" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="N91" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="O91" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
@@ -17613,43 +17613,43 @@
         <v>96</v>
       </c>
       <c r="D92" s="84">
-        <f t="shared" ref="D92:H92" si="17">D70</f>
+        <f t="shared" ref="D92:H92" si="18">D70</f>
         <v>0</v>
       </c>
       <c r="E92" s="84">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F92" s="84">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>9600</v>
       </c>
       <c r="G92" s="84">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H92" s="84">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K92" s="21">
-        <f t="shared" ref="K92:O92" si="18">IF(COUNTIF(K$73:K$81,"")&gt;2,"",IFERROR(RANK(K81,K$73:K$81),8))</f>
+        <f t="shared" ref="K92:O92" si="19">IF(COUNTIF(K$73:K$81,"")&gt;2,"",IFERROR(RANK(K81,K$73:K$81),8))</f>
         <v>2</v>
       </c>
       <c r="L92" s="21">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
       <c r="M92" s="21">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="N92" s="21">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="O92" s="21">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
@@ -17783,23 +17783,23 @@
         <v>99</v>
       </c>
       <c r="D100" s="20">
-        <f t="shared" ref="D100:H100" si="19">D78</f>
+        <f t="shared" ref="D100:H100" si="20">D78</f>
         <v>0</v>
       </c>
       <c r="E100" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F100" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="G100" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H100" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17833,23 +17833,23 @@
         <v>98</v>
       </c>
       <c r="D102" s="20">
-        <f t="shared" ref="D102:H102" si="20">D80</f>
+        <f t="shared" ref="D102:H102" si="21">D80</f>
         <v>0</v>
       </c>
       <c r="E102" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F102" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G102" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H102" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17858,23 +17858,23 @@
         <v>96</v>
       </c>
       <c r="D103" s="84">
-        <f t="shared" ref="D103:H103" si="21">D81</f>
+        <f t="shared" ref="D103:H103" si="22">D81</f>
         <v>0</v>
       </c>
       <c r="E103" s="84">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="F103" s="84">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>38220</v>
       </c>
       <c r="G103" s="84">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="H103" s="84">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18088,19 +18088,19 @@
         <v>23500</v>
       </c>
       <c r="E114" s="7">
-        <f t="shared" ref="E114:H114" si="22">SUM(E38:E47, E50:E59, E62:E70, E73:E81, E106:E112)</f>
+        <f t="shared" ref="E114:H114" si="23">SUM(E38:E47, E50:E59, E62:E70, E73:E81, E106:E112)</f>
         <v>89900</v>
       </c>
       <c r="F114" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>170933</v>
       </c>
       <c r="G114" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H114" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -18116,19 +18116,19 @@
         <v>-11750</v>
       </c>
       <c r="E116" s="1">
-        <f t="shared" ref="E116:H116" si="23">IF(E126=1, 0, IF(E126=2, $E$129, IF(E126=3, $E$130, IF(E126=4, $E$131, IF(E126=5, $E$132, "")))))</f>
+        <f t="shared" ref="E116:H116" si="24">IF(E126=1, 0, IF(E126=2, $E$129, IF(E126=3, $E$130, IF(E126=4, $E$131, IF(E126=5, $E$132, "")))))</f>
         <v>-40455</v>
       </c>
       <c r="F116" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="G116" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="H116" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -18169,19 +18169,19 @@
         <v>8225</v>
       </c>
       <c r="E120" s="7">
-        <f t="shared" ref="E120:H120" si="24">SUM(E114, E116,E118)</f>
+        <f t="shared" ref="E120:H120" si="25">SUM(E114, E116,E118)</f>
         <v>49445</v>
       </c>
       <c r="F120" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>170933</v>
       </c>
       <c r="G120" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="H120" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -18195,19 +18195,19 @@
         <v>3</v>
       </c>
       <c r="E123" s="21">
-        <f t="shared" ref="E123:H123" si="25">IFERROR(_xlfn.RANK.EQ(E114,$D$114:$H$114),5)</f>
+        <f t="shared" ref="E123:H123" si="26">IFERROR(_xlfn.RANK.EQ(E114,$D$114:$H$114),5)</f>
         <v>2</v>
       </c>
       <c r="F123" s="21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="G123" s="21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="H123" s="21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
     </row>
@@ -18236,19 +18236,19 @@
         <v>3.1</v>
       </c>
       <c r="E125" s="21">
-        <f t="shared" ref="E125:H125" si="26">SUM(E123:E124)</f>
+        <f t="shared" ref="E125:H125" si="27">SUM(E123:E124)</f>
         <v>2.2000000000000002</v>
       </c>
       <c r="F125" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.3</v>
       </c>
       <c r="G125" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="H125" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>4.5</v>
       </c>
     </row>
@@ -18259,19 +18259,19 @@
         <v>3</v>
       </c>
       <c r="E126" s="21">
-        <f t="shared" ref="E126:H126" si="27">_xlfn.RANK.EQ(E125, $D$125:$H$125, 5)</f>
+        <f t="shared" ref="E126:H126" si="28">_xlfn.RANK.EQ(E125, $D$125:$H$125, 5)</f>
         <v>2</v>
       </c>
       <c r="F126" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="G126" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="H126" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>5</v>
       </c>
     </row>
@@ -18337,7 +18337,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -19012,7 +19014,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -19498,7 +19502,7 @@
       </c>
       <c r="I20" s="106">
         <f>IF(Inputs!E$9 = "Y", SUM(I10:I16), 0)</f>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="J20" s="106">
         <f>IF(Inputs!F$9 = "Y", SUM(J10:J16), 0)</f>
@@ -19525,7 +19529,7 @@
       </c>
       <c r="I21" s="106">
         <f>I20/12</f>
-        <v>0</v>
+        <v>833.33333333333337</v>
       </c>
       <c r="J21" s="106">
         <f>J20/12</f>

--- a/0273NYP - New York Premier/Premier_Pricing_Model.xlsx
+++ b/0273NYP - New York Premier/Premier_Pricing_Model.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="154">
   <si>
     <t>One-Time Fees:</t>
   </si>
@@ -527,6 +527,9 @@
   </si>
   <si>
     <t>PRM Care Giver's Checklist</t>
+  </si>
+  <si>
+    <t>PRM Conditions to Consider (Data Only - Dashboard Version)</t>
   </si>
 </sst>
 </file>
@@ -1300,7 +1303,7 @@
   <cols>
     <col min="1" max="1" width="5.1796875" customWidth="1"/>
     <col min="2" max="2" width="24.26953125" customWidth="1"/>
-    <col min="3" max="3" width="18" style="66" customWidth="1"/>
+    <col min="3" max="3" width="16.26953125" style="66" customWidth="1"/>
     <col min="4" max="8" width="18.7265625" customWidth="1"/>
     <col min="11" max="11" width="9.1796875" customWidth="1"/>
     <col min="12" max="12" width="9.1796875" hidden="1" customWidth="1"/>
@@ -1610,7 +1613,7 @@
     </row>
     <row r="20" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="69" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D20" s="55" t="s">
         <v>28</v>
@@ -1797,10 +1800,10 @@
   <dimension ref="B2:U51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E47" sqref="E47"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2897,10 +2900,10 @@
   <dimension ref="B1:Q80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P19" sqref="P19"/>
+      <selection pane="bottomRight" activeCell="R31" sqref="R31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3404,7 +3407,7 @@
       </c>
       <c r="D18" s="20">
         <f>SUM(Calcs!D22:H22)</f>
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="F18" s="33">
         <v>0.1</v>
@@ -3421,11 +3424,11 @@
       </c>
       <c r="K18" s="20">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L18" s="20">
         <f t="shared" si="4"/>
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="M18" s="20">
         <f t="shared" si="2"/>
@@ -4032,7 +4035,7 @@
       </c>
       <c r="D38" s="20">
         <f>SUM(Calcs!D86:H86)</f>
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="F38" s="33">
         <v>0.1</v>
@@ -4049,11 +4052,11 @@
       </c>
       <c r="K38" s="20">
         <f t="shared" si="12"/>
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="L38" s="20">
         <f t="shared" si="12"/>
-        <v>13500</v>
+        <v>9000</v>
       </c>
       <c r="M38" s="20">
         <f t="shared" si="12"/>
@@ -4183,7 +4186,7 @@
       </c>
       <c r="D42" s="20">
         <f>SUM(Calcs!D90:H90)</f>
-        <v>51000</v>
+        <v>46000</v>
       </c>
       <c r="F42" s="33">
         <v>0.1</v>
@@ -4200,11 +4203,11 @@
       </c>
       <c r="K42" s="20">
         <f t="shared" ref="K42" si="29">F42*$D42</f>
-        <v>5100</v>
+        <v>4600</v>
       </c>
       <c r="L42" s="20">
         <f t="shared" ref="L42" si="30">G42*$D42</f>
-        <v>45900</v>
+        <v>41400</v>
       </c>
       <c r="M42" s="20">
         <f t="shared" ref="M42" si="31">H42*$D42</f>
@@ -4691,11 +4694,11 @@
       </c>
       <c r="F58" s="8">
         <f>IFERROR(SUM(K72:K80)/SUM($K$72:$N$80), 0)</f>
-        <v>0.21665259726816324</v>
+        <v>0.21718853780708902</v>
       </c>
       <c r="G58" s="8">
         <f t="shared" ref="G58:I58" si="61">IFERROR(SUM(L72:L80)/SUM($K$72:$N$80), 0)</f>
-        <v>0.74862611331539208</v>
+        <v>0.7480901727764665</v>
       </c>
       <c r="H58" s="8">
         <f t="shared" si="61"/>
@@ -4707,11 +4710,11 @@
       </c>
       <c r="K58" s="12">
         <f>F58*$D$58</f>
-        <v>-12439.542177346129</v>
+        <v>-12470.314275269631</v>
       </c>
       <c r="L58" s="12">
         <f>G58*$D$58</f>
-        <v>-42983.865548229864</v>
+        <v>-42953.093450306376</v>
       </c>
       <c r="M58" s="12">
         <f>H58*$D$58</f>
@@ -4732,27 +4735,27 @@
       </c>
       <c r="F59" s="3">
         <f>IFERROR(SUM(K10:K58)/SUM($K10:$N58), 0)</f>
-        <v>0.28888780623611271</v>
+        <v>0.28877958067691456</v>
       </c>
       <c r="G59" s="3">
         <f>IFERROR(SUM(L10:L58)/SUM($K10:$N58), 0)</f>
-        <v>0.68671815952341131</v>
+        <v>0.68682638508260951</v>
       </c>
       <c r="H59" s="3">
         <f>IFERROR(SUM(M10:M58)/SUM($K10:$N58), 0)</f>
-        <v>2.2227832575986171E-2</v>
+        <v>2.2227832575986175E-2</v>
       </c>
       <c r="I59" s="3">
         <f>1-F59-G59-H59</f>
-        <v>2.1662016644898655E-3</v>
+        <v>2.166201664489751E-3</v>
       </c>
       <c r="K59" s="12">
         <f>F59*$D$59</f>
-        <v>-15081.387924556264</v>
+        <v>-15075.738009238325</v>
       </c>
       <c r="L59" s="12">
         <f>G59*$D$59</f>
-        <v>-35850.121517919688</v>
+        <v>-35855.771433237627</v>
       </c>
       <c r="M59" s="12">
         <f>H59*$D$59</f>
@@ -4760,7 +4763,7 @@
       </c>
       <c r="N59" s="12">
         <f>I59*$D$59</f>
-        <v>-113.08655789469343</v>
+        <v>-113.08655789468745</v>
       </c>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.35">
@@ -4816,11 +4819,11 @@
       </c>
       <c r="K62" s="12">
         <f>SUM(K58:K60, K36:K44, K10:K19,K24:K33,K47:K55)</f>
-        <v>65011.448685976407</v>
+        <v>64986.326503370838</v>
       </c>
       <c r="L62" s="12">
         <f>SUM(L58:L60, L36:L44, L10:L19,L24:L33,L47:L55)</f>
-        <v>157929.01293385046</v>
+        <v>157954.13511645599</v>
       </c>
       <c r="M62" s="12">
         <f>SUM(M58:M60, M36:M44, M10:M19,M24:M33,M47:M55)</f>
@@ -4828,7 +4831,7 @@
       </c>
       <c r="N62" s="12">
         <f>SUM(N58:N60, N36:N44, N10:N19,N24:N33,N47:N55)</f>
-        <v>502.83605997464457</v>
+        <v>502.83605997465054</v>
       </c>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.35">
@@ -4837,7 +4840,7 @@
       </c>
       <c r="D63" s="23">
         <f>SUM(K62:N62)</f>
-        <v>228603.00000000006</v>
+        <v>228603</v>
       </c>
       <c r="K63" s="12"/>
       <c r="L63" s="12"/>
@@ -4906,11 +4909,11 @@
       </c>
       <c r="K67" s="12">
         <f>SUM(Outputs_Timeline!X:X)</f>
-        <v>218023.52225865333</v>
+        <v>217947.21362898886</v>
       </c>
       <c r="L67" s="12">
         <f>SUM(Outputs_Timeline!Y:Y)</f>
-        <v>516460.62366157077</v>
+        <v>516536.93229123508</v>
       </c>
       <c r="M67" s="12">
         <f>SUM(Outputs_Timeline!Z:Z)</f>
@@ -4918,18 +4921,18 @@
       </c>
       <c r="N67" s="12">
         <f>SUM(Outputs_Timeline!AA:AA)</f>
-        <v>129487.33953217296</v>
+        <v>129487.33953217301</v>
       </c>
     </row>
     <row r="68" spans="2:14" x14ac:dyDescent="0.35">
       <c r="D68" s="1"/>
       <c r="K68" s="53">
         <f>IFERROR(K67/$D$67, 0)</f>
-        <v>0.24785424799179628</v>
+        <v>0.24776749855382355</v>
       </c>
       <c r="L68" s="53">
         <f>IFERROR(L67/$D$67, 0)</f>
-        <v>0.58712453669632492</v>
+        <v>0.58721128613429752</v>
       </c>
       <c r="M68" s="53">
         <f>IFERROR(M67/$D$67, 0)</f>
@@ -4937,7 +4940,7 @@
       </c>
       <c r="N68" s="53">
         <f>IFERROR(N67/$D$67, 0)</f>
-        <v>0.1472042412292113</v>
+        <v>0.14720424122921133</v>
       </c>
     </row>
     <row r="70" spans="2:14" x14ac:dyDescent="0.35">
@@ -5061,11 +5064,11 @@
       <c r="E74" s="21"/>
       <c r="F74" s="24">
         <f>IFERROR(SUM(K38,K17:K19,K49,K31:K33)/SUM($K$38:$N$38,$K$17:$M$19,$K$49:$N$49,$K$31:$N$33),0)</f>
-        <v>8.9697002372223417E-2</v>
+        <v>9.0699824800467205E-2</v>
       </c>
       <c r="G74" s="24">
         <f>IFERROR(SUM(L38,L17:L19,L49,L31:L33)/SUM($K$38:$N$38,$K$17:$M$19,$K$49:$N$49,$K$31:$N$33),0)</f>
-        <v>0.91030299762777656</v>
+        <v>0.90930017519953277</v>
       </c>
       <c r="H74" s="24">
         <f>IFERROR(SUM(M38,M17:M19,M49,M31:M33)/SUM($K$38:$N$38,$K$17:$M$19,$K$49:$N$49,$K$31:$N$33),0)</f>
@@ -5078,11 +5081,11 @@
       <c r="J74" s="21"/>
       <c r="K74" s="25">
         <f t="shared" si="63"/>
-        <v>3139.3950830278195</v>
+        <v>3174.4938680163523</v>
       </c>
       <c r="L74" s="25">
         <f t="shared" si="63"/>
-        <v>31860.604916972181</v>
+        <v>31825.506131983646</v>
       </c>
       <c r="M74" s="25">
         <f t="shared" si="63"/>
@@ -5105,11 +5108,11 @@
       <c r="E75" s="21"/>
       <c r="F75" s="24">
         <f>IFERROR(SUM(K39,K17:K19,K50,K31:K33)/SUM($K$39:$N$39,$K$17:$M$19,$K$50:$N$50,$K$31:$N$33),0)</f>
-        <v>9.2801717643513637E-2</v>
+        <v>9.3744271310724103E-2</v>
       </c>
       <c r="G75" s="24">
         <f t="shared" ref="G75:I75" si="64">IFERROR(SUM(L39,L17:L19,L50,L31:L33)/SUM($K$39:$N$39,$K$17:$M$19,$K$50:$N$50,$K$31:$N$33),0)</f>
-        <v>0.90719828235648636</v>
+        <v>0.90625572868927584</v>
       </c>
       <c r="H75" s="24">
         <f t="shared" si="64"/>
@@ -5122,11 +5125,11 @@
       <c r="J75" s="21"/>
       <c r="K75" s="25">
         <f t="shared" ref="K75" si="65">F75*$D75</f>
-        <v>3248.0601175229772</v>
+        <v>3281.0494958753438</v>
       </c>
       <c r="L75" s="25">
         <f t="shared" ref="L75" si="66">G75*$D75</f>
-        <v>31751.939882477021</v>
+        <v>31718.950504124656</v>
       </c>
       <c r="M75" s="25">
         <f t="shared" ref="M75" si="67">H75*$D75</f>
@@ -5236,29 +5239,29 @@
       </c>
       <c r="E78" s="21"/>
       <c r="F78" s="24">
-        <f>IFERROR(SUM(K42,K18,K53,K32)/SUM($K$42:$N$42,$K$18:$M$18,$K$53:$N$53,$K$32:$N$32),0)</f>
-        <v>8.4123804600672009E-2</v>
+        <f>IFERROR(SUM(K42,K18,K53,K32)/SUM($K$42:$N$42,$K$18:$N$18,$K$53:$N$53,$K$32:$N$32),0)</f>
+        <v>8.508739985433357E-2</v>
       </c>
       <c r="G78" s="24">
-        <f t="shared" ref="G78:I78" si="78">IFERROR(SUM(L42,L18,L53,L32)/SUM($K$42:$N$42,$K$18:$M$18,$K$53:$N$53,$K$32:$N$32),0)</f>
-        <v>0.91587619539932796</v>
+        <f>IFERROR(SUM(L42,L18,L53,L32)/SUM($K$42:$N$42,$K$18:$N$18,$K$53:$N$53,$K$32:$N$32),0)</f>
+        <v>0.91491260014566644</v>
       </c>
       <c r="H78" s="24">
-        <f t="shared" si="78"/>
+        <f t="shared" ref="G78:I78" si="78">IFERROR(SUM(M42,M18,M53,M32)/SUM($K$42:$N$42,$K$18:$N$18,$K$53:$N$53,$K$32:$N$32),0)</f>
         <v>0</v>
       </c>
       <c r="I78" s="24">
-        <f t="shared" si="78"/>
+        <f>IFERROR(SUM(N42,N18,N53,N32)/SUM($K$42:$N$42,$K$18:$N$18,$K$53:$N$53,$K$32:$N$32),0)</f>
         <v>0</v>
       </c>
       <c r="J78" s="21"/>
       <c r="K78" s="25">
         <f t="shared" ref="K78" si="79">F78*$D78</f>
-        <v>6088.8809769966401</v>
+        <v>6158.6260014566642</v>
       </c>
       <c r="L78" s="25">
         <f t="shared" ref="L78" si="80">G78*$D78</f>
-        <v>66291.119023003354</v>
+        <v>66221.373998543335</v>
       </c>
       <c r="M78" s="25">
         <f t="shared" ref="M78" si="81">H78*$D78</f>
@@ -8070,11 +8073,11 @@
       </c>
       <c r="Q27" s="63">
         <f>$F27*Outputs_Internal!K$62/12+N27*'MARA Prices'!$F$5</f>
-        <v>5897.8409828792583</v>
+        <v>5895.7212987219136</v>
       </c>
       <c r="R27" s="63">
         <f>$F27*Outputs_Internal!L$62/12+N27*'MARA Prices'!$F$6</f>
-        <v>13737.760466293634</v>
+        <v>13739.880150450974</v>
       </c>
       <c r="S27" s="63">
         <f>N27*'MARA Prices'!$F$4</f>
@@ -8086,7 +8089,7 @@
       </c>
       <c r="U27" s="63">
         <f>$F27*Outputs_Internal!N$62/12</f>
-        <v>42.426792560360632</v>
+        <v>42.426792560361136</v>
       </c>
       <c r="W27" s="63">
         <f t="shared" si="2"/>
@@ -8176,11 +8179,11 @@
       </c>
       <c r="Q28" s="63">
         <f>$F28*Outputs_Internal!K$62/12+N28*'MARA Prices'!$F$5</f>
-        <v>5897.8409828792583</v>
+        <v>5895.7212987219136</v>
       </c>
       <c r="R28" s="63">
         <f>$F28*Outputs_Internal!L$62/12+N28*'MARA Prices'!$F$6</f>
-        <v>13737.760466293634</v>
+        <v>13739.880150450974</v>
       </c>
       <c r="S28" s="63">
         <f>N28*'MARA Prices'!$F$4</f>
@@ -8192,7 +8195,7 @@
       </c>
       <c r="U28" s="63">
         <f>$F28*Outputs_Internal!N$62/12</f>
-        <v>42.426792560360632</v>
+        <v>42.426792560361136</v>
       </c>
       <c r="W28" s="63">
         <f t="shared" si="2"/>
@@ -8282,11 +8285,11 @@
       </c>
       <c r="Q29" s="63">
         <f>$F29*Outputs_Internal!K$62/12+N29*'MARA Prices'!$F$5</f>
-        <v>5897.8409828792583</v>
+        <v>5895.7212987219136</v>
       </c>
       <c r="R29" s="63">
         <f>$F29*Outputs_Internal!L$62/12+N29*'MARA Prices'!$F$6</f>
-        <v>13737.760466293634</v>
+        <v>13739.880150450974</v>
       </c>
       <c r="S29" s="63">
         <f>N29*'MARA Prices'!$F$4</f>
@@ -8298,7 +8301,7 @@
       </c>
       <c r="U29" s="63">
         <f>$F29*Outputs_Internal!N$62/12</f>
-        <v>42.426792560360632</v>
+        <v>42.426792560361136</v>
       </c>
       <c r="W29" s="63">
         <f t="shared" si="2"/>
@@ -8306,11 +8309,11 @@
       </c>
       <c r="X29" s="63">
         <f t="shared" si="3"/>
-        <v>22249.772948637772</v>
+        <v>22243.413896165741</v>
       </c>
       <c r="Y29" s="63">
         <f t="shared" si="4"/>
-        <v>61969.531398880907</v>
+        <v>61975.890451352927</v>
       </c>
       <c r="Z29" s="63">
         <f t="shared" si="5"/>
@@ -8318,7 +8321,7 @@
       </c>
       <c r="AA29" s="63">
         <f t="shared" si="6"/>
-        <v>10027.280377681082</v>
+        <v>10027.280377681083</v>
       </c>
       <c r="AD29" s="63">
         <f>'MARA Prices'!H$21*$G29</f>
@@ -8388,11 +8391,11 @@
       </c>
       <c r="Q30" s="63">
         <f>$F30*Outputs_Internal!K$62/12+N30*'MARA Prices'!$F$5</f>
-        <v>5897.8409828792583</v>
+        <v>5895.7212987219136</v>
       </c>
       <c r="R30" s="63">
         <f>$F30*Outputs_Internal!L$62/12+N30*'MARA Prices'!$F$6</f>
-        <v>13737.760466293634</v>
+        <v>13739.880150450974</v>
       </c>
       <c r="S30" s="63">
         <f>N30*'MARA Prices'!$F$4</f>
@@ -8404,7 +8407,7 @@
       </c>
       <c r="U30" s="63">
         <f>$F30*Outputs_Internal!N$62/12</f>
-        <v>42.426792560360632</v>
+        <v>42.426792560361136</v>
       </c>
       <c r="W30" s="63">
         <f t="shared" si="2"/>
@@ -8494,11 +8497,11 @@
       </c>
       <c r="Q31" s="63">
         <f>$F31*Outputs_Internal!K$62/12+N31*'MARA Prices'!$F$5</f>
-        <v>5897.8409828792583</v>
+        <v>5895.7212987219136</v>
       </c>
       <c r="R31" s="63">
         <f>$F31*Outputs_Internal!L$62/12+N31*'MARA Prices'!$F$6</f>
-        <v>13737.760466293634</v>
+        <v>13739.880150450974</v>
       </c>
       <c r="S31" s="63">
         <f>N31*'MARA Prices'!$F$4</f>
@@ -8510,7 +8513,7 @@
       </c>
       <c r="U31" s="63">
         <f>$F31*Outputs_Internal!N$62/12</f>
-        <v>42.426792560360632</v>
+        <v>42.426792560361136</v>
       </c>
       <c r="W31" s="63">
         <f t="shared" si="2"/>
@@ -8600,11 +8603,11 @@
       </c>
       <c r="Q32" s="63">
         <f>$F32*Outputs_Internal!K$62/12+N32*'MARA Prices'!$F$5</f>
-        <v>5897.8409828792583</v>
+        <v>5895.7212987219136</v>
       </c>
       <c r="R32" s="63">
         <f>$F32*Outputs_Internal!L$62/12+N32*'MARA Prices'!$F$6</f>
-        <v>13737.760466293634</v>
+        <v>13739.880150450974</v>
       </c>
       <c r="S32" s="63">
         <f>N32*'MARA Prices'!$F$4</f>
@@ -8616,7 +8619,7 @@
       </c>
       <c r="U32" s="63">
         <f>$F32*Outputs_Internal!N$62/12</f>
-        <v>42.426792560360632</v>
+        <v>42.426792560361136</v>
       </c>
       <c r="W32" s="63">
         <f t="shared" si="2"/>
@@ -8624,11 +8627,11 @@
       </c>
       <c r="X32" s="63">
         <f t="shared" si="3"/>
-        <v>17693.522948637776</v>
+        <v>17687.163896165741</v>
       </c>
       <c r="Y32" s="63">
         <f t="shared" si="4"/>
-        <v>41213.281398880899</v>
+        <v>41219.64045135292</v>
       </c>
       <c r="Z32" s="63">
         <f t="shared" si="5"/>
@@ -8636,7 +8639,7 @@
       </c>
       <c r="AA32" s="63">
         <f t="shared" si="6"/>
-        <v>10027.280377681082</v>
+        <v>10027.280377681083</v>
       </c>
       <c r="AD32" s="63">
         <f>'MARA Prices'!H$21*$G32</f>
@@ -8706,11 +8709,11 @@
       </c>
       <c r="Q33" s="63">
         <f>$F33*Outputs_Internal!K$62/12+N33*'MARA Prices'!$F$5</f>
-        <v>5918.4659828792583</v>
+        <v>5916.3462987219136</v>
       </c>
       <c r="R33" s="63">
         <f>$F33*Outputs_Internal!L$62/12+N33*'MARA Prices'!$F$6</f>
-        <v>13758.385466293634</v>
+        <v>13760.505150450974</v>
       </c>
       <c r="S33" s="63">
         <f>N33*'MARA Prices'!$F$4</f>
@@ -8722,7 +8725,7 @@
       </c>
       <c r="U33" s="63">
         <f>$F33*Outputs_Internal!N$62/12</f>
-        <v>42.426792560360632</v>
+        <v>42.426792560361136</v>
       </c>
       <c r="W33" s="63">
         <f t="shared" si="2"/>
@@ -8812,11 +8815,11 @@
       </c>
       <c r="Q34" s="63">
         <f>$F34*Outputs_Internal!K$62/12+N34*'MARA Prices'!$F$5</f>
-        <v>5918.4659828792583</v>
+        <v>5916.3462987219136</v>
       </c>
       <c r="R34" s="63">
         <f>$F34*Outputs_Internal!L$62/12+N34*'MARA Prices'!$F$6</f>
-        <v>13758.385466293634</v>
+        <v>13760.505150450974</v>
       </c>
       <c r="S34" s="63">
         <f>N34*'MARA Prices'!$F$4</f>
@@ -8828,7 +8831,7 @@
       </c>
       <c r="U34" s="63">
         <f>$F34*Outputs_Internal!N$62/12</f>
-        <v>42.426792560360632</v>
+        <v>42.426792560361136</v>
       </c>
       <c r="W34" s="63">
         <f t="shared" si="2"/>
@@ -8918,11 +8921,11 @@
       </c>
       <c r="Q35" s="63">
         <f>$F35*Outputs_Internal!K$62/12+N35*'MARA Prices'!$F$5</f>
-        <v>5918.4659828792583</v>
+        <v>5916.3462987219136</v>
       </c>
       <c r="R35" s="63">
         <f>$F35*Outputs_Internal!L$62/12+N35*'MARA Prices'!$F$6</f>
-        <v>13758.385466293634</v>
+        <v>13760.505150450974</v>
       </c>
       <c r="S35" s="63">
         <f>N35*'MARA Prices'!$F$4</f>
@@ -8934,7 +8937,7 @@
       </c>
       <c r="U35" s="63">
         <f>$F35*Outputs_Internal!N$62/12</f>
-        <v>42.426792560360632</v>
+        <v>42.426792560361136</v>
       </c>
       <c r="W35" s="63">
         <f t="shared" si="2"/>
@@ -8942,11 +8945,11 @@
       </c>
       <c r="X35" s="63">
         <f t="shared" si="3"/>
-        <v>17755.397948637776</v>
+        <v>17749.038896165741</v>
       </c>
       <c r="Y35" s="63">
         <f t="shared" si="4"/>
-        <v>41275.156398880899</v>
+        <v>41281.51545135292</v>
       </c>
       <c r="Z35" s="63">
         <f t="shared" si="5"/>
@@ -8954,7 +8957,7 @@
       </c>
       <c r="AA35" s="63">
         <f t="shared" si="6"/>
-        <v>10522.280377681082</v>
+        <v>10522.280377681083</v>
       </c>
       <c r="AD35" s="63">
         <f>'MARA Prices'!H$21*$G35</f>
@@ -9024,11 +9027,11 @@
       </c>
       <c r="Q36" s="63">
         <f>$F36*Outputs_Internal!K$62/12+N36*'MARA Prices'!$F$5</f>
-        <v>5918.4659828792583</v>
+        <v>5916.3462987219136</v>
       </c>
       <c r="R36" s="63">
         <f>$F36*Outputs_Internal!L$62/12+N36*'MARA Prices'!$F$6</f>
-        <v>13758.385466293634</v>
+        <v>13760.505150450974</v>
       </c>
       <c r="S36" s="63">
         <f>N36*'MARA Prices'!$F$4</f>
@@ -9040,7 +9043,7 @@
       </c>
       <c r="U36" s="63">
         <f>$F36*Outputs_Internal!N$62/12</f>
-        <v>42.426792560360632</v>
+        <v>42.426792560361136</v>
       </c>
       <c r="W36" s="63">
         <f t="shared" si="2"/>
@@ -9130,11 +9133,11 @@
       </c>
       <c r="Q37" s="63">
         <f>$F37*Outputs_Internal!K$62/12+N37*'MARA Prices'!$F$5</f>
-        <v>5918.4659828792583</v>
+        <v>5916.3462987219136</v>
       </c>
       <c r="R37" s="63">
         <f>$F37*Outputs_Internal!L$62/12+N37*'MARA Prices'!$F$6</f>
-        <v>13758.385466293634</v>
+        <v>13760.505150450974</v>
       </c>
       <c r="S37" s="63">
         <f>N37*'MARA Prices'!$F$4</f>
@@ -9146,7 +9149,7 @@
       </c>
       <c r="U37" s="63">
         <f>$F37*Outputs_Internal!N$62/12</f>
-        <v>42.426792560360632</v>
+        <v>42.426792560361136</v>
       </c>
       <c r="W37" s="63">
         <f t="shared" ref="W37:W68" si="7">IF(MOD(MONTH($B37),3)=0,SUM(I35:I37,P35:P37),0)</f>
@@ -9236,11 +9239,11 @@
       </c>
       <c r="Q38" s="63">
         <f>$F38*Outputs_Internal!K$62/12+N38*'MARA Prices'!$F$5</f>
-        <v>5918.4659828792583</v>
+        <v>5916.3462987219136</v>
       </c>
       <c r="R38" s="63">
         <f>$F38*Outputs_Internal!L$62/12+N38*'MARA Prices'!$F$6</f>
-        <v>13758.385466293634</v>
+        <v>13760.505150450974</v>
       </c>
       <c r="S38" s="63">
         <f>N38*'MARA Prices'!$F$4</f>
@@ -9252,7 +9255,7 @@
       </c>
       <c r="U38" s="63">
         <f>$F38*Outputs_Internal!N$62/12</f>
-        <v>42.426792560360632</v>
+        <v>42.426792560361136</v>
       </c>
       <c r="W38" s="63">
         <f t="shared" si="7"/>
@@ -9260,11 +9263,11 @@
       </c>
       <c r="X38" s="63">
         <f t="shared" si="8"/>
-        <v>17755.397948637776</v>
+        <v>17749.038896165741</v>
       </c>
       <c r="Y38" s="63">
         <f t="shared" si="9"/>
-        <v>41275.156398880899</v>
+        <v>41281.51545135292</v>
       </c>
       <c r="Z38" s="63">
         <f t="shared" si="10"/>
@@ -9272,7 +9275,7 @@
       </c>
       <c r="AA38" s="63">
         <f t="shared" si="11"/>
-        <v>10522.280377681082</v>
+        <v>10522.280377681083</v>
       </c>
       <c r="AD38" s="63">
         <f>'MARA Prices'!H$21*$G38</f>
@@ -9342,11 +9345,11 @@
       </c>
       <c r="Q39" s="63">
         <f>$F39*Outputs_Internal!K$62/12+N39*'MARA Prices'!$F$5</f>
-        <v>5918.4659828792583</v>
+        <v>5916.3462987219136</v>
       </c>
       <c r="R39" s="63">
         <f>$F39*Outputs_Internal!L$62/12+N39*'MARA Prices'!$F$6</f>
-        <v>13758.385466293634</v>
+        <v>13760.505150450974</v>
       </c>
       <c r="S39" s="63">
         <f>N39*'MARA Prices'!$F$4</f>
@@ -9358,7 +9361,7 @@
       </c>
       <c r="U39" s="63">
         <f>$F39*Outputs_Internal!N$62/12</f>
-        <v>42.426792560360632</v>
+        <v>42.426792560361136</v>
       </c>
       <c r="W39" s="63">
         <f t="shared" si="7"/>
@@ -9448,11 +9451,11 @@
       </c>
       <c r="Q40" s="63">
         <f>$F40*Outputs_Internal!K$62/12+N40*'MARA Prices'!$F$5</f>
-        <v>5918.4659828792583</v>
+        <v>5916.3462987219136</v>
       </c>
       <c r="R40" s="63">
         <f>$F40*Outputs_Internal!L$62/12+N40*'MARA Prices'!$F$6</f>
-        <v>13758.385466293634</v>
+        <v>13760.505150450974</v>
       </c>
       <c r="S40" s="63">
         <f>N40*'MARA Prices'!$F$4</f>
@@ -9464,7 +9467,7 @@
       </c>
       <c r="U40" s="63">
         <f>$F40*Outputs_Internal!N$62/12</f>
-        <v>42.426792560360632</v>
+        <v>42.426792560361136</v>
       </c>
       <c r="W40" s="63">
         <f t="shared" si="7"/>
@@ -9554,11 +9557,11 @@
       </c>
       <c r="Q41" s="63">
         <f>$F41*Outputs_Internal!K$62/12+N41*'MARA Prices'!$F$5</f>
-        <v>5918.4659828792583</v>
+        <v>5916.3462987219136</v>
       </c>
       <c r="R41" s="63">
         <f>$F41*Outputs_Internal!L$62/12+N41*'MARA Prices'!$F$6</f>
-        <v>13758.385466293634</v>
+        <v>13760.505150450974</v>
       </c>
       <c r="S41" s="63">
         <f>N41*'MARA Prices'!$F$4</f>
@@ -9570,7 +9573,7 @@
       </c>
       <c r="U41" s="63">
         <f>$F41*Outputs_Internal!N$62/12</f>
-        <v>42.426792560360632</v>
+        <v>42.426792560361136</v>
       </c>
       <c r="W41" s="63">
         <f t="shared" si="7"/>
@@ -9578,11 +9581,11 @@
       </c>
       <c r="X41" s="63">
         <f t="shared" si="8"/>
-        <v>17755.397948637776</v>
+        <v>17749.038896165741</v>
       </c>
       <c r="Y41" s="63">
         <f t="shared" si="9"/>
-        <v>41275.156398880899</v>
+        <v>41281.51545135292</v>
       </c>
       <c r="Z41" s="63">
         <f t="shared" si="10"/>
@@ -9590,7 +9593,7 @@
       </c>
       <c r="AA41" s="63">
         <f t="shared" si="11"/>
-        <v>10522.280377681082</v>
+        <v>10522.280377681083</v>
       </c>
       <c r="AD41" s="63">
         <f>'MARA Prices'!H$21*$G41</f>
@@ -9660,11 +9663,11 @@
       </c>
       <c r="Q42" s="63">
         <f>$F42*Outputs_Internal!K$62/12+N42*'MARA Prices'!$F$5</f>
-        <v>5918.4659828792583</v>
+        <v>5916.3462987219136</v>
       </c>
       <c r="R42" s="63">
         <f>$F42*Outputs_Internal!L$62/12+N42*'MARA Prices'!$F$6</f>
-        <v>13758.385466293634</v>
+        <v>13760.505150450974</v>
       </c>
       <c r="S42" s="63">
         <f>N42*'MARA Prices'!$F$4</f>
@@ -9676,7 +9679,7 @@
       </c>
       <c r="U42" s="63">
         <f>$F42*Outputs_Internal!N$62/12</f>
-        <v>42.426792560360632</v>
+        <v>42.426792560361136</v>
       </c>
       <c r="W42" s="63">
         <f t="shared" si="7"/>
@@ -9766,11 +9769,11 @@
       </c>
       <c r="Q43" s="63">
         <f>$F43*Outputs_Internal!K$62/12+N43*'MARA Prices'!$F$5</f>
-        <v>5918.4659828792583</v>
+        <v>5916.3462987219136</v>
       </c>
       <c r="R43" s="63">
         <f>$F43*Outputs_Internal!L$62/12+N43*'MARA Prices'!$F$6</f>
-        <v>13758.385466293634</v>
+        <v>13760.505150450974</v>
       </c>
       <c r="S43" s="63">
         <f>N43*'MARA Prices'!$F$4</f>
@@ -9782,7 +9785,7 @@
       </c>
       <c r="U43" s="63">
         <f>$F43*Outputs_Internal!N$62/12</f>
-        <v>42.426792560360632</v>
+        <v>42.426792560361136</v>
       </c>
       <c r="W43" s="63">
         <f t="shared" si="7"/>
@@ -9872,11 +9875,11 @@
       </c>
       <c r="Q44" s="63">
         <f>$F44*Outputs_Internal!K$62/12+N44*'MARA Prices'!$F$5</f>
-        <v>5918.4659828792583</v>
+        <v>5916.3462987219136</v>
       </c>
       <c r="R44" s="63">
         <f>$F44*Outputs_Internal!L$62/12+N44*'MARA Prices'!$F$6</f>
-        <v>13758.385466293634</v>
+        <v>13760.505150450974</v>
       </c>
       <c r="S44" s="63">
         <f>N44*'MARA Prices'!$F$4</f>
@@ -9888,7 +9891,7 @@
       </c>
       <c r="U44" s="63">
         <f>$F44*Outputs_Internal!N$62/12</f>
-        <v>42.426792560360632</v>
+        <v>42.426792560361136</v>
       </c>
       <c r="W44" s="63">
         <f t="shared" si="7"/>
@@ -9896,11 +9899,11 @@
       </c>
       <c r="X44" s="63">
         <f t="shared" si="8"/>
-        <v>17755.397948637776</v>
+        <v>17749.038896165741</v>
       </c>
       <c r="Y44" s="63">
         <f t="shared" si="9"/>
-        <v>41275.156398880899</v>
+        <v>41281.51545135292</v>
       </c>
       <c r="Z44" s="63">
         <f t="shared" si="10"/>
@@ -9908,7 +9911,7 @@
       </c>
       <c r="AA44" s="63">
         <f t="shared" si="11"/>
-        <v>10522.280377681082</v>
+        <v>10522.280377681083</v>
       </c>
       <c r="AD44" s="63">
         <f>'MARA Prices'!H$21*$G44</f>
@@ -9978,11 +9981,11 @@
       </c>
       <c r="Q45" s="63">
         <f>$F45*Outputs_Internal!K$62/12+N45*'MARA Prices'!$F$5</f>
-        <v>5940.1222328792583</v>
+        <v>5938.0025487219136</v>
       </c>
       <c r="R45" s="63">
         <f>$F45*Outputs_Internal!L$62/12+N45*'MARA Prices'!$F$6</f>
-        <v>13780.041716293634</v>
+        <v>13782.161400450974</v>
       </c>
       <c r="S45" s="63">
         <f>N45*'MARA Prices'!$F$4</f>
@@ -9994,7 +9997,7 @@
       </c>
       <c r="U45" s="63">
         <f>$F45*Outputs_Internal!N$62/12</f>
-        <v>42.426792560360632</v>
+        <v>42.426792560361136</v>
       </c>
       <c r="W45" s="63">
         <f t="shared" si="7"/>
@@ -10084,11 +10087,11 @@
       </c>
       <c r="Q46" s="63">
         <f>$F46*Outputs_Internal!K$62/12+N46*'MARA Prices'!$F$5</f>
-        <v>5940.1222328792583</v>
+        <v>5938.0025487219136</v>
       </c>
       <c r="R46" s="63">
         <f>$F46*Outputs_Internal!L$62/12+N46*'MARA Prices'!$F$6</f>
-        <v>13780.041716293634</v>
+        <v>13782.161400450974</v>
       </c>
       <c r="S46" s="63">
         <f>N46*'MARA Prices'!$F$4</f>
@@ -10100,7 +10103,7 @@
       </c>
       <c r="U46" s="63">
         <f>$F46*Outputs_Internal!N$62/12</f>
-        <v>42.426792560360632</v>
+        <v>42.426792560361136</v>
       </c>
       <c r="W46" s="63">
         <f t="shared" si="7"/>
@@ -10190,11 +10193,11 @@
       </c>
       <c r="Q47" s="63">
         <f>$F47*Outputs_Internal!K$62/12+N47*'MARA Prices'!$F$5</f>
-        <v>5940.1222328792583</v>
+        <v>5938.0025487219136</v>
       </c>
       <c r="R47" s="63">
         <f>$F47*Outputs_Internal!L$62/12+N47*'MARA Prices'!$F$6</f>
-        <v>13780.041716293634</v>
+        <v>13782.161400450974</v>
       </c>
       <c r="S47" s="63">
         <f>N47*'MARA Prices'!$F$4</f>
@@ -10206,7 +10209,7 @@
       </c>
       <c r="U47" s="63">
         <f>$F47*Outputs_Internal!N$62/12</f>
-        <v>42.426792560360632</v>
+        <v>42.426792560361136</v>
       </c>
       <c r="W47" s="63">
         <f t="shared" si="7"/>
@@ -10214,11 +10217,11 @@
       </c>
       <c r="X47" s="63">
         <f t="shared" si="8"/>
-        <v>17820.366698637776</v>
+        <v>17814.007646165741</v>
       </c>
       <c r="Y47" s="63">
         <f t="shared" si="9"/>
-        <v>41340.125148880899</v>
+        <v>41346.48420135292</v>
       </c>
       <c r="Z47" s="63">
         <f t="shared" si="10"/>
@@ -10226,7 +10229,7 @@
       </c>
       <c r="AA47" s="63">
         <f t="shared" si="11"/>
-        <v>11042.030377681082</v>
+        <v>11042.030377681083</v>
       </c>
       <c r="AD47" s="63">
         <f>'MARA Prices'!H$21*$G47</f>
@@ -10296,11 +10299,11 @@
       </c>
       <c r="Q48" s="63">
         <f>$F48*Outputs_Internal!K$62/12+N48*'MARA Prices'!$F$5</f>
-        <v>5940.1222328792583</v>
+        <v>5938.0025487219136</v>
       </c>
       <c r="R48" s="63">
         <f>$F48*Outputs_Internal!L$62/12+N48*'MARA Prices'!$F$6</f>
-        <v>13780.041716293634</v>
+        <v>13782.161400450974</v>
       </c>
       <c r="S48" s="63">
         <f>N48*'MARA Prices'!$F$4</f>
@@ -10312,7 +10315,7 @@
       </c>
       <c r="U48" s="63">
         <f>$F48*Outputs_Internal!N$62/12</f>
-        <v>42.426792560360632</v>
+        <v>42.426792560361136</v>
       </c>
       <c r="W48" s="63">
         <f t="shared" si="7"/>
@@ -10402,11 +10405,11 @@
       </c>
       <c r="Q49" s="63">
         <f>$F49*Outputs_Internal!K$62/12+N49*'MARA Prices'!$F$5</f>
-        <v>5940.1222328792583</v>
+        <v>5938.0025487219136</v>
       </c>
       <c r="R49" s="63">
         <f>$F49*Outputs_Internal!L$62/12+N49*'MARA Prices'!$F$6</f>
-        <v>13780.041716293634</v>
+        <v>13782.161400450974</v>
       </c>
       <c r="S49" s="63">
         <f>N49*'MARA Prices'!$F$4</f>
@@ -10418,7 +10421,7 @@
       </c>
       <c r="U49" s="63">
         <f>$F49*Outputs_Internal!N$62/12</f>
-        <v>42.426792560360632</v>
+        <v>42.426792560361136</v>
       </c>
       <c r="W49" s="63">
         <f t="shared" si="7"/>
@@ -10508,11 +10511,11 @@
       </c>
       <c r="Q50" s="63">
         <f>$F50*Outputs_Internal!K$62/12+N50*'MARA Prices'!$F$5</f>
-        <v>5940.1222328792583</v>
+        <v>5938.0025487219136</v>
       </c>
       <c r="R50" s="63">
         <f>$F50*Outputs_Internal!L$62/12+N50*'MARA Prices'!$F$6</f>
-        <v>13780.041716293634</v>
+        <v>13782.161400450974</v>
       </c>
       <c r="S50" s="63">
         <f>N50*'MARA Prices'!$F$4</f>
@@ -10524,7 +10527,7 @@
       </c>
       <c r="U50" s="63">
         <f>$F50*Outputs_Internal!N$62/12</f>
-        <v>42.426792560360632</v>
+        <v>42.426792560361136</v>
       </c>
       <c r="W50" s="63">
         <f t="shared" si="7"/>
@@ -10532,11 +10535,11 @@
       </c>
       <c r="X50" s="63">
         <f t="shared" si="8"/>
-        <v>17820.366698637776</v>
+        <v>17814.007646165741</v>
       </c>
       <c r="Y50" s="63">
         <f t="shared" si="9"/>
-        <v>41340.125148880899</v>
+        <v>41346.48420135292</v>
       </c>
       <c r="Z50" s="63">
         <f t="shared" si="10"/>
@@ -10544,7 +10547,7 @@
       </c>
       <c r="AA50" s="63">
         <f t="shared" si="11"/>
-        <v>11042.030377681082</v>
+        <v>11042.030377681083</v>
       </c>
       <c r="AD50" s="63">
         <f>'MARA Prices'!H$21*$G50</f>
@@ -10614,11 +10617,11 @@
       </c>
       <c r="Q51" s="63">
         <f>$F51*Outputs_Internal!K$62/12+N51*'MARA Prices'!$F$5</f>
-        <v>5940.1222328792583</v>
+        <v>5938.0025487219136</v>
       </c>
       <c r="R51" s="63">
         <f>$F51*Outputs_Internal!L$62/12+N51*'MARA Prices'!$F$6</f>
-        <v>13780.041716293634</v>
+        <v>13782.161400450974</v>
       </c>
       <c r="S51" s="63">
         <f>N51*'MARA Prices'!$F$4</f>
@@ -10630,7 +10633,7 @@
       </c>
       <c r="U51" s="63">
         <f>$F51*Outputs_Internal!N$62/12</f>
-        <v>42.426792560360632</v>
+        <v>42.426792560361136</v>
       </c>
       <c r="W51" s="63">
         <f t="shared" si="7"/>
@@ -10720,11 +10723,11 @@
       </c>
       <c r="Q52" s="63">
         <f>$F52*Outputs_Internal!K$62/12+N52*'MARA Prices'!$F$5</f>
-        <v>5940.1222328792583</v>
+        <v>5938.0025487219136</v>
       </c>
       <c r="R52" s="63">
         <f>$F52*Outputs_Internal!L$62/12+N52*'MARA Prices'!$F$6</f>
-        <v>13780.041716293634</v>
+        <v>13782.161400450974</v>
       </c>
       <c r="S52" s="63">
         <f>N52*'MARA Prices'!$F$4</f>
@@ -10736,7 +10739,7 @@
       </c>
       <c r="U52" s="63">
         <f>$F52*Outputs_Internal!N$62/12</f>
-        <v>42.426792560360632</v>
+        <v>42.426792560361136</v>
       </c>
       <c r="W52" s="63">
         <f t="shared" si="7"/>
@@ -10826,11 +10829,11 @@
       </c>
       <c r="Q53" s="63">
         <f>$F53*Outputs_Internal!K$62/12+N53*'MARA Prices'!$F$5</f>
-        <v>5940.1222328792583</v>
+        <v>5938.0025487219136</v>
       </c>
       <c r="R53" s="63">
         <f>$F53*Outputs_Internal!L$62/12+N53*'MARA Prices'!$F$6</f>
-        <v>13780.041716293634</v>
+        <v>13782.161400450974</v>
       </c>
       <c r="S53" s="63">
         <f>N53*'MARA Prices'!$F$4</f>
@@ -10842,7 +10845,7 @@
       </c>
       <c r="U53" s="63">
         <f>$F53*Outputs_Internal!N$62/12</f>
-        <v>42.426792560360632</v>
+        <v>42.426792560361136</v>
       </c>
       <c r="W53" s="63">
         <f t="shared" si="7"/>
@@ -10850,11 +10853,11 @@
       </c>
       <c r="X53" s="63">
         <f t="shared" si="8"/>
-        <v>17820.366698637776</v>
+        <v>17814.007646165741</v>
       </c>
       <c r="Y53" s="63">
         <f t="shared" si="9"/>
-        <v>41340.125148880899</v>
+        <v>41346.48420135292</v>
       </c>
       <c r="Z53" s="63">
         <f t="shared" si="10"/>
@@ -10862,7 +10865,7 @@
       </c>
       <c r="AA53" s="63">
         <f t="shared" si="11"/>
-        <v>11042.030377681082</v>
+        <v>11042.030377681083</v>
       </c>
       <c r="AD53" s="63">
         <f>'MARA Prices'!H$21*$G53</f>
@@ -10932,11 +10935,11 @@
       </c>
       <c r="Q54" s="63">
         <f>$F54*Outputs_Internal!K$62/12+N54*'MARA Prices'!$F$5</f>
-        <v>5940.1222328792583</v>
+        <v>5938.0025487219136</v>
       </c>
       <c r="R54" s="63">
         <f>$F54*Outputs_Internal!L$62/12+N54*'MARA Prices'!$F$6</f>
-        <v>13780.041716293634</v>
+        <v>13782.161400450974</v>
       </c>
       <c r="S54" s="63">
         <f>N54*'MARA Prices'!$F$4</f>
@@ -10948,7 +10951,7 @@
       </c>
       <c r="U54" s="63">
         <f>$F54*Outputs_Internal!N$62/12</f>
-        <v>42.426792560360632</v>
+        <v>42.426792560361136</v>
       </c>
       <c r="W54" s="63">
         <f t="shared" si="7"/>
@@ -11038,11 +11041,11 @@
       </c>
       <c r="Q55" s="63">
         <f>$F55*Outputs_Internal!K$62/12+N55*'MARA Prices'!$F$5</f>
-        <v>5940.1222328792583</v>
+        <v>5938.0025487219136</v>
       </c>
       <c r="R55" s="63">
         <f>$F55*Outputs_Internal!L$62/12+N55*'MARA Prices'!$F$6</f>
-        <v>13780.041716293634</v>
+        <v>13782.161400450974</v>
       </c>
       <c r="S55" s="63">
         <f>N55*'MARA Prices'!$F$4</f>
@@ -11054,7 +11057,7 @@
       </c>
       <c r="U55" s="63">
         <f>$F55*Outputs_Internal!N$62/12</f>
-        <v>42.426792560360632</v>
+        <v>42.426792560361136</v>
       </c>
       <c r="W55" s="63">
         <f t="shared" si="7"/>
@@ -11144,11 +11147,11 @@
       </c>
       <c r="Q56" s="63">
         <f>$F56*Outputs_Internal!K$62/12+N56*'MARA Prices'!$F$5</f>
-        <v>5940.1222328792583</v>
+        <v>5938.0025487219136</v>
       </c>
       <c r="R56" s="63">
         <f>$F56*Outputs_Internal!L$62/12+N56*'MARA Prices'!$F$6</f>
-        <v>13780.041716293634</v>
+        <v>13782.161400450974</v>
       </c>
       <c r="S56" s="63">
         <f>N56*'MARA Prices'!$F$4</f>
@@ -11160,7 +11163,7 @@
       </c>
       <c r="U56" s="63">
         <f>$F56*Outputs_Internal!N$62/12</f>
-        <v>42.426792560360632</v>
+        <v>42.426792560361136</v>
       </c>
       <c r="W56" s="63">
         <f t="shared" si="7"/>
@@ -11168,11 +11171,11 @@
       </c>
       <c r="X56" s="63">
         <f t="shared" si="8"/>
-        <v>17820.366698637776</v>
+        <v>17814.007646165741</v>
       </c>
       <c r="Y56" s="63">
         <f t="shared" si="9"/>
-        <v>41340.125148880899</v>
+        <v>41346.48420135292</v>
       </c>
       <c r="Z56" s="63">
         <f t="shared" si="10"/>
@@ -11180,7 +11183,7 @@
       </c>
       <c r="AA56" s="63">
         <f t="shared" si="11"/>
-        <v>11042.030377681082</v>
+        <v>11042.030377681083</v>
       </c>
       <c r="AD56" s="63">
         <f>'MARA Prices'!H$21*$G56</f>
@@ -11250,11 +11253,11 @@
       </c>
       <c r="Q57" s="63">
         <f>$F57*Outputs_Internal!K$62/12+N57*'MARA Prices'!$F$5</f>
-        <v>5962.8612953792581</v>
+        <v>5960.7416112219134</v>
       </c>
       <c r="R57" s="63">
         <f>$F57*Outputs_Internal!L$62/12+N57*'MARA Prices'!$F$6</f>
-        <v>13802.780778793634</v>
+        <v>13804.900462950975</v>
       </c>
       <c r="S57" s="63">
         <f>N57*'MARA Prices'!$F$4</f>
@@ -11266,7 +11269,7 @@
       </c>
       <c r="U57" s="63">
         <f>$F57*Outputs_Internal!N$62/12</f>
-        <v>42.426792560360632</v>
+        <v>42.426792560361136</v>
       </c>
       <c r="W57" s="63">
         <f t="shared" si="7"/>
@@ -11356,11 +11359,11 @@
       </c>
       <c r="Q58" s="63">
         <f>$F58*Outputs_Internal!K$62/12+N58*'MARA Prices'!$F$5</f>
-        <v>5962.8612953792581</v>
+        <v>5960.7416112219134</v>
       </c>
       <c r="R58" s="63">
         <f>$F58*Outputs_Internal!L$62/12+N58*'MARA Prices'!$F$6</f>
-        <v>13802.780778793634</v>
+        <v>13804.900462950975</v>
       </c>
       <c r="S58" s="63">
         <f>N58*'MARA Prices'!$F$4</f>
@@ -11372,7 +11375,7 @@
       </c>
       <c r="U58" s="63">
         <f>$F58*Outputs_Internal!N$62/12</f>
-        <v>42.426792560360632</v>
+        <v>42.426792560361136</v>
       </c>
       <c r="W58" s="63">
         <f t="shared" si="7"/>
@@ -11462,11 +11465,11 @@
       </c>
       <c r="Q59" s="63">
         <f>$F59*Outputs_Internal!K$62/12+N59*'MARA Prices'!$F$5</f>
-        <v>5962.8612953792581</v>
+        <v>5960.7416112219134</v>
       </c>
       <c r="R59" s="63">
         <f>$F59*Outputs_Internal!L$62/12+N59*'MARA Prices'!$F$6</f>
-        <v>13802.780778793634</v>
+        <v>13804.900462950975</v>
       </c>
       <c r="S59" s="63">
         <f>N59*'MARA Prices'!$F$4</f>
@@ -11478,7 +11481,7 @@
       </c>
       <c r="U59" s="63">
         <f>$F59*Outputs_Internal!N$62/12</f>
-        <v>42.426792560360632</v>
+        <v>42.426792560361136</v>
       </c>
       <c r="W59" s="63">
         <f t="shared" si="7"/>
@@ -11486,11 +11489,11 @@
       </c>
       <c r="X59" s="63">
         <f t="shared" si="8"/>
-        <v>17888.583886137774</v>
+        <v>17882.224833665739</v>
       </c>
       <c r="Y59" s="63">
         <f t="shared" si="9"/>
-        <v>41408.342336380905</v>
+        <v>41414.701388852925</v>
       </c>
       <c r="Z59" s="63">
         <f t="shared" si="10"/>
@@ -11498,7 +11501,7 @@
       </c>
       <c r="AA59" s="63">
         <f t="shared" si="11"/>
-        <v>11587.767877681084</v>
+        <v>11587.767877681086</v>
       </c>
       <c r="AD59" s="63">
         <f>'MARA Prices'!H$21*$G59</f>
@@ -11568,11 +11571,11 @@
       </c>
       <c r="Q60" s="63">
         <f>$F60*Outputs_Internal!K$62/12+N60*'MARA Prices'!$F$5</f>
-        <v>5962.8612953792581</v>
+        <v>5960.7416112219134</v>
       </c>
       <c r="R60" s="63">
         <f>$F60*Outputs_Internal!L$62/12+N60*'MARA Prices'!$F$6</f>
-        <v>13802.780778793634</v>
+        <v>13804.900462950975</v>
       </c>
       <c r="S60" s="63">
         <f>N60*'MARA Prices'!$F$4</f>
@@ -11584,7 +11587,7 @@
       </c>
       <c r="U60" s="63">
         <f>$F60*Outputs_Internal!N$62/12</f>
-        <v>42.426792560360632</v>
+        <v>42.426792560361136</v>
       </c>
       <c r="W60" s="63">
         <f t="shared" si="7"/>
@@ -11674,11 +11677,11 @@
       </c>
       <c r="Q61" s="63">
         <f>$F61*Outputs_Internal!K$62/12+N61*'MARA Prices'!$F$5</f>
-        <v>5962.8612953792581</v>
+        <v>5960.7416112219134</v>
       </c>
       <c r="R61" s="63">
         <f>$F61*Outputs_Internal!L$62/12+N61*'MARA Prices'!$F$6</f>
-        <v>13802.780778793634</v>
+        <v>13804.900462950975</v>
       </c>
       <c r="S61" s="63">
         <f>N61*'MARA Prices'!$F$4</f>
@@ -11690,7 +11693,7 @@
       </c>
       <c r="U61" s="63">
         <f>$F61*Outputs_Internal!N$62/12</f>
-        <v>42.426792560360632</v>
+        <v>42.426792560361136</v>
       </c>
       <c r="W61" s="63">
         <f t="shared" si="7"/>
@@ -11780,11 +11783,11 @@
       </c>
       <c r="Q62" s="63">
         <f>$F62*Outputs_Internal!K$62/12+N62*'MARA Prices'!$F$5</f>
-        <v>5962.8612953792581</v>
+        <v>5960.7416112219134</v>
       </c>
       <c r="R62" s="63">
         <f>$F62*Outputs_Internal!L$62/12+N62*'MARA Prices'!$F$6</f>
-        <v>13802.780778793634</v>
+        <v>13804.900462950975</v>
       </c>
       <c r="S62" s="63">
         <f>N62*'MARA Prices'!$F$4</f>
@@ -11796,7 +11799,7 @@
       </c>
       <c r="U62" s="63">
         <f>$F62*Outputs_Internal!N$62/12</f>
-        <v>42.426792560360632</v>
+        <v>42.426792560361136</v>
       </c>
       <c r="W62" s="63">
         <f t="shared" si="7"/>
@@ -11804,11 +11807,11 @@
       </c>
       <c r="X62" s="63">
         <f t="shared" si="8"/>
-        <v>17888.583886137774</v>
+        <v>17882.224833665739</v>
       </c>
       <c r="Y62" s="63">
         <f t="shared" si="9"/>
-        <v>41408.342336380905</v>
+        <v>41414.701388852925</v>
       </c>
       <c r="Z62" s="63">
         <f t="shared" si="10"/>
@@ -11816,7 +11819,7 @@
       </c>
       <c r="AA62" s="63">
         <f t="shared" si="11"/>
-        <v>11587.767877681084</v>
+        <v>11587.767877681086</v>
       </c>
       <c r="AD62" s="63">
         <f>'MARA Prices'!H$21*$G62</f>
@@ -15260,7 +15263,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15761,11 +15764,11 @@
       </c>
       <c r="E22" s="20">
         <f xml:space="preserve"> IF(OR(Inputs!E20="Y",Inputs!E$24="Y",Inputs!E$25="Y",Inputs!E$28="Y"), Prices!$C17, 0)</f>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="F22" s="20">
         <f xml:space="preserve"> IF(OR(Inputs!F20="Y",Inputs!F$24="Y",Inputs!F$25="Y",Inputs!F$28="Y"), Prices!$C17, 0)</f>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G22" s="20">
         <f xml:space="preserve"> IF(OR(Inputs!G20="Y",Inputs!G$24="Y",Inputs!G$25="Y",Inputs!G$28="Y"), Prices!$C17, 0)</f>
@@ -17348,7 +17351,7 @@
       </c>
       <c r="E86" s="20">
         <f>IF(E64=0,0,E64-SUM(E21:E23))</f>
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="F86" s="20">
         <f>IF(F64=0,0,F64-SUM(F21:F23))</f>
@@ -17532,7 +17535,7 @@
       </c>
       <c r="F90" s="20">
         <f>IF(F68=0,0,F68-IF(OR(Inputs!F24="Y",Inputs!F25="Y"), 0, F22))</f>
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="G90" s="20">
         <f>IF(G68=0,0,G68-IF(OR(Inputs!G24="Y",Inputs!G25="Y"), 0, G22))</f>
@@ -18337,9 +18340,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -18693,8 +18694,8 @@
         <v>149</v>
       </c>
       <c r="C17" s="45">
-        <f>$L$27*5000</f>
-        <v>5000</v>
+        <f>$L$27*10000</f>
+        <v>10000</v>
       </c>
       <c r="E17" s="41">
         <f>IF(Inputs!$C$3="Monthly",0.1,0.07)</f>

--- a/0273NYP - New York Premier/Premier_Pricing_Model.xlsx
+++ b/0273NYP - New York Premier/Premier_Pricing_Model.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="0" windowWidth="13680" windowHeight="13890"/>
+    <workbookView xWindow="1395" yWindow="0" windowWidth="13680" windowHeight="13890"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="2" r:id="rId1"/>
@@ -1296,20 +1296,20 @@
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" customWidth="1"/>
-    <col min="2" max="2" width="24.26953125" customWidth="1"/>
-    <col min="3" max="3" width="16.26953125" style="66" customWidth="1"/>
-    <col min="4" max="8" width="18.7265625" customWidth="1"/>
-    <col min="11" max="11" width="9.1796875" customWidth="1"/>
-    <col min="12" max="12" width="9.1796875" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="66" customWidth="1"/>
+    <col min="4" max="8" width="18.7109375" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B1" s="91" t="s">
         <v>58</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="67" t="s">
         <v>72</v>
       </c>
@@ -1325,15 +1325,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="67" t="s">
         <v>122</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="67" t="s">
         <v>131</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="68"/>
       <c r="C5" s="72"/>
       <c r="D5" s="13" t="s">
@@ -1360,7 +1360,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="69" t="s">
         <v>5</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="69" t="s">
         <v>80</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="69" t="s">
         <v>6</v>
       </c>
@@ -1414,7 +1414,7 @@
       <c r="G8" s="55"/>
       <c r="H8" s="56"/>
     </row>
-    <row r="9" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="69" t="s">
         <v>139</v>
       </c>
@@ -1430,7 +1430,7 @@
       <c r="G9" s="55"/>
       <c r="H9" s="56"/>
     </row>
-    <row r="10" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="69" t="s">
         <v>4</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="69" t="s">
         <v>110</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="69" t="s">
         <v>97</v>
       </c>
@@ -1484,7 +1484,7 @@
       <c r="G12" s="55"/>
       <c r="H12" s="56"/>
     </row>
-    <row r="13" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="69" t="s">
         <v>7</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="69" t="s">
         <v>8</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="69" t="s">
         <v>21</v>
       </c>
@@ -1538,7 +1538,7 @@
       <c r="G15" s="55"/>
       <c r="H15" s="56"/>
     </row>
-    <row r="16" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="69" t="s">
         <v>9</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="69" t="s">
         <v>10</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="69" t="s">
         <v>77</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="69" t="s">
         <v>11</v>
       </c>
@@ -1611,7 +1611,7 @@
       <c r="G19" s="55"/>
       <c r="H19" s="56"/>
     </row>
-    <row r="20" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="69" t="s">
         <v>153</v>
       </c>
@@ -1627,7 +1627,7 @@
       <c r="G20" s="55"/>
       <c r="H20" s="56"/>
     </row>
-    <row r="21" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="69" t="s">
         <v>12</v>
       </c>
@@ -1643,7 +1643,7 @@
       <c r="G21" s="55"/>
       <c r="H21" s="56"/>
     </row>
-    <row r="22" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="69" t="s">
         <v>13</v>
       </c>
@@ -1659,7 +1659,7 @@
       <c r="G22" s="55"/>
       <c r="H22" s="56"/>
     </row>
-    <row r="23" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="69" t="s">
         <v>14</v>
       </c>
@@ -1675,7 +1675,7 @@
       <c r="G23" s="55"/>
       <c r="H23" s="56"/>
     </row>
-    <row r="24" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="69" t="s">
         <v>15</v>
       </c>
@@ -1691,7 +1691,7 @@
       <c r="G24" s="55"/>
       <c r="H24" s="56"/>
     </row>
-    <row r="25" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="69" t="s">
         <v>129</v>
       </c>
@@ -1707,7 +1707,7 @@
       <c r="G25" s="55"/>
       <c r="H25" s="56"/>
     </row>
-    <row r="26" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="69" t="s">
         <v>16</v>
       </c>
@@ -1723,7 +1723,7 @@
       <c r="G26" s="55"/>
       <c r="H26" s="56"/>
     </row>
-    <row r="27" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="69" t="s">
         <v>99</v>
       </c>
@@ -1739,7 +1739,7 @@
       <c r="G27" s="55"/>
       <c r="H27" s="56"/>
     </row>
-    <row r="28" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="69" t="s">
         <v>150</v>
       </c>
@@ -1755,7 +1755,7 @@
       <c r="G28" s="55"/>
       <c r="H28" s="56"/>
     </row>
-    <row r="29" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="92" t="s">
         <v>98</v>
       </c>
@@ -1806,20 +1806,20 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.81640625" customWidth="1"/>
-    <col min="2" max="2" width="5.81640625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="47.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="12.26953125" customWidth="1"/>
-    <col min="15" max="15" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="47.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="12.28515625" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>105</v>
       </c>
@@ -1836,12 +1836,12 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>1</v>
       </c>
@@ -1877,7 +1877,7 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1887,26 +1887,26 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C7" s="15" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="16">
         <f>SUM(Calcs!D38, Calcs!D50)</f>
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="E7" s="16">
         <f>SUM(Calcs!E38, Calcs!E50)</f>
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="F7" s="16">
         <f>SUM(Calcs!F38, Calcs!F50)</f>
-        <v>54570</v>
+        <v>69400</v>
       </c>
       <c r="G7" s="16">
         <f>SUM(Calcs!G38, Calcs!G50)</f>
@@ -1928,7 +1928,7 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C8" s="17" t="s">
         <v>20</v>
       </c>
@@ -1964,7 +1964,7 @@
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C9" s="17" t="s">
         <v>8</v>
       </c>
@@ -2000,7 +2000,7 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C10" s="17" t="s">
         <v>21</v>
       </c>
@@ -2035,7 +2035,7 @@
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C11" s="17" t="s">
         <v>9</v>
       </c>
@@ -2070,7 +2070,7 @@
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C12" s="17" t="s">
         <v>10</v>
       </c>
@@ -2105,7 +2105,7 @@
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C13" s="17" t="s">
         <v>77</v>
       </c>
@@ -2140,7 +2140,7 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C14" s="19" t="s">
         <v>11</v>
       </c>
@@ -2175,7 +2175,7 @@
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C15" s="19" t="s">
         <v>149</v>
       </c>
@@ -2210,7 +2210,7 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C16" s="19" t="s">
         <v>22</v>
       </c>
@@ -2245,18 +2245,18 @@
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="1">
         <f>SUM(Calcs!D62, Calcs!D73)</f>
-        <v>8500</v>
+        <v>10200</v>
       </c>
       <c r="E19" s="1">
         <f>SUM(Calcs!E62, Calcs!E73)</f>
@@ -2285,7 +2285,7 @@
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>14</v>
       </c>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="F20" s="1">
         <f>SUM(Calcs!F63, Calcs!F74)</f>
-        <v>58480</v>
+        <v>76000</v>
       </c>
       <c r="G20" s="1">
         <f>SUM(Calcs!G63, Calcs!G74)</f>
@@ -2320,7 +2320,7 @@
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>15</v>
       </c>
@@ -2330,7 +2330,7 @@
       </c>
       <c r="E21" s="1">
         <f>SUM(Calcs!E64, Calcs!E75)</f>
-        <v>35000</v>
+        <v>42000</v>
       </c>
       <c r="F21" s="1">
         <f>SUM(Calcs!F64, Calcs!F75)</f>
@@ -2355,7 +2355,7 @@
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>129</v>
       </c>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="E22" s="1">
         <f>SUM(Calcs!E65, Calcs!E76)</f>
-        <v>35000</v>
+        <v>42000</v>
       </c>
       <c r="F22" s="1">
         <f>SUM(Calcs!F65, Calcs!F76)</f>
@@ -2390,7 +2390,7 @@
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>16</v>
       </c>
@@ -2425,7 +2425,7 @@
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>99</v>
       </c>
@@ -2460,7 +2460,7 @@
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>150</v>
       </c>
@@ -2470,11 +2470,11 @@
       </c>
       <c r="E25" s="1">
         <f>SUM(Calcs!E68, Calcs!E79)</f>
-        <v>28000</v>
+        <v>33600</v>
       </c>
       <c r="F25" s="1">
         <f>SUM(Calcs!F68, Calcs!F79)</f>
-        <v>44380</v>
+        <v>56350</v>
       </c>
       <c r="G25" s="1">
         <f>SUM(Calcs!G68, Calcs!G79)</f>
@@ -2495,7 +2495,7 @@
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>98</v>
       </c>
@@ -2530,7 +2530,7 @@
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>97</v>
       </c>
@@ -2544,7 +2544,7 @@
       </c>
       <c r="F27" s="1">
         <f>SUM(Calcs!F70, Calcs!F81)</f>
-        <v>47820</v>
+        <v>66120</v>
       </c>
       <c r="G27" s="1">
         <f>SUM(Calcs!G70, Calcs!G81)</f>
@@ -2565,12 +2565,12 @@
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>38</v>
       </c>
@@ -2580,11 +2580,11 @@
       </c>
       <c r="E30" s="1">
         <f>SUM(Calcs!E106:E110)</f>
-        <v>-23100</v>
+        <v>-27720</v>
       </c>
       <c r="F30" s="1">
         <f>SUM(Calcs!F106:F110)</f>
-        <v>-34317</v>
+        <v>-45193.5</v>
       </c>
       <c r="G30" s="1">
         <f>SUM(Calcs!G106:G110)</f>
@@ -2605,17 +2605,17 @@
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>115</v>
       </c>
       <c r="D31" s="1">
         <f>Calcs!D116</f>
-        <v>-11750</v>
+        <v>-14100</v>
       </c>
       <c r="E31" s="1">
         <f>Calcs!E116</f>
-        <v>-40455</v>
+        <v>-48546</v>
       </c>
       <c r="F31" s="1">
         <f>Calcs!F116</f>
@@ -2640,7 +2640,7 @@
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>82</v>
       </c>
@@ -2671,21 +2671,21 @@
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D34" s="7">
         <f>SUM(D7:D16, D19:D27, D30:D32)</f>
-        <v>8225</v>
+        <v>10575</v>
       </c>
       <c r="E34" s="7">
         <f>SUM(E7:E16, E19:E27, E30:E31)</f>
-        <v>49445</v>
+        <v>59334</v>
       </c>
       <c r="F34" s="7">
         <f>SUM(F7:F16, F19:F27, F30:F31)</f>
-        <v>170933</v>
+        <v>222676.5</v>
       </c>
       <c r="G34" s="7">
         <f>SUM(G7:G16, G19:G27, G30:G31)</f>
@@ -2703,7 +2703,7 @@
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
     </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
@@ -2717,7 +2717,7 @@
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
     </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
         <v>74</v>
       </c>
@@ -2737,16 +2737,16 @@
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C37" s="64">
         <f>INDEX(Outputs_Timeline!$D$3:$D$94,MATCH(Inputs!$C$1,Outputs_Timeline!$B$3:$B$94,0),1)</f>
         <v>1.0125</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C38" s="64"/>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
         <v>145</v>
       </c>
@@ -2757,7 +2757,7 @@
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
     </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C40" s="64" t="s">
         <v>143</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C41" s="64" t="s">
         <v>144</v>
       </c>
@@ -2807,21 +2807,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B43" s="6" t="s">
         <v>73</v>
       </c>
       <c r="D43" s="7">
         <f>(D34/12*Inputs!$C$2+D4)*$C$37+D41</f>
-        <v>24983.4375</v>
+        <v>32121.5625</v>
       </c>
       <c r="E43" s="7">
         <f>(E34/12*Inputs!$C$2+E4)*$C$37+E41</f>
-        <v>187564.8125</v>
+        <v>217602.65</v>
       </c>
       <c r="F43" s="7">
         <f>(F34/12*Inputs!$C$2+F4)*$C$37+F41</f>
-        <v>667095.83124999993</v>
+        <v>824266.71250000002</v>
       </c>
       <c r="G43" s="7">
         <f>(G34/12*Inputs!$C$2+G4)*$C$37+G41</f>
@@ -2839,7 +2839,7 @@
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
@@ -2853,36 +2853,36 @@
       <c r="T45" s="8"/>
       <c r="U45" s="8"/>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B46" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C47" s="7">
         <f>SUM(Outputs_Timeline!W:W)</f>
-        <v>879644.08125000016</v>
-      </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.35">
+        <v>1073990.925</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C48" s="52">
         <f>SUM(D43:H43)</f>
-        <v>879644.08124999993</v>
+        <v>1073990.925</v>
       </c>
       <c r="D48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D50" s="2"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -2906,25 +2906,25 @@
       <selection pane="bottomRight" activeCell="R31" sqref="R31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.26953125" customWidth="1"/>
-    <col min="2" max="2" width="6.26953125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="48.453125" customWidth="1"/>
-    <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.26953125" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.81640625" customWidth="1"/>
-    <col min="11" max="11" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.26953125" customWidth="1"/>
-    <col min="13" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="48.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.85546875" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
       <c r="F1" s="50" t="s">
         <v>57</v>
       </c>
@@ -2932,7 +2932,7 @@
       <c r="H1" s="50"/>
       <c r="I1" s="50"/>
     </row>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D2" s="9" t="s">
         <v>43</v>
       </c>
@@ -2962,12 +2962,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>75</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>76</v>
       </c>
@@ -3045,7 +3045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D6" s="1"/>
       <c r="E6" s="3"/>
       <c r="F6" s="10"/>
@@ -3057,7 +3057,7 @@
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D7" s="7" t="s">
         <v>132</v>
       </c>
@@ -3073,7 +3073,7 @@
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="26"/>
@@ -3082,7 +3082,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>53</v>
       </c>
@@ -3094,13 +3094,13 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C10" s="15" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="16">
         <f>SUM(Calcs!D14:H14)</f>
-        <v>60000</v>
+        <v>69000</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="75">
@@ -3118,11 +3118,11 @@
       </c>
       <c r="K10" s="16">
         <f>(IF(Inputs!C4="New York",$H$7,-$H$7)+F10)*$D10</f>
-        <v>28500.000000000004</v>
+        <v>32775</v>
       </c>
       <c r="L10" s="100">
         <f>(IF(Inputs!C4="New York",-$H$7,$H$7)+G10)*D10</f>
-        <v>31500</v>
+        <v>36225</v>
       </c>
       <c r="M10" s="16">
         <f t="shared" ref="M10:N19" si="2">H10*$D10</f>
@@ -3135,13 +3135,13 @@
       <c r="P10" s="101"/>
       <c r="Q10" s="101"/>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C11" s="17" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="18">
         <f>SUM(Calcs!D15:H15)</f>
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="32">
@@ -3159,11 +3159,11 @@
       </c>
       <c r="K11" s="18">
         <f t="shared" ref="K11:K19" si="3">F11*$D11</f>
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="L11" s="18">
         <f t="shared" ref="L11:L18" si="4">G11*$D11</f>
-        <v>900</v>
+        <v>1080</v>
       </c>
       <c r="M11" s="18">
         <f t="shared" si="2"/>
@@ -3174,13 +3174,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C12" s="17" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="18">
         <f>SUM(Calcs!D16:H16)</f>
-        <v>4000</v>
+        <v>4800</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="74">
@@ -3197,11 +3197,11 @@
       </c>
       <c r="K12" s="18">
         <f t="shared" si="3"/>
-        <v>1800</v>
+        <v>2160</v>
       </c>
       <c r="L12" s="18">
         <f t="shared" si="4"/>
-        <v>1800</v>
+        <v>2160</v>
       </c>
       <c r="M12" s="18">
         <f t="shared" si="2"/>
@@ -3209,16 +3209,16 @@
       </c>
       <c r="N12" s="18">
         <f t="shared" si="2"/>
-        <v>400</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.35">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C13" s="17" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="18">
         <f>SUM(Calcs!D17:H17)</f>
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="F13" s="32">
         <v>0.9</v>
@@ -3235,11 +3235,11 @@
       </c>
       <c r="K13" s="18">
         <f t="shared" si="3"/>
-        <v>1800</v>
+        <v>2160</v>
       </c>
       <c r="L13" s="18">
         <f t="shared" si="4"/>
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="M13" s="18">
         <f t="shared" si="2"/>
@@ -3250,13 +3250,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C14" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="18">
         <f>SUM(Calcs!D18:H18)</f>
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="F14" s="32">
         <v>0.65</v>
@@ -3273,11 +3273,11 @@
       </c>
       <c r="K14" s="18">
         <f t="shared" si="3"/>
-        <v>1300</v>
+        <v>1560</v>
       </c>
       <c r="L14" s="18">
         <f t="shared" si="4"/>
-        <v>700</v>
+        <v>840</v>
       </c>
       <c r="M14" s="18">
         <f t="shared" si="2"/>
@@ -3288,13 +3288,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C15" s="17" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="18">
         <f>SUM(Calcs!D19:H19)</f>
-        <v>6000</v>
+        <v>7200</v>
       </c>
       <c r="F15" s="32">
         <v>0.1</v>
@@ -3310,28 +3310,28 @@
       </c>
       <c r="K15" s="18">
         <f t="shared" si="3"/>
-        <v>600</v>
+        <v>720</v>
       </c>
       <c r="L15" s="18">
         <f t="shared" si="4"/>
-        <v>600</v>
+        <v>720</v>
       </c>
       <c r="M15" s="18">
         <f t="shared" si="2"/>
-        <v>4800</v>
+        <v>5760</v>
       </c>
       <c r="N15" s="18">
         <f>I15*$D15</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C16" s="17" t="s">
         <v>77</v>
       </c>
       <c r="D16" s="18">
         <f>SUM(Calcs!D20:H20)</f>
-        <v>4000</v>
+        <v>4800</v>
       </c>
       <c r="F16" s="74">
         <v>0.9</v>
@@ -3348,11 +3348,11 @@
       </c>
       <c r="K16" s="18">
         <f t="shared" si="3"/>
-        <v>3600</v>
+        <v>4320</v>
       </c>
       <c r="L16" s="18">
         <f t="shared" si="4"/>
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="M16" s="18">
         <f t="shared" si="2"/>
@@ -3363,13 +3363,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C17" s="19" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="20">
         <f>SUM(Calcs!D21:H21)</f>
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="F17" s="33">
         <v>0.1</v>
@@ -3386,11 +3386,11 @@
       </c>
       <c r="K17" s="20">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="L17" s="20">
         <f t="shared" si="4"/>
-        <v>9000</v>
+        <v>10800</v>
       </c>
       <c r="M17" s="20">
         <f t="shared" si="2"/>
@@ -3401,13 +3401,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C18" s="19" t="s">
         <v>149</v>
       </c>
       <c r="D18" s="20">
         <f>SUM(Calcs!D22:H22)</f>
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="F18" s="33">
         <v>0.1</v>
@@ -3424,11 +3424,11 @@
       </c>
       <c r="K18" s="20">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L18" s="20">
         <f t="shared" si="4"/>
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="M18" s="20">
         <f t="shared" si="2"/>
@@ -3439,13 +3439,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C19" s="19" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="20">
         <f>SUM(Calcs!D23:H23)</f>
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="F19" s="33">
         <v>0.1</v>
@@ -3462,11 +3462,11 @@
       </c>
       <c r="K19" s="20">
         <f t="shared" si="3"/>
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L19" s="20">
         <f>G19*$D19</f>
-        <v>4500</v>
+        <v>5400</v>
       </c>
       <c r="M19" s="20">
         <f t="shared" si="2"/>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
@@ -3486,7 +3486,7 @@
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="G21" s="48" t="s">
         <v>128</v>
       </c>
@@ -3498,7 +3498,7 @@
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
@@ -3507,7 +3507,7 @@
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
         <v>54</v>
       </c>
@@ -3519,13 +3519,13 @@
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C24" s="15" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="16">
         <f>SUM(Calcs!D26:H26)</f>
-        <v>24570.000000000004</v>
+        <v>36400</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="34">
@@ -3546,11 +3546,11 @@
       </c>
       <c r="K24" s="16">
         <f>(IF(Inputs!C4="New York",$H$7,-$H$7)+F24)*$D24</f>
-        <v>9828.0000000000036</v>
+        <v>14560.000000000004</v>
       </c>
       <c r="L24" s="16">
         <f>(IF(Inputs!C4="New York",-$H$7,$H$7)+G24)*$D24</f>
-        <v>14742.000000000002</v>
+        <v>21840</v>
       </c>
       <c r="M24" s="16">
         <f>H24*$D24</f>
@@ -3561,13 +3561,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C25" s="17" t="s">
         <v>20</v>
       </c>
       <c r="D25" s="18">
         <f>SUM(Calcs!D27:H27)</f>
-        <v>3640</v>
+        <v>4550</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="36">
@@ -3588,11 +3588,11 @@
       </c>
       <c r="K25" s="18">
         <f t="shared" ref="K25:K33" si="8">F25*$D25</f>
-        <v>91.000000000000085</v>
+        <v>113.7500000000001</v>
       </c>
       <c r="L25" s="18">
         <f t="shared" ref="L25:L33" si="9">G25*$D25</f>
-        <v>3549</v>
+        <v>4436.25</v>
       </c>
       <c r="M25" s="18">
         <f t="shared" ref="M25:N33" si="10">H25*$D25</f>
@@ -3603,13 +3603,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C26" s="17" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="18">
         <f>SUM(Calcs!D28:H28)</f>
-        <v>4550</v>
+        <v>6370.0000000000009</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="36">
@@ -3630,11 +3630,11 @@
       </c>
       <c r="K26" s="18">
         <f t="shared" si="8"/>
-        <v>1768.2954545454545</v>
+        <v>2475.6136363636365</v>
       </c>
       <c r="L26" s="18">
         <f t="shared" si="9"/>
-        <v>2388.75</v>
+        <v>3344.2500000000005</v>
       </c>
       <c r="M26" s="18">
         <f t="shared" si="10"/>
@@ -3642,16 +3642,16 @@
       </c>
       <c r="N26" s="18">
         <f t="shared" si="10"/>
-        <v>392.95454545454538</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
+        <v>550.13636363636363</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C27" s="17" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="18">
         <f>SUM(Calcs!D29:H29)</f>
-        <v>3640</v>
+        <v>4550</v>
       </c>
       <c r="F27" s="36">
         <f t="shared" ref="F27:F33" si="11">(1-G27)*F13/SUM(F13,H13)</f>
@@ -3671,11 +3671,11 @@
       </c>
       <c r="K27" s="18">
         <f t="shared" si="8"/>
-        <v>3003</v>
+        <v>3753.75</v>
       </c>
       <c r="L27" s="18">
         <f t="shared" si="9"/>
-        <v>637</v>
+        <v>796.25</v>
       </c>
       <c r="M27" s="18">
         <f t="shared" si="10"/>
@@ -3686,13 +3686,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C28" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="18">
         <f>SUM(Calcs!D30:H30)</f>
-        <v>3640</v>
+        <v>4550</v>
       </c>
       <c r="F28" s="36">
         <f t="shared" si="11"/>
@@ -3712,11 +3712,11 @@
       </c>
       <c r="K28" s="18">
         <f t="shared" si="8"/>
-        <v>2093</v>
+        <v>2616.25</v>
       </c>
       <c r="L28" s="18">
         <f t="shared" si="9"/>
-        <v>1547</v>
+        <v>1933.75</v>
       </c>
       <c r="M28" s="18">
         <f t="shared" si="10"/>
@@ -3727,13 +3727,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C29" s="17" t="s">
         <v>10</v>
       </c>
       <c r="D29" s="18">
         <f>SUM(Calcs!D31:H31)</f>
-        <v>4550</v>
+        <v>6370.0000000000009</v>
       </c>
       <c r="F29" s="36">
         <f t="shared" si="11"/>
@@ -3753,28 +3753,28 @@
       </c>
       <c r="K29" s="18">
         <f t="shared" si="8"/>
-        <v>417.08333333333337</v>
+        <v>583.91666666666674</v>
       </c>
       <c r="L29" s="18">
         <f t="shared" si="9"/>
-        <v>796.25</v>
+        <v>1114.75</v>
       </c>
       <c r="M29" s="18">
         <f t="shared" si="10"/>
-        <v>3336.666666666667</v>
+        <v>4671.3333333333339</v>
       </c>
       <c r="N29" s="18">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C30" s="17" t="s">
         <v>77</v>
       </c>
       <c r="D30" s="18">
         <f>SUM(Calcs!D32:H32)</f>
-        <v>4550</v>
+        <v>6370.0000000000009</v>
       </c>
       <c r="F30" s="36">
         <f t="shared" si="11"/>
@@ -3794,11 +3794,11 @@
       </c>
       <c r="K30" s="18">
         <f t="shared" si="8"/>
-        <v>3753.75</v>
+        <v>5255.2500000000009</v>
       </c>
       <c r="L30" s="18">
         <f t="shared" si="9"/>
-        <v>796.25</v>
+        <v>1114.75</v>
       </c>
       <c r="M30" s="18">
         <f t="shared" si="10"/>
@@ -3809,7 +3809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C31" s="19" t="s">
         <v>11</v>
       </c>
@@ -3850,13 +3850,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C32" s="19" t="s">
         <v>149</v>
       </c>
       <c r="D32" s="20">
         <f>SUM(Calcs!D34:H34)</f>
-        <v>6370.0000000000009</v>
+        <v>9100</v>
       </c>
       <c r="F32" s="37">
         <f t="shared" si="11"/>
@@ -3876,11 +3876,11 @@
       </c>
       <c r="K32" s="20">
         <f t="shared" si="8"/>
-        <v>159.25000000000017</v>
+        <v>227.5000000000002</v>
       </c>
       <c r="L32" s="20">
         <f t="shared" si="9"/>
-        <v>6210.7500000000009</v>
+        <v>8872.5</v>
       </c>
       <c r="M32" s="20">
         <f t="shared" si="10"/>
@@ -3891,7 +3891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C33" s="28" t="s">
         <v>22</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
@@ -3941,7 +3941,7 @@
       <c r="L34" s="9"/>
       <c r="M34" s="9"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="s">
         <v>46</v>
       </c>
@@ -3953,13 +3953,13 @@
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C36" s="17" t="s">
         <v>13</v>
       </c>
       <c r="D36" s="18">
         <f>SUM(Calcs!D84:H84)</f>
-        <v>8500</v>
+        <v>10200</v>
       </c>
       <c r="F36" s="32">
         <v>0.9</v>
@@ -3976,11 +3976,11 @@
       </c>
       <c r="K36" s="18">
         <f t="shared" ref="K36:N44" si="12">F36*$D36</f>
-        <v>7650</v>
+        <v>9180</v>
       </c>
       <c r="L36" s="18">
         <f t="shared" si="12"/>
-        <v>850</v>
+        <v>1020</v>
       </c>
       <c r="M36" s="18">
         <f t="shared" si="12"/>
@@ -3991,13 +3991,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C37" s="17" t="s">
         <v>14</v>
       </c>
       <c r="D37" s="18">
         <f>SUM(Calcs!D85:H85)</f>
-        <v>14000</v>
+        <v>16800</v>
       </c>
       <c r="F37" s="32">
         <v>0.9</v>
@@ -4014,11 +4014,11 @@
       </c>
       <c r="K37" s="18">
         <f t="shared" si="12"/>
-        <v>12600</v>
+        <v>15120</v>
       </c>
       <c r="L37" s="18">
         <f t="shared" si="12"/>
-        <v>1400</v>
+        <v>1680</v>
       </c>
       <c r="M37" s="18">
         <f t="shared" si="12"/>
@@ -4029,13 +4029,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C38" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D38" s="20">
         <f>SUM(Calcs!D86:H86)</f>
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="F38" s="33">
         <v>0.1</v>
@@ -4052,11 +4052,11 @@
       </c>
       <c r="K38" s="20">
         <f t="shared" si="12"/>
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="L38" s="20">
         <f t="shared" si="12"/>
-        <v>9000</v>
+        <v>10800</v>
       </c>
       <c r="M38" s="20">
         <f t="shared" si="12"/>
@@ -4067,13 +4067,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C39" s="19" t="s">
         <v>129</v>
       </c>
       <c r="D39" s="20">
         <f>SUM(Calcs!D87:H87)</f>
-        <v>35000</v>
+        <v>42000</v>
       </c>
       <c r="F39" s="33">
         <v>0.1</v>
@@ -4089,11 +4089,11 @@
       </c>
       <c r="K39" s="20">
         <f t="shared" ref="K39" si="14">F39*$D39</f>
-        <v>3500</v>
+        <v>4200</v>
       </c>
       <c r="L39" s="20">
         <f t="shared" ref="L39" si="15">G39*$D39</f>
-        <v>31500</v>
+        <v>37800</v>
       </c>
       <c r="M39" s="20">
         <f t="shared" ref="M39" si="16">H39*$D39</f>
@@ -4104,7 +4104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C40" s="19" t="s">
         <v>16</v>
       </c>
@@ -4142,7 +4142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C41" s="19" t="s">
         <v>99</v>
       </c>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C42" s="19" t="s">
         <v>150</v>
       </c>
       <c r="D42" s="20">
         <f>SUM(Calcs!D90:H90)</f>
-        <v>46000</v>
+        <v>55200</v>
       </c>
       <c r="F42" s="33">
         <v>0.1</v>
@@ -4203,11 +4203,11 @@
       </c>
       <c r="K42" s="20">
         <f t="shared" ref="K42" si="29">F42*$D42</f>
-        <v>4600</v>
+        <v>5520</v>
       </c>
       <c r="L42" s="20">
         <f t="shared" ref="L42" si="30">G42*$D42</f>
-        <v>41400</v>
+        <v>49680</v>
       </c>
       <c r="M42" s="20">
         <f t="shared" ref="M42" si="31">H42*$D42</f>
@@ -4218,7 +4218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C43" s="19" t="s">
         <v>98</v>
       </c>
@@ -4256,13 +4256,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C44" s="81" t="s">
         <v>97</v>
       </c>
       <c r="D44" s="84">
         <f>SUM(Calcs!D92:H92)</f>
-        <v>9600</v>
+        <v>11520</v>
       </c>
       <c r="F44" s="85">
         <v>0.1</v>
@@ -4279,11 +4279,11 @@
       </c>
       <c r="K44" s="84">
         <f t="shared" si="12"/>
-        <v>960</v>
+        <v>1152</v>
       </c>
       <c r="L44" s="84">
         <f t="shared" si="12"/>
-        <v>8640</v>
+        <v>10368</v>
       </c>
       <c r="M44" s="84">
         <f t="shared" si="12"/>
@@ -4294,12 +4294,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
       <c r="M45" s="9"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="6" t="s">
         <v>55</v>
       </c>
@@ -4311,7 +4311,7 @@
       <c r="L46" s="9"/>
       <c r="M46" s="9"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C47" s="28" t="s">
         <v>13</v>
       </c>
@@ -4351,13 +4351,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C48" s="17" t="s">
         <v>14</v>
       </c>
       <c r="D48" s="18">
         <f>SUM(Calcs!D96:H96)</f>
-        <v>910.00000000000364</v>
+        <v>3640</v>
       </c>
       <c r="F48" s="30">
         <f t="shared" si="33"/>
@@ -4376,11 +4376,11 @@
       </c>
       <c r="K48" s="18">
         <f>F48*$D48</f>
-        <v>750.75000000000296</v>
+        <v>3003</v>
       </c>
       <c r="L48" s="18">
         <f t="shared" si="36"/>
-        <v>159.25000000000063</v>
+        <v>637</v>
       </c>
       <c r="M48" s="18">
         <f t="shared" ref="M48:N51" si="37">H48*$D48</f>
@@ -4391,7 +4391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C49" s="19" t="s">
         <v>15</v>
       </c>
@@ -4431,7 +4431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C50" s="19" t="s">
         <v>129</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C51" s="19" t="s">
         <v>16</v>
       </c>
@@ -4511,7 +4511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C52" s="19" t="s">
         <v>99</v>
       </c>
@@ -4551,13 +4551,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C53" s="19" t="s">
         <v>150</v>
       </c>
       <c r="D53" s="20">
         <f>SUM(Calcs!D101:H101)</f>
-        <v>10010</v>
+        <v>13650</v>
       </c>
       <c r="F53" s="31">
         <f t="shared" si="33"/>
@@ -4576,11 +4576,11 @@
       </c>
       <c r="K53" s="20">
         <f t="shared" ref="K53" si="47">F53*$D53</f>
-        <v>250.25000000000023</v>
+        <v>341.25000000000028</v>
       </c>
       <c r="L53" s="20">
         <f t="shared" ref="L53" si="48">G53*$D53</f>
-        <v>9759.75</v>
+        <v>13308.75</v>
       </c>
       <c r="M53" s="20">
         <f t="shared" ref="M53" si="49">H53*$D53</f>
@@ -4591,7 +4591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C54" s="19" t="s">
         <v>98</v>
       </c>
@@ -4631,13 +4631,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C55" s="81" t="s">
         <v>97</v>
       </c>
       <c r="D55" s="84">
         <f>SUM(Calcs!D103:H103)</f>
-        <v>38220</v>
+        <v>54600</v>
       </c>
       <c r="F55" s="87">
         <f t="shared" ref="F55" si="54">IFERROR((1-G55)*F44/SUM(F44,H44),0)</f>
@@ -4656,11 +4656,11 @@
       </c>
       <c r="K55" s="84">
         <f t="shared" ref="K55" si="57">F55*$D55</f>
-        <v>955.5000000000008</v>
+        <v>1365.0000000000011</v>
       </c>
       <c r="L55" s="84">
         <f t="shared" ref="L55" si="58">G55*$D55</f>
-        <v>37264.5</v>
+        <v>53235</v>
       </c>
       <c r="M55" s="84">
         <f t="shared" ref="M55" si="59">H55*$D55</f>
@@ -4671,12 +4671,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="K56" s="9"/>
       <c r="L56" s="9"/>
       <c r="M56" s="9"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="6" t="s">
         <v>37</v>
       </c>
@@ -4684,89 +4684,89 @@
       <c r="L57" s="9"/>
       <c r="M57" s="9"/>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>38</v>
       </c>
       <c r="D58" s="1">
         <f>SUM(Outputs_External!D30:'Outputs_External'!H30)</f>
-        <v>-57417</v>
+        <v>-72913.5</v>
       </c>
       <c r="F58" s="8">
         <f>IFERROR(SUM(K72:K80)/SUM($K$72:$N$80), 0)</f>
-        <v>0.21718853780708902</v>
+        <v>0.21695509972070098</v>
       </c>
       <c r="G58" s="8">
         <f t="shared" ref="G58:I58" si="61">IFERROR(SUM(L72:L80)/SUM($K$72:$N$80), 0)</f>
-        <v>0.7480901727764665</v>
+        <v>0.74791611216831821</v>
       </c>
       <c r="H58" s="8">
         <f t="shared" si="61"/>
-        <v>3.1638022655986732E-2</v>
+        <v>3.1971475567270466E-2</v>
       </c>
       <c r="I58" s="8">
         <f t="shared" si="61"/>
-        <v>3.0832667604578324E-3</v>
+        <v>3.1573125437103122E-3</v>
       </c>
       <c r="K58" s="12">
         <f>F58*$D$58</f>
-        <v>-12470.314275269631</v>
+        <v>-15818.955663485331</v>
       </c>
       <c r="L58" s="12">
         <f>G58*$D$58</f>
-        <v>-42953.093450306376</v>
+        <v>-54533.181444584668</v>
       </c>
       <c r="M58" s="12">
         <f>H58*$D$58</f>
-        <v>-1816.5603468387901</v>
+        <v>-2331.1521837741752</v>
       </c>
       <c r="N58" s="12">
         <f>I58*$D$58</f>
-        <v>-177.03192758520737</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.35">
+        <v>-230.21070815582186</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>115</v>
       </c>
       <c r="D59" s="1">
         <f>SUM(Outputs_External!D31:'Outputs_External'!H31)</f>
-        <v>-52205</v>
+        <v>-62646</v>
       </c>
       <c r="F59" s="3">
         <f>IFERROR(SUM(K10:K58)/SUM($K10:$N58), 0)</f>
-        <v>0.28877958067691456</v>
+        <v>0.28672184236256343</v>
       </c>
       <c r="G59" s="3">
         <f>IFERROR(SUM(L10:L58)/SUM($K10:$N58), 0)</f>
-        <v>0.68682638508260951</v>
+        <v>0.68846994704044473</v>
       </c>
       <c r="H59" s="3">
         <f>IFERROR(SUM(M10:M58)/SUM($K10:$N58), 0)</f>
-        <v>2.2227832575986175E-2</v>
+        <v>2.2578493071370578E-2</v>
       </c>
       <c r="I59" s="3">
         <f>1-F59-G59-H59</f>
-        <v>2.166201664489751E-3</v>
+        <v>2.2297175256212089E-3</v>
       </c>
       <c r="K59" s="12">
         <f>F59*$D$59</f>
-        <v>-15075.738009238325</v>
+        <v>-17961.97653664515</v>
       </c>
       <c r="L59" s="12">
         <f>G59*$D$59</f>
-        <v>-35855.771433237627</v>
+        <v>-43129.888302295702</v>
       </c>
       <c r="M59" s="12">
         <f>H59*$D$59</f>
-        <v>-1160.4039996293582</v>
+        <v>-1414.4522769490811</v>
       </c>
       <c r="N59" s="12">
         <f>I59*$D$59</f>
-        <v>-113.08655789468745</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.35">
+        <v>-139.68288411006625</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>82</v>
       </c>
@@ -4804,56 +4804,56 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="K61" s="9"/>
       <c r="L61" s="9"/>
       <c r="M61" s="9"/>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D62" s="1">
         <f>SUM(Outputs_External!D34:'Outputs_External'!H34)</f>
-        <v>228603</v>
+        <v>292585.5</v>
       </c>
       <c r="K62" s="12">
         <f>SUM(K58:K60, K36:K44, K10:K19,K24:K33,K47:K55)</f>
-        <v>64986.326503370838</v>
+        <v>82853.848102899821</v>
       </c>
       <c r="L62" s="12">
         <f>SUM(L58:L60, L36:L44, L10:L19,L24:L33,L47:L55)</f>
-        <v>157954.13511645599</v>
+        <v>202385.68025311962</v>
       </c>
       <c r="M62" s="12">
         <f>SUM(M58:M60, M36:M44, M10:M19,M24:M33,M47:M55)</f>
-        <v>5159.7023201985185</v>
+        <v>6685.7288726100778</v>
       </c>
       <c r="N62" s="12">
         <f>SUM(N58:N60, N36:N44, N10:N19,N24:N33,N47:N55)</f>
-        <v>502.83605997465054</v>
-      </c>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.35">
+        <v>660.24277137047557</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C63" s="21" t="s">
         <v>56</v>
       </c>
       <c r="D63" s="23">
         <f>SUM(K62:N62)</f>
-        <v>228603</v>
+        <v>292585.49999999994</v>
       </c>
       <c r="K63" s="12"/>
       <c r="L63" s="12"/>
       <c r="M63" s="12"/>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C64" s="21"/>
       <c r="D64" s="23"/>
       <c r="K64" s="12"/>
       <c r="L64" s="12"/>
       <c r="M64" s="12"/>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="6" t="s">
         <v>147</v>
       </c>
@@ -4894,61 +4894,61 @@
         <v>127959.97500000001</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="K66" s="9"/>
       <c r="L66" s="9"/>
       <c r="M66" s="9"/>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="6" t="s">
         <v>70</v>
       </c>
       <c r="D67" s="7">
         <f>SUM(Outputs_Timeline!W:W)</f>
-        <v>879644.08125000016</v>
+        <v>1073990.925</v>
       </c>
       <c r="K67" s="12">
         <f>SUM(Outputs_Timeline!X:X)</f>
-        <v>217947.21362898886</v>
+        <v>272219.81048755813</v>
       </c>
       <c r="L67" s="12">
         <f>SUM(Outputs_Timeline!Y:Y)</f>
-        <v>516536.93229123508</v>
+        <v>651497.75064385089</v>
       </c>
       <c r="M67" s="12">
         <f>SUM(Outputs_Timeline!Z:Z)</f>
-        <v>15672.595797603002</v>
+        <v>20307.901450553109</v>
       </c>
       <c r="N67" s="12">
         <f>SUM(Outputs_Timeline!AA:AA)</f>
-        <v>129487.33953217301</v>
-      </c>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.35">
+        <v>129965.4624180378</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D68" s="1"/>
       <c r="K68" s="53">
         <f>IFERROR(K67/$D$67, 0)</f>
-        <v>0.24776749855382355</v>
+        <v>0.25346565241001279</v>
       </c>
       <c r="L68" s="53">
         <f>IFERROR(L67/$D$67, 0)</f>
-        <v>0.58721128613429752</v>
+        <v>0.60661383208973652</v>
       </c>
       <c r="M68" s="53">
         <f>IFERROR(M67/$D$67, 0)</f>
-        <v>1.7816974082667369E-2</v>
+        <v>1.8908820342735305E-2</v>
       </c>
       <c r="N68" s="53">
         <f>IFERROR(N67/$D$67, 0)</f>
-        <v>0.14720424122921133</v>
-      </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.35">
+        <v>0.12101169515751523</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="K70" s="9"/>
       <c r="L70" s="9"/>
       <c r="M70" s="9"/>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="27" t="s">
         <v>52</v>
       </c>
@@ -4964,14 +4964,14 @@
       <c r="L71" s="22"/>
       <c r="M71" s="22"/>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="27"/>
       <c r="C72" s="21" t="s">
         <v>13</v>
       </c>
       <c r="D72" s="23">
         <f>SUM(Calcs!D62:H62)+SUM(Calcs!D73:H73)</f>
-        <v>8500</v>
+        <v>10200</v>
       </c>
       <c r="E72" s="21"/>
       <c r="F72" s="24">
@@ -4993,11 +4993,11 @@
       <c r="J72" s="21"/>
       <c r="K72" s="25">
         <f t="shared" ref="K72:N74" si="63">F72*$D72</f>
-        <v>7650</v>
+        <v>9180</v>
       </c>
       <c r="L72" s="25">
         <f t="shared" si="63"/>
-        <v>850</v>
+        <v>1020</v>
       </c>
       <c r="M72" s="25">
         <f t="shared" si="63"/>
@@ -5008,67 +5008,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="27"/>
       <c r="C73" s="21" t="s">
         <v>14</v>
       </c>
       <c r="D73" s="23">
         <f>SUM(Calcs!D63:H63)+SUM(Calcs!D74:H74)</f>
-        <v>58480</v>
+        <v>76000</v>
       </c>
       <c r="E73" s="21"/>
       <c r="F73" s="24">
         <f>IFERROR(SUM(K$37,K$11:K$16,K$48,K$25:K$30)/SUM($K$37:$N$37,$K$11:$N$16,$K$48:$N$48,$K$25:$N$30),0)</f>
-        <v>0.57587002031256485</v>
+        <v>0.57844118819776702</v>
       </c>
       <c r="G73" s="24">
         <f>IFERROR(SUM(L$37,L$11:L$16,L$48,L$25:L$30)/SUM($K$37:$N$37,$K$11:$N$16,$K$48:$N$48,$K$25:$N$30),0)</f>
-        <v>0.2714346785225718</v>
+        <v>0.27074999999999999</v>
       </c>
       <c r="H73" s="24">
         <f>IFERROR(SUM(M$37,M$11:M$16,M$48,M$25:M$30)/SUM($K$37:$N$37,$K$11:$N$16,$K$48:$N$48,$K$25:$N$30),0)</f>
-        <v>0.13913588691290471</v>
+        <v>0.1372543859649123</v>
       </c>
       <c r="I73" s="24">
         <f>IFERROR(SUM(N$37,N$11:N$16,N$48,N$25:N$30)/SUM($K$37:$N$37,$K$11:$N$16,$K$48:$N$48,$K$25:$N$30),0)</f>
-        <v>1.355941425195871E-2</v>
+        <v>1.3554425837320572E-2</v>
       </c>
       <c r="J73" s="21"/>
       <c r="K73" s="25">
         <f t="shared" si="63"/>
-        <v>33676.878787878792</v>
+        <v>43961.530303030297</v>
       </c>
       <c r="L73" s="25">
         <f t="shared" si="63"/>
-        <v>15873.5</v>
+        <v>20577</v>
       </c>
       <c r="M73" s="25">
         <f t="shared" si="63"/>
-        <v>8136.6666666666679</v>
+        <v>10431.333333333334</v>
       </c>
       <c r="N73" s="25">
         <f t="shared" si="63"/>
-        <v>792.95454545454538</v>
-      </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.35">
+        <v>1030.1363636363635</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="27"/>
       <c r="C74" s="21" t="s">
         <v>15</v>
       </c>
       <c r="D74" s="23">
         <f>SUM(Calcs!D64:H64)+SUM(Calcs!D75:H75)</f>
-        <v>35000</v>
+        <v>42000</v>
       </c>
       <c r="E74" s="21"/>
       <c r="F74" s="24">
         <f>IFERROR(SUM(K38,K17:K19,K49,K31:K33)/SUM($K$38:$N$38,$K$17:$M$19,$K$49:$N$49,$K$31:$N$33),0)</f>
-        <v>9.0699824800467205E-2</v>
+        <v>8.9183835182250398E-2</v>
       </c>
       <c r="G74" s="24">
         <f>IFERROR(SUM(L38,L17:L19,L49,L31:L33)/SUM($K$38:$N$38,$K$17:$M$19,$K$49:$N$49,$K$31:$N$33),0)</f>
-        <v>0.90930017519953277</v>
+        <v>0.91081616481774963</v>
       </c>
       <c r="H74" s="24">
         <f>IFERROR(SUM(M38,M17:M19,M49,M31:M33)/SUM($K$38:$N$38,$K$17:$M$19,$K$49:$N$49,$K$31:$N$33),0)</f>
@@ -5081,11 +5081,11 @@
       <c r="J74" s="21"/>
       <c r="K74" s="25">
         <f t="shared" si="63"/>
-        <v>3174.4938680163523</v>
+        <v>3745.7210776545166</v>
       </c>
       <c r="L74" s="25">
         <f t="shared" si="63"/>
-        <v>31825.506131983646</v>
+        <v>38254.278922345482</v>
       </c>
       <c r="M74" s="25">
         <f t="shared" si="63"/>
@@ -5096,23 +5096,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="27"/>
       <c r="C75" s="21" t="s">
         <v>152</v>
       </c>
       <c r="D75" s="23">
         <f>SUM(Calcs!D65:H65)+SUM(Calcs!D76:H76)</f>
-        <v>35000</v>
+        <v>42000</v>
       </c>
       <c r="E75" s="21"/>
       <c r="F75" s="24">
         <f>IFERROR(SUM(K39,K17:K19,K50,K31:K33)/SUM($K$39:$N$39,$K$17:$M$19,$K$50:$N$50,$K$31:$N$33),0)</f>
-        <v>9.3744271310724103E-2</v>
+        <v>9.2669172932330832E-2</v>
       </c>
       <c r="G75" s="24">
         <f t="shared" ref="G75:I75" si="64">IFERROR(SUM(L39,L17:L19,L50,L31:L33)/SUM($K$39:$N$39,$K$17:$M$19,$K$50:$N$50,$K$31:$N$33),0)</f>
-        <v>0.90625572868927584</v>
+        <v>0.90733082706766921</v>
       </c>
       <c r="H75" s="24">
         <f t="shared" si="64"/>
@@ -5125,11 +5125,11 @@
       <c r="J75" s="21"/>
       <c r="K75" s="25">
         <f t="shared" ref="K75" si="65">F75*$D75</f>
-        <v>3281.0494958753438</v>
+        <v>3892.105263157895</v>
       </c>
       <c r="L75" s="25">
         <f t="shared" ref="L75" si="66">G75*$D75</f>
-        <v>31718.950504124656</v>
+        <v>38107.894736842107</v>
       </c>
       <c r="M75" s="25">
         <f t="shared" ref="M75" si="67">H75*$D75</f>
@@ -5140,7 +5140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="27"/>
       <c r="C76" s="21" t="s">
         <v>16</v>
@@ -5184,7 +5184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="27"/>
       <c r="C77" s="21" t="s">
         <v>99</v>
@@ -5228,26 +5228,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="27"/>
       <c r="C78" s="21" t="s">
         <v>150</v>
       </c>
       <c r="D78" s="23">
         <f>SUM(Calcs!D68:H68)+SUM(Calcs!D79:H79)</f>
-        <v>72380</v>
+        <v>89950</v>
       </c>
       <c r="E78" s="21"/>
       <c r="F78" s="24">
         <f>IFERROR(SUM(K42,K18,K53,K32)/SUM($K$42:$N$42,$K$18:$N$18,$K$53:$N$53,$K$32:$N$32),0)</f>
-        <v>8.508739985433357E-2</v>
+        <v>8.3263854830799414E-2</v>
       </c>
       <c r="G78" s="24">
         <f>IFERROR(SUM(L42,L18,L53,L32)/SUM($K$42:$N$42,$K$18:$N$18,$K$53:$N$53,$K$32:$N$32),0)</f>
-        <v>0.91491260014566644</v>
+        <v>0.91673614516920054</v>
       </c>
       <c r="H78" s="24">
-        <f t="shared" ref="G78:I78" si="78">IFERROR(SUM(M42,M18,M53,M32)/SUM($K$42:$N$42,$K$18:$N$18,$K$53:$N$53,$K$32:$N$32),0)</f>
+        <f t="shared" ref="H78" si="78">IFERROR(SUM(M42,M18,M53,M32)/SUM($K$42:$N$42,$K$18:$N$18,$K$53:$N$53,$K$32:$N$32),0)</f>
         <v>0</v>
       </c>
       <c r="I78" s="24">
@@ -5257,11 +5257,11 @@
       <c r="J78" s="21"/>
       <c r="K78" s="25">
         <f t="shared" ref="K78" si="79">F78*$D78</f>
-        <v>6158.6260014566642</v>
+        <v>7489.5837420304069</v>
       </c>
       <c r="L78" s="25">
         <f t="shared" ref="L78" si="80">G78*$D78</f>
-        <v>66221.373998543335</v>
+        <v>82460.416257969584</v>
       </c>
       <c r="M78" s="25">
         <f t="shared" ref="M78" si="81">H78*$D78</f>
@@ -5272,7 +5272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="27"/>
       <c r="C79" s="21" t="s">
         <v>98</v>
@@ -5316,23 +5316,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="27"/>
       <c r="C80" s="21" t="s">
         <v>97</v>
       </c>
       <c r="D80" s="23">
         <f>SUM(Calcs!D70:H70)+SUM(Calcs!D81:H81)</f>
-        <v>47820</v>
+        <v>66120</v>
       </c>
       <c r="E80" s="21"/>
       <c r="F80" s="24">
         <f t="shared" ref="F80" si="84">IFERROR(SUM(K44,K55)/SUM($K44:$N44,$K55:$N55),0)</f>
-        <v>4.0056461731493118E-2</v>
+        <v>3.8067150635208727E-2</v>
       </c>
       <c r="G80" s="24">
         <f t="shared" ref="G80" si="85">IFERROR(SUM(L44,L55)/SUM($K44:$N44,$K55:$N55),0)</f>
-        <v>0.95994353826850687</v>
+        <v>0.96193284936479129</v>
       </c>
       <c r="H80" s="24">
         <f t="shared" ref="H80" si="86">IFERROR(SUM(M44,M55)/SUM($K44:$N44,$K55:$N55),0)</f>
@@ -5345,11 +5345,11 @@
       <c r="J80" s="21"/>
       <c r="K80" s="25">
         <f t="shared" si="70"/>
-        <v>1915.5000000000009</v>
+        <v>2517.0000000000009</v>
       </c>
       <c r="L80" s="25">
         <f t="shared" si="71"/>
-        <v>45904.5</v>
+        <v>63603</v>
       </c>
       <c r="M80" s="25">
         <f t="shared" si="72"/>
@@ -5377,30 +5377,30 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.54296875" customWidth="1"/>
-    <col min="2" max="2" width="10.1796875" style="60" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.453125" style="60" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" style="60" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="60" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="60" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7265625" style="60" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.54296875" style="60" customWidth="1"/>
-    <col min="9" max="13" width="8.7265625" style="63"/>
-    <col min="14" max="14" width="10.1796875" style="63" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.453125" customWidth="1"/>
-    <col min="16" max="16" width="10.453125" style="63" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="8.7265625" style="63"/>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="60" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" style="60" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="60" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="60" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="60" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="60" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.5703125" style="60" customWidth="1"/>
+    <col min="9" max="13" width="8.7109375" style="63"/>
+    <col min="14" max="14" width="10.140625" style="63" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.42578125" customWidth="1"/>
+    <col min="16" max="16" width="10.42578125" style="63" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="8.7109375" style="63"/>
     <col min="19" max="19" width="14" style="63" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.81640625" style="63" customWidth="1"/>
-    <col min="21" max="21" width="14.81640625" style="63" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.54296875" customWidth="1"/>
-    <col min="26" max="27" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="34" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.85546875" style="63" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="63" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.5703125" customWidth="1"/>
+    <col min="26" max="27" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="34" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:34" x14ac:dyDescent="0.25">
       <c r="F1" s="65">
         <f>COUNTIF(F3:F94,"&gt;0")</f>
         <v>36</v>
@@ -5436,7 +5436,7 @@
       <c r="AG1" s="107"/>
       <c r="AH1" s="107"/>
     </row>
-    <row r="2" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B2" s="59" t="s">
         <v>61</v>
       </c>
@@ -5519,7 +5519,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B3" s="60">
         <v>42917</v>
       </c>
@@ -5608,7 +5608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B4" s="60">
         <f>EDATE(B3,1)</f>
         <v>42948</v>
@@ -5694,7 +5694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B5" s="60">
         <f t="shared" ref="B5:B68" si="1">EDATE(B4,1)</f>
         <v>42979</v>
@@ -5800,7 +5800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B6" s="60">
         <f t="shared" si="1"/>
         <v>43009</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B7" s="60">
         <f t="shared" si="1"/>
         <v>43040</v>
@@ -6012,7 +6012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B8" s="60">
         <f t="shared" si="1"/>
         <v>43070</v>
@@ -6118,7 +6118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B9" s="60">
         <f t="shared" si="1"/>
         <v>43101</v>
@@ -6224,7 +6224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B10" s="60">
         <f t="shared" si="1"/>
         <v>43132</v>
@@ -6330,7 +6330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B11" s="60">
         <f t="shared" si="1"/>
         <v>43160</v>
@@ -6436,7 +6436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B12" s="60">
         <f t="shared" si="1"/>
         <v>43191</v>
@@ -6542,7 +6542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B13" s="60">
         <f t="shared" si="1"/>
         <v>43221</v>
@@ -6648,7 +6648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B14" s="60">
         <f t="shared" si="1"/>
         <v>43252</v>
@@ -6754,7 +6754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B15" s="60">
         <f t="shared" si="1"/>
         <v>43282</v>
@@ -6860,7 +6860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B16" s="60">
         <f t="shared" si="1"/>
         <v>43313</v>
@@ -6966,7 +6966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B17" s="60">
         <f t="shared" si="1"/>
         <v>43344</v>
@@ -7072,7 +7072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B18" s="60">
         <f t="shared" si="1"/>
         <v>43374</v>
@@ -7178,7 +7178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B19" s="60">
         <f t="shared" si="1"/>
         <v>43405</v>
@@ -7284,7 +7284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B20" s="60">
         <f t="shared" si="1"/>
         <v>43435</v>
@@ -7390,7 +7390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B21" s="60">
         <f t="shared" si="1"/>
         <v>43466</v>
@@ -7496,7 +7496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B22" s="60">
         <f t="shared" si="1"/>
         <v>43497</v>
@@ -7602,7 +7602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B23" s="60">
         <f t="shared" si="1"/>
         <v>43525</v>
@@ -7708,7 +7708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B24" s="60">
         <f t="shared" si="1"/>
         <v>43556</v>
@@ -7814,7 +7814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B25" s="60">
         <f t="shared" si="1"/>
         <v>43586</v>
@@ -7920,7 +7920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B26" s="60">
         <f t="shared" si="1"/>
         <v>43617</v>
@@ -8026,7 +8026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B27" s="60">
         <f t="shared" si="1"/>
         <v>43647</v>
@@ -8069,15 +8069,15 @@
       </c>
       <c r="P27" s="63">
         <f>$F27*Outputs_Internal!$D$62/12+N27</f>
-        <v>23413.378124999999</v>
+        <v>28811.901562499999</v>
       </c>
       <c r="Q27" s="63">
         <f>$F27*Outputs_Internal!K$62/12+N27*'MARA Prices'!$F$5</f>
-        <v>5895.7212987219136</v>
+        <v>7403.2934336821718</v>
       </c>
       <c r="R27" s="63">
         <f>$F27*Outputs_Internal!L$62/12+N27*'MARA Prices'!$F$6</f>
-        <v>13739.880150450974</v>
+        <v>17488.791771356966</v>
       </c>
       <c r="S27" s="63">
         <f>N27*'MARA Prices'!$F$4</f>
@@ -8085,11 +8085,11 @@
       </c>
       <c r="T27" s="63">
         <f>$F27*Outputs_Internal!M$62/12</f>
-        <v>435.34988326674994</v>
+        <v>564.10837362647533</v>
       </c>
       <c r="U27" s="63">
         <f>$F27*Outputs_Internal!N$62/12</f>
-        <v>42.426792560361136</v>
+        <v>55.707983834383874</v>
       </c>
       <c r="W27" s="63">
         <f t="shared" si="2"/>
@@ -8132,7 +8132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B28" s="60">
         <f t="shared" si="1"/>
         <v>43678</v>
@@ -8175,15 +8175,15 @@
       </c>
       <c r="P28" s="63">
         <f>$F28*Outputs_Internal!$D$62/12+N28</f>
-        <v>23413.378124999999</v>
+        <v>28811.901562499999</v>
       </c>
       <c r="Q28" s="63">
         <f>$F28*Outputs_Internal!K$62/12+N28*'MARA Prices'!$F$5</f>
-        <v>5895.7212987219136</v>
+        <v>7403.2934336821718</v>
       </c>
       <c r="R28" s="63">
         <f>$F28*Outputs_Internal!L$62/12+N28*'MARA Prices'!$F$6</f>
-        <v>13739.880150450974</v>
+        <v>17488.791771356966</v>
       </c>
       <c r="S28" s="63">
         <f>N28*'MARA Prices'!$F$4</f>
@@ -8191,11 +8191,11 @@
       </c>
       <c r="T28" s="63">
         <f>$F28*Outputs_Internal!M$62/12</f>
-        <v>435.34988326674994</v>
+        <v>564.10837362647533</v>
       </c>
       <c r="U28" s="63">
         <f>$F28*Outputs_Internal!N$62/12</f>
-        <v>42.426792560361136</v>
+        <v>55.707983834383874</v>
       </c>
       <c r="W28" s="63">
         <f t="shared" si="2"/>
@@ -8238,7 +8238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B29" s="60">
         <f t="shared" si="1"/>
         <v>43709</v>
@@ -8281,15 +8281,15 @@
       </c>
       <c r="P29" s="63">
         <f>$F29*Outputs_Internal!$D$62/12+N29</f>
-        <v>23413.378124999999</v>
+        <v>28811.901562499999</v>
       </c>
       <c r="Q29" s="63">
         <f>$F29*Outputs_Internal!K$62/12+N29*'MARA Prices'!$F$5</f>
-        <v>5895.7212987219136</v>
+        <v>7403.2934336821718</v>
       </c>
       <c r="R29" s="63">
         <f>$F29*Outputs_Internal!L$62/12+N29*'MARA Prices'!$F$6</f>
-        <v>13739.880150450974</v>
+        <v>17488.791771356966</v>
       </c>
       <c r="S29" s="63">
         <f>N29*'MARA Prices'!$F$4</f>
@@ -8297,31 +8297,31 @@
       </c>
       <c r="T29" s="63">
         <f>$F29*Outputs_Internal!M$62/12</f>
-        <v>435.34988326674994</v>
+        <v>564.10837362647533</v>
       </c>
       <c r="U29" s="63">
         <f>$F29*Outputs_Internal!N$62/12</f>
-        <v>42.426792560361136</v>
+        <v>55.707983834383874</v>
       </c>
       <c r="W29" s="63">
         <f t="shared" si="2"/>
-        <v>95552.634375000009</v>
+        <v>111748.20468750001</v>
       </c>
       <c r="X29" s="63">
         <f t="shared" si="3"/>
-        <v>22243.413896165741</v>
+        <v>26766.130301046513</v>
       </c>
       <c r="Y29" s="63">
         <f t="shared" si="4"/>
-        <v>61975.890451352927</v>
+        <v>73222.625314070887</v>
       </c>
       <c r="Z29" s="63">
         <f t="shared" si="5"/>
-        <v>1306.0496498002499</v>
+        <v>1692.3251208794259</v>
       </c>
       <c r="AA29" s="63">
         <f t="shared" si="6"/>
-        <v>10027.280377681083</v>
+        <v>10067.123951503152</v>
       </c>
       <c r="AD29" s="63">
         <f>'MARA Prices'!H$21*$G29</f>
@@ -8344,7 +8344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B30" s="60">
         <f t="shared" si="1"/>
         <v>43739</v>
@@ -8387,15 +8387,15 @@
       </c>
       <c r="P30" s="63">
         <f>$F30*Outputs_Internal!$D$62/12+N30</f>
-        <v>23413.378124999999</v>
+        <v>28811.901562499999</v>
       </c>
       <c r="Q30" s="63">
         <f>$F30*Outputs_Internal!K$62/12+N30*'MARA Prices'!$F$5</f>
-        <v>5895.7212987219136</v>
+        <v>7403.2934336821718</v>
       </c>
       <c r="R30" s="63">
         <f>$F30*Outputs_Internal!L$62/12+N30*'MARA Prices'!$F$6</f>
-        <v>13739.880150450974</v>
+        <v>17488.791771356966</v>
       </c>
       <c r="S30" s="63">
         <f>N30*'MARA Prices'!$F$4</f>
@@ -8403,11 +8403,11 @@
       </c>
       <c r="T30" s="63">
         <f>$F30*Outputs_Internal!M$62/12</f>
-        <v>435.34988326674994</v>
+        <v>564.10837362647533</v>
       </c>
       <c r="U30" s="63">
         <f>$F30*Outputs_Internal!N$62/12</f>
-        <v>42.426792560361136</v>
+        <v>55.707983834383874</v>
       </c>
       <c r="W30" s="63">
         <f t="shared" si="2"/>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B31" s="60">
         <f t="shared" si="1"/>
         <v>43770</v>
@@ -8493,15 +8493,15 @@
       </c>
       <c r="P31" s="63">
         <f>$F31*Outputs_Internal!$D$62/12+N31</f>
-        <v>23413.378124999999</v>
+        <v>28811.901562499999</v>
       </c>
       <c r="Q31" s="63">
         <f>$F31*Outputs_Internal!K$62/12+N31*'MARA Prices'!$F$5</f>
-        <v>5895.7212987219136</v>
+        <v>7403.2934336821718</v>
       </c>
       <c r="R31" s="63">
         <f>$F31*Outputs_Internal!L$62/12+N31*'MARA Prices'!$F$6</f>
-        <v>13739.880150450974</v>
+        <v>17488.791771356966</v>
       </c>
       <c r="S31" s="63">
         <f>N31*'MARA Prices'!$F$4</f>
@@ -8509,11 +8509,11 @@
       </c>
       <c r="T31" s="63">
         <f>$F31*Outputs_Internal!M$62/12</f>
-        <v>435.34988326674994</v>
+        <v>564.10837362647533</v>
       </c>
       <c r="U31" s="63">
         <f>$F31*Outputs_Internal!N$62/12</f>
-        <v>42.426792560361136</v>
+        <v>55.707983834383874</v>
       </c>
       <c r="W31" s="63">
         <f t="shared" si="2"/>
@@ -8556,7 +8556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B32" s="60">
         <f t="shared" si="1"/>
         <v>43800</v>
@@ -8599,15 +8599,15 @@
       </c>
       <c r="P32" s="63">
         <f>$F32*Outputs_Internal!$D$62/12+N32</f>
-        <v>23413.378124999999</v>
+        <v>28811.901562499999</v>
       </c>
       <c r="Q32" s="63">
         <f>$F32*Outputs_Internal!K$62/12+N32*'MARA Prices'!$F$5</f>
-        <v>5895.7212987219136</v>
+        <v>7403.2934336821718</v>
       </c>
       <c r="R32" s="63">
         <f>$F32*Outputs_Internal!L$62/12+N32*'MARA Prices'!$F$6</f>
-        <v>13739.880150450974</v>
+        <v>17488.791771356966</v>
       </c>
       <c r="S32" s="63">
         <f>N32*'MARA Prices'!$F$4</f>
@@ -8615,31 +8615,31 @@
       </c>
       <c r="T32" s="63">
         <f>$F32*Outputs_Internal!M$62/12</f>
-        <v>435.34988326674994</v>
+        <v>564.10837362647533</v>
       </c>
       <c r="U32" s="63">
         <f>$F32*Outputs_Internal!N$62/12</f>
-        <v>42.426792560361136</v>
+        <v>55.707983834383874</v>
       </c>
       <c r="W32" s="63">
         <f t="shared" si="2"/>
-        <v>70240.134374999994</v>
+        <v>86435.704687499994</v>
       </c>
       <c r="X32" s="63">
         <f t="shared" si="3"/>
-        <v>17687.163896165741</v>
+        <v>22209.880301046516</v>
       </c>
       <c r="Y32" s="63">
         <f t="shared" si="4"/>
-        <v>41219.64045135292</v>
+        <v>52466.375314070901</v>
       </c>
       <c r="Z32" s="63">
         <f t="shared" si="5"/>
-        <v>1306.0496498002499</v>
+        <v>1692.3251208794259</v>
       </c>
       <c r="AA32" s="63">
         <f t="shared" si="6"/>
-        <v>10027.280377681083</v>
+        <v>10067.123951503152</v>
       </c>
       <c r="AD32" s="63">
         <f>'MARA Prices'!H$21*$G32</f>
@@ -8662,7 +8662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B33" s="60">
         <f t="shared" si="1"/>
         <v>43831</v>
@@ -8705,15 +8705,15 @@
       </c>
       <c r="P33" s="63">
         <f>$F33*Outputs_Internal!$D$62/12+N33</f>
-        <v>23619.628124999999</v>
+        <v>29018.151562499999</v>
       </c>
       <c r="Q33" s="63">
         <f>$F33*Outputs_Internal!K$62/12+N33*'MARA Prices'!$F$5</f>
-        <v>5916.3462987219136</v>
+        <v>7423.9184336821718</v>
       </c>
       <c r="R33" s="63">
         <f>$F33*Outputs_Internal!L$62/12+N33*'MARA Prices'!$F$6</f>
-        <v>13760.505150450974</v>
+        <v>17509.416771356966</v>
       </c>
       <c r="S33" s="63">
         <f>N33*'MARA Prices'!$F$4</f>
@@ -8721,11 +8721,11 @@
       </c>
       <c r="T33" s="63">
         <f>$F33*Outputs_Internal!M$62/12</f>
-        <v>435.34988326674994</v>
+        <v>564.10837362647533</v>
       </c>
       <c r="U33" s="63">
         <f>$F33*Outputs_Internal!N$62/12</f>
-        <v>42.426792560361136</v>
+        <v>55.707983834383874</v>
       </c>
       <c r="W33" s="63">
         <f t="shared" si="2"/>
@@ -8768,7 +8768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B34" s="60">
         <f t="shared" si="1"/>
         <v>43862</v>
@@ -8811,15 +8811,15 @@
       </c>
       <c r="P34" s="63">
         <f>$F34*Outputs_Internal!$D$62/12+N34</f>
-        <v>23619.628124999999</v>
+        <v>29018.151562499999</v>
       </c>
       <c r="Q34" s="63">
         <f>$F34*Outputs_Internal!K$62/12+N34*'MARA Prices'!$F$5</f>
-        <v>5916.3462987219136</v>
+        <v>7423.9184336821718</v>
       </c>
       <c r="R34" s="63">
         <f>$F34*Outputs_Internal!L$62/12+N34*'MARA Prices'!$F$6</f>
-        <v>13760.505150450974</v>
+        <v>17509.416771356966</v>
       </c>
       <c r="S34" s="63">
         <f>N34*'MARA Prices'!$F$4</f>
@@ -8827,11 +8827,11 @@
       </c>
       <c r="T34" s="63">
         <f>$F34*Outputs_Internal!M$62/12</f>
-        <v>435.34988326674994</v>
+        <v>564.10837362647533</v>
       </c>
       <c r="U34" s="63">
         <f>$F34*Outputs_Internal!N$62/12</f>
-        <v>42.426792560361136</v>
+        <v>55.707983834383874</v>
       </c>
       <c r="W34" s="63">
         <f t="shared" si="2"/>
@@ -8874,7 +8874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B35" s="60">
         <f t="shared" si="1"/>
         <v>43891</v>
@@ -8917,15 +8917,15 @@
       </c>
       <c r="P35" s="63">
         <f>$F35*Outputs_Internal!$D$62/12+N35</f>
-        <v>23619.628124999999</v>
+        <v>29018.151562499999</v>
       </c>
       <c r="Q35" s="63">
         <f>$F35*Outputs_Internal!K$62/12+N35*'MARA Prices'!$F$5</f>
-        <v>5916.3462987219136</v>
+        <v>7423.9184336821718</v>
       </c>
       <c r="R35" s="63">
         <f>$F35*Outputs_Internal!L$62/12+N35*'MARA Prices'!$F$6</f>
-        <v>13760.505150450974</v>
+        <v>17509.416771356966</v>
       </c>
       <c r="S35" s="63">
         <f>N35*'MARA Prices'!$F$4</f>
@@ -8933,31 +8933,31 @@
       </c>
       <c r="T35" s="63">
         <f>$F35*Outputs_Internal!M$62/12</f>
-        <v>435.34988326674994</v>
+        <v>564.10837362647533</v>
       </c>
       <c r="U35" s="63">
         <f>$F35*Outputs_Internal!N$62/12</f>
-        <v>42.426792560361136</v>
+        <v>55.707983834383874</v>
       </c>
       <c r="W35" s="63">
         <f t="shared" si="2"/>
-        <v>70858.884374999994</v>
+        <v>87054.454687499994</v>
       </c>
       <c r="X35" s="63">
         <f t="shared" si="3"/>
-        <v>17749.038896165741</v>
+        <v>22271.755301046516</v>
       </c>
       <c r="Y35" s="63">
         <f t="shared" si="4"/>
-        <v>41281.51545135292</v>
+        <v>52528.250314070901</v>
       </c>
       <c r="Z35" s="63">
         <f t="shared" si="5"/>
-        <v>1306.0496498002499</v>
+        <v>1692.3251208794259</v>
       </c>
       <c r="AA35" s="63">
         <f t="shared" si="6"/>
-        <v>10522.280377681083</v>
+        <v>10562.123951503152</v>
       </c>
       <c r="AD35" s="63">
         <f>'MARA Prices'!H$21*$G35</f>
@@ -8980,7 +8980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B36" s="60">
         <f t="shared" si="1"/>
         <v>43922</v>
@@ -9023,15 +9023,15 @@
       </c>
       <c r="P36" s="63">
         <f>$F36*Outputs_Internal!$D$62/12+N36</f>
-        <v>23619.628124999999</v>
+        <v>29018.151562499999</v>
       </c>
       <c r="Q36" s="63">
         <f>$F36*Outputs_Internal!K$62/12+N36*'MARA Prices'!$F$5</f>
-        <v>5916.3462987219136</v>
+        <v>7423.9184336821718</v>
       </c>
       <c r="R36" s="63">
         <f>$F36*Outputs_Internal!L$62/12+N36*'MARA Prices'!$F$6</f>
-        <v>13760.505150450974</v>
+        <v>17509.416771356966</v>
       </c>
       <c r="S36" s="63">
         <f>N36*'MARA Prices'!$F$4</f>
@@ -9039,11 +9039,11 @@
       </c>
       <c r="T36" s="63">
         <f>$F36*Outputs_Internal!M$62/12</f>
-        <v>435.34988326674994</v>
+        <v>564.10837362647533</v>
       </c>
       <c r="U36" s="63">
         <f>$F36*Outputs_Internal!N$62/12</f>
-        <v>42.426792560361136</v>
+        <v>55.707983834383874</v>
       </c>
       <c r="W36" s="63">
         <f t="shared" si="2"/>
@@ -9086,7 +9086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B37" s="60">
         <f t="shared" si="1"/>
         <v>43952</v>
@@ -9129,15 +9129,15 @@
       </c>
       <c r="P37" s="63">
         <f>$F37*Outputs_Internal!$D$62/12+N37</f>
-        <v>23619.628124999999</v>
+        <v>29018.151562499999</v>
       </c>
       <c r="Q37" s="63">
         <f>$F37*Outputs_Internal!K$62/12+N37*'MARA Prices'!$F$5</f>
-        <v>5916.3462987219136</v>
+        <v>7423.9184336821718</v>
       </c>
       <c r="R37" s="63">
         <f>$F37*Outputs_Internal!L$62/12+N37*'MARA Prices'!$F$6</f>
-        <v>13760.505150450974</v>
+        <v>17509.416771356966</v>
       </c>
       <c r="S37" s="63">
         <f>N37*'MARA Prices'!$F$4</f>
@@ -9145,11 +9145,11 @@
       </c>
       <c r="T37" s="63">
         <f>$F37*Outputs_Internal!M$62/12</f>
-        <v>435.34988326674994</v>
+        <v>564.10837362647533</v>
       </c>
       <c r="U37" s="63">
         <f>$F37*Outputs_Internal!N$62/12</f>
-        <v>42.426792560361136</v>
+        <v>55.707983834383874</v>
       </c>
       <c r="W37" s="63">
         <f t="shared" ref="W37:W68" si="7">IF(MOD(MONTH($B37),3)=0,SUM(I35:I37,P35:P37),0)</f>
@@ -9192,7 +9192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B38" s="60">
         <f t="shared" si="1"/>
         <v>43983</v>
@@ -9235,15 +9235,15 @@
       </c>
       <c r="P38" s="63">
         <f>$F38*Outputs_Internal!$D$62/12+N38</f>
-        <v>23619.628124999999</v>
+        <v>29018.151562499999</v>
       </c>
       <c r="Q38" s="63">
         <f>$F38*Outputs_Internal!K$62/12+N38*'MARA Prices'!$F$5</f>
-        <v>5916.3462987219136</v>
+        <v>7423.9184336821718</v>
       </c>
       <c r="R38" s="63">
         <f>$F38*Outputs_Internal!L$62/12+N38*'MARA Prices'!$F$6</f>
-        <v>13760.505150450974</v>
+        <v>17509.416771356966</v>
       </c>
       <c r="S38" s="63">
         <f>N38*'MARA Prices'!$F$4</f>
@@ -9251,31 +9251,31 @@
       </c>
       <c r="T38" s="63">
         <f>$F38*Outputs_Internal!M$62/12</f>
-        <v>435.34988326674994</v>
+        <v>564.10837362647533</v>
       </c>
       <c r="U38" s="63">
         <f>$F38*Outputs_Internal!N$62/12</f>
-        <v>42.426792560361136</v>
+        <v>55.707983834383874</v>
       </c>
       <c r="W38" s="63">
         <f t="shared" si="7"/>
-        <v>70858.884374999994</v>
+        <v>87054.454687499994</v>
       </c>
       <c r="X38" s="63">
         <f t="shared" si="8"/>
-        <v>17749.038896165741</v>
+        <v>22271.755301046516</v>
       </c>
       <c r="Y38" s="63">
         <f t="shared" si="9"/>
-        <v>41281.51545135292</v>
+        <v>52528.250314070901</v>
       </c>
       <c r="Z38" s="63">
         <f t="shared" si="10"/>
-        <v>1306.0496498002499</v>
+        <v>1692.3251208794259</v>
       </c>
       <c r="AA38" s="63">
         <f t="shared" si="11"/>
-        <v>10522.280377681083</v>
+        <v>10562.123951503152</v>
       </c>
       <c r="AD38" s="63">
         <f>'MARA Prices'!H$21*$G38</f>
@@ -9298,7 +9298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B39" s="60">
         <f t="shared" si="1"/>
         <v>44013</v>
@@ -9341,15 +9341,15 @@
       </c>
       <c r="P39" s="63">
         <f>$F39*Outputs_Internal!$D$62/12+N39</f>
-        <v>23619.628124999999</v>
+        <v>29018.151562499999</v>
       </c>
       <c r="Q39" s="63">
         <f>$F39*Outputs_Internal!K$62/12+N39*'MARA Prices'!$F$5</f>
-        <v>5916.3462987219136</v>
+        <v>7423.9184336821718</v>
       </c>
       <c r="R39" s="63">
         <f>$F39*Outputs_Internal!L$62/12+N39*'MARA Prices'!$F$6</f>
-        <v>13760.505150450974</v>
+        <v>17509.416771356966</v>
       </c>
       <c r="S39" s="63">
         <f>N39*'MARA Prices'!$F$4</f>
@@ -9357,11 +9357,11 @@
       </c>
       <c r="T39" s="63">
         <f>$F39*Outputs_Internal!M$62/12</f>
-        <v>435.34988326674994</v>
+        <v>564.10837362647533</v>
       </c>
       <c r="U39" s="63">
         <f>$F39*Outputs_Internal!N$62/12</f>
-        <v>42.426792560361136</v>
+        <v>55.707983834383874</v>
       </c>
       <c r="W39" s="63">
         <f t="shared" si="7"/>
@@ -9404,7 +9404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B40" s="60">
         <f t="shared" si="1"/>
         <v>44044</v>
@@ -9447,15 +9447,15 @@
       </c>
       <c r="P40" s="63">
         <f>$F40*Outputs_Internal!$D$62/12+N40</f>
-        <v>23619.628124999999</v>
+        <v>29018.151562499999</v>
       </c>
       <c r="Q40" s="63">
         <f>$F40*Outputs_Internal!K$62/12+N40*'MARA Prices'!$F$5</f>
-        <v>5916.3462987219136</v>
+        <v>7423.9184336821718</v>
       </c>
       <c r="R40" s="63">
         <f>$F40*Outputs_Internal!L$62/12+N40*'MARA Prices'!$F$6</f>
-        <v>13760.505150450974</v>
+        <v>17509.416771356966</v>
       </c>
       <c r="S40" s="63">
         <f>N40*'MARA Prices'!$F$4</f>
@@ -9463,11 +9463,11 @@
       </c>
       <c r="T40" s="63">
         <f>$F40*Outputs_Internal!M$62/12</f>
-        <v>435.34988326674994</v>
+        <v>564.10837362647533</v>
       </c>
       <c r="U40" s="63">
         <f>$F40*Outputs_Internal!N$62/12</f>
-        <v>42.426792560361136</v>
+        <v>55.707983834383874</v>
       </c>
       <c r="W40" s="63">
         <f t="shared" si="7"/>
@@ -9510,7 +9510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B41" s="60">
         <f t="shared" si="1"/>
         <v>44075</v>
@@ -9553,15 +9553,15 @@
       </c>
       <c r="P41" s="63">
         <f>$F41*Outputs_Internal!$D$62/12+N41</f>
-        <v>23619.628124999999</v>
+        <v>29018.151562499999</v>
       </c>
       <c r="Q41" s="63">
         <f>$F41*Outputs_Internal!K$62/12+N41*'MARA Prices'!$F$5</f>
-        <v>5916.3462987219136</v>
+        <v>7423.9184336821718</v>
       </c>
       <c r="R41" s="63">
         <f>$F41*Outputs_Internal!L$62/12+N41*'MARA Prices'!$F$6</f>
-        <v>13760.505150450974</v>
+        <v>17509.416771356966</v>
       </c>
       <c r="S41" s="63">
         <f>N41*'MARA Prices'!$F$4</f>
@@ -9569,31 +9569,31 @@
       </c>
       <c r="T41" s="63">
         <f>$F41*Outputs_Internal!M$62/12</f>
-        <v>435.34988326674994</v>
+        <v>564.10837362647533</v>
       </c>
       <c r="U41" s="63">
         <f>$F41*Outputs_Internal!N$62/12</f>
-        <v>42.426792560361136</v>
+        <v>55.707983834383874</v>
       </c>
       <c r="W41" s="63">
         <f t="shared" si="7"/>
-        <v>70858.884374999994</v>
+        <v>87054.454687499994</v>
       </c>
       <c r="X41" s="63">
         <f t="shared" si="8"/>
-        <v>17749.038896165741</v>
+        <v>22271.755301046516</v>
       </c>
       <c r="Y41" s="63">
         <f t="shared" si="9"/>
-        <v>41281.51545135292</v>
+        <v>52528.250314070901</v>
       </c>
       <c r="Z41" s="63">
         <f t="shared" si="10"/>
-        <v>1306.0496498002499</v>
+        <v>1692.3251208794259</v>
       </c>
       <c r="AA41" s="63">
         <f t="shared" si="11"/>
-        <v>10522.280377681083</v>
+        <v>10562.123951503152</v>
       </c>
       <c r="AD41" s="63">
         <f>'MARA Prices'!H$21*$G41</f>
@@ -9616,7 +9616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B42" s="60">
         <f t="shared" si="1"/>
         <v>44105</v>
@@ -9659,15 +9659,15 @@
       </c>
       <c r="P42" s="63">
         <f>$F42*Outputs_Internal!$D$62/12+N42</f>
-        <v>23619.628124999999</v>
+        <v>29018.151562499999</v>
       </c>
       <c r="Q42" s="63">
         <f>$F42*Outputs_Internal!K$62/12+N42*'MARA Prices'!$F$5</f>
-        <v>5916.3462987219136</v>
+        <v>7423.9184336821718</v>
       </c>
       <c r="R42" s="63">
         <f>$F42*Outputs_Internal!L$62/12+N42*'MARA Prices'!$F$6</f>
-        <v>13760.505150450974</v>
+        <v>17509.416771356966</v>
       </c>
       <c r="S42" s="63">
         <f>N42*'MARA Prices'!$F$4</f>
@@ -9675,11 +9675,11 @@
       </c>
       <c r="T42" s="63">
         <f>$F42*Outputs_Internal!M$62/12</f>
-        <v>435.34988326674994</v>
+        <v>564.10837362647533</v>
       </c>
       <c r="U42" s="63">
         <f>$F42*Outputs_Internal!N$62/12</f>
-        <v>42.426792560361136</v>
+        <v>55.707983834383874</v>
       </c>
       <c r="W42" s="63">
         <f t="shared" si="7"/>
@@ -9722,7 +9722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B43" s="60">
         <f t="shared" si="1"/>
         <v>44136</v>
@@ -9765,15 +9765,15 @@
       </c>
       <c r="P43" s="63">
         <f>$F43*Outputs_Internal!$D$62/12+N43</f>
-        <v>23619.628124999999</v>
+        <v>29018.151562499999</v>
       </c>
       <c r="Q43" s="63">
         <f>$F43*Outputs_Internal!K$62/12+N43*'MARA Prices'!$F$5</f>
-        <v>5916.3462987219136</v>
+        <v>7423.9184336821718</v>
       </c>
       <c r="R43" s="63">
         <f>$F43*Outputs_Internal!L$62/12+N43*'MARA Prices'!$F$6</f>
-        <v>13760.505150450974</v>
+        <v>17509.416771356966</v>
       </c>
       <c r="S43" s="63">
         <f>N43*'MARA Prices'!$F$4</f>
@@ -9781,11 +9781,11 @@
       </c>
       <c r="T43" s="63">
         <f>$F43*Outputs_Internal!M$62/12</f>
-        <v>435.34988326674994</v>
+        <v>564.10837362647533</v>
       </c>
       <c r="U43" s="63">
         <f>$F43*Outputs_Internal!N$62/12</f>
-        <v>42.426792560361136</v>
+        <v>55.707983834383874</v>
       </c>
       <c r="W43" s="63">
         <f t="shared" si="7"/>
@@ -9828,7 +9828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B44" s="60">
         <f t="shared" si="1"/>
         <v>44166</v>
@@ -9871,15 +9871,15 @@
       </c>
       <c r="P44" s="63">
         <f>$F44*Outputs_Internal!$D$62/12+N44</f>
-        <v>23619.628124999999</v>
+        <v>29018.151562499999</v>
       </c>
       <c r="Q44" s="63">
         <f>$F44*Outputs_Internal!K$62/12+N44*'MARA Prices'!$F$5</f>
-        <v>5916.3462987219136</v>
+        <v>7423.9184336821718</v>
       </c>
       <c r="R44" s="63">
         <f>$F44*Outputs_Internal!L$62/12+N44*'MARA Prices'!$F$6</f>
-        <v>13760.505150450974</v>
+        <v>17509.416771356966</v>
       </c>
       <c r="S44" s="63">
         <f>N44*'MARA Prices'!$F$4</f>
@@ -9887,31 +9887,31 @@
       </c>
       <c r="T44" s="63">
         <f>$F44*Outputs_Internal!M$62/12</f>
-        <v>435.34988326674994</v>
+        <v>564.10837362647533</v>
       </c>
       <c r="U44" s="63">
         <f>$F44*Outputs_Internal!N$62/12</f>
-        <v>42.426792560361136</v>
+        <v>55.707983834383874</v>
       </c>
       <c r="W44" s="63">
         <f t="shared" si="7"/>
-        <v>70858.884374999994</v>
+        <v>87054.454687499994</v>
       </c>
       <c r="X44" s="63">
         <f t="shared" si="8"/>
-        <v>17749.038896165741</v>
+        <v>22271.755301046516</v>
       </c>
       <c r="Y44" s="63">
         <f t="shared" si="9"/>
-        <v>41281.51545135292</v>
+        <v>52528.250314070901</v>
       </c>
       <c r="Z44" s="63">
         <f t="shared" si="10"/>
-        <v>1306.0496498002499</v>
+        <v>1692.3251208794259</v>
       </c>
       <c r="AA44" s="63">
         <f t="shared" si="11"/>
-        <v>10522.280377681083</v>
+        <v>10562.123951503152</v>
       </c>
       <c r="AD44" s="63">
         <f>'MARA Prices'!H$21*$G44</f>
@@ -9934,7 +9934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B45" s="60">
         <f t="shared" si="1"/>
         <v>44197</v>
@@ -9977,15 +9977,15 @@
       </c>
       <c r="P45" s="63">
         <f>$F45*Outputs_Internal!$D$62/12+N45</f>
-        <v>23836.190624999999</v>
+        <v>29234.714062499999</v>
       </c>
       <c r="Q45" s="63">
         <f>$F45*Outputs_Internal!K$62/12+N45*'MARA Prices'!$F$5</f>
-        <v>5938.0025487219136</v>
+        <v>7445.5746836821718</v>
       </c>
       <c r="R45" s="63">
         <f>$F45*Outputs_Internal!L$62/12+N45*'MARA Prices'!$F$6</f>
-        <v>13782.161400450974</v>
+        <v>17531.073021356966</v>
       </c>
       <c r="S45" s="63">
         <f>N45*'MARA Prices'!$F$4</f>
@@ -9993,11 +9993,11 @@
       </c>
       <c r="T45" s="63">
         <f>$F45*Outputs_Internal!M$62/12</f>
-        <v>435.34988326674994</v>
+        <v>564.10837362647533</v>
       </c>
       <c r="U45" s="63">
         <f>$F45*Outputs_Internal!N$62/12</f>
-        <v>42.426792560361136</v>
+        <v>55.707983834383874</v>
       </c>
       <c r="W45" s="63">
         <f t="shared" si="7"/>
@@ -10040,7 +10040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B46" s="60">
         <f t="shared" si="1"/>
         <v>44228</v>
@@ -10083,15 +10083,15 @@
       </c>
       <c r="P46" s="63">
         <f>$F46*Outputs_Internal!$D$62/12+N46</f>
-        <v>23836.190624999999</v>
+        <v>29234.714062499999</v>
       </c>
       <c r="Q46" s="63">
         <f>$F46*Outputs_Internal!K$62/12+N46*'MARA Prices'!$F$5</f>
-        <v>5938.0025487219136</v>
+        <v>7445.5746836821718</v>
       </c>
       <c r="R46" s="63">
         <f>$F46*Outputs_Internal!L$62/12+N46*'MARA Prices'!$F$6</f>
-        <v>13782.161400450974</v>
+        <v>17531.073021356966</v>
       </c>
       <c r="S46" s="63">
         <f>N46*'MARA Prices'!$F$4</f>
@@ -10099,11 +10099,11 @@
       </c>
       <c r="T46" s="63">
         <f>$F46*Outputs_Internal!M$62/12</f>
-        <v>435.34988326674994</v>
+        <v>564.10837362647533</v>
       </c>
       <c r="U46" s="63">
         <f>$F46*Outputs_Internal!N$62/12</f>
-        <v>42.426792560361136</v>
+        <v>55.707983834383874</v>
       </c>
       <c r="W46" s="63">
         <f t="shared" si="7"/>
@@ -10146,7 +10146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B47" s="60">
         <f t="shared" si="1"/>
         <v>44256</v>
@@ -10189,15 +10189,15 @@
       </c>
       <c r="P47" s="63">
         <f>$F47*Outputs_Internal!$D$62/12+N47</f>
-        <v>23836.190624999999</v>
+        <v>29234.714062499999</v>
       </c>
       <c r="Q47" s="63">
         <f>$F47*Outputs_Internal!K$62/12+N47*'MARA Prices'!$F$5</f>
-        <v>5938.0025487219136</v>
+        <v>7445.5746836821718</v>
       </c>
       <c r="R47" s="63">
         <f>$F47*Outputs_Internal!L$62/12+N47*'MARA Prices'!$F$6</f>
-        <v>13782.161400450974</v>
+        <v>17531.073021356966</v>
       </c>
       <c r="S47" s="63">
         <f>N47*'MARA Prices'!$F$4</f>
@@ -10205,31 +10205,31 @@
       </c>
       <c r="T47" s="63">
         <f>$F47*Outputs_Internal!M$62/12</f>
-        <v>435.34988326674994</v>
+        <v>564.10837362647533</v>
       </c>
       <c r="U47" s="63">
         <f>$F47*Outputs_Internal!N$62/12</f>
-        <v>42.426792560361136</v>
+        <v>55.707983834383874</v>
       </c>
       <c r="W47" s="63">
         <f t="shared" si="7"/>
-        <v>71508.571874999994</v>
+        <v>87704.142187499994</v>
       </c>
       <c r="X47" s="63">
         <f t="shared" si="8"/>
-        <v>17814.007646165741</v>
+        <v>22336.724051046516</v>
       </c>
       <c r="Y47" s="63">
         <f t="shared" si="9"/>
-        <v>41346.48420135292</v>
+        <v>52593.219064070901</v>
       </c>
       <c r="Z47" s="63">
         <f t="shared" si="10"/>
-        <v>1306.0496498002499</v>
+        <v>1692.3251208794259</v>
       </c>
       <c r="AA47" s="63">
         <f t="shared" si="11"/>
-        <v>11042.030377681083</v>
+        <v>11081.873951503152</v>
       </c>
       <c r="AD47" s="63">
         <f>'MARA Prices'!H$21*$G47</f>
@@ -10252,7 +10252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B48" s="60">
         <f t="shared" si="1"/>
         <v>44287</v>
@@ -10295,15 +10295,15 @@
       </c>
       <c r="P48" s="63">
         <f>$F48*Outputs_Internal!$D$62/12+N48</f>
-        <v>23836.190624999999</v>
+        <v>29234.714062499999</v>
       </c>
       <c r="Q48" s="63">
         <f>$F48*Outputs_Internal!K$62/12+N48*'MARA Prices'!$F$5</f>
-        <v>5938.0025487219136</v>
+        <v>7445.5746836821718</v>
       </c>
       <c r="R48" s="63">
         <f>$F48*Outputs_Internal!L$62/12+N48*'MARA Prices'!$F$6</f>
-        <v>13782.161400450974</v>
+        <v>17531.073021356966</v>
       </c>
       <c r="S48" s="63">
         <f>N48*'MARA Prices'!$F$4</f>
@@ -10311,11 +10311,11 @@
       </c>
       <c r="T48" s="63">
         <f>$F48*Outputs_Internal!M$62/12</f>
-        <v>435.34988326674994</v>
+        <v>564.10837362647533</v>
       </c>
       <c r="U48" s="63">
         <f>$F48*Outputs_Internal!N$62/12</f>
-        <v>42.426792560361136</v>
+        <v>55.707983834383874</v>
       </c>
       <c r="W48" s="63">
         <f t="shared" si="7"/>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B49" s="60">
         <f t="shared" si="1"/>
         <v>44317</v>
@@ -10401,15 +10401,15 @@
       </c>
       <c r="P49" s="63">
         <f>$F49*Outputs_Internal!$D$62/12+N49</f>
-        <v>23836.190624999999</v>
+        <v>29234.714062499999</v>
       </c>
       <c r="Q49" s="63">
         <f>$F49*Outputs_Internal!K$62/12+N49*'MARA Prices'!$F$5</f>
-        <v>5938.0025487219136</v>
+        <v>7445.5746836821718</v>
       </c>
       <c r="R49" s="63">
         <f>$F49*Outputs_Internal!L$62/12+N49*'MARA Prices'!$F$6</f>
-        <v>13782.161400450974</v>
+        <v>17531.073021356966</v>
       </c>
       <c r="S49" s="63">
         <f>N49*'MARA Prices'!$F$4</f>
@@ -10417,11 +10417,11 @@
       </c>
       <c r="T49" s="63">
         <f>$F49*Outputs_Internal!M$62/12</f>
-        <v>435.34988326674994</v>
+        <v>564.10837362647533</v>
       </c>
       <c r="U49" s="63">
         <f>$F49*Outputs_Internal!N$62/12</f>
-        <v>42.426792560361136</v>
+        <v>55.707983834383874</v>
       </c>
       <c r="W49" s="63">
         <f t="shared" si="7"/>
@@ -10464,7 +10464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B50" s="60">
         <f t="shared" si="1"/>
         <v>44348</v>
@@ -10507,15 +10507,15 @@
       </c>
       <c r="P50" s="63">
         <f>$F50*Outputs_Internal!$D$62/12+N50</f>
-        <v>23836.190624999999</v>
+        <v>29234.714062499999</v>
       </c>
       <c r="Q50" s="63">
         <f>$F50*Outputs_Internal!K$62/12+N50*'MARA Prices'!$F$5</f>
-        <v>5938.0025487219136</v>
+        <v>7445.5746836821718</v>
       </c>
       <c r="R50" s="63">
         <f>$F50*Outputs_Internal!L$62/12+N50*'MARA Prices'!$F$6</f>
-        <v>13782.161400450974</v>
+        <v>17531.073021356966</v>
       </c>
       <c r="S50" s="63">
         <f>N50*'MARA Prices'!$F$4</f>
@@ -10523,31 +10523,31 @@
       </c>
       <c r="T50" s="63">
         <f>$F50*Outputs_Internal!M$62/12</f>
-        <v>435.34988326674994</v>
+        <v>564.10837362647533</v>
       </c>
       <c r="U50" s="63">
         <f>$F50*Outputs_Internal!N$62/12</f>
-        <v>42.426792560361136</v>
+        <v>55.707983834383874</v>
       </c>
       <c r="W50" s="63">
         <f t="shared" si="7"/>
-        <v>71508.571874999994</v>
+        <v>87704.142187499994</v>
       </c>
       <c r="X50" s="63">
         <f t="shared" si="8"/>
-        <v>17814.007646165741</v>
+        <v>22336.724051046516</v>
       </c>
       <c r="Y50" s="63">
         <f t="shared" si="9"/>
-        <v>41346.48420135292</v>
+        <v>52593.219064070901</v>
       </c>
       <c r="Z50" s="63">
         <f t="shared" si="10"/>
-        <v>1306.0496498002499</v>
+        <v>1692.3251208794259</v>
       </c>
       <c r="AA50" s="63">
         <f t="shared" si="11"/>
-        <v>11042.030377681083</v>
+        <v>11081.873951503152</v>
       </c>
       <c r="AD50" s="63">
         <f>'MARA Prices'!H$21*$G50</f>
@@ -10570,7 +10570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B51" s="60">
         <f t="shared" si="1"/>
         <v>44378</v>
@@ -10613,15 +10613,15 @@
       </c>
       <c r="P51" s="63">
         <f>$F51*Outputs_Internal!$D$62/12+N51</f>
-        <v>23836.190624999999</v>
+        <v>29234.714062499999</v>
       </c>
       <c r="Q51" s="63">
         <f>$F51*Outputs_Internal!K$62/12+N51*'MARA Prices'!$F$5</f>
-        <v>5938.0025487219136</v>
+        <v>7445.5746836821718</v>
       </c>
       <c r="R51" s="63">
         <f>$F51*Outputs_Internal!L$62/12+N51*'MARA Prices'!$F$6</f>
-        <v>13782.161400450974</v>
+        <v>17531.073021356966</v>
       </c>
       <c r="S51" s="63">
         <f>N51*'MARA Prices'!$F$4</f>
@@ -10629,11 +10629,11 @@
       </c>
       <c r="T51" s="63">
         <f>$F51*Outputs_Internal!M$62/12</f>
-        <v>435.34988326674994</v>
+        <v>564.10837362647533</v>
       </c>
       <c r="U51" s="63">
         <f>$F51*Outputs_Internal!N$62/12</f>
-        <v>42.426792560361136</v>
+        <v>55.707983834383874</v>
       </c>
       <c r="W51" s="63">
         <f t="shared" si="7"/>
@@ -10676,7 +10676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B52" s="60">
         <f t="shared" si="1"/>
         <v>44409</v>
@@ -10719,15 +10719,15 @@
       </c>
       <c r="P52" s="63">
         <f>$F52*Outputs_Internal!$D$62/12+N52</f>
-        <v>23836.190624999999</v>
+        <v>29234.714062499999</v>
       </c>
       <c r="Q52" s="63">
         <f>$F52*Outputs_Internal!K$62/12+N52*'MARA Prices'!$F$5</f>
-        <v>5938.0025487219136</v>
+        <v>7445.5746836821718</v>
       </c>
       <c r="R52" s="63">
         <f>$F52*Outputs_Internal!L$62/12+N52*'MARA Prices'!$F$6</f>
-        <v>13782.161400450974</v>
+        <v>17531.073021356966</v>
       </c>
       <c r="S52" s="63">
         <f>N52*'MARA Prices'!$F$4</f>
@@ -10735,11 +10735,11 @@
       </c>
       <c r="T52" s="63">
         <f>$F52*Outputs_Internal!M$62/12</f>
-        <v>435.34988326674994</v>
+        <v>564.10837362647533</v>
       </c>
       <c r="U52" s="63">
         <f>$F52*Outputs_Internal!N$62/12</f>
-        <v>42.426792560361136</v>
+        <v>55.707983834383874</v>
       </c>
       <c r="W52" s="63">
         <f t="shared" si="7"/>
@@ -10782,7 +10782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B53" s="60">
         <f t="shared" si="1"/>
         <v>44440</v>
@@ -10825,15 +10825,15 @@
       </c>
       <c r="P53" s="63">
         <f>$F53*Outputs_Internal!$D$62/12+N53</f>
-        <v>23836.190624999999</v>
+        <v>29234.714062499999</v>
       </c>
       <c r="Q53" s="63">
         <f>$F53*Outputs_Internal!K$62/12+N53*'MARA Prices'!$F$5</f>
-        <v>5938.0025487219136</v>
+        <v>7445.5746836821718</v>
       </c>
       <c r="R53" s="63">
         <f>$F53*Outputs_Internal!L$62/12+N53*'MARA Prices'!$F$6</f>
-        <v>13782.161400450974</v>
+        <v>17531.073021356966</v>
       </c>
       <c r="S53" s="63">
         <f>N53*'MARA Prices'!$F$4</f>
@@ -10841,31 +10841,31 @@
       </c>
       <c r="T53" s="63">
         <f>$F53*Outputs_Internal!M$62/12</f>
-        <v>435.34988326674994</v>
+        <v>564.10837362647533</v>
       </c>
       <c r="U53" s="63">
         <f>$F53*Outputs_Internal!N$62/12</f>
-        <v>42.426792560361136</v>
+        <v>55.707983834383874</v>
       </c>
       <c r="W53" s="63">
         <f t="shared" si="7"/>
-        <v>71508.571874999994</v>
+        <v>87704.142187499994</v>
       </c>
       <c r="X53" s="63">
         <f t="shared" si="8"/>
-        <v>17814.007646165741</v>
+        <v>22336.724051046516</v>
       </c>
       <c r="Y53" s="63">
         <f t="shared" si="9"/>
-        <v>41346.48420135292</v>
+        <v>52593.219064070901</v>
       </c>
       <c r="Z53" s="63">
         <f t="shared" si="10"/>
-        <v>1306.0496498002499</v>
+        <v>1692.3251208794259</v>
       </c>
       <c r="AA53" s="63">
         <f t="shared" si="11"/>
-        <v>11042.030377681083</v>
+        <v>11081.873951503152</v>
       </c>
       <c r="AD53" s="63">
         <f>'MARA Prices'!H$21*$G53</f>
@@ -10888,7 +10888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B54" s="60">
         <f t="shared" si="1"/>
         <v>44470</v>
@@ -10931,15 +10931,15 @@
       </c>
       <c r="P54" s="63">
         <f>$F54*Outputs_Internal!$D$62/12+N54</f>
-        <v>23836.190624999999</v>
+        <v>29234.714062499999</v>
       </c>
       <c r="Q54" s="63">
         <f>$F54*Outputs_Internal!K$62/12+N54*'MARA Prices'!$F$5</f>
-        <v>5938.0025487219136</v>
+        <v>7445.5746836821718</v>
       </c>
       <c r="R54" s="63">
         <f>$F54*Outputs_Internal!L$62/12+N54*'MARA Prices'!$F$6</f>
-        <v>13782.161400450974</v>
+        <v>17531.073021356966</v>
       </c>
       <c r="S54" s="63">
         <f>N54*'MARA Prices'!$F$4</f>
@@ -10947,11 +10947,11 @@
       </c>
       <c r="T54" s="63">
         <f>$F54*Outputs_Internal!M$62/12</f>
-        <v>435.34988326674994</v>
+        <v>564.10837362647533</v>
       </c>
       <c r="U54" s="63">
         <f>$F54*Outputs_Internal!N$62/12</f>
-        <v>42.426792560361136</v>
+        <v>55.707983834383874</v>
       </c>
       <c r="W54" s="63">
         <f t="shared" si="7"/>
@@ -10994,7 +10994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B55" s="60">
         <f t="shared" si="1"/>
         <v>44501</v>
@@ -11037,15 +11037,15 @@
       </c>
       <c r="P55" s="63">
         <f>$F55*Outputs_Internal!$D$62/12+N55</f>
-        <v>23836.190624999999</v>
+        <v>29234.714062499999</v>
       </c>
       <c r="Q55" s="63">
         <f>$F55*Outputs_Internal!K$62/12+N55*'MARA Prices'!$F$5</f>
-        <v>5938.0025487219136</v>
+        <v>7445.5746836821718</v>
       </c>
       <c r="R55" s="63">
         <f>$F55*Outputs_Internal!L$62/12+N55*'MARA Prices'!$F$6</f>
-        <v>13782.161400450974</v>
+        <v>17531.073021356966</v>
       </c>
       <c r="S55" s="63">
         <f>N55*'MARA Prices'!$F$4</f>
@@ -11053,11 +11053,11 @@
       </c>
       <c r="T55" s="63">
         <f>$F55*Outputs_Internal!M$62/12</f>
-        <v>435.34988326674994</v>
+        <v>564.10837362647533</v>
       </c>
       <c r="U55" s="63">
         <f>$F55*Outputs_Internal!N$62/12</f>
-        <v>42.426792560361136</v>
+        <v>55.707983834383874</v>
       </c>
       <c r="W55" s="63">
         <f t="shared" si="7"/>
@@ -11100,7 +11100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B56" s="60">
         <f t="shared" si="1"/>
         <v>44531</v>
@@ -11143,15 +11143,15 @@
       </c>
       <c r="P56" s="63">
         <f>$F56*Outputs_Internal!$D$62/12+N56</f>
-        <v>23836.190624999999</v>
+        <v>29234.714062499999</v>
       </c>
       <c r="Q56" s="63">
         <f>$F56*Outputs_Internal!K$62/12+N56*'MARA Prices'!$F$5</f>
-        <v>5938.0025487219136</v>
+        <v>7445.5746836821718</v>
       </c>
       <c r="R56" s="63">
         <f>$F56*Outputs_Internal!L$62/12+N56*'MARA Prices'!$F$6</f>
-        <v>13782.161400450974</v>
+        <v>17531.073021356966</v>
       </c>
       <c r="S56" s="63">
         <f>N56*'MARA Prices'!$F$4</f>
@@ -11159,31 +11159,31 @@
       </c>
       <c r="T56" s="63">
         <f>$F56*Outputs_Internal!M$62/12</f>
-        <v>435.34988326674994</v>
+        <v>564.10837362647533</v>
       </c>
       <c r="U56" s="63">
         <f>$F56*Outputs_Internal!N$62/12</f>
-        <v>42.426792560361136</v>
+        <v>55.707983834383874</v>
       </c>
       <c r="W56" s="63">
         <f t="shared" si="7"/>
-        <v>71508.571874999994</v>
+        <v>87704.142187499994</v>
       </c>
       <c r="X56" s="63">
         <f t="shared" si="8"/>
-        <v>17814.007646165741</v>
+        <v>22336.724051046516</v>
       </c>
       <c r="Y56" s="63">
         <f t="shared" si="9"/>
-        <v>41346.48420135292</v>
+        <v>52593.219064070901</v>
       </c>
       <c r="Z56" s="63">
         <f t="shared" si="10"/>
-        <v>1306.0496498002499</v>
+        <v>1692.3251208794259</v>
       </c>
       <c r="AA56" s="63">
         <f t="shared" si="11"/>
-        <v>11042.030377681083</v>
+        <v>11081.873951503152</v>
       </c>
       <c r="AD56" s="63">
         <f>'MARA Prices'!H$21*$G56</f>
@@ -11206,7 +11206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B57" s="60">
         <f t="shared" si="1"/>
         <v>44562</v>
@@ -11249,15 +11249,15 @@
       </c>
       <c r="P57" s="63">
         <f>$F57*Outputs_Internal!$D$62/12+N57</f>
-        <v>24063.581249999999</v>
+        <v>29462.104687499999</v>
       </c>
       <c r="Q57" s="63">
         <f>$F57*Outputs_Internal!K$62/12+N57*'MARA Prices'!$F$5</f>
-        <v>5960.7416112219134</v>
+        <v>7468.3137461821716</v>
       </c>
       <c r="R57" s="63">
         <f>$F57*Outputs_Internal!L$62/12+N57*'MARA Prices'!$F$6</f>
-        <v>13804.900462950975</v>
+        <v>17553.812083856967</v>
       </c>
       <c r="S57" s="63">
         <f>N57*'MARA Prices'!$F$4</f>
@@ -11265,11 +11265,11 @@
       </c>
       <c r="T57" s="63">
         <f>$F57*Outputs_Internal!M$62/12</f>
-        <v>435.34988326674994</v>
+        <v>564.10837362647533</v>
       </c>
       <c r="U57" s="63">
         <f>$F57*Outputs_Internal!N$62/12</f>
-        <v>42.426792560361136</v>
+        <v>55.707983834383874</v>
       </c>
       <c r="W57" s="63">
         <f t="shared" si="7"/>
@@ -11312,7 +11312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B58" s="60">
         <f t="shared" si="1"/>
         <v>44593</v>
@@ -11355,15 +11355,15 @@
       </c>
       <c r="P58" s="63">
         <f>$F58*Outputs_Internal!$D$62/12+N58</f>
-        <v>24063.581249999999</v>
+        <v>29462.104687499999</v>
       </c>
       <c r="Q58" s="63">
         <f>$F58*Outputs_Internal!K$62/12+N58*'MARA Prices'!$F$5</f>
-        <v>5960.7416112219134</v>
+        <v>7468.3137461821716</v>
       </c>
       <c r="R58" s="63">
         <f>$F58*Outputs_Internal!L$62/12+N58*'MARA Prices'!$F$6</f>
-        <v>13804.900462950975</v>
+        <v>17553.812083856967</v>
       </c>
       <c r="S58" s="63">
         <f>N58*'MARA Prices'!$F$4</f>
@@ -11371,11 +11371,11 @@
       </c>
       <c r="T58" s="63">
         <f>$F58*Outputs_Internal!M$62/12</f>
-        <v>435.34988326674994</v>
+        <v>564.10837362647533</v>
       </c>
       <c r="U58" s="63">
         <f>$F58*Outputs_Internal!N$62/12</f>
-        <v>42.426792560361136</v>
+        <v>55.707983834383874</v>
       </c>
       <c r="W58" s="63">
         <f t="shared" si="7"/>
@@ -11418,7 +11418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B59" s="60">
         <f t="shared" si="1"/>
         <v>44621</v>
@@ -11461,15 +11461,15 @@
       </c>
       <c r="P59" s="63">
         <f>$F59*Outputs_Internal!$D$62/12+N59</f>
-        <v>24063.581249999999</v>
+        <v>29462.104687499999</v>
       </c>
       <c r="Q59" s="63">
         <f>$F59*Outputs_Internal!K$62/12+N59*'MARA Prices'!$F$5</f>
-        <v>5960.7416112219134</v>
+        <v>7468.3137461821716</v>
       </c>
       <c r="R59" s="63">
         <f>$F59*Outputs_Internal!L$62/12+N59*'MARA Prices'!$F$6</f>
-        <v>13804.900462950975</v>
+        <v>17553.812083856967</v>
       </c>
       <c r="S59" s="63">
         <f>N59*'MARA Prices'!$F$4</f>
@@ -11477,31 +11477,31 @@
       </c>
       <c r="T59" s="63">
         <f>$F59*Outputs_Internal!M$62/12</f>
-        <v>435.34988326674994</v>
+        <v>564.10837362647533</v>
       </c>
       <c r="U59" s="63">
         <f>$F59*Outputs_Internal!N$62/12</f>
-        <v>42.426792560361136</v>
+        <v>55.707983834383874</v>
       </c>
       <c r="W59" s="63">
         <f t="shared" si="7"/>
-        <v>72190.743749999994</v>
+        <v>88386.314062499994</v>
       </c>
       <c r="X59" s="63">
         <f t="shared" si="8"/>
-        <v>17882.224833665739</v>
+        <v>22404.941238546515</v>
       </c>
       <c r="Y59" s="63">
         <f t="shared" si="9"/>
-        <v>41414.701388852925</v>
+        <v>52661.4362515709</v>
       </c>
       <c r="Z59" s="63">
         <f t="shared" si="10"/>
-        <v>1306.0496498002499</v>
+        <v>1692.3251208794259</v>
       </c>
       <c r="AA59" s="63">
         <f t="shared" si="11"/>
-        <v>11587.767877681086</v>
+        <v>11627.611451503153</v>
       </c>
       <c r="AD59" s="63">
         <f>'MARA Prices'!H$21*$G59</f>
@@ -11524,7 +11524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B60" s="60">
         <f t="shared" si="1"/>
         <v>44652</v>
@@ -11567,15 +11567,15 @@
       </c>
       <c r="P60" s="63">
         <f>$F60*Outputs_Internal!$D$62/12+N60</f>
-        <v>24063.581249999999</v>
+        <v>29462.104687499999</v>
       </c>
       <c r="Q60" s="63">
         <f>$F60*Outputs_Internal!K$62/12+N60*'MARA Prices'!$F$5</f>
-        <v>5960.7416112219134</v>
+        <v>7468.3137461821716</v>
       </c>
       <c r="R60" s="63">
         <f>$F60*Outputs_Internal!L$62/12+N60*'MARA Prices'!$F$6</f>
-        <v>13804.900462950975</v>
+        <v>17553.812083856967</v>
       </c>
       <c r="S60" s="63">
         <f>N60*'MARA Prices'!$F$4</f>
@@ -11583,11 +11583,11 @@
       </c>
       <c r="T60" s="63">
         <f>$F60*Outputs_Internal!M$62/12</f>
-        <v>435.34988326674994</v>
+        <v>564.10837362647533</v>
       </c>
       <c r="U60" s="63">
         <f>$F60*Outputs_Internal!N$62/12</f>
-        <v>42.426792560361136</v>
+        <v>55.707983834383874</v>
       </c>
       <c r="W60" s="63">
         <f t="shared" si="7"/>
@@ -11630,7 +11630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B61" s="60">
         <f t="shared" si="1"/>
         <v>44682</v>
@@ -11673,15 +11673,15 @@
       </c>
       <c r="P61" s="63">
         <f>$F61*Outputs_Internal!$D$62/12+N61</f>
-        <v>24063.581249999999</v>
+        <v>29462.104687499999</v>
       </c>
       <c r="Q61" s="63">
         <f>$F61*Outputs_Internal!K$62/12+N61*'MARA Prices'!$F$5</f>
-        <v>5960.7416112219134</v>
+        <v>7468.3137461821716</v>
       </c>
       <c r="R61" s="63">
         <f>$F61*Outputs_Internal!L$62/12+N61*'MARA Prices'!$F$6</f>
-        <v>13804.900462950975</v>
+        <v>17553.812083856967</v>
       </c>
       <c r="S61" s="63">
         <f>N61*'MARA Prices'!$F$4</f>
@@ -11689,11 +11689,11 @@
       </c>
       <c r="T61" s="63">
         <f>$F61*Outputs_Internal!M$62/12</f>
-        <v>435.34988326674994</v>
+        <v>564.10837362647533</v>
       </c>
       <c r="U61" s="63">
         <f>$F61*Outputs_Internal!N$62/12</f>
-        <v>42.426792560361136</v>
+        <v>55.707983834383874</v>
       </c>
       <c r="W61" s="63">
         <f t="shared" si="7"/>
@@ -11736,7 +11736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B62" s="60">
         <f t="shared" si="1"/>
         <v>44713</v>
@@ -11779,15 +11779,15 @@
       </c>
       <c r="P62" s="63">
         <f>$F62*Outputs_Internal!$D$62/12+N62</f>
-        <v>24063.581249999999</v>
+        <v>29462.104687499999</v>
       </c>
       <c r="Q62" s="63">
         <f>$F62*Outputs_Internal!K$62/12+N62*'MARA Prices'!$F$5</f>
-        <v>5960.7416112219134</v>
+        <v>7468.3137461821716</v>
       </c>
       <c r="R62" s="63">
         <f>$F62*Outputs_Internal!L$62/12+N62*'MARA Prices'!$F$6</f>
-        <v>13804.900462950975</v>
+        <v>17553.812083856967</v>
       </c>
       <c r="S62" s="63">
         <f>N62*'MARA Prices'!$F$4</f>
@@ -11795,31 +11795,31 @@
       </c>
       <c r="T62" s="63">
         <f>$F62*Outputs_Internal!M$62/12</f>
-        <v>435.34988326674994</v>
+        <v>564.10837362647533</v>
       </c>
       <c r="U62" s="63">
         <f>$F62*Outputs_Internal!N$62/12</f>
-        <v>42.426792560361136</v>
+        <v>55.707983834383874</v>
       </c>
       <c r="W62" s="63">
         <f t="shared" si="7"/>
-        <v>72190.743749999994</v>
+        <v>88386.314062499994</v>
       </c>
       <c r="X62" s="63">
         <f t="shared" si="8"/>
-        <v>17882.224833665739</v>
+        <v>22404.941238546515</v>
       </c>
       <c r="Y62" s="63">
         <f t="shared" si="9"/>
-        <v>41414.701388852925</v>
+        <v>52661.4362515709</v>
       </c>
       <c r="Z62" s="63">
         <f t="shared" si="10"/>
-        <v>1306.0496498002499</v>
+        <v>1692.3251208794259</v>
       </c>
       <c r="AA62" s="63">
         <f t="shared" si="11"/>
-        <v>11587.767877681086</v>
+        <v>11627.611451503153</v>
       </c>
       <c r="AD62" s="63">
         <f>'MARA Prices'!H$21*$G62</f>
@@ -11842,7 +11842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B63" s="60">
         <f t="shared" si="1"/>
         <v>44743</v>
@@ -11948,7 +11948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B64" s="60">
         <f t="shared" si="1"/>
         <v>44774</v>
@@ -12054,7 +12054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B65" s="60">
         <f t="shared" si="1"/>
         <v>44805</v>
@@ -12160,7 +12160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B66" s="60">
         <f t="shared" si="1"/>
         <v>44835</v>
@@ -12266,7 +12266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B67" s="60">
         <f t="shared" si="1"/>
         <v>44866</v>
@@ -12372,7 +12372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B68" s="60">
         <f t="shared" si="1"/>
         <v>44896</v>
@@ -12478,7 +12478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B69" s="60">
         <f t="shared" ref="B69:B94" si="13">EDATE(B68,1)</f>
         <v>44927</v>
@@ -12584,7 +12584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B70" s="60">
         <f t="shared" si="13"/>
         <v>44958</v>
@@ -12690,7 +12690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B71" s="60">
         <f t="shared" si="13"/>
         <v>44986</v>
@@ -12796,7 +12796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B72" s="60">
         <f t="shared" si="13"/>
         <v>45017</v>
@@ -12902,7 +12902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B73" s="60">
         <f t="shared" si="13"/>
         <v>45047</v>
@@ -13008,7 +13008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B74" s="60">
         <f t="shared" si="13"/>
         <v>45078</v>
@@ -13114,7 +13114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B75" s="60">
         <f t="shared" si="13"/>
         <v>45108</v>
@@ -13220,7 +13220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B76" s="60">
         <f t="shared" si="13"/>
         <v>45139</v>
@@ -13326,7 +13326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B77" s="60">
         <f t="shared" si="13"/>
         <v>45170</v>
@@ -13432,7 +13432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B78" s="60">
         <f t="shared" si="13"/>
         <v>45200</v>
@@ -13538,7 +13538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B79" s="60">
         <f t="shared" si="13"/>
         <v>45231</v>
@@ -13644,7 +13644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B80" s="60">
         <f t="shared" si="13"/>
         <v>45261</v>
@@ -13750,7 +13750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B81" s="60">
         <f t="shared" si="13"/>
         <v>45292</v>
@@ -13856,7 +13856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B82" s="60">
         <f t="shared" si="13"/>
         <v>45323</v>
@@ -13962,7 +13962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B83" s="60">
         <f t="shared" si="13"/>
         <v>45352</v>
@@ -14068,7 +14068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B84" s="60">
         <f t="shared" si="13"/>
         <v>45383</v>
@@ -14174,7 +14174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B85" s="60">
         <f t="shared" si="13"/>
         <v>45413</v>
@@ -14280,7 +14280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B86" s="60">
         <f t="shared" si="13"/>
         <v>45444</v>
@@ -14386,7 +14386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B87" s="60">
         <f t="shared" si="13"/>
         <v>45474</v>
@@ -14492,7 +14492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B88" s="60">
         <f t="shared" si="13"/>
         <v>45505</v>
@@ -14598,7 +14598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B89" s="60">
         <f t="shared" si="13"/>
         <v>45536</v>
@@ -14704,7 +14704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B90" s="60">
         <f t="shared" si="13"/>
         <v>45566</v>
@@ -14810,7 +14810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B91" s="60">
         <f t="shared" si="13"/>
         <v>45597</v>
@@ -14916,7 +14916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B92" s="60">
         <f t="shared" si="13"/>
         <v>45627</v>
@@ -15022,7 +15022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B93" s="60">
         <f t="shared" si="13"/>
         <v>45658</v>
@@ -15128,7 +15128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B94" s="60">
         <f t="shared" si="13"/>
         <v>45689</v>
@@ -15266,16 +15266,16 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.81640625" customWidth="1"/>
-    <col min="2" max="2" width="5.81640625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="46.81640625" customWidth="1"/>
-    <col min="4" max="8" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" customWidth="1"/>
+    <col min="4" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="15" width="18" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>105</v>
       </c>
@@ -15307,12 +15307,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>1</v>
       </c>
@@ -15337,7 +15337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -15353,7 +15353,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>86</v>
       </c>
@@ -15387,7 +15387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>87</v>
       </c>
@@ -15422,7 +15422,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>88</v>
       </c>
@@ -15457,7 +15457,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>90</v>
       </c>
@@ -15492,7 +15492,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C10" s="78" t="s">
         <v>94</v>
       </c>
@@ -15517,7 +15517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C11" s="78" t="s">
         <v>95</v>
       </c>
@@ -15542,33 +15542,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C14" s="15" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="16">
         <f>IF(Inputs!D6="Y", Prices!$C$6, IF(Inputs!D6="N", Prices!$D$6, 0))</f>
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="E14" s="16">
         <f>IF(Inputs!E6="Y", Prices!$C$6, IF(Inputs!E6="N", Prices!$D$6, 0))</f>
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="F14" s="16">
         <f>IF(Inputs!F6="Y", Prices!$C$6, IF(Inputs!F6="N", Prices!$D$6, 0))</f>
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="G14" s="16">
         <f>IF(Inputs!G6="Y", Prices!$C$6, IF(Inputs!G6="N", Prices!$D$6, 0))</f>
@@ -15579,7 +15579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C15" s="17" t="s">
         <v>20</v>
       </c>
@@ -15593,7 +15593,7 @@
       </c>
       <c r="F15" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!F13="Y",Inputs!F$23="Y"), Prices!$C10, 0)</f>
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="G15" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!G13="Y",Inputs!G$23="Y"), Prices!$C10, 0)</f>
@@ -15604,7 +15604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C16" s="17" t="s">
         <v>8</v>
       </c>
@@ -15618,7 +15618,7 @@
       </c>
       <c r="F16" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!F14="Y",Inputs!F$23="Y"), Prices!$C11, 0)</f>
-        <v>4000</v>
+        <v>4800</v>
       </c>
       <c r="G16" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!G14="Y",Inputs!G$23="Y"), Prices!$C11, 0)</f>
@@ -15629,7 +15629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C17" s="17" t="s">
         <v>21</v>
       </c>
@@ -15643,7 +15643,7 @@
       </c>
       <c r="F17" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!F15="Y",Inputs!F$23="Y"), Prices!$C12, 0)</f>
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="G17" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!G15="Y",Inputs!G$23="Y"), Prices!$C12, 0)</f>
@@ -15654,7 +15654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C18" s="17" t="s">
         <v>9</v>
       </c>
@@ -15668,7 +15668,7 @@
       </c>
       <c r="F18" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!F16="Y",Inputs!F$23="Y"), Prices!$C13, 0)</f>
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="G18" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!G16="Y",Inputs!G$23="Y"), Prices!$C13, 0)</f>
@@ -15679,7 +15679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C19" s="17" t="s">
         <v>10</v>
       </c>
@@ -15693,7 +15693,7 @@
       </c>
       <c r="F19" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!F17="Y",Inputs!F$23="Y"), Prices!$C14, 0)</f>
-        <v>6000</v>
+        <v>7200</v>
       </c>
       <c r="G19" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!G17="Y",Inputs!G$23="Y"), Prices!$C14, 0)</f>
@@ -15704,7 +15704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C20" s="17" t="s">
         <v>77</v>
       </c>
@@ -15718,7 +15718,7 @@
       </c>
       <c r="F20" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!F18="Y",Inputs!F$23="Y"), Prices!$C15, 0)</f>
-        <v>4000</v>
+        <v>4800</v>
       </c>
       <c r="G20" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!G18="Y",Inputs!G$23="Y"), Prices!$C15, 0)</f>
@@ -15729,7 +15729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C21" s="19" t="s">
         <v>11</v>
       </c>
@@ -15739,7 +15739,7 @@
       </c>
       <c r="E21" s="20">
         <f xml:space="preserve"> IF(OR(Inputs!E19="Y",Inputs!E$24="Y",Inputs!E$25="Y"), Prices!$C16, 0)</f>
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="F21" s="20">
         <f xml:space="preserve"> IF(OR(Inputs!F19="Y",Inputs!F$24="Y",Inputs!F$25="Y"), Prices!$C16, 0)</f>
@@ -15754,7 +15754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C22" s="19" t="s">
         <v>149</v>
       </c>
@@ -15764,11 +15764,11 @@
       </c>
       <c r="E22" s="20">
         <f xml:space="preserve"> IF(OR(Inputs!E20="Y",Inputs!E$24="Y",Inputs!E$25="Y",Inputs!E$28="Y"), Prices!$C17, 0)</f>
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="F22" s="20">
         <f xml:space="preserve"> IF(OR(Inputs!F20="Y",Inputs!F$24="Y",Inputs!F$25="Y",Inputs!F$28="Y"), Prices!$C17, 0)</f>
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="G22" s="20">
         <f xml:space="preserve"> IF(OR(Inputs!G20="Y",Inputs!G$24="Y",Inputs!G$25="Y",Inputs!G$28="Y"), Prices!$C17, 0)</f>
@@ -15779,7 +15779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C23" s="19" t="s">
         <v>22</v>
       </c>
@@ -15789,7 +15789,7 @@
       </c>
       <c r="E23" s="20">
         <f>IF(Inputs!E$6="N",0, IF(OR(Inputs!E21="Y",Inputs!E$24="Y",Inputs!E$25="Y"), Prices!$C18, 0))</f>
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="F23" s="20">
         <f>IF(Inputs!F$6="N",0, IF(OR(Inputs!F21="Y",Inputs!F$24="Y",Inputs!F$25="Y"), Prices!$C18, 0))</f>
@@ -15804,12 +15804,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C26" s="15" t="s">
         <v>2</v>
       </c>
@@ -15823,7 +15823,7 @@
       </c>
       <c r="F26" s="16">
         <f>IF(Inputs!F$6="Y", 0, IF(F$11 = "", "", PRODUCT(F$11, Prices!$E$6)))*F$10</f>
-        <v>24570.000000000004</v>
+        <v>36400</v>
       </c>
       <c r="G26" s="16">
         <f>IF(Inputs!G$6="Y", 0, IF(G$11 = "", "", PRODUCT(G$11, Prices!$E$6)))*G$10</f>
@@ -15834,7 +15834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C27" s="17" t="s">
         <v>20</v>
       </c>
@@ -15848,7 +15848,7 @@
       </c>
       <c r="F27" s="18">
         <f>IF(OR(Inputs!F$6="Y", F$11 = 0), 0, IF(OR(Inputs!F13="Y",Inputs!F$23="Y"),PRODUCT(F$11, Prices!$E10),0))*F$10</f>
-        <v>3640</v>
+        <v>4550</v>
       </c>
       <c r="G27" s="18">
         <f>IF(OR(Inputs!G$6="Y", G$11 = 0), 0, IF(OR(Inputs!G13="Y",Inputs!G$23="Y"),PRODUCT(G$11, Prices!$E10),0))*G$10</f>
@@ -15859,7 +15859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C28" s="17" t="s">
         <v>8</v>
       </c>
@@ -15873,7 +15873,7 @@
       </c>
       <c r="F28" s="18">
         <f>IF(OR(Inputs!F$6="Y", F$11 = 0), 0, IF(OR(Inputs!F14="Y",Inputs!F$23="Y"),PRODUCT(F$11, Prices!$E11),0))*F$10</f>
-        <v>4550</v>
+        <v>6370.0000000000009</v>
       </c>
       <c r="G28" s="18">
         <f>IF(OR(Inputs!G$6="Y", G$11 = 0), 0, IF(OR(Inputs!G14="Y",Inputs!G$23="Y"),PRODUCT(G$11, Prices!$E11),0))*G$10</f>
@@ -15884,7 +15884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C29" s="17" t="s">
         <v>21</v>
       </c>
@@ -15898,7 +15898,7 @@
       </c>
       <c r="F29" s="18">
         <f>IF(OR(Inputs!F$6="Y", F$11 = 0), 0, IF(OR(Inputs!F15="Y",Inputs!F$23="Y"),PRODUCT(F$11, Prices!$E12),0))*F$10</f>
-        <v>3640</v>
+        <v>4550</v>
       </c>
       <c r="G29" s="18">
         <f>IF(OR(Inputs!G$6="Y", G$11 = 0), 0, IF(OR(Inputs!G15="Y",Inputs!G$23="Y"),PRODUCT(G$11, Prices!$E12),0))*G$10</f>
@@ -15909,7 +15909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C30" s="17" t="s">
         <v>9</v>
       </c>
@@ -15923,7 +15923,7 @@
       </c>
       <c r="F30" s="18">
         <f>IF(OR(Inputs!F$6="Y", F$11 = 0), 0, IF(OR(Inputs!F16="Y",Inputs!F$23="Y"),PRODUCT(F$11, Prices!$E13),0))*F$10</f>
-        <v>3640</v>
+        <v>4550</v>
       </c>
       <c r="G30" s="18">
         <f>IF(OR(Inputs!G$6="Y", G$11 = 0), 0, IF(OR(Inputs!G16="Y",Inputs!G$23="Y"),PRODUCT(G$11, Prices!$E13),0))*G$10</f>
@@ -15934,7 +15934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C31" s="17" t="s">
         <v>10</v>
       </c>
@@ -15948,7 +15948,7 @@
       </c>
       <c r="F31" s="18">
         <f>IF(OR(Inputs!F$6="Y", F$11 = 0), 0, IF(OR(Inputs!F17="Y",Inputs!F$23="Y"),PRODUCT(F$11, Prices!$E14),0))*F$10</f>
-        <v>4550</v>
+        <v>6370.0000000000009</v>
       </c>
       <c r="G31" s="18">
         <f>IF(OR(Inputs!G$6="Y", G$11 = 0), 0, IF(OR(Inputs!G17="Y",Inputs!G$23="Y"),PRODUCT(G$11, Prices!$E14),0))*G$10</f>
@@ -15959,7 +15959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C32" s="17" t="s">
         <v>77</v>
       </c>
@@ -15973,7 +15973,7 @@
       </c>
       <c r="F32" s="18">
         <f>IF(OR(Inputs!F$6="Y", F$11 = 0), 0, IF(OR(Inputs!F18="Y",Inputs!F$23="Y"),PRODUCT(F$11, Prices!$E15),0))*F$10</f>
-        <v>4550</v>
+        <v>6370.0000000000009</v>
       </c>
       <c r="G32" s="18">
         <f>IF(OR(Inputs!G$6="Y", G$11 = 0), 0, IF(OR(Inputs!G18="Y",Inputs!G$23="Y"),PRODUCT(G$11, Prices!$E15),0))*G$10</f>
@@ -15984,7 +15984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C33" s="19" t="s">
         <v>11</v>
       </c>
@@ -16009,7 +16009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C34" s="19" t="s">
         <v>149</v>
       </c>
@@ -16023,7 +16023,7 @@
       </c>
       <c r="F34" s="20">
         <f>IF(OR(Inputs!F$6="Y", F$11 = 0), 0, IF(OR(Inputs!F20="Y",Inputs!F$24="Y",Inputs!F$25="Y",Inputs!F$28="Y"),PRODUCT(F$11, Prices!$E17),0))*F$10</f>
-        <v>6370.0000000000009</v>
+        <v>9100</v>
       </c>
       <c r="G34" s="20">
         <f>IF(OR(Inputs!G$6="Y", G$11 = 0), 0, IF(OR(Inputs!G20="Y",Inputs!G$24="Y",Inputs!G$25="Y",Inputs!G$28="Y"),PRODUCT(G$11, Prices!$E17),0))*G$10</f>
@@ -16034,7 +16034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C35" s="28" t="s">
         <v>22</v>
       </c>
@@ -16054,33 +16054,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C38" s="15" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="16">
         <f>IF(Inputs!D6="Y", Prices!$C$6, IF(Inputs!D6="N", Prices!$D$6, 0))</f>
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="E38" s="16">
         <f>IF(Inputs!E6="Y", Prices!$C$6, IF(Inputs!E6="N", Prices!$D$6, 0))</f>
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="F38" s="16">
         <f>IF(Inputs!F6="Y", Prices!$C$6, IF(Inputs!F6="N", Prices!$D$6, 0))</f>
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="G38" s="16">
         <f>IF(Inputs!G6="Y", Prices!$C$6, IF(Inputs!G6="N", Prices!$D$6, 0))</f>
@@ -16091,7 +16091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C39" s="17" t="s">
         <v>20</v>
       </c>
@@ -16116,7 +16116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C40" s="17" t="s">
         <v>8</v>
       </c>
@@ -16141,7 +16141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C41" s="17" t="s">
         <v>21</v>
       </c>
@@ -16166,7 +16166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C42" s="17" t="s">
         <v>9</v>
       </c>
@@ -16191,7 +16191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C43" s="17" t="s">
         <v>10</v>
       </c>
@@ -16216,7 +16216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C44" s="17" t="s">
         <v>77</v>
       </c>
@@ -16241,7 +16241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C45" s="19" t="s">
         <v>11</v>
       </c>
@@ -16266,7 +16266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C46" s="19" t="s">
         <v>149</v>
       </c>
@@ -16291,7 +16291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C47" s="19" t="s">
         <v>22</v>
       </c>
@@ -16316,12 +16316,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C50" s="15" t="s">
         <v>2</v>
       </c>
@@ -16335,7 +16335,7 @@
       </c>
       <c r="F50" s="16">
         <f>IF(Inputs!F$6="Y", 0, IF(F$11 = "", "", PRODUCT(F$11, Prices!$E$6)*F$10))</f>
-        <v>24570.000000000004</v>
+        <v>36400</v>
       </c>
       <c r="G50" s="16">
         <f>IF(Inputs!G$6="Y", 0, IF(G$11 = "", "", PRODUCT(G$11, Prices!$E$6)*G$10))</f>
@@ -16346,7 +16346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C51" s="17" t="s">
         <v>20</v>
       </c>
@@ -16371,7 +16371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C52" s="17" t="s">
         <v>8</v>
       </c>
@@ -16396,7 +16396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C53" s="17" t="s">
         <v>21</v>
       </c>
@@ -16421,7 +16421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C54" s="17" t="s">
         <v>9</v>
       </c>
@@ -16446,7 +16446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C55" s="17" t="s">
         <v>10</v>
       </c>
@@ -16471,7 +16471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C56" s="17" t="s">
         <v>77</v>
       </c>
@@ -16496,7 +16496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C57" s="19" t="s">
         <v>11</v>
       </c>
@@ -16521,7 +16521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C58" s="19" t="s">
         <v>149</v>
       </c>
@@ -16546,7 +16546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C59" s="28" t="s">
         <v>22</v>
       </c>
@@ -16566,18 +16566,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C62" s="17" t="s">
         <v>13</v>
       </c>
       <c r="D62" s="18">
         <f>IF(Inputs!D$23 = "Y", 0, IF(Inputs!D22="Y", Prices!$C20, 0))</f>
-        <v>8500</v>
+        <v>10200</v>
       </c>
       <c r="E62" s="18">
         <f>IF(Inputs!E$23 = "Y", 0, IF(Inputs!E22="Y", Prices!$C20, 0))</f>
@@ -16596,7 +16596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C63" s="17" t="s">
         <v>14</v>
       </c>
@@ -16610,7 +16610,7 @@
       </c>
       <c r="F63" s="18">
         <f>IF(Inputs!F23="Y", Prices!$C21, 0)</f>
-        <v>33000</v>
+        <v>39600</v>
       </c>
       <c r="G63" s="18">
         <f>IF(Inputs!G23="Y", Prices!$C21, 0)</f>
@@ -16621,7 +16621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C64" s="19" t="s">
         <v>15</v>
       </c>
@@ -16631,7 +16631,7 @@
       </c>
       <c r="E64" s="20">
         <f>IF(Inputs!E24="Y", Prices!$C22, 0)</f>
-        <v>35000</v>
+        <v>42000</v>
       </c>
       <c r="F64" s="20">
         <f>IF(Inputs!F24="Y", Prices!$C22, 0)</f>
@@ -16646,7 +16646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C65" s="19" t="s">
         <v>129</v>
       </c>
@@ -16656,7 +16656,7 @@
       </c>
       <c r="E65" s="20">
         <f>IF(Inputs!E25="Y", Prices!$C23, 0)</f>
-        <v>35000</v>
+        <v>42000</v>
       </c>
       <c r="F65" s="20">
         <f>IF(Inputs!F25="Y", Prices!$C23, 0)</f>
@@ -16671,7 +16671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C66" s="19" t="s">
         <v>16</v>
       </c>
@@ -16696,7 +16696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C67" s="19" t="s">
         <v>99</v>
       </c>
@@ -16721,7 +16721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C68" s="19" t="s">
         <v>150</v>
       </c>
@@ -16731,11 +16731,11 @@
       </c>
       <c r="E68" s="20">
         <f>IF(Inputs!E28="Y", Prices!$C26, 0)</f>
-        <v>28000</v>
+        <v>33600</v>
       </c>
       <c r="F68" s="20">
         <f>IF(Inputs!F28="Y", Prices!$C26, 0)</f>
-        <v>28000</v>
+        <v>33600</v>
       </c>
       <c r="G68" s="20">
         <f>IF(Inputs!G28="Y", Prices!$C26, 0)</f>
@@ -16746,7 +16746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C69" s="19" t="s">
         <v>98</v>
       </c>
@@ -16771,7 +16771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C70" s="81" t="s">
         <v>96</v>
       </c>
@@ -16785,7 +16785,7 @@
       </c>
       <c r="F70" s="84">
         <f>IF(Inputs!F12="Y", Prices!$C28, IF(Inputs!F12="Monthly", Prices!E28 * Prices!$L$29, 0))</f>
-        <v>9600</v>
+        <v>11520</v>
       </c>
       <c r="G70" s="84">
         <f>IF(Inputs!G12="Y", Prices!$C28, IF(Inputs!G12="Monthly", Prices!F28 * Prices!$L$29, 0))</f>
@@ -16796,7 +16796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B72" s="6" t="s">
         <v>45</v>
       </c>
@@ -16804,7 +16804,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C73" s="28" t="s">
         <v>13</v>
       </c>
@@ -16828,7 +16828,7 @@
       </c>
       <c r="K73" s="23">
         <f>D62+D73+$J73</f>
-        <v>8500.0010000000002</v>
+        <v>10200.001</v>
       </c>
       <c r="L73" s="23">
         <f t="shared" ref="L73:O73" si="2">E62+E73+$J73</f>
@@ -16847,7 +16847,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C74" s="17" t="s">
         <v>14</v>
       </c>
@@ -16861,7 +16861,7 @@
       </c>
       <c r="F74" s="18">
         <f>IF(Inputs!F$6="Y", 0, IF(F$11 = "", 0, IF(Inputs!F23 = "Y", F$11*Prices!$E21, 0)))*F$10</f>
-        <v>25480.000000000004</v>
+        <v>36400</v>
       </c>
       <c r="G74" s="18">
         <f>IF(Inputs!G$6="Y", 0, IF(G$11 = "", 0, IF(Inputs!G23 = "Y", G$11*Prices!$E21, 0)))*G$10</f>
@@ -16885,7 +16885,7 @@
       </c>
       <c r="M74" s="23">
         <f t="shared" si="3"/>
-        <v>58480.001100000001</v>
+        <v>76000.001099999994</v>
       </c>
       <c r="N74" s="23">
         <f t="shared" si="3"/>
@@ -16896,7 +16896,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C75" s="19" t="s">
         <v>15</v>
       </c>
@@ -16930,7 +16930,7 @@
       </c>
       <c r="L75" s="23">
         <f t="shared" si="5"/>
-        <v>35000.001199999999</v>
+        <v>42000.001199999999</v>
       </c>
       <c r="M75" s="23">
         <f t="shared" si="5"/>
@@ -16945,7 +16945,7 @@
         <v>1.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C76" s="19" t="s">
         <v>129</v>
       </c>
@@ -16979,7 +16979,7 @@
       </c>
       <c r="L76" s="23">
         <f t="shared" si="6"/>
-        <v>35000.001300000004</v>
+        <v>42000.001300000004</v>
       </c>
       <c r="M76" s="23">
         <f t="shared" si="6"/>
@@ -16994,7 +16994,7 @@
         <v>1.3000000000000002E-3</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C77" s="19" t="s">
         <v>16</v>
       </c>
@@ -17043,7 +17043,7 @@
         <v>1.4000000000000002E-3</v>
       </c>
     </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C78" s="19" t="s">
         <v>99</v>
       </c>
@@ -17092,7 +17092,7 @@
         <v>1.5000000000000002E-3</v>
       </c>
     </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C79" s="19" t="s">
         <v>150</v>
       </c>
@@ -17106,7 +17106,7 @@
       </c>
       <c r="F79" s="20">
         <f>IF(Inputs!F$6="Y", 0, IF(F$11 = "", 0, IF(Inputs!F28 = "Y", F$11*Prices!$E26, 0)))*F$10</f>
-        <v>16380</v>
+        <v>22750</v>
       </c>
       <c r="G79" s="20">
         <f>IF(Inputs!G$6="Y", 0, IF(G$11 = "", 0, IF(Inputs!G28 = "Y", G$11*Prices!$E26, 0)))*G$10</f>
@@ -17126,11 +17126,11 @@
       </c>
       <c r="L79" s="23">
         <f t="shared" si="6"/>
-        <v>28000.0016</v>
+        <v>33600.001600000003</v>
       </c>
       <c r="M79" s="23">
         <f t="shared" si="6"/>
-        <v>44380.001600000003</v>
+        <v>56350.001600000003</v>
       </c>
       <c r="N79" s="23">
         <f t="shared" si="6"/>
@@ -17141,7 +17141,7 @@
         <v>1.6000000000000003E-3</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C80" s="19" t="s">
         <v>98</v>
       </c>
@@ -17190,7 +17190,7 @@
         <v>1.7000000000000003E-3</v>
       </c>
     </row>
-    <row r="81" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C81" s="81" t="s">
         <v>96</v>
       </c>
@@ -17204,7 +17204,7 @@
       </c>
       <c r="F81" s="84">
         <f>IF(Inputs!F$6="Y", 0, IF(F$11 = "", 0, IF(Inputs!F12 = "Y", F$11*Prices!$E28, IF(Inputs!F12="Monthly", F$11*Prices!$E28*Prices!$L$29,0))))*F$10</f>
-        <v>38220</v>
+        <v>54600</v>
       </c>
       <c r="G81" s="84">
         <f>IF(Inputs!G$6="Y", 0, IF(G$11 = "", 0, IF(Inputs!G12 = "Y", G$11*Prices!$E28, IF(Inputs!G12="Monthly", G$11*Prices!$E28*Prices!$L$29,0))))*G$10</f>
@@ -17228,7 +17228,7 @@
       </c>
       <c r="M81" s="23">
         <f t="shared" si="6"/>
-        <v>47820.001799999998</v>
+        <v>66120.001799999998</v>
       </c>
       <c r="N81" s="23">
         <f t="shared" si="6"/>
@@ -17239,25 +17239,25 @@
         <v>1.8000000000000004E-3</v>
       </c>
     </row>
-    <row r="82" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
     </row>
-    <row r="83" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B83" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C84" s="17" t="s">
         <v>13</v>
       </c>
       <c r="D84" s="18">
         <f>D62</f>
-        <v>8500</v>
+        <v>10200</v>
       </c>
       <c r="E84" s="18">
         <f t="shared" ref="E84:H84" si="7">E62</f>
@@ -17296,7 +17296,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C85" s="17" t="s">
         <v>14</v>
       </c>
@@ -17310,7 +17310,7 @@
       </c>
       <c r="F85" s="18">
         <f>IF(F63=0,0,F63-SUM(F15:F20))</f>
-        <v>14000</v>
+        <v>16800</v>
       </c>
       <c r="G85" s="18">
         <f>IF(G63=0,0,G63-SUM(G15:G20))</f>
@@ -17341,7 +17341,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C86" s="19" t="s">
         <v>15</v>
       </c>
@@ -17351,7 +17351,7 @@
       </c>
       <c r="E86" s="20">
         <f>IF(E64=0,0,E64-SUM(E21:E23))</f>
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="F86" s="20">
         <f>IF(F64=0,0,F64-SUM(F21:F23))</f>
@@ -17386,7 +17386,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C87" s="19" t="s">
         <v>129</v>
       </c>
@@ -17396,7 +17396,7 @@
       </c>
       <c r="E87" s="20">
         <f>IF(E65=0,0,E65-IF(Inputs!E24="Y", 0, SUM(E21:E23)))</f>
-        <v>35000</v>
+        <v>42000</v>
       </c>
       <c r="F87" s="20">
         <f>IF(F65=0,0,F65-IF(Inputs!F24="Y", 0, SUM(F21:F23)))</f>
@@ -17431,7 +17431,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C88" s="19" t="s">
         <v>16</v>
       </c>
@@ -17476,7 +17476,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C89" s="19" t="s">
         <v>99</v>
       </c>
@@ -17521,7 +17521,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C90" s="19" t="s">
         <v>150</v>
       </c>
@@ -17531,11 +17531,11 @@
       </c>
       <c r="E90" s="20">
         <f>IF(E68=0,0,E68-IF(OR(Inputs!E24="Y",Inputs!E25="Y"), 0, E22))</f>
-        <v>28000</v>
+        <v>33600</v>
       </c>
       <c r="F90" s="20">
         <f>IF(F68=0,0,F68-IF(OR(Inputs!F24="Y",Inputs!F25="Y"), 0, F22))</f>
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="G90" s="20">
         <f>IF(G68=0,0,G68-IF(OR(Inputs!G24="Y",Inputs!G25="Y"), 0, G22))</f>
@@ -17566,7 +17566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C91" s="19" t="s">
         <v>98</v>
       </c>
@@ -17611,7 +17611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C92" s="81" t="s">
         <v>96</v>
       </c>
@@ -17625,7 +17625,7 @@
       </c>
       <c r="F92" s="84">
         <f t="shared" si="18"/>
-        <v>9600</v>
+        <v>11520</v>
       </c>
       <c r="G92" s="84">
         <f t="shared" si="18"/>
@@ -17656,12 +17656,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B94" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="95" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C95" s="28" t="s">
         <v>13</v>
       </c>
@@ -17681,7 +17681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C96" s="17" t="s">
         <v>14</v>
       </c>
@@ -17695,7 +17695,7 @@
       </c>
       <c r="F96" s="18">
         <f>IF(F74=0,0,F74-SUM(F27:F32))</f>
-        <v>910.00000000000364</v>
+        <v>3640</v>
       </c>
       <c r="G96" s="18">
         <f>IF(G74=0,0,G74-SUM(G27:G32))</f>
@@ -17706,7 +17706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C97" s="19" t="s">
         <v>15</v>
       </c>
@@ -17731,7 +17731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C98" s="19" t="s">
         <v>129</v>
       </c>
@@ -17756,7 +17756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C99" s="19" t="s">
         <v>16</v>
       </c>
@@ -17781,7 +17781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C100" s="19" t="s">
         <v>99</v>
       </c>
@@ -17806,7 +17806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C101" s="19" t="s">
         <v>150</v>
       </c>
@@ -17820,7 +17820,7 @@
       </c>
       <c r="F101" s="20">
         <f>IF(F79=0,0,F79-IF(OR(Inputs!F24="Y",Inputs!F25="Y"), 0, F34))</f>
-        <v>10010</v>
+        <v>13650</v>
       </c>
       <c r="G101" s="20">
         <f>IF(G79=0,0,G79-IF(OR(Inputs!G24="Y",Inputs!G25="Y"), 0, G34))</f>
@@ -17831,7 +17831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C102" s="19" t="s">
         <v>98</v>
       </c>
@@ -17856,7 +17856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C103" s="81" t="s">
         <v>96</v>
       </c>
@@ -17870,7 +17870,7 @@
       </c>
       <c r="F103" s="84">
         <f t="shared" si="22"/>
-        <v>38220</v>
+        <v>54600</v>
       </c>
       <c r="G103" s="84">
         <f t="shared" si="22"/>
@@ -17881,12 +17881,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B105" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="88">
         <v>2</v>
       </c>
@@ -17899,11 +17899,11 @@
       </c>
       <c r="E106" s="1">
         <f>_xlfn.IFNA(SUM(INDEX(E$62:E$70, MATCH($A106, L$84:L$92, 0)), INDEX(E$73:E$81, MATCH($A106, L$84:L$92, 0)))*Prices!$L$5*-1, 0)</f>
-        <v>-10500</v>
+        <v>-12600</v>
       </c>
       <c r="F106" s="1">
         <f>_xlfn.IFNA(SUM(INDEX(F$62:F$70, MATCH($A106, M$84:M$92, 0)), INDEX(F$73:F$81, MATCH($A106, M$84:M$92, 0)))*Prices!$L$5*-1, 0)</f>
-        <v>-14346</v>
+        <v>-19836</v>
       </c>
       <c r="G106" s="1">
         <f>_xlfn.IFNA(SUM(INDEX(G$62:G$70, MATCH($A106, N$84:N$92, 0)), INDEX(G$73:G$81, MATCH($A106, N$84:N$92, 0)))*Prices!$L$5*-1, 0)</f>
@@ -17914,7 +17914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="88">
         <v>3</v>
       </c>
@@ -17927,11 +17927,11 @@
       </c>
       <c r="E107" s="1">
         <f>_xlfn.IFNA(SUM(INDEX(E$62:E$70, MATCH($A107, L$84:L$92, 0)), INDEX(E$73:E$81, MATCH($A107, L$84:L$92, 0)))*Prices!$L$6*-1, 0)</f>
-        <v>-12600</v>
+        <v>-15120</v>
       </c>
       <c r="F107" s="1">
         <f>_xlfn.IFNA(SUM(INDEX(F$62:F$70, MATCH($A107, M$84:M$92, 0)), INDEX(F$73:F$81, MATCH($A107, M$84:M$92, 0)))*Prices!$L$6*-1, 0)</f>
-        <v>-19971</v>
+        <v>-25357.5</v>
       </c>
       <c r="G107" s="1">
         <f>_xlfn.IFNA(SUM(INDEX(G$62:G$70, MATCH($A107, N$84:N$92, 0)), INDEX(G$73:G$81, MATCH($A107, N$84:N$92, 0)))*Prices!$L$6*-1, 0)</f>
@@ -17942,7 +17942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="88">
         <v>4</v>
       </c>
@@ -17970,7 +17970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="88">
         <v>5</v>
       </c>
@@ -17998,7 +17998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="88">
         <v>6</v>
       </c>
@@ -18026,7 +18026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="88">
         <v>7</v>
       </c>
@@ -18054,7 +18054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="88">
         <v>8</v>
       </c>
@@ -18082,21 +18082,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B114" s="6" t="s">
         <v>112</v>
       </c>
       <c r="D114" s="7">
         <f>SUM(D38:D47, D50:D59, D62:D70, D73:D81, D106:D112)</f>
-        <v>23500</v>
+        <v>28200</v>
       </c>
       <c r="E114" s="7">
         <f t="shared" ref="E114:H114" si="23">SUM(E38:E47, E50:E59, E62:E70, E73:E81, E106:E112)</f>
-        <v>89900</v>
+        <v>107880</v>
       </c>
       <c r="F114" s="7">
         <f t="shared" si="23"/>
-        <v>170933</v>
+        <v>222676.5</v>
       </c>
       <c r="G114" s="7">
         <f t="shared" si="23"/>
@@ -18107,20 +18107,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B116" s="6" t="s">
         <v>42</v>
       </c>
       <c r="D116" s="1">
         <f>IF(D126=1, 0, IF(D126=2, $E$129, IF(D126=3, $E$130, IF(D126=4, $E$131, IF(D126=5, $E$132, "")))))</f>
-        <v>-11750</v>
+        <v>-14100</v>
       </c>
       <c r="E116" s="1">
         <f t="shared" ref="E116:H116" si="24">IF(E126=1, 0, IF(E126=2, $E$129, IF(E126=3, $E$130, IF(E126=4, $E$131, IF(E126=5, $E$132, "")))))</f>
-        <v>-40455</v>
+        <v>-48546</v>
       </c>
       <c r="F116" s="1">
         <f t="shared" si="24"/>
@@ -18135,14 +18135,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
     </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B118" s="6" t="s">
         <v>82</v>
       </c>
@@ -18163,21 +18163,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B120" s="6" t="s">
         <v>113</v>
       </c>
       <c r="D120" s="7">
         <f>SUM(D114, D116,D118)</f>
-        <v>8225</v>
+        <v>10575</v>
       </c>
       <c r="E120" s="7">
         <f t="shared" ref="E120:H120" si="25">SUM(E114, E116,E118)</f>
-        <v>49445</v>
+        <v>59334</v>
       </c>
       <c r="F120" s="7">
         <f t="shared" si="25"/>
-        <v>170933</v>
+        <v>222676.5</v>
       </c>
       <c r="G120" s="7">
         <f t="shared" si="25"/>
@@ -18188,7 +18188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B123" s="27"/>
       <c r="C123" s="21" t="s">
         <v>114</v>
@@ -18214,7 +18214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B124" s="27"/>
       <c r="D124" s="21">
         <v>0.1</v>
@@ -18232,7 +18232,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="125" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B125" s="27"/>
       <c r="D125" s="21">
         <f>SUM(D123:D124)</f>
@@ -18255,7 +18255,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="126" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B126" s="27"/>
       <c r="D126" s="21">
         <f>_xlfn.RANK.EQ(D125, $D$125:$H$125, 5)</f>
@@ -18278,36 +18278,36 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B127" s="27"/>
     </row>
-    <row r="128" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B128" s="27"/>
       <c r="C128" s="21" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="129" spans="2:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B129" s="27"/>
       <c r="D129" s="21" t="s">
         <v>116</v>
       </c>
       <c r="E129" s="98">
         <f>INDEX($D$114:$H$114, 1, MATCH(2, $D$126:$H$126, 0))*Prices!$L$10*-1</f>
-        <v>-40455</v>
-      </c>
-    </row>
-    <row r="130" spans="2:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
+        <v>-48546</v>
+      </c>
+    </row>
+    <row r="130" spans="2:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B130" s="27"/>
       <c r="D130" s="21" t="s">
         <v>117</v>
       </c>
       <c r="E130" s="23">
         <f>INDEX($D$114:$H$114, 1, MATCH(3, $D$126:$H$126, 0))*Prices!$L$11*-1</f>
-        <v>-11750</v>
-      </c>
-    </row>
-    <row r="131" spans="2:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
+        <v>-14100</v>
+      </c>
+    </row>
+    <row r="131" spans="2:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B131" s="27"/>
       <c r="D131" s="21" t="s">
         <v>118</v>
@@ -18317,7 +18317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="2:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B132" s="27"/>
       <c r="D132" s="21" t="s">
         <v>119</v>
@@ -18327,7 +18327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F136" s="2"/>
     </row>
   </sheetData>
@@ -18340,22 +18340,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.54296875" customWidth="1"/>
-    <col min="2" max="2" width="47.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="47.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="13.453125" customWidth="1"/>
-    <col min="9" max="10" width="4.1796875" customWidth="1"/>
-    <col min="11" max="11" width="38.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.54296875" customWidth="1"/>
+    <col min="6" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="10" width="4.140625" customWidth="1"/>
+    <col min="11" max="11" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C2" s="48" t="s">
         <v>5</v>
       </c>
@@ -18363,7 +18365,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>111</v>
       </c>
@@ -18381,7 +18383,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>18</v>
       </c>
@@ -18410,7 +18412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E5" s="48" t="s">
         <v>83</v>
       </c>
@@ -18430,33 +18432,33 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="42">
         <f>$L$27*15000</f>
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="D6" s="42">
         <f>IF(Inputs!$C$3="Monthly",33000,30000)</f>
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="E6" s="38">
-        <f>IF(Inputs!$C$3="Monthly",0.4,0.27)</f>
-        <v>0.27</v>
+        <f>ROUND(IF(Inputs!$C$3="Monthly",0.4,0.27), 2)</f>
+        <v>0.4</v>
       </c>
       <c r="F6" s="38">
-        <f>$E6*F$4</f>
-        <v>0.16200000000000001</v>
+        <f>ROUND($E6*F$4, 2)</f>
+        <v>0.24</v>
       </c>
       <c r="G6" s="38">
-        <f t="shared" ref="G6:H6" si="0">$E6*G$4</f>
-        <v>6.4799999999999996E-2</v>
+        <f>ROUND($E6*G$4, 2)</f>
+        <v>0.1</v>
       </c>
       <c r="H6" s="38">
-        <f t="shared" si="0"/>
-        <v>5.4000000000000006E-2</v>
+        <f>ROUND($E6*H$4, 2)</f>
+        <v>0.08</v>
       </c>
       <c r="K6" t="s">
         <v>26</v>
@@ -18465,14 +18467,14 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C8" s="43"/>
       <c r="D8" s="39"/>
       <c r="K8" s="6" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C9" s="46" t="s">
         <v>27</v>
       </c>
@@ -18487,29 +18489,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="17" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="44">
         <f>$L$27*1000</f>
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="E10" s="40">
-        <f>$L$27*0.04</f>
-        <v>0.04</v>
+        <f>ROUND($L$27*0.04, 2)</f>
+        <v>0.05</v>
       </c>
       <c r="F10" s="40">
-        <f t="shared" ref="F10:H18" si="1">$E10*F$4</f>
-        <v>2.4E-2</v>
+        <f>ROUND($E10*F$4, 2)</f>
+        <v>0.03</v>
       </c>
       <c r="G10" s="40">
-        <f t="shared" si="1"/>
-        <v>9.5999999999999992E-3</v>
+        <f>ROUND($E10*G$4, 2)</f>
+        <v>0.01</v>
       </c>
       <c r="H10" s="40">
-        <f t="shared" si="1"/>
-        <v>8.0000000000000002E-3</v>
+        <f>ROUND($E10*H$4, 2)</f>
+        <v>0.01</v>
       </c>
       <c r="K10" t="s">
         <v>116</v>
@@ -18518,29 +18520,29 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="17" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="44">
         <f>$L$27*4000</f>
-        <v>4000</v>
+        <v>4800</v>
       </c>
       <c r="E11" s="40">
-        <f>IF(Inputs!$C$3="Monthly",0.07,0.05)</f>
-        <v>0.05</v>
+        <f>ROUND(IF(Inputs!$C$3="Monthly",0.07,0.05), 2)</f>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F11" s="40">
-        <f t="shared" si="1"/>
-        <v>0.03</v>
+        <f>ROUND($E11*F$4, 2)</f>
+        <v>0.04</v>
       </c>
       <c r="G11" s="40">
-        <f t="shared" si="1"/>
-        <v>1.2E-2</v>
+        <f>ROUND($E11*G$4, 2)</f>
+        <v>0.02</v>
       </c>
       <c r="H11" s="40">
-        <f t="shared" si="1"/>
-        <v>1.0000000000000002E-2</v>
+        <f>ROUND($E11*H$4, 2)</f>
+        <v>0.01</v>
       </c>
       <c r="K11" t="s">
         <v>117</v>
@@ -18549,80 +18551,80 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="17" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="44">
         <f>$L$27*2000</f>
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="E12" s="40">
-        <f>$L$27*0.04</f>
-        <v>0.04</v>
+        <f>ROUND($L$27*0.04, 2)</f>
+        <v>0.05</v>
       </c>
       <c r="F12" s="40">
-        <f t="shared" si="1"/>
-        <v>2.4E-2</v>
+        <f>ROUND($E12*F$4, 2)</f>
+        <v>0.03</v>
       </c>
       <c r="G12" s="40">
-        <f t="shared" si="1"/>
-        <v>9.5999999999999992E-3</v>
+        <f>ROUND($E12*G$4, 2)</f>
+        <v>0.01</v>
       </c>
       <c r="H12" s="40">
-        <f t="shared" si="1"/>
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
+        <f>ROUND($E12*H$4, 2)</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="44">
         <f>$L$27*2000</f>
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="E13" s="40">
-        <f>$L$27*0.04</f>
-        <v>0.04</v>
+        <f>ROUND($L$27*0.04, 2)</f>
+        <v>0.05</v>
       </c>
       <c r="F13" s="40">
-        <f t="shared" si="1"/>
-        <v>2.4E-2</v>
+        <f>ROUND($E13*F$4, 2)</f>
+        <v>0.03</v>
       </c>
       <c r="G13" s="40">
-        <f t="shared" si="1"/>
-        <v>9.5999999999999992E-3</v>
+        <f>ROUND($E13*G$4, 2)</f>
+        <v>0.01</v>
       </c>
       <c r="H13" s="40">
-        <f t="shared" si="1"/>
-        <v>8.0000000000000002E-3</v>
+        <f>ROUND($E13*H$4, 2)</f>
+        <v>0.01</v>
       </c>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="44">
         <f>$L$27*6000</f>
-        <v>6000</v>
+        <v>7200</v>
       </c>
       <c r="E14" s="40">
-        <f>IF(Inputs!$C$3="Monthly",0.07,0.05)</f>
-        <v>0.05</v>
+        <f>ROUND(IF(Inputs!$C$3="Monthly",0.07,0.05), 2)</f>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F14" s="40">
-        <f t="shared" si="1"/>
-        <v>0.03</v>
+        <f>ROUND($E14*F$4, 2)</f>
+        <v>0.04</v>
       </c>
       <c r="G14" s="40">
-        <f t="shared" si="1"/>
-        <v>1.2E-2</v>
+        <f>ROUND($E14*G$4, 2)</f>
+        <v>0.02</v>
       </c>
       <c r="H14" s="40">
-        <f t="shared" si="1"/>
-        <v>1.0000000000000002E-2</v>
+        <f>ROUND($E14*H$4, 2)</f>
+        <v>0.01</v>
       </c>
       <c r="K14" s="58" t="s">
         <v>59</v>
@@ -18631,29 +18633,29 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="17" t="s">
         <v>77</v>
       </c>
       <c r="C15" s="44">
         <f>$L$27*4000</f>
-        <v>4000</v>
+        <v>4800</v>
       </c>
       <c r="E15" s="40">
-        <f>IF(Inputs!$C$3="Monthly",0.07,0.05)</f>
-        <v>0.05</v>
+        <f>ROUND(IF(Inputs!$C$3="Monthly",0.07,0.05), 2)</f>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F15" s="40">
-        <f t="shared" si="1"/>
-        <v>0.03</v>
+        <f>ROUND($E15*F$4, 2)</f>
+        <v>0.04</v>
       </c>
       <c r="G15" s="40">
-        <f t="shared" si="1"/>
-        <v>1.2E-2</v>
+        <f>ROUND($E15*G$4, 2)</f>
+        <v>0.02</v>
       </c>
       <c r="H15" s="40">
-        <f t="shared" si="1"/>
-        <v>1.0000000000000002E-2</v>
+        <f>ROUND($E15*H$4, 2)</f>
+        <v>0.01</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>60</v>
@@ -18662,80 +18664,80 @@
         <v>43466</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="45">
         <f>$L$27*10000</f>
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="E16" s="41">
-        <f>IF(Inputs!$C$3="Monthly",0.25,0.18)</f>
-        <v>0.18</v>
+        <f>ROUND(IF(Inputs!$C$3="Monthly",0.25,0.18), 2)</f>
+        <v>0.25</v>
       </c>
       <c r="F16" s="41">
-        <f t="shared" si="1"/>
-        <v>0.108</v>
+        <f>ROUND($E16*F$4, 2)</f>
+        <v>0.15</v>
       </c>
       <c r="G16" s="41">
-        <f t="shared" si="1"/>
-        <v>4.3199999999999995E-2</v>
+        <f>ROUND($E16*G$4, 2)</f>
+        <v>0.06</v>
       </c>
       <c r="H16" s="41">
-        <f t="shared" si="1"/>
-        <v>3.5999999999999997E-2</v>
+        <f>ROUND($E16*H$4, 2)</f>
+        <v>0.05</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="19" t="s">
         <v>149</v>
       </c>
       <c r="C17" s="45">
         <f>$L$27*10000</f>
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="E17" s="41">
-        <f>IF(Inputs!$C$3="Monthly",0.1,0.07)</f>
-        <v>7.0000000000000007E-2</v>
+        <f>ROUND(IF(Inputs!$C$3="Monthly",0.1,0.07), 2)</f>
+        <v>0.1</v>
       </c>
       <c r="F17" s="41">
-        <f t="shared" si="1"/>
-        <v>4.2000000000000003E-2</v>
+        <f>ROUND($E17*F$4, 2)</f>
+        <v>0.06</v>
       </c>
       <c r="G17" s="41">
-        <f t="shared" si="1"/>
-        <v>1.6800000000000002E-2</v>
+        <f>ROUND($E17*G$4, 2)</f>
+        <v>0.02</v>
       </c>
       <c r="H17" s="41">
-        <f t="shared" si="1"/>
-        <v>1.4000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
+        <f>ROUND($E17*H$4, 2)</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="19" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="45">
         <f>$L$27*5000</f>
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="E18" s="41">
-        <f>$L$27*0</f>
+        <f>ROUND($L$27*0, 2)</f>
         <v>0</v>
       </c>
       <c r="F18" s="41">
-        <f t="shared" si="1"/>
+        <f>ROUND($E18*F$4, 2)</f>
         <v>0</v>
       </c>
       <c r="G18" s="41">
-        <f t="shared" si="1"/>
+        <f>ROUND($E18*G$4, 2)</f>
         <v>0</v>
       </c>
       <c r="H18" s="41">
-        <f t="shared" si="1"/>
+        <f>ROUND($E18*H$4, 2)</f>
         <v>0</v>
       </c>
       <c r="K18" s="6" t="s">
@@ -18745,35 +18747,35 @@
         <v>3525</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C19" s="43"/>
       <c r="E19" s="39"/>
       <c r="F19" s="39"/>
       <c r="G19" s="39"/>
       <c r="H19" s="39"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="17" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="44">
         <f>$L$27*8500</f>
-        <v>8500</v>
+        <v>10200</v>
       </c>
       <c r="E20" s="40">
-        <f>$L$27*0</f>
+        <f>ROUND($L$27*0, 2)</f>
         <v>0</v>
       </c>
       <c r="F20" s="40">
-        <f t="shared" ref="F20:H26" si="2">$E20*F$4</f>
+        <f>ROUND($E20*F$4, 2)</f>
         <v>0</v>
       </c>
       <c r="G20" s="40">
-        <f t="shared" si="2"/>
+        <f>ROUND($E20*G$4, 2)</f>
         <v>0</v>
       </c>
       <c r="H20" s="40">
-        <f t="shared" si="2"/>
+        <f>ROUND($E20*H$4, 2)</f>
         <v>0</v>
       </c>
       <c r="K20" s="6" t="s">
@@ -18783,104 +18785,104 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="17" t="s">
         <v>14</v>
       </c>
       <c r="C21" s="44">
         <f>$L$27*33000</f>
-        <v>33000</v>
+        <v>39600</v>
       </c>
       <c r="E21" s="40">
-        <f>IF(Inputs!$C$3="Monthly",0.4,0.28)</f>
-        <v>0.28000000000000003</v>
+        <f>ROUND(IF(Inputs!$C$3="Monthly",0.4,0.28), 2)</f>
+        <v>0.4</v>
       </c>
       <c r="F21" s="40">
-        <f t="shared" si="2"/>
-        <v>0.16800000000000001</v>
+        <f>ROUND($E21*F$4, 2)</f>
+        <v>0.24</v>
       </c>
       <c r="G21" s="40">
-        <f t="shared" si="2"/>
-        <v>6.720000000000001E-2</v>
+        <f>ROUND($E21*G$4, 2)</f>
+        <v>0.1</v>
       </c>
       <c r="H21" s="40">
-        <f t="shared" si="2"/>
-        <v>5.6000000000000008E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
+        <f>ROUND($E21*H$4, 2)</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="45">
         <f>$L$27*35000</f>
-        <v>35000</v>
+        <v>42000</v>
       </c>
       <c r="E22" s="41">
-        <f>IF(Inputs!$C$3="Monthly",0.42,0.29)</f>
-        <v>0.28999999999999998</v>
+        <f>ROUND(IF(Inputs!$C$3="Monthly",0.42,0.29), 2)</f>
+        <v>0.42</v>
       </c>
       <c r="F22" s="41">
-        <f t="shared" si="2"/>
-        <v>0.17399999999999999</v>
+        <f>ROUND($E22*F$4, 2)</f>
+        <v>0.25</v>
       </c>
       <c r="G22" s="41">
-        <f t="shared" si="2"/>
-        <v>6.9599999999999995E-2</v>
+        <f>ROUND($E22*G$4, 2)</f>
+        <v>0.1</v>
       </c>
       <c r="H22" s="41">
-        <f t="shared" si="2"/>
-        <v>5.7999999999999996E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
+        <f>ROUND($E22*H$4, 2)</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="19" t="s">
         <v>129</v>
       </c>
       <c r="C23" s="45">
         <f>$L$27*35000</f>
-        <v>35000</v>
+        <v>42000</v>
       </c>
       <c r="E23" s="41">
-        <f>IF(Inputs!$C$3="Monthly",0.42,0.29)</f>
-        <v>0.28999999999999998</v>
+        <f>ROUND(IF(Inputs!$C$3="Monthly",0.42,0.29), 2)</f>
+        <v>0.42</v>
       </c>
       <c r="F23" s="41">
-        <f t="shared" si="2"/>
-        <v>0.17399999999999999</v>
+        <f>ROUND($E23*F$4, 2)</f>
+        <v>0.25</v>
       </c>
       <c r="G23" s="41">
-        <f t="shared" si="2"/>
-        <v>6.9599999999999995E-2</v>
+        <f>ROUND($E23*G$4, 2)</f>
+        <v>0.1</v>
       </c>
       <c r="H23" s="41">
-        <f t="shared" si="2"/>
-        <v>5.7999999999999996E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
+        <f>ROUND($E23*H$4, 2)</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="19" t="s">
         <v>16</v>
       </c>
       <c r="C24" s="45">
         <f>$L$27*28000</f>
-        <v>28000</v>
+        <v>33600</v>
       </c>
       <c r="E24" s="41">
-        <f>IF(Inputs!$C$3="Monthly",0.25,0.18)</f>
-        <v>0.18</v>
+        <f>ROUND(IF(Inputs!$C$3="Monthly",0.25,0.18), 2)</f>
+        <v>0.25</v>
       </c>
       <c r="F24" s="41">
-        <f t="shared" si="2"/>
-        <v>0.108</v>
+        <f>ROUND($E24*F$4, 2)</f>
+        <v>0.15</v>
       </c>
       <c r="G24" s="41">
-        <f t="shared" si="2"/>
-        <v>4.3199999999999995E-2</v>
+        <f>ROUND($E24*G$4, 2)</f>
+        <v>0.06</v>
       </c>
       <c r="H24" s="41">
-        <f t="shared" si="2"/>
-        <v>3.5999999999999997E-2</v>
+        <f>ROUND($E24*H$4, 2)</f>
+        <v>0.05</v>
       </c>
       <c r="K24" s="6" t="s">
         <v>125</v>
@@ -18890,118 +18892,120 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="19" t="s">
         <v>99</v>
       </c>
       <c r="C25" s="45">
-        <v>33600</v>
+        <f>$L$27*33600</f>
+        <v>40320</v>
       </c>
       <c r="E25" s="41">
-        <v>0.25</v>
+        <f>ROUND($L$27*0.25, 2)</f>
+        <v>0.3</v>
       </c>
       <c r="F25" s="41">
-        <f t="shared" ref="F25:H28" si="3">$E25*F$4</f>
-        <v>0.15</v>
+        <f>ROUND($E25*F$4, 2)</f>
+        <v>0.18</v>
       </c>
       <c r="G25" s="41">
-        <f t="shared" si="3"/>
+        <f>ROUND($E25*G$4, 2)</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H25" s="41">
+        <f>ROUND($E25*H$4, 2)</f>
         <v>0.06</v>
       </c>
-      <c r="H25" s="41">
-        <f t="shared" si="3"/>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="19" t="s">
         <v>150</v>
       </c>
       <c r="C26" s="45">
         <f>$L$27*28000</f>
-        <v>28000</v>
+        <v>33600</v>
       </c>
       <c r="E26" s="41">
-        <f>IF(Inputs!$C$3="Monthly",0.25,0.18)</f>
-        <v>0.18</v>
+        <f>ROUND(IF(Inputs!$C$3="Monthly",0.25,0.18), 2)</f>
+        <v>0.25</v>
       </c>
       <c r="F26" s="41">
-        <f t="shared" si="2"/>
-        <v>0.108</v>
+        <f>ROUND($E26*F$4, 2)</f>
+        <v>0.15</v>
       </c>
       <c r="G26" s="41">
-        <f t="shared" si="2"/>
-        <v>4.3199999999999995E-2</v>
+        <f>ROUND($E26*G$4, 2)</f>
+        <v>0.06</v>
       </c>
       <c r="H26" s="41">
-        <f t="shared" si="2"/>
-        <v>3.5999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
+        <f>ROUND($E26*H$4, 2)</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="19" t="s">
         <v>98</v>
       </c>
       <c r="C27" s="45">
         <f>$L$27*20000</f>
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="E27" s="41">
-        <f>$L$27*0.14</f>
-        <v>0.14000000000000001</v>
+        <f>ROUND($L$27*0.14, 2)</f>
+        <v>0.17</v>
       </c>
       <c r="F27" s="41">
-        <f t="shared" si="3"/>
-        <v>8.4000000000000005E-2</v>
+        <f>ROUND($E27*F$4, 2)</f>
+        <v>0.1</v>
       </c>
       <c r="G27" s="41">
-        <f t="shared" si="3"/>
-        <v>3.3600000000000005E-2</v>
+        <f>ROUND($E27*G$4, 2)</f>
+        <v>0.04</v>
       </c>
       <c r="H27" s="41">
-        <f t="shared" si="3"/>
-        <v>2.8000000000000004E-2</v>
+        <f>ROUND($E27*H$4, 2)</f>
+        <v>0.03</v>
       </c>
       <c r="K27" s="6" t="s">
         <v>126</v>
       </c>
       <c r="L27" s="97">
         <f>IF(Inputs!$C$3="Monthly",Prices!$L$24,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="81" t="s">
         <v>96</v>
       </c>
       <c r="C28" s="82">
         <f>$L$27*9600</f>
-        <v>9600</v>
+        <v>11520</v>
       </c>
       <c r="E28" s="83">
-        <f>IF(Inputs!$C$3="Monthly",0.6,0.42)</f>
-        <v>0.42</v>
+        <f>ROUND(IF(Inputs!$C$3="Monthly",0.6,0.42), 2)</f>
+        <v>0.6</v>
       </c>
       <c r="F28" s="83">
-        <f t="shared" si="3"/>
-        <v>0.252</v>
+        <f>ROUND($E28*F$4, 2)</f>
+        <v>0.36</v>
       </c>
       <c r="G28" s="83">
-        <f t="shared" si="3"/>
-        <v>0.10079999999999999</v>
+        <f>ROUND($E28*G$4, 2)</f>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H28" s="83">
-        <f t="shared" si="3"/>
-        <v>8.4000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
+        <f>ROUND($E28*H$4, 2)</f>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="K29" t="s">
         <v>133</v>
       </c>
       <c r="L29" s="102">
         <f>IF(Inputs!$C$3="Quarterly",$L$24,1)</f>
-        <v>1.2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -19019,16 +19023,16 @@
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>134</v>
       </c>
@@ -19060,7 +19064,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -19097,7 +19101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>50000</v>
       </c>
@@ -19128,7 +19132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>100000</v>
       </c>
@@ -19165,7 +19169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>300000</v>
       </c>
@@ -19202,7 +19206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>500000</v>
       </c>
@@ -19239,7 +19243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>1000000</v>
       </c>
@@ -19270,7 +19274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>2000000</v>
       </c>
@@ -19301,7 +19305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H10" s="106">
         <f t="shared" ref="H10:H16" si="0">H2*$C2</f>
         <v>5000</v>
@@ -19323,7 +19327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H11" s="106">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -19350,7 +19354,7 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H12" s="106">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -19372,7 +19376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H13" s="106">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -19394,7 +19398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H14" s="106">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -19416,7 +19420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E15" s="2"/>
       <c r="F15" s="103"/>
       <c r="H15" s="106">
@@ -19440,7 +19444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E16" s="2"/>
       <c r="F16" s="103"/>
       <c r="H16" s="106">
@@ -19464,15 +19468,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E17" s="2"/>
       <c r="F17" s="103"/>
     </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E18" s="2"/>
       <c r="F18" s="103"/>
     </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E19" s="2"/>
       <c r="F19" s="103"/>
       <c r="H19" s="6" t="s">
@@ -19491,7 +19495,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E20" s="2"/>
       <c r="F20" s="103"/>
       <c r="G20" t="s">
@@ -19518,7 +19522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E21" s="2"/>
       <c r="F21" s="103"/>
       <c r="G21" t="s">

--- a/0273NYP - New York Premier/Premier_Pricing_Model.xlsx
+++ b/0273NYP - New York Premier/Premier_Pricing_Model.xlsx
@@ -805,7 +805,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -985,6 +985,12 @@
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1296,7 +1302,7 @@
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3856,7 +3862,7 @@
       </c>
       <c r="D32" s="20">
         <f>SUM(Calcs!D34:H34)</f>
-        <v>9100</v>
+        <v>22750</v>
       </c>
       <c r="F32" s="37">
         <f t="shared" si="11"/>
@@ -3876,11 +3882,11 @@
       </c>
       <c r="K32" s="20">
         <f t="shared" si="8"/>
-        <v>227.5000000000002</v>
+        <v>568.75000000000045</v>
       </c>
       <c r="L32" s="20">
         <f t="shared" si="9"/>
-        <v>8872.5</v>
+        <v>22181.25</v>
       </c>
       <c r="M32" s="20">
         <f t="shared" si="10"/>
@@ -4557,7 +4563,7 @@
       </c>
       <c r="D53" s="20">
         <f>SUM(Calcs!D101:H101)</f>
-        <v>13650</v>
+        <v>0</v>
       </c>
       <c r="F53" s="31">
         <f t="shared" si="33"/>
@@ -4576,11 +4582,11 @@
       </c>
       <c r="K53" s="20">
         <f t="shared" ref="K53" si="47">F53*$D53</f>
-        <v>341.25000000000028</v>
+        <v>0</v>
       </c>
       <c r="L53" s="20">
         <f t="shared" ref="L53" si="48">G53*$D53</f>
-        <v>13308.75</v>
+        <v>0</v>
       </c>
       <c r="M53" s="20">
         <f t="shared" ref="M53" si="49">H53*$D53</f>
@@ -4694,11 +4700,11 @@
       </c>
       <c r="F58" s="8">
         <f>IFERROR(SUM(K72:K80)/SUM($K$72:$N$80), 0)</f>
-        <v>0.21695509972070098</v>
+        <v>0.21437180621755603</v>
       </c>
       <c r="G58" s="8">
         <f t="shared" ref="G58:I58" si="61">IFERROR(SUM(L72:L80)/SUM($K$72:$N$80), 0)</f>
-        <v>0.74791611216831821</v>
+        <v>0.75049940567146312</v>
       </c>
       <c r="H58" s="8">
         <f t="shared" si="61"/>
@@ -4710,11 +4716,11 @@
       </c>
       <c r="K58" s="12">
         <f>F58*$D$58</f>
-        <v>-15818.955663485331</v>
+        <v>-15630.598692643771</v>
       </c>
       <c r="L58" s="12">
         <f>G58*$D$58</f>
-        <v>-54533.181444584668</v>
+        <v>-54721.538415426228</v>
       </c>
       <c r="M58" s="12">
         <f>H58*$D$58</f>
@@ -4735,35 +4741,35 @@
       </c>
       <c r="F59" s="3">
         <f>IFERROR(SUM(K10:K58)/SUM($K10:$N58), 0)</f>
-        <v>0.28672184236256343</v>
+        <v>0.28724686970239294</v>
       </c>
       <c r="G59" s="3">
         <f>IFERROR(SUM(L10:L58)/SUM($K10:$N58), 0)</f>
-        <v>0.68846994704044473</v>
+        <v>0.68794491970061522</v>
       </c>
       <c r="H59" s="3">
         <f>IFERROR(SUM(M10:M58)/SUM($K10:$N58), 0)</f>
-        <v>2.2578493071370578E-2</v>
+        <v>2.2578493071370574E-2</v>
       </c>
       <c r="I59" s="3">
         <f>1-F59-G59-H59</f>
-        <v>2.2297175256212089E-3</v>
+        <v>2.2297175256213234E-3</v>
       </c>
       <c r="K59" s="12">
         <f>F59*$D$59</f>
-        <v>-17961.97653664515</v>
+        <v>-17994.867399376108</v>
       </c>
       <c r="L59" s="12">
         <f>G59*$D$59</f>
-        <v>-43129.888302295702</v>
+        <v>-43096.997439564744</v>
       </c>
       <c r="M59" s="12">
         <f>H59*$D$59</f>
-        <v>-1414.4522769490811</v>
+        <v>-1414.4522769490809</v>
       </c>
       <c r="N59" s="12">
         <f>I59*$D$59</f>
-        <v>-139.68288411006625</v>
+        <v>-139.68288411007342</v>
       </c>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.25">
@@ -4819,11 +4825,11 @@
       </c>
       <c r="K62" s="12">
         <f>SUM(K58:K60, K36:K44, K10:K19,K24:K33,K47:K55)</f>
-        <v>82853.848102899821</v>
+        <v>83009.314211010424</v>
       </c>
       <c r="L62" s="12">
         <f>SUM(L58:L60, L36:L44, L10:L19,L24:L33,L47:L55)</f>
-        <v>202385.68025311962</v>
+        <v>202230.21414500903</v>
       </c>
       <c r="M62" s="12">
         <f>SUM(M58:M60, M36:M44, M10:M19,M24:M33,M47:M55)</f>
@@ -4831,7 +4837,7 @@
       </c>
       <c r="N62" s="12">
         <f>SUM(N58:N60, N36:N44, N10:N19,N24:N33,N47:N55)</f>
-        <v>660.24277137047557</v>
+        <v>660.24277137046829</v>
       </c>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.25">
@@ -4840,7 +4846,7 @@
       </c>
       <c r="D63" s="23">
         <f>SUM(K62:N62)</f>
-        <v>292585.49999999994</v>
+        <v>292585.5</v>
       </c>
       <c r="K63" s="12"/>
       <c r="L63" s="12"/>
@@ -4909,11 +4915,11 @@
       </c>
       <c r="K67" s="12">
         <f>SUM(Outputs_Timeline!X:X)</f>
-        <v>272219.81048755813</v>
+        <v>272692.03879094415</v>
       </c>
       <c r="L67" s="12">
         <f>SUM(Outputs_Timeline!Y:Y)</f>
-        <v>651497.75064385089</v>
+        <v>651025.52234046499</v>
       </c>
       <c r="M67" s="12">
         <f>SUM(Outputs_Timeline!Z:Z)</f>
@@ -4928,11 +4934,11 @@
       <c r="D68" s="1"/>
       <c r="K68" s="53">
         <f>IFERROR(K67/$D$67, 0)</f>
-        <v>0.25346565241001279</v>
+        <v>0.25390534728302677</v>
       </c>
       <c r="L68" s="53">
         <f>IFERROR(L67/$D$67, 0)</f>
-        <v>0.60661383208973652</v>
+        <v>0.60617413721672275</v>
       </c>
       <c r="M68" s="53">
         <f>IFERROR(M67/$D$67, 0)</f>
@@ -5064,11 +5070,11 @@
       <c r="E74" s="21"/>
       <c r="F74" s="24">
         <f>IFERROR(SUM(K38,K17:K19,K49,K31:K33)/SUM($K$38:$N$38,$K$17:$M$19,$K$49:$N$49,$K$31:$N$33),0)</f>
-        <v>8.9183835182250398E-2</v>
+        <v>7.7768729641693818E-2</v>
       </c>
       <c r="G74" s="24">
         <f>IFERROR(SUM(L38,L17:L19,L49,L31:L33)/SUM($K$38:$N$38,$K$17:$M$19,$K$49:$N$49,$K$31:$N$33),0)</f>
-        <v>0.91081616481774963</v>
+        <v>0.92223127035830621</v>
       </c>
       <c r="H74" s="24">
         <f>IFERROR(SUM(M38,M17:M19,M49,M31:M33)/SUM($K$38:$N$38,$K$17:$M$19,$K$49:$N$49,$K$31:$N$33),0)</f>
@@ -5081,11 +5087,11 @@
       <c r="J74" s="21"/>
       <c r="K74" s="25">
         <f t="shared" si="63"/>
-        <v>3745.7210776545166</v>
+        <v>3266.2866449511403</v>
       </c>
       <c r="L74" s="25">
         <f t="shared" si="63"/>
-        <v>38254.278922345482</v>
+        <v>38733.713355048858</v>
       </c>
       <c r="M74" s="25">
         <f t="shared" si="63"/>
@@ -5108,11 +5114,11 @@
       <c r="E75" s="21"/>
       <c r="F75" s="24">
         <f>IFERROR(SUM(K39,K17:K19,K50,K31:K33)/SUM($K$39:$N$39,$K$17:$M$19,$K$50:$N$50,$K$31:$N$33),0)</f>
-        <v>9.2669172932330832E-2</v>
+        <v>8.4016393442622947E-2</v>
       </c>
       <c r="G75" s="24">
         <f t="shared" ref="G75:I75" si="64">IFERROR(SUM(L39,L17:L19,L50,L31:L33)/SUM($K$39:$N$39,$K$17:$M$19,$K$50:$N$50,$K$31:$N$33),0)</f>
-        <v>0.90733082706766921</v>
+        <v>0.91598360655737709</v>
       </c>
       <c r="H75" s="24">
         <f t="shared" si="64"/>
@@ -5125,11 +5131,11 @@
       <c r="J75" s="21"/>
       <c r="K75" s="25">
         <f t="shared" ref="K75" si="65">F75*$D75</f>
-        <v>3892.105263157895</v>
+        <v>3528.688524590164</v>
       </c>
       <c r="L75" s="25">
         <f t="shared" ref="L75" si="66">G75*$D75</f>
-        <v>38107.894736842107</v>
+        <v>38471.311475409835</v>
       </c>
       <c r="M75" s="25">
         <f t="shared" ref="M75" si="67">H75*$D75</f>
@@ -8073,11 +8079,11 @@
       </c>
       <c r="Q27" s="63">
         <f>$F27*Outputs_Internal!K$62/12+N27*'MARA Prices'!$F$5</f>
-        <v>7403.2934336821718</v>
+        <v>7416.4108865540038</v>
       </c>
       <c r="R27" s="63">
         <f>$F27*Outputs_Internal!L$62/12+N27*'MARA Prices'!$F$6</f>
-        <v>17488.791771356966</v>
+        <v>17475.674318485137</v>
       </c>
       <c r="S27" s="63">
         <f>N27*'MARA Prices'!$F$4</f>
@@ -8089,7 +8095,7 @@
       </c>
       <c r="U27" s="63">
         <f>$F27*Outputs_Internal!N$62/12</f>
-        <v>55.707983834383874</v>
+        <v>55.707983834383263</v>
       </c>
       <c r="W27" s="63">
         <f t="shared" si="2"/>
@@ -8179,11 +8185,11 @@
       </c>
       <c r="Q28" s="63">
         <f>$F28*Outputs_Internal!K$62/12+N28*'MARA Prices'!$F$5</f>
-        <v>7403.2934336821718</v>
+        <v>7416.4108865540038</v>
       </c>
       <c r="R28" s="63">
         <f>$F28*Outputs_Internal!L$62/12+N28*'MARA Prices'!$F$6</f>
-        <v>17488.791771356966</v>
+        <v>17475.674318485137</v>
       </c>
       <c r="S28" s="63">
         <f>N28*'MARA Prices'!$F$4</f>
@@ -8195,7 +8201,7 @@
       </c>
       <c r="U28" s="63">
         <f>$F28*Outputs_Internal!N$62/12</f>
-        <v>55.707983834383874</v>
+        <v>55.707983834383263</v>
       </c>
       <c r="W28" s="63">
         <f t="shared" si="2"/>
@@ -8285,11 +8291,11 @@
       </c>
       <c r="Q29" s="63">
         <f>$F29*Outputs_Internal!K$62/12+N29*'MARA Prices'!$F$5</f>
-        <v>7403.2934336821718</v>
+        <v>7416.4108865540038</v>
       </c>
       <c r="R29" s="63">
         <f>$F29*Outputs_Internal!L$62/12+N29*'MARA Prices'!$F$6</f>
-        <v>17488.791771356966</v>
+        <v>17475.674318485137</v>
       </c>
       <c r="S29" s="63">
         <f>N29*'MARA Prices'!$F$4</f>
@@ -8301,7 +8307,7 @@
       </c>
       <c r="U29" s="63">
         <f>$F29*Outputs_Internal!N$62/12</f>
-        <v>55.707983834383874</v>
+        <v>55.707983834383263</v>
       </c>
       <c r="W29" s="63">
         <f t="shared" si="2"/>
@@ -8309,11 +8315,11 @@
       </c>
       <c r="X29" s="63">
         <f t="shared" si="3"/>
-        <v>26766.130301046513</v>
+        <v>26805.482659662011</v>
       </c>
       <c r="Y29" s="63">
         <f t="shared" si="4"/>
-        <v>73222.625314070887</v>
+        <v>73183.27295545541</v>
       </c>
       <c r="Z29" s="63">
         <f t="shared" si="5"/>
@@ -8321,7 +8327,7 @@
       </c>
       <c r="AA29" s="63">
         <f t="shared" si="6"/>
-        <v>10067.123951503152</v>
+        <v>10067.12395150315</v>
       </c>
       <c r="AD29" s="63">
         <f>'MARA Prices'!H$21*$G29</f>
@@ -8391,11 +8397,11 @@
       </c>
       <c r="Q30" s="63">
         <f>$F30*Outputs_Internal!K$62/12+N30*'MARA Prices'!$F$5</f>
-        <v>7403.2934336821718</v>
+        <v>7416.4108865540038</v>
       </c>
       <c r="R30" s="63">
         <f>$F30*Outputs_Internal!L$62/12+N30*'MARA Prices'!$F$6</f>
-        <v>17488.791771356966</v>
+        <v>17475.674318485137</v>
       </c>
       <c r="S30" s="63">
         <f>N30*'MARA Prices'!$F$4</f>
@@ -8407,7 +8413,7 @@
       </c>
       <c r="U30" s="63">
         <f>$F30*Outputs_Internal!N$62/12</f>
-        <v>55.707983834383874</v>
+        <v>55.707983834383263</v>
       </c>
       <c r="W30" s="63">
         <f t="shared" si="2"/>
@@ -8497,11 +8503,11 @@
       </c>
       <c r="Q31" s="63">
         <f>$F31*Outputs_Internal!K$62/12+N31*'MARA Prices'!$F$5</f>
-        <v>7403.2934336821718</v>
+        <v>7416.4108865540038</v>
       </c>
       <c r="R31" s="63">
         <f>$F31*Outputs_Internal!L$62/12+N31*'MARA Prices'!$F$6</f>
-        <v>17488.791771356966</v>
+        <v>17475.674318485137</v>
       </c>
       <c r="S31" s="63">
         <f>N31*'MARA Prices'!$F$4</f>
@@ -8513,7 +8519,7 @@
       </c>
       <c r="U31" s="63">
         <f>$F31*Outputs_Internal!N$62/12</f>
-        <v>55.707983834383874</v>
+        <v>55.707983834383263</v>
       </c>
       <c r="W31" s="63">
         <f t="shared" si="2"/>
@@ -8603,11 +8609,11 @@
       </c>
       <c r="Q32" s="63">
         <f>$F32*Outputs_Internal!K$62/12+N32*'MARA Prices'!$F$5</f>
-        <v>7403.2934336821718</v>
+        <v>7416.4108865540038</v>
       </c>
       <c r="R32" s="63">
         <f>$F32*Outputs_Internal!L$62/12+N32*'MARA Prices'!$F$6</f>
-        <v>17488.791771356966</v>
+        <v>17475.674318485137</v>
       </c>
       <c r="S32" s="63">
         <f>N32*'MARA Prices'!$F$4</f>
@@ -8619,7 +8625,7 @@
       </c>
       <c r="U32" s="63">
         <f>$F32*Outputs_Internal!N$62/12</f>
-        <v>55.707983834383874</v>
+        <v>55.707983834383263</v>
       </c>
       <c r="W32" s="63">
         <f t="shared" si="2"/>
@@ -8627,11 +8633,11 @@
       </c>
       <c r="X32" s="63">
         <f t="shared" si="3"/>
-        <v>22209.880301046516</v>
+        <v>22249.232659662011</v>
       </c>
       <c r="Y32" s="63">
         <f t="shared" si="4"/>
-        <v>52466.375314070901</v>
+        <v>52427.02295545541</v>
       </c>
       <c r="Z32" s="63">
         <f t="shared" si="5"/>
@@ -8639,7 +8645,7 @@
       </c>
       <c r="AA32" s="63">
         <f t="shared" si="6"/>
-        <v>10067.123951503152</v>
+        <v>10067.12395150315</v>
       </c>
       <c r="AD32" s="63">
         <f>'MARA Prices'!H$21*$G32</f>
@@ -8709,11 +8715,11 @@
       </c>
       <c r="Q33" s="63">
         <f>$F33*Outputs_Internal!K$62/12+N33*'MARA Prices'!$F$5</f>
-        <v>7423.9184336821718</v>
+        <v>7437.0358865540038</v>
       </c>
       <c r="R33" s="63">
         <f>$F33*Outputs_Internal!L$62/12+N33*'MARA Prices'!$F$6</f>
-        <v>17509.416771356966</v>
+        <v>17496.299318485137</v>
       </c>
       <c r="S33" s="63">
         <f>N33*'MARA Prices'!$F$4</f>
@@ -8725,7 +8731,7 @@
       </c>
       <c r="U33" s="63">
         <f>$F33*Outputs_Internal!N$62/12</f>
-        <v>55.707983834383874</v>
+        <v>55.707983834383263</v>
       </c>
       <c r="W33" s="63">
         <f t="shared" si="2"/>
@@ -8815,11 +8821,11 @@
       </c>
       <c r="Q34" s="63">
         <f>$F34*Outputs_Internal!K$62/12+N34*'MARA Prices'!$F$5</f>
-        <v>7423.9184336821718</v>
+        <v>7437.0358865540038</v>
       </c>
       <c r="R34" s="63">
         <f>$F34*Outputs_Internal!L$62/12+N34*'MARA Prices'!$F$6</f>
-        <v>17509.416771356966</v>
+        <v>17496.299318485137</v>
       </c>
       <c r="S34" s="63">
         <f>N34*'MARA Prices'!$F$4</f>
@@ -8831,7 +8837,7 @@
       </c>
       <c r="U34" s="63">
         <f>$F34*Outputs_Internal!N$62/12</f>
-        <v>55.707983834383874</v>
+        <v>55.707983834383263</v>
       </c>
       <c r="W34" s="63">
         <f t="shared" si="2"/>
@@ -8921,11 +8927,11 @@
       </c>
       <c r="Q35" s="63">
         <f>$F35*Outputs_Internal!K$62/12+N35*'MARA Prices'!$F$5</f>
-        <v>7423.9184336821718</v>
+        <v>7437.0358865540038</v>
       </c>
       <c r="R35" s="63">
         <f>$F35*Outputs_Internal!L$62/12+N35*'MARA Prices'!$F$6</f>
-        <v>17509.416771356966</v>
+        <v>17496.299318485137</v>
       </c>
       <c r="S35" s="63">
         <f>N35*'MARA Prices'!$F$4</f>
@@ -8937,7 +8943,7 @@
       </c>
       <c r="U35" s="63">
         <f>$F35*Outputs_Internal!N$62/12</f>
-        <v>55.707983834383874</v>
+        <v>55.707983834383263</v>
       </c>
       <c r="W35" s="63">
         <f t="shared" si="2"/>
@@ -8945,11 +8951,11 @@
       </c>
       <c r="X35" s="63">
         <f t="shared" si="3"/>
-        <v>22271.755301046516</v>
+        <v>22311.107659662011</v>
       </c>
       <c r="Y35" s="63">
         <f t="shared" si="4"/>
-        <v>52528.250314070901</v>
+        <v>52488.89795545541</v>
       </c>
       <c r="Z35" s="63">
         <f t="shared" si="5"/>
@@ -8957,7 +8963,7 @@
       </c>
       <c r="AA35" s="63">
         <f t="shared" si="6"/>
-        <v>10562.123951503152</v>
+        <v>10562.12395150315</v>
       </c>
       <c r="AD35" s="63">
         <f>'MARA Prices'!H$21*$G35</f>
@@ -9027,11 +9033,11 @@
       </c>
       <c r="Q36" s="63">
         <f>$F36*Outputs_Internal!K$62/12+N36*'MARA Prices'!$F$5</f>
-        <v>7423.9184336821718</v>
+        <v>7437.0358865540038</v>
       </c>
       <c r="R36" s="63">
         <f>$F36*Outputs_Internal!L$62/12+N36*'MARA Prices'!$F$6</f>
-        <v>17509.416771356966</v>
+        <v>17496.299318485137</v>
       </c>
       <c r="S36" s="63">
         <f>N36*'MARA Prices'!$F$4</f>
@@ -9043,7 +9049,7 @@
       </c>
       <c r="U36" s="63">
         <f>$F36*Outputs_Internal!N$62/12</f>
-        <v>55.707983834383874</v>
+        <v>55.707983834383263</v>
       </c>
       <c r="W36" s="63">
         <f t="shared" si="2"/>
@@ -9133,11 +9139,11 @@
       </c>
       <c r="Q37" s="63">
         <f>$F37*Outputs_Internal!K$62/12+N37*'MARA Prices'!$F$5</f>
-        <v>7423.9184336821718</v>
+        <v>7437.0358865540038</v>
       </c>
       <c r="R37" s="63">
         <f>$F37*Outputs_Internal!L$62/12+N37*'MARA Prices'!$F$6</f>
-        <v>17509.416771356966</v>
+        <v>17496.299318485137</v>
       </c>
       <c r="S37" s="63">
         <f>N37*'MARA Prices'!$F$4</f>
@@ -9149,7 +9155,7 @@
       </c>
       <c r="U37" s="63">
         <f>$F37*Outputs_Internal!N$62/12</f>
-        <v>55.707983834383874</v>
+        <v>55.707983834383263</v>
       </c>
       <c r="W37" s="63">
         <f t="shared" ref="W37:W68" si="7">IF(MOD(MONTH($B37),3)=0,SUM(I35:I37,P35:P37),0)</f>
@@ -9239,11 +9245,11 @@
       </c>
       <c r="Q38" s="63">
         <f>$F38*Outputs_Internal!K$62/12+N38*'MARA Prices'!$F$5</f>
-        <v>7423.9184336821718</v>
+        <v>7437.0358865540038</v>
       </c>
       <c r="R38" s="63">
         <f>$F38*Outputs_Internal!L$62/12+N38*'MARA Prices'!$F$6</f>
-        <v>17509.416771356966</v>
+        <v>17496.299318485137</v>
       </c>
       <c r="S38" s="63">
         <f>N38*'MARA Prices'!$F$4</f>
@@ -9255,7 +9261,7 @@
       </c>
       <c r="U38" s="63">
         <f>$F38*Outputs_Internal!N$62/12</f>
-        <v>55.707983834383874</v>
+        <v>55.707983834383263</v>
       </c>
       <c r="W38" s="63">
         <f t="shared" si="7"/>
@@ -9263,11 +9269,11 @@
       </c>
       <c r="X38" s="63">
         <f t="shared" si="8"/>
-        <v>22271.755301046516</v>
+        <v>22311.107659662011</v>
       </c>
       <c r="Y38" s="63">
         <f t="shared" si="9"/>
-        <v>52528.250314070901</v>
+        <v>52488.89795545541</v>
       </c>
       <c r="Z38" s="63">
         <f t="shared" si="10"/>
@@ -9275,7 +9281,7 @@
       </c>
       <c r="AA38" s="63">
         <f t="shared" si="11"/>
-        <v>10562.123951503152</v>
+        <v>10562.12395150315</v>
       </c>
       <c r="AD38" s="63">
         <f>'MARA Prices'!H$21*$G38</f>
@@ -9345,11 +9351,11 @@
       </c>
       <c r="Q39" s="63">
         <f>$F39*Outputs_Internal!K$62/12+N39*'MARA Prices'!$F$5</f>
-        <v>7423.9184336821718</v>
+        <v>7437.0358865540038</v>
       </c>
       <c r="R39" s="63">
         <f>$F39*Outputs_Internal!L$62/12+N39*'MARA Prices'!$F$6</f>
-        <v>17509.416771356966</v>
+        <v>17496.299318485137</v>
       </c>
       <c r="S39" s="63">
         <f>N39*'MARA Prices'!$F$4</f>
@@ -9361,7 +9367,7 @@
       </c>
       <c r="U39" s="63">
         <f>$F39*Outputs_Internal!N$62/12</f>
-        <v>55.707983834383874</v>
+        <v>55.707983834383263</v>
       </c>
       <c r="W39" s="63">
         <f t="shared" si="7"/>
@@ -9451,11 +9457,11 @@
       </c>
       <c r="Q40" s="63">
         <f>$F40*Outputs_Internal!K$62/12+N40*'MARA Prices'!$F$5</f>
-        <v>7423.9184336821718</v>
+        <v>7437.0358865540038</v>
       </c>
       <c r="R40" s="63">
         <f>$F40*Outputs_Internal!L$62/12+N40*'MARA Prices'!$F$6</f>
-        <v>17509.416771356966</v>
+        <v>17496.299318485137</v>
       </c>
       <c r="S40" s="63">
         <f>N40*'MARA Prices'!$F$4</f>
@@ -9467,7 +9473,7 @@
       </c>
       <c r="U40" s="63">
         <f>$F40*Outputs_Internal!N$62/12</f>
-        <v>55.707983834383874</v>
+        <v>55.707983834383263</v>
       </c>
       <c r="W40" s="63">
         <f t="shared" si="7"/>
@@ -9557,11 +9563,11 @@
       </c>
       <c r="Q41" s="63">
         <f>$F41*Outputs_Internal!K$62/12+N41*'MARA Prices'!$F$5</f>
-        <v>7423.9184336821718</v>
+        <v>7437.0358865540038</v>
       </c>
       <c r="R41" s="63">
         <f>$F41*Outputs_Internal!L$62/12+N41*'MARA Prices'!$F$6</f>
-        <v>17509.416771356966</v>
+        <v>17496.299318485137</v>
       </c>
       <c r="S41" s="63">
         <f>N41*'MARA Prices'!$F$4</f>
@@ -9573,7 +9579,7 @@
       </c>
       <c r="U41" s="63">
         <f>$F41*Outputs_Internal!N$62/12</f>
-        <v>55.707983834383874</v>
+        <v>55.707983834383263</v>
       </c>
       <c r="W41" s="63">
         <f t="shared" si="7"/>
@@ -9581,11 +9587,11 @@
       </c>
       <c r="X41" s="63">
         <f t="shared" si="8"/>
-        <v>22271.755301046516</v>
+        <v>22311.107659662011</v>
       </c>
       <c r="Y41" s="63">
         <f t="shared" si="9"/>
-        <v>52528.250314070901</v>
+        <v>52488.89795545541</v>
       </c>
       <c r="Z41" s="63">
         <f t="shared" si="10"/>
@@ -9593,7 +9599,7 @@
       </c>
       <c r="AA41" s="63">
         <f t="shared" si="11"/>
-        <v>10562.123951503152</v>
+        <v>10562.12395150315</v>
       </c>
       <c r="AD41" s="63">
         <f>'MARA Prices'!H$21*$G41</f>
@@ -9663,11 +9669,11 @@
       </c>
       <c r="Q42" s="63">
         <f>$F42*Outputs_Internal!K$62/12+N42*'MARA Prices'!$F$5</f>
-        <v>7423.9184336821718</v>
+        <v>7437.0358865540038</v>
       </c>
       <c r="R42" s="63">
         <f>$F42*Outputs_Internal!L$62/12+N42*'MARA Prices'!$F$6</f>
-        <v>17509.416771356966</v>
+        <v>17496.299318485137</v>
       </c>
       <c r="S42" s="63">
         <f>N42*'MARA Prices'!$F$4</f>
@@ -9679,7 +9685,7 @@
       </c>
       <c r="U42" s="63">
         <f>$F42*Outputs_Internal!N$62/12</f>
-        <v>55.707983834383874</v>
+        <v>55.707983834383263</v>
       </c>
       <c r="W42" s="63">
         <f t="shared" si="7"/>
@@ -9769,11 +9775,11 @@
       </c>
       <c r="Q43" s="63">
         <f>$F43*Outputs_Internal!K$62/12+N43*'MARA Prices'!$F$5</f>
-        <v>7423.9184336821718</v>
+        <v>7437.0358865540038</v>
       </c>
       <c r="R43" s="63">
         <f>$F43*Outputs_Internal!L$62/12+N43*'MARA Prices'!$F$6</f>
-        <v>17509.416771356966</v>
+        <v>17496.299318485137</v>
       </c>
       <c r="S43" s="63">
         <f>N43*'MARA Prices'!$F$4</f>
@@ -9785,7 +9791,7 @@
       </c>
       <c r="U43" s="63">
         <f>$F43*Outputs_Internal!N$62/12</f>
-        <v>55.707983834383874</v>
+        <v>55.707983834383263</v>
       </c>
       <c r="W43" s="63">
         <f t="shared" si="7"/>
@@ -9875,11 +9881,11 @@
       </c>
       <c r="Q44" s="63">
         <f>$F44*Outputs_Internal!K$62/12+N44*'MARA Prices'!$F$5</f>
-        <v>7423.9184336821718</v>
+        <v>7437.0358865540038</v>
       </c>
       <c r="R44" s="63">
         <f>$F44*Outputs_Internal!L$62/12+N44*'MARA Prices'!$F$6</f>
-        <v>17509.416771356966</v>
+        <v>17496.299318485137</v>
       </c>
       <c r="S44" s="63">
         <f>N44*'MARA Prices'!$F$4</f>
@@ -9891,7 +9897,7 @@
       </c>
       <c r="U44" s="63">
         <f>$F44*Outputs_Internal!N$62/12</f>
-        <v>55.707983834383874</v>
+        <v>55.707983834383263</v>
       </c>
       <c r="W44" s="63">
         <f t="shared" si="7"/>
@@ -9899,11 +9905,11 @@
       </c>
       <c r="X44" s="63">
         <f t="shared" si="8"/>
-        <v>22271.755301046516</v>
+        <v>22311.107659662011</v>
       </c>
       <c r="Y44" s="63">
         <f t="shared" si="9"/>
-        <v>52528.250314070901</v>
+        <v>52488.89795545541</v>
       </c>
       <c r="Z44" s="63">
         <f t="shared" si="10"/>
@@ -9911,7 +9917,7 @@
       </c>
       <c r="AA44" s="63">
         <f t="shared" si="11"/>
-        <v>10562.123951503152</v>
+        <v>10562.12395150315</v>
       </c>
       <c r="AD44" s="63">
         <f>'MARA Prices'!H$21*$G44</f>
@@ -9981,11 +9987,11 @@
       </c>
       <c r="Q45" s="63">
         <f>$F45*Outputs_Internal!K$62/12+N45*'MARA Prices'!$F$5</f>
-        <v>7445.5746836821718</v>
+        <v>7458.6921365540038</v>
       </c>
       <c r="R45" s="63">
         <f>$F45*Outputs_Internal!L$62/12+N45*'MARA Prices'!$F$6</f>
-        <v>17531.073021356966</v>
+        <v>17517.955568485137</v>
       </c>
       <c r="S45" s="63">
         <f>N45*'MARA Prices'!$F$4</f>
@@ -9997,7 +10003,7 @@
       </c>
       <c r="U45" s="63">
         <f>$F45*Outputs_Internal!N$62/12</f>
-        <v>55.707983834383874</v>
+        <v>55.707983834383263</v>
       </c>
       <c r="W45" s="63">
         <f t="shared" si="7"/>
@@ -10087,11 +10093,11 @@
       </c>
       <c r="Q46" s="63">
         <f>$F46*Outputs_Internal!K$62/12+N46*'MARA Prices'!$F$5</f>
-        <v>7445.5746836821718</v>
+        <v>7458.6921365540038</v>
       </c>
       <c r="R46" s="63">
         <f>$F46*Outputs_Internal!L$62/12+N46*'MARA Prices'!$F$6</f>
-        <v>17531.073021356966</v>
+        <v>17517.955568485137</v>
       </c>
       <c r="S46" s="63">
         <f>N46*'MARA Prices'!$F$4</f>
@@ -10103,7 +10109,7 @@
       </c>
       <c r="U46" s="63">
         <f>$F46*Outputs_Internal!N$62/12</f>
-        <v>55.707983834383874</v>
+        <v>55.707983834383263</v>
       </c>
       <c r="W46" s="63">
         <f t="shared" si="7"/>
@@ -10193,11 +10199,11 @@
       </c>
       <c r="Q47" s="63">
         <f>$F47*Outputs_Internal!K$62/12+N47*'MARA Prices'!$F$5</f>
-        <v>7445.5746836821718</v>
+        <v>7458.6921365540038</v>
       </c>
       <c r="R47" s="63">
         <f>$F47*Outputs_Internal!L$62/12+N47*'MARA Prices'!$F$6</f>
-        <v>17531.073021356966</v>
+        <v>17517.955568485137</v>
       </c>
       <c r="S47" s="63">
         <f>N47*'MARA Prices'!$F$4</f>
@@ -10209,7 +10215,7 @@
       </c>
       <c r="U47" s="63">
         <f>$F47*Outputs_Internal!N$62/12</f>
-        <v>55.707983834383874</v>
+        <v>55.707983834383263</v>
       </c>
       <c r="W47" s="63">
         <f t="shared" si="7"/>
@@ -10217,11 +10223,11 @@
       </c>
       <c r="X47" s="63">
         <f t="shared" si="8"/>
-        <v>22336.724051046516</v>
+        <v>22376.076409662011</v>
       </c>
       <c r="Y47" s="63">
         <f t="shared" si="9"/>
-        <v>52593.219064070901</v>
+        <v>52553.86670545541</v>
       </c>
       <c r="Z47" s="63">
         <f t="shared" si="10"/>
@@ -10229,7 +10235,7 @@
       </c>
       <c r="AA47" s="63">
         <f t="shared" si="11"/>
-        <v>11081.873951503152</v>
+        <v>11081.87395150315</v>
       </c>
       <c r="AD47" s="63">
         <f>'MARA Prices'!H$21*$G47</f>
@@ -10299,11 +10305,11 @@
       </c>
       <c r="Q48" s="63">
         <f>$F48*Outputs_Internal!K$62/12+N48*'MARA Prices'!$F$5</f>
-        <v>7445.5746836821718</v>
+        <v>7458.6921365540038</v>
       </c>
       <c r="R48" s="63">
         <f>$F48*Outputs_Internal!L$62/12+N48*'MARA Prices'!$F$6</f>
-        <v>17531.073021356966</v>
+        <v>17517.955568485137</v>
       </c>
       <c r="S48" s="63">
         <f>N48*'MARA Prices'!$F$4</f>
@@ -10315,7 +10321,7 @@
       </c>
       <c r="U48" s="63">
         <f>$F48*Outputs_Internal!N$62/12</f>
-        <v>55.707983834383874</v>
+        <v>55.707983834383263</v>
       </c>
       <c r="W48" s="63">
         <f t="shared" si="7"/>
@@ -10405,11 +10411,11 @@
       </c>
       <c r="Q49" s="63">
         <f>$F49*Outputs_Internal!K$62/12+N49*'MARA Prices'!$F$5</f>
-        <v>7445.5746836821718</v>
+        <v>7458.6921365540038</v>
       </c>
       <c r="R49" s="63">
         <f>$F49*Outputs_Internal!L$62/12+N49*'MARA Prices'!$F$6</f>
-        <v>17531.073021356966</v>
+        <v>17517.955568485137</v>
       </c>
       <c r="S49" s="63">
         <f>N49*'MARA Prices'!$F$4</f>
@@ -10421,7 +10427,7 @@
       </c>
       <c r="U49" s="63">
         <f>$F49*Outputs_Internal!N$62/12</f>
-        <v>55.707983834383874</v>
+        <v>55.707983834383263</v>
       </c>
       <c r="W49" s="63">
         <f t="shared" si="7"/>
@@ -10511,11 +10517,11 @@
       </c>
       <c r="Q50" s="63">
         <f>$F50*Outputs_Internal!K$62/12+N50*'MARA Prices'!$F$5</f>
-        <v>7445.5746836821718</v>
+        <v>7458.6921365540038</v>
       </c>
       <c r="R50" s="63">
         <f>$F50*Outputs_Internal!L$62/12+N50*'MARA Prices'!$F$6</f>
-        <v>17531.073021356966</v>
+        <v>17517.955568485137</v>
       </c>
       <c r="S50" s="63">
         <f>N50*'MARA Prices'!$F$4</f>
@@ -10527,7 +10533,7 @@
       </c>
       <c r="U50" s="63">
         <f>$F50*Outputs_Internal!N$62/12</f>
-        <v>55.707983834383874</v>
+        <v>55.707983834383263</v>
       </c>
       <c r="W50" s="63">
         <f t="shared" si="7"/>
@@ -10535,11 +10541,11 @@
       </c>
       <c r="X50" s="63">
         <f t="shared" si="8"/>
-        <v>22336.724051046516</v>
+        <v>22376.076409662011</v>
       </c>
       <c r="Y50" s="63">
         <f t="shared" si="9"/>
-        <v>52593.219064070901</v>
+        <v>52553.86670545541</v>
       </c>
       <c r="Z50" s="63">
         <f t="shared" si="10"/>
@@ -10547,7 +10553,7 @@
       </c>
       <c r="AA50" s="63">
         <f t="shared" si="11"/>
-        <v>11081.873951503152</v>
+        <v>11081.87395150315</v>
       </c>
       <c r="AD50" s="63">
         <f>'MARA Prices'!H$21*$G50</f>
@@ -10617,11 +10623,11 @@
       </c>
       <c r="Q51" s="63">
         <f>$F51*Outputs_Internal!K$62/12+N51*'MARA Prices'!$F$5</f>
-        <v>7445.5746836821718</v>
+        <v>7458.6921365540038</v>
       </c>
       <c r="R51" s="63">
         <f>$F51*Outputs_Internal!L$62/12+N51*'MARA Prices'!$F$6</f>
-        <v>17531.073021356966</v>
+        <v>17517.955568485137</v>
       </c>
       <c r="S51" s="63">
         <f>N51*'MARA Prices'!$F$4</f>
@@ -10633,7 +10639,7 @@
       </c>
       <c r="U51" s="63">
         <f>$F51*Outputs_Internal!N$62/12</f>
-        <v>55.707983834383874</v>
+        <v>55.707983834383263</v>
       </c>
       <c r="W51" s="63">
         <f t="shared" si="7"/>
@@ -10723,11 +10729,11 @@
       </c>
       <c r="Q52" s="63">
         <f>$F52*Outputs_Internal!K$62/12+N52*'MARA Prices'!$F$5</f>
-        <v>7445.5746836821718</v>
+        <v>7458.6921365540038</v>
       </c>
       <c r="R52" s="63">
         <f>$F52*Outputs_Internal!L$62/12+N52*'MARA Prices'!$F$6</f>
-        <v>17531.073021356966</v>
+        <v>17517.955568485137</v>
       </c>
       <c r="S52" s="63">
         <f>N52*'MARA Prices'!$F$4</f>
@@ -10739,7 +10745,7 @@
       </c>
       <c r="U52" s="63">
         <f>$F52*Outputs_Internal!N$62/12</f>
-        <v>55.707983834383874</v>
+        <v>55.707983834383263</v>
       </c>
       <c r="W52" s="63">
         <f t="shared" si="7"/>
@@ -10829,11 +10835,11 @@
       </c>
       <c r="Q53" s="63">
         <f>$F53*Outputs_Internal!K$62/12+N53*'MARA Prices'!$F$5</f>
-        <v>7445.5746836821718</v>
+        <v>7458.6921365540038</v>
       </c>
       <c r="R53" s="63">
         <f>$F53*Outputs_Internal!L$62/12+N53*'MARA Prices'!$F$6</f>
-        <v>17531.073021356966</v>
+        <v>17517.955568485137</v>
       </c>
       <c r="S53" s="63">
         <f>N53*'MARA Prices'!$F$4</f>
@@ -10845,7 +10851,7 @@
       </c>
       <c r="U53" s="63">
         <f>$F53*Outputs_Internal!N$62/12</f>
-        <v>55.707983834383874</v>
+        <v>55.707983834383263</v>
       </c>
       <c r="W53" s="63">
         <f t="shared" si="7"/>
@@ -10853,11 +10859,11 @@
       </c>
       <c r="X53" s="63">
         <f t="shared" si="8"/>
-        <v>22336.724051046516</v>
+        <v>22376.076409662011</v>
       </c>
       <c r="Y53" s="63">
         <f t="shared" si="9"/>
-        <v>52593.219064070901</v>
+        <v>52553.86670545541</v>
       </c>
       <c r="Z53" s="63">
         <f t="shared" si="10"/>
@@ -10865,7 +10871,7 @@
       </c>
       <c r="AA53" s="63">
         <f t="shared" si="11"/>
-        <v>11081.873951503152</v>
+        <v>11081.87395150315</v>
       </c>
       <c r="AD53" s="63">
         <f>'MARA Prices'!H$21*$G53</f>
@@ -10935,11 +10941,11 @@
       </c>
       <c r="Q54" s="63">
         <f>$F54*Outputs_Internal!K$62/12+N54*'MARA Prices'!$F$5</f>
-        <v>7445.5746836821718</v>
+        <v>7458.6921365540038</v>
       </c>
       <c r="R54" s="63">
         <f>$F54*Outputs_Internal!L$62/12+N54*'MARA Prices'!$F$6</f>
-        <v>17531.073021356966</v>
+        <v>17517.955568485137</v>
       </c>
       <c r="S54" s="63">
         <f>N54*'MARA Prices'!$F$4</f>
@@ -10951,7 +10957,7 @@
       </c>
       <c r="U54" s="63">
         <f>$F54*Outputs_Internal!N$62/12</f>
-        <v>55.707983834383874</v>
+        <v>55.707983834383263</v>
       </c>
       <c r="W54" s="63">
         <f t="shared" si="7"/>
@@ -11041,11 +11047,11 @@
       </c>
       <c r="Q55" s="63">
         <f>$F55*Outputs_Internal!K$62/12+N55*'MARA Prices'!$F$5</f>
-        <v>7445.5746836821718</v>
+        <v>7458.6921365540038</v>
       </c>
       <c r="R55" s="63">
         <f>$F55*Outputs_Internal!L$62/12+N55*'MARA Prices'!$F$6</f>
-        <v>17531.073021356966</v>
+        <v>17517.955568485137</v>
       </c>
       <c r="S55" s="63">
         <f>N55*'MARA Prices'!$F$4</f>
@@ -11057,7 +11063,7 @@
       </c>
       <c r="U55" s="63">
         <f>$F55*Outputs_Internal!N$62/12</f>
-        <v>55.707983834383874</v>
+        <v>55.707983834383263</v>
       </c>
       <c r="W55" s="63">
         <f t="shared" si="7"/>
@@ -11147,11 +11153,11 @@
       </c>
       <c r="Q56" s="63">
         <f>$F56*Outputs_Internal!K$62/12+N56*'MARA Prices'!$F$5</f>
-        <v>7445.5746836821718</v>
+        <v>7458.6921365540038</v>
       </c>
       <c r="R56" s="63">
         <f>$F56*Outputs_Internal!L$62/12+N56*'MARA Prices'!$F$6</f>
-        <v>17531.073021356966</v>
+        <v>17517.955568485137</v>
       </c>
       <c r="S56" s="63">
         <f>N56*'MARA Prices'!$F$4</f>
@@ -11163,7 +11169,7 @@
       </c>
       <c r="U56" s="63">
         <f>$F56*Outputs_Internal!N$62/12</f>
-        <v>55.707983834383874</v>
+        <v>55.707983834383263</v>
       </c>
       <c r="W56" s="63">
         <f t="shared" si="7"/>
@@ -11171,11 +11177,11 @@
       </c>
       <c r="X56" s="63">
         <f t="shared" si="8"/>
-        <v>22336.724051046516</v>
+        <v>22376.076409662011</v>
       </c>
       <c r="Y56" s="63">
         <f t="shared" si="9"/>
-        <v>52593.219064070901</v>
+        <v>52553.86670545541</v>
       </c>
       <c r="Z56" s="63">
         <f t="shared" si="10"/>
@@ -11183,7 +11189,7 @@
       </c>
       <c r="AA56" s="63">
         <f t="shared" si="11"/>
-        <v>11081.873951503152</v>
+        <v>11081.87395150315</v>
       </c>
       <c r="AD56" s="63">
         <f>'MARA Prices'!H$21*$G56</f>
@@ -11253,11 +11259,11 @@
       </c>
       <c r="Q57" s="63">
         <f>$F57*Outputs_Internal!K$62/12+N57*'MARA Prices'!$F$5</f>
-        <v>7468.3137461821716</v>
+        <v>7481.4311990540036</v>
       </c>
       <c r="R57" s="63">
         <f>$F57*Outputs_Internal!L$62/12+N57*'MARA Prices'!$F$6</f>
-        <v>17553.812083856967</v>
+        <v>17540.694630985137</v>
       </c>
       <c r="S57" s="63">
         <f>N57*'MARA Prices'!$F$4</f>
@@ -11269,7 +11275,7 @@
       </c>
       <c r="U57" s="63">
         <f>$F57*Outputs_Internal!N$62/12</f>
-        <v>55.707983834383874</v>
+        <v>55.707983834383263</v>
       </c>
       <c r="W57" s="63">
         <f t="shared" si="7"/>
@@ -11359,11 +11365,11 @@
       </c>
       <c r="Q58" s="63">
         <f>$F58*Outputs_Internal!K$62/12+N58*'MARA Prices'!$F$5</f>
-        <v>7468.3137461821716</v>
+        <v>7481.4311990540036</v>
       </c>
       <c r="R58" s="63">
         <f>$F58*Outputs_Internal!L$62/12+N58*'MARA Prices'!$F$6</f>
-        <v>17553.812083856967</v>
+        <v>17540.694630985137</v>
       </c>
       <c r="S58" s="63">
         <f>N58*'MARA Prices'!$F$4</f>
@@ -11375,7 +11381,7 @@
       </c>
       <c r="U58" s="63">
         <f>$F58*Outputs_Internal!N$62/12</f>
-        <v>55.707983834383874</v>
+        <v>55.707983834383263</v>
       </c>
       <c r="W58" s="63">
         <f t="shared" si="7"/>
@@ -11465,11 +11471,11 @@
       </c>
       <c r="Q59" s="63">
         <f>$F59*Outputs_Internal!K$62/12+N59*'MARA Prices'!$F$5</f>
-        <v>7468.3137461821716</v>
+        <v>7481.4311990540036</v>
       </c>
       <c r="R59" s="63">
         <f>$F59*Outputs_Internal!L$62/12+N59*'MARA Prices'!$F$6</f>
-        <v>17553.812083856967</v>
+        <v>17540.694630985137</v>
       </c>
       <c r="S59" s="63">
         <f>N59*'MARA Prices'!$F$4</f>
@@ -11481,7 +11487,7 @@
       </c>
       <c r="U59" s="63">
         <f>$F59*Outputs_Internal!N$62/12</f>
-        <v>55.707983834383874</v>
+        <v>55.707983834383263</v>
       </c>
       <c r="W59" s="63">
         <f t="shared" si="7"/>
@@ -11489,11 +11495,11 @@
       </c>
       <c r="X59" s="63">
         <f t="shared" si="8"/>
-        <v>22404.941238546515</v>
+        <v>22444.29359716201</v>
       </c>
       <c r="Y59" s="63">
         <f t="shared" si="9"/>
-        <v>52661.4362515709</v>
+        <v>52622.083892955416</v>
       </c>
       <c r="Z59" s="63">
         <f t="shared" si="10"/>
@@ -11501,7 +11507,7 @@
       </c>
       <c r="AA59" s="63">
         <f t="shared" si="11"/>
-        <v>11627.611451503153</v>
+        <v>11627.611451503151</v>
       </c>
       <c r="AD59" s="63">
         <f>'MARA Prices'!H$21*$G59</f>
@@ -11571,11 +11577,11 @@
       </c>
       <c r="Q60" s="63">
         <f>$F60*Outputs_Internal!K$62/12+N60*'MARA Prices'!$F$5</f>
-        <v>7468.3137461821716</v>
+        <v>7481.4311990540036</v>
       </c>
       <c r="R60" s="63">
         <f>$F60*Outputs_Internal!L$62/12+N60*'MARA Prices'!$F$6</f>
-        <v>17553.812083856967</v>
+        <v>17540.694630985137</v>
       </c>
       <c r="S60" s="63">
         <f>N60*'MARA Prices'!$F$4</f>
@@ -11587,7 +11593,7 @@
       </c>
       <c r="U60" s="63">
         <f>$F60*Outputs_Internal!N$62/12</f>
-        <v>55.707983834383874</v>
+        <v>55.707983834383263</v>
       </c>
       <c r="W60" s="63">
         <f t="shared" si="7"/>
@@ -11677,11 +11683,11 @@
       </c>
       <c r="Q61" s="63">
         <f>$F61*Outputs_Internal!K$62/12+N61*'MARA Prices'!$F$5</f>
-        <v>7468.3137461821716</v>
+        <v>7481.4311990540036</v>
       </c>
       <c r="R61" s="63">
         <f>$F61*Outputs_Internal!L$62/12+N61*'MARA Prices'!$F$6</f>
-        <v>17553.812083856967</v>
+        <v>17540.694630985137</v>
       </c>
       <c r="S61" s="63">
         <f>N61*'MARA Prices'!$F$4</f>
@@ -11693,7 +11699,7 @@
       </c>
       <c r="U61" s="63">
         <f>$F61*Outputs_Internal!N$62/12</f>
-        <v>55.707983834383874</v>
+        <v>55.707983834383263</v>
       </c>
       <c r="W61" s="63">
         <f t="shared" si="7"/>
@@ -11783,11 +11789,11 @@
       </c>
       <c r="Q62" s="63">
         <f>$F62*Outputs_Internal!K$62/12+N62*'MARA Prices'!$F$5</f>
-        <v>7468.3137461821716</v>
+        <v>7481.4311990540036</v>
       </c>
       <c r="R62" s="63">
         <f>$F62*Outputs_Internal!L$62/12+N62*'MARA Prices'!$F$6</f>
-        <v>17553.812083856967</v>
+        <v>17540.694630985137</v>
       </c>
       <c r="S62" s="63">
         <f>N62*'MARA Prices'!$F$4</f>
@@ -11799,7 +11805,7 @@
       </c>
       <c r="U62" s="63">
         <f>$F62*Outputs_Internal!N$62/12</f>
-        <v>55.707983834383874</v>
+        <v>55.707983834383263</v>
       </c>
       <c r="W62" s="63">
         <f t="shared" si="7"/>
@@ -11807,11 +11813,11 @@
       </c>
       <c r="X62" s="63">
         <f t="shared" si="8"/>
-        <v>22404.941238546515</v>
+        <v>22444.29359716201</v>
       </c>
       <c r="Y62" s="63">
         <f t="shared" si="9"/>
-        <v>52661.4362515709</v>
+        <v>52622.083892955416</v>
       </c>
       <c r="Z62" s="63">
         <f t="shared" si="10"/>
@@ -11819,7 +11825,7 @@
       </c>
       <c r="AA62" s="63">
         <f t="shared" si="11"/>
-        <v>11627.611451503153</v>
+        <v>11627.611451503151</v>
       </c>
       <c r="AD62" s="63">
         <f>'MARA Prices'!H$21*$G62</f>
@@ -16023,7 +16029,7 @@
       </c>
       <c r="F34" s="20">
         <f>IF(OR(Inputs!F$6="Y", F$11 = 0), 0, IF(OR(Inputs!F20="Y",Inputs!F$24="Y",Inputs!F$25="Y",Inputs!F$28="Y"),PRODUCT(F$11, Prices!$E17),0))*F$10</f>
-        <v>9100</v>
+        <v>22750</v>
       </c>
       <c r="G34" s="20">
         <f>IF(OR(Inputs!G$6="Y", G$11 = 0), 0, IF(OR(Inputs!G20="Y",Inputs!G$24="Y",Inputs!G$25="Y",Inputs!G$28="Y"),PRODUCT(G$11, Prices!$E17),0))*G$10</f>
@@ -17820,7 +17826,7 @@
       </c>
       <c r="F101" s="20">
         <f>IF(F79=0,0,F79-IF(OR(Inputs!F24="Y",Inputs!F25="Y"), 0, F34))</f>
-        <v>13650</v>
+        <v>0</v>
       </c>
       <c r="G101" s="20">
         <f>IF(G79=0,0,G79-IF(OR(Inputs!G24="Y",Inputs!G25="Y"), 0, G34))</f>
@@ -18340,9 +18346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -18457,7 +18461,7 @@
         <v>0.1</v>
       </c>
       <c r="H6" s="38">
-        <f>ROUND($E6*H$4, 2)</f>
+        <f>MAX(ROUND($E6*H$4, 2) + IF(ROUND($E6*H$4, 2) = G6, -0.01, 0), 0.01)</f>
         <v>0.08</v>
       </c>
       <c r="K6" t="s">
@@ -18502,15 +18506,15 @@
         <v>0.05</v>
       </c>
       <c r="F10" s="40">
-        <f>ROUND($E10*F$4, 2)</f>
+        <f t="shared" ref="F10:H18" si="0">ROUND($E10*F$4, 2)</f>
         <v>0.03</v>
       </c>
       <c r="G10" s="40">
-        <f>ROUND($E10*G$4, 2)</f>
+        <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
       <c r="H10" s="40">
-        <f>ROUND($E10*H$4, 2)</f>
+        <f>MAX(ROUND($E10*H$4, 2) + IF(ROUND($E10*H$4, 2) = G10, -0.01, 0), 0.01)</f>
         <v>0.01</v>
       </c>
       <c r="K10" t="s">
@@ -18533,15 +18537,15 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F11" s="40">
-        <f>ROUND($E11*F$4, 2)</f>
+        <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
       <c r="G11" s="40">
-        <f>ROUND($E11*G$4, 2)</f>
+        <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
       <c r="H11" s="40">
-        <f>ROUND($E11*H$4, 2)</f>
+        <f t="shared" ref="H11:H15" si="1">MAX(ROUND($E11*H$4, 2) + IF(ROUND($E11*H$4, 2) = G11, -0.01, 0), 0.01)</f>
         <v>0.01</v>
       </c>
       <c r="K11" t="s">
@@ -18564,15 +18568,15 @@
         <v>0.05</v>
       </c>
       <c r="F12" s="40">
-        <f>ROUND($E12*F$4, 2)</f>
+        <f t="shared" si="0"/>
         <v>0.03</v>
       </c>
       <c r="G12" s="40">
-        <f>ROUND($E12*G$4, 2)</f>
+        <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
       <c r="H12" s="40">
-        <f>ROUND($E12*H$4, 2)</f>
+        <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
     </row>
@@ -18589,15 +18593,15 @@
         <v>0.05</v>
       </c>
       <c r="F13" s="40">
-        <f>ROUND($E13*F$4, 2)</f>
+        <f t="shared" si="0"/>
         <v>0.03</v>
       </c>
       <c r="G13" s="40">
-        <f>ROUND($E13*G$4, 2)</f>
+        <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
       <c r="H13" s="40">
-        <f>ROUND($E13*H$4, 2)</f>
+        <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
       <c r="K13" s="4"/>
@@ -18615,15 +18619,15 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F14" s="40">
-        <f>ROUND($E14*F$4, 2)</f>
+        <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
       <c r="G14" s="40">
-        <f>ROUND($E14*G$4, 2)</f>
+        <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
       <c r="H14" s="40">
-        <f>ROUND($E14*H$4, 2)</f>
+        <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
       <c r="K14" s="58" t="s">
@@ -18646,15 +18650,15 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F15" s="40">
-        <f>ROUND($E15*F$4, 2)</f>
+        <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
       <c r="G15" s="40">
-        <f>ROUND($E15*G$4, 2)</f>
+        <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
       <c r="H15" s="40">
-        <f>ROUND($E15*H$4, 2)</f>
+        <f>MAX(ROUND($E15*H$4, 2) + IF(ROUND($E15*H$4, 2) = G15, -0.01, 0), 0.01)</f>
         <v>0.01</v>
       </c>
       <c r="K15" s="4" t="s">
@@ -18677,15 +18681,15 @@
         <v>0.25</v>
       </c>
       <c r="F16" s="41">
-        <f>ROUND($E16*F$4, 2)</f>
+        <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
       <c r="G16" s="41">
-        <f>ROUND($E16*G$4, 2)</f>
+        <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
       <c r="H16" s="41">
-        <f>ROUND($E16*H$4, 2)</f>
+        <f t="shared" ref="H16:H28" si="2">MAX(ROUND($E16*H$4, 2) + IF(ROUND($E16*H$4, 2) = G16, -0.01, 0), 0.01)</f>
         <v>0.05</v>
       </c>
       <c r="K16" s="4"/>
@@ -18700,20 +18704,20 @@
         <v>12000</v>
       </c>
       <c r="E17" s="41">
-        <f>ROUND(IF(Inputs!$C$3="Monthly",0.1,0.07), 2)</f>
-        <v>0.1</v>
+        <f>ROUND(IF(Inputs!$C$3="Monthly",0.25,0.18), 2)</f>
+        <v>0.25</v>
       </c>
       <c r="F17" s="41">
-        <f>ROUND($E17*F$4, 2)</f>
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="G17" s="41">
+        <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="G17" s="41">
-        <f>ROUND($E17*G$4, 2)</f>
-        <v>0.02</v>
-      </c>
-      <c r="H17" s="41">
-        <f>ROUND($E17*H$4, 2)</f>
-        <v>0.02</v>
+      <c r="H17" s="109">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
@@ -18729,15 +18733,15 @@
         <v>0</v>
       </c>
       <c r="F18" s="41">
-        <f>ROUND($E18*F$4, 2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G18" s="41">
-        <f>ROUND($E18*G$4, 2)</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="41">
-        <f>ROUND($E18*H$4, 2)</f>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="109">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K18" s="6" t="s">
@@ -18767,14 +18771,14 @@
         <v>0</v>
       </c>
       <c r="F20" s="40">
-        <f>ROUND($E20*F$4, 2)</f>
+        <f t="shared" ref="F20:H28" si="3">ROUND($E20*F$4, 2)</f>
         <v>0</v>
       </c>
       <c r="G20" s="40">
-        <f>ROUND($E20*G$4, 2)</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="108">
         <f>ROUND($E20*H$4, 2)</f>
         <v>0</v>
       </c>
@@ -18798,15 +18802,15 @@
         <v>0.4</v>
       </c>
       <c r="F21" s="40">
-        <f>ROUND($E21*F$4, 2)</f>
+        <f t="shared" si="3"/>
         <v>0.24</v>
       </c>
       <c r="G21" s="40">
-        <f>ROUND($E21*G$4, 2)</f>
+        <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
       <c r="H21" s="40">
-        <f>ROUND($E21*H$4, 2)</f>
+        <f t="shared" si="2"/>
         <v>0.08</v>
       </c>
     </row>
@@ -18823,15 +18827,15 @@
         <v>0.42</v>
       </c>
       <c r="F22" s="41">
-        <f>ROUND($E22*F$4, 2)</f>
+        <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
       <c r="G22" s="41">
-        <f>ROUND($E22*G$4, 2)</f>
+        <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
       <c r="H22" s="41">
-        <f>ROUND($E22*H$4, 2)</f>
+        <f t="shared" si="2"/>
         <v>0.08</v>
       </c>
     </row>
@@ -18848,15 +18852,15 @@
         <v>0.42</v>
       </c>
       <c r="F23" s="41">
-        <f>ROUND($E23*F$4, 2)</f>
+        <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
       <c r="G23" s="41">
-        <f>ROUND($E23*G$4, 2)</f>
+        <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
       <c r="H23" s="41">
-        <f>ROUND($E23*H$4, 2)</f>
+        <f t="shared" si="2"/>
         <v>0.08</v>
       </c>
     </row>
@@ -18873,15 +18877,15 @@
         <v>0.25</v>
       </c>
       <c r="F24" s="41">
-        <f>ROUND($E24*F$4, 2)</f>
+        <f t="shared" si="3"/>
         <v>0.15</v>
       </c>
       <c r="G24" s="41">
-        <f>ROUND($E24*G$4, 2)</f>
+        <f t="shared" si="3"/>
         <v>0.06</v>
       </c>
       <c r="H24" s="41">
-        <f>ROUND($E24*H$4, 2)</f>
+        <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
       <c r="K24" s="6" t="s">
@@ -18905,15 +18909,15 @@
         <v>0.3</v>
       </c>
       <c r="F25" s="41">
-        <f>ROUND($E25*F$4, 2)</f>
+        <f t="shared" si="3"/>
         <v>0.18</v>
       </c>
       <c r="G25" s="41">
-        <f>ROUND($E25*G$4, 2)</f>
+        <f t="shared" si="3"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="H25" s="41">
-        <f>ROUND($E25*H$4, 2)</f>
+        <f t="shared" si="2"/>
         <v>0.06</v>
       </c>
     </row>
@@ -18930,15 +18934,15 @@
         <v>0.25</v>
       </c>
       <c r="F26" s="41">
-        <f>ROUND($E26*F$4, 2)</f>
+        <f t="shared" si="3"/>
         <v>0.15</v>
       </c>
       <c r="G26" s="41">
-        <f>ROUND($E26*G$4, 2)</f>
+        <f t="shared" si="3"/>
         <v>0.06</v>
       </c>
       <c r="H26" s="41">
-        <f>ROUND($E26*H$4, 2)</f>
+        <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
     </row>
@@ -18955,15 +18959,15 @@
         <v>0.17</v>
       </c>
       <c r="F27" s="41">
-        <f>ROUND($E27*F$4, 2)</f>
+        <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
       <c r="G27" s="41">
-        <f>ROUND($E27*G$4, 2)</f>
+        <f t="shared" si="3"/>
         <v>0.04</v>
       </c>
       <c r="H27" s="41">
-        <f>ROUND($E27*H$4, 2)</f>
+        <f t="shared" si="2"/>
         <v>0.03</v>
       </c>
       <c r="K27" s="6" t="s">
@@ -18987,15 +18991,15 @@
         <v>0.6</v>
       </c>
       <c r="F28" s="83">
-        <f>ROUND($E28*F$4, 2)</f>
+        <f t="shared" si="3"/>
         <v>0.36</v>
       </c>
       <c r="G28" s="83">
-        <f>ROUND($E28*G$4, 2)</f>
+        <f t="shared" si="3"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="H28" s="83">
-        <f>ROUND($E28*H$4, 2)</f>
+        <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
     </row>

--- a/0273NYP - New York Premier/Premier_Pricing_Model.xlsx
+++ b/0273NYP - New York Premier/Premier_Pricing_Model.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="157">
   <si>
     <t>One-Time Fees:</t>
   </si>
@@ -533,6 +533,12 @@
   </si>
   <si>
     <t>Medicare ACO Quality Measures</t>
+  </si>
+  <si>
+    <t>Quality Measures</t>
+  </si>
+  <si>
+    <t>PRM Medicare ACO Assignment (CCLF Only)</t>
   </si>
 </sst>
 </file>
@@ -15347,7 +15353,7 @@
   <dimension ref="A2:O140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="D60" sqref="D60"/>
@@ -15818,26 +15824,26 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C21" s="17" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D21" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!D21="Y",Inputs!D$23="Y"), Prices!$C16, 0)</f>
+        <f xml:space="preserve"> IF(Inputs!D$6="Y",0,IF(OR(Inputs!D21="Y",Inputs!D$23="Y"), Prices!$C16, 0))</f>
         <v>0</v>
       </c>
       <c r="E21" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!E21="Y",Inputs!E$23="Y"), Prices!$C16, 0)</f>
+        <f xml:space="preserve"> IF(Inputs!E$6="Y",0,IF(OR(Inputs!E21="Y",Inputs!E$23="Y"), Prices!$C16, 0))</f>
         <v>0</v>
       </c>
       <c r="F21" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!F21="Y",Inputs!F$23="Y"), Prices!$C16, 0)</f>
+        <f xml:space="preserve"> IF(Inputs!F$6="Y",0,IF(OR(Inputs!F21="Y",Inputs!F$23="Y"), Prices!$C16, 0))</f>
         <v>4200</v>
       </c>
       <c r="G21" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!G21="Y",Inputs!G$23="Y"), Prices!$C16, 0)</f>
+        <f xml:space="preserve"> IF(Inputs!G$6="Y",0,IF(OR(Inputs!G21="Y",Inputs!G$23="Y"), Prices!$C16, 0))</f>
         <v>0</v>
       </c>
       <c r="H21" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!H21="Y",Inputs!H$23="Y"), Prices!$C16, 0)</f>
+        <f xml:space="preserve"> IF(Inputs!H$6="Y",0,IF(OR(Inputs!H21="Y",Inputs!H$23="Y"), Prices!$C16, 0))</f>
         <v>0</v>
       </c>
     </row>
@@ -15893,7 +15899,7 @@
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C24" s="19" t="s">
-        <v>22</v>
+        <v>156</v>
       </c>
       <c r="D24" s="20">
         <f>IF(Inputs!D$6="N",0, IF(OR(Inputs!D21="Y",Inputs!D$24="Y",Inputs!D$25="Y"), Prices!$C19, 0))</f>
@@ -16098,7 +16104,7 @@
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C34" s="17" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D34" s="18">
         <f>IF(OR(Inputs!D$6="Y", D$11 = 0), 0, IF(OR(Inputs!D21="Y",Inputs!D$23="Y"),PRODUCT(D$11, Prices!$E16),0))*D$10</f>
@@ -16173,7 +16179,7 @@
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C37" s="28" t="s">
-        <v>22</v>
+        <v>156</v>
       </c>
       <c r="D37" s="29">
         <v>0</v>
@@ -16380,26 +16386,26 @@
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C47" s="17" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D47" s="18">
-        <f>IF(AND(Inputs!D21="Y",Inputs!D$23="N"),Prices!$C16,0)</f>
+        <f>IF(Inputs!D$6="Y",0,IF(AND(Inputs!D21="Y",Inputs!D$23="N"),Prices!$C16,0))</f>
         <v>0</v>
       </c>
       <c r="E47" s="18">
-        <f>IF(AND(Inputs!E21="Y",Inputs!E$23="N"),Prices!$C16,0)</f>
+        <f>IF(Inputs!E$6="Y",0,IF(AND(Inputs!E21="Y",Inputs!E$23="N"),Prices!$C16,0))</f>
         <v>0</v>
       </c>
       <c r="F47" s="18">
-        <f>IF(AND(Inputs!F21="Y",Inputs!F$23="N"),Prices!$C16,0)</f>
+        <f>IF(Inputs!F$6="Y",0,IF(AND(Inputs!F21="Y",Inputs!F$23="N"),Prices!$C16,0))</f>
         <v>0</v>
       </c>
       <c r="G47" s="18">
-        <f>IF(AND(Inputs!G21="Y",Inputs!G$23="N"),Prices!$C16,0)</f>
+        <f>IF(Inputs!G$6="Y",0,IF(AND(Inputs!G21="Y",Inputs!G$23="N"),Prices!$C16,0))</f>
         <v>0</v>
       </c>
       <c r="H47" s="18">
-        <f>IF(AND(Inputs!H21="Y",Inputs!H$23="N"),Prices!$C16,0)</f>
+        <f>IF(Inputs!H$6="Y",0,IF(AND(Inputs!H21="Y",Inputs!H$23="N"),Prices!$C16,0))</f>
         <v>0</v>
       </c>
     </row>
@@ -16455,7 +16461,7 @@
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C50" s="19" t="s">
-        <v>22</v>
+        <v>156</v>
       </c>
       <c r="D50" s="20">
         <f>IF(Inputs!D$6="N",0,IF(AND(Inputs!D21="Y",Inputs!D$24="N",Inputs!D$25="N"),Prices!$C19,0))</f>
@@ -16660,7 +16666,7 @@
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C60" s="17" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D60" s="18">
         <f>IF(OR(Inputs!D$6="Y", D$11 = 0), 0, IF(AND(Inputs!D21="Y",Inputs!D$23="N"),PRODUCT(D$11, Prices!$E16)*D$10,0))</f>
@@ -16735,7 +16741,7 @@
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C63" s="28" t="s">
-        <v>22</v>
+        <v>156</v>
       </c>
       <c r="D63" s="29">
         <v>0</v>
@@ -18528,7 +18534,7 @@
   <dimension ref="B2:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18853,7 +18859,7 @@
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="17" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C16" s="44">
         <f>$L$28*3500</f>
@@ -18932,7 +18938,7 @@
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="19" t="s">
-        <v>22</v>
+        <v>156</v>
       </c>
       <c r="C19" s="45">
         <f>$L$28*1500</f>

--- a/0273NYP - New York Premier/Premier_Pricing_Model.xlsx
+++ b/0273NYP - New York Premier/Premier_Pricing_Model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason.altieri\repos\client-and-project-documentation\0273NYP - New York Premier\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shea.parkes\repos\client-and-project-documentation\0273NYP - New York Premier\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="156">
   <si>
     <t>One-Time Fees:</t>
   </si>
@@ -530,9 +530,6 @@
   </si>
   <si>
     <t>PRM Conditions to Consider (Data Only - Dashboard Version)</t>
-  </si>
-  <si>
-    <t>Medicare ACO Quality Measures</t>
   </si>
   <si>
     <t>Quality Measures</t>
@@ -1311,7 +1308,7 @@
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1653,7 +1650,7 @@
         <v>28</v>
       </c>
       <c r="F21" s="55" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="G21" s="55"/>
       <c r="H21" s="56"/>
@@ -1685,7 +1682,7 @@
         <v>28</v>
       </c>
       <c r="F23" s="55" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="G23" s="55"/>
       <c r="H23" s="56"/>
@@ -1818,7 +1815,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K22" sqref="K22"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2239,7 +2236,7 @@
       </c>
       <c r="F16" s="20">
         <f>SUM(Calcs!F50, Calcs!F63, Calcs!F47, Calcs!F60)</f>
-        <v>0</v>
+        <v>10570</v>
       </c>
       <c r="G16" s="20">
         <f>SUM(Calcs!G50, Calcs!G63, Calcs!G47, Calcs!G60)</f>
@@ -2314,7 +2311,7 @@
       </c>
       <c r="F20" s="1">
         <f>SUM(Calcs!F67, Calcs!F78)</f>
-        <v>76000</v>
+        <v>0</v>
       </c>
       <c r="G20" s="1">
         <f>SUM(Calcs!G67, Calcs!G78)</f>
@@ -2599,7 +2596,7 @@
       </c>
       <c r="F30" s="1">
         <f>SUM(Calcs!F110:F114)</f>
-        <v>-45193.5</v>
+        <v>-16905</v>
       </c>
       <c r="G30" s="1">
         <f>SUM(Calcs!G110:G114)</f>
@@ -2700,7 +2697,7 @@
       </c>
       <c r="F34" s="7">
         <f>SUM(F7:F16, F19:F27, F30:F31)</f>
-        <v>222676.5</v>
+        <v>185535</v>
       </c>
       <c r="G34" s="7">
         <f>SUM(G7:G16, G19:G27, G30:G31)</f>
@@ -2836,7 +2833,7 @@
       </c>
       <c r="F43" s="7">
         <f>(F34/12*Inputs!$C$2+F4)*$C$37+F41</f>
-        <v>824266.71250000002</v>
+        <v>711449.40625</v>
       </c>
       <c r="G43" s="7">
         <f>(G34/12*Inputs!$C$2+G4)*$C$37+G41</f>
@@ -2876,13 +2873,13 @@
     <row r="47" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C47" s="7">
         <f>SUM(Outputs_Timeline!W:W)</f>
-        <v>1073990.925</v>
+        <v>961173.61874999979</v>
       </c>
     </row>
     <row r="48" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C48" s="52">
         <f>SUM(D43:H43)</f>
-        <v>1073990.925</v>
+        <v>961173.61875000002</v>
       </c>
       <c r="D48" s="1"/>
       <c r="G48" s="1"/>
@@ -2918,7 +2915,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P66" sqref="P66"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3156,7 +3153,7 @@
       </c>
       <c r="D11" s="18">
         <f>SUM(Calcs!D15:H15)</f>
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="32">
@@ -3174,11 +3171,11 @@
       </c>
       <c r="K11" s="18">
         <f t="shared" ref="K11:K20" si="3">F11*$D11</f>
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="L11" s="18">
         <f t="shared" ref="L11:L19" si="4">G11*$D11</f>
-        <v>1080</v>
+        <v>0</v>
       </c>
       <c r="M11" s="18">
         <f t="shared" si="2"/>
@@ -3195,7 +3192,7 @@
       </c>
       <c r="D12" s="18">
         <f>SUM(Calcs!D16:H16)</f>
-        <v>4800</v>
+        <v>0</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="74">
@@ -3212,11 +3209,11 @@
       </c>
       <c r="K12" s="18">
         <f t="shared" si="3"/>
-        <v>2160</v>
+        <v>0</v>
       </c>
       <c r="L12" s="18">
         <f t="shared" si="4"/>
-        <v>2160</v>
+        <v>0</v>
       </c>
       <c r="M12" s="18">
         <f t="shared" si="2"/>
@@ -3224,7 +3221,7 @@
       </c>
       <c r="N12" s="18">
         <f t="shared" si="2"/>
-        <v>480</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
@@ -3233,7 +3230,7 @@
       </c>
       <c r="D13" s="18">
         <f>SUM(Calcs!D17:H17)</f>
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="F13" s="32">
         <v>0.9</v>
@@ -3250,11 +3247,11 @@
       </c>
       <c r="K13" s="18">
         <f t="shared" si="3"/>
-        <v>2160</v>
+        <v>0</v>
       </c>
       <c r="L13" s="18">
         <f t="shared" si="4"/>
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="M13" s="18">
         <f t="shared" si="2"/>
@@ -3271,7 +3268,7 @@
       </c>
       <c r="D14" s="18">
         <f>SUM(Calcs!D18:H18)</f>
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="F14" s="32">
         <v>0.65</v>
@@ -3288,11 +3285,11 @@
       </c>
       <c r="K14" s="18">
         <f t="shared" si="3"/>
-        <v>1560</v>
+        <v>0</v>
       </c>
       <c r="L14" s="18">
         <f t="shared" si="4"/>
-        <v>840</v>
+        <v>0</v>
       </c>
       <c r="M14" s="18">
         <f t="shared" si="2"/>
@@ -3346,7 +3343,7 @@
       </c>
       <c r="D16" s="18">
         <f>SUM(Calcs!D20:H20)</f>
-        <v>4800</v>
+        <v>0</v>
       </c>
       <c r="F16" s="74">
         <v>0.9</v>
@@ -3363,11 +3360,11 @@
       </c>
       <c r="K16" s="18">
         <f t="shared" si="3"/>
-        <v>4320</v>
+        <v>0</v>
       </c>
       <c r="L16" s="18">
         <f t="shared" si="4"/>
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="M16" s="18">
         <f t="shared" si="2"/>
@@ -3619,7 +3616,7 @@
       </c>
       <c r="D26" s="18">
         <f>SUM(Calcs!D28:H28)</f>
-        <v>4550</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="36">
@@ -3640,11 +3637,11 @@
       </c>
       <c r="K26" s="18">
         <f t="shared" ref="K26:K35" si="12">F26*$D26</f>
-        <v>113.7500000000001</v>
+        <v>0</v>
       </c>
       <c r="L26" s="18">
         <f t="shared" ref="L26:L35" si="13">G26*$D26</f>
-        <v>4436.25</v>
+        <v>0</v>
       </c>
       <c r="M26" s="18">
         <f t="shared" ref="M26:N35" si="14">H26*$D26</f>
@@ -3661,7 +3658,7 @@
       </c>
       <c r="D27" s="18">
         <f>SUM(Calcs!D29:H29)</f>
-        <v>6370.0000000000009</v>
+        <v>0</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="36">
@@ -3682,11 +3679,11 @@
       </c>
       <c r="K27" s="18">
         <f t="shared" si="12"/>
-        <v>2475.6136363636365</v>
+        <v>0</v>
       </c>
       <c r="L27" s="18">
         <f t="shared" si="13"/>
-        <v>3344.2500000000005</v>
+        <v>0</v>
       </c>
       <c r="M27" s="18">
         <f t="shared" si="14"/>
@@ -3694,7 +3691,7 @@
       </c>
       <c r="N27" s="18">
         <f t="shared" si="14"/>
-        <v>550.13636363636363</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
@@ -3703,7 +3700,7 @@
       </c>
       <c r="D28" s="18">
         <f>SUM(Calcs!D30:H30)</f>
-        <v>4550</v>
+        <v>0</v>
       </c>
       <c r="F28" s="36">
         <f t="shared" ref="F28:F34" si="15">(1-G28)*F13/SUM(F13,H13)</f>
@@ -3723,11 +3720,11 @@
       </c>
       <c r="K28" s="18">
         <f t="shared" si="12"/>
-        <v>3753.75</v>
+        <v>0</v>
       </c>
       <c r="L28" s="18">
         <f t="shared" si="13"/>
-        <v>796.25</v>
+        <v>0</v>
       </c>
       <c r="M28" s="18">
         <f t="shared" si="14"/>
@@ -3744,7 +3741,7 @@
       </c>
       <c r="D29" s="18">
         <f>SUM(Calcs!D31:H31)</f>
-        <v>4550</v>
+        <v>0</v>
       </c>
       <c r="F29" s="36">
         <f t="shared" si="15"/>
@@ -3764,11 +3761,11 @@
       </c>
       <c r="K29" s="18">
         <f t="shared" si="12"/>
-        <v>2616.25</v>
+        <v>0</v>
       </c>
       <c r="L29" s="18">
         <f t="shared" si="13"/>
-        <v>1933.75</v>
+        <v>0</v>
       </c>
       <c r="M29" s="18">
         <f t="shared" si="14"/>
@@ -3826,7 +3823,7 @@
       </c>
       <c r="D31" s="18">
         <f>SUM(Calcs!D33:H33)</f>
-        <v>6370.0000000000009</v>
+        <v>0</v>
       </c>
       <c r="F31" s="36">
         <f t="shared" si="15"/>
@@ -3846,11 +3843,11 @@
       </c>
       <c r="K31" s="18">
         <f t="shared" si="12"/>
-        <v>5255.2500000000009</v>
+        <v>0</v>
       </c>
       <c r="L31" s="18">
         <f t="shared" si="13"/>
-        <v>1114.75</v>
+        <v>0</v>
       </c>
       <c r="M31" s="18">
         <f t="shared" si="14"/>
@@ -4090,7 +4087,7 @@
       </c>
       <c r="D39" s="18">
         <f>SUM(Calcs!D89:H89)</f>
-        <v>19800</v>
+        <v>0</v>
       </c>
       <c r="F39" s="32">
         <v>0.9</v>
@@ -4107,11 +4104,11 @@
       </c>
       <c r="K39" s="18">
         <f t="shared" si="23"/>
-        <v>17820</v>
+        <v>0</v>
       </c>
       <c r="L39" s="18">
         <f t="shared" si="23"/>
-        <v>1980</v>
+        <v>0</v>
       </c>
       <c r="M39" s="18">
         <f t="shared" si="23"/>
@@ -4450,7 +4447,7 @@
       </c>
       <c r="D50" s="18">
         <f>SUM(Calcs!D100:H100)</f>
-        <v>3640</v>
+        <v>0</v>
       </c>
       <c r="F50" s="30">
         <f t="shared" si="44"/>
@@ -4469,11 +4466,11 @@
       </c>
       <c r="K50" s="18">
         <f>F50*$D50</f>
-        <v>3003</v>
+        <v>0</v>
       </c>
       <c r="L50" s="18">
         <f t="shared" si="47"/>
-        <v>637</v>
+        <v>0</v>
       </c>
       <c r="M50" s="18">
         <f t="shared" ref="M50:N53" si="48">H50*$D50</f>
@@ -4783,15 +4780,15 @@
       </c>
       <c r="D60" s="1">
         <f>SUM(Outputs_External!D30:'Outputs_External'!H30)</f>
-        <v>-72913.5</v>
+        <v>-44625</v>
       </c>
       <c r="F60" s="8">
         <f>IFERROR(SUM(K74:K82)/SUM($K$74:$N$82), 0)</f>
-        <v>0.24102446122126159</v>
+        <v>0.10370425910508928</v>
       </c>
       <c r="G60" s="8">
         <f t="shared" ref="G60:I60" si="72">IFERROR(SUM(L74:L82)/SUM($K$74:$N$82), 0)</f>
-        <v>0.75530817284075913</v>
+        <v>0.89629574089491071</v>
       </c>
       <c r="H60" s="8">
         <f t="shared" si="72"/>
@@ -4799,15 +4796,15 @@
       </c>
       <c r="I60" s="8">
         <f t="shared" si="72"/>
-        <v>3.6673659379792712E-3</v>
+        <v>0</v>
       </c>
       <c r="K60" s="12">
         <f>F60*$D$60</f>
-        <v>-17573.937053256457</v>
+        <v>-4627.8025625646087</v>
       </c>
       <c r="L60" s="12">
         <f>G60*$D$60</f>
-        <v>-55072.16246042469</v>
+        <v>-39997.197437435389</v>
       </c>
       <c r="M60" s="12">
         <f>H60*$D$60</f>
@@ -4815,7 +4812,7 @@
       </c>
       <c r="N60" s="12">
         <f>I60*$D$60</f>
-        <v>-267.40048631885156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.25">
@@ -4828,11 +4825,11 @@
       </c>
       <c r="F61" s="3">
         <f>IFERROR(SUM(K10:K60)/SUM($K10:$N60), 0)</f>
-        <v>0.28733605267948364</v>
+        <v>0.21974160856127789</v>
       </c>
       <c r="G61" s="3">
         <f>IFERROR(SUM(L10:L60)/SUM($K10:$N60), 0)</f>
-        <v>0.71053789280354585</v>
+        <v>0.78025839143872211</v>
       </c>
       <c r="H61" s="3">
         <f>IFERROR(SUM(M10:M60)/SUM($K10:$N60), 0)</f>
@@ -4840,15 +4837,15 @@
       </c>
       <c r="I61" s="3">
         <f>1-F61-G61-H61</f>
-        <v>2.1260545169704548E-3</v>
+        <v>0</v>
       </c>
       <c r="K61" s="12">
         <f>F61*$D$61</f>
-        <v>-18000.454356158931</v>
+        <v>-13765.932809929815</v>
       </c>
       <c r="L61" s="12">
         <f>G61*$D$61</f>
-        <v>-44512.356832570935</v>
+        <v>-48880.067190070185</v>
       </c>
       <c r="M61" s="12">
         <f>H61*$D$61</f>
@@ -4856,7 +4853,7 @@
       </c>
       <c r="N61" s="12">
         <f>I61*$D$61</f>
-        <v>-133.18881127013111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.25">
@@ -4908,15 +4905,15 @@
       </c>
       <c r="D64" s="1">
         <f>SUM(Outputs_External!D34:'Outputs_External'!H34)</f>
-        <v>292585.5</v>
+        <v>255444</v>
       </c>
       <c r="K64" s="12">
         <f>SUM(K60:K62, K38:K46, K10:K20,K25:K35,K49:K57)</f>
-        <v>83035.722226948244</v>
+        <v>54858.764627505574</v>
       </c>
       <c r="L64" s="12">
         <f>SUM(L60:L62, L38:L46, L10:L20,L25:L35,L49:L57)</f>
-        <v>208920.23070700438</v>
+        <v>200585.23537249444</v>
       </c>
       <c r="M64" s="12">
         <f>SUM(M60:M62, M38:M46, M10:M20,M25:M35,M49:M57)</f>
@@ -4924,7 +4921,7 @@
       </c>
       <c r="N64" s="12">
         <f>SUM(N60:N62, N38:N46, N10:N20,N25:N35,N49:N57)</f>
-        <v>629.54706604738089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="2:14" x14ac:dyDescent="0.25">
@@ -4933,7 +4930,7 @@
       </c>
       <c r="D65" s="23">
         <f>SUM(K64:N64)</f>
-        <v>292585.5</v>
+        <v>255444</v>
       </c>
       <c r="K65" s="12"/>
       <c r="L65" s="12"/>
@@ -4998,15 +4995,15 @@
       </c>
       <c r="D69" s="7">
         <f>SUM(Outputs_Timeline!W:W)</f>
-        <v>1073990.925</v>
+        <v>961173.61874999979</v>
       </c>
       <c r="K69" s="12">
         <f>SUM(Outputs_Timeline!X:X)</f>
-        <v>272772.25313935528</v>
+        <v>187184.74443104817</v>
       </c>
       <c r="L69" s="12">
         <f>SUM(Outputs_Timeline!Y:Y)</f>
-        <v>671346.44764752593</v>
+        <v>646028.89931895165</v>
       </c>
       <c r="M69" s="12">
         <f>SUM(Outputs_Timeline!Z:Z)</f>
@@ -5014,18 +5011,18 @@
       </c>
       <c r="N69" s="12">
         <f>SUM(Outputs_Timeline!AA:AA)</f>
-        <v>129872.22421311888</v>
+        <v>127959.97500000001</v>
       </c>
     </row>
     <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D70" s="1"/>
       <c r="K70" s="53">
         <f>IFERROR(K69/$D$69, 0)</f>
-        <v>0.25398003538936353</v>
+        <v>0.194746027959528</v>
       </c>
       <c r="L70" s="53">
         <f>IFERROR(L69/$D$69, 0)</f>
-        <v>0.62509508415774173</v>
+        <v>0.67212508408117577</v>
       </c>
       <c r="M70" s="53">
         <f>IFERROR(M69/$D$69, 0)</f>
@@ -5033,7 +5030,7 @@
       </c>
       <c r="N70" s="53">
         <f>IFERROR(N69/$D$69, 0)</f>
-        <v>0.12092488045289478</v>
+        <v>0.1331288879592962</v>
       </c>
     </row>
     <row r="72" spans="2:14" x14ac:dyDescent="0.25">
@@ -5108,16 +5105,16 @@
       </c>
       <c r="D75" s="23">
         <f>SUM(Calcs!D67:H67)+SUM(Calcs!D78:H78)</f>
-        <v>76000</v>
+        <v>0</v>
       </c>
       <c r="E75" s="21"/>
       <c r="F75" s="24">
         <f>IFERROR(SUM(K$39,K$11:K$16,K$50,K$26:K$31)/SUM($K$39:$N$39,$K$11:$N$16,$K$50:$N$50,$K$26:$N$31),0)</f>
-        <v>0.69322350047934644</v>
+        <v>0</v>
       </c>
       <c r="G75" s="24">
         <f>IFERROR(SUM(L$39,L$11:L$16,L$50,L$26:L$31)/SUM($K$39:$N$39,$K$11:$N$16,$K$50:$N$50,$K$26:$N$31),0)</f>
-        <v>0.29103240103927863</v>
+        <v>0</v>
       </c>
       <c r="H75" s="24">
         <f>IFERROR(SUM(M$39,M$11:M$16,M$50,M$26:M$31)/SUM($K$39:$N$39,$K$11:$N$16,$K$50:$N$50,$K$26:$N$31),0)</f>
@@ -5125,16 +5122,16 @@
       </c>
       <c r="I75" s="24">
         <f>IFERROR(SUM(N$39,N$11:N$16,N$50,N$26:N$31)/SUM($K$39:$N$39,$K$11:$N$16,$K$50:$N$50,$K$26:$N$31),0)</f>
-        <v>1.5744098481374959E-2</v>
+        <v>0</v>
       </c>
       <c r="J75" s="21"/>
       <c r="K75" s="25">
         <f t="shared" si="74"/>
-        <v>52684.986036430331</v>
+        <v>0</v>
       </c>
       <c r="L75" s="25">
         <f t="shared" si="74"/>
-        <v>22118.462478985177</v>
+        <v>0</v>
       </c>
       <c r="M75" s="25">
         <f t="shared" si="74"/>
@@ -5142,7 +5139,7 @@
       </c>
       <c r="N75" s="25">
         <f t="shared" si="74"/>
-        <v>1196.5514845844968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="2:14" x14ac:dyDescent="0.25">
@@ -8162,15 +8159,15 @@
       </c>
       <c r="P27" s="63">
         <f>$F27*Outputs_Internal!$D$64/12+N27</f>
-        <v>28811.901562499999</v>
+        <v>25678.087499999998</v>
       </c>
       <c r="Q27" s="63">
         <f>$F27*Outputs_Internal!K$64/12+N27*'MARA Prices'!$F$5</f>
-        <v>7418.6390628987574</v>
+        <v>5041.2082654457827</v>
       </c>
       <c r="R27" s="63">
         <f>$F27*Outputs_Internal!L$64/12+N27*'MARA Prices'!$F$6</f>
-        <v>18040.144465903493</v>
+        <v>17336.879234554217</v>
       </c>
       <c r="S27" s="63">
         <f>N27*'MARA Prices'!$F$4</f>
@@ -8182,7 +8179,7 @@
       </c>
       <c r="U27" s="63">
         <f>$F27*Outputs_Internal!N$64/12</f>
-        <v>53.118033697747762</v>
+        <v>0</v>
       </c>
       <c r="W27" s="63">
         <f t="shared" si="2"/>
@@ -8268,15 +8265,15 @@
       </c>
       <c r="P28" s="63">
         <f>$F28*Outputs_Internal!$D$64/12+N28</f>
-        <v>28811.901562499999</v>
+        <v>25678.087499999998</v>
       </c>
       <c r="Q28" s="63">
         <f>$F28*Outputs_Internal!K$64/12+N28*'MARA Prices'!$F$5</f>
-        <v>7418.6390628987574</v>
+        <v>5041.2082654457827</v>
       </c>
       <c r="R28" s="63">
         <f>$F28*Outputs_Internal!L$64/12+N28*'MARA Prices'!$F$6</f>
-        <v>18040.144465903493</v>
+        <v>17336.879234554217</v>
       </c>
       <c r="S28" s="63">
         <f>N28*'MARA Prices'!$F$4</f>
@@ -8288,7 +8285,7 @@
       </c>
       <c r="U28" s="63">
         <f>$F28*Outputs_Internal!N$64/12</f>
-        <v>53.118033697747762</v>
+        <v>0</v>
       </c>
       <c r="W28" s="63">
         <f t="shared" si="2"/>
@@ -8374,15 +8371,15 @@
       </c>
       <c r="P29" s="63">
         <f>$F29*Outputs_Internal!$D$64/12+N29</f>
-        <v>28811.901562499999</v>
+        <v>25678.087499999998</v>
       </c>
       <c r="Q29" s="63">
         <f>$F29*Outputs_Internal!K$64/12+N29*'MARA Prices'!$F$5</f>
-        <v>7418.6390628987574</v>
+        <v>5041.2082654457827</v>
       </c>
       <c r="R29" s="63">
         <f>$F29*Outputs_Internal!L$64/12+N29*'MARA Prices'!$F$6</f>
-        <v>18040.144465903493</v>
+        <v>17336.879234554217</v>
       </c>
       <c r="S29" s="63">
         <f>N29*'MARA Prices'!$F$4</f>
@@ -8394,19 +8391,19 @@
       </c>
       <c r="U29" s="63">
         <f>$F29*Outputs_Internal!N$64/12</f>
-        <v>53.118033697747762</v>
+        <v>0</v>
       </c>
       <c r="W29" s="63">
         <f t="shared" si="2"/>
-        <v>111748.20468750001</v>
+        <v>102346.76249999998</v>
       </c>
       <c r="X29" s="63">
         <f t="shared" si="3"/>
-        <v>26812.167188696272</v>
+        <v>19679.874796337346</v>
       </c>
       <c r="Y29" s="63">
         <f t="shared" si="4"/>
-        <v>74876.683397710469</v>
+        <v>72766.887703662651</v>
       </c>
       <c r="Z29" s="63">
         <f t="shared" si="5"/>
@@ -8414,7 +8411,7 @@
       </c>
       <c r="AA29" s="63">
         <f t="shared" si="6"/>
-        <v>10059.354101093242</v>
+        <v>9900</v>
       </c>
       <c r="AD29" s="63">
         <f>'MARA Prices'!H$21*$G29</f>
@@ -8480,15 +8477,15 @@
       </c>
       <c r="P30" s="63">
         <f>$F30*Outputs_Internal!$D$64/12+N30</f>
-        <v>28811.901562499999</v>
+        <v>25678.087499999998</v>
       </c>
       <c r="Q30" s="63">
         <f>$F30*Outputs_Internal!K$64/12+N30*'MARA Prices'!$F$5</f>
-        <v>7418.6390628987574</v>
+        <v>5041.2082654457827</v>
       </c>
       <c r="R30" s="63">
         <f>$F30*Outputs_Internal!L$64/12+N30*'MARA Prices'!$F$6</f>
-        <v>18040.144465903493</v>
+        <v>17336.879234554217</v>
       </c>
       <c r="S30" s="63">
         <f>N30*'MARA Prices'!$F$4</f>
@@ -8500,7 +8497,7 @@
       </c>
       <c r="U30" s="63">
         <f>$F30*Outputs_Internal!N$64/12</f>
-        <v>53.118033697747762</v>
+        <v>0</v>
       </c>
       <c r="W30" s="63">
         <f t="shared" si="2"/>
@@ -8586,15 +8583,15 @@
       </c>
       <c r="P31" s="63">
         <f>$F31*Outputs_Internal!$D$64/12+N31</f>
-        <v>28811.901562499999</v>
+        <v>25678.087499999998</v>
       </c>
       <c r="Q31" s="63">
         <f>$F31*Outputs_Internal!K$64/12+N31*'MARA Prices'!$F$5</f>
-        <v>7418.6390628987574</v>
+        <v>5041.2082654457827</v>
       </c>
       <c r="R31" s="63">
         <f>$F31*Outputs_Internal!L$64/12+N31*'MARA Prices'!$F$6</f>
-        <v>18040.144465903493</v>
+        <v>17336.879234554217</v>
       </c>
       <c r="S31" s="63">
         <f>N31*'MARA Prices'!$F$4</f>
@@ -8606,7 +8603,7 @@
       </c>
       <c r="U31" s="63">
         <f>$F31*Outputs_Internal!N$64/12</f>
-        <v>53.118033697747762</v>
+        <v>0</v>
       </c>
       <c r="W31" s="63">
         <f t="shared" si="2"/>
@@ -8692,15 +8689,15 @@
       </c>
       <c r="P32" s="63">
         <f>$F32*Outputs_Internal!$D$64/12+N32</f>
-        <v>28811.901562499999</v>
+        <v>25678.087499999998</v>
       </c>
       <c r="Q32" s="63">
         <f>$F32*Outputs_Internal!K$64/12+N32*'MARA Prices'!$F$5</f>
-        <v>7418.6390628987574</v>
+        <v>5041.2082654457827</v>
       </c>
       <c r="R32" s="63">
         <f>$F32*Outputs_Internal!L$64/12+N32*'MARA Prices'!$F$6</f>
-        <v>18040.144465903493</v>
+        <v>17336.879234554217</v>
       </c>
       <c r="S32" s="63">
         <f>N32*'MARA Prices'!$F$4</f>
@@ -8712,19 +8709,19 @@
       </c>
       <c r="U32" s="63">
         <f>$F32*Outputs_Internal!N$64/12</f>
-        <v>53.118033697747762</v>
+        <v>0</v>
       </c>
       <c r="W32" s="63">
         <f t="shared" si="2"/>
-        <v>86435.704687499994</v>
+        <v>77034.262499999997</v>
       </c>
       <c r="X32" s="63">
         <f t="shared" si="3"/>
-        <v>22255.917188696272</v>
+        <v>15123.624796337348</v>
       </c>
       <c r="Y32" s="63">
         <f t="shared" si="4"/>
-        <v>54120.433397710483</v>
+        <v>52010.637703662651</v>
       </c>
       <c r="Z32" s="63">
         <f t="shared" si="5"/>
@@ -8732,7 +8729,7 @@
       </c>
       <c r="AA32" s="63">
         <f t="shared" si="6"/>
-        <v>10059.354101093242</v>
+        <v>9900</v>
       </c>
       <c r="AD32" s="63">
         <f>'MARA Prices'!H$21*$G32</f>
@@ -8798,15 +8795,15 @@
       </c>
       <c r="P33" s="63">
         <f>$F33*Outputs_Internal!$D$64/12+N33</f>
-        <v>29018.151562499999</v>
+        <v>25884.337499999998</v>
       </c>
       <c r="Q33" s="63">
         <f>$F33*Outputs_Internal!K$64/12+N33*'MARA Prices'!$F$5</f>
-        <v>7439.2640628987574</v>
+        <v>5061.8332654457827</v>
       </c>
       <c r="R33" s="63">
         <f>$F33*Outputs_Internal!L$64/12+N33*'MARA Prices'!$F$6</f>
-        <v>18060.769465903493</v>
+        <v>17357.504234554217</v>
       </c>
       <c r="S33" s="63">
         <f>N33*'MARA Prices'!$F$4</f>
@@ -8818,7 +8815,7 @@
       </c>
       <c r="U33" s="63">
         <f>$F33*Outputs_Internal!N$64/12</f>
-        <v>53.118033697747762</v>
+        <v>0</v>
       </c>
       <c r="W33" s="63">
         <f t="shared" si="2"/>
@@ -8904,15 +8901,15 @@
       </c>
       <c r="P34" s="63">
         <f>$F34*Outputs_Internal!$D$64/12+N34</f>
-        <v>29018.151562499999</v>
+        <v>25884.337499999998</v>
       </c>
       <c r="Q34" s="63">
         <f>$F34*Outputs_Internal!K$64/12+N34*'MARA Prices'!$F$5</f>
-        <v>7439.2640628987574</v>
+        <v>5061.8332654457827</v>
       </c>
       <c r="R34" s="63">
         <f>$F34*Outputs_Internal!L$64/12+N34*'MARA Prices'!$F$6</f>
-        <v>18060.769465903493</v>
+        <v>17357.504234554217</v>
       </c>
       <c r="S34" s="63">
         <f>N34*'MARA Prices'!$F$4</f>
@@ -8924,7 +8921,7 @@
       </c>
       <c r="U34" s="63">
         <f>$F34*Outputs_Internal!N$64/12</f>
-        <v>53.118033697747762</v>
+        <v>0</v>
       </c>
       <c r="W34" s="63">
         <f t="shared" si="2"/>
@@ -9010,15 +9007,15 @@
       </c>
       <c r="P35" s="63">
         <f>$F35*Outputs_Internal!$D$64/12+N35</f>
-        <v>29018.151562499999</v>
+        <v>25884.337499999998</v>
       </c>
       <c r="Q35" s="63">
         <f>$F35*Outputs_Internal!K$64/12+N35*'MARA Prices'!$F$5</f>
-        <v>7439.2640628987574</v>
+        <v>5061.8332654457827</v>
       </c>
       <c r="R35" s="63">
         <f>$F35*Outputs_Internal!L$64/12+N35*'MARA Prices'!$F$6</f>
-        <v>18060.769465903493</v>
+        <v>17357.504234554217</v>
       </c>
       <c r="S35" s="63">
         <f>N35*'MARA Prices'!$F$4</f>
@@ -9030,19 +9027,19 @@
       </c>
       <c r="U35" s="63">
         <f>$F35*Outputs_Internal!N$64/12</f>
-        <v>53.118033697747762</v>
+        <v>0</v>
       </c>
       <c r="W35" s="63">
         <f t="shared" si="2"/>
-        <v>87054.454687499994</v>
+        <v>77653.012499999997</v>
       </c>
       <c r="X35" s="63">
         <f t="shared" si="3"/>
-        <v>22317.792188696272</v>
+        <v>15185.499796337348</v>
       </c>
       <c r="Y35" s="63">
         <f t="shared" si="4"/>
-        <v>54182.308397710483</v>
+        <v>52072.512703662651</v>
       </c>
       <c r="Z35" s="63">
         <f t="shared" si="5"/>
@@ -9050,7 +9047,7 @@
       </c>
       <c r="AA35" s="63">
         <f t="shared" si="6"/>
-        <v>10554.354101093242</v>
+        <v>10395</v>
       </c>
       <c r="AD35" s="63">
         <f>'MARA Prices'!H$21*$G35</f>
@@ -9116,15 +9113,15 @@
       </c>
       <c r="P36" s="63">
         <f>$F36*Outputs_Internal!$D$64/12+N36</f>
-        <v>29018.151562499999</v>
+        <v>25884.337499999998</v>
       </c>
       <c r="Q36" s="63">
         <f>$F36*Outputs_Internal!K$64/12+N36*'MARA Prices'!$F$5</f>
-        <v>7439.2640628987574</v>
+        <v>5061.8332654457827</v>
       </c>
       <c r="R36" s="63">
         <f>$F36*Outputs_Internal!L$64/12+N36*'MARA Prices'!$F$6</f>
-        <v>18060.769465903493</v>
+        <v>17357.504234554217</v>
       </c>
       <c r="S36" s="63">
         <f>N36*'MARA Prices'!$F$4</f>
@@ -9136,7 +9133,7 @@
       </c>
       <c r="U36" s="63">
         <f>$F36*Outputs_Internal!N$64/12</f>
-        <v>53.118033697747762</v>
+        <v>0</v>
       </c>
       <c r="W36" s="63">
         <f t="shared" si="2"/>
@@ -9222,15 +9219,15 @@
       </c>
       <c r="P37" s="63">
         <f>$F37*Outputs_Internal!$D$64/12+N37</f>
-        <v>29018.151562499999</v>
+        <v>25884.337499999998</v>
       </c>
       <c r="Q37" s="63">
         <f>$F37*Outputs_Internal!K$64/12+N37*'MARA Prices'!$F$5</f>
-        <v>7439.2640628987574</v>
+        <v>5061.8332654457827</v>
       </c>
       <c r="R37" s="63">
         <f>$F37*Outputs_Internal!L$64/12+N37*'MARA Prices'!$F$6</f>
-        <v>18060.769465903493</v>
+        <v>17357.504234554217</v>
       </c>
       <c r="S37" s="63">
         <f>N37*'MARA Prices'!$F$4</f>
@@ -9242,7 +9239,7 @@
       </c>
       <c r="U37" s="63">
         <f>$F37*Outputs_Internal!N$64/12</f>
-        <v>53.118033697747762</v>
+        <v>0</v>
       </c>
       <c r="W37" s="63">
         <f t="shared" ref="W37:W68" si="7">IF(MOD(MONTH($B37),3)=0,SUM(I35:I37,P35:P37),0)</f>
@@ -9328,15 +9325,15 @@
       </c>
       <c r="P38" s="63">
         <f>$F38*Outputs_Internal!$D$64/12+N38</f>
-        <v>29018.151562499999</v>
+        <v>25884.337499999998</v>
       </c>
       <c r="Q38" s="63">
         <f>$F38*Outputs_Internal!K$64/12+N38*'MARA Prices'!$F$5</f>
-        <v>7439.2640628987574</v>
+        <v>5061.8332654457827</v>
       </c>
       <c r="R38" s="63">
         <f>$F38*Outputs_Internal!L$64/12+N38*'MARA Prices'!$F$6</f>
-        <v>18060.769465903493</v>
+        <v>17357.504234554217</v>
       </c>
       <c r="S38" s="63">
         <f>N38*'MARA Prices'!$F$4</f>
@@ -9348,19 +9345,19 @@
       </c>
       <c r="U38" s="63">
         <f>$F38*Outputs_Internal!N$64/12</f>
-        <v>53.118033697747762</v>
+        <v>0</v>
       </c>
       <c r="W38" s="63">
         <f t="shared" si="7"/>
-        <v>87054.454687499994</v>
+        <v>77653.012499999997</v>
       </c>
       <c r="X38" s="63">
         <f t="shared" si="8"/>
-        <v>22317.792188696272</v>
+        <v>15185.499796337348</v>
       </c>
       <c r="Y38" s="63">
         <f t="shared" si="9"/>
-        <v>54182.308397710483</v>
+        <v>52072.512703662651</v>
       </c>
       <c r="Z38" s="63">
         <f t="shared" si="10"/>
@@ -9368,7 +9365,7 @@
       </c>
       <c r="AA38" s="63">
         <f t="shared" si="11"/>
-        <v>10554.354101093242</v>
+        <v>10395</v>
       </c>
       <c r="AD38" s="63">
         <f>'MARA Prices'!H$21*$G38</f>
@@ -9434,15 +9431,15 @@
       </c>
       <c r="P39" s="63">
         <f>$F39*Outputs_Internal!$D$64/12+N39</f>
-        <v>29018.151562499999</v>
+        <v>25884.337499999998</v>
       </c>
       <c r="Q39" s="63">
         <f>$F39*Outputs_Internal!K$64/12+N39*'MARA Prices'!$F$5</f>
-        <v>7439.2640628987574</v>
+        <v>5061.8332654457827</v>
       </c>
       <c r="R39" s="63">
         <f>$F39*Outputs_Internal!L$64/12+N39*'MARA Prices'!$F$6</f>
-        <v>18060.769465903493</v>
+        <v>17357.504234554217</v>
       </c>
       <c r="S39" s="63">
         <f>N39*'MARA Prices'!$F$4</f>
@@ -9454,7 +9451,7 @@
       </c>
       <c r="U39" s="63">
         <f>$F39*Outputs_Internal!N$64/12</f>
-        <v>53.118033697747762</v>
+        <v>0</v>
       </c>
       <c r="W39" s="63">
         <f t="shared" si="7"/>
@@ -9540,15 +9537,15 @@
       </c>
       <c r="P40" s="63">
         <f>$F40*Outputs_Internal!$D$64/12+N40</f>
-        <v>29018.151562499999</v>
+        <v>25884.337499999998</v>
       </c>
       <c r="Q40" s="63">
         <f>$F40*Outputs_Internal!K$64/12+N40*'MARA Prices'!$F$5</f>
-        <v>7439.2640628987574</v>
+        <v>5061.8332654457827</v>
       </c>
       <c r="R40" s="63">
         <f>$F40*Outputs_Internal!L$64/12+N40*'MARA Prices'!$F$6</f>
-        <v>18060.769465903493</v>
+        <v>17357.504234554217</v>
       </c>
       <c r="S40" s="63">
         <f>N40*'MARA Prices'!$F$4</f>
@@ -9560,7 +9557,7 @@
       </c>
       <c r="U40" s="63">
         <f>$F40*Outputs_Internal!N$64/12</f>
-        <v>53.118033697747762</v>
+        <v>0</v>
       </c>
       <c r="W40" s="63">
         <f t="shared" si="7"/>
@@ -9646,15 +9643,15 @@
       </c>
       <c r="P41" s="63">
         <f>$F41*Outputs_Internal!$D$64/12+N41</f>
-        <v>29018.151562499999</v>
+        <v>25884.337499999998</v>
       </c>
       <c r="Q41" s="63">
         <f>$F41*Outputs_Internal!K$64/12+N41*'MARA Prices'!$F$5</f>
-        <v>7439.2640628987574</v>
+        <v>5061.8332654457827</v>
       </c>
       <c r="R41" s="63">
         <f>$F41*Outputs_Internal!L$64/12+N41*'MARA Prices'!$F$6</f>
-        <v>18060.769465903493</v>
+        <v>17357.504234554217</v>
       </c>
       <c r="S41" s="63">
         <f>N41*'MARA Prices'!$F$4</f>
@@ -9666,19 +9663,19 @@
       </c>
       <c r="U41" s="63">
         <f>$F41*Outputs_Internal!N$64/12</f>
-        <v>53.118033697747762</v>
+        <v>0</v>
       </c>
       <c r="W41" s="63">
         <f t="shared" si="7"/>
-        <v>87054.454687499994</v>
+        <v>77653.012499999997</v>
       </c>
       <c r="X41" s="63">
         <f t="shared" si="8"/>
-        <v>22317.792188696272</v>
+        <v>15185.499796337348</v>
       </c>
       <c r="Y41" s="63">
         <f t="shared" si="9"/>
-        <v>54182.308397710483</v>
+        <v>52072.512703662651</v>
       </c>
       <c r="Z41" s="63">
         <f t="shared" si="10"/>
@@ -9686,7 +9683,7 @@
       </c>
       <c r="AA41" s="63">
         <f t="shared" si="11"/>
-        <v>10554.354101093242</v>
+        <v>10395</v>
       </c>
       <c r="AD41" s="63">
         <f>'MARA Prices'!H$21*$G41</f>
@@ -9752,15 +9749,15 @@
       </c>
       <c r="P42" s="63">
         <f>$F42*Outputs_Internal!$D$64/12+N42</f>
-        <v>29018.151562499999</v>
+        <v>25884.337499999998</v>
       </c>
       <c r="Q42" s="63">
         <f>$F42*Outputs_Internal!K$64/12+N42*'MARA Prices'!$F$5</f>
-        <v>7439.2640628987574</v>
+        <v>5061.8332654457827</v>
       </c>
       <c r="R42" s="63">
         <f>$F42*Outputs_Internal!L$64/12+N42*'MARA Prices'!$F$6</f>
-        <v>18060.769465903493</v>
+        <v>17357.504234554217</v>
       </c>
       <c r="S42" s="63">
         <f>N42*'MARA Prices'!$F$4</f>
@@ -9772,7 +9769,7 @@
       </c>
       <c r="U42" s="63">
         <f>$F42*Outputs_Internal!N$64/12</f>
-        <v>53.118033697747762</v>
+        <v>0</v>
       </c>
       <c r="W42" s="63">
         <f t="shared" si="7"/>
@@ -9858,15 +9855,15 @@
       </c>
       <c r="P43" s="63">
         <f>$F43*Outputs_Internal!$D$64/12+N43</f>
-        <v>29018.151562499999</v>
+        <v>25884.337499999998</v>
       </c>
       <c r="Q43" s="63">
         <f>$F43*Outputs_Internal!K$64/12+N43*'MARA Prices'!$F$5</f>
-        <v>7439.2640628987574</v>
+        <v>5061.8332654457827</v>
       </c>
       <c r="R43" s="63">
         <f>$F43*Outputs_Internal!L$64/12+N43*'MARA Prices'!$F$6</f>
-        <v>18060.769465903493</v>
+        <v>17357.504234554217</v>
       </c>
       <c r="S43" s="63">
         <f>N43*'MARA Prices'!$F$4</f>
@@ -9878,7 +9875,7 @@
       </c>
       <c r="U43" s="63">
         <f>$F43*Outputs_Internal!N$64/12</f>
-        <v>53.118033697747762</v>
+        <v>0</v>
       </c>
       <c r="W43" s="63">
         <f t="shared" si="7"/>
@@ -9964,15 +9961,15 @@
       </c>
       <c r="P44" s="63">
         <f>$F44*Outputs_Internal!$D$64/12+N44</f>
-        <v>29018.151562499999</v>
+        <v>25884.337499999998</v>
       </c>
       <c r="Q44" s="63">
         <f>$F44*Outputs_Internal!K$64/12+N44*'MARA Prices'!$F$5</f>
-        <v>7439.2640628987574</v>
+        <v>5061.8332654457827</v>
       </c>
       <c r="R44" s="63">
         <f>$F44*Outputs_Internal!L$64/12+N44*'MARA Prices'!$F$6</f>
-        <v>18060.769465903493</v>
+        <v>17357.504234554217</v>
       </c>
       <c r="S44" s="63">
         <f>N44*'MARA Prices'!$F$4</f>
@@ -9984,19 +9981,19 @@
       </c>
       <c r="U44" s="63">
         <f>$F44*Outputs_Internal!N$64/12</f>
-        <v>53.118033697747762</v>
+        <v>0</v>
       </c>
       <c r="W44" s="63">
         <f t="shared" si="7"/>
-        <v>87054.454687499994</v>
+        <v>77653.012499999997</v>
       </c>
       <c r="X44" s="63">
         <f t="shared" si="8"/>
-        <v>22317.792188696272</v>
+        <v>15185.499796337348</v>
       </c>
       <c r="Y44" s="63">
         <f t="shared" si="9"/>
-        <v>54182.308397710483</v>
+        <v>52072.512703662651</v>
       </c>
       <c r="Z44" s="63">
         <f t="shared" si="10"/>
@@ -10004,7 +10001,7 @@
       </c>
       <c r="AA44" s="63">
         <f t="shared" si="11"/>
-        <v>10554.354101093242</v>
+        <v>10395</v>
       </c>
       <c r="AD44" s="63">
         <f>'MARA Prices'!H$21*$G44</f>
@@ -10070,15 +10067,15 @@
       </c>
       <c r="P45" s="63">
         <f>$F45*Outputs_Internal!$D$64/12+N45</f>
-        <v>29234.714062499999</v>
+        <v>26100.899999999998</v>
       </c>
       <c r="Q45" s="63">
         <f>$F45*Outputs_Internal!K$64/12+N45*'MARA Prices'!$F$5</f>
-        <v>7460.9203128987574</v>
+        <v>5083.4895154457827</v>
       </c>
       <c r="R45" s="63">
         <f>$F45*Outputs_Internal!L$64/12+N45*'MARA Prices'!$F$6</f>
-        <v>18082.425715903493</v>
+        <v>17379.160484554217</v>
       </c>
       <c r="S45" s="63">
         <f>N45*'MARA Prices'!$F$4</f>
@@ -10090,7 +10087,7 @@
       </c>
       <c r="U45" s="63">
         <f>$F45*Outputs_Internal!N$64/12</f>
-        <v>53.118033697747762</v>
+        <v>0</v>
       </c>
       <c r="W45" s="63">
         <f t="shared" si="7"/>
@@ -10176,15 +10173,15 @@
       </c>
       <c r="P46" s="63">
         <f>$F46*Outputs_Internal!$D$64/12+N46</f>
-        <v>29234.714062499999</v>
+        <v>26100.899999999998</v>
       </c>
       <c r="Q46" s="63">
         <f>$F46*Outputs_Internal!K$64/12+N46*'MARA Prices'!$F$5</f>
-        <v>7460.9203128987574</v>
+        <v>5083.4895154457827</v>
       </c>
       <c r="R46" s="63">
         <f>$F46*Outputs_Internal!L$64/12+N46*'MARA Prices'!$F$6</f>
-        <v>18082.425715903493</v>
+        <v>17379.160484554217</v>
       </c>
       <c r="S46" s="63">
         <f>N46*'MARA Prices'!$F$4</f>
@@ -10196,7 +10193,7 @@
       </c>
       <c r="U46" s="63">
         <f>$F46*Outputs_Internal!N$64/12</f>
-        <v>53.118033697747762</v>
+        <v>0</v>
       </c>
       <c r="W46" s="63">
         <f t="shared" si="7"/>
@@ -10282,15 +10279,15 @@
       </c>
       <c r="P47" s="63">
         <f>$F47*Outputs_Internal!$D$64/12+N47</f>
-        <v>29234.714062499999</v>
+        <v>26100.899999999998</v>
       </c>
       <c r="Q47" s="63">
         <f>$F47*Outputs_Internal!K$64/12+N47*'MARA Prices'!$F$5</f>
-        <v>7460.9203128987574</v>
+        <v>5083.4895154457827</v>
       </c>
       <c r="R47" s="63">
         <f>$F47*Outputs_Internal!L$64/12+N47*'MARA Prices'!$F$6</f>
-        <v>18082.425715903493</v>
+        <v>17379.160484554217</v>
       </c>
       <c r="S47" s="63">
         <f>N47*'MARA Prices'!$F$4</f>
@@ -10302,19 +10299,19 @@
       </c>
       <c r="U47" s="63">
         <f>$F47*Outputs_Internal!N$64/12</f>
-        <v>53.118033697747762</v>
+        <v>0</v>
       </c>
       <c r="W47" s="63">
         <f t="shared" si="7"/>
-        <v>87704.142187499994</v>
+        <v>78302.7</v>
       </c>
       <c r="X47" s="63">
         <f t="shared" si="8"/>
-        <v>22382.760938696272</v>
+        <v>15250.468546337348</v>
       </c>
       <c r="Y47" s="63">
         <f t="shared" si="9"/>
-        <v>54247.277147710483</v>
+        <v>52137.481453662651</v>
       </c>
       <c r="Z47" s="63">
         <f t="shared" si="10"/>
@@ -10322,7 +10319,7 @@
       </c>
       <c r="AA47" s="63">
         <f t="shared" si="11"/>
-        <v>11074.104101093242</v>
+        <v>10914.75</v>
       </c>
       <c r="AD47" s="63">
         <f>'MARA Prices'!H$21*$G47</f>
@@ -10388,15 +10385,15 @@
       </c>
       <c r="P48" s="63">
         <f>$F48*Outputs_Internal!$D$64/12+N48</f>
-        <v>29234.714062499999</v>
+        <v>26100.899999999998</v>
       </c>
       <c r="Q48" s="63">
         <f>$F48*Outputs_Internal!K$64/12+N48*'MARA Prices'!$F$5</f>
-        <v>7460.9203128987574</v>
+        <v>5083.4895154457827</v>
       </c>
       <c r="R48" s="63">
         <f>$F48*Outputs_Internal!L$64/12+N48*'MARA Prices'!$F$6</f>
-        <v>18082.425715903493</v>
+        <v>17379.160484554217</v>
       </c>
       <c r="S48" s="63">
         <f>N48*'MARA Prices'!$F$4</f>
@@ -10408,7 +10405,7 @@
       </c>
       <c r="U48" s="63">
         <f>$F48*Outputs_Internal!N$64/12</f>
-        <v>53.118033697747762</v>
+        <v>0</v>
       </c>
       <c r="W48" s="63">
         <f t="shared" si="7"/>
@@ -10494,15 +10491,15 @@
       </c>
       <c r="P49" s="63">
         <f>$F49*Outputs_Internal!$D$64/12+N49</f>
-        <v>29234.714062499999</v>
+        <v>26100.899999999998</v>
       </c>
       <c r="Q49" s="63">
         <f>$F49*Outputs_Internal!K$64/12+N49*'MARA Prices'!$F$5</f>
-        <v>7460.9203128987574</v>
+        <v>5083.4895154457827</v>
       </c>
       <c r="R49" s="63">
         <f>$F49*Outputs_Internal!L$64/12+N49*'MARA Prices'!$F$6</f>
-        <v>18082.425715903493</v>
+        <v>17379.160484554217</v>
       </c>
       <c r="S49" s="63">
         <f>N49*'MARA Prices'!$F$4</f>
@@ -10514,7 +10511,7 @@
       </c>
       <c r="U49" s="63">
         <f>$F49*Outputs_Internal!N$64/12</f>
-        <v>53.118033697747762</v>
+        <v>0</v>
       </c>
       <c r="W49" s="63">
         <f t="shared" si="7"/>
@@ -10600,15 +10597,15 @@
       </c>
       <c r="P50" s="63">
         <f>$F50*Outputs_Internal!$D$64/12+N50</f>
-        <v>29234.714062499999</v>
+        <v>26100.899999999998</v>
       </c>
       <c r="Q50" s="63">
         <f>$F50*Outputs_Internal!K$64/12+N50*'MARA Prices'!$F$5</f>
-        <v>7460.9203128987574</v>
+        <v>5083.4895154457827</v>
       </c>
       <c r="R50" s="63">
         <f>$F50*Outputs_Internal!L$64/12+N50*'MARA Prices'!$F$6</f>
-        <v>18082.425715903493</v>
+        <v>17379.160484554217</v>
       </c>
       <c r="S50" s="63">
         <f>N50*'MARA Prices'!$F$4</f>
@@ -10620,19 +10617,19 @@
       </c>
       <c r="U50" s="63">
         <f>$F50*Outputs_Internal!N$64/12</f>
-        <v>53.118033697747762</v>
+        <v>0</v>
       </c>
       <c r="W50" s="63">
         <f t="shared" si="7"/>
-        <v>87704.142187499994</v>
+        <v>78302.7</v>
       </c>
       <c r="X50" s="63">
         <f t="shared" si="8"/>
-        <v>22382.760938696272</v>
+        <v>15250.468546337348</v>
       </c>
       <c r="Y50" s="63">
         <f t="shared" si="9"/>
-        <v>54247.277147710483</v>
+        <v>52137.481453662651</v>
       </c>
       <c r="Z50" s="63">
         <f t="shared" si="10"/>
@@ -10640,7 +10637,7 @@
       </c>
       <c r="AA50" s="63">
         <f t="shared" si="11"/>
-        <v>11074.104101093242</v>
+        <v>10914.75</v>
       </c>
       <c r="AD50" s="63">
         <f>'MARA Prices'!H$21*$G50</f>
@@ -10706,15 +10703,15 @@
       </c>
       <c r="P51" s="63">
         <f>$F51*Outputs_Internal!$D$64/12+N51</f>
-        <v>29234.714062499999</v>
+        <v>26100.899999999998</v>
       </c>
       <c r="Q51" s="63">
         <f>$F51*Outputs_Internal!K$64/12+N51*'MARA Prices'!$F$5</f>
-        <v>7460.9203128987574</v>
+        <v>5083.4895154457827</v>
       </c>
       <c r="R51" s="63">
         <f>$F51*Outputs_Internal!L$64/12+N51*'MARA Prices'!$F$6</f>
-        <v>18082.425715903493</v>
+        <v>17379.160484554217</v>
       </c>
       <c r="S51" s="63">
         <f>N51*'MARA Prices'!$F$4</f>
@@ -10726,7 +10723,7 @@
       </c>
       <c r="U51" s="63">
         <f>$F51*Outputs_Internal!N$64/12</f>
-        <v>53.118033697747762</v>
+        <v>0</v>
       </c>
       <c r="W51" s="63">
         <f t="shared" si="7"/>
@@ -10812,15 +10809,15 @@
       </c>
       <c r="P52" s="63">
         <f>$F52*Outputs_Internal!$D$64/12+N52</f>
-        <v>29234.714062499999</v>
+        <v>26100.899999999998</v>
       </c>
       <c r="Q52" s="63">
         <f>$F52*Outputs_Internal!K$64/12+N52*'MARA Prices'!$F$5</f>
-        <v>7460.9203128987574</v>
+        <v>5083.4895154457827</v>
       </c>
       <c r="R52" s="63">
         <f>$F52*Outputs_Internal!L$64/12+N52*'MARA Prices'!$F$6</f>
-        <v>18082.425715903493</v>
+        <v>17379.160484554217</v>
       </c>
       <c r="S52" s="63">
         <f>N52*'MARA Prices'!$F$4</f>
@@ -10832,7 +10829,7 @@
       </c>
       <c r="U52" s="63">
         <f>$F52*Outputs_Internal!N$64/12</f>
-        <v>53.118033697747762</v>
+        <v>0</v>
       </c>
       <c r="W52" s="63">
         <f t="shared" si="7"/>
@@ -10918,15 +10915,15 @@
       </c>
       <c r="P53" s="63">
         <f>$F53*Outputs_Internal!$D$64/12+N53</f>
-        <v>29234.714062499999</v>
+        <v>26100.899999999998</v>
       </c>
       <c r="Q53" s="63">
         <f>$F53*Outputs_Internal!K$64/12+N53*'MARA Prices'!$F$5</f>
-        <v>7460.9203128987574</v>
+        <v>5083.4895154457827</v>
       </c>
       <c r="R53" s="63">
         <f>$F53*Outputs_Internal!L$64/12+N53*'MARA Prices'!$F$6</f>
-        <v>18082.425715903493</v>
+        <v>17379.160484554217</v>
       </c>
       <c r="S53" s="63">
         <f>N53*'MARA Prices'!$F$4</f>
@@ -10938,19 +10935,19 @@
       </c>
       <c r="U53" s="63">
         <f>$F53*Outputs_Internal!N$64/12</f>
-        <v>53.118033697747762</v>
+        <v>0</v>
       </c>
       <c r="W53" s="63">
         <f t="shared" si="7"/>
-        <v>87704.142187499994</v>
+        <v>78302.7</v>
       </c>
       <c r="X53" s="63">
         <f t="shared" si="8"/>
-        <v>22382.760938696272</v>
+        <v>15250.468546337348</v>
       </c>
       <c r="Y53" s="63">
         <f t="shared" si="9"/>
-        <v>54247.277147710483</v>
+        <v>52137.481453662651</v>
       </c>
       <c r="Z53" s="63">
         <f t="shared" si="10"/>
@@ -10958,7 +10955,7 @@
       </c>
       <c r="AA53" s="63">
         <f t="shared" si="11"/>
-        <v>11074.104101093242</v>
+        <v>10914.75</v>
       </c>
       <c r="AD53" s="63">
         <f>'MARA Prices'!H$21*$G53</f>
@@ -11024,15 +11021,15 @@
       </c>
       <c r="P54" s="63">
         <f>$F54*Outputs_Internal!$D$64/12+N54</f>
-        <v>29234.714062499999</v>
+        <v>26100.899999999998</v>
       </c>
       <c r="Q54" s="63">
         <f>$F54*Outputs_Internal!K$64/12+N54*'MARA Prices'!$F$5</f>
-        <v>7460.9203128987574</v>
+        <v>5083.4895154457827</v>
       </c>
       <c r="R54" s="63">
         <f>$F54*Outputs_Internal!L$64/12+N54*'MARA Prices'!$F$6</f>
-        <v>18082.425715903493</v>
+        <v>17379.160484554217</v>
       </c>
       <c r="S54" s="63">
         <f>N54*'MARA Prices'!$F$4</f>
@@ -11044,7 +11041,7 @@
       </c>
       <c r="U54" s="63">
         <f>$F54*Outputs_Internal!N$64/12</f>
-        <v>53.118033697747762</v>
+        <v>0</v>
       </c>
       <c r="W54" s="63">
         <f t="shared" si="7"/>
@@ -11130,15 +11127,15 @@
       </c>
       <c r="P55" s="63">
         <f>$F55*Outputs_Internal!$D$64/12+N55</f>
-        <v>29234.714062499999</v>
+        <v>26100.899999999998</v>
       </c>
       <c r="Q55" s="63">
         <f>$F55*Outputs_Internal!K$64/12+N55*'MARA Prices'!$F$5</f>
-        <v>7460.9203128987574</v>
+        <v>5083.4895154457827</v>
       </c>
       <c r="R55" s="63">
         <f>$F55*Outputs_Internal!L$64/12+N55*'MARA Prices'!$F$6</f>
-        <v>18082.425715903493</v>
+        <v>17379.160484554217</v>
       </c>
       <c r="S55" s="63">
         <f>N55*'MARA Prices'!$F$4</f>
@@ -11150,7 +11147,7 @@
       </c>
       <c r="U55" s="63">
         <f>$F55*Outputs_Internal!N$64/12</f>
-        <v>53.118033697747762</v>
+        <v>0</v>
       </c>
       <c r="W55" s="63">
         <f t="shared" si="7"/>
@@ -11236,15 +11233,15 @@
       </c>
       <c r="P56" s="63">
         <f>$F56*Outputs_Internal!$D$64/12+N56</f>
-        <v>29234.714062499999</v>
+        <v>26100.899999999998</v>
       </c>
       <c r="Q56" s="63">
         <f>$F56*Outputs_Internal!K$64/12+N56*'MARA Prices'!$F$5</f>
-        <v>7460.9203128987574</v>
+        <v>5083.4895154457827</v>
       </c>
       <c r="R56" s="63">
         <f>$F56*Outputs_Internal!L$64/12+N56*'MARA Prices'!$F$6</f>
-        <v>18082.425715903493</v>
+        <v>17379.160484554217</v>
       </c>
       <c r="S56" s="63">
         <f>N56*'MARA Prices'!$F$4</f>
@@ -11256,19 +11253,19 @@
       </c>
       <c r="U56" s="63">
         <f>$F56*Outputs_Internal!N$64/12</f>
-        <v>53.118033697747762</v>
+        <v>0</v>
       </c>
       <c r="W56" s="63">
         <f t="shared" si="7"/>
-        <v>87704.142187499994</v>
+        <v>78302.7</v>
       </c>
       <c r="X56" s="63">
         <f t="shared" si="8"/>
-        <v>22382.760938696272</v>
+        <v>15250.468546337348</v>
       </c>
       <c r="Y56" s="63">
         <f t="shared" si="9"/>
-        <v>54247.277147710483</v>
+        <v>52137.481453662651</v>
       </c>
       <c r="Z56" s="63">
         <f t="shared" si="10"/>
@@ -11276,7 +11273,7 @@
       </c>
       <c r="AA56" s="63">
         <f t="shared" si="11"/>
-        <v>11074.104101093242</v>
+        <v>10914.75</v>
       </c>
       <c r="AD56" s="63">
         <f>'MARA Prices'!H$21*$G56</f>
@@ -11342,15 +11339,15 @@
       </c>
       <c r="P57" s="63">
         <f>$F57*Outputs_Internal!$D$64/12+N57</f>
-        <v>29462.104687499999</v>
+        <v>26328.290624999998</v>
       </c>
       <c r="Q57" s="63">
         <f>$F57*Outputs_Internal!K$64/12+N57*'MARA Prices'!$F$5</f>
-        <v>7483.6593753987572</v>
+        <v>5106.2285779457825</v>
       </c>
       <c r="R57" s="63">
         <f>$F57*Outputs_Internal!L$64/12+N57*'MARA Prices'!$F$6</f>
-        <v>18105.164778403494</v>
+        <v>17401.899547054218</v>
       </c>
       <c r="S57" s="63">
         <f>N57*'MARA Prices'!$F$4</f>
@@ -11362,7 +11359,7 @@
       </c>
       <c r="U57" s="63">
         <f>$F57*Outputs_Internal!N$64/12</f>
-        <v>53.118033697747762</v>
+        <v>0</v>
       </c>
       <c r="W57" s="63">
         <f t="shared" si="7"/>
@@ -11448,15 +11445,15 @@
       </c>
       <c r="P58" s="63">
         <f>$F58*Outputs_Internal!$D$64/12+N58</f>
-        <v>29462.104687499999</v>
+        <v>26328.290624999998</v>
       </c>
       <c r="Q58" s="63">
         <f>$F58*Outputs_Internal!K$64/12+N58*'MARA Prices'!$F$5</f>
-        <v>7483.6593753987572</v>
+        <v>5106.2285779457825</v>
       </c>
       <c r="R58" s="63">
         <f>$F58*Outputs_Internal!L$64/12+N58*'MARA Prices'!$F$6</f>
-        <v>18105.164778403494</v>
+        <v>17401.899547054218</v>
       </c>
       <c r="S58" s="63">
         <f>N58*'MARA Prices'!$F$4</f>
@@ -11468,7 +11465,7 @@
       </c>
       <c r="U58" s="63">
         <f>$F58*Outputs_Internal!N$64/12</f>
-        <v>53.118033697747762</v>
+        <v>0</v>
       </c>
       <c r="W58" s="63">
         <f t="shared" si="7"/>
@@ -11554,15 +11551,15 @@
       </c>
       <c r="P59" s="63">
         <f>$F59*Outputs_Internal!$D$64/12+N59</f>
-        <v>29462.104687499999</v>
+        <v>26328.290624999998</v>
       </c>
       <c r="Q59" s="63">
         <f>$F59*Outputs_Internal!K$64/12+N59*'MARA Prices'!$F$5</f>
-        <v>7483.6593753987572</v>
+        <v>5106.2285779457825</v>
       </c>
       <c r="R59" s="63">
         <f>$F59*Outputs_Internal!L$64/12+N59*'MARA Prices'!$F$6</f>
-        <v>18105.164778403494</v>
+        <v>17401.899547054218</v>
       </c>
       <c r="S59" s="63">
         <f>N59*'MARA Prices'!$F$4</f>
@@ -11574,19 +11571,19 @@
       </c>
       <c r="U59" s="63">
         <f>$F59*Outputs_Internal!N$64/12</f>
-        <v>53.118033697747762</v>
+        <v>0</v>
       </c>
       <c r="W59" s="63">
         <f t="shared" si="7"/>
-        <v>88386.314062499994</v>
+        <v>78984.871874999997</v>
       </c>
       <c r="X59" s="63">
         <f t="shared" si="8"/>
-        <v>22450.978126196271</v>
+        <v>15318.685733837348</v>
       </c>
       <c r="Y59" s="63">
         <f t="shared" si="9"/>
-        <v>54315.494335210482</v>
+        <v>52205.698641162657</v>
       </c>
       <c r="Z59" s="63">
         <f t="shared" si="10"/>
@@ -11594,7 +11591,7 @@
       </c>
       <c r="AA59" s="63">
         <f t="shared" si="11"/>
-        <v>11619.841601093245</v>
+        <v>11460.487500000003</v>
       </c>
       <c r="AD59" s="63">
         <f>'MARA Prices'!H$21*$G59</f>
@@ -11660,15 +11657,15 @@
       </c>
       <c r="P60" s="63">
         <f>$F60*Outputs_Internal!$D$64/12+N60</f>
-        <v>29462.104687499999</v>
+        <v>26328.290624999998</v>
       </c>
       <c r="Q60" s="63">
         <f>$F60*Outputs_Internal!K$64/12+N60*'MARA Prices'!$F$5</f>
-        <v>7483.6593753987572</v>
+        <v>5106.2285779457825</v>
       </c>
       <c r="R60" s="63">
         <f>$F60*Outputs_Internal!L$64/12+N60*'MARA Prices'!$F$6</f>
-        <v>18105.164778403494</v>
+        <v>17401.899547054218</v>
       </c>
       <c r="S60" s="63">
         <f>N60*'MARA Prices'!$F$4</f>
@@ -11680,7 +11677,7 @@
       </c>
       <c r="U60" s="63">
         <f>$F60*Outputs_Internal!N$64/12</f>
-        <v>53.118033697747762</v>
+        <v>0</v>
       </c>
       <c r="W60" s="63">
         <f t="shared" si="7"/>
@@ -11766,15 +11763,15 @@
       </c>
       <c r="P61" s="63">
         <f>$F61*Outputs_Internal!$D$64/12+N61</f>
-        <v>29462.104687499999</v>
+        <v>26328.290624999998</v>
       </c>
       <c r="Q61" s="63">
         <f>$F61*Outputs_Internal!K$64/12+N61*'MARA Prices'!$F$5</f>
-        <v>7483.6593753987572</v>
+        <v>5106.2285779457825</v>
       </c>
       <c r="R61" s="63">
         <f>$F61*Outputs_Internal!L$64/12+N61*'MARA Prices'!$F$6</f>
-        <v>18105.164778403494</v>
+        <v>17401.899547054218</v>
       </c>
       <c r="S61" s="63">
         <f>N61*'MARA Prices'!$F$4</f>
@@ -11786,7 +11783,7 @@
       </c>
       <c r="U61" s="63">
         <f>$F61*Outputs_Internal!N$64/12</f>
-        <v>53.118033697747762</v>
+        <v>0</v>
       </c>
       <c r="W61" s="63">
         <f t="shared" si="7"/>
@@ -11872,15 +11869,15 @@
       </c>
       <c r="P62" s="63">
         <f>$F62*Outputs_Internal!$D$64/12+N62</f>
-        <v>29462.104687499999</v>
+        <v>26328.290624999998</v>
       </c>
       <c r="Q62" s="63">
         <f>$F62*Outputs_Internal!K$64/12+N62*'MARA Prices'!$F$5</f>
-        <v>7483.6593753987572</v>
+        <v>5106.2285779457825</v>
       </c>
       <c r="R62" s="63">
         <f>$F62*Outputs_Internal!L$64/12+N62*'MARA Prices'!$F$6</f>
-        <v>18105.164778403494</v>
+        <v>17401.899547054218</v>
       </c>
       <c r="S62" s="63">
         <f>N62*'MARA Prices'!$F$4</f>
@@ -11892,19 +11889,19 @@
       </c>
       <c r="U62" s="63">
         <f>$F62*Outputs_Internal!N$64/12</f>
-        <v>53.118033697747762</v>
+        <v>0</v>
       </c>
       <c r="W62" s="63">
         <f t="shared" si="7"/>
-        <v>88386.314062499994</v>
+        <v>78984.871874999997</v>
       </c>
       <c r="X62" s="63">
         <f t="shared" si="8"/>
-        <v>22450.978126196271</v>
+        <v>15318.685733837348</v>
       </c>
       <c r="Y62" s="63">
         <f t="shared" si="9"/>
-        <v>54315.494335210482</v>
+        <v>52205.698641162657</v>
       </c>
       <c r="Z62" s="63">
         <f t="shared" si="10"/>
@@ -11912,7 +11909,7 @@
       </c>
       <c r="AA62" s="63">
         <f t="shared" si="11"/>
-        <v>11619.841601093245</v>
+        <v>11460.487500000003</v>
       </c>
       <c r="AD62" s="63">
         <f>'MARA Prices'!H$21*$G62</f>
@@ -15356,7 +15353,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D60" sqref="D60"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15686,7 +15683,7 @@
       </c>
       <c r="F15" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!F13="Y",Inputs!F$23="Y"), Prices!$C10, 0)</f>
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G15" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!G13="Y",Inputs!G$23="Y"), Prices!$C10, 0)</f>
@@ -15711,7 +15708,7 @@
       </c>
       <c r="F16" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!F14="Y",Inputs!F$23="Y"), Prices!$C11, 0)</f>
-        <v>4800</v>
+        <v>0</v>
       </c>
       <c r="G16" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!G14="Y",Inputs!G$23="Y"), Prices!$C11, 0)</f>
@@ -15736,7 +15733,7 @@
       </c>
       <c r="F17" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!F15="Y",Inputs!F$23="Y"), Prices!$C12, 0)</f>
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="G17" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!G15="Y",Inputs!G$23="Y"), Prices!$C12, 0)</f>
@@ -15761,7 +15758,7 @@
       </c>
       <c r="F18" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!F16="Y",Inputs!F$23="Y"), Prices!$C13, 0)</f>
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="G18" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!G16="Y",Inputs!G$23="Y"), Prices!$C13, 0)</f>
@@ -15811,7 +15808,7 @@
       </c>
       <c r="F20" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!F18="Y",Inputs!F$23="Y"), Prices!$C15, 0)</f>
-        <v>4800</v>
+        <v>0</v>
       </c>
       <c r="G20" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!G18="Y",Inputs!G$23="Y"), Prices!$C15, 0)</f>
@@ -15824,26 +15821,26 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C21" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D21" s="18">
-        <f xml:space="preserve"> IF(Inputs!D$6="Y",0,IF(OR(Inputs!D21="Y",Inputs!D$23="Y"), Prices!$C16, 0))</f>
+        <f xml:space="preserve"> IF(OR(Inputs!D21="Y",Inputs!D$23="Y"), Prices!$C16, 0)</f>
         <v>0</v>
       </c>
       <c r="E21" s="18">
-        <f xml:space="preserve"> IF(Inputs!E$6="Y",0,IF(OR(Inputs!E21="Y",Inputs!E$23="Y"), Prices!$C16, 0))</f>
+        <f xml:space="preserve"> IF(OR(Inputs!E21="Y",Inputs!E$23="Y"), Prices!$C16, 0)</f>
         <v>0</v>
       </c>
       <c r="F21" s="18">
-        <f xml:space="preserve"> IF(Inputs!F$6="Y",0,IF(OR(Inputs!F21="Y",Inputs!F$23="Y"), Prices!$C16, 0))</f>
+        <f xml:space="preserve"> IF(OR(Inputs!F21="Y",Inputs!F$23="Y"), Prices!$C16, 0)</f>
         <v>4200</v>
       </c>
       <c r="G21" s="18">
-        <f xml:space="preserve"> IF(Inputs!G$6="Y",0,IF(OR(Inputs!G21="Y",Inputs!G$23="Y"), Prices!$C16, 0))</f>
+        <f xml:space="preserve"> IF(OR(Inputs!G21="Y",Inputs!G$23="Y"), Prices!$C16, 0)</f>
         <v>0</v>
       </c>
       <c r="H21" s="18">
-        <f xml:space="preserve"> IF(Inputs!H$6="Y",0,IF(OR(Inputs!H21="Y",Inputs!H$23="Y"), Prices!$C16, 0))</f>
+        <f xml:space="preserve"> IF(OR(Inputs!H21="Y",Inputs!H$23="Y"), Prices!$C16, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -15899,7 +15896,7 @@
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C24" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D24" s="20">
         <f>IF(Inputs!D$6="N",0, IF(OR(Inputs!D21="Y",Inputs!D$24="Y",Inputs!D$25="Y"), Prices!$C19, 0))</f>
@@ -15966,7 +15963,7 @@
       </c>
       <c r="F28" s="18">
         <f>IF(OR(Inputs!F$6="Y", F$11 = 0), 0, IF(OR(Inputs!F13="Y",Inputs!F$23="Y"),PRODUCT(F$11, Prices!$E10),0))*F$10</f>
-        <v>4550</v>
+        <v>0</v>
       </c>
       <c r="G28" s="18">
         <f>IF(OR(Inputs!G$6="Y", G$11 = 0), 0, IF(OR(Inputs!G13="Y",Inputs!G$23="Y"),PRODUCT(G$11, Prices!$E10),0))*G$10</f>
@@ -15991,7 +15988,7 @@
       </c>
       <c r="F29" s="18">
         <f>IF(OR(Inputs!F$6="Y", F$11 = 0), 0, IF(OR(Inputs!F14="Y",Inputs!F$23="Y"),PRODUCT(F$11, Prices!$E11),0))*F$10</f>
-        <v>6370.0000000000009</v>
+        <v>0</v>
       </c>
       <c r="G29" s="18">
         <f>IF(OR(Inputs!G$6="Y", G$11 = 0), 0, IF(OR(Inputs!G14="Y",Inputs!G$23="Y"),PRODUCT(G$11, Prices!$E11),0))*G$10</f>
@@ -16016,7 +16013,7 @@
       </c>
       <c r="F30" s="18">
         <f>IF(OR(Inputs!F$6="Y", F$11 = 0), 0, IF(OR(Inputs!F15="Y",Inputs!F$23="Y"),PRODUCT(F$11, Prices!$E12),0))*F$10</f>
-        <v>4550</v>
+        <v>0</v>
       </c>
       <c r="G30" s="18">
         <f>IF(OR(Inputs!G$6="Y", G$11 = 0), 0, IF(OR(Inputs!G15="Y",Inputs!G$23="Y"),PRODUCT(G$11, Prices!$E12),0))*G$10</f>
@@ -16041,7 +16038,7 @@
       </c>
       <c r="F31" s="18">
         <f>IF(OR(Inputs!F$6="Y", F$11 = 0), 0, IF(OR(Inputs!F16="Y",Inputs!F$23="Y"),PRODUCT(F$11, Prices!$E13),0))*F$10</f>
-        <v>4550</v>
+        <v>0</v>
       </c>
       <c r="G31" s="18">
         <f>IF(OR(Inputs!G$6="Y", G$11 = 0), 0, IF(OR(Inputs!G16="Y",Inputs!G$23="Y"),PRODUCT(G$11, Prices!$E13),0))*G$10</f>
@@ -16091,7 +16088,7 @@
       </c>
       <c r="F33" s="18">
         <f>IF(OR(Inputs!F$6="Y", F$11 = 0), 0, IF(OR(Inputs!F18="Y",Inputs!F$23="Y"),PRODUCT(F$11, Prices!$E15),0))*F$10</f>
-        <v>6370.0000000000009</v>
+        <v>0</v>
       </c>
       <c r="G33" s="18">
         <f>IF(OR(Inputs!G$6="Y", G$11 = 0), 0, IF(OR(Inputs!G18="Y",Inputs!G$23="Y"),PRODUCT(G$11, Prices!$E15),0))*G$10</f>
@@ -16104,7 +16101,7 @@
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C34" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D34" s="18">
         <f>IF(OR(Inputs!D$6="Y", D$11 = 0), 0, IF(OR(Inputs!D21="Y",Inputs!D$23="Y"),PRODUCT(D$11, Prices!$E16),0))*D$10</f>
@@ -16179,7 +16176,7 @@
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C37" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D37" s="29">
         <v>0</v>
@@ -16386,26 +16383,26 @@
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C47" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D47" s="18">
-        <f>IF(Inputs!D$6="Y",0,IF(AND(Inputs!D21="Y",Inputs!D$23="N"),Prices!$C16,0))</f>
+        <f>IF(AND(Inputs!D21="Y",Inputs!D$23="N"),Prices!$C16,0)</f>
         <v>0</v>
       </c>
       <c r="E47" s="18">
-        <f>IF(Inputs!E$6="Y",0,IF(AND(Inputs!E21="Y",Inputs!E$23="N"),Prices!$C16,0))</f>
+        <f>IF(AND(Inputs!E21="Y",Inputs!E$23="N"),Prices!$C16,0)</f>
         <v>0</v>
       </c>
       <c r="F47" s="18">
-        <f>IF(Inputs!F$6="Y",0,IF(AND(Inputs!F21="Y",Inputs!F$23="N"),Prices!$C16,0))</f>
-        <v>0</v>
+        <f>IF(AND(Inputs!F21="Y",Inputs!F$23="N"),Prices!$C16,0)</f>
+        <v>4200</v>
       </c>
       <c r="G47" s="18">
-        <f>IF(Inputs!G$6="Y",0,IF(AND(Inputs!G21="Y",Inputs!G$23="N"),Prices!$C16,0))</f>
+        <f>IF(AND(Inputs!G21="Y",Inputs!G$23="N"),Prices!$C16,0)</f>
         <v>0</v>
       </c>
       <c r="H47" s="18">
-        <f>IF(Inputs!H$6="Y",0,IF(AND(Inputs!H21="Y",Inputs!H$23="N"),Prices!$C16,0))</f>
+        <f>IF(AND(Inputs!H21="Y",Inputs!H$23="N"),Prices!$C16,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -16461,7 +16458,7 @@
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C50" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D50" s="20">
         <f>IF(Inputs!D$6="N",0,IF(AND(Inputs!D21="Y",Inputs!D$24="N",Inputs!D$25="N"),Prices!$C19,0))</f>
@@ -16666,7 +16663,7 @@
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C60" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D60" s="18">
         <f>IF(OR(Inputs!D$6="Y", D$11 = 0), 0, IF(AND(Inputs!D21="Y",Inputs!D$23="N"),PRODUCT(D$11, Prices!$E16)*D$10,0))</f>
@@ -16678,7 +16675,7 @@
       </c>
       <c r="F60" s="18">
         <f>IF(OR(Inputs!F$6="Y", F$11 = 0), 0, IF(AND(Inputs!F21="Y",Inputs!F$23="N"),PRODUCT(F$11, Prices!$E16)*F$10,0))</f>
-        <v>0</v>
+        <v>6370.0000000000009</v>
       </c>
       <c r="G60" s="18">
         <f>IF(OR(Inputs!G$6="Y", G$11 = 0), 0, IF(AND(Inputs!G21="Y",Inputs!G$23="N"),PRODUCT(G$11, Prices!$E16)*G$10,0))</f>
@@ -16741,7 +16738,7 @@
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C63" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D63" s="29">
         <v>0</v>
@@ -16803,7 +16800,7 @@
       </c>
       <c r="F67" s="18">
         <f>IF(Inputs!F23="Y", Prices!$C22, 0)</f>
-        <v>39600</v>
+        <v>0</v>
       </c>
       <c r="G67" s="18">
         <f>IF(Inputs!G23="Y", Prices!$C22, 0)</f>
@@ -17054,7 +17051,7 @@
       </c>
       <c r="F78" s="18">
         <f>IF(Inputs!F$6="Y", 0, IF(F$11 = "", 0, IF(Inputs!F23 = "Y", F$11*Prices!$E22, 0)))*F$10</f>
-        <v>36400</v>
+        <v>0</v>
       </c>
       <c r="G78" s="18">
         <f>IF(Inputs!G$6="Y", 0, IF(G$11 = "", 0, IF(Inputs!G23 = "Y", G$11*Prices!$E22, 0)))*G$10</f>
@@ -17078,7 +17075,7 @@
       </c>
       <c r="M78" s="23">
         <f t="shared" si="4"/>
-        <v>76000.001099999994</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="N78" s="23">
         <f t="shared" si="5"/>
@@ -17503,7 +17500,7 @@
       </c>
       <c r="F89" s="18">
         <f>IF(F67=0,0,F67-SUM(F15:F21))</f>
-        <v>19800</v>
+        <v>0</v>
       </c>
       <c r="G89" s="18">
         <f t="shared" si="10"/>
@@ -17523,7 +17520,7 @@
       </c>
       <c r="M89" s="21">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N89" s="21">
         <f t="shared" si="11"/>
@@ -17568,7 +17565,7 @@
       </c>
       <c r="M90" s="21">
         <f t="shared" si="12"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N90" s="21">
         <f t="shared" si="12"/>
@@ -17613,7 +17610,7 @@
       </c>
       <c r="M91" s="21">
         <f t="shared" si="13"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N91" s="21">
         <f t="shared" si="13"/>
@@ -17658,7 +17655,7 @@
       </c>
       <c r="M92" s="21">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N92" s="21">
         <f t="shared" si="14"/>
@@ -17703,7 +17700,7 @@
       </c>
       <c r="M93" s="21">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N93" s="21">
         <f t="shared" si="16"/>
@@ -17748,7 +17745,7 @@
       </c>
       <c r="M94" s="21">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N94" s="21">
         <f t="shared" si="17"/>
@@ -17793,7 +17790,7 @@
       </c>
       <c r="M95" s="21">
         <f t="shared" si="19"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N95" s="21">
         <f t="shared" si="19"/>
@@ -17838,7 +17835,7 @@
       </c>
       <c r="M96" s="21">
         <f t="shared" si="21"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N96" s="21">
         <f t="shared" si="21"/>
@@ -17888,7 +17885,7 @@
       </c>
       <c r="F100" s="18">
         <f>IF(F78=0,0,F78-SUM(F28:F34))</f>
-        <v>3640</v>
+        <v>0</v>
       </c>
       <c r="G100" s="18">
         <f t="shared" si="22"/>
@@ -18096,7 +18093,7 @@
       </c>
       <c r="F110" s="1">
         <f>_xlfn.IFNA(SUM(INDEX(F$66:F$74, MATCH($A110, M$88:M$96, 0)), INDEX(F$77:F$85, MATCH($A110, M$88:M$96, 0)))*Prices!$L$5*-1, 0)</f>
-        <v>-19836</v>
+        <v>-16905</v>
       </c>
       <c r="G110" s="1">
         <f>_xlfn.IFNA(SUM(INDEX(G$66:G$74, MATCH($A110, N$88:N$96, 0)), INDEX(G$77:G$85, MATCH($A110, N$88:N$96, 0)))*Prices!$L$5*-1, 0)</f>
@@ -18124,7 +18121,7 @@
       </c>
       <c r="F111" s="1">
         <f>_xlfn.IFNA(SUM(INDEX(F$66:F$74, MATCH($A111, M$88:M$96, 0)), INDEX(F$77:F$85, MATCH($A111, M$88:M$96, 0)))*Prices!$L$6*-1, 0)</f>
-        <v>-25357.5</v>
+        <v>0</v>
       </c>
       <c r="G111" s="1">
         <f>_xlfn.IFNA(SUM(INDEX(G$66:G$74, MATCH($A111, N$88:N$96, 0)), INDEX(G$77:G$85, MATCH($A111, N$88:N$96, 0)))*Prices!$L$6*-1, 0)</f>
@@ -18289,7 +18286,7 @@
       </c>
       <c r="F118" s="7">
         <f>SUM(F40:F50, F53:F63, F66:F74, F77:F85, F110:F116)</f>
-        <v>222676.5</v>
+        <v>185535</v>
       </c>
       <c r="G118" s="7">
         <f>SUM(G40:G50, G53:G63, G66:G74, G77:G85, G110:G116)</f>
@@ -18370,7 +18367,7 @@
       </c>
       <c r="F124" s="7">
         <f t="shared" si="27"/>
-        <v>222676.5</v>
+        <v>185535</v>
       </c>
       <c r="G124" s="7">
         <f t="shared" si="27"/>
@@ -18533,9 +18530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -18859,7 +18854,7 @@
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C16" s="44">
         <f>$L$28*3500</f>
@@ -18938,7 +18933,7 @@
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C19" s="45">
         <f>$L$28*1500</f>
@@ -19239,9 +19234,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/0273NYP - New York Premier/Premier_Pricing_Model.xlsx
+++ b/0273NYP - New York Premier/Premier_Pricing_Model.xlsx
@@ -1335,7 +1335,7 @@
         <v>58</v>
       </c>
       <c r="C1" s="70">
-        <v>43647</v>
+        <v>43101</v>
       </c>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.35">
@@ -1409,7 +1409,7 @@
         <v>80</v>
       </c>
       <c r="D8" s="55" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E8" s="55"/>
       <c r="F8" s="55"/>
@@ -1478,7 +1478,7 @@
         <v>97</v>
       </c>
       <c r="D13" s="55" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E13" s="55"/>
       <c r="F13" s="55"/>
@@ -1667,7 +1667,7 @@
         <v>16</v>
       </c>
       <c r="D27" s="55" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E27" s="55"/>
       <c r="F27" s="55"/>
@@ -1691,7 +1691,7 @@
         <v>150</v>
       </c>
       <c r="D29" s="55" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E29" s="55"/>
       <c r="F29" s="55"/>
@@ -1742,10 +1742,10 @@
   <dimension ref="B2:U51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="D4" s="1">
         <f>MAX(Calcs!D4, 0)</f>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="E4" s="1">
         <f>MAX(Calcs!E4, 0)</f>
@@ -2338,7 +2338,7 @@
       </c>
       <c r="D23" s="1">
         <f>SUM(Calcs!D70, Calcs!D81)</f>
-        <v>28000</v>
+        <v>0</v>
       </c>
       <c r="E23" s="1">
         <f>SUM(Calcs!E70, Calcs!E81)</f>
@@ -2408,7 +2408,7 @@
       </c>
       <c r="D25" s="1">
         <f>SUM(Calcs!D72, Calcs!D83)</f>
-        <v>28000</v>
+        <v>0</v>
       </c>
       <c r="E25" s="1">
         <f>SUM(Calcs!E72, Calcs!E83)</f>
@@ -2478,7 +2478,7 @@
       </c>
       <c r="D27" s="1">
         <f>SUM(Calcs!D74, Calcs!D85)</f>
-        <v>8400</v>
+        <v>0</v>
       </c>
       <c r="E27" s="1">
         <f>SUM(Calcs!E74, Calcs!E85)</f>
@@ -2518,7 +2518,7 @@
       </c>
       <c r="D30" s="1">
         <f>SUM(Calcs!D110:D114)</f>
-        <v>-24825</v>
+        <v>-2550</v>
       </c>
       <c r="E30" s="1">
         <f>SUM(Calcs!E110:E114)</f>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="D32" s="1">
         <f>Calcs!D122</f>
-        <v>-3525</v>
+        <v>0</v>
       </c>
       <c r="E32" s="1">
         <v>0</v>
@@ -2619,7 +2619,7 @@
       </c>
       <c r="D34" s="7">
         <f>SUM(D7:D16, D19:D27, D30:D32)</f>
-        <v>94550</v>
+        <v>55950</v>
       </c>
       <c r="E34" s="7">
         <f>SUM(E7:E16, E19:E27, E30:E31)</f>
@@ -2682,7 +2682,7 @@
     <row r="37" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C37" s="64">
         <f>INDEX(Outputs_Timeline!$D$3:$D$94,MATCH(Inputs!$C$1,Outputs_Timeline!$B$3:$B$94,0),1)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.35">
@@ -2755,7 +2755,7 @@
       </c>
       <c r="D43" s="7">
         <f>(D34/12*Inputs!$C$2+D4)*$C$37+D41</f>
-        <v>287195.625</v>
+        <v>172850</v>
       </c>
       <c r="E43" s="7">
         <f>(E34/12*Inputs!$C$2+E4)*$C$37+E41</f>
@@ -2803,13 +2803,13 @@
     <row r="47" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C47" s="7">
         <f>SUM(Outputs_Timeline!W:W)</f>
-        <v>287195.625</v>
+        <v>172850</v>
       </c>
     </row>
     <row r="48" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C48" s="52">
         <f>SUM(D43:H43)</f>
-        <v>287195.625</v>
+        <v>172850</v>
       </c>
       <c r="D48" s="1"/>
       <c r="G48" s="1"/>
@@ -2845,7 +2845,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2915,7 +2915,7 @@
       </c>
       <c r="D4" s="1">
         <f>SUMIF(Inputs!$D$7:$H$7, "Y", Outputs_External!D4:'Outputs_External'!H4)</f>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="73">
@@ -2933,11 +2933,11 @@
       </c>
       <c r="K4" s="12">
         <f t="shared" ref="K4:N5" si="0">F4*$D4</f>
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="L4" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="M4" s="12">
         <f t="shared" si="0"/>
@@ -4130,7 +4130,7 @@
       </c>
       <c r="D42" s="20">
         <f>SUM(Calcs!D92:H92)</f>
-        <v>28000</v>
+        <v>0</v>
       </c>
       <c r="F42" s="33">
         <v>0.1</v>
@@ -4147,11 +4147,11 @@
       </c>
       <c r="K42" s="20">
         <f t="shared" ref="K42" si="30">F42*$D42</f>
-        <v>2800</v>
+        <v>0</v>
       </c>
       <c r="L42" s="20">
         <f t="shared" ref="L42" si="31">G42*$D42</f>
-        <v>25200</v>
+        <v>0</v>
       </c>
       <c r="M42" s="20">
         <f t="shared" ref="M42" si="32">H42*$D42</f>
@@ -4206,7 +4206,7 @@
       </c>
       <c r="D44" s="20">
         <f>SUM(Calcs!D94:H94)</f>
-        <v>28000</v>
+        <v>0</v>
       </c>
       <c r="F44" s="33">
         <v>0.1</v>
@@ -4223,11 +4223,11 @@
       </c>
       <c r="K44" s="20">
         <f t="shared" ref="K44" si="40">F44*$D44</f>
-        <v>2800</v>
+        <v>0</v>
       </c>
       <c r="L44" s="20">
         <f t="shared" ref="L44" si="41">G44*$D44</f>
-        <v>25200</v>
+        <v>0</v>
       </c>
       <c r="M44" s="20">
         <f t="shared" ref="M44" si="42">H44*$D44</f>
@@ -4282,7 +4282,7 @@
       </c>
       <c r="D46" s="84">
         <f>SUM(Calcs!D96:H96)</f>
-        <v>8400</v>
+        <v>0</v>
       </c>
       <c r="F46" s="85">
         <v>0.1</v>
@@ -4299,11 +4299,11 @@
       </c>
       <c r="K46" s="84">
         <f t="shared" si="23"/>
-        <v>840</v>
+        <v>0</v>
       </c>
       <c r="L46" s="84">
         <f t="shared" si="23"/>
-        <v>7560</v>
+        <v>0</v>
       </c>
       <c r="M46" s="84">
         <f t="shared" si="23"/>
@@ -4710,15 +4710,15 @@
       </c>
       <c r="D60" s="1">
         <f>SUM(Outputs_External!D30:'Outputs_External'!H30)</f>
-        <v>-24825</v>
+        <v>-2550</v>
       </c>
       <c r="F60" s="8">
         <f>IFERROR(SUM(K74:K82)/SUM($K$74:$N$82), 0)</f>
-        <v>0.16302131603336423</v>
+        <v>0.25632183908045975</v>
       </c>
       <c r="G60" s="8">
         <f t="shared" ref="G60:I60" si="72">IFERROR(SUM(L74:L82)/SUM($K$74:$N$82), 0)</f>
-        <v>0.83697868396663577</v>
+        <v>0.7436781609195402</v>
       </c>
       <c r="H60" s="8">
         <f t="shared" si="72"/>
@@ -4730,11 +4730,11 @@
       </c>
       <c r="K60" s="12">
         <f>F60*$D$60</f>
-        <v>-4047.004170528267</v>
+        <v>-653.62068965517233</v>
       </c>
       <c r="L60" s="12">
         <f>G60*$D$60</f>
-        <v>-20777.995829471733</v>
+        <v>-1896.3793103448274</v>
       </c>
       <c r="M60" s="12">
         <f>H60*$D$60</f>
@@ -4755,11 +4755,11 @@
       </c>
       <c r="F61" s="3">
         <f>IFERROR(SUM(K10:K60)/SUM($K10:$N60), 0)</f>
-        <v>0.21073663858752723</v>
+        <v>0.31494869187390218</v>
       </c>
       <c r="G61" s="3">
         <f>IFERROR(SUM(L10:L60)/SUM($K10:$N60), 0)</f>
-        <v>0.78926336141247277</v>
+        <v>0.68505130812609782</v>
       </c>
       <c r="H61" s="3">
         <f>IFERROR(SUM(M10:M60)/SUM($K10:$N60), 0)</f>
@@ -4792,14 +4792,13 @@
       </c>
       <c r="D62" s="1">
         <f>Outputs_External!D32</f>
-        <v>-3525</v>
+        <v>0</v>
       </c>
       <c r="F62" s="3">
-        <v>0.58085106382978724</v>
+        <v>0.63</v>
       </c>
       <c r="G62" s="3">
-        <f>1-F62</f>
-        <v>0.41914893617021276</v>
+        <v>0.37</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
@@ -4809,11 +4808,11 @@
       </c>
       <c r="K62" s="12">
         <f>$D$62*F62</f>
-        <v>-2047.5</v>
+        <v>0</v>
       </c>
       <c r="L62" s="12">
         <f t="shared" ref="L62:N62" si="73">$D$62*G62</f>
-        <v>-1477.5</v>
+        <v>0</v>
       </c>
       <c r="M62" s="12">
         <f t="shared" si="73"/>
@@ -4835,15 +4834,15 @@
       </c>
       <c r="D64" s="1">
         <f>SUM(Outputs_External!D34:'Outputs_External'!H34)</f>
-        <v>94550</v>
+        <v>55950</v>
       </c>
       <c r="K64" s="12">
         <f>SUM(K60:K62, K38:K46, K10:K20,K25:K35,K49:K57)</f>
-        <v>18620.495829471733</v>
+        <v>17621.37931034483</v>
       </c>
       <c r="L64" s="12">
         <f>SUM(L60:L62, L38:L46, L10:L20,L25:L35,L49:L57)</f>
-        <v>75929.504170528264</v>
+        <v>38328.620689655174</v>
       </c>
       <c r="M64" s="12">
         <f>SUM(M60:M62, M38:M46, M10:M20,M25:M35,M49:M57)</f>
@@ -4860,7 +4859,7 @@
       </c>
       <c r="D65" s="23">
         <f>SUM(K64:N64)</f>
-        <v>94550</v>
+        <v>55950</v>
       </c>
       <c r="K65" s="12"/>
       <c r="L65" s="12"/>
@@ -4925,15 +4924,15 @@
       </c>
       <c r="D69" s="7">
         <f>SUM(Outputs_Timeline!W:W)</f>
-        <v>287195.625</v>
+        <v>172850</v>
       </c>
       <c r="K69" s="12">
         <f>SUM(Outputs_Timeline!X:X)</f>
-        <v>56559.756082020373</v>
+        <v>55364.1379310345</v>
       </c>
       <c r="L69" s="12">
         <f>SUM(Outputs_Timeline!Y:Y)</f>
-        <v>230635.86891797962</v>
+        <v>117485.86206896555</v>
       </c>
       <c r="M69" s="12">
         <f>SUM(Outputs_Timeline!Z:Z)</f>
@@ -4948,11 +4947,11 @@
       <c r="D70" s="1"/>
       <c r="K70" s="53">
         <f>IFERROR(K69/$D$69, 0)</f>
-        <v>0.1969380838653805</v>
+        <v>0.32030163685874746</v>
       </c>
       <c r="L70" s="53">
         <f>IFERROR(L69/$D$69, 0)</f>
-        <v>0.80306191613461941</v>
+        <v>0.67969836314125287</v>
       </c>
       <c r="M70" s="53">
         <f>IFERROR(M69/$D$69, 0)</f>
@@ -5167,16 +5166,16 @@
       </c>
       <c r="D78" s="23">
         <f>SUM(Calcs!D70:H70)+SUM(Calcs!D81:H81)</f>
-        <v>28000</v>
+        <v>0</v>
       </c>
       <c r="E78" s="21"/>
       <c r="F78" s="24">
         <f t="shared" ref="F78:I79" si="79">IFERROR(SUM(K42,K53)/SUM($K42:$N42,$K53:$N53),0)</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G78" s="24">
         <f t="shared" si="79"/>
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="H78" s="24">
         <f t="shared" si="79"/>
@@ -5189,11 +5188,11 @@
       <c r="J78" s="21"/>
       <c r="K78" s="25">
         <f t="shared" ref="K78:K82" si="80">F78*$D78</f>
-        <v>2800</v>
+        <v>0</v>
       </c>
       <c r="L78" s="25">
         <f t="shared" ref="L78:L82" si="81">G78*$D78</f>
-        <v>25200</v>
+        <v>0</v>
       </c>
       <c r="M78" s="25">
         <f t="shared" ref="M78:M82" si="82">H78*$D78</f>
@@ -5255,7 +5254,7 @@
       </c>
       <c r="D80" s="23">
         <f>SUM(Calcs!D72:H72)+SUM(Calcs!D83:H83)</f>
-        <v>28000</v>
+        <v>0</v>
       </c>
       <c r="E80" s="21"/>
       <c r="F80" s="24">
@@ -5277,11 +5276,11 @@
       <c r="J80" s="21"/>
       <c r="K80" s="25">
         <f t="shared" ref="K80" si="88">F80*$D80</f>
-        <v>2800</v>
+        <v>0</v>
       </c>
       <c r="L80" s="25">
         <f t="shared" ref="L80" si="89">G80*$D80</f>
-        <v>25200</v>
+        <v>0</v>
       </c>
       <c r="M80" s="25">
         <f t="shared" ref="M80" si="90">H80*$D80</f>
@@ -5343,16 +5342,16 @@
       </c>
       <c r="D82" s="23">
         <f>SUM(Calcs!D74:H74)+SUM(Calcs!D85:H85)</f>
-        <v>8400</v>
+        <v>0</v>
       </c>
       <c r="E82" s="21"/>
       <c r="F82" s="24">
         <f t="shared" ref="F82" si="93">IFERROR(SUM(K46,K57)/SUM($K46:$N46,$K57:$N57),0)</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G82" s="24">
         <f t="shared" ref="G82" si="94">IFERROR(SUM(L46,L57)/SUM($K46:$N46,$K57:$N57),0)</f>
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="H82" s="24">
         <f t="shared" ref="H82" si="95">IFERROR(SUM(M46,M57)/SUM($K46:$N46,$K57:$N57),0)</f>
@@ -5365,11 +5364,11 @@
       <c r="J82" s="21"/>
       <c r="K82" s="25">
         <f t="shared" si="80"/>
-        <v>840</v>
+        <v>0</v>
       </c>
       <c r="L82" s="25">
         <f t="shared" si="81"/>
-        <v>7560</v>
+        <v>0</v>
       </c>
       <c r="M82" s="25">
         <f t="shared" si="82"/>
@@ -6153,23 +6152,23 @@
       </c>
       <c r="F9" s="64">
         <f>IF(AND(B9&gt;=Inputs!$C$1,B9&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E9,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="64">
         <f>IF(AND(B9&gt;=Inputs!$C$1,B9&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B9,"Y")+1, 0),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="63">
         <f>IF($B9=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D9</f>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="J9" s="63">
         <f>IF($B9=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D9</f>
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="K9" s="63">
         <f>IF($B9=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D9</f>
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="L9" s="63">
         <f>IF($B9=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D9</f>
@@ -6181,15 +6180,15 @@
       </c>
       <c r="P9" s="63">
         <f>$F9*Outputs_Internal!$D$64/12+N9</f>
-        <v>0</v>
+        <v>4662.5</v>
       </c>
       <c r="Q9" s="63">
         <f>$F9*Outputs_Internal!K$64/12+N9*'MARA Prices'!$F$5</f>
-        <v>0</v>
+        <v>1468.4482758620691</v>
       </c>
       <c r="R9" s="63">
         <f>$F9*Outputs_Internal!L$64/12+N9*'MARA Prices'!$F$6</f>
-        <v>0</v>
+        <v>3194.0517241379312</v>
       </c>
       <c r="S9" s="63">
         <f>N9*'MARA Prices'!$F$4</f>
@@ -6259,11 +6258,11 @@
       </c>
       <c r="F10" s="64">
         <f>IF(AND(B10&gt;=Inputs!$C$1,B10&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E10,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="64">
         <f>IF(AND(B10&gt;=Inputs!$C$1,B10&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B10,"Y")+1, 0),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="63">
         <f>IF($B10=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D10</f>
@@ -6287,15 +6286,15 @@
       </c>
       <c r="P10" s="63">
         <f>$F10*Outputs_Internal!$D$64/12+N10</f>
-        <v>0</v>
+        <v>4662.5</v>
       </c>
       <c r="Q10" s="63">
         <f>$F10*Outputs_Internal!K$64/12+N10*'MARA Prices'!$F$5</f>
-        <v>0</v>
+        <v>1468.4482758620691</v>
       </c>
       <c r="R10" s="63">
         <f>$F10*Outputs_Internal!L$64/12+N10*'MARA Prices'!$F$6</f>
-        <v>0</v>
+        <v>3194.0517241379312</v>
       </c>
       <c r="S10" s="63">
         <f>N10*'MARA Prices'!$F$4</f>
@@ -6365,11 +6364,11 @@
       </c>
       <c r="F11" s="64">
         <f>IF(AND(B11&gt;=Inputs!$C$1,B11&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E11,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="64">
         <f>IF(AND(B11&gt;=Inputs!$C$1,B11&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B11,"Y")+1, 0),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="63">
         <f>IF($B11=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D11</f>
@@ -6393,15 +6392,15 @@
       </c>
       <c r="P11" s="63">
         <f>$F11*Outputs_Internal!$D$64/12+N11</f>
-        <v>0</v>
+        <v>4662.5</v>
       </c>
       <c r="Q11" s="63">
         <f>$F11*Outputs_Internal!K$64/12+N11*'MARA Prices'!$F$5</f>
-        <v>0</v>
+        <v>1468.4482758620691</v>
       </c>
       <c r="R11" s="63">
         <f>$F11*Outputs_Internal!L$64/12+N11*'MARA Prices'!$F$6</f>
-        <v>0</v>
+        <v>3194.0517241379312</v>
       </c>
       <c r="S11" s="63">
         <f>N11*'MARA Prices'!$F$4</f>
@@ -6417,15 +6416,15 @@
       </c>
       <c r="W11" s="63">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>18987.5</v>
       </c>
       <c r="X11" s="63">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6905.3448275862065</v>
       </c>
       <c r="Y11" s="63">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>12082.155172413793</v>
       </c>
       <c r="Z11" s="63">
         <f t="shared" si="5"/>
@@ -6471,11 +6470,11 @@
       </c>
       <c r="F12" s="64">
         <f>IF(AND(B12&gt;=Inputs!$C$1,B12&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E12,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="64">
         <f>IF(AND(B12&gt;=Inputs!$C$1,B12&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B12,"Y")+1, 0),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="63">
         <f>IF($B12=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D12</f>
@@ -6499,15 +6498,15 @@
       </c>
       <c r="P12" s="63">
         <f>$F12*Outputs_Internal!$D$64/12+N12</f>
-        <v>0</v>
+        <v>4662.5</v>
       </c>
       <c r="Q12" s="63">
         <f>$F12*Outputs_Internal!K$64/12+N12*'MARA Prices'!$F$5</f>
-        <v>0</v>
+        <v>1468.4482758620691</v>
       </c>
       <c r="R12" s="63">
         <f>$F12*Outputs_Internal!L$64/12+N12*'MARA Prices'!$F$6</f>
-        <v>0</v>
+        <v>3194.0517241379312</v>
       </c>
       <c r="S12" s="63">
         <f>N12*'MARA Prices'!$F$4</f>
@@ -6577,11 +6576,11 @@
       </c>
       <c r="F13" s="64">
         <f>IF(AND(B13&gt;=Inputs!$C$1,B13&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E13,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="64">
         <f>IF(AND(B13&gt;=Inputs!$C$1,B13&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B13,"Y")+1, 0),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="63">
         <f>IF($B13=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D13</f>
@@ -6605,15 +6604,15 @@
       </c>
       <c r="P13" s="63">
         <f>$F13*Outputs_Internal!$D$64/12+N13</f>
-        <v>0</v>
+        <v>4662.5</v>
       </c>
       <c r="Q13" s="63">
         <f>$F13*Outputs_Internal!K$64/12+N13*'MARA Prices'!$F$5</f>
-        <v>0</v>
+        <v>1468.4482758620691</v>
       </c>
       <c r="R13" s="63">
         <f>$F13*Outputs_Internal!L$64/12+N13*'MARA Prices'!$F$6</f>
-        <v>0</v>
+        <v>3194.0517241379312</v>
       </c>
       <c r="S13" s="63">
         <f>N13*'MARA Prices'!$F$4</f>
@@ -6683,11 +6682,11 @@
       </c>
       <c r="F14" s="64">
         <f>IF(AND(B14&gt;=Inputs!$C$1,B14&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E14,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="64">
         <f>IF(AND(B14&gt;=Inputs!$C$1,B14&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B14,"Y")+1, 0),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="63">
         <f>IF($B14=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D14</f>
@@ -6711,15 +6710,15 @@
       </c>
       <c r="P14" s="63">
         <f>$F14*Outputs_Internal!$D$64/12+N14</f>
-        <v>0</v>
+        <v>4662.5</v>
       </c>
       <c r="Q14" s="63">
         <f>$F14*Outputs_Internal!K$64/12+N14*'MARA Prices'!$F$5</f>
-        <v>0</v>
+        <v>1468.4482758620691</v>
       </c>
       <c r="R14" s="63">
         <f>$F14*Outputs_Internal!L$64/12+N14*'MARA Prices'!$F$6</f>
-        <v>0</v>
+        <v>3194.0517241379312</v>
       </c>
       <c r="S14" s="63">
         <f>N14*'MARA Prices'!$F$4</f>
@@ -6735,15 +6734,15 @@
       </c>
       <c r="W14" s="63">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>13987.5</v>
       </c>
       <c r="X14" s="63">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4405.3448275862074</v>
       </c>
       <c r="Y14" s="63">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>9582.1551724137935</v>
       </c>
       <c r="Z14" s="63">
         <f t="shared" si="5"/>
@@ -6789,11 +6788,11 @@
       </c>
       <c r="F15" s="64">
         <f>IF(AND(B15&gt;=Inputs!$C$1,B15&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E15,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="64">
         <f>IF(AND(B15&gt;=Inputs!$C$1,B15&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B15,"Y")+1, 0),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="63">
         <f>IF($B15=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D15</f>
@@ -6817,15 +6816,15 @@
       </c>
       <c r="P15" s="63">
         <f>$F15*Outputs_Internal!$D$64/12+N15</f>
-        <v>0</v>
+        <v>4662.5</v>
       </c>
       <c r="Q15" s="63">
         <f>$F15*Outputs_Internal!K$64/12+N15*'MARA Prices'!$F$5</f>
-        <v>0</v>
+        <v>1468.4482758620691</v>
       </c>
       <c r="R15" s="63">
         <f>$F15*Outputs_Internal!L$64/12+N15*'MARA Prices'!$F$6</f>
-        <v>0</v>
+        <v>3194.0517241379312</v>
       </c>
       <c r="S15" s="63">
         <f>N15*'MARA Prices'!$F$4</f>
@@ -6895,11 +6894,11 @@
       </c>
       <c r="F16" s="64">
         <f>IF(AND(B16&gt;=Inputs!$C$1,B16&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E16,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="64">
         <f>IF(AND(B16&gt;=Inputs!$C$1,B16&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B16,"Y")+1, 0),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="63">
         <f>IF($B16=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D16</f>
@@ -6923,15 +6922,15 @@
       </c>
       <c r="P16" s="63">
         <f>$F16*Outputs_Internal!$D$64/12+N16</f>
-        <v>0</v>
+        <v>4662.5</v>
       </c>
       <c r="Q16" s="63">
         <f>$F16*Outputs_Internal!K$64/12+N16*'MARA Prices'!$F$5</f>
-        <v>0</v>
+        <v>1468.4482758620691</v>
       </c>
       <c r="R16" s="63">
         <f>$F16*Outputs_Internal!L$64/12+N16*'MARA Prices'!$F$6</f>
-        <v>0</v>
+        <v>3194.0517241379312</v>
       </c>
       <c r="S16" s="63">
         <f>N16*'MARA Prices'!$F$4</f>
@@ -7001,11 +7000,11 @@
       </c>
       <c r="F17" s="64">
         <f>IF(AND(B17&gt;=Inputs!$C$1,B17&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E17,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="64">
         <f>IF(AND(B17&gt;=Inputs!$C$1,B17&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B17,"Y")+1, 0),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="63">
         <f>IF($B17=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D17</f>
@@ -7029,15 +7028,15 @@
       </c>
       <c r="P17" s="63">
         <f>$F17*Outputs_Internal!$D$64/12+N17</f>
-        <v>0</v>
+        <v>4662.5</v>
       </c>
       <c r="Q17" s="63">
         <f>$F17*Outputs_Internal!K$64/12+N17*'MARA Prices'!$F$5</f>
-        <v>0</v>
+        <v>1468.4482758620691</v>
       </c>
       <c r="R17" s="63">
         <f>$F17*Outputs_Internal!L$64/12+N17*'MARA Prices'!$F$6</f>
-        <v>0</v>
+        <v>3194.0517241379312</v>
       </c>
       <c r="S17" s="63">
         <f>N17*'MARA Prices'!$F$4</f>
@@ -7053,15 +7052,15 @@
       </c>
       <c r="W17" s="63">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>13987.5</v>
       </c>
       <c r="X17" s="63">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4405.3448275862074</v>
       </c>
       <c r="Y17" s="63">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>9582.1551724137935</v>
       </c>
       <c r="Z17" s="63">
         <f t="shared" si="5"/>
@@ -7107,11 +7106,11 @@
       </c>
       <c r="F18" s="64">
         <f>IF(AND(B18&gt;=Inputs!$C$1,B18&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E18,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="64">
         <f>IF(AND(B18&gt;=Inputs!$C$1,B18&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B18,"Y")+1, 0),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="63">
         <f>IF($B18=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D18</f>
@@ -7135,15 +7134,15 @@
       </c>
       <c r="P18" s="63">
         <f>$F18*Outputs_Internal!$D$64/12+N18</f>
-        <v>0</v>
+        <v>4662.5</v>
       </c>
       <c r="Q18" s="63">
         <f>$F18*Outputs_Internal!K$64/12+N18*'MARA Prices'!$F$5</f>
-        <v>0</v>
+        <v>1468.4482758620691</v>
       </c>
       <c r="R18" s="63">
         <f>$F18*Outputs_Internal!L$64/12+N18*'MARA Prices'!$F$6</f>
-        <v>0</v>
+        <v>3194.0517241379312</v>
       </c>
       <c r="S18" s="63">
         <f>N18*'MARA Prices'!$F$4</f>
@@ -7213,11 +7212,11 @@
       </c>
       <c r="F19" s="64">
         <f>IF(AND(B19&gt;=Inputs!$C$1,B19&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E19,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="64">
         <f>IF(AND(B19&gt;=Inputs!$C$1,B19&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B19,"Y")+1, 0),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="63">
         <f>IF($B19=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D19</f>
@@ -7241,15 +7240,15 @@
       </c>
       <c r="P19" s="63">
         <f>$F19*Outputs_Internal!$D$64/12+N19</f>
-        <v>0</v>
+        <v>4662.5</v>
       </c>
       <c r="Q19" s="63">
         <f>$F19*Outputs_Internal!K$64/12+N19*'MARA Prices'!$F$5</f>
-        <v>0</v>
+        <v>1468.4482758620691</v>
       </c>
       <c r="R19" s="63">
         <f>$F19*Outputs_Internal!L$64/12+N19*'MARA Prices'!$F$6</f>
-        <v>0</v>
+        <v>3194.0517241379312</v>
       </c>
       <c r="S19" s="63">
         <f>N19*'MARA Prices'!$F$4</f>
@@ -7319,11 +7318,11 @@
       </c>
       <c r="F20" s="64">
         <f>IF(AND(B20&gt;=Inputs!$C$1,B20&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E20,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="64">
         <f>IF(AND(B20&gt;=Inputs!$C$1,B20&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B20,"Y")+1, 0),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="63">
         <f>IF($B20=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D20</f>
@@ -7347,15 +7346,15 @@
       </c>
       <c r="P20" s="63">
         <f>$F20*Outputs_Internal!$D$64/12+N20</f>
-        <v>0</v>
+        <v>4662.5</v>
       </c>
       <c r="Q20" s="63">
         <f>$F20*Outputs_Internal!K$64/12+N20*'MARA Prices'!$F$5</f>
-        <v>0</v>
+        <v>1468.4482758620691</v>
       </c>
       <c r="R20" s="63">
         <f>$F20*Outputs_Internal!L$64/12+N20*'MARA Prices'!$F$6</f>
-        <v>0</v>
+        <v>3194.0517241379312</v>
       </c>
       <c r="S20" s="63">
         <f>N20*'MARA Prices'!$F$4</f>
@@ -7371,15 +7370,15 @@
       </c>
       <c r="W20" s="63">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>13987.5</v>
       </c>
       <c r="X20" s="63">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4405.3448275862074</v>
       </c>
       <c r="Y20" s="63">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>9582.1551724137935</v>
       </c>
       <c r="Z20" s="63">
         <f t="shared" si="5"/>
@@ -7425,11 +7424,11 @@
       </c>
       <c r="F21" s="64">
         <f>IF(AND(B21&gt;=Inputs!$C$1,B21&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E21,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="64">
         <f>IF(AND(B21&gt;=Inputs!$C$1,B21&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B21,"Y")+1, 0),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="63">
         <f>IF($B21=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D21</f>
@@ -7453,15 +7452,15 @@
       </c>
       <c r="P21" s="63">
         <f>$F21*Outputs_Internal!$D$64/12+N21</f>
-        <v>0</v>
+        <v>4662.5</v>
       </c>
       <c r="Q21" s="63">
         <f>$F21*Outputs_Internal!K$64/12+N21*'MARA Prices'!$F$5</f>
-        <v>0</v>
+        <v>1468.4482758620691</v>
       </c>
       <c r="R21" s="63">
         <f>$F21*Outputs_Internal!L$64/12+N21*'MARA Prices'!$F$6</f>
-        <v>0</v>
+        <v>3194.0517241379312</v>
       </c>
       <c r="S21" s="63">
         <f>N21*'MARA Prices'!$F$4</f>
@@ -7531,11 +7530,11 @@
       </c>
       <c r="F22" s="64">
         <f>IF(AND(B22&gt;=Inputs!$C$1,B22&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E22,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="64">
         <f>IF(AND(B22&gt;=Inputs!$C$1,B22&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B22,"Y")+1, 0),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="63">
         <f>IF($B22=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D22</f>
@@ -7559,15 +7558,15 @@
       </c>
       <c r="P22" s="63">
         <f>$F22*Outputs_Internal!$D$64/12+N22</f>
-        <v>0</v>
+        <v>4662.5</v>
       </c>
       <c r="Q22" s="63">
         <f>$F22*Outputs_Internal!K$64/12+N22*'MARA Prices'!$F$5</f>
-        <v>0</v>
+        <v>1468.4482758620691</v>
       </c>
       <c r="R22" s="63">
         <f>$F22*Outputs_Internal!L$64/12+N22*'MARA Prices'!$F$6</f>
-        <v>0</v>
+        <v>3194.0517241379312</v>
       </c>
       <c r="S22" s="63">
         <f>N22*'MARA Prices'!$F$4</f>
@@ -7637,11 +7636,11 @@
       </c>
       <c r="F23" s="64">
         <f>IF(AND(B23&gt;=Inputs!$C$1,B23&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E23,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" s="64">
         <f>IF(AND(B23&gt;=Inputs!$C$1,B23&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B23,"Y")+1, 0),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="63">
         <f>IF($B23=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D23</f>
@@ -7665,15 +7664,15 @@
       </c>
       <c r="P23" s="63">
         <f>$F23*Outputs_Internal!$D$64/12+N23</f>
-        <v>0</v>
+        <v>4662.5</v>
       </c>
       <c r="Q23" s="63">
         <f>$F23*Outputs_Internal!K$64/12+N23*'MARA Prices'!$F$5</f>
-        <v>0</v>
+        <v>1468.4482758620691</v>
       </c>
       <c r="R23" s="63">
         <f>$F23*Outputs_Internal!L$64/12+N23*'MARA Prices'!$F$6</f>
-        <v>0</v>
+        <v>3194.0517241379312</v>
       </c>
       <c r="S23" s="63">
         <f>N23*'MARA Prices'!$F$4</f>
@@ -7689,15 +7688,15 @@
       </c>
       <c r="W23" s="63">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>13987.5</v>
       </c>
       <c r="X23" s="63">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4405.3448275862074</v>
       </c>
       <c r="Y23" s="63">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>9582.1551724137935</v>
       </c>
       <c r="Z23" s="63">
         <f t="shared" si="5"/>
@@ -7743,11 +7742,11 @@
       </c>
       <c r="F24" s="64">
         <f>IF(AND(B24&gt;=Inputs!$C$1,B24&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E24,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" s="64">
         <f>IF(AND(B24&gt;=Inputs!$C$1,B24&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B24,"Y")+1, 0),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="63">
         <f>IF($B24=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D24</f>
@@ -7771,15 +7770,15 @@
       </c>
       <c r="P24" s="63">
         <f>$F24*Outputs_Internal!$D$64/12+N24</f>
-        <v>0</v>
+        <v>4662.5</v>
       </c>
       <c r="Q24" s="63">
         <f>$F24*Outputs_Internal!K$64/12+N24*'MARA Prices'!$F$5</f>
-        <v>0</v>
+        <v>1468.4482758620691</v>
       </c>
       <c r="R24" s="63">
         <f>$F24*Outputs_Internal!L$64/12+N24*'MARA Prices'!$F$6</f>
-        <v>0</v>
+        <v>3194.0517241379312</v>
       </c>
       <c r="S24" s="63">
         <f>N24*'MARA Prices'!$F$4</f>
@@ -7849,11 +7848,11 @@
       </c>
       <c r="F25" s="64">
         <f>IF(AND(B25&gt;=Inputs!$C$1,B25&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E25,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="64">
         <f>IF(AND(B25&gt;=Inputs!$C$1,B25&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B25,"Y")+1, 0),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="63">
         <f>IF($B25=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D25</f>
@@ -7877,15 +7876,15 @@
       </c>
       <c r="P25" s="63">
         <f>$F25*Outputs_Internal!$D$64/12+N25</f>
-        <v>0</v>
+        <v>4662.5</v>
       </c>
       <c r="Q25" s="63">
         <f>$F25*Outputs_Internal!K$64/12+N25*'MARA Prices'!$F$5</f>
-        <v>0</v>
+        <v>1468.4482758620691</v>
       </c>
       <c r="R25" s="63">
         <f>$F25*Outputs_Internal!L$64/12+N25*'MARA Prices'!$F$6</f>
-        <v>0</v>
+        <v>3194.0517241379312</v>
       </c>
       <c r="S25" s="63">
         <f>N25*'MARA Prices'!$F$4</f>
@@ -7955,11 +7954,11 @@
       </c>
       <c r="F26" s="64">
         <f>IF(AND(B26&gt;=Inputs!$C$1,B26&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E26,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="64">
         <f>IF(AND(B26&gt;=Inputs!$C$1,B26&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B26,"Y")+1, 0),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" s="63">
         <f>IF($B26=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D26</f>
@@ -7983,15 +7982,15 @@
       </c>
       <c r="P26" s="63">
         <f>$F26*Outputs_Internal!$D$64/12+N26</f>
-        <v>0</v>
+        <v>4662.5</v>
       </c>
       <c r="Q26" s="63">
         <f>$F26*Outputs_Internal!K$64/12+N26*'MARA Prices'!$F$5</f>
-        <v>0</v>
+        <v>1468.4482758620691</v>
       </c>
       <c r="R26" s="63">
         <f>$F26*Outputs_Internal!L$64/12+N26*'MARA Prices'!$F$6</f>
-        <v>0</v>
+        <v>3194.0517241379312</v>
       </c>
       <c r="S26" s="63">
         <f>N26*'MARA Prices'!$F$4</f>
@@ -8007,15 +8006,15 @@
       </c>
       <c r="W26" s="63">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>13987.5</v>
       </c>
       <c r="X26" s="63">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4405.3448275862074</v>
       </c>
       <c r="Y26" s="63">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>9582.1551724137935</v>
       </c>
       <c r="Z26" s="63">
         <f t="shared" si="5"/>
@@ -8057,11 +8056,11 @@
       </c>
       <c r="E27" s="64">
         <f>IF(B27=Inputs!$C$1,D27,E26)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="F27" s="64">
         <f>IF(AND(B27&gt;=Inputs!$C$1,B27&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E27,0)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="G27" s="64">
         <f>IF(AND(B27&gt;=Inputs!$C$1,B27&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B27,"Y")+1, 0),0)</f>
@@ -8089,15 +8088,15 @@
       </c>
       <c r="P27" s="63">
         <f>$F27*Outputs_Internal!$D$64/12+N27</f>
-        <v>7977.65625</v>
+        <v>4662.5</v>
       </c>
       <c r="Q27" s="63">
         <f>$F27*Outputs_Internal!K$64/12+N27*'MARA Prices'!$F$5</f>
-        <v>1571.1043356116772</v>
+        <v>1468.4482758620691</v>
       </c>
       <c r="R27" s="63">
         <f>$F27*Outputs_Internal!L$64/12+N27*'MARA Prices'!$F$6</f>
-        <v>6406.5519143883221</v>
+        <v>3194.0517241379312</v>
       </c>
       <c r="S27" s="63">
         <f>N27*'MARA Prices'!$F$4</f>
@@ -8163,11 +8162,11 @@
       </c>
       <c r="E28" s="64">
         <f>IF(B28=Inputs!$C$1,D28,E27)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="F28" s="64">
         <f>IF(AND(B28&gt;=Inputs!$C$1,B28&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E28,0)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="G28" s="64">
         <f>IF(AND(B28&gt;=Inputs!$C$1,B28&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B28,"Y")+1, 0),0)</f>
@@ -8195,15 +8194,15 @@
       </c>
       <c r="P28" s="63">
         <f>$F28*Outputs_Internal!$D$64/12+N28</f>
-        <v>7977.65625</v>
+        <v>4662.5</v>
       </c>
       <c r="Q28" s="63">
         <f>$F28*Outputs_Internal!K$64/12+N28*'MARA Prices'!$F$5</f>
-        <v>1571.1043356116772</v>
+        <v>1468.4482758620691</v>
       </c>
       <c r="R28" s="63">
         <f>$F28*Outputs_Internal!L$64/12+N28*'MARA Prices'!$F$6</f>
-        <v>6406.5519143883221</v>
+        <v>3194.0517241379312</v>
       </c>
       <c r="S28" s="63">
         <f>N28*'MARA Prices'!$F$4</f>
@@ -8269,11 +8268,11 @@
       </c>
       <c r="E29" s="64">
         <f>IF(B29=Inputs!$C$1,D29,E28)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="F29" s="64">
         <f>IF(AND(B29&gt;=Inputs!$C$1,B29&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E29,0)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="G29" s="64">
         <f>IF(AND(B29&gt;=Inputs!$C$1,B29&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B29,"Y")+1, 0),0)</f>
@@ -8301,15 +8300,15 @@
       </c>
       <c r="P29" s="63">
         <f>$F29*Outputs_Internal!$D$64/12+N29</f>
-        <v>7977.65625</v>
+        <v>4662.5</v>
       </c>
       <c r="Q29" s="63">
         <f>$F29*Outputs_Internal!K$64/12+N29*'MARA Prices'!$F$5</f>
-        <v>1571.1043356116772</v>
+        <v>1468.4482758620691</v>
       </c>
       <c r="R29" s="63">
         <f>$F29*Outputs_Internal!L$64/12+N29*'MARA Prices'!$F$6</f>
-        <v>6406.5519143883221</v>
+        <v>3194.0517241379312</v>
       </c>
       <c r="S29" s="63">
         <f>N29*'MARA Prices'!$F$4</f>
@@ -8325,15 +8324,15 @@
       </c>
       <c r="W29" s="63">
         <f t="shared" si="2"/>
-        <v>23932.96875</v>
+        <v>13987.5</v>
       </c>
       <c r="X29" s="63">
         <f t="shared" si="3"/>
-        <v>4713.313006835032</v>
+        <v>4405.3448275862074</v>
       </c>
       <c r="Y29" s="63">
         <f t="shared" si="4"/>
-        <v>19219.655743164967</v>
+        <v>9582.1551724137935</v>
       </c>
       <c r="Z29" s="63">
         <f t="shared" si="5"/>
@@ -8375,11 +8374,11 @@
       </c>
       <c r="E30" s="64">
         <f>IF(B30=Inputs!$C$1,D30,E29)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="F30" s="64">
         <f>IF(AND(B30&gt;=Inputs!$C$1,B30&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E30,0)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="G30" s="64">
         <f>IF(AND(B30&gt;=Inputs!$C$1,B30&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B30,"Y")+1, 0),0)</f>
@@ -8407,15 +8406,15 @@
       </c>
       <c r="P30" s="63">
         <f>$F30*Outputs_Internal!$D$64/12+N30</f>
-        <v>7977.65625</v>
+        <v>4662.5</v>
       </c>
       <c r="Q30" s="63">
         <f>$F30*Outputs_Internal!K$64/12+N30*'MARA Prices'!$F$5</f>
-        <v>1571.1043356116772</v>
+        <v>1468.4482758620691</v>
       </c>
       <c r="R30" s="63">
         <f>$F30*Outputs_Internal!L$64/12+N30*'MARA Prices'!$F$6</f>
-        <v>6406.5519143883221</v>
+        <v>3194.0517241379312</v>
       </c>
       <c r="S30" s="63">
         <f>N30*'MARA Prices'!$F$4</f>
@@ -8481,11 +8480,11 @@
       </c>
       <c r="E31" s="64">
         <f>IF(B31=Inputs!$C$1,D31,E30)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="F31" s="64">
         <f>IF(AND(B31&gt;=Inputs!$C$1,B31&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E31,0)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="G31" s="64">
         <f>IF(AND(B31&gt;=Inputs!$C$1,B31&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B31,"Y")+1, 0),0)</f>
@@ -8513,15 +8512,15 @@
       </c>
       <c r="P31" s="63">
         <f>$F31*Outputs_Internal!$D$64/12+N31</f>
-        <v>7977.65625</v>
+        <v>4662.5</v>
       </c>
       <c r="Q31" s="63">
         <f>$F31*Outputs_Internal!K$64/12+N31*'MARA Prices'!$F$5</f>
-        <v>1571.1043356116772</v>
+        <v>1468.4482758620691</v>
       </c>
       <c r="R31" s="63">
         <f>$F31*Outputs_Internal!L$64/12+N31*'MARA Prices'!$F$6</f>
-        <v>6406.5519143883221</v>
+        <v>3194.0517241379312</v>
       </c>
       <c r="S31" s="63">
         <f>N31*'MARA Prices'!$F$4</f>
@@ -8587,11 +8586,11 @@
       </c>
       <c r="E32" s="64">
         <f>IF(B32=Inputs!$C$1,D32,E31)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="F32" s="64">
         <f>IF(AND(B32&gt;=Inputs!$C$1,B32&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E32,0)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="G32" s="64">
         <f>IF(AND(B32&gt;=Inputs!$C$1,B32&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B32,"Y")+1, 0),0)</f>
@@ -8619,15 +8618,15 @@
       </c>
       <c r="P32" s="63">
         <f>$F32*Outputs_Internal!$D$64/12+N32</f>
-        <v>7977.65625</v>
+        <v>4662.5</v>
       </c>
       <c r="Q32" s="63">
         <f>$F32*Outputs_Internal!K$64/12+N32*'MARA Prices'!$F$5</f>
-        <v>1571.1043356116772</v>
+        <v>1468.4482758620691</v>
       </c>
       <c r="R32" s="63">
         <f>$F32*Outputs_Internal!L$64/12+N32*'MARA Prices'!$F$6</f>
-        <v>6406.5519143883221</v>
+        <v>3194.0517241379312</v>
       </c>
       <c r="S32" s="63">
         <f>N32*'MARA Prices'!$F$4</f>
@@ -8643,15 +8642,15 @@
       </c>
       <c r="W32" s="63">
         <f t="shared" si="2"/>
-        <v>23932.96875</v>
+        <v>13987.5</v>
       </c>
       <c r="X32" s="63">
         <f t="shared" si="3"/>
-        <v>4713.313006835032</v>
+        <v>4405.3448275862074</v>
       </c>
       <c r="Y32" s="63">
         <f t="shared" si="4"/>
-        <v>19219.655743164967</v>
+        <v>9582.1551724137935</v>
       </c>
       <c r="Z32" s="63">
         <f t="shared" si="5"/>
@@ -8693,11 +8692,11 @@
       </c>
       <c r="E33" s="64">
         <f>IF(B33=Inputs!$C$1,D33,E32)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="F33" s="64">
         <f>IF(AND(B33&gt;=Inputs!$C$1,B33&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E33,0)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="G33" s="64">
         <f>IF(AND(B33&gt;=Inputs!$C$1,B33&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B33,"Y")+1, 0),0)</f>
@@ -8725,15 +8724,15 @@
       </c>
       <c r="P33" s="63">
         <f>$F33*Outputs_Internal!$D$64/12+N33</f>
-        <v>7977.65625</v>
+        <v>4662.5</v>
       </c>
       <c r="Q33" s="63">
         <f>$F33*Outputs_Internal!K$64/12+N33*'MARA Prices'!$F$5</f>
-        <v>1571.1043356116772</v>
+        <v>1468.4482758620691</v>
       </c>
       <c r="R33" s="63">
         <f>$F33*Outputs_Internal!L$64/12+N33*'MARA Prices'!$F$6</f>
-        <v>6406.5519143883221</v>
+        <v>3194.0517241379312</v>
       </c>
       <c r="S33" s="63">
         <f>N33*'MARA Prices'!$F$4</f>
@@ -8799,11 +8798,11 @@
       </c>
       <c r="E34" s="64">
         <f>IF(B34=Inputs!$C$1,D34,E33)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="F34" s="64">
         <f>IF(AND(B34&gt;=Inputs!$C$1,B34&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E34,0)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="G34" s="64">
         <f>IF(AND(B34&gt;=Inputs!$C$1,B34&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B34,"Y")+1, 0),0)</f>
@@ -8831,15 +8830,15 @@
       </c>
       <c r="P34" s="63">
         <f>$F34*Outputs_Internal!$D$64/12+N34</f>
-        <v>7977.65625</v>
+        <v>4662.5</v>
       </c>
       <c r="Q34" s="63">
         <f>$F34*Outputs_Internal!K$64/12+N34*'MARA Prices'!$F$5</f>
-        <v>1571.1043356116772</v>
+        <v>1468.4482758620691</v>
       </c>
       <c r="R34" s="63">
         <f>$F34*Outputs_Internal!L$64/12+N34*'MARA Prices'!$F$6</f>
-        <v>6406.5519143883221</v>
+        <v>3194.0517241379312</v>
       </c>
       <c r="S34" s="63">
         <f>N34*'MARA Prices'!$F$4</f>
@@ -8905,11 +8904,11 @@
       </c>
       <c r="E35" s="64">
         <f>IF(B35=Inputs!$C$1,D35,E34)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="F35" s="64">
         <f>IF(AND(B35&gt;=Inputs!$C$1,B35&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E35,0)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="G35" s="64">
         <f>IF(AND(B35&gt;=Inputs!$C$1,B35&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B35,"Y")+1, 0),0)</f>
@@ -8937,15 +8936,15 @@
       </c>
       <c r="P35" s="63">
         <f>$F35*Outputs_Internal!$D$64/12+N35</f>
-        <v>7977.65625</v>
+        <v>4662.5</v>
       </c>
       <c r="Q35" s="63">
         <f>$F35*Outputs_Internal!K$64/12+N35*'MARA Prices'!$F$5</f>
-        <v>1571.1043356116772</v>
+        <v>1468.4482758620691</v>
       </c>
       <c r="R35" s="63">
         <f>$F35*Outputs_Internal!L$64/12+N35*'MARA Prices'!$F$6</f>
-        <v>6406.5519143883221</v>
+        <v>3194.0517241379312</v>
       </c>
       <c r="S35" s="63">
         <f>N35*'MARA Prices'!$F$4</f>
@@ -8961,15 +8960,15 @@
       </c>
       <c r="W35" s="63">
         <f t="shared" si="2"/>
-        <v>23932.96875</v>
+        <v>13987.5</v>
       </c>
       <c r="X35" s="63">
         <f t="shared" si="3"/>
-        <v>4713.313006835032</v>
+        <v>4405.3448275862074</v>
       </c>
       <c r="Y35" s="63">
         <f t="shared" si="4"/>
-        <v>19219.655743164967</v>
+        <v>9582.1551724137935</v>
       </c>
       <c r="Z35" s="63">
         <f t="shared" si="5"/>
@@ -9011,11 +9010,11 @@
       </c>
       <c r="E36" s="64">
         <f>IF(B36=Inputs!$C$1,D36,E35)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="F36" s="64">
         <f>IF(AND(B36&gt;=Inputs!$C$1,B36&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E36,0)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="G36" s="64">
         <f>IF(AND(B36&gt;=Inputs!$C$1,B36&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B36,"Y")+1, 0),0)</f>
@@ -9043,15 +9042,15 @@
       </c>
       <c r="P36" s="63">
         <f>$F36*Outputs_Internal!$D$64/12+N36</f>
-        <v>7977.65625</v>
+        <v>4662.5</v>
       </c>
       <c r="Q36" s="63">
         <f>$F36*Outputs_Internal!K$64/12+N36*'MARA Prices'!$F$5</f>
-        <v>1571.1043356116772</v>
+        <v>1468.4482758620691</v>
       </c>
       <c r="R36" s="63">
         <f>$F36*Outputs_Internal!L$64/12+N36*'MARA Prices'!$F$6</f>
-        <v>6406.5519143883221</v>
+        <v>3194.0517241379312</v>
       </c>
       <c r="S36" s="63">
         <f>N36*'MARA Prices'!$F$4</f>
@@ -9117,11 +9116,11 @@
       </c>
       <c r="E37" s="64">
         <f>IF(B37=Inputs!$C$1,D37,E36)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="F37" s="64">
         <f>IF(AND(B37&gt;=Inputs!$C$1,B37&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E37,0)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="G37" s="64">
         <f>IF(AND(B37&gt;=Inputs!$C$1,B37&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B37,"Y")+1, 0),0)</f>
@@ -9149,15 +9148,15 @@
       </c>
       <c r="P37" s="63">
         <f>$F37*Outputs_Internal!$D$64/12+N37</f>
-        <v>7977.65625</v>
+        <v>4662.5</v>
       </c>
       <c r="Q37" s="63">
         <f>$F37*Outputs_Internal!K$64/12+N37*'MARA Prices'!$F$5</f>
-        <v>1571.1043356116772</v>
+        <v>1468.4482758620691</v>
       </c>
       <c r="R37" s="63">
         <f>$F37*Outputs_Internal!L$64/12+N37*'MARA Prices'!$F$6</f>
-        <v>6406.5519143883221</v>
+        <v>3194.0517241379312</v>
       </c>
       <c r="S37" s="63">
         <f>N37*'MARA Prices'!$F$4</f>
@@ -9223,11 +9222,11 @@
       </c>
       <c r="E38" s="64">
         <f>IF(B38=Inputs!$C$1,D38,E37)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="F38" s="64">
         <f>IF(AND(B38&gt;=Inputs!$C$1,B38&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E38,0)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="G38" s="64">
         <f>IF(AND(B38&gt;=Inputs!$C$1,B38&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B38,"Y")+1, 0),0)</f>
@@ -9255,15 +9254,15 @@
       </c>
       <c r="P38" s="63">
         <f>$F38*Outputs_Internal!$D$64/12+N38</f>
-        <v>7977.65625</v>
+        <v>4662.5</v>
       </c>
       <c r="Q38" s="63">
         <f>$F38*Outputs_Internal!K$64/12+N38*'MARA Prices'!$F$5</f>
-        <v>1571.1043356116772</v>
+        <v>1468.4482758620691</v>
       </c>
       <c r="R38" s="63">
         <f>$F38*Outputs_Internal!L$64/12+N38*'MARA Prices'!$F$6</f>
-        <v>6406.5519143883221</v>
+        <v>3194.0517241379312</v>
       </c>
       <c r="S38" s="63">
         <f>N38*'MARA Prices'!$F$4</f>
@@ -9279,15 +9278,15 @@
       </c>
       <c r="W38" s="63">
         <f t="shared" si="7"/>
-        <v>23932.96875</v>
+        <v>13987.5</v>
       </c>
       <c r="X38" s="63">
         <f t="shared" si="8"/>
-        <v>4713.313006835032</v>
+        <v>4405.3448275862074</v>
       </c>
       <c r="Y38" s="63">
         <f t="shared" si="9"/>
-        <v>19219.655743164967</v>
+        <v>9582.1551724137935</v>
       </c>
       <c r="Z38" s="63">
         <f t="shared" si="10"/>
@@ -9329,11 +9328,11 @@
       </c>
       <c r="E39" s="64">
         <f>IF(B39=Inputs!$C$1,D39,E38)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="F39" s="64">
         <f>IF(AND(B39&gt;=Inputs!$C$1,B39&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E39,0)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="G39" s="64">
         <f>IF(AND(B39&gt;=Inputs!$C$1,B39&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B39,"Y")+1, 0),0)</f>
@@ -9361,15 +9360,15 @@
       </c>
       <c r="P39" s="63">
         <f>$F39*Outputs_Internal!$D$64/12+N39</f>
-        <v>7977.65625</v>
+        <v>4662.5</v>
       </c>
       <c r="Q39" s="63">
         <f>$F39*Outputs_Internal!K$64/12+N39*'MARA Prices'!$F$5</f>
-        <v>1571.1043356116772</v>
+        <v>1468.4482758620691</v>
       </c>
       <c r="R39" s="63">
         <f>$F39*Outputs_Internal!L$64/12+N39*'MARA Prices'!$F$6</f>
-        <v>6406.5519143883221</v>
+        <v>3194.0517241379312</v>
       </c>
       <c r="S39" s="63">
         <f>N39*'MARA Prices'!$F$4</f>
@@ -9435,11 +9434,11 @@
       </c>
       <c r="E40" s="64">
         <f>IF(B40=Inputs!$C$1,D40,E39)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="F40" s="64">
         <f>IF(AND(B40&gt;=Inputs!$C$1,B40&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E40,0)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="G40" s="64">
         <f>IF(AND(B40&gt;=Inputs!$C$1,B40&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B40,"Y")+1, 0),0)</f>
@@ -9467,15 +9466,15 @@
       </c>
       <c r="P40" s="63">
         <f>$F40*Outputs_Internal!$D$64/12+N40</f>
-        <v>7977.65625</v>
+        <v>4662.5</v>
       </c>
       <c r="Q40" s="63">
         <f>$F40*Outputs_Internal!K$64/12+N40*'MARA Prices'!$F$5</f>
-        <v>1571.1043356116772</v>
+        <v>1468.4482758620691</v>
       </c>
       <c r="R40" s="63">
         <f>$F40*Outputs_Internal!L$64/12+N40*'MARA Prices'!$F$6</f>
-        <v>6406.5519143883221</v>
+        <v>3194.0517241379312</v>
       </c>
       <c r="S40" s="63">
         <f>N40*'MARA Prices'!$F$4</f>
@@ -9541,11 +9540,11 @@
       </c>
       <c r="E41" s="64">
         <f>IF(B41=Inputs!$C$1,D41,E40)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="F41" s="64">
         <f>IF(AND(B41&gt;=Inputs!$C$1,B41&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E41,0)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="G41" s="64">
         <f>IF(AND(B41&gt;=Inputs!$C$1,B41&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B41,"Y")+1, 0),0)</f>
@@ -9573,15 +9572,15 @@
       </c>
       <c r="P41" s="63">
         <f>$F41*Outputs_Internal!$D$64/12+N41</f>
-        <v>7977.65625</v>
+        <v>4662.5</v>
       </c>
       <c r="Q41" s="63">
         <f>$F41*Outputs_Internal!K$64/12+N41*'MARA Prices'!$F$5</f>
-        <v>1571.1043356116772</v>
+        <v>1468.4482758620691</v>
       </c>
       <c r="R41" s="63">
         <f>$F41*Outputs_Internal!L$64/12+N41*'MARA Prices'!$F$6</f>
-        <v>6406.5519143883221</v>
+        <v>3194.0517241379312</v>
       </c>
       <c r="S41" s="63">
         <f>N41*'MARA Prices'!$F$4</f>
@@ -9597,15 +9596,15 @@
       </c>
       <c r="W41" s="63">
         <f t="shared" si="7"/>
-        <v>23932.96875</v>
+        <v>13987.5</v>
       </c>
       <c r="X41" s="63">
         <f t="shared" si="8"/>
-        <v>4713.313006835032</v>
+        <v>4405.3448275862074</v>
       </c>
       <c r="Y41" s="63">
         <f t="shared" si="9"/>
-        <v>19219.655743164967</v>
+        <v>9582.1551724137935</v>
       </c>
       <c r="Z41" s="63">
         <f t="shared" si="10"/>
@@ -9647,11 +9646,11 @@
       </c>
       <c r="E42" s="64">
         <f>IF(B42=Inputs!$C$1,D42,E41)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="F42" s="64">
         <f>IF(AND(B42&gt;=Inputs!$C$1,B42&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E42,0)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="G42" s="64">
         <f>IF(AND(B42&gt;=Inputs!$C$1,B42&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B42,"Y")+1, 0),0)</f>
@@ -9679,15 +9678,15 @@
       </c>
       <c r="P42" s="63">
         <f>$F42*Outputs_Internal!$D$64/12+N42</f>
-        <v>7977.65625</v>
+        <v>4662.5</v>
       </c>
       <c r="Q42" s="63">
         <f>$F42*Outputs_Internal!K$64/12+N42*'MARA Prices'!$F$5</f>
-        <v>1571.1043356116772</v>
+        <v>1468.4482758620691</v>
       </c>
       <c r="R42" s="63">
         <f>$F42*Outputs_Internal!L$64/12+N42*'MARA Prices'!$F$6</f>
-        <v>6406.5519143883221</v>
+        <v>3194.0517241379312</v>
       </c>
       <c r="S42" s="63">
         <f>N42*'MARA Prices'!$F$4</f>
@@ -9753,11 +9752,11 @@
       </c>
       <c r="E43" s="64">
         <f>IF(B43=Inputs!$C$1,D43,E42)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="F43" s="64">
         <f>IF(AND(B43&gt;=Inputs!$C$1,B43&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E43,0)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="G43" s="64">
         <f>IF(AND(B43&gt;=Inputs!$C$1,B43&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B43,"Y")+1, 0),0)</f>
@@ -9785,15 +9784,15 @@
       </c>
       <c r="P43" s="63">
         <f>$F43*Outputs_Internal!$D$64/12+N43</f>
-        <v>7977.65625</v>
+        <v>4662.5</v>
       </c>
       <c r="Q43" s="63">
         <f>$F43*Outputs_Internal!K$64/12+N43*'MARA Prices'!$F$5</f>
-        <v>1571.1043356116772</v>
+        <v>1468.4482758620691</v>
       </c>
       <c r="R43" s="63">
         <f>$F43*Outputs_Internal!L$64/12+N43*'MARA Prices'!$F$6</f>
-        <v>6406.5519143883221</v>
+        <v>3194.0517241379312</v>
       </c>
       <c r="S43" s="63">
         <f>N43*'MARA Prices'!$F$4</f>
@@ -9859,11 +9858,11 @@
       </c>
       <c r="E44" s="64">
         <f>IF(B44=Inputs!$C$1,D44,E43)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="F44" s="64">
         <f>IF(AND(B44&gt;=Inputs!$C$1,B44&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E44,0)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="G44" s="64">
         <f>IF(AND(B44&gt;=Inputs!$C$1,B44&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B44,"Y")+1, 0),0)</f>
@@ -9891,15 +9890,15 @@
       </c>
       <c r="P44" s="63">
         <f>$F44*Outputs_Internal!$D$64/12+N44</f>
-        <v>7977.65625</v>
+        <v>4662.5</v>
       </c>
       <c r="Q44" s="63">
         <f>$F44*Outputs_Internal!K$64/12+N44*'MARA Prices'!$F$5</f>
-        <v>1571.1043356116772</v>
+        <v>1468.4482758620691</v>
       </c>
       <c r="R44" s="63">
         <f>$F44*Outputs_Internal!L$64/12+N44*'MARA Prices'!$F$6</f>
-        <v>6406.5519143883221</v>
+        <v>3194.0517241379312</v>
       </c>
       <c r="S44" s="63">
         <f>N44*'MARA Prices'!$F$4</f>
@@ -9915,15 +9914,15 @@
       </c>
       <c r="W44" s="63">
         <f t="shared" si="7"/>
-        <v>23932.96875</v>
+        <v>13987.5</v>
       </c>
       <c r="X44" s="63">
         <f t="shared" si="8"/>
-        <v>4713.313006835032</v>
+        <v>4405.3448275862074</v>
       </c>
       <c r="Y44" s="63">
         <f t="shared" si="9"/>
-        <v>19219.655743164967</v>
+        <v>9582.1551724137935</v>
       </c>
       <c r="Z44" s="63">
         <f t="shared" si="10"/>
@@ -9965,15 +9964,15 @@
       </c>
       <c r="E45" s="64">
         <f>IF(B45=Inputs!$C$1,D45,E44)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="F45" s="64">
         <f>IF(AND(B45&gt;=Inputs!$C$1,B45&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E45,0)</f>
-        <v>1.0125</v>
+        <v>0</v>
       </c>
       <c r="G45" s="64">
         <f>IF(AND(B45&gt;=Inputs!$C$1,B45&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B45,"Y")+1, 0),0)</f>
-        <v>1.1025</v>
+        <v>0</v>
       </c>
       <c r="I45" s="63">
         <f>IF($B45=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D45</f>
@@ -9997,15 +9996,15 @@
       </c>
       <c r="P45" s="63">
         <f>$F45*Outputs_Internal!$D$64/12+N45</f>
-        <v>7977.65625</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="63">
         <f>$F45*Outputs_Internal!K$64/12+N45*'MARA Prices'!$F$5</f>
-        <v>1571.1043356116772</v>
+        <v>0</v>
       </c>
       <c r="R45" s="63">
         <f>$F45*Outputs_Internal!L$64/12+N45*'MARA Prices'!$F$6</f>
-        <v>6406.5519143883221</v>
+        <v>0</v>
       </c>
       <c r="S45" s="63">
         <f>N45*'MARA Prices'!$F$4</f>
@@ -10071,15 +10070,15 @@
       </c>
       <c r="E46" s="64">
         <f>IF(B46=Inputs!$C$1,D46,E45)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="F46" s="64">
         <f>IF(AND(B46&gt;=Inputs!$C$1,B46&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E46,0)</f>
-        <v>1.0125</v>
+        <v>0</v>
       </c>
       <c r="G46" s="64">
         <f>IF(AND(B46&gt;=Inputs!$C$1,B46&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B46,"Y")+1, 0),0)</f>
-        <v>1.1025</v>
+        <v>0</v>
       </c>
       <c r="I46" s="63">
         <f>IF($B46=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D46</f>
@@ -10103,15 +10102,15 @@
       </c>
       <c r="P46" s="63">
         <f>$F46*Outputs_Internal!$D$64/12+N46</f>
-        <v>7977.65625</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="63">
         <f>$F46*Outputs_Internal!K$64/12+N46*'MARA Prices'!$F$5</f>
-        <v>1571.1043356116772</v>
+        <v>0</v>
       </c>
       <c r="R46" s="63">
         <f>$F46*Outputs_Internal!L$64/12+N46*'MARA Prices'!$F$6</f>
-        <v>6406.5519143883221</v>
+        <v>0</v>
       </c>
       <c r="S46" s="63">
         <f>N46*'MARA Prices'!$F$4</f>
@@ -10177,15 +10176,15 @@
       </c>
       <c r="E47" s="64">
         <f>IF(B47=Inputs!$C$1,D47,E46)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="F47" s="64">
         <f>IF(AND(B47&gt;=Inputs!$C$1,B47&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E47,0)</f>
-        <v>1.0125</v>
+        <v>0</v>
       </c>
       <c r="G47" s="64">
         <f>IF(AND(B47&gt;=Inputs!$C$1,B47&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B47,"Y")+1, 0),0)</f>
-        <v>1.1025</v>
+        <v>0</v>
       </c>
       <c r="I47" s="63">
         <f>IF($B47=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D47</f>
@@ -10209,15 +10208,15 @@
       </c>
       <c r="P47" s="63">
         <f>$F47*Outputs_Internal!$D$64/12+N47</f>
-        <v>7977.65625</v>
+        <v>0</v>
       </c>
       <c r="Q47" s="63">
         <f>$F47*Outputs_Internal!K$64/12+N47*'MARA Prices'!$F$5</f>
-        <v>1571.1043356116772</v>
+        <v>0</v>
       </c>
       <c r="R47" s="63">
         <f>$F47*Outputs_Internal!L$64/12+N47*'MARA Prices'!$F$6</f>
-        <v>6406.5519143883221</v>
+        <v>0</v>
       </c>
       <c r="S47" s="63">
         <f>N47*'MARA Prices'!$F$4</f>
@@ -10233,15 +10232,15 @@
       </c>
       <c r="W47" s="63">
         <f t="shared" si="7"/>
-        <v>23932.96875</v>
+        <v>0</v>
       </c>
       <c r="X47" s="63">
         <f t="shared" si="8"/>
-        <v>4713.313006835032</v>
+        <v>0</v>
       </c>
       <c r="Y47" s="63">
         <f t="shared" si="9"/>
-        <v>19219.655743164967</v>
+        <v>0</v>
       </c>
       <c r="Z47" s="63">
         <f t="shared" si="10"/>
@@ -10283,15 +10282,15 @@
       </c>
       <c r="E48" s="64">
         <f>IF(B48=Inputs!$C$1,D48,E47)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="F48" s="64">
         <f>IF(AND(B48&gt;=Inputs!$C$1,B48&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E48,0)</f>
-        <v>1.0125</v>
+        <v>0</v>
       </c>
       <c r="G48" s="64">
         <f>IF(AND(B48&gt;=Inputs!$C$1,B48&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B48,"Y")+1, 0),0)</f>
-        <v>1.1025</v>
+        <v>0</v>
       </c>
       <c r="I48" s="63">
         <f>IF($B48=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D48</f>
@@ -10315,15 +10314,15 @@
       </c>
       <c r="P48" s="63">
         <f>$F48*Outputs_Internal!$D$64/12+N48</f>
-        <v>7977.65625</v>
+        <v>0</v>
       </c>
       <c r="Q48" s="63">
         <f>$F48*Outputs_Internal!K$64/12+N48*'MARA Prices'!$F$5</f>
-        <v>1571.1043356116772</v>
+        <v>0</v>
       </c>
       <c r="R48" s="63">
         <f>$F48*Outputs_Internal!L$64/12+N48*'MARA Prices'!$F$6</f>
-        <v>6406.5519143883221</v>
+        <v>0</v>
       </c>
       <c r="S48" s="63">
         <f>N48*'MARA Prices'!$F$4</f>
@@ -10389,15 +10388,15 @@
       </c>
       <c r="E49" s="64">
         <f>IF(B49=Inputs!$C$1,D49,E48)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="F49" s="64">
         <f>IF(AND(B49&gt;=Inputs!$C$1,B49&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E49,0)</f>
-        <v>1.0125</v>
+        <v>0</v>
       </c>
       <c r="G49" s="64">
         <f>IF(AND(B49&gt;=Inputs!$C$1,B49&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B49,"Y")+1, 0),0)</f>
-        <v>1.1025</v>
+        <v>0</v>
       </c>
       <c r="I49" s="63">
         <f>IF($B49=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D49</f>
@@ -10421,15 +10420,15 @@
       </c>
       <c r="P49" s="63">
         <f>$F49*Outputs_Internal!$D$64/12+N49</f>
-        <v>7977.65625</v>
+        <v>0</v>
       </c>
       <c r="Q49" s="63">
         <f>$F49*Outputs_Internal!K$64/12+N49*'MARA Prices'!$F$5</f>
-        <v>1571.1043356116772</v>
+        <v>0</v>
       </c>
       <c r="R49" s="63">
         <f>$F49*Outputs_Internal!L$64/12+N49*'MARA Prices'!$F$6</f>
-        <v>6406.5519143883221</v>
+        <v>0</v>
       </c>
       <c r="S49" s="63">
         <f>N49*'MARA Prices'!$F$4</f>
@@ -10495,15 +10494,15 @@
       </c>
       <c r="E50" s="64">
         <f>IF(B50=Inputs!$C$1,D50,E49)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="F50" s="64">
         <f>IF(AND(B50&gt;=Inputs!$C$1,B50&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E50,0)</f>
-        <v>1.0125</v>
+        <v>0</v>
       </c>
       <c r="G50" s="64">
         <f>IF(AND(B50&gt;=Inputs!$C$1,B50&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B50,"Y")+1, 0),0)</f>
-        <v>1.1025</v>
+        <v>0</v>
       </c>
       <c r="I50" s="63">
         <f>IF($B50=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D50</f>
@@ -10527,15 +10526,15 @@
       </c>
       <c r="P50" s="63">
         <f>$F50*Outputs_Internal!$D$64/12+N50</f>
-        <v>7977.65625</v>
+        <v>0</v>
       </c>
       <c r="Q50" s="63">
         <f>$F50*Outputs_Internal!K$64/12+N50*'MARA Prices'!$F$5</f>
-        <v>1571.1043356116772</v>
+        <v>0</v>
       </c>
       <c r="R50" s="63">
         <f>$F50*Outputs_Internal!L$64/12+N50*'MARA Prices'!$F$6</f>
-        <v>6406.5519143883221</v>
+        <v>0</v>
       </c>
       <c r="S50" s="63">
         <f>N50*'MARA Prices'!$F$4</f>
@@ -10551,15 +10550,15 @@
       </c>
       <c r="W50" s="63">
         <f t="shared" si="7"/>
-        <v>23932.96875</v>
+        <v>0</v>
       </c>
       <c r="X50" s="63">
         <f t="shared" si="8"/>
-        <v>4713.313006835032</v>
+        <v>0</v>
       </c>
       <c r="Y50" s="63">
         <f t="shared" si="9"/>
-        <v>19219.655743164967</v>
+        <v>0</v>
       </c>
       <c r="Z50" s="63">
         <f t="shared" si="10"/>
@@ -10601,15 +10600,15 @@
       </c>
       <c r="E51" s="64">
         <f>IF(B51=Inputs!$C$1,D51,E50)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="F51" s="64">
         <f>IF(AND(B51&gt;=Inputs!$C$1,B51&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E51,0)</f>
-        <v>1.0125</v>
+        <v>0</v>
       </c>
       <c r="G51" s="64">
         <f>IF(AND(B51&gt;=Inputs!$C$1,B51&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B51,"Y")+1, 0),0)</f>
-        <v>1.1025</v>
+        <v>0</v>
       </c>
       <c r="I51" s="63">
         <f>IF($B51=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D51</f>
@@ -10633,15 +10632,15 @@
       </c>
       <c r="P51" s="63">
         <f>$F51*Outputs_Internal!$D$64/12+N51</f>
-        <v>7977.65625</v>
+        <v>0</v>
       </c>
       <c r="Q51" s="63">
         <f>$F51*Outputs_Internal!K$64/12+N51*'MARA Prices'!$F$5</f>
-        <v>1571.1043356116772</v>
+        <v>0</v>
       </c>
       <c r="R51" s="63">
         <f>$F51*Outputs_Internal!L$64/12+N51*'MARA Prices'!$F$6</f>
-        <v>6406.5519143883221</v>
+        <v>0</v>
       </c>
       <c r="S51" s="63">
         <f>N51*'MARA Prices'!$F$4</f>
@@ -10707,15 +10706,15 @@
       </c>
       <c r="E52" s="64">
         <f>IF(B52=Inputs!$C$1,D52,E51)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="F52" s="64">
         <f>IF(AND(B52&gt;=Inputs!$C$1,B52&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E52,0)</f>
-        <v>1.0125</v>
+        <v>0</v>
       </c>
       <c r="G52" s="64">
         <f>IF(AND(B52&gt;=Inputs!$C$1,B52&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B52,"Y")+1, 0),0)</f>
-        <v>1.1025</v>
+        <v>0</v>
       </c>
       <c r="I52" s="63">
         <f>IF($B52=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D52</f>
@@ -10739,15 +10738,15 @@
       </c>
       <c r="P52" s="63">
         <f>$F52*Outputs_Internal!$D$64/12+N52</f>
-        <v>7977.65625</v>
+        <v>0</v>
       </c>
       <c r="Q52" s="63">
         <f>$F52*Outputs_Internal!K$64/12+N52*'MARA Prices'!$F$5</f>
-        <v>1571.1043356116772</v>
+        <v>0</v>
       </c>
       <c r="R52" s="63">
         <f>$F52*Outputs_Internal!L$64/12+N52*'MARA Prices'!$F$6</f>
-        <v>6406.5519143883221</v>
+        <v>0</v>
       </c>
       <c r="S52" s="63">
         <f>N52*'MARA Prices'!$F$4</f>
@@ -10813,15 +10812,15 @@
       </c>
       <c r="E53" s="64">
         <f>IF(B53=Inputs!$C$1,D53,E52)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="F53" s="64">
         <f>IF(AND(B53&gt;=Inputs!$C$1,B53&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E53,0)</f>
-        <v>1.0125</v>
+        <v>0</v>
       </c>
       <c r="G53" s="64">
         <f>IF(AND(B53&gt;=Inputs!$C$1,B53&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B53,"Y")+1, 0),0)</f>
-        <v>1.1025</v>
+        <v>0</v>
       </c>
       <c r="I53" s="63">
         <f>IF($B53=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D53</f>
@@ -10845,15 +10844,15 @@
       </c>
       <c r="P53" s="63">
         <f>$F53*Outputs_Internal!$D$64/12+N53</f>
-        <v>7977.65625</v>
+        <v>0</v>
       </c>
       <c r="Q53" s="63">
         <f>$F53*Outputs_Internal!K$64/12+N53*'MARA Prices'!$F$5</f>
-        <v>1571.1043356116772</v>
+        <v>0</v>
       </c>
       <c r="R53" s="63">
         <f>$F53*Outputs_Internal!L$64/12+N53*'MARA Prices'!$F$6</f>
-        <v>6406.5519143883221</v>
+        <v>0</v>
       </c>
       <c r="S53" s="63">
         <f>N53*'MARA Prices'!$F$4</f>
@@ -10869,15 +10868,15 @@
       </c>
       <c r="W53" s="63">
         <f t="shared" si="7"/>
-        <v>23932.96875</v>
+        <v>0</v>
       </c>
       <c r="X53" s="63">
         <f t="shared" si="8"/>
-        <v>4713.313006835032</v>
+        <v>0</v>
       </c>
       <c r="Y53" s="63">
         <f t="shared" si="9"/>
-        <v>19219.655743164967</v>
+        <v>0</v>
       </c>
       <c r="Z53" s="63">
         <f t="shared" si="10"/>
@@ -10919,15 +10918,15 @@
       </c>
       <c r="E54" s="64">
         <f>IF(B54=Inputs!$C$1,D54,E53)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="F54" s="64">
         <f>IF(AND(B54&gt;=Inputs!$C$1,B54&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E54,0)</f>
-        <v>1.0125</v>
+        <v>0</v>
       </c>
       <c r="G54" s="64">
         <f>IF(AND(B54&gt;=Inputs!$C$1,B54&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B54,"Y")+1, 0),0)</f>
-        <v>1.1025</v>
+        <v>0</v>
       </c>
       <c r="I54" s="63">
         <f>IF($B54=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D54</f>
@@ -10951,15 +10950,15 @@
       </c>
       <c r="P54" s="63">
         <f>$F54*Outputs_Internal!$D$64/12+N54</f>
-        <v>7977.65625</v>
+        <v>0</v>
       </c>
       <c r="Q54" s="63">
         <f>$F54*Outputs_Internal!K$64/12+N54*'MARA Prices'!$F$5</f>
-        <v>1571.1043356116772</v>
+        <v>0</v>
       </c>
       <c r="R54" s="63">
         <f>$F54*Outputs_Internal!L$64/12+N54*'MARA Prices'!$F$6</f>
-        <v>6406.5519143883221</v>
+        <v>0</v>
       </c>
       <c r="S54" s="63">
         <f>N54*'MARA Prices'!$F$4</f>
@@ -11025,15 +11024,15 @@
       </c>
       <c r="E55" s="64">
         <f>IF(B55=Inputs!$C$1,D55,E54)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="F55" s="64">
         <f>IF(AND(B55&gt;=Inputs!$C$1,B55&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E55,0)</f>
-        <v>1.0125</v>
+        <v>0</v>
       </c>
       <c r="G55" s="64">
         <f>IF(AND(B55&gt;=Inputs!$C$1,B55&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B55,"Y")+1, 0),0)</f>
-        <v>1.1025</v>
+        <v>0</v>
       </c>
       <c r="I55" s="63">
         <f>IF($B55=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D55</f>
@@ -11057,15 +11056,15 @@
       </c>
       <c r="P55" s="63">
         <f>$F55*Outputs_Internal!$D$64/12+N55</f>
-        <v>7977.65625</v>
+        <v>0</v>
       </c>
       <c r="Q55" s="63">
         <f>$F55*Outputs_Internal!K$64/12+N55*'MARA Prices'!$F$5</f>
-        <v>1571.1043356116772</v>
+        <v>0</v>
       </c>
       <c r="R55" s="63">
         <f>$F55*Outputs_Internal!L$64/12+N55*'MARA Prices'!$F$6</f>
-        <v>6406.5519143883221</v>
+        <v>0</v>
       </c>
       <c r="S55" s="63">
         <f>N55*'MARA Prices'!$F$4</f>
@@ -11131,15 +11130,15 @@
       </c>
       <c r="E56" s="64">
         <f>IF(B56=Inputs!$C$1,D56,E55)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="F56" s="64">
         <f>IF(AND(B56&gt;=Inputs!$C$1,B56&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E56,0)</f>
-        <v>1.0125</v>
+        <v>0</v>
       </c>
       <c r="G56" s="64">
         <f>IF(AND(B56&gt;=Inputs!$C$1,B56&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B56,"Y")+1, 0),0)</f>
-        <v>1.1025</v>
+        <v>0</v>
       </c>
       <c r="I56" s="63">
         <f>IF($B56=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D56</f>
@@ -11163,15 +11162,15 @@
       </c>
       <c r="P56" s="63">
         <f>$F56*Outputs_Internal!$D$64/12+N56</f>
-        <v>7977.65625</v>
+        <v>0</v>
       </c>
       <c r="Q56" s="63">
         <f>$F56*Outputs_Internal!K$64/12+N56*'MARA Prices'!$F$5</f>
-        <v>1571.1043356116772</v>
+        <v>0</v>
       </c>
       <c r="R56" s="63">
         <f>$F56*Outputs_Internal!L$64/12+N56*'MARA Prices'!$F$6</f>
-        <v>6406.5519143883221</v>
+        <v>0</v>
       </c>
       <c r="S56" s="63">
         <f>N56*'MARA Prices'!$F$4</f>
@@ -11187,15 +11186,15 @@
       </c>
       <c r="W56" s="63">
         <f t="shared" si="7"/>
-        <v>23932.96875</v>
+        <v>0</v>
       </c>
       <c r="X56" s="63">
         <f t="shared" si="8"/>
-        <v>4713.313006835032</v>
+        <v>0</v>
       </c>
       <c r="Y56" s="63">
         <f t="shared" si="9"/>
-        <v>19219.655743164967</v>
+        <v>0</v>
       </c>
       <c r="Z56" s="63">
         <f t="shared" si="10"/>
@@ -11237,15 +11236,15 @@
       </c>
       <c r="E57" s="64">
         <f>IF(B57=Inputs!$C$1,D57,E56)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="F57" s="64">
         <f>IF(AND(B57&gt;=Inputs!$C$1,B57&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E57,0)</f>
-        <v>1.0125</v>
+        <v>0</v>
       </c>
       <c r="G57" s="64">
         <f>IF(AND(B57&gt;=Inputs!$C$1,B57&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B57,"Y")+1, 0),0)</f>
-        <v>1.1576250000000001</v>
+        <v>0</v>
       </c>
       <c r="I57" s="63">
         <f>IF($B57=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D57</f>
@@ -11269,15 +11268,15 @@
       </c>
       <c r="P57" s="63">
         <f>$F57*Outputs_Internal!$D$64/12+N57</f>
-        <v>7977.65625</v>
+        <v>0</v>
       </c>
       <c r="Q57" s="63">
         <f>$F57*Outputs_Internal!K$64/12+N57*'MARA Prices'!$F$5</f>
-        <v>1571.1043356116772</v>
+        <v>0</v>
       </c>
       <c r="R57" s="63">
         <f>$F57*Outputs_Internal!L$64/12+N57*'MARA Prices'!$F$6</f>
-        <v>6406.5519143883221</v>
+        <v>0</v>
       </c>
       <c r="S57" s="63">
         <f>N57*'MARA Prices'!$F$4</f>
@@ -11343,15 +11342,15 @@
       </c>
       <c r="E58" s="64">
         <f>IF(B58=Inputs!$C$1,D58,E57)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="F58" s="64">
         <f>IF(AND(B58&gt;=Inputs!$C$1,B58&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E58,0)</f>
-        <v>1.0125</v>
+        <v>0</v>
       </c>
       <c r="G58" s="64">
         <f>IF(AND(B58&gt;=Inputs!$C$1,B58&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B58,"Y")+1, 0),0)</f>
-        <v>1.1576250000000001</v>
+        <v>0</v>
       </c>
       <c r="I58" s="63">
         <f>IF($B58=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D58</f>
@@ -11375,15 +11374,15 @@
       </c>
       <c r="P58" s="63">
         <f>$F58*Outputs_Internal!$D$64/12+N58</f>
-        <v>7977.65625</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="63">
         <f>$F58*Outputs_Internal!K$64/12+N58*'MARA Prices'!$F$5</f>
-        <v>1571.1043356116772</v>
+        <v>0</v>
       </c>
       <c r="R58" s="63">
         <f>$F58*Outputs_Internal!L$64/12+N58*'MARA Prices'!$F$6</f>
-        <v>6406.5519143883221</v>
+        <v>0</v>
       </c>
       <c r="S58" s="63">
         <f>N58*'MARA Prices'!$F$4</f>
@@ -11449,15 +11448,15 @@
       </c>
       <c r="E59" s="64">
         <f>IF(B59=Inputs!$C$1,D59,E58)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="F59" s="64">
         <f>IF(AND(B59&gt;=Inputs!$C$1,B59&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E59,0)</f>
-        <v>1.0125</v>
+        <v>0</v>
       </c>
       <c r="G59" s="64">
         <f>IF(AND(B59&gt;=Inputs!$C$1,B59&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B59,"Y")+1, 0),0)</f>
-        <v>1.1576250000000001</v>
+        <v>0</v>
       </c>
       <c r="I59" s="63">
         <f>IF($B59=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D59</f>
@@ -11481,15 +11480,15 @@
       </c>
       <c r="P59" s="63">
         <f>$F59*Outputs_Internal!$D$64/12+N59</f>
-        <v>7977.65625</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="63">
         <f>$F59*Outputs_Internal!K$64/12+N59*'MARA Prices'!$F$5</f>
-        <v>1571.1043356116772</v>
+        <v>0</v>
       </c>
       <c r="R59" s="63">
         <f>$F59*Outputs_Internal!L$64/12+N59*'MARA Prices'!$F$6</f>
-        <v>6406.5519143883221</v>
+        <v>0</v>
       </c>
       <c r="S59" s="63">
         <f>N59*'MARA Prices'!$F$4</f>
@@ -11505,15 +11504,15 @@
       </c>
       <c r="W59" s="63">
         <f t="shared" si="7"/>
-        <v>23932.96875</v>
+        <v>0</v>
       </c>
       <c r="X59" s="63">
         <f t="shared" si="8"/>
-        <v>4713.313006835032</v>
+        <v>0</v>
       </c>
       <c r="Y59" s="63">
         <f t="shared" si="9"/>
-        <v>19219.655743164967</v>
+        <v>0</v>
       </c>
       <c r="Z59" s="63">
         <f t="shared" si="10"/>
@@ -11555,15 +11554,15 @@
       </c>
       <c r="E60" s="64">
         <f>IF(B60=Inputs!$C$1,D60,E59)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="F60" s="64">
         <f>IF(AND(B60&gt;=Inputs!$C$1,B60&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E60,0)</f>
-        <v>1.0125</v>
+        <v>0</v>
       </c>
       <c r="G60" s="64">
         <f>IF(AND(B60&gt;=Inputs!$C$1,B60&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B60,"Y")+1, 0),0)</f>
-        <v>1.1576250000000001</v>
+        <v>0</v>
       </c>
       <c r="I60" s="63">
         <f>IF($B60=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D60</f>
@@ -11587,15 +11586,15 @@
       </c>
       <c r="P60" s="63">
         <f>$F60*Outputs_Internal!$D$64/12+N60</f>
-        <v>7977.65625</v>
+        <v>0</v>
       </c>
       <c r="Q60" s="63">
         <f>$F60*Outputs_Internal!K$64/12+N60*'MARA Prices'!$F$5</f>
-        <v>1571.1043356116772</v>
+        <v>0</v>
       </c>
       <c r="R60" s="63">
         <f>$F60*Outputs_Internal!L$64/12+N60*'MARA Prices'!$F$6</f>
-        <v>6406.5519143883221</v>
+        <v>0</v>
       </c>
       <c r="S60" s="63">
         <f>N60*'MARA Prices'!$F$4</f>
@@ -11661,15 +11660,15 @@
       </c>
       <c r="E61" s="64">
         <f>IF(B61=Inputs!$C$1,D61,E60)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="F61" s="64">
         <f>IF(AND(B61&gt;=Inputs!$C$1,B61&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E61,0)</f>
-        <v>1.0125</v>
+        <v>0</v>
       </c>
       <c r="G61" s="64">
         <f>IF(AND(B61&gt;=Inputs!$C$1,B61&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B61,"Y")+1, 0),0)</f>
-        <v>1.1576250000000001</v>
+        <v>0</v>
       </c>
       <c r="I61" s="63">
         <f>IF($B61=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D61</f>
@@ -11693,15 +11692,15 @@
       </c>
       <c r="P61" s="63">
         <f>$F61*Outputs_Internal!$D$64/12+N61</f>
-        <v>7977.65625</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="63">
         <f>$F61*Outputs_Internal!K$64/12+N61*'MARA Prices'!$F$5</f>
-        <v>1571.1043356116772</v>
+        <v>0</v>
       </c>
       <c r="R61" s="63">
         <f>$F61*Outputs_Internal!L$64/12+N61*'MARA Prices'!$F$6</f>
-        <v>6406.5519143883221</v>
+        <v>0</v>
       </c>
       <c r="S61" s="63">
         <f>N61*'MARA Prices'!$F$4</f>
@@ -11767,15 +11766,15 @@
       </c>
       <c r="E62" s="64">
         <f>IF(B62=Inputs!$C$1,D62,E61)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="F62" s="64">
         <f>IF(AND(B62&gt;=Inputs!$C$1,B62&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E62,0)</f>
-        <v>1.0125</v>
+        <v>0</v>
       </c>
       <c r="G62" s="64">
         <f>IF(AND(B62&gt;=Inputs!$C$1,B62&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B62,"Y")+1, 0),0)</f>
-        <v>1.1576250000000001</v>
+        <v>0</v>
       </c>
       <c r="I62" s="63">
         <f>IF($B62=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D62</f>
@@ -11799,15 +11798,15 @@
       </c>
       <c r="P62" s="63">
         <f>$F62*Outputs_Internal!$D$64/12+N62</f>
-        <v>7977.65625</v>
+        <v>0</v>
       </c>
       <c r="Q62" s="63">
         <f>$F62*Outputs_Internal!K$64/12+N62*'MARA Prices'!$F$5</f>
-        <v>1571.1043356116772</v>
+        <v>0</v>
       </c>
       <c r="R62" s="63">
         <f>$F62*Outputs_Internal!L$64/12+N62*'MARA Prices'!$F$6</f>
-        <v>6406.5519143883221</v>
+        <v>0</v>
       </c>
       <c r="S62" s="63">
         <f>N62*'MARA Prices'!$F$4</f>
@@ -11823,15 +11822,15 @@
       </c>
       <c r="W62" s="63">
         <f t="shared" si="7"/>
-        <v>23932.96875</v>
+        <v>0</v>
       </c>
       <c r="X62" s="63">
         <f t="shared" si="8"/>
-        <v>4713.313006835032</v>
+        <v>0</v>
       </c>
       <c r="Y62" s="63">
         <f t="shared" si="9"/>
-        <v>19219.655743164967</v>
+        <v>0</v>
       </c>
       <c r="Z62" s="63">
         <f t="shared" si="10"/>
@@ -11873,7 +11872,7 @@
       </c>
       <c r="E63" s="64">
         <f>IF(B63=Inputs!$C$1,D63,E62)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="F63" s="64">
         <f>IF(AND(B63&gt;=Inputs!$C$1,B63&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E63,0)</f>
@@ -11979,7 +11978,7 @@
       </c>
       <c r="E64" s="64">
         <f>IF(B64=Inputs!$C$1,D64,E63)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="F64" s="64">
         <f>IF(AND(B64&gt;=Inputs!$C$1,B64&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E64,0)</f>
@@ -12085,7 +12084,7 @@
       </c>
       <c r="E65" s="64">
         <f>IF(B65=Inputs!$C$1,D65,E64)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="F65" s="64">
         <f>IF(AND(B65&gt;=Inputs!$C$1,B65&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E65,0)</f>
@@ -12191,7 +12190,7 @@
       </c>
       <c r="E66" s="64">
         <f>IF(B66=Inputs!$C$1,D66,E65)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="F66" s="64">
         <f>IF(AND(B66&gt;=Inputs!$C$1,B66&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E66,0)</f>
@@ -12297,7 +12296,7 @@
       </c>
       <c r="E67" s="64">
         <f>IF(B67=Inputs!$C$1,D67,E66)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="F67" s="64">
         <f>IF(AND(B67&gt;=Inputs!$C$1,B67&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E67,0)</f>
@@ -12403,7 +12402,7 @@
       </c>
       <c r="E68" s="64">
         <f>IF(B68=Inputs!$C$1,D68,E67)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="F68" s="64">
         <f>IF(AND(B68&gt;=Inputs!$C$1,B68&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E68,0)</f>
@@ -12509,7 +12508,7 @@
       </c>
       <c r="E69" s="64">
         <f>IF(B69=Inputs!$C$1,D69,E68)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="F69" s="64">
         <f>IF(AND(B69&gt;=Inputs!$C$1,B69&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E69,0)</f>
@@ -12615,7 +12614,7 @@
       </c>
       <c r="E70" s="64">
         <f>IF(B70=Inputs!$C$1,D70,E69)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="F70" s="64">
         <f>IF(AND(B70&gt;=Inputs!$C$1,B70&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E70,0)</f>
@@ -12721,7 +12720,7 @@
       </c>
       <c r="E71" s="64">
         <f>IF(B71=Inputs!$C$1,D71,E70)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="F71" s="64">
         <f>IF(AND(B71&gt;=Inputs!$C$1,B71&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E71,0)</f>
@@ -12827,7 +12826,7 @@
       </c>
       <c r="E72" s="64">
         <f>IF(B72=Inputs!$C$1,D72,E71)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="F72" s="64">
         <f>IF(AND(B72&gt;=Inputs!$C$1,B72&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E72,0)</f>
@@ -12933,7 +12932,7 @@
       </c>
       <c r="E73" s="64">
         <f>IF(B73=Inputs!$C$1,D73,E72)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="F73" s="64">
         <f>IF(AND(B73&gt;=Inputs!$C$1,B73&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E73,0)</f>
@@ -13039,7 +13038,7 @@
       </c>
       <c r="E74" s="64">
         <f>IF(B74=Inputs!$C$1,D74,E73)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="F74" s="64">
         <f>IF(AND(B74&gt;=Inputs!$C$1,B74&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E74,0)</f>
@@ -13145,7 +13144,7 @@
       </c>
       <c r="E75" s="64">
         <f>IF(B75=Inputs!$C$1,D75,E74)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="F75" s="64">
         <f>IF(AND(B75&gt;=Inputs!$C$1,B75&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E75,0)</f>
@@ -13251,7 +13250,7 @@
       </c>
       <c r="E76" s="64">
         <f>IF(B76=Inputs!$C$1,D76,E75)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="F76" s="64">
         <f>IF(AND(B76&gt;=Inputs!$C$1,B76&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E76,0)</f>
@@ -13357,7 +13356,7 @@
       </c>
       <c r="E77" s="64">
         <f>IF(B77=Inputs!$C$1,D77,E76)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="F77" s="64">
         <f>IF(AND(B77&gt;=Inputs!$C$1,B77&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E77,0)</f>
@@ -13463,7 +13462,7 @@
       </c>
       <c r="E78" s="64">
         <f>IF(B78=Inputs!$C$1,D78,E77)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="F78" s="64">
         <f>IF(AND(B78&gt;=Inputs!$C$1,B78&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E78,0)</f>
@@ -13569,7 +13568,7 @@
       </c>
       <c r="E79" s="64">
         <f>IF(B79=Inputs!$C$1,D79,E78)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="F79" s="64">
         <f>IF(AND(B79&gt;=Inputs!$C$1,B79&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E79,0)</f>
@@ -13675,7 +13674,7 @@
       </c>
       <c r="E80" s="64">
         <f>IF(B80=Inputs!$C$1,D80,E79)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="F80" s="64">
         <f>IF(AND(B80&gt;=Inputs!$C$1,B80&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E80,0)</f>
@@ -13781,7 +13780,7 @@
       </c>
       <c r="E81" s="64">
         <f>IF(B81=Inputs!$C$1,D81,E80)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="F81" s="64">
         <f>IF(AND(B81&gt;=Inputs!$C$1,B81&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E81,0)</f>
@@ -13887,7 +13886,7 @@
       </c>
       <c r="E82" s="64">
         <f>IF(B82=Inputs!$C$1,D82,E81)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="F82" s="64">
         <f>IF(AND(B82&gt;=Inputs!$C$1,B82&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E82,0)</f>
@@ -13993,7 +13992,7 @@
       </c>
       <c r="E83" s="64">
         <f>IF(B83=Inputs!$C$1,D83,E82)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="F83" s="64">
         <f>IF(AND(B83&gt;=Inputs!$C$1,B83&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E83,0)</f>
@@ -14099,7 +14098,7 @@
       </c>
       <c r="E84" s="64">
         <f>IF(B84=Inputs!$C$1,D84,E83)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="F84" s="64">
         <f>IF(AND(B84&gt;=Inputs!$C$1,B84&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E84,0)</f>
@@ -14205,7 +14204,7 @@
       </c>
       <c r="E85" s="64">
         <f>IF(B85=Inputs!$C$1,D85,E84)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="F85" s="64">
         <f>IF(AND(B85&gt;=Inputs!$C$1,B85&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E85,0)</f>
@@ -14311,7 +14310,7 @@
       </c>
       <c r="E86" s="64">
         <f>IF(B86=Inputs!$C$1,D86,E85)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="F86" s="64">
         <f>IF(AND(B86&gt;=Inputs!$C$1,B86&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E86,0)</f>
@@ -14417,7 +14416,7 @@
       </c>
       <c r="E87" s="64">
         <f>IF(B87=Inputs!$C$1,D87,E86)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="F87" s="64">
         <f>IF(AND(B87&gt;=Inputs!$C$1,B87&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E87,0)</f>
@@ -14523,7 +14522,7 @@
       </c>
       <c r="E88" s="64">
         <f>IF(B88=Inputs!$C$1,D88,E87)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="F88" s="64">
         <f>IF(AND(B88&gt;=Inputs!$C$1,B88&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E88,0)</f>
@@ -14629,7 +14628,7 @@
       </c>
       <c r="E89" s="64">
         <f>IF(B89=Inputs!$C$1,D89,E88)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="F89" s="64">
         <f>IF(AND(B89&gt;=Inputs!$C$1,B89&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E89,0)</f>
@@ -14735,7 +14734,7 @@
       </c>
       <c r="E90" s="64">
         <f>IF(B90=Inputs!$C$1,D90,E89)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="F90" s="64">
         <f>IF(AND(B90&gt;=Inputs!$C$1,B90&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E90,0)</f>
@@ -14841,7 +14840,7 @@
       </c>
       <c r="E91" s="64">
         <f>IF(B91=Inputs!$C$1,D91,E90)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="F91" s="64">
         <f>IF(AND(B91&gt;=Inputs!$C$1,B91&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E91,0)</f>
@@ -14947,7 +14946,7 @@
       </c>
       <c r="E92" s="64">
         <f>IF(B92=Inputs!$C$1,D92,E91)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="F92" s="64">
         <f>IF(AND(B92&gt;=Inputs!$C$1,B92&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E92,0)</f>
@@ -15053,7 +15052,7 @@
       </c>
       <c r="E93" s="64">
         <f>IF(B93=Inputs!$C$1,D93,E92)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="F93" s="64">
         <f>IF(AND(B93&gt;=Inputs!$C$1,B93&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E93,0)</f>
@@ -15159,7 +15158,7 @@
       </c>
       <c r="E94" s="64">
         <f>IF(B94=Inputs!$C$1,D94,E93)</f>
-        <v>1.0125</v>
+        <v>1</v>
       </c>
       <c r="F94" s="64">
         <f>IF(AND(B94&gt;=Inputs!$C$1,B94&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E94,0)</f>
@@ -15338,7 +15337,7 @@
       </c>
       <c r="D4" s="1">
         <f>IF(AND(Inputs!D8="Y",Inputs!D7="Y"), 0, IF(Inputs!D7="Y", SUM(Prices!$C$3, IF(Inputs!D$9 ="Y", Prices!$C$4, 0)), IF(Inputs!D7="N", Prices!$D$3, 0)))*Inputs!D12</f>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="E4" s="1">
         <f>IF(AND(Inputs!E8="Y",Inputs!E7="Y"), 0, IF(Inputs!E7="Y", SUM(Prices!$C$3, IF(Inputs!E$9 ="Y", Prices!$C$4, 0)), IF(Inputs!E7="N", Prices!$D$3, 0)))*Inputs!E12</f>
@@ -16797,7 +16796,7 @@
       </c>
       <c r="D70" s="20">
         <f>IF(Inputs!D27="Y", Prices!$C25, 0)</f>
-        <v>28000</v>
+        <v>0</v>
       </c>
       <c r="E70" s="20">
         <f>IF(Inputs!E27="Y", Prices!$C25, 0)</f>
@@ -16847,7 +16846,7 @@
       </c>
       <c r="D72" s="20">
         <f>IF(Inputs!D29="Y", Prices!$C27, 0)</f>
-        <v>28000</v>
+        <v>0</v>
       </c>
       <c r="E72" s="20">
         <f>IF(Inputs!E29="Y", Prices!$C27, 0)</f>
@@ -16897,7 +16896,7 @@
       </c>
       <c r="D74" s="84">
         <f>IF(Inputs!D13="Y", Prices!$C29, IF(Inputs!D13="Monthly", Prices!C29 * Prices!$L$30, 0))</f>
-        <v>8400</v>
+        <v>0</v>
       </c>
       <c r="E74" s="84">
         <f>IF(Inputs!E13="Y", Prices!$C29, IF(Inputs!E13="Monthly", Prices!D29 * Prices!$L$30, 0))</f>
@@ -16947,23 +16946,23 @@
         <v>1E-3</v>
       </c>
       <c r="K77" s="23">
-        <f t="shared" ref="K77:K85" si="2">D66+D77+$J77</f>
+        <f t="shared" ref="K77:K84" si="2">D66+D77+$J77</f>
         <v>8500.0010000000002</v>
       </c>
       <c r="L77" s="23">
-        <f t="shared" ref="L77:L85" si="3">E66+E77+$J77</f>
+        <f t="shared" ref="L77:L84" si="3">E66+E77+$J77</f>
         <v>1E-3</v>
       </c>
       <c r="M77" s="23">
-        <f t="shared" ref="M77:M85" si="4">F66+F77+$J77</f>
+        <f t="shared" ref="M77:M84" si="4">F66+F77+$J77</f>
         <v>1E-3</v>
       </c>
       <c r="N77" s="23">
-        <f t="shared" ref="N77:N85" si="5">G66+G77+$J77</f>
+        <f t="shared" ref="N77:N84" si="5">G66+G77+$J77</f>
         <v>1E-3</v>
       </c>
       <c r="O77" s="23">
-        <f t="shared" ref="O77:O85" si="6">H66+H77+$J77</f>
+        <f t="shared" ref="O77:O84" si="6">H66+H77+$J77</f>
         <v>1E-3</v>
       </c>
     </row>
@@ -17144,7 +17143,7 @@
       </c>
       <c r="K81" s="23">
         <f t="shared" si="2"/>
-        <v>28000.001400000001</v>
+        <v>1.4000000000000002E-3</v>
       </c>
       <c r="L81" s="23">
         <f t="shared" si="3"/>
@@ -17242,7 +17241,7 @@
       </c>
       <c r="K83" s="23">
         <f t="shared" si="2"/>
-        <v>28000.0016</v>
+        <v>1.6000000000000003E-3</v>
       </c>
       <c r="L83" s="23">
         <f t="shared" si="3"/>
@@ -17397,7 +17396,7 @@
       </c>
       <c r="K88" s="21">
         <f>IF(COUNTIF(K$77:K$85,"")&gt;2,"",IFERROR(RANK(K77,K$77:K$85),8))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L88" s="21">
         <f t="shared" ref="L88:O88" si="9">IF(COUNTIF(L$77:L$85,"")&gt;2,"",IFERROR(RANK(L77,L$77:L$85),8))</f>
@@ -17557,7 +17556,7 @@
       </c>
       <c r="D92" s="20">
         <f>D70</f>
-        <v>28000</v>
+        <v>0</v>
       </c>
       <c r="E92" s="20">
         <f>E70</f>
@@ -17577,7 +17576,7 @@
       </c>
       <c r="K92" s="21">
         <f t="shared" ref="K92:O92" si="14">IF(COUNTIF(K$77:K$85,"")&gt;2,"",IFERROR(RANK(K81,K$77:K$85),8))</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L92" s="21">
         <f t="shared" si="14"/>
@@ -17622,7 +17621,7 @@
       </c>
       <c r="K93" s="21">
         <f t="shared" ref="K93:O93" si="16">IF(COUNTIF(K$77:K$85,"")&gt;2,"",IFERROR(RANK(K82,K$77:K$85),8))</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L93" s="21">
         <f t="shared" si="16"/>
@@ -17647,7 +17646,7 @@
       </c>
       <c r="D94" s="20">
         <f>IF(D72=0,0,D72-IF(OR(Inputs!D25="Y",Inputs!D26="Y"), 0, D23))</f>
-        <v>28000</v>
+        <v>0</v>
       </c>
       <c r="E94" s="20">
         <f>IF(E72=0,0,E72-IF(OR(Inputs!E25="Y",Inputs!E26="Y"), 0, E23))</f>
@@ -17667,7 +17666,7 @@
       </c>
       <c r="K94" s="21">
         <f t="shared" ref="K94:O94" si="17">IF(COUNTIF(K$77:K$85,"")&gt;2,"",IFERROR(RANK(K83,K$77:K$85),8))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L94" s="21">
         <f t="shared" si="17"/>
@@ -17712,10 +17711,10 @@
       </c>
       <c r="K95" s="21">
         <f>IF(COUNTIF(K$77:K$85,"")&gt;2,"",IFERROR(RANK(K84,K$77:K$85),8))</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L95" s="21">
-        <f t="shared" ref="K95:O95" si="19">IF(COUNTIF(L$77:L$85,"")&gt;2,"",IFERROR(RANK(L84,L$77:L$85),8))</f>
+        <f t="shared" ref="L95:O95" si="19">IF(COUNTIF(L$77:L$85,"")&gt;2,"",IFERROR(RANK(L84,L$77:L$85),8))</f>
         <v>1</v>
       </c>
       <c r="M95" s="21">
@@ -17737,7 +17736,7 @@
       </c>
       <c r="D96" s="84">
         <f t="shared" ref="D96:H96" si="20">D74</f>
-        <v>8400</v>
+        <v>0</v>
       </c>
       <c r="E96" s="84">
         <f t="shared" si="20"/>
@@ -18015,7 +18014,7 @@
       </c>
       <c r="D110" s="1">
         <f>_xlfn.IFNA(SUM(INDEX(D$66:D$74, MATCH($A110, K$88:K$96, 0)), INDEX(D$77:D$85, MATCH($A110, K$88:K$96, 0)))*Prices!$L$5*-1, 0)</f>
-        <v>-8400</v>
+        <v>-2550</v>
       </c>
       <c r="E110" s="1">
         <f>_xlfn.IFNA(SUM(INDEX(E$66:E$74, MATCH($A110, L$88:L$96, 0)), INDEX(E$77:E$85, MATCH($A110, L$88:L$96, 0)))*Prices!$L$5*-1, 0)</f>
@@ -18043,7 +18042,7 @@
       </c>
       <c r="D111" s="1">
         <f>_xlfn.IFNA(SUM(INDEX(D$66:D$74, MATCH($A111, K$88:K$96, 0)), INDEX(D$77:D$85, MATCH($A111, K$88:K$96, 0)))*Prices!$L$6*-1, 0)</f>
-        <v>-12600</v>
+        <v>0</v>
       </c>
       <c r="E111" s="1">
         <f>_xlfn.IFNA(SUM(INDEX(E$66:E$74, MATCH($A111, L$88:L$96, 0)), INDEX(E$77:E$85, MATCH($A111, L$88:L$96, 0)))*Prices!$L$6*-1, 0)</f>
@@ -18071,7 +18070,7 @@
       </c>
       <c r="D112" s="1">
         <f>_xlfn.IFNA(SUM(INDEX(D$66:D$74, MATCH($A112, K$88:K$96, 0)), INDEX(D$77:D$85, MATCH($A112, K$88:K$96, 0)))*Prices!$L$6*-1, 0)</f>
-        <v>-3825</v>
+        <v>0</v>
       </c>
       <c r="E112" s="1">
         <f>_xlfn.IFNA(SUM(INDEX(E$66:E$74, MATCH($A112, L$88:L$96, 0)), INDEX(E$77:E$85, MATCH($A112, L$88:L$96, 0)))*Prices!$L$6*-1, 0)</f>
@@ -18208,7 +18207,7 @@
       </c>
       <c r="D118" s="7">
         <f>SUM(D40:D50, D53:D63, D66:D74, D77:D85, D110:D116)</f>
-        <v>98075</v>
+        <v>55950</v>
       </c>
       <c r="E118" s="7">
         <f>SUM(E40:E50, E53:E63, E66:E74, E77:E85, E110:E116)</f>
@@ -18268,7 +18267,7 @@
       </c>
       <c r="D122" s="1">
         <f>IF(Inputs!$D$8 = "Y", Prices!$L$19, 0)*-1</f>
-        <v>-3525</v>
+        <v>0</v>
       </c>
       <c r="E122" s="1">
         <v>0</v>
@@ -18289,7 +18288,7 @@
       </c>
       <c r="D124" s="7">
         <f>SUM(D118, D120,D122)</f>
-        <v>94550</v>
+        <v>55950</v>
       </c>
       <c r="E124" s="7">
         <f t="shared" ref="E124:H124" si="27">SUM(E118, E120,E122)</f>

--- a/0273NYP - New York Premier/Premier_Pricing_Model.xlsx
+++ b/0273NYP - New York Premier/Premier_Pricing_Model.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason.altieri\repos\client-and-project-documentation\0273NYP - New York Premier\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shea.parkes\repos\client-and-project-documentation\0273NYP - New York Premier\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="0" windowWidth="13680" windowHeight="13890"/>
+    <workbookView xWindow="1395" yWindow="0" windowWidth="13680" windowHeight="13890"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="2" r:id="rId1"/>
@@ -1317,20 +1317,20 @@
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" customWidth="1"/>
-    <col min="2" max="2" width="24.26953125" customWidth="1"/>
-    <col min="3" max="3" width="16.26953125" style="66" customWidth="1"/>
-    <col min="4" max="8" width="18.7265625" customWidth="1"/>
-    <col min="11" max="11" width="9.1796875" customWidth="1"/>
-    <col min="12" max="12" width="9.1796875" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="66" customWidth="1"/>
+    <col min="4" max="8" width="18.7109375" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B1" s="91" t="s">
         <v>58</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>43101</v>
       </c>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="67" t="s">
         <v>72</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="67" t="s">
         <v>122</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="67" t="s">
         <v>156</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="67" t="s">
         <v>131</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="68"/>
       <c r="C6" s="72"/>
       <c r="D6" s="13" t="s">
@@ -1389,7 +1389,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="69" t="s">
         <v>5</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="69" t="s">
         <v>80</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="69" t="s">
         <v>6</v>
       </c>
@@ -1431,7 +1431,7 @@
       <c r="G9" s="55"/>
       <c r="H9" s="56"/>
     </row>
-    <row r="10" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="69" t="s">
         <v>139</v>
       </c>
@@ -1443,7 +1443,7 @@
       <c r="G10" s="55"/>
       <c r="H10" s="56"/>
     </row>
-    <row r="11" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="69" t="s">
         <v>4</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="69" t="s">
         <v>110</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="69" t="s">
         <v>97</v>
       </c>
@@ -1485,7 +1485,7 @@
       <c r="G13" s="55"/>
       <c r="H13" s="56"/>
     </row>
-    <row r="14" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="69" t="s">
         <v>7</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="69" t="s">
         <v>8</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="69" t="s">
         <v>21</v>
       </c>
@@ -1527,7 +1527,7 @@
       <c r="G16" s="55"/>
       <c r="H16" s="56"/>
     </row>
-    <row r="17" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="69" t="s">
         <v>9</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="69" t="s">
         <v>10</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="69" t="s">
         <v>77</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="69" t="s">
         <v>11</v>
       </c>
@@ -1584,7 +1584,7 @@
       <c r="G20" s="55"/>
       <c r="H20" s="56"/>
     </row>
-    <row r="21" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="69" t="s">
         <v>153</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="69" t="s">
         <v>12</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="69" t="s">
         <v>13</v>
       </c>
@@ -1626,7 +1626,7 @@
       <c r="G23" s="55"/>
       <c r="H23" s="56"/>
     </row>
-    <row r="24" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="69" t="s">
         <v>14</v>
       </c>
@@ -1638,7 +1638,7 @@
       <c r="G24" s="55"/>
       <c r="H24" s="56"/>
     </row>
-    <row r="25" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="69" t="s">
         <v>15</v>
       </c>
@@ -1650,7 +1650,7 @@
       <c r="G25" s="55"/>
       <c r="H25" s="56"/>
     </row>
-    <row r="26" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="69" t="s">
         <v>129</v>
       </c>
@@ -1662,7 +1662,7 @@
       <c r="G26" s="55"/>
       <c r="H26" s="56"/>
     </row>
-    <row r="27" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="69" t="s">
         <v>16</v>
       </c>
@@ -1674,7 +1674,7 @@
       <c r="G27" s="55"/>
       <c r="H27" s="56"/>
     </row>
-    <row r="28" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="69" t="s">
         <v>99</v>
       </c>
@@ -1686,7 +1686,7 @@
       <c r="G28" s="55"/>
       <c r="H28" s="56"/>
     </row>
-    <row r="29" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="69" t="s">
         <v>150</v>
       </c>
@@ -1698,7 +1698,7 @@
       <c r="G29" s="55"/>
       <c r="H29" s="56"/>
     </row>
-    <row r="30" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="92" t="s">
         <v>98</v>
       </c>
@@ -1742,26 +1742,26 @@
   <dimension ref="B2:U51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.81640625" customWidth="1"/>
-    <col min="2" max="2" width="5.81640625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="47.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="12.26953125" customWidth="1"/>
-    <col min="15" max="15" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="47.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="12.28515625" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>105</v>
       </c>
@@ -1778,12 +1778,12 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>1</v>
       </c>
@@ -1819,7 +1819,7 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1829,12 +1829,12 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C7" s="15" t="s">
         <v>2</v>
       </c>
@@ -1870,7 +1870,7 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C8" s="17" t="s">
         <v>20</v>
       </c>
@@ -1906,7 +1906,7 @@
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C9" s="17" t="s">
         <v>8</v>
       </c>
@@ -1942,7 +1942,7 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C10" s="17" t="s">
         <v>21</v>
       </c>
@@ -1977,7 +1977,7 @@
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C11" s="17" t="s">
         <v>9</v>
       </c>
@@ -2012,7 +2012,7 @@
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C12" s="17" t="s">
         <v>10</v>
       </c>
@@ -2047,7 +2047,7 @@
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C13" s="17" t="s">
         <v>77</v>
       </c>
@@ -2082,7 +2082,7 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C14" s="19" t="s">
         <v>11</v>
       </c>
@@ -2117,7 +2117,7 @@
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C15" s="19" t="s">
         <v>149</v>
       </c>
@@ -2152,7 +2152,7 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C16" s="19" t="s">
         <v>22</v>
       </c>
@@ -2187,12 +2187,12 @@
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>13</v>
       </c>
@@ -2227,7 +2227,7 @@
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>14</v>
       </c>
@@ -2262,7 +2262,7 @@
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>15</v>
       </c>
@@ -2297,7 +2297,7 @@
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>129</v>
       </c>
@@ -2332,7 +2332,7 @@
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>16</v>
       </c>
@@ -2367,7 +2367,7 @@
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>99</v>
       </c>
@@ -2402,7 +2402,7 @@
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>150</v>
       </c>
@@ -2437,7 +2437,7 @@
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>98</v>
       </c>
@@ -2472,7 +2472,7 @@
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>97</v>
       </c>
@@ -2507,12 +2507,12 @@
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>38</v>
       </c>
@@ -2547,7 +2547,7 @@
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>115</v>
       </c>
@@ -2582,7 +2582,7 @@
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>82</v>
       </c>
@@ -2613,7 +2613,7 @@
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
         <v>39</v>
       </c>
@@ -2645,7 +2645,7 @@
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
     </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
@@ -2659,7 +2659,7 @@
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
     </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
         <v>74</v>
       </c>
@@ -2679,16 +2679,16 @@
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C37" s="64">
         <f>INDEX(Outputs_Timeline!$D$3:$D$94,MATCH(Inputs!$C$1,Outputs_Timeline!$B$3:$B$94,0),1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C38" s="64"/>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
         <v>145</v>
       </c>
@@ -2699,7 +2699,7 @@
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
     </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C40" s="64" t="s">
         <v>143</v>
       </c>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C41" s="64" t="s">
         <v>144</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B43" s="6" t="s">
         <v>73</v>
       </c>
@@ -2781,7 +2781,7 @@
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
@@ -2795,18 +2795,18 @@
       <c r="T45" s="8"/>
       <c r="U45" s="8"/>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B46" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C47" s="7">
         <f>SUM(Outputs_Timeline!W:W)</f>
         <v>172850</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C48" s="52">
         <f>SUM(D43:H43)</f>
         <v>172850</v>
@@ -2814,17 +2814,17 @@
       <c r="D48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D50" s="2"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -2845,28 +2845,28 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.26953125" customWidth="1"/>
-    <col min="2" max="2" width="6.26953125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="48.453125" customWidth="1"/>
-    <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.26953125" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.81640625" customWidth="1"/>
-    <col min="11" max="11" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.26953125" customWidth="1"/>
-    <col min="13" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="48.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.85546875" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
       <c r="F1" s="50" t="s">
         <v>57</v>
       </c>
@@ -2874,7 +2874,7 @@
       <c r="H1" s="50"/>
       <c r="I1" s="50"/>
     </row>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D2" s="9" t="s">
         <v>43</v>
       </c>
@@ -2904,12 +2904,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>75</v>
       </c>
@@ -2948,7 +2948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>76</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D6" s="1"/>
       <c r="E6" s="3"/>
       <c r="F6" s="10"/>
@@ -2999,7 +2999,7 @@
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D7" s="7" t="s">
         <v>132</v>
       </c>
@@ -3015,7 +3015,7 @@
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="26"/>
@@ -3024,7 +3024,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>53</v>
       </c>
@@ -3036,7 +3036,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C10" s="15" t="s">
         <v>2</v>
       </c>
@@ -3077,7 +3077,7 @@
       <c r="P10" s="101"/>
       <c r="Q10" s="101"/>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C11" s="17" t="s">
         <v>20</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C12" s="17" t="s">
         <v>8</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C13" s="17" t="s">
         <v>21</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C14" s="17" t="s">
         <v>9</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C15" s="17" t="s">
         <v>10</v>
       </c>
@@ -3267,7 +3267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C16" s="17" t="s">
         <v>77</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C17" s="17" t="s">
         <v>154</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C18" s="19" t="s">
         <v>11</v>
       </c>
@@ -3380,7 +3380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C19" s="19" t="s">
         <v>149</v>
       </c>
@@ -3418,7 +3418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C20" s="19" t="s">
         <v>22</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
@@ -3465,7 +3465,7 @@
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="G22" s="48" t="s">
         <v>128</v>
       </c>
@@ -3477,7 +3477,7 @@
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
@@ -3486,7 +3486,7 @@
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
         <v>54</v>
       </c>
@@ -3498,7 +3498,7 @@
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C25" s="15" t="s">
         <v>2</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C26" s="17" t="s">
         <v>20</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C27" s="17" t="s">
         <v>8</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C28" s="17" t="s">
         <v>21</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C29" s="17" t="s">
         <v>9</v>
       </c>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C30" s="17" t="s">
         <v>10</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C31" s="17" t="s">
         <v>77</v>
       </c>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C32" s="17" t="s">
         <v>154</v>
       </c>
@@ -3829,7 +3829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C33" s="19" t="s">
         <v>11</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C34" s="19" t="s">
         <v>149</v>
       </c>
@@ -3911,7 +3911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C35" s="28" t="s">
         <v>22</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
       <c r="H36" s="11"/>
@@ -3961,7 +3961,7 @@
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
         <v>46</v>
       </c>
@@ -3973,7 +3973,7 @@
       <c r="L37" s="9"/>
       <c r="M37" s="9"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C38" s="17" t="s">
         <v>13</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C39" s="17" t="s">
         <v>14</v>
       </c>
@@ -4049,7 +4049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C40" s="19" t="s">
         <v>15</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C41" s="19" t="s">
         <v>129</v>
       </c>
@@ -4124,7 +4124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C42" s="19" t="s">
         <v>16</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C43" s="19" t="s">
         <v>99</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C44" s="19" t="s">
         <v>150</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C45" s="19" t="s">
         <v>98</v>
       </c>
@@ -4276,7 +4276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C46" s="81" t="s">
         <v>97</v>
       </c>
@@ -4314,12 +4314,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
       <c r="M47" s="9"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="s">
         <v>55</v>
       </c>
@@ -4331,7 +4331,7 @@
       <c r="L48" s="9"/>
       <c r="M48" s="9"/>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C49" s="28" t="s">
         <v>13</v>
       </c>
@@ -4371,7 +4371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C50" s="17" t="s">
         <v>14</v>
       </c>
@@ -4411,7 +4411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C51" s="19" t="s">
         <v>15</v>
       </c>
@@ -4451,7 +4451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C52" s="19" t="s">
         <v>129</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C53" s="19" t="s">
         <v>16</v>
       </c>
@@ -4531,7 +4531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C54" s="19" t="s">
         <v>99</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C55" s="19" t="s">
         <v>150</v>
       </c>
@@ -4611,7 +4611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C56" s="19" t="s">
         <v>98</v>
       </c>
@@ -4651,7 +4651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C57" s="81" t="s">
         <v>97</v>
       </c>
@@ -4691,12 +4691,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="K58" s="9"/>
       <c r="L58" s="9"/>
       <c r="M58" s="9"/>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="6" t="s">
         <v>37</v>
       </c>
@@ -4704,7 +4704,7 @@
       <c r="L59" s="9"/>
       <c r="M59" s="9"/>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>38</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>115</v>
       </c>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>82</v>
       </c>
@@ -4823,12 +4823,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="K63" s="9"/>
       <c r="L63" s="9"/>
       <c r="M63" s="9"/>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="6" t="s">
         <v>39</v>
       </c>
@@ -4853,7 +4853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C65" s="21" t="s">
         <v>56</v>
       </c>
@@ -4865,14 +4865,14 @@
       <c r="L65" s="12"/>
       <c r="M65" s="12"/>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C66" s="21"/>
       <c r="D66" s="23"/>
       <c r="K66" s="12"/>
       <c r="L66" s="12"/>
       <c r="M66" s="12"/>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="6" t="s">
         <v>147</v>
       </c>
@@ -4913,12 +4913,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="K68" s="9"/>
       <c r="L68" s="9"/>
       <c r="M68" s="9"/>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="6" t="s">
         <v>70</v>
       </c>
@@ -4943,7 +4943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D70" s="1"/>
       <c r="K70" s="53">
         <f>IFERROR(K69/$D$69, 0)</f>
@@ -4962,12 +4962,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="K72" s="9"/>
       <c r="L72" s="9"/>
       <c r="M72" s="9"/>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="27" t="s">
         <v>52</v>
       </c>
@@ -4983,7 +4983,7 @@
       <c r="L73" s="22"/>
       <c r="M73" s="22"/>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="27"/>
       <c r="C74" s="21" t="s">
         <v>13</v>
@@ -5027,7 +5027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="27"/>
       <c r="C75" s="21" t="s">
         <v>14</v>
@@ -5071,7 +5071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="27"/>
       <c r="C76" s="21" t="s">
         <v>15</v>
@@ -5115,7 +5115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="27"/>
       <c r="C77" s="21" t="s">
         <v>152</v>
@@ -5159,7 +5159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="27"/>
       <c r="C78" s="21" t="s">
         <v>16</v>
@@ -5203,7 +5203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="27"/>
       <c r="C79" s="21" t="s">
         <v>99</v>
@@ -5247,7 +5247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="27"/>
       <c r="C80" s="21" t="s">
         <v>150</v>
@@ -5291,7 +5291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="27"/>
       <c r="C81" s="21" t="s">
         <v>98</v>
@@ -5335,7 +5335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="27"/>
       <c r="C82" s="21" t="s">
         <v>97</v>
@@ -5396,30 +5396,30 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.54296875" customWidth="1"/>
-    <col min="2" max="2" width="10.1796875" style="60" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.453125" style="60" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" style="60" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="60" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="60" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7265625" style="60" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.54296875" style="60" customWidth="1"/>
-    <col min="9" max="13" width="8.7265625" style="63"/>
-    <col min="14" max="14" width="10.1796875" style="63" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.453125" customWidth="1"/>
-    <col min="16" max="16" width="10.453125" style="63" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="8.7265625" style="63"/>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="60" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" style="60" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="60" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="60" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="60" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="60" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.5703125" style="60" customWidth="1"/>
+    <col min="9" max="13" width="8.7109375" style="63"/>
+    <col min="14" max="14" width="10.140625" style="63" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.42578125" customWidth="1"/>
+    <col min="16" max="16" width="10.42578125" style="63" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="8.7109375" style="63"/>
     <col min="19" max="19" width="14" style="63" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.81640625" style="63" customWidth="1"/>
-    <col min="21" max="21" width="14.81640625" style="63" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.54296875" customWidth="1"/>
-    <col min="26" max="27" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="34" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.85546875" style="63" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="63" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.5703125" customWidth="1"/>
+    <col min="26" max="27" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="34" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:34" x14ac:dyDescent="0.25">
       <c r="F1" s="65">
         <f>COUNTIF(F3:F94,"&gt;0")</f>
         <v>36</v>
@@ -5455,7 +5455,7 @@
       <c r="AG1" s="107"/>
       <c r="AH1" s="107"/>
     </row>
-    <row r="2" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B2" s="59" t="s">
         <v>61</v>
       </c>
@@ -5538,7 +5538,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B3" s="60">
         <v>42917</v>
       </c>
@@ -5627,7 +5627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B4" s="60">
         <f>EDATE(B3,1)</f>
         <v>42948</v>
@@ -5713,7 +5713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B5" s="60">
         <f t="shared" ref="B5:B68" si="1">EDATE(B4,1)</f>
         <v>42979</v>
@@ -5819,7 +5819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B6" s="60">
         <f t="shared" si="1"/>
         <v>43009</v>
@@ -5925,7 +5925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B7" s="60">
         <f t="shared" si="1"/>
         <v>43040</v>
@@ -6031,7 +6031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B8" s="60">
         <f t="shared" si="1"/>
         <v>43070</v>
@@ -6137,7 +6137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B9" s="60">
         <f t="shared" si="1"/>
         <v>43101</v>
@@ -6243,7 +6243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B10" s="60">
         <f t="shared" si="1"/>
         <v>43132</v>
@@ -6349,7 +6349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B11" s="60">
         <f t="shared" si="1"/>
         <v>43160</v>
@@ -6455,7 +6455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B12" s="60">
         <f t="shared" si="1"/>
         <v>43191</v>
@@ -6561,7 +6561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B13" s="60">
         <f t="shared" si="1"/>
         <v>43221</v>
@@ -6667,7 +6667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B14" s="60">
         <f t="shared" si="1"/>
         <v>43252</v>
@@ -6773,7 +6773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B15" s="60">
         <f t="shared" si="1"/>
         <v>43282</v>
@@ -6879,7 +6879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B16" s="60">
         <f t="shared" si="1"/>
         <v>43313</v>
@@ -6985,7 +6985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B17" s="60">
         <f t="shared" si="1"/>
         <v>43344</v>
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B18" s="60">
         <f t="shared" si="1"/>
         <v>43374</v>
@@ -7197,7 +7197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B19" s="60">
         <f t="shared" si="1"/>
         <v>43405</v>
@@ -7303,7 +7303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B20" s="60">
         <f t="shared" si="1"/>
         <v>43435</v>
@@ -7409,7 +7409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B21" s="60">
         <f t="shared" si="1"/>
         <v>43466</v>
@@ -7515,7 +7515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B22" s="60">
         <f t="shared" si="1"/>
         <v>43497</v>
@@ -7621,7 +7621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B23" s="60">
         <f t="shared" si="1"/>
         <v>43525</v>
@@ -7727,7 +7727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B24" s="60">
         <f t="shared" si="1"/>
         <v>43556</v>
@@ -7833,7 +7833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B25" s="60">
         <f t="shared" si="1"/>
         <v>43586</v>
@@ -7939,7 +7939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B26" s="60">
         <f t="shared" si="1"/>
         <v>43617</v>
@@ -8045,7 +8045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B27" s="60">
         <f t="shared" si="1"/>
         <v>43647</v>
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B28" s="60">
         <f t="shared" si="1"/>
         <v>43678</v>
@@ -8257,7 +8257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B29" s="60">
         <f t="shared" si="1"/>
         <v>43709</v>
@@ -8363,7 +8363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B30" s="60">
         <f t="shared" si="1"/>
         <v>43739</v>
@@ -8469,7 +8469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B31" s="60">
         <f t="shared" si="1"/>
         <v>43770</v>
@@ -8575,7 +8575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B32" s="60">
         <f t="shared" si="1"/>
         <v>43800</v>
@@ -8681,7 +8681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B33" s="60">
         <f t="shared" si="1"/>
         <v>43831</v>
@@ -8787,7 +8787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B34" s="60">
         <f t="shared" si="1"/>
         <v>43862</v>
@@ -8893,7 +8893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B35" s="60">
         <f t="shared" si="1"/>
         <v>43891</v>
@@ -8999,7 +8999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B36" s="60">
         <f t="shared" si="1"/>
         <v>43922</v>
@@ -9105,7 +9105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B37" s="60">
         <f t="shared" si="1"/>
         <v>43952</v>
@@ -9211,7 +9211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B38" s="60">
         <f t="shared" si="1"/>
         <v>43983</v>
@@ -9317,7 +9317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B39" s="60">
         <f t="shared" si="1"/>
         <v>44013</v>
@@ -9423,7 +9423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B40" s="60">
         <f t="shared" si="1"/>
         <v>44044</v>
@@ -9529,7 +9529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B41" s="60">
         <f t="shared" si="1"/>
         <v>44075</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B42" s="60">
         <f t="shared" si="1"/>
         <v>44105</v>
@@ -9741,7 +9741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B43" s="60">
         <f t="shared" si="1"/>
         <v>44136</v>
@@ -9847,7 +9847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B44" s="60">
         <f t="shared" si="1"/>
         <v>44166</v>
@@ -9953,7 +9953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B45" s="60">
         <f t="shared" si="1"/>
         <v>44197</v>
@@ -10059,7 +10059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B46" s="60">
         <f t="shared" si="1"/>
         <v>44228</v>
@@ -10165,7 +10165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B47" s="60">
         <f t="shared" si="1"/>
         <v>44256</v>
@@ -10271,7 +10271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B48" s="60">
         <f t="shared" si="1"/>
         <v>44287</v>
@@ -10377,7 +10377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B49" s="60">
         <f t="shared" si="1"/>
         <v>44317</v>
@@ -10483,7 +10483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B50" s="60">
         <f t="shared" si="1"/>
         <v>44348</v>
@@ -10589,7 +10589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B51" s="60">
         <f t="shared" si="1"/>
         <v>44378</v>
@@ -10695,7 +10695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B52" s="60">
         <f t="shared" si="1"/>
         <v>44409</v>
@@ -10801,7 +10801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B53" s="60">
         <f t="shared" si="1"/>
         <v>44440</v>
@@ -10907,7 +10907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B54" s="60">
         <f t="shared" si="1"/>
         <v>44470</v>
@@ -11013,7 +11013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B55" s="60">
         <f t="shared" si="1"/>
         <v>44501</v>
@@ -11119,7 +11119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B56" s="60">
         <f t="shared" si="1"/>
         <v>44531</v>
@@ -11225,7 +11225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B57" s="60">
         <f t="shared" si="1"/>
         <v>44562</v>
@@ -11331,7 +11331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B58" s="60">
         <f t="shared" si="1"/>
         <v>44593</v>
@@ -11437,7 +11437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B59" s="60">
         <f t="shared" si="1"/>
         <v>44621</v>
@@ -11543,7 +11543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B60" s="60">
         <f t="shared" si="1"/>
         <v>44652</v>
@@ -11649,7 +11649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B61" s="60">
         <f t="shared" si="1"/>
         <v>44682</v>
@@ -11755,7 +11755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B62" s="60">
         <f t="shared" si="1"/>
         <v>44713</v>
@@ -11861,7 +11861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B63" s="60">
         <f t="shared" si="1"/>
         <v>44743</v>
@@ -11967,7 +11967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B64" s="60">
         <f t="shared" si="1"/>
         <v>44774</v>
@@ -12073,7 +12073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B65" s="60">
         <f t="shared" si="1"/>
         <v>44805</v>
@@ -12179,7 +12179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B66" s="60">
         <f t="shared" si="1"/>
         <v>44835</v>
@@ -12285,7 +12285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B67" s="60">
         <f t="shared" si="1"/>
         <v>44866</v>
@@ -12391,7 +12391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B68" s="60">
         <f t="shared" si="1"/>
         <v>44896</v>
@@ -12497,7 +12497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B69" s="60">
         <f t="shared" ref="B69:B94" si="13">EDATE(B68,1)</f>
         <v>44927</v>
@@ -12603,7 +12603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B70" s="60">
         <f t="shared" si="13"/>
         <v>44958</v>
@@ -12709,7 +12709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B71" s="60">
         <f t="shared" si="13"/>
         <v>44986</v>
@@ -12815,7 +12815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B72" s="60">
         <f t="shared" si="13"/>
         <v>45017</v>
@@ -12921,7 +12921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B73" s="60">
         <f t="shared" si="13"/>
         <v>45047</v>
@@ -13027,7 +13027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B74" s="60">
         <f t="shared" si="13"/>
         <v>45078</v>
@@ -13133,7 +13133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B75" s="60">
         <f t="shared" si="13"/>
         <v>45108</v>
@@ -13239,7 +13239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B76" s="60">
         <f t="shared" si="13"/>
         <v>45139</v>
@@ -13345,7 +13345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B77" s="60">
         <f t="shared" si="13"/>
         <v>45170</v>
@@ -13451,7 +13451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B78" s="60">
         <f t="shared" si="13"/>
         <v>45200</v>
@@ -13557,7 +13557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B79" s="60">
         <f t="shared" si="13"/>
         <v>45231</v>
@@ -13663,7 +13663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B80" s="60">
         <f t="shared" si="13"/>
         <v>45261</v>
@@ -13769,7 +13769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B81" s="60">
         <f t="shared" si="13"/>
         <v>45292</v>
@@ -13875,7 +13875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B82" s="60">
         <f t="shared" si="13"/>
         <v>45323</v>
@@ -13981,7 +13981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B83" s="60">
         <f t="shared" si="13"/>
         <v>45352</v>
@@ -14087,7 +14087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B84" s="60">
         <f t="shared" si="13"/>
         <v>45383</v>
@@ -14193,7 +14193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B85" s="60">
         <f t="shared" si="13"/>
         <v>45413</v>
@@ -14299,7 +14299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B86" s="60">
         <f t="shared" si="13"/>
         <v>45444</v>
@@ -14405,7 +14405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B87" s="60">
         <f t="shared" si="13"/>
         <v>45474</v>
@@ -14511,7 +14511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B88" s="60">
         <f t="shared" si="13"/>
         <v>45505</v>
@@ -14617,7 +14617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B89" s="60">
         <f t="shared" si="13"/>
         <v>45536</v>
@@ -14723,7 +14723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B90" s="60">
         <f t="shared" si="13"/>
         <v>45566</v>
@@ -14829,7 +14829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B91" s="60">
         <f t="shared" si="13"/>
         <v>45597</v>
@@ -14935,7 +14935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B92" s="60">
         <f t="shared" si="13"/>
         <v>45627</v>
@@ -15041,7 +15041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B93" s="60">
         <f t="shared" si="13"/>
         <v>45658</v>
@@ -15147,7 +15147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B94" s="60">
         <f t="shared" si="13"/>
         <v>45689</v>
@@ -15282,19 +15282,19 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.81640625" customWidth="1"/>
-    <col min="2" max="2" width="5.81640625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="46.81640625" customWidth="1"/>
-    <col min="4" max="8" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" customWidth="1"/>
+    <col min="4" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="15" width="18" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>105</v>
       </c>
@@ -15326,12 +15326,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>1</v>
       </c>
@@ -15356,7 +15356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -15372,7 +15372,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>86</v>
       </c>
@@ -15406,7 +15406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>87</v>
       </c>
@@ -15441,7 +15441,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>88</v>
       </c>
@@ -15476,7 +15476,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>90</v>
       </c>
@@ -15511,7 +15511,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C10" s="78" t="s">
         <v>94</v>
       </c>
@@ -15536,7 +15536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C11" s="78" t="s">
         <v>95</v>
       </c>
@@ -15561,19 +15561,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C14" s="15" t="s">
         <v>2</v>
       </c>
@@ -15598,7 +15598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C15" s="17" t="s">
         <v>20</v>
       </c>
@@ -15623,7 +15623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C16" s="17" t="s">
         <v>8</v>
       </c>
@@ -15648,7 +15648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C17" s="17" t="s">
         <v>21</v>
       </c>
@@ -15673,7 +15673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C18" s="17" t="s">
         <v>9</v>
       </c>
@@ -15698,7 +15698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C19" s="17" t="s">
         <v>10</v>
       </c>
@@ -15723,7 +15723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C20" s="17" t="s">
         <v>77</v>
       </c>
@@ -15748,32 +15748,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C21" s="17" t="s">
         <v>154</v>
       </c>
       <c r="D21" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!D22="Y",Inputs!D$24="Y"), Prices!$C16, 0)</f>
+        <f xml:space="preserve"> IF(Inputs!D22="Y",Prices!$C16, 0)</f>
         <v>0</v>
       </c>
       <c r="E21" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!E22="Y",Inputs!E$24="Y"), Prices!$C16, 0)</f>
+        <f xml:space="preserve"> IF(Inputs!E22="Y",Prices!$C16, 0)</f>
         <v>0</v>
       </c>
       <c r="F21" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!F22="Y",Inputs!F$24="Y"), Prices!$C16, 0)</f>
+        <f xml:space="preserve"> IF(Inputs!F22="Y",Prices!$C16, 0)</f>
         <v>0</v>
       </c>
       <c r="G21" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!G22="Y",Inputs!G$24="Y"), Prices!$C16, 0)</f>
+        <f xml:space="preserve"> IF(Inputs!G22="Y",Prices!$C16, 0)</f>
         <v>0</v>
       </c>
       <c r="H21" s="18">
-        <f xml:space="preserve"> IF(OR(Inputs!H22="Y",Inputs!H$24="Y"), Prices!$C16, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+        <f xml:space="preserve"> IF(Inputs!H22="Y",Prices!$C16, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C22" s="19" t="s">
         <v>11</v>
       </c>
@@ -15798,7 +15798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C23" s="19" t="s">
         <v>149</v>
       </c>
@@ -15823,7 +15823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C24" s="19" t="s">
         <v>155</v>
       </c>
@@ -15848,12 +15848,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C27" s="15" t="s">
         <v>2</v>
       </c>
@@ -15878,7 +15878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C28" s="17" t="s">
         <v>20</v>
       </c>
@@ -15903,7 +15903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C29" s="17" t="s">
         <v>8</v>
       </c>
@@ -15928,7 +15928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C30" s="17" t="s">
         <v>21</v>
       </c>
@@ -15953,7 +15953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C31" s="17" t="s">
         <v>9</v>
       </c>
@@ -15978,7 +15978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C32" s="17" t="s">
         <v>10</v>
       </c>
@@ -16003,7 +16003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C33" s="17" t="s">
         <v>77</v>
       </c>
@@ -16028,32 +16028,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C34" s="17" t="s">
         <v>154</v>
       </c>
       <c r="D34" s="18">
-        <f>IF(OR(Inputs!D$7="Y", D$11 = 0), 0, IF(OR(Inputs!D22="Y",Inputs!D$24="Y"),PRODUCT(D$11, Prices!$E16),0))*D$10</f>
+        <f>IF(OR(Inputs!D$7="Y", D$11 = 0), 0, IF(Inputs!D22="Y",PRODUCT(D$11, Prices!$E16),0))*D$10</f>
         <v>0</v>
       </c>
       <c r="E34" s="18">
-        <f>IF(OR(Inputs!E$7="Y", E$11 = 0), 0, IF(OR(Inputs!E22="Y",Inputs!E$24="Y"),PRODUCT(E$11, Prices!$E16),0))*E$10</f>
+        <f>IF(OR(Inputs!E$7="Y", E$11 = 0), 0, IF(Inputs!E22="Y",PRODUCT(E$11, Prices!$E16),0))*E$10</f>
         <v>0</v>
       </c>
       <c r="F34" s="18">
-        <f>IF(OR(Inputs!F$7="Y", F$11 = 0), 0, IF(OR(Inputs!F22="Y",Inputs!F$24="Y"),PRODUCT(F$11, Prices!$E16),0))*F$10</f>
+        <f>IF(OR(Inputs!F$7="Y", F$11 = 0), 0, IF(Inputs!F22="Y",PRODUCT(F$11, Prices!$E16),0))*F$10</f>
         <v>0</v>
       </c>
       <c r="G34" s="18">
-        <f>IF(OR(Inputs!G$7="Y", G$11 = 0), 0, IF(OR(Inputs!G22="Y",Inputs!G$24="Y"),PRODUCT(G$11, Prices!$E16),0))*G$10</f>
+        <f>IF(OR(Inputs!G$7="Y", G$11 = 0), 0, IF(Inputs!G22="Y",PRODUCT(G$11, Prices!$E16),0))*G$10</f>
         <v>0</v>
       </c>
       <c r="H34" s="18">
-        <f>IF(OR(Inputs!H$7="Y", H$11 = 0), 0, IF(OR(Inputs!H22="Y",Inputs!H$24="Y"),PRODUCT(H$11, Prices!$E16),0))*H$10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
+        <f>IF(OR(Inputs!H$7="Y", H$11 = 0), 0, IF(Inputs!H22="Y",PRODUCT(H$11, Prices!$E16),0))*H$10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C35" s="19" t="s">
         <v>11</v>
       </c>
@@ -16078,7 +16078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C36" s="19" t="s">
         <v>149</v>
       </c>
@@ -16103,7 +16103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C37" s="28" t="s">
         <v>155</v>
       </c>
@@ -16123,19 +16123,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C40" s="15" t="s">
         <v>2</v>
       </c>
@@ -16160,7 +16160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C41" s="17" t="s">
         <v>20</v>
       </c>
@@ -16185,7 +16185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C42" s="17" t="s">
         <v>8</v>
       </c>
@@ -16210,7 +16210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C43" s="17" t="s">
         <v>21</v>
       </c>
@@ -16235,7 +16235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C44" s="17" t="s">
         <v>9</v>
       </c>
@@ -16260,7 +16260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C45" s="17" t="s">
         <v>10</v>
       </c>
@@ -16285,7 +16285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C46" s="17" t="s">
         <v>77</v>
       </c>
@@ -16310,32 +16310,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C47" s="17" t="s">
         <v>154</v>
       </c>
       <c r="D47" s="18">
-        <f>IF(AND(Inputs!D22="Y",Inputs!D$24="N"),Prices!$C16,0)</f>
+        <f>IF(Inputs!D22="Y",Prices!$C16,0)</f>
         <v>0</v>
       </c>
       <c r="E47" s="18">
-        <f>IF(AND(Inputs!E22="Y",Inputs!E$24="N"),Prices!$C16,0)</f>
+        <f>IF(Inputs!E22="Y",Prices!$C16,0)</f>
         <v>0</v>
       </c>
       <c r="F47" s="18">
-        <f>IF(AND(Inputs!F22="Y",Inputs!F$24="N"),Prices!$C16,0)</f>
+        <f>IF(Inputs!F22="Y",Prices!$C16,0)</f>
         <v>0</v>
       </c>
       <c r="G47" s="18">
-        <f>IF(AND(Inputs!G22="Y",Inputs!G$24="N"),Prices!$C16,0)</f>
+        <f>IF(Inputs!G22="Y",Prices!$C16,0)</f>
         <v>0</v>
       </c>
       <c r="H47" s="18">
-        <f>IF(AND(Inputs!H22="Y",Inputs!H$24="N"),Prices!$C16,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
+        <f>IF(Inputs!H22="Y",Prices!$C16,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C48" s="19" t="s">
         <v>11</v>
       </c>
@@ -16360,7 +16360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C49" s="19" t="s">
         <v>149</v>
       </c>
@@ -16385,7 +16385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C50" s="19" t="s">
         <v>155</v>
       </c>
@@ -16410,12 +16410,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C53" s="15" t="s">
         <v>2</v>
       </c>
@@ -16440,7 +16440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C54" s="17" t="s">
         <v>20</v>
       </c>
@@ -16465,7 +16465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C55" s="17" t="s">
         <v>8</v>
       </c>
@@ -16490,7 +16490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C56" s="17" t="s">
         <v>21</v>
       </c>
@@ -16515,7 +16515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C57" s="17" t="s">
         <v>9</v>
       </c>
@@ -16540,7 +16540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C58" s="17" t="s">
         <v>10</v>
       </c>
@@ -16565,7 +16565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C59" s="17" t="s">
         <v>77</v>
       </c>
@@ -16590,32 +16590,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C60" s="17" t="s">
         <v>154</v>
       </c>
       <c r="D60" s="18">
-        <f>IF(OR(Inputs!D$7="Y", D$11 = 0), 0, IF(AND(Inputs!D22="Y",Inputs!D$24="N"),PRODUCT(D$11, Prices!$E16)*D$10,0))</f>
+        <f>IF(OR(Inputs!D$7="Y", D$11 = 0), 0, IF(Inputs!D22="Y",PRODUCT(D$11, Prices!$E16)*D$10,0))</f>
         <v>0</v>
       </c>
       <c r="E60" s="18">
-        <f>IF(OR(Inputs!E$7="Y", E$11 = 0), 0, IF(AND(Inputs!E22="Y",Inputs!E$24="N"),PRODUCT(E$11, Prices!$E16)*E$10,0))</f>
+        <f>IF(OR(Inputs!E$7="Y", E$11 = 0), 0, IF(Inputs!E22="Y",PRODUCT(E$11, Prices!$E16)*E$10,0))</f>
         <v>0</v>
       </c>
       <c r="F60" s="18">
-        <f>IF(OR(Inputs!F$7="Y", F$11 = 0), 0, IF(AND(Inputs!F22="Y",Inputs!F$24="N"),PRODUCT(F$11, Prices!$E16)*F$10,0))</f>
+        <f>IF(OR(Inputs!F$7="Y", F$11 = 0), 0, IF(Inputs!F22="Y",PRODUCT(F$11, Prices!$E16)*F$10,0))</f>
         <v>0</v>
       </c>
       <c r="G60" s="18">
-        <f>IF(OR(Inputs!G$7="Y", G$11 = 0), 0, IF(AND(Inputs!G22="Y",Inputs!G$24="N"),PRODUCT(G$11, Prices!$E16)*G$10,0))</f>
+        <f>IF(OR(Inputs!G$7="Y", G$11 = 0), 0, IF(Inputs!G22="Y",PRODUCT(G$11, Prices!$E16)*G$10,0))</f>
         <v>0</v>
       </c>
       <c r="H60" s="18">
-        <f>IF(OR(Inputs!H$7="Y", H$11 = 0), 0, IF(AND(Inputs!H22="Y",Inputs!H$24="N"),PRODUCT(H$11, Prices!$E16)*H$10,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.35">
+        <f>IF(OR(Inputs!H$7="Y", H$11 = 0), 0, IF(Inputs!H22="Y",PRODUCT(H$11, Prices!$E16)*H$10,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C61" s="19" t="s">
         <v>11</v>
       </c>
@@ -16640,7 +16640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C62" s="19" t="s">
         <v>149</v>
       </c>
@@ -16665,7 +16665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C63" s="28" t="s">
         <v>155</v>
       </c>
@@ -16685,12 +16685,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B65" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C66" s="17" t="s">
         <v>13</v>
       </c>
@@ -16715,7 +16715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C67" s="17" t="s">
         <v>14</v>
       </c>
@@ -16740,7 +16740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C68" s="19" t="s">
         <v>15</v>
       </c>
@@ -16765,7 +16765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C69" s="19" t="s">
         <v>129</v>
       </c>
@@ -16790,7 +16790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C70" s="19" t="s">
         <v>16</v>
       </c>
@@ -16815,7 +16815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C71" s="19" t="s">
         <v>99</v>
       </c>
@@ -16840,7 +16840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C72" s="19" t="s">
         <v>150</v>
       </c>
@@ -16865,7 +16865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C73" s="19" t="s">
         <v>98</v>
       </c>
@@ -16890,7 +16890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C74" s="81" t="s">
         <v>96</v>
       </c>
@@ -16915,7 +16915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B76" s="6" t="s">
         <v>45</v>
       </c>
@@ -16923,7 +16923,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C77" s="28" t="s">
         <v>13</v>
       </c>
@@ -16966,7 +16966,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C78" s="17" t="s">
         <v>14</v>
       </c>
@@ -17015,7 +17015,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C79" s="19" t="s">
         <v>15</v>
       </c>
@@ -17064,7 +17064,7 @@
         <v>1.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C80" s="19" t="s">
         <v>129</v>
       </c>
@@ -17113,7 +17113,7 @@
         <v>1.3000000000000002E-3</v>
       </c>
     </row>
-    <row r="81" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C81" s="19" t="s">
         <v>16</v>
       </c>
@@ -17162,7 +17162,7 @@
         <v>1.4000000000000002E-3</v>
       </c>
     </row>
-    <row r="82" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C82" s="19" t="s">
         <v>99</v>
       </c>
@@ -17211,7 +17211,7 @@
         <v>1.5000000000000002E-3</v>
       </c>
     </row>
-    <row r="83" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C83" s="19" t="s">
         <v>150</v>
       </c>
@@ -17260,7 +17260,7 @@
         <v>1.6000000000000003E-3</v>
       </c>
     </row>
-    <row r="84" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C84" s="19" t="s">
         <v>98</v>
       </c>
@@ -17309,7 +17309,7 @@
         <v>1.7000000000000003E-3</v>
       </c>
     </row>
-    <row r="85" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C85" s="81" t="s">
         <v>96</v>
       </c>
@@ -17358,19 +17358,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
     </row>
-    <row r="87" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B87" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C88" s="17" t="s">
         <v>13</v>
       </c>
@@ -17415,20 +17415,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C89" s="17" t="s">
         <v>14</v>
       </c>
       <c r="D89" s="18">
-        <f>IF(D67=0,0,D67-SUM(D15:D21))</f>
+        <f>IF(D67=0,0,D67-SUM(D15:D20))</f>
         <v>0</v>
       </c>
       <c r="E89" s="18">
-        <f t="shared" ref="E89:H89" si="10">IF(E67=0,0,E67-SUM(E15:E21))</f>
+        <f t="shared" ref="E89:H89" si="10">IF(E67=0,0,E67-SUM(E15:E20))</f>
         <v>0</v>
       </c>
       <c r="F89" s="18">
-        <f>IF(F67=0,0,F67-SUM(F15:F21))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G89" s="18">
@@ -17460,7 +17460,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C90" s="19" t="s">
         <v>15</v>
       </c>
@@ -17505,7 +17505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C91" s="19" t="s">
         <v>129</v>
       </c>
@@ -17550,7 +17550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C92" s="19" t="s">
         <v>16</v>
       </c>
@@ -17595,7 +17595,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C93" s="19" t="s">
         <v>99</v>
       </c>
@@ -17640,7 +17640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C94" s="19" t="s">
         <v>150</v>
       </c>
@@ -17685,7 +17685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C95" s="19" t="s">
         <v>98</v>
       </c>
@@ -17730,7 +17730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C96" s="81" t="s">
         <v>96</v>
       </c>
@@ -17775,12 +17775,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B98" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C99" s="28" t="s">
         <v>13</v>
       </c>
@@ -17800,20 +17800,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C100" s="17" t="s">
         <v>14</v>
       </c>
       <c r="D100" s="18">
-        <f>IF(D78=0,0,D78-SUM(D28:D34))</f>
+        <f>IF(D78=0,0,D78-SUM(D28:D33))</f>
         <v>0</v>
       </c>
       <c r="E100" s="18">
-        <f t="shared" ref="E100:H100" si="22">IF(E78=0,0,E78-SUM(E28:E34))</f>
+        <f t="shared" ref="E100:H100" si="22">IF(E78=0,0,E78-SUM(E28:E33))</f>
         <v>0</v>
       </c>
       <c r="F100" s="18">
-        <f>IF(F78=0,0,F78-SUM(F28:F34))</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G100" s="18">
@@ -17825,7 +17825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C101" s="19" t="s">
         <v>15</v>
       </c>
@@ -17850,7 +17850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C102" s="19" t="s">
         <v>129</v>
       </c>
@@ -17875,7 +17875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C103" s="19" t="s">
         <v>16</v>
       </c>
@@ -17900,7 +17900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C104" s="19" t="s">
         <v>99</v>
       </c>
@@ -17925,7 +17925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C105" s="19" t="s">
         <v>150</v>
       </c>
@@ -17950,7 +17950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C106" s="19" t="s">
         <v>98</v>
       </c>
@@ -17975,7 +17975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C107" s="81" t="s">
         <v>96</v>
       </c>
@@ -18000,12 +18000,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B109" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="88">
         <v>2</v>
       </c>
@@ -18033,7 +18033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="88">
         <v>3</v>
       </c>
@@ -18061,7 +18061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="88">
         <v>4</v>
       </c>
@@ -18089,7 +18089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="88">
         <v>5</v>
       </c>
@@ -18117,7 +18117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="88">
         <v>6</v>
       </c>
@@ -18145,7 +18145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="88">
         <v>7</v>
       </c>
@@ -18173,7 +18173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="88">
         <v>8</v>
       </c>
@@ -18201,7 +18201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B118" s="6" t="s">
         <v>112</v>
       </c>
@@ -18226,10 +18226,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D119" s="1"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B120" s="6" t="s">
         <v>42</v>
       </c>
@@ -18254,14 +18254,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B122" s="6" t="s">
         <v>82</v>
       </c>
@@ -18282,7 +18282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B124" s="6" t="s">
         <v>113</v>
       </c>
@@ -18307,7 +18307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B127" s="27"/>
       <c r="C127" s="21" t="s">
         <v>114</v>
@@ -18333,7 +18333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B128" s="27"/>
       <c r="D128" s="21">
         <v>0.1</v>
@@ -18351,7 +18351,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="129" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B129" s="27"/>
       <c r="D129" s="21">
         <f>SUM(D127:D128)</f>
@@ -18374,7 +18374,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="130" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B130" s="27"/>
       <c r="D130" s="21">
         <f>_xlfn.RANK.EQ(D129, $D$129:$H$129, 5)</f>
@@ -18397,16 +18397,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B131" s="27"/>
     </row>
-    <row r="132" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B132" s="27"/>
       <c r="C132" s="21" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="133" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B133" s="27"/>
       <c r="D133" s="21" t="s">
         <v>116</v>
@@ -18416,7 +18416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B134" s="27"/>
       <c r="D134" s="21" t="s">
         <v>117</v>
@@ -18426,7 +18426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B135" s="27"/>
       <c r="D135" s="21" t="s">
         <v>118</v>
@@ -18436,7 +18436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B136" s="27"/>
       <c r="D136" s="21" t="s">
         <v>119</v>
@@ -18446,7 +18446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F140" s="2"/>
     </row>
   </sheetData>
@@ -18459,24 +18459,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.54296875" customWidth="1"/>
-    <col min="2" max="2" width="47.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="47.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="13.453125" customWidth="1"/>
-    <col min="9" max="10" width="4.1796875" customWidth="1"/>
-    <col min="11" max="11" width="38.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.54296875" customWidth="1"/>
+    <col min="6" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="10" width="4.140625" customWidth="1"/>
+    <col min="11" max="11" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C2" s="48" t="s">
         <v>5</v>
       </c>
@@ -18484,7 +18482,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>111</v>
       </c>
@@ -18502,7 +18500,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>18</v>
       </c>
@@ -18531,7 +18529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E5" s="48" t="s">
         <v>83</v>
       </c>
@@ -18551,7 +18549,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
         <v>19</v>
       </c>
@@ -18586,14 +18584,14 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C8" s="43"/>
       <c r="D8" s="39"/>
       <c r="K8" s="6" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C9" s="46" t="s">
         <v>27</v>
       </c>
@@ -18608,7 +18606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="17" t="s">
         <v>20</v>
       </c>
@@ -18639,7 +18637,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="17" t="s">
         <v>8</v>
       </c>
@@ -18670,7 +18668,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="17" t="s">
         <v>21</v>
       </c>
@@ -18695,7 +18693,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="17" t="s">
         <v>9</v>
       </c>
@@ -18721,7 +18719,7 @@
       </c>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="17" t="s">
         <v>10</v>
       </c>
@@ -18752,7 +18750,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="17" t="s">
         <v>77</v>
       </c>
@@ -18783,7 +18781,7 @@
         <v>43466</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="17" t="s">
         <v>154</v>
       </c>
@@ -18810,7 +18808,7 @@
       <c r="K16" s="4"/>
       <c r="L16" s="54"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="19" t="s">
         <v>11</v>
       </c>
@@ -18837,7 +18835,7 @@
       <c r="K17" s="4"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="19" t="s">
         <v>149</v>
       </c>
@@ -18862,7 +18860,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="19" t="s">
         <v>155</v>
       </c>
@@ -18893,14 +18891,14 @@
         <v>3525</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C20" s="43"/>
       <c r="E20" s="39"/>
       <c r="F20" s="39"/>
       <c r="G20" s="39"/>
       <c r="H20" s="39"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="17" t="s">
         <v>13</v>
       </c>
@@ -18931,7 +18929,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="17" t="s">
         <v>14</v>
       </c>
@@ -18956,7 +18954,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="19" t="s">
         <v>15</v>
       </c>
@@ -18981,7 +18979,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="19" t="s">
         <v>129</v>
       </c>
@@ -19006,7 +19004,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="19" t="s">
         <v>16</v>
       </c>
@@ -19038,7 +19036,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="19" t="s">
         <v>99</v>
       </c>
@@ -19063,7 +19061,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="19" t="s">
         <v>150</v>
       </c>
@@ -19088,7 +19086,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="19" t="s">
         <v>98</v>
       </c>
@@ -19120,7 +19118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" s="81" t="s">
         <v>96</v>
       </c>
@@ -19145,7 +19143,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="K30" t="s">
         <v>133</v>
       </c>
@@ -19165,18 +19163,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>134</v>
       </c>
@@ -19208,7 +19208,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -19245,7 +19245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>50000</v>
       </c>
@@ -19276,7 +19276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>100000</v>
       </c>
@@ -19313,7 +19313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>300000</v>
       </c>
@@ -19350,7 +19350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>500000</v>
       </c>
@@ -19387,7 +19387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>1000000</v>
       </c>
@@ -19418,7 +19418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>2000000</v>
       </c>
@@ -19449,7 +19449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H10" s="106">
         <f t="shared" ref="H10:H16" si="0">H2*$C2</f>
         <v>5000</v>
@@ -19471,7 +19471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H11" s="106">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -19498,7 +19498,7 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H12" s="106">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -19520,7 +19520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H13" s="106">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -19542,7 +19542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H14" s="106">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -19564,7 +19564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E15" s="2"/>
       <c r="F15" s="103"/>
       <c r="H15" s="106">
@@ -19588,7 +19588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E16" s="2"/>
       <c r="F16" s="103"/>
       <c r="H16" s="106">
@@ -19612,15 +19612,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E17" s="2"/>
       <c r="F17" s="103"/>
     </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E18" s="2"/>
       <c r="F18" s="103"/>
     </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E19" s="2"/>
       <c r="F19" s="103"/>
       <c r="H19" s="6" t="s">
@@ -19639,7 +19639,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E20" s="2"/>
       <c r="F20" s="103"/>
       <c r="G20" t="s">
@@ -19666,7 +19666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E21" s="2"/>
       <c r="F21" s="103"/>
       <c r="G21" t="s">

--- a/0273NYP - New York Premier/Premier_Pricing_Model.xlsx
+++ b/0273NYP - New York Premier/Premier_Pricing_Model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shea.parkes\repos\client-and-project-documentation\0273NYP - New York Premier\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason.altieri\repos\client-and-project-documentation\0273NYP - New York Premier\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1317,7 +1317,7 @@
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1335,7 +1335,7 @@
         <v>58</v>
       </c>
       <c r="C1" s="70">
-        <v>43101</v>
+        <v>43647</v>
       </c>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
@@ -1351,7 +1351,7 @@
         <v>122</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
@@ -1359,7 +1359,7 @@
         <v>156</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
@@ -1840,7 +1840,7 @@
       </c>
       <c r="D7" s="16">
         <f>SUM(Calcs!D40, Calcs!D53)</f>
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="E7" s="16">
         <f>SUM(Calcs!E40, Calcs!E53)</f>
@@ -2198,7 +2198,7 @@
       </c>
       <c r="D19" s="1">
         <f>SUM(Calcs!D66, Calcs!D77)</f>
-        <v>8500</v>
+        <v>10200</v>
       </c>
       <c r="E19" s="1">
         <f>SUM(Calcs!E66, Calcs!E77)</f>
@@ -2268,7 +2268,7 @@
       </c>
       <c r="D21" s="1">
         <f>SUM(Calcs!D68, Calcs!D79)</f>
-        <v>35000</v>
+        <v>42000</v>
       </c>
       <c r="E21" s="1">
         <f>SUM(Calcs!E68, Calcs!E79)</f>
@@ -2518,7 +2518,7 @@
       </c>
       <c r="D30" s="1">
         <f>SUM(Calcs!D110:D114)</f>
-        <v>-2550</v>
+        <v>-3060</v>
       </c>
       <c r="E30" s="1">
         <f>SUM(Calcs!E110:E114)</f>
@@ -2619,7 +2619,7 @@
       </c>
       <c r="D34" s="7">
         <f>SUM(D7:D16, D19:D27, D30:D32)</f>
-        <v>55950</v>
+        <v>67140</v>
       </c>
       <c r="E34" s="7">
         <f>SUM(E7:E16, E19:E27, E30:E31)</f>
@@ -2682,7 +2682,7 @@
     <row r="37" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C37" s="64">
         <f>INDEX(Outputs_Timeline!$D$3:$D$94,MATCH(Inputs!$C$1,Outputs_Timeline!$B$3:$B$94,0),1)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.25">
@@ -2755,7 +2755,7 @@
       </c>
       <c r="D43" s="7">
         <f>(D34/12*Inputs!$C$2+D4)*$C$37+D41</f>
-        <v>172850</v>
+        <v>209000.25</v>
       </c>
       <c r="E43" s="7">
         <f>(E34/12*Inputs!$C$2+E4)*$C$37+E41</f>
@@ -2803,13 +2803,13 @@
     <row r="47" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C47" s="7">
         <f>SUM(Outputs_Timeline!W:W)</f>
-        <v>172850</v>
+        <v>209000.25</v>
       </c>
     </row>
     <row r="48" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C48" s="52">
         <f>SUM(D43:H43)</f>
-        <v>172850</v>
+        <v>209000.25</v>
       </c>
       <c r="D48" s="1"/>
       <c r="G48" s="1"/>
@@ -3042,7 +3042,7 @@
       </c>
       <c r="D10" s="16">
         <f>SUM(Calcs!D14:H14)</f>
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="75">
@@ -3060,11 +3060,11 @@
       </c>
       <c r="K10" s="16">
         <f>(IF(Inputs!C5="New York",$H$7,-$H$7)+F10)*$D10</f>
-        <v>7125.0000000000009</v>
+        <v>8550</v>
       </c>
       <c r="L10" s="100">
         <f>(IF(Inputs!C5="New York",-$H$7,$H$7)+G10)*D10</f>
-        <v>7875</v>
+        <v>9450</v>
       </c>
       <c r="M10" s="16">
         <f t="shared" ref="M10:N20" si="2">H10*$D10</f>
@@ -3348,7 +3348,7 @@
       </c>
       <c r="D18" s="20">
         <f>SUM(Calcs!D22:H22)</f>
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="F18" s="33">
         <v>0.1</v>
@@ -3365,11 +3365,11 @@
       </c>
       <c r="K18" s="20">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="L18" s="20">
         <f t="shared" si="4"/>
-        <v>9000</v>
+        <v>10800</v>
       </c>
       <c r="M18" s="20">
         <f t="shared" si="2"/>
@@ -3386,7 +3386,7 @@
       </c>
       <c r="D19" s="20">
         <f>SUM(Calcs!D23:H23)</f>
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="F19" s="33">
         <v>0.1</v>
@@ -3403,11 +3403,11 @@
       </c>
       <c r="K19" s="20">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="L19" s="20">
         <f t="shared" si="4"/>
-        <v>9000</v>
+        <v>10800</v>
       </c>
       <c r="M19" s="20">
         <f t="shared" si="2"/>
@@ -3424,7 +3424,7 @@
       </c>
       <c r="D20" s="20">
         <f>SUM(Calcs!D24:H24)</f>
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="F20" s="33">
         <v>0.1</v>
@@ -3441,11 +3441,11 @@
       </c>
       <c r="K20" s="20">
         <f t="shared" si="3"/>
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="L20" s="20">
         <f>G20*$D20</f>
-        <v>1350</v>
+        <v>1620</v>
       </c>
       <c r="M20" s="20">
         <f t="shared" si="2"/>
@@ -3979,7 +3979,7 @@
       </c>
       <c r="D38" s="18">
         <f>SUM(Calcs!D88:H88)</f>
-        <v>8500</v>
+        <v>10200</v>
       </c>
       <c r="F38" s="32">
         <v>0.9</v>
@@ -3996,11 +3996,11 @@
       </c>
       <c r="K38" s="18">
         <f t="shared" ref="K38:N46" si="23">F38*$D38</f>
-        <v>7650</v>
+        <v>9180</v>
       </c>
       <c r="L38" s="18">
         <f t="shared" si="23"/>
-        <v>850</v>
+        <v>1020</v>
       </c>
       <c r="M38" s="18">
         <f t="shared" si="23"/>
@@ -4055,7 +4055,7 @@
       </c>
       <c r="D40" s="20">
         <f>SUM(Calcs!D90:H90)</f>
-        <v>13500</v>
+        <v>16200</v>
       </c>
       <c r="F40" s="33">
         <v>0.1</v>
@@ -4072,11 +4072,11 @@
       </c>
       <c r="K40" s="20">
         <f t="shared" si="23"/>
-        <v>1350</v>
+        <v>1620</v>
       </c>
       <c r="L40" s="20">
         <f t="shared" si="23"/>
-        <v>12150</v>
+        <v>14580</v>
       </c>
       <c r="M40" s="20">
         <f t="shared" si="23"/>
@@ -4710,7 +4710,7 @@
       </c>
       <c r="D60" s="1">
         <f>SUM(Outputs_External!D30:'Outputs_External'!H30)</f>
-        <v>-2550</v>
+        <v>-3060</v>
       </c>
       <c r="F60" s="8">
         <f>IFERROR(SUM(K74:K82)/SUM($K$74:$N$82), 0)</f>
@@ -4730,11 +4730,11 @@
       </c>
       <c r="K60" s="12">
         <f>F60*$D$60</f>
-        <v>-653.62068965517233</v>
+        <v>-784.34482758620686</v>
       </c>
       <c r="L60" s="12">
         <f>G60*$D$60</f>
-        <v>-1896.3793103448274</v>
+        <v>-2275.655172413793</v>
       </c>
       <c r="M60" s="12">
         <f>H60*$D$60</f>
@@ -4834,15 +4834,15 @@
       </c>
       <c r="D64" s="1">
         <f>SUM(Outputs_External!D34:'Outputs_External'!H34)</f>
-        <v>55950</v>
+        <v>67140</v>
       </c>
       <c r="K64" s="12">
         <f>SUM(K60:K62, K38:K46, K10:K20,K25:K35,K49:K57)</f>
-        <v>17621.37931034483</v>
+        <v>21145.655172413793</v>
       </c>
       <c r="L64" s="12">
         <f>SUM(L60:L62, L38:L46, L10:L20,L25:L35,L49:L57)</f>
-        <v>38328.620689655174</v>
+        <v>45994.344827586203</v>
       </c>
       <c r="M64" s="12">
         <f>SUM(M60:M62, M38:M46, M10:M20,M25:M35,M49:M57)</f>
@@ -4859,7 +4859,7 @@
       </c>
       <c r="D65" s="23">
         <f>SUM(K64:N64)</f>
-        <v>55950</v>
+        <v>67140</v>
       </c>
       <c r="K65" s="12"/>
       <c r="L65" s="12"/>
@@ -4924,15 +4924,15 @@
       </c>
       <c r="D69" s="7">
         <f>SUM(Outputs_Timeline!W:W)</f>
-        <v>172850</v>
+        <v>209000.25</v>
       </c>
       <c r="K69" s="12">
         <f>SUM(Outputs_Timeline!X:X)</f>
-        <v>55364.1379310345</v>
+        <v>66761.17758620689</v>
       </c>
       <c r="L69" s="12">
         <f>SUM(Outputs_Timeline!Y:Y)</f>
-        <v>117485.86206896555</v>
+        <v>142239.07241379312</v>
       </c>
       <c r="M69" s="12">
         <f>SUM(Outputs_Timeline!Z:Z)</f>
@@ -4947,11 +4947,11 @@
       <c r="D70" s="1"/>
       <c r="K70" s="53">
         <f>IFERROR(K69/$D$69, 0)</f>
-        <v>0.32030163685874746</v>
+        <v>0.31943108960973438</v>
       </c>
       <c r="L70" s="53">
         <f>IFERROR(L69/$D$69, 0)</f>
-        <v>0.67969836314125287</v>
+        <v>0.68056891039026568</v>
       </c>
       <c r="M70" s="53">
         <f>IFERROR(M69/$D$69, 0)</f>
@@ -4990,7 +4990,7 @@
       </c>
       <c r="D74" s="23">
         <f>SUM(Calcs!D66:H66)+SUM(Calcs!D77:H77)</f>
-        <v>8500</v>
+        <v>10200</v>
       </c>
       <c r="E74" s="21"/>
       <c r="F74" s="24">
@@ -5012,11 +5012,11 @@
       <c r="J74" s="21"/>
       <c r="K74" s="25">
         <f t="shared" ref="K74:N76" si="74">F74*$D74</f>
-        <v>7650</v>
+        <v>9180</v>
       </c>
       <c r="L74" s="25">
         <f t="shared" si="74"/>
-        <v>850</v>
+        <v>1020</v>
       </c>
       <c r="M74" s="25">
         <f t="shared" si="74"/>
@@ -5078,7 +5078,7 @@
       </c>
       <c r="D76" s="23">
         <f>SUM(Calcs!D68:H68)+SUM(Calcs!D79:H79)</f>
-        <v>35000</v>
+        <v>42000</v>
       </c>
       <c r="E76" s="21"/>
       <c r="F76" s="24">
@@ -5100,11 +5100,11 @@
       <c r="J76" s="21"/>
       <c r="K76" s="25">
         <f t="shared" si="74"/>
-        <v>3500</v>
+        <v>4200</v>
       </c>
       <c r="L76" s="25">
         <f t="shared" si="74"/>
-        <v>31500</v>
+        <v>37800</v>
       </c>
       <c r="M76" s="25">
         <f t="shared" si="74"/>
@@ -6152,23 +6152,23 @@
       </c>
       <c r="F9" s="64">
         <f>IF(AND(B9&gt;=Inputs!$C$1,B9&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E9,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="64">
         <f>IF(AND(B9&gt;=Inputs!$C$1,B9&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B9,"Y")+1, 0),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="63">
         <f>IF($B9=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D9</f>
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="63">
         <f>IF($B9=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D9</f>
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="K9" s="63">
         <f>IF($B9=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D9</f>
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="L9" s="63">
         <f>IF($B9=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D9</f>
@@ -6180,15 +6180,15 @@
       </c>
       <c r="P9" s="63">
         <f>$F9*Outputs_Internal!$D$64/12+N9</f>
-        <v>4662.5</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="63">
         <f>$F9*Outputs_Internal!K$64/12+N9*'MARA Prices'!$F$5</f>
-        <v>1468.4482758620691</v>
+        <v>0</v>
       </c>
       <c r="R9" s="63">
         <f>$F9*Outputs_Internal!L$64/12+N9*'MARA Prices'!$F$6</f>
-        <v>3194.0517241379312</v>
+        <v>0</v>
       </c>
       <c r="S9" s="63">
         <f>N9*'MARA Prices'!$F$4</f>
@@ -6258,11 +6258,11 @@
       </c>
       <c r="F10" s="64">
         <f>IF(AND(B10&gt;=Inputs!$C$1,B10&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E10,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="64">
         <f>IF(AND(B10&gt;=Inputs!$C$1,B10&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B10,"Y")+1, 0),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="63">
         <f>IF($B10=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D10</f>
@@ -6286,15 +6286,15 @@
       </c>
       <c r="P10" s="63">
         <f>$F10*Outputs_Internal!$D$64/12+N10</f>
-        <v>4662.5</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="63">
         <f>$F10*Outputs_Internal!K$64/12+N10*'MARA Prices'!$F$5</f>
-        <v>1468.4482758620691</v>
+        <v>0</v>
       </c>
       <c r="R10" s="63">
         <f>$F10*Outputs_Internal!L$64/12+N10*'MARA Prices'!$F$6</f>
-        <v>3194.0517241379312</v>
+        <v>0</v>
       </c>
       <c r="S10" s="63">
         <f>N10*'MARA Prices'!$F$4</f>
@@ -6364,11 +6364,11 @@
       </c>
       <c r="F11" s="64">
         <f>IF(AND(B11&gt;=Inputs!$C$1,B11&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E11,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="64">
         <f>IF(AND(B11&gt;=Inputs!$C$1,B11&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B11,"Y")+1, 0),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="63">
         <f>IF($B11=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D11</f>
@@ -6392,15 +6392,15 @@
       </c>
       <c r="P11" s="63">
         <f>$F11*Outputs_Internal!$D$64/12+N11</f>
-        <v>4662.5</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="63">
         <f>$F11*Outputs_Internal!K$64/12+N11*'MARA Prices'!$F$5</f>
-        <v>1468.4482758620691</v>
+        <v>0</v>
       </c>
       <c r="R11" s="63">
         <f>$F11*Outputs_Internal!L$64/12+N11*'MARA Prices'!$F$6</f>
-        <v>3194.0517241379312</v>
+        <v>0</v>
       </c>
       <c r="S11" s="63">
         <f>N11*'MARA Prices'!$F$4</f>
@@ -6416,15 +6416,15 @@
       </c>
       <c r="W11" s="63">
         <f t="shared" si="2"/>
-        <v>18987.5</v>
+        <v>0</v>
       </c>
       <c r="X11" s="63">
         <f t="shared" si="3"/>
-        <v>6905.3448275862065</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="63">
         <f t="shared" si="4"/>
-        <v>12082.155172413793</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="63">
         <f t="shared" si="5"/>
@@ -6470,11 +6470,11 @@
       </c>
       <c r="F12" s="64">
         <f>IF(AND(B12&gt;=Inputs!$C$1,B12&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E12,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="64">
         <f>IF(AND(B12&gt;=Inputs!$C$1,B12&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B12,"Y")+1, 0),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="63">
         <f>IF($B12=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D12</f>
@@ -6498,15 +6498,15 @@
       </c>
       <c r="P12" s="63">
         <f>$F12*Outputs_Internal!$D$64/12+N12</f>
-        <v>4662.5</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="63">
         <f>$F12*Outputs_Internal!K$64/12+N12*'MARA Prices'!$F$5</f>
-        <v>1468.4482758620691</v>
+        <v>0</v>
       </c>
       <c r="R12" s="63">
         <f>$F12*Outputs_Internal!L$64/12+N12*'MARA Prices'!$F$6</f>
-        <v>3194.0517241379312</v>
+        <v>0</v>
       </c>
       <c r="S12" s="63">
         <f>N12*'MARA Prices'!$F$4</f>
@@ -6576,11 +6576,11 @@
       </c>
       <c r="F13" s="64">
         <f>IF(AND(B13&gt;=Inputs!$C$1,B13&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E13,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="64">
         <f>IF(AND(B13&gt;=Inputs!$C$1,B13&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B13,"Y")+1, 0),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="63">
         <f>IF($B13=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D13</f>
@@ -6604,15 +6604,15 @@
       </c>
       <c r="P13" s="63">
         <f>$F13*Outputs_Internal!$D$64/12+N13</f>
-        <v>4662.5</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="63">
         <f>$F13*Outputs_Internal!K$64/12+N13*'MARA Prices'!$F$5</f>
-        <v>1468.4482758620691</v>
+        <v>0</v>
       </c>
       <c r="R13" s="63">
         <f>$F13*Outputs_Internal!L$64/12+N13*'MARA Prices'!$F$6</f>
-        <v>3194.0517241379312</v>
+        <v>0</v>
       </c>
       <c r="S13" s="63">
         <f>N13*'MARA Prices'!$F$4</f>
@@ -6682,11 +6682,11 @@
       </c>
       <c r="F14" s="64">
         <f>IF(AND(B14&gt;=Inputs!$C$1,B14&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E14,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="64">
         <f>IF(AND(B14&gt;=Inputs!$C$1,B14&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B14,"Y")+1, 0),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="63">
         <f>IF($B14=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D14</f>
@@ -6710,15 +6710,15 @@
       </c>
       <c r="P14" s="63">
         <f>$F14*Outputs_Internal!$D$64/12+N14</f>
-        <v>4662.5</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="63">
         <f>$F14*Outputs_Internal!K$64/12+N14*'MARA Prices'!$F$5</f>
-        <v>1468.4482758620691</v>
+        <v>0</v>
       </c>
       <c r="R14" s="63">
         <f>$F14*Outputs_Internal!L$64/12+N14*'MARA Prices'!$F$6</f>
-        <v>3194.0517241379312</v>
+        <v>0</v>
       </c>
       <c r="S14" s="63">
         <f>N14*'MARA Prices'!$F$4</f>
@@ -6734,15 +6734,15 @@
       </c>
       <c r="W14" s="63">
         <f t="shared" si="2"/>
-        <v>13987.5</v>
+        <v>0</v>
       </c>
       <c r="X14" s="63">
         <f t="shared" si="3"/>
-        <v>4405.3448275862074</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="63">
         <f t="shared" si="4"/>
-        <v>9582.1551724137935</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="63">
         <f t="shared" si="5"/>
@@ -6788,11 +6788,11 @@
       </c>
       <c r="F15" s="64">
         <f>IF(AND(B15&gt;=Inputs!$C$1,B15&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E15,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="64">
         <f>IF(AND(B15&gt;=Inputs!$C$1,B15&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B15,"Y")+1, 0),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="63">
         <f>IF($B15=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D15</f>
@@ -6816,15 +6816,15 @@
       </c>
       <c r="P15" s="63">
         <f>$F15*Outputs_Internal!$D$64/12+N15</f>
-        <v>4662.5</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="63">
         <f>$F15*Outputs_Internal!K$64/12+N15*'MARA Prices'!$F$5</f>
-        <v>1468.4482758620691</v>
+        <v>0</v>
       </c>
       <c r="R15" s="63">
         <f>$F15*Outputs_Internal!L$64/12+N15*'MARA Prices'!$F$6</f>
-        <v>3194.0517241379312</v>
+        <v>0</v>
       </c>
       <c r="S15" s="63">
         <f>N15*'MARA Prices'!$F$4</f>
@@ -6894,11 +6894,11 @@
       </c>
       <c r="F16" s="64">
         <f>IF(AND(B16&gt;=Inputs!$C$1,B16&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E16,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="64">
         <f>IF(AND(B16&gt;=Inputs!$C$1,B16&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B16,"Y")+1, 0),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="63">
         <f>IF($B16=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D16</f>
@@ -6922,15 +6922,15 @@
       </c>
       <c r="P16" s="63">
         <f>$F16*Outputs_Internal!$D$64/12+N16</f>
-        <v>4662.5</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="63">
         <f>$F16*Outputs_Internal!K$64/12+N16*'MARA Prices'!$F$5</f>
-        <v>1468.4482758620691</v>
+        <v>0</v>
       </c>
       <c r="R16" s="63">
         <f>$F16*Outputs_Internal!L$64/12+N16*'MARA Prices'!$F$6</f>
-        <v>3194.0517241379312</v>
+        <v>0</v>
       </c>
       <c r="S16" s="63">
         <f>N16*'MARA Prices'!$F$4</f>
@@ -7000,11 +7000,11 @@
       </c>
       <c r="F17" s="64">
         <f>IF(AND(B17&gt;=Inputs!$C$1,B17&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E17,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" s="64">
         <f>IF(AND(B17&gt;=Inputs!$C$1,B17&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B17,"Y")+1, 0),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="63">
         <f>IF($B17=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D17</f>
@@ -7028,15 +7028,15 @@
       </c>
       <c r="P17" s="63">
         <f>$F17*Outputs_Internal!$D$64/12+N17</f>
-        <v>4662.5</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="63">
         <f>$F17*Outputs_Internal!K$64/12+N17*'MARA Prices'!$F$5</f>
-        <v>1468.4482758620691</v>
+        <v>0</v>
       </c>
       <c r="R17" s="63">
         <f>$F17*Outputs_Internal!L$64/12+N17*'MARA Prices'!$F$6</f>
-        <v>3194.0517241379312</v>
+        <v>0</v>
       </c>
       <c r="S17" s="63">
         <f>N17*'MARA Prices'!$F$4</f>
@@ -7052,15 +7052,15 @@
       </c>
       <c r="W17" s="63">
         <f t="shared" si="2"/>
-        <v>13987.5</v>
+        <v>0</v>
       </c>
       <c r="X17" s="63">
         <f t="shared" si="3"/>
-        <v>4405.3448275862074</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="63">
         <f t="shared" si="4"/>
-        <v>9582.1551724137935</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="63">
         <f t="shared" si="5"/>
@@ -7106,11 +7106,11 @@
       </c>
       <c r="F18" s="64">
         <f>IF(AND(B18&gt;=Inputs!$C$1,B18&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E18,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" s="64">
         <f>IF(AND(B18&gt;=Inputs!$C$1,B18&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B18,"Y")+1, 0),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" s="63">
         <f>IF($B18=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D18</f>
@@ -7134,15 +7134,15 @@
       </c>
       <c r="P18" s="63">
         <f>$F18*Outputs_Internal!$D$64/12+N18</f>
-        <v>4662.5</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="63">
         <f>$F18*Outputs_Internal!K$64/12+N18*'MARA Prices'!$F$5</f>
-        <v>1468.4482758620691</v>
+        <v>0</v>
       </c>
       <c r="R18" s="63">
         <f>$F18*Outputs_Internal!L$64/12+N18*'MARA Prices'!$F$6</f>
-        <v>3194.0517241379312</v>
+        <v>0</v>
       </c>
       <c r="S18" s="63">
         <f>N18*'MARA Prices'!$F$4</f>
@@ -7212,11 +7212,11 @@
       </c>
       <c r="F19" s="64">
         <f>IF(AND(B19&gt;=Inputs!$C$1,B19&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E19,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" s="64">
         <f>IF(AND(B19&gt;=Inputs!$C$1,B19&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B19,"Y")+1, 0),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" s="63">
         <f>IF($B19=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D19</f>
@@ -7240,15 +7240,15 @@
       </c>
       <c r="P19" s="63">
         <f>$F19*Outputs_Internal!$D$64/12+N19</f>
-        <v>4662.5</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="63">
         <f>$F19*Outputs_Internal!K$64/12+N19*'MARA Prices'!$F$5</f>
-        <v>1468.4482758620691</v>
+        <v>0</v>
       </c>
       <c r="R19" s="63">
         <f>$F19*Outputs_Internal!L$64/12+N19*'MARA Prices'!$F$6</f>
-        <v>3194.0517241379312</v>
+        <v>0</v>
       </c>
       <c r="S19" s="63">
         <f>N19*'MARA Prices'!$F$4</f>
@@ -7318,11 +7318,11 @@
       </c>
       <c r="F20" s="64">
         <f>IF(AND(B20&gt;=Inputs!$C$1,B20&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E20,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" s="64">
         <f>IF(AND(B20&gt;=Inputs!$C$1,B20&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B20,"Y")+1, 0),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="63">
         <f>IF($B20=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D20</f>
@@ -7346,15 +7346,15 @@
       </c>
       <c r="P20" s="63">
         <f>$F20*Outputs_Internal!$D$64/12+N20</f>
-        <v>4662.5</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="63">
         <f>$F20*Outputs_Internal!K$64/12+N20*'MARA Prices'!$F$5</f>
-        <v>1468.4482758620691</v>
+        <v>0</v>
       </c>
       <c r="R20" s="63">
         <f>$F20*Outputs_Internal!L$64/12+N20*'MARA Prices'!$F$6</f>
-        <v>3194.0517241379312</v>
+        <v>0</v>
       </c>
       <c r="S20" s="63">
         <f>N20*'MARA Prices'!$F$4</f>
@@ -7370,15 +7370,15 @@
       </c>
       <c r="W20" s="63">
         <f t="shared" si="2"/>
-        <v>13987.5</v>
+        <v>0</v>
       </c>
       <c r="X20" s="63">
         <f t="shared" si="3"/>
-        <v>4405.3448275862074</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="63">
         <f t="shared" si="4"/>
-        <v>9582.1551724137935</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="63">
         <f t="shared" si="5"/>
@@ -7424,11 +7424,11 @@
       </c>
       <c r="F21" s="64">
         <f>IF(AND(B21&gt;=Inputs!$C$1,B21&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E21,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" s="64">
         <f>IF(AND(B21&gt;=Inputs!$C$1,B21&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B21,"Y")+1, 0),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" s="63">
         <f>IF($B21=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D21</f>
@@ -7452,15 +7452,15 @@
       </c>
       <c r="P21" s="63">
         <f>$F21*Outputs_Internal!$D$64/12+N21</f>
-        <v>4662.5</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="63">
         <f>$F21*Outputs_Internal!K$64/12+N21*'MARA Prices'!$F$5</f>
-        <v>1468.4482758620691</v>
+        <v>0</v>
       </c>
       <c r="R21" s="63">
         <f>$F21*Outputs_Internal!L$64/12+N21*'MARA Prices'!$F$6</f>
-        <v>3194.0517241379312</v>
+        <v>0</v>
       </c>
       <c r="S21" s="63">
         <f>N21*'MARA Prices'!$F$4</f>
@@ -7530,11 +7530,11 @@
       </c>
       <c r="F22" s="64">
         <f>IF(AND(B22&gt;=Inputs!$C$1,B22&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E22,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" s="64">
         <f>IF(AND(B22&gt;=Inputs!$C$1,B22&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B22,"Y")+1, 0),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" s="63">
         <f>IF($B22=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D22</f>
@@ -7558,15 +7558,15 @@
       </c>
       <c r="P22" s="63">
         <f>$F22*Outputs_Internal!$D$64/12+N22</f>
-        <v>4662.5</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="63">
         <f>$F22*Outputs_Internal!K$64/12+N22*'MARA Prices'!$F$5</f>
-        <v>1468.4482758620691</v>
+        <v>0</v>
       </c>
       <c r="R22" s="63">
         <f>$F22*Outputs_Internal!L$64/12+N22*'MARA Prices'!$F$6</f>
-        <v>3194.0517241379312</v>
+        <v>0</v>
       </c>
       <c r="S22" s="63">
         <f>N22*'MARA Prices'!$F$4</f>
@@ -7636,11 +7636,11 @@
       </c>
       <c r="F23" s="64">
         <f>IF(AND(B23&gt;=Inputs!$C$1,B23&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E23,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" s="64">
         <f>IF(AND(B23&gt;=Inputs!$C$1,B23&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B23,"Y")+1, 0),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" s="63">
         <f>IF($B23=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D23</f>
@@ -7664,15 +7664,15 @@
       </c>
       <c r="P23" s="63">
         <f>$F23*Outputs_Internal!$D$64/12+N23</f>
-        <v>4662.5</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="63">
         <f>$F23*Outputs_Internal!K$64/12+N23*'MARA Prices'!$F$5</f>
-        <v>1468.4482758620691</v>
+        <v>0</v>
       </c>
       <c r="R23" s="63">
         <f>$F23*Outputs_Internal!L$64/12+N23*'MARA Prices'!$F$6</f>
-        <v>3194.0517241379312</v>
+        <v>0</v>
       </c>
       <c r="S23" s="63">
         <f>N23*'MARA Prices'!$F$4</f>
@@ -7688,15 +7688,15 @@
       </c>
       <c r="W23" s="63">
         <f t="shared" si="2"/>
-        <v>13987.5</v>
+        <v>0</v>
       </c>
       <c r="X23" s="63">
         <f t="shared" si="3"/>
-        <v>4405.3448275862074</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="63">
         <f t="shared" si="4"/>
-        <v>9582.1551724137935</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="63">
         <f t="shared" si="5"/>
@@ -7742,11 +7742,11 @@
       </c>
       <c r="F24" s="64">
         <f>IF(AND(B24&gt;=Inputs!$C$1,B24&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E24,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" s="64">
         <f>IF(AND(B24&gt;=Inputs!$C$1,B24&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B24,"Y")+1, 0),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" s="63">
         <f>IF($B24=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D24</f>
@@ -7770,15 +7770,15 @@
       </c>
       <c r="P24" s="63">
         <f>$F24*Outputs_Internal!$D$64/12+N24</f>
-        <v>4662.5</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="63">
         <f>$F24*Outputs_Internal!K$64/12+N24*'MARA Prices'!$F$5</f>
-        <v>1468.4482758620691</v>
+        <v>0</v>
       </c>
       <c r="R24" s="63">
         <f>$F24*Outputs_Internal!L$64/12+N24*'MARA Prices'!$F$6</f>
-        <v>3194.0517241379312</v>
+        <v>0</v>
       </c>
       <c r="S24" s="63">
         <f>N24*'MARA Prices'!$F$4</f>
@@ -7848,11 +7848,11 @@
       </c>
       <c r="F25" s="64">
         <f>IF(AND(B25&gt;=Inputs!$C$1,B25&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E25,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" s="64">
         <f>IF(AND(B25&gt;=Inputs!$C$1,B25&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B25,"Y")+1, 0),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" s="63">
         <f>IF($B25=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D25</f>
@@ -7876,15 +7876,15 @@
       </c>
       <c r="P25" s="63">
         <f>$F25*Outputs_Internal!$D$64/12+N25</f>
-        <v>4662.5</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="63">
         <f>$F25*Outputs_Internal!K$64/12+N25*'MARA Prices'!$F$5</f>
-        <v>1468.4482758620691</v>
+        <v>0</v>
       </c>
       <c r="R25" s="63">
         <f>$F25*Outputs_Internal!L$64/12+N25*'MARA Prices'!$F$6</f>
-        <v>3194.0517241379312</v>
+        <v>0</v>
       </c>
       <c r="S25" s="63">
         <f>N25*'MARA Prices'!$F$4</f>
@@ -7954,11 +7954,11 @@
       </c>
       <c r="F26" s="64">
         <f>IF(AND(B26&gt;=Inputs!$C$1,B26&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E26,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" s="64">
         <f>IF(AND(B26&gt;=Inputs!$C$1,B26&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B26,"Y")+1, 0),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" s="63">
         <f>IF($B26=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D26</f>
@@ -7982,15 +7982,15 @@
       </c>
       <c r="P26" s="63">
         <f>$F26*Outputs_Internal!$D$64/12+N26</f>
-        <v>4662.5</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="63">
         <f>$F26*Outputs_Internal!K$64/12+N26*'MARA Prices'!$F$5</f>
-        <v>1468.4482758620691</v>
+        <v>0</v>
       </c>
       <c r="R26" s="63">
         <f>$F26*Outputs_Internal!L$64/12+N26*'MARA Prices'!$F$6</f>
-        <v>3194.0517241379312</v>
+        <v>0</v>
       </c>
       <c r="S26" s="63">
         <f>N26*'MARA Prices'!$F$4</f>
@@ -8006,15 +8006,15 @@
       </c>
       <c r="W26" s="63">
         <f t="shared" si="2"/>
-        <v>13987.5</v>
+        <v>0</v>
       </c>
       <c r="X26" s="63">
         <f t="shared" si="3"/>
-        <v>4405.3448275862074</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="63">
         <f t="shared" si="4"/>
-        <v>9582.1551724137935</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="63">
         <f t="shared" si="5"/>
@@ -8056,11 +8056,11 @@
       </c>
       <c r="E27" s="64">
         <f>IF(B27=Inputs!$C$1,D27,E26)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F27" s="64">
         <f>IF(AND(B27&gt;=Inputs!$C$1,B27&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E27,0)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="G27" s="64">
         <f>IF(AND(B27&gt;=Inputs!$C$1,B27&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B27,"Y")+1, 0),0)</f>
@@ -8068,15 +8068,15 @@
       </c>
       <c r="I27" s="63">
         <f>IF($B27=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D27</f>
-        <v>0</v>
+        <v>5062.5</v>
       </c>
       <c r="J27" s="63">
         <f>IF($B27=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D27</f>
-        <v>0</v>
+        <v>2531.25</v>
       </c>
       <c r="K27" s="63">
         <f>IF($B27=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D27</f>
-        <v>0</v>
+        <v>2531.25</v>
       </c>
       <c r="L27" s="63">
         <f>IF($B27=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D27</f>
@@ -8088,15 +8088,15 @@
       </c>
       <c r="P27" s="63">
         <f>$F27*Outputs_Internal!$D$64/12+N27</f>
-        <v>4662.5</v>
+        <v>5664.9375</v>
       </c>
       <c r="Q27" s="63">
         <f>$F27*Outputs_Internal!K$64/12+N27*'MARA Prices'!$F$5</f>
-        <v>1468.4482758620691</v>
+        <v>1784.1646551724136</v>
       </c>
       <c r="R27" s="63">
         <f>$F27*Outputs_Internal!L$64/12+N27*'MARA Prices'!$F$6</f>
-        <v>3194.0517241379312</v>
+        <v>3880.7728448275861</v>
       </c>
       <c r="S27" s="63">
         <f>N27*'MARA Prices'!$F$4</f>
@@ -8162,11 +8162,11 @@
       </c>
       <c r="E28" s="64">
         <f>IF(B28=Inputs!$C$1,D28,E27)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F28" s="64">
         <f>IF(AND(B28&gt;=Inputs!$C$1,B28&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E28,0)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="G28" s="64">
         <f>IF(AND(B28&gt;=Inputs!$C$1,B28&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B28,"Y")+1, 0),0)</f>
@@ -8194,15 +8194,15 @@
       </c>
       <c r="P28" s="63">
         <f>$F28*Outputs_Internal!$D$64/12+N28</f>
-        <v>4662.5</v>
+        <v>5664.9375</v>
       </c>
       <c r="Q28" s="63">
         <f>$F28*Outputs_Internal!K$64/12+N28*'MARA Prices'!$F$5</f>
-        <v>1468.4482758620691</v>
+        <v>1784.1646551724136</v>
       </c>
       <c r="R28" s="63">
         <f>$F28*Outputs_Internal!L$64/12+N28*'MARA Prices'!$F$6</f>
-        <v>3194.0517241379312</v>
+        <v>3880.7728448275861</v>
       </c>
       <c r="S28" s="63">
         <f>N28*'MARA Prices'!$F$4</f>
@@ -8268,11 +8268,11 @@
       </c>
       <c r="E29" s="64">
         <f>IF(B29=Inputs!$C$1,D29,E28)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F29" s="64">
         <f>IF(AND(B29&gt;=Inputs!$C$1,B29&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E29,0)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="G29" s="64">
         <f>IF(AND(B29&gt;=Inputs!$C$1,B29&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B29,"Y")+1, 0),0)</f>
@@ -8300,15 +8300,15 @@
       </c>
       <c r="P29" s="63">
         <f>$F29*Outputs_Internal!$D$64/12+N29</f>
-        <v>4662.5</v>
+        <v>5664.9375</v>
       </c>
       <c r="Q29" s="63">
         <f>$F29*Outputs_Internal!K$64/12+N29*'MARA Prices'!$F$5</f>
-        <v>1468.4482758620691</v>
+        <v>1784.1646551724136</v>
       </c>
       <c r="R29" s="63">
         <f>$F29*Outputs_Internal!L$64/12+N29*'MARA Prices'!$F$6</f>
-        <v>3194.0517241379312</v>
+        <v>3880.7728448275861</v>
       </c>
       <c r="S29" s="63">
         <f>N29*'MARA Prices'!$F$4</f>
@@ -8324,15 +8324,15 @@
       </c>
       <c r="W29" s="63">
         <f t="shared" si="2"/>
-        <v>13987.5</v>
+        <v>22057.3125</v>
       </c>
       <c r="X29" s="63">
         <f t="shared" si="3"/>
-        <v>4405.3448275862074</v>
+        <v>7883.7439655172402</v>
       </c>
       <c r="Y29" s="63">
         <f t="shared" si="4"/>
-        <v>9582.1551724137935</v>
+        <v>14173.56853448276</v>
       </c>
       <c r="Z29" s="63">
         <f t="shared" si="5"/>
@@ -8374,11 +8374,11 @@
       </c>
       <c r="E30" s="64">
         <f>IF(B30=Inputs!$C$1,D30,E29)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F30" s="64">
         <f>IF(AND(B30&gt;=Inputs!$C$1,B30&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E30,0)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="G30" s="64">
         <f>IF(AND(B30&gt;=Inputs!$C$1,B30&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B30,"Y")+1, 0),0)</f>
@@ -8406,15 +8406,15 @@
       </c>
       <c r="P30" s="63">
         <f>$F30*Outputs_Internal!$D$64/12+N30</f>
-        <v>4662.5</v>
+        <v>5664.9375</v>
       </c>
       <c r="Q30" s="63">
         <f>$F30*Outputs_Internal!K$64/12+N30*'MARA Prices'!$F$5</f>
-        <v>1468.4482758620691</v>
+        <v>1784.1646551724136</v>
       </c>
       <c r="R30" s="63">
         <f>$F30*Outputs_Internal!L$64/12+N30*'MARA Prices'!$F$6</f>
-        <v>3194.0517241379312</v>
+        <v>3880.7728448275861</v>
       </c>
       <c r="S30" s="63">
         <f>N30*'MARA Prices'!$F$4</f>
@@ -8480,11 +8480,11 @@
       </c>
       <c r="E31" s="64">
         <f>IF(B31=Inputs!$C$1,D31,E30)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F31" s="64">
         <f>IF(AND(B31&gt;=Inputs!$C$1,B31&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E31,0)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="G31" s="64">
         <f>IF(AND(B31&gt;=Inputs!$C$1,B31&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B31,"Y")+1, 0),0)</f>
@@ -8512,15 +8512,15 @@
       </c>
       <c r="P31" s="63">
         <f>$F31*Outputs_Internal!$D$64/12+N31</f>
-        <v>4662.5</v>
+        <v>5664.9375</v>
       </c>
       <c r="Q31" s="63">
         <f>$F31*Outputs_Internal!K$64/12+N31*'MARA Prices'!$F$5</f>
-        <v>1468.4482758620691</v>
+        <v>1784.1646551724136</v>
       </c>
       <c r="R31" s="63">
         <f>$F31*Outputs_Internal!L$64/12+N31*'MARA Prices'!$F$6</f>
-        <v>3194.0517241379312</v>
+        <v>3880.7728448275861</v>
       </c>
       <c r="S31" s="63">
         <f>N31*'MARA Prices'!$F$4</f>
@@ -8586,11 +8586,11 @@
       </c>
       <c r="E32" s="64">
         <f>IF(B32=Inputs!$C$1,D32,E31)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F32" s="64">
         <f>IF(AND(B32&gt;=Inputs!$C$1,B32&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E32,0)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="G32" s="64">
         <f>IF(AND(B32&gt;=Inputs!$C$1,B32&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B32,"Y")+1, 0),0)</f>
@@ -8618,15 +8618,15 @@
       </c>
       <c r="P32" s="63">
         <f>$F32*Outputs_Internal!$D$64/12+N32</f>
-        <v>4662.5</v>
+        <v>5664.9375</v>
       </c>
       <c r="Q32" s="63">
         <f>$F32*Outputs_Internal!K$64/12+N32*'MARA Prices'!$F$5</f>
-        <v>1468.4482758620691</v>
+        <v>1784.1646551724136</v>
       </c>
       <c r="R32" s="63">
         <f>$F32*Outputs_Internal!L$64/12+N32*'MARA Prices'!$F$6</f>
-        <v>3194.0517241379312</v>
+        <v>3880.7728448275861</v>
       </c>
       <c r="S32" s="63">
         <f>N32*'MARA Prices'!$F$4</f>
@@ -8642,15 +8642,15 @@
       </c>
       <c r="W32" s="63">
         <f t="shared" si="2"/>
-        <v>13987.5</v>
+        <v>16994.8125</v>
       </c>
       <c r="X32" s="63">
         <f t="shared" si="3"/>
-        <v>4405.3448275862074</v>
+        <v>5352.4939655172411</v>
       </c>
       <c r="Y32" s="63">
         <f t="shared" si="4"/>
-        <v>9582.1551724137935</v>
+        <v>11642.318534482758</v>
       </c>
       <c r="Z32" s="63">
         <f t="shared" si="5"/>
@@ -8692,11 +8692,11 @@
       </c>
       <c r="E33" s="64">
         <f>IF(B33=Inputs!$C$1,D33,E32)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F33" s="64">
         <f>IF(AND(B33&gt;=Inputs!$C$1,B33&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E33,0)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="G33" s="64">
         <f>IF(AND(B33&gt;=Inputs!$C$1,B33&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B33,"Y")+1, 0),0)</f>
@@ -8724,15 +8724,15 @@
       </c>
       <c r="P33" s="63">
         <f>$F33*Outputs_Internal!$D$64/12+N33</f>
-        <v>4662.5</v>
+        <v>5664.9375</v>
       </c>
       <c r="Q33" s="63">
         <f>$F33*Outputs_Internal!K$64/12+N33*'MARA Prices'!$F$5</f>
-        <v>1468.4482758620691</v>
+        <v>1784.1646551724136</v>
       </c>
       <c r="R33" s="63">
         <f>$F33*Outputs_Internal!L$64/12+N33*'MARA Prices'!$F$6</f>
-        <v>3194.0517241379312</v>
+        <v>3880.7728448275861</v>
       </c>
       <c r="S33" s="63">
         <f>N33*'MARA Prices'!$F$4</f>
@@ -8798,11 +8798,11 @@
       </c>
       <c r="E34" s="64">
         <f>IF(B34=Inputs!$C$1,D34,E33)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F34" s="64">
         <f>IF(AND(B34&gt;=Inputs!$C$1,B34&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E34,0)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="G34" s="64">
         <f>IF(AND(B34&gt;=Inputs!$C$1,B34&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B34,"Y")+1, 0),0)</f>
@@ -8830,15 +8830,15 @@
       </c>
       <c r="P34" s="63">
         <f>$F34*Outputs_Internal!$D$64/12+N34</f>
-        <v>4662.5</v>
+        <v>5664.9375</v>
       </c>
       <c r="Q34" s="63">
         <f>$F34*Outputs_Internal!K$64/12+N34*'MARA Prices'!$F$5</f>
-        <v>1468.4482758620691</v>
+        <v>1784.1646551724136</v>
       </c>
       <c r="R34" s="63">
         <f>$F34*Outputs_Internal!L$64/12+N34*'MARA Prices'!$F$6</f>
-        <v>3194.0517241379312</v>
+        <v>3880.7728448275861</v>
       </c>
       <c r="S34" s="63">
         <f>N34*'MARA Prices'!$F$4</f>
@@ -8904,11 +8904,11 @@
       </c>
       <c r="E35" s="64">
         <f>IF(B35=Inputs!$C$1,D35,E34)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F35" s="64">
         <f>IF(AND(B35&gt;=Inputs!$C$1,B35&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E35,0)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="G35" s="64">
         <f>IF(AND(B35&gt;=Inputs!$C$1,B35&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B35,"Y")+1, 0),0)</f>
@@ -8936,15 +8936,15 @@
       </c>
       <c r="P35" s="63">
         <f>$F35*Outputs_Internal!$D$64/12+N35</f>
-        <v>4662.5</v>
+        <v>5664.9375</v>
       </c>
       <c r="Q35" s="63">
         <f>$F35*Outputs_Internal!K$64/12+N35*'MARA Prices'!$F$5</f>
-        <v>1468.4482758620691</v>
+        <v>1784.1646551724136</v>
       </c>
       <c r="R35" s="63">
         <f>$F35*Outputs_Internal!L$64/12+N35*'MARA Prices'!$F$6</f>
-        <v>3194.0517241379312</v>
+        <v>3880.7728448275861</v>
       </c>
       <c r="S35" s="63">
         <f>N35*'MARA Prices'!$F$4</f>
@@ -8960,15 +8960,15 @@
       </c>
       <c r="W35" s="63">
         <f t="shared" si="2"/>
-        <v>13987.5</v>
+        <v>16994.8125</v>
       </c>
       <c r="X35" s="63">
         <f t="shared" si="3"/>
-        <v>4405.3448275862074</v>
+        <v>5352.4939655172411</v>
       </c>
       <c r="Y35" s="63">
         <f t="shared" si="4"/>
-        <v>9582.1551724137935</v>
+        <v>11642.318534482758</v>
       </c>
       <c r="Z35" s="63">
         <f t="shared" si="5"/>
@@ -9010,11 +9010,11 @@
       </c>
       <c r="E36" s="64">
         <f>IF(B36=Inputs!$C$1,D36,E35)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F36" s="64">
         <f>IF(AND(B36&gt;=Inputs!$C$1,B36&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E36,0)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="G36" s="64">
         <f>IF(AND(B36&gt;=Inputs!$C$1,B36&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B36,"Y")+1, 0),0)</f>
@@ -9042,15 +9042,15 @@
       </c>
       <c r="P36" s="63">
         <f>$F36*Outputs_Internal!$D$64/12+N36</f>
-        <v>4662.5</v>
+        <v>5664.9375</v>
       </c>
       <c r="Q36" s="63">
         <f>$F36*Outputs_Internal!K$64/12+N36*'MARA Prices'!$F$5</f>
-        <v>1468.4482758620691</v>
+        <v>1784.1646551724136</v>
       </c>
       <c r="R36" s="63">
         <f>$F36*Outputs_Internal!L$64/12+N36*'MARA Prices'!$F$6</f>
-        <v>3194.0517241379312</v>
+        <v>3880.7728448275861</v>
       </c>
       <c r="S36" s="63">
         <f>N36*'MARA Prices'!$F$4</f>
@@ -9116,11 +9116,11 @@
       </c>
       <c r="E37" s="64">
         <f>IF(B37=Inputs!$C$1,D37,E36)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F37" s="64">
         <f>IF(AND(B37&gt;=Inputs!$C$1,B37&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E37,0)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="G37" s="64">
         <f>IF(AND(B37&gt;=Inputs!$C$1,B37&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B37,"Y")+1, 0),0)</f>
@@ -9148,15 +9148,15 @@
       </c>
       <c r="P37" s="63">
         <f>$F37*Outputs_Internal!$D$64/12+N37</f>
-        <v>4662.5</v>
+        <v>5664.9375</v>
       </c>
       <c r="Q37" s="63">
         <f>$F37*Outputs_Internal!K$64/12+N37*'MARA Prices'!$F$5</f>
-        <v>1468.4482758620691</v>
+        <v>1784.1646551724136</v>
       </c>
       <c r="R37" s="63">
         <f>$F37*Outputs_Internal!L$64/12+N37*'MARA Prices'!$F$6</f>
-        <v>3194.0517241379312</v>
+        <v>3880.7728448275861</v>
       </c>
       <c r="S37" s="63">
         <f>N37*'MARA Prices'!$F$4</f>
@@ -9222,11 +9222,11 @@
       </c>
       <c r="E38" s="64">
         <f>IF(B38=Inputs!$C$1,D38,E37)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F38" s="64">
         <f>IF(AND(B38&gt;=Inputs!$C$1,B38&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E38,0)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="G38" s="64">
         <f>IF(AND(B38&gt;=Inputs!$C$1,B38&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B38,"Y")+1, 0),0)</f>
@@ -9254,15 +9254,15 @@
       </c>
       <c r="P38" s="63">
         <f>$F38*Outputs_Internal!$D$64/12+N38</f>
-        <v>4662.5</v>
+        <v>5664.9375</v>
       </c>
       <c r="Q38" s="63">
         <f>$F38*Outputs_Internal!K$64/12+N38*'MARA Prices'!$F$5</f>
-        <v>1468.4482758620691</v>
+        <v>1784.1646551724136</v>
       </c>
       <c r="R38" s="63">
         <f>$F38*Outputs_Internal!L$64/12+N38*'MARA Prices'!$F$6</f>
-        <v>3194.0517241379312</v>
+        <v>3880.7728448275861</v>
       </c>
       <c r="S38" s="63">
         <f>N38*'MARA Prices'!$F$4</f>
@@ -9278,15 +9278,15 @@
       </c>
       <c r="W38" s="63">
         <f t="shared" si="7"/>
-        <v>13987.5</v>
+        <v>16994.8125</v>
       </c>
       <c r="X38" s="63">
         <f t="shared" si="8"/>
-        <v>4405.3448275862074</v>
+        <v>5352.4939655172411</v>
       </c>
       <c r="Y38" s="63">
         <f t="shared" si="9"/>
-        <v>9582.1551724137935</v>
+        <v>11642.318534482758</v>
       </c>
       <c r="Z38" s="63">
         <f t="shared" si="10"/>
@@ -9328,11 +9328,11 @@
       </c>
       <c r="E39" s="64">
         <f>IF(B39=Inputs!$C$1,D39,E38)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F39" s="64">
         <f>IF(AND(B39&gt;=Inputs!$C$1,B39&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E39,0)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="G39" s="64">
         <f>IF(AND(B39&gt;=Inputs!$C$1,B39&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B39,"Y")+1, 0),0)</f>
@@ -9360,15 +9360,15 @@
       </c>
       <c r="P39" s="63">
         <f>$F39*Outputs_Internal!$D$64/12+N39</f>
-        <v>4662.5</v>
+        <v>5664.9375</v>
       </c>
       <c r="Q39" s="63">
         <f>$F39*Outputs_Internal!K$64/12+N39*'MARA Prices'!$F$5</f>
-        <v>1468.4482758620691</v>
+        <v>1784.1646551724136</v>
       </c>
       <c r="R39" s="63">
         <f>$F39*Outputs_Internal!L$64/12+N39*'MARA Prices'!$F$6</f>
-        <v>3194.0517241379312</v>
+        <v>3880.7728448275861</v>
       </c>
       <c r="S39" s="63">
         <f>N39*'MARA Prices'!$F$4</f>
@@ -9434,11 +9434,11 @@
       </c>
       <c r="E40" s="64">
         <f>IF(B40=Inputs!$C$1,D40,E39)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F40" s="64">
         <f>IF(AND(B40&gt;=Inputs!$C$1,B40&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E40,0)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="G40" s="64">
         <f>IF(AND(B40&gt;=Inputs!$C$1,B40&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B40,"Y")+1, 0),0)</f>
@@ -9466,15 +9466,15 @@
       </c>
       <c r="P40" s="63">
         <f>$F40*Outputs_Internal!$D$64/12+N40</f>
-        <v>4662.5</v>
+        <v>5664.9375</v>
       </c>
       <c r="Q40" s="63">
         <f>$F40*Outputs_Internal!K$64/12+N40*'MARA Prices'!$F$5</f>
-        <v>1468.4482758620691</v>
+        <v>1784.1646551724136</v>
       </c>
       <c r="R40" s="63">
         <f>$F40*Outputs_Internal!L$64/12+N40*'MARA Prices'!$F$6</f>
-        <v>3194.0517241379312</v>
+        <v>3880.7728448275861</v>
       </c>
       <c r="S40" s="63">
         <f>N40*'MARA Prices'!$F$4</f>
@@ -9540,11 +9540,11 @@
       </c>
       <c r="E41" s="64">
         <f>IF(B41=Inputs!$C$1,D41,E40)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F41" s="64">
         <f>IF(AND(B41&gt;=Inputs!$C$1,B41&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E41,0)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="G41" s="64">
         <f>IF(AND(B41&gt;=Inputs!$C$1,B41&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B41,"Y")+1, 0),0)</f>
@@ -9572,15 +9572,15 @@
       </c>
       <c r="P41" s="63">
         <f>$F41*Outputs_Internal!$D$64/12+N41</f>
-        <v>4662.5</v>
+        <v>5664.9375</v>
       </c>
       <c r="Q41" s="63">
         <f>$F41*Outputs_Internal!K$64/12+N41*'MARA Prices'!$F$5</f>
-        <v>1468.4482758620691</v>
+        <v>1784.1646551724136</v>
       </c>
       <c r="R41" s="63">
         <f>$F41*Outputs_Internal!L$64/12+N41*'MARA Prices'!$F$6</f>
-        <v>3194.0517241379312</v>
+        <v>3880.7728448275861</v>
       </c>
       <c r="S41" s="63">
         <f>N41*'MARA Prices'!$F$4</f>
@@ -9596,15 +9596,15 @@
       </c>
       <c r="W41" s="63">
         <f t="shared" si="7"/>
-        <v>13987.5</v>
+        <v>16994.8125</v>
       </c>
       <c r="X41" s="63">
         <f t="shared" si="8"/>
-        <v>4405.3448275862074</v>
+        <v>5352.4939655172411</v>
       </c>
       <c r="Y41" s="63">
         <f t="shared" si="9"/>
-        <v>9582.1551724137935</v>
+        <v>11642.318534482758</v>
       </c>
       <c r="Z41" s="63">
         <f t="shared" si="10"/>
@@ -9646,11 +9646,11 @@
       </c>
       <c r="E42" s="64">
         <f>IF(B42=Inputs!$C$1,D42,E41)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F42" s="64">
         <f>IF(AND(B42&gt;=Inputs!$C$1,B42&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E42,0)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="G42" s="64">
         <f>IF(AND(B42&gt;=Inputs!$C$1,B42&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B42,"Y")+1, 0),0)</f>
@@ -9678,15 +9678,15 @@
       </c>
       <c r="P42" s="63">
         <f>$F42*Outputs_Internal!$D$64/12+N42</f>
-        <v>4662.5</v>
+        <v>5664.9375</v>
       </c>
       <c r="Q42" s="63">
         <f>$F42*Outputs_Internal!K$64/12+N42*'MARA Prices'!$F$5</f>
-        <v>1468.4482758620691</v>
+        <v>1784.1646551724136</v>
       </c>
       <c r="R42" s="63">
         <f>$F42*Outputs_Internal!L$64/12+N42*'MARA Prices'!$F$6</f>
-        <v>3194.0517241379312</v>
+        <v>3880.7728448275861</v>
       </c>
       <c r="S42" s="63">
         <f>N42*'MARA Prices'!$F$4</f>
@@ -9752,11 +9752,11 @@
       </c>
       <c r="E43" s="64">
         <f>IF(B43=Inputs!$C$1,D43,E42)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F43" s="64">
         <f>IF(AND(B43&gt;=Inputs!$C$1,B43&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E43,0)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="G43" s="64">
         <f>IF(AND(B43&gt;=Inputs!$C$1,B43&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B43,"Y")+1, 0),0)</f>
@@ -9784,15 +9784,15 @@
       </c>
       <c r="P43" s="63">
         <f>$F43*Outputs_Internal!$D$64/12+N43</f>
-        <v>4662.5</v>
+        <v>5664.9375</v>
       </c>
       <c r="Q43" s="63">
         <f>$F43*Outputs_Internal!K$64/12+N43*'MARA Prices'!$F$5</f>
-        <v>1468.4482758620691</v>
+        <v>1784.1646551724136</v>
       </c>
       <c r="R43" s="63">
         <f>$F43*Outputs_Internal!L$64/12+N43*'MARA Prices'!$F$6</f>
-        <v>3194.0517241379312</v>
+        <v>3880.7728448275861</v>
       </c>
       <c r="S43" s="63">
         <f>N43*'MARA Prices'!$F$4</f>
@@ -9858,11 +9858,11 @@
       </c>
       <c r="E44" s="64">
         <f>IF(B44=Inputs!$C$1,D44,E43)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F44" s="64">
         <f>IF(AND(B44&gt;=Inputs!$C$1,B44&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E44,0)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="G44" s="64">
         <f>IF(AND(B44&gt;=Inputs!$C$1,B44&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B44,"Y")+1, 0),0)</f>
@@ -9890,15 +9890,15 @@
       </c>
       <c r="P44" s="63">
         <f>$F44*Outputs_Internal!$D$64/12+N44</f>
-        <v>4662.5</v>
+        <v>5664.9375</v>
       </c>
       <c r="Q44" s="63">
         <f>$F44*Outputs_Internal!K$64/12+N44*'MARA Prices'!$F$5</f>
-        <v>1468.4482758620691</v>
+        <v>1784.1646551724136</v>
       </c>
       <c r="R44" s="63">
         <f>$F44*Outputs_Internal!L$64/12+N44*'MARA Prices'!$F$6</f>
-        <v>3194.0517241379312</v>
+        <v>3880.7728448275861</v>
       </c>
       <c r="S44" s="63">
         <f>N44*'MARA Prices'!$F$4</f>
@@ -9914,15 +9914,15 @@
       </c>
       <c r="W44" s="63">
         <f t="shared" si="7"/>
-        <v>13987.5</v>
+        <v>16994.8125</v>
       </c>
       <c r="X44" s="63">
         <f t="shared" si="8"/>
-        <v>4405.3448275862074</v>
+        <v>5352.4939655172411</v>
       </c>
       <c r="Y44" s="63">
         <f t="shared" si="9"/>
-        <v>9582.1551724137935</v>
+        <v>11642.318534482758</v>
       </c>
       <c r="Z44" s="63">
         <f t="shared" si="10"/>
@@ -9964,15 +9964,15 @@
       </c>
       <c r="E45" s="64">
         <f>IF(B45=Inputs!$C$1,D45,E44)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F45" s="64">
         <f>IF(AND(B45&gt;=Inputs!$C$1,B45&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E45,0)</f>
-        <v>0</v>
+        <v>1.0125</v>
       </c>
       <c r="G45" s="64">
         <f>IF(AND(B45&gt;=Inputs!$C$1,B45&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B45,"Y")+1, 0),0)</f>
-        <v>0</v>
+        <v>1.1025</v>
       </c>
       <c r="I45" s="63">
         <f>IF($B45=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D45</f>
@@ -9996,15 +9996,15 @@
       </c>
       <c r="P45" s="63">
         <f>$F45*Outputs_Internal!$D$64/12+N45</f>
-        <v>0</v>
+        <v>5664.9375</v>
       </c>
       <c r="Q45" s="63">
         <f>$F45*Outputs_Internal!K$64/12+N45*'MARA Prices'!$F$5</f>
-        <v>0</v>
+        <v>1784.1646551724136</v>
       </c>
       <c r="R45" s="63">
         <f>$F45*Outputs_Internal!L$64/12+N45*'MARA Prices'!$F$6</f>
-        <v>0</v>
+        <v>3880.7728448275861</v>
       </c>
       <c r="S45" s="63">
         <f>N45*'MARA Prices'!$F$4</f>
@@ -10070,15 +10070,15 @@
       </c>
       <c r="E46" s="64">
         <f>IF(B46=Inputs!$C$1,D46,E45)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F46" s="64">
         <f>IF(AND(B46&gt;=Inputs!$C$1,B46&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E46,0)</f>
-        <v>0</v>
+        <v>1.0125</v>
       </c>
       <c r="G46" s="64">
         <f>IF(AND(B46&gt;=Inputs!$C$1,B46&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B46,"Y")+1, 0),0)</f>
-        <v>0</v>
+        <v>1.1025</v>
       </c>
       <c r="I46" s="63">
         <f>IF($B46=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D46</f>
@@ -10102,15 +10102,15 @@
       </c>
       <c r="P46" s="63">
         <f>$F46*Outputs_Internal!$D$64/12+N46</f>
-        <v>0</v>
+        <v>5664.9375</v>
       </c>
       <c r="Q46" s="63">
         <f>$F46*Outputs_Internal!K$64/12+N46*'MARA Prices'!$F$5</f>
-        <v>0</v>
+        <v>1784.1646551724136</v>
       </c>
       <c r="R46" s="63">
         <f>$F46*Outputs_Internal!L$64/12+N46*'MARA Prices'!$F$6</f>
-        <v>0</v>
+        <v>3880.7728448275861</v>
       </c>
       <c r="S46" s="63">
         <f>N46*'MARA Prices'!$F$4</f>
@@ -10176,15 +10176,15 @@
       </c>
       <c r="E47" s="64">
         <f>IF(B47=Inputs!$C$1,D47,E46)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F47" s="64">
         <f>IF(AND(B47&gt;=Inputs!$C$1,B47&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E47,0)</f>
-        <v>0</v>
+        <v>1.0125</v>
       </c>
       <c r="G47" s="64">
         <f>IF(AND(B47&gt;=Inputs!$C$1,B47&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B47,"Y")+1, 0),0)</f>
-        <v>0</v>
+        <v>1.1025</v>
       </c>
       <c r="I47" s="63">
         <f>IF($B47=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D47</f>
@@ -10208,15 +10208,15 @@
       </c>
       <c r="P47" s="63">
         <f>$F47*Outputs_Internal!$D$64/12+N47</f>
-        <v>0</v>
+        <v>5664.9375</v>
       </c>
       <c r="Q47" s="63">
         <f>$F47*Outputs_Internal!K$64/12+N47*'MARA Prices'!$F$5</f>
-        <v>0</v>
+        <v>1784.1646551724136</v>
       </c>
       <c r="R47" s="63">
         <f>$F47*Outputs_Internal!L$64/12+N47*'MARA Prices'!$F$6</f>
-        <v>0</v>
+        <v>3880.7728448275861</v>
       </c>
       <c r="S47" s="63">
         <f>N47*'MARA Prices'!$F$4</f>
@@ -10232,15 +10232,15 @@
       </c>
       <c r="W47" s="63">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>16994.8125</v>
       </c>
       <c r="X47" s="63">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5352.4939655172411</v>
       </c>
       <c r="Y47" s="63">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>11642.318534482758</v>
       </c>
       <c r="Z47" s="63">
         <f t="shared" si="10"/>
@@ -10282,15 +10282,15 @@
       </c>
       <c r="E48" s="64">
         <f>IF(B48=Inputs!$C$1,D48,E47)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F48" s="64">
         <f>IF(AND(B48&gt;=Inputs!$C$1,B48&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E48,0)</f>
-        <v>0</v>
+        <v>1.0125</v>
       </c>
       <c r="G48" s="64">
         <f>IF(AND(B48&gt;=Inputs!$C$1,B48&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B48,"Y")+1, 0),0)</f>
-        <v>0</v>
+        <v>1.1025</v>
       </c>
       <c r="I48" s="63">
         <f>IF($B48=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D48</f>
@@ -10314,15 +10314,15 @@
       </c>
       <c r="P48" s="63">
         <f>$F48*Outputs_Internal!$D$64/12+N48</f>
-        <v>0</v>
+        <v>5664.9375</v>
       </c>
       <c r="Q48" s="63">
         <f>$F48*Outputs_Internal!K$64/12+N48*'MARA Prices'!$F$5</f>
-        <v>0</v>
+        <v>1784.1646551724136</v>
       </c>
       <c r="R48" s="63">
         <f>$F48*Outputs_Internal!L$64/12+N48*'MARA Prices'!$F$6</f>
-        <v>0</v>
+        <v>3880.7728448275861</v>
       </c>
       <c r="S48" s="63">
         <f>N48*'MARA Prices'!$F$4</f>
@@ -10388,15 +10388,15 @@
       </c>
       <c r="E49" s="64">
         <f>IF(B49=Inputs!$C$1,D49,E48)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F49" s="64">
         <f>IF(AND(B49&gt;=Inputs!$C$1,B49&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E49,0)</f>
-        <v>0</v>
+        <v>1.0125</v>
       </c>
       <c r="G49" s="64">
         <f>IF(AND(B49&gt;=Inputs!$C$1,B49&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B49,"Y")+1, 0),0)</f>
-        <v>0</v>
+        <v>1.1025</v>
       </c>
       <c r="I49" s="63">
         <f>IF($B49=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D49</f>
@@ -10420,15 +10420,15 @@
       </c>
       <c r="P49" s="63">
         <f>$F49*Outputs_Internal!$D$64/12+N49</f>
-        <v>0</v>
+        <v>5664.9375</v>
       </c>
       <c r="Q49" s="63">
         <f>$F49*Outputs_Internal!K$64/12+N49*'MARA Prices'!$F$5</f>
-        <v>0</v>
+        <v>1784.1646551724136</v>
       </c>
       <c r="R49" s="63">
         <f>$F49*Outputs_Internal!L$64/12+N49*'MARA Prices'!$F$6</f>
-        <v>0</v>
+        <v>3880.7728448275861</v>
       </c>
       <c r="S49" s="63">
         <f>N49*'MARA Prices'!$F$4</f>
@@ -10494,15 +10494,15 @@
       </c>
       <c r="E50" s="64">
         <f>IF(B50=Inputs!$C$1,D50,E49)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F50" s="64">
         <f>IF(AND(B50&gt;=Inputs!$C$1,B50&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E50,0)</f>
-        <v>0</v>
+        <v>1.0125</v>
       </c>
       <c r="G50" s="64">
         <f>IF(AND(B50&gt;=Inputs!$C$1,B50&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B50,"Y")+1, 0),0)</f>
-        <v>0</v>
+        <v>1.1025</v>
       </c>
       <c r="I50" s="63">
         <f>IF($B50=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D50</f>
@@ -10526,15 +10526,15 @@
       </c>
       <c r="P50" s="63">
         <f>$F50*Outputs_Internal!$D$64/12+N50</f>
-        <v>0</v>
+        <v>5664.9375</v>
       </c>
       <c r="Q50" s="63">
         <f>$F50*Outputs_Internal!K$64/12+N50*'MARA Prices'!$F$5</f>
-        <v>0</v>
+        <v>1784.1646551724136</v>
       </c>
       <c r="R50" s="63">
         <f>$F50*Outputs_Internal!L$64/12+N50*'MARA Prices'!$F$6</f>
-        <v>0</v>
+        <v>3880.7728448275861</v>
       </c>
       <c r="S50" s="63">
         <f>N50*'MARA Prices'!$F$4</f>
@@ -10550,15 +10550,15 @@
       </c>
       <c r="W50" s="63">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>16994.8125</v>
       </c>
       <c r="X50" s="63">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5352.4939655172411</v>
       </c>
       <c r="Y50" s="63">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>11642.318534482758</v>
       </c>
       <c r="Z50" s="63">
         <f t="shared" si="10"/>
@@ -10600,15 +10600,15 @@
       </c>
       <c r="E51" s="64">
         <f>IF(B51=Inputs!$C$1,D51,E50)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F51" s="64">
         <f>IF(AND(B51&gt;=Inputs!$C$1,B51&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E51,0)</f>
-        <v>0</v>
+        <v>1.0125</v>
       </c>
       <c r="G51" s="64">
         <f>IF(AND(B51&gt;=Inputs!$C$1,B51&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B51,"Y")+1, 0),0)</f>
-        <v>0</v>
+        <v>1.1025</v>
       </c>
       <c r="I51" s="63">
         <f>IF($B51=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D51</f>
@@ -10632,15 +10632,15 @@
       </c>
       <c r="P51" s="63">
         <f>$F51*Outputs_Internal!$D$64/12+N51</f>
-        <v>0</v>
+        <v>5664.9375</v>
       </c>
       <c r="Q51" s="63">
         <f>$F51*Outputs_Internal!K$64/12+N51*'MARA Prices'!$F$5</f>
-        <v>0</v>
+        <v>1784.1646551724136</v>
       </c>
       <c r="R51" s="63">
         <f>$F51*Outputs_Internal!L$64/12+N51*'MARA Prices'!$F$6</f>
-        <v>0</v>
+        <v>3880.7728448275861</v>
       </c>
       <c r="S51" s="63">
         <f>N51*'MARA Prices'!$F$4</f>
@@ -10706,15 +10706,15 @@
       </c>
       <c r="E52" s="64">
         <f>IF(B52=Inputs!$C$1,D52,E51)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F52" s="64">
         <f>IF(AND(B52&gt;=Inputs!$C$1,B52&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E52,0)</f>
-        <v>0</v>
+        <v>1.0125</v>
       </c>
       <c r="G52" s="64">
         <f>IF(AND(B52&gt;=Inputs!$C$1,B52&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B52,"Y")+1, 0),0)</f>
-        <v>0</v>
+        <v>1.1025</v>
       </c>
       <c r="I52" s="63">
         <f>IF($B52=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D52</f>
@@ -10738,15 +10738,15 @@
       </c>
       <c r="P52" s="63">
         <f>$F52*Outputs_Internal!$D$64/12+N52</f>
-        <v>0</v>
+        <v>5664.9375</v>
       </c>
       <c r="Q52" s="63">
         <f>$F52*Outputs_Internal!K$64/12+N52*'MARA Prices'!$F$5</f>
-        <v>0</v>
+        <v>1784.1646551724136</v>
       </c>
       <c r="R52" s="63">
         <f>$F52*Outputs_Internal!L$64/12+N52*'MARA Prices'!$F$6</f>
-        <v>0</v>
+        <v>3880.7728448275861</v>
       </c>
       <c r="S52" s="63">
         <f>N52*'MARA Prices'!$F$4</f>
@@ -10812,15 +10812,15 @@
       </c>
       <c r="E53" s="64">
         <f>IF(B53=Inputs!$C$1,D53,E52)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F53" s="64">
         <f>IF(AND(B53&gt;=Inputs!$C$1,B53&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E53,0)</f>
-        <v>0</v>
+        <v>1.0125</v>
       </c>
       <c r="G53" s="64">
         <f>IF(AND(B53&gt;=Inputs!$C$1,B53&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B53,"Y")+1, 0),0)</f>
-        <v>0</v>
+        <v>1.1025</v>
       </c>
       <c r="I53" s="63">
         <f>IF($B53=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D53</f>
@@ -10844,15 +10844,15 @@
       </c>
       <c r="P53" s="63">
         <f>$F53*Outputs_Internal!$D$64/12+N53</f>
-        <v>0</v>
+        <v>5664.9375</v>
       </c>
       <c r="Q53" s="63">
         <f>$F53*Outputs_Internal!K$64/12+N53*'MARA Prices'!$F$5</f>
-        <v>0</v>
+        <v>1784.1646551724136</v>
       </c>
       <c r="R53" s="63">
         <f>$F53*Outputs_Internal!L$64/12+N53*'MARA Prices'!$F$6</f>
-        <v>0</v>
+        <v>3880.7728448275861</v>
       </c>
       <c r="S53" s="63">
         <f>N53*'MARA Prices'!$F$4</f>
@@ -10868,15 +10868,15 @@
       </c>
       <c r="W53" s="63">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>16994.8125</v>
       </c>
       <c r="X53" s="63">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5352.4939655172411</v>
       </c>
       <c r="Y53" s="63">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>11642.318534482758</v>
       </c>
       <c r="Z53" s="63">
         <f t="shared" si="10"/>
@@ -10918,15 +10918,15 @@
       </c>
       <c r="E54" s="64">
         <f>IF(B54=Inputs!$C$1,D54,E53)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F54" s="64">
         <f>IF(AND(B54&gt;=Inputs!$C$1,B54&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E54,0)</f>
-        <v>0</v>
+        <v>1.0125</v>
       </c>
       <c r="G54" s="64">
         <f>IF(AND(B54&gt;=Inputs!$C$1,B54&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B54,"Y")+1, 0),0)</f>
-        <v>0</v>
+        <v>1.1025</v>
       </c>
       <c r="I54" s="63">
         <f>IF($B54=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D54</f>
@@ -10950,15 +10950,15 @@
       </c>
       <c r="P54" s="63">
         <f>$F54*Outputs_Internal!$D$64/12+N54</f>
-        <v>0</v>
+        <v>5664.9375</v>
       </c>
       <c r="Q54" s="63">
         <f>$F54*Outputs_Internal!K$64/12+N54*'MARA Prices'!$F$5</f>
-        <v>0</v>
+        <v>1784.1646551724136</v>
       </c>
       <c r="R54" s="63">
         <f>$F54*Outputs_Internal!L$64/12+N54*'MARA Prices'!$F$6</f>
-        <v>0</v>
+        <v>3880.7728448275861</v>
       </c>
       <c r="S54" s="63">
         <f>N54*'MARA Prices'!$F$4</f>
@@ -11024,15 +11024,15 @@
       </c>
       <c r="E55" s="64">
         <f>IF(B55=Inputs!$C$1,D55,E54)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F55" s="64">
         <f>IF(AND(B55&gt;=Inputs!$C$1,B55&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E55,0)</f>
-        <v>0</v>
+        <v>1.0125</v>
       </c>
       <c r="G55" s="64">
         <f>IF(AND(B55&gt;=Inputs!$C$1,B55&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B55,"Y")+1, 0),0)</f>
-        <v>0</v>
+        <v>1.1025</v>
       </c>
       <c r="I55" s="63">
         <f>IF($B55=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D55</f>
@@ -11056,15 +11056,15 @@
       </c>
       <c r="P55" s="63">
         <f>$F55*Outputs_Internal!$D$64/12+N55</f>
-        <v>0</v>
+        <v>5664.9375</v>
       </c>
       <c r="Q55" s="63">
         <f>$F55*Outputs_Internal!K$64/12+N55*'MARA Prices'!$F$5</f>
-        <v>0</v>
+        <v>1784.1646551724136</v>
       </c>
       <c r="R55" s="63">
         <f>$F55*Outputs_Internal!L$64/12+N55*'MARA Prices'!$F$6</f>
-        <v>0</v>
+        <v>3880.7728448275861</v>
       </c>
       <c r="S55" s="63">
         <f>N55*'MARA Prices'!$F$4</f>
@@ -11130,15 +11130,15 @@
       </c>
       <c r="E56" s="64">
         <f>IF(B56=Inputs!$C$1,D56,E55)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F56" s="64">
         <f>IF(AND(B56&gt;=Inputs!$C$1,B56&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E56,0)</f>
-        <v>0</v>
+        <v>1.0125</v>
       </c>
       <c r="G56" s="64">
         <f>IF(AND(B56&gt;=Inputs!$C$1,B56&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B56,"Y")+1, 0),0)</f>
-        <v>0</v>
+        <v>1.1025</v>
       </c>
       <c r="I56" s="63">
         <f>IF($B56=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D56</f>
@@ -11162,15 +11162,15 @@
       </c>
       <c r="P56" s="63">
         <f>$F56*Outputs_Internal!$D$64/12+N56</f>
-        <v>0</v>
+        <v>5664.9375</v>
       </c>
       <c r="Q56" s="63">
         <f>$F56*Outputs_Internal!K$64/12+N56*'MARA Prices'!$F$5</f>
-        <v>0</v>
+        <v>1784.1646551724136</v>
       </c>
       <c r="R56" s="63">
         <f>$F56*Outputs_Internal!L$64/12+N56*'MARA Prices'!$F$6</f>
-        <v>0</v>
+        <v>3880.7728448275861</v>
       </c>
       <c r="S56" s="63">
         <f>N56*'MARA Prices'!$F$4</f>
@@ -11186,15 +11186,15 @@
       </c>
       <c r="W56" s="63">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>16994.8125</v>
       </c>
       <c r="X56" s="63">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5352.4939655172411</v>
       </c>
       <c r="Y56" s="63">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>11642.318534482758</v>
       </c>
       <c r="Z56" s="63">
         <f t="shared" si="10"/>
@@ -11236,15 +11236,15 @@
       </c>
       <c r="E57" s="64">
         <f>IF(B57=Inputs!$C$1,D57,E56)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F57" s="64">
         <f>IF(AND(B57&gt;=Inputs!$C$1,B57&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E57,0)</f>
-        <v>0</v>
+        <v>1.0125</v>
       </c>
       <c r="G57" s="64">
         <f>IF(AND(B57&gt;=Inputs!$C$1,B57&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B57,"Y")+1, 0),0)</f>
-        <v>0</v>
+        <v>1.1576250000000001</v>
       </c>
       <c r="I57" s="63">
         <f>IF($B57=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D57</f>
@@ -11268,15 +11268,15 @@
       </c>
       <c r="P57" s="63">
         <f>$F57*Outputs_Internal!$D$64/12+N57</f>
-        <v>0</v>
+        <v>5664.9375</v>
       </c>
       <c r="Q57" s="63">
         <f>$F57*Outputs_Internal!K$64/12+N57*'MARA Prices'!$F$5</f>
-        <v>0</v>
+        <v>1784.1646551724136</v>
       </c>
       <c r="R57" s="63">
         <f>$F57*Outputs_Internal!L$64/12+N57*'MARA Prices'!$F$6</f>
-        <v>0</v>
+        <v>3880.7728448275861</v>
       </c>
       <c r="S57" s="63">
         <f>N57*'MARA Prices'!$F$4</f>
@@ -11342,15 +11342,15 @@
       </c>
       <c r="E58" s="64">
         <f>IF(B58=Inputs!$C$1,D58,E57)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F58" s="64">
         <f>IF(AND(B58&gt;=Inputs!$C$1,B58&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E58,0)</f>
-        <v>0</v>
+        <v>1.0125</v>
       </c>
       <c r="G58" s="64">
         <f>IF(AND(B58&gt;=Inputs!$C$1,B58&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B58,"Y")+1, 0),0)</f>
-        <v>0</v>
+        <v>1.1576250000000001</v>
       </c>
       <c r="I58" s="63">
         <f>IF($B58=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D58</f>
@@ -11374,15 +11374,15 @@
       </c>
       <c r="P58" s="63">
         <f>$F58*Outputs_Internal!$D$64/12+N58</f>
-        <v>0</v>
+        <v>5664.9375</v>
       </c>
       <c r="Q58" s="63">
         <f>$F58*Outputs_Internal!K$64/12+N58*'MARA Prices'!$F$5</f>
-        <v>0</v>
+        <v>1784.1646551724136</v>
       </c>
       <c r="R58" s="63">
         <f>$F58*Outputs_Internal!L$64/12+N58*'MARA Prices'!$F$6</f>
-        <v>0</v>
+        <v>3880.7728448275861</v>
       </c>
       <c r="S58" s="63">
         <f>N58*'MARA Prices'!$F$4</f>
@@ -11448,15 +11448,15 @@
       </c>
       <c r="E59" s="64">
         <f>IF(B59=Inputs!$C$1,D59,E58)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F59" s="64">
         <f>IF(AND(B59&gt;=Inputs!$C$1,B59&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E59,0)</f>
-        <v>0</v>
+        <v>1.0125</v>
       </c>
       <c r="G59" s="64">
         <f>IF(AND(B59&gt;=Inputs!$C$1,B59&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B59,"Y")+1, 0),0)</f>
-        <v>0</v>
+        <v>1.1576250000000001</v>
       </c>
       <c r="I59" s="63">
         <f>IF($B59=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D59</f>
@@ -11480,15 +11480,15 @@
       </c>
       <c r="P59" s="63">
         <f>$F59*Outputs_Internal!$D$64/12+N59</f>
-        <v>0</v>
+        <v>5664.9375</v>
       </c>
       <c r="Q59" s="63">
         <f>$F59*Outputs_Internal!K$64/12+N59*'MARA Prices'!$F$5</f>
-        <v>0</v>
+        <v>1784.1646551724136</v>
       </c>
       <c r="R59" s="63">
         <f>$F59*Outputs_Internal!L$64/12+N59*'MARA Prices'!$F$6</f>
-        <v>0</v>
+        <v>3880.7728448275861</v>
       </c>
       <c r="S59" s="63">
         <f>N59*'MARA Prices'!$F$4</f>
@@ -11504,15 +11504,15 @@
       </c>
       <c r="W59" s="63">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>16994.8125</v>
       </c>
       <c r="X59" s="63">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5352.4939655172411</v>
       </c>
       <c r="Y59" s="63">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>11642.318534482758</v>
       </c>
       <c r="Z59" s="63">
         <f t="shared" si="10"/>
@@ -11554,15 +11554,15 @@
       </c>
       <c r="E60" s="64">
         <f>IF(B60=Inputs!$C$1,D60,E59)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F60" s="64">
         <f>IF(AND(B60&gt;=Inputs!$C$1,B60&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E60,0)</f>
-        <v>0</v>
+        <v>1.0125</v>
       </c>
       <c r="G60" s="64">
         <f>IF(AND(B60&gt;=Inputs!$C$1,B60&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B60,"Y")+1, 0),0)</f>
-        <v>0</v>
+        <v>1.1576250000000001</v>
       </c>
       <c r="I60" s="63">
         <f>IF($B60=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D60</f>
@@ -11586,15 +11586,15 @@
       </c>
       <c r="P60" s="63">
         <f>$F60*Outputs_Internal!$D$64/12+N60</f>
-        <v>0</v>
+        <v>5664.9375</v>
       </c>
       <c r="Q60" s="63">
         <f>$F60*Outputs_Internal!K$64/12+N60*'MARA Prices'!$F$5</f>
-        <v>0</v>
+        <v>1784.1646551724136</v>
       </c>
       <c r="R60" s="63">
         <f>$F60*Outputs_Internal!L$64/12+N60*'MARA Prices'!$F$6</f>
-        <v>0</v>
+        <v>3880.7728448275861</v>
       </c>
       <c r="S60" s="63">
         <f>N60*'MARA Prices'!$F$4</f>
@@ -11660,15 +11660,15 @@
       </c>
       <c r="E61" s="64">
         <f>IF(B61=Inputs!$C$1,D61,E60)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F61" s="64">
         <f>IF(AND(B61&gt;=Inputs!$C$1,B61&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E61,0)</f>
-        <v>0</v>
+        <v>1.0125</v>
       </c>
       <c r="G61" s="64">
         <f>IF(AND(B61&gt;=Inputs!$C$1,B61&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B61,"Y")+1, 0),0)</f>
-        <v>0</v>
+        <v>1.1576250000000001</v>
       </c>
       <c r="I61" s="63">
         <f>IF($B61=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D61</f>
@@ -11692,15 +11692,15 @@
       </c>
       <c r="P61" s="63">
         <f>$F61*Outputs_Internal!$D$64/12+N61</f>
-        <v>0</v>
+        <v>5664.9375</v>
       </c>
       <c r="Q61" s="63">
         <f>$F61*Outputs_Internal!K$64/12+N61*'MARA Prices'!$F$5</f>
-        <v>0</v>
+        <v>1784.1646551724136</v>
       </c>
       <c r="R61" s="63">
         <f>$F61*Outputs_Internal!L$64/12+N61*'MARA Prices'!$F$6</f>
-        <v>0</v>
+        <v>3880.7728448275861</v>
       </c>
       <c r="S61" s="63">
         <f>N61*'MARA Prices'!$F$4</f>
@@ -11766,15 +11766,15 @@
       </c>
       <c r="E62" s="64">
         <f>IF(B62=Inputs!$C$1,D62,E61)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F62" s="64">
         <f>IF(AND(B62&gt;=Inputs!$C$1,B62&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E62,0)</f>
-        <v>0</v>
+        <v>1.0125</v>
       </c>
       <c r="G62" s="64">
         <f>IF(AND(B62&gt;=Inputs!$C$1,B62&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),(1+'MARA Prices'!$F$1)^IFERROR(DATEDIF('MARA Prices'!$F$2,B62,"Y")+1, 0),0)</f>
-        <v>0</v>
+        <v>1.1576250000000001</v>
       </c>
       <c r="I62" s="63">
         <f>IF($B62=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D62</f>
@@ -11798,15 +11798,15 @@
       </c>
       <c r="P62" s="63">
         <f>$F62*Outputs_Internal!$D$64/12+N62</f>
-        <v>0</v>
+        <v>5664.9375</v>
       </c>
       <c r="Q62" s="63">
         <f>$F62*Outputs_Internal!K$64/12+N62*'MARA Prices'!$F$5</f>
-        <v>0</v>
+        <v>1784.1646551724136</v>
       </c>
       <c r="R62" s="63">
         <f>$F62*Outputs_Internal!L$64/12+N62*'MARA Prices'!$F$6</f>
-        <v>0</v>
+        <v>3880.7728448275861</v>
       </c>
       <c r="S62" s="63">
         <f>N62*'MARA Prices'!$F$4</f>
@@ -11822,15 +11822,15 @@
       </c>
       <c r="W62" s="63">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>16994.8125</v>
       </c>
       <c r="X62" s="63">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5352.4939655172411</v>
       </c>
       <c r="Y62" s="63">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>11642.318534482758</v>
       </c>
       <c r="Z62" s="63">
         <f t="shared" si="10"/>
@@ -11872,7 +11872,7 @@
       </c>
       <c r="E63" s="64">
         <f>IF(B63=Inputs!$C$1,D63,E62)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F63" s="64">
         <f>IF(AND(B63&gt;=Inputs!$C$1,B63&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E63,0)</f>
@@ -11978,7 +11978,7 @@
       </c>
       <c r="E64" s="64">
         <f>IF(B64=Inputs!$C$1,D64,E63)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F64" s="64">
         <f>IF(AND(B64&gt;=Inputs!$C$1,B64&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E64,0)</f>
@@ -12084,7 +12084,7 @@
       </c>
       <c r="E65" s="64">
         <f>IF(B65=Inputs!$C$1,D65,E64)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F65" s="64">
         <f>IF(AND(B65&gt;=Inputs!$C$1,B65&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E65,0)</f>
@@ -12190,7 +12190,7 @@
       </c>
       <c r="E66" s="64">
         <f>IF(B66=Inputs!$C$1,D66,E65)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F66" s="64">
         <f>IF(AND(B66&gt;=Inputs!$C$1,B66&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E66,0)</f>
@@ -12296,7 +12296,7 @@
       </c>
       <c r="E67" s="64">
         <f>IF(B67=Inputs!$C$1,D67,E66)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F67" s="64">
         <f>IF(AND(B67&gt;=Inputs!$C$1,B67&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E67,0)</f>
@@ -12402,7 +12402,7 @@
       </c>
       <c r="E68" s="64">
         <f>IF(B68=Inputs!$C$1,D68,E67)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F68" s="64">
         <f>IF(AND(B68&gt;=Inputs!$C$1,B68&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E68,0)</f>
@@ -12508,7 +12508,7 @@
       </c>
       <c r="E69" s="64">
         <f>IF(B69=Inputs!$C$1,D69,E68)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F69" s="64">
         <f>IF(AND(B69&gt;=Inputs!$C$1,B69&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E69,0)</f>
@@ -12614,7 +12614,7 @@
       </c>
       <c r="E70" s="64">
         <f>IF(B70=Inputs!$C$1,D70,E69)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F70" s="64">
         <f>IF(AND(B70&gt;=Inputs!$C$1,B70&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E70,0)</f>
@@ -12720,7 +12720,7 @@
       </c>
       <c r="E71" s="64">
         <f>IF(B71=Inputs!$C$1,D71,E70)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F71" s="64">
         <f>IF(AND(B71&gt;=Inputs!$C$1,B71&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E71,0)</f>
@@ -12826,7 +12826,7 @@
       </c>
       <c r="E72" s="64">
         <f>IF(B72=Inputs!$C$1,D72,E71)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F72" s="64">
         <f>IF(AND(B72&gt;=Inputs!$C$1,B72&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E72,0)</f>
@@ -12932,7 +12932,7 @@
       </c>
       <c r="E73" s="64">
         <f>IF(B73=Inputs!$C$1,D73,E72)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F73" s="64">
         <f>IF(AND(B73&gt;=Inputs!$C$1,B73&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E73,0)</f>
@@ -13038,7 +13038,7 @@
       </c>
       <c r="E74" s="64">
         <f>IF(B74=Inputs!$C$1,D74,E73)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F74" s="64">
         <f>IF(AND(B74&gt;=Inputs!$C$1,B74&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E74,0)</f>
@@ -13144,7 +13144,7 @@
       </c>
       <c r="E75" s="64">
         <f>IF(B75=Inputs!$C$1,D75,E74)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F75" s="64">
         <f>IF(AND(B75&gt;=Inputs!$C$1,B75&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E75,0)</f>
@@ -13250,7 +13250,7 @@
       </c>
       <c r="E76" s="64">
         <f>IF(B76=Inputs!$C$1,D76,E75)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F76" s="64">
         <f>IF(AND(B76&gt;=Inputs!$C$1,B76&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E76,0)</f>
@@ -13356,7 +13356,7 @@
       </c>
       <c r="E77" s="64">
         <f>IF(B77=Inputs!$C$1,D77,E76)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F77" s="64">
         <f>IF(AND(B77&gt;=Inputs!$C$1,B77&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E77,0)</f>
@@ -13462,7 +13462,7 @@
       </c>
       <c r="E78" s="64">
         <f>IF(B78=Inputs!$C$1,D78,E77)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F78" s="64">
         <f>IF(AND(B78&gt;=Inputs!$C$1,B78&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E78,0)</f>
@@ -13568,7 +13568,7 @@
       </c>
       <c r="E79" s="64">
         <f>IF(B79=Inputs!$C$1,D79,E78)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F79" s="64">
         <f>IF(AND(B79&gt;=Inputs!$C$1,B79&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E79,0)</f>
@@ -13674,7 +13674,7 @@
       </c>
       <c r="E80" s="64">
         <f>IF(B80=Inputs!$C$1,D80,E79)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F80" s="64">
         <f>IF(AND(B80&gt;=Inputs!$C$1,B80&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E80,0)</f>
@@ -13780,7 +13780,7 @@
       </c>
       <c r="E81" s="64">
         <f>IF(B81=Inputs!$C$1,D81,E80)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F81" s="64">
         <f>IF(AND(B81&gt;=Inputs!$C$1,B81&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E81,0)</f>
@@ -13886,7 +13886,7 @@
       </c>
       <c r="E82" s="64">
         <f>IF(B82=Inputs!$C$1,D82,E81)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F82" s="64">
         <f>IF(AND(B82&gt;=Inputs!$C$1,B82&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E82,0)</f>
@@ -13992,7 +13992,7 @@
       </c>
       <c r="E83" s="64">
         <f>IF(B83=Inputs!$C$1,D83,E82)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F83" s="64">
         <f>IF(AND(B83&gt;=Inputs!$C$1,B83&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E83,0)</f>
@@ -14098,7 +14098,7 @@
       </c>
       <c r="E84" s="64">
         <f>IF(B84=Inputs!$C$1,D84,E83)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F84" s="64">
         <f>IF(AND(B84&gt;=Inputs!$C$1,B84&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E84,0)</f>
@@ -14204,7 +14204,7 @@
       </c>
       <c r="E85" s="64">
         <f>IF(B85=Inputs!$C$1,D85,E84)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F85" s="64">
         <f>IF(AND(B85&gt;=Inputs!$C$1,B85&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E85,0)</f>
@@ -14310,7 +14310,7 @@
       </c>
       <c r="E86" s="64">
         <f>IF(B86=Inputs!$C$1,D86,E85)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F86" s="64">
         <f>IF(AND(B86&gt;=Inputs!$C$1,B86&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E86,0)</f>
@@ -14416,7 +14416,7 @@
       </c>
       <c r="E87" s="64">
         <f>IF(B87=Inputs!$C$1,D87,E86)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F87" s="64">
         <f>IF(AND(B87&gt;=Inputs!$C$1,B87&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E87,0)</f>
@@ -14522,7 +14522,7 @@
       </c>
       <c r="E88" s="64">
         <f>IF(B88=Inputs!$C$1,D88,E87)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F88" s="64">
         <f>IF(AND(B88&gt;=Inputs!$C$1,B88&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E88,0)</f>
@@ -14628,7 +14628,7 @@
       </c>
       <c r="E89" s="64">
         <f>IF(B89=Inputs!$C$1,D89,E88)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F89" s="64">
         <f>IF(AND(B89&gt;=Inputs!$C$1,B89&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E89,0)</f>
@@ -14734,7 +14734,7 @@
       </c>
       <c r="E90" s="64">
         <f>IF(B90=Inputs!$C$1,D90,E89)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F90" s="64">
         <f>IF(AND(B90&gt;=Inputs!$C$1,B90&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E90,0)</f>
@@ -14840,7 +14840,7 @@
       </c>
       <c r="E91" s="64">
         <f>IF(B91=Inputs!$C$1,D91,E90)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F91" s="64">
         <f>IF(AND(B91&gt;=Inputs!$C$1,B91&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E91,0)</f>
@@ -14946,7 +14946,7 @@
       </c>
       <c r="E92" s="64">
         <f>IF(B92=Inputs!$C$1,D92,E91)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F92" s="64">
         <f>IF(AND(B92&gt;=Inputs!$C$1,B92&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E92,0)</f>
@@ -15052,7 +15052,7 @@
       </c>
       <c r="E93" s="64">
         <f>IF(B93=Inputs!$C$1,D93,E92)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F93" s="64">
         <f>IF(AND(B93&gt;=Inputs!$C$1,B93&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E93,0)</f>
@@ -15158,7 +15158,7 @@
       </c>
       <c r="E94" s="64">
         <f>IF(B94=Inputs!$C$1,D94,E93)</f>
-        <v>1</v>
+        <v>1.0125</v>
       </c>
       <c r="F94" s="64">
         <f>IF(AND(B94&gt;=Inputs!$C$1,B94&lt;EDATE(Inputs!$C$1,Inputs!$C$2)),E94,0)</f>
@@ -15579,7 +15579,7 @@
       </c>
       <c r="D14" s="16">
         <f>IF(Inputs!D7="Y", Prices!$C$6, IF(Inputs!D7="N", Prices!$D$6, 0))</f>
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="E14" s="16">
         <f>IF(Inputs!E7="Y", Prices!$C$6, IF(Inputs!E7="N", Prices!$D$6, 0))</f>
@@ -15779,7 +15779,7 @@
       </c>
       <c r="D22" s="20">
         <f xml:space="preserve"> IF(OR(Inputs!D20="Y",Inputs!D$25="Y",Inputs!D$26="Y"), Prices!$C17, 0)</f>
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="E22" s="20">
         <f xml:space="preserve"> IF(OR(Inputs!E20="Y",Inputs!E$25="Y",Inputs!E$26="Y"), Prices!$C17, 0)</f>
@@ -15804,7 +15804,7 @@
       </c>
       <c r="D23" s="20">
         <f xml:space="preserve"> IF(OR(Inputs!D21="Y",Inputs!D$25="Y",Inputs!D$26="Y",Inputs!D$29="Y"), Prices!$C18, 0)</f>
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="E23" s="20">
         <f xml:space="preserve"> IF(OR(Inputs!E21="Y",Inputs!E$25="Y",Inputs!E$26="Y",Inputs!E$29="Y"), Prices!$C18, 0)</f>
@@ -15829,7 +15829,7 @@
       </c>
       <c r="D24" s="20">
         <f>IF(Inputs!D$7="N",0, IF(OR(Inputs!D22="Y",Inputs!D$25="Y",Inputs!D$26="Y"), Prices!$C19, 0))</f>
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="E24" s="20">
         <f>IF(Inputs!E$7="N",0, IF(OR(Inputs!E22="Y",Inputs!E$25="Y",Inputs!E$26="Y"), Prices!$C19, 0))</f>
@@ -16141,7 +16141,7 @@
       </c>
       <c r="D40" s="16">
         <f>IF(Inputs!D7="Y", Prices!$C$6, IF(Inputs!D7="N", Prices!$D$6, 0))</f>
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="E40" s="16">
         <f>IF(Inputs!E7="Y", Prices!$C$6, IF(Inputs!E7="N", Prices!$D$6, 0))</f>
@@ -16696,7 +16696,7 @@
       </c>
       <c r="D66" s="18">
         <f>IF(Inputs!D$24 = "Y", 0, IF(Inputs!D23="Y", Prices!$C21, 0))</f>
-        <v>8500</v>
+        <v>10200</v>
       </c>
       <c r="E66" s="18">
         <f>IF(Inputs!E$24 = "Y", 0, IF(Inputs!E23="Y", Prices!$C21, 0))</f>
@@ -16746,7 +16746,7 @@
       </c>
       <c r="D68" s="20">
         <f>IF(Inputs!D25="Y", Prices!$C23, 0)</f>
-        <v>35000</v>
+        <v>42000</v>
       </c>
       <c r="E68" s="20">
         <f>IF(Inputs!E25="Y", Prices!$C23, 0)</f>
@@ -16947,7 +16947,7 @@
       </c>
       <c r="K77" s="23">
         <f t="shared" ref="K77:K84" si="2">D66+D77+$J77</f>
-        <v>8500.0010000000002</v>
+        <v>10200.001</v>
       </c>
       <c r="L77" s="23">
         <f t="shared" ref="L77:L84" si="3">E66+E77+$J77</f>
@@ -17045,7 +17045,7 @@
       </c>
       <c r="K79" s="23">
         <f t="shared" si="2"/>
-        <v>35000.001199999999</v>
+        <v>42000.001199999999</v>
       </c>
       <c r="L79" s="23">
         <f t="shared" si="3"/>
@@ -17339,23 +17339,23 @@
       </c>
       <c r="K85" s="23">
         <f>IF(Inputs!$C$4="Yes", 0, D74+D85+$J85)</f>
-        <v>0</v>
+        <v>1.8000000000000004E-3</v>
       </c>
       <c r="L85" s="23">
         <f>IF(Inputs!$C$4="Yes", 0, E74+E85+$J85)</f>
-        <v>0</v>
+        <v>1.8000000000000004E-3</v>
       </c>
       <c r="M85" s="23">
         <f>IF(Inputs!$C$4="Yes", 0, F74+F85+$J85)</f>
-        <v>0</v>
+        <v>1.8000000000000004E-3</v>
       </c>
       <c r="N85" s="23">
         <f>IF(Inputs!$C$4="Yes", 0, G74+G85+$J85)</f>
-        <v>0</v>
+        <v>1.8000000000000004E-3</v>
       </c>
       <c r="O85" s="23">
         <f>IF(Inputs!$C$4="Yes", 0, H74+H85+$J85)</f>
-        <v>0</v>
+        <v>1.8000000000000004E-3</v>
       </c>
     </row>
     <row r="86" spans="2:15" x14ac:dyDescent="0.25">
@@ -17376,7 +17376,7 @@
       </c>
       <c r="D88" s="18">
         <f>D66</f>
-        <v>8500</v>
+        <v>10200</v>
       </c>
       <c r="E88" s="18">
         <f t="shared" ref="E88:H88" si="8">E66</f>
@@ -17400,19 +17400,19 @@
       </c>
       <c r="L88" s="21">
         <f t="shared" ref="L88:O88" si="9">IF(COUNTIF(L$77:L$85,"")&gt;2,"",IFERROR(RANK(L77,L$77:L$85),8))</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M88" s="21">
         <f t="shared" si="9"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N88" s="21">
         <f t="shared" si="9"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O88" s="21">
         <f t="shared" si="9"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" spans="2:15" x14ac:dyDescent="0.25">
@@ -17441,23 +17441,23 @@
       </c>
       <c r="K89" s="21">
         <f t="shared" ref="K89:O89" si="11">IF(COUNTIF(K$77:K$85,"")&gt;2,"",IFERROR(RANK(K78,K$77:K$85),8))</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L89" s="21">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M89" s="21">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N89" s="21">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O89" s="21">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="2:15" x14ac:dyDescent="0.25">
@@ -17466,7 +17466,7 @@
       </c>
       <c r="D90" s="20">
         <f>IF(D68=0,0,D68-SUM(D22:D24))</f>
-        <v>13500</v>
+        <v>16200</v>
       </c>
       <c r="E90" s="20">
         <f>IF(E68=0,0,E68-SUM(E22:E24))</f>
@@ -17490,19 +17490,19 @@
       </c>
       <c r="L90" s="21">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M90" s="21">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N90" s="21">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O90" s="21">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.25">
@@ -17531,23 +17531,23 @@
       </c>
       <c r="K91" s="21">
         <f t="shared" ref="K91:O91" si="13">IF(COUNTIF(K$77:K$85,"")&gt;2,"",IFERROR(RANK(K80,K$77:K$85),8))</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L91" s="21">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M91" s="21">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N91" s="21">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O91" s="21">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="2:15" x14ac:dyDescent="0.25">
@@ -17576,23 +17576,23 @@
       </c>
       <c r="K92" s="21">
         <f t="shared" ref="K92:O92" si="14">IF(COUNTIF(K$77:K$85,"")&gt;2,"",IFERROR(RANK(K81,K$77:K$85),8))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L92" s="21">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M92" s="21">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N92" s="21">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O92" s="21">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="2:15" x14ac:dyDescent="0.25">
@@ -17621,23 +17621,23 @@
       </c>
       <c r="K93" s="21">
         <f t="shared" ref="K93:O93" si="16">IF(COUNTIF(K$77:K$85,"")&gt;2,"",IFERROR(RANK(K82,K$77:K$85),8))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L93" s="21">
         <f t="shared" si="16"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M93" s="21">
         <f t="shared" si="16"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N93" s="21">
         <f t="shared" si="16"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O93" s="21">
         <f t="shared" si="16"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="2:15" x14ac:dyDescent="0.25">
@@ -17666,23 +17666,23 @@
       </c>
       <c r="K94" s="21">
         <f t="shared" ref="K94:O94" si="17">IF(COUNTIF(K$77:K$85,"")&gt;2,"",IFERROR(RANK(K83,K$77:K$85),8))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L94" s="21">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M94" s="21">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N94" s="21">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O94" s="21">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="2:15" x14ac:dyDescent="0.25">
@@ -17711,23 +17711,23 @@
       </c>
       <c r="K95" s="21">
         <f>IF(COUNTIF(K$77:K$85,"")&gt;2,"",IFERROR(RANK(K84,K$77:K$85),8))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L95" s="21">
         <f t="shared" ref="L95:O95" si="19">IF(COUNTIF(L$77:L$85,"")&gt;2,"",IFERROR(RANK(L84,L$77:L$85),8))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M95" s="21">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N95" s="21">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O95" s="21">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="2:15" x14ac:dyDescent="0.25">
@@ -17756,23 +17756,23 @@
       </c>
       <c r="K96" s="21">
         <f t="shared" ref="K96:O96" si="21">IF(COUNTIF(K$77:K$85,"")&gt;2,"",IFERROR(RANK(K85,K$77:K$85),8))</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L96" s="21">
         <f t="shared" si="21"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="M96" s="21">
         <f t="shared" si="21"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N96" s="21">
         <f t="shared" si="21"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="O96" s="21">
         <f t="shared" si="21"/>
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -18014,7 +18014,7 @@
       </c>
       <c r="D110" s="1">
         <f>_xlfn.IFNA(SUM(INDEX(D$66:D$74, MATCH($A110, K$88:K$96, 0)), INDEX(D$77:D$85, MATCH($A110, K$88:K$96, 0)))*Prices!$L$5*-1, 0)</f>
-        <v>-2550</v>
+        <v>-3060</v>
       </c>
       <c r="E110" s="1">
         <f>_xlfn.IFNA(SUM(INDEX(E$66:E$74, MATCH($A110, L$88:L$96, 0)), INDEX(E$77:E$85, MATCH($A110, L$88:L$96, 0)))*Prices!$L$5*-1, 0)</f>
@@ -18207,7 +18207,7 @@
       </c>
       <c r="D118" s="7">
         <f>SUM(D40:D50, D53:D63, D66:D74, D77:D85, D110:D116)</f>
-        <v>55950</v>
+        <v>67140</v>
       </c>
       <c r="E118" s="7">
         <f>SUM(E40:E50, E53:E63, E66:E74, E77:E85, E110:E116)</f>
@@ -18288,7 +18288,7 @@
       </c>
       <c r="D124" s="7">
         <f>SUM(D118, D120,D122)</f>
-        <v>55950</v>
+        <v>67140</v>
       </c>
       <c r="E124" s="7">
         <f t="shared" ref="E124:H124" si="27">SUM(E118, E120,E122)</f>
@@ -18459,7 +18459,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -18555,27 +18557,27 @@
       </c>
       <c r="C6" s="42">
         <f>$L$28*15000</f>
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="D6" s="42">
         <f>IF(Inputs!$C$3="Monthly",33000,30000)</f>
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="E6" s="38">
         <f>ROUND(IF(Inputs!$C$3="Monthly",0.4,0.27), 2)</f>
-        <v>0.27</v>
+        <v>0.4</v>
       </c>
       <c r="F6" s="38">
         <f>ROUND($E6*F$4, 2)</f>
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="G6" s="38">
         <f>ROUND($E6*G$4, 2)</f>
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="H6" s="38">
         <f>MAX(ROUND($E6*H$4, 2) + IF(ROUND($E6*H$4, 2) = G6, -0.01, 0), 0.01)</f>
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="K6" t="s">
         <v>26</v>
@@ -18612,15 +18614,15 @@
       </c>
       <c r="C10" s="44">
         <f>$L$28*1000</f>
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="E10" s="40">
         <f>ROUND($L$28*0.04, 2)</f>
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F10" s="40">
         <f t="shared" ref="F10:H19" si="0">ROUND($E10*F$4, 2)</f>
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G10" s="40">
         <f t="shared" si="0"/>
@@ -18643,19 +18645,19 @@
       </c>
       <c r="C11" s="44">
         <f>$L$28*4000</f>
-        <v>4000</v>
+        <v>4800</v>
       </c>
       <c r="E11" s="40">
         <f>ROUND(IF(Inputs!$C$3="Monthly",0.07,0.05), 2)</f>
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F11" s="40">
         <f t="shared" si="0"/>
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G11" s="40">
         <f t="shared" si="0"/>
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="H11" s="40">
         <f t="shared" ref="H11:H14" si="1">MAX(ROUND($E11*H$4, 2) + IF(ROUND($E11*H$4, 2) = G11, -0.01, 0), 0.01)</f>
@@ -18674,15 +18676,15 @@
       </c>
       <c r="C12" s="44">
         <f>$L$28*2000</f>
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="E12" s="40">
         <f>ROUND($L$28*0.04, 2)</f>
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F12" s="40">
         <f t="shared" si="0"/>
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G12" s="40">
         <f t="shared" si="0"/>
@@ -18699,15 +18701,15 @@
       </c>
       <c r="C13" s="44">
         <f>$L$28*2000</f>
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="E13" s="40">
         <f>ROUND($L$28*0.04, 2)</f>
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F13" s="40">
         <f t="shared" si="0"/>
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G13" s="40">
         <f t="shared" si="0"/>
@@ -18725,19 +18727,19 @@
       </c>
       <c r="C14" s="44">
         <f>$L$28*6000</f>
-        <v>6000</v>
+        <v>7200</v>
       </c>
       <c r="E14" s="40">
         <f>ROUND(IF(Inputs!$C$3="Monthly",0.07,0.05), 2)</f>
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F14" s="40">
         <f t="shared" si="0"/>
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G14" s="40">
         <f t="shared" si="0"/>
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="H14" s="40">
         <f t="shared" si="1"/>
@@ -18756,19 +18758,19 @@
       </c>
       <c r="C15" s="44">
         <f>$L$28*4000</f>
-        <v>4000</v>
+        <v>4800</v>
       </c>
       <c r="E15" s="40">
         <f>ROUND(IF(Inputs!$C$3="Monthly",0.07,0.05), 2)</f>
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F15" s="40">
         <f t="shared" si="0"/>
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G15" s="40">
         <f t="shared" si="0"/>
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="H15" s="40">
         <f>MAX(ROUND($E15*H$4, 2) + IF(ROUND($E15*H$4, 2) = G15, -0.01, 0), 0.01)</f>
@@ -18787,19 +18789,19 @@
       </c>
       <c r="C16" s="44">
         <f>$L$28*3500</f>
-        <v>3500</v>
+        <v>4200</v>
       </c>
       <c r="E16" s="108">
         <f>ROUND(IF(Inputs!$C$3="Monthly",0.07,0.05), 2)</f>
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F16" s="108">
         <f t="shared" si="0"/>
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G16" s="108">
         <f t="shared" si="0"/>
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="H16" s="108">
         <f>MAX(ROUND($E16*H$4, 2) + IF(ROUND($E16*H$4, 2) = G16, -0.01, 0), 0.01)</f>
@@ -18814,23 +18816,23 @@
       </c>
       <c r="C17" s="45">
         <f>$L$28*10000</f>
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="E17" s="41">
         <f>ROUND(IF(Inputs!$C$3="Monthly",0.25,0.18), 2)</f>
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="F17" s="41">
         <f t="shared" si="0"/>
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="G17" s="41">
         <f t="shared" si="0"/>
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="H17" s="41">
         <f t="shared" ref="H17:H29" si="2">MAX(ROUND($E17*H$4, 2) + IF(ROUND($E17*H$4, 2) = G17, -0.01, 0), 0.01)</f>
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="3"/>
@@ -18841,23 +18843,23 @@
       </c>
       <c r="C18" s="45">
         <f>$L$28*10000</f>
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="E18" s="41">
         <f>ROUND(IF(Inputs!$C$3="Monthly",0.25,0.18), 2)</f>
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="F18" s="41">
         <f t="shared" si="0"/>
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="G18" s="41">
         <f t="shared" si="0"/>
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="H18" s="109">
         <f t="shared" si="2"/>
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
@@ -18866,7 +18868,7 @@
       </c>
       <c r="C19" s="45">
         <f>$L$28*1500</f>
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="E19" s="41">
         <f>ROUND($L$28*0, 2)</f>
@@ -18904,7 +18906,7 @@
       </c>
       <c r="C21" s="44">
         <f>$L$28*8500</f>
-        <v>8500</v>
+        <v>10200</v>
       </c>
       <c r="E21" s="40">
         <f>ROUND($L$28*0, 2)</f>
@@ -18935,23 +18937,23 @@
       </c>
       <c r="C22" s="44">
         <f>$L$28*33000</f>
-        <v>33000</v>
+        <v>39600</v>
       </c>
       <c r="E22" s="40">
         <f>ROUND(IF(Inputs!$C$3="Monthly",0.4,0.28), 2)</f>
-        <v>0.28000000000000003</v>
+        <v>0.4</v>
       </c>
       <c r="F22" s="40">
         <f t="shared" si="3"/>
-        <v>0.17</v>
+        <v>0.24</v>
       </c>
       <c r="G22" s="40">
         <f t="shared" si="3"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.1</v>
       </c>
       <c r="H22" s="40">
         <f t="shared" si="2"/>
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
@@ -18960,23 +18962,23 @@
       </c>
       <c r="C23" s="45">
         <f>$L$28*35000</f>
-        <v>35000</v>
+        <v>42000</v>
       </c>
       <c r="E23" s="41">
         <f>ROUND(IF(Inputs!$C$3="Monthly",0.42,0.29), 2)</f>
-        <v>0.28999999999999998</v>
+        <v>0.42</v>
       </c>
       <c r="F23" s="41">
         <f t="shared" si="3"/>
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="G23" s="41">
         <f t="shared" si="3"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.1</v>
       </c>
       <c r="H23" s="41">
         <f t="shared" si="2"/>
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
@@ -18985,23 +18987,23 @@
       </c>
       <c r="C24" s="45">
         <f>$L$28*35000</f>
-        <v>35000</v>
+        <v>42000</v>
       </c>
       <c r="E24" s="41">
         <f>ROUND(IF(Inputs!$C$3="Monthly",0.42,0.29), 2)</f>
-        <v>0.28999999999999998</v>
+        <v>0.42</v>
       </c>
       <c r="F24" s="41">
         <f t="shared" si="3"/>
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="G24" s="41">
         <f t="shared" si="3"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.1</v>
       </c>
       <c r="H24" s="41">
         <f t="shared" si="2"/>
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
@@ -19010,23 +19012,23 @@
       </c>
       <c r="C25" s="45">
         <f>$L$28*28000</f>
-        <v>28000</v>
+        <v>33600</v>
       </c>
       <c r="E25" s="41">
         <f>ROUND(IF(Inputs!$C$3="Monthly",0.25,0.18), 2)</f>
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="F25" s="41">
         <f t="shared" si="3"/>
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="G25" s="41">
         <f t="shared" si="3"/>
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="H25" s="41">
         <f t="shared" si="2"/>
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="K25" s="6" t="s">
         <v>125</v>
@@ -19042,23 +19044,23 @@
       </c>
       <c r="C26" s="45">
         <f>$L$28*33600</f>
-        <v>33600</v>
+        <v>40320</v>
       </c>
       <c r="E26" s="41">
         <f>ROUND($L$28*0.25, 2)</f>
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="F26" s="41">
         <f t="shared" si="3"/>
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="G26" s="41">
         <f t="shared" si="3"/>
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H26" s="41">
         <f t="shared" si="2"/>
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
@@ -19067,23 +19069,23 @@
       </c>
       <c r="C27" s="45">
         <f>$L$28*28000</f>
-        <v>28000</v>
+        <v>33600</v>
       </c>
       <c r="E27" s="41">
         <f>ROUND(IF(Inputs!$C$3="Monthly",0.25,0.18), 2)</f>
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="F27" s="41">
         <f t="shared" si="3"/>
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="G27" s="41">
         <f t="shared" si="3"/>
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="H27" s="41">
         <f t="shared" si="2"/>
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
@@ -19092,30 +19094,30 @@
       </c>
       <c r="C28" s="45">
         <f>$L$28*20000</f>
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="E28" s="41">
         <f>ROUND($L$28*0.14, 2)</f>
-        <v>0.14000000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="F28" s="41">
         <f t="shared" si="3"/>
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="G28" s="41">
         <f t="shared" si="3"/>
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="H28" s="41">
         <f t="shared" si="2"/>
-        <v>1.9999999999999997E-2</v>
+        <v>0.03</v>
       </c>
       <c r="K28" s="6" t="s">
         <v>126</v>
       </c>
       <c r="L28" s="97">
         <f>IF(Inputs!$C$3="Monthly",Prices!$L$25,1)</f>
-        <v>1</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
@@ -19123,24 +19125,24 @@
         <v>96</v>
       </c>
       <c r="C29" s="82">
-        <f>$L$28*IF(Inputs!$C$4 = "Yes", 8400, 9600)</f>
-        <v>8400</v>
+        <f>$L$28*IF(Inputs!$C$4 = "Yes", 6750, 9600)</f>
+        <v>11520</v>
       </c>
       <c r="E29" s="83">
         <f>ROUND(IF(Inputs!$C$3="Monthly",0.6,0.42), 2)</f>
-        <v>0.42</v>
+        <v>0.6</v>
       </c>
       <c r="F29" s="83">
         <f t="shared" si="3"/>
-        <v>0.25</v>
+        <v>0.36</v>
       </c>
       <c r="G29" s="83">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H29" s="83">
         <f t="shared" si="2"/>
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
@@ -19149,7 +19151,7 @@
       </c>
       <c r="L30" s="102">
         <f>IF(Inputs!$C$3="Quarterly",$L$25,1)</f>
-        <v>1.2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/0273NYP - New York Premier/Premier_Pricing_Model.xlsx
+++ b/0273NYP - New York Premier/Premier_Pricing_Model.xlsx
@@ -1317,7 +1317,7 @@
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1478,7 +1478,7 @@
         <v>97</v>
       </c>
       <c r="D13" s="55" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="E13" s="55"/>
       <c r="F13" s="55"/>
@@ -2478,7 +2478,7 @@
       </c>
       <c r="D27" s="1">
         <f>SUM(Calcs!D74, Calcs!D85)</f>
-        <v>0</v>
+        <v>11520</v>
       </c>
       <c r="E27" s="1">
         <f>SUM(Calcs!E74, Calcs!E85)</f>
@@ -2518,7 +2518,7 @@
       </c>
       <c r="D30" s="1">
         <f>SUM(Calcs!D110:D114)</f>
-        <v>-3060</v>
+        <v>-8046</v>
       </c>
       <c r="E30" s="1">
         <f>SUM(Calcs!E110:E114)</f>
@@ -2619,7 +2619,7 @@
       </c>
       <c r="D34" s="7">
         <f>SUM(D7:D16, D19:D27, D30:D32)</f>
-        <v>67140</v>
+        <v>73674</v>
       </c>
       <c r="E34" s="7">
         <f>SUM(E7:E16, E19:E27, E30:E31)</f>
@@ -2755,7 +2755,7 @@
       </c>
       <c r="D43" s="7">
         <f>(D34/12*Inputs!$C$2+D4)*$C$37+D41</f>
-        <v>209000.25</v>
+        <v>228847.27499999999</v>
       </c>
       <c r="E43" s="7">
         <f>(E34/12*Inputs!$C$2+E4)*$C$37+E41</f>
@@ -2803,13 +2803,13 @@
     <row r="47" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C47" s="7">
         <f>SUM(Outputs_Timeline!W:W)</f>
-        <v>209000.25</v>
+        <v>228847.27500000005</v>
       </c>
     </row>
     <row r="48" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C48" s="52">
         <f>SUM(D43:H43)</f>
-        <v>209000.25</v>
+        <v>228847.27499999999</v>
       </c>
       <c r="D48" s="1"/>
       <c r="G48" s="1"/>
@@ -2842,10 +2842,10 @@
   <dimension ref="B1:Q82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4282,7 +4282,7 @@
       </c>
       <c r="D46" s="84">
         <f>SUM(Calcs!D96:H96)</f>
-        <v>0</v>
+        <v>11520</v>
       </c>
       <c r="F46" s="85">
         <v>0.1</v>
@@ -4299,11 +4299,11 @@
       </c>
       <c r="K46" s="84">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1152</v>
       </c>
       <c r="L46" s="84">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>10368</v>
       </c>
       <c r="M46" s="84">
         <f t="shared" si="23"/>
@@ -4710,15 +4710,15 @@
       </c>
       <c r="D60" s="1">
         <f>SUM(Outputs_External!D30:'Outputs_External'!H30)</f>
-        <v>-3060</v>
+        <v>-8046</v>
       </c>
       <c r="F60" s="8">
         <f>IFERROR(SUM(K74:K82)/SUM($K$74:$N$82), 0)</f>
-        <v>0.25632183908045975</v>
+        <v>0.228060263653484</v>
       </c>
       <c r="G60" s="8">
         <f t="shared" ref="G60:I60" si="72">IFERROR(SUM(L74:L82)/SUM($K$74:$N$82), 0)</f>
-        <v>0.7436781609195402</v>
+        <v>0.77193973634651603</v>
       </c>
       <c r="H60" s="8">
         <f t="shared" si="72"/>
@@ -4730,11 +4730,11 @@
       </c>
       <c r="K60" s="12">
         <f>F60*$D$60</f>
-        <v>-784.34482758620686</v>
+        <v>-1834.9728813559323</v>
       </c>
       <c r="L60" s="12">
         <f>G60*$D$60</f>
-        <v>-2275.655172413793</v>
+        <v>-6211.0271186440677</v>
       </c>
       <c r="M60" s="12">
         <f>H60*$D$60</f>
@@ -4755,11 +4755,11 @@
       </c>
       <c r="F61" s="3">
         <f>IFERROR(SUM(K10:K60)/SUM($K10:$N60), 0)</f>
-        <v>0.31494869187390218</v>
+        <v>0.28839247385297478</v>
       </c>
       <c r="G61" s="3">
         <f>IFERROR(SUM(L10:L60)/SUM($K10:$N60), 0)</f>
-        <v>0.68505130812609782</v>
+        <v>0.71160752614702516</v>
       </c>
       <c r="H61" s="3">
         <f>IFERROR(SUM(M10:M60)/SUM($K10:$N60), 0)</f>
@@ -4834,15 +4834,15 @@
       </c>
       <c r="D64" s="1">
         <f>SUM(Outputs_External!D34:'Outputs_External'!H34)</f>
-        <v>67140</v>
+        <v>73674</v>
       </c>
       <c r="K64" s="12">
         <f>SUM(K60:K62, K38:K46, K10:K20,K25:K35,K49:K57)</f>
-        <v>21145.655172413793</v>
+        <v>21247.027118644066</v>
       </c>
       <c r="L64" s="12">
         <f>SUM(L60:L62, L38:L46, L10:L20,L25:L35,L49:L57)</f>
-        <v>45994.344827586203</v>
+        <v>52426.972881355934</v>
       </c>
       <c r="M64" s="12">
         <f>SUM(M60:M62, M38:M46, M10:M20,M25:M35,M49:M57)</f>
@@ -4859,7 +4859,7 @@
       </c>
       <c r="D65" s="23">
         <f>SUM(K64:N64)</f>
-        <v>67140</v>
+        <v>73674</v>
       </c>
       <c r="K65" s="12"/>
       <c r="L65" s="12"/>
@@ -4924,15 +4924,15 @@
       </c>
       <c r="D69" s="7">
         <f>SUM(Outputs_Timeline!W:W)</f>
-        <v>209000.25</v>
+        <v>228847.27500000005</v>
       </c>
       <c r="K69" s="12">
         <f>SUM(Outputs_Timeline!X:X)</f>
-        <v>66761.17758620689</v>
+        <v>67069.094872881353</v>
       </c>
       <c r="L69" s="12">
         <f>SUM(Outputs_Timeline!Y:Y)</f>
-        <v>142239.07241379312</v>
+        <v>161778.18012711869</v>
       </c>
       <c r="M69" s="12">
         <f>SUM(Outputs_Timeline!Z:Z)</f>
@@ -4947,11 +4947,11 @@
       <c r="D70" s="1"/>
       <c r="K70" s="53">
         <f>IFERROR(K69/$D$69, 0)</f>
-        <v>0.31943108960973438</v>
+        <v>0.2930736006049508</v>
       </c>
       <c r="L70" s="53">
         <f>IFERROR(L69/$D$69, 0)</f>
-        <v>0.68056891039026568</v>
+        <v>0.7069263993950492</v>
       </c>
       <c r="M70" s="53">
         <f>IFERROR(M69/$D$69, 0)</f>
@@ -5341,17 +5341,17 @@
         <v>97</v>
       </c>
       <c r="D82" s="23">
-        <f>SUM(Calcs!D74:H74)+SUM(Calcs!D85:H85)</f>
-        <v>0</v>
+        <f>IF(Inputs!$C$4 = "Yes", 0, SUM(Calcs!D74:H74)+SUM(Calcs!D85:H85))</f>
+        <v>11520</v>
       </c>
       <c r="E82" s="21"/>
       <c r="F82" s="24">
         <f t="shared" ref="F82" si="93">IFERROR(SUM(K46,K57)/SUM($K46:$N46,$K57:$N57),0)</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G82" s="24">
         <f t="shared" ref="G82" si="94">IFERROR(SUM(L46,L57)/SUM($K46:$N46,$K57:$N57),0)</f>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="H82" s="24">
         <f t="shared" ref="H82" si="95">IFERROR(SUM(M46,M57)/SUM($K46:$N46,$K57:$N57),0)</f>
@@ -5363,12 +5363,12 @@
       </c>
       <c r="J82" s="21"/>
       <c r="K82" s="25">
-        <f t="shared" si="80"/>
-        <v>0</v>
+        <f>F82*$D82</f>
+        <v>1152</v>
       </c>
       <c r="L82" s="25">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>10368</v>
       </c>
       <c r="M82" s="25">
         <f t="shared" si="82"/>
@@ -5393,7 +5393,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="R27" sqref="R27:R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8088,15 +8088,15 @@
       </c>
       <c r="P27" s="63">
         <f>$F27*Outputs_Internal!$D$64/12+N27</f>
-        <v>5664.9375</v>
+        <v>6216.2437500000005</v>
       </c>
       <c r="Q27" s="63">
         <f>$F27*Outputs_Internal!K$64/12+N27*'MARA Prices'!$F$5</f>
-        <v>1784.1646551724136</v>
+        <v>1792.7179131355931</v>
       </c>
       <c r="R27" s="63">
         <f>$F27*Outputs_Internal!L$64/12+N27*'MARA Prices'!$F$6</f>
-        <v>3880.7728448275861</v>
+        <v>4423.5258368644072</v>
       </c>
       <c r="S27" s="63">
         <f>N27*'MARA Prices'!$F$4</f>
@@ -8194,15 +8194,15 @@
       </c>
       <c r="P28" s="63">
         <f>$F28*Outputs_Internal!$D$64/12+N28</f>
-        <v>5664.9375</v>
+        <v>6216.2437500000005</v>
       </c>
       <c r="Q28" s="63">
         <f>$F28*Outputs_Internal!K$64/12+N28*'MARA Prices'!$F$5</f>
-        <v>1784.1646551724136</v>
+        <v>1792.7179131355931</v>
       </c>
       <c r="R28" s="63">
         <f>$F28*Outputs_Internal!L$64/12+N28*'MARA Prices'!$F$6</f>
-        <v>3880.7728448275861</v>
+        <v>4423.5258368644072</v>
       </c>
       <c r="S28" s="63">
         <f>N28*'MARA Prices'!$F$4</f>
@@ -8300,15 +8300,15 @@
       </c>
       <c r="P29" s="63">
         <f>$F29*Outputs_Internal!$D$64/12+N29</f>
-        <v>5664.9375</v>
+        <v>6216.2437500000005</v>
       </c>
       <c r="Q29" s="63">
         <f>$F29*Outputs_Internal!K$64/12+N29*'MARA Prices'!$F$5</f>
-        <v>1784.1646551724136</v>
+        <v>1792.7179131355931</v>
       </c>
       <c r="R29" s="63">
         <f>$F29*Outputs_Internal!L$64/12+N29*'MARA Prices'!$F$6</f>
-        <v>3880.7728448275861</v>
+        <v>4423.5258368644072</v>
       </c>
       <c r="S29" s="63">
         <f>N29*'MARA Prices'!$F$4</f>
@@ -8324,15 +8324,15 @@
       </c>
       <c r="W29" s="63">
         <f t="shared" si="2"/>
-        <v>22057.3125</v>
+        <v>23711.231250000004</v>
       </c>
       <c r="X29" s="63">
         <f t="shared" si="3"/>
-        <v>7883.7439655172402</v>
+        <v>7909.40373940678</v>
       </c>
       <c r="Y29" s="63">
         <f t="shared" si="4"/>
-        <v>14173.56853448276</v>
+        <v>15801.827510593223</v>
       </c>
       <c r="Z29" s="63">
         <f t="shared" si="5"/>
@@ -8406,15 +8406,15 @@
       </c>
       <c r="P30" s="63">
         <f>$F30*Outputs_Internal!$D$64/12+N30</f>
-        <v>5664.9375</v>
+        <v>6216.2437500000005</v>
       </c>
       <c r="Q30" s="63">
         <f>$F30*Outputs_Internal!K$64/12+N30*'MARA Prices'!$F$5</f>
-        <v>1784.1646551724136</v>
+        <v>1792.7179131355931</v>
       </c>
       <c r="R30" s="63">
         <f>$F30*Outputs_Internal!L$64/12+N30*'MARA Prices'!$F$6</f>
-        <v>3880.7728448275861</v>
+        <v>4423.5258368644072</v>
       </c>
       <c r="S30" s="63">
         <f>N30*'MARA Prices'!$F$4</f>
@@ -8512,15 +8512,15 @@
       </c>
       <c r="P31" s="63">
         <f>$F31*Outputs_Internal!$D$64/12+N31</f>
-        <v>5664.9375</v>
+        <v>6216.2437500000005</v>
       </c>
       <c r="Q31" s="63">
         <f>$F31*Outputs_Internal!K$64/12+N31*'MARA Prices'!$F$5</f>
-        <v>1784.1646551724136</v>
+        <v>1792.7179131355931</v>
       </c>
       <c r="R31" s="63">
         <f>$F31*Outputs_Internal!L$64/12+N31*'MARA Prices'!$F$6</f>
-        <v>3880.7728448275861</v>
+        <v>4423.5258368644072</v>
       </c>
       <c r="S31" s="63">
         <f>N31*'MARA Prices'!$F$4</f>
@@ -8618,15 +8618,15 @@
       </c>
       <c r="P32" s="63">
         <f>$F32*Outputs_Internal!$D$64/12+N32</f>
-        <v>5664.9375</v>
+        <v>6216.2437500000005</v>
       </c>
       <c r="Q32" s="63">
         <f>$F32*Outputs_Internal!K$64/12+N32*'MARA Prices'!$F$5</f>
-        <v>1784.1646551724136</v>
+        <v>1792.7179131355931</v>
       </c>
       <c r="R32" s="63">
         <f>$F32*Outputs_Internal!L$64/12+N32*'MARA Prices'!$F$6</f>
-        <v>3880.7728448275861</v>
+        <v>4423.5258368644072</v>
       </c>
       <c r="S32" s="63">
         <f>N32*'MARA Prices'!$F$4</f>
@@ -8642,15 +8642,15 @@
       </c>
       <c r="W32" s="63">
         <f t="shared" si="2"/>
-        <v>16994.8125</v>
+        <v>18648.731250000001</v>
       </c>
       <c r="X32" s="63">
         <f t="shared" si="3"/>
-        <v>5352.4939655172411</v>
+        <v>5378.1537394067791</v>
       </c>
       <c r="Y32" s="63">
         <f t="shared" si="4"/>
-        <v>11642.318534482758</v>
+        <v>13270.577510593223</v>
       </c>
       <c r="Z32" s="63">
         <f t="shared" si="5"/>
@@ -8724,15 +8724,15 @@
       </c>
       <c r="P33" s="63">
         <f>$F33*Outputs_Internal!$D$64/12+N33</f>
-        <v>5664.9375</v>
+        <v>6216.2437500000005</v>
       </c>
       <c r="Q33" s="63">
         <f>$F33*Outputs_Internal!K$64/12+N33*'MARA Prices'!$F$5</f>
-        <v>1784.1646551724136</v>
+        <v>1792.7179131355931</v>
       </c>
       <c r="R33" s="63">
         <f>$F33*Outputs_Internal!L$64/12+N33*'MARA Prices'!$F$6</f>
-        <v>3880.7728448275861</v>
+        <v>4423.5258368644072</v>
       </c>
       <c r="S33" s="63">
         <f>N33*'MARA Prices'!$F$4</f>
@@ -8830,15 +8830,15 @@
       </c>
       <c r="P34" s="63">
         <f>$F34*Outputs_Internal!$D$64/12+N34</f>
-        <v>5664.9375</v>
+        <v>6216.2437500000005</v>
       </c>
       <c r="Q34" s="63">
         <f>$F34*Outputs_Internal!K$64/12+N34*'MARA Prices'!$F$5</f>
-        <v>1784.1646551724136</v>
+        <v>1792.7179131355931</v>
       </c>
       <c r="R34" s="63">
         <f>$F34*Outputs_Internal!L$64/12+N34*'MARA Prices'!$F$6</f>
-        <v>3880.7728448275861</v>
+        <v>4423.5258368644072</v>
       </c>
       <c r="S34" s="63">
         <f>N34*'MARA Prices'!$F$4</f>
@@ -8936,15 +8936,15 @@
       </c>
       <c r="P35" s="63">
         <f>$F35*Outputs_Internal!$D$64/12+N35</f>
-        <v>5664.9375</v>
+        <v>6216.2437500000005</v>
       </c>
       <c r="Q35" s="63">
         <f>$F35*Outputs_Internal!K$64/12+N35*'MARA Prices'!$F$5</f>
-        <v>1784.1646551724136</v>
+        <v>1792.7179131355931</v>
       </c>
       <c r="R35" s="63">
         <f>$F35*Outputs_Internal!L$64/12+N35*'MARA Prices'!$F$6</f>
-        <v>3880.7728448275861</v>
+        <v>4423.5258368644072</v>
       </c>
       <c r="S35" s="63">
         <f>N35*'MARA Prices'!$F$4</f>
@@ -8960,15 +8960,15 @@
       </c>
       <c r="W35" s="63">
         <f t="shared" si="2"/>
-        <v>16994.8125</v>
+        <v>18648.731250000001</v>
       </c>
       <c r="X35" s="63">
         <f t="shared" si="3"/>
-        <v>5352.4939655172411</v>
+        <v>5378.1537394067791</v>
       </c>
       <c r="Y35" s="63">
         <f t="shared" si="4"/>
-        <v>11642.318534482758</v>
+        <v>13270.577510593223</v>
       </c>
       <c r="Z35" s="63">
         <f t="shared" si="5"/>
@@ -9042,15 +9042,15 @@
       </c>
       <c r="P36" s="63">
         <f>$F36*Outputs_Internal!$D$64/12+N36</f>
-        <v>5664.9375</v>
+        <v>6216.2437500000005</v>
       </c>
       <c r="Q36" s="63">
         <f>$F36*Outputs_Internal!K$64/12+N36*'MARA Prices'!$F$5</f>
-        <v>1784.1646551724136</v>
+        <v>1792.7179131355931</v>
       </c>
       <c r="R36" s="63">
         <f>$F36*Outputs_Internal!L$64/12+N36*'MARA Prices'!$F$6</f>
-        <v>3880.7728448275861</v>
+        <v>4423.5258368644072</v>
       </c>
       <c r="S36" s="63">
         <f>N36*'MARA Prices'!$F$4</f>
@@ -9148,15 +9148,15 @@
       </c>
       <c r="P37" s="63">
         <f>$F37*Outputs_Internal!$D$64/12+N37</f>
-        <v>5664.9375</v>
+        <v>6216.2437500000005</v>
       </c>
       <c r="Q37" s="63">
         <f>$F37*Outputs_Internal!K$64/12+N37*'MARA Prices'!$F$5</f>
-        <v>1784.1646551724136</v>
+        <v>1792.7179131355931</v>
       </c>
       <c r="R37" s="63">
         <f>$F37*Outputs_Internal!L$64/12+N37*'MARA Prices'!$F$6</f>
-        <v>3880.7728448275861</v>
+        <v>4423.5258368644072</v>
       </c>
       <c r="S37" s="63">
         <f>N37*'MARA Prices'!$F$4</f>
@@ -9254,15 +9254,15 @@
       </c>
       <c r="P38" s="63">
         <f>$F38*Outputs_Internal!$D$64/12+N38</f>
-        <v>5664.9375</v>
+        <v>6216.2437500000005</v>
       </c>
       <c r="Q38" s="63">
         <f>$F38*Outputs_Internal!K$64/12+N38*'MARA Prices'!$F$5</f>
-        <v>1784.1646551724136</v>
+        <v>1792.7179131355931</v>
       </c>
       <c r="R38" s="63">
         <f>$F38*Outputs_Internal!L$64/12+N38*'MARA Prices'!$F$6</f>
-        <v>3880.7728448275861</v>
+        <v>4423.5258368644072</v>
       </c>
       <c r="S38" s="63">
         <f>N38*'MARA Prices'!$F$4</f>
@@ -9278,15 +9278,15 @@
       </c>
       <c r="W38" s="63">
         <f t="shared" si="7"/>
-        <v>16994.8125</v>
+        <v>18648.731250000001</v>
       </c>
       <c r="X38" s="63">
         <f t="shared" si="8"/>
-        <v>5352.4939655172411</v>
+        <v>5378.1537394067791</v>
       </c>
       <c r="Y38" s="63">
         <f t="shared" si="9"/>
-        <v>11642.318534482758</v>
+        <v>13270.577510593223</v>
       </c>
       <c r="Z38" s="63">
         <f t="shared" si="10"/>
@@ -9360,15 +9360,15 @@
       </c>
       <c r="P39" s="63">
         <f>$F39*Outputs_Internal!$D$64/12+N39</f>
-        <v>5664.9375</v>
+        <v>6216.2437500000005</v>
       </c>
       <c r="Q39" s="63">
         <f>$F39*Outputs_Internal!K$64/12+N39*'MARA Prices'!$F$5</f>
-        <v>1784.1646551724136</v>
+        <v>1792.7179131355931</v>
       </c>
       <c r="R39" s="63">
         <f>$F39*Outputs_Internal!L$64/12+N39*'MARA Prices'!$F$6</f>
-        <v>3880.7728448275861</v>
+        <v>4423.5258368644072</v>
       </c>
       <c r="S39" s="63">
         <f>N39*'MARA Prices'!$F$4</f>
@@ -9466,15 +9466,15 @@
       </c>
       <c r="P40" s="63">
         <f>$F40*Outputs_Internal!$D$64/12+N40</f>
-        <v>5664.9375</v>
+        <v>6216.2437500000005</v>
       </c>
       <c r="Q40" s="63">
         <f>$F40*Outputs_Internal!K$64/12+N40*'MARA Prices'!$F$5</f>
-        <v>1784.1646551724136</v>
+        <v>1792.7179131355931</v>
       </c>
       <c r="R40" s="63">
         <f>$F40*Outputs_Internal!L$64/12+N40*'MARA Prices'!$F$6</f>
-        <v>3880.7728448275861</v>
+        <v>4423.5258368644072</v>
       </c>
       <c r="S40" s="63">
         <f>N40*'MARA Prices'!$F$4</f>
@@ -9572,15 +9572,15 @@
       </c>
       <c r="P41" s="63">
         <f>$F41*Outputs_Internal!$D$64/12+N41</f>
-        <v>5664.9375</v>
+        <v>6216.2437500000005</v>
       </c>
       <c r="Q41" s="63">
         <f>$F41*Outputs_Internal!K$64/12+N41*'MARA Prices'!$F$5</f>
-        <v>1784.1646551724136</v>
+        <v>1792.7179131355931</v>
       </c>
       <c r="R41" s="63">
         <f>$F41*Outputs_Internal!L$64/12+N41*'MARA Prices'!$F$6</f>
-        <v>3880.7728448275861</v>
+        <v>4423.5258368644072</v>
       </c>
       <c r="S41" s="63">
         <f>N41*'MARA Prices'!$F$4</f>
@@ -9596,15 +9596,15 @@
       </c>
       <c r="W41" s="63">
         <f t="shared" si="7"/>
-        <v>16994.8125</v>
+        <v>18648.731250000001</v>
       </c>
       <c r="X41" s="63">
         <f t="shared" si="8"/>
-        <v>5352.4939655172411</v>
+        <v>5378.1537394067791</v>
       </c>
       <c r="Y41" s="63">
         <f t="shared" si="9"/>
-        <v>11642.318534482758</v>
+        <v>13270.577510593223</v>
       </c>
       <c r="Z41" s="63">
         <f t="shared" si="10"/>
@@ -9678,15 +9678,15 @@
       </c>
       <c r="P42" s="63">
         <f>$F42*Outputs_Internal!$D$64/12+N42</f>
-        <v>5664.9375</v>
+        <v>6216.2437500000005</v>
       </c>
       <c r="Q42" s="63">
         <f>$F42*Outputs_Internal!K$64/12+N42*'MARA Prices'!$F$5</f>
-        <v>1784.1646551724136</v>
+        <v>1792.7179131355931</v>
       </c>
       <c r="R42" s="63">
         <f>$F42*Outputs_Internal!L$64/12+N42*'MARA Prices'!$F$6</f>
-        <v>3880.7728448275861</v>
+        <v>4423.5258368644072</v>
       </c>
       <c r="S42" s="63">
         <f>N42*'MARA Prices'!$F$4</f>
@@ -9784,15 +9784,15 @@
       </c>
       <c r="P43" s="63">
         <f>$F43*Outputs_Internal!$D$64/12+N43</f>
-        <v>5664.9375</v>
+        <v>6216.2437500000005</v>
       </c>
       <c r="Q43" s="63">
         <f>$F43*Outputs_Internal!K$64/12+N43*'MARA Prices'!$F$5</f>
-        <v>1784.1646551724136</v>
+        <v>1792.7179131355931</v>
       </c>
       <c r="R43" s="63">
         <f>$F43*Outputs_Internal!L$64/12+N43*'MARA Prices'!$F$6</f>
-        <v>3880.7728448275861</v>
+        <v>4423.5258368644072</v>
       </c>
       <c r="S43" s="63">
         <f>N43*'MARA Prices'!$F$4</f>
@@ -9890,15 +9890,15 @@
       </c>
       <c r="P44" s="63">
         <f>$F44*Outputs_Internal!$D$64/12+N44</f>
-        <v>5664.9375</v>
+        <v>6216.2437500000005</v>
       </c>
       <c r="Q44" s="63">
         <f>$F44*Outputs_Internal!K$64/12+N44*'MARA Prices'!$F$5</f>
-        <v>1784.1646551724136</v>
+        <v>1792.7179131355931</v>
       </c>
       <c r="R44" s="63">
         <f>$F44*Outputs_Internal!L$64/12+N44*'MARA Prices'!$F$6</f>
-        <v>3880.7728448275861</v>
+        <v>4423.5258368644072</v>
       </c>
       <c r="S44" s="63">
         <f>N44*'MARA Prices'!$F$4</f>
@@ -9914,15 +9914,15 @@
       </c>
       <c r="W44" s="63">
         <f t="shared" si="7"/>
-        <v>16994.8125</v>
+        <v>18648.731250000001</v>
       </c>
       <c r="X44" s="63">
         <f t="shared" si="8"/>
-        <v>5352.4939655172411</v>
+        <v>5378.1537394067791</v>
       </c>
       <c r="Y44" s="63">
         <f t="shared" si="9"/>
-        <v>11642.318534482758</v>
+        <v>13270.577510593223</v>
       </c>
       <c r="Z44" s="63">
         <f t="shared" si="10"/>
@@ -9996,15 +9996,15 @@
       </c>
       <c r="P45" s="63">
         <f>$F45*Outputs_Internal!$D$64/12+N45</f>
-        <v>5664.9375</v>
+        <v>6216.2437500000005</v>
       </c>
       <c r="Q45" s="63">
         <f>$F45*Outputs_Internal!K$64/12+N45*'MARA Prices'!$F$5</f>
-        <v>1784.1646551724136</v>
+        <v>1792.7179131355931</v>
       </c>
       <c r="R45" s="63">
         <f>$F45*Outputs_Internal!L$64/12+N45*'MARA Prices'!$F$6</f>
-        <v>3880.7728448275861</v>
+        <v>4423.5258368644072</v>
       </c>
       <c r="S45" s="63">
         <f>N45*'MARA Prices'!$F$4</f>
@@ -10102,15 +10102,15 @@
       </c>
       <c r="P46" s="63">
         <f>$F46*Outputs_Internal!$D$64/12+N46</f>
-        <v>5664.9375</v>
+        <v>6216.2437500000005</v>
       </c>
       <c r="Q46" s="63">
         <f>$F46*Outputs_Internal!K$64/12+N46*'MARA Prices'!$F$5</f>
-        <v>1784.1646551724136</v>
+        <v>1792.7179131355931</v>
       </c>
       <c r="R46" s="63">
         <f>$F46*Outputs_Internal!L$64/12+N46*'MARA Prices'!$F$6</f>
-        <v>3880.7728448275861</v>
+        <v>4423.5258368644072</v>
       </c>
       <c r="S46" s="63">
         <f>N46*'MARA Prices'!$F$4</f>
@@ -10208,15 +10208,15 @@
       </c>
       <c r="P47" s="63">
         <f>$F47*Outputs_Internal!$D$64/12+N47</f>
-        <v>5664.9375</v>
+        <v>6216.2437500000005</v>
       </c>
       <c r="Q47" s="63">
         <f>$F47*Outputs_Internal!K$64/12+N47*'MARA Prices'!$F$5</f>
-        <v>1784.1646551724136</v>
+        <v>1792.7179131355931</v>
       </c>
       <c r="R47" s="63">
         <f>$F47*Outputs_Internal!L$64/12+N47*'MARA Prices'!$F$6</f>
-        <v>3880.7728448275861</v>
+        <v>4423.5258368644072</v>
       </c>
       <c r="S47" s="63">
         <f>N47*'MARA Prices'!$F$4</f>
@@ -10232,15 +10232,15 @@
       </c>
       <c r="W47" s="63">
         <f t="shared" si="7"/>
-        <v>16994.8125</v>
+        <v>18648.731250000001</v>
       </c>
       <c r="X47" s="63">
         <f t="shared" si="8"/>
-        <v>5352.4939655172411</v>
+        <v>5378.1537394067791</v>
       </c>
       <c r="Y47" s="63">
         <f t="shared" si="9"/>
-        <v>11642.318534482758</v>
+        <v>13270.577510593223</v>
       </c>
       <c r="Z47" s="63">
         <f t="shared" si="10"/>
@@ -10314,15 +10314,15 @@
       </c>
       <c r="P48" s="63">
         <f>$F48*Outputs_Internal!$D$64/12+N48</f>
-        <v>5664.9375</v>
+        <v>6216.2437500000005</v>
       </c>
       <c r="Q48" s="63">
         <f>$F48*Outputs_Internal!K$64/12+N48*'MARA Prices'!$F$5</f>
-        <v>1784.1646551724136</v>
+        <v>1792.7179131355931</v>
       </c>
       <c r="R48" s="63">
         <f>$F48*Outputs_Internal!L$64/12+N48*'MARA Prices'!$F$6</f>
-        <v>3880.7728448275861</v>
+        <v>4423.5258368644072</v>
       </c>
       <c r="S48" s="63">
         <f>N48*'MARA Prices'!$F$4</f>
@@ -10420,15 +10420,15 @@
       </c>
       <c r="P49" s="63">
         <f>$F49*Outputs_Internal!$D$64/12+N49</f>
-        <v>5664.9375</v>
+        <v>6216.2437500000005</v>
       </c>
       <c r="Q49" s="63">
         <f>$F49*Outputs_Internal!K$64/12+N49*'MARA Prices'!$F$5</f>
-        <v>1784.1646551724136</v>
+        <v>1792.7179131355931</v>
       </c>
       <c r="R49" s="63">
         <f>$F49*Outputs_Internal!L$64/12+N49*'MARA Prices'!$F$6</f>
-        <v>3880.7728448275861</v>
+        <v>4423.5258368644072</v>
       </c>
       <c r="S49" s="63">
         <f>N49*'MARA Prices'!$F$4</f>
@@ -10526,15 +10526,15 @@
       </c>
       <c r="P50" s="63">
         <f>$F50*Outputs_Internal!$D$64/12+N50</f>
-        <v>5664.9375</v>
+        <v>6216.2437500000005</v>
       </c>
       <c r="Q50" s="63">
         <f>$F50*Outputs_Internal!K$64/12+N50*'MARA Prices'!$F$5</f>
-        <v>1784.1646551724136</v>
+        <v>1792.7179131355931</v>
       </c>
       <c r="R50" s="63">
         <f>$F50*Outputs_Internal!L$64/12+N50*'MARA Prices'!$F$6</f>
-        <v>3880.7728448275861</v>
+        <v>4423.5258368644072</v>
       </c>
       <c r="S50" s="63">
         <f>N50*'MARA Prices'!$F$4</f>
@@ -10550,15 +10550,15 @@
       </c>
       <c r="W50" s="63">
         <f t="shared" si="7"/>
-        <v>16994.8125</v>
+        <v>18648.731250000001</v>
       </c>
       <c r="X50" s="63">
         <f t="shared" si="8"/>
-        <v>5352.4939655172411</v>
+        <v>5378.1537394067791</v>
       </c>
       <c r="Y50" s="63">
         <f t="shared" si="9"/>
-        <v>11642.318534482758</v>
+        <v>13270.577510593223</v>
       </c>
       <c r="Z50" s="63">
         <f t="shared" si="10"/>
@@ -10632,15 +10632,15 @@
       </c>
       <c r="P51" s="63">
         <f>$F51*Outputs_Internal!$D$64/12+N51</f>
-        <v>5664.9375</v>
+        <v>6216.2437500000005</v>
       </c>
       <c r="Q51" s="63">
         <f>$F51*Outputs_Internal!K$64/12+N51*'MARA Prices'!$F$5</f>
-        <v>1784.1646551724136</v>
+        <v>1792.7179131355931</v>
       </c>
       <c r="R51" s="63">
         <f>$F51*Outputs_Internal!L$64/12+N51*'MARA Prices'!$F$6</f>
-        <v>3880.7728448275861</v>
+        <v>4423.5258368644072</v>
       </c>
       <c r="S51" s="63">
         <f>N51*'MARA Prices'!$F$4</f>
@@ -10738,15 +10738,15 @@
       </c>
       <c r="P52" s="63">
         <f>$F52*Outputs_Internal!$D$64/12+N52</f>
-        <v>5664.9375</v>
+        <v>6216.2437500000005</v>
       </c>
       <c r="Q52" s="63">
         <f>$F52*Outputs_Internal!K$64/12+N52*'MARA Prices'!$F$5</f>
-        <v>1784.1646551724136</v>
+        <v>1792.7179131355931</v>
       </c>
       <c r="R52" s="63">
         <f>$F52*Outputs_Internal!L$64/12+N52*'MARA Prices'!$F$6</f>
-        <v>3880.7728448275861</v>
+        <v>4423.5258368644072</v>
       </c>
       <c r="S52" s="63">
         <f>N52*'MARA Prices'!$F$4</f>
@@ -10844,15 +10844,15 @@
       </c>
       <c r="P53" s="63">
         <f>$F53*Outputs_Internal!$D$64/12+N53</f>
-        <v>5664.9375</v>
+        <v>6216.2437500000005</v>
       </c>
       <c r="Q53" s="63">
         <f>$F53*Outputs_Internal!K$64/12+N53*'MARA Prices'!$F$5</f>
-        <v>1784.1646551724136</v>
+        <v>1792.7179131355931</v>
       </c>
       <c r="R53" s="63">
         <f>$F53*Outputs_Internal!L$64/12+N53*'MARA Prices'!$F$6</f>
-        <v>3880.7728448275861</v>
+        <v>4423.5258368644072</v>
       </c>
       <c r="S53" s="63">
         <f>N53*'MARA Prices'!$F$4</f>
@@ -10868,15 +10868,15 @@
       </c>
       <c r="W53" s="63">
         <f t="shared" si="7"/>
-        <v>16994.8125</v>
+        <v>18648.731250000001</v>
       </c>
       <c r="X53" s="63">
         <f t="shared" si="8"/>
-        <v>5352.4939655172411</v>
+        <v>5378.1537394067791</v>
       </c>
       <c r="Y53" s="63">
         <f t="shared" si="9"/>
-        <v>11642.318534482758</v>
+        <v>13270.577510593223</v>
       </c>
       <c r="Z53" s="63">
         <f t="shared" si="10"/>
@@ -10950,15 +10950,15 @@
       </c>
       <c r="P54" s="63">
         <f>$F54*Outputs_Internal!$D$64/12+N54</f>
-        <v>5664.9375</v>
+        <v>6216.2437500000005</v>
       </c>
       <c r="Q54" s="63">
         <f>$F54*Outputs_Internal!K$64/12+N54*'MARA Prices'!$F$5</f>
-        <v>1784.1646551724136</v>
+        <v>1792.7179131355931</v>
       </c>
       <c r="R54" s="63">
         <f>$F54*Outputs_Internal!L$64/12+N54*'MARA Prices'!$F$6</f>
-        <v>3880.7728448275861</v>
+        <v>4423.5258368644072</v>
       </c>
       <c r="S54" s="63">
         <f>N54*'MARA Prices'!$F$4</f>
@@ -11056,15 +11056,15 @@
       </c>
       <c r="P55" s="63">
         <f>$F55*Outputs_Internal!$D$64/12+N55</f>
-        <v>5664.9375</v>
+        <v>6216.2437500000005</v>
       </c>
       <c r="Q55" s="63">
         <f>$F55*Outputs_Internal!K$64/12+N55*'MARA Prices'!$F$5</f>
-        <v>1784.1646551724136</v>
+        <v>1792.7179131355931</v>
       </c>
       <c r="R55" s="63">
         <f>$F55*Outputs_Internal!L$64/12+N55*'MARA Prices'!$F$6</f>
-        <v>3880.7728448275861</v>
+        <v>4423.5258368644072</v>
       </c>
       <c r="S55" s="63">
         <f>N55*'MARA Prices'!$F$4</f>
@@ -11162,15 +11162,15 @@
       </c>
       <c r="P56" s="63">
         <f>$F56*Outputs_Internal!$D$64/12+N56</f>
-        <v>5664.9375</v>
+        <v>6216.2437500000005</v>
       </c>
       <c r="Q56" s="63">
         <f>$F56*Outputs_Internal!K$64/12+N56*'MARA Prices'!$F$5</f>
-        <v>1784.1646551724136</v>
+        <v>1792.7179131355931</v>
       </c>
       <c r="R56" s="63">
         <f>$F56*Outputs_Internal!L$64/12+N56*'MARA Prices'!$F$6</f>
-        <v>3880.7728448275861</v>
+        <v>4423.5258368644072</v>
       </c>
       <c r="S56" s="63">
         <f>N56*'MARA Prices'!$F$4</f>
@@ -11186,15 +11186,15 @@
       </c>
       <c r="W56" s="63">
         <f t="shared" si="7"/>
-        <v>16994.8125</v>
+        <v>18648.731250000001</v>
       </c>
       <c r="X56" s="63">
         <f t="shared" si="8"/>
-        <v>5352.4939655172411</v>
+        <v>5378.1537394067791</v>
       </c>
       <c r="Y56" s="63">
         <f t="shared" si="9"/>
-        <v>11642.318534482758</v>
+        <v>13270.577510593223</v>
       </c>
       <c r="Z56" s="63">
         <f t="shared" si="10"/>
@@ -11268,15 +11268,15 @@
       </c>
       <c r="P57" s="63">
         <f>$F57*Outputs_Internal!$D$64/12+N57</f>
-        <v>5664.9375</v>
+        <v>6216.2437500000005</v>
       </c>
       <c r="Q57" s="63">
         <f>$F57*Outputs_Internal!K$64/12+N57*'MARA Prices'!$F$5</f>
-        <v>1784.1646551724136</v>
+        <v>1792.7179131355931</v>
       </c>
       <c r="R57" s="63">
         <f>$F57*Outputs_Internal!L$64/12+N57*'MARA Prices'!$F$6</f>
-        <v>3880.7728448275861</v>
+        <v>4423.5258368644072</v>
       </c>
       <c r="S57" s="63">
         <f>N57*'MARA Prices'!$F$4</f>
@@ -11374,15 +11374,15 @@
       </c>
       <c r="P58" s="63">
         <f>$F58*Outputs_Internal!$D$64/12+N58</f>
-        <v>5664.9375</v>
+        <v>6216.2437500000005</v>
       </c>
       <c r="Q58" s="63">
         <f>$F58*Outputs_Internal!K$64/12+N58*'MARA Prices'!$F$5</f>
-        <v>1784.1646551724136</v>
+        <v>1792.7179131355931</v>
       </c>
       <c r="R58" s="63">
         <f>$F58*Outputs_Internal!L$64/12+N58*'MARA Prices'!$F$6</f>
-        <v>3880.7728448275861</v>
+        <v>4423.5258368644072</v>
       </c>
       <c r="S58" s="63">
         <f>N58*'MARA Prices'!$F$4</f>
@@ -11480,15 +11480,15 @@
       </c>
       <c r="P59" s="63">
         <f>$F59*Outputs_Internal!$D$64/12+N59</f>
-        <v>5664.9375</v>
+        <v>6216.2437500000005</v>
       </c>
       <c r="Q59" s="63">
         <f>$F59*Outputs_Internal!K$64/12+N59*'MARA Prices'!$F$5</f>
-        <v>1784.1646551724136</v>
+        <v>1792.7179131355931</v>
       </c>
       <c r="R59" s="63">
         <f>$F59*Outputs_Internal!L$64/12+N59*'MARA Prices'!$F$6</f>
-        <v>3880.7728448275861</v>
+        <v>4423.5258368644072</v>
       </c>
       <c r="S59" s="63">
         <f>N59*'MARA Prices'!$F$4</f>
@@ -11504,15 +11504,15 @@
       </c>
       <c r="W59" s="63">
         <f t="shared" si="7"/>
-        <v>16994.8125</v>
+        <v>18648.731250000001</v>
       </c>
       <c r="X59" s="63">
         <f t="shared" si="8"/>
-        <v>5352.4939655172411</v>
+        <v>5378.1537394067791</v>
       </c>
       <c r="Y59" s="63">
         <f t="shared" si="9"/>
-        <v>11642.318534482758</v>
+        <v>13270.577510593223</v>
       </c>
       <c r="Z59" s="63">
         <f t="shared" si="10"/>
@@ -11586,15 +11586,15 @@
       </c>
       <c r="P60" s="63">
         <f>$F60*Outputs_Internal!$D$64/12+N60</f>
-        <v>5664.9375</v>
+        <v>6216.2437500000005</v>
       </c>
       <c r="Q60" s="63">
         <f>$F60*Outputs_Internal!K$64/12+N60*'MARA Prices'!$F$5</f>
-        <v>1784.1646551724136</v>
+        <v>1792.7179131355931</v>
       </c>
       <c r="R60" s="63">
         <f>$F60*Outputs_Internal!L$64/12+N60*'MARA Prices'!$F$6</f>
-        <v>3880.7728448275861</v>
+        <v>4423.5258368644072</v>
       </c>
       <c r="S60" s="63">
         <f>N60*'MARA Prices'!$F$4</f>
@@ -11692,15 +11692,15 @@
       </c>
       <c r="P61" s="63">
         <f>$F61*Outputs_Internal!$D$64/12+N61</f>
-        <v>5664.9375</v>
+        <v>6216.2437500000005</v>
       </c>
       <c r="Q61" s="63">
         <f>$F61*Outputs_Internal!K$64/12+N61*'MARA Prices'!$F$5</f>
-        <v>1784.1646551724136</v>
+        <v>1792.7179131355931</v>
       </c>
       <c r="R61" s="63">
         <f>$F61*Outputs_Internal!L$64/12+N61*'MARA Prices'!$F$6</f>
-        <v>3880.7728448275861</v>
+        <v>4423.5258368644072</v>
       </c>
       <c r="S61" s="63">
         <f>N61*'MARA Prices'!$F$4</f>
@@ -11798,15 +11798,15 @@
       </c>
       <c r="P62" s="63">
         <f>$F62*Outputs_Internal!$D$64/12+N62</f>
-        <v>5664.9375</v>
+        <v>6216.2437500000005</v>
       </c>
       <c r="Q62" s="63">
         <f>$F62*Outputs_Internal!K$64/12+N62*'MARA Prices'!$F$5</f>
-        <v>1784.1646551724136</v>
+        <v>1792.7179131355931</v>
       </c>
       <c r="R62" s="63">
         <f>$F62*Outputs_Internal!L$64/12+N62*'MARA Prices'!$F$6</f>
-        <v>3880.7728448275861</v>
+        <v>4423.5258368644072</v>
       </c>
       <c r="S62" s="63">
         <f>N62*'MARA Prices'!$F$4</f>
@@ -11822,15 +11822,15 @@
       </c>
       <c r="W62" s="63">
         <f t="shared" si="7"/>
-        <v>16994.8125</v>
+        <v>18648.731250000001</v>
       </c>
       <c r="X62" s="63">
         <f t="shared" si="8"/>
-        <v>5352.4939655172411</v>
+        <v>5378.1537394067791</v>
       </c>
       <c r="Y62" s="63">
         <f t="shared" si="9"/>
-        <v>11642.318534482758</v>
+        <v>13270.577510593223</v>
       </c>
       <c r="Z62" s="63">
         <f t="shared" si="10"/>
@@ -16896,7 +16896,7 @@
       </c>
       <c r="D74" s="84">
         <f>IF(Inputs!D13="Y", Prices!$C29, IF(Inputs!D13="Monthly", Prices!C29 * Prices!$L$30, 0))</f>
-        <v>0</v>
+        <v>11520</v>
       </c>
       <c r="E74" s="84">
         <f>IF(Inputs!E13="Y", Prices!$C29, IF(Inputs!E13="Monthly", Prices!D29 * Prices!$L$30, 0))</f>
@@ -17339,7 +17339,7 @@
       </c>
       <c r="K85" s="23">
         <f>IF(Inputs!$C$4="Yes", 0, D74+D85+$J85)</f>
-        <v>1.8000000000000004E-3</v>
+        <v>11520.0018</v>
       </c>
       <c r="L85" s="23">
         <f>IF(Inputs!$C$4="Yes", 0, E74+E85+$J85)</f>
@@ -17396,7 +17396,7 @@
       </c>
       <c r="K88" s="21">
         <f>IF(COUNTIF(K$77:K$85,"")&gt;2,"",IFERROR(RANK(K77,K$77:K$85),8))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L88" s="21">
         <f t="shared" ref="L88:O88" si="9">IF(COUNTIF(L$77:L$85,"")&gt;2,"",IFERROR(RANK(L77,L$77:L$85),8))</f>
@@ -17736,7 +17736,7 @@
       </c>
       <c r="D96" s="84">
         <f t="shared" ref="D96:H96" si="20">D74</f>
-        <v>0</v>
+        <v>11520</v>
       </c>
       <c r="E96" s="84">
         <f t="shared" si="20"/>
@@ -17756,7 +17756,7 @@
       </c>
       <c r="K96" s="21">
         <f t="shared" ref="K96:O96" si="21">IF(COUNTIF(K$77:K$85,"")&gt;2,"",IFERROR(RANK(K85,K$77:K$85),8))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L96" s="21">
         <f t="shared" si="21"/>
@@ -18014,7 +18014,7 @@
       </c>
       <c r="D110" s="1">
         <f>_xlfn.IFNA(SUM(INDEX(D$66:D$74, MATCH($A110, K$88:K$96, 0)), INDEX(D$77:D$85, MATCH($A110, K$88:K$96, 0)))*Prices!$L$5*-1, 0)</f>
-        <v>-3060</v>
+        <v>-3456</v>
       </c>
       <c r="E110" s="1">
         <f>_xlfn.IFNA(SUM(INDEX(E$66:E$74, MATCH($A110, L$88:L$96, 0)), INDEX(E$77:E$85, MATCH($A110, L$88:L$96, 0)))*Prices!$L$5*-1, 0)</f>
@@ -18042,7 +18042,7 @@
       </c>
       <c r="D111" s="1">
         <f>_xlfn.IFNA(SUM(INDEX(D$66:D$74, MATCH($A111, K$88:K$96, 0)), INDEX(D$77:D$85, MATCH($A111, K$88:K$96, 0)))*Prices!$L$6*-1, 0)</f>
-        <v>0</v>
+        <v>-4590</v>
       </c>
       <c r="E111" s="1">
         <f>_xlfn.IFNA(SUM(INDEX(E$66:E$74, MATCH($A111, L$88:L$96, 0)), INDEX(E$77:E$85, MATCH($A111, L$88:L$96, 0)))*Prices!$L$6*-1, 0)</f>
@@ -18207,7 +18207,7 @@
       </c>
       <c r="D118" s="7">
         <f>SUM(D40:D50, D53:D63, D66:D74, D77:D85, D110:D116)</f>
-        <v>67140</v>
+        <v>73674</v>
       </c>
       <c r="E118" s="7">
         <f>SUM(E40:E50, E53:E63, E66:E74, E77:E85, E110:E116)</f>
@@ -18288,7 +18288,7 @@
       </c>
       <c r="D124" s="7">
         <f>SUM(D118, D120,D122)</f>
-        <v>67140</v>
+        <v>73674</v>
       </c>
       <c r="E124" s="7">
         <f t="shared" ref="E124:H124" si="27">SUM(E118, E120,E122)</f>

--- a/0273NYP - New York Premier/Premier_Pricing_Model.xlsx
+++ b/0273NYP - New York Premier/Premier_Pricing_Model.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\PRM\NYMilliman_Share\Q32019_Recon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shea.parkes\repos\client-and-project-documentation\0273NYP - New York Premier\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="0" windowWidth="13680" windowHeight="13890" activeTab="3"/>
+    <workbookView xWindow="1395" yWindow="0" windowWidth="13680" windowHeight="13890"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="2" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="160">
   <si>
     <t>One-Time Fees:</t>
   </si>
@@ -194,9 +194,6 @@
   </si>
   <si>
     <t>PRM</t>
-  </si>
-  <si>
-    <t>Datamart Discounts</t>
   </si>
   <si>
     <t>Totals</t>
@@ -1325,7 +1322,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L31"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -1344,7 +1341,7 @@
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B1" s="90" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C1" s="69">
         <v>43466</v>
@@ -1352,7 +1349,7 @@
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="66" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" s="70">
         <v>36</v>
@@ -1360,23 +1357,23 @@
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="54" t="s">
         <v>122</v>
-      </c>
-      <c r="C3" s="54" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="66" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="66" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C5" s="54" t="s">
         <v>41</v>
@@ -1386,24 +1383,24 @@
       <c r="B6" s="67"/>
       <c r="C6" s="71"/>
       <c r="D6" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="F6" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="G6" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="H6" s="14" t="s">
         <v>108</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="68" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D7" s="69">
         <v>43101</v>
@@ -1434,7 +1431,7 @@
     </row>
     <row r="9" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="68" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D9" s="54" t="s">
         <v>28</v>
@@ -1465,7 +1462,7 @@
     </row>
     <row r="11" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="68" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D11" s="54" t="s">
         <v>28</v>
@@ -1492,12 +1489,12 @@
       <c r="G12" s="54"/>
       <c r="H12" s="55"/>
       <c r="L12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="68" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D13" s="54">
         <v>1</v>
@@ -1509,12 +1506,12 @@
       <c r="G13" s="54"/>
       <c r="H13" s="55"/>
       <c r="L13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="68" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D14" s="54" t="s">
         <v>3</v>
@@ -1610,7 +1607,7 @@
     </row>
     <row r="20" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="68" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D20" s="54" t="s">
         <v>28</v>
@@ -1622,7 +1619,7 @@
       <c r="G20" s="54"/>
       <c r="H20" s="55"/>
       <c r="L20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1641,7 +1638,7 @@
     </row>
     <row r="22" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="68" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D22" s="54" t="s">
         <v>28</v>
@@ -1653,7 +1650,7 @@
       <c r="G22" s="54"/>
       <c r="H22" s="55"/>
       <c r="L22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1670,7 +1667,7 @@
       <c r="G23" s="54"/>
       <c r="H23" s="55"/>
       <c r="L23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1717,7 +1714,7 @@
     </row>
     <row r="27" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="68" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D27" s="54" t="s">
         <v>28</v>
@@ -1745,7 +1742,7 @@
     </row>
     <row r="29" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="68" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D29" s="54" t="s">
         <v>3</v>
@@ -1759,7 +1756,7 @@
     </row>
     <row r="30" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="68" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D30" s="54" t="s">
         <v>28</v>
@@ -1773,7 +1770,7 @@
     </row>
     <row r="31" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="91" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C31" s="92"/>
       <c r="D31" s="93" t="s">
@@ -1838,19 +1835,19 @@
   <sheetData>
     <row r="2" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" t="s">
         <v>105</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>106</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>107</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>108</v>
-      </c>
-      <c r="H2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.25">
@@ -2124,7 +2121,7 @@
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C13" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D13" s="18">
         <f>SUM(Calcs!D48, Calcs!D61)</f>
@@ -2194,7 +2191,7 @@
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C15" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D15" s="20">
         <f>SUM(Calcs!D51, Calcs!D64)</f>
@@ -2374,7 +2371,7 @@
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D22" s="1">
         <f>SUM(Calcs!D71, Calcs!D82)</f>
@@ -2444,15 +2441,15 @@
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D24" s="1">
         <f>SUM(Calcs!D73, Calcs!D84)</f>
-        <v>23520</v>
+        <v>28224</v>
       </c>
       <c r="E24" s="1">
         <f>SUM(Calcs!E73, Calcs!E84)</f>
-        <v>33925.707900000001</v>
+        <v>40710.849479999997</v>
       </c>
       <c r="F24" s="1">
         <f>SUM(Calcs!F73, Calcs!F84)</f>
@@ -2479,7 +2476,7 @@
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D25" s="1">
         <f>SUM(Calcs!D74, Calcs!D85)</f>
@@ -2514,7 +2511,7 @@
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D26" s="1">
         <f>SUM(Calcs!D75, Calcs!D86)</f>
@@ -2549,7 +2546,7 @@
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D27" s="1">
         <f>SUM(Calcs!D76, Calcs!D87)</f>
@@ -2593,11 +2590,11 @@
       </c>
       <c r="D30" s="1">
         <f>SUM(Calcs!D112:D116)</f>
-        <v>-42768</v>
+        <v>-44884.800000000003</v>
       </c>
       <c r="E30" s="1">
         <f>SUM(Calcs!E112:E116)</f>
-        <v>-76887.915525000004</v>
+        <v>-79941.229235999999</v>
       </c>
       <c r="F30" s="1">
         <f>SUM(Calcs!F112:F116)</f>
@@ -2624,11 +2621,11 @@
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D31" s="1">
         <f>Calcs!D122</f>
-        <v>-56462.400000000001</v>
+        <v>-57626.640000000007</v>
       </c>
       <c r="E31" s="1">
         <f>Calcs!E122</f>
@@ -2659,7 +2656,7 @@
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D32" s="1">
         <f>Calcs!D124</f>
@@ -2694,11 +2691,11 @@
       </c>
       <c r="D34" s="7">
         <f>SUM(D7:D16, D19:D27, D30:D32)</f>
-        <v>69009.600000000006</v>
+        <v>70432.56</v>
       </c>
       <c r="E34" s="7">
         <f>SUM(E7:E16, E19:E27, E30:E31)</f>
-        <v>238361.35153499997</v>
+        <v>242093.17940399999</v>
       </c>
       <c r="F34" s="7">
         <f>SUM(F7:F16, F19:F27, F30:F31)</f>
@@ -2736,7 +2733,7 @@
     </row>
     <row r="36" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
@@ -2765,7 +2762,7 @@
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C39" s="63"/>
       <c r="D39" s="103"/>
@@ -2776,7 +2773,7 @@
     </row>
     <row r="40" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C40" s="63" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D40" s="1">
         <f>IF(Inputs!D$11 = "Y", SUMIF(Outputs_Timeline!$B$3:$B$204,"&lt;" &amp; EDATE(Inputs!$C$1,12), Outputs_Timeline!AD$3:AD$204), 0)</f>
@@ -2801,7 +2798,7 @@
     </row>
     <row r="41" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C41" s="63" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D41" s="1">
         <f>IF(Inputs!D$11 = "Y", SUM(Outputs_Timeline!AD$3:AD$204), 0)</f>
@@ -2826,15 +2823,15 @@
     </row>
     <row r="43" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B43" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D43" s="7">
         <f>(D34/12*Inputs!$C$2+D4)*$C$37+D41</f>
-        <v>212028.80000000002</v>
+        <v>216297.68</v>
       </c>
       <c r="E43" s="7">
         <f>(E34/12*Inputs!$C$2+E4)*$C$37+E41</f>
-        <v>735084.05460499984</v>
+        <v>746279.53821199993</v>
       </c>
       <c r="F43" s="7">
         <f>(F34/12*Inputs!$C$2+F4)*$C$37+F41</f>
@@ -2872,19 +2869,19 @@
     </row>
     <row r="46" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B46" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C47" s="7">
         <f>SUM(Outputs_Timeline!W:W)</f>
-        <v>947112.854605</v>
+        <v>962577.21821199975</v>
       </c>
     </row>
     <row r="48" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C48" s="51">
         <f>SUM(D43:H43)</f>
-        <v>947112.85460499988</v>
+        <v>962577.21821199986</v>
       </c>
       <c r="D48" s="1"/>
       <c r="G48" s="1"/>
@@ -2943,7 +2940,7 @@
   <sheetData>
     <row r="1" spans="2:17" x14ac:dyDescent="0.25">
       <c r="F1" s="49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G1" s="49"/>
       <c r="H1" s="49"/>
@@ -2951,7 +2948,7 @@
     </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D2" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>40</v>
@@ -2960,10 +2957,10 @@
         <v>41</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J2" s="109"/>
       <c r="K2" s="9" t="s">
@@ -2973,10 +2970,10 @@
         <v>41</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
@@ -2986,7 +2983,7 @@
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D4" s="1">
         <f>SUMIF(Inputs!$D$8:$H$8, "Y", Outputs_External!D4:'Outputs_External'!H4)</f>
@@ -3025,7 +3022,7 @@
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D5" s="1">
         <f>SUMIF(Inputs!$D$8:$H$8, "N", Outputs_External!D4:'Outputs_External'!H4)</f>
@@ -3076,7 +3073,7 @@
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D7" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="10"/>
@@ -3101,7 +3098,7 @@
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
@@ -3359,7 +3356,7 @@
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C16" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D16" s="18">
         <f>SUM(Calcs!D22:H22)</f>
@@ -3400,7 +3397,7 @@
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C17" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D17" s="18">
         <f>SUM(Calcs!D23:H23)</f>
@@ -3481,7 +3478,7 @@
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C19" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D19" s="20">
         <f>SUM(Calcs!D25:H25)</f>
@@ -3575,7 +3572,7 @@
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="E22" s="2"/>
       <c r="G22" s="47" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H22" s="98">
         <v>7.4999999999999997E-2</v>
@@ -3599,7 +3596,7 @@
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="11"/>
@@ -3877,7 +3874,7 @@
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C31" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D31" s="18">
         <f>SUM(Calcs!D35:H35)</f>
@@ -3921,7 +3918,7 @@
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C32" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D32" s="18">
         <f>SUM(Calcs!D36:H36)</f>
@@ -4009,7 +4006,7 @@
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C34" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D34" s="20">
         <f>SUM(Calcs!D38:H38)</f>
@@ -4108,7 +4105,7 @@
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="11"/>
@@ -4245,7 +4242,7 @@
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C41" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D41" s="20">
         <f>SUM(Calcs!D93:H93)</f>
@@ -4326,11 +4323,11 @@
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C43" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D43" s="20">
         <f>SUM(Calcs!D95:H95)</f>
-        <v>47334</v>
+        <v>56800.800000000003</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="33">
@@ -4349,11 +4346,11 @@
       <c r="J43" s="3"/>
       <c r="K43" s="20">
         <f t="shared" ref="K43:K45" si="35">F43*$D43</f>
-        <v>4733.4000000000005</v>
+        <v>5680.0800000000008</v>
       </c>
       <c r="L43" s="20">
         <f t="shared" ref="L43:L45" si="36">G43*$D43</f>
-        <v>42600.6</v>
+        <v>51120.72</v>
       </c>
       <c r="M43" s="20">
         <f t="shared" ref="M43:M45" si="37">H43*$D43</f>
@@ -4367,7 +4364,7 @@
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C44" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D44" s="20">
         <f>SUM(Calcs!D96:H96)</f>
@@ -4408,7 +4405,7 @@
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C45" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D45" s="20">
         <f>SUM(Calcs!D97:H97)</f>
@@ -4449,7 +4446,7 @@
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C46" s="80" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D46" s="83">
         <f>SUM(Calcs!D98:H98)</f>
@@ -4495,7 +4492,7 @@
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
@@ -4634,7 +4631,7 @@
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C52" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D52" s="20">
         <f>SUM(Calcs!D104:H104)</f>
@@ -4718,11 +4715,11 @@
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C54" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D54" s="20">
         <f>SUM(Calcs!D106:H106)</f>
-        <v>10111.707899999999</v>
+        <v>12134.049479999996</v>
       </c>
       <c r="F54" s="31">
         <f t="shared" si="46"/>
@@ -4742,11 +4739,11 @@
       <c r="J54" s="3"/>
       <c r="K54" s="20">
         <f t="shared" ref="K54:K56" si="54">F54*$D54</f>
-        <v>252.7926975000002</v>
+        <v>303.3512370000002</v>
       </c>
       <c r="L54" s="20">
         <f t="shared" ref="L54:L56" si="55">G54*$D54</f>
-        <v>9858.9152024999985</v>
+        <v>11830.698242999995</v>
       </c>
       <c r="M54" s="20">
         <f t="shared" ref="M54:M56" si="56">H54*$D54</f>
@@ -4760,7 +4757,7 @@
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C55" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D55" s="20">
         <f>SUM(Calcs!D107:H107)</f>
@@ -4802,7 +4799,7 @@
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C56" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D56" s="20">
         <f>SUM(Calcs!D108:H108)</f>
@@ -4844,7 +4841,7 @@
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C57" s="80" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D57" s="83">
         <f>SUM(Calcs!D109:H109)</f>
@@ -4905,16 +4902,16 @@
       </c>
       <c r="D60" s="2">
         <f>SUM(Outputs_External!D30:'Outputs_External'!H30)</f>
-        <v>-119655.915525</v>
+        <v>-124826.029236</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="8">
         <f>IFERROR(SUM(K74:K82)/SUM($K$74:$N$82), 0)</f>
-        <v>0.2333898119485166</v>
+        <v>0.22938411257884686</v>
       </c>
       <c r="G60" s="8">
         <f t="shared" ref="G60:I60" si="72">IFERROR(SUM(L74:L82)/SUM($K$74:$N$82), 0)</f>
-        <v>0.76339398171803019</v>
+        <v>0.7674875658496656</v>
       </c>
       <c r="H60" s="8">
         <f t="shared" si="72"/>
@@ -4922,16 +4919,16 @@
       </c>
       <c r="I60" s="8">
         <f t="shared" si="72"/>
-        <v>3.2162063334532707E-3</v>
+        <v>3.1283215714875668E-3</v>
       </c>
       <c r="J60" s="3"/>
       <c r="K60" s="12">
         <f>F60*$D$60</f>
-        <v>-27926.471622907338</v>
+        <v>-28633.107943041054</v>
       </c>
       <c r="L60" s="12">
         <f>G60*$D$60</f>
-        <v>-91344.605788746019</v>
+        <v>-95802.425333016829</v>
       </c>
       <c r="M60" s="12">
         <f>H60*$D$60</f>
@@ -4939,25 +4936,25 @@
       </c>
       <c r="N60" s="12">
         <f>I60*$D$60</f>
-        <v>-384.83811334665455</v>
+        <v>-390.49595994211649</v>
       </c>
       <c r="O60" s="1"/>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D61" s="2">
         <f>SUM(Outputs_External!D31:'Outputs_External'!H31)</f>
-        <v>-56462.400000000001</v>
+        <v>-57626.640000000007</v>
       </c>
       <c r="F61" s="3">
         <f>IFERROR(SUM(K10:K60)/SUM($K10:$N60), 0)</f>
-        <v>0.26275266295580363</v>
+        <v>0.25905218915982015</v>
       </c>
       <c r="G61" s="3">
         <f>IFERROR(SUM(L10:L60)/SUM($K10:$N60), 0)</f>
-        <v>0.73468991500368186</v>
+        <v>0.73844933281557934</v>
       </c>
       <c r="H61" s="3">
         <f>IFERROR(SUM(M10:M60)/SUM($K10:$N60), 0)</f>
@@ -4965,16 +4962,16 @@
       </c>
       <c r="I61" s="3">
         <f>1-F61-G61-H61</f>
-        <v>2.5574220405144565E-3</v>
+        <v>2.49847802460057E-3</v>
       </c>
       <c r="J61" s="3"/>
       <c r="K61" s="12">
         <f>F61*$D$61</f>
-        <v>-14835.645956875767</v>
+        <v>-14928.30724592486</v>
       </c>
       <c r="L61" s="12">
         <f>G61*$D$61</f>
-        <v>-41482.355856903887</v>
+        <v>-42554.353860403578</v>
       </c>
       <c r="M61" s="12">
         <f>H61*$D$61</f>
@@ -4982,13 +4979,13 @@
       </c>
       <c r="N61" s="12">
         <f>I61*$D$61</f>
-        <v>-144.39818622034346</v>
+        <v>-143.97889367156822</v>
       </c>
       <c r="O61" s="1"/>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D62" s="1">
         <f>Outputs_External!D32</f>
@@ -5037,15 +5034,15 @@
       </c>
       <c r="D64" s="2">
         <f>SUM(Outputs_External!D34:'Outputs_External'!H34)</f>
-        <v>307370.951535</v>
+        <v>312525.73940399999</v>
       </c>
       <c r="K64" s="12">
         <f>SUM(K60:K62, K38:K46, K10:K20,K25:K35,K49:K57)</f>
-        <v>80762.536031080555</v>
+        <v>80960.476961397741</v>
       </c>
       <c r="L64" s="12">
         <f>SUM(L60:L62, L38:L46, L10:L20,L25:L35,L49:L57)</f>
-        <v>225822.33825785012</v>
+        <v>230784.42375057965</v>
       </c>
       <c r="M64" s="12">
         <f>SUM(M60:M62, M38:M46, M10:M20,M25:M35,M49:M57)</f>
@@ -5053,17 +5050,17 @@
       </c>
       <c r="N64" s="12">
         <f>SUM(N60:N62, N38:N46, N10:N20,N25:N35,N49:N57)</f>
-        <v>786.07724606936563</v>
+        <v>780.83869202267897</v>
       </c>
       <c r="O64" s="1"/>
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C65" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D65" s="23">
         <f>SUM(K64:N64)</f>
-        <v>307370.95153500006</v>
+        <v>312525.73940400005</v>
       </c>
       <c r="E65" s="2"/>
       <c r="K65" s="12"/>
@@ -5081,7 +5078,7 @@
     </row>
     <row r="67" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B67" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C67" s="21"/>
       <c r="D67" s="1">
@@ -5129,19 +5126,19 @@
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B69" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D69" s="7">
         <f>SUM(Outputs_Timeline!W:W)</f>
-        <v>947112.854605</v>
+        <v>962577.21821199975</v>
       </c>
       <c r="K69" s="12">
         <f>SUM(Outputs_Timeline!X:X)</f>
-        <v>246787.60809324161</v>
+        <v>247381.43088419328</v>
       </c>
       <c r="L69" s="12">
         <f>SUM(Outputs_Timeline!Y:Y)</f>
-        <v>697967.01477355044</v>
+        <v>712853.271251739</v>
       </c>
       <c r="M69" s="12">
         <f>SUM(Outputs_Timeline!Z:Z)</f>
@@ -5149,7 +5146,7 @@
       </c>
       <c r="N69" s="12">
         <f>SUM(Outputs_Timeline!AA:AA)</f>
-        <v>2358.2317382080973</v>
+        <v>2342.5160760680365</v>
       </c>
       <c r="O69" s="1"/>
     </row>
@@ -5157,11 +5154,11 @@
       <c r="D70" s="1"/>
       <c r="K70" s="52">
         <f>IFERROR(K69/$D$69, 0)</f>
-        <v>0.2605683228702097</v>
+        <v>0.25699905026186642</v>
       </c>
       <c r="L70" s="52">
         <f>IFERROR(L69/$D$69, 0)</f>
-        <v>0.7369417608260026</v>
+        <v>0.74056736204070317</v>
       </c>
       <c r="M70" s="52">
         <f>IFERROR(M69/$D$69, 0)</f>
@@ -5169,7 +5166,7 @@
       </c>
       <c r="N70" s="52">
         <f>IFERROR(N69/$D$69, 0)</f>
-        <v>2.4899163037879093E-3</v>
+        <v>2.4335876974309572E-3</v>
       </c>
     </row>
     <row r="72" spans="2:15" x14ac:dyDescent="0.25">
@@ -5179,7 +5176,7 @@
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B73" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C73" s="21"/>
       <c r="D73" s="21"/>
@@ -5328,7 +5325,7 @@
     <row r="77" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B77" s="27"/>
       <c r="C77" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D77" s="23">
         <f>SUM(Calcs!D71:H71)+SUM(Calcs!D82:H82)</f>
@@ -5416,11 +5413,11 @@
     <row r="79" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B79" s="27"/>
       <c r="C79" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D79" s="23">
         <f>SUM(Calcs!D73:H73)+SUM(Calcs!D84:H84)</f>
-        <v>57445.707900000001</v>
+        <v>68934.849480000004</v>
       </c>
       <c r="E79" s="21"/>
       <c r="F79" s="24">
@@ -5429,7 +5426,7 @@
       </c>
       <c r="G79" s="24">
         <f t="shared" si="79"/>
-        <v>0.91320164935246617</v>
+        <v>0.91320164935246606</v>
       </c>
       <c r="H79" s="24">
         <f t="shared" si="79"/>
@@ -5442,11 +5439,11 @@
       <c r="J79" s="97"/>
       <c r="K79" s="25">
         <f t="shared" ref="K79:K81" si="84">F79*$D79</f>
-        <v>4986.1926975000006</v>
+        <v>5983.4312370000007</v>
       </c>
       <c r="L79" s="25">
         <f t="shared" ref="L79:L81" si="85">G79*$D79</f>
-        <v>52459.515202499999</v>
+        <v>62951.418242999993</v>
       </c>
       <c r="M79" s="25">
         <f t="shared" ref="M79:M81" si="86">H79*$D79</f>
@@ -5460,7 +5457,7 @@
     <row r="80" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B80" s="27"/>
       <c r="C80" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D80" s="23">
         <f>SUM(Calcs!D74:H74)+SUM(Calcs!D85:H85)</f>
@@ -5504,7 +5501,7 @@
     <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="27"/>
       <c r="C81" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D81" s="23">
         <f>SUM(Calcs!D75:H75)+SUM(Calcs!D86:H86)</f>
@@ -5548,7 +5545,7 @@
     <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="27"/>
       <c r="C82" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D82" s="23">
         <f>IF(Inputs!$C$4 = "Yes", 0, SUM(Calcs!D76:H76)+SUM(Calcs!D87:H87))</f>
@@ -5599,7 +5596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AH94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -5636,7 +5633,7 @@
       </c>
       <c r="G1" s="64"/>
       <c r="I1" s="60" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J1" s="60"/>
       <c r="K1" s="60"/>
@@ -5644,7 +5641,7 @@
       <c r="M1" s="60"/>
       <c r="N1" s="60"/>
       <c r="P1" s="60" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q1" s="60"/>
       <c r="R1" s="60"/>
@@ -5652,13 +5649,13 @@
       <c r="T1" s="60"/>
       <c r="U1" s="60"/>
       <c r="W1" s="60" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="X1" s="60"/>
       <c r="Y1" s="60"/>
       <c r="Z1" s="60"/>
       <c r="AD1" s="60" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AE1" s="60"/>
       <c r="AF1" s="106"/>
@@ -5667,85 +5664,85 @@
     </row>
     <row r="2" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B2" s="58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" s="58"/>
       <c r="D2" s="58" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E2" s="58" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F2" s="58" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G2" s="58" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H2" s="58"/>
       <c r="I2" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" s="61" t="s">
         <v>63</v>
-      </c>
-      <c r="J2" s="61" t="s">
-        <v>64</v>
       </c>
       <c r="K2" s="61" t="s">
         <v>41</v>
       </c>
       <c r="L2" s="61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M2" s="61"/>
       <c r="N2" s="104" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P2" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q2" s="61" t="s">
         <v>63</v>
-      </c>
-      <c r="Q2" s="61" t="s">
-        <v>64</v>
       </c>
       <c r="R2" s="61" t="s">
         <v>41</v>
       </c>
       <c r="S2" s="61" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T2" s="61" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U2" s="61" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W2" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="X2" s="61" t="s">
         <v>63</v>
-      </c>
-      <c r="X2" s="61" t="s">
-        <v>64</v>
       </c>
       <c r="Y2" s="61" t="s">
         <v>41</v>
       </c>
       <c r="Z2" s="61" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AA2" s="61" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AD2" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE2" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="AE2" s="61" t="s">
+      <c r="AF2" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="AF2" s="61" t="s">
+      <c r="AG2" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="AG2" s="61" t="s">
+      <c r="AH2" s="61" t="s">
         <v>108</v>
-      </c>
-      <c r="AH2" s="61" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="3" spans="2:34" x14ac:dyDescent="0.25">
@@ -7623,15 +7620,15 @@
       </c>
       <c r="P21" s="62">
         <f>$F21*Outputs_Internal!$D$64/12+N21</f>
-        <v>25614.245961249999</v>
+        <v>26043.811616999999</v>
       </c>
       <c r="Q21" s="62">
         <f>$F21*Outputs_Internal!K$64/12+N21*'MARA Prices'!$F$5</f>
-        <v>6730.2113359233799</v>
+        <v>6746.7064134498114</v>
       </c>
       <c r="R21" s="62">
         <f>$F21*Outputs_Internal!L$64/12+N21*'MARA Prices'!$F$6</f>
-        <v>18818.528188154178</v>
+        <v>19232.035312548305</v>
       </c>
       <c r="S21" s="62">
         <f>N21*'MARA Prices'!$F$4</f>
@@ -7643,7 +7640,7 @@
       </c>
       <c r="U21" s="62">
         <f>$F21*Outputs_Internal!N$64/12</f>
-        <v>65.506437172447136</v>
+        <v>65.069891001889914</v>
       </c>
       <c r="W21" s="62">
         <f t="shared" si="2"/>
@@ -7727,15 +7724,15 @@
       </c>
       <c r="P22" s="62">
         <f>$F22*Outputs_Internal!$D$64/12+N22</f>
-        <v>25614.245961249999</v>
+        <v>26043.811616999999</v>
       </c>
       <c r="Q22" s="62">
         <f>$F22*Outputs_Internal!K$64/12+N22*'MARA Prices'!$F$5</f>
-        <v>6730.2113359233799</v>
+        <v>6746.7064134498114</v>
       </c>
       <c r="R22" s="62">
         <f>$F22*Outputs_Internal!L$64/12+N22*'MARA Prices'!$F$6</f>
-        <v>18818.528188154178</v>
+        <v>19232.035312548305</v>
       </c>
       <c r="S22" s="62">
         <f>N22*'MARA Prices'!$F$4</f>
@@ -7747,7 +7744,7 @@
       </c>
       <c r="U22" s="62">
         <f>$F22*Outputs_Internal!N$64/12</f>
-        <v>65.506437172447136</v>
+        <v>65.069891001889914</v>
       </c>
       <c r="W22" s="62">
         <f t="shared" si="2"/>
@@ -7831,15 +7828,15 @@
       </c>
       <c r="P23" s="62">
         <f>$F23*Outputs_Internal!$D$64/12+N23</f>
-        <v>25614.245961249999</v>
+        <v>26043.811616999999</v>
       </c>
       <c r="Q23" s="62">
         <f>$F23*Outputs_Internal!K$64/12+N23*'MARA Prices'!$F$5</f>
-        <v>6730.2113359233799</v>
+        <v>6746.7064134498114</v>
       </c>
       <c r="R23" s="62">
         <f>$F23*Outputs_Internal!L$64/12+N23*'MARA Prices'!$F$6</f>
-        <v>18818.528188154178</v>
+        <v>19232.035312548305</v>
       </c>
       <c r="S23" s="62">
         <f>N23*'MARA Prices'!$F$4</f>
@@ -7851,19 +7848,19 @@
       </c>
       <c r="U23" s="62">
         <f>$F23*Outputs_Internal!N$64/12</f>
-        <v>65.506437172447136</v>
+        <v>65.069891001889914</v>
       </c>
       <c r="W23" s="62">
         <f t="shared" si="2"/>
-        <v>101842.73788374999</v>
+        <v>103131.434851</v>
       </c>
       <c r="X23" s="62">
         <f t="shared" si="3"/>
-        <v>24690.634007770142</v>
+        <v>24740.119240349431</v>
       </c>
       <c r="Y23" s="62">
         <f t="shared" si="4"/>
-        <v>76955.584564462522</v>
+        <v>78196.105937644927</v>
       </c>
       <c r="Z23" s="62">
         <f t="shared" si="5"/>
@@ -7871,7 +7868,7 @@
       </c>
       <c r="AA23" s="62">
         <f t="shared" si="6"/>
-        <v>196.51931151734141</v>
+        <v>195.20967300566974</v>
       </c>
       <c r="AD23" s="62">
         <f>'MARA Prices'!H$21*$G23</f>
@@ -7935,15 +7932,15 @@
       </c>
       <c r="P24" s="62">
         <f>$F24*Outputs_Internal!$D$64/12+N24</f>
-        <v>25614.245961249999</v>
+        <v>26043.811616999999</v>
       </c>
       <c r="Q24" s="62">
         <f>$F24*Outputs_Internal!K$64/12+N24*'MARA Prices'!$F$5</f>
-        <v>6730.2113359233799</v>
+        <v>6746.7064134498114</v>
       </c>
       <c r="R24" s="62">
         <f>$F24*Outputs_Internal!L$64/12+N24*'MARA Prices'!$F$6</f>
-        <v>18818.528188154178</v>
+        <v>19232.035312548305</v>
       </c>
       <c r="S24" s="62">
         <f>N24*'MARA Prices'!$F$4</f>
@@ -7955,7 +7952,7 @@
       </c>
       <c r="U24" s="62">
         <f>$F24*Outputs_Internal!N$64/12</f>
-        <v>65.506437172447136</v>
+        <v>65.069891001889914</v>
       </c>
       <c r="W24" s="62">
         <f t="shared" si="2"/>
@@ -8039,15 +8036,15 @@
       </c>
       <c r="P25" s="62">
         <f>$F25*Outputs_Internal!$D$64/12+N25</f>
-        <v>25614.245961249999</v>
+        <v>26043.811616999999</v>
       </c>
       <c r="Q25" s="62">
         <f>$F25*Outputs_Internal!K$64/12+N25*'MARA Prices'!$F$5</f>
-        <v>6730.2113359233799</v>
+        <v>6746.7064134498114</v>
       </c>
       <c r="R25" s="62">
         <f>$F25*Outputs_Internal!L$64/12+N25*'MARA Prices'!$F$6</f>
-        <v>18818.528188154178</v>
+        <v>19232.035312548305</v>
       </c>
       <c r="S25" s="62">
         <f>N25*'MARA Prices'!$F$4</f>
@@ -8059,7 +8056,7 @@
       </c>
       <c r="U25" s="62">
         <f>$F25*Outputs_Internal!N$64/12</f>
-        <v>65.506437172447136</v>
+        <v>65.069891001889914</v>
       </c>
       <c r="W25" s="62">
         <f t="shared" si="2"/>
@@ -8143,15 +8140,15 @@
       </c>
       <c r="P26" s="62">
         <f>$F26*Outputs_Internal!$D$64/12+N26</f>
-        <v>25614.245961249999</v>
+        <v>26043.811616999999</v>
       </c>
       <c r="Q26" s="62">
         <f>$F26*Outputs_Internal!K$64/12+N26*'MARA Prices'!$F$5</f>
-        <v>6730.2113359233799</v>
+        <v>6746.7064134498114</v>
       </c>
       <c r="R26" s="62">
         <f>$F26*Outputs_Internal!L$64/12+N26*'MARA Prices'!$F$6</f>
-        <v>18818.528188154178</v>
+        <v>19232.035312548305</v>
       </c>
       <c r="S26" s="62">
         <f>N26*'MARA Prices'!$F$4</f>
@@ -8163,19 +8160,19 @@
       </c>
       <c r="U26" s="62">
         <f>$F26*Outputs_Internal!N$64/12</f>
-        <v>65.506437172447136</v>
+        <v>65.069891001889914</v>
       </c>
       <c r="W26" s="62">
         <f t="shared" si="2"/>
-        <v>76842.73788375</v>
+        <v>78131.434850999998</v>
       </c>
       <c r="X26" s="62">
         <f t="shared" si="3"/>
-        <v>20190.634007770139</v>
+        <v>20240.119240349435</v>
       </c>
       <c r="Y26" s="62">
         <f t="shared" si="4"/>
-        <v>56455.584564462537</v>
+        <v>57696.105937644912</v>
       </c>
       <c r="Z26" s="62">
         <f t="shared" si="5"/>
@@ -8183,7 +8180,7 @@
       </c>
       <c r="AA26" s="62">
         <f t="shared" si="6"/>
-        <v>196.